--- a/data/suppl_data.xlsx
+++ b/data/suppl_data.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35420" windowHeight="21020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35420" windowHeight="21020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="genomes" sheetId="1" r:id="rId1"/>
-    <sheet name="reference_queries" sheetId="2" r:id="rId2"/>
+    <sheet name="fs-chlD" sheetId="3" r:id="rId2"/>
+    <sheet name="reference_queries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="suppl_data_fs_chlD" localSheetId="1">'fs-chlD'!$A$1:$J$170</definedName>
     <definedName name="suppl_data_orgs" localSheetId="0">genomes!$A$1:$L$1208</definedName>
     <definedName name="suppl_data_orgs_1" localSheetId="0">genomes!#REF!</definedName>
     <definedName name="suppl_data_orgs_2" localSheetId="0">genomes!#REF!</definedName>
@@ -31,7 +33,23 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="suppl_data_orgs" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="1" name="suppl_data_fs_chlD" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/antonov/2019/2019/Baranov/Manuscripts/chelatase/github/data/suppl_data_fs_chlD.txt">
+      <textFields count="10">
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField/>
+        <textField type="text"/>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="suppl_data_orgs" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/antonov/2019/2019/Baranov/Manuscripts/chelatase/github/data/suppl_data_orgs.txt">
       <textFields count="6">
         <textField type="text"/>
@@ -43,7 +61,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="suppl_data_orgs1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="3" name="suppl_data_orgs1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/antonov/2019/2019/Baranov/Manuscripts/chelatase/github/data/suppl_data_orgs.txt">
       <textFields count="12">
         <textField type="text"/>
@@ -61,7 +79,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="suppl_data_orgs2" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="4" name="suppl_data_orgs2" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/antonov/2019/2019/Baranov/Manuscripts/chelatase/github/data/suppl_data_orgs.txt">
       <textFields count="12">
         <textField type="text"/>
@@ -79,7 +97,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="suppl_data_orgs3" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="5" name="suppl_data_orgs3" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/antonov/2019/2019/Baranov/Manuscripts/chelatase/github/data/suppl_data_orgs.txt">
       <textFields count="12">
         <textField type="text"/>
@@ -97,7 +115,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="suppl_data_orgs4" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="6" name="suppl_data_orgs4" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/antonov/2019/2019/Baranov/Manuscripts/chelatase/github/data/suppl_data_orgs.txt">
       <textFields count="12">
         <textField type="text"/>
@@ -119,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13922" uniqueCount="5335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14946" uniqueCount="5883">
   <si>
     <t>kingdom</t>
   </si>
@@ -16124,13 +16142,1657 @@
   </si>
   <si>
     <t>2xcobN, cobT, cobS, fs-chlD</t>
+  </si>
+  <si>
+    <t>seq_id</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>strand</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>descr</t>
+  </si>
+  <si>
+    <t>fs_len</t>
+  </si>
+  <si>
+    <t>long_product</t>
+  </si>
+  <si>
+    <t>short_product</t>
+  </si>
+  <si>
+    <t>NC_013887.1</t>
+  </si>
+  <si>
+    <t>magnesium chelatase | VWA domain-containing protein</t>
+  </si>
+  <si>
+    <t>MQYIYPFTAIVGQEKMKKALILNAINPKIGGVLIRGEKGTAKSTAVRALADLLPEIEVVEGCPFNCDPNGELCDICKEKKERGELKVTKKKMKVVNLPIGATEDRVIGTLDIEKAIKEGIKALEPGILAEANRNILYIDEVNLLDDHIIDVLLDVAAMGWNIIEREGVKIKHPSRFILVGTMNPEEGELRPQILDRFGLMVDVEGLNDVKDRVEVIKRVEEFNNNPEEFYKKFEEEQKKLREKIIKAREILNKVEISDELLEFISKVCIELGIQTNRADITVVRTAKALAAYNGRTYVTIDDVKEAMELALPHRMRRKPFEPPQLNKEKLEQMINEFKQQKNNNEEEKEEQKNDDRKKKHDEIRNEFEEENEDSNNQNNNNNSNNQNEDTPGDFERTFGIDESFKVNPKLIQFKLKDNIHRYGSGRHIKSYSKRGRYVKFKLPKDKTSDIAFDATFRRAAIHQKRRREKSNKKLAIYLEKEDIVEKVRQRKISSHILFVVDVSGSMGAMRRMEAAKGAIISLLLDAYQKRNKIGMIAFRKDRAELILPFTSSVELGEKLLKDLPTGGKTPLADAFIKSYEVFDRELRKNPNIIPIMIVISDFKPNVAVKGDYVKEVFDACEKIAEKCINVILIDTEPQSFIKIGIGREIANRFGFKYYKIEELSEEKILDICKSLEINF</t>
+  </si>
+  <si>
+    <t>MQYIYPFTAIVGQEKMKKALILNAINPKIGGVLIRGEKGTAKSTAVRALADLLPEIEVVEGCPFNCDPNGELCDICKEKKERGELKVTKKKMKVVNLPIGATEDRVIGTLDIEKAIKEGIKALEPGILAEANRNILYIDEVNLLDDHIIDVLLDVAAMGWNIIEREGVKIKHPSRFILVGTMNPEEGELRPQILDRFGLMVDVEGLNDVKDRVEVIKRVEEFNNNPEEFYKKFEEEQKKLREKIIKAREILNKVEISDELLEFISKVCIELGIQTNRADITVVRTAKALAAYNGRTYVTIDDVKEAMELALPHRMRRKPFEPPQLNKEKLEQMINEFKQQKNNNEEEKEEQKNDDVKKNMMK</t>
+  </si>
+  <si>
+    <t>NC_013156.1</t>
+  </si>
+  <si>
+    <t>MQYIYPFTAIVGQEKMKKALILNAINPKIGGVLIRGEKGTAKSTAVRALADLLPEIEVVEGCSFNCDPNGELCDICKEKKDKGGLKITKKKMKVVNLPIGATEDRVIGTLDIEKAIKEGIKALEPGILAEANRNILYIDEVNLLDDHIVDVLLDAAAMGWNIIEREGVKIKHPSRFILVGTMNPEEGELRPQILDRFGLMVDVEGLTDIKDRVEVIKRVEEFNNNPEEFYKKFEEEQNKLREKIIKAREILKDVEISDELLEFISKVCIELGIQTNRADITVVRTAKALAAYNGRTKVTLDDVKEAMELALPHRMRRKPFEPPQLNKEKLEQMINEFEQQINKNEEEKEKEEKKENNDVKKKTRINLNNESNNNENNNPNNEHENNNQNQDENTGDFEQTFGIDESVKVNPKLIQFKIKDNIHRYSSGRHIKSYSMRGRYIKFKPANDKIVDIAFDATFRRAAIHQKKRREKANKKLAIYLEREDIVEKVRQRKISSHILFVVDASGSMGAMKRMEAAKGAIISLLLDAYQKRNKIGMIAFRKDRAELILPFTSSVELGEKLLKDLPTGGKTPLADAFIKSYEVFDREIRKNPNIIPIMIVISDFKPNVAVKGDYIKEVFDACEKIVEKGINVVLIDTEPQSFIKIGIGKEIADRFGFKYYKIEELSKDKLLDICKGFVEY</t>
+  </si>
+  <si>
+    <t>MQYIYPFTAIVGQEKMKKALILNAINPKIGGVLIRGEKGTAKSTAVRALADLLPEIEVVEGCSFNCDPNGELCDICKEKKDKGGLKITKKKMKVVNLPIGATEDRVIGTLDIEKAIKEGIKALEPGILAEANRNILYIDEVNLLDDHIVDVLLDAAAMGWNIIEREGVKIKHPSRFILVGTMNPEEGELRPQILDRFGLMVDVEGLTDIKDRVEVIKRVEEFNNNPEEFYKKFEEEQNKLREKIIKAREILKDVEISDELLEFISKVCIELGIQTNRADITVVRTAKALAAYNGRTKVTLDDVKEAMELALPHRMRRKPFEPPQLNKEKLEQMINEFEQQINKNEEEKEKEEKKENNDVKKKTRIN</t>
+  </si>
+  <si>
+    <t>NC_010002.1</t>
+  </si>
+  <si>
+    <t>MTASPDLGSGAQPALPPLFPFAAIAGQPLLCQALLLAAIDPQLGGVLIEGPRGTAKSTAARALAELIDAAPFVTLPLGASLEHLAGSLDLGQAMAGHALKFAPGLLARAHGGVLYVDEINLLPDALVDVLLDAAASGVNVVERDGISHRHAARFVLVGTMNPEEGQLRPQLLDRLGLCVRLANVQDPAQRQAIVRARLLFDADPAAFRARHADAQAALAAQLRTARERLQPAGALPWSDAVLQAAGALCIAAQVDGLRADLVLLRAARAWAAWLGDAEVTPEHVQAVAELVLVHRRKPGAPQPQPQSQPQPQQPSPQQAPSNPPSKSPAQSRPPAESTANGAGDSPPSEADWGAMPPEPVGLLRVAVPSLLAREAAKVGAPRHKKSLSPRGPAPQARAAGAGQQATGQPRLAQAQGGQTTGSWDWPRTLAARGAQALAPEHLQRRREPPQATRLHCFVLDCSASMAGSGALARAKGVLLSLMEEAYRRREQVALICFAGTRVELSLPPRKAAAWNDDWIAPIGGGGGTPLQAAVEQAGQLLQRHCGADASCQGWLWLLTDGRTRERPARPAAAQEAGIVDFESGRVRLGRAAALAAAWDARHVRADDFAG</t>
+  </si>
+  <si>
+    <t>MTASPDLGSGAQPALPPLFPFAAIAGQPLLCQALLLAAIDPQLGGVLIEGPRGTAKSTAARALAELIDAAPFVTLPLGASLEHLAGSLDLGQAMAGHALKFAPGLLARAHGGVLYVDEINLLPDALVDVLLDAAASGVNVVERDGISHRHAARFVLVGTMNPEEGQLRPQLLDRLGLCVRLANVQDPAQRQAIVRARLLFDADPAAFRARHADAQAALAAQLRTARERLQPAGALPWSDAVLQAAGALCIAAQVDGLRADLVLLRAARAWAAWLGDAEVTPEHVQAVAELVLVHRRKPGAPQPQPQSQPQPQQPSPQQAPSNPPSKSPAQSRPPAESTANGAGDSPPSEADWGAMPPEPVGLLRVAVPSLLAREAAKVGAPATKKA</t>
+  </si>
+  <si>
+    <t>NC_014222.1</t>
+  </si>
+  <si>
+    <t>MAKNFHFPFTAIEGQEEMKKALLLNAINPSIGGVLIRGEKGTAKSTTVRSLTDILPQIEVMDSCLFNCDPKGNMCDECLSKNKPYKTVFKEMKVVTLPIGSTEDRVIGTIDIEKAIKEGIKSLDKGILADANRNILYLDEVNLLDDHIVDILLDAAAMGWNTIEREGINIRHPSKFILVGTMNPEEGELRPQILDRFGLMVNVDGLMDVKKRVNVIKKVEEFNLNPEIVLEEYSIEQNVLMEQISNARKILPTVKIENDLLEFISQICIEMNIPTNRADITVARTAKTIAALNQRDYVVIDDIKEACELALPHRMRRKPFDPPTLNNEKLEQFFDEFENENDNNDNDNNNEDDSKNLDEPETEENDSESDEDNNTENDNNNENLEEENTYEIPQNQDIEENNENDNEDDNENNSEDNKDKNNQNTKNNDFEEQFGVSGKINPKILDIKLNDRIERYSSGKRVSSYSSKGSYVKYKSNSNNDIAFDATIKASAPFQKFRRENSNKNLSLYIESEDMKYKVKKKNISTHIMFGVDASGSMGVLKRMEASKGAVVSLLMDAYQNRDKVSMVAFRKDKAELVVPFTSSVELAEANLVGLKTGGRTPLYDAFTKAYETFEIEMRKNPNMIPILVMISDFKPNVNINKNYFVEICEIVEKLLEKNIRTIFIDTEKKSFVKIGIGENIAKKYGIDYYNIDNLTDDDILNTISSVN</t>
+  </si>
+  <si>
+    <t>MAKNFHFPFTAIEGQEEMKKALLLNAINPSIGGVLIRGEKGTAKSTTVRSLTDILPQIEVMDSCLFNCDPKGNMCDECLSKNKPYKTVFKEMKVVTLPIGSTEDRVIGTIDIEKAIKEGIKSLDKGILADANRNILYLDEVNLLDDHIVDILLDAAAMGWNTIEREGINIRHPSKFILVGTMNPEEGELRPQILDRFGLMVNVDGLMDVKKRVNVIKKVEEFNLNPEIVLEEYSIEQNVLMEQISNARKILPTVKIENDLLEFISQICIEMNIPTNRADITVARTAKTIAALNQRDYVVIDDIKEACELALPHRMRRKPFDPPTLNNEKLEQFFDEFENENDNNDNDNNNEDDSKN</t>
+  </si>
+  <si>
+    <t>NC_002516.2</t>
+  </si>
+  <si>
+    <t>magnesium chelatase | hypothetical protein</t>
+  </si>
+  <si>
+    <t>MSATVHYPLSAVVAADELKLALCLAAVDPAIGGVLIEGPRGMAKSTLARGVAELLPAGEFVTLPLGASEERIVGSLDLDAALGEGRARFSPGVLAKADGGVLYVDEVNLLPDHLVDLLLDVAASGVNLVERDGISHRHPARFVLIGTMNPEEGELRPQLLDRFGLNVRLDTQPPPAERAEIIRRRLAFDADPQAFVERWEGQQDTLRRRCAEARRRLARIPLDDAALDSIARRCFEAAVDGLRADLVWLRAARAHAAWRGGERIEAEDIDAVEHFALLHRRRQSNPPPSAANPPPPPAAAPVALPERTGDGEGQWGELPARPVAMGTARELPRWPKKPLSIRPRSVMGADARSRPGALRGGLGGALSQGAEGAIQWLPTLLRGRPRQRRDLLRQPRSRRPGELWLVIVDASASTRRYGALAQAKGVLATLFEEAYRQRIRLAVLHATGQQAQWLWQGQKASRELQDWLRQLGAGGGTPLLDALHQAAGWLARRQRQKPAEHQRLLVLTDGRLRDWPALPEAACPSLLVDLESGPLRLGKAERLARELGAEYRHISELNEV</t>
+  </si>
+  <si>
+    <t>MSATVHYPLSAVVAADELKLALCLAAVDPAIGGVLIEGPRGMAKSTLARGVAELLPAGEFVTLPLGASEERIVGSLDLDAALGEGRARFSPGVLAKADGGVLYVDEVNLLPDHLVDLLLDVAASGVNLVERDGISHRHPARFVLIGTMNPEEGELRPQLLDRFGLNVRLDTQPPPAERAEIIRRRLAFDADPQAFVERWEGQQDTLRRRCAEARRRLARIPLDDAALDSIARRCFEAAVDGLRADLVWLRAARAHAAWRGGERIEAEDIDAVEHFALLHRRRQSNPPPSAANPPPPPAAAPVALPERTGDGEGQWGELPARPVAMGTARELPRWPKKP</t>
+  </si>
+  <si>
+    <t>NC_002947.4</t>
+  </si>
+  <si>
+    <t>magnesium chelatase subunit ChII | hypothetical protein</t>
+  </si>
+  <si>
+    <t>MSEPVQFPLAAVVGADDLKLALCLTAIDPRIGGVLIEGPRGMAKSTLARGLADLLGEGPFVTLPLGASEERLVGTLDLDAALGQGKAQFSPGVLAQADGGVLYVDEVNLLPDTLVDLLLDVAASGTNRIERDGISHRHSARFVLIGTMNPEEGELRPQLLDRFGLNVALEGLPEPEARQQIIRRRLAFDNDPQAFCAHWAQAQAQLRERCHAARQALADIALDDQALAWITERCYAAGVDGLRADLVWLRAARAHCAWRGAAAIEEVDVEAVAEFALRHRRRMTPQASPPSAPQPPDQQPGAGNPGERGGQGDWGALPAQPVASGARREVPNWAKKPLSIPQPPAKGADARAGIGKQNGTRRGLVRNAAAGRVAWLPTLLKGRPRQRQDLCWQQRQGRPAELWLVIVDASASTRRHQALAQTKGLLAALFDQAYRQRARLALLTASGRTPQWQRHGLKASAALQPWLQALGAGGGTPLIAALEQARHWLQARQRAHPQEALRCLVFTDGRLQHSNTVQPMPCATLLVDMELAPVRLGRAQRLAEQLQADYQHLQQFRVMD</t>
+  </si>
+  <si>
+    <t>MSEPVQFPLAAVVGADDLKLALCLTAIDPRIGGVLIEGPRGMAKSTLARGLADLLGEGPFVTLPLGASEERLVGTLDLDAALGQGKAQFSPGVLAQADGGVLYVDEVNLLPDTLVDLLLDVAASGTNRIERDGISHRHSARFVLIGTMNPEEGELRPQLLDRFGLNVALEGLPEPEARQQIIRRRLAFDNDPQAFCAHWAQAQAQLRERCHAARQALADIALDDQALAWITERCYAAGVDGLRADLVWLRAARAHCAWRGAAAIEEVDVEAVAEFALRHRRRMTPQASPPSAPQPPDQQPGAGNPGERGGQGDWGALPAQPVASGARREVPNWAKKP</t>
+  </si>
+  <si>
+    <t>NC_004578.1</t>
+  </si>
+  <si>
+    <t>magnesium chelatase, subunit ChII | hypothetical protein</t>
+  </si>
+  <si>
+    <t>MTLPDSSLSDTAHFPLAAVVGADDLKLALCLTAIDPRIGGVLIEGPRGMAKSTLARGLADLLASGQFVTLPLGATEERLVGTLDLDAALAEGRARFSPGVLAKADGGVLYVDEVNLLADHLVDLLLDVAASGVNLVERDGISHRHAARFVLIGTMNPEEGELRPQLLDRFGLNVALSGQTLPVERSQIIRRRLDFDADPLSFCQHWQAQQDALKQRCEQARLLLPSIELDDHSLAVITERCFAAGVDGMRADLVWLRAARAHAAWRSVGQIDEQDIEAVAEFALRHRRRDPAPPPQNQQAEPPETSPKPDKPESGQGNWGELPAQAVVTGSRREVPSWPKKPLGIRPRAKQGADAIPRPGRLASGRQGAVRAGVDGPVQWLPTLLRGRPKSRKDLVHQPRSSRPSELLLVVVDASASTRRHQALSQAKGLLSQVFDDAYRRRARLALLTASGSTPRWQHQGLKASSALNPWLDALGAGGGTPLSAALQQAMTWLEQRQKRHPAEQQRVLVMTDGRIKQLPTLPAFNCASLLIDIEKGPIRLGRARELAASLGADYRHIDELKLV</t>
+  </si>
+  <si>
+    <t>MTLPDSSLSDTAHFPLAAVVGADDLKLALCLTAIDPRIGGVLIEGPRGMAKSTLARGLADLLASGQFVTLPLGATEERLVGTLDLDAALAEGRARFSPGVLAKADGGVLYVDEVNLLADHLVDLLLDVAASGVNLVERDGISHRHAARFVLIGTMNPEEGELRPQLLDRFGLNVALSGQTLPVERSQIIRRRLDFDADPLSFCQHWQAQQDALKQRCEQARLLLPSIELDDHSLAVITERCFAAGVDGMRADLVWLRAARAHAAWRSVGQIDEQDIEAVAEFALRHRRRDPAPPPQNQQAEPPETSPKPDKPESGQGNWGELPAQAVVTGSRREVPSWPKKP</t>
+  </si>
+  <si>
+    <t>NC_004369.1</t>
+  </si>
+  <si>
+    <t>MSTNQVLRYPFSAVVGQDELRLALILTAISPRIGGVVVRGEKGTAKTTTVRAFAGLLGDAPLINLPLGATEDRVVGSLNMETVLTTGRAEYKPGLLAQADGGVLYVDEVNLLADHLVDALLDAAASGRVSIERDGISHSSPANFVLVGTMNPEEGELRPQLLDRFGLAVDVVASNNPEIRVEIIQRRLAYEANPEQFVQDWAAQDEEISQRIHTARQLLPNVELPSKMLSQIAWLCSRIEVDGMRADLVITRTALAHAAWQGRTQITDEDVEVAARLALPHRRRRNPFDAPEMEERKLQEVLQEARNFYKDTTKQGPAAEETDEETGATALIDTENPTDEQGLEGTAQAKAQTTGKVGTAGHGEPFRSRVFRLTTMGDEDSTPGRRSKSYTRQGADVRPKKDGHGINLVGTLMAAADRGAAVVDGMVDFRPEDLRGSLRRGREANLIVFVVDTSGSMAARSRVRAVTGAIMSMLTDAYQRRDKVAVIAVNGNKPTLVLAPTSSVDMAQKSLDAMPMGGRTPLAEGLIMARDLMEREHRKEPSRRPLLVVMTDGEDTSDAGETGIATAARAVVKSGLSGNLVIDCEGRMKVRKERAAVLAQLLGGVCVRLSEMNGDNIKTVINA</t>
+  </si>
+  <si>
+    <t>MSTNQVLRYPFSAVVGQDELRLALILTAISPRIGGVVVRGEKGTAKTTTVRAFAGLLGDAPLINLPLGATEDRVVGSLNMETVLTTGRAEYKPGLLAQADGGVLYVDEVNLLADHLVDALLDAAASGRVSIERDGISHSSPANFVLVGTMNPEEGELRPQLLDRFGLAVDVVASNNPEIRVEIIQRRLAYEANPEQFVQDWAAQDEEISQRIHTARQLLPNVELPSKMLSQIAWLCSRIEVDGMRADLVITRTALAHAAWQGRTQITDEDVEVAARLALPHRRRRNPFDAPEMEERKLQEVLQEARNFYKDTTKQGPAAEETDEETGATALIDTENPTDEQGLEGTAQAKAQTTGKVGTAGHGEPFRS</t>
+  </si>
+  <si>
+    <t>NC_003450.3</t>
+  </si>
+  <si>
+    <t>Mg-chelatase subunit ChlI | Mg-chelatase subunit ChlD</t>
+  </si>
+  <si>
+    <t>MASQQIRYPFSAVVGQDELRLALILTAISPRIGGVVIRGEKGTAKTTTVRAFAGLLGDAPLVNLPLGSTEDRVVGSLNMETVLTTGRAEYQPGLLAQADGGVLYVDEVNLLADHLVDALLDAAASGRVSIERDGISHSSPANFVLVGTMNPEEGELRPQLLDRFGLAVDVAASTNPEVRVEIIRRRLDFENAPEQFMAKWAEQDADTSNRILAAKDLLPGVELPDLILSQIAWLCARIEVDGMRADLVITRTALAHAAWAGRTVVTEEDVEIAARLALPHRRRRNPFDAPEMEERKLQETLQEARDFFKDNEDKGPAAKITDEETGAEAFTDTDNPTEEDGLQGTAQAKAQTTGKVGTAGSGDPFRSRHLRLASMGEEDSTPGRRSKAYSRQGADVRPMKGGHGINLVGTLMAATERGANIVEGVVDFRPTDLRGSLRRGREANLIVFVVDTSGSMAARSRVRAVTGTITSMLNDAYQRRDKVAVIAVNGNKPTLVLNPTNSVEQAQQKLKDMPMGGRTPLAEGLLMAKDLMARELRKEPGRRAILMVMTDGQDTSDAGEAGIATAAETVVKSRLSGNVVIDCEGRLKVRKERAGVLAEMLGGVCVRLRDLNSEHIKMVINA</t>
+  </si>
+  <si>
+    <t>MASQQIRYPFSAVVGQDELRLALILTAISPRIGGVVIRGEKGTAKTTTVRAFAGLLGDAPLVNLPLGSTEDRVVGSLNMETVLTTGRAEYQPGLLAQADGGVLYVDEVNLLADHLVDALLDAAASGRVSIERDGISHSSPANFVLVGTMNPEEGELRPQLLDRFGLAVDVAASTNPEVRVEIIRRRLDFENAPEQFMAKWAEQDADTSNRILAAKDLLPGVELPDLILSQIAWLCARIEVDGMRADLVITRTALAHAAWAGRTVVTEEDVEIAARLALPHRRRRNPFDAPEMEERKLQETLQEARDFFKDNEDKGPAAKITDEETGAEAFTDTDNPTEEDGLQGTAQAKAQTTGKVGTAGSGDPFRS</t>
+  </si>
+  <si>
+    <t>NC_006350.1</t>
+  </si>
+  <si>
+    <t>LPAAYPFSALIGQAALQQALLLVAVDPGLGGVLVSGPRGTAKSTAARALAELLPEGRFVTLPLSASDEQVTGSLDLASALADNTVRFSPGLVARAHLGVLYVDEINLLPDALVDALLDAAASGVNTVERDGVSHSHAARFALVGTMNPEEGELRPQLLDRFGLMVELANCYDAATRQRIVKARLAFDLDPHGFRAQYRDAQAALVAQIRAARAALPALAFDDAAHARVAELCIGAAVDGLRGDLVMLRAARALAALDGAARVAAAHVERVAADVLRHRRTRFEPQPEFQPGFQPGSQAGPQPMGRREPPPASRSAGGDAPGGRADPGEAEATRAPTPRDALPGGASGPAHPAARAPSDAQRRAADERGAARDGGRGPAADDSDWGYLPPEPAGIAPVKGVIPLPLKKRLSHRADAAAVAAHAPNSGLRWLERGMRHMRHDDARGRPGTRIAWRATLAAKRGEAWRADHLRYRPQAGSPGALHCFVLDCSASMLTAERLARAKGLVVALFDSLARERADAALVCFGGNAADVRFGPAVPRWWNERWLAPVGAGGGTPLTRGIGAATRLLARAARRHPGQQRWLWLLSDGRTTESPARPALAERIVIVDFDDAPVRLGRCERLAHAWGAALVTPQALERGGG</t>
+  </si>
+  <si>
+    <t>MPAAYPFSALIGQAALQQALLLVAVDPGLGGVLVSGPRGTAKSTAARALAELLPEGRFVTLPLSASDEQVTGSLDLASALADNTVRFSPGLVARAHLGVLYVDEINLLPDALVDALLDAAASGVNTVERDGVSHSHAARFALVGTMNPEEGELRPQLLDRFGLMVELANCYDAATRQRIVKARLAFDLDPHGFRAQYRDAQAALVAQIRAARAALPALAFDDAAHARVAELCIGAAVDGLRGDLVMLRAARALAALDGAARVAAAHVERVAADVLRHRRTRFEPQPEFQPGFQPGSQAGPQPMGRREPPPASRSAGGDAPGGRADPGEAEATRAPTPRDALPGGASGPAHPAARAPSDAQRRAADERGAARDGGRGPAADDSDWGYLPPEPAGIAPVKGVIPLPLKKR</t>
+  </si>
+  <si>
+    <t>NC_007952.1</t>
+  </si>
+  <si>
+    <t>MNSAAQRPVFPFAALIGQAPLQQALLLAAIDPALGGVLVTGPRGTAKSTAARALAELLPEGQLVNLPLGASEDRLIGTLDIETVLRDGSVRFSPGLLAKAHRGVLYVDEVNLLPDALVDALLDAASSGVNTVERDGVSHSHDASFVLIGTMNPEEGELRPQLIDRFGLMVELQNCFEPSVRQAIVKARLAFDLDPQGFRAGYAQQQAAYVEQIHAARAALSQLAFDEAVHARVSALCIEAAVDGLRADLVMLRAARALAAFEQAATVTAEHVDRVAEAVLVHRRHSRESQADHDAREDDASAGAVERSSESSSSSARGDAQSADAAGDSDWGYLAPEPSATTHTHVKGVIPLNVKKRLSHRKGAAADSRSGFRWQQGAGARSRLGAAPGKRIAWPRTLAAMGQDVLRAEHLRFMREAPRGGVLHCFVLDCSGSMLAGQRLALAKGLLIALFDHASAARAEAALVCFGGAGADVRFGPAVPRWWNERWLRPVGGGGGTPLTAGVRQAGQLLERSARRKPAQQRWLWILTDGRTRDTPARPLDADEVVFVDFEREAIRLGRCELLADAWGARRFTPEELMS</t>
+  </si>
+  <si>
+    <t>MNSAAQRPVFPFAALIGQAPLQQALLLAAIDPALGGVLVTGPRGTAKSTAARALAELLPEGQLVNLPLGASEDRLIGTLDIETVLRDGSVRFSPGLLAKAHRGVLYVDEVNLLPDALVDALLDAASSGVNTVERDGVSHSHDASFVLIGTMNPEEGELRPQLIDRFGLMVELQNCFEPSVRQAIVKARLAFDLDPQGFRAGYAQQQAAYVEQIHAARAALSQLAFDEAVHARVSALCIEAAVDGLRADLVMLRAARALAAFEQAATVTAEHVDRVAEAVLVHRRHSRESQADHDAREDDASAGAVERSSESSSSSARGDAQSADAAGDSDWGYLAPEPSATTHTHVKGVIPLNVKKR</t>
+  </si>
+  <si>
+    <t>NC_009439.1</t>
+  </si>
+  <si>
+    <t>MTEHHFPLAAVVGADSLKLALCLAAIDPAIGGVLIEGPRGMAKSTLARGLADLLEGGRFVTLPLGASEERIVGTLDLDAALGEGRAQFSPGLLARADGGVLYVDEVNLLPDHLVDLLLDAAASGVNHVERDGISHRHAARFVLIGTMNAEEGELRPQLLDRFGLNLALDGQPQPSERAEIVRRRLAFDADPVAFLQRWQVEQAALAARCRNARQRLADIPLDDAALGEISQRCFAAGVDGLRADLVWLRAARAHTAWRGAAGIEPVDIEAVEDFVLRHRRRQQQPPAATPPEQSQAPQQAQEQSQGEGQWGELPAQPQAMGERRVPPRWPKKSLSIRPRTATGADARNRPGRLGGGLRGAARSGVAGRIDWAATLRQGRPQCREQLVLRPRSQQAEELWLVLVDASASMRRHSALSLAKGVLAELFDNAYRQRARLALLQAGGREAQWLWQGRKASAELHRWLHELGAGGGTPLLDALNQAGDWLLRRQRAKPSERQRLLILTDGRLRDLPNLAPLPCPTLLLDTERAPIRLGRAQQLAQALQAEYQHIDDLLPVGAEDADRRQAGSYGLSVTWRTP</t>
+  </si>
+  <si>
+    <t>MTEHHFPLAAVVGADSLKLALCLAAIDPAIGGVLIEGPRGMAKSTLARGLADLLEGGRFVTLPLGASEERIVGTLDLDAALGEGRAQFSPGLLARADGGVLYVDEVNLLPDHLVDLLLDAAASGVNHVERDGISHRHAARFVLIGTMNAEEGELRPQLLDRFGLNLALDGQPQPSERAEIVRRRLAFDADPVAFLQRWQVEQAALAARCRNARQRLADIPLDDAALGEISQRCFAAGVDGLRADLVWLRAARAHTAWRGAAGIEPVDIEAVEDFVLRHRRRQQQPPAATPPEQSQAPQQAQEQSQGEGQWGELPAQPQAMGERRVPPRWPKKS</t>
+  </si>
+  <si>
+    <t>NC_009634.1</t>
+  </si>
+  <si>
+    <t>MTRKFIYPFGAIVGQEKAKKALTCCAVDPSIGGVLLTGDKGAGKSTLVRSLSYILPNYEIVLECPFNCNPRNSLEMCDNCYKGLAETKFEVIDKAMKVVDLPLSITVDRLIGTIDIKKALNEGKRVLQPGILADANRNILYIDEVNLLDDYVIDILLDSAAMGWNTIEREGMSFKHPSRFVLVGSMNPEEGELRPQLLDRFGLYVEIESLFKAEDRLEVLKRVEEFQNDPVLFYEKYSKIEKNLTYSITTAKRILKDVKVPEELLKLLIDSIIHLGIKTHRAEITTIKTAKAIAALDGRLEVVLEDLKTAMDLALAHRVSNRGGNPPSESMKNEESEEIDEESKKKRNQIHKRHHHLDGKNNSEKNNGLSEKETSSKELNFEIEDFDKKIVSKKSEVEKNTFQNYNGSKKVRISEVGSKKGYHVAYAELSKPEHLEDIDLISTINSAILNQNRYALLESDYKVKIRKNRIPKLSVILLDLSGSMGISKRVGIAKGIVDKYTDDSYVKREYLSVVTFRGREALVLSPFTKKYSLIKAQLNSLKTGGKTPLSAALKTALKVFKQFKDKNKKCTVEFILISDGKANVPLKENIKYEIEELSKAIQKRKISFKIYDIRNKSIIDPSISYLDKISEITNAEVETI</t>
+  </si>
+  <si>
+    <t>MTRKFIYPFGAIVGQEKAKKALTCCAVDPSIGGVLLTGDKGAGKSTLVRSLSYILPNYEIVLECPFNCNPRNSLEMCDNCYKGLAETKFEVIDKAMKVVDLPLSITVDRLIGTIDIKKALNEGKRVLQPGILADANRNILYIDEVNLLDDYVIDILLDSAAMGWNTIEREGMSFKHPSRFVLVGSMNPEEGELRPQLLDRFGLYVEIESLFKAEDRLEVLKRVEEFQNDPVLFYEKYSKIEKNLTYSITTAKRILKDVKVPEELLKLLIDSIIHLGIKTHRAEITTIKTAKAIAALDGRLEVVLEDLKTAMDLALAHRVSNRGGNPPSESMKNEESEEIDEESKKKRNQIHKRHHH</t>
+  </si>
+  <si>
+    <t>NC_009635.1</t>
+  </si>
+  <si>
+    <t>MTMVFPFTAIVGQQKMKKALILNAINPKIGGVLIRGEKGTAKSTAVRALAELLPEIEIVKGCSFNCNPYGDMCDICKDKRKNGMLKTIKRKMKVVDLPIGSTEDRVIGTLDIEKAIKEGVKALESGILADANRNILYIDEINLLDDHIIDILLDAAAMGWNTIEREGINIKHPSKFILVGTMNPEEGELRPQILDRFGLMVDVEGLDDVKQRVEVIKMVEEFNKNPEEVYKQSEEENINLREKIENARKNLDSVNISDDLLELISKICIELNIPTNRADITVARTAKTIASFNSKDYVSIEDIKEACDLALPHRMRRKPFEPPQLNNEKIEEMINNFENEENEKEQNDKENDLKKNLNNNETEQDNGDEESEENEKDEKTEEQEKPENEPNNQNNDNKNSDSNNNDNNDNKNSKGNQEQIFNANGNINPNIIKIKKKDNINRYSSGRQVKSISKKGRYIKYKIPRGKTSDIAFDATFRASALYQKDRKEKSDNKNILIHIKKEDLREKVREKKISTNILFAVDASGSMGAMKRMEVSKGAISSLLMDAYQKRNKIGMISFRKEEAELILPFTSSVELGEKLLRNLPTGGKTPLSKAFFNSYEAIKNEIRKNPNIIPIALFISDFKPNVAMKDDYIKEVFDICEKFAEDEITVILVDTEPKSFIKIGIGENLAKKYGFEYYKIDDLNVGDIVGIVNNLAIGGNIDR</t>
+  </si>
+  <si>
+    <t>MTMVFPFTAIVGQQKMKKALILNAINPKIGGVLIRGEKGTAKSTAVRALAELLPEIEIVKGCSFNCNPYGDMCDICKDKRKNGMLKTIKRKMKVVDLPIGSTEDRVIGTLDIEKAIKEGVKALESGILADANRNILYIDEINLLDDHIIDILLDAAAMGWNTIEREGINIKHPSKFILVGTMNPEEGELRPQILDRFGLMVDVEGLDDVKQRVEVIKMVEEFNKNPEEVYKQSEEENINLREKIENARKNLDSVNISDDLLELISKICIELNIPTNRADITVARTAKTIASFNSKDYVSIEDIKEACDLALPHRMRRKPFEPPQLNNEKIEEMINNFENEENEKEQNDKENDLKKN</t>
+  </si>
+  <si>
+    <t>NC_009767.1</t>
+  </si>
+  <si>
+    <t>RCAS_RS07255_fs_RCAS_RS07260</t>
+  </si>
+  <si>
+    <t>MPSERPIYPFSALVGQERLKRALILNAINPRIGGVLIRGEKGTAKSTAVRGLARLLPHITVVADCPYSCPPDRPAMMCEMCVARLRRGEELPVEERPTRLVELPVAASEDRVVGSLDLEHALTEGQRRFEPGLLAQANRGLLYVDEVNLLDDHLVDVLLDAAAMGVNTVEREGISVSHPARFILVGTMNPEEGELRPQLLDRFGLVVEISGLTDIVGRVEVIERRLAYESDPDAFVVRWRQEEEALAQRIIAARALLPAVTISRGDMAAVAGLALELGVDGHRADLAILETARTHAAWSGRARLTVEDIRLAAELALPHRMRRQPFTEVKLDEARVGQILDRVKGEIGDEAPPSAEYVKKKLTAMTAGQPDGDRRSSDDGDAPPPPAHAATESEASSGDGDTTQGGKTFVSDPAFRPQKIEGARDRLQRRAPGRRSRTRTTRKQGRYITSRPAERITDLALDATLRQAAPYQRRRRAERGESAARQRVIVRRSDLRQKVRVRKTRNAVCFVVDASWSMAAEERMRATKAAVLSLLRDAYQRRDRVGLVSFQRDYATLLLPLTNSVDLAQRQLQQMPTGGKTPLSRGLLLGYEVLERARRQDPEVMPLLVLLTDGQANVSMSDLPPQAESYALADFIAAQSIPAVVIDTEHPIFERGLARQLAHHLKGSYYRLEDVQERGLADLVRAELRDRTR</t>
+  </si>
+  <si>
+    <t>MPSERPIYPFSALVGQERLKRALILNAINPRIGGVLIRGEKGTAKSTAVRGLARLLPHITVVADCPYSCPPDRPAMMCEMCVARLRRGEELPVEERPTRLVELPVAASEDRVVGSLDLEHALTEGQRRFEPGLLAQANRGLLYVDEVNLLDDHLVDVLLDAAAMGVNTVEREGISVSHPARFILVGTMNPEEGELRPQLLDRFGLVVEISGLTDIVGRVEVIERRLAYESDPDAFVVRWRQEEEALAQRIIAARALLPAVTISRGDMAAVAGLALELGVDGHRADLAILETARTHAAWSGRARLTVEDIRLAAELALPHRMRRQPFTEVKLDEARVGQILDRVKGEIGDEAPPSAEYVKKKLTA</t>
+  </si>
+  <si>
+    <t>NC_010623.1</t>
+  </si>
+  <si>
+    <t>MSEANARRAAFPFSALIGQAPLQQALLLAAVDPGIGGVLVSGPRGTAKSTAARALAELLPEGQFVTLPLGASEDRLIGTLDIESALRDASVRFSPGLLAKAHRGVLYVDEVNLLPDGLVDALLDAAASGVNTVERDGVSHTHDASFVLIGTMNPEEGELRPQLTDRFGLMVALENCYEPQIRQDIVKARLAFDLDPFAFRARHAVQQAAYIERLCDARAALTRLSFDEAVHAHVSALCIAAGVDGLRADLMMLRAARALAAFEAAEVVTVEHVDRVAESVLLHRRRFDDEAAHPHEAASSPGQPSSTDSANSSTDSDYGYLPPEPAGITHVKGVIPLSTKKRLSHRKGATARTMRSGFRWRQGAGDVSRVGLAGARIAWPRTLAAKRNEQLTTDHLRFKHEEAHSGVLHCFLLDCSASMMAGQRLALAKGILVALFDQARMTRDQVALICFGGSEADVRFGPAVPRWWNERWLSPIGGGGGTPLLLGIETAASLLERAARKRPTQQRWLWVFSDGRSSGSPVRPRVADEVVFVDFEDSPSRLGRCSRMAGLWRAQCISSDELICARSR</t>
+  </si>
+  <si>
+    <t>MSEANARRAAFPFSALIGQAPLQQALLLAAVDPGIGGVLVSGPRGTAKSTAARALAELLPEGQFVTLPLGASEDRLIGTLDIESALRDASVRFSPGLLAKAHRGVLYVDEVNLLPDGLVDALLDAAASGVNTVERDGVSHTHDASFVLIGTMNPEEGELRPQLTDRFGLMVALENCYEPQIRQDIVKARLAFDLDPFAFRARHAVQQAAYIERLCDARAALTRLSFDEAVHAHVSALCIAAGVDGLRADLMMLRAARALAAFEAAEVVTVEHVDRVAESVLLHRRRFDDEAAHPHEAASSPGQPSSTDSANSSTDSDYGYLPPEPAGITHVKGVIPLSTKKR</t>
+  </si>
+  <si>
+    <t>NC_012704.1</t>
+  </si>
+  <si>
+    <t>CKROP_RS05690_fs_CKROP_RS05685</t>
+  </si>
+  <si>
+    <t>MLPSSHSVSLFPFSAVVGQDQLKLALILTAISPRIGGVVVRGEKGTAKTTTVRAFSRMLPDPKAKVVNLPLGATEDRVVGSIDVERVLTTGHAEYQPGLLSEANGGVLYVDEINLLADHLVDIILDAAATGHISIERDAVSHTEDTDFVLVGTMNPEEGELRPQLLDRFGLAVDVSAPRDTKSRTEVMRRRLAFDENPEEFLEHWADAERDIATRIVAAKERVAEVELTDVVLGRIASICASFDVDGMRADLVIARAAAAHAAWEGRTTIKDSDIKVAAELALPHRRRDPFDSPDISDDELDDALDRARDEVPDEPDDDSAPDNTEDSDGDVDTNDADDTTSDDGHSDETPDPSAEQPTSQQNQSDAANDDNRGPAPQEGGRAVQGAPFRRRLVQLQKLGQVESTALGRRSHAISAHGSTIRAVRDGHGFNVVGTVLAAADRGARIDNHTHRVPLESNDVRGSIRRGSEANLVVFLVDASGSMAARDRLSAVTGAIMSMLTDAYQRRDKVAVITIHGSEATVVLPPTRSITIAARRLADVKTGGRTPLAAGLDKAYELITREHYREPGRRAILMCLSDGRANGKGGLAAAEAAARRIARRGLAGSVVIDCERQGRVRLGLASRLAAYLHAPCVRLDELSADNLGGVIKTLS</t>
+  </si>
+  <si>
+    <t>MLPSSHSVSLFPFSAVVGQDQLKLALILTAISPRIGGVVVRGEKGTAKTTTVRAFSRMLPDPKAKVVNLPLGATEDRVVGSIDVERVLTTGHAEYQPGLLSEANGGVLYVDEINLLADHLVDIILDAAATGHISIERDAVSHTEDTDFVLVGTMNPEEGELRPQLLDRFGLAVDVSAPRDTKSRTEVMRRRLAFDENPEEFLEHWADAERDIATRIVAAKERVAEVELTDVVLGRIASICASFDVDGMRADLVIARAAAAHAAWEGRTTIKDSDIKVAAELALPHRRRDPFDSPDISDDELDDALDRARDEVPDEPDDDSAPDNTEDSDGDVDTNDADDTTSDDGHSDETPDPSAEQPTSQQNQSDAANDDNRGPAPQEGGRAVQGAPFRR</t>
+  </si>
+  <si>
+    <t>NC_013165.1</t>
+  </si>
+  <si>
+    <t>protoporphyrin IX magnesium chelatase | VWA domain-containing protein</t>
+  </si>
+  <si>
+    <t>LTHTYGGHAMPASTQRNYPFSAIVGQEDMKLALSLISVQPAIGGVLIYGERGTAKTTAVRALPALLGGETRVIELPLNASEDRVVGTLQLGTLMKSGEREFVPGLMAEANGHILYVDEINLLEDSIVDLLLDAAATGVCRVEREGMSLRYPAKFVLIGTMNPEEGTLRPQLLDRFGLSVKVSGSLNKEERLTLIRRHTAFENDPEAFVREWQEQENLLAQRIQKAAKLYADVFVPDDIIEFATGLCVEFEVDGYRGDITMMRTARAAAALEGRTEVTEEDVLLAARFVLPHRLKKLPFEDMGMTDKMLEKAATALHKEPEPEQVAVAGPVALVVEADEPADDGGADVAKKGVGAAPAVELPQYDVPTMPFQAKPLETTQSRVRRAQEARKGLRMKGVAKGHVIGPTTNPASGRVHLPGSILAQLSQGEGLGNGIEESNLRYQKIAGRGRRNILFIIDSSGSMVADDRFAKVKGCVISLLESAYSKRVRVAIISYGGGKARLVLPFTTSAELAAERIDELKGGGSTPMVDALGIAGNLLERMRDEDLSVYLLSDGRYNRNSTGRENWQIREFGDFCKSRNIPVTLIDAGSGTKTAKKRSAFLAGMLHAEYKRMDDLEVEMFDPEE</t>
+  </si>
+  <si>
+    <t>MTHTYGGHAMPASTQRNYPFSAIVGQEDMKLALSLISVQPAIGGVLIYGERGTAKTTAVRALPALLGGETRVIELPLNASEDRVVGTLQLGTLMKSGEREFVPGLMAEANGHILYVDEINLLEDSIVDLLLDAAATGVCRVEREGMSLRYPAKFVLIGTMNPEEGTLRPQLLDRFGLSVKVSGSLNKEERLTLIRRHTAFENDPEAFVREWQEQENLLAQRIQKAAKLYADVFVPDDIIEFATGLCVEFEVDGYRGDITMMRTARAAAALEGRTEVTEEDVLLAARFVLPHRLKKLPFEDMGMTDKMLEKAATALHKEPEPEQVAVAGPVALVVEADEPADDGGADVAKKG</t>
+  </si>
+  <si>
+    <t>NC_013407.1</t>
+  </si>
+  <si>
+    <t>MQYIYPFTAIVGQEKMKKALILNAINPKIGGVLIRGEKGTAKSTAVRALADLLPEIEVVENCPFNCDPNGDLCDICKEKKERGELRTIKKKMKVVNLPIGATEDRVIGTLDIEKAIKEGIKALEPGILAEANRNILYIDEVNLLDDHIIDVLLDAAAMGWNIIEREGVKIKHPSRFILVGTMNPEEGELRPQILDRFGLMVDVEGLNDVKERVEVIKRVEEFNENPEAFYKKFEEEQNKLRDRIIKARELLKDVEISDDLLEFISKVCIELGIQTNRADITVVRTAKALSAYNGRTEVILEDVKEAMELALPHRMRRKPFEPPQLNKEKLEQMINEFKQENDKNENENKEKEDQKDDDVKKNMMKINNRSEEESDNNSNDQNDHNDDQNKNDKNGDFEQTFGIDESFKVNPNFIQFKLKDNIHRYSSGRHIKSFSRRGRYVKFRLPKDKTNDIAFDATFRRSAIHQKKRREKADKKLAIYLEKEDIVEKVRQRKISSHILFVVDASGSMGAMRRMEAAKGAIISLLLDAYQKRNKIGMIAFRKDKAELILPFTSSVELGEKLLKDLPTGGKTPLADAFIKSYEVFDREIRKNPNIIPIMIVISDFKPNVAVKEDYVKEVFDACEKIAEKGINVILIDTEPQSFIKIGIGREIANRFGFKYYKIEELSKDKILDICKGLEITF</t>
+  </si>
+  <si>
+    <t>MQYIYPFTAIVGQEKMKKALILNAINPKIGGVLIRGEKGTAKSTAVRALADLLPEIEVVENCPFNCDPNGDLCDICKEKKERGELRTIKKKMKVVNLPIGATEDRVIGTLDIEKAIKEGIKALEPGILAEANRNILYIDEVNLLDDHIIDVLLDAAAMGWNIIEREGVKIKHPSRFILVGTMNPEEGELRPQILDRFGLMVDVEGLNDVKERVEVIKRVEEFNENPEAFYKKFEEEQNKLRDRIIKARELLKDVEISDDLLEFISKVCIELGIQTNRADITVVRTAKALSAYNGRTEVILEDVKEAMELALPHRMRRKPFEPPQLNKEKLEQMINEFKQENDKNENENKEKEDQKDDDVKKNMMK</t>
+  </si>
+  <si>
+    <t>NC_000909.1</t>
+  </si>
+  <si>
+    <t>MQYIYPFTAIVGQEKMKKALILNAINPKIGGVLIRGEKGTAKSTAVRALADLLPEIEIVEGCPFNCDPNGNLCDICKEKKKRGELKTTKKKMKVVNLPIGATEDRVIGTLDIEKAIKEGIKALEPGILAEANRNILYIDEVNLLDDHIIDVLLDAAAMGWNIIEREGVKIKHPSRFILVGTMNPEEGELRPQILDRFGLMVDVEGLNDVKDRVEVIKRVEEFNENPEAFYKKFEEEQNKLRERIIKARELLNKVEISDDLLEFISKVCIELGIQTNRADITVVRTAKALAAYNGRTYVTIDDVKEAMELALPHRMRRKPFEPPQLNKEKLEQMINEFKQQNNKDNEEKEEHKDDDVKKNMMKIKNEFEEETSNDERDNNDNSNNQNNQNEDTTGDFEQTFGIDESVKVNPKLIQFKLKDNIHRYGSGRHIKSYSRRGRYIKFKLANDKIIDIAFDATFRRAAIHQKKRREKANKKLAIYLEKEDIVEKVRQRKISSHILFVVDASGSMGAMRRMEAAKGAIISLLLDAYQKRNKIGMIAFRKDKAELILPFTSSVELGEKLLKDLPTGGKTPLADAFIKSYEVFDREIRKNPNIIPIMIVISDFKPNVAVKEDYVKEVFDACEKIAEKGINVILIDTEPQSFIKIGIGKEIANRFGFKYYKIEELSKDKILDICKSLEINF</t>
+  </si>
+  <si>
+    <t>MQYIYPFTAIVGQEKMKKALILNAINPKIGGVLIRGEKGTAKSTAVRALADLLPEIEIVEGCPFNCDPNGNLCDICKEKKKRGELKTTKKKMKVVNLPIGATEDRVIGTLDIEKAIKEGIKALEPGILAEANRNILYIDEVNLLDDHIIDVLLDAAAMGWNIIEREGVKIKHPSRFILVGTMNPEEGELRPQILDRFGLMVDVEGLNDVKDRVEVIKRVEEFNENPEAFYKKFEEEQNKLRERIIKARELLNKVEISDDLLEFISKVCIELGIQTNRADITVVRTAKALAAYNGRTYVTIDDVKEAMELALPHRMRRKPFEPPQLNKEKLEQMINEFKQQNNKDNEEKEEHKDDDVKKNMMK</t>
+  </si>
+  <si>
+    <t>NC_014122.1</t>
+  </si>
+  <si>
+    <t>MKKALILNAINPKIGGVLIRGEKGTAKSTAVRALADVLPELEVVEGCPFNCDPNGELCDICKERKKRGELKVIKRKMKVVNLPIGATEDRVVGTLDIEKAIKEGIKALEPGILAEANRNILYIDEVNLLDDHIIDLLLDAAAMGWNIIEREGIRVKHPSRFILVGTMNPEEGELRPQILDRFGLMVEVEGLRDIKERVEVIKRVEEFNENPEAFYKRFEEEQKKLKERIIKAREILKNVKIKDDLLELISKICLELGIQTSRADITVVRTAKAIAAFNGREYVTLDDIKEACELALPHRMRRKPFEPPRLEKERIEEIINNELKKNLSDEERKGENREEYSNNNEESIEGSSGGGERRFDPKGSVDPKILSLKLKRRHRYGSGRHIKSFSRKGRYIKYRLAKNTSDIALGATLRAAAIHQKRRREKYKNKNLALYIEKEDLREKIREKKISSYILFVVDTSGSMGALRRMELAKGAIRSLLVDAYQKRNRVGMIVFRKDSADLILPFTSSVELAEKSLRDVPTGGRTPLSKAFLKAYETFEKELRKNPNIIPIMVFISDFKPNVAIKNDFIKEIYEICEKIHEKGINTIFIDTEPKTFIKLGIGEELAKKFGFKYYKIDEIKLDDLLKEI</t>
+  </si>
+  <si>
+    <t>MKKALILNAINPKIGGVLIRGEKGTAKSTAVRALADVLPELEVVEGCPFNCDPNGELCDICKERKKRGELKVIKRKMKVVNLPIGATEDRVVGTLDIEKAIKEGIKALEPGILAEANRNILYIDEVNLLDDHIIDLLLDAAAMGWNIIEREGIRVKHPSRFILVGTMNPEEGELRPQILDRFGLMVEVEGLRDIKERVEVIKRVEEFNENPEAFYKRFEEEQKKLKERIIKAREILKNVKIKDDLLELISKICLELGIQTSRADITVVRTAKAIAAFNGREYVTLDDIKEACELALPHRMRRKPFEPPRLEKERIEEIINNELKKN</t>
+  </si>
+  <si>
+    <t>NC_014364.1</t>
+  </si>
+  <si>
+    <t>MQHYPFSAILGQKRLKAALLACAVDPSIGGVLIRGEKGTAKTTAVRALAPLLPEIEVVEDCPYSCDPTDGDTIHESCAARIRAGEEIEHFRRPVRLVELPLNATEDRLAGTIHIEKTLQRGERSFEPGLLAAANRGILYIDEVNLLEDHLVDLVLDAAASGVCRVAREGFNLEHPARFLLIGTMNPEEGELRPQFLDRFALSVTVHGEDTPEMRKSIARRRIAFENDPKAFMKEWDDEERRLRELVRSARRLLPLVELREEIWDLLVGFSSKAGVQGHRSDIVMAKCASALAALRGKASVDREELLEAARFALPHRIAGTIEETPETIKGRLETILAEEQEEKDQKETIESPSLRKAGLEYGMVPEEDFFDYPEDFQVPGAAAAGSLVFDFLEKKKRPSMKVEAAASLSSLDITAADLRRFGKAGIRRHGRQRGETGERGRVIGSRAPGPGEALSDPDLAASFIAALNRGAGNDRLRIEPQDIRLHVRREEPGTFVLFLLDTSDSMGALERMAVTKGAVLALLQRSYQERHVVALTTFGGGGAKTTLAPTKSVLLAKKALNALRPDGGTPLAAGIEACGELFSSAGRRYPGMRKILVIISDGEANIARERGVPPLRDALEAANRLRRSDIHAVLIDTKLPKVGKENEMKSLHRVIGGRYINASAPGLEAILEAVDAS</t>
+  </si>
+  <si>
+    <t>MQHYPFSAILGQKRLKAALLACAVDPSIGGVLIRGEKGTAKTTAVRALAPLLPEIEVVEDCPYSCDPTDGDTIHESCAARIRAGEEIEHFRRPVRLVELPLNATEDRLAGTIHIEKTLQRGERSFEPGLLAAANRGILYIDEVNLLEDHLVDLVLDAAASGVCRVAREGFNLEHPARFLLIGTMNPEEGELRPQFLDRFALSVTVHGEDTPEMRKSIARRRIAFENDPKAFMKEWDDEERRLRELVRSARRLLPLVELREEIWDLLVGFSSKAGVQGHRSDIVMAKCASALAALRGKASVDREELLEAARFALPHRIAGTIEETPETIKGRLETILAEEQEEKDQKETIESPSLRKAGLEYGMVPEEDFFDYPEDFQVPGAAAAGSLVFDFLEKKKRPSMK</t>
+  </si>
+  <si>
+    <t>NC_017301.1</t>
+  </si>
+  <si>
+    <t>MGTCGRTLYPFSAVVGQERLRLALLLCAISPRIGGVVIRGEKGTAKTTTVRAFARLLGEAPLVDLPIGATEDRVVGSLDMETVLTTGKARYNPGLLSQADGGVLYVDEVNLLADHLVDSLLDAAATGQVTVERDGISYSSPANFVLVGTMNPEEGELRPQLLDRFGLAVDVMASKDTDVRAEIMRRRLAFESAPQSFAQAWSHEDASTALQIQKAKQRVQQLQLSNVNLNRIAHLCAAFDVDGMRADLVIARTALAHAAWRGASMVEDEDIRIAAELALPHRRRRDPFDEPGLDQEQLDQEMEKARDQHPDASDKAEEPQEEKEQHTLENKSSETQSEQPTSDGQEECATTGAPFRSTGAKRKGIGERGVPGRRSKAYSSHGGDVRPLRFGHGLNLVGTIFAAVDRGARLRGKMIDFRPEDLRGSLRRGMESNLIIFVVDASGSMSARDRLASVTGAVLSMLRDAYQRRDKVAVISVRGAAPELVLPPTGSIDVAVRRLQKVATGGRTPLGEGLLLAHDVIRREHVKEPGRRALLVVLSDGRATGASGLVGLRTAAQTIARSDLAGSVVVDCEKSGRVKLGLAQELAGHLEGICIQLKELNAESVAGAINVV</t>
+  </si>
+  <si>
+    <t>MGTCGRTLYPFSAVVGQERLRLALLLCAISPRIGGVVIRGEKGTAKTTTVRAFARLLGEAPLVDLPIGATEDRVVGSLDMETVLTTGKARYNPGLLSQADGGVLYVDEVNLLADHLVDSLLDAAATGQVTVERDGISYSSPANFVLVGTMNPEEGELRPQLLDRFGLAVDVMASKDTDVRAEIMRRRLAFESAPQSFAQAWSHEDASTALQIQKAKQRVQQLQLSNVNLNRIAHLCAAFDVDGMRADLVIARTALAHAAWRGASMVEDEDIRIAAELALPHRRRRDPFDEPGLDQEQLDQEMEKARDQHPDASDKAEEPQEEKEQHTLENKSSETQSEQPTSDGQEECATTGAPFRSTGA</t>
+  </si>
+  <si>
+    <t>NC_014658.1</t>
+  </si>
+  <si>
+    <t>MFER_RS06885_fs_MFER_RS06880</t>
+  </si>
+  <si>
+    <t>LDNFTFPFTAIVGQEKIKKSLILNAINPSIGGVLIKGDKGTGKTTAVRALADLLPSIKVVKGCPFNCDPDDKTNMCPLCKSRDKIKVEKKKMKVVELPLGATEDRVVGTLDIKKALNEGIKALEPGLLAEANRNILYVDEINLLDDHLVDVLLDAAAYGINRVEREGISISHPSRFILVGTMNPAEGELRPQLADRIGLHITAKSITDIKDRVKIMERRERFERDPIGFREEFKDKQEKLRKRILKARKLLDKVEISQELMELIARVCLNAGVDGHRADIAILKTSKTIAAYNGRKEVNIDDIKEAISLVLEERILGRKLGKNQISKVVERAKEEMKKDKIETSAKARAKELTKGSGEFFLGSKSTSHIQAVGKRNIEDKDVNIDLKKFLKFKGDKRRRKYGNKVESQTERGKYVKSRIPLKNPKDIAIDATIRAAAIKSEGKINVEPEDLREKIRKHGSKALIVLVVDISGSMSSEDKAEKVKGVLKRIMLDAQRHKDKLAIIGFKGREARVILPSTRRIFSFKDKIENISVGGTTPMAHGLKKAIEILKREKKKSNEYVPILVLLSDGMPNIALKNSPTRDVLELAKELNRSDIHTVIINFEKRIMRGRNFNFELALTSGGKYYEVGNRNIVETVGSIIKHERNSLFYNDKNIYLS</t>
+  </si>
+  <si>
+    <t>MDNFTFPFTAIVGQEKIKKSLILNAINPSIGGVLIKGDKGTGKTTAVRALADLLPSIKVVKGCPFNCDPDDKTNMCPLCKSRDKIKVEKKKMKVVELPLGATEDRVVGTLDIKKALNEGIKALEPGLLAEANRNILYVDEINLLDDHLVDVLLDAAAYGINRVEREGISISHPSRFILVGTMNPAEGELRPQLADRIGLHITAKSITDIKDRVKIMERRERFERDPIGFREEFKDKQEKLRKRILKARKLLDKVEISQELMELIARVCLNAGVDGHRADIAILKTSKTIAAYNGRKEVNIDDIKEAISLVLEERILGRKLGKNQISKVVERAKEEMKKDKIETSAKARAKELTKGSGEFFLGSKSTSHIQAVGKRNIEDKDVNIDLKKF</t>
+  </si>
+  <si>
+    <t>NZ_ACSH02000005.1</t>
+  </si>
+  <si>
+    <t>MSDIIAAKYPFSAVVGQDQLQLSLILTAIAPRIGGVVIRGEKGTAKTTTVRAFAALLGDAPLVNLPIGATEDRVVGALDLETILTQGKATYRPGLLAEANNGVLYVDEVNLLADHIVDALLDAAATGTVTIERDGISHSAPANFVLVGTMNPEEGELRPQLLDRFGLSVDVAASRDVTVRTEIIKRRLAFEDQPETFVARWHDHDTTIADRIHNAKNLLPTISLTQTNLERIAHLCAAFDVDGMRADLVIARTACAHAAWENRTQVTDEDIRVAAELALPHRRRRNPFDEPGIDSDQLDDIMEEAQQQHPEPEPEEQPNPNTGENSDETPETPPESTNTDNQTSNEEVTSAEQGAPFRRKQLRYAANNSIEAAPGRRAPAYTRVGSTAYASNTGHGLHIIGTLWAAADRGVRLENGRVEFQPEDLRGAKRRGKESNLIVFVVDASGSMAARDRLAAVTGAVHSLLGDAYQRRDRVAVISVRGRQPEILLPPTGSIDVARRRLEDVKTGGRTPLPEGLKLAADLIEREHRREPGRRAILVILSDGKATGANGLTNLRMVAHDIAQRGLAGSVVIDCENQSRIRLGLALELAKNLGAPCISMTELNAESVTGVINAI</t>
+  </si>
+  <si>
+    <t>MSDIIAAKYPFSAVVGQDQLQLSLILTAIAPRIGGVVIRGEKGTAKTTTVRAFAALLGDAPLVNLPIGATEDRVVGALDLETILTQGKATYRPGLLAEANNGVLYVDEVNLLADHIVDALLDAAATGTVTIERDGISHSAPANFVLVGTMNPEEGELRPQLLDRFGLSVDVAASRDVTVRTEIIKRRLAFEDQPETFVARWHDHDTTIADRIHNAKNLLPTISLTQTNLERIAHLCAAFDVDGMRADLVIARTACAHAAWENRTQVTDEDIRVAAELALPHRRRRNPFDEPGIDSDQLDDIMEEAQQQHPEPEPEEQPNPNTGENSDETPETPPESTNTDNQTSNEEVTSAEQGAPFRR</t>
+  </si>
+  <si>
+    <t>NC_015636.1</t>
+  </si>
+  <si>
+    <t>MVVFPFTAIVGQEKMKKALILNAINPKIGGVLIRGEKGTAKSTTVRALAELLPEIEVVENCPFNCNPNGDMCDICKENKTKGTLKTIKRKMKVVDLPIGSTEDRVIGTLDIERAIKEGVKALEPGILAEANRNILYIDEVNLLDDHIVDILLDAAAMGWNTIEREGIKVKHPSNFILVGTMNPEEGELRPQILDRFGLMVDVEGLNDVKQRVEVIKRVEKFNTNPDEIFKEYEEEQIKLREKIENARKILDSVKISDDLLELISKICIELNIPTNRADITVARTAKTIASFNGRDYVNTDDIKEACELALPHRMRRKPFEPPQLNNEKIEEMINDFEKNNENNKNDENDKKNNNNQNENEEENKNGQEDNLKKNLNENDKERKEQDEKTDVHDDNKDKEDKKDNPNENDNNQNTNNNSNNDNNSNNNNDKDNDSNNKNNKDSNAQEQMFNAKGGINPNIIKIQLKDNISRYSSGRHVKSISKKGRYIKYRIPNGKTTDIAFDATLRASALYQKDRKEKSDNKNVALYLKKEDLREKIRERKISTNILFSVDASGSMGAMKRMEAAKGAVVSLLMDAYQKRNKVSMITFRKDSAELLLPFTSSVELAEKCLSETPTGGKTPLSKAFLKSYEVIKNNMRKNPNIIPIVVFISDFKPNVAMEKDYIKEVYDICEKFAEDEINVILIDTEPKSFIKIGIGENIAKKYGFKYYKIDDLSSENILNALN</t>
+  </si>
+  <si>
+    <t>MVVFPFTAIVGQEKMKKALILNAINPKIGGVLIRGEKGTAKSTTVRALAELLPEIEVVENCPFNCNPNGDMCDICKENKTKGTLKTIKRKMKVVDLPIGSTEDRVIGTLDIERAIKEGVKALEPGILAEANRNILYIDEVNLLDDHIVDILLDAAAMGWNTIEREGIKVKHPSNFILVGTMNPEEGELRPQILDRFGLMVDVEGLNDVKQRVEVIKRVEKFNTNPDEIFKEYEEEQIKLREKIENARKILDSVKISDDLLELISKICIELNIPTNRADITVARTAKTIASFNGRDYVNTDDIKEACELALPHRMRRKPFEPPQLNNEKIEEMINDFEKNNENNKNDENDKKNNNNQNENEEENKNGQEDNLKKN</t>
+  </si>
+  <si>
+    <t>NC_017583.1</t>
+  </si>
+  <si>
+    <t>ATPase | VWA domain-containing protein</t>
+  </si>
+  <si>
+    <t>VIDRVFPFSAIVGQEEAKQALLLGVIDPGIGGVLLSGEKGTGKTTLVRALASLVPGMPLVELPLNTTEDRLVGSLNVEKALSEGVREFEPGLLAAAHRGILYVDEVNLLEHHLVDLLLDVAATGVNRVEREGISYEHPARFLLVGSMNPEEGDLRPQFLDRFGLAVPVRHLEDPDLRAEVVRRRLAFETDPAGFCRAWQEEEEVLASQVKAARERLGRVRVAEETYREAVRIAAELGARGHRAELVMVRAARALASFLEQEEVDASLVRAVARYALFHRVKVGSGESEERVLRRIDAAVDGRVDEGREEGEVVVEPEDAMVPGAAAAGSLMFEFVKKKLTRWSTNRVVVEIGELDFEGGMRDVGRGVWRREVEYERGRAVGVRPFGEGEAVRDVAVGTSLVAAAGEGVRRREGRLVPGVRRGHLRRWVRRRGALDVVVLVVDASASMGWGERMRVAKGAALWMLERAYLLRCRVAVVAFRGEGAEVVLPPTVSRELGKVRLARMPVGDATPLPAGLLEAARLVEAEGLRSPGTRATVVLISDGESNVPLRDGADSFSEAVGIVRALVGKGVRVVCVDAGMGEGRMAELARKGGADYRQLPRVPGALGAFVSDLVVSTDSTYGEHV</t>
+  </si>
+  <si>
+    <t>MIDRVFPFSAIVGQEEAKQALLLGVIDPGIGGVLLSGEKGTGKTTLVRALASLVPGMPLVELPLNTTEDRLVGSLNVEKALSEGVREFEPGLLAAAHRGILYVDEVNLLEHHLVDLLLDVAATGVNRVEREGISYEHPARFLLVGSMNPEEGDLRPQFLDRFGLAVPVRHLEDPDLRAEVVRRRLAFETDPAGFCRAWQEEEEVLASQVKAARERLGRVRVAEETYREAVRIAAELGARGHRAELVMVRAARALASFLEQEEVDASLVRAVARYALFHRVKVGSGESEERVLRRIDAAVDGRVDEGREEGEVVVEPEDAMVPGAAAAGSLMFEFVKKKLTRWSTNR</t>
+  </si>
+  <si>
+    <t>NC_014931.1</t>
+  </si>
+  <si>
+    <t>MTTAASMPVPFPFSAIAGQPHLRQALLLAAVDPGLGGVLIEGPRGTAKTTAARALAELLPGAPFVTLPLGASLESLVGTLDLGQALAGHELKFAPGLLARANGGVLYVDEINLLPDALIDSLLDAAASGVNVVERDGISHRHAARFVLVGTMNPEEGTLRPQLLDRFGLCVQLRNIEDAAERQGIVRARLAFDVDPQGFRAKHAEAEAALAAALVKARAIVADASALPYGDDVHEAVGALCIAAQVDGLRADLVMLRSARALAAWKGAAAITADHVQCVAEAVLLHRRKPEAEGAALASASASVPPNTQRAPNSSGTGQNNAGDQDWGAMPPEPVGIERVKPLRPLISSQTAQQALPKKALSLRDAAPAGARQGDWRQGRQRDAWHGAASPGAALDWPRTLANRGADTLRAEHLRRRPLQARSGALHCFLLDCSASMRNDGNLARAKGLLLSLMEEAYQRRDHVALLCFAGEVVELRLPPRRASAWNDDWIAPIAAGGGTPLALGVQRADQLLAHSAARQRWLWLLTDGRSNESPMRPEAADFACVVDFEAARVPLHRAKQLAVRWQARYLSAPGAS</t>
+  </si>
+  <si>
+    <t>MTTAASMPVPFPFSAIAGQPHLRQALLLAAVDPGLGGVLIEGPRGTAKTTAARALAELLPGAPFVTLPLGASLESLVGTLDLGQALAGHELKFAPGLLARANGGVLYVDEINLLPDALIDSLLDAAASGVNVVERDGISHRHAARFVLVGTMNPEEGTLRPQLLDRFGLCVQLRNIEDAAERQGIVRARLAFDVDPQGFRAKHAEAEAALAAALVKARAIVADASALPYGDDVHEAVGALCIAAQVDGLRADLVMLRSARALAAWKGAAAITADHVQCVAEAVLLHRRKPEAEGAALASASASVPPNTQRAPNSSGTGQNNAGDQDWGAMPPEPVGIERVKPLRPLISSQTAQQALPKKA</t>
+  </si>
+  <si>
+    <t>NC_015388.1</t>
+  </si>
+  <si>
+    <t>DESAC_RS14805_fs_DESAC_RS14800</t>
+  </si>
+  <si>
+    <t>MRSQPLIFPFTALVGQEDLKLALLLNAVNPTIGGVLIRGERGTGKSTAVRALANLLPEIEVVAGCVYGCHPQGIDGLCDDCRNRRVADNGLPVERRPVPVVTLPLGATEDRVLGTLDLEAALHAGRRRFEPGLLARAHRGILYIDEVNLLEDHLVDVLLDVAASGVNVVERESVSISHPAHFLLVGTMNPEEGELRPQLLDRFGVCVEVKGISDAAARGEIVRRRLAFEADPLGFIRAQGENEAALKRRIEQARALLPEVQVGEAELGLAVRLALALGTEGHRADLTTIRAAAGLAALEGRRVITLADVKRCAILALRHRLARHPLDDEEISTDRLIEQVEAAAQTESKQPPAPSPTEKKSPLIREAPISDGAQIFACPPAFQLKHLEFYFPRVSQGKRGRRLANPTQSRHGRYVKPRLPDGGKPDLALDATLRAAAHRHPGVYTDGPRLTREDLRYKRRAGKTQALLLLVVDASGSMSAQRRMAAAKQIALSFLVQAYQRRDRVGLIVFHGARARILLPPTGSVALARKKLRVLPTGGKTPLAHGLALAYQVAVRELRRSRSLIPIIVVISDGNPNVACFSEDPKADAFKAAAAIARRGVPALFVDTNTNFMEHGLGLALARALHCPYERFETLAAGLGLSHLLARSGRQELFYWSPD</t>
+  </si>
+  <si>
+    <t>MRSQPLIFPFTALVGQEDLKLALLLNAVNPTIGGVLIRGERGTGKSTAVRALANLLPEIEVVAGCVYGCHPQGIDGLCDDCRNRRVADNGLPVERRPVPVVTLPLGATEDRVLGTLDLEAALHAGRRRFEPGLLARAHRGILYIDEVNLLEDHLVDVLLDVAASGVNVVERESVSISHPAHFLLVGTMNPEEGELRPQLLDRFGVCVEVKGISDAAARGEIVRRRLAFEADPLGFIRAQGENEAALKRRIEQARALLPEVQVGEAELGLAVRLALALGTEGHRADLTTIRAAAGLAALEGRRVITLADVKRCAILALRHRLARHPLDDEEISTDRLIEQVEAAAQTESKQPPAPSPTEKKSP</t>
+  </si>
+  <si>
+    <t>NC_014960.1</t>
+  </si>
+  <si>
+    <t>MPPIYPFTAIVGQERMKRALVLNAVDPRIGGVLIRGERGTAKSTAARALAALLPKVKVVSDCRFGCDPDAPATWCTECRERAERGESLPVSLRQIPFINLPVSATEDRVVGTLDIEAAIQRGERHFEPGVLAAANRGLLYIDEVNLLDDHVVDVLLDAAAMGMNIVEREGISFTHPARFILVGTMNPEEGDLRPQLLDRFALSVEIYGIRDARERVMIMERNLAFEKDPLAFVAHWQPKEQELSQQIEQARKLLDQVTYTSRDLLSIASLTASLQVDGHRPDLVILKTARAHAAFEGRTSITARDIALAAELALPHRLKRTPFQQASATMEELAERIEQLQGGATSGEPREHPGGMEEESGQKKTVTDGETGQIEQPEATQQEPSRQNIFDQGNTQWWNGGKQVNTGETFEARRLDTPLDKMMRRHAGRRSRTYTDRKRGRYILARPAGRRRDDLAFDATLRTAAPFQRQREELKKRNRVAFAVRPSDYMRKVRVRRAANLVLFLVDASWSMAVAERMQATKGAILSLLNDAYQRRDRVGLITFQRDRATLILPPTNSVQLAEQALRDIPVGGKTPLSAGLDMAYGILKREKMLHPDVLPLLIVLTDGAGNVSMGHLPPLEEAHYLAERIAEEHIHAVVINMEHAAFDQGLAQELANHLKAPCYNLTDLRAESLYYTVRQEMQSTALKGLEDKR</t>
+  </si>
+  <si>
+    <t>MPPIYPFTAIVGQERMKRALVLNAVDPRIGGVLIRGERGTAKSTAARALAALLPKVKVVSDCRFGCDPDAPATWCTECRERAERGESLPVSLRQIPFINLPVSATEDRVVGTLDIEAAIQRGERHFEPGVLAAANRGLLYIDEVNLLDDHVVDVLLDAAAMGMNIVEREGISFTHPARFILVGTMNPEEGDLRPQLLDRFALSVEIYGIRDARERVMIMERNLAFEKDPLAFVAHWQPKEQELSQQIEQARKLLDQVTYTSRDLLSIASLTASLQVDGHRPDLVILKTARAHAAFEGRTSITARDIALAAELALPHRLKRTPFQQASATMEELAERIEQLQGGATSGEPREHPGGMEEESGQKKT</t>
+  </si>
+  <si>
+    <t>NZ_AEGR01000081.1</t>
+  </si>
+  <si>
+    <t>MSTPQASAHTPGSATEPAVRLPFPFTALIGQPRLQLALQLAAIDPGIGGVLISGPRGTAKSTAARALAALLPGAPFVTLPLAASLEQVVGTLNVEDVLRDGQLRLAPGLVARAHGGVLYVDEVNLLADALVDALLDVAASGVNTVERDGISHQHAARFVLVGTMNPEEGDLRPQLLDRFGLSVTLDNPTDAPQRAAILRARLDFDADPAALIAQHAARQQALSAALITARAALPRLAWPDEVLRHAADRALHAGVDGLRADLVMLRAARALAALQARDAVTVADVDAVAEFALAHRRLDPSDLADANPLAHQAHQANHARAAERNAAGPQTRGPATATATTTASSAPGQPSQGAGPAEDHLSTAGHSGARSNPNPKPNGDWGALPAQPAGMVAAPRIAGWPAKKALGHPGRPVPGGAGGGRWPLATMRPARPRVSEHAMSTRAPGASIAWLPTLLAKGPAPLRRQHLRHRPLAARAARLHCIVLDTSGSMHQQGRLARAKGQVAAMLEQAARQGDDVAVLCFGGRGVELLIPPGPVRSAARHRLRPLGGGGGTPLAQALSEADRLLQAASRVCGAARATSATRARHAPHAAQGSGHAQAPAFDGWLWLLSDGRTLEQPSPPRATRQVVIV</t>
+  </si>
+  <si>
+    <t>MSTPQASAHTPGSATEPAVRLPFPFTALIGQPRLQLALQLAAIDPGIGGVLISGPRGTAKSTAARALAALLPGAPFVTLPLAASLEQVVGTLNVEDVLRDGQLRLAPGLVARAHGGVLYVDEVNLLADALVDALLDVAASGVNTVERDGISHQHAARFVLVGTMNPEEGDLRPQLLDRFGLSVTLDNPTDAPQRAAILRARLDFDADPAALIAQHAARQQALSAALITARAALPRLAWPDEVLRHAADRALHAGVDGLRADLVMLRAARALAALQARDAVTVADVDAVAEFALAHRRLDPSDLADANPLAHQAHQANHARAAERNAAGPQTRGPATATATTTASSAPGQPSQGAGPAEDHLSTAGHSGARSNPNPKPNGDWGALPAQPAGMVAAPRIAGWPAKKA</t>
+  </si>
+  <si>
+    <t>NC_015556.1</t>
+  </si>
+  <si>
+    <t>MTDTVHFPLAAVVGADSLKLALCLVAVDPAIGGVLIEGPRGMAKSTLARGLAALLESGVFVTLPLGASEERIVGTLDLDAALGESRAQFSPGLLSKAHGGVLYVDEVNLLPDHLVDLLLDAAASGVNHVERDGISHRHAARFVLIGTMNAEEGELRPQLLDRFGLNLALDGQPQPGARAEIVRRRLAFDADPQAFVARWAEQQQALAARCGQARARVASIALDDRALDAITERCFAAGVDGLRADLVWLRAARAHAAWRGADAIGEEDIEAVADFVLRHRRRHTPPQQQAQPPASPPPQAPSEQPAAGEGQWGELPAQTQNTGERREPPRWAKKPLGIPPRAKAGTDARPTPGKQAGGRSGAKRRGDSGAIDWLATLLQGKPRRRADLQRRPRSNAPTQLWLIVVDASASTRRHGALSKAKGLLAELFERAYRERARIAVLDAHGAQPQWHWQGQKASGALQGWLSDLGAGGGSPLIPALQQAHDWLQRRQRLKPSEARRLLVVTDGRLREWPALAPSPCPATLVDIECAPIRLGRAVQLAGELGADYCHIEAIPLTEDSYR</t>
+  </si>
+  <si>
+    <t>MTDTVHFPLAAVVGADSLKLALCLVAVDPAIGGVLIEGPRGMAKSTLARGLAALLESGVFVTLPLGASEERIVGTLDLDAALGESRAQFSPGLLSKAHGGVLYVDEVNLLPDHLVDLLLDAAASGVNHVERDGISHRHAARFVLIGTMNAEEGELRPQLLDRFGLNLALDGQPQPGARAEIVRRRLAFDADPQAFVARWAEQQQALAARCGQARARVASIALDDRALDAITERCFAAGVDGLRADLVWLRAARAHAAWRGADAIGEEDIEAVADFVLRHRRRHTPPQQQAQPPASPPPQAPSEQPAAGEGQWGELPAQTQNTGERREPPRWAKKP</t>
+  </si>
+  <si>
+    <t>NC_015562.1</t>
+  </si>
+  <si>
+    <t>MNYPFTAIVGQEKMKKALILNAINPKIGGVLIRGEKGTAKSTTVRALADLLPEIEVVEGCPFNCDPNGDLCDICREKKERGELKTIKKKMKVINLPIGATEDRVIGTLDIEKAIKEGIKALDPGILAEANRNILYIDEVNLLDDHIVDILLDAAAMGWNIIEREGIKIKHPSRFILVGTMNPEEGELRPQILDRFGLMVDVEGLNDIKQRVEVIKRVEEFNENPEEFYKKYEEEQLKLREKIEKARELLKNVKISDDLLELISKICIELGIPTNRADITVARTAKTIAAFNGRDYVTVDDVKEACELALPHRMRRKPFEPPQLNKEKIEQIFNEFEEKNNEKNEDEKGNKENDKVKKNLNENNSKEKQEENGGDFENNENKDDKEDNKEHENNSSNNKSSNNKDSNIEEEKIFDINGGANPKILNIKLRDSIYRYSSGRHIKSISKKGRYIKYRIPHGKTTDIAFDATFRVSALYQKERREKFKDKNLALYLTKDDLREKVRERKISSHLLFVVDASGSMGAMRRMEAAKGAVLSLLMDAYQKRNKVGMIAFRKDMAELVLPFTSSVELGEKLLKELPTGGKTPLSKAFLKAYEVFKNEMRKNPNIIPIMIFISDFKPNVAIKKDYIKEVFDICDKIAEEGINVILIDTEPKSFIKIGIGDKIAKRYGFKYYKIDDISVDGILNIVNPLINY</t>
+  </si>
+  <si>
+    <t>MNYPFTAIVGQEKMKKALILNAINPKIGGVLIRGEKGTAKSTTVRALADLLPEIEVVEGCPFNCDPNGDLCDICREKKERGELKTIKKKMKVINLPIGATEDRVIGTLDIEKAIKEGIKALDPGILAEANRNILYIDEVNLLDDHIVDILLDAAAMGWNIIEREGIKIKHPSRFILVGTMNPEEGELRPQILDRFGLMVDVEGLNDIKQRVEVIKRVEEFNENPEEFYKKYEEEQLKLREKIEKARELLKNVKISDDLLELISKICIELGIPTNRADITVARTAKTIAAFNGRDYVTVDDVKEACELALPHRMRRKPFEPPQLNKEKIEQIFNEFEEKNNEKNEDEKGNKENDKVKKN</t>
+  </si>
+  <si>
+    <t>NC_015847.1</t>
+  </si>
+  <si>
+    <t>MSRKVVYPFGAIVGQEKAKKALLCCAVDPSIGGVLLTGDKGAGKSTLVRSLSHVLPNFEAVLECPFNCNPENPLEMCDNCYENANSANEFKKLEKTMKVVDLPLSVTIDRLVGTIDIKKALNEGKRVLQPGILANANRNILYIDEVNLLDDYVIDILLDSAAMGWNTIEREGISFKHPSRFVLIGSMNPEEGELRPQLLDRFGLYVEIESLFEAEDRLEVLKRVEKFQKDPFSFYETYASIEENLTESIKTAKKILNDVTISEELLKMLIDSIIHLGIKTHRAEITTIKTAKTIAALDGRMEVSLEDLKTAMDLALIHRLSNPNSNPPSQSMENENNEEMEDESKKKRKQIRQLVPHHHHLDEKDNNDGNKTDFEEKNHNFKELNFKTENFDKKIISKNSEIENKCFENHGGSKKVRVSEIGSKRGYPISYTTVSKPEHYEDIDIISTINSAILNQKPYKLLQSDFKVKIRKNRVPKLSVILLDSSGSMGISKRIGIAKGIVDRYADDSYVKREYISVISFRGREAIVLSPFTRKYNLIKAQLDSIKTGGKTPLSSALKVALNISKQFRNKNKKSSVEFILISDGKANVPIKKDIKYEIEELSKIIQKRKISFKIYDIRNKGVIDPSISYLDKISEITNAEMENI</t>
+  </si>
+  <si>
+    <t>MSRKVVYPFGAIVGQEKAKKALLCCAVDPSIGGVLLTGDKGAGKSTLVRSLSHVLPNFEAVLECPFNCNPENPLEMCDNCYENANSANEFKKLEKTMKVVDLPLSVTIDRLVGTIDIKKALNEGKRVLQPGILANANRNILYIDEVNLLDDYVIDILLDSAAMGWNTIEREGISFKHPSRFVLIGSMNPEEGELRPQLLDRFGLYVEIESLFEAEDRLEVLKRVEKFQKDPFSFYETYASIEENLTESIKTAKKILNDVTISEELLKMLIDSIIHLGIKTHRAEITTIKTAKTIAALDGRMEVSLEDLKTAMDLALIHRLSNPNSNPPSQSMENENNEEMEDESKKKRKQIRQLVPHHHH</t>
+  </si>
+  <si>
+    <t>NC_016830.1</t>
+  </si>
+  <si>
+    <t>MTHTPHFPLCAVVGADDLKLALCLAAIDPKIGGVLIEGPRGMAKSTLARGLADLLASGQFVTLPLGATEERLVGTLDLDAALGEGRAQFSPGVLAKADGGVLYVDEVNLLPDHLVDLLLDVAASGINLIERDGISHRHPARFVLIGTMNPEEGELRPQLLDRFGLNVALDGHTAPAERGQIIRRRLDFDSDSLAFCAAWETAQQQLRDRCQQARDRLAGIALDDAALVQITERCFAAGVDGLRADLVWLRAARAHAAWRGAGAIADEDIDAVAEFALRHRRRGHSAPAPAPSQAPTGAEKTVEPNEEGQGQWGDLPARALPTGARRDVPSWPKKPLGIRPRSPAGANARPRAGRLDQGRQGRSKAAASGAVNWPGTLLNGRPRLYEDLRFHSRQRSPHELWLVIVDASASTRRHRALSDGKGLLAQLFDDAYRQRARLALLTASGTFPNWQVQGLKASAGLRDWLDGLGAGGGTPMLAALNEAGRWLVARRKRYPAEQQRVLVMTDGRVKEGLSPPLLDCPCLLIDIERGPIRLGRARQLAGRLGAEYRHIDETT</t>
+  </si>
+  <si>
+    <t>MTHTPHFPLCAVVGADDLKLALCLAAIDPKIGGVLIEGPRGMAKSTLARGLADLLASGQFVTLPLGATEERLVGTLDLDAALGEGRAQFSPGVLAKADGGVLYVDEVNLLPDHLVDLLLDVAASGINLIERDGISHRHPARFVLIGTMNPEEGELRPQLLDRFGLNVALDGHTAPAERGQIIRRRLDFDSDSLAFCAAWETAQQQLRDRCQQARDRLAGIALDDAALVQITERCFAAGVDGLRADLVWLRAARAHAAWRGAGAIADEDIDAVAEFALRHRRRGHSAPAPAPSQAPTGAEKTVEPNEEGQGQWGDLPARALPTGARRDVPSWPKKP</t>
+  </si>
+  <si>
+    <t>NC_017033.1</t>
+  </si>
+  <si>
+    <t>MSAATDPAGSRPDYPFSALVGLEPLRRFLLLAAVDPGLGGVLISGPRGTAKSTSARALAALLPEGRLVNLPLGATEERLIGSLDLEAMLRDGELRFRPGLLAAAHQGVLYVDEVNLLPDALVDALLDVAASGVNSIEREGISHRHPARFVLIGTMNPEEGEVRPQLLDRFGLMVELDNCLDPQQRQAMVRARLDYESDPQAFHARHREMDAALRQRLLAARAALAELDFDEAVHERVSRWCIAAAVDGVRADLAMLRAARALAAWEGAQAVTIEHVDQVAAACLRHRCRQLPAAPSSADGPAPQDHDARSGPDEASTTGRHPGDDEGDFGELPPEPVGMTPVKAVRPLLPKPLVHRSGPTAEPLRRDRWTAATVARNGAARPSTRIDWPASLARAGGLPRRPDELSYRRRPGGSARLTVYVLDCSASMLRHGRLALAKGLLADWFAEAARARSQVALICHGGRGARLVFGPAVPRWWNERWIQPIAGGGGTPLQAGLAMAETLLQRGHRRDPGLGLELWLLSDEHCPAAGPPSLGSASIIDVEPRGRMAGGARRLAHAWQAAYLQLTPQGLSQPGF</t>
+  </si>
+  <si>
+    <t>MSAATDPAGSRPDYPFSALVGLEPLRRFLLLAAVDPGLGGVLISGPRGTAKSTSARALAALLPEGRLVNLPLGATEERLIGSLDLEAMLRDGELRFRPGLLAAAHQGVLYVDEVNLLPDALVDALLDVAASGVNSIEREGISHRHPARFVLIGTMNPEEGEVRPQLLDRFGLMVELDNCLDPQQRQAMVRARLDYESDPQAFHARHREMDAALRQRLLAARAALAELDFDEAVHERVSRWCIAAAVDGVRADLAMLRAARALAAWEGAQAVTIEHVDQVAAACLRHRCRQLPAAPSSADGPAPQDHDARSGPDEASTTGRHPGDDEGDFGELPPEPVGMTPVKAVRPLLPKP</t>
+  </si>
+  <si>
+    <t>NZ_CM001436.1</t>
+  </si>
+  <si>
+    <t>METLIM_RS16260_fs_2466685</t>
+  </si>
+  <si>
+    <t>magnesium chelatase</t>
+  </si>
+  <si>
+    <t>MTHHIRRNILPFTAIVGQDQMKLALILNAINPRIGGVLVRGEKGTAKSTAVRALAEILPEIEVIKGCPFNCNPHNPNELCDSCYEKLNNSESTDTVIRKVQVVTLPLGSTEDRVIGTIDIEEAIKEGTKCLEPGILAAVNRGILYIDEVNLLDDHVVDILLDSAAMGVNSVEREGISFSHPAKFILIGTMNPEEGELRPQLLDRFGLQVTVEGIADVSERVEVVHIADAFETDPISFMEEYDQKQKHFRERIVSAKEILPNVVISDELVHRIAQTCVDMGVMTHRAEITIVRTAKTISAFNGREEVTTEDVREAMALALPHRMRRKPFEDPQVDQQKINDMMQDDQKKTIMSRTVEEQPENRDENPEETGEIPPFDFPEEEENRDNEIPPSSGSPPQEMVFDIGRPIETSGINYSSCKDRMKRLYVSGRRVDTLSEKNRGRYARICMPKDMDDIAFDATMRVASVHQKKRQKNGNRLIIKDSDIRERIRVGKVSVTCVFVVDISGSMGADKRMECAKGAVLSLLEDAYRNRDRVSIVAFRGSEAEVVLPLCNSVDLAYKYLREMPTGGKTPLSHGLMKAYEVLMNEKKKREDIIPLIILISDGRANYGFGKNIKEEIFSISERFRDERIHTVIIDTESVKNSFIKFQLGYCRDIAERSGGSYYSLSELSTEGVSSIALNEKERLVSSYI</t>
+  </si>
+  <si>
+    <t>MTHHIRRNILPFTAIVGQDQMKLALILNAINPRIGGVLVRGEKGTAKSTAVRALAEILPEIEVIKGCPFNCNPHNPNELCDSCYEKLNNSESTDTVIRKVQVVTLPLGSTEDRVIGTIDIEEAIKEGTKCLEPGILAAVNRGILYIDEVNLLDDHVVDILLDSAAMGVNSVEREGISFSHPAKFILIGTMNPEEGELRPQLLDRFGLQVTVEGIADVSERVEVVHIADAFETDPISFMEEYDQKQKHFRERIVSAKEILPNVVISDELVHRIAQTCVDMGVMTHRAEITIVRTAKTISAFNGREEVTTEDVREAMALALPHRMRRKPFEDPQVDQQKINDMMQDDQKKTIMSRT</t>
+  </si>
+  <si>
+    <t>NZ_AGJL01000038.1</t>
+  </si>
+  <si>
+    <t>MKYPFTAIVGQEKMKKALILNAINPKIGGVLIRGEKGTAKSTTVRALADLLPEIEVVEGCPFNCNPNGDLCDICREKKEREELKTIKKKMKVVNLPIGATEDRVIGTLDIEKAIKEGIKALDPGILAEANRNILYIDEVNLLDDHIVDILLDAAAMGWNIIEREGIKIKHPSRFILVGTMNPEEGELRPQILDRFGLMVDVEGLNDIKMRVEVIKRVEEFNENPEEFYKKYEEEQLKLREKIEKARELLNNVKISDDLLELISKICIELGIPTNRADITVARTAKTIAAFNGRDYVTVDDVKEACELALPHRMRRKPFEPPQLNNEKIEQIFNEFEENKEKNEDEKNNEENDDVKKNLNENNNKDENNNENRDSENHENKDNRDNGEHDNNGNESNNENNNVGEEVFGINGGANPKILNIKLRDNIFRYSSGRHIKSISKKGRYIKYKIPHGRTTDIAFDATFRVSAMYQKERREKFKDKNLALYLEKDDLREKVRERKISSHLLFVVDASGSMGAMRRMESAKGAVLSLLMDAYQKRNKVGMIAFRKDKAELVLPFTSSVELGEKLLKELPTGGKTPLSKAFLKAYEVFKNEIRKNPNIIPIIIFISDFKPNVAIKKDYIKEVFDICDKIAEEEINVILIDTEPKSFIKIGIGDKIARRYGFRYYKIDDINVDGILDIVNPLIN</t>
+  </si>
+  <si>
+    <t>MKYPFTAIVGQEKMKKALILNAINPKIGGVLIRGEKGTAKSTTVRALADLLPEIEVVEGCPFNCNPNGDLCDICREKKEREELKTIKKKMKVVNLPIGATEDRVIGTLDIEKAIKEGIKALDPGILAEANRNILYIDEVNLLDDHIVDILLDAAAMGWNIIEREGIKIKHPSRFILVGTMNPEEGELRPQILDRFGLMVDVEGLNDIKMRVEVIKRVEEFNENPEEFYKKYEEEQLKLREKIEKARELLNNVKISDDLLELISKICIELGIPTNRADITVARTAKTIAAFNGRDYVTVDDVKEACELALPHRMRRKPFEPPQLNNEKIEQIFNEFEENKEKNEDEKNNEENDDVKKN</t>
+  </si>
+  <si>
+    <t>NC_017034.1</t>
+  </si>
+  <si>
+    <t>MSSFNVVYPFTAIVGQEKMKKALLLNAINPRIGGVLIKGEKGTAKSTAVRALANLLPDIEVVEDCPYGCSPYDRTLMCSSCQEKNGNLKKGWRKMRVVELPISSTEDKVVGTLDIEHAIKKGEKRFEPGILAQANRNILYVDEVNLLNDHIVDVLLDAAAMGVNIVEREGVSYSHPSQFILVGTMNPEEGELRPQLLDRFGLCVEIEGIRDPETRMAIVTNRMEYEKDPESFAEKCKKDEEALRQKIIHAKEILGKVKVSPEMLRLIVDICIDMQVDGHRADLTMMKAASAIAAFDGRTEVNENDVREAAELVLKHRMRRKPFSQQKMDSDRLEQSIQKNREKPPQQQQQKQQEEHRHDHHHDHSDENSQATRSDASKETYFRRVTPSGLNQAAMKSLIEKDSKVRDGQGRRSVTTSRDGKYIRSIIPQGEVTDLAIDATLRAAAPYQKNREGCLAIKIEAQDLRQKVRERKIGNTIVFIVDASGSMGAEARMTAVKGAILTLLMDAYQKRDKVGLIVFKGDRAELLLPPTQSVELARKYTEELPVGGKTPLVHGLTMGLDVIKKEMLKDKCIMPIAVLISDGKANVSMRGGKPVEEAVEAASLYREGHIKSLVIDSEKNFLSFGLAKRISEAMGAKYVKLEELDADAIVRGVGEM</t>
+  </si>
+  <si>
+    <t>MSSFNVVYPFTAIVGQEKMKKALLLNAINPRIGGVLIKGEKGTAKSTAVRALANLLPDIEVVEDCPYGCSPYDRTLMCSSCQEKNGNLKKGWRKMRVVELPISSTEDKVVGTLDIEHAIKKGEKRFEPGILAQANRNILYVDEVNLLNDHIVDVLLDAAAMGVNIVEREGVSYSHPSQFILVGTMNPEEGELRPQLLDRFGLCVEIEGIRDPETRMAIVTNRMEYEKDPESFAEKCKKDEEALRQKIIHAKEILGKVKVSPEMLRLIVDICIDMQVDGHRADLTMMKAASAIAAFDGRTEVNENDVREAAELVLKHRMRRKPFSQQKMDSDRLEQSIQKNREKPPQQQQQKQQEEHRHDHHHDHSDENSQATRSDASKETYFRRVTPSG</t>
+  </si>
+  <si>
+    <t>NZ_AJLF01000002.1</t>
+  </si>
+  <si>
+    <t>MRTREKRLVFPFSAIVGQEKTKLALLAVAVNPLIGGVLLKGDKGTGKSTLVRALANVLPEIEVVADCPFNCNPKNPLEMCDSCYERYEQGESLPTTRRRMRVVDLPLSVTIDRLVGTIDVERFLKEGKKALQPGILAEANRGVLYIDEVNLLDDYIADSLLDAAAMGWNTIEREGISFRHPARFILVGSMNPEEGELRPQILDRFGLCVEVSAPMDPEERIEIVKRVEEFHEDPISFYRKYENEEKKLTERIVKARELLPKVEISDDLLKLLAETVVNFGIKTNRAEIATIKTAKAIAALNGREKVSLEDLEKAMELALPHRLRDRPFQKLPQMKPPESKDDSRHDHKHDHKHEHKKEEKNEKRNQEPQSQGIGNSEKNFRSSEAKTLKIESKNFDVSEFRGYRSSRDVSVTAVNFPKGVPVSYVPPNGEIKDVDFYNSLVWAVLNGKNLLIRLDLNDLRVRVRRAKAPTLWVLLLDSSGSMAVQKRISIAKGIAEKLVTNGYIKKSKMALIVAKGDQAEIFVPPTKNYWEVLERIESVPTGGKTPLSSALYYLLLLANRERMKDRSVKVRAFLITDGKANVPFFGKRIKEEIIELARALKKKEIELTIYDAGGRGINLGVSYIPVLKEVANAKVHGV</t>
+  </si>
+  <si>
+    <t>MRTREKRLVFPFSAIVGQEKTKLALLAVAVNPLIGGVLLKGDKGTGKSTLVRALANVLPEIEVVADCPFNCNPKNPLEMCDSCYERYEQGESLPTTRRRMRVVDLPLSVTIDRLVGTIDVERFLKEGKKALQPGILAEANRGVLYIDEVNLLDDYIADSLLDAAAMGWNTIEREGISFRHPARFILVGSMNPEEGELRPQILDRFGLCVEVSAPMDPEERIEIVKRVEEFHEDPISFYRKYENEEKKLTERIVKARELLPKVEISDDLLKLLAETVVNFGIKTNRAEIATIKTAKAIAALNGREKVSLEDLEKAMELALPHRLRDRPFQKLPQMKPPESKDDSRHDHKHDHKHEHKKEEKNEKRNQEPQSQGIGNSEKNFRSSEAKTLKIESKNFDVSEFRGYRSSRDVSVTAVNFPKGVPVSYVPPNGEIKDVDFYNSLVWAVLNGKNLL</t>
+  </si>
+  <si>
+    <t>NC_017079.1</t>
+  </si>
+  <si>
+    <t>MRQTYPFTAIVGQERMKRALILNAINPQIGGVLIRGERGTAKSTAARALAALLPMLEVVQGCRFNCDPQRPDLFCDECRERLEREGTLPVTYVPTPFVDLPVSATEDRVVGTLDIEKAIQKGERHFEPGILAAANRGVLYVDEVNLLDDHVVDLLLDSAAMGVNVVEREGISFQHPARFVLVGSMNPEEGDLRPQLLDRFAHAVDVVGISDPAQRVEVLRRRVFFEQDPEAFIAAYEESEKEMCNRILEARQRYPLVKYTEKDLYTIAALTSSFKVDGHRADIVILKTARAQAAFEGRFQINDRDILLAAELALPHRMKKQPFQDSVLNPDQLQANMRQARAEAEHAVSDEATQQEGEGKATADEKKAWRAMSRSLNQSPEAGEGGVPQPDASPQQSSSPGDNKGARKPVKIGETFEAKRLDTPLDKMTRDRAGKRSYTRTERKRGRYIKARPAGDRPEDIAFDATLRAAAPYQSQRHAQADNNLALQLRKSDLQRKVRVRRTGNLILFVVDASWSMAASERMEATKGAIFSLLVDAYQRRDQVGLIVFQRDKARLVLPPTNSVELAQRALQDLPVGGKTPLSSGLFLAWQVLENARRRDHEIRPLMILLTDGAGNVSMTGMPAQEESLRIAELFEQARLKSIVINMEHAAFDRGLAQKLADALGGVCYNVPDLRADTLLSTVKREIEG</t>
+  </si>
+  <si>
+    <t>MRQTYPFTAIVGQERMKRALILNAINPQIGGVLIRGERGTAKSTAARALAALLPMLEVVQGCRFNCDPQRPDLFCDECRERLEREGTLPVTYVPTPFVDLPVSATEDRVVGTLDIEKAIQKGERHFEPGILAAANRGVLYVDEVNLLDDHVVDLLLDSAAMGVNVVEREGISFQHPARFVLVGSMNPEEGDLRPQLLDRFAHAVDVVGISDPAQRVEVLRRRVFFEQDPEAFIAAYEESEKEMCNRILEARQRYPLVKYTEKDLYTIAALTSSFKVDGHRADIVILKTARAQAAFEGRFQINDRDILLAAELALPHRMKKQPFQDSVLNPDQLQANMRQARAEAEHAVSDEATQQEGEGKATADEKKAWRAMSRS</t>
+  </si>
+  <si>
+    <t>NC_017075.1</t>
+  </si>
+  <si>
+    <t>RGE_RS21735_fs_RGE_RS21730</t>
+  </si>
+  <si>
+    <t>MNPETEIPAYPFSALVGQPRLQQALLLAAVDESLGGVLISGPRGTAKSTAARALAALLPGAPFVTLPLAASLEQLVGTLDVEDVLRDGRLRFKPGILARAHGGVLYVDEVNLLPDALVDALLDAAASGVHTVERDGISERHASRFVLVGTMNPEEGELRPQLLDRFGLSVVIANPADTAARQAILRARLAFDRDPQRVASEHAAHDAALARAIATARARLDAVELGDAALARAADLAHAAGVDGLRADLVMLRAARALAALDGRDAVLVQDVDAVADDALLHRRRHPAPPPAARPEAPPPPPAACSGGDGDWGALPPQPAGFETASLPGTWRPKALGRRGPGRHAGLPRWPLPAPGGTLAGAAATSGGAPDWLCTLIAKGPQPLAPEHLRRRAAAAPPPRCHLVLLDTSGSMRRGGRLARAKGVAAWLVAQAARHGDQLGLLAFGGAGLQWLIAPGPARRAAAVRLPPLGGGGGTPLAQALAAAEPVLQRYAGAWLWLLSDGRCPGEPPAPRAAAQVVIVDHDDGPVPIGRCAAWAERWGARCVPAHHIQGERR</t>
+  </si>
+  <si>
+    <t>MNPETEIPAYPFSALVGQPRLQQALLLAAVDESLGGVLISGPRGTAKSTAARALAALLPGAPFVTLPLAASLEQLVGTLDVEDVLRDGRLRFKPGILARAHGGVLYVDEVNLLPDALVDALLDAAASGVHTVERDGISERHASRFVLVGTMNPEEGELRPQLLDRFGLSVVIANPADTAARQAILRARLAFDRDPQRVASEHAAHDAALARAIATARARLDAVELGDAALARAADLAHAAGVDGLRADLVMLRAARALAALDGRDAVLVQDVDAVADDALLHRRRHPAPPPAARPEAPPPPPAACSGGDGDWGALPPQPAGFETASLPGTWRPKA</t>
+  </si>
+  <si>
+    <t>NZ_AMPO01000009.1</t>
+  </si>
+  <si>
+    <t>MVRLLKNLIFPFSAIVGQEKVKKALVLNAINPSIGGVLIKGDKGTGKTTAVRALADLLPPLKVVKGCPFNCDPDDPTSFCDSCKMDESGEIQVEEKKMRVVELPLGATEDRVVGSINIEKALKEGMKALEPGILADANRNILYVDEINLLDDNLVDVLLDAAAYGINTVEREGISLVHPSNFILVGTMNPAEGELRPQLSDRIGLQISVQSILDIDDRVKIMQRRESFEKDPNTFREEFQKYQNQILENIIKARKLLKEVEVSQDMMKVIAQLCVDMGVDGHRADIAILKTSKTLAAYYKHHEVEYIDVEEATALVLGERFHKKSLDEDKIKKQIKNAVNEISDEENKGDDKKKPQNKIESEQKKRGMKLKTLKKDEQAVESQEEEVDVKKLLKIKGKKKKRLYGKRIDSKTQKGRYIKSKLPKDPSGDIAIDATLRAAALGSHGEINVKSEDLRHKIRKHGAKASIVMVVDISGSMFSDRKANRLKGILNTVIEDAHRHQDRISVIGFKGQEAEIIIPTTSRATSFREQVDNIQVGGTTPLAAGMKKGLEILKKEKLKEEFVPLLIVLSDGMPNIGLEEGPLKDALKIAEEIKEKEIHTLVINFEQSVRYGHEINMELALAAGGRYYDLEELKNPGMVMARILDNERENI</t>
+  </si>
+  <si>
+    <t>MVRLLKNLIFPFSAIVGQEKVKKALVLNAINPSIGGVLIKGDKGTGKTTAVRALADLLPPLKVVKGCPFNCDPDDPTSFCDSCKMDESGEIQVEEKKMRVVELPLGATEDRVVGSINIEKALKEGMKALEPGILADANRNILYVDEINLLDDNLVDVLLDAAAYGINTVEREGISLVHPSNFILVGTMNPAEGELRPQLSDRIGLQISVQSILDIDDRVKIMQRRESFEKDPNTFREEFQKYQNQILENIIKARKLLKEVEVSQDMMKVIAQLCVDMGVDGHRADIAILKTSKTLAAYYKHHEVEYIDVEEATALVLGERFHKKSLDEDKIKKQIKNAVNEISDEENKGDDKKKPQNK</t>
+  </si>
+  <si>
+    <t>NZ_BAGD01000097.1</t>
+  </si>
+  <si>
+    <t>magnesium chelatase | magnesium chelatase</t>
+  </si>
+  <si>
+    <t>VGGSSVGDDAGFPFSAVVGQERLQLALILCAVHPGIGGVLVRGEKGTAKSTVVRALAQLLPPIVDESGARPARLVELPVGATEDRVVGSLDLERVLRDGEQAFKPGLLAAAHHGVLYVDEVNLLHDHLVDVLLDAAAMGRVHIERDGVSASHPARFVLVGTMNPEEGELRPQLLDRFGLTVDVVASREVDVRMAVVRRRLDYEADPAGFAARYTAADRAVAERILSARDRLDEITLDTVELRRIAALCASFDVDGMRADLVVARTATAHAAWRGGGAVTEEDVRVAAELALPHRRRRDPFDEPGISEEQLDEAMRQAAEEAARAQEDDPGKAMGSRPTTVRGRLTDDAEPEGGAADSPEPEDSRSRPDAAEGRSDSREGHSESREGRSELDDGRSDGSDSRSDLSEQEPDSAGDEPDRPGAESDSPTRPPGDADSPGGESNSGRPAREGDAGLPALSPAKPPRWEVPGIGEGAPGRRSRARTRQGRVVRAIADTTGGLHLLGTVFAAAPHQRARGRDSGPLALAVDDLRGAYREGREGNLVVFVVDASGSMAARDRLSAVTGAVVTLLRDAYQRRDKVAVITVRGQDADLVLPPTSSVDIAVRRLAGIRTGGKTPLAQGLLKAREVLVRERVRDPRRRPLVVLLTDGRATGGTDPVPRARTAARLLAGDGVTAMVVDCERGMIRLGLARDIARDLRAGYLRLGELTGESVAGVVRAGVGVA</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>NZ_KB290831.1</t>
+  </si>
+  <si>
+    <t>VNTTPVPGYPFSAVVGQDQLRLALILTAIAPRIGGVVVRGEKGTAKTTTVRAFSALLGDAPLVNLPIGATEDRVVGSLNVEKILTTGHAEYQPGLLAQADGGVLYVDEVNLLADHLVDALLDAAATGAVTIERDGISHTSSANFVLVGTMNPEEGELRPQLLDRFGLAVDVAASRDVEVRAEIMRRRLDYEDDPHAFAERWAEEDAGVATQITAARALSPVLTPTNLARIAHLCASFDVDGMRADLVIARTAVAHAAWSGRETVEDEDIRVAAELALPHRRRRDPFDEPGLDQEQLDEAMDEARDQHPEPESEESPQVEPPESTGESNEPTSDGEAGSADNGAPFRSRVLRRAGIGEESVPGRRSKAYSAQGATVRAVRGGRGINMVGTVLAAADRGARIVGDLINFQPDDLRGSLRRGMESNLIVFLVDSSGSMAGRDRLSAVTGAVTSMLRDAYQRRDKVAVITVRGTAPELVLPPTGSIDVAIRRLAGLPTGGRTPLGEGLLMAHEVIAREYRKEPGRRALLVVLSDGRATSTSGMGGVRQAAGMIAQRRLAGSIVIDCEAGGRVRLGLASELARNLGGVCVQLGEINAASVAAVIQAM</t>
+  </si>
+  <si>
+    <t>MNTTPVPGYPFSAVVGQDQLRLALILTAIAPRIGGVVVRGEKGTAKTTTVRAFSALLGDAPLVNLPIGATEDRVVGSLNVEKILTTGHAEYQPGLLAQADGGVLYVDEVNLLADHLVDALLDAAATGAVTIERDGISHTSSANFVLVGTMNPEEGELRPQLLDRFGLAVDVAASRDVEVRAEIMRRRLDYEDDPHAFAERWAEEDAGVATQITAARALSPVLTPTNLARIAHLCASFDVDGMRADLVIARTAVAHAAWSGRETVEDEDIRVAAELALPHRRRRDPFDEPGLDQEQLDEAMDEARDQHPEPESEESPQVEPPESTGESNEPTSDGEAGSADNGAPFRS</t>
+  </si>
+  <si>
+    <t>NC_020506.1</t>
+  </si>
+  <si>
+    <t>hypothetical protein | VWA domain-containing protein</t>
+  </si>
+  <si>
+    <t>VSPQSVIRYPFSAVVGQDELSLALILTAISPRIGGVVIRGEKGTAKTTTVRAFVALLGDAPLINLPLGSTEDRVVGSLNMETVFTTGRAEYQPGLLAQADGGVLYVDEINLLADHLVDALLDAAASGRVNIERDSISHSSSTNFVLVGTMNPEEGELRPQLLDRFGLAVDVSASTNPEIRVEIIKRRLAYENNPEQFMAQWADQDAATVERIVAAKELLPSVELPDMILNHIAWLCARIEVDGMRADLVITRTALANAAWEGRTVVTDDDVETAARLALPHRRRRNPFDAPEMEECRLQETLQEARNFFKDHEKQGPAAKITDEETGAQALTDTENPTDEDGMQGTAQAKAQTTGKVGTAGSGEPFRSRNLRLSTMGSEESTPGRRSKAYSRQGADVRPKKDGHGINLVGTLMAASERGAGIVEGIVDFRPEDLRGSLRRGKEANLIVFVVDTSGSMAALSRVRAVTSTITSMLSDAYQRRDKVAVIAVNGNKPTLVLNPTNSVELAQQRLKDMPMGGRTPLAEGLLMAKDLMERERRKEPGRRALMIVMTDGQDTSSAGEMGIATAAQLVVKSGLSGNLVIDCEGRLKVRKEKAAVLAEMLNGVCIRLRDMNSEHIKFVINA</t>
+  </si>
+  <si>
+    <t>MSPQSVIRYPFSAVVGQDELSLALILTAISPRIGGVVIRGEKGTAKTTTVRAFVALLGDAPLINLPLGSTEDRVVGSLNMETVFTTGRAEYQPGLLAQADGGVLYVDEINLLADHLVDALLDAAASGRVNIERDSISHSSSTNFVLVGTMNPEEGELRPQLLDRFGLAVDVSASTNPEIRVEIIKRRLAYENNPEQFMAQWADQDAATVERIVAAKELLPSVELPDMILNHIAWLCARIEVDGMRADLVITRTALANAAWEGRTVVTDDDVETAARLALPHRRRRNPFDAPEMEECRLQETLQEARNFFKDHEKQGPAAKITDEETGAQALTDTENPTDEDGMQGTAQAKAQTTGKVGTAGSGEPFRS</t>
+  </si>
+  <si>
+    <t>NZ_AQUK01000001.1</t>
+  </si>
+  <si>
+    <t>MKVYPFTAIVGQEKMKLALILNAINPKIGGVLIRGEKGTAKSTAVRALADLLPEIEVIEGCPFNCDPKEPCDLCKERDNIRVIKRKMKVVNLPIGATEDRVVGTLDIEKAIKEGIKALEPGILAEANRNILYIDEVNLLDDHIIDLLLDAAASGWNIIEREGIKIKHPSRFILVGTMNPEEGELRPQILDRFGLMVEVEGLKDPKQRVEVVKRVEEFSKDPEGFYKKFEKEQEKLRERILKARKILDKVEIDEDLLELISKTCVELGIFTNRADITVVRTAKAIAAYDNREKVNLEDVKLAMELALPHRMRRKPFEPPRIDKNRLEEIINKNLDGLKKNITLKEKLKEKESKENNKEQEENNSNGSYGNSEKVFGIDKNITVNPNILNLKCKSYISESRGKHIKAMAKRGRYIKYKPTSDFEDLALDASIRRAAIYQKDRKKRYKKGLAIYLEKEDLLKKVRQRKIRSYVLFVVDASGSMAAKKRMEAAKGAVLSLLLNAYQKRNKVGMIVFRNDKADLVLPFTNSVDLAEKLLKDIPTGGKTPLGKALVKAYETIIKEMKKPIIPIMVIISDFKPTVGDIKEIDKICEMIVEKGINVILIDTETSFVKVGIGDRLAKKFGFKYYNIKDITKENILEKVKL</t>
+  </si>
+  <si>
+    <t>MKVYPFTAIVGQEKMKLALILNAINPKIGGVLIRGEKGTAKSTAVRALADLLPEIEVIEGCPFNCDPKEPCDLCKERDNIRVIKRKMKVVNLPIGATEDRVVGTLDIEKAIKEGIKALEPGILAEANRNILYIDEVNLLDDHIIDLLLDAAASGWNIIEREGIKIKHPSRFILVGTMNPEEGELRPQILDRFGLMVEVEGLKDPKQRVEVVKRVEEFSKDPEGFYKKFEKEQEKLRERILKARKILDKVEIDEDLLELISKTCVELGIFTNRADITVVRTAKAIAAYDNREKVNLEDVKLAMELALPHRMRRKPFEPPRIDKNRLEEIINKNLDGLKKNIT</t>
+  </si>
+  <si>
+    <t>NZ_AQUW01000002.1</t>
+  </si>
+  <si>
+    <t>VTEHTPVPGFPFTAIVGQDQLRLALLLNAISPGIGGVCVRGEKGTAKTTMVRGFAPLLDGSLVNLPLGATEDRVVGSINVETILTTGKAEYKPGLLAEADGGILYVDEVNLLADHLVDALLDAAATGRVTIERDGVSYSAPAQFVLVGTMNPEEGELRPQLLDRFGLAVEVAGSKDPKVRGEIITRRLAYENDPHGFAAQWQEHDAALKQQLDAARAAVAHVQLPSVQVARIAQLCAAFDVDGMRADIVIARTAIAHAALRGNEVVDDEDVRVAAQLALPHRKRRNPFDEPGMDESELDEKLDQAIEDNPDPAEPPTEPEPDDPADSSEDLPQPEGDGSEEEPDTEPQRGDGKGDSASMGAPFRRRTLRRRGMGEEANPGRRSKALSSEGAVIRSTTDGRGVHVVATAMAAAERGATVSGGRLELRPEDVRSSIKAGRESNLIVFVVDASGSVAGRTRLEAVTGAVESILEDAYIRRDKVAVITVRGRAPELLLPPTSSIDVARRRLQDARVGGRTPLAEGLVMADQLITRQARKEPGRRAIMVVLSDGRATGSYGMKEAYSAADAIAAKGLSGAVVIDCEVSARVRLGLARTLAEHLRAPCVQLAELNSDTVAGAIESL</t>
+  </si>
+  <si>
+    <t>MTEHTPVPGFPFTAIVGQDQLRLALLLNAISPGIGGVCVRGEKGTAKTTMVRGFAPLLDGSLVNLPLGATEDRVVGSINVETILTTGKAEYKPGLLAEADGGILYVDEVNLLADHLVDALLDAAATGRVTIERDGVSYSAPAQFVLVGTMNPEEGELRPQLLDRFGLAVEVAGSKDPKVRGEIITRRLAYENDPHGFAAQWQEHDAALKQQLDAARAAVAHVQLPSVQVARIAQLCAAFDVDGMRADIVIARTAIAHAALRGNEVVDDEDVRVAAQLALPHRKRRNPFDEPGMDESELDEKLDQAIEDNPDPAEPPTEPEPDDPADSSEDLPQPEGDGSEEEPDTEPQRGDGKGDSASMGAPFRR</t>
+  </si>
+  <si>
+    <t>NZ_AQXV01000049.1</t>
+  </si>
+  <si>
+    <t>MNYSFTAIVGQEKMKQALVLNAINPKIGGVLIRGEKGTAKSTTVRALADLLPEIEVVEGCLFNCDPNGDLCDVCREKKERGELKTIKKKMKVVNLPIGATEDRVIGTLDIEKAIKEGIRALDSGILAEANRNILYIDEVNLLDDHIVDILLDAAAMGWNVIEREGIKIKHPSRFILVGTMNPEEGELRPQILDRFGLMVDVDGLNDIKQRVEVIKRVEEFNENPEEFHRKYEEEQLKLRGKIERARELLNNVKINDDLLELVSKICIELGIPTNRADITVARTAKTIAAFNGRDNVTVDDVKKACELALLHRMRRKPFEPPQLNKEKIEQIFNEFEEKNKEKNENENEGNNKEDEVKKNLNESNSRDENNNENREHPENHENDNKNSDNNESNNNENSDIGDGDRTFGINGRVNPKILNIKLRDNLYRYSSGRHIRSISKKGRYIQYRIPHGKTTDIAFDATFRVSALYQKERREKFKDKNLVLYLKKEDLREKVRGRKISSNLLFVVDASGSMGAMRRMEVAKGAVLSLLMDAYQKRNNVGMIAFRKDSAELVLPFTSSVELGEKLLKELPTGGKTPLSKAFLKAYEIFKNEMRKNPNIIPIMIFISDFKPNVAIKKDYIREVFDICDKIAEEGINVILIDTEPKSLIKIGIGDKIAKKYGFGYYKIDDINVDGILDIVNPLMNYYGGVQF</t>
+  </si>
+  <si>
+    <t>MNYSFTAIVGQEKMKQALVLNAINPKIGGVLIRGEKGTAKSTTVRALADLLPEIEVVEGCLFNCDPNGDLCDVCREKKERGELKTIKKKMKVVNLPIGATEDRVIGTLDIEKAIKEGIRALDSGILAEANRNILYIDEVNLLDDHIVDILLDAAAMGWNVIEREGIKIKHPSRFILVGTMNPEEGELRPQILDRFGLMVDVDGLNDIKQRVEVIKRVEEFNENPEEFHRKYEEEQLKLRGKIERARELLNNVKINDDLLELVSKICIELGIPTNRADITVARTAKTIAAFNGRDNVTVDDVKKACELALLHRMRRKPFEPPQLNKEKIEQIFNEFEEKNKEKNENENEGNNKEDEVKKN</t>
+  </si>
+  <si>
+    <t>NZ_KB907450.1</t>
+  </si>
+  <si>
+    <t>MTTTAAAAMPAPFPFAAIAGQPHLRQALLLAAADPGLGGVLIEGPRGTAKTTAARALAELLPDAPFVTLPLGASLESLVGTLDLGRAMAGHELRFAPGLLARAHGGVLYVDEINLLPDALIDSLLDAAASGVNVVERDGISHRHAARFVLVGTMNPEEGTLRPQLLDRFGLCVQLHNIDDPSERQAIVRARLAFDADPQGFRDRHAQAQAELSSSLVRARALVADASALPYTDAVHEAVSAMCIAAAVDGLRADLVMLRSARALAAWEGATAITGQHVQRVAESVLLHRRKPEAETAAARTAPPDVGSKAAGDADGESSAGSADDGDWGAMPPEPVGIDRVKPLRPLIPSLRQQQQQAAPKKALSLRDAAPPAGASRQGDRRQGPQRDAWHGAARQGAAFDWPRTFAARGADRLRADHLRHRPREARSGVLHCFLLDCSASMRDDGNLARAKGLLLALMQEAYQRRDHVALLCFAGEVVELRLPPRRASAWNDDWIAPIAAGGGTPLALGVRRADQLLAKSGGTRRRWLWLLTDGRSSESPQRPESADEVCVVDFEAARLPLHRARRLADSWDARYVPADSA</t>
+  </si>
+  <si>
+    <t>MTTTAAAAMPAPFPFAAIAGQPHLRQALLLAAADPGLGGVLIEGPRGTAKTTAARALAELLPDAPFVTLPLGASLESLVGTLDLGRAMAGHELRFAPGLLARAHGGVLYVDEINLLPDALIDSLLDAAASGVNVVERDGISHRHAARFVLVGTMNPEEGTLRPQLLDRFGLCVQLHNIDDPSERQAIVRARLAFDADPQGFRDRHAQAQAELSSSLVRARALVADASALPYTDAVHEAVSAMCIAAAVDGLRADLVMLRSARALAAWEGATAITGQHVQRVAESVLLHRRKPEAETAAARTAPPDVGSKAAGDADGESSAGSADDGDWGAMPPEPVGIDRVKPLRPLIPSLRQQQQQAAPKKA</t>
+  </si>
+  <si>
+    <t>NC_021237.1</t>
+  </si>
+  <si>
+    <t>MSDTPHFPLSAVVGAEALKLALCLTAIDPKIGGVLIEGPRGMAKSTLARGLADLLASGQFVTLPLGATEERLVGTLDLDAALGQGRAQFSPGVLAKADGGVLYVDEVNLLPDHLVDLLLDVAASGTNLIERDGISHRHSAKFVLIGTMNPEEGELRPQLLDRFGLNVALSGQPAPQERGQIIRRRLDFDSDPQGFCAQWAEPQAALRERCQQARAALASIPLDDQALALITERCFAAAVDGLRADLVWLRAARAHAAWRGAPAIAEEDIDAVAEFALRHRRRETPPSAPQSGQSPQAPAPANANPSEGQGQWGEMPAQALPTGARREVPSWPKKPLGIRPRTDRGADAKPRAGHLDHGRQGKSREASAGSVNWPGTLLKGRPRLRADLLFRLRSRSPHELWLVIVDASASTRRHSALSDAKGLLAQLFDDAYRQRARLALLTASGRAPSWQVQGLKASRDLRHWLDGLGAGGGTPLPQALNEAAQWLEQRQRRLPAEQQRVLLITDGRLKNLPPPRPLNCPTLLLDIERGPIRLGRARELATRLNAVYQHID</t>
+  </si>
+  <si>
+    <t>MSDTPHFPLSAVVGAEALKLALCLTAIDPKIGGVLIEGPRGMAKSTLARGLADLLASGQFVTLPLGATEERLVGTLDLDAALGQGRAQFSPGVLAKADGGVLYVDEVNLLPDHLVDLLLDVAASGTNLIERDGISHRHSAKFVLIGTMNPEEGELRPQLLDRFGLNVALSGQPAPQERGQIIRRRLDFDSDPQGFCAQWAEPQAALRERCQQARAALASIPLDDQALALITERCFAAAVDGLRADLVWLRAARAHAAWRGAPAIAEEDIDAVAEFALRHRRRETPPSAPQSGQSPQAPAPANANPSEGQGQWGEMPAQALPTGARREVPSWPKKP</t>
+  </si>
+  <si>
+    <t>NZ_KE150446.1</t>
+  </si>
+  <si>
+    <t>MINTLYPFTAVVGQDQLKLALILTAISPRIGGVVVRGEKGTAKTTTARGFAALMPQGQLVNLPLGATEDRVVGSLDLEKVLTTGHAEFRPGLLSEANGGILYVDEVNLLSDHLVDILLDAAATGRVTVERDSISHTEQAQFVLVGTMNPEEGELRPQLLDRFGLAVDVVASHDVGQRVDVIRRRMEFESDPERFVAQFCDEENAVSAALVRAQEIVDELDLTTNNFQRIAIVCAGFDVDGMRADLVIARAAAAHAAWRLARAEAEGAANHKERGITDEDIRVAAELALPHRMRRNPFDSPEMDEEKLDELMNQPLPEDPGDDEDTPQAEDENNAEQAETDEQQVDAEPQGENLQDGGAGDTTDNRSSDNGAPTPPAASADSLPSASAEDPVDTSTTAPLANKEDRAVQGAPFRPSLVTKQGMGEGGPLGRRSRSYSHRGEAVRPAPLGQGHGLHLLGTLVAAAERGAHVDESGVDFEPRDLRGAIRLGTEANLVVFVVDASGSVAAHDRLKAVSGACVSILQDAYRRRDKVAVISVRGKKPTVLVPPTRSVEIAKERIANARIGGKTPLAAGLECAYRMVEREVFKAPGLRSIAIVLTDGRATDGLRRVKKVGRAFADRSDTGSLVIDCETGRGRVRLNLAHDVAHAMNAPVVSLTEFESAATNSVRAFSV</t>
+  </si>
+  <si>
+    <t>MINTLYPFTAVVGQDQLKLALILTAISPRIGGVVVRGEKGTAKTTTARGFAALMPQGQLVNLPLGATEDRVVGSLDLEKVLTTGHAEFRPGLLSEANGGILYVDEVNLLSDHLVDILLDAAATGRVTVERDSISHTEQAQFVLVGTMNPEEGELRPQLLDRFGLAVDVVASHDVGQRVDVIRRRMEFESDPERFVAQFCDEENAVSAALVRAQEIVDELDLTTNNFQRIAIVCAGFDVDGMRADLVIARAAAAHAAWRLARAEAEGAANHKERGITDEDIRVAAELALPHRMRRNPFDSPEMDEEKLDELMNQPLPEDPGDDEDTPQAEDENNAEQAETDEQQVDAEPQGENLQDGGAGDTTDNRSSDNGAPTPPAASADSLPSASAEDPVDTSTTAPLANKEDRAVQGAPFRP</t>
+  </si>
+  <si>
+    <t>NC_021499.1</t>
+  </si>
+  <si>
+    <t>magnesium chelatase subunit | VWA domain-containing protein</t>
+  </si>
+  <si>
+    <t>MSELPHFPLSAVVASDELKLALCLAAIDPAIGGVLIEGPRGMAKSTLARGVADLLEDASFVTLPLGASEERIVGTLDLDAALGEGRARFSPGVLAKAHGGVLYVDEVNLLPDHLVDLLLDVAASGINQVERDGISHQHPARFVLIGTMNPEEGELRPQLLDRFGLKVLQGGQPQPAERAEIVRRRLAFDTDPQAFLARWSNLQQALAQRCQDARARLPAIPLDDAALDEIAQRCFAAGVDGLRADLVWLRAARAHAAWRGVERIEAEDIDAVEHFALAHRRTHTPPPAAQPPESPSANAQSQPSTGEGQWGELPAQTVPMGERRELPRWPKKPLSIRPRTVTGAGAGSRPGALGNGRSGARRSGNAGAIQWLPTLLRGRPRQAADLIRAPRSRQPDELWLVLVDASASTRRHGALTQAKGLLAGVFETAYRQRARLAVLHATGRQPQWLWQGSKASPALHHWLAELGAGGGTPLIEALQQSAQWLTRRQRQKPAEEQRVLILTDGRLKEWPALDPMGCPTLLVDIEGGPVRLGRARKLADELGAEYRVIAEL</t>
+  </si>
+  <si>
+    <t>MSELPHFPLSAVVASDELKLALCLAAIDPAIGGVLIEGPRGMAKSTLARGVADLLEDASFVTLPLGASEERIVGTLDLDAALGEGRARFSPGVLAKAHGGVLYVDEVNLLPDHLVDLLLDVAASGINQVERDGISHQHPARFVLIGTMNPEEGELRPQLLDRFGLKVLQGGQPQPAERAEIVRRRLAFDTDPQAFLARWSNLQQALAQRCQDARARLPAIPLDDAALDEIAQRCFAAGVDGLRADLVWLRAARAHAAWRGVERIEAEDIDAVEHFALAHRRTHTPPPAAQPPESPSANAQSQPSTGEGQWGELPAQTVPMGERRELPRWPKKP</t>
+  </si>
+  <si>
+    <t>NZ_ATUG01000002.1</t>
+  </si>
+  <si>
+    <t>MKQHIYPFSAIIGQERMKTALLLNAVDPGIGGVLIAGDKGTGKSTAVRALARILPEIKAVRDCPYHCSPDDPASLCKTCLERISKGENLETDEYTMPVVELPLSATEDRVVGTLHVEHTLKTGERRFEPGLLAAANRGILYVDEVNLLDDHLVDILLDSAASGINIVEREGISHSHPAKFILVGTMNPEEGDLRPQLLDRFGLSLTVRGLEDVGLRRQVVQNRISFDRDPKLFSEKFSGSEKVLSGLILQSKGSFDGIQVPDEMLDLAVRLSMEVAAHGHRADVAMIKTAKALASMLEKQVVEKEHIIEAARFVLPHRMTDLHLATPEMLREKLEEVLSKVMDGKTAETPSFATEDSDDWDDISMQTPGATAASNVDMLFSFFEEKKKLFLKPMSLICVQDIEMESIDIHCDSLGKQTKGLMAAKSGRYVKSAPVKAQERGFHLAFDATLRAALIRNAQDGITGNTPIESPDLRKKVFKRPGRTLIVFLVDSSDSMGEGTFVRMRAAKGAALALIAKAGKKRHRVGMVAFREKSAQVILRPTSSLALARERLKALPTGGATPFADGLMKAWQMVKNERLKDPGIQPLLVVISDGEANVPHDSSRGLLEVMDELFLIAGRIGRDKIHSIVVDTKPPMEKSRDMLLLSEALGGAYHHISRSHAKSVVEAVKMGPGHNHRT</t>
+  </si>
+  <si>
+    <t>MKQHIYPFSAIIGQERMKTALLLNAVDPGIGGVLIAGDKGTGKSTAVRALARILPEIKAVRDCPYHCSPDDPASLCKTCLERISKGENLETDEYTMPVVELPLSATEDRVVGTLHVEHTLKTGERRFEPGLLAAANRGILYVDEVNLLDDHLVDILLDSAASGINIVEREGISHSHPAKFILVGTMNPEEGDLRPQLLDRFGLSLTVRGLEDVGLRRQVVQNRISFDRDPKLFSEKFSGSEKVLSGLILQSKGSFDGIQVPDEMLDLAVRLSMEVAAHGHRADVAMIKTAKALASMLEKQVVEKEHIIEAARFVLPHRMTDLHLATPEMLREKLEEVLSKVMDGKTAETPSFATEDSDDWDDISMQTPGATAASNVDMLFSFFEEKKKLFLKPMS</t>
+  </si>
+  <si>
+    <t>NZ_AULM01000035.1</t>
+  </si>
+  <si>
+    <t>MIDIKFRNIIPFAALVNQERMKKALILNIINPQLGGVLLRGEKGTGKSTAVRALAHLLPEISVVRDCPYSCDPFDEENLCLICRQKQLQGEKLAAEKRKIRVVNLPLGVTEDRLLGSIDIEKALREGIKALQPGILANANRGILYVDEVNLLDDTIADTLLDSAAMGVNVIEREGLSLYHPAKFILIASMNPEEGELRPQLLDRFGLYVEVKSLTDRDQRFQIALLVNMFETKADECKKMYETQQHQILTSMVTARNKIALVKIDEKLIEFCAYLASSLDIKTHRAEVNLVRASRTIATYNGRLEVIMDDIKEAADLVLPHRMQVKPFEEPLLDEALLNKKMADVEQVLGLSAIEKSSVLKRKPEIQKSENEISDIPVVNEGEIFKVGALYAAKPWDKLKQKKKVVRARTGARGKAFADNGVRHIGSKLPSIKLQNLDFIATIRAATPYQKEREGGENADTLIIKMEDIREKARKKMLPFATVLVIDSSGSISQEKMERLKGAALSFIREGYLKRDKIGLITFRNHRAEQLMPICSRAYSKQAERYIEGLPSGGGTPLASGLIEALHLLVNEKRKCKGVIPIIMLLSDGKANIPTSNKRPVFDEIKLILKKLSWEKVFLIFVDTDLDDDMGVSNTSYATIRNLLKREAWLSLSIYNYEG</t>
+  </si>
+  <si>
+    <t>MIDIKFRNIIPFAALVNQERMKKALILNIINPQLGGVLLRGEKGTGKSTAVRALAHLLPEISVVRDCPYSCDPFDEENLCLICRQKQLQGEKLAAEKRKIRVVNLPLGVTEDRLLGSIDIEKALREGIKALQPGILANANRGILYVDEVNLLDDTIADTLLDSAAMGVNVIEREGLSLYHPAKFILIASMNPEEGELRPQLLDRFGLYVEVKSLTDRDQRFQIALLVNMFETKADECKKMYETQQHQILTSMVTARNKIALVKIDEKLIEFCAYLASSLDIKTHRAEVNLVRASRTIATYNGRLEVIMDDIKEAADLVLPHRMQVKPFEEPLLDEALLNKKMADVEQVLGLSAIEKSSVLKRKPEIQKSENEISDIPVVNEGEIFKVGALYAAKPWDKLKQKKK</t>
+  </si>
+  <si>
+    <t>NZ_KE386573.1</t>
+  </si>
+  <si>
+    <t>ATP-binding protein | VWA domain-containing protein</t>
+  </si>
+  <si>
+    <t>MDRLPFPAIVGQEDLKSALLLNAVNRDIGGVLIRGERGTGKSSAVRGLERVLPEIRVVADCRFNCPPDDPARQCAACRERTATETERVPTPVVDLPLGATEDRLLGSLDFEQALNEGVSALDPGLLARANRGVLYVDEVNLLDDHLVDLLLDAAASGVNRIEREGLTITHPAEFVLVGTMNPEEGRLRPQFLDRFGLQVDAEAPTDPETRASIVEVAEAFERDPDAVRERYRDAERRLGERIVTARDRYDDITLDDERRRTIAELCIAAGVEGNRGDITTARCARAIAALDGRTAVEDADVRRAAAFALPHRIPSDPFDDEVSVDRLAADHLDDTSTADSVTDDRSNDDPATGDSEAAPERGRRGGSEDRRDDDAIDRAIRRLRDFFLTAGGGEPDAESDGTGGNDPGRGREDGTTGDGRAPERPRLDPIGDATAGTATIDGADSDPVVAPLDGGTARIGTETIGSDGPSAGRYVGSRRAQSTDRPADIAVDATLRSTVGRGGTDITERDLRVKRRSGEAPALVTFVVDSSMSMRAHGDIRRATALATGVLRRANRHDDYVAVVAFHDERADVVVPPTDDPDVAARRLEDVPVGNRTPLPAGLLAARRLVDRERTAIPDLPAVVVVLTDGRPTVGIEDDPVVETNRLARRLGASGIDLVVLDLDRGTTGTDVCRSMAAEADGEYVSMAEIRPADRTRTVARVIESVR</t>
+  </si>
+  <si>
+    <t>MDRLPFPAIVGQEDLKSALLLNAVNRDIGGVLIRGERGTGKSSAVRGLERVLPEIRVVADCRFNCPPDDPARQCAACRERTATETERVPTPVVDLPLGATEDRLLGSLDFEQALNEGVSALDPGLLARANRGVLYVDEVNLLDDHLVDLLLDAAASGVNRIEREGLTITHPAEFVLVGTMNPEEGRLRPQFLDRFGLQVDAEAPTDPETRASIVEVAEAFERDPDAVRERYRDAERRLGERIVTARDRYDDITLDDERRRTIAELCIAAGVEGNRGDITTARCARAIAALDGRTAVEDADVRRAAAFALPHRIPSDPFDDEVSVDRLAADHLDDTSTADSVTDDRSNDDPATGDSEAAPERGRRGGSEDRRDDDAIDRAIRRLRDFF</t>
+  </si>
+  <si>
+    <t>NZ_ATYV01000012.1</t>
+  </si>
+  <si>
+    <t>MTASTVPGYPFTAIVGQDDLRLALLLTAISPGIGGVIVRGEKGTAKTTTVRALAPHLSGRLVNLPLGATEDRVVGSIDIETVLTTGHATVQKGLLSEADGGLLYVDEVNLLPDHLVDVLLDAASTGRITIERDGVSQVQDTSFVLVGTMNPEEGELRPQLLDRFGLAVDVVASREPSVRAQILRSRLSYEDDPVGFVSNFADDESELGERLGRAMELLGQIELDDTTLGRIATLCSDFDVDGMRADLVIARTARAHAAWRIAADGGDLRITDEDIRIAALFALPHRRRRDPFDEPGINEDQLDDALDHARNDFPDEQPEDPEEPEYDDSADPEQTEQQQTPDGTEAEKDTSSDEQAPTQAGGRAAQGAPFLRSELKLEGAGSGTSGRRSASTGSRGSTVRAKRGASGVHIPGTIVAAAERGAQVQTGRVPLLSTDLRGAEKRGTESNLVVFLVDASGSMAARDRLSAVTGAVTSLLRDAYQKRDKVAVVAFRGAEADIVLPPTKSVDIAVKRLENLTTGGRTPLAEGLASVEEILARESRREPERRAMLVVLSDGRATGKNGRLRARTVADSIRRKKLAGSIVIDCESGRVKLGLAGELATSLGGTLVSLGSLDADSVAGVVRAGI</t>
+  </si>
+  <si>
+    <t>MTASTVPGYPFTAIVGQDDLRLALLLTAISPGIGGVIVRGEKGTAKTTTVRALAPHLSGRLVNLPLGATEDRVVGSIDIETVLTTGHATVQKGLLSEADGGLLYVDEVNLLPDHLVDVLLDAASTGRITIERDGVSQVQDTSFVLVGTMNPEEGELRPQLLDRFGLAVDVVASREPSVRAQILRSRLSYEDDPVGFVSNFADDESELGERLGRAMELLGQIELDDTTLGRIATLCSDFDVDGMRADLVIARTARAHAAWRIAADGGDLRITDEDIRIAALFALPHRRRRDPFDEPGINEDQLDDALDHARNDFPDEQPEDPEEPEYDDSADPEQTEQQQTPDGTEAEKDTSSDEQAPTQAGGRAAQGAPFLRS</t>
+  </si>
+  <si>
+    <t>NZ_AUAQ01000011.1</t>
+  </si>
+  <si>
+    <t>IVGQDQLRLSLILTAIAPRIGGVVVRGEKGTAKTTTVRAFADLLDGAPLINLPIGATEDRVVGSLDMETVFTTGRAEYRPGLLAQAHGGVLYVDEVNLLADHLVDALLDAAATGRVTVERDGISHTSPASFVLVGTMNPEEGELRPQLLDRFGLAVDVAASKDVEIRSEIIRRRLAFEADPEGFAHAWQASDREVAQRIHQARELLPSVQLSDVNLARIAHLCASFDVDGMRADLVIARTAMAHAAWRGAETVDDEDIRVAAMLALPHRRRRNPFDEPGLDQDQLDDVMDEARQEHPEQEETEQDQTNQPQTEEPSGEDQQPQDEPDADGEVGSAETGAQFRSRLFRRQGIGTEGIPGRRSKAYSSHGADVRAIRGGRGVHPIGTVLAAADRGAGVIEGMIDFRPEDLRGSLRRGTESNLIVFVVDSSGSMAARDRLSAVTGAVISMLKDAYQRRDKVAVITVRGAEPQVVLPPTGSIEVAVRRLEALPTGGRTPLGEGLLLAHELIEREHRKEPGRRALLVVLSDGRATGVAGLEGVRRAAAAIASRKLTGSLVINCERGGRIQLGLAKELAQGLEGICIELNEISADSLTGAIHSV</t>
+  </si>
+  <si>
+    <t>MVGQDQLRLSLILTAIAPRIGGVVVRGEKGTAKTTTVRAFADLLDGAPLINLPIGATEDRVVGSLDMETVFTTGRAEYRPGLLAQAHGGVLYVDEVNLLADHLVDALLDAAATGRVTVERDGISHTSPASFVLVGTMNPEEGELRPQLLDRFGLAVDVAASKDVEIRSEIIRRRLAFEADPEGFAHAWQASDREVAQRIHQARELLPSVQLSDVNLARIAHLCASFDVDGMRADLVIARTAMAHAAWRGAETVDDEDIRVAAMLALPHRRRRNPFDEPGLDQDQLDDVMDEARQEHPEQEETEQDQTNQPQTEEPSGEDQQPQDEPDADGEVGSAETGAQFRS</t>
+  </si>
+  <si>
+    <t>NZ_AUCQ01000006.1</t>
+  </si>
+  <si>
+    <t>MTVSTLPPVFPLAAIQGQAQLVQALLLAAIEPALGGVLIQGPRGTAKSTAARALAELLAPAPFATLPLGASVEHVLGSLDLGKALAGNELVFAPGVVAKAHGGVLYVDEINLLPDAIVDVLLDVAASGVNRVERDGISHSHAARFVLIGTMNPEEGLLRPQLLDRLGLCVQLANAQDVQLRSAIVKSRLRFELDPAGFAREHAPQQAALAERLRVARARCTNPDELPWSDAIHEAVAQQCIAAQVDGLRADLVMLRAARALAAWEQSPAIEAEHVSRVAPLVLAHRGAEPQQPALAPSQNQSQQPSQATPPRSADAQAGQAPQSQGAGPAPSAAPAPTAPAHSAAPGTEPPAQQPQTAMAPQAMAQPPAGWGQPQPQATAACAPPLGDALAQAAMEALAAKKARAPGLPRLSPAGRGRGRANTPAQGAALAGQTRPGVMQVDAGALLDWPATLRARLLEAGPGAGLQPAHLRWRQALATPQTLHVFALDCSASMLASGALARAKGLVLQWLRWAYLQRMPVALLCFGAGQVQWRLAPGRAPRWNAALIEPLAGGGGTPLAQAVHQAWELLARRAQQQGQPACLWLLSDFRSPDVLALEQQRGPQGLSQVLVDCEQVSAKPPFAGAQRLVRAWPDAVRLALPDW</t>
+  </si>
+  <si>
+    <t>MTVSTLPPVFPLAAIQGQAQLVQALLLAAIEPALGGVLIQGPRGTAKSTAARALAELLAPAPFATLPLGASVEHVLGSLDLGKALAGNELVFAPGVVAKAHGGVLYVDEINLLPDAIVDVLLDVAASGVNRVERDGISHSHAARFVLIGTMNPEEGLLRPQLLDRLGLCVQLANAQDVQLRSAIVKSRLRFELDPAGFAREHAPQQAALAERLRVARARCTNPDELPWSDAIHEAVAQQCIAAQVDGLRADLVMLRAARALAAWEQSPAIEAEHVSRVAPLVLAHRGAEPQQPALAPSQNQSQQPSQATPPRSADAQAGQAPQSQGAGPAPSAAPAPTAPAHSAAPGTEPPAQQPQTAMAPQAMAQPPAGWGQPQPQATAACAPPLGDALAQAAMEALAAKKARAPGLPR</t>
+  </si>
+  <si>
+    <t>NZ_ATJV01000081.1</t>
+  </si>
+  <si>
+    <t>MSSNPALTDSRTVPAFPFCALHGQAHLQSALLLATVDPLIGGVLVEGARGTAKSTSARALAALLPEGHFVNLPLGTSEEQLVGALDLEGVLQDGRVRLRPGLLAQAHAGVLYIDEVNLLADGLVDLLLDVCASGINRIERDGISQQHAARITLVGTMNPEEGELRPQLLDRFGLFVRLSEVVDTTARKAIVRARLAFDADPAAFTRRFDTQQQQLVDRIASARSAIEHIDFTDATHDRVAALCHAAEVEGVRADLVMLRAARAHAALEGRYEIVGTDIDAVAELVLAHRRKATGATSPPPPPRSHSEPQNDPAVDAFAQPPRQNFNTSNAEPNNGAAEEMENGNDDSDWGALPRPPVPILNVKSVRPLHAKKPLTRPTAPGRAASGRVPNPTRKGRPGPPSGTRIDWPRTLATKANVPLERKHLRLRALPAGSGVLNCVLLDCSASMLQGRRLALAKGLLLEWTAQFYRRREYLAVIGFGGEQANLLQAPLKAVAFNTTWIAEIAGGGATPAGSAVALADAVLAKPRRSVRGQHVVLWLLTDARFDEIPPRPRQADVCMVVDFDEGALTLGRAARIAQAWGAQCWPAIELGGVAGTDTCTQV</t>
+  </si>
+  <si>
+    <t>MSSNPALTDSRTVPAFPFCALHGQAHLQSALLLATVDPLIGGVLVEGARGTAKSTSARALAALLPEGHFVNLPLGTSEEQLVGALDLEGVLQDGRVRLRPGLLAQAHAGVLYIDEVNLLADGLVDLLLDVCASGINRIERDGISQQHAARITLVGTMNPEEGELRPQLLDRFGLFVRLSEVVDTTARKAIVRARLAFDADPAAFTRRFDTQQQQLVDRIASARSAIEHIDFTDATHDRVAALCHAAEVEGVRADLVMLRAARAHAALEGRYEIVGTDIDAVAELVLAHRRKATGATSPPPPPRSHSEPQNDPAVDAFAQPPRQNFNTSNAEPNNGAAEEMENGNDDSDWGALPRPPVPILNVKSVRPLHAKKP</t>
+  </si>
+  <si>
+    <t>NZ_HG794426.1</t>
+  </si>
+  <si>
+    <t>TX93_RS07460_fs_TX93_RS07465</t>
+  </si>
+  <si>
+    <t>MRVIELPLGATEDRVVGSLDIEKALHEGIKALEPGLLAQANRNILYIDEINLLDDNLVDVLLDAAAFGINTIEREGISISHPSKFILIGTMNPEEGELRGQLSDRIGLEIEVEGISNIEDRIKIMKRRESFERDPLSFRAKFDEDQEELQNKIIKAKEILNDVVIDHVLLEVIARITLELSSEGHRSDISILKTAKTIASFNGNLTVDFDDLKEAISLVLGEDPLLNQRIQKIRNDIEKREKERENDLDKDSLFFSNDNLQEKIKEQLEDSLNEKLKKANQNHENKELDKAFNDSDNKDLDNIELGEGESKEKDFINTSDFEDKDESDSKLNQGEKLENFNEFNIDGKFDIKKYLMVEAVKREKLYGKRVNSQSKKGKYVKSKISNNSEDVAIDATIRAAVLNSNIKNSNINNNSKFNKDTNLKINNDTNLKVNIKKEDLREKVRKHGAKLSIALIVDMSGSMISDEKLNRIKAILQKIILNVHVNKDKLAVIGFKGKDSEVIIPNTKRPNSFLNKLENITVGGTTPMAAGLKKGLEVLKKDLNKEEYIPMLMILSDGVTNVSLERSNINSNVNKRSKSLKYNNSSGKSKEYKSNKMIISNPIKDALTVGEEIAKYNIHTVIVNFEKEKIREEV</t>
+  </si>
+  <si>
+    <t>MRVIELPLGATEDRVVGSLDIEKALHEGIKALEPGLLAQANRNILYIDEINLLDDNLVDVLLDAAAFGINTIEREGISISHPSKFILIGTMNPEEGELRGQLSDRIGLEIEVEGISNIEDRIKIMKRRESFERDPLSFRAKFDEDQEELQNKIIKAKEILNDVVIDHVLLEVIARITLELSSEGHRSDISILKTAKTIASFNGNLTVDFDDLKEAISLVLGEDPLLNQRIQKIRNDIEKREKERENDLDKDSLFFSNDNLQEKIKEQLEDSLNEKLKKANQNHENKELDKAFNDSDNKDLDNIELGEGESKEKDFINTSDFEDKDESDSKLNQGEKLENFNEFNIDGKFDIKKY</t>
+  </si>
+  <si>
+    <t>TX93_RS09770_fs_TX93_RS07480</t>
+  </si>
+  <si>
+    <t>VLLDAAAFGINTIEREGISISHPSKFILIGTMNPEEGELRGQLSDRIGLKISVSGINNIEDRIEIMKQIDDFEKDPESFIAKYADAEDNLQKRIIMARKLLPSVSISDEYFEIIARLTRNLGVEGHRNDITILKTAKAIAAFNNHWKVTMDDLEESILLVLGEINECDNNQIQNQIQQAQNEMNQEENSEDSDNDENSSQNQDSSNEEDDSNEDIQDDTYNEYVQDNDLKDDNGSDNSFDNFNNNVDNDLDNLDNEDNLDENDEDESDEENDEKNNDLDNPSNDDYNNENQIQGEVNDSDRIDDEYQMDYNENKSEKEINEFDLESLEKDIRKMLVMEGREKEKFYGSRVNSKSEKGKYVKSKYSPNVSNSDIAIDATIRAALKSKTSKNTELNKKNALKVDIKNEDIREKVRKHKARASVALVVDMSGSMLAEKKVNKIRGILERVIKNVNRNRDKLTVIGFKGRDSEVIIPSTKRPNSFLDKLDKITVGGTTPMASGLEKAIEILKNENKKGEFIPMLILLSDGMPNVGLTDSYNKKVRGSPINDVLAMGEELAENKIYTIIIDFEKKHKHGRNINMELAFLSNGRYYDLEEIYNPDIAIDKILTYERNML</t>
+  </si>
+  <si>
+    <t>NZ_JAFN01000001.1</t>
+  </si>
+  <si>
+    <t>MPHSHVFPFSALVGQERMKLALVLNVIDPTIDGVLIRGEKGTAKSTAVRALAQLLPEIPVVADCPFSCHPTRPEEMCERCRQRRKAGESLPALRRPMAVLDLPVGATEDRVVGSIDIERALKTGEKAFEPGVLARVNRGILYVDEVNLLDDHIVDVLLDAAAMGVNHVEREGVSIRHPARFVLVGTMNPEEGELRPQLLDRFGLCVEVVGIRDPKDRVQVIRRRQAYEADPEGFRREWSEADARVRQALVRAKELLPRVEVTDDDLEVIATLSVDLGVDGHRADLALLKACRALAAYRGRTRVTDDDIAEAAGLVYAHRLKRTPFEERILSEEEVVSSIQRTREAQKAPKHNPPRKKKEPTLSPQKKAGDRLVLEHRVYAPTGRFRVRGTLVNRAVQKHLARGRRVRNRMAPDAGRYIRARIPRRKPRALAVDATLRAAAPEQVRRRAMGLAPARGIAVLPSDLREKVRTRRSGVSLLFAVDASGSMGVEEVMATAKGIVLTLLTDAYQKRDRVGLLAFRGTEARLVLPFTTSVAQAQQRLRDLPTGGKSPLALALAKSLEAFHRELTKHPGRLPLLVLLTDGKANISMAGREPFEEALDQARRIRHAGIRSLVVDTDLTWIHSYAYARVLAEAMGARCLGIRDLELGQVIDFMGLGGGEAGRRGG</t>
+  </si>
+  <si>
+    <t>MPHSHVFPFSALVGQERMKLALVLNVIDPTIDGVLIRGEKGTAKSTAVRALAQLLPEIPVVADCPFSCHPTRPEEMCERCRQRRKAGESLPALRRPMAVLDLPVGATEDRVVGSIDIERALKTGEKAFEPGVLARVNRGILYVDEVNLLDDHIVDVLLDAAAMGVNHVEREGVSIRHPARFVLVGTMNPEEGELRPQLLDRFGLCVEVVGIRDPKDRVQVIRRRQAYEADPEGFRREWSEADARVRQALVRAKELLPRVEVTDDDLEVIATLSVDLGVDGHRADLALLKACRALAAYRGRTRVTDDDIAEAAGLVYAHRLKRTPFEERILSEEEVVSSIQRTREAQKAPKHNPPRKKKEPT</t>
+  </si>
+  <si>
+    <t>NZ_CP004353.1</t>
+  </si>
+  <si>
+    <t>VSSPKRYQYPFSAIVGQEQLKLALILCAISPKIGGVVIRGEKGTAKTTTVRAFASLMGGAPLVNLPIGATEDRVVGALDLETVLTTGKATYRPGLLAEADGGILYVDEVNLLADHLVDALLDAAATGVVTIERDSISHSAPANFVLVGTMNPEEGELRPQLLDRFGLSLDVAASRDIPVRAEIMKRRLAFDEDPQTFIAEWAEADADVSRRLAAASALLPSVELTDTNVARIAAVCAAFDVDGMRGDLVIARAACAHAAWQGREEVEDEDIRVAAELALPHRKRRNPFDEPGIDEEQLDDAMDQAREEFPDEPEQEPQAPESEEQPEAPAAPESEGDQDTEAPANPGGRADQGATFRGAQAATARTKKAGLESTPGRRSPAYTPQGGHVRAIKGGHGLDIMGTLIAAGDRGAQVRNGKITFTPEDFRGSLRKGRESNLIVFVVDTSGSMAAKDRLAAVTGAVHSMLSDAYQRRDKVAVISVRGLKPELVLPPTSSIDVAHRRLEDVPTGGKTPLPEGLAMAEDLIKREALKEPGRRAILMVLSDGRATGRGGLDSLRAVASDIAARELCASVVIDCERGGRIRLGLAKELAKGLGAVCVEVDQLDARAVTGVIETI</t>
+  </si>
+  <si>
+    <t>MSSPKRYQYPFSAIVGQEQLKLALILCAISPKIGGVVIRGEKGTAKTTTVRAFASLMGGAPLVNLPIGATEDRVVGALDLETVLTTGKATYRPGLLAEADGGILYVDEVNLLADHLVDALLDAAATGVVTIERDSISHSAPANFVLVGTMNPEEGELRPQLLDRFGLSLDVAASRDIPVRAEIMKRRLAFDEDPQTFIAEWAEADADVSRRLAAASALLPSVELTDTNVARIAAVCAAFDVDGMRGDLVIARAACAHAAWQGREEVEDEDIRVAAELALPHRKRRNPFDEPGIDEEQLDDAMDQAREEFPDEPEQEPQAPESEEQPEAPAAPESEGDQDTEAPANPGGRADQGATFRGAQAATART</t>
+  </si>
+  <si>
+    <t>NC_022198.1</t>
+  </si>
+  <si>
+    <t>MINPAIGGVLVRGEKGTAKTTTIRGFADIIDGPLVNLPIGATEDRVVGSLDMETVLTTGRAEYKPGLLAQAHGGILYVDEVNLLADHLVDALLDAAATGQVTVERDGLSHTTPARFVLVGSMNPEEGELRPQLLDRFGLAVDVVASREVPVRAEIMRRRLAFEADPAAFVAQHREEEIALAEQLQAARLTVGDVVLSDAGLEQIASVCAAFDVDGMRADLVIARAATAHAAWRGATQVGEEDIKVAAELALPHRRRRNPFDEPGLDQQQLEDALEEAHNNSPLSEDDQQPAPSDGDAELPDTPPQPDQLDEPTDSDDGGKVGRADSGAPFRPRLLRFKRSSLQQDTPSGRRSKAYSSSGADVRAIVHGRGLNLQGTVMAAAERGAGFKSIPGGQLVDFRPEDLRGSLRRGMESNLIVFVVDASGSMAARDRLSAVSGAVVSMLQDAYRRRDKVAVVSVRGAQPEVLLPPTGSVEVAVKRMEGAPTGGRTPLAEGLVMAQDLIERQARKEPSRRAIMVVLSDGRATGAAGIKGVRLAAEAIARRGLSANVVIDCERGRVQLGLAKELAQGLGAAWVRLDELNADTVASVIGI</t>
+  </si>
+  <si>
+    <t>MINPAIGGVLVRGEKGTAKTTTIRGFADIIDGPLVNLPIGATEDRVVGSLDMETVLTTGRAEYKPGLLAQAHGGILYVDEVNLLADHLVDALLDAAATGQVTVERDGLSHTTPARFVLVGSMNPEEGELRPQLLDRFGLAVDVVASREVPVRAEIMRRRLAFEADPAAFVAQHREEEIALAEQLQAARLTVGDVVLSDAGLEQIASVCAAFDVDGMRADLVIARAATAHAAWRGATQVGEEDIKVAAELALPHRRRRNPFDEPGLDQQQLEDALEEAHNNSPLSEDDQQPAPSDGDAELPDTPPQPDQLDEPTDSDDGGKVGRADSGAPFRP</t>
+  </si>
+  <si>
+    <t>NZ_CP006842.1</t>
+  </si>
+  <si>
+    <t>MTADTPQPLFPFSAVVGQDDLRLSLILTAISPRIGGVVVRGEKGTAKTTTVRAFASLLGDAPLVNLPVGATEDRVVGSLDMETVLTTGRAEYRPGLLAQADGGVLYVDEVNLLADHLVDALLDAAATGRVTVERDGISHSSPASFVLVGTMNPEEGELRPQLLDRFGLAVDVAASTRPETRVEIIRRRLAFEDAPHAMVAEWEGDDLRIAERIDRARRLVREVVLPDAVLNHIAWLCSRIEVDGMRADLVISRTAVAHAAWEGRRRVLDADIDVAARLALPHRRRRQPFEAPDMEEREVRETLEEARRFFEDNETGGPASESADEETGAEVLVDSEKPSDEQAMQGASQARPQSTGKAGTAGSGEPFRSAGVSAGPYRAEDAPSGRRSLAHTSHGADIRPVKGGHGVNLVGTVMAAADRGAAVTDGLVAVRAEDLRGSLRRGRESNLIVFVVDTSGSMSARSRVRAVTGAVTSMLTDAYQRRDKVAVIAVNGGNPTLVLPPTSSVDTARRRLDEMPVGGRTPLAEGLLMALDLLEREHRREPGRRALLVVMTDGEDTSDAGTPGLATACRRIVRAGLSGNLVIDCEGRMKVRRELAYSLAEQLDGPCVRLSEMNSGTLRSEVRL</t>
+  </si>
+  <si>
+    <t>MTADTPQPLFPFSAVVGQDDLRLSLILTAISPRIGGVVVRGEKGTAKTTTVRAFASLLGDAPLVNLPVGATEDRVVGSLDMETVLTTGRAEYRPGLLAQADGGVLYVDEVNLLADHLVDALLDAAATGRVTVERDGISHSSPASFVLVGTMNPEEGELRPQLLDRFGLAVDVAASTRPETRVEIIRRRLAFEDAPHAMVAEWEGDDLRIAERIDRARRLVREVVLPDAVLNHIAWLCSRIEVDGMRADLVISRTAVAHAAWEGRRRVLDADIDVAARLALPHRRRRQPFEAPDMEEREVRETLEEARRFFEDNETGGPASESADEETGAEVLVDSEKPSDEQAMQGASQARPQSTGKAGTAGSGEPFRSAGVSAGPYRA</t>
+  </si>
+  <si>
+    <t>NZ_KK214995.1</t>
+  </si>
+  <si>
+    <t>ECTHA_RS0100100_fs_ECTHA_RS16325</t>
+  </si>
+  <si>
+    <t>MTALSIQYPFTALKGVAQLQNALLLAAIDPLIGGVLIEGPRGAAKTTSARALAQLLPDGGFVNLPLGTSEEQLQGSLDIEAALKQGDACFKPGLLARAHQGVLYVDEVNLLPDALVDLLLDVSVSGVNRVERDGISHQHEARFVLVGTMNPEEGELRPQLLDRFGLLVRLNDMIDAPTRREIVRSRLAFEADPEAFIRTHETDQEALRERICQARARLESLAFTDGVHDRVSEVCFAAGVEGVRADLVMLRAARAHAALADAACIRDTDIDAVQALVLAHRRRDRSASSPDEASGPEPSGEDPSHAPETAGSSRSQGSGAGDHDAPRDTEATVPERGGHDQDWGALPPEPTPIRSLAQVRPLPTKKPLTRSPVAGQLPDERAPGPGRWRRPRKQAQAGIHWHRTLLNKGPGPLQPGHLVYRPRRGGAGMLYCLVLDCSASMLRQDKLAMAKGLISAWAHQLYTQRSALAVVGFSGQGAYILRPPSRAPLCSDAWVAPIPGGGGSPVGAGIQRAQDLMAQAKRRHPDQPIGLWLLTDGRTTQQPPRPDIADFCEVVDFETEAIRLGGAQRIARAWQAPCWPVSAFIEMG</t>
+  </si>
+  <si>
+    <t>MTALSIQYPFTALKGVAQLQNALLLAAIDPLIGGVLIEGPRGAAKTTSARALAQLLPDGGFVNLPLGTSEEQLQGSLDIEAALKQGDACFKPGLLARAHQGVLYVDEVNLLPDALVDLLLDVSVSGVNRVERDGISHQHEARFVLVGTMNPEEGELRPQLLDRFGLLVRLNDMIDAPTRREIVRSRLAFEADPEAFIRTHETDQEALRERICQARARLESLAFTDGVHDRVSEVCFAAGVEGVRADLVMLRAARAHAALADAACIRDTDIDAVQALVLAHRRRDRSASSPDEASGPEPSGEDPSHAPETAGSSRSQGSGAGDHDAPRDTEATVPERGGHDQDWGALPPEPTPIRSLAQVRPLPTKKP</t>
+  </si>
+  <si>
+    <t>NZ_BAXZ01000004.1</t>
+  </si>
+  <si>
+    <t>MSAAALPLAFPFTALVGQAPLQQALLLAAVDPAIGGVLVSGPRGTAKSTAARALAALLPDGAFVTLPLGASEDKLIGSLDLEAALRESAVRFSPGLLAKAHGGVLYVDEVNLLPDALVDVLLDAAASGANTVERDGISHTHEARFVLVGTMNPEEGELRPQLLDRFGLMVELENRFDAAERQRIVKARLAFDADPHAFCASCDAAQTALAGRLRAARERVGLLALSDAVHERAATLCVEAKVDGMRADIVMLRAARALAAFENAQEVSAAHVDQVAAAVLAHRRRAFEDPAPSGGSAGRSPASADDLQSQADADWGALPPEPVAAAPVKGVIPLPAKKRLTRRARAAASAQGGARRLKDPDPGTGFGPVRATRDGGPGARIAWTPTLAAKRRAPLHLDHLRYARRRTATGALHCFVLDCSASMLARGQLALAKGVLVALFDRARHARFQVALISFAGAGAELRFGPAVPRWWNERWLAPIGAGGGTPLTAGVAAAARVLESSARRNPGRPRHLWLMSDGRSTQWPARPRYADHITVVDFEAAAVRLGRCAALAEAWDAQCIDARALLDHAAPASAD</t>
+  </si>
+  <si>
+    <t>MSAAALPLAFPFTALVGQAPLQQALLLAAVDPAIGGVLVSGPRGTAKSTAARALAALLPDGAFVTLPLGASEDKLIGSLDLEAALRESAVRFSPGLLAKAHGGVLYVDEVNLLPDALVDVLLDAAASGANTVERDGISHTHEARFVLVGTMNPEEGELRPQLLDRFGLMVELENRFDAAERQRIVKARLAFDADPHAFCASCDAAQTALAGRLRAARERVGLLALSDAVHERAATLCVEAKVDGMRADIVMLRAARALAAFENAQEVSAAHVDQVAAAVLAHRRRAFEDPAPSGGSAGRSPASADDLQSQADADWGALPPEPVAAAPVKGVIPLPAKKR</t>
+  </si>
+  <si>
+    <t>NZ_JHYS01000008.1</t>
+  </si>
+  <si>
+    <t>MSLLNHLEAPQPATRPQFPLTALVGQPTLQLALQLAAIDPGIGGVLISGPRGTAKSTAARALAALLPDAPFVNLPLAASLEQLVGSLNIEDVLRDGRVRLQPGLLARAHQGVLYVDEVNLLPDALIDALLDAAASGVHTIERDGISQQHAARFVLVGTMNPEEGELRPQLLDRFGLSVVLTNPDSAAQRSAILRARLRFDADPAGFAAQHEPAQQALRHALIAARATLAQLDWPDAVLHHAAERAMAAGVDGMRADLVLLRAARALTALEGRNAVTCADVDAVAELALAHRSTEPQPSMPPSPPPRPPTPPDNSAAANPPQPPPPPAGEATPTPQGDWGAMPAQPEGFTPVPRIPGWPAKKALGHPSSRPRSGLRRRRWPNPSVDSLATPATGDAGAAEAGAIAWLPTLRAKGAQALQHEHLRRLPLPAHHARLHCIVLDTSGSMRAQGRLALAKGHAAQLIAQAAQQGDDVALLQLGGDGVQLLLAPGRARASGSWCLRAVGGGGGTPLAQALAQAEQLLQRALRRQGPLDCWLWLLTDGRTLEQLQPPPSAQHRVILDFDDPRQPLGRCAAWAVHWGASHYHALSVP</t>
+  </si>
+  <si>
+    <t>MSLLNHLEAPQPATRPQFPLTALVGQPTLQLALQLAAIDPGIGGVLISGPRGTAKSTAARALAALLPDAPFVNLPLAASLEQLVGSLNIEDVLRDGRVRLQPGLLARAHQGVLYVDEVNLLPDALIDALLDAAASGVHTIERDGISQQHAARFVLVGTMNPEEGELRPQLLDRFGLSVVLTNPDSAAQRSAILRARLRFDADPAGFAAQHEPAQQALRHALIAARATLAQLDWPDAVLHHAAERAMAAGVDGMRADLVLLRAARALTALEGRNAVTCADVDAVAELALAHRSTEPQPSMPPSPPPRPPTPPDNSAAANPPQPPPPPAGEATPTPQGDWGAMPAQPEGFTPVPRIPGWPAKKA</t>
+  </si>
+  <si>
+    <t>NZ_JFHD01000010.1</t>
+  </si>
+  <si>
+    <t>LNESITSAVFPFSALVAQAPLQQALLLAAVDPSIGGVLVSGPRGTAKSTATRALAELLPEGKLVTLPLGASEEQLIGTLDIQSALRDGGVKFSPGLLAKAHRGVLYVDEVNLLPNPLVDQLLDVAASGVNIVERDGISHRHDARFVLIGTMNPEEGELRPQLLDRFGLAVEMNNCFDALVRQRIVKARLAFDADPDAFRARHRDEQASLESRIHAARAALSSFDFDDAVHARVSELCIEAHVDGLRADIVMLRAARALAALEEAAGVNVTHVERVADAVLKHRRREGEAPSREPAGRESTSPDAGSNQADWGYMPPEPTGTAKVKQVRPLAAKKALNHRRRDANAFDTRHRLRWNEAFAKGRSATREGEVSASIDWMATLRAKRSARFATEHLRYRRTQGDGAVLHCFLLDCSGSMLAGERLARAKGMLVALFDRAYRERAEIALICFGGARAKVRRQPGAAHWFNERWVAPIGGGGGTPLALGLASAGTVLEKAARRRPAQRRCLWVLTDGRTNEQPQAPHAADEIVVVDFEEGAIRVGRGEALAREWSARYVLADALIRISDC</t>
+  </si>
+  <si>
+    <t>MNESITSAVFPFSALVAQAPLQQALLLAAVDPSIGGVLVSGPRGTAKSTATRALAELLPEGKLVTLPLGASEEQLIGTLDIQSALRDGGVKFSPGLLAKAHRGVLYVDEVNLLPNPLVDQLLDVAASGVNIVERDGISHRHDARFVLIGTMNPEEGELRPQLLDRFGLAVEMNNCFDALVRQRIVKARLAFDADPDAFRARHRDEQASLESRIHAARAALSSFDFDDAVHARVSELCIEAHVDGLRADIVMLRAARALAALEEAAGVNVTHVERVADAVLKHRRREGEAPSREPAGRESTSPDAGSNQADWGYMPPEPTGTAKVKQVRPLAAKKA</t>
+  </si>
+  <si>
+    <t>NZ_JFHC01000018.1</t>
+  </si>
+  <si>
+    <t>MSPVFPTFPFTALIGQAPLQQALLLAAVDPALGGVLVSGPRGTAKSTAARALAELLPEGHLVTLPLGASEEQLIGTLDIESALRDGGVKFSPGLIAKAHRGVLYVDEVNLLPNPLVDQLLDVAASGVNIVERDGISHRHEARFVLIGTMNPEEGELRPQLLDRFGLAVELDNCFDAGARQKIVKARLAFDADPQAFRERHAGAQAALARRIHEARGALAHLEFDDAVHARVSELCIAAHVDGLRADLVMLRAARALAAFDAARAVDVAHVERVADAVLKHRRREQDAQYSSRGAPATHATQQDRARPSPQEANDSDWGYLPPEPVGTAAVKNVRPLQPKKSLSHRRPEANAEAGRLRWLEQWSAGRTGAREGSESRSVDWPGTLRAKRHARLDVAHLRFRRKRGEGVALHCFVLDCSGSMLAGERLATAKGLLVALFDRAYRDRSEVALVCFGGGEAHVRRQPGAAHWWNARWVEPIGGGGGTPLALGVRTAENVLARAARRRPAQERWLWLLTDGRSGEAASRPFDADHIVVVDFDDARVKVGRCAALAIGWGARYCTVAELV</t>
+  </si>
+  <si>
+    <t>MSPVFPTFPFTALIGQAPLQQALLLAAVDPALGGVLVSGPRGTAKSTAARALAELLPEGHLVTLPLGASEEQLIGTLDIESALRDGGVKFSPGLIAKAHRGVLYVDEVNLLPNPLVDQLLDVAASGVNIVERDGISHRHEARFVLIGTMNPEEGELRPQLLDRFGLAVELDNCFDAGARQKIVKARLAFDADPQAFRERHAGAQAALARRIHEARGALAHLEFDDAVHARVSELCIAAHVDGLRADLVMLRAARALAAFDAARAVDVAHVERVADAVLKHRRREQDAQYSSRGAPATHATQQDRARPSPQEANDSDWGYLPPEPVGTAAVKNVRPLQPKKS</t>
+  </si>
+  <si>
+    <t>NZ_JOMF01000004.1</t>
+  </si>
+  <si>
+    <t>MSKTHNRQIYPFSAIVGQDIMKTALILNAINPSIGGVLIKGERGTAKSTAVRSLAALLPENKVVLGCTFGCDPEKPEDFCEECRKNLINLRTAERKMTVVELPVSATEDMVVGSLDISSAIKEGEKKFEPGILAAAHRNILYVDEVNLLNDHIVDLLLDVAAMGLNIIEREGVSYTHPSSFILVGTMNPEEGDLRPQLLDRFGLCAVIEGIADADTRLEIIKRRMDFENDPKGFTAKWAAADKKIADKILAAKDLLPDVVIPDDMLRIAVQICTDAGVDGHRGDITLVKTAKTLCAYKLRTEVTEDDIKEAAKLVLAHRMRKTPFSNEQYDDKKIDESIEKAKNHNKSEQKENDSETTRKETQNEPQDNAGEQKQSSGSGSDSSETKLFKASDPFAVKSSALTPELKIDSIVREGSGRRSVTRSSSGRYVGSRIPQGKPKTIAMDATIRAAARNGTSRASSAGGSSANSDTDYNTALRIVLSDVREKVMERRSENSILFIVDASGSMGAQKRMSAVKGAILSLLIDAYQKRDKIGLITFRAKSAKVILPLTSDIAMAQEYMKKIEIGGKTPLAEGLKKGLETISAEMMKNRLTKPLLILVSDGRGNVSLSDKNPLSESFSMAAMIKEAKIPALVLDSEEGFVALGYARKLADAMGAKYMKLSELAG</t>
+  </si>
+  <si>
+    <t>MSKTHNRQIYPFSAIVGQDIMKTALILNAINPSIGGVLIKGERGTAKSTAVRSLAALLPENKVVLGCTFGCDPEKPEDFCEECRKNLINLRTAERKMTVVELPVSATEDMVVGSLDISSAIKEGEKKFEPGILAAAHRNILYVDEVNLLNDHIVDLLLDVAAMGLNIIEREGVSYTHPSSFILVGTMNPEEGDLRPQLLDRFGLCAVIEGIADADTRLEIIKRRMDFENDPKGFTAKWAAADKKIADKILAAKDLLPDVVIPDDMLRIAVQICTDAGVDGHRGDITLVKTAKTLCAYKLRTEVTEDDIKEAAKLVLAHRMRKTPFSNEQYDDKKIDESIEKAKNHNKSEQKENDSETTRKETQNEPQDNAGEQKQSSGSGSDSSETKLFKASDPFA</t>
+  </si>
+  <si>
+    <t>NZ_CP009149.1</t>
+  </si>
+  <si>
+    <t>MQYIYPFTAIVGQEKMKKALILNAINPKIGGVLIRGEKGTAKSTAVRALADLLPEIEVVEDCPFNCDPKGELCDICKEKKERGELKTIKKKMKVVNLPIGATEDRVIGTLDIEKAIKEGIKALEPGILAEANRNILYIDEVNLLDDHIIDVLLDAAAMGWNIIEREGVKIKHPSRFILVGTMNPEEGELRPQILDRFGLMVDVEGLNNIKDRVEVIKRVEEFNNNPEEFYKKFEEEQKKLREKIIRAREILNKVEISDELLEFISKVCIELGIQTNRADITVVRTAKALAAYTGRTKVTLDDVKEAMELALPHRMRRKPFEPPQLNREKLDQMINEFKQQKNNENNEEEKKEHENDDVKKNMMKIRNENDEENEDSNNQKNNNNNNENENKDESNHDDFEKTFGVDDSIKVNPKLIQFKIKDNIHRYGSGRHIKSYSKRGRYVKFKPAKDKIVDIAFDATFRRAAIHQKRRREKANKELAIYLEKEDIVEKVRQRKISSHILFVVDASGSMGAMRRMEAAKGAIISLLLDAYQKRNKIGMIAFRKDRAELILPFTSSVELGEKLLKDLPTGGKTPLADAFIKSYEVFDRELRKNPNIIPIMIVISDFKPNVAIHKDYVKEVFDACEKIAEKGINVILIDTEPQSFIKIGIGREIADRFGFKYYKIEELSKDKILDICKNLAIEH</t>
+  </si>
+  <si>
+    <t>MQYIYPFTAIVGQEKMKKALILNAINPKIGGVLIRGEKGTAKSTAVRALADLLPEIEVVEDCPFNCDPKGELCDICKEKKERGELKTIKKKMKVVNLPIGATEDRVIGTLDIEKAIKEGIKALEPGILAEANRNILYIDEVNLLDDHIIDVLLDAAAMGWNIIEREGVKIKHPSRFILVGTMNPEEGELRPQILDRFGLMVDVEGLNNIKDRVEVIKRVEEFNNNPEEFYKKFEEEQKKLREKIIRAREILNKVEISDELLEFISKVCIELGIQTNRADITVVRTAKALAAYTGRTKVTLDDVKEAMELALPHRMRRKPFEPPQLNREKLDQMINEFKQQKNNENNEEEKKEHENDDVKKNMMK</t>
+  </si>
+  <si>
+    <t>NZ_CP006704.1</t>
+  </si>
+  <si>
+    <t>MKEFNSCETGLHQARGTKQEPKPAAAPRSEGLLPPQGGSGEAAQRVFPLSAIQGQPALVQALLLAAIEPQLGGVLIRGPRGTAKSTAARALADLLAPAPFVTLPLGASIEHVTGSLDLSKALAGHEVAFAPGLIAKAHEGVLYVDEINLLPDAIVDVLLDVAASGINRIERDGISHSHAARFVLVGTMNPEEGMLRPQLLDRLGLCVQLDNPQDPQLRSSIVKARLRFDLDPQGFVQSHAARQQEIRQRLAQARSRCRNASELAWSDDVHEAVALQCIAAQVDGLRADLVMLRAARALAAWQGSHSITPAHVAEVAPLVLQHRAAQPDPGSASQPQQTPAGTASAVPAAPSSTDRKDRTEPGIQASASPSTASREPGATGSLPQDAGPGLEQPPAGWGQAQAVSSVVFEPQQADAMAQAALEALAAKKARASGLLRLSAGRGQVGSANQGLALASHAVSSVHKMPGASIDWTATLRQRQGLPLAPAHLRWHQPEGTVRRQHLFLLDCSASMVESGAFAQAKGLLLQWLRRAYLQREAVALLCFGAGRLHWLLEPTRAPRWNAELIEPLRGGGGTPLAQALDSGWQMAARYSRQPSCLWLLSDFRSPDVLQLERGPVPAVAQILVDCENAAGQSTRRFGGAERLAKVWPNTLRLPLEFT</t>
+  </si>
+  <si>
+    <t>MKEFNSCETGLHQARGTKQEPKPAAAPRSEGLLPPQGGSGEAAQRVFPLSAIQGQPALVQALLLAAIEPQLGGVLIRGPRGTAKSTAARALADLLAPAPFVTLPLGASIEHVTGSLDLSKALAGHEVAFAPGLIAKAHEGVLYVDEINLLPDAIVDVLLDVAASGINRIERDGISHSHAARFVLVGTMNPEEGMLRPQLLDRLGLCVQLDNPQDPQLRSSIVKARLRFDLDPQGFVQSHAARQQEIRQRLAQARSRCRNASELAWSDDVHEAVALQCIAAQVDGLRADLVMLRAARALAAWQGSHSITPAHVAEVAPLVLQHRAAQPDPGSASQPQQTPAGTASAVPAAPSSTDRKDRTEPGIQASASPSTASREPGATGSLPQDAGPGLEQPPAGWGQAQAVSSVVFEPQQADAMAQAALEALAAKKARASGLLR</t>
+  </si>
+  <si>
+    <t>NZ_BBJI01000029.1</t>
+  </si>
+  <si>
+    <t>VSSSSALVPGALPRLFPFSALVGQTALREALLLAAVDPGVGGVLVSGPRGTAKSTAARSLAELLPEGRFVTLPLGATEERLVGSLDLNEALRGGSVTFSPGLLAQAHHGVLYVDEVNLLDDALVDAVLDAAASGVNVVERDGVSHSHAARFVLIGTMNPEEGELRPQLLDRFGLMVELDNCFDATARQQIVKTRLAFDADPEAFCRAYADEQQAVAQRIREAREALPALAFDDAIHADVSARCIEAGVDGLRADLVMLRAARALAALERATAITTAHVDRVAPAVLRHRRREEAGGQRDGQAASPGSASAPRGDTAAAAHEEKGRSTEGGDVRHGSPPHAAAAQLDAGTPGPSGERDWGYLAPEHTGIANVKGVIPLSAKKRLSHRKGAAADSRSGFRWPGEVGVSARRDGGPRTSTGTGGSTRIAWPATFARKRNAPLRADHLRYVRQTAERGELHCFVLDCSASMLGGERLALAKGLLVRCFDCAARARVEVALVSFGGVRADVRFGPGVPRWWNERWLAPVGGGGGTPFALGLRTAGQVLQRAARRQPAQHRALWILTDGRSSERPAKPAWADRIVFVDFEREVPALQVCGRLAQAWDAEWVRAQALTG</t>
+  </si>
+  <si>
+    <t>MSSSSALVPGALPRLFPFSALVGQTALREALLLAAVDPGVGGVLVSGPRGTAKSTAARSLAELLPEGRFVTLPLGATEERLVGSLDLNEALRGGSVTFSPGLLAQAHHGVLYVDEVNLLDDALVDAVLDAAASGVNVVERDGVSHSHAARFVLIGTMNPEEGELRPQLLDRFGLMVELDNCFDATARQQIVKTRLAFDADPEAFCRAYADEQQAVAQRIREAREALPALAFDDAIHADVSARCIEAGVDGLRADLVMLRAARALAALERATAITTAHVDRVAPAVLRHRRREEAGGQRDGQAASPGSASAPRGDTAAAAHEEKGRSTEGGDVRHGSPPHAAAAQLDAGTPGPSGERDWGYLAPEHTGIANVKGVIPLSAKKR</t>
+  </si>
+  <si>
+    <t>NZ_JQMJ01000004.1</t>
+  </si>
+  <si>
+    <t>BS83_RS34340_fs_5546949</t>
+  </si>
+  <si>
+    <t>MDDLRLALLLNAVSPQVGGVLVRGEKGTAKSTMVRALAGLLPAIGVVTGCRFACDPAAPDPQCPDGPHPVSPAASQRATSLVELPVGVSEDRIVGSLDLERALAEGVKAYEPGLLAAAHRGVLYIDEVNLLHDHLVDLLLDAAAMGRSYVEREGVSVRHAARFLLVGTMNPEEGELRPQLLDRFGLTVEIAATREPEQRAEVVRRRLAYDADPDGFAARWQEEERALAARITAARALLPQVVLGDAALRQITAVCAAFEVDGLRADIVMARTAVALAAWAGRTQVLAEDVRTAAQLALPHRRRRNPFDAPGLDEEKLDETLQQHAGQDPQPDPDGDPDGDGPDDSGPDGGGGGGGQQGPTEPEQPSARDDAPAEAPPRVPRRRRRARPHRARPHRWRPTSLTGPGCSRCPAPGRASRAAAPAPRPTAATPSAPRARPARCSGCTWPPPCRPPHRTSWRAAAAGGRWCCAGTTSGSRCGRDARATSCSSSSTPRARWRRGSGCRPSRARCCPCLMDAYQRRDKIGMISFRGSGAELLLPPTSSVEAGAARLELLPTGGRTPLAAGLLRAHETLRLERLRDPLRRPLVVLVTDGRATGSRTALDEARRAAGCWLRPGRRRSWWTARADRCGSGWPASWRTVCRRPPSDWTTCVRTR</t>
+  </si>
+  <si>
+    <t>MDDLRLALLLNAVSPQVGGVLVRGEKGTAKSTMVRALAGLLPAIGVVTGCRFACDPAAPDPQCPDGPHPVSPAASQRATSLVELPVGVSEDRIVGSLDLERALAEGVKAYEPGLLAAAHRGVLYIDEVNLLHDHLVDLLLDAAAMGRSYVEREGVSVRHAARFLLVGTMNPEEGELRPQLLDRFGLTVEIAATREPEQRAEVVRRRLAYDADPDGFAARWQEEERALAARITAARALLPQVVLGDAALRQITAVCAAFEVDGLRADIVMARTAVALAAWAGRTQVLAEDVRTAAQLALPHRRRRNPFDAPGLDEEKLDETLQQHAGQDPQPDPDGDPDGDGPDDSGPDGGGGGGGQQGPTEPEQPSARDDAPAEAPPRVPRRRRRARPHRARPHRWRPTSLTGPGCSRCPAPGRASRAAAPAPRPTAATPSAPRARPARCSGCTWPPPCRPPHRTSWRAAAAGGRWCCAGTTSGSRCGRDARATSCSSSSTPRARWRRGSGCRPSRARCCPC</t>
+  </si>
+  <si>
+    <t>NZ_JQML01000001.1</t>
+  </si>
+  <si>
+    <t>MSARYPFTAIVGMDDLRLALLLNAVSPAVGGVLVRGEKGTAKSTAVRALAGLLPALRVVDGCRFACDPAAPDAQCPDGPHAAGDPASDRATRLVELPVGVSEDRIVGSLDLERALAEGVKAYEPGLLAAAHRGVLYIDEVNLLNDHLVDLLLDAAAMGQSYVEREGVSVRHAARFLLVGTMNPEEGELRPQLLDRFGLTVEIAATRDPEQRAEVVRRRLGYDADPEGFAGRWAEDERKLAERVLAAQQLLPQVVLTDTALRQITATCAAFEVDGLRADIVMARTAVALAAWAGRTTVLAEDVRTAAKLALPHRRRRNPFDAPGLDEEKLEQTLQQSAGPEEDPGEGPEDDGPPSGGGAGAARTRPRTAVRTAVRTVRASSPTAAPGPRRPAASSAAPAPAPAPGRRRPPRRASPTGPGSTRSRERARAPPGGARGPGPTRGATPSARRAPAARCSGCTLTATLTAAAPHQLARGRDGLALRLRRDDFRQQVREGRESNLVLFVVDASGSMAARQRMSAVKGAVLSLLMDAYQRRDKVGLITFRGAEATLALPPTSSVEVGAARLEQLPTGGRTPLAAGLLRAHETLRLERLRDPRRRPLLVVVTDGRATSGATALPDARRAAQLLAAQGTAAIVVDCESGPVRLGLAAELATHLGGTAVRLDELAADSVTRLVHTIQKEAA</t>
+  </si>
+  <si>
+    <t>MSARYPFTAIVGMDDLRLALLLNAVSPAVGGVLVRGEKGTAKSTAVRALAGLLPALRVVDGCRFACDPAAPDAQCPDGPHAAGDPASDRATRLVELPVGVSEDRIVGSLDLERALAEGVKAYEPGLLAAAHRGVLYIDEVNLLNDHLVDLLLDAAAMGQSYVEREGVSVRHAARFLLVGTMNPEEGELRPQLLDRFGLTVEIAATRDPEQRAEVVRRRLGYDADPEGFAGRWAEDERKLAERVLAAQQLLPQVVLTDTALRQITATCAAFEVDGLRADIVMARTAVALAAWAGRTTVLAEDVRTAAKLALPHRRRRNPFDAPGLDEEKLEQTLQQSAGPEEDPGEGPEDDGPPSGGGAGAARTRPRTAVRTAVRTVRASSPTAAPGPRRPAASSAAPAPAPAPGRRRPPRRASPTGPGSTRSRERARAPPGGARGPGPTRGATPSARRAPAARCSGCT</t>
+  </si>
+  <si>
+    <t>NZ_JQMQ01000005.1</t>
+  </si>
+  <si>
+    <t>BS73_RS12025_fs_1748682</t>
+  </si>
+  <si>
+    <t>VTATYPFTAVVGMDDLRLSLLLNAVSPAVGGVLVRGEKGTAKSTAVRALAGLLPGLEVVGGCRFACDPEAPDPECPDGPHDPASGLTVSQRPTPLVELPVGATEDRLTGSLDLERALGEGVKAYEPGLLAAAHRGVLYVDEVNLLGDHLVDLLLDAAAMGRSHIEREGVSVRHAARFLLVGTMNPEEGELRPQLLDRFGLTVEVTATREPEERAEVVRRRLAYDADPDGFAGRWAEEERALAGRIVTARELLPRVVLTDAALRQITAVCAAFEVDGLRADIVMARTAVALAAWAGRTQVLAEDVRTAARLALPHRRRRNPFDAPGLDEEKLDETLQQHAGEDPSGPDDDGPDSGGPDGSGNGGGEGPEDDGPEGGPGGGAPDPAEGQGPEQDSPRRPHRPRPASGKTARVARARPAPARPPRDRPGRRRRGLQAAAAEGARHRQGRAGTPLPRAYRQRADDPRRAPPRAPDAPPPLRDPPGRRPYQLARGAAAGRWCCAGTTSGRRSARATSPTWSSSWWTPPARWPPASGCQPSRGPSSPSSPTPTSAGTRSGLITFRGREAELALPPTSSVEAGAARLAALPTGGRTPLAAGLLRAHETLRVEAMRDPARRPLLVVVTDGRATGGRDALADAGRAADLLAARGTAAVVVDCESGPVRLGLAGELAVRLGGQAVRLDELRADAMASLVHSVRQDARGNRRDDRRENSRKEAA</t>
+  </si>
+  <si>
+    <t>MTATYPFTAVVGMDDLRLSLLLNAVSPAVGGVLVRGEKGTAKSTAVRALAGLLPGLEVVGGCRFACDPEAPDPECPDGPHDPASGLTVSQRPTPLVELPVGATEDRLTGSLDLERALGEGVKAYEPGLLAAAHRGVLYVDEVNLLGDHLVDLLLDAAAMGRSHIEREGVSVRHAARFLLVGTMNPEEGELRPQLLDRFGLTVEVTATREPEERAEVVRRRLAYDADPDGFAGRWAEEERALAGRIVTARELLPRVVLTDAALRQITAVCAAFEVDGLRADIVMARTAVALAAWAGRTQVLAEDVRTAARLALPHRRRRNPFDAPGLDEEKLDETLQQHAGEDPSGPDDDGPDSGGPDGSGNGGGEGPEDDGPEGGPGGGAPDPAEGQGPEQDSPRRPHRPRPASGKTARVARARPAPARPPRDRPGRRRRGLQAAAAEGARHRQGRAGTPLPRAYRQRADDPRRAPPRAPDAPPPLRDPPGRRPYQLARGAAAGRWCCAGTTSGRRSARATSPTWSSSWWTPPARWPPASGCQPSRGPSSPSSPTPTSAGTRSG</t>
+  </si>
+  <si>
+    <t>NZ_JRNE01000037.1</t>
+  </si>
+  <si>
+    <t>MSAFPGFPFSAIVGQERLRLALLLTAVSPGIGGVVVRGEKGTAKTTAVRALGPLLPKGTVVDLPLGATEDRVVGSIDVESVLTTGHAEFRPGLLSKADGGVLYVDEVNLLADHLVDVLLDAAATGRVTVERDGVSHVEETSFVLVGTMNPEEGELRPQLLDRFGLAVDVVASREPEVRVEVMRRRLAYESDPHGFAARWAQADGELRDRLARARGLVGQIPLDDVHLARIASLCADFDVDGMRADLVIARTARAHAAWRGAEEIDSEDIRVAAELALPHRRRRDPFDEPGVDQGDLDDALDRAEERYPDEEDHAEEPPQPEEPSRDDQSREQQEGPAPTGGTARLGAPFRGQDAGSRRHREGGDGRRGRATGPRGRDIRAVRGGRGVHVPGTVLAAAERGARVDGAMVPLIGADLRGAVREGRESNLIVFLVDASGSMAARDRLEAVTGAVQSLLRDAYQRRDRVAVVTFRGDDATVELPPTRSTVAASRRLEDVSTGGRTPLASGLETARKLIEREHRRDPSRRAMLVVLSDGRATSAGGREAAGLAADAFRRRGVAGSIVVDCESGRVRLGLAKELATRLGAPCVRIEDLDADAVAGVVKAAVVSRS</t>
+  </si>
+  <si>
+    <t>MSAFPGFPFSAIVGQERLRLALLLTAVSPGIGGVVVRGEKGTAKTTAVRALGPLLPKGTVVDLPLGATEDRVVGSIDVESVLTTGHAEFRPGLLSKADGGVLYVDEVNLLADHLVDVLLDAAATGRVTVERDGVSHVEETSFVLVGTMNPEEGELRPQLLDRFGLAVDVVASREPEVRVEVMRRRLAYESDPHGFAARWAQADGELRDRLARARGLVGQIPLDDVHLARIASLCADFDVDGMRADLVIARTARAHAAWRGAEEIDSEDIRVAAELALPHRRRRDPFDEPGVDQGDLDDALDRAEERYPDEEDHAEEPPQPEEPSRDDQSREQQEGPAPTGGTARLGAPFRGQDAGSRRHR</t>
+  </si>
+  <si>
+    <t>NZ_JRMB01000001.1</t>
+  </si>
+  <si>
+    <t>MTDIPHFPLAAVVGADDLKVALCLTAIDPKIGGVLIEGPRGMAKSTLARGVADLLASGQFVTLPLGATEERLVGTLDLDAALGEGRAAFSPGVLAKADGGVLYVDEVNLLPDHLVDLLLDVAASGVNLVERDGLSHRHPARFVLIGTMNPEEGELRPQLLDRFGLNVALSGQTLPEQRGQIIRRRLDFDAAPEAFCQQWATQQQALKARCESARGLLETIALDDASLGLITERCFAAGVDGLRADLVWLRAARAHAAWRGSPAIAEADIDAVADFALRHRRRAPQPPRQSSQPAEQPPQPQQSQQPTQPSLPRPALDQPPSRTAESPADAGQTDHKPPQDGEGSWGELPARSMVTGARKEVPHWPKKPLGIRSRQWSGVNASPKPGALGGGRNGAARTGSHGAIAWLPTLLRGRPRVRADLVHQPRSRRPQQLWLVIVDASASTRRHQALSLAKGLLAGVFDDAYRQRARLALLTASGNDARWQHQGLKASAALQPWLDALGAGGGTPLAEAINQAAEWSAVRHKRYPAEQQRVLIVTDGRVKHVPPLAPFSGPVLLVDIERGPIRLGRAREIARQLDADYRHLDDC</t>
+  </si>
+  <si>
+    <t>MTDIPHFPLAAVVGADDLKVALCLTAIDPKIGGVLIEGPRGMAKSTLARGVADLLASGQFVTLPLGATEERLVGTLDLDAALGEGRAAFSPGVLAKADGGVLYVDEVNLLPDHLVDLLLDVAASGVNLVERDGLSHRHPARFVLIGTMNPEEGELRPQLLDRFGLNVALSGQTLPEQRGQIIRRRLDFDAAPEAFCQQWATQQQALKARCESARGLLETIALDDASLGLITERCFAAGVDGLRADLVWLRAARAHAAWRGSPAIAEADIDAVADFALRHRRRAPQPPRQSSQPAEQPPQPQQSQQPTQPSLPRPALDQPPSRTAESPADAGQTDHKPPQDGEGSWGELPARSMVTGARKEVPHWPKKP</t>
+  </si>
+  <si>
+    <t>NZ_CP009533.1</t>
+  </si>
+  <si>
+    <t>MTDTVHFPLAAVVAADSLKLALCLAAIDPRIGGVLIEGPRGMAKSTLARGLADLLADGQLVTLPLGASEDRLVGTLDLEAALGEGRARFSPGVLARADGGVLYVDEVNLLADHLVDLLLDVAASGVNRIERDGISHAHPARFVLIGTMNPEEGELRPQLLDRFGLNIALDGQPAPAERGQIIRRRLAFDSDPQGFCEQWAPAQAALRLRCQQARERLESIPLSDQALEAITTRCFAEGVDGLRADLVWLRAARAHAAWRGGDDILEEDVEAVAEFALRHRRQAPRKPQPQRESKPAPPPPAESAAQPSDPGQGQWGDMPAQAVPVGDRRSVPSWPKKPLSIRPRPADARPGQGNLEQGRQGAARAASSGTLDWPATLLQGRPRQRDDLRWQQRRSAAQQLWLVVVDASASTHRHGALAEAKGVLAQVFDDAYRQRARLALLTASGSGPIWQCHGLKASAALQPWLEALGAGGGTPLLAALAEADDWLRQRARRYPQEAQRCLVFTDGRLKSLEGVAPLACPALLLDMEMSPIRLGRARTLAAALGAEYQHLEDLPRA</t>
+  </si>
+  <si>
+    <t>MTDTVHFPLAAVVAADSLKLALCLAAIDPRIGGVLIEGPRGMAKSTLARGLADLLADGQLVTLPLGASEDRLVGTLDLEAALGEGRARFSPGVLARADGGVLYVDEVNLLADHLVDLLLDVAASGVNRIERDGISHAHPARFVLIGTMNPEEGELRPQLLDRFGLNIALDGQPAPAERGQIIRRRLAFDSDPQGFCEQWAPAQAALRLRCQQARERLESIPLSDQALEAITTRCFAEGVDGLRADLVWLRAARAHAAWRGGDDILEEDVEAVAEFALRHRRQAPRKPQPQRESKPAPPPPAESAAQPSDPGQGQWGDMPAQAVPVGDRRSVPSWPKKP</t>
+  </si>
+  <si>
+    <t>NZ_CP006933.1</t>
+  </si>
+  <si>
+    <t>LKNLIFPFSAIVGQEKVKKALVLNAINPSIGGVLIKGDKGTGKTTAVRALADLLPPLQVIKGCPFNCDPDDPASFCDSCREESEIKVEEKKMRVVELPLGATEDRVVGSINIEKALKEGMKALEPGLLADANRNILYVDEINLLDDNLVDVLLDAAAYGINTVEREGISLVHPSNFILVGTMNPAEGELRPQLSDRIGLQISVQSIMDIEDRVKIMERREAFERDPHAFREEFKEYQDQILENIIEARTLLPQVQVSPEMMKVIAQLCVDMGVDGHRADIAILKTSKTLAAYYKHQEVEPIDVEEAAALVLGERFHKKSLDEEKIKKQMKNAVNEVSRDETGDDKKKSQTTVETEQKKRGMKLKTLKKEEEKVESQEEEVDVKKLLKTKGKKKQRIYGKRMDSKTQKGRYIKSKLPKDSSGDIAIDATLRAAAMSSNGEIKVKSEDLRHKIRKHGAKASIAMVVDISGSMFSDRKANKLKGILNSVIEDANRHHDRISVVGFKGEKAEVIIPTTGRATSFREQVDNIRVGGTTPLAAGMQKGLEILEKEKLKAEFVPFLLVLSDGMPNVALEEGPMKDALNIAEKIKEKEIHTVIINFERSVRYGHEVNMELALAAGGRYYDLEDLKDPAGAMAKLLEYERENL</t>
+  </si>
+  <si>
+    <t>MKNLIFPFSAIVGQEKVKKALVLNAINPSIGGVLIKGDKGTGKTTAVRALADLLPPLQVIKGCPFNCDPDDPASFCDSCREESEIKVEEKKMRVVELPLGATEDRVVGSINIEKALKEGMKALEPGLLADANRNILYVDEINLLDDNLVDVLLDAAAYGINTVEREGISLVHPSNFILVGTMNPAEGELRPQLSDRIGLQISVQSIMDIEDRVKIMERREAFERDPHAFREEFKEYQDQILENIIEARTLLPQVQVSPEMMKVIAQLCVDMGVDGHRADIAILKTSKTLAAYYKHQEVEPIDVEEAAALVLGERFHKKSLDEEKIKKQMKNAVNEVSRDETGDDKKKSQTT</t>
+  </si>
+  <si>
+    <t>NZ_CP009170.1</t>
+  </si>
+  <si>
+    <t>MYYPFSAIVGQKLMKKALILNAINPKLGGVLIRGEKGTAKSTAVRALAELLPEIRVVEGCPFGCDPDNPAQMCTNCREKWERGEKLPVTTRKMRVVDLPISATEDRVVGTLDIERAIKKGEKCFEPGVLAEANRGILYVDEVNLLDDHVVDILLDSAAMGVNIVEREGVSFSHPANFILVGTMNPEEGDLRPQLLDRFGLCVSVEGIDDPSARVEIIKNRLAFEEDPAKFAEKWEEKQEELRQKIFSAKQLLPHVRVDDKMLELIARISLDMGVDGHRADIVMMKTAATIAAYKGKELVEEEEVKEAAELVLPHRMRKKPFEQSQMDKEKLEQILKEQQKQQQSQPKPQNQQQQRQQEQQRQQQQQQQEVEGEDKKKLINLVEEEEGENNNGSEEQVFEIGEEFSIKRIMFSKDKNLRRKGSGRRSLTRINSKKGRYVRSKFYNENNDIAFDATLRAAAPYQKSRKKEGVAISIKEWDIREKVREKKIGNFIVFVVDGSGSMNANQRIKAAKGAIVSLLLDAYQKRDEVAMIVFKGETAEVVLPPTSSVELAYKLMEELPTGGKTPLAEGLYKGLEVIKNAKYRNPDIYPIIVLISDGRANVSRGSKKPIEEVKEMALLIKKEEIKSIVIDVEKDNFITFGLAREIANLMDAKYFKIDDLKAEKIIDVVKQSLYV</t>
+  </si>
+  <si>
+    <t>MYYPFSAIVGQKLMKKALILNAINPKLGGVLIRGEKGTAKSTAVRALAELLPEIRVVEGCPFGCDPDNPAQMCTNCREKWERGEKLPVTTRKMRVVDLPISATEDRVVGTLDIERAIKKGEKCFEPGVLAEANRGILYVDEVNLLDDHVVDILLDSAAMGVNIVEREGVSFSHPANFILVGTMNPEEGDLRPQLLDRFGLCVSVEGIDDPSARVEIIKNRLAFEEDPAKFAEKWEEKQEELRQKIFSAKQLLPHVRVDDKMLELIARISLDMGVDGHRADIVMMKTAATIAAYKGKELVEEEEVKEAAELVLPHRMRKKPFEQSQMDKEKLEQILKEQQKQQQSQPKPQNQQQQRQQEQQRQQQQQQQEVEGEDKKKLINL</t>
+  </si>
+  <si>
+    <t>NZ_JTDB01000028.1</t>
+  </si>
+  <si>
+    <t>MPQPFPLTALIGQDALREALLLAAVDPSIGGVLISGPRGTAKSTAARSLADLLPDGHFVTLPLGASEDRLVGTLDLDLVLRGGALKFSPGLLARAHNGVLYVDEVNLLADGLVDVVLDAAASGINVVERDGVSHSHAARFVLIGTMNPEEGELRPQLLDRFGLMVQLENCFDAQIRQQIVRTRMAFDLDPEAFRQTYATAQLQLAQQIRAARAALSGLTFADEVHETVSARCIEARVDGLRADLVMLRAARALAALEAALVVTGAHVDRVAELVLCHRRREQSPDARPADSGGQSDVRREDDREGGQSARPDAASAMEPRRADDADWGYLPPEPAGITRVKDVIPLSIKKRLIHRKGATADSSGFRWMPGLPGTHAAARRAAPGEPREPGARGQRIAWPATLARKGRSPLHADHLRFVRHESADGTLHCFLLDCSASMLGGGRLARAKGLLLACFDRAAAGREEVSLISFGGGRADVRFGPAVPRWWNERWIQPVGGGGGTPFALGVATAAGLLARAKRRKPSQQRVLWVVSDARTREQPARPPAADRVVVIDCAQGAAGRGLQLARAWGADYLLPEDLVVIS</t>
+  </si>
+  <si>
+    <t>MPQPFPLTALIGQDALREALLLAAVDPSIGGVLISGPRGTAKSTAARSLADLLPDGHFVTLPLGASEDRLVGTLDLDLVLRGGALKFSPGLLARAHNGVLYVDEVNLLADGLVDVVLDAAASGINVVERDGVSHSHAARFVLIGTMNPEEGELRPQLLDRFGLMVQLENCFDAQIRQQIVRTRMAFDLDPEAFRQTYATAQLQLAQQIRAARAALSGLTFADEVHETVSARCIEARVDGLRADLVMLRAARALAALEAALVVTGAHVDRVAELVLCHRRREQSPDARPADSGGQSDVRREDDREGGQSARPDAASAMEPRRADDADWGYLPPEPAGITRVKDVIPLSIKKR</t>
+  </si>
+  <si>
+    <t>NZ_KN639176.1</t>
+  </si>
+  <si>
+    <t>MSEPAHFPLAAVVGADELKLALCLTAIDPKIGGVLIEGPRGMAKSTLARGLADLLGEGPFVTLPLGASEERLVGTLDLDAALGQGKAQFSPGVLAKADGGVLYVDEVNLLADHLVDLLLDVAASGTNRVERDGISHRHSARFVLIGTMNPEEGELRPQLLDRFGLNVVLEGQPLPQARGQIIRRRLDFDSDPEAFCAQWAPAQAALRERCHGARERLQQIALDDQALAQITERCFAAGVDGLRADLVWLRAARAHAAWRGALAIEAEDIDAVAEFALRHRRREAPAPQPQAPDTGAAAQPSSGQQGQGQWGEMAPQATPSGARREVPNWAKKPLSIRRPTSADAKPRPGALATGPRGRGKQAASGAVAWPATLLKGRPRQRNDLCWQQRTASAHELWLVIVDASASTRRHQALSRAKGMLAGFFDQAYRNRARLTLLTASGNAPRWQRHGLKASVSLQPWLEALGAGGGTPLLAALEQARDWLQARQRRYPTELQRCLIVTDGRLKAWEALQPLPCQALLVDIESSPIKLGRAQLLAQQLHADYQHLETLAILGK</t>
+  </si>
+  <si>
+    <t>MSEPAHFPLAAVVGADELKLALCLTAIDPKIGGVLIEGPRGMAKSTLARGLADLLGEGPFVTLPLGASEERLVGTLDLDAALGQGKAQFSPGVLAKADGGVLYVDEVNLLADHLVDLLLDVAASGTNRVERDGISHRHSARFVLIGTMNPEEGELRPQLLDRFGLNVVLEGQPLPQARGQIIRRRLDFDSDPEAFCAQWAPAQAALRERCHGARERLQQIALDDQALAQITERCFAAGVDGLRADLVWLRAARAHAAWRGALAIEAEDIDAVAEFALRHRRREAPAPQPQAPDTGAAAQPSSGQQGQGQWGEMAPQATPSGARREVPNWAKKP</t>
+  </si>
+  <si>
+    <t>NZ_JTKY01000071.1</t>
+  </si>
+  <si>
+    <t>MTAAQPEALWAGEQPPAFPLVALVGQPQLQLALLLAAVDPSMGGVLISGPRGTAKSTAARALAALMPEVPFVTLPLSATLEQVVGTLDLEGALRDGRVRFAPGVLARAHEGVLYVDEVNLLADVLVDALLDAAASGVNTVERDGVSHRHPARFVLVGTMNPEEGELRPQLLDRFGLYVAMQNPPDSATRAAIVRQRLAYEADPVGFVQRHAAASASVAQRLRCARERLATVTWDDAILEHVAQCCQAARVDGVRADLVLLKAARAHAAWHGRATVAVDDVEAVQALALAHRCGGSPASGREPSPPPQSMSASMAAPTSQGGSPAPLDGTAAGHHPAPVRAAPGDVSPGGGDASAGDWGAMEPEPITVPQPALPQWADWWPKKPLAPRAGRVSWVAHTTGGPRRDPAATGGQRPAGHGWEPTAAVDWPTTLRRKGPRALQRRHVQWRLGAVVPVAMHVIVLDISGSMAWGQRAARAKAYAAAIVEGARRSGAWVALLAVGGQHAQWVLRPRAARRSAVQRMQALGCGGGTPMQQAALQVEEVLCAHARHYPAAYRHVWVLTDGRVRTVPMRPLAAHEVTVVDFDDDPVPLGQARRWAAAWGARWLLAAAGCPGLAGGRDG</t>
+  </si>
+  <si>
+    <t>MTAAQPEALWAGEQPPAFPLVALVGQPQLQLALLLAAVDPSMGGVLISGPRGTAKSTAARALAALMPEVPFVTLPLSATLEQVVGTLDLEGALRDGRVRFAPGVLARAHEGVLYVDEVNLLADVLVDALLDAAASGVNTVERDGVSHRHPARFVLVGTMNPEEGELRPQLLDRFGLYVAMQNPPDSATRAAIVRQRLAYEADPVGFVQRHAAASASVAQRLRCARERLATVTWDDAILEHVAQCCQAARVDGVRADLVLLKAARAHAAWHGRATVAVDDVEAVQALALAHRCGGSPASGREPSPPPQSMSASMAAPTSQGGSPAPLDGTAAGHHPAPVRAAPGDVSPGGGDASAGDWGAMEPEPITVPQPALPQWADWWPKKP</t>
+  </si>
+  <si>
+    <t>NZ_CP010421.1</t>
+  </si>
+  <si>
+    <t>MDTPKPDFPRRAPRQSFPLAAVVSADDLKLALCLLVIDPAIGGVLIEGPRGMAKSTLARGVAELLPGGAFVDLPLGASEERIVGTLDLDAALGEGRTRFSPGLLARADGGVLYVDEVNLLPDHLVDLLLDAAASGVNHVERDGISHRHRARFVLVGTMNPEEGELRPQLLDRFGFNLALEGQPQPAERAEIVRRRLAFDSDPVAFTQRWAAAQSALHERCRVARERLAAIELDEASLEAITRRCFEAGVDGMRADLVWLRAARAHAAWRGSFAIEAGDIDRVEPFVLRHRRHLMPPQSSARPSQGGSASSKVEQGEGQWGELPAQPQTMGARRELPRWPKKPLSIRPAGAGSADARPGAGNLAGGRSGARRGGEGGPVDWPASLRRGRPRQPRELHRKPRSARPGELWLVVVDASASTRRQGALSQAKGLLAQLFEQAYRQRARLALLHANGTRPQWVWQGRKASRAARKWLEGLGAGGGTPLIEALGEAASWLARRQRLHPAERRWLLVVTDGRLRDWPPLAASACPALLVDIECTPIRLGRACLLAEQLSAEYRHIEQLASL</t>
+  </si>
+  <si>
+    <t>MDTPKPDFPRRAPRQSFPLAAVVSADDLKLALCLLVIDPAIGGVLIEGPRGMAKSTLARGVAELLPGGAFVDLPLGASEERIVGTLDLDAALGEGRTRFSPGLLARADGGVLYVDEVNLLPDHLVDLLLDAAASGVNHVERDGISHRHRARFVLVGTMNPEEGELRPQLLDRFGFNLALEGQPQPAERAEIVRRRLAFDSDPVAFTQRWAAAQSALHERCRVARERLAAIELDEASLEAITRRCFEAGVDGMRADLVWLRAARAHAAWRGSFAIEAGDIDRVEPFVLRHRRHLMPPQSSARPSQGGSASSKVEQGEGQWGELPAQPQTMGARRELPRWPKKP</t>
+  </si>
+  <si>
+    <t>NZ_JWJD01000002.1</t>
+  </si>
+  <si>
+    <t>hypothetical protein | hypothetical protein</t>
+  </si>
+  <si>
+    <t>MKDAATYPFSALLGQEDLRTALLLNAVDPSIGGVLIQGHKGTGKSTAVRALAALLPEIEAVADCPFHCPPAPAEAMHDECAARLRAGEALEITKRPMPLVDLPLAATEDRVVGTLHLEKTLASGRRHFEPGLLAAANRGILYVDEVNLLPDHLVDLLLDAAATGVNRVEREGISVSHPARFLLVGTMNPEEGELRPQFLDRFGLCVWVRGIEEATQRREVVRRRMAFEENPVAFAETWAAQEDMLRRQVVQARANLNAVVLTDAAIDRAVQISLAVGAQGHRSDLAIARAARALAALLERERVCDAEIFEAALLVLPHRLGSSASGDQADFRQHLHQVLAGEKLPAAEPFAEDETDEADDWGASMEIPGATAAGSQLFTFLKKKVLHASSNPKALTLPEIGAIGKRRRRLRGAGRRLGNSGRSGGVLRTVPAERGGSHELALGRTLRAAASRGAGNLKIHAADVHRTIRRQRQETLVVFLVDASDSMGEGTTARIALAKGAVLALLRRAYLSRDRVALVTFRERGAQVQLAPTRSGALARARLRRLAIGGATPLAAGLFAARRLIDQERRRDPGLQALLVVLSDGEANVPRVRGADLKREILAEAKTLRHGQTAVVLFDTGARSRDNLLPEMGTVLGAPCHPLHGNNLGRLIALIEEGLGE</t>
+  </si>
+  <si>
+    <t>MKDAATYPFSALLGQEDLRTALLLNAVDPSIGGVLIQGHKGTGKSTAVRALAALLPEIEAVADCPFHCPPAPAEAMHDECAARLRAGEALEITKRPMPLVDLPLAATEDRVVGTLHLEKTLASGRRHFEPGLLAAANRGILYVDEVNLLPDHLVDLLLDAAATGVNRVEREGISVSHPARFLLVGTMNPEEGELRPQFLDRFGLCVWVRGIEEATQRREVVRRRMAFEENPVAFAETWAAQEDMLRRQVVQARANLNAVVLTDAAIDRAVQISLAVGAQGHRSDLAIARAARALAALLERERVCDAEIFEAALLVLPHRLGSSASGDQADFRQHLHQVLAGEKLPAAEPFAEDETDEADDWGASMEIPGATAAGSQLFTFLKKKVLHASSNPKA</t>
+  </si>
+  <si>
+    <t>NZ_CCYK01000007.1</t>
+  </si>
+  <si>
+    <t>MAFHYPLAAVVGAERLKLALCIAAIDPGIGGVLIEGPRGMAKSTLARGLADLLEQAPFVTLPLGASEDRVVGSLNLDAVLAHGEVRFAPGLLAKADGGVLYVDEVNLLPDPLVDLLLDVAASGVNRVERDGVSHEHPARIVLIGTMNPEEGELRPQLLDRFGLNVALDSRPDPAQRREIITRRLAFDADPMGFIAHWAEAQAMLAQRCRQARSALAGIPLDDMALEAITQACYRAGVDGLRADLVWLRAARAHAAWRGMLAIEAHDIEAVAEFALRHRRHPDTGSTQVPPPAQKGSETLGDSESGGDWGALPPQPVATGPRLGLAGWPKKSLGPPLGESGAKRSAVLGQGRTGRASAKCHTRIAWVPTLAQGRPRSQAALRWHNGPLHQPPVWLVVVDASASTRRRGALGRAKGYLATLFEQAYRQRARVALLTASGTGPSWQRQGLKASAALGHWLEHLGAGGGTPLRECIDLARDWVRKQRRKSPWQPLRCLIVTDGRINGLENVAPLGCDTQVLDIELGEIRLGRTRRLAQRLGADYLHLERLPTAVQ</t>
+  </si>
+  <si>
+    <t>MAFHYPLAAVVGAERLKLALCIAAIDPGIGGVLIEGPRGMAKSTLARGLADLLEQAPFVTLPLGASEDRVVGSLNLDAVLAHGEVRFAPGLLAKADGGVLYVDEVNLLPDPLVDLLLDVAASGVNRVERDGVSHEHPARIVLIGTMNPEEGELRPQLLDRFGLNVALDSRPDPAQRREIITRRLAFDADPMGFIAHWAEAQAMLAQRCRQARSALAGIPLDDMALEAITQACYRAGVDGLRADLVWLRAARAHAAWRGMLAIEAHDIEAVAEFALRHRRHPDTGSTQVPPPAQKGSETLGDSESGGDWGALPPQPVATGPRLGLAGWPKKS</t>
+  </si>
+  <si>
+    <t>NZ_CP010311.1</t>
+  </si>
+  <si>
+    <t>MKESIAFPFSALIGQEDLRTALLLNAVDPAIGGVLIQGHKGAGKSTAVRALAALLPDMEVVADCPYHCPPAPLDAMHDECAARVLAGEPLKTVMRPMPLVELPLAATEDRVVGSLHLEKTLAGGQRYFEPGLLAAANRGILYVDEVNLLPDHLVDLLLDAAGSGINRVEREGISVTHPARFLLVGTMNPEEGELRPQFLDRFGLCVTVRGIENIAQRREVIRRRMAFEENPEDFVKAWTQAEQALRQQVVRARQTLDNVALPDEILDRAIGISLAMGVQGHRSDLAIVRAARALSALLERDRVGEEEIFEAALLVLPHRIGAEAMEERSDLRGRLQKAFSGEKVKQGEDSNIPESAEELDDWESSMEVPGATAAGSLLFSFLKKKVPNASIEPYNLAVPDLPLSITRLRTVRDSGRRFQNIGRTGGVMRTVPDHLSGGHRELALGRTLRAAALGGGGALKIRARDVYRTIRRRRHETLVVFLVDASDSMGEGTTSRIALAKGAVLALLRRAYLNRDRVALVTFRDQSAQVQLPPTRSRTLARQRLRRLAIGGATPFAAGLHEARRLIELERRRDPRLQVLLVILSDGEGNVARERGADPRQEVLSGAAALCHKQTSVVLFDTGSQSKDNLLPDIAKVFKVPCHLLQGDSLARLVELIEEGRGSGP</t>
+  </si>
+  <si>
+    <t>MKESIAFPFSALIGQEDLRTALLLNAVDPAIGGVLIQGHKGAGKSTAVRALAALLPDMEVVADCPYHCPPAPLDAMHDECAARVLAGEPLKTVMRPMPLVELPLAATEDRVVGSLHLEKTLAGGQRYFEPGLLAAANRGILYVDEVNLLPDHLVDLLLDAAGSGINRVEREGISVTHPARFLLVGTMNPEEGELRPQFLDRFGLCVTVRGIENIAQRREVIRRRMAFEENPEDFVKAWTQAEQALRQQVVRARQTLDNVALPDEILDRAIGISLAMGVQGHRSDLAIVRAARALSALLERDRVGEEEIFEAALLVLPHRIGAEAMEERSDLRGRLQKAFSGEKVKQGEDSNIPESAEELDDWESSMEVPGATAAGSLLFSFLKKKVPNAS</t>
+  </si>
+  <si>
+    <t>NZ_CP010537.1</t>
+  </si>
+  <si>
+    <t>MNATARLARMPFPFSALVGQQRLQQALLLAAVDPGIGGVLVSGPRGTAKSTAARALAQLLPEGQFVTLPLGASEEQLIGTLDLGHVLKQSEVRFAPGLLARAHQGVLYVDEVNLLPDHLVDQLLDVAASGVNVVERDGVSHQHEARFVLVGTMNPEEGELRPQLLDRFGLSLALENCTDAAQRQAIVKARLAFDNDPVALCTRFATEQDALTRKVRLARGALSALSFSDAVHERVSHLCLAAAVDGVRADLVMLRAARALAALQCDAAVVPAHVDTVAELVLHHRRQAPPNAGRQADGHADGDGNANGSGDGDGRSAGDAAANNPWGALPPALASAAAGIAPVKGVRPLPTKKALSHRQAAAEPGQGGNRWQAPRFAASLAAPHGRPGSLRIHWTQTLAAKGSQPFAPSHLRWRAQQAHAGVLHCFVLDCSASMLHGRQLALAKGVLLRLLQRAYQARAEVALVCFAAGRAEVRLQPARARPWSEAWIRPIAGGGGTPLSLGMARAGQLLAHAARRRPAQQRWLWLLSDGRSTEQPPRPPWADAVMVVDFERQAVALGRCRQLARGWEGEYLVADALMG</t>
+  </si>
+  <si>
+    <t>MNATARLARMPFPFSALVGQQRLQQALLLAAVDPGIGGVLVSGPRGTAKSTAARALAQLLPEGQFVTLPLGASEEQLIGTLDLGHVLKQSEVRFAPGLLARAHQGVLYVDEVNLLPDHLVDQLLDVAASGVNVVERDGVSHQHEARFVLVGTMNPEEGELRPQLLDRFGLSLALENCTDAAQRQAIVKARLAFDNDPVALCTRFATEQDALTRKVRLARGALSALSFSDAVHERVSHLCLAAAVDGVRADLVMLRAARALAALQCDAAVVPAHVDTVAELVLHHRRQAPPNAGRQADGHADGDGNANGSGDGDGRSAGDAAANNPWGALPPALASAAAGIAPVKGVRPLPTKKA</t>
+  </si>
+  <si>
+    <t>NZ_CP016603.1</t>
+  </si>
+  <si>
+    <t>MSIATPPATAPVGFPFTAIEGQPLLQRALLLAAVDPLLGGVLVEGPRGTAKSTSARALAALLPAGRFVNLPLGATEEQLVGSLDLEAALQRSAVQFRPGLLARAHGGILYVDEVNLLADGLVDLLLDVSASGINRVERDGVSHQHEARITLIGTMNPEEGQLRPQLLDRFGLFVRLENVPNAQVRKAIVRTRMAFDADPQAFASRHAAAQTALALRVAQARDRLATVEWPEAVHDEVAQRCQDAGVEGVRADLVMLRAAGTNSPPTALAPAPDAGPADQNPAGDWGAMPASQAVPLQAVKALRPFQPKKALTRSAPTGQAGQAVAGRDSNMARKGRSLGPASRQLNWVTTLAAKGSGALLPQHLHFRRQPQGRKTLHLVLLDQSASMLRGQKLAWAKGCLLALSTLFYRRRDAMAVLGFAGEQAQWLQKPGKAGLFNEHWIAPLRGGGATPIQSAIDAVQDAVRRAPAGTQVAVWLLTDGRFDPLPQRPGGVDDCYIIDFEDGAVALGRCHRLAEMWGGTCVPAAQWGAPTAG</t>
+  </si>
+  <si>
+    <t>MSIATPPATAPVGFPFTAIEGQPLLQRALLLAAVDPLLGGVLVEGPRGTAKSTSARALAALLPAGRFVNLPLGATEEQLVGSLDLEAALQRSAVQFRPGLLARAHGGILYVDEVNLLADGLVDLLLDVSASGINRVERDGVSHQHEARITLIGTMNPEEGQLRPQLLDRFGLFVRLENVPNAQVRKAIVRTRMAFDADPQAFASRHAAAQTALALRVAQARDRLATVEWPEAVHDEVAQRCQDAGVEGVRADLVMLRAAGTNSPPTALAPAPDAGPADQNPAGDWGAMPASQAVPLQAVKALRPFQPKKA</t>
+  </si>
+  <si>
+    <t>NZ_LN554852.1</t>
+  </si>
+  <si>
+    <t>MSRVNFPFTAVSGQSLFKTALILAAINPGIGGVLVNGPRGSAKSTLARGFADILPSELQNLVNLPLSATEEMLVGTLDLQSVLSEQKVNFKPGILAKAHQGIVYVDEVNLLADSLVDLLLDVSASGINYIERDGISHQHESRFILLGTMNPEEGELRAQLLDRFGLSVELSAQYSINERVEIVCLREDFDKAPNAFIAKYADQQQQLQQDIANAQASLGQVSCSMALRQFIAQRCHEAHVDGLRADIVWFKTALAHAAWQGHSEVTKTDILAVEDLVLNHRRNTGSSQSPPPPNNNQNKQQPSTPPPFSRPDSSSSRPSSLPEQTGTNTQQQSENSEWGSMPAVSQPMANTQVVELSVKALDAKKNLIDKLILTSKSHNGAVLGGQKISQRITHSPDWFATLVSSLGRWPPAGLRFKKAKMGQPILHMILLDTSGSTLKNLQLSRAKAVIMHIAEQAYKQRELLCIFGFGNDVIETVMPKQKAPKYIQQWLDGITAGGGTPIREMLTQVRTYQVNSQKQQGALAFRNYVLTDGRINQDVDDLKLAGHTLLIDTEDSTIKRGRGSEIAQQLDCEYLVLPA</t>
+  </si>
+  <si>
+    <t>MSRVNFPFTAVSGQSLFKTALILAAINPGIGGVLVNGPRGSAKSTLARGFADILPSELQNLVNLPLSATEEMLVGTLDLQSVLSEQKVNFKPGILAKAHQGIVYVDEVNLLADSLVDLLLDVSASGINYIERDGISHQHESRFILLGTMNPEEGELRAQLLDRFGLSVELSAQYSINERVEIVCLREDFDKAPNAFIAKYADQQQQLQQDIANAQASLGQVSCSMALRQFIAQRCHEAHVDGLRADIVWFKTALAHAAWQGHSEVTKTDILAVEDLVLNHRRNTGSSQSPPPPNNNQNKQQPSTPPPFSRPDSSSSRPSSLPEQTGTNTQQQSENSEWGSMPAVSQPMANTQVVELSVKALDAKKN</t>
+  </si>
+  <si>
+    <t>NZ_CP009488.1</t>
+  </si>
+  <si>
+    <t>MTDPTHRLRAVSPAVFPFTALVGQAALQQALLLAAIDPSLGGVLVSGPRGTAKSTAARALAALLPEGQFVTLPLSASDEQVTGSLDLAHALAENGVRFRPGLLARAHRGVLYVDEVNLLADGLVDTLLDVAASGVNIVERDGVSHAHDARFVLVGTMNPEEGELRPQLLDRFGLMVELENCFDAAQREQIVKARLAFDLDPEAFRARHDDAQRALAGRIRAARERLPALTFGDAVHARVSALCIDAAVDGLRADLVMLRAARALAALEGADAVTVEHVERVAEAVLRHRRSAHAAPPAASGARDAERAPSQSNAGGSSATPPDTARPRDEDAQGDWGYLPPEPAGLHAVKGVVPLPLKKRLSHRAGAAATSLRGPRWQQGATGRAPGVTRAGVAVAWPATFAVKRAGRLQAEHLRFRKQVGAPRALHCFVLDCSASMLSFERLAIAKGLIVAYFDHAARARAETALICFGGTGAERRFGPAVPRWWNARWLGPVGGGGGTPFADGIDAAARLLAREARREPDKQRWLWVLSDGRTREMPARPKAADHVVFVDFDDAAVRVGRGARIAAEWGAQWVTAEGLVA</t>
+  </si>
+  <si>
+    <t>MTDPTHRLRAVSPAVFPFTALVGQAALQQALLLAAIDPSLGGVLVSGPRGTAKSTAARALAALLPEGQFVTLPLSASDEQVTGSLDLAHALAENGVRFRPGLLARAHRGVLYVDEVNLLADGLVDTLLDVAASGVNIVERDGVSHAHDARFVLVGTMNPEEGELRPQLLDRFGLMVELENCFDAAQREQIVKARLAFDLDPEAFRARHDDAQRALAGRIRAARERLPALTFGDAVHARVSALCIDAAVDGLRADLVMLRAARALAALEGADAVTVEHVERVAEAVLRHRRSAHAAPPAASGARDAERAPSQSNAGGSSATPPDTARPRDEDAQGDWGYLPPEPAGLHAVKGVVPLPLKKR</t>
+  </si>
+  <si>
+    <t>NZ_CP009323.1</t>
+  </si>
+  <si>
+    <t>MNPHDPSGGLPPFPFSALIGQAALQQALLLVAVDPSIGGVLVSGPRGTAKSTAARALAELLPRGRFVTLPLGAADEHVTGTLDLAGALGENAVRFSPGLLARAHLGVLYVDEINLLPDGLVDVLLDAAASGVNTVERDGISHTHAARFALVGTMNPEEGELRPQLLDRFGLMVELENCRDIDERQRIVKARLAFDLDPAGFRAGHAGALAALAERIGRAREALASVQVDDSVHEQVARLCIEAAVDGLRADLVMLRAARALAAFEGAAAVSAAHVERVAADVLRHRRTQASAAAESSSPTSSPTASRQTDQPARGTNPPPRGGDASSIARDEAPAGDGGARDGDWGYLPPVPAGLTAVKGVIPLPSKKRLSHRTTAPAAPGSGVRWRHGKLPARQGLPGTRIAWPATLAAKRGGPLEAAHLRFRPRSGEPRAFHCFVLDCSASMLDGARLALAKGLLVALFDAAARERAEVALIGFGGRGAERRFGPAVPRWWNERWLEPVAGGGGTPLSAGIAMAQSLLARIARRRPGAPRTLWLLSDMRTDEMPSRPAQADEIHLVDFDDAAVRLGRAQRLARRWEASCRRPEDLISRIDRN</t>
+  </si>
+  <si>
+    <t>MNPHDPSGGLPPFPFSALIGQAALQQALLLVAVDPSIGGVLVSGPRGTAKSTAARALAELLPRGRFVTLPLGAADEHVTGTLDLAGALGENAVRFSPGLLARAHLGVLYVDEINLLPDGLVDVLLDAAASGVNTVERDGISHTHAARFALVGTMNPEEGELRPQLLDRFGLMVELENCRDIDERQRIVKARLAFDLDPAGFRAGHAGALAALAERIGRAREALASVQVDDSVHEQVARLCIEAAVDGLRADLVMLRAARALAAFEGAAAVSAAHVERVAADVLRHRRTQASAAAESSSPTSSPTASRQTDQPARGTNPPPRGGDASSIARDEAPAGDGGARDGDWGYLPPVPAGLTAVKGVIPLPSKKR</t>
+  </si>
+  <si>
+    <t>NZ_LAQU01000005.1</t>
+  </si>
+  <si>
+    <t>MSPSFPFVALVGQALLQQALLLVAVDAGIGGVLITGPRGTAKSTSARALAALLAPAPFVTLPLGASEAQLIGSLDLDAVLREGAARFAPGLLAKADGGVLYVDEVNLLPDALADALLDAAASGVNVVERDGVSHRHAARFVLIGTMNEEEGELRPQLSDRFGLSVLLENYADVSVRESIVRSRLAFDLDPAAFVAAHAAASTALGQRLHAARQRIGGLAFSDAVHRRVSDWCLAAAVDGVRADLVMLKAARAQAALDGDAAISVGHVDRVAPLVLLHRRQAEGRPATSHASASALPPVDTPASAAPSHSGTPSRDADRASGVEDGAREAAPSGRLSGSPGNALHASQDSGPSSMQQAHRRDETRPGRDTGTSPDGDPDRDWGYLAPEPVPVAQVKPVRAYDPKKVLTRRDNAGPDGAKDPGMSRQWAEANALSRSPIDGRMRRRHIEGQDVVRHHATVAWPDTLLAARGQPLAVGHLRAVQRGTARPTRTVFLLDCSASMVASGALAHAKGLLMSWLRRVRKRDAHAVVIGFDGRGAAVHFGPGVPRGWHARWLAPLPGGGGTPLQRGVDAACTFGRRGKNGGPLNGRVALVLLTDGLTNALPARPEGFDTIDIVLPSGGANGPAHDAMRRHVGERQAARLARIWGGVCVVR</t>
+  </si>
+  <si>
+    <t>MSPSFPFVALVGQALLQQALLLVAVDAGIGGVLITGPRGTAKSTSARALAALLAPAPFVTLPLGASEAQLIGSLDLDAVLREGAARFAPGLLAKADGGVLYVDEVNLLPDALADALLDAAASGVNVVERDGVSHRHAARFVLIGTMNEEEGELRPQLSDRFGLSVLLENYADVSVRESIVRSRLAFDLDPAAFVAAHAAASTALGQRLHAARQRIGGLAFSDAVHRRVSDWCLAAAVDGVRADLVMLKAARAQAALDGDAAISVGHVDRVAPLVLLHRRQAEGRPATSHASASALPPVDTPASAAPSHSGTPSRDADRASGVEDGAREAAPSGRLSGSPGNALHASQDSGPSSMQQAHRRDETRPGRDTGTSPDGDPDRDWGYLAPEPVPVAQVKPVRAYDPKKV</t>
+  </si>
+  <si>
+    <t>NZ_BBQN01000063.1</t>
+  </si>
+  <si>
+    <t>MTKTALRPIFPFSALVGQDALQQALLLAAIDPGIGGVLVTGPRGTAKSTAARALAELLPHGRFVTLPLGASEEQLTGTLDLGHVLQQGEVRFQPGLLARAHDGVLYVDEVNLLPDPLVDQLLDVAASGVNVVERDGVSHQHPARFVLVGTMNPEEGELRPQLLDRFGLALALSNYDDPAVRQAIVRARLDFDTDPDAFRAAVAERQRDLARQVARAREALAGLAFSDAVHDRVSALCLAADVDGVRADLVMLRAARALAAWRGDPAVCADHVDAVAELVLHHRRHAHGETSQPRQDAQSAPSKGGPAPSYGEQGGQDGPAPDHRQSADPWGALPPPQTAGIADVKPLKPFHIGNRTAKKALSHRRAAAQQRQGGHRWQAPRLVSKGSVSHDGAPGARVHWPRTLAAKRDRALAAPHLRYRHVSARGGELHCIVLDCSASMLQGDQLALAKGVLVRLIERAYQARADVALVCFAAGQAEVRLAPSRARRWNDDWIRPIAGGGGTPLALGAARADQLLARQARLRPAQRRWLWLLSDGRTTETPSRPAWADHIVVVDVERQALALGRCQQLAQGWDAEYRSAETLTL</t>
+  </si>
+  <si>
+    <t>MTKTALRPIFPFSALVGQDALQQALLLAAIDPGIGGVLVTGPRGTAKSTAARALAELLPHGRFVTLPLGASEEQLTGTLDLGHVLQQGEVRFQPGLLARAHDGVLYVDEVNLLPDPLVDQLLDVAASGVNVVERDGVSHQHPARFVLVGTMNPEEGELRPQLLDRFGLALALSNYDDPAVRQAIVRARLDFDTDPDAFRAAVAERQRDLARQVARAREALAGLAFSDAVHDRVSALCLAADVDGVRADLVMLRAARALAAWRGDPAVCADHVDAVAELVLHHRRHAHGETSQPRQDAQSAPSKGGPAPSYGEQGGQDGPAPDHRQSADPWGALPPPQTAGIADVKPLKPFHIGNRTAKKA</t>
+  </si>
+  <si>
+    <t>NZ_CP011312.1</t>
+  </si>
+  <si>
+    <t>VSTTTAPGFPFSAVYDQERLQLALILTAIAPRIGGVVIRGEKGTAKTTTVRGFQSILGGAPLVNLPIGATEDRVVGALDLETVLTTGKANYRPGLLAEADGGILYVDEVNLLADHLVDALLDAAATGRVTIERDGISHTSPANFILVGTMNPEEGELRPQLLDRFGLSIDVSASRDVATRTEIMRRRLAFEDDPQGFADDWSASDDTLSQRVAQAKHIISQVVLSDENLARIAQICAAFDVDGMRGDLVIARTARAHAAWSGRSEVLDEDIRIAAELALPHRRRRNPFDEPGLDSEQLDEAMNEPLPQNGSPTDPPTENDSSPKDSPAESEPTSDGEVGSADTGAPFRSRTLLRKTSRVLDATPGRRAPAQTRIGSDVRPVRNGRGLNLIGTIRAAADRGAHIDAGRLEFIPTDLRGSLRRGKEANLIVFLVDSSGSMAARDRLNAVTGAVHSLLGDAYQRRDKVAVITVRGSAPEIVLQPTGSIDIAKKRLDGLPTGGRTPLAEGLNMAHELIEREYRREPGRPALLVVLTDGRATGKDGLAHLRSIAATIAQRGHTGSVIVDCEKGGRIRLGLATELAQNLGGTCVRIEELNAEALTEVIQAL</t>
+  </si>
+  <si>
+    <t>MSTTTAPGFPFSAVYDQERLQLALILTAIAPRIGGVVIRGEKGTAKTTTVRGFQSILGGAPLVNLPIGATEDRVVGALDLETVLTTGKANYRPGLLAEADGGILYVDEVNLLADHLVDALLDAAATGRVTIERDGISHTSPANFILVGTMNPEEGELRPQLLDRFGLSIDVSASRDVATRTEIMRRRLAFEDDPQGFADDWSASDDTLSQRVAQAKHIISQVVLSDENLARIAQICAAFDVDGMRGDLVIARTARAHAAWSGRSEVLDEDIRIAAELALPHRRRRNPFDEPGLDSEQLDEAMNEPLPQNGSPTDPPTENDSSPKDSPAESEPTSDGEVGSADTGAPFRS</t>
+  </si>
+  <si>
+    <t>NZ_CP011542.1</t>
+  </si>
+  <si>
+    <t>VTSIAPVSFPFSAVVGQDQLHLALILTAVSPRIGGVVIRGEKGTAKTTTVRAFAKLLDGAPLINLPIGATEDRVVGALDLETVLTTGRATYKPGLLAQANNGVLYVDEVNLLADHLIDALLDAAATGIVTIERDGISHTAEASFVLVGTMNPEEGELRPQLLDRFGLSVEVTGSRDVDIRADIIRRRLAFEQDPAGFVAQWAEADNEIAKRIKQAKELLPHVTLSDVNLARIAHICAAFDVDGMRADLVIARTACAHAAWQQRTNVTDEDIKVAAELALPHRKRRNPFDEPGIDQQDLDNALEQAQNEHPEDDLPADAPSATPEPDTQDLSDSQATADGEVGTADQGVPFRRSATRRSGKTSATEAAPGRRAPALTRTGTPVRSVSNGRGVHVIGTVQAAADRGARIEDGIIQFQPADLRGAVLRGKESNLIVFVVDASGSMAANDRLAAVTGAVHSLLGDAYQRRDRVAVVSVRGAQPELVLPPTGSIDVAHRRLAAVDTGGRTPLAEGLQLAQEVIEREHHREPGRRALLVVLSDGRATGAGGLAKLHSVAGAIARRGLAGCIVIDCETAGRVKLGLAAELARNLGAVCLQLAELDAQSVAGVIDAF</t>
+  </si>
+  <si>
+    <t>MTSIAPVSFPFSAVVGQDQLHLALILTAVSPRIGGVVIRGEKGTAKTTTVRAFAKLLDGAPLINLPIGATEDRVVGALDLETVLTTGRATYKPGLLAQANNGVLYVDEVNLLADHLIDALLDAAATGIVTIERDGISHTAEASFVLVGTMNPEEGELRPQLLDRFGLSVEVTGSRDVDIRADIIRRRLAFEQDPAGFVAQWAEADNEIAKRIKQAKELLPHVTLSDVNLARIAHICAAFDVDGMRADLVIARTACAHAAWQQRTNVTDEDIKVAAELALPHRKRRNPFDEPGIDQQDLDNALEQAQNEHPEDDLPADAPSATPEPDTQDLSDSQATADGEVGTADQGVPFRRSAT</t>
+  </si>
+  <si>
+    <t>NZ_CP011541.1</t>
+  </si>
+  <si>
+    <t>magnesium chelatase | magnesium-chelatase subunit D</t>
+  </si>
+  <si>
+    <t>IVGHEQLQLALILNAINPRIGGVVIRGEKGTAKTTTVRAFAQLIDGAPLVNLPIGATEDRVVGSLDVETVLTTGRAEFRPGLLSQADGGVLYVDEVNLLADHLIDALLDAAATGSVTVERDGISHSSPASFVLVGTMNPEEGELRPQLLDRFGLAVEVVASRDVEVRAEIMRRRLAFEADPRAFVEAWAEQTASVAQQIRDARSLLAEVTLDDIALQRIAHLCAAFDVDGMRADLVIARAATAHAAWRGVTKVTDEDIRAAAALALPHRKRRNPFDDTGLDEGELDDAMENARDDIPDDNPSQDSGDAATEEAESPVAPEPGAGNAGSEKVGSADNGAQFRSRKLQLLKTGNDGVPGRRSATFARHGASVRGIRDGHGLHLMGSILAAADRGARIENNILAFEPSDLRGQLRRGKEANLIVFVVDASGSMSARDRLSAVTGAVQSLLVDAYQRRDKVTVISVRGTQPELILPPTGSIDIAMKRLADVRTGGRTPLGEGLLMAQELVDRELRREPGRRPLLVVLSDGRATSSSGLAGVQQAANAIALRGVMTSVVIDCESGRTRLGLAVSLAQQLGGTCLQLTELNAESVVSSIQVF</t>
+  </si>
+  <si>
+    <t>MVGHEQLQLALILNAINPRIGGVVIRGEKGTAKTTTVRAFAQLIDGAPLVNLPIGATEDRVVGSLDVETVLTTGRAEFRPGLLSQADGGVLYVDEVNLLADHLIDALLDAAATGSVTVERDGISHSSPASFVLVGTMNPEEGELRPQLLDRFGLAVEVVASRDVEVRAEIMRRRLAFEADPRAFVEAWAEQTASVAQQIRDARSLLAEVTLDDIALQRIAHLCAAFDVDGMRADLVIARAATAHAAWRGVTKVTDEDIRAAAALALPHRKRRNPFDDTGLDEGELDDAMENARDDIPDDNPSQDSGDAATEEAESPVAPEPGAGNAGSEKVGSADNGAQFRS</t>
+  </si>
+  <si>
+    <t>NZ_BBXW01000014.1</t>
+  </si>
+  <si>
+    <t>MLPIYPFTAIVGQERMRRALVLNAIDPRIGGVLIRGERGTAKSTAARALAALLPLVRVVSDCRFGCDPDTPANWCTECRERAERGEQLPVATRQIPFINLPVSATEDRVVGTLDIEAAIQRGERHFEPGVLAAANRGLLYIDEVNLLDDHVVDVLLDAAAMGMNIIEREGISFSHPARFILVGTMNPEEGDLRPQLLDRFALSVEIHGIRDARERVIIMERNLAFERDPAGFVAEWQPKERELSQKIEAARKLLDEVTYTSRDLLSIASLTASLGVDGHRPDLVILKAARAQAAFEGRTAITPRDIALAAELALPHRLKHTPFQQASTTMEELAERLDQLQGGSTQGEPQEVRTSGQEESDQKKTVIDGAAGQEDQETSQMEPARQDIFDQGNQQWWTGGKSVRVGESFAPRRLDTPLDKMMRRNAGRRSRTFTERKRGRYIMARPAGRKRDDLAFDATLRAAAPFQRQREDLKRLNRVAFAVRPVDYQRKIRVKRAANLVLFLVDASWSMAVAERMAATKGAILSLLNDAYQRRDRVGLITFQRDRATLVLPPTNSVQLAEQALRDIPVGGKTPLSAGLELAYQVIRREKLLHPDVLPLLIVLTDGAGNVSMGYLPPLEEARWLAQRIAEEKIHSVVINMEHAAFDQGLAQDLADHLKGPCYALADLRAESLYFTVRQEIGKARG</t>
+  </si>
+  <si>
+    <t>MLPIYPFTAIVGQERMRRALVLNAIDPRIGGVLIRGERGTAKSTAARALAALLPLVRVVSDCRFGCDPDTPANWCTECRERAERGEQLPVATRQIPFINLPVSATEDRVVGTLDIEAAIQRGERHFEPGVLAAANRGLLYIDEVNLLDDHVVDVLLDAAAMGMNIIEREGISFSHPARFILVGTMNPEEGDLRPQLLDRFALSVEIHGIRDARERVIIMERNLAFERDPAGFVAEWQPKERELSQKIEAARKLLDEVTYTSRDLLSIASLTASLGVDGHRPDLVILKAARAQAAFEGRTAITPRDIALAAELALPHRLKHTPFQQASTTMEELAERLDQLQGGSTQGEPQEVRTSGQEESDQKKT</t>
+  </si>
+  <si>
+    <t>NZ_DF967972.1</t>
+  </si>
+  <si>
+    <t>MPVIYPFTAIVGQERMRRALVLNAVDPRIGGVLIRGERGTAKSTAARALAALLPSVPVVADCRFGCNPDNPATWCTECRERFAAGETLPTAVRTTPFINLPVSATEDRVVGTLDIEKAIQKGVRAFEPGVLAAANRGMLYIDEVNLLDDHVVDVLLDSAAMGMNIVEREGISFSHPARFILVGTMNPEEGDLRPQLLDRFAFSVEIYGIREARERVTIMERNLAFEADPDGFRQQWLAKEEDLSHRIEEARKLLDVVTYTRRDLLSIASLTASLNVDGHRADLVILKAARAQAAFEGRQAITDRDIALAAELALPHRIKRGPFQQAEMSMEELQDRIEQLQGQTTTGRESESEPQEGESQDQSAEKKILTDVMEGEAAPEEGENEPAHQDIFDQGTTKWWEGGKKVKATEAFIPRRLDTPLDRMVRRAAGRRSQTHTDRKRGRYVQARPTPGKAYDLAFDATLRAAAPFQQRRVEQRKRVAFAITPNDYMRKVRVRRAANLVLFLVDASWSMAVAERMAATKGAILSLLTDAYQRRDRVGLIVFQKDHATLVLPPTNSVMLAQRALAEIPVGGKTPLSAGLEMSYDVLRREMLLHPDVMPLLIVLTDGAGNVAISHIKPPQEEAYQIAEQIAAEKVHCVVINMEHAAFDQGLAQALADHLKSPCYSISDLKAENLYLTVRKEMSQVRTPNPPDVLHTLH</t>
+  </si>
+  <si>
+    <t>MPVIYPFTAIVGQERMRRALVLNAVDPRIGGVLIRGERGTAKSTAARALAALLPSVPVVADCRFGCNPDNPATWCTECRERFAAGETLPTAVRTTPFINLPVSATEDRVVGTLDIEKAIQKGVRAFEPGVLAAANRGMLYIDEVNLLDDHVVDVLLDSAAMGMNIVEREGISFSHPARFILVGTMNPEEGDLRPQLLDRFAFSVEIYGIREARERVTIMERNLAFEADPDGFRQQWLAKEEDLSHRIEEARKLLDVVTYTRRDLLSIASLTASLNVDGHRADLVILKAARAQAAFEGRQAITDRDIALAAELALPHRIKRGPFQQAEMSMEELQDRIEQLQGQTTTGRESESEPQEGESQDQSAEKKI</t>
+  </si>
+  <si>
+    <t>NZ_BBYA01000011.1</t>
+  </si>
+  <si>
+    <t>MPNIFPFTAIVGQERMRRALVLNAVDPRIGGVLIRGERGTAKSTAARALAALLPYVKVVADCRFGCDPDAPASLCTECRERIARGESLPVKTRPTPFVNLPVSATEDRVVGTLDIEKAIQKGERAFEPGVLAAANRGMLYIDEVNLLDDHVVDVLLDSAAMGMNIVEREGISFSHPARFILVGTMNPEEGDLRPQLLDRFALSVDIHGIRDSRERVTIMERNLEYEASPDNFRKKWEPKEEEISKQIEEARKLVDRVGYTKHDLISIASLTASLNVDGHRSDLVILKAARAQAAIEGRTSVTDRDIAMAAELALPHRLKRGPFMQSEMTMEDLQERIESLQGGSSKGKSEQEQEPEDDASDDVKKKVSEDVQVEERQDLKPPAEEGKPVFKDATAHWWDGGEKTKIGESFNPRKLDTPLDQMIRKQGGRRSRTKTEQARGRYVQARPTPGKAFDLAFDATIRAAAPYQRNRSEQRRRVAFAVKPADYMRKVRVRRAANLVLFLVDASWSMAVAERMAATKGAILSLLTDAYQRRDRVGLIVFQKDRATLVLPPTNSVQLAQRALSEIPVGGKTPLPAGLQMSLEVLHRESTLHPEVQPLLIVLTDGAGNVSMGHMSPQDESNMLADLLAEEKIHSVVVNMEHAAFDQGLAQVLADHLQAPCYTITDLKAENLYQTVRNEMSAIGTVSMGGIGAK</t>
+  </si>
+  <si>
+    <t>MPNIFPFTAIVGQERMRRALVLNAVDPRIGGVLIRGERGTAKSTAARALAALLPYVKVVADCRFGCDPDAPASLCTECRERIARGESLPVKTRPTPFVNLPVSATEDRVVGTLDIEKAIQKGERAFEPGVLAAANRGMLYIDEVNLLDDHVVDVLLDSAAMGMNIVEREGISFSHPARFILVGTMNPEEGDLRPQLLDRFALSVDIHGIRDSRERVTIMERNLEYEASPDNFRKKWEPKEEEISKQIEEARKLVDRVGYTKHDLISIASLTASLNVDGHRSDLVILKAARAQAAIEGRTSVTDRDIAMAAELALPHRLKRGPFMQSEMTMEDLQERIESLQGGSSKGKSEQEQEPEDDASDDVKKK</t>
+  </si>
+  <si>
+    <t>NZ_JVMD01000025.1</t>
+  </si>
+  <si>
+    <t>MSAFPGFPFSAIVGQDRLRLALLLTAVSPGIGGVVVRGEKGTAKTTAVRALGPLLPKGAVVDLPLGATEDRVVGSIDVESVLTTGRAEFRPGLLTQADGGVLYVDEVNLLADHLVDVLLDAAATGRVTVERDGVSHVEETSFVLVGTMNPEEGELRPQLLDRFGLAVDVTASRDPEVRVEIMRRRLAYESDPRAFAARWAEADGDLRDRLARARALVGQIPLDDVHLARIASLCADFDVDGMRADLVIARTARAHAAWRGAAEIDSEDIRVAAELALPHRRRRDPFDEPGVDQRDLDDALDRAEDRYPDTDDHAEEPPQPDESETPDEGDAEASSSEELDQERPEGPAPTGGTARLGDPFRGRTLLLDGLGTGSDGRRGRAKGPRGRDIRATRGGRGLHVPGTVLAAAERGARVDDGMVPLIAPDVRGAEREGRESNLIVFLVDASGSMAARDRLEAVTGAVQSLLRDAYQRRDRVAVVTFRGDGATVELPPTRSTVAASRRLDDVRTGGRTPLAAGLETARALIEREHRRDPSRRAMLVVLSDGRATSAGGRDTASLAADAIRRRGVAGSIVVDCESGRVRLGLAKELADRLGAPCLRIEDLDADAVAGVVKAAVTA</t>
+  </si>
+  <si>
+    <t>MSAFPGFPFSAIVGQDRLRLALLLTAVSPGIGGVVVRGEKGTAKTTAVRALGPLLPKGAVVDLPLGATEDRVVGSIDVESVLTTGRAEFRPGLLTQADGGVLYVDEVNLLADHLVDVLLDAAATGRVTVERDGVSHVEETSFVLVGTMNPEEGELRPQLLDRFGLAVDVTASRDPEVRVEIMRRRLAYESDPRAFAARWAEADGDLRDRLARARALVGQIPLDDVHLARIASLCADFDVDGMRADLVIARTARAHAAWRGAAEIDSEDIRVAAELALPHRRRRDPFDEPGVDQRDLDDALDRAEDRYPDTDDHAEEPPQPDESETPDEGDAEASSSEELDQERPEGPAPTGGTARLGDPFRG</t>
+  </si>
+  <si>
+    <t>NZ_LN868939.1</t>
+  </si>
+  <si>
+    <t>LQLALILCAVHPGIGGVLVRGEKGTAKSTVVRALAQLLPPVVDETGARPARLVELPVGATEDRVVGSLDLERVLRDGEQAFRPGLLAAAHHGVLYVDEVNLLHDHLVDVLLDAAAMGRVHVERDGVSHSHPARFVLVGTMNPEEGELRPQLLDRFGLTVDVAASRDVDVRMTVVRRRLDYEADPAGFAARYAAADREIADRILAARERVACVELDDTELRRIAALCAAFDVDGMRADLVVARTATAHAAWRGADAVEVEDVRVAAELALPHRRRRDPFDEPGISEDQLDQAMRDAAEQAEPPATDEPDQPPRSADRGEDPGDGPDDPGTPPEGGPGGGQAPKAGPAPRRPAPRNRRAGRCPASARAPPAAVPAPRPAPAGWSAPPPSRAPACTCSAPSSPPRRTSARAAASPGRSRSPRKICAARIAKAAKAIWSCSWSMPPARWPPGTGCRRVTGAIVTLLRDAYQRRDKVAVVSVRGATADLVLPPTSSVDIAVRRLAGLRTGGKTPLAAGLLRAREIVARERVRDPRRRPMLVLLTDGRATGGADPVGRAKTAAGLLARDGVTAMVVDCERGMVRLGLAADLARALGGTLVRLGELTGAAVADVVRAADPARSPRAA</t>
+  </si>
+  <si>
+    <t>MQLALILCAVHPGIGGVLVRGEKGTAKSTVVRALAQLLPPVVDETGARPARLVELPVGATEDRVVGSLDLERVLRDGEQAFRPGLLAAAHHGVLYVDEVNLLHDHLVDVLLDAAAMGRVHVERDGVSHSHPARFVLVGTMNPEEGELRPQLLDRFGLTVDVAASRDVDVRMTVVRRRLDYEADPAGFAARYAAADREIADRILAARERVACVELDDTELRRIAALCAAFDVDGMRADLVVARTATAHAAWRGADAVEVEDVRVAAELALPHRRRRDPFDEPGISEDQLDQAMRDAAEQAEPPATDEPDQPPRSADRGEDPGDGPDDPGTPPEGGPGGGQAPKAGPAPRRPAPRNRRAGRCPASARAPPAAVPAPRPAPAGWSAPPPSRAPACTCSAPSSPPRRTSARAAASPGRSRSPRKICAARIAKAAKAIWSCSWSMPPARWPPGTGCRR</t>
+  </si>
+  <si>
+    <t>NZ_DF968181.1</t>
+  </si>
+  <si>
+    <t>MSTIFPFTAIVGQERMKRALILNAVDPRIGGVLIRGERGTAKSTAARALAALLPQEKVIAECRFGCNPSDEVHWCTECKERQAKNIPMSVILRPTPFINLPVSATEDRVIGTLDIEKAIQSGEKRFEPGVLAAANRGLLYIDEVNLLEDHVVDILLDSAAMGVNRIEREGISFSHPARFILVGTMNPEEGDLRPQLLDRFAHAVDIFGISDSWDRVEIIKRTISYERDPDAFCREWETEENILSEKIITARKNLSHVTYQNHDLISIASLTASMKVEGHRADLVILKTAVAQAAFDSRTYITDLDIAMAAELALPHRLQKGPFAEKEISTEELQDRIEQLRGKNAPENSDYKNVSELNDEEKKILNDGSIATVAPANSSMYSHTGDTIFNAGQGAWWDGARNFNFDTPLITNEYTPSVSKKKNSGKRTRIISKDLRGYYVKARPAIDRVRDIAFDATIRAAAPFQKSRKTNEKSKKLIVQRQDIMKKVRMRKSSHLLLFLVDLSWSMAVQERMAITKSAILSLLTDAYQQRDRVGLITFQKDGAKVILPPTHSVMLAERSMKRVKVGGKTPLSAGLWKAYELLKHEKQTHPDVNALLIILTDGAGNVAMGNYDPLIESRKIAEKIRDEGFRSIVIDMEQYTFDQGLAVELAKQLDAPCYLVAGLKADELIRTVKREL</t>
+  </si>
+  <si>
+    <t>MSTIFPFTAIVGQERMKRALILNAVDPRIGGVLIRGERGTAKSTAARALAALLPQEKVIAECRFGCNPSDEVHWCTECKERQAKNIPMSVILRPTPFINLPVSATEDRVIGTLDIEKAIQSGEKRFEPGVLAAANRGLLYIDEVNLLEDHVVDILLDSAAMGVNRIEREGISFSHPARFILVGTMNPEEGDLRPQLLDRFAHAVDIFGISDSWDRVEIIKRTISYERDPDAFCREWETEENILSEKIITARKNLSHVTYQNHDLISIASLTASMKVEGHRADLVILKTAVAQAAFDSRTYITDLDIAMAAELALPHRLQKGPFAEKEISTEELQDRIEQLRGKNAPENSDYKNVSELNDEEKKI</t>
+  </si>
+  <si>
+    <t>NZ_CP006841.1</t>
+  </si>
+  <si>
+    <t>MDKNAPAVQDSVHQQVFPFVAIVGQERLQLALILTALVPEIGGVVIRGEKGTAKTTTVRALAPFLDGRLVNLPLGATEDRVVGSIDVETVLTTGHACFNPGLLSEADGGILYVDEINLLPDHLVDSVLDAAATGRVVVERDGISHAATSRFVLVGTMNPEEGELRPQLLDRFGLAVDVTASKEPSVRAEIVARRLAFDADSDSFVARFVSASEELRARLGLAGQLLSDICLTSTVLGRIASLCAEFDVDGMRADLVIARTARAHAAWRCAGHGVEPGSCAIEIVDEDIKVAAEMALPHRRRRDPFDEPGLDTNQLDEAFDRAKEEFPDETPQPDNPEEQAGTDNPADAPDTPDASETPATPEPNGPGEKGGRANQGAPFRRPKISLEGFGHGSVGRRSKAIGPRGSTIGAKRSGHGLHLPATVLAAANRGAQIDGSGQSMIPLRPEDIHGAIRQGTESNLVVFVVDTSGSMAARDRLSAVTGAVTSLLRDAYQNRDKVAVVAFRGTGAEVLLPATRSVDAAVRRLADVRTGGRTPLAEGLLAARALIEREARKEPERRPIMVLLSDGRATGPVGLERVRAAAAAWRRKVDAAAVVIDCERSRVRLGLARKLAADLGAQCLSLAELSSESVAGVVRAYHRGYVSRKA</t>
+  </si>
+  <si>
+    <t>MDKNAPAVQDSVHQQVFPFVAIVGQERLQLALILTALVPEIGGVVIRGEKGTAKTTTVRALAPFLDGRLVNLPLGATEDRVVGSIDVETVLTTGHACFNPGLLSEADGGILYVDEINLLPDHLVDSVLDAAATGRVVVERDGISHAATSRFVLVGTMNPEEGELRPQLLDRFGLAVDVTASKEPSVRAEIVARRLAFDADSDSFVARFVSASEELRARLGLAGQLLSDICLTSTVLGRIASLCAEFDVDGMRADLVIARTARAHAAWRCAGHGVEPGSCAIEIVDEDIKVAAEMALPHRRRRDPFDEPGLDTNQLDEAFDRAKEEFPDETPQPDNPEEQAGTDNPADAPDTPDASETPATPEPNGPGEKGGRANQGAPFRRP</t>
+  </si>
+  <si>
+    <t>NZ_CP009220.1</t>
+  </si>
+  <si>
+    <t>MTSHKVIRYPFSAVVGQDKLRLALILTAISPRIGGLVIRGEKGTAKTTTVRAFAGLLGDAPLVNLPLGSTEDRVVGSLNMETVLTTGRAEYQPGLLAQADGGVLYVDEVNLLADHLVDALLDAAASGRVSIERDGISHSSPANFVLVGTMNPEEGELRPQLLDRFGLAVDVAASTVPDVRVSIIKRRLAFENAPEQFIAQWEGQDQEISDRMAAAKDLLLAVELPDLILNQIAWLCSRMEVDGMRADLVITRTALAHAAWEGRTVVTEDDVETAARLALPHRRRRNPFDAPEMEERYLQETLQEARNFFKDNEEKGPAAKITDEETGAEAYTDTDQPTDEDGMHGTAQASAQTTGKVGTAGTGEPFRSRHLKLQTVGEENSTPGRRSQAYSHIGANVRATKGGHGINLVGTLMAATERGAKIVEGVVDFRPEDLRGSLRRGRESNLIVFVVDTSGSMAAKSRVRAVTGTITSMLGDAYQRRDKVAVIAVNGNKPTLVLPPTNSVERAQLKLKDMPMGGRTPLAEGLFMAKDLMERERRKEPGRRAILIVLTDGQDTSDAGEKGIATAAQAVVKSKLSGNVVIDCEGRLKVRKEKASVLAEMLGGVCVRLRDLSAEHIKMVINA</t>
+  </si>
+  <si>
+    <t>MTSHKVIRYPFSAVVGQDKLRLALILTAISPRIGGLVIRGEKGTAKTTTVRAFAGLLGDAPLVNLPLGSTEDRVVGSLNMETVLTTGRAEYQPGLLAQADGGVLYVDEVNLLADHLVDALLDAAASGRVSIERDGISHSSPANFVLVGTMNPEEGELRPQLLDRFGLAVDVAASTVPDVRVSIIKRRLAFENAPEQFIAQWEGQDQEISDRMAAAKDLLLAVELPDLILNQIAWLCSRMEVDGMRADLVITRTALAHAAWEGRTVVTEDDVETAARLALPHRRRRNPFDAPEMEERYLQETLQEARNFFKDNEEKGPAAKITDEETGAEAYTDTDQPTDEDGMHGTAQASAQTTGKVGTAGTGEPFRS</t>
+  </si>
+  <si>
+    <t>NZ_LAQT01000009.1</t>
+  </si>
+  <si>
+    <t>MTPTPAPVSAPLAFPFAALIGQTELQQALLLAAIDPGLGGVLISGPRGTAKSTAARALAELLPEGQLVTLPLAASEDRVTGSLDLNAALQDNALRFAPGLLARAHQGVLYVDEINLLPDALVDTLLDAAASGINTVERDGVSYSHAARFALIGTMNPEEGELRPQLLDRFGLMVQLENCFDAGVRQQIVKARLQFELDPVAFRAGYAELQHALTEQIHAARARLNTLAFSDAVHAHVSALCIAAQVDGLRADLVMLHAARALAALEGAAAITPAHVDTVAPAVLRHRRGSDSAPPPPAASQPPASESTKPTEPAEAEGDWGYLPPQNTGLTAVKAVLPLSAKKPLSHRSKAAATVRSGARWQQGKGSVRAAYGAAGTRLHWPRTLQARAGAVLAAEHLRYQPQRALAGVLHCFVLDCSASMLRDDQLALAKGWLASMFDQVAQQRAMAALICFGGQQADLRFGPAVPRWWNERWLAPLTGGGGTPLRLALHKADALLARAARLHPAQQRHLWLLTDGRTTETPTRPFHADEIHIVDFETGPLRLGRCAALRTAWKL</t>
+  </si>
+  <si>
+    <t>MTPTPAPVSAPLAFPFAALIGQTELQQALLLAAIDPGLGGVLISGPRGTAKSTAARALAELLPEGQLVTLPLAASEDRVTGSLDLNAALQDNALRFAPGLLARAHQGVLYVDEINLLPDALVDTLLDAAASGINTVERDGVSYSHAARFALIGTMNPEEGELRPQLLDRFGLMVQLENCFDAGVRQQIVKARLQFELDPVAFRAGYAELQHALTEQIHAARARLNTLAFSDAVHAHVSALCIAAQVDGLRADLVMLHAARALAALEGAAAITPAHVDTVAPAVLRHRRGSDSAPPPPAASQPPASESTKPTEPAEAEGDWGYLPPQNTGLTAVKAVLPLSAKKP</t>
+  </si>
+  <si>
+    <t>NZ_LGCM01000019.1</t>
+  </si>
+  <si>
+    <t>MPVIYPFTAIVGQERMKRALVLNAVDPRIGGVLIRGERGTAKSTAARALAALLPNVHVVSDCRFGCDPAKPDAWCTECRERVGRGEELPTAERPTPFINLPVSATEDRVVGTLDIEKAIKKGERAFEPGVLAAANRGLLYIDEVNLLDDHVVDVLLDSAAMGMNIVEREGISFSHPARFILVGTMNPEEGDLRPQLLDRFAFSVDIFGIRSARERVQIMEQNLAYENNAQAFRDHWMPREIDLSHQIEAARGLVDQVGFTKRDLLSIASLTASLNVEGHRADLVILKAARAQAAFEGRTMITDRDIAIGAELALPHRLKRGPFSQSEMSMEELHERIEQLQGSSSAGTPSEPSEEKSEESTSQKKSLSDGQEEELSEQGRVEPSEKNPFDDRNAYWWDGGQKVKTGEVFDPRRLDTPLDKMVRSHAGRRSRTHTERKRGRYVQARPANGDTTDIAFDATIRTAAPFQIRRAEQRQQVAFAIQHADLMKKVRVRRMANLVLFLVDASWSMAVAERMAATKGAILSLLTDAYQRRDRVGLIVFQKDRATLVLPPTNSVQLAQRALRDIPIGGKTPLSAGLQLAHDVLRREKLFHPDVMPLLLVLTDGAGNVSMGHLPPQEESNRVAELIAMEHIHSVVINMEHQAFDQGLAQTLAEHLNAACYSLTELKAENLYYTVRQEMNQANAKADDGR</t>
+  </si>
+  <si>
+    <t>MPVIYPFTAIVGQERMKRALVLNAVDPRIGGVLIRGERGTAKSTAARALAALLPNVHVVSDCRFGCDPAKPDAWCTECRERVGRGEELPTAERPTPFINLPVSATEDRVVGTLDIEKAIKKGERAFEPGVLAAANRGLLYIDEVNLLDDHVVDVLLDSAAMGMNIVEREGISFSHPARFILVGTMNPEEGDLRPQLLDRFAFSVDIFGIRSARERVQIMEQNLAYENNAQAFRDHWMPREIDLSHQIEAARGLVDQVGFTKRDLLSIASLTASLNVEGHRADLVILKAARAQAAFEGRTMITDRDIAIGAELALPHRLKRGPFSQSEMSMEELHERIEQLQGSSSAGTPSEPSEEKSEESTSQKKS</t>
+  </si>
+  <si>
+    <t>NZ_LGHJ01000012.1</t>
+  </si>
+  <si>
+    <t>MPVIYPFTAIVGQERMKRALVLNAVDPRIGGVLIRGERGTAKSTAARALAALLPHVRVVADCRFGCDPDSPSTWCTECRERHARGEELPVATRATPFVNLPISATEDRVVGTLDIEKAIQKGERAFEPGVLAAANRGLLYIDEVNLLDDHVVDVLLDSAAMGMNIIEREGISFSHPARFILVGTMNPEEGDLRPQLLDRFALSVEIYGIRDARERVQIMERNLAFEADPEKFRQQWLPKEEELSRQIERARRLIDQVGYTSRDLLSIAQLTASLNVDGHRADLVILKAARAQAAFDGRTAINGRDIALAAELALPHRLRRGPFSQEEVTMEELQDRIEQLQGASSTGQRREEVERVEEEKNQQKKVLNEGAESPETLPQGTPQPGQTEEIFGKQNAQWWDGGERVKIGQSFDPRRLDTPLDKMVRRFAGRRSRTRTERKRGRYIQSRPSYGKADDLAFDATLRAAAPHQREREEDRQRVAFSVRPSDYMRKVRVRRAANLILFLVDASWSMAVAERMQATKGAILSLLTDAYQRRDRVGLIVFQKDRATLVLPPTNSVTLAQRALADIPVGGKTPLSAGLKLAYDVLMRERMLHPDVMPLLIVLTDGAGNVSMGKLPPHEEAYRIARQIAEEHIHSVVINMEHVAFDQGLAQALADQLQAPCYTIGELKAENLYQTVRKEMQTTQLNPMPDERR</t>
+  </si>
+  <si>
+    <t>MPVIYPFTAIVGQERMKRALVLNAVDPRIGGVLIRGERGTAKSTAARALAALLPHVRVVADCRFGCDPDSPSTWCTECRERHARGEELPVATRATPFVNLPISATEDRVVGTLDIEKAIQKGERAFEPGVLAAANRGLLYIDEVNLLDDHVVDVLLDSAAMGMNIIEREGISFSHPARFILVGTMNPEEGDLRPQLLDRFALSVEIYGIRDARERVQIMERNLAFEADPEKFRQQWLPKEEELSRQIERARRLIDQVGYTSRDLLSIAQLTASLNVDGHRADLVILKAARAQAAFDGRTAINGRDIALAAELALPHRLRRGPFSQEEVTMEELQDRIEQLQGASSTGQRREEVERVEEEKNQQKKV</t>
+  </si>
+  <si>
+    <t>NZ_LGCL01000015.1</t>
+  </si>
+  <si>
+    <t>hypothetical protein</t>
+  </si>
+  <si>
+    <t>MAVIFPFTAIVGQARMRRALILNAVDPRIGGVLIRGERGTAKSTAARALAALLPEVKVVKDCRFNCDPDEPSRLCTECQERLARGEELPVTYKPTSFVNLPVSATEDRVVGTLDIEKAIQKGERRFEPGVLAAANRGLLYIDEVNLLDDHVVDILLDSAAMGMNIIEREGISFAHPSRFILVGTMNPEEGDLRPQLLDRFALSVDILGIRETRERVQIMERNLMFESDPAEFRTMWLPREEELSQRIASARKLVNQVTHSSRDLITIAQLTSSLNVDGHRADLVILKTARAQAAFDGRTAITELDIALAAELALPHRMKRGPFDHTSMSMEQLEERIEQLRGQTVQENQTQTADLSDSQEMLKKKGMNLTTGQVSDSLPDTGQPDPAASRDIFQTQSPMWWEGGQKVATGEAFSTRRLDTPLDKMLRRGSGRRSVTYTKLKRGRYIQARPAQGKTFDLAFDATLRAAAPFQKERKQQREKVAFAVRPGDYMKKIRVRRAANLVLFLVDASWSMAVTERMQATKGAILSLLTDAYQRRDRVGLITFQKDRATLILAPTNSVNLAQRALADIPVGGKTPLSSGLKMAHDVLEREKNLHPDIMPLLIVLTDGAANVTMGYLPPQEEAYRIADLIAEKLIHTVVVNLENTTFDQGYAQQLADHLHGPCYQISDLRAETLYLTVRKEMNQLRAPDDKIK</t>
+  </si>
+  <si>
+    <t>MAVIFPFTAIVGQARMRRALILNAVDPRIGGVLIRGERGTAKSTAARALAALLPEVKVVKDCRFNCDPDEPSRLCTECQERLARGEELPVTYKPTSFVNLPVSATEDRVVGTLDIEKAIQKGERRFEPGVLAAANRGLLYIDEVNLLDDHVVDILLDSAAMGMNIIEREGISFAHPSRFILVGTMNPEEGDLRPQLLDRFALSVDILGIRETRERVQIMERNLMFESDPAEFRTMWLPREEELSQRIASARKLVNQVTHSSRDLITIAQLTSSLNVDGHRADLVILKTARAQAAFDGRTAITELDIALAAELALPHRMKRGPFDHTSMSMEQLEERIEQLRGQTVQENQTQTADLSDSQEMLKKKGMN</t>
+  </si>
+  <si>
+    <t>NZ_LGKP01000015.1</t>
+  </si>
+  <si>
+    <t>MQPYIRPTYPFSALVGQPRLKQALVLNAVNPRIGGVLIRGEKGTAKSTAVRALAHLLPLITVVADCPYSCPPDQLDRMCSSCRSRLQAGEELPLAQRPTRLVELPVSASEDRLVGSLDLEHALVEGQRRFEPGLLAQVNRGLLYVDEVNLLDDHLVDILLDAAAMGINTVEREGISVSHPARFILVGTMNPEEGELRPQLLDRFGLVVEIGGLKNVRERVDVIQRRMEYDADPEQFVQRWSSNEHNLTEEIAAAKKLLPQVQISEQDMAAVAMLSLELGVDGHRADLAILETARTHAALEGRTTISLEDIRVAAQLALPHRMRRQPFAEVRLDEQQLSDVLNKAAQERQRGNEETAGHEELKKALAPSEEASSDSEEAGDEEPPTGAPKGSPPQSSSQAEKGDGKVFNIAQEYRPKRLESQADSMRRKAGGRRTRTRTERKQGRYITSRVPRGQLTDVAFDATLRAAAPFQRQRRQPHIKRAVVLQRSDLREKVRVRRTRNAVCFVVDASWSMAAETRMQATKAAVLSLLRDAYQRRDLVGLVSFARDRATVLLPLTNSVEMAQQRLRTMPTGGKTPLSRGMMAGFELLARAKLRDREILPLMVLLTDGHANVSMTGQPPQQEAYQLAEFIASQQIPTVVIDTELPNFYRGLAKELADRLNGSYYQLEELSVGLAELVRSHQELSQIKI</t>
+  </si>
+  <si>
+    <t>MQPYIRPTYPFSALVGQPRLKQALVLNAVNPRIGGVLIRGEKGTAKSTAVRALAHLLPLITVVADCPYSCPPDQLDRMCSSCRSRLQAGEELPLAQRPTRLVELPVSASEDRLVGSLDLEHALVEGQRRFEPGLLAQVNRGLLYVDEVNLLDDHLVDILLDAAAMGINTVEREGISVSHPARFILVGTMNPEEGELRPQLLDRFGLVVEIGGLKNVRERVDVIQRRMEYDADPEQFVQRWSSNEHNLTEEIAAAKKLLPQVQISEQDMAAVAMLSLELGVDGHRADLAILETARTHAALEGRTTISLEDIRVAAQLALPHRMRRQPFAEVRLDEQQLSDVLNKAAQERQRGNEETAGHEELKKA</t>
+  </si>
+  <si>
+    <t>NZ_LGKO01000002.1</t>
+  </si>
+  <si>
+    <t>MPVIYPFTAIVGQEQMKRALILNAIDPRIGGVLIRGERGTAKSTAARALAALLPHIKVIADCRFGCDPDTPATWCTECRERAARGEELPVTTRPIPFVNLPISATEDRVVGTLDIEKAIQKGERHFEPGVLAAANRGLLYIDEVNLLDDHVVDILLDSAAMGVNIIEREGISFSHPARFILVGTMNPEEGELRPQLLDRFALSVEIRGIRDPRERVLIIERNLAFEANPEGFRQEWLPKEQELSRQIEQARQLLNRVTYTSRDLLAIASLTASLNVDGHRADMVILKAARAHAAFEGRTSVSGRDIALAAELALPHRLKRAPFQQAEMTMEELQDRIEQLQGASSTGKHTEPMPTREEEAARQKKTLTDQTLGQETQEQAPPQPTQREDIFRQDSAIWWDGGQVVRAAQPFEPRRLDTPLDKMMRRFAGRRSRTRTERKRGRYIQARPANGPIDDLAFDATLRAAAPFQKERSEERKQVAFSIHRSDLMRKIRVRRAANLILFVVDASWSMAVAERMQATKGAILSLLNDAYQRRDRVGLIVFQKDRATLVLPPTNSVTLAQTALADIPVGGKTPLSAGLKLALEVLQRERLRHPDVMPLLIVLTDGAGNVSISHLPPLEEAYLYADEIAREGVHSIVINMEHMAFDQGLAQALADHLKAPCYTAGEMRAENLYYTVRQELNARTPPATLEDRR</t>
+  </si>
+  <si>
+    <t>MPVIYPFTAIVGQEQMKRALILNAIDPRIGGVLIRGERGTAKSTAARALAALLPHIKVIADCRFGCDPDTPATWCTECRERAARGEELPVTTRPIPFVNLPISATEDRVVGTLDIEKAIQKGERHFEPGVLAAANRGLLYIDEVNLLDDHVVDILLDSAAMGVNIIEREGISFSHPARFILVGTMNPEEGELRPQLLDRFALSVEIRGIRDPRERVLIIERNLAFEANPEGFRQEWLPKEQELSRQIEQARQLLNRVTYTSRDLLAIASLTASLNVDGHRADMVILKAARAHAAFEGRTSVSGRDIALAAELALPHRLKRAPFQQAEMTMEELQDRIEQLQGASSTGKHTEPMPTREEEAARQKKT</t>
+  </si>
+  <si>
+    <t>NZ_CP012981.1</t>
+  </si>
+  <si>
+    <t>MTDPTTHRARAVFPFAALVAQDALQQALLLAAIDPSLGGVLVSGPRGTAKSTAARGLAELLPEGQFVTLPLSASDEQVTGTLDLAHALAENGLRFRPGLLARAHLGVLYVDEVNLLADGLVDTLLDVAASGVNIVERDGVSHAHDARFVLVGTMNPEEGELRPQLLDRFGLMVELENCFDAAQRERIVKARLAFDLDPEAFRARHASAQRALGERIHAARARLATLDFGDAVHAHVSALCIDAAVDGLRADLVMLRAARALAALEQADAVTVSHVARVAEAVLRHRRHAGAPPSSGASQPDRASDDRSPPDARQQPDDQPAASGNGAAVAQGDWGYLRPEPAGLRDVKSVVPLPLKKHLSHRAGAAANAVRGPRWQPGAAARVPGTARTGTAVAWPATFAAKRGDPLHRGHLRFRKRAGAPDALHCFVLDCSASMLSHERLALAKGLIVAYFDQAARDRVETALVCFGGDGAARRFGPAVPRWWNARWLEPVDGGGGTPLADGIAAAAQLLARAARRDPDKQRWLWVLSDGRTREMPAKPAAADHVLFVDFDDAAVRIGQGERLAAAWGAQWVTADALCSGHTG</t>
+  </si>
+  <si>
+    <t>MTDPTTHRARAVFPFAALVAQDALQQALLLAAIDPSLGGVLVSGPRGTAKSTAARGLAELLPEGQFVTLPLSASDEQVTGTLDLAHALAENGLRFRPGLLARAHLGVLYVDEVNLLADGLVDTLLDVAASGVNIVERDGVSHAHDARFVLVGTMNPEEGELRPQLLDRFGLMVELENCFDAAQRERIVKARLAFDLDPEAFRARHASAQRALGERIHAARARLATLDFGDAVHAHVSALCIDAAVDGLRADLVMLRAARALAALEQADAVTVSHVARVAEAVLRHRRHAGAPPSSGASQPDRASDDRSPPDARQQPDDQPAASGNGAAVAQGDWGYLRPEPAGLRDVKSVVPLPLKKH</t>
+  </si>
+  <si>
+    <t>NZ_LN831026.1</t>
+  </si>
+  <si>
+    <t>MSTKQSPLFPFSAVVGQDQLRLALILTAISPRIGGVVIRGEKGTAKTTTVRAFAALLGDAPLVNLPIGATEDRVVGSLDMETVLTTGKAKFRPGLLSQAHGGVLYVDEVNLLADHLVDALLDAAATGQVTVERDGISHTAPARFVLVGTMNPEEGELRPQLLDRFGLSVDVAASKDVQIRAEIMRRRLDFESDPIDFAQRWHALDENTSQAIKSAQERVDSIVLNDTNLARIAHICASFDVDGMRADLVIARTAIAHAAWRGDSLVTDEDIKVAAELALPHRRRRDPFDEPGLDQDQLDEVMDEARDQHPEMDDPAEQSAHEDQIENETSDQEDHLDDQETQTPDSGGQEGSASQGAPFRPKILRRSGIGNEGAAGRRSQAYSANGSTVRAVRGGHGINIVGSVFAAAERGARIRGSMIDFRPEDLRGSLRRGMESNLIVFVVDASGSMAGQDRLASVTGAVLSMLRDAYQRRDKVAVISVRGAAPELVLPPTGSIDVAYRRLSNVTTGGRTPLGEGLNMAHSVIKREFIKEPNRRALLVVLSDGRATGGSGLAGVRTAAQGIARRGLTGSVVVDCESGGRVTLGLARELAQQLQGLCVKLDELNADSVSGLIKAL</t>
+  </si>
+  <si>
+    <t>MSTKQSPLFPFSAVVGQDQLRLALILTAISPRIGGVVIRGEKGTAKTTTVRAFAALLGDAPLVNLPIGATEDRVVGSLDMETVLTTGKAKFRPGLLSQAHGGVLYVDEVNLLADHLVDALLDAAATGQVTVERDGISHTAPARFVLVGTMNPEEGELRPQLLDRFGLSVDVAASKDVQIRAEIMRRRLDFESDPIDFAQRWHALDENTSQAIKSAQERVDSIVLNDTNLARIAHICASFDVDGMRADLVIARTAIAHAAWRGDSLVTDEDIKVAAELALPHRRRRDPFDEPGLDQDQLDEVMDEARDQHPEMDDPAEQSAHEDQIENETSDQEDHLDDQETQTPDSGGQEGSASQGAPFRP</t>
+  </si>
+  <si>
+    <t>NZ_BCNR01000001.1</t>
+  </si>
+  <si>
+    <t>MISSTESAPSAHAAGFPFTAIEGQPQLQTALLLAAVDPLLGGVLVEGPRGTAKSTSARALAALLPAGRFVNLPLGATEEQLAGSLDLEAALQRSAVVFRPGLLARAHGGILYVDEVNLLADALVDLLLDVSASGINRVERDGVSHQHDARITLVGTMNPEEGQLRPQLLDRFGLFVRLENVPSAAVRKAIVKTRMAFDADPQAFVEQHAAAQSDLAQRVKLARERVAAVAWTDAVHDDVAQRCQDAGVEGVRADLVMLRAARAHAALHGRSAVTPADVQAVAELALAHRRTQAAPAEPPASGEPAQQPEQQPSSEEQTPPPAPPPTGGAQGAGTPSGQSGHGPAPSANTLPDHAAPADAWGAMPPPQLVAMKVVKALKPLPSKKALTRSAVAGLAGKAKAGRGGNTSRKGRLNGAAGRRLDWVSTLASKGRGALRPEHLRFRPRPVGSKTLHLVLLDLSASMLRGEKLAWAKGCLLALTEQFYRDRDHMAVIGFAGEQARWLQSPAKAGAFNAGWIAPLRGGGGTPIQPAVDAVEGALRRCPPGTRATVWLLTDGRFDPLPVRPEGVDRCCIIDFENDAVALGRCQRLAAMWCGEWVRAELFATAG</t>
+  </si>
+  <si>
+    <t>MISSTESAPSAHAAGFPFTAIEGQPQLQTALLLAAVDPLLGGVLVEGPRGTAKSTSARALAALLPAGRFVNLPLGATEEQLAGSLDLEAALQRSAVVFRPGLLARAHGGILYVDEVNLLADALVDLLLDVSASGINRVERDGVSHQHDARITLVGTMNPEEGQLRPQLLDRFGLFVRLENVPSAAVRKAIVKTRMAFDADPQAFVEQHAAAQSDLAQRVKLARERVAAVAWTDAVHDDVAQRCQDAGVEGVRADLVMLRAARAHAALHGRSAVTPADVQAVAELALAHRRTQAAPAEPPASGEPAQQPEQQPSSEEQTPPPAPPPTGGAQGAGTPSGQSGHGPAPSANTLPDHAAPADAWGAMPPPQLVAMKVVKALKPLPSKKA</t>
+  </si>
+  <si>
+    <t>NZ_CP013997.1</t>
+  </si>
+  <si>
+    <t>MTEPVQFPLAAVVGAQALKLALCLTAIDPKIGGVLIEGPRGMAKSTLARGLADLLGDGPFVTLPLGASEDRLVGTLDLDAALGEGKVRFSPGVLAQADGGVLYVDEVNLLPDGLVDLLLDVAASGTNRVERDGLSHRHSARFVLIGTMNPEEGELRPQLLDRFGLNVVLDAQPQPEARQQIIRRRLAFDSDPQGFLAEWAAAQAELRARCQAARLRLDAIALDDAALADITERCFAAGVDGLRGDLVWLRAARAHAAWRNAARIEEEDIEAVADFALRHRRRVASPPAPDAASSPPPQNEAGHDSREPESEPSPGQGTWGALPPRPVASGPRREVPTWAKKPLSVRVRTDRPDAHQGAGTLQGAPRGRARQASEGQVAWAATLSQGRPRVREDLRWQQRQARPVELWVVIVDSSASTRRHGALAQAKGLLAECFDHAYRQRARVALLTASGDAPRWQCHGLKASHALQGWLDELGAGGGTPLLAALAQARHWLLARQKRLPEERQRCLVLTDGRLPQWAPLQPLPCASLVVDMERSPVRVGRARLLAEQLEAEYRPLDAFTAR</t>
+  </si>
+  <si>
+    <t>MTEPVQFPLAAVVGAQALKLALCLTAIDPKIGGVLIEGPRGMAKSTLARGLADLLGDGPFVTLPLGASEDRLVGTLDLDAALGEGKVRFSPGVLAQADGGVLYVDEVNLLPDGLVDLLLDVAASGTNRVERDGLSHRHSARFVLIGTMNPEEGELRPQLLDRFGLNVVLDAQPQPEARQQIIRRRLAFDSDPQGFLAEWAAAQAELRARCQAARLRLDAIALDDAALADITERCFAAGVDGLRGDLVWLRAARAHAAWRNAARIEEEDIEAVADFALRHRRRVASPPAPDAASSPPPQNEAGHDSREPESEPSPGQGTWGALPPRPVASGPRREVPTWAKKP</t>
+  </si>
+  <si>
+    <t>NZ_BCNT01000001.1</t>
+  </si>
+  <si>
+    <t>MTPTFPLSAIQGQPQLVQALLLAAIEPALGGVLVQGPRGTAKSTAARALADVLAPAPFVTLPLGASIEHVVGSLDLAKALAGSEVAFAPGLLARAHGGVLYVDEINLLPDAIVDVLLDVAASGVNRVERDGISHSHAARFVLIGTMNPEEGMLRPQLLDRLGLCVQLANAQDPQLRSAIVKARLRFDLDPAGFAQAHAAEQARLAERLRQARLRCADAGQLPWSDAVHGEVAQQCIDARVDGLRADLVMLRAARALAAWEGSEGIGARHVAAVAPLVLLHRASQAPADTAQRPAPSPAPIPAPAPASTPVPPPSPTPAGNAGQTNPTPSPGPAGAAAQGLQQPPADWGRPQPLASAPVAALQADALAQAALEALAAKKARAPGRGRLTRPGRGRTAVPMAGAALASPAQPVAQRRPGAVLDWPATLRARRGQPLAAGHLRWRQGLGQPQGLQVFALDCSASMLDSGAFARAKGLLLQWLCRAYLQRMPVALLCFGAGQVQWQLPPRRAPRWNAEWIDPLPGGGGTPLAQAFQAAWQMLARWPEMQPQLWVLSDFRSPDVLALVRERVPPLAHVLVDCEPAAHGGRPFGGAGRLADAWSCAVRLRLPW</t>
+  </si>
+  <si>
+    <t>MTPTFPLSAIQGQPQLVQALLLAAIEPALGGVLVQGPRGTAKSTAARALADVLAPAPFVTLPLGASIEHVVGSLDLAKALAGSEVAFAPGLLARAHGGVLYVDEINLLPDAIVDVLLDVAASGVNRVERDGISHSHAARFVLIGTMNPEEGMLRPQLLDRLGLCVQLANAQDPQLRSAIVKARLRFDLDPAGFAQAHAAEQARLAERLRQARLRCADAGQLPWSDAVHGEVAQQCIDARVDGLRADLVMLRAARALAAWEGSEGIGARHVAAVAPLVLLHRASQAPADTAQRPAPSPAPIPAPAPASTPVPPPSPTPAGNAGQTNPTPSPGPAGAAAQGLQQPPADWGRPQPLASAPVAALQADALAQAALEALAAKKARAPGRGR</t>
+  </si>
+  <si>
+    <t>NZ_FCNZ02000001.1</t>
+  </si>
+  <si>
+    <t>MTLNDSSVFPFAALVGQQPLQEALLLAAVDPALGGVLVTGPRGTAKSTAARALAELLPEGRFVTLPLGASEEQLIGTLDIESALRDGGVKFSPGLLAKAHRGVLYVDEVNLLPNPLVDQLLDVAASGVNTIERDGISHRHEARFVLIGTMNPEEGELRPQLLDRFGLAVELGNCFEAPVRQHIVKARLAFDTDSQAFRDRHAREQAALAQRIHEARAQLASLDFDDAVHARVSELCIAAQVDGLRADLVMLRAARALAAFEGARAIDVEHVERVAQAVLKHRRREGEKPQQPQSQGHANPQANPRANDADWGYLPPEPVETATVKNVRPLQPKKALSHRRPEPEAEAGRLRWLESQSAGRTITREGRASRSIDWMQTLRAKRHAPLEARHVRFRRKGGEGAALYCFVLDCSGSMLAGKRLALAKGLLVALFDRAYRERAEVALVCFGGGRAEVRRQPGAAHWWNEHWVAPIGGGGGTPLTLGVRTAANVLARASRKRPAQARWLWLLTDGRTSDTPSRPVDADRVVIVDFERDAVRLGRCASLADAWDAQYSTADDLVYGFSPYQRGV</t>
+  </si>
+  <si>
+    <t>MTLNDSSVFPFAALVGQQPLQEALLLAAVDPALGGVLVTGPRGTAKSTAARALAELLPEGRFVTLPLGASEEQLIGTLDIESALRDGGVKFSPGLLAKAHRGVLYVDEVNLLPNPLVDQLLDVAASGVNTIERDGISHRHEARFVLIGTMNPEEGELRPQLLDRFGLAVELGNCFEAPVRQHIVKARLAFDTDSQAFRDRHAREQAALAQRIHEARAQLASLDFDDAVHARVSELCIAAQVDGLRADLVMLRAARALAAFEGARAIDVEHVERVAQAVLKHRRREGEKPQQPQSQGHANPQANPRANDADWGYLPPEPVETATVKNVRPLQPKKA</t>
+  </si>
+  <si>
+    <t>NZ_FCNV02000003.1</t>
+  </si>
+  <si>
+    <t>LNETSLFPVFPFTALVGQAPLQQALLLAAVDPSLGGVLVSGPRGTAKSTAARALAELLPEGRLVTLPLGASEEQLIGTLDIQSALRDGGVKFSPGLLAKAHRGVLYVDEVNLLPNPLVDQLLDVAASGVNIIERDGISHRHDARFVLIGTMNPEEGELRPQLLDRFGLAVELNNCFDASVRQRIVKSRLAFDTDPEAFRALHEENQAALGERIDAARAALNDFDFDDAVHARVSELCIAAQVDGLRADLVMLRAARALAALEGADYVETKHVECVAEAVLRHRRRETEAPPRETPPRQANGASEQDGEWGYVPPEPAGTAKVKQVRPLAAKKALSHRRLDADAQAHRLRWQNARSQGRFAAREGVKSARIDWMATLRAKRAAPFNAQHVRFRRTDADASALHCFLLDCSGSMLGGARLARAKGMLIALFDRAYRERAEVALVCFGGGHAEVRRQPGAAHWFNERWIAPIGGGGGTPLTLGISSAATVLVRVSRRRPHQRRWLWVLTDGRVNDRPVAPAGADRIIVVDFEDGPLRVGGAEVLAASWQAHYVPADALLQYQRGV</t>
+  </si>
+  <si>
+    <t>MNETSLFPVFPFTALVGQAPLQQALLLAAVDPSLGGVLVSGPRGTAKSTAARALAELLPEGRLVTLPLGASEEQLIGTLDIQSALRDGGVKFSPGLLAKAHRGVLYVDEVNLLPNPLVDQLLDVAASGVNIIERDGISHRHDARFVLIGTMNPEEGELRPQLLDRFGLAVELNNCFDASVRQRIVKSRLAFDTDPEAFRALHEENQAALGERIDAARAALNDFDFDDAVHARVSELCIAAQVDGLRADLVMLRAARALAALEGADYVETKHVECVAEAVLRHRRRETEAPPRETPPRQANGASEQDGEWGYVPPEPAGTAKVKQVRPLAAKKA</t>
+  </si>
+  <si>
+    <t>NZ_FCOJ02000030.1</t>
+  </si>
+  <si>
+    <t>LTESISSPVFPFAALVAQEPLQQALLLAAVDPSIGGVLVSGPRGTAKSTATRALAELLPEGTLVTLPLGASEEQLIGTLDIQSALRDGGVKFSPGLIAKAHLGVLYVDEVNLLPNPLVDQLLDVAASGVNIVERDGISHRHDARFVLIGTMNPEEGDLRPQLLDRFGLAVEMSNCFDASVRQRIVKSRLAFDADPDAFRARHRSEQASLEARIHAARAALSSFDFDDAVHARVSELCIEAQVDGLRADIVMLRAARALAALEDSSCVTVTHVERVADAVLKHRRREAEAPAREPSGRESTSREAGAAQADWGYMPPEPTGTAKVKQVRPLAAKKALNHRRRDADAFDTRHRLRWNEALAKGRYATREGDPAASIDWMATLRAKRSARLAAQHLRYRRTQGDGAVLYCFVLDCSGSMLAGERLARAKGMLVALFDRAYRERAEIALVCFGGARAQVRRQPGAAHWFNESWVAPIGGGGGTPLALGLASAGTLLERAARRRPSQRRCLWVLTDGRTNERPRAPRAANEIVVVDFEEGAIRAGRGEMLANDWDARYVTANSLTS</t>
+  </si>
+  <si>
+    <t>MTESISSPVFPFAALVAQEPLQQALLLAAVDPSIGGVLVSGPRGTAKSTATRALAELLPEGTLVTLPLGASEEQLIGTLDIQSALRDGGVKFSPGLIAKAHLGVLYVDEVNLLPNPLVDQLLDVAASGVNIVERDGISHRHDARFVLIGTMNPEEGDLRPQLLDRFGLAVEMSNCFDASVRQRIVKSRLAFDADPDAFRARHRSEQASLEARIHAARAALSSFDFDDAVHARVSELCIEAQVDGLRADIVMLRAARALAALEDSSCVTVTHVERVADAVLKHRRREAEAPAREPSGRESTSREAGAAQADWGYMPPEPTGTAKVKQVRPLAAKKA</t>
+  </si>
+  <si>
+    <t>NZ_BCRD01000005.1</t>
+  </si>
+  <si>
+    <t>MSAFPGFPFSAIVGQDRLRLALLLTAISPGIGGVVVRGEKGTAKTTAVRALGPLLPKGAVVDLPLGATEDRVVGSIDVESVLTTGHAEFHPGLLSRADGGVLYVDEVNLLADHLVDVLLDAAATGRVTVERDGVSHVEEASFVLVGTMNPEEGELRPQLLDRFGLAVDVAASRDPEVRVEIMRRRLAYESDPRAFAAQWAEADGDLRDRLARARALVGEIPLRDVHLSRIASLCADFDVDGMRADLVIARTARAHAAWRGAAEIDSEDIRVAAELALPHRRRRDPFDEPGVDQSDLDEALDRAEDRFPDESERPEESERPEGGDVDPSSSGEPAPEQPQAPAPTGGTARLGDPFRGRTLLLDGVGEGADGRRGRAKGPRGRDIRAVRNGRGVHVPGTVLAAAERGAGLEDGMVALAGADLRGSEREGRESNLIVFLVDASGSMAARDRLEAVTGAVQSLLRDAYQRRDRVAVVTFRGDGATVELPPTKSTVAASRRLGDVRTGGRTPLAAGLDKARELIEREHRRDPARRAMLVVLSDGRATSSGGRDGARAVADAIRRRGLAGAIVVDCESGRVRLGLATELADHLGAPCLRIGELSSDSVAGVVRAAVAAG</t>
+  </si>
+  <si>
+    <t>MSAFPGFPFSAIVGQDRLRLALLLTAISPGIGGVVVRGEKGTAKTTAVRALGPLLPKGAVVDLPLGATEDRVVGSIDVESVLTTGHAEFHPGLLSRADGGVLYVDEVNLLADHLVDVLLDAAATGRVTVERDGVSHVEEASFVLVGTMNPEEGELRPQLLDRFGLAVDVAASRDPEVRVEIMRRRLAYESDPRAFAAQWAEADGDLRDRLARARALVGEIPLRDVHLSRIASLCADFDVDGMRADLVIARTARAHAAWRGAAEIDSEDIRVAAELALPHRRRRDPFDEPGVDQSDLDEALDRAEDRFPDESERPEESERPEGGDVDPSSSGEPAPEQPQAPAPTGGTARLGDPFRG</t>
+  </si>
+  <si>
+    <t>NZ_BCTJ01000014.1</t>
+  </si>
+  <si>
+    <t>MSLEPTELHAASTPAFPFSALVGQDALQGALLLAAIDPGMGGVLISGPRGTAKSTSARALAALLPNAPFVTLPLAASLEQLVGTLNLEDVLRDGQVRLAPGLVARAHGGVLYVDEVNLLPDALVDALLDVAASGVNTVERDGVSRQHAAQFVLVGTMNPEEGELRPQLLDRFGLSVALANPSDAAQRQAIVRARLAFDADPQRLLGEHAEAQAHLVASLAAARAVLPKLQWSDAVLQHAAQLAQAAGVDGIRADLVMLRAARALAALAQRDTVSVADVDAVAELALAHRRAPHGQPPAGGNAAATPQAAPPPPAGGNGNASSQANGPASTTAGTPAADGDWGALPPQPQGMERVLHTGAWPPKKAMSHPSPSALGAPGGWRWPGPRPAAPRPTLARHAARATPAAGGAGIHWVRTLLAKGPQRLAAAHLRHRPLHTRVPPLHLIALDTSGSMRQGGRLAWAKGYAARLIEQAARAGDHVALIGFGGQGVQLLLPPGPARAAGSARVRPLGGGGGTPLAACLHEAERLLQRDQRLRGPGGGDNNCLWLLTDGRTLEQAAAPASAAHIVVVDFDDPLRPVGRCAAWATDWRAEHRLAH</t>
+  </si>
+  <si>
+    <t>MSLEPTELHAASTPAFPFSALVGQDALQGALLLAAIDPGMGGVLISGPRGTAKSTSARALAALLPNAPFVTLPLAASLEQLVGTLNLEDVLRDGQVRLAPGLVARAHGGVLYVDEVNLLPDALVDALLDVAASGVNTVERDGVSRQHAAQFVLVGTMNPEEGELRPQLLDRFGLSVALANPSDAAQRQAIVRARLAFDADPQRLLGEHAEAQAHLVASLAAARAVLPKLQWSDAVLQHAAQLAQAAGVDGIRADLVMLRAARALAALAQRDTVSVADVDAVAELALAHRRAPHGQPPAGGNAAATPQAAPPPPAGGNGNASSQANGPASTTAGTPAADGDWGALPPQPQGMERVLHTGAWPPKKA</t>
+  </si>
+  <si>
+    <t>NZ_CP014784.1</t>
+  </si>
+  <si>
+    <t>MQPHFPLAAVVAADELKLALCLAAIDPALGGVLIEGPRGMAKSTLARGVADLLDGGRFVTLPLGASEERIVGTLDLDAALGEGRVRFSPGVLANAHGGVLYVDEVNLLPDHQVDLLLDVASSGINHIERDGLSHSHPARFVLIGTMNPEEGELRPQLLDRFGLKVQLGGTPEPAQRAEIIRRRLAFDDAPAAFLAQWQNEQDALRQRCMDARQRLNDIPLDDASLDVIAQRCFAAAVDGLRADLVWLRGARAHAAWRGASRIEAQDIDALESFVLAHRRREHAPPAANQPSAPNQSEQQPAQQDQGEGQWGALPPQAVAVGERREPPSWPKKPLSIRPRQAPGADALPQPGQAQGGRSGARGSGTPTRIDWPATLAHGRPRRRADLHWHARRLRPGELWLVIVDASASTRRHGALAQAKGLLAELFASAYRQRARLAVLEAGGAQPRWLWQGHKASPELHAWLQQLGAGGGTPIIEALQLATPWLLRRQRHKPGEQQRLLLLTDGRLRDWPRLTALPCPGLLLDIERAPIRLGRARQLAFELGADYHHIDELAPASRAPTWNRP</t>
+  </si>
+  <si>
+    <t>MQPHFPLAAVVAADELKLALCLAAIDPALGGVLIEGPRGMAKSTLARGVADLLDGGRFVTLPLGASEERIVGTLDLDAALGEGRVRFSPGVLANAHGGVLYVDEVNLLPDHQVDLLLDVASSGINHIERDGLSHSHPARFVLIGTMNPEEGELRPQLLDRFGLKVQLGGTPEPAQRAEIIRRRLAFDDAPAAFLAQWQNEQDALRQRCMDARQRLNDIPLDDASLDVIAQRCFAAAVDGLRADLVWLRGARAHAAWRGASRIEAQDIDALESFVLAHRRREHAPPAANQPSAPNQSEQQPAQQDQGEGQWGALPPQAVAVGERREPPSWPKKP</t>
+  </si>
+  <si>
+    <t>NZ_BDBU01000033.1</t>
+  </si>
+  <si>
+    <t>NJ1_RS25830_fs_38048</t>
+  </si>
+  <si>
+    <t>VSGSLVAYSESVRATSGDEAGFPFSAVVGQERLQLALILCAVHPGIGGVLVRGEKGTAKSTVVRALAQLLPPVVDESGARPARLVELPVGATEDRVVGSLDLERVLRDGEQAFKPGLLAAAHHGVLYVDEVNLLHDHLVDVLLDAAAMGRVHIERDGVSHSHPARFVLVGTMNPEEGELRPQLLDRFGLTVDVVASREVDVRMAVVRRRLDYEADPNGFAAAYTGADREIAERILTARDRLPEVALDNVELRRIAALCAAFDVDGMRADLVVARTATAHAAWRGSEVVTEDDVRIAAELALPHRRRRDPFDEPGISEDQLDEAMRQASDEAARADADGGADDLGKGEAVSQDDAGPRHQAEESGAHPENGANTTGPEQDSTGARPEGDPDGEGPQSPDDGPDSPGGGQDSPRDSANPPRRDSKNSDSKNPGSDQDSNPQGDKPGRERGVSVPTRSSVKAPRWEVPGVGEGAPGRRSRARTRQGRVVRATTETGTGLHLLGTLFAAVPHQYSRGRTTGPIEFLAEDLRGAYREGREGNLVVFVVDASGSMAARDRLSAVTGAIVALLRDAYQRRDKVAVITVRGQDAELVLPPTSSVDIAVRRLADLRTGGKTPLARGLLKAREVIGRERVRDPHRRPLVVLLTDGRATGGADPVPRARAAARLLARDSVTAMVVDCERGMIRLGLARDLALEMRAGYLQLGELTGDVVAGVVRGARAAEVLAACGVIER</t>
+  </si>
+  <si>
+    <t>MSGSLVAYSESVRATSGDEAGFPFSAVVGQERLQLALILCAVHPGIGGVLVRGEKGTAKSTVVRALAQLLPPVVDESGARPARLVELPVGATEDRVVGSLDLERVLRDGEQAFKPGLLAAAHHGVLYVDEVNLLHDHLVDVLLDAAAMGRVHIERDGVSHSHPARFVLVGTMNPEEGELRPQLLDRFGLTVDVVASREVDVRMAVVRRRLDYEADPNGFAAAYTGADREIAERILTARDRLPEVALDNVELRRIAALCAAFDVDGMRADLVVARTATAHAAWRGSEVVTEDDVRIAAELALPHRRRRDPFDEPGISEDQLDEAMRQASDEAARADADGGADDLGKGEAVSQDDAGPRHQAEESGAHPENGANTTGPEQDSTGARPEGDPDGEGPQSPDDGPDSPGGGQDSPRDSANPPRRDSKNSDSKNPGSDQDSNPQGDKPGRERGVSVPTRSSVKAPRWEVPGVGEGAPGRRSRARTRQGRVVRATTETGTGLHLLGTLFAAVPHQYSRGRTTGPIEFLAEDLRGAYREGREGNLVVFVVDASGSMAARDRLSAVTGAIVALLRDAYQRRDKVAVITVRGQDAELVLPPTSSVDIAVRRLADLRTGGKTPLARGLLKAREVIGRERVRDPHRRPLVVLLTDGRATGGADPVPRARAAARLLARDSVTAMVVDCERGMIRLGLARDLALEMRAGYLQLGELTGDVVAGVVRGARAA</t>
+  </si>
+  <si>
+    <t>NZ_BDCE01000064.1</t>
+  </si>
+  <si>
+    <t>VGGSSVAEEAGFPFSAVVGQERLQLALILCAVHPSIGGVLVRGEKGTAKSTVVRALAQLLPPIVDESGARPARLVELPVGATEDRVVGSLDLERVLRDGEQAFRPGLLAAAHHGVLYVDEVNLLHDHLVDVLLDAAAMGRVHIERDGVSHSHPARFVLVGTMNPEEGELRPQLLDRFGLTVDVVASRNVDVRMAVVRRRLDYEADPAGFAARYAGDDREVADRILAARDRLADIALDNVELRRIAALCASFDVDGMRADLVVARTATAHAAWRGSRVVTEDDVRIAAELALPHRRRRDPFDEPGISEDQLDEAMRQAGEQADRPESDDDTMEFDDAGGDNSGKATRSRTMTLRDRLNESTDGQPDGPDTPGGGPDSPEVDPPSFDSPHQDSDEPAPENANAPGSEPNSPGGSAAREGSASLPAQSVTKPPRWEVPGIGEGAPGRRSRARTRHGRVVRATPETTGGLHLLGTIFAAIPHQRSRGRLSGPLELLSDDLRGAYREGREGNLVVFVVDASGSMAARDRLSAVTGAVVALLRDAYQRRDKVAVITVRGQDAELVLPPTSSVDIAVRRLAGIRTGGKTPLARGLLKAREVLARERVRDPQRRPLVVLLTDGRATGGTDPVPRARTAARLLAGDGVTAMVVDCERGMIRLGLARELARDLRAGYLQLGELTGDSVAGIVRAGVRVA</t>
+  </si>
+  <si>
+    <t>MGGSSVAEEAGFPFSAVVGQERLQLALILCAVHPSIGGVLVRGEKGTAKSTVVRALAQLLPPIVDESGARPARLVELPVGATEDRVVGSLDLERVLRDGEQAFRPGLLAAAHHGVLYVDEVNLLHDHLVDVLLDAAAMGRVHIERDGVSHSHPARFVLVGTMNPEEGELRPQLLDRFGLTVDVVASRNVDVRMAVVRRRLDYEADPAGFAARYAGDDREVADRILAARDRLADIALDNVELRRIAALCASFDVDGMRADLVVARTATAHAAWRGSRVVTEDDVRIAAELALPHRRRRDPFDEPGISEDQLDEAMRQAGEQADRPESDDDTMEFDDAGGDNSGKATRSRTMTLRDR</t>
+  </si>
+  <si>
+    <t>NZ_LWMV01000009.1</t>
+  </si>
+  <si>
+    <t>MBCUR_RS00240_fs_MBCUR_RS00235</t>
+  </si>
+  <si>
+    <t>ATP-binding protein | hypothetical protein</t>
+  </si>
+  <si>
+    <t>MKNSSYPFSAIVGQEKIKKALILNAINPSIGGILIKGDRGTGKTTAVRALADLLPEIDVVENCPFNCDLNSYKECDHCSSLDELKIIKKPMKVVEFPLGATEDRILGSLNIEKALHDGVKSLEPGILAKAHRNILYIDEINLLDDNLVDILLDAAAYGVNVIEREGISLSHPSKFILVGTMNPEEGELRGQLSDRIGLTISVSGINDIGKKILIIKRREKFETNPEKFREKFKNEDLKLQNKIIHGREILDKIKVTDYILEIIARVTLYVSTEGHRSDIAILKCAKSIAAFNDSSEISESYLEEAFYLVLGELPQVQNSQNSIRRYMEQAKKDMEKEKEKQKKLEEIEKKQRNQESQNQNSNNKDNNDENHQKDNENGNNENSNGFGDESKNPNFDGEYDNEDENSNDEAGEMELKNDSFSKGKNNNQFNVNMDLNLNRDKKPDDSNIDDMDYNQSDFQDKNNDKNDLTFNQIANNAMKSFGEFESDDMGLDIKKYWVMEGRQNKRLYGTHVDSKNEKGKYIKSKQTQKISNDIAIDATLRAAAVNSNSFNNSFNNSPNNLIKSNLSNGKKAKITVSKEDLREKVRKHKARGSIALVIDMSGSMVSEKKINRIKSILDLIVKNTIKHKDKLSVVGFKGKDAEIIIPNTKHPSSFLSKLDTITVGGTTPIAIGLKRGMEVLKKDIQLKEYVPMLILLSDGRPNVGLGGSPLHDTLSIGEELSNAQIHNIIIDFDKRSTHGRNFNMELAFVTKGAYYNLENEINPEIAIEQILNRERGFL</t>
+  </si>
+  <si>
+    <t>MKNSSYPFSAIVGQEKIKKALILNAINPSIGGILIKGDRGTGKTTAVRALADLLPEIDVVENCPFNCDLNSYKECDHCSSLDELKIIKKPMKVVEFPLGATEDRILGSLNIEKALHDGVKSLEPGILAKAHRNILYIDEINLLDDNLVDILLDAAAYGVNVIEREGISLSHPSKFILVGTMNPEEGELRGQLSDRIGLTISVSGINDIGKKILIIKRREKFETNPEKFREKFKNEDLKLQNKIIHGREILDKIKVTDYILEIIARVTLYVSTEGHRSDIAILKCAKSIAAFNDSSEISESYLEEAFYLVLGELPQVQNSQNSIRRYMEQAKKDMEKEKEKQKKLEEIEKKQRNQESQNQNSNNKDNNDENHQKDNENGNNENSNGFGDESKNPNFDGEYDNEDENSNDEAGEMELKNDSFSKGKNNNQFNVNMDLNLNRDKKPDDSNIDDMDYNQSDFQDKNNDKNDLTFNQIANNAMKSFGEFESDDMGLDIKKYW</t>
+  </si>
+  <si>
+    <t>NZ_LWMV01000154.1</t>
+  </si>
+  <si>
+    <t>MBCUR_RS03705_fs_MBCUR_RS03710</t>
+  </si>
+  <si>
+    <t>MKNITFPFSAIVGQGKIKRALILNAINPSIGGILIRGDRGTGKTTAVRALADLLPEIEAVENCPFSCDTNTYLDCEICSSIEEPKFIKKPMKVVELPLGATEDRVLGSLNIEKALKDGVNVLEPGILADAHRNILYIDEINLLDDHIVDVLLDAAAYGINTVEREGISFSHLSKFILVGTMNPEEGELRGQLSDRIGLTISVSGIDDVDKRIKIIKRREEFEKDPIAFREKFKEKNLAIQKRIVDGRKLLNNITISDYLMEIIARVAIQLSVEGHRSDIYILKCSKSIAAYNSHKQATEDDLEEAINLVLGENPNFNNSPSTIKKQIEKAKSEIKKKQEEKEENKNTKELLHDQNQENSRNLESNNKDLEDSNGQDDHKIDQSVNVKDEKNSEESFDNITSESRDETLENTNDQDLTFNQVAKPSTKNIDEFELDEVGLDIKKIMLLKGCSKKKLYGKHVDSKNEKGKYVKSRFASKLSKDIAIDATLRSAVGHSQGKINVRKEDLREKIRKHKARGSIALVIDMSGSMVSDKKINRIKAILELIINNTIKHKDKLSVVGFKGKKSEIIIPNTKYPKSFLSKLDTVTVGGTTPIAIGLKKGIEVLKKDIKENEYIPMLILLSDGRPNVGLGGGPIQDTLEVGKEIANEKIHNIIIDFDRTSGQGRNFNKELAFNSKGTYYNLEKEMNTEHVIEGILNHERLNL</t>
+  </si>
+  <si>
+    <t>MKNITFPFSAIVGQGKIKRALILNAINPSIGGILIRGDRGTGKTTAVRALADLLPEIEAVENCPFSCDTNTYLDCEICSSIEEPKFIKKPMKVVELPLGATEDRVLGSLNIEKALKDGVNVLEPGILADAHRNILYIDEINLLDDHIVDVLLDAAAYGINTVEREGISFSHLSKFILVGTMNPEEGELRGQLSDRIGLTISVSGIDDVDKRIKIIKRREEFEKDPIAFREKFKEKNLAIQKRIVDGRKLLNNITISDYLMEIIARVAIQLSVEGHRSDIYILKCSKSIAAYNSHKQATEDDLEEAINLVLGENPNFNNSPSTIKKQIEKAKSEIKKKQEEKEENKNTKELLHDQNQENSRNLESNNKDLEDSNGQDDHKIDQSVNVKDEKNSEESFDNITSESRDETLENTNDQDLTFNQVAKPSTKNIDEFELDEVGLDIKK</t>
+  </si>
+  <si>
+    <t>NZ_CP015622.1</t>
+  </si>
+  <si>
+    <t>MSSQKAIRYPFSAVVGQDELRLALILTAISPRIGGVVIRGEKGTAKTTTVRAFAGLLGDAPLVNLPLGSTEDRVVGSLNMETVLTTGRAEYQPGLLAQADGGVLYVDEVNLLADHLVDALLDAAASGRVSIERDGISHSSPANFVLVGTMNPEEGELRPQLLDRFGLAVDVAASTNPDVRVEIIRRRLAFESAPEQFMEQWAVQDEETSNRIGAAKDLLPGVELPDLILSQIAWLCARIEVDGMRADLVITRTALAHAAWAGRTVVTEEDVEIAARLALPHRRRRNPFDAPEMEERKLQETLQEARNFYKDNEDTGPAAKVTDVETGAEALVDSDKPTEEDGLQGTAQAKAQTTGKVGTAGTGDPFRARYLQLAGMGEEESTPGRRSKAYSRQGADVRPKQGGHGINLVGTLMAATERGANIVEGVVDFRPSDLRGSLRRGREANLIVFVVDTSGSMAARSRVRAVTGTITSMLNDAYQRRDKVAVIAVNGNKPTLVLSPTNSVEQAQQKLKDMPMGGRTPLAEGLLMAKDLMARERRKEPGRRAILMVMTDGQDTSEAGEAGIVTAAETVVKSRLSGNVVIDCEGRLKVRKERAGVLAEMLGGICVRLRDLNSEHIKMVINA</t>
+  </si>
+  <si>
+    <t>MSSQKAIRYPFSAVVGQDELRLALILTAISPRIGGVVIRGEKGTAKTTTVRAFAGLLGDAPLVNLPLGSTEDRVVGSLNMETVLTTGRAEYQPGLLAQADGGVLYVDEVNLLADHLVDALLDAAASGRVSIERDGISHSSPANFVLVGTMNPEEGELRPQLLDRFGLAVDVAASTNPDVRVEIIRRRLAFESAPEQFMEQWAVQDEETSNRIGAAKDLLPGVELPDLILSQIAWLCARIEVDGMRADLVITRTALAHAAWAGRTVVTEEDVEIAARLALPHRRRRNPFDAPEMEERKLQETLQEARNFYKDNEDTGPAAKVTDVETGAEALVDSDKPTEEDGLQGTAQAKAQTTGKVGTAGTGDPFRA</t>
+  </si>
+  <si>
+    <t>NZ_CP015878.1</t>
+  </si>
+  <si>
+    <t>MQPHFPLAAVVAADDLKLALCLAAIDPAIGGVLIEGPRGMAKSTLARGVADLLDGGRFVTLPLGASEERIVGTLDLDAALGEGRARFSPGILANADGGVLYVDEVNLLPDHLVDLLLDVAASGVNHVERDGLSHSHPARFVLIGTMNPEEGELRPQLLDRFGLKVELGGTPPPAERAEIVRRRLAFDADPQAFLGHWQAEQDALRQRCAQARQRLPGIPLDDAALQAIAERCYAAGVDGLRADLVWLRGARAHAAWRGAERIATEDIDALEPFALAHRRHHAPPPPAQPQAPQAPAANQPEQGAQNEGQWGELPPRAVPTGATRELPSWPKKPLSIRPRPAPGADASPTPGQLAGGRSGARRHGAQPRVDWPASFLRGRPKKRDDLVLRARSAKPRELWLVIVDASASTRRHGALGQAKGLLAEVFEQAYRQRARLAVLHAAGRQPRWLWQGQKASAQLRDWLHELGAGGGTPLPEALAQAADWLQQRQRHQPGERQRLLIVTDGRLSDCPPLAPLPCASLLVDIESGPVRLGRAQQLAANLGAEYRAIGDLPLR</t>
+  </si>
+  <si>
+    <t>MQPHFPLAAVVAADDLKLALCLAAIDPAIGGVLIEGPRGMAKSTLARGVADLLDGGRFVTLPLGASEERIVGTLDLDAALGEGRARFSPGILANADGGVLYVDEVNLLPDHLVDLLLDVAASGVNHVERDGLSHSHPARFVLIGTMNPEEGELRPQLLDRFGLKVELGGTPPPAERAEIVRRRLAFDADPQAFLGHWQAEQDALRQRCAQARQRLPGIPLDDAALQAIAERCYAAGVDGLRADLVWLRGARAHAAWRGAERIATEDIDALEPFALAHRRHHAPPPPAQPQAPQAPAANQPEQGAQNEGQWGELPPRAVPTGATRELPSWPKKP</t>
+  </si>
+  <si>
+    <t>NZ_LZDH01000056.1</t>
+  </si>
+  <si>
+    <t>MGTSVNLTTTDACSTTAAPPDTTPETPRYPFAALVGVPDLQLALLLVAIDPTLGGVLIRGPRGTAKSTAARALADLLPGAPFVQLPLGATLEQIVGTLELQDALRHGRITWRPGLLARAHGGVLYVDEVNLLPDALADVLLDAAASGVHTVERDGISQRHAARFALIGTMNPEEGELRPQLLDRFGLCVELSNPDAAAVRAAIVRARLAFEADPAAFVACHHLQQQTLQQRLQRARQALGTLTWSDELIVQACAQALQSGADGLRGDLTLLKAARAHAAWHGKTAIDLADLRAVAPWVLAHRRSGTAAAAAEGAASAITPPWQSAAPQRTSAAPYDGSAPQDGKLQGESPPRHAAAGEADWGALPPQPVGMAPPLAQMPGGWPVPKPLGPAGARKPPAGMGLRSPDHAAASARRDGATPVMLDWPATLARKGPRPLRPADLVWRAVPPEPACLHVIVLDASGSMLRRGRLARAKTVALLLVQRAARRDQHVALLLASGYGAQVLQPPAPARRALGVTVRAVRGGGGTPLTVALQRAETLAQAWTRRFGGRARRVLWLLTDGQVRQEPPRPAFEVCVVVDADDDQPALGQARQWAHHWQAHHVALNDWN</t>
+  </si>
+  <si>
+    <t>MGTSVNLTTTDACSTTAAPPDTTPETPRYPFAALVGVPDLQLALLLVAIDPTLGGVLIRGPRGTAKSTAARALADLLPGAPFVQLPLGATLEQIVGTLELQDALRHGRITWRPGLLARAHGGVLYVDEVNLLPDALADVLLDAAASGVHTVERDGISQRHAARFALIGTMNPEEGELRPQLLDRFGLCVELSNPDAAAVRAAIVRARLAFEADPAAFVACHHLQQQTLQQRLQRARQALGTLTWSDELIVQACAQALQSGADGLRGDLTLLKAARAHAAWHGKTAIDLADLRAVAPWVLAHRRSGTAAAAAEGAASAITPPWQSAAPQRTSAAPYDGSAPQDGKLQGESPPRHAAAGEADWGALPPQPVGMAPPLAQMPGGWPVPKP</t>
+  </si>
+  <si>
+    <t>NZ_CP016793.1</t>
+  </si>
+  <si>
+    <t>MFPFSAVVGHDDLRLALLLNAVHPGIGGVLVRGEKGTAKSTVVRALAALLPELDVSAGCRFNCTPGTTDCPDAPHHGGERRPARLVELPVGATEDRLVGSLDLEKALTEGVRAFQPGLLAAAHRGVLYVDEVNLLHDHLVDLLLDAAAMGRAHVEREGVSVSHPSQFLLVGTMNPEEGELRPQLLDRFGLTVAVKAARDVAVRTEVIRRRLAYEADPETFAARWADADARLKQQITNARAALGNVSLPDGELRRIAAVCAAFEVDGMRADLVVARTATAHAAWRGATEVEESDVEIAVRLALPHRRRRDPFDEPGIEEQQLEDAMRQAAEHAEDPAGGPDDDGPDDDGPGGGELPEPQEGPRGNGNAPGDRPRPSRRPPSRRGCWRCRESAKARRASGRGHARGPAGSFVRPQWTAAGCTWSTRSPTPRRTSADAAAAVPGLKLVPGDLRKAVREGKESNLVLFVVDASGSMAAQKRMAAVSGAVISLLRDAYQRRDKVGVVTFRGNQAEVALPPTTSVDAAATRLKKMRTGGRTPLADGLLKAHRVLEIERLRDPRKRPLVVLLTDGRATSSGLGGDPTKDALKAATLLEQTAVVVVDCEQGHVRLGLAAKVAEALRGTCVRLDQLSADHLAGVVRAA</t>
+  </si>
+  <si>
+    <t>MFPFSAVVGHDDLRLALLLNAVHPGIGGVLVRGEKGTAKSTVVRALAALLPELDVSAGCRFNCTPGTTDCPDAPHHGGERRPARLVELPVGATEDRLVGSLDLEKALTEGVRAFQPGLLAAAHRGVLYVDEVNLLHDHLVDLLLDAAAMGRAHVEREGVSVSHPSQFLLVGTMNPEEGELRPQLLDRFGLTVAVKAARDVAVRTEVIRRRLAYEADPETFAARWADADARLKQQITNARAALGNVSLPDGELRRIAAVCAAFEVDGMRADLVVARTATAHAAWRGATEVEESDVEIAVRLALPHRRRRDPFDEPGIEEQQLEDAMRQAAEHAEDPAGGPDDDGPDDDGPGGGELPEPQEGPRGNGNAPGDRPRPSRRPPSRRGCWRCRESAKARRASGRGHARGPAGSFVRPQWTAAGCTWSTRSPTPRRTSADAAAAVPG</t>
+  </si>
+  <si>
+    <t>NZ_CP017562.1</t>
+  </si>
+  <si>
+    <t>MNGAMRGTDDVGSAGVASGTAPRPVFPFAALIGQASLQQALVLAAIDPGLGGVLISGPRGTAKSTAARALAELLPQGQLVNLPLGASEDRLIGTLDIETVLRDGSVRFSPGLLAKAHRGVLYVDEVNLLPDALVDALLDAAASGVNTVERDGVSHSHDASFVLIGTMNPEEGELRPQLIDRFGLMVELQNVFEPQVRQAIVKARFAFELDPTGFRAAYAELQASYVQRIRAARAALPLLSFDDAVHARVSALCIDAAVDGLRADLVMLRAARALAAFERADAVTVRHVERVADAVLLHRRRQHDAPHANQRQQEGEAQSQDVTGSASDRAAGSATSSADPDWGYLPPEPTGAVPVKGVIPLDAKKRLSHRKGAAADSRSGFRWRQGAGAGAHDTSHAAPGRRIAWPATLAAMRGRTLRREHLRFVREMPRGGVLHCFVLDCSGSMLAGQRLALAKGLLTTLFDRASAMRAEAALICFGGAGADVRFGPAVPRWWNERWLAPVGGGGGSPLASGVRRAAQLLEHGARRRPAQQRWLWILTDGRTRDEPARPAGADEVVFVDFERGAIRLGRCEMLANAWGARRLTPEDLIG</t>
+  </si>
+  <si>
+    <t>MNGAMRGTDDVGSAGVASGTAPRPVFPFAALIGQASLQQALVLAAIDPGLGGVLISGPRGTAKSTAARALAELLPQGQLVNLPLGASEDRLIGTLDIETVLRDGSVRFSPGLLAKAHRGVLYVDEVNLLPDALVDALLDAAASGVNTVERDGVSHSHDASFVLIGTMNPEEGELRPQLIDRFGLMVELQNVFEPQVRQAIVKARFAFELDPTGFRAAYAELQASYVQRIRAARAALPLLSFDDAVHARVSALCIDAAVDGLRADLVMLRAARALAAFERADAVTVRHVERVADAVLLHRRRQHDAPHANQRQQEGEAQSQDVTGSASDRAAGSATSSADPDWGYLPPEPTGAVPVKGVIPLDAKKR</t>
+  </si>
+  <si>
+    <t>NZ_CP018758.1</t>
+  </si>
+  <si>
+    <t>MTAPAFPLAAVVGAESLKLALCLNAIDPRIGGVLIEGPRGMAKSTLARGLADLLGGGLFVTLPLGASEERIVGTLDLDAALGEGRARFAPGVLAAADGGVLYVDEVNLLPDHLVDLLLDVAASGVNRVERDGISHEHASRFLLVGTMNPEEGELRPQLLDRFGFALALDSRPAPRERAEILRRRLAFDSDPAAFVAQWETVQAELRQRCAQARARLATIPLDDASLDTITEGCHQADVDGLRADLVWLRAARAHAAWRGGASIEHADIAAVADFALRHRRRDSTAAPSVIPPLKDESPSSTPEQETGKQQGRGNAESPGDAGDAWGALAPDPMASGPRRRLGVAKKPLGIRSIHTADRDAQAGVGRTAGGRQGARTRGDEGAIAWLPTLLRGRPQRAADLVRQPRSRRPAQLWLVILDHSASTRRHGALAQAKGLLVDWFEQAYRQRVRVAVLQAAGERPEWSFQGQRSGQALQAWLETLGAGGGTPLLAGLEEARTWLERRRRQQPGEECQLLLVTDGRLRDLTGLTVPACQTLVLDIELGPVRLGRATELARRLGAEYRHLEEVPEI</t>
+  </si>
+  <si>
+    <t>MTAPAFPLAAVVGAESLKLALCLNAIDPRIGGVLIEGPRGMAKSTLARGLADLLGGGLFVTLPLGASEERIVGTLDLDAALGEGRARFAPGVLAAADGGVLYVDEVNLLPDHLVDLLLDVAASGVNRVERDGISHEHASRFLLVGTMNPEEGELRPQLLDRFGFALALDSRPAPRERAEILRRRLAFDSDPAAFVAQWETVQAELRQRCAQARARLATIPLDDASLDTITEGCHQADVDGLRADLVWLRAARAHAAWRGGASIEHADIAAVADFALRHRRRDSTAAPSVIPPLKDESPSSTPEQETGKQQGRGNAESPGDAGDAWGALAPDPMASGPRRRLGVAKKP</t>
+  </si>
+  <si>
+    <t>NZ_CP009245.1</t>
+  </si>
+  <si>
+    <t>MTGYPFAAIVGHDDLRLALILNSISPTIGGVVVRGEKGTAKTTTIRGFATLMNGPLVNLPIGATEDRVVGSLDVETVLTTGRAEYKPGLLAQADGGILYVDEVNLLPDHLVDALLDAAATGQVTIERDGISHTSPARFVLVGSMNPEEGELRPQLLDRFGLAVEVAASRDVEVRCEIMRRRLAFDAAPQTFAAHYADQERALSEQLEQARTLLPDVELPDAMLARIAHVCATFDVDGMRADLVIARTACAHAAWRGAQRVGEEDIAVAAKLALPHRKRRDPFDDTGLDEDQLDQALDEAKEQFPEQPENTEDDGGAEQQPPQPEQSDADLQPPQDTPDEQPTQDGKAGRADIGAPFRPRLLRRAGVGEEGLPGRRSKAYSAQGATVRAVRGGHGLNVVGSVLAAADRGASISGEMIDFRPSDLRGSLRRGHESNLIVFLVDASGSMAARDRLSAVTGAVVSMLRDAYQRRDKVAVISVRGAAPELLLPPTSSIEVAVRRMAHADTGGRTPLAQGLVMAQQLIEREHRKEPARRAMLVILSDGRDTSHAGVAGVRTAASTISRRGLAGSLVIDCERAGRVTLGLAKELARGLVGAYVKVDELNAESISGIIDAV</t>
+  </si>
+  <si>
+    <t>MTGYPFAAIVGHDDLRLALILNSISPTIGGVVVRGEKGTAKTTTIRGFATLMNGPLVNLPIGATEDRVVGSLDVETVLTTGRAEYKPGLLAQADGGILYVDEVNLLPDHLVDALLDAAATGQVTIERDGISHTSPARFVLVGSMNPEEGELRPQLLDRFGLAVEVAASRDVEVRCEIMRRRLAFDAAPQTFAAHYADQERALSEQLEQARTLLPDVELPDAMLARIAHVCATFDVDGMRADLVIARTACAHAAWRGAQRVGEEDIAVAAKLALPHRKRRDPFDDTGLDEDQLDQALDEAKEQFPEQPENTEDDGGAEQQPPQPEQSDADLQPPQDTPDEQPTQDGKAGRADIGAPFRP</t>
+  </si>
+  <si>
+    <t>NZ_CP009248.1</t>
+  </si>
+  <si>
+    <t>MSDTATVYPFSAVVGQDRLRLALVLGAIAPEIGGVVIRGEKGTAKTTAVRALAPLLRGALVNLPLGATEDRVVGSIDVETVLTTGRATVRPGLLAEADGGILYVDEVNLLPDHLVDVLLDAAATGRVTIERDGVSETQHTSFVLVGTMNPEEGELRPQLLDRFGLAVDVAASREPADRVEIIRRRMAFEESPAAFRSRWAGADADLGARLTRARAVLPEVVLDDAALGRIAVLCASFDVDGMRADLVIARAARAHAAWRAAVADGPAAGAVRVADEDIRVAAELALPHRRRRDPFDEPGLDPEQLDEAMDRARRDFPEEPGEPEPAGAGEDPAGEPEGAQPPPAAGDADAAPEADPEAGAEAPGEGGRAAQGAPFRRPDIRLPGAGEGLSGRRSAAHGPRGATVRAIAGGHGVHVPGTVAAAAGRGAVVEDGRLALETRDLRGALRRGTESNLVVFLVDASGSMAARDRLSAVTGAVTSLLRDAYQKRDTVAVITFRGPGAEVALPATRSIDAAVRRLARLRTGGRTPLAEGLVEALHLIERERRREPGRRALLVVLSDGRATGPGGRERARAAAAALRERGAAGAVVVDCESGRVRLGLAAELADSLGAPCVRLAALDADAVAGVVRAGI</t>
+  </si>
+  <si>
+    <t>MSDTATVYPFSAVVGQDRLRLALVLGAIAPEIGGVVIRGEKGTAKTTAVRALAPLLRGALVNLPLGATEDRVVGSIDVETVLTTGRATVRPGLLAEADGGILYVDEVNLLPDHLVDVLLDAAATGRVTIERDGVSETQHTSFVLVGTMNPEEGELRPQLLDRFGLAVDVAASREPADRVEIIRRRMAFEESPAAFRSRWAGADADLGARLTRARAVLPEVVLDDAALGRIAVLCASFDVDGMRADLVIARAARAHAAWRAAVADGPAAGAVRVADEDIRVAAELALPHRRRRDPFDEPGLDPEQLDEAMDRARRDFPEEPGEPEPAGAGEDPAGEPEGAQPPPAAGDADAAPEADPEAGAEAPGEGGRAAQGAPFRRP</t>
+  </si>
+  <si>
+    <t>NZ_CP019239.1</t>
+  </si>
+  <si>
+    <t>MTTSTNNISLEPATRAAFPFTALVGQPQLQRALQLAAIDPGIGGVLISGPRGTAKSTAARALAALLPGAPFVTLPLAASLEQLVGTLNVEDVLRDGQVRLAPGLVARAHGGVLYVDEVNLLPDALVDALLDVAASGVNTVERDGISQQHAARFVLVGTMNPEEGELRPQLLDRFGLSVALANPVDAAQRTAILRARLGFDENPAALADQHAEEQRALSSALVAARAALPRLTWSDEVLNHAAACAIEAGVDGMRADLVMLRAARALAALEGRSEVTVAHVDAVAELALAHRRPEGGAAQPPSTTSAPQQPQQNPQRPQDQQTAAPAPQGDWGAMPAQPEGTTKVQKIAGWPPKKALGHPSRRPRNGPGSWRWPPPQTSSTTTAPGARQRSASIAWLPTVVAKGPAPLHREHLRRQPVALRAGRLHCIVLDTSGSMRQRGRLALAKGHAAFMIEQAARQGDDVALLCFGGQGVELLLPPGRARASGSQRLRPVGGGGGTPLAEALAQADRLLQRTLRIGGPTECWLWLLTDGRTLEQPQAPLTPQHLVIVDFDDPKKNLGRCAAWATRWGAEHQLALA</t>
+  </si>
+  <si>
+    <t>MTTSTNNISLEPATRAAFPFTALVGQPQLQRALQLAAIDPGIGGVLISGPRGTAKSTAARALAALLPGAPFVTLPLAASLEQLVGTLNVEDVLRDGQVRLAPGLVARAHGGVLYVDEVNLLPDALVDALLDVAASGVNTVERDGISQQHAARFVLVGTMNPEEGELRPQLLDRFGLSVALANPVDAAQRTAILRARLGFDENPAALADQHAEEQRALSSALVAARAALPRLTWSDEVLNHAAACAIEAGVDGMRADLVMLRAARALAALEGRSEVTVAHVDAVAELALAHRRPEGGAAQPPSTTSAPQQPQQNPQRPQDQQTAAPAPQGDWGAMPAQPEGTTKVQKIAGWPPKKA</t>
+  </si>
+  <si>
+    <t>NZ_CP019240.1</t>
+  </si>
+  <si>
+    <t>RA876_RS02030_fs_RA876_RS02035</t>
+  </si>
+  <si>
+    <t>MTELMATRPKVFPFTALVGQQTLQRALLLVAIDPGIGGVLISGPRGTAKSTAARALADLLPQAPFVTLPLAASLEQLVGTLNVEDVLRDGQLRLAPGLVARAHHGVLYVDEVNLLPDALVDALLDVAASGVNTVERDGISQQHAARFVLVGTMNPEEGELRPQLLDRFGLLVALENQRDPTERQAILQVRLAFDDAPQALHASHAEALQNLAVQVATARAALPRLAWSDAVLARAAQWALSAGVDGVRADLVMLRAARAWAALQGRQAVTVEDVDVVAELALAHRRTDASSGGGAPHQASGPDGAAKPSPPRAPSEKQSDSSGSPSSATPQPRGDWGALPPQPVATTRVHTVAGWPAKKALSHPSRNPGGGRSGGRWQKPAVNSGSEVQQASAGGRVAWLPTLLAKGAQPLQRIHLRHRTAVVAPVRLHLLLLDTSGSMRQGGRLALAKGYAARLIEQAARAGDQVGLLVFGGAGVELLLAPGPARRAAAVRVLQCAGGGGTPLAQALEHANQLLAHAQHRGMTTPQASWLWLLTDGRTLEIPAAPVGAVNVVVVDFEERKRALGRCATLAERWGAAYQRAPSPGESSVQVAGCAPF</t>
+  </si>
+  <si>
+    <t>MTELMATRPKVFPFTALVGQQTLQRALLLVAIDPGIGGVLISGPRGTAKSTAARALADLLPQAPFVTLPLAASLEQLVGTLNVEDVLRDGQLRLAPGLVARAHHGVLYVDEVNLLPDALVDALLDVAASGVNTVERDGISQQHAARFVLVGTMNPEEGELRPQLLDRFGLLVALENQRDPTERQAILQVRLAFDDAPQALHASHAEALQNLAVQVATARAALPRLAWSDAVLARAAQWALSAGVDGVRADLVMLRAARAWAALQGRQAVTVEDVDVVAELALAHRRTDASSGGGAPHQASGPDGAAKPSPPRAPSEKQSDSSGSPSSATPQPRGDWGALPPQPVATTRVHTVAGWPAKKA</t>
+  </si>
+  <si>
+    <t>NZ_CP020042.1</t>
+  </si>
+  <si>
+    <t>MSTPYPFTAVVGQADLRLALLLNAVSPAVGGVLVRGEKGTAKSTAVRALSALLPHVDVVPGCRFSCAPAAPDPACPDGPHESGPGADRPARMVELPVGASEDRLVGALDIERALAEGVKAFEPGLLADAHRGILYVDEVNLLHDHLIDLLLDAAAMGASYVEREGVSVRHAARFLLVGTMNPEEGELRPQLLDRFGLTVEVAASREPAQRVEVVRRRLAYEDDPAGFAARWAGDESEVRARVVAARALLPQVTLGDTALLQIAATCAGFEVDGMRADIVMARTATALAAWAGRTSVLKEDVRQAALLALPHRRRRNPFDAPGLDEDKLDEILDGFPDEEPEPDPDPEPEGPDDNGGGDGGNGGGDGGGVPPQGGGPETGHAPDTPQEAPEAQPSAPRAGRAGPSRPPWRPPSRSAPRCSAFPAWVRARPAGARGPVPRTAAPPAPSAPGASLTKLHLAATVHAAAPHQKARGRSGPGLVVRKDDLRQATREGREGNLVLFCVDASGSMAARQRMGAVKGAVLSLLLDAYQRRDKVGLITFRGAGAELALPPTSSVDAAAARLEKLPTGGRTPLGPGLLKAREVLRIERLRDPSRRPLLVVVTDGRATSAGAVGGDPRELSGRSARLLAAEGVTSVVVDCESGPVRLGLAGALAADLGAPAVTLDGLRADSLTGLVKNVRTAVTRTASLNSVSRRAA</t>
+  </si>
+  <si>
+    <t>MSTPYPFTAVVGQADLRLALLLNAVSPAVGGVLVRGEKGTAKSTAVRALSALLPHVDVVPGCRFSCAPAAPDPACPDGPHESGPGADRPARMVELPVGASEDRLVGALDIERALAEGVKAFEPGLLADAHRGILYVDEVNLLHDHLIDLLLDAAAMGASYVEREGVSVRHAARFLLVGTMNPEEGELRPQLLDRFGLTVEVAASREPAQRVEVVRRRLAYEDDPAGFAARWAGDESEVRARVVAARALLPQVTLGDTALLQIAATCAGFEVDGMRADIVMARTATALAAWAGRTSVLKEDVRQAALLALPHRRRRNPFDAPGLDEDKLDEILDGFPDEEPEPDPDPEPEGPDDNGGGDGGNGGGDGGGVPPQGGGPETGHAPDTPQEAPEAQPSAPRAGRAGPSRPPWRPPSRSAPRCSAFPAWVRARPAGARGPVPRTAAPPAPSAPGAS</t>
+  </si>
+  <si>
+    <t>NZ_BDAI01000003.1</t>
+  </si>
+  <si>
+    <t>MSALPHFPLAAVVGADELKLALCLAAIDPAIGGVLIEGPRGMAKSTLARGVADLLDGGRFVTLPLGASEERIVGTLDLDAALGEGRAQFSPGVLAHAHGGVLYVDEVNLLPDHLVDLLLDVAASGINLIERDGLSHSHPARFVLIGTMNPEEGELRPQLLDRFGLKVQLHGTPAPTERAEIVRRRLAFDADPQAFLIRWQGAQQALQQRCIDARQGLAAIALDDAALNEIAERCHAAGVDGLRADLVWLRAARAHAAWRGANAIEAQDIEAVEHFALAHRRRPAPAQSATPQQPSSRQAQAPSNASNGEGQWGELPAQNVTMGERRQLTGWPKKPLSIRPRQAPGADANPRPGQLAGGRGGARQPGAQGRIDWPATLRNGRPQRRADLVLRARSRKPAELWLVIVDASASTRRHGALAQAKGLLADTFEQAYRQRARLAVLHATGAQPRWLWQGQKASSQLQVWLEQLGAGGGTPLIEALEQAREWLDKRQRQKPAERQRLLVLTDGRLRDWPALQPMGCPTVLVDIEGGAVRLGRAEKLAQELGAEYRPIGELPA</t>
+  </si>
+  <si>
+    <t>MSALPHFPLAAVVGADELKLALCLAAIDPAIGGVLIEGPRGMAKSTLARGVADLLDGGRFVTLPLGASEERIVGTLDLDAALGEGRAQFSPGVLAHAHGGVLYVDEVNLLPDHLVDLLLDVAASGINLIERDGLSHSHPARFVLIGTMNPEEGELRPQLLDRFGLKVQLHGTPAPTERAEIVRRRLAFDADPQAFLIRWQGAQQALQQRCIDARQGLAAIALDDAALNEIAERCHAAGVDGLRADLVWLRAARAHAAWRGANAIEAQDIEAVEHFALAHRRRPAPAQSATPQQPSSRQAQAPSNASNGEGQWGELPAQNVTMGERRQLTGWPKKP</t>
+  </si>
+  <si>
+    <t>NZ_CP015118.1</t>
+  </si>
+  <si>
+    <t>MTPAPLPPVFPFSALAGQPALRLALLLVAIDPGIGGVLVEGPRGTAKSTAARALAELLPGSAFVPLPLGASLEHLVGTLDLDEALAGHAVRFRPGLLARANGGVLYVDEVNLLPDLLVDALLDAAASGLHVVERDGVSQAHAARFALIGTMNPEEGALRPQLLDRFGLDVVLDNLTDPAVREAAVRDRLAFDTDPVAFRARHDAARRDLTERLARARERAPRLDSGDAVFAHATGLCLAARVDGLRADLVLLRAARALAAWEEAPSVSPAHVDQVAELVLRHRRHPDVAAAPPPSSEAAVPRPAADDTPWGEMPPEPVGLTPVKPLRPLAGAPTAKKALSAPQARASRSGLRRRDGGIDWVRTLAARGGSPLDRRHLRQRDLVAGAPALHCIVIDASGSMVGGGRLAKAKGIAAALADAAWRRRDEVAVLSFSGGHTLVHVPPGRARPRSGVRFATLGGGGGTSLARGLADADALLTRAARRHPHQVRWLWLLTDGRSAQEPGRPHAADHVRIVDLEGGRVNLGRNAALAARWGAGYLAAADFG</t>
+  </si>
+  <si>
+    <t>MTPAPLPPVFPFSALAGQPALRLALLLVAIDPGIGGVLVEGPRGTAKSTAARALAELLPGSAFVPLPLGASLEHLVGTLDLDEALAGHAVRFRPGLLARANGGVLYVDEVNLLPDLLVDALLDAAASGLHVVERDGVSQAHAARFALIGTMNPEEGALRPQLLDRFGLDVVLDNLTDPAVREAAVRDRLAFDTDPVAFRARHDAARRDLTERLARARERAPRLDSGDAVFAHATGLCLAARVDGLRADLVLLRAARALAAWEEAPSVSPAHVDQVAELVLRHRRHPDVAAAPPPSSEAAVPRPAADDTPWGEMPPEPVGLTPVKPLRPLAGAPTAKKA</t>
+  </si>
+  <si>
+    <t>NZ_CP021455.1</t>
+  </si>
+  <si>
+    <t>MPESRDPTRDGRSPTVLVPAEPPLHFPFTAIEGQDELQQALLLTAIEPRIGGVVVEGPRGTAKTTAARGLAELLAPAPFVSLPLGCTIEHLVGSLDIGQALSHQQLAFAPGLLAKAHGGVLYVDEINLLPDALVDVLLDVAASGVNRVERDGISHQHAARWVLVGTMNAQEGRLRPQLLDRLGLGVVVGNVHDAAQRQRIVRARLAFDHDPQSFVQQHAQRQQALARRLARARAALAGPVEVLDAAWADVAQRGIAAAVDGLRADIVMLRAATAQAAWEAAAVDMADAADTAAKAQALQVTPAHVAQVAELVLRHRRAAGEAPAPAAARPASPPPAAPQAPTPAPPPSDAGQPPASQPQPTTPGGGPDAGEPGAVQRDAAPPAGGESGVEPSDAGQGPSSGQADWGGLAAEPVPSATAANPLLQRWLQTLSQAVAEDPPKKALSPRVGPPRAARAGAGRGRASGPLRAASAGRATPASVQRGTPGAGARIDWPRSLVQRPLDAALYQPWQLHWRDDRPPPRVLDLLLLDCSASMVQSGALALAKGLGIALMDEAYRARRDVGLIRFGGQHAGVEVWPQQSGWFNGDWVEPLTGGGGTPLQAAVDLAQAVVQQARPAVCCLWLLSDGRVHERPAAPQGCDVIHVLDVDQAPPHRRLPGARLLAEHWQARYLALPAA</t>
+  </si>
+  <si>
+    <t>MPESRDPTRDGRSPTVLVPAEPPLHFPFTAIEGQDELQQALLLTAIEPRIGGVVVEGPRGTAKTTAARGLAELLAPAPFVSLPLGCTIEHLVGSLDIGQALSHQQLAFAPGLLAKAHGGVLYVDEINLLPDALVDVLLDVAASGVNRVERDGISHQHAARWVLVGTMNAQEGRLRPQLLDRLGLGVVVGNVHDAAQRQRIVRARLAFDHDPQSFVQQHAQRQQALARRLARARAALAGPVEVLDAAWADVAQRGIAAAVDGLRADIVMLRAATAQAAWEAAAVDMADAADTAAKAQALQVTPAHVAQVAELVLRHRRAAGEAPAPAAARPASPPPAAPQAPTPAPPPSDAGQPPASQPQPTTPGGGPDAGEPGAVQRDAAPPAGGESGVEPSDAGQGPSSGQADWGGLAAEPVPSATAANPLLQRWLQTLSQAVAEDPPKKA</t>
+  </si>
+  <si>
+    <t>NZ_CP022054.2</t>
+  </si>
+  <si>
+    <t>MEKITSATTAQTEPTFPFTAIVGQQRLQLALILTALSPEIGGVVIRGEKGTAKTTTVRALAPFLSGSLVNLPLGATEDRVVGSIDVETVLTTGHAQFNPGLLSAADGGILYVDEINLLPDHLVDSVLDAAATGRVVVERDGISHSATSRFVLVGTMNPEEGELRPQLLDRFGLAIDVTASKDPAVRAEIVARRLDFDADPESFVTRFAADDDALHARIDRARALLDDVELTPSILGQIATVCAAFDVDGMRADIVIARTARAHAAWRVAGDESAQPAPGNPIEITAKDIKVAAEMALPHRRRRDPFDEPGLDQEQLDDALQDAEEQFRDDQNQPESSPESDPEPDAEQVSQFDSNSEPQEPQQSNSAGSKGGRAAEGAPFRRSKISVDGVGQGDSGRRSKAIGPRGSTIGAERGGHGLHVPATVLAAANRGARMGGSMIPLEPEDVHGAIRQGTESNLVVFVVDTSGSMAARDRLAAVTGAVTSLLRDAYQSRDKVAVITFRGNNAELVLPPTKSIDTAVRRLADARTGGRTPLAEGLLKAHEVVVREAHREPTRRAIMVLLSDGRATGKNGLQQARAVAAKIRRQALAATVVIDCERSRVRLGLAQELSVELGATCINLSELNAEAVAGVVHAYHRDHGTRKA</t>
+  </si>
+  <si>
+    <t>MEKITSATTAQTEPTFPFTAIVGQQRLQLALILTALSPEIGGVVIRGEKGTAKTTTVRALAPFLSGSLVNLPLGATEDRVVGSIDVETVLTTGHAQFNPGLLSAADGGILYVDEINLLPDHLVDSVLDAAATGRVVVERDGISHSATSRFVLVGTMNPEEGELRPQLLDRFGLAIDVTASKDPAVRAEIVARRLDFDADPESFVTRFAADDDALHARIDRARALLDDVELTPSILGQIATVCAAFDVDGMRADIVIARTARAHAAWRVAGDESAQPAPGNPIEITAKDIKVAAEMALPHRRRRDPFDEPGLDQEQLDDALQDAEEQFRDDQNQPESSPESDPEPDAEQVSQFDSNSEPQEPQQSNSAGSKGGRAAEGAPFRRS</t>
+  </si>
+  <si>
+    <t>NZ_CP018632.1</t>
+  </si>
+  <si>
+    <t>MTYPFSALHGQAGLQLALLLIAVDPRIGGVLIEGARGTAKTTSARALAEILPEGAFVNLPLGASEEHLAGSLDLDIVLQQGKSSFRPGLLARAHRGVLYVDEINLLADMLVDLLLDVCSSGMNRVERDGVSHQHAAEIVLVGTMNPEEGELRPQLLDRFGLFVNADASISMDMRQRIVRSRMAFDDDPVAFNLHYADQQQKRIAQLVSARQSLSQIVFTDDDYARVARKCHEAQVDGVRADLVMLRASRAMAALKGRLHITDEDIDAVADMVLAHRRKGGAEASGNSCESDTIDDAAQAGSSGQSTADKSASGGPAESRESGASQESQSRSSDDSGSSEGAGSSESANSSKDSNSMAEASSSVDEDAQWGAMPAQAVATRQVAWPAVQNGAPNGKKSLMRPASGTGTVAGGGQSVRSKHKSGQRTMTTSRRIHWPRTLAAKRTARLGVEHLRFKQEAQGSDALHCVLLDCSASMMRGGQLALAKGILLALSKQLYRQRDRLAVIGFGGESVQMLQHAQRVSVSNVDWIEAIRGGGGSPVTAAVQQAERLLHSEKKQLGQPRTLWLLSDGRYDPLPPLPRHVDECHVVDFESGHLPLGRIRRLAELWHAQYTHASHWVDVNATLTPGRYTA</t>
+  </si>
+  <si>
+    <t>MTYPFSALHGQAGLQLALLLIAVDPRIGGVLIEGARGTAKTTSARALAEILPEGAFVNLPLGASEEHLAGSLDLDIVLQQGKSSFRPGLLARAHRGVLYVDEINLLADMLVDLLLDVCSSGMNRVERDGVSHQHAAEIVLVGTMNPEEGELRPQLLDRFGLFVNADASISMDMRQRIVRSRMAFDDDPVAFNLHYADQQQKRIAQLVSARQSLSQIVFTDDDYARVARKCHEAQVDGVRADLVMLRASRAMAALKGRLHITDEDIDAVADMVLAHRRKGGAEASGNSCESDTIDDAAQAGSSGQSTADKSASGGPAESRESGASQESQSRSSDDSGSSEGAGSSESANSSKDSNSMAEASSSVDEDAQWGAMPAQAVATRQVAWPAVQNGAPNGKKS</t>
+  </si>
+  <si>
+    <t>NZ_FNCT01000008.1</t>
+  </si>
+  <si>
+    <t>MNTSNRPHFPFSAVHGQPQLQLALLLAAIDPQIGGVLIEGPRGTAKSTSARALADLLPSGRFVNLPLGSSEEQLVGSLDIQAALQDGRVAFKPGLLARADGGVLYVDEVNLLADGLVDLLLDVCASGVNRIERDGISHQHQARIALVGTMNPEEGELRPQLLDRFGLFVRLGQQIDAATRERIVRSRLQFDRDPLGFIEAQRDEQERFSERLEQARATVARLEFGDALHRQVSALCYAAGVEGVRADLVLLRAACAHAAWQQRDEIGAADVEAVAELVLAHRRKHPPEPPQPPAQENAGGAANDQPPPNGGSDWGELPPQPVPTQSLVGARPLPLKKSLSQRPASGPLAGKGQQAGRVRAMGTAPSPRIHWPRTLLNKRAAPLLMEHLHFHRQAAEDGLLHCLLLDCSGSMLKRSNLALAKGLLLRWSEQIYRQRGELAVIGFAGNQARLLQRPQKAVPHNEAWIAAIGGGGGSPLAGGLQLAERTLAKVRKSAPGKQIGLWLLSDGRFSQLPARPRHADFCVVVDFENQPLPLGRAVQLARLWGAEHVRAVDLCGAQ</t>
+  </si>
+  <si>
+    <t>MNTSNRPHFPFSAVHGQPQLQLALLLAAIDPQIGGVLIEGPRGTAKSTSARALADLLPSGRFVNLPLGSSEEQLVGSLDIQAALQDGRVAFKPGLLARADGGVLYVDEVNLLADGLVDLLLDVCASGVNRIERDGISHQHQARIALVGTMNPEEGELRPQLLDRFGLFVRLGQQIDAATRERIVRSRLQFDRDPLGFIEAQRDEQERFSERLEQARATVARLEFGDALHRQVSALCYAAGVEGVRADLVLLRAACAHAAWQQRDEIGAADVEAVAELVLAHRRKHPPEPPQPPAQENAGGAANDQPPPNGGSDWGELPPQPVPTQSLVGARPLPLKKS</t>
+  </si>
+  <si>
+    <t>NZ_FNBN01000002.1</t>
+  </si>
+  <si>
+    <t>MRSFPFTAIYAQEDFKLALILCMIDPGLGGVLALGDKGTGKTTTVRGLSQLMQRSITDFPFVNLPIGATEDRVLGTIRLDILINEKRTEVQQGLLAAANQGILYIDEVNLLNDYLMDVLLDAAASGGYHLERDTISKWFESKFCLVGTMNPEEGELRPQLLDRFGLSVTVKTPMDRLDRMEIINRRLQFDTDTPAFLKKYDAQEQQLVQQIMYAREQLKEVSYSDIILANIADTCIQYQVEGLRADILLLKAARAHAAFYGKKEVSTDDIHRVMPFVLSHRSKHYSSTQNTPQQRESQSPREEKEGDSIRIRINLSNSRKYLLQAAKTEQYVQLKARSADARKGITLKVPLPRQGKQQKTAVPSAQPDVLETVKYYLTHDKVEIRHKRHQSKAAMHVFFLIDSSGSMIKDRQIAYIKGLIAETIARYKTKRIKYAAVALNNGDAELLSAPTLGVEELIKALSQLTTGGKTNMRAGFGMISQLLKSNIREHVTLYIFTDGKINTGSTDDPFREAVTFYKQYLTVIKQTTIIDNESGFVRLGLAEKLAMSIGAGYQHMQQNAAIPADQLR</t>
+  </si>
+  <si>
+    <t>MRSFPFTAIYAQEDFKLALILCMIDPGLGGVLALGDKGTGKTTTVRGLSQLMQRSITDFPFVNLPIGATEDRVLGTIRLDILINEKRTEVQQGLLAAANQGILYIDEVNLLNDYLMDVLLDAAASGGYHLERDTISKWFESKFCLVGTMNPEEGELRPQLLDRFGLSVTVKTPMDRLDRMEIINRRLQFDTDTPAFLKKYDAQEQQLVQQIMYAREQLKEVSYSDIILANIADTCIQYQVEGLRADILLLKAARAHAAFYGKKEVSTDDIHRVMPFVLSHRSKHYSSTQNTPQQRESQSPREEKEGDSIRIRIN</t>
+  </si>
+  <si>
+    <t>NZ_FMZC01000002.1</t>
+  </si>
+  <si>
+    <t>MTSLPPLNAGTPAHNVPSPVPLPALFPFSAIAGQPLLVQALLLAAIDPALGGVLVEGPRGTAKSTAARALAELIEGAPFVTLPLGASLEHLVGTLDLGQAMAGNTVAFAPGLLARAHGGVLYVDEINLLPDALVDALLDAAASGVNAVERDGISHRHAARFVLVGTMNPEEGALRPQLLDRMGLCVRLCNVADAAERQAIVRSRLAFDLDPPAFRERFAGAQADLAQRLRTARERIAQPGALPWPDAVLATVSERCIAAQVDGLRADLVMLRAARALAAWEGAAAVQPGHVDQVAELVLVHRRRPGSETAVAPAPSTSCHSPKAPDTKNPQNDSRGPGEAAGPKNDADSNANANANANANAETSAPQTASASGGDPGSPGGPSDWGALPPEPVGTQAFKPVRPWLAPASGQGAAPKKALSPHPARAMARDGDRGRGDEAPQPDPRGDQPGAWDWPRTFIARGAATVLQRDHLRRQTAQARTGRLHCFVLDCSASMVASGALARAKGVLLALMEEAYRERDDVALLCFGGDGVQLRVSPQRAPAWSDGWVAPIGGGGGTPLDRAVSHAAQVLDGARGRQGWLWLLTDGRTREQPERPASAHTACVVDFDTARLALHRAERLARQWQARYWSVSDGAASQAL</t>
+  </si>
+  <si>
+    <t>MTSLPPLNAGTPAHNVPSPVPLPALFPFSAIAGQPLLVQALLLAAIDPALGGVLVEGPRGTAKSTAARALAELIEGAPFVTLPLGASLEHLVGTLDLGQAMAGNTVAFAPGLLARAHGGVLYVDEINLLPDALVDALLDAAASGVNAVERDGISHRHAARFVLVGTMNPEEGALRPQLLDRMGLCVRLCNVADAAERQAIVRSRLAFDLDPPAFRERFAGAQADLAQRLRTARERIAQPGALPWPDAVLATVSERCIAAQVDGLRADLVMLRAARALAAWEGAAAVQPGHVDQVAELVLVHRRRPGSETAVAPAPSTSCHSPKAPDTKNPQNDSRGPGEAAGPKNDADSNANANANANANAETSAPQTASASGGDPGSPGGPSDWGALPPEPVGTQAFKPVRPWLAPASGQGAAPKKA</t>
+  </si>
+  <si>
+    <t>NZ_LT629751.1</t>
+  </si>
+  <si>
+    <t>MQPHFPLAAVVAADDLKLALCLAAIDPALGGVLIEGPRGMAKSTLARGVADLLDGGRFVTLPLGASEERIVGTLDLDAALGEGRARFSPGVLANAHGGVLYVDEVNLLPDHLVDLLLDVAASGINHVERDGLSHSHPARFVLIGTMNPEEGELRPQLLDRFGLKVQLGGTPEPAQRAEIVRRRLAFDEAPQAFLARWQREQDALRQRCAEARRRLSEIPLDDASLDAIAQRCFAAAVDGLRADLVWLRGARAHAAWRGASRIEAQDIDALEPFVLAHRRRGQTPPAASQPPAPNQSEQQPSQQERGEGQWGALPPQAVAVGERRAPPAWPKKPLSIRPRPATGADALPLPGQAPGGRSGARGNGAPTRIDWPATLAHGRPRRHADLRWHARQLRPGELWLVIVDASASTRRHGALAQAKGLLAELFASAYRQRARLAVLEAGGAQPRWLWQGRKASSELHSWLQQLGAGGGTPIIEALQLATLWLVRRQRYKPGERQRLLLLTDGRLRDWPRLAALPCPGLLLDIERAPIRLGRARQLAAELGADYHHIDELAPSPRAPTWNRP</t>
+  </si>
+  <si>
+    <t>MQPHFPLAAVVAADDLKLALCLAAIDPALGGVLIEGPRGMAKSTLARGVADLLDGGRFVTLPLGASEERIVGTLDLDAALGEGRARFSPGVLANAHGGVLYVDEVNLLPDHLVDLLLDVAASGINHVERDGLSHSHPARFVLIGTMNPEEGELRPQLLDRFGLKVQLGGTPEPAQRAEIVRRRLAFDEAPQAFLARWQREQDALRQRCAEARRRLSEIPLDDASLDAIAQRCFAAAVDGLRADLVWLRGARAHAAWRGASRIEAQDIDALEPFVLAHRRRGQTPPAASQPPAPNQSEQQPSQQERGEGQWGALPPQAVAVGERRAPPAWPKKP</t>
+  </si>
+  <si>
+    <t>NZ_FNSR01000002.1</t>
+  </si>
+  <si>
+    <t>MTVSSGGNRPVFPFAALIGQPALQQALLLAAIDPGIGGVLVSGPRGTAKSTAARALAELLPEGRFVTLPLGASEDRLIGTLDIESALREGSVRFSPGLLAQAHRGVLYVDEINLLPDALVDVLLDAAASGVNTIERDGISHSHDARFVLIGTMNPEEGELRPQLLDRFGLMVELENCFDPQVRRDIVNARLEFDADPQRFSDRHAPQRDDYVRRIEAARAVLPALRFDDAVHRRVGQWCIEAAVDGLRADLVMLRAARALAAYEQASSITPAHVDRVADAVLKHRRRAEGKPQPDDGEGASRDESRDTTSPQPPHDGKTAPQTADESDWGYLPPEPAGIDPVKGVVPLAAKKRLSHRDGAAAGSTGGFRWPQRQGAGLPTRGDARRGARSGARRIAWPPTLAAKRAQPFDVSHLRFRPEIPRGGALHCFVLDCSGSMMSGRQLAHAKGLLVALFDQVGASRDDAVLICFGGARADVRFGPAIPRWWNERWLEPIGGGGGTPLAHGIRAARTVLARAARRRPAQQRWLWLLTDGRSADRPARPLEADRTVLVDFERGAVRLGRCAALADAWDGLYLTPDDLLG</t>
+  </si>
+  <si>
+    <t>MTVSSGGNRPVFPFAALIGQPALQQALLLAAIDPGIGGVLVSGPRGTAKSTAARALAELLPEGRFVTLPLGASEDRLIGTLDIESALREGSVRFSPGLLAQAHRGVLYVDEINLLPDALVDVLLDAAASGVNTIERDGISHSHDARFVLIGTMNPEEGELRPQLLDRFGLMVELENCFDPQVRRDIVNARLEFDADPQRFSDRHAPQRDDYVRRIEAARAVLPALRFDDAVHRRVGQWCIEAAVDGLRADLVMLRAARALAAYEQASSITPAHVDRVADAVLKHRRRAEGKPQPDDGEGASRDESRDTTSPQPPHDGKTAPQTADESDWGYLPPEPAGIDPVKGVVPLAAKKR</t>
+  </si>
+  <si>
+    <t>NZ_FNSC01000001.1</t>
+  </si>
+  <si>
+    <t>MTEHHFPLAAVVAADDLKLALCLAAIDPAIGGVLIEGPRGMAKSTLARGLADLLASGTFVTLPLGASEERIVGTLDLDAALGESRAQFSPGLLAKANGGVLYVDEVNLLPDHLVDLLLDAAASGVNHIERDGISHRHAARFVLIGTMNGEEGELRPQLLDRFGLNLALNAQPQPAQRAEIVRRRLAFDADPQAFLERWQAQQDELRERCQSARARLAAIPLDDAALEQISQRCFAAAVDGLRADLVWLRAARAHAAWRGVERIEAEDIDAVADFVLRHRRRHTPPPAAQPPQPQSYVQPSHDKPSEQPQGEGQWGELPAQAQSAGVRREPPRWAKKPLGIRPRTAPGADARAAPGPLGNGRNGAIRSGAAGRIDWPASLLKGRPRTRQDLLLRPRSAKPAELWLVIVDASASTRRHGALSKAKGLLSEVFEQARRQRARLALLHATGRQAQWLWQGQKASRALQDWLAELGAGGGTPLLDALQQAADWQARRQRLHPAERQRLLIITDGRLRDWPALSPSACPALLMDIESAPIRLGRARQLATELGADYRHIDSLPLLAGSLETSL</t>
+  </si>
+  <si>
+    <t>MTEHHFPLAAVVAADDLKLALCLAAIDPAIGGVLIEGPRGMAKSTLARGLADLLASGTFVTLPLGASEERIVGTLDLDAALGESRAQFSPGLLAKANGGVLYVDEVNLLPDHLVDLLLDAAASGVNHIERDGISHRHAARFVLIGTMNGEEGELRPQLLDRFGLNLALNAQPQPAQRAEIVRRRLAFDADPQAFLERWQAQQDELRERCQSARARLAAIPLDDAALEQISQRCFAAAVDGLRADLVWLRAARAHAAWRGVERIEAEDIDAVADFVLRHRRRHTPPPAAQPPQPQSYVQPSHDKPSEQPQGEGQWGELPAQAQSAGVRREPPRWAKKP</t>
+  </si>
+  <si>
+    <t>NZ_LT629780.1</t>
+  </si>
+  <si>
+    <t>MHEPVNFPLAAVVGADALKLALCLAAVDPAIGGVLIEGPRGMAKSTLARGVAELLEAGQLVTLPLGATEERIVGTLDLDAALGEGRARFAPGLLARAHGGVLYVDEVNLLADHLVDLLLDVAASGVNHVERDGISHRHAARFVLIGTMNPEEGELRPQLLDRFGLAVSLGGTPLPAERTEIVRRRLDFDRDPETFRARWQAAQDALQARCRQARKSLEAIPLDDAALEAIAARCYAAGIDGLRGDLVWLRAARAHAAWRGAAAIAPEDIDTVQDFVLRHRHPHGPAAAPPPQSNDSAAAPQNDAGGQSGERDPGEGQWGELPAQPVAIGERRAPPRWPKKPLSIRPQPARGADARHRDKPQPTPRGRAGASGPGRIDWPRSLQRGRPRSRAELHYRSRVSAAPALWLIVVDASASTRRHGALRRAKGLLAELLDQACRRRVALALLQADGAKPRWFCQGQRAPQAARHWLQQLGAGGGTPLPAALAEAGEWLARRQRRHPGERQQLWLLTDGRLRELPALAPAACPALLIDIESGPLRLGRARALAAALGAEYRHIDEIPLA</t>
+  </si>
+  <si>
+    <t>MHEPVNFPLAAVVGADALKLALCLAAVDPAIGGVLIEGPRGMAKSTLARGVAELLEAGQLVTLPLGATEERIVGTLDLDAALGEGRARFAPGLLARAHGGVLYVDEVNLLADHLVDLLLDVAASGVNHVERDGISHRHAARFVLIGTMNPEEGELRPQLLDRFGLAVSLGGTPLPAERTEIVRRRLDFDRDPETFRARWQAAQDALQARCRQARKSLEAIPLDDAALEAIAARCYAAGIDGLRGDLVWLRAARAHAAWRGAAAIAPEDIDTVQDFVLRHRHPHGPAAAPPPQSNDSAAAPQNDAGGQSGERDPGEGQWGELPAQPVAIGERRAPPRWPKKP</t>
+  </si>
+  <si>
+    <t>NZ_FNNU01000004.1</t>
+  </si>
+  <si>
+    <t>MNRPHFPFSALHGQPQLQLALLLAAIDPQIGGVLIEGPRGTAKSTSARALADLLPAGRFVNLPLGASEEQLVGSLDIQAALQDGRVDFRPGLLARADGGVLYVDEVNLLADALVDLLLDVCASGVNRIERDGISHQHEARIALVGTMNPEEGELRPQLLDRFGLFVRLGERIEPAAREAIVRSRLRFDRDPQGFVEGQRAAQEALMQRLERARAKVGQLEFDDALHRQVSDLCYAAGVEGVRADLVLLRAACAHAAWQGHARIGAEDVAVVAELVLAHRRKLPPDAPPPSPRAEPPREGGATAPNEGNDWGELPPQAVPTAQLDGARPLPTKKPLSPHASPGAQAGDGARAGRIRQCGTAASARLHWPRTLLAKGSEPLRAPHLRFQQQAAEAGTLHCLVLDCSGSMLKRRNLTLAKGLLLRWSEQVYRQRGELMVIGFAAGQARLLCKPQKARSSNHAWIDAIGGGGGSPVAAALELAERTLARERRNARGKRIGLWLLSDGRFDPLPARPPSADFCVVVDFENASVPLGRAAQIARSWGAECVPAKNLLTR</t>
+  </si>
+  <si>
+    <t>MNRPHFPFSALHGQPQLQLALLLAAIDPQIGGVLIEGPRGTAKSTSARALADLLPAGRFVNLPLGASEEQLVGSLDIQAALQDGRVDFRPGLLARADGGVLYVDEVNLLADALVDLLLDVCASGVNRIERDGISHQHEARIALVGTMNPEEGELRPQLLDRFGLFVRLGERIEPAAREAIVRSRLRFDRDPQGFVEGQRAAQEALMQRLERARAKVGQLEFDDALHRQVSDLCYAAGVEGVRADLVLLRAACAHAAWQGHARIGAEDVAVVAELVLAHRRKLPPDAPPPSPRAEPPREGGATAPNEGNDWGELPPQAVPTAQLDGARPLPTKKP</t>
+  </si>
+  <si>
+    <t>NZ_FNRQ01000009.1</t>
+  </si>
+  <si>
+    <t>MNASTDSPGGGVALSSTARTIFPFAALIGQAPLQQALLLAAIDPGLGGVLVSGPRGTAKSTTARALAELLPEGQLVTLPLGASEERLIGTLDIETALRDGSVKFSPGLLARAHRGVLYVDEVNLLPDALVDALLDAAASGVNTVERDGVSHSHAASFVLIGTMNPQEGELRPQLIDRFGLMVELENCFDPEVRQAIVKARLAFDADPEMFRARYAAQQAAYVRRIRAARERLSQLAFDDAIHAYVSRKCIDAAVDGMRADIVMLRAARALAALEADTAITVEHVDRVAEAVLRHRRLNRDTDTHATQSSSPPAQHETHESPTERKPGSEGDWGQLPPEAAGTTRVKGVIPLPAKKRLSHRSGAAAGSTSGVRWPHAAGAGTRGSKPGRRIDWPSTLAAKRREPLARAHVRFRREAPKGGVLHCFVLDCSGSMMSGQQLALAKGLLVAMFDQASTARAETALVCFGGARADVRFGPAVPRWWNERWLQPVGGGGGTPLALGVSRAAHVLERAARGKPAQQRWLWLLSDGRSSDLPARPAFADQVVCVDFERGAVRLGRCEQIARAWNALCCTPEDLIAS</t>
+  </si>
+  <si>
+    <t>MNASTDSPGGGVALSSTARTIFPFAALIGQAPLQQALLLAAIDPGLGGVLVSGPRGTAKSTTARALAELLPEGQLVTLPLGASEERLIGTLDIETALRDGSVKFSPGLLARAHRGVLYVDEVNLLPDALVDALLDAAASGVNTVERDGVSHSHAASFVLIGTMNPQEGELRPQLIDRFGLMVELENCFDPEVRQAIVKARLAFDADPEMFRARYAAQQAAYVRRIRAARERLSQLAFDDAIHAYVSRKCIDAAVDGMRADIVMLRAARALAALEADTAITVEHVDRVAEAVLRHRRLNRDTDTHATQSSSPPAQHETHESPTERKPGSEGDWGQLPPEAAGTTRVKGVIPLPAKKR</t>
+  </si>
+  <si>
+    <t>NZ_LT629972.1</t>
+  </si>
+  <si>
+    <t>MSDTPHFPLSAVVAADALKLALCLTAIDPKIGGVLIEGPRGMAKSTLARGLADLLASGQFVTLPLGATEERLVGTLDLDAALGEGRAQFSPGVLAKADGGVLYVDEVNLLADHLVDLLLDVAASGTNLVERDGISHRHPARFVLIGTMNPEEGELRPQLLDRFGLNVALSGQPEPVERRQIIRRRLDFDSDPQAFCVQWETQQQALRERCERARVLLPVIDLDERAMTAISERCFAAGVDGLRADLVWLRAARAHAAWRGARQIADEDIEAVAEFALRHRRREPSPATSASSPASTPETQPDPAQGTEQPQGQWGELPAKAMAVGARRDIPSWPKKPLGIRPRFKPGANARNAAGEVPRGRQGAARAAVSGAINWVETLLGGRPQTRRDLRFHLRSSSPHELWLVIVDASASTRRHRALSDAKGLLAQLFDDAYRQRARLALLTVSGSRPQWQVQGLKASSAMAEWLDGLGAGGGTPLLAALQEAGRWLAVRQKRFAQEQQRVLVLTDGRLKAWTGLAPFNCPALLVDLEKGPIRLGRAQQLAHELGADYRHIERL</t>
+  </si>
+  <si>
+    <t>MSDTPHFPLSAVVAADALKLALCLTAIDPKIGGVLIEGPRGMAKSTLARGLADLLASGQFVTLPLGATEERLVGTLDLDAALGEGRAQFSPGVLAKADGGVLYVDEVNLLADHLVDLLLDVAASGTNLVERDGISHRHPARFVLIGTMNPEEGELRPQLLDRFGLNVALSGQPEPVERRQIIRRRLDFDSDPQAFCVQWETQQQALRERCERARVLLPVIDLDERAMTAISERCFAAGVDGLRADLVWLRAARAHAAWRGARQIADEDIEAVAEFALRHRRREPSPATSASSPASTPETQPDPAQGTEQPQGQWGELPAKAMAVGARRDIPSWPKKP</t>
+  </si>
+  <si>
+    <t>NZ_FOAA01000017.1</t>
+  </si>
+  <si>
+    <t>BMY52_RS12870_fs_BMY52_RS12865</t>
+  </si>
+  <si>
+    <t>MTALSTQYPFTALKGVPQLQNALLLAAIDPLIGGVLIEGPRGAAKTTSARALAQLLPDGGFVNLPLGASEEQLQGSLDIEAALKQGDACFKPGLLARAHQGVLYVDEVNLLPDALVDLLLDVSVSGVNRVERDGISHQHEARFVLVGTMNPEEGELRPQLLDRFGLLVRLNDMIDAPTRREIVRSRLAFEADPAGFSHSHAKDQEALKERLSQARARLESLVFTDAVHDRVSELCFAAGVEGVRADLVMLRAARAHAALEGAPQIRDTDIDAVQVLVLGHRRRDRSASSPDEASGPESSGADPSDARQAVGSSRSPGSATGDPDGSRDTATTEPDRTGDGQDWGAMPPEPTPIRPLADVRPLPVKKPLTRSPAAGRLPDGRAPGTGRWPRLQRHPEGGIHWHRTLLNKGAAPLHRTHLVYRPRRGGAGMLYCLVLDCSASMLRQDKLAMAKGLITAWAHQLYTQRAELAVVGFSGQGAYILRPPSRAPLCSDIWVAPIPGGGGSPVGAGLQRAQALMAQVKRRHPDQPIGLWLLTDGRTTQQPPRPDIADFCQVVDFETETIRLGGAQRIARAWQAPCWPVSAFMASG</t>
+  </si>
+  <si>
+    <t>MTALSTQYPFTALKGVPQLQNALLLAAIDPLIGGVLIEGPRGAAKTTSARALAQLLPDGGFVNLPLGASEEQLQGSLDIEAALKQGDACFKPGLLARAHQGVLYVDEVNLLPDALVDLLLDVSVSGVNRVERDGISHQHEARFVLVGTMNPEEGELRPQLLDRFGLLVRLNDMIDAPTRREIVRSRLAFEADPAGFSHSHAKDQEALKERLSQARARLESLVFTDAVHDRVSELCFAAGVEGVRADLVMLRAARAHAALEGAPQIRDTDIDAVQVLVLGHRRRDRSASSPDEASGPESSGADPSDARQAVGSSRSPGSATGDPDGSRDTATTEPDRTGDGQDWGAMPPEPTPIRPLADVRPLPVKKP</t>
+  </si>
+  <si>
+    <t>NZ_FOJJ01000038.1</t>
+  </si>
+  <si>
+    <t>magnesium chelatase ATPase subunit I | VWA domain-containing protein</t>
+  </si>
+  <si>
+    <t>MPTIFYPFSAILGQDAMKTALLINAVDPSIGGVLIRGQKGTGKSTAARALAALLPEIEVVDGCPCHCDPDDSATSHAECAERMARGESLPRLRRPMPVVNLPLSATEDRVVGSLHLEQALKTGERRFEPGLLAAANRGILYVDEVNLLADHLVDLLLDAAASGINLVEREGLRYQHPARFMLVGTMNPEEGELRPQFLDRFGLCVGAQGLEDTAARREIVARRLAFEADAAAFHRRWEPEERLLADQVVLARERLSAVAVPEAMLDLVVRLAIEVGAQGHRADLAIIKGARALAALLEKTAVTATEVAEAARLALPHRMARSPLDSDANLDERLDGVIGRLIAGEEPPGTAETEAEVPEVLDEMTDSMEVPGSMAAGSILFAFLKKKARKPTIEADDRIDLGDLELSPRRLPPRLRRRGQEAAGPVTAVRPARSGERGFEVALEASLRAAARRGAGPGQILGADLHKKIRRRWRYPLIVFLVDASESMGEGAVARMAAAKGAVLALLRAAYVERCRVALVAFHGERSEVLLPPTRSIALARERLRRLPVGGATPLADGLWSAWRLIRRERARYPGARPLLVVISDGEANVPLEAGRKVMEEVLDIAARMSGEGIPALVIDSRSPDPRQQEMARLARAFGGEVRHLERPRSSQVLELLREKGLPQT</t>
+  </si>
+  <si>
+    <t>MPTIFYPFSAILGQDAMKTALLINAVDPSIGGVLIRGQKGTGKSTAARALAALLPEIEVVDGCPCHCDPDDSATSHAECAERMARGESLPRLRRPMPVVNLPLSATEDRVVGSLHLEQALKTGERRFEPGLLAAANRGILYVDEVNLLADHLVDLLLDAAASGINLVEREGLRYQHPARFMLVGTMNPEEGELRPQFLDRFGLCVGAQGLEDTAARREIVARRLAFEADAAAFHRRWEPEERLLADQVVLARERLSAVAVPEAMLDLVVRLAIEVGAQGHRADLAIIKGARALAALLEKTAVTATEVAEAARLALPHRMARSPLDSDANLDERLDGVIGRLIAGEEPPGTAETEAEVPEVLDEMTDSMEVPGSMAAGSILFAFLKKKARKPT</t>
+  </si>
+  <si>
+    <t>NZ_FOJP01000019.1</t>
+  </si>
+  <si>
+    <t>MSEPGHYPLSAVVGADALKLALYLAAIDPAIGGVLIEGPRGMAKSTLARGIADLLPRGIFVTLPLGASEDRIVGTLDLDAALGEGRARFSPGLLARAHEGVLYVDEVNLLPDHLVDLLLDVAASGTNRVERDGLSHAHPARFVLIGTMNPEEGDLRPQLLDRFGLKVSLDHAPAPAERAEIIRRRLAFDADPTAFIARWSADQQALAHRCQDAREHLATIPLDDHALDAIAQRCFDAGVDGLRADLVWLRAARAHAAWRGATAIAPEDIDAVEHFALAHRRHHAPPPAAQPPREAPAQPPRPQQDASGEGQWGELPAQPMPTGERRALPAWPKKPLSTRPHHAKGTGAKPRPGRLGQGRSGARSPGQGGAIAWLPTLLRGRPRRAEDLIRTPRSRAAEQLWLVIVDASASTRRHGALSRAKGLLAQLFDDAYRARARLAVLAASGRQAQWHWQGRKADARLQPWLQGLGAGGGTPLPDALAQAARWLATRQRQRPGEEQRVLILTDGRLKDLPALQPLGCTTLLVDIESGPIRLGRARQLATLLEAEYQALAD</t>
+  </si>
+  <si>
+    <t>MSEPGHYPLSAVVGADALKLALYLAAIDPAIGGVLIEGPRGMAKSTLARGIADLLPRGIFVTLPLGASEDRIVGTLDLDAALGEGRARFSPGLLARAHEGVLYVDEVNLLPDHLVDLLLDVAASGTNRVERDGLSHAHPARFVLIGTMNPEEGDLRPQLLDRFGLKVSLDHAPAPAERAEIIRRRLAFDADPTAFIARWSADQQALAHRCQDAREHLATIPLDDHALDAIAQRCFDAGVDGLRADLVWLRAARAHAAWRGATAIAPEDIDAVEHFALAHRRHHAPPPAAQPPREAPAQPPRPQQDASGEGQWGELPAQPMPTGERRALPAWPKKP</t>
+  </si>
+  <si>
+    <t>NZ_FOQL01000001.1</t>
+  </si>
+  <si>
+    <t>MTDSHFPLAAVVGAEDLKLALCLAAIDPAIGGVLIEGPRGMAKSTLARGLADLLASGTFVTLPLGASEERIVGTLDLDAALGEGRAQFSPGLLAKANGGVLYVDEVNLLPDHLVDLLLDAAASGVNHIERDGISHRHAARFVLIGTMNAEEGELRPQLLDRFGLNLALDAQPQPEQRAEIVRRRLAFDADPQAFLKRWQAQQDELYSRCQRARERFAAIPLDDAALEQISQRCFAAAVDGLRADLVWLRAARAHAAWRGVERIEAEDIDAVAEFVLLHRRRNSPPPAAQPPQPQSQPDKSAPSEQPQAPQGEGQWGELPAHAQHVDVRREPPRWTKKPLGIRPRTAPGADARAAPGTLGNGRNGASRSGATGRIDWPASLLKGRPRCRQDLLLRPRSSKPAELWLVIVDASASTRRHGALSKAKGLLSEVFEQARRQRARLALLHATGRQAQWLWQGQKASQALQQWLAELGAGGGTPLFDALQQAADWQARRQRLHPGETQRLLIITDGRLRDWLALAPSACSALLVDIESAPIRLGRARQLAAELGADYRHIDSLPVLAGSLETTP</t>
+  </si>
+  <si>
+    <t>MTDSHFPLAAVVGAEDLKLALCLAAIDPAIGGVLIEGPRGMAKSTLARGLADLLASGTFVTLPLGASEERIVGTLDLDAALGEGRAQFSPGLLAKANGGVLYVDEVNLLPDHLVDLLLDAAASGVNHIERDGISHRHAARFVLIGTMNAEEGELRPQLLDRFGLNLALDAQPQPEQRAEIVRRRLAFDADPQAFLKRWQAQQDELYSRCQRARERFAAIPLDDAALEQISQRCFAAAVDGLRADLVWLRAARAHAAWRGVERIEAEDIDAVAEFVLLHRRRNSPPPAAQPPQPQSQPDKSAPSEQPQAPQGEGQWGELPAHAQHVDVRREPPRWTKKP</t>
+  </si>
+  <si>
+    <t>NZ_FOQU01000001.1</t>
+  </si>
+  <si>
+    <t>MNGSLPAFPFTALIDQQPLQQALLIAAVDPGIGGVLVSGPRGTAKSTAARALAELLPEGQFVTLPLGASEERLIGTLDLDAVLRDGAVKFSPGLLAQAHRGVLYVDEINLLPDTLVDALLDAAASGVNTVERDGVSHSHDARFVLVGTMNPEEGELRPQLLDRFGLVVELENCFDPAVRQRIVKARLAFDLDPRGFHRAYATQQSDVVQRIRAARAALSALSFDDAVHALVSRLCIEAAVDGLRADLVMLRAARALAALDGADAVTVAHVERVAASVLLHRRHADDASAEAGTSEREPQEAATASADQKTENGQHNRSQAKSDGSAGDWGYLPPQPAGIANVKTVVPLAAKKRLSHRNGAAADQSSGFRWLQGTRSRTRTRTVDGAPGTRIAWPATLAAKRHTPLRADHLRFVREASRSGELHCFALDCSASMLAGAQLALAKGLLVALFNRAARERAEAALICFGGTRADLRFGPAVPRWWNERWLKPIGGAGGTPLALGVRRAAHLLERAARRKPAQQRWLWVLSDGRSRDWPVRPAAADRIVFVDFEHAGVKLGRCAQLAHAWGALHRVPEDLIER</t>
+  </si>
+  <si>
+    <t>MNGSLPAFPFTALIDQQPLQQALLIAAVDPGIGGVLVSGPRGTAKSTAARALAELLPEGQFVTLPLGASEERLIGTLDLDAVLRDGAVKFSPGLLAQAHRGVLYVDEINLLPDTLVDALLDAAASGVNTVERDGVSHSHDARFVLVGTMNPEEGELRPQLLDRFGLVVELENCFDPAVRQRIVKARLAFDLDPRGFHRAYATQQSDVVQRIRAARAALSALSFDDAVHALVSRLCIEAAVDGLRADLVMLRAARALAALDGADAVTVAHVERVAASVLLHRRHADDASAEAGTSEREPQEAATASADQKTENGQHNRSQAKSDGSAGDWGYLPPQPAGIANVKTVVPLAAKKR</t>
+  </si>
+  <si>
+    <t>NZ_FOUO01000020.1</t>
+  </si>
+  <si>
+    <t>BM214_RS11455_fs_BM214_RS11450</t>
+  </si>
+  <si>
+    <t>MHASPRPEYPFTAIRGMPRMQTALLLAAIDPLIGGVLIEGPRGSAKTTSARALAQLLPEGAFVNLPLGCSEEQLLGSLDLEDVLQHGRTRFRPGLLARAHQGVLYVDEVNLLADGLVDLLLDVSVSGINRVERDGISHAHEARFVLVGTMNPEEGGLRPQLLDRFGLFVQLGETIPPETREAIVRARLAFETDPQGFVADHAEAQQALRQRILQARAALETLPFTDAVHARVSRLCHEAGVEGVRADLVMLRAARAHAALEGQDRIREEDMDAVQDLVLAHRRKPSPDTDPAPAGAGGEQGSGQTPPPREGAGTPEDAQGDAGEGPGDWGELPPEAAPLRTLAQVGELTPKKPLRPRQAPGRRPSRAGEGPGRQRDPDARTGGGIHWHRSLLQKGQGPLKRSHLVHRHRHGGGDVLYCLVLDCSASMLRSGRLSLAKGLLAGWLQQIYRQRAQVAVVGFSGREAWVIQAPARAGLANEHWIAPISGGGGTPMGQGLDLADRIMKRFRRRVAHAHIGVWLLTDGRVRRIPPAPVQADFCTIVDFETGRARSGGGLRIARAWDAAHCPADTFEVDAH</t>
+  </si>
+  <si>
+    <t>MHASPRPEYPFTAIRGMPRMQTALLLAAIDPLIGGVLIEGPRGSAKTTSARALAQLLPEGAFVNLPLGCSEEQLLGSLDLEDVLQHGRTRFRPGLLARAHQGVLYVDEVNLLADGLVDLLLDVSVSGINRVERDGISHAHEARFVLVGTMNPEEGGLRPQLLDRFGLFVQLGETIPPETREAIVRARLAFETDPQGFVADHAEAQQALRQRILQARAALETLPFTDAVHARVSRLCHEAGVEGVRADLVMLRAARAHAALEGQDRIREEDMDAVQDLVLAHRRKPSPDTDPAPAGAGGEQGSGQTPPPREGAGTPEDAQGDAGEGPGDWGELPPEAAPLRTLAQVGELTPKKP</t>
+  </si>
+  <si>
+    <t>NZ_FOXM01000015.1</t>
+  </si>
+  <si>
+    <t>MHEPLNFPLAAVVAADELKLALCLAAIDPAIGGVLIEGPRGMAKSTLARAVAELLDGGQLVTLPLGATEERIVGTLDLDAALGEGRTRFAPGLLARAHGGVLYVDEVNLLADHLVDLLLDVAASGVNHVERDGISHRHAARFVLIGTMNPEEGELRPQLLDRFGLAVSLGGAPLPAERAEIMRRRLAFDSDPPAFRTAWQAAQDELLARCRQARERLDAIPLDDAALEAIAARCYAAGIDGLRGDLVWLRAARAHAAWRGATAIEAQDIDAVESFVLRHRRNGEAPPEDNGARDTGGSAAQDGDAGEGQWGELPAQPVAIGERRAVPRWAKKPLSIRPPTPQGADARHREARQPARRGRAGAPGVGAPDWPRSLQRGRPRTRAELHYRSHQASAPQLWLVLVDASASTRRHGALRRAKGLLAELLEQARHQRVSLALLQADGAKPRWFCRGQRAPQAARRWLEQLGAGGGTPLPAALAEAGGWLQRRRRTHPGERQQFWLLTDGRLRELPRLEPLSCPALLIDIESGPLRLGRARALAAALGAEYRHIDALPLA</t>
+  </si>
+  <si>
+    <t>MHEPLNFPLAAVVAADELKLALCLAAIDPAIGGVLIEGPRGMAKSTLARAVAELLDGGQLVTLPLGATEERIVGTLDLDAALGEGRTRFAPGLLARAHGGVLYVDEVNLLADHLVDLLLDVAASGVNHVERDGISHRHAARFVLIGTMNPEEGELRPQLLDRFGLAVSLGGAPLPAERAEIMRRRLAFDSDPPAFRTAWQAAQDELLARCRQARERLDAIPLDDAALEAIAARCYAAGIDGLRGDLVWLRAARAHAAWRGATAIEAQDIDAVESFVLRHRRNGEAPPEDNGARDTGGSAAQDGDAGEGQWGELPAQPVAIGERRAVPRWAKKP</t>
+  </si>
+  <si>
+    <t>NZ_FQXS01000002.1</t>
+  </si>
+  <si>
+    <t>MKRSVFPFTALVGQEKMKTALLLNAVDPAIGGVLISGQKGTGKSTAVRALAHILPQIDVVQGCPYNCDPADERMMCPSCRERFRPGESLPTVSRPMPLVELPLSATEDRVIGTLHVEQILATGERRFEPGLLAAANRGILYVDEVNLLDDHLVDILLDAAASGVNLVEREGISFVHPARFMLVGTMNPEEGELRPQFLDRFGLSLTVAGESEAMQRRRVVSRRIAFDLDPEGFVAGYADDEELLTALVDRARARLPQVMVSDEMLGRAVALAQEVKAQGHRADIGIVKTARALAAFLEEDEVRFDHIRDAARFVLPHRITTVALATAEQIEEKLEEALRRVADDRETADDVQPSTGQIEEWEDLPMQVPGSMAASNVGMLFTFLAEKKKSFSTRMNLTCLADVDLDGMVLAGGGRGRAKTATVTGSAGRYTRAEPVGERERGFDLAADATVRAALLRQQGLTADGRLTLTPGDLRKKIYRRPRRTLVVFVVDSSDSMGDDGTSNRIRAAKGAVLAILGKVYQKRHRVGLVVFREESATLVLPPTTSLALAQRQLKSLPTGGATPFADGLMKAWQLIRTERLKDPESRPLLVVLSDGEANVPYDPACPAGEVQSELLAIGSRIGRDRIASLVIDTRPLSSPAPEMRRLAEALGGTYEHISRLRTGGMVRAVVGFS</t>
+  </si>
+  <si>
+    <t>MKRSVFPFTALVGQEKMKTALLLNAVDPAIGGVLISGQKGTGKSTAVRALAHILPQIDVVQGCPYNCDPADERMMCPSCRERFRPGESLPTVSRPMPLVELPLSATEDRVIGTLHVEQILATGERRFEPGLLAAANRGILYVDEVNLLDDHLVDILLDAAASGVNLVEREGISFVHPARFMLVGTMNPEEGELRPQFLDRFGLSLTVAGESEAMQRRRVVSRRIAFDLDPEGFVAGYADDEELLTALVDRARARLPQVMVSDEMLGRAVALAQEVKAQGHRADIGIVKTARALAAFLEEDEVRFDHIRDAARFVLPHRITTVALATAEQIEEKLEEALRRVADDRETADDVQPSTGQIEEWEDLPMQVPGSMAASNVGMLFTFLAEKKKSFSTRMN</t>
+  </si>
+  <si>
+    <t>NZ_FQYS01000003.1</t>
+  </si>
+  <si>
+    <t>MTDTPQFPLAAIVGADSLKLALCLNAIDPGIGGVLIEGPRGMAKSTLARGVTALMPGGSFVTLPLGASEERITGTLDLNAALGEKRAAFSPGVLAKADGGVLYVDEVNLLPDHLVDLLLDVAASGVNTVERDGISHRHPARFVLIGTMNPEEGELRPQLLDRFGFNVALNAHPAPAERAEIMRRRLAFDLDPPGFIASWAGSQADLVERCQAARSRLAGVALDDLSLSRIAERCFAAAVDGMRADLVWLRAARAHAAWRGNEMITEDDIDAVEEFALRHRRRQQPPSELPPPPSSDRPVSEPSSSHSKSEGQWGELPPQATAIGEKRSGEGWPKKRLSIRPRVTQVADARPLPGKASSGRHGASRTGEAGAVAWVPTLLRGLPRREADLIRQPRSQLPREHWLFIVDASASMRRHGALVQAKGVLLGFLEQAYRARASVAVLGATGVQPHWLAQARRASQQVPGWLEDLGAGGGTPLLESLEHAHEWLKQHQCRLGNEPVSVVVMTDGRVRAWTSLPRLDASVLVIDTERAPVRVGRARQLAADLQAVYCHVDELPIGKLKHPLR</t>
+  </si>
+  <si>
+    <t>MTDTPQFPLAAIVGADSLKLALCLNAIDPGIGGVLIEGPRGMAKSTLARGVTALMPGGSFVTLPLGASEERITGTLDLNAALGEKRAAFSPGVLAKADGGVLYVDEVNLLPDHLVDLLLDVAASGVNTVERDGISHRHPARFVLIGTMNPEEGELRPQLLDRFGFNVALNAHPAPAERAEIMRRRLAFDLDPPGFIASWAGSQADLVERCQAARSRLAGVALDDLSLSRIAERCFAAAVDGMRADLVWLRAARAHAAWRGNEMITEDDIDAVEEFALRHRRRQQPPSELPPPPSSDRPVSEPSSSHSKSEGQWGELPPQATAIGEKRSGEGWPKKR</t>
+  </si>
+  <si>
+    <t>NZ_FQZT01000006.1</t>
+  </si>
+  <si>
+    <t>MQNFPFPLSAIVGQDAMKAALLLNAVDPSIGGVLIRGQKGTGKSTAARALAALLPAIEVVAGCPYQCDPGNIEKLHDGCREKLEKGEQLERTKRPMPVVELPLSASEDRVVGSVQLEHVLKTGQKRFEPGLLAAANRGILYVDEVNLLEDHLVDLLLDAAASGVNRVEREGLCVTHPSRFMLIGTMNPEEGELRPQFLDRFGLVVNVEGISDPHQRRQLIENRIAYEQNPQDFVARWQQEEHFLAAQVQQAQRNLNQVVIPEAAYDLVVKLAIELQVHGHRADIALLKVARALAALLGKKAVSVAEVKEAAAFVLPHRLPGGTLLNSEAARKNLDDALVRVLEGKPEQVSLDDQDPLDDLDFMLVDYEFPGSAAAGSMLFQTLKKKLHSESSISTTSTASPQSISSSLSFSRNRSGRRRSKGRGRAGRHLRSLPLRANQPDAIIDLPATLRASLIRGSEVELRDLQAKQFLQRQRALIVFVIDASESMGQGSLERMKAAKGAILGLLTAAYQNRDQVALVSFGGERAQVLLRPTSSVLLAQQQLRKLPLGGATPFADGLWQGWQLIRTQRQKQPSLQPLLVIVSDGEANLPLSPGGNVYDELFGLALQVARDQIQSVVIDSRGGVGNEKLQQLARRLGGRYTQIRDLHAGRLIEAVQTLER</t>
+  </si>
+  <si>
+    <t>MQNFPFPLSAIVGQDAMKAALLLNAVDPSIGGVLIRGQKGTGKSTAARALAALLPAIEVVAGCPYQCDPGNIEKLHDGCREKLEKGEQLERTKRPMPVVELPLSASEDRVVGSVQLEHVLKTGQKRFEPGLLAAANRGILYVDEVNLLEDHLVDLLLDAAASGVNRVEREGLCVTHPSRFMLIGTMNPEEGELRPQFLDRFGLVVNVEGISDPHQRRQLIENRIAYEQNPQDFVARWQQEEHFLAAQVQQAQRNLNQVVIPEAAYDLVVKLAIELQVHGHRADIALLKVARALAALLGKKAVSVAEVKEAAAFVLPHRLPGGTLLNSEAARKNLDDALVRVLEGKPEQVSLDDQDPLDDLDFMLVDYEFPGSAAAGSMLFQTLKKKLHSESSISTTSTASPQSISSS</t>
+  </si>
+  <si>
+    <t>NZ_FRCX01000004.1</t>
+  </si>
+  <si>
+    <t>MTVVQAAAPAVFPFTALVGQSELQRALLLTAVDPGIGGVLISGPRGTAKSTAARALAELLPGAKEAAPFVSLPLTASLEQLVGSLNVEDVLRDGKVRLSPGLVARAHGGVLYVDEVNLLPDALVDALLDVAASGVNIVERDGISQQHAARFVLVGTMNPEEGELRPQLLDRFGLAVTLENPRDPVPRQAILRARLQFDEDAQALIGAHTPQLVQLGEQLTRARAALAGLTWPDAVLAHAAQKALDAGVDGVRADLVMLRAARALAALEGRSAVTTADVDAVADLALAHRRMESAATPPGASQRPQPAPSNGNQHQPAPDALAEPGREPEGDWGALPPQPVATTRVVSTGAWPAKKALSHPGAQPRTGESGQRWRTSPVSPAPAVRKAATHAPPSSSAIAWVRTLVAKGPQPLRREHLRRQPAHAVVPALHLILLDTSGSMRQNGRLALAKGYAARLIEQAARAGDDVGMLSFGGQGVEVTVPPGPARAAGAMRARECGGGGGTPLVQALAVAGQLLAVSARRGRRETVLWLLTDGRTLEQPGAPAAAGHIVIIDFDHRDRPLGRCAAWAERWPAEHRLA</t>
+  </si>
+  <si>
+    <t>MTVVQAAAPAVFPFTALVGQSELQRALLLTAVDPGIGGVLISGPRGTAKSTAARALAELLPGAKEAAPFVSLPLTASLEQLVGSLNVEDVLRDGKVRLSPGLVARAHGGVLYVDEVNLLPDALVDALLDVAASGVNIVERDGISQQHAARFVLVGTMNPEEGELRPQLLDRFGLAVTLENPRDPVPRQAILRARLQFDEDAQALIGAHTPQLVQLGEQLTRARAALAGLTWPDAVLAHAAQKALDAGVDGVRADLVMLRAARALAALEGRSAVTTADVDAVADLALAHRRMESAATPPGASQRPQPAPSNGNQHQPAPDALAEPGREPEGDWGALPPQPVATTRVVSTGAWPAKKA</t>
+  </si>
+  <si>
+    <t>NZ_FWWS01000039.1</t>
+  </si>
+  <si>
+    <t>MANTPYPFTAVVGQDQLKLALILTAISPRIGGVVVRGEKGTAKTTTARGFAALMPQGQLVNLPLGATEDRVVGSLDLEKVLTTGQAEFRPGLLSEANGGILYVDEVNLLSDHLVDVLLDAAATGRVTVERDSISHTEEARFVLVGTMNPEEGELRPQLLDRFGLAVDVVASHDVAQRVGVIQRRMAFEADPEAFVAKFAEPEAAVERALVRAQEIVQSLTLSATNLKRIATVCAGFDVDGMRADLVIARAAAAHAAWRLATASDADGSDNLIAEVTDTDIRAAAELALPHRMRRNPFDSPELDQDRLDELMNEPLPEDDPEPDPEEEDGDPGRSDSGEGDGDAADDSESHGNDENTTESDSGNREQQSPATPAPDRETSATAEPSSSTGGVTDAEPARQPNGAAPVAKKEDRAVQGAPFRSRLVSKTGVGEGGPLGRRSRSYSRRGEAVRPASPGRGHGIHLLGTLLAAAERGATVDSRGIEFEPRDLRGAIRLGTEANLVVFVVDASGSVAAKDRLKAVTGACISILQDAYRRRDRVAVISVRGKKATVLVPPTRSVDIAVSRLSQARVGGKTPLASGLEETYKLIDREVFKSSGLRSIAVVLTDGRATDGLKRVNEVAGALASRKDVGCVVIDCEAGRGRVRLNLAADVARALGAPVLSISDFKEAGAKSLSV</t>
+  </si>
+  <si>
+    <t>MANTPYPFTAVVGQDQLKLALILTAISPRIGGVVVRGEKGTAKTTTARGFAALMPQGQLVNLPLGATEDRVVGSLDLEKVLTTGQAEFRPGLLSEANGGILYVDEVNLLSDHLVDVLLDAAATGRVTVERDSISHTEEARFVLVGTMNPEEGELRPQLLDRFGLAVDVVASHDVAQRVGVIQRRMAFEADPEAFVAKFAEPEAAVERALVRAQEIVQSLTLSATNLKRIATVCAGFDVDGMRADLVIARAAAAHAAWRLATASDADGSDNLIAEVTDTDIRAAAELALPHRMRRNPFDSPELDQDRLDELMNEPLPEDDPEPDPEEEDGDPGRSDSGEGDGDAADDSESHGNDENTTESDSGNREQQSPATPAPDRETSATAEPSSSTGGVTDAEPARQPNGAAPVAKKEDRAVQGAPFRS</t>
+  </si>
+  <si>
+    <t>NZ_FXAH01000016.1</t>
+  </si>
+  <si>
+    <t>MNDAYDARATSRAELPKPYPFSALIGQEPLQQALLLAAIDPGIGGVLVSGPRGTAKSTAARALAELLAEGRFVTLPLGASEERLVGTLDLDEVLRGGTVRFSPGLLAQAHEGVLYVDEVNLLTDALVDALLDAAASGVNVVERDGVSHRHEARFVLIGTMNPEEGELRPQLLDRFGMMVELANCFDPLVRQRIVKARLAFDADPDAFRAACASEQQALAKRIERARAALSSLAFGDDVHARVSTHCIEAAVDGLRADLVMLRAARALAAFEGAESITTAHVDRVAEAVLRHRRREQPEAPAQEPAPSRASDDRAASADRERKEERRPGERDSGRTGASGAGQDGTGDDWGYLPPEPVGIAAVKNVVPFDAKKRLSHRKGTAAPAPSGFRWRRGADSFARRAPAGMPSARIAWLPTLARKRDKPLSAGHLRFAAMESRAGVLHCFLLDCSASMLGDEGLKTAKGLLLASFDRAAALREQAALICFGGAGTALRFGPAVPRWWNERWLRPIGAGGGTPFSRGIAAASQLLERARARQPQLQCVLWIFTDGRSSEQPVRPKSADRIVFVDCERGRLRLERCRTLAAAWGAECVGVDEIIGAPSASY</t>
+  </si>
+  <si>
+    <t>MNDAYDARATSRAELPKPYPFSALIGQEPLQQALLLAAIDPGIGGVLVSGPRGTAKSTAARALAELLAEGRFVTLPLGASEERLVGTLDLDEVLRGGTVRFSPGLLAQAHEGVLYVDEVNLLTDALVDALLDAAASGVNVVERDGVSHRHEARFVLIGTMNPEEGELRPQLLDRFGMMVELANCFDPLVRQRIVKARLAFDADPDAFRAACASEQQALAKRIERARAALSSLAFGDDVHARVSTHCIEAAVDGLRADLVMLRAARALAAFEGAESITTAHVDRVAEAVLRHRRREQPEAPAQEPAPSRASDDRAASADRERKEERRPGERDSGRTGASGAGQDGTGDDWGYLPPEPVGIAAVKNVVPFDAKKR</t>
+  </si>
+  <si>
+    <t>NZ_LT859958.1</t>
+  </si>
+  <si>
+    <t>MRTIYPFTAIVGQQRMSRALILNAIDTRIGGVLIRGERGTGKSTAARALAALLPPVQVVQNCRFGCDPQKPISWCTECRERFEADENGLPVETRQTPFINLPISATEDRVVGTLDIEKAIQKGERHFEPGVLAAANRGLLYIDEVNLLDDHVVDVLLDSAAMGMNIVEREGISFAHPARFILVGTMNPEEGDLRPQLLDRFALSVEIRGILDPRQRVQIMERNLAFEADPEAFRQKWLPREQELSEKIARARQMLDKVGYTSRDLLVIADLTAKMQVDGHRADLVILKASRAHAAFEGRDAINPYDIALAAELALPHRVKAGPFRHSEMGITQLQEHIEELVGSASEGAPVDQQDRGDESQTSQKKSLSPPISKLAKNPLDPSPVAPARQDIFSDNTAHWWEGGKSVKPGETFAPRRLDTPLDEIMRKQSGRRSQTQTDRKRGRYIQARPANGKADDLAFDATLRAAAPFQKAREEGKNNEVAFSVRREDYQRKVRVRRTANLILFLVDASWSMAVAERMAATKGAILSLLTDAYQRRDRVGLIVFQKDRATLVLPPTNSVLLAQQALADIPVGGKTPLSAGLQMAYEVLKREKILHPDVYPLLIILTDGAGNVALGSGSPEKEAHLLAEQIANEDLRSVVINMEHEAFDQGLAHALADHLQATCYTLDELRSDTLYRTVQKEIHSGVPGAQPGKASR</t>
+  </si>
+  <si>
+    <t>MRTIYPFTAIVGQQRMSRALILNAIDTRIGGVLIRGERGTGKSTAARALAALLPPVQVVQNCRFGCDPQKPISWCTECRERFEADENGLPVETRQTPFINLPISATEDRVVGTLDIEKAIQKGERHFEPGVLAAANRGLLYIDEVNLLDDHVVDVLLDSAAMGMNIVEREGISFAHPARFILVGTMNPEEGDLRPQLLDRFALSVEIRGILDPRQRVQIMERNLAFEADPEAFRQKWLPREQELSEKIARARQMLDKVGYTSRDLLVIADLTAKMQVDGHRADLVILKASRAHAAFEGRDAINPYDIALAAELALPHRVKAGPFRHSEMGITQLQEHIEELVGSASEGAPVDQQDRGDESQTSQKKSLSPPISKLAKNPLDPSP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -16148,6 +17810,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -16174,10 +17844,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16194,7 +17866,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="suppl_data_orgs" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="suppl_data_orgs" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="suppl_data_fs_chlD" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16462,7 +18138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
@@ -62394,6 +64070,5473 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J170"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" customWidth="1"/>
+    <col min="10" max="10" width="33.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5335</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5336</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5337</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5338</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5339</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5340</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5341</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5342</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>5343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5814</v>
+      </c>
+      <c r="C2">
+        <v>461792</v>
+      </c>
+      <c r="D2">
+        <v>463714</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5488</v>
+      </c>
+      <c r="H2">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5815</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5691</v>
+      </c>
+      <c r="C3">
+        <v>36078</v>
+      </c>
+      <c r="D3">
+        <v>37748</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H3">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5692</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>5693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5667</v>
+      </c>
+      <c r="C4">
+        <v>579</v>
+      </c>
+      <c r="D4">
+        <v>2639</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5358</v>
+      </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>5668</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>5669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5442</v>
+      </c>
+      <c r="C5">
+        <v>578685</v>
+      </c>
+      <c r="D5">
+        <v>580769</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>5443</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>5444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5623</v>
+      </c>
+      <c r="C6">
+        <v>70905</v>
+      </c>
+      <c r="D6">
+        <v>72599</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>5624</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>5625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5697</v>
+      </c>
+      <c r="C7">
+        <v>150378</v>
+      </c>
+      <c r="D7">
+        <v>152462</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>5358</v>
+      </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>5698</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>5699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5880</v>
+      </c>
+      <c r="C8">
+        <v>190522</v>
+      </c>
+      <c r="D8">
+        <v>192618</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>5881</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>5882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5710</v>
+      </c>
+      <c r="C9">
+        <v>2791772</v>
+      </c>
+      <c r="D9">
+        <v>2793526</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>5711</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>5712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5648</v>
+      </c>
+      <c r="C10">
+        <v>3556268</v>
+      </c>
+      <c r="D10">
+        <v>3558052</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>5649</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5376</v>
+      </c>
+      <c r="C11">
+        <v>2081457</v>
+      </c>
+      <c r="D11">
+        <v>2083379</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>5358</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>5377</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>5378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5645</v>
+      </c>
+      <c r="C12">
+        <v>68965</v>
+      </c>
+      <c r="D12">
+        <v>70713</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>5488</v>
+      </c>
+      <c r="H12">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>5646</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>5647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5728</v>
+      </c>
+      <c r="C13">
+        <v>506401</v>
+      </c>
+      <c r="D13">
+        <v>508089</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H13">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>5729</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>5730</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5573</v>
+      </c>
+      <c r="C14">
+        <v>567</v>
+      </c>
+      <c r="D14">
+        <v>2261</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H14">
+        <v>-1</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>5574</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>5575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5731</v>
+      </c>
+      <c r="C15">
+        <v>78785</v>
+      </c>
+      <c r="D15">
+        <v>80470</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H15">
+        <v>-1</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>5732</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>5733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5725</v>
+      </c>
+      <c r="C16">
+        <v>629945</v>
+      </c>
+      <c r="D16">
+        <v>631651</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H16">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>5726</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>5727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5570</v>
+      </c>
+      <c r="C17">
+        <v>109268</v>
+      </c>
+      <c r="D17">
+        <v>110965</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H17">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>5571</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>5572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5477</v>
+      </c>
+      <c r="C18">
+        <v>2955109</v>
+      </c>
+      <c r="D18">
+        <v>2957178</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H18">
+        <v>-1</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>5478</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>5479</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5811</v>
+      </c>
+      <c r="C19">
+        <v>164561</v>
+      </c>
+      <c r="D19">
+        <v>166267</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>5495</v>
+      </c>
+      <c r="H19">
+        <v>-1</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>5812</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>5813</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5639</v>
+      </c>
+      <c r="C20">
+        <v>2052714</v>
+      </c>
+      <c r="D20">
+        <v>2054315</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H20">
+        <v>-1</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>5640</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>5641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5536</v>
+      </c>
+      <c r="C21">
+        <v>54483</v>
+      </c>
+      <c r="D21">
+        <v>56414</v>
+      </c>
+      <c r="E21">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>5488</v>
+      </c>
+      <c r="H21">
+        <v>-1</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>5537</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>5538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5799</v>
+      </c>
+      <c r="C22">
+        <v>1251983</v>
+      </c>
+      <c r="D22">
+        <v>1254010</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>5495</v>
+      </c>
+      <c r="H22">
+        <v>-1</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>5800</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>5801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5722</v>
+      </c>
+      <c r="C23">
+        <v>271442</v>
+      </c>
+      <c r="D23">
+        <v>273265</v>
+      </c>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>5488</v>
+      </c>
+      <c r="H23">
+        <v>-1</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>5723</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>5724</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5716</v>
+      </c>
+      <c r="C24">
+        <v>114680</v>
+      </c>
+      <c r="D24">
+        <v>116500</v>
+      </c>
+      <c r="E24">
+        <v>-1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H24">
+        <v>-1</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>5717</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>5718</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5582</v>
+      </c>
+      <c r="C25">
+        <v>2509944</v>
+      </c>
+      <c r="D25">
+        <v>2511920</v>
+      </c>
+      <c r="E25">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H25">
+        <v>-1</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>5583</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>5584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5777</v>
+      </c>
+      <c r="C26">
+        <v>1791018</v>
+      </c>
+      <c r="D26">
+        <v>1792861</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>5778</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>5779</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5554</v>
+      </c>
+      <c r="C27">
+        <v>1213684</v>
+      </c>
+      <c r="D27">
+        <v>1215461</v>
+      </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>5555</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>5556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5494</v>
+      </c>
+      <c r="C28">
+        <v>1802836</v>
+      </c>
+      <c r="D28">
+        <v>1804709</v>
+      </c>
+      <c r="E28">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>5495</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>5496</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>5497</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5501</v>
+      </c>
+      <c r="C29">
+        <v>6999</v>
+      </c>
+      <c r="D29">
+        <v>8863</v>
+      </c>
+      <c r="E29">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>5495</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>5502</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>5503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5759</v>
+      </c>
+      <c r="C30">
+        <v>1848771</v>
+      </c>
+      <c r="D30">
+        <v>1850644</v>
+      </c>
+      <c r="E30">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>5488</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>5760</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="C31">
+        <v>1834967</v>
+      </c>
+      <c r="D31">
+        <v>1836840</v>
+      </c>
+      <c r="E31">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>5488</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>5689</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>5690</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5713</v>
+      </c>
+      <c r="C32">
+        <v>1505386</v>
+      </c>
+      <c r="D32">
+        <v>1507238</v>
+      </c>
+      <c r="E32">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>5714</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>5715</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5491</v>
+      </c>
+      <c r="C33">
+        <v>445840</v>
+      </c>
+      <c r="D33">
+        <v>447650</v>
+      </c>
+      <c r="E33">
+        <v>-1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>5492</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>5493</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>5369</v>
+      </c>
+      <c r="C34">
+        <v>1997866</v>
+      </c>
+      <c r="D34">
+        <v>1999739</v>
+      </c>
+      <c r="E34">
+        <v>-1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>5370</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>5371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>5663</v>
+      </c>
+      <c r="C35">
+        <v>1592537</v>
+      </c>
+      <c r="D35">
+        <v>1594329</v>
+      </c>
+      <c r="E35">
+        <v>-1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>5664</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>5665</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>5666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>5533</v>
+      </c>
+      <c r="C36">
+        <v>761959</v>
+      </c>
+      <c r="D36">
+        <v>763757</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>5534</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>5535</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>5599</v>
+      </c>
+      <c r="C37">
+        <v>60967</v>
+      </c>
+      <c r="D37">
+        <v>62798</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>5600</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>5601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>5874</v>
+      </c>
+      <c r="C38">
+        <v>105276</v>
+      </c>
+      <c r="D38">
+        <v>107305</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>5875</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>5876</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>5372</v>
+      </c>
+      <c r="C39">
+        <v>2108385</v>
+      </c>
+      <c r="D39">
+        <v>2110255</v>
+      </c>
+      <c r="E39">
+        <v>-1</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>5373</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>5374</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>5375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>5557</v>
+      </c>
+      <c r="C40">
+        <v>2294405</v>
+      </c>
+      <c r="D40">
+        <v>2296281</v>
+      </c>
+      <c r="E40">
+        <v>-1</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>5558</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>5559</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>5676</v>
+      </c>
+      <c r="C41">
+        <v>28857</v>
+      </c>
+      <c r="D41">
+        <v>30715</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>5488</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>5677</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>5678</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5802</v>
+      </c>
+      <c r="C42">
+        <v>373884</v>
+      </c>
+      <c r="D42">
+        <v>375820</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>5803</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>5804</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>4926</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>5398</v>
+      </c>
+      <c r="C43">
+        <v>1365731</v>
+      </c>
+      <c r="D43">
+        <v>1367688</v>
+      </c>
+      <c r="E43">
+        <v>-1</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>5399</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>5400</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>5401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>5657</v>
+      </c>
+      <c r="C44">
+        <v>1369792</v>
+      </c>
+      <c r="D44">
+        <v>1371611</v>
+      </c>
+      <c r="E44">
+        <v>-1</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>5658</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>5659</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>5685</v>
+      </c>
+      <c r="C45">
+        <v>1185679</v>
+      </c>
+      <c r="D45">
+        <v>1187621</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>5664</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>5686</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>5687</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>5425</v>
+      </c>
+      <c r="C46">
+        <v>369502</v>
+      </c>
+      <c r="D46">
+        <v>371351</v>
+      </c>
+      <c r="E46">
+        <v>-1</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>5426</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>5660</v>
+      </c>
+      <c r="C47">
+        <v>2023904</v>
+      </c>
+      <c r="D47">
+        <v>2025735</v>
+      </c>
+      <c r="E47">
+        <v>-1</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>5661</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>5662</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>5418</v>
+      </c>
+      <c r="C48">
+        <v>1410267</v>
+      </c>
+      <c r="D48">
+        <v>1412107</v>
+      </c>
+      <c r="E48">
+        <v>-1</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>5419</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>5513</v>
+      </c>
+      <c r="C49">
+        <v>942370</v>
+      </c>
+      <c r="D49">
+        <v>944387</v>
+      </c>
+      <c r="E49">
+        <v>-1</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>5495</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>5514</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>5515</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>5780</v>
+      </c>
+      <c r="C50">
+        <v>1143074</v>
+      </c>
+      <c r="D50">
+        <v>1144971</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>5781</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>5782</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>5530</v>
+      </c>
+      <c r="C51">
+        <v>4645</v>
+      </c>
+      <c r="D51">
+        <v>6527</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>5531</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>5532</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>5551</v>
+      </c>
+      <c r="C52">
+        <v>1835455</v>
+      </c>
+      <c r="D52">
+        <v>1837307</v>
+      </c>
+      <c r="E52">
+        <v>-1</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>5552</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>5553</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>5734</v>
+      </c>
+      <c r="C53">
+        <v>156542</v>
+      </c>
+      <c r="D53">
+        <v>158385</v>
+      </c>
+      <c r="E53">
+        <v>-1</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>5735</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>5736</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>5636</v>
+      </c>
+      <c r="C54">
+        <v>2639001</v>
+      </c>
+      <c r="D54">
+        <v>2640740</v>
+      </c>
+      <c r="E54">
+        <v>-1</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H54">
+        <v>-1</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>5637</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>5638</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>5654</v>
+      </c>
+      <c r="C55">
+        <v>56961</v>
+      </c>
+      <c r="D55">
+        <v>58718</v>
+      </c>
+      <c r="E55">
+        <v>-1</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H55">
+        <v>-1</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>5655</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>5656</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>5548</v>
+      </c>
+      <c r="C56">
+        <v>1750114</v>
+      </c>
+      <c r="D56">
+        <v>1752114</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>5358</v>
+      </c>
+      <c r="H56">
+        <v>-1</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>5549</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>5351</v>
+      </c>
+      <c r="C57">
+        <v>6395007</v>
+      </c>
+      <c r="D57">
+        <v>6396839</v>
+      </c>
+      <c r="E57">
+        <v>-1</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H57">
+        <v>-1</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>5352</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>5353</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>5523</v>
+      </c>
+      <c r="C58">
+        <v>37549</v>
+      </c>
+      <c r="D58">
+        <v>39528</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>5495</v>
+      </c>
+      <c r="H58">
+        <v>-1</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>5524</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>5525</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>5438</v>
+      </c>
+      <c r="C59">
+        <v>3274370</v>
+      </c>
+      <c r="D59">
+        <v>3276349</v>
+      </c>
+      <c r="E59">
+        <v>-1</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>5439</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H59">
+        <v>-1</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>5440</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>5441</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>5862</v>
+      </c>
+      <c r="C60">
+        <v>211629</v>
+      </c>
+      <c r="D60">
+        <v>213653</v>
+      </c>
+      <c r="E60">
+        <v>-1</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>2108</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>5495</v>
+      </c>
+      <c r="H60">
+        <v>-1</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>5863</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>5864</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>5520</v>
+      </c>
+      <c r="C61">
+        <v>1159616</v>
+      </c>
+      <c r="D61">
+        <v>1161652</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>5495</v>
+      </c>
+      <c r="H61">
+        <v>-1</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>5521</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>5522</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>5842</v>
+      </c>
+      <c r="C62">
+        <v>37284</v>
+      </c>
+      <c r="D62">
+        <v>39281</v>
+      </c>
+      <c r="E62">
+        <v>-1</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>5843</v>
+      </c>
+      <c r="H62">
+        <v>-1</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>5844</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>5845</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>5871</v>
+      </c>
+      <c r="C63">
+        <v>549463</v>
+      </c>
+      <c r="D63">
+        <v>551202</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H63">
+        <v>-1</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>5872</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>5873</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>5560</v>
+      </c>
+      <c r="C64">
+        <v>25890</v>
+      </c>
+      <c r="D64">
+        <v>27656</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>5561</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H64">
+        <v>-1</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>5562</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>5563</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>5838</v>
+      </c>
+      <c r="C65">
+        <v>21077</v>
+      </c>
+      <c r="D65">
+        <v>22843</v>
+      </c>
+      <c r="E65">
+        <v>-1</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>5839</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H65">
+        <v>-1</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>5840</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>5841</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>5855</v>
+      </c>
+      <c r="C66">
+        <v>24129</v>
+      </c>
+      <c r="D66">
+        <v>25856</v>
+      </c>
+      <c r="E66">
+        <v>-1</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>5856</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H66">
+        <v>-1</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>5857</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>5858</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>5682</v>
+      </c>
+      <c r="C67">
+        <v>2226857</v>
+      </c>
+      <c r="D67">
+        <v>2228890</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>5358</v>
+      </c>
+      <c r="H67">
+        <v>-1</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>5683</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>5684</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>5460</v>
+      </c>
+      <c r="C68">
+        <v>1387390</v>
+      </c>
+      <c r="D68">
+        <v>1389120</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>5358</v>
+      </c>
+      <c r="H68">
+        <v>-1</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>5461</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>5462</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>5626</v>
+      </c>
+      <c r="C69">
+        <v>542758</v>
+      </c>
+      <c r="D69">
+        <v>544743</v>
+      </c>
+      <c r="E69">
+        <v>-1</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>5627</v>
+      </c>
+      <c r="H69">
+        <v>-1</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>5628</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>5629</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>5633</v>
+      </c>
+      <c r="C70">
+        <v>1700366</v>
+      </c>
+      <c r="D70">
+        <v>1702363</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>5358</v>
+      </c>
+      <c r="H70">
+        <v>-1</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>5634</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>5635</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>5805</v>
+      </c>
+      <c r="C71">
+        <v>1980259</v>
+      </c>
+      <c r="D71">
+        <v>1982151</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H71">
+        <v>-1</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>5806</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>5807</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>5526</v>
+      </c>
+      <c r="C72">
+        <v>441680</v>
+      </c>
+      <c r="D72">
+        <v>443803</v>
+      </c>
+      <c r="E72">
+        <v>-1</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>5527</v>
+      </c>
+      <c r="H72">
+        <v>-1</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>5528</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>5529</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>5704</v>
+      </c>
+      <c r="C73">
+        <v>94399</v>
+      </c>
+      <c r="D73">
+        <v>96468</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>5358</v>
+      </c>
+      <c r="H73">
+        <v>-1</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>5705</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>5706</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>5737</v>
+      </c>
+      <c r="C74">
+        <v>71723</v>
+      </c>
+      <c r="D74">
+        <v>73513</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H74">
+        <v>-1</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>5738</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>5739</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>5445</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>1891</v>
+      </c>
+      <c r="E75">
+        <v>-1</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H75">
+        <v>-1</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>5446</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>5447</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>5768</v>
+      </c>
+      <c r="C76">
+        <v>4500108</v>
+      </c>
+      <c r="D76">
+        <v>4502027</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>5245</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>5465</v>
+      </c>
+      <c r="H76">
+        <v>-1</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>5769</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>5770</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>5673</v>
+      </c>
+      <c r="C77">
+        <v>64528</v>
+      </c>
+      <c r="D77">
+        <v>66612</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>2659</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H77">
+        <v>-1</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>5674</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>5675</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>5694</v>
+      </c>
+      <c r="C78">
+        <v>151917</v>
+      </c>
+      <c r="D78">
+        <v>153989</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>2673</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>5358</v>
+      </c>
+      <c r="H78">
+        <v>-1</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>5695</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>5696</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>5670</v>
+      </c>
+      <c r="C79">
+        <v>1301184</v>
+      </c>
+      <c r="D79">
+        <v>1303283</v>
+      </c>
+      <c r="E79">
+        <v>-1</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>5358</v>
+      </c>
+      <c r="H79">
+        <v>-1</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>5671</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>5672</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>5868</v>
+      </c>
+      <c r="C80">
+        <v>174509</v>
+      </c>
+      <c r="D80">
+        <v>176494</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>5495</v>
+      </c>
+      <c r="H80">
+        <v>-1</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>5869</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>5870</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>5608</v>
+      </c>
+      <c r="C81">
+        <v>1881209</v>
+      </c>
+      <c r="D81">
+        <v>1883143</v>
+      </c>
+      <c r="E81">
+        <v>-1</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H81">
+        <v>-1</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>5609</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>5484</v>
+      </c>
+      <c r="C82">
+        <v>90345</v>
+      </c>
+      <c r="D82">
+        <v>92300</v>
+      </c>
+      <c r="E82">
+        <v>-1</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>2856</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H82">
+        <v>-1</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>5485</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>5486</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>5542</v>
+      </c>
+      <c r="C83">
+        <v>1751172</v>
+      </c>
+      <c r="D83">
+        <v>1753076</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>5495</v>
+      </c>
+      <c r="H83">
+        <v>-1</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>5544</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>5545</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>5542</v>
+      </c>
+      <c r="C84">
+        <v>1754014</v>
+      </c>
+      <c r="D84">
+        <v>1755855</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>5546</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>5495</v>
+      </c>
+      <c r="H84">
+        <v>-1</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>5547</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>5750</v>
+      </c>
+      <c r="C85">
+        <v>2835</v>
+      </c>
+      <c r="D85">
+        <v>5171</v>
+      </c>
+      <c r="E85">
+        <v>-1</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>5751</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>5752</v>
+      </c>
+      <c r="H85">
+        <v>-1</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>5753</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>5754</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>5755</v>
+      </c>
+      <c r="C86">
+        <v>19730</v>
+      </c>
+      <c r="D86">
+        <v>21841</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>5756</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>5527</v>
+      </c>
+      <c r="H86">
+        <v>-1</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>5757</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>5758</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>5579</v>
+      </c>
+      <c r="C87">
+        <v>994617</v>
+      </c>
+      <c r="D87">
+        <v>996671</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>5488</v>
+      </c>
+      <c r="H87">
+        <v>-1</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>5580</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>5581</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>5348</v>
+      </c>
+      <c r="C88">
+        <v>1121859</v>
+      </c>
+      <c r="D88">
+        <v>1123904</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H88">
+        <v>-1</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>5349</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>5412</v>
+      </c>
+      <c r="C89">
+        <v>121791</v>
+      </c>
+      <c r="D89">
+        <v>123683</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>2875</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H89">
+        <v>-1</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>5413</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>5409</v>
+      </c>
+      <c r="C90">
+        <v>841428</v>
+      </c>
+      <c r="D90">
+        <v>843473</v>
+      </c>
+      <c r="E90">
+        <v>-1</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H90">
+        <v>-1</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>5410</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>5344</v>
+      </c>
+      <c r="C91">
+        <v>1223189</v>
+      </c>
+      <c r="D91">
+        <v>1225228</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H91">
+        <v>-1</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>5346</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>5347</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>5498</v>
+      </c>
+      <c r="C92">
+        <v>715353</v>
+      </c>
+      <c r="D92">
+        <v>717278</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H92">
+        <v>-1</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>5499</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>5406</v>
+      </c>
+      <c r="C93">
+        <v>116824</v>
+      </c>
+      <c r="D93">
+        <v>118872</v>
+      </c>
+      <c r="E93">
+        <v>-1</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>2890</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H93">
+        <v>-1</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>5407</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>5471</v>
+      </c>
+      <c r="C94">
+        <v>1636673</v>
+      </c>
+      <c r="D94">
+        <v>1638643</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>5257</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>5465</v>
+      </c>
+      <c r="H94">
+        <v>-1</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>5472</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>5473</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>5388</v>
+      </c>
+      <c r="C95">
+        <v>114124</v>
+      </c>
+      <c r="D95">
+        <v>116241</v>
+      </c>
+      <c r="E95">
+        <v>-1</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H95">
+        <v>-1</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>5454</v>
+      </c>
+      <c r="C96">
+        <v>774217</v>
+      </c>
+      <c r="D96">
+        <v>776154</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H96">
+        <v>-1</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>5455</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>5456</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>5385</v>
+      </c>
+      <c r="C97">
+        <v>134609</v>
+      </c>
+      <c r="D97">
+        <v>136531</v>
+      </c>
+      <c r="E97">
+        <v>-1</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H97">
+        <v>-1</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>5386</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>5354</v>
+      </c>
+      <c r="C98">
+        <v>754970</v>
+      </c>
+      <c r="D98">
+        <v>757096</v>
+      </c>
+      <c r="E98">
+        <v>-1</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H98">
+        <v>-1</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>5355</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>5356</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>5576</v>
+      </c>
+      <c r="C99">
+        <v>103618</v>
+      </c>
+      <c r="D99">
+        <v>105618</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>5358</v>
+      </c>
+      <c r="H99">
+        <v>-1</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>5577</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>5578</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>5463</v>
+      </c>
+      <c r="C100">
+        <v>2465624</v>
+      </c>
+      <c r="D100">
+        <v>2467693</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>5464</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>5465</v>
+      </c>
+      <c r="H100">
+        <v>-1</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>5466</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>5467</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>5428</v>
+      </c>
+      <c r="C101">
+        <v>1187966</v>
+      </c>
+      <c r="D101">
+        <v>1190137</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H101">
+        <v>-1</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>5429</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>5504</v>
+      </c>
+      <c r="C102">
+        <v>9351</v>
+      </c>
+      <c r="D102">
+        <v>11429</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>2965</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H102">
+        <v>-1</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>5505</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>5506</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>5421</v>
+      </c>
+      <c r="C103">
+        <v>277050</v>
+      </c>
+      <c r="D103">
+        <v>279026</v>
+      </c>
+      <c r="E103">
+        <v>-1</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>5422</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H103">
+        <v>-1</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>5423</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>5424</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>5468</v>
+      </c>
+      <c r="C104">
+        <v>16789</v>
+      </c>
+      <c r="D104">
+        <v>18846</v>
+      </c>
+      <c r="E104">
+        <v>-1</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>2974</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H104">
+        <v>-1</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>5469</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>5470</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>5451</v>
+      </c>
+      <c r="C105">
+        <v>606843</v>
+      </c>
+      <c r="D105">
+        <v>608921</v>
+      </c>
+      <c r="E105">
+        <v>-1</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H105">
+        <v>-1</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>5452</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>5642</v>
+      </c>
+      <c r="C106">
+        <v>4145488</v>
+      </c>
+      <c r="D106">
+        <v>4147227</v>
+      </c>
+      <c r="E106">
+        <v>-1</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>3101</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>5627</v>
+      </c>
+      <c r="H106">
+        <v>-1</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>5643</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>5644</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>5679</v>
+      </c>
+      <c r="C107">
+        <v>2501530</v>
+      </c>
+      <c r="D107">
+        <v>2503392</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>5294</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>5465</v>
+      </c>
+      <c r="H107">
+        <v>-1</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>5680</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>5681</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>5743</v>
+      </c>
+      <c r="C108">
+        <v>38048</v>
+      </c>
+      <c r="D108">
+        <v>40239</v>
+      </c>
+      <c r="E108">
+        <v>-1</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>5744</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>5465</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>5745</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>5746</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>5487</v>
+      </c>
+      <c r="C109">
+        <v>14561</v>
+      </c>
+      <c r="D109">
+        <v>16726</v>
+      </c>
+      <c r="E109">
+        <v>-1</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>5488</v>
+      </c>
+      <c r="H109">
+        <v>-1</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>5489</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>5747</v>
+      </c>
+      <c r="C110">
+        <v>3924</v>
+      </c>
+      <c r="D110">
+        <v>5993</v>
+      </c>
+      <c r="E110">
+        <v>-1</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>5297</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>5465</v>
+      </c>
+      <c r="H110">
+        <v>-1</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>5748</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>5749</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>5700</v>
+      </c>
+      <c r="C111">
+        <v>361161</v>
+      </c>
+      <c r="D111">
+        <v>363245</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>5306</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>5701</v>
+      </c>
+      <c r="H111">
+        <v>-1</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>5702</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>5703</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>5564</v>
+      </c>
+      <c r="C112">
+        <v>63314</v>
+      </c>
+      <c r="D112">
+        <v>65044</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>3663</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H112">
+        <v>-1</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>5565</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>5566</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>5820</v>
+      </c>
+      <c r="C113">
+        <v>1988887</v>
+      </c>
+      <c r="D113">
+        <v>1990635</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>3666</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H113">
+        <v>-1</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>5821</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>5822</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>5877</v>
+      </c>
+      <c r="C114">
+        <v>42863</v>
+      </c>
+      <c r="D114">
+        <v>44674</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>3669</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>5488</v>
+      </c>
+      <c r="H114">
+        <v>-1</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>5878</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>5879</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>5585</v>
+      </c>
+      <c r="C115">
+        <v>73473</v>
+      </c>
+      <c r="D115">
+        <v>75311</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>3672</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H115">
+        <v>-1</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>5586</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>5587</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>5852</v>
+      </c>
+      <c r="C116">
+        <v>38907</v>
+      </c>
+      <c r="D116">
+        <v>40646</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>3675</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>5488</v>
+      </c>
+      <c r="H116">
+        <v>-1</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>5853</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>5854</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>5395</v>
+      </c>
+      <c r="C117">
+        <v>55129</v>
+      </c>
+      <c r="D117">
+        <v>56835</v>
+      </c>
+      <c r="E117">
+        <v>-1</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>3680</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H117">
+        <v>-1</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>5396</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>5614</v>
+      </c>
+      <c r="C118">
+        <v>50670</v>
+      </c>
+      <c r="D118">
+        <v>52421</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>3685</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H118">
+        <v>-1</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>5615</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>5616</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>5832</v>
+      </c>
+      <c r="C119">
+        <v>89357</v>
+      </c>
+      <c r="D119">
+        <v>91093</v>
+      </c>
+      <c r="E119">
+        <v>-1</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>3688</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>5488</v>
+      </c>
+      <c r="H119">
+        <v>-1</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>5833</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>5834</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>5771</v>
+      </c>
+      <c r="C120">
+        <v>2440510</v>
+      </c>
+      <c r="D120">
+        <v>2442282</v>
+      </c>
+      <c r="E120">
+        <v>-1</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>3691</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H120">
+        <v>-1</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>5772</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>5773</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>5379</v>
+      </c>
+      <c r="C121">
+        <v>1552813</v>
+      </c>
+      <c r="D121">
+        <v>1554552</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>3696</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H121">
+        <v>-1</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>5380</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>5357</v>
+      </c>
+      <c r="C122">
+        <v>3297239</v>
+      </c>
+      <c r="D122">
+        <v>3298921</v>
+      </c>
+      <c r="E122">
+        <v>-1</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>3878</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>5358</v>
+      </c>
+      <c r="H122">
+        <v>-1</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>5359</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>5360</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>5740</v>
+      </c>
+      <c r="C123">
+        <v>1951920</v>
+      </c>
+      <c r="D123">
+        <v>1953614</v>
+      </c>
+      <c r="E123">
+        <v>-1</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>3881</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H123">
+        <v>-1</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>5741</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>5742</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>5823</v>
+      </c>
+      <c r="C124">
+        <v>1513494</v>
+      </c>
+      <c r="D124">
+        <v>1515197</v>
+      </c>
+      <c r="E124">
+        <v>-1</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>3884</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H124">
+        <v>-1</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>5824</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>5825</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>5808</v>
+      </c>
+      <c r="C125">
+        <v>184671</v>
+      </c>
+      <c r="D125">
+        <v>186347</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>3887</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H125">
+        <v>-1</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>5809</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>5810</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>5762</v>
+      </c>
+      <c r="C126">
+        <v>895366</v>
+      </c>
+      <c r="D126">
+        <v>897033</v>
+      </c>
+      <c r="E126">
+        <v>-1</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>3890</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H126">
+        <v>-1</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>5763</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>5764</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>5457</v>
+      </c>
+      <c r="C127">
+        <v>3836340</v>
+      </c>
+      <c r="D127">
+        <v>3838007</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>3893</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H127">
+        <v>-1</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>5458</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>5459</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>5448</v>
+      </c>
+      <c r="C128">
+        <v>4835984</v>
+      </c>
+      <c r="D128">
+        <v>4837672</v>
+      </c>
+      <c r="E128">
+        <v>-1</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>3895</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H128">
+        <v>-1</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>5449</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>5450</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>5835</v>
+      </c>
+      <c r="C129">
+        <v>4822903</v>
+      </c>
+      <c r="D129">
+        <v>4824573</v>
+      </c>
+      <c r="E129">
+        <v>-1</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>3898</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H129">
+        <v>-1</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>5836</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>5837</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>5826</v>
+      </c>
+      <c r="C130">
+        <v>2704050</v>
+      </c>
+      <c r="D130">
+        <v>2705738</v>
+      </c>
+      <c r="E130">
+        <v>-1</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>3901</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H130">
+        <v>-1</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>5827</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>5828</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>5849</v>
+      </c>
+      <c r="C131">
+        <v>1669366</v>
+      </c>
+      <c r="D131">
+        <v>1671072</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>3904</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H131">
+        <v>-1</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>5850</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>5851</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>5829</v>
+      </c>
+      <c r="C132">
+        <v>424054</v>
+      </c>
+      <c r="D132">
+        <v>425715</v>
+      </c>
+      <c r="E132">
+        <v>-1</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>3909</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>5358</v>
+      </c>
+      <c r="H132">
+        <v>-1</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>5830</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>5831</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>5602</v>
+      </c>
+      <c r="C133">
+        <v>1291650</v>
+      </c>
+      <c r="D133">
+        <v>1293413</v>
+      </c>
+      <c r="E133">
+        <v>-1</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>3912</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H133">
+        <v>-1</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>5603</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>5604</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>5630</v>
+      </c>
+      <c r="C134">
+        <v>1701862</v>
+      </c>
+      <c r="D134">
+        <v>1703517</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>3915</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H134">
+        <v>-1</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>5631</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>5632</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>5382</v>
+      </c>
+      <c r="C135">
+        <v>5029939</v>
+      </c>
+      <c r="D135">
+        <v>5031672</v>
+      </c>
+      <c r="E135">
+        <v>-1</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>3918</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H135">
+        <v>-1</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>5383</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>5384</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>5719</v>
+      </c>
+      <c r="C136">
+        <v>1860600</v>
+      </c>
+      <c r="D136">
+        <v>1862291</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>3921</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H136">
+        <v>-1</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>5720</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>5721</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>5793</v>
+      </c>
+      <c r="C137">
+        <v>34710</v>
+      </c>
+      <c r="D137">
+        <v>36380</v>
+      </c>
+      <c r="E137">
+        <v>-1</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>3924</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H137">
+        <v>-1</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>5794</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>5795</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>5817</v>
+      </c>
+      <c r="C138">
+        <v>2184896</v>
+      </c>
+      <c r="D138">
+        <v>2186590</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>3927</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H138">
+        <v>-1</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>5818</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>5819</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>5846</v>
+      </c>
+      <c r="C139">
+        <v>50885</v>
+      </c>
+      <c r="D139">
+        <v>52546</v>
+      </c>
+      <c r="E139">
+        <v>-1</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>3930</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H139">
+        <v>-1</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>5847</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>5848</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>5510</v>
+      </c>
+      <c r="C140">
+        <v>4148895</v>
+      </c>
+      <c r="D140">
+        <v>4150553</v>
+      </c>
+      <c r="E140">
+        <v>-1</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>3933</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H140">
+        <v>-1</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>5511</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>5512</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>5774</v>
+      </c>
+      <c r="C141">
+        <v>645604</v>
+      </c>
+      <c r="D141">
+        <v>647313</v>
+      </c>
+      <c r="E141">
+        <v>-1</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>3936</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H141">
+        <v>-1</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>5775</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>5776</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>5617</v>
+      </c>
+      <c r="C142">
+        <v>1358780</v>
+      </c>
+      <c r="D142">
+        <v>1360447</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>3939</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H142">
+        <v>-1</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>5618</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>5619</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>5361</v>
+      </c>
+      <c r="C143">
+        <v>3975185</v>
+      </c>
+      <c r="D143">
+        <v>3976867</v>
+      </c>
+      <c r="E143">
+        <v>-1</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>3942</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>5362</v>
+      </c>
+      <c r="H143">
+        <v>-1</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>5363</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>5516</v>
+      </c>
+      <c r="C144">
+        <v>718399</v>
+      </c>
+      <c r="D144">
+        <v>720057</v>
+      </c>
+      <c r="E144">
+        <v>-1</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>3945</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>5517</v>
+      </c>
+      <c r="H144">
+        <v>-1</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>5518</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>5519</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>5605</v>
+      </c>
+      <c r="C145">
+        <v>2286296</v>
+      </c>
+      <c r="D145">
+        <v>2287969</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>3948</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H145">
+        <v>-1</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>5606</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>5859</v>
+      </c>
+      <c r="C146">
+        <v>73130</v>
+      </c>
+      <c r="D146">
+        <v>74794</v>
+      </c>
+      <c r="E146">
+        <v>-1</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>3951</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H146">
+        <v>-1</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>5860</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>5861</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>5365</v>
+      </c>
+      <c r="C147">
+        <v>3535671</v>
+      </c>
+      <c r="D147">
+        <v>3537365</v>
+      </c>
+      <c r="E147">
+        <v>-1</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>5366</v>
+      </c>
+      <c r="H147">
+        <v>-1</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>5367</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>5368</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>5865</v>
+      </c>
+      <c r="C148">
+        <v>187432</v>
+      </c>
+      <c r="D148">
+        <v>189129</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>3957</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>5495</v>
+      </c>
+      <c r="H148">
+        <v>-1</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>5866</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>5867</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>5796</v>
+      </c>
+      <c r="C149">
+        <v>5005893</v>
+      </c>
+      <c r="D149">
+        <v>5007527</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>4007</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H149">
+        <v>-1</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>5797</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>5798</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>5786</v>
+      </c>
+      <c r="C150">
+        <v>436419</v>
+      </c>
+      <c r="D150">
+        <v>438212</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>5787</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H150">
+        <v>-1</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>5788</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>5789</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>5783</v>
+      </c>
+      <c r="C151">
+        <v>1927239</v>
+      </c>
+      <c r="D151">
+        <v>1928972</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>4103</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H151">
+        <v>-1</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>5784</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>5785</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>5651</v>
+      </c>
+      <c r="C152">
+        <v>260390</v>
+      </c>
+      <c r="D152">
+        <v>262348</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>4193</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>5627</v>
+      </c>
+      <c r="H152">
+        <v>-1</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>5652</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>5653</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>5391</v>
+      </c>
+      <c r="C153">
+        <v>1815089</v>
+      </c>
+      <c r="D153">
+        <v>1817170</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>5392</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H153">
+        <v>-1</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>5393</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>5394</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>5480</v>
+      </c>
+      <c r="C154">
+        <v>4765122</v>
+      </c>
+      <c r="D154">
+        <v>4766786</v>
+      </c>
+      <c r="E154">
+        <v>-1</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>5481</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H154">
+        <v>-1</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>5482</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>5483</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>5415</v>
+      </c>
+      <c r="C155">
+        <v>2559621</v>
+      </c>
+      <c r="D155">
+        <v>2561654</v>
+      </c>
+      <c r="E155">
+        <v>-1</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>4390</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H155">
+        <v>-1</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>5416</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>5417</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>5567</v>
+      </c>
+      <c r="C156">
+        <v>31156</v>
+      </c>
+      <c r="D156">
+        <v>32925</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>4401</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H156">
+        <v>-1</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>5568</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>5569</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>5402</v>
+      </c>
+      <c r="C157">
+        <v>1584158</v>
+      </c>
+      <c r="D157">
+        <v>1586032</v>
+      </c>
+      <c r="E157">
+        <v>-1</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>4419</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>5403</v>
+      </c>
+      <c r="H157">
+        <v>-1</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>5404</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>5405</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>5431</v>
+      </c>
+      <c r="C158">
+        <v>1673123</v>
+      </c>
+      <c r="D158">
+        <v>1675000</v>
+      </c>
+      <c r="E158">
+        <v>-1</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>4451</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>5432</v>
+      </c>
+      <c r="H158">
+        <v>-1</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>5433</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>5434</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>5592</v>
+      </c>
+      <c r="C159">
+        <v>6782770</v>
+      </c>
+      <c r="D159">
+        <v>6784815</v>
+      </c>
+      <c r="E159">
+        <v>-1</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>5319</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>5465</v>
+      </c>
+      <c r="H159">
+        <v>-1</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>5593</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>5594</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>5595</v>
+      </c>
+      <c r="C160">
+        <v>1747021</v>
+      </c>
+      <c r="D160">
+        <v>1749162</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>5596</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>5465</v>
+      </c>
+      <c r="H160">
+        <v>-1</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>5597</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>5598</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>5588</v>
+      </c>
+      <c r="C161">
+        <v>5545414</v>
+      </c>
+      <c r="D161">
+        <v>5547378</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>5465</v>
+      </c>
+      <c r="H161">
+        <v>-1</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>5590</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>5591</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>5790</v>
+      </c>
+      <c r="C162">
+        <v>1957018</v>
+      </c>
+      <c r="D162">
+        <v>1959108</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>5324</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>5465</v>
+      </c>
+      <c r="H162">
+        <v>-1</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>5791</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>5792</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>5765</v>
+      </c>
+      <c r="C163">
+        <v>618435</v>
+      </c>
+      <c r="D163">
+        <v>620261</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>4707</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>5495</v>
+      </c>
+      <c r="H163">
+        <v>-1</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>5766</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>5767</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>5620</v>
+      </c>
+      <c r="C164">
+        <v>41786</v>
+      </c>
+      <c r="D164">
+        <v>43645</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>4710</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>5495</v>
+      </c>
+      <c r="H164">
+        <v>-1</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>5621</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>5622</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>5539</v>
+      </c>
+      <c r="C165">
+        <v>55977</v>
+      </c>
+      <c r="D165">
+        <v>57785</v>
+      </c>
+      <c r="E165">
+        <v>-1</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>4728</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>5495</v>
+      </c>
+      <c r="H165">
+        <v>-1</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>5540</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>5541</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>5707</v>
+      </c>
+      <c r="C166">
+        <v>297969</v>
+      </c>
+      <c r="D166">
+        <v>300053</v>
+      </c>
+      <c r="E166">
+        <v>-1</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>4736</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>5358</v>
+      </c>
+      <c r="H166">
+        <v>-1</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>5708</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>5709</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>5611</v>
+      </c>
+      <c r="C167">
+        <v>511069</v>
+      </c>
+      <c r="D167">
+        <v>513096</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>5328</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>5465</v>
+      </c>
+      <c r="H167">
+        <v>-1</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>5612</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>5613</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>5474</v>
+      </c>
+      <c r="C168">
+        <v>247846</v>
+      </c>
+      <c r="D168">
+        <v>249762</v>
+      </c>
+      <c r="E168">
+        <v>-1</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>5330</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>5465</v>
+      </c>
+      <c r="H168">
+        <v>-1</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>5475</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>5476</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>5507</v>
+      </c>
+      <c r="C169">
+        <v>1441038</v>
+      </c>
+      <c r="D169">
+        <v>1442786</v>
+      </c>
+      <c r="E169">
+        <v>-1</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>4849</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H169">
+        <v>-1</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>5508</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>5509</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>5435</v>
+      </c>
+      <c r="C170">
+        <v>4138200</v>
+      </c>
+      <c r="D170">
+        <v>4139933</v>
+      </c>
+      <c r="E170">
+        <v>-1</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>4854</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="H170">
+        <v>-1</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>5436</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>5437</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:J170">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">

--- a/data/suppl_data.xlsx
+++ b/data/suppl_data.xlsx
@@ -5,19 +5,19 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonov/2019/2019/Baranov/Manuscripts/chelatase/github/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/2020/2020/Atkins/Manuscripts/Chelatase/github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35420" windowHeight="21020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="genomes" sheetId="1" r:id="rId1"/>
-    <sheet name="fs-chlD" sheetId="3" r:id="rId2"/>
+    <sheet name="fs-chlD" sheetId="4" r:id="rId2"/>
     <sheet name="reference_queries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="suppl_data_fs_chlD" localSheetId="1">'fs-chlD'!$A$1:$J$170</definedName>
+    <definedName name="suppl_data_fs_chlD" localSheetId="1">'fs-chlD'!$A$1:$L$170</definedName>
     <definedName name="suppl_data_orgs" localSheetId="0">genomes!$A$1:$L$1208</definedName>
     <definedName name="suppl_data_orgs_1" localSheetId="0">genomes!#REF!</definedName>
     <definedName name="suppl_data_orgs_2" localSheetId="0">genomes!#REF!</definedName>
@@ -33,19 +33,21 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="suppl_data_fs_chlD" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/antonov/2019/2019/Baranov/Manuscripts/chelatase/github/data/suppl_data_fs_chlD.txt">
-      <textFields count="10">
+  <connection id="1" name="suppl_data_fs_chlD1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/ivan/2020/2020/Atkins/Manuscripts/Chelatase/github/data/suppl_data_fs_chlD.txt">
+      <textFields count="12">
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField/>
+        <textField/>
         <textField type="text"/>
         <textField type="text"/>
         <textField/>
         <textField/>
         <textField/>
-        <textField type="text"/>
-        <textField type="text"/>
         <textField/>
-        <textField type="text"/>
-        <textField type="text"/>
+        <textField/>
+        <textField/>
       </textFields>
     </textPr>
   </connection>
@@ -137,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14946" uniqueCount="5883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15455" uniqueCount="6225">
   <si>
     <t>kingdom</t>
   </si>
@@ -17786,13 +17788,1039 @@
   </si>
   <si>
     <t>MRTIYPFTAIVGQQRMSRALILNAIDTRIGGVLIRGERGTGKSTAARALAALLPPVQVVQNCRFGCDPQKPISWCTECRERFEADENGLPVETRQTPFINLPISATEDRVVGTLDIEKAIQKGERHFEPGVLAAANRGLLYIDEVNLLDDHVVDVLLDSAAMGMNIVEREGISFAHPARFILVGTMNPEEGDLRPQLLDRFALSVEIRGILDPRQRVQIMERNLAFEADPEAFRQKWLPREQELSEKIARARQMLDKVGYTSRDLLVIADLTAKMQVDGHRADLVILKASRAHAAFEGRDAINPYDIALAAELALPHRVKAGPFRHSEMGITQLQEHIEELVGSASEGAPVDQQDRGDESQTSQKKSLSPPISKLAKNPLDPSP</t>
+  </si>
+  <si>
+    <t>long_cds</t>
+  </si>
+  <si>
+    <t>short_cds</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>ATGACCTCGCTTCCCCCGCTGAACGCCGGTACGCCAGCCCACAACGTGCCATCGCCTGTACCGTTGCCCGCGCTGTTTCCTTTTTCCGCCATCGCGGGCCAACCGCTGCTGGTGCAGGCCTTGTTGCTGGCCGCCATCGATCCGGCGCTGGGCGGCGTGCTCGTCGAGGGCCCGCGCGGCACCGCCAAATCCACGGCTGCCCGGGCGCTGGCCGAACTGATCGAGGGCGCGCCCTTCGTCACCTTGCCGCTGGGCGCCTCGCTGGAACATCTGGTCGGCACGCTGGACCTGGGGCAGGCGATGGCCGGGAACACGGTCGCATTCGCGCCGGGCTTGCTGGCACGCGCTCATGGTGGCGTGCTGTATGTGGACGAGATCAATCTGCTGCCCGACGCGCTGGTCGACGCGCTGCTGGACGCCGCTGCCAGCGGTGTGAACGCCGTGGAGCGCGACGGTATCTCGCACCGCCATGCCGCCCGCTTCGTGCTGGTGGGCACCATGAACCCGGAGGAGGGCGCGCTGCGCCCCCAGTTGCTGGACCGCATGGGCCTTTGCGTGCGCCTGTGCAACGTGGCGGATGCCGCCGAGCGCCAGGCCATCGTGCGGTCGCGCCTGGCGTTCGATCTGGACCCGCCCGCCTTTCGCGAGCGGTTTGCCGGGGCGCAGGCCGACCTGGCGCAGCGCCTTCGCACCGCGCGGGAGCGCATAGCCCAGCCCGGTGCGCTGCCCTGGCCGGATGCGGTGCTCGCCACGGTCAGCGAGCGTTGCATCGCCGCCCAGGTCGATGGCCTGCGTGCCGACTTGGTGATGCTGCGCGCCGCCCGTGCGCTGGCCGCCTGGGAAGGCGCTGCCGCGGTGCAGCCCGGGCATGTGGACCAAGTGGCGGAACTGGTGCTGGTGCACCGCCGCCGCCCGGGCAGCGAGACCGCTGTGGCGCCCGCTCCCAGCACTTCCTGCCACTCGCCAAAAGCTCCGGACACGAAAAATCCGCAGAACGATAGCCGCGGCCCCGGCGAAGCAGCGGGCCCGAAGAACGACGCTGATTCCAACGCCAACGCCAACGCCAACGCCAACGCCAACGCTGAGACATCGGCGCCGCAAACCGCCTCTGCCAGCGGCGGCGACCCTGGATCACCCGGCGGCCCGTCGGACTGGGGCGCGCTGCCGCCCGAGCCTGTCGGCACGCAGGCTTTCAAGCCCGTGCGCCCGTGGCTGGCGCCCGCCAGCGGGCAGGGCGCTGCACCAAAAAAAGCCCTGAGCCCCCACCCCGCGCGCGCCATGGCACGTGATGGAGACCGGGGGCGCGGCGACGAAGCACCTCAGCCTGACCCGCGTGGCGACCAGCCCGGCGCGTGGGACTGGCCGCGCACCTTCATTGCCCGTGGTGCGGCCACCGTGCTGCAGCGCGACCATCTGCGCCGCCAGACTGCGCAGGCCCGCACCGGGCGGCTGCATTGCTTCGTGCTCGACTGCTCGGCTTCGATGGTGGCCAGCGGCGCTCTGGCGCGCGCCAAGGGCGTGTTGCTGGCGCTGATGGAGGAGGCTTACCGCGAGCGCGACGATGTGGCGCTGCTGTGCTTCGGCGGTGATGGCGTGCAACTGCGCGTATCGCCCCAGCGCGCTCCGGCCTGGAGCGATGGCTGGGTGGCGCCCATCGGCGGTGGTGGGGGAACCCCGCTGGACCGTGCCGTGTCGCACGCGGCCCAGGTGCTGGACGGTGCGCGGGGCCGCCAGGGCTGGCTATGGCTGCTCACCGATGGCCGCACACGCGAGCAGCCCGAGCGGCCGGCTTCGGCCCACACCGCCTGCGTGGTGGACTTCGACACTGCCCGGCTGGCCCTGCACCGGGCCGAGCGATTGGCGCGGCAATGGCAAGCGCGGTACTGGAGCGTGAGCGACGGGGCGGCCTCGCAGGCGCTATGA</t>
+  </si>
+  <si>
+    <t>ATGACCTCGCTTCCCCCGCTGAACGCCGGTACGCCAGCCCACAACGTGCCATCGCCTGTACCGTTGCCCGCGCTGTTTCCTTTTTCCGCCATCGCGGGCCAACCGCTGCTGGTGCAGGCCTTGTTGCTGGCCGCCATCGATCCGGCGCTGGGCGGCGTGCTCGTCGAGGGCCCGCGCGGCACCGCCAAATCCACGGCTGCCCGGGCGCTGGCCGAACTGATCGAGGGCGCGCCCTTCGTCACCTTGCCGCTGGGCGCCTCGCTGGAACATCTGGTCGGCACGCTGGACCTGGGGCAGGCGATGGCCGGGAACACGGTCGCATTCGCGCCGGGCTTGCTGGCACGCGCTCATGGTGGCGTGCTGTATGTGGACGAGATCAATCTGCTGCCCGACGCGCTGGTCGACGCGCTGCTGGACGCCGCTGCCAGCGGTGTGAACGCCGTGGAGCGCGACGGTATCTCGCACCGCCATGCCGCCCGCTTCGTGCTGGTGGGCACCATGAACCCGGAGGAGGGCGCGCTGCGCCCCCAGTTGCTGGACCGCATGGGCCTTTGCGTGCGCCTGTGCAACGTGGCGGATGCCGCCGAGCGCCAGGCCATCGTGCGGTCGCGCCTGGCGTTCGATCTGGACCCGCCCGCCTTTCGCGAGCGGTTTGCCGGGGCGCAGGCCGACCTGGCGCAGCGCCTTCGCACCGCGCGGGAGCGCATAGCCCAGCCCGGTGCGCTGCCCTGGCCGGATGCGGTGCTCGCCACGGTCAGCGAGCGTTGCATCGCCGCCCAGGTCGATGGCCTGCGTGCCGACTTGGTGATGCTGCGCGCCGCCCGTGCGCTGGCCGCCTGGGAAGGCGCTGCCGCGGTGCAGCCCGGGCATGTGGACCAAGTGGCGGAACTGGTGCTGGTGCACCGCCGCCGCCCGGGCAGCGAGACCGCTGTGGCGCCCGCTCCCAGCACTTCCTGCCACTCGCCAAAAGCTCCGGACACGAAAAATCCGCAGAACGATAGCCGCGGCCCCGGCGAAGCAGCGGGCCCGAAGAACGACGCTGATTCCAACGCCAACGCCAACGCCAACGCCAACGCCAACGCTGAGACATCGGCGCCGCAAACCGCCTCTGCCAGCGGCGGCGACCCTGGATCACCCGGCGGCCCGTCGGACTGGGGCGCGCTGCCGCCCGAGCCTGTCGGCACGCAGGCTTTCAAGCCCGTGCGCCCGTGGCTGGCGCCCGCCAGCGGGCAGGGCGCTGCACCAAAAAAAGCCTGA</t>
+  </si>
+  <si>
+    <t>ATGACCCCTACGCCTGCCCCGGTTTCCGCGCCGTTGGCATTTCCGTTTGCCGCGCTGATCGGCCAGACCGAGCTACAACAAGCGTTATTGTTGGCCGCCATCGACCCTGGTCTGGGCGGCGTGTTGATCAGCGGCCCGCGTGGCACGGCCAAATCGACCGCGGCGCGCGCACTGGCCGAACTGCTGCCCGAAGGCCAACTGGTGACGCTACCCTTGGCCGCCAGCGAAGACCGCGTGACCGGCTCGCTGGACCTGAACGCCGCGTTGCAGGACAACGCCCTGCGCTTTGCTCCCGGCTTGCTGGCGCGCGCGCATCAGGGCGTGCTGTATGTGGACGAAATCAATCTGCTGCCCGACGCGCTGGTGGATACGCTGCTGGACGCCGCCGCCAGCGGCATCAATACGGTGGAGCGTGATGGCGTGTCGTATAGCCACGCCGCGCGCTTTGCGTTGATCGGCACCATGAATCCGGAAGAAGGCGAATTGCGGCCGCAATTGCTGGATCGTTTCGGCCTGATGGTGCAGCTGGAAAACTGTTTTGATGCAGGCGTGCGGCAACAGATCGTCAAGGCGCGGCTGCAGTTTGAACTGGACCCGGTAGCGTTTCGCGCCGGTTACGCCGAACTGCAACATGCGCTGACCGAGCAAATCCACGCCGCGCGCGCACGGCTGAACACGCTGGCGTTTAGCGATGCGGTGCATGCGCACGTCAGCGCGCTGTGCATCGCCGCCCAGGTGGATGGCCTGCGCGCCGATCTGGTTATGTTGCATGCGGCCCGGGCGCTAGCGGCGCTGGAAGGCGCGGCGGCGATTACGCCGGCACATGTCGATACGGTGGCGCCCGCGGTGCTGCGGCATCGGCGCGGCAGCGACAGCGCGCCGCCACCGCCTGCGGCATCGCAGCCGCCTGCAAGCGAATCCACCAAGCCCACTGAACCGGCTGAGGCTGAAGGCGATTGGGGTTATCTACCGCCGCAAAACACCGGGCTTACAGCCGTTAAAGCGGTGCTGCCGCTGTCGGCAAAAAAACCCCTGAGCCATCGAAGCAAAGCCGCCGCTACGGTGCGTAGCGGTGCCCGATGGCAACAAGGCAAAGGTAGCGTGCGCGCGGCATATGGCGCGGCCGGCACACGCCTGCACTGGCCACGCACCTTGCAGGCCAGGGCGGGGGCGGTGCTGGCGGCCGAACATTTGCGTTATCAACCGCAACGCGCGCTTGCGGGCGTGCTGCATTGTTTTGTGCTGGATTGTTCGGCATCGATGTTGCGCGACGACCAATTGGCACTGGCTAAAGGCTGGTTGGCGTCGATGTTCGACCAGGTCGCGCAGCAACGCGCGATGGCGGCGCTGATCTGCTTTGGCGGACAACAGGCCGACCTCCGCTTTGGCCCGGCCGTGCCGCGATGGTGGAACGAACGCTGGCTTGCGCCGTTAACGGGCGGCGGCGGCACGCCATTGCGGCTGGCGCTGCACAAAGCCGACGCGCTACTGGCCCGCGCCGCCCGGCTGCACCCGGCGCAACAACGGCATCTGTGGCTGCTGACCGACGGCCGCACCACCGAAACACCCACCCGCCCCTTCCACGCCGATGAAATCCACATCGTGGATTTCGAAACCGGCCCGCTGCGGCTGGGCCGCTGCGCCGCGCTGCGCACAGCGTGGAAGTTGTAA</t>
+  </si>
+  <si>
+    <t>ATGACCCCTACGCCTGCCCCGGTTTCCGCGCCGTTGGCATTTCCGTTTGCCGCGCTGATCGGCCAGACCGAGCTACAACAAGCGTTATTGTTGGCCGCCATCGACCCTGGTCTGGGCGGCGTGTTGATCAGCGGCCCGCGTGGCACGGCCAAATCGACCGCGGCGCGCGCACTGGCCGAACTGCTGCCCGAAGGCCAACTGGTGACGCTACCCTTGGCCGCCAGCGAAGACCGCGTGACCGGCTCGCTGGACCTGAACGCCGCGTTGCAGGACAACGCCCTGCGCTTTGCTCCCGGCTTGCTGGCGCGCGCGCATCAGGGCGTGCTGTATGTGGACGAAATCAATCTGCTGCCCGACGCGCTGGTGGATACGCTGCTGGACGCCGCCGCCAGCGGCATCAATACGGTGGAGCGTGATGGCGTGTCGTATAGCCACGCCGCGCGCTTTGCGTTGATCGGCACCATGAATCCGGAAGAAGGCGAATTGCGGCCGCAATTGCTGGATCGTTTCGGCCTGATGGTGCAGCTGGAAAACTGTTTTGATGCAGGCGTGCGGCAACAGATCGTCAAGGCGCGGCTGCAGTTTGAACTGGACCCGGTAGCGTTTCGCGCCGGTTACGCCGAACTGCAACATGCGCTGACCGAGCAAATCCACGCCGCGCGCGCACGGCTGAACACGCTGGCGTTTAGCGATGCGGTGCATGCGCACGTCAGCGCGCTGTGCATCGCCGCCCAGGTGGATGGCCTGCGCGCCGATCTGGTTATGTTGCATGCGGCCCGGGCGCTAGCGGCGCTGGAAGGCGCGGCGGCGATTACGCCGGCACATGTCGATACGGTGGCGCCCGCGGTGCTGCGGCATCGGCGCGGCAGCGACAGCGCGCCGCCACCGCCTGCGGCATCGCAGCCGCCTGCAAGCGAATCCACCAAGCCCACTGAACCGGCTGAGGCTGAAGGCGATTGGGGTTATCTACCGCCGCAAAACACCGGGCTTACAGCCGTTAAAGCGGTGCTGCCGCTGTCGGCAAAAAAACCCTGA</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ATGCTTCCGATTTATCCTTTTACTGCCATCGTTGGACAGGAGCGCATGCGCCGCGCCCTGGTGCTTAATGCAATCGACCCGCGCATTGGCGGAGTGTTAATTCGCGGGGAGCGAGGAACGGCCAAGTCCACAGCTGCACGTGCGCTGGCGGCGCTTTTACCGCTGGTGCGGGTGGTGAGTGACTGCCGCTTTGGTTGCGACCCTGATACTCCAGCCAACTGGTGCACCGAATGCCGTGAGCGCGCTGAGCGGGGTGAGCAACTGCCGGTGGCAACCCGGCAAATTCCCTTTATTAACCTGCCAGTTTCGGCTACCGAAGACCGCGTGGTGGGGACGCTGGACATAGAAGCGGCCATCCAGCGCGGTGAACGGCATTTTGAACCCGGTGTGCTGGCCGCCGCTAACCGGGGATTGCTGTACATTGATGAAGTCAACCTGCTGGATGATCACGTGGTGGATGTGCTCCTGGATGCAGCCGCGATGGGCATGAACATCATTGAACGTGAAGGAATTTCTTTCAGCCATCCTGCACGGTTTATTCTGGTGGGCACAATGAACCCTGAAGAGGGAGACCTGCGCCCGCAACTGCTGGATCGCTTTGCACTTTCGGTAGAAATTCACGGCATTCGCGATGCCCGCGAGCGGGTCATCATCATGGAACGGAATCTGGCCTTTGAGAGAGACCCGGCCGGTTTTGTGGCTGAATGGCAGCCCAAAGAACGCGAGCTATCTCAAAAGATTGAGGCGGCCCGAAAGCTGCTGGATGAAGTGACCTACACCAGCCGTGATTTGCTTTCGATTGCTTCCTTAACGGCCTCGCTTGGAGTGGATGGTCATCGTCCTGATCTGGTGATCCTCAAGGCGGCACGGGCTCAGGCGGCTTTTGAAGGACGGACAGCCATTACCCCCCGCGATATTGCGCTGGCGGCTGAACTGGCTCTGCCGCATCGCTTAAAACATACCCCCTTCCAGCAGGCGTCCACGACGATGGAAGAACTGGCCGAAAGATTGGATCAACTGCAGGGTGGTTCAACCCAGGGTGAACCTCAGGAAGTTCGCACCTCCGGGCAGGAAGAGAGCGATCAAAAAAAAACGGTAATTGACGGCGCGGCAGGCCAGGAAGACCAGGAAACCAGCCAGATGGAACCTGCCCGCCAGGATATTTTTGACCAGGGGAACCAGCAGTGGTGGACGGGGGGAAAATCGGTCAGGGTTGGTGAGTCCTTCGCCCCCCGGCGGCTGGATACCCCGCTGGATAAGATGATGCGCCGAAACGCCGGTAGACGCTCGCGTACCTTTACCGAGCGGAAGCGCGGACGTTACATTATGGCCAGGCCAGCCGGGAGAAAGCGGGATGATCTGGCGTTCGATGCCACCCTGCGTGCGGCAGCTCCCTTTCAGCGTCAGCGTGAAGATCTCAAGCGGCTCAACCGGGTGGCTTTTGCCGTGCGCCCTGTGGACTATCAGCGCAAGATTCGCGTCAAACGGGCGGCCAACCTGGTTCTCTTCCTGGTGGATGCCTCGTGGTCAATGGCAGTGGCAGAGCGGATGGCTGCCACCAAGGGGGCGATCCTCTCCTTACTCAACGATGCCTACCAGCGGCGCGATCGCGTAGGGCTGATCACCTTCCAGCGCGACCGGGCTACCCTGGTGTTACCTCCCACCAATTCAGTGCAGCTTGCTGAACAGGCACTGCGCGATATTCCGGTAGGGGGGAAGACGCCCCTCTCGGCAGGGTTGGAACTGGCTTATCAGGTGATCCGGCGAGAGAAGTTGCTCCACCCGGATGTTCTGCCGCTGTTGATTGTTCTGACGGATGGGGCGGGGAATGTCTCGATGGGTTATTTGCCCCCTCTGGAAGAAGCCCGCTGGCTTGCTCAGCGGATTGCTGAGGAGAAAATTCACAGCGTGGTGATCAACATGGAACACGCCGCGTTTGATCAGGGGTTGGCTCAGGACCTGGCCGACCATCTCAAAGGCCCATGTTATGCACTGGCCGACCTGAGGGCAGAAAGCCTGTACTTTACCGTACGACAGGAGATAGGCAAGGCCCGGGGATAG</t>
+  </si>
+  <si>
+    <t>ATGCTTCCGATTTATCCTTTTACTGCCATCGTTGGACAGGAGCGCATGCGCCGCGCCCTGGTGCTTAATGCAATCGACCCGCGCATTGGCGGAGTGTTAATTCGCGGGGAGCGAGGAACGGCCAAGTCCACAGCTGCACGTGCGCTGGCGGCGCTTTTACCGCTGGTGCGGGTGGTGAGTGACTGCCGCTTTGGTTGCGACCCTGATACTCCAGCCAACTGGTGCACCGAATGCCGTGAGCGCGCTGAGCGGGGTGAGCAACTGCCGGTGGCAACCCGGCAAATTCCCTTTATTAACCTGCCAGTTTCGGCTACCGAAGACCGCGTGGTGGGGACGCTGGACATAGAAGCGGCCATCCAGCGCGGTGAACGGCATTTTGAACCCGGTGTGCTGGCCGCCGCTAACCGGGGATTGCTGTACATTGATGAAGTCAACCTGCTGGATGATCACGTGGTGGATGTGCTCCTGGATGCAGCCGCGATGGGCATGAACATCATTGAACGTGAAGGAATTTCTTTCAGCCATCCTGCACGGTTTATTCTGGTGGGCACAATGAACCCTGAAGAGGGAGACCTGCGCCCGCAACTGCTGGATCGCTTTGCACTTTCGGTAGAAATTCACGGCATTCGCGATGCCCGCGAGCGGGTCATCATCATGGAACGGAATCTGGCCTTTGAGAGAGACCCGGCCGGTTTTGTGGCTGAATGGCAGCCCAAAGAACGCGAGCTATCTCAAAAGATTGAGGCGGCCCGAAAGCTGCTGGATGAAGTGACCTACACCAGCCGTGATTTGCTTTCGATTGCTTCCTTAACGGCCTCGCTTGGAGTGGATGGTCATCGTCCTGATCTGGTGATCCTCAAGGCGGCACGGGCTCAGGCGGCTTTTGAAGGACGGACAGCCATTACCCCCCGCGATATTGCGCTGGCGGCTGAACTGGCTCTGCCGCATCGCTTAAAACATACCCCCTTCCAGCAGGCGTCCACGACGATGGAAGAACTGGCCGAAAGATTGGATCAACTGCAGGGTGGTTCAACCCAGGGTGAACCTCAGGAAGTTCGCACCTCCGGGCAGGAAGAGAGCGATCAAAAAAAAACGTAA</t>
+  </si>
+  <si>
+    <t>ATGCCGCCTATTTATCCATTCACTGCCATCGTTGGTCAGGAGCGCATGAAGCGCGCACTGGTGCTCAATGCGGTGGATCCGCGTATTGGTGGGGTTTTGATTCGCGGCGAGCGCGGCACGGCAAAATCCACGGCGGCGCGCGCCCTGGCGGCACTGCTTCCCAAGGTCAAGGTGGTGAGCGACTGCCGTTTTGGATGCGACCCGGACGCCCCGGCGACATGGTGCACCGAATGCCGTGAGCGTGCCGAGCGCGGCGAATCCCTGCCGGTGAGCCTGCGTCAAATTCCTTTCATCAACCTGCCGGTATCTGCCACCGAAGACCGTGTGGTGGGTACACTGGACATTGAAGCCGCCATCCAGCGCGGCGAACGCCATTTTGAGCCGGGCGTGCTTGCCGCCGCTAACCGCGGTTTGCTTTACATTGACGAGGTCAACCTGCTCGATGACCACGTGGTGGACGTACTGCTGGATGCCGCCGCTATGGGGATGAACATCGTTGAGCGCGAGGGCATTTCCTTCACTCATCCGGCGCGCTTCATCCTGGTCGGCACGATGAACCCTGAAGAGGGTGACCTGCGCCCGCAACTGCTGGACCGCTTTGCCCTCTCGGTGGAAATCTACGGCATCCGCGATGCCCGCGAGCGGGTGATGATCATGGAGCGCAACCTGGCGTTTGAAAAAGACCCGCTGGCGTTTGTGGCGCACTGGCAGCCCAAAGAACAGGAACTCTCTCAGCAAATTGAACAAGCCCGCAAACTGCTTGATCAGGTCACCTATACCAGCCGCGACCTGCTTTCGATTGCTTCGCTGACCGCCTCATTACAGGTGGATGGTCACCGTCCCGACCTGGTCATCCTGAAGACCGCCCGGGCGCACGCCGCTTTTGAAGGGCGCACGTCCATCACCGCGCGGGATATTGCCCTGGCGGCAGAACTGGCGCTCCCGCACCGCCTGAAGCGCACCCCCTTCCAGCAAGCCTCGGCAACCATGGAAGAACTGGCGGAGCGCATTGAGCAACTGCAGGGCGGCGCCACCTCAGGCGAGCCGCGCGAACACCCCGGCGGCATGGAAGAGGAATCCGGGCAAAAAAAAACGGTAACCGATGGGGAGACCGGGCAGATTGAACAGCCCGAAGCCACTCAGCAGGAACCTTCCCGCCAGAACATTTTCGACCAGGGCAACACCCAGTGGTGGAACGGCGGCAAACAGGTGAACACCGGCGAGACCTTTGAAGCCCGCCGCCTGGATACCCCCCTGGACAAAATGATGCGCCGTCATGCTGGCCGGCGTTCGCGCACCTACACCGACCGCAAGCGCGGGCGCTACATCCTTGCGCGCCCGGCAGGCAGGCGCCGCGATGACCTGGCGTTCGATGCCACTCTGCGCACCGCCGCGCCCTTCCAGCGTCAGCGCGAGGAATTGAAGAAGCGCAACCGCGTTGCTTTTGCCGTGCGTCCCTCGGATTACATGCGCAAGGTGCGCGTGCGCCGTGCCGCCAACCTCGTCCTCTTTCTGGTGGATGCTTCCTGGTCCATGGCGGTTGCCGAGCGCATGCAAGCCACCAAGGGGGCGATTCTCTCCCTGCTTAACGATGCCTATCAGCGCCGCGACCGTGTGGGCTTGATTACCTTTCAGCGCGACCGCGCCACCCTGATTCTGCCCCCCACCAACTCGGTGCAGTTGGCGGAGCAAGCCCTGCGGGACATCCCCGTAGGGGGCAAAACGCCCCTCTCCGCCGGGTTGGATATGGCGTATGGCATCCTCAAACGCGAGAAGATGCTCCACCCCGACGTTCTGCCTCTGCTCATCGTGCTGACCGATGGGGCGGGGAACGTCTCCATGGGGCATTTGCCGCCGCTGGAAGAAGCCCACTACCTGGCGGAGCGCATTGCCGAGGAACACATTCACGCGGTGGTCATCAACATGGAGCATGCCGCCTTTGACCAGGGGCTGGCGCAGGAACTGGCGAATCACCTCAAAGCCCCCTGCTACAACCTGACCGACCTGCGCGCCGAGAGCCTGTACTACACCGTGCGCCAGGAGATGCAGTCCACTGCTCTCAAAGGGCTGGAAGACAAACGCTAA</t>
+  </si>
+  <si>
+    <t>ATGCCGCCTATTTATCCATTCACTGCCATCGTTGGTCAGGAGCGCATGAAGCGCGCACTGGTGCTCAATGCGGTGGATCCGCGTATTGGTGGGGTTTTGATTCGCGGCGAGCGCGGCACGGCAAAATCCACGGCGGCGCGCGCCCTGGCGGCACTGCTTCCCAAGGTCAAGGTGGTGAGCGACTGCCGTTTTGGATGCGACCCGGACGCCCCGGCGACATGGTGCACCGAATGCCGTGAGCGTGCCGAGCGCGGCGAATCCCTGCCGGTGAGCCTGCGTCAAATTCCTTTCATCAACCTGCCGGTATCTGCCACCGAAGACCGTGTGGTGGGTACACTGGACATTGAAGCCGCCATCCAGCGCGGCGAACGCCATTTTGAGCCGGGCGTGCTTGCCGCCGCTAACCGCGGTTTGCTTTACATTGACGAGGTCAACCTGCTCGATGACCACGTGGTGGACGTACTGCTGGATGCCGCCGCTATGGGGATGAACATCGTTGAGCGCGAGGGCATTTCCTTCACTCATCCGGCGCGCTTCATCCTGGTCGGCACGATGAACCCTGAAGAGGGTGACCTGCGCCCGCAACTGCTGGACCGCTTTGCCCTCTCGGTGGAAATCTACGGCATCCGCGATGCCCGCGAGCGGGTGATGATCATGGAGCGCAACCTGGCGTTTGAAAAAGACCCGCTGGCGTTTGTGGCGCACTGGCAGCCCAAAGAACAGGAACTCTCTCAGCAAATTGAACAAGCCCGCAAACTGCTTGATCAGGTCACCTATACCAGCCGCGACCTGCTTTCGATTGCTTCGCTGACCGCCTCATTACAGGTGGATGGTCACCGTCCCGACCTGGTCATCCTGAAGACCGCCCGGGCGCACGCCGCTTTTGAAGGGCGCACGTCCATCACCGCGCGGGATATTGCCCTGGCGGCAGAACTGGCGCTCCCGCACCGCCTGAAGCGCACCCCCTTCCAGCAAGCCTCGGCAACCATGGAAGAACTGGCGGAGCGCATTGAGCAACTGCAGGGCGGCGCCACCTCAGGCGAGCCGCGCGAACACCCCGGCGGCATGGAAGAGGAATCCGGGCAAAAAAAAACGTAA</t>
+  </si>
+  <si>
+    <t>ATGGACACGCCGAAACCCGACTTTCCCAGGCGAGCGCCCCGCCAGTCCTTTCCCCTGGCCGCCGTGGTCAGCGCCGACGATCTCAAGCTCGCGCTCTGCCTGCTGGTCATCGACCCGGCCATCGGCGGGGTGCTGATCGAGGGACCGCGCGGCATGGCCAAGTCGACCCTGGCGCGTGGCGTCGCCGAGCTGCTGCCTGGCGGTGCCTTCGTCGACCTGCCGCTGGGGGCCAGCGAGGAGCGCATCGTCGGCACGCTGGACCTTGATGCCGCGCTGGGCGAAGGCCGCACGCGCTTCTCGCCGGGGCTTCTGGCCCGGGCCGATGGCGGCGTGCTTTATGTGGACGAGGTCAACCTGCTGCCGGACCACCTGGTGGACCTGCTGTTGGATGCCGCCGCCAGCGGGGTCAACCACGTGGAGCGGGACGGCATTTCCCACCGCCACCGGGCGCGCTTCGTGCTGGTCGGCACCATGAATCCGGAGGAAGGAGAACTGCGCCCGCAGCTGCTCGACCGCTTCGGCTTCAACCTGGCGCTGGAAGGCCAGCCGCAACCGGCAGAGCGCGCCGAGATCGTTCGCCGCCGCCTGGCCTTCGATAGCGACCCGGTGGCTTTCACCCAGCGCTGGGCTGCGGCGCAGAGCGCCCTCCACGAGCGGTGCCGGGTCGCCCGAGAGCGTCTGGCCGCGATCGAACTGGACGAGGCGAGCCTGGAGGCGATCACCCGCCGCTGCTTCGAAGCGGGCGTGGACGGCATGCGCGCCGACCTGGTCTGGCTACGGGCCGCCCGTGCGCATGCCGCCTGGCGAGGCAGCTTCGCCATCGAGGCAGGGGACATCGACCGGGTGGAGCCCTTCGTCCTGCGCCATCGCCGTCATTTGATGCCCCCCCAATCTTCAGCAAGGCCTTCGCAGGGTGGATCCGCTTCATCGAAAGTCGAACAGGGCGAAGGCCAGTGGGGTGAGCTGCCGGCACAGCCACAAACCATGGGGGCGAGGCGGGAGCTCCCGCGCTGGCCAAAAAAGCCCCTGAGCATCCGCCCGGCCGGTGCCGGGAGCGCGGATGCCAGACCGGGAGCAGGCAATCTCGCGGGTGGGCGCAGTGGTGCCCGCCGTGGTGGGGAGGGAGGGCCCGTCGATTGGCCCGCCAGCTTGCGGCGCGGGCGGCCGCGCCAGCCTCGGGAGCTGCATCGCAAGCCCCGCAGTGCCAGGCCTGGCGAGCTGTGGCTGGTGGTGGTGGACGCTTCCGCCTCGACTCGCCGCCAAGGCGCCTTGTCGCAGGCCAAGGGTCTGCTGGCGCAGCTGTTCGAGCAGGCTTACCGTCAGCGTGCGCGCCTGGCGCTGTTGCATGCTAACGGCACCCGACCGCAATGGGTGTGGCAGGGACGCAAGGCTTCTAGAGCTGCGCGAAAGTGGCTCGAAGGGCTCGGCGCGGGCGGCGGCACCCCCCTGATCGAGGCACTGGGCGAAGCGGCCAGCTGGCTGGCGCGGCGGCAGCGCTTGCATCCGGCCGAGCGACGATGGTTGCTGGTGGTCACCGACGGCCGCCTACGCGACTGGCCCCCGCTGGCCGCCAGTGCCTGCCCGGCACTGCTGGTGGACATCGAATGCACGCCTATCCGGCTCGGCCGAGCCTGCTTGCTGGCCGAGCAGCTGAGCGCCGAATATCGGCATATCGAACAACTGGCGAGCCTGTGA</t>
+  </si>
+  <si>
+    <t>ATGGACACGCCGAAACCCGACTTTCCCAGGCGAGCGCCCCGCCAGTCCTTTCCCCTGGCCGCCGTGGTCAGCGCCGACGATCTCAAGCTCGCGCTCTGCCTGCTGGTCATCGACCCGGCCATCGGCGGGGTGCTGATCGAGGGACCGCGCGGCATGGCCAAGTCGACCCTGGCGCGTGGCGTCGCCGAGCTGCTGCCTGGCGGTGCCTTCGTCGACCTGCCGCTGGGGGCCAGCGAGGAGCGCATCGTCGGCACGCTGGACCTTGATGCCGCGCTGGGCGAAGGCCGCACGCGCTTCTCGCCGGGGCTTCTGGCCCGGGCCGATGGCGGCGTGCTTTATGTGGACGAGGTCAACCTGCTGCCGGACCACCTGGTGGACCTGCTGTTGGATGCCGCCGCCAGCGGGGTCAACCACGTGGAGCGGGACGGCATTTCCCACCGCCACCGGGCGCGCTTCGTGCTGGTCGGCACCATGAATCCGGAGGAAGGAGAACTGCGCCCGCAGCTGCTCGACCGCTTCGGCTTCAACCTGGCGCTGGAAGGCCAGCCGCAACCGGCAGAGCGCGCCGAGATCGTTCGCCGCCGCCTGGCCTTCGATAGCGACCCGGTGGCTTTCACCCAGCGCTGGGCTGCGGCGCAGAGCGCCCTCCACGAGCGGTGCCGGGTCGCCCGAGAGCGTCTGGCCGCGATCGAACTGGACGAGGCGAGCCTGGAGGCGATCACCCGCCGCTGCTTCGAAGCGGGCGTGGACGGCATGCGCGCCGACCTGGTCTGGCTACGGGCCGCCCGTGCGCATGCCGCCTGGCGAGGCAGCTTCGCCATCGAGGCAGGGGACATCGACCGGGTGGAGCCCTTCGTCCTGCGCCATCGCCGTCATTTGATGCCCCCCCAATCTTCAGCAAGGCCTTCGCAGGGTGGATCCGCTTCATCGAAAGTCGAACAGGGCGAAGGCCAGTGGGGTGAGCTGCCGGCACAGCCACAAACCATGGGGGCGAGGCGGGAGCTCCCGCGCTGGCCAAAAAAGCCCTGA</t>
+  </si>
+  <si>
+    <t>ATGCCAGTCATCTACCCATTTACTGCCATTGTCGGTCAGGAACGCATGAAGCGCGCGCTGGTCTTGAACGCGGTTGATCCGCGCATCGGGGGGGTTCTGATTCGCGGAGAGCGCGGCACGGCCAAATCCACCGCGGCACGGGCGCTGGCAGCGCTTTTACCGCATGTGCGGGTGGTGGCCGACTGCCGTTTTGGTTGTGATCCGGATAGTCCTTCTACATGGTGTACCGAATGTCGTGAGCGGCACGCTCGTGGGGAGGAGCTGCCGGTTGCGACCCGTGCCACTCCCTTCGTCAATCTGCCCATTTCGGCGACCGAGGATCGAGTGGTTGGGACACTGGATATCGAGAAAGCGATTCAGAAGGGCGAGCGTGCTTTCGAGCCGGGCGTGCTGGCGGCTGCCAACCGCGGTCTGCTCTACATTGACGAGGTCAACCTGCTGGATGACCATGTGGTGGATGTGCTGCTCGACTCGGCTGCCATGGGGATGAACATCATAGAGCGCGAAGGCATCTCGTTCAGCCATCCGGCCCGCTTTATTCTGGTGGGGACGATGAACCCCGAAGAGGGTGATTTACGCCCGCAACTGCTGGATCGGTTTGCCCTTTCCGTAGAGATATACGGTATCCGGGATGCGCGCGAACGGGTGCAGATCATGGAACGCAATCTGGCTTTTGAAGCCGATCCCGAAAAATTCCGTCAGCAGTGGCTGCCAAAAGAGGAAGAACTCTCCCGCCAGATTGAACGCGCTCGCCGGTTGATTGATCAGGTTGGTTATACCAGTCGCGATCTGCTTTCAATTGCTCAATTGACCGCTTCTTTGAATGTGGACGGACACCGCGCCGATCTGGTCATTCTCAAAGCCGCCCGGGCGCAGGCCGCCTTCGATGGGCGCACGGCAATCAACGGGCGGGATATTGCGCTGGCAGCAGAACTGGCGCTTCCGCACCGTCTGCGCCGCGGGCCTTTCTCTCAGGAAGAAGTGACTATGGAAGAACTGCAAGACCGGATTGAGCAATTACAGGGAGCCAGTTCTACCGGTCAGCGGCGCGAAGAAGTTGAAAGGGTTGAGGAAGAGAAGAATCAGCAAAAAAAAGTCCTGAACGAGGGAGCGGAAAGTCCGGAAACGCTCCCTCAGGGAACTCCTCAACCCGGACAGACGGAAGAAATTTTTGGAAAACAGAACGCTCAATGGTGGGATGGCGGTGAGCGGGTAAAAATCGGTCAGTCTTTCGACCCGCGCCGGCTGGACACACCCTTGGATAAAATGGTGCGTCGTTTTGCCGGGCGTCGGTCACGTACCCGCACCGAAAGAAAACGCGGCCGTTATATCCAATCGCGGCCTTCTTATGGCAAGGCTGATGATCTGGCTTTTGATGCTACTTTACGGGCGGCTGCTCCCCATCAGCGGGAACGTGAGGAAGACCGGCAGAGAGTGGCTTTTTCGGTGCGCCCCAGCGATTACATGCGCAAAGTGCGGGTGCGCCGGGCGGCAAACTTAATCCTCTTTCTGGTGGATGCCTCGTGGTCTATGGCGGTGGCGGAGCGGATGCAGGCGACCAAGGGAGCCATCCTTTCCCTCTTGACGGATGCTTACCAGCGTCGTGATCGGGTCGGGTTGATCGTTTTCCAGAAAGACCGCGCCACGCTGGTTCTGCCACCCACCAATTCGGTTACGCTGGCACAGCGGGCACTTGCCGATATTCCGGTAGGAGGCAAGACGCCGCTTTCGGCCGGCCTGAAACTGGCTTACGATGTGCTGATGCGCGAACGGATGCTGCATCCCGATGTGATGCCGCTGCTGATCGTCCTCACCGATGGCGCCGGGAATGTTTCAATGGGCAAGCTTCCGCCCCATGAAGAAGCCTATCGAATTGCCCGGCAGATTGCCGAGGAACACATCCACAGTGTGGTCATCAACATGGAGCATGTGGCGTTTGATCAGGGACTGGCGCAGGCCCTGGCCGATCAACTGCAAGCACCCTGCTACACGATTGGGGAGTTGAAAGCCGAGAACCTTTACCAAACCGTCCGCAAGGAGATGCAAACGACCCAGTTGAATCCCATGCCGGATGAACGCCGCTGA</t>
+  </si>
+  <si>
+    <t>ATGCCAGTCATCTACCCATTTACTGCCATTGTCGGTCAGGAACGCATGAAGCGCGCGCTGGTCTTGAACGCGGTTGATCCGCGCATCGGGGGGGTTCTGATTCGCGGAGAGCGCGGCACGGCCAAATCCACCGCGGCACGGGCGCTGGCAGCGCTTTTACCGCATGTGCGGGTGGTGGCCGACTGCCGTTTTGGTTGTGATCCGGATAGTCCTTCTACATGGTGTACCGAATGTCGTGAGCGGCACGCTCGTGGGGAGGAGCTGCCGGTTGCGACCCGTGCCACTCCCTTCGTCAATCTGCCCATTTCGGCGACCGAGGATCGAGTGGTTGGGACACTGGATATCGAGAAAGCGATTCAGAAGGGCGAGCGTGCTTTCGAGCCGGGCGTGCTGGCGGCTGCCAACCGCGGTCTGCTCTACATTGACGAGGTCAACCTGCTGGATGACCATGTGGTGGATGTGCTGCTCGACTCGGCTGCCATGGGGATGAACATCATAGAGCGCGAAGGCATCTCGTTCAGCCATCCGGCCCGCTTTATTCTGGTGGGGACGATGAACCCCGAAGAGGGTGATTTACGCCCGCAACTGCTGGATCGGTTTGCCCTTTCCGTAGAGATATACGGTATCCGGGATGCGCGCGAACGGGTGCAGATCATGGAACGCAATCTGGCTTTTGAAGCCGATCCCGAAAAATTCCGTCAGCAGTGGCTGCCAAAAGAGGAAGAACTCTCCCGCCAGATTGAACGCGCTCGCCGGTTGATTGATCAGGTTGGTTATACCAGTCGCGATCTGCTTTCAATTGCTCAATTGACCGCTTCTTTGAATGTGGACGGACACCGCGCCGATCTGGTCATTCTCAAAGCCGCCCGGGCGCAGGCCGCCTTCGATGGGCGCACGGCAATCAACGGGCGGGATATTGCGCTGGCAGCAGAACTGGCGCTTCCGCACCGTCTGCGCCGCGGGCCTTTCTCTCAGGAAGAAGTGACTATGGAAGAACTGCAAGACCGGATTGAGCAATTACAGGGAGCCAGTTCTACCGGTCAGCGGCGCGAAGAAGTTGAAAGGGTTGAGGAAGAGAAGAATCAGCAAAAAAAAGTCTGA</t>
+  </si>
+  <si>
+    <t>ATGCGAACGATTTATCCCTTTACAGCAATCGTGGGTCAGCAACGCATGAGCCGGGCATTGATATTAAATGCGATCGACACTCGCATCGGCGGTGTTTTGATCCGCGGCGAGCGCGGCACCGGAAAATCAACTGCGGCGCGAGCCTTGGCTGCCTTATTGCCCCCGGTTCAGGTGGTGCAGAACTGCCGGTTTGGATGTGACCCCCAAAAACCGATCAGCTGGTGCACAGAATGCCGGGAGCGTTTCGAAGCCGATGAAAACGGTTTGCCCGTTGAGACCCGGCAAACACCCTTCATCAACCTGCCGATCTCAGCCACGGAAGACCGGGTGGTGGGTACCCTGGATATCGAAAAAGCGATCCAAAAGGGTGAGCGCCACTTTGAACCCGGCGTTTTAGCGGCTGCCAATCGCGGCTTGCTGTACATTGACGAGGTCAACCTGCTGGACGACCATGTGGTGGACGTTTTGCTCGATTCAGCGGCGATGGGGATGAACATCGTCGAACGCGAAGGCATCTCCTTTGCTCACCCGGCGCGCTTTATCCTGGTGGGCACGATGAACCCCGAAGAAGGCGATTTGCGCCCGCAACTGCTGGACCGGTTTGCCCTCTCCGTTGAAATTCGCGGCATCCTCGATCCCCGACAGCGCGTGCAGATCATGGAGCGCAACCTGGCGTTTGAGGCTGACCCGGAAGCCTTCCGCCAGAAATGGCTCCCCAGGGAACAGGAGCTTTCAGAGAAAATCGCCAGAGCCAGGCAAATGCTGGACAAGGTGGGTTATACCAGCCGCGACTTGCTGGTCATCGCTGACCTGACAGCCAAAATGCAGGTTGACGGACACCGGGCGGACCTGGTGATCCTCAAAGCCTCGCGCGCCCATGCCGCATTTGAAGGTCGGGACGCCATCAACCCCTATGATATTGCCCTGGCTGCCGAGCTGGCGCTTCCGCACCGCGTTAAAGCCGGTCCCTTCAGGCATTCAGAGATGGGCATCACCCAATTACAGGAGCATATCGAAGAATTGGTGGGCTCTGCTTCTGAAGGCGCCCCTGTGGATCAGCAAGACCGGGGTGATGAATCCCAAACCAGTCAAAAAAAAAGCCTCTCTCCCCCCATCTCGAAATTAGCGAAGAACCCGTTGGATCCAAGCCCGGTAGCGCCTGCCCGACAGGATATCTTCAGCGACAATACCGCCCACTGGTGGGAAGGTGGGAAATCGGTTAAACCCGGCGAGACCTTTGCGCCGCGCCGCCTGGACACCCCCCTGGATGAAATTATGCGCAAGCAGAGCGGGCGCCGCTCTCAGACTCAAACCGACCGCAAGCGCGGACGCTATATCCAGGCCCGCCCTGCCAACGGCAAAGCCGATGACCTGGCTTTTGACGCCACGCTGCGCGCCGCTGCCCCGTTTCAAAAAGCGCGTGAGGAGGGCAAAAATAATGAGGTGGCTTTTTCCGTTCGGCGGGAGGACTATCAACGCAAGGTGCGGGTTCGAAGGACGGCAAACCTGATTTTATTCCTGGTGGATGCCTCCTGGTCTATGGCTGTGGCGGAGCGCATGGCTGCCACCAAGGGCGCCATCCTCTCGCTGCTGACCGACGCCTACCAGCGCCGTGACCGGGTGGGGTTGATCGTGTTTCAGAAGGACCGCGCCACCCTGGTACTGCCGCCAACCAACTCGGTTTTGCTGGCACAACAAGCCCTGGCGGACATCCCTGTGGGCGGGAAAACGCCCCTGAGCGCCGGCTTACAAATGGCTTATGAGGTGCTAAAACGCGAGAAAATACTGCACCCCGATGTTTACCCTCTGCTGATTATCCTGACCGACGGCGCCGGCAACGTCGCGCTGGGCAGCGGCTCGCCGGAAAAAGAAGCCCATCTGCTGGCTGAACAAATTGCCAACGAAGACCTGCGCTCTGTGGTGATCAACATGGAGCACGAAGCTTTCGACCAGGGATTGGCGCATGCCCTGGCAGATCATCTCCAAGCCACCTGCTACACCCTGGATGAACTGCGCAGTGATACGCTCTACCGCACGGTGCAAAAAGAAATTCACTCCGGGGTTCCAGGCGCTCAGCCTGGAAAAGCCTCCAGGTGA</t>
+  </si>
+  <si>
+    <t>ATGCGAACGATTTATCCCTTTACAGCAATCGTGGGTCAGCAACGCATGAGCCGGGCATTGATATTAAATGCGATCGACACTCGCATCGGCGGTGTTTTGATCCGCGGCGAGCGCGGCACCGGAAAATCAACTGCGGCGCGAGCCTTGGCTGCCTTATTGCCCCCGGTTCAGGTGGTGCAGAACTGCCGGTTTGGATGTGACCCCCAAAAACCGATCAGCTGGTGCACAGAATGCCGGGAGCGTTTCGAAGCCGATGAAAACGGTTTGCCCGTTGAGACCCGGCAAACACCCTTCATCAACCTGCCGATCTCAGCCACGGAAGACCGGGTGGTGGGTACCCTGGATATCGAAAAAGCGATCCAAAAGGGTGAGCGCCACTTTGAACCCGGCGTTTTAGCGGCTGCCAATCGCGGCTTGCTGTACATTGACGAGGTCAACCTGCTGGACGACCATGTGGTGGACGTTTTGCTCGATTCAGCGGCGATGGGGATGAACATCGTCGAACGCGAAGGCATCTCCTTTGCTCACCCGGCGCGCTTTATCCTGGTGGGCACGATGAACCCCGAAGAAGGCGATTTGCGCCCGCAACTGCTGGACCGGTTTGCCCTCTCCGTTGAAATTCGCGGCATCCTCGATCCCCGACAGCGCGTGCAGATCATGGAGCGCAACCTGGCGTTTGAGGCTGACCCGGAAGCCTTCCGCCAGAAATGGCTCCCCAGGGAACAGGAGCTTTCAGAGAAAATCGCCAGAGCCAGGCAAATGCTGGACAAGGTGGGTTATACCAGCCGCGACTTGCTGGTCATCGCTGACCTGACAGCCAAAATGCAGGTTGACGGACACCGGGCGGACCTGGTGATCCTCAAAGCCTCGCGCGCCCATGCCGCATTTGAAGGTCGGGACGCCATCAACCCCTATGATATTGCCCTGGCTGCCGAGCTGGCGCTTCCGCACCGCGTTAAAGCCGGTCCCTTCAGGCATTCAGAGATGGGCATCACCCAATTACAGGAGCATATCGAAGAATTGGTGGGCTCTGCTTCTGAAGGCGCCCCTGTGGATCAGCAAGACCGGGGTGATGAATCCCAAACCAGTCAAAAAAAAAGCCTCTCTCCCCCCATCTCGAAATTAGCGAAGAACCCGTTGGATCCAAGCCCGTAG</t>
+  </si>
+  <si>
+    <t>ATGACCGATCCGACGACGCACCGCGCGCGCGCGGTTTTTCCGTTTGCGGCGCTCGTCGCACAGGACGCGCTGCAGCAGGCGCTGCTGCTCGCCGCGATCGACCCGTCGCTCGGCGGCGTGCTCGTGAGCGGCCCGCGCGGCACCGCGAAATCGACCGCCGCGCGCGGCCTCGCCGAGCTGTTGCCGGAAGGGCAGTTCGTCACGCTGCCGCTGTCGGCGAGCGACGAGCAGGTGACGGGGACGCTCGACCTCGCGCATGCACTCGCCGAAAACGGCTTGCGCTTCCGGCCGGGCCTGCTCGCGCGGGCGCATCTCGGCGTGCTGTATGTCGACGAGGTGAACCTGCTCGCCGACGGGCTCGTCGATACGCTGCTCGACGTCGCCGCGAGCGGCGTGAACATCGTCGAACGCGATGGCGTGTCGCATGCGCACGACGCGCGCTTCGTGCTCGTCGGCACGATGAATCCCGAGGAGGGCGAGCTGCGTCCGCAACTGCTCGACCGCTTCGGCCTGATGGTCGAACTGGAGAACTGCTTCGACGCCGCGCAGCGCGAGCGGATCGTGAAGGCGCGGCTTGCGTTCGATCTCGATCCGGAGGCGTTCCGCGCGCGCCACGCATCCGCGCAGCGCGCACTCGGCGAACGGATTCACGCGGCGCGCGCACGGCTGGCGACACTCGATTTCGGCGATGCGGTGCATGCGCACGTCAGCGCGCTGTGCATCGACGCGGCCGTCGACGGGCTGCGTGCCGATCTCGTGATGTTGCGCGCGGCGCGCGCGCTCGCCGCACTGGAGCAGGCCGATGCGGTGACGGTGTCGCATGTGGCGCGCGTGGCCGAAGCCGTGCTGCGGCACCGGCGCCATGCCGGTGCGCCGCCGTCGTCCGGCGCGTCGCAGCCGGATCGCGCAAGCGACGACCGTTCGCCGCCGGATGCACGCCAGCAGCCGGACGATCAACCGGCCGCAAGCGGGAACGGCGCCGCGGTCGCGCAGGGCGACTGGGGCTACCTGCGGCCCGAGCCGGCGGGGCTGCGCGACGTGAAAAGCGTGGTGCCGCTGCCGCTAAAAAAACACCTGAGCCATCGAGCCGGCGCCGCCGCGAACGCCGTTCGCGGTCCTCGATGGCAGCCAGGCGCAGCCGCGCGCGTGCCGGGCACGGCGCGCACCGGCACGGCCGTCGCATGGCCGGCGACGTTCGCCGCGAAGCGCGGCGATCCGTTGCATCGCGGCCATCTGCGCTTCCGGAAGCGGGCGGGCGCACCGGATGCACTGCATTGCTTCGTGCTCGACTGTTCGGCGTCGATGCTGTCGCACGAGCGGCTCGCACTGGCGAAGGGGCTGATCGTCGCGTATTTCGACCAGGCCGCGCGCGATCGAGTCGAAACCGCGCTGGTCTGTTTCGGCGGCGACGGCGCGGCACGGCGCTTCGGCCCGGCCGTGCCGCGCTGGTGGAATGCGCGCTGGCTCGAACCGGTCGACGGTGGCGGCGGTACGCCGCTCGCGGACGGCATCGCGGCCGCCGCGCAGTTGCTCGCGCGCGCGGCGCGGCGCGATCCGGACAAGCAGCGCTGGCTGTGGGTGCTGTCCGACGGACGCACGCGCGAGATGCCGGCCAAACCCGCGGCGGCCGATCACGTCTTGTTCGTCGACTTCGACGATGCGGCCGTGCGGATCGGGCAGGGTGAGCGGCTGGCCGCCGCGTGGGGCGCGCAGTGGGTGACGGCCGACGCGCTGTGCTCGGGCCACACCGGCTGA</t>
+  </si>
+  <si>
+    <t>ATGACCGATCCGACGACGCACCGCGCGCGCGCGGTTTTTCCGTTTGCGGCGCTCGTCGCACAGGACGCGCTGCAGCAGGCGCTGCTGCTCGCCGCGATCGACCCGTCGCTCGGCGGCGTGCTCGTGAGCGGCCCGCGCGGCACCGCGAAATCGACCGCCGCGCGCGGCCTCGCCGAGCTGTTGCCGGAAGGGCAGTTCGTCACGCTGCCGCTGTCGGCGAGCGACGAGCAGGTGACGGGGACGCTCGACCTCGCGCATGCACTCGCCGAAAACGGCTTGCGCTTCCGGCCGGGCCTGCTCGCGCGGGCGCATCTCGGCGTGCTGTATGTCGACGAGGTGAACCTGCTCGCCGACGGGCTCGTCGATACGCTGCTCGACGTCGCCGCGAGCGGCGTGAACATCGTCGAACGCGATGGCGTGTCGCATGCGCACGACGCGCGCTTCGTGCTCGTCGGCACGATGAATCCCGAGGAGGGCGAGCTGCGTCCGCAACTGCTCGACCGCTTCGGCCTGATGGTCGAACTGGAGAACTGCTTCGACGCCGCGCAGCGCGAGCGGATCGTGAAGGCGCGGCTTGCGTTCGATCTCGATCCGGAGGCGTTCCGCGCGCGCCACGCATCCGCGCAGCGCGCACTCGGCGAACGGATTCACGCGGCGCGCGCACGGCTGGCGACACTCGATTTCGGCGATGCGGTGCATGCGCACGTCAGCGCGCTGTGCATCGACGCGGCCGTCGACGGGCTGCGTGCCGATCTCGTGATGTTGCGCGCGGCGCGCGCGCTCGCCGCACTGGAGCAGGCCGATGCGGTGACGGTGTCGCATGTGGCGCGCGTGGCCGAAGCCGTGCTGCGGCACCGGCGCCATGCCGGTGCGCCGCCGTCGTCCGGCGCGTCGCAGCCGGATCGCGCAAGCGACGACCGTTCGCCGCCGGATGCACGCCAGCAGCCGGACGATCAACCGGCCGCAAGCGGGAACGGCGCCGCGGTCGCGCAGGGCGACTGGGGCTACCTGCGGCCCGAGCCGGCGGGGCTGCGCGACGTGAAAAGCGTGGTGCCGCTGCCGCTAAAAAAACACTGA</t>
+  </si>
+  <si>
+    <t>ATGAACCCGCACGACCCGAGCGGCGGCCTGCCGCCGTTTCCGTTTTCCGCGCTGATCGGCCAGGCCGCGCTGCAGCAGGCATTGCTGCTGGTGGCCGTCGATCCCTCGATCGGCGGCGTGCTGGTGAGCGGGCCGCGCGGCACCGCGAAATCGACGGCGGCGCGCGCGCTGGCCGAGCTGCTGCCGCGGGGCCGCTTCGTGACGCTGCCGCTGGGCGCCGCCGACGAGCACGTGACCGGCACGCTGGACCTGGCCGGCGCGCTCGGCGAGAACGCCGTGCGTTTCTCGCCCGGGCTGCTGGCGCGCGCGCATCTGGGTGTGCTCTATGTGGACGAGATCAACCTGCTGCCCGACGGCCTGGTCGACGTGCTGCTCGACGCGGCCGCGAGCGGCGTCAACACGGTCGAGCGCGACGGCATCTCGCACACGCACGCGGCGCGCTTCGCGCTGGTCGGCACCATGAATCCGGAAGAGGGCGAGTTGCGTCCGCAGTTGCTGGATCGCTTCGGCTTGATGGTGGAACTCGAGAACTGTCGCGACATCGATGAGCGGCAGCGCATCGTCAAGGCGCGGCTGGCCTTCGATCTCGATCCGGCGGGCTTTCGCGCCGGGCATGCCGGGGCACTGGCCGCGCTGGCCGAACGGATCGGCCGCGCGCGCGAGGCGCTGGCGAGCGTGCAGGTCGATGACAGCGTGCACGAGCAGGTTGCCCGGCTCTGCATCGAGGCGGCCGTCGACGGGCTGCGCGCCGACCTGGTGATGTTGCGCGCCGCGCGGGCGCTGGCCGCCTTCGAGGGCGCGGCGGCGGTGAGCGCCGCGCATGTCGAACGCGTGGCCGCCGACGTGCTGCGCCATCGCCGCACGCAGGCGTCGGCCGCCGCCGAGTCGTCGTCACCCACGTCGTCGCCAACCGCGTCGCGGCAAACCGATCAGCCGGCTCGCGGCACCAACCCGCCGCCGCGCGGCGGTGATGCCTCGTCGATCGCGCGAGACGAGGCGCCAGCCGGCGACGGCGGCGCGCGGGACGGCGACTGGGGCTACCTGCCGCCCGTACCGGCCGGCCTCACGGCCGTGAAGGGCGTGATCCCGCTGCCCTCAAAAAAACGCCTGAGCCATCGAACGACTGCCCCCGCCGCGCCAGGCAGCGGGGTTCGATGGCGGCACGGCAAGCTTCCCGCCCGGCAGGGCCTGCCCGGCACGCGCATCGCGTGGCCGGCGACGCTGGCCGCCAAGCGCGGCGGCCCGCTCGAGGCCGCGCATCTGCGCTTTCGGCCGCGCTCGGGCGAGCCGCGCGCCTTCCACTGCTTCGTGCTCGACTGTTCGGCCTCGATGCTCGACGGCGCTCGCCTGGCGCTCGCCAAGGGCCTGCTGGTCGCGCTGTTCGACGCGGCGGCGCGCGAGCGTGCCGAGGTGGCGCTGATCGGCTTCGGCGGGCGCGGCGCCGAGCGGCGTTTCGGGCCGGCGGTGCCGCGCTGGTGGAACGAGCGCTGGCTCGAACCGGTGGCGGGCGGTGGCGGCACGCCCTTGTCGGCCGGCATCGCGATGGCGCAATCCCTGCTCGCGCGGATCGCGCGGCGCAGGCCCGGCGCGCCACGCACGCTCTGGCTGCTGAGCGACATGCGCACCGACGAGATGCCTTCGCGGCCGGCCCAGGCCGACGAGATCCACCTCGTCGACTTCGACGATGCCGCCGTGCGGCTGGGCAGGGCGCAGCGTCTGGCGCGCCGGTGGGAGGCTTCGTGCCGCCGGCCCGAGGATTTGATTTCCCGGATCGATCGCAACTAA</t>
+  </si>
+  <si>
+    <t>ATGAACCCGCACGACCCGAGCGGCGGCCTGCCGCCGTTTCCGTTTTCCGCGCTGATCGGCCAGGCCGCGCTGCAGCAGGCATTGCTGCTGGTGGCCGTCGATCCCTCGATCGGCGGCGTGCTGGTGAGCGGGCCGCGCGGCACCGCGAAATCGACGGCGGCGCGCGCGCTGGCCGAGCTGCTGCCGCGGGGCCGCTTCGTGACGCTGCCGCTGGGCGCCGCCGACGAGCACGTGACCGGCACGCTGGACCTGGCCGGCGCGCTCGGCGAGAACGCCGTGCGTTTCTCGCCCGGGCTGCTGGCGCGCGCGCATCTGGGTGTGCTCTATGTGGACGAGATCAACCTGCTGCCCGACGGCCTGGTCGACGTGCTGCTCGACGCGGCCGCGAGCGGCGTCAACACGGTCGAGCGCGACGGCATCTCGCACACGCACGCGGCGCGCTTCGCGCTGGTCGGCACCATGAATCCGGAAGAGGGCGAGTTGCGTCCGCAGTTGCTGGATCGCTTCGGCTTGATGGTGGAACTCGAGAACTGTCGCGACATCGATGAGCGGCAGCGCATCGTCAAGGCGCGGCTGGCCTTCGATCTCGATCCGGCGGGCTTTCGCGCCGGGCATGCCGGGGCACTGGCCGCGCTGGCCGAACGGATCGGCCGCGCGCGCGAGGCGCTGGCGAGCGTGCAGGTCGATGACAGCGTGCACGAGCAGGTTGCCCGGCTCTGCATCGAGGCGGCCGTCGACGGGCTGCGCGCCGACCTGGTGATGTTGCGCGCCGCGCGGGCGCTGGCCGCCTTCGAGGGCGCGGCGGCGGTGAGCGCCGCGCATGTCGAACGCGTGGCCGCCGACGTGCTGCGCCATCGCCGCACGCAGGCGTCGGCCGCCGCCGAGTCGTCGTCACCCACGTCGTCGCCAACCGCGTCGCGGCAAACCGATCAGCCGGCTCGCGGCACCAACCCGCCGCCGCGCGGCGGTGATGCCTCGTCGATCGCGCGAGACGAGGCGCCAGCCGGCGACGGCGGCGCGCGGGACGGCGACTGGGGCTACCTGCCGCCCGTACCGGCCGGCCTCACGGCCGTGAAGGGCGTGATCCCGCTGCCCTCAAAAAAACGCTGA</t>
+  </si>
+  <si>
+    <t>TTGCCGGCCGCCTATCCGTTTTCCGCGCTGATCGGCCAGGCGGCGTTGCAGCAGGCGCTGCTGCTCGTCGCCGTCGATCCGGGCCTGGGCGGCGTGCTCGTGAGCGGTCCGCGCGGCACCGCGAAATCGACCGCCGCGCGCGCGCTCGCCGAGCTGCTGCCCGAGGGGCGCTTCGTCACGCTGCCGCTGTCGGCCAGCGACGAGCAGGTGACGGGTTCGCTCGACCTCGCGAGCGCGCTCGCCGACAATACGGTGCGCTTTTCGCCCGGCCTCGTCGCGCGCGCGCATCTCGGCGTGCTGTACGTCGACGAGATCAACCTGCTGCCGGACGCGCTCGTCGACGCGTTGCTCGACGCGGCCGCGAGCGGCGTCAACACGGTCGAGCGCGACGGCGTGTCGCACAGCCACGCGGCGCGCTTCGCGCTCGTCGGCACGATGAACCCGGAAGAGGGCGAGTTGCGCCCGCAACTGCTCGACCGTTTCGGGCTGATGGTGGAGCTCGCGAACTGCTACGACGCGGCGACGCGGCAGCGGATCGTCAAGGCGCGGCTCGCGTTCGATCTCGATCCGCACGGCTTTCGCGCGCAGTACCGCGACGCGCAGGCGGCGCTCGTCGCGCAAATTCGCGCGGCGCGCGCCGCGCTGCCGGCGCTCGCGTTCGACGACGCCGCGCACGCGCGCGTCGCCGAGCTGTGCATCGGCGCGGCCGTCGACGGCCTGCGCGGCGACCTCGTGATGCTGCGCGCCGCGCGGGCGCTCGCGGCGCTCGACGGGGCGGCGCGCGTCGCCGCGGCGCACGTCGAGCGCGTCGCCGCCGATGTGCTGCGCCATCGGCGCACGCGGTTCGAGCCGCAACCTGAATTTCAGCCCGGATTTCAACCCGGGTCTCAAGCCGGGCCTCAGCCGATGGGGCGACGCGAGCCTCCGCCCGCATCGCGTTCGGCCGGCGGCGACGCGCCGGGCGGGCGCGCGGATCCGGGCGAAGCCGAAGCCACGCGCGCGCCCACGCCTCGCGACGCGCTGCCCGGCGGCGCGAGCGGACCGGCGCATCCCGCTGCGCGCGCGCCGTCCGACGCGCAGCGGCGCGCGGCGGACGAGCGCGGCGCGGCGCGCGACGGCGGCCGTGGGCCGGCCGCCGACGATAGCGACTGGGGCTATCTGCCGCCCGAGCCGGCGGGCATCGCGCCCGTCAAGGGCGTGATCCCGCTGCCGCTAAAAAAACGCCTGAGCCATCGGGCGGATGCCGCCGCTGTCGCCGCGCACGCGCCGAACAGCGGGCTTCGATGGCTCGAACGAGGCATGCGGCATATGCGGCATGACGATGCGCGCGGCCGCCCCGGCACGCGCATCGCGTGGCGCGCGACGCTCGCGGCGAAGCGCGGCGAAGCATGGCGCGCCGACCATCTGCGCTATCGTCCGCAGGCCGGCTCGCCGGGCGCGCTGCATTGCTTCGTGCTCGACTGCTCGGCGTCGATGCTGACGGCCGAGCGGCTCGCGCGCGCGAAGGGGCTCGTCGTCGCGCTGTTCGATTCGCTGGCGCGCGAGCGTGCCGACGCGGCGCTCGTGTGCTTCGGCGGCAACGCGGCCGACGTGCGGTTCGGGCCGGCCGTGCCGCGCTGGTGGAACGAGCGCTGGCTCGCGCCCGTCGGCGCGGGCGGCGGCACGCCGCTCACGCGGGGTATCGGCGCCGCGACGCGGCTGCTCGCGCGCGCCGCGCGGCGCCACCCGGGGCAGCAGCGCTGGCTGTGGCTGCTGTCGGACGGGCGAACGACCGAGTCGCCGGCGCGGCCGGCGCTTGCCGAGCGGATCGTCATCGTCGACTTCGACGACGCGCCCGTGAGGCTCGGCCGCTGCGAGCGGCTCGCGCACGCGTGGGGCGCGGCGCTCGTCACGCCGCAGGCGCTCGAGCGCGGGGGCGGGTGA</t>
+  </si>
+  <si>
+    <t>TTGCCGGCCGCCTATCCGTTTTCCGCGCTGATCGGCCAGGCGGCGTTGCAGCAGGCGCTGCTGCTCGTCGCCGTCGATCCGGGCCTGGGCGGCGTGCTCGTGAGCGGTCCGCGCGGCACCGCGAAATCGACCGCCGCGCGCGCGCTCGCCGAGCTGCTGCCCGAGGGGCGCTTCGTCACGCTGCCGCTGTCGGCCAGCGACGAGCAGGTGACGGGTTCGCTCGACCTCGCGAGCGCGCTCGCCGACAATACGGTGCGCTTTTCGCCCGGCCTCGTCGCGCGCGCGCATCTCGGCGTGCTGTACGTCGACGAGATCAACCTGCTGCCGGACGCGCTCGTCGACGCGTTGCTCGACGCGGCCGCGAGCGGCGTCAACACGGTCGAGCGCGACGGCGTGTCGCACAGCCACGCGGCGCGCTTCGCGCTCGTCGGCACGATGAACCCGGAAGAGGGCGAGTTGCGCCCGCAACTGCTCGACCGTTTCGGGCTGATGGTGGAGCTCGCGAACTGCTACGACGCGGCGACGCGGCAGCGGATCGTCAAGGCGCGGCTCGCGTTCGATCTCGATCCGCACGGCTTTCGCGCGCAGTACCGCGACGCGCAGGCGGCGCTCGTCGCGCAAATTCGCGCGGCGCGCGCCGCGCTGCCGGCGCTCGCGTTCGACGACGCCGCGCACGCGCGCGTCGCCGAGCTGTGCATCGGCGCGGCCGTCGACGGCCTGCGCGGCGACCTCGTGATGCTGCGCGCCGCGCGGGCGCTCGCGGCGCTCGACGGGGCGGCGCGCGTCGCCGCGGCGCACGTCGAGCGCGTCGCCGCCGATGTGCTGCGCCATCGGCGCACGCGGTTCGAGCCGCAACCTGAATTTCAGCCCGGATTTCAACCCGGGTCTCAAGCCGGGCCTCAGCCGATGGGGCGACGCGAGCCTCCGCCCGCATCGCGTTCGGCCGGCGGCGACGCGCCGGGCGGGCGCGCGGATCCGGGCGAAGCCGAAGCCACGCGCGCGCCCACGCCTCGCGACGCGCTGCCCGGCGGCGCGAGCGGACCGGCGCATCCCGCTGCGCGCGCGCCGTCCGACGCGCAGCGGCGCGCGGCGGACGAGCGCGGCGCGGCGCGCGACGGCGGCCGTGGGCCGGCCGCCGACGATAGCGACTGGGGCTATCTGCCGCCCGAGCCGGCGGGCATCGCGCCCGTCAAGGGCGTGATCCCGCTGCCGCTAAAAAAACGCTGA</t>
+  </si>
+  <si>
+    <t>ATGACCGATCCGACGCACCGCCTGCGCGCGGTGTCTCCCGCCGTATTCCCGTTCACCGCGCTGGTCGGGCAGGCGGCGCTGCAACAGGCGCTGCTGCTCGCGGCGATCGACCCGTCGCTCGGCGGCGTGCTCGTCAGCGGGCCGCGCGGCACCGCGAAATCCACCGCCGCGCGTGCGCTCGCGGCGCTGCTGCCGGAAGGGCAGTTCGTGACGCTGCCGCTGTCGGCGAGCGACGAGCAGGTGACCGGCTCGCTCGATCTCGCGCATGCGCTCGCGGAGAACGGCGTGCGCTTCCGGCCGGGGCTGCTCGCGCGCGCGCATCGCGGCGTGCTGTACGTCGACGAGGTGAACCTGCTGGCCGACGGGCTCGTCGATACGCTGCTCGACGTCGCCGCGAGCGGCGTCAACATCGTCGAGCGCGATGGCGTGTCGCACGCGCACGACGCGCGCTTCGTGCTGGTCGGCACGATGAATCCGGAGGAAGGCGAACTGCGGCCGCAACTGCTCGATCGCTTCGGGCTGATGGTCGAGCTCGAGAATTGCTTCGATGCCGCGCAGCGCGAGCAGATCGTGAAGGCGCGGCTCGCGTTCGATCTCGATCCCGAAGCGTTCCGCGCGCGTCACGACGACGCGCAGCGCGCGCTGGCCGGGCGGATTCGCGCGGCGCGCGAGCGCCTGCCGGCGCTGACGTTCGGCGATGCGGTGCATGCGCGGGTCAGCGCGCTGTGCATCGACGCGGCCGTCGACGGCCTGCGCGCCGATCTCGTGATGCTGCGCGCGGCGCGCGCGCTGGCGGCGCTCGAAGGCGCGGACGCGGTGACGGTCGAGCATGTCGAACGCGTCGCGGAAGCGGTGCTGCGGCATCGCCGTTCAGCGCATGCGGCGCCGCCTGCGGCGTCGGGGGCGCGCGACGCGGAGCGTGCGCCGTCGCAATCGAATGCGGGCGGTTCGTCCGCCACGCCGCCTGACACGGCGCGGCCGCGCGACGAGGATGCACAAGGCGACTGGGGCTACCTGCCGCCCGAACCCGCCGGCTTGCACGCGGTGAAGGGCGTGGTGCCGCTGCCGCTAAAAAAACGCCTGAGCCATCGAGCAGGCGCCGCCGCGACTTCGCTTCGCGGTCCTCGATGGCAGCAGGGCGCAACCGGGCGTGCGCCGGGCGTGACACGCGCCGGCGTGGCGGTCGCGTGGCCGGCGACGTTCGCGGTCAAGCGCGCCGGGCGATTGCAGGCCGAGCATCTGCGGTTCCGGAAGCAGGTGGGCGCGCCGCGCGCGCTGCATTGCTTCGTGCTCGACTGCTCGGCGTCGATGCTGTCGTTCGAGCGGCTCGCGATCGCGAAGGGGCTGATCGTCGCGTACTTCGATCACGCAGCGCGCGCGCGGGCGGAGACGGCGCTGATCTGTTTCGGCGGGACCGGCGCGGAACGCCGGTTCGGGCCGGCGGTGCCGAGGTGGTGGAACGCGCGCTGGCTGGGGCCGGTGGGCGGCGGCGGCGGCACGCCGTTCGCCGACGGGATCGATGCCGCCGCGCGGCTGCTCGCGCGGGAGGCGCGCCGCGAGCCGGACAAGCAGCGGTGGCTGTGGGTGCTGTCGGATGGGCGCACGCGCGAGATGCCGGCGCGGCCGAAGGCGGCGGATCATGTCGTGTTCGTCGACTTTGACGATGCCGCCGTGAGGGTCGGGCGCGGGGCAAGGATCGCGGCCGAGTGGGGGGCGCAGTGGGTGACGGCGGAGGGGTTGGTGGCCTGA</t>
+  </si>
+  <si>
+    <t>ATGACCGATCCGACGCACCGCCTGCGCGCGGTGTCTCCCGCCGTATTCCCGTTCACCGCGCTGGTCGGGCAGGCGGCGCTGCAACAGGCGCTGCTGCTCGCGGCGATCGACCCGTCGCTCGGCGGCGTGCTCGTCAGCGGGCCGCGCGGCACCGCGAAATCCACCGCCGCGCGTGCGCTCGCGGCGCTGCTGCCGGAAGGGCAGTTCGTGACGCTGCCGCTGTCGGCGAGCGACGAGCAGGTGACCGGCTCGCTCGATCTCGCGCATGCGCTCGCGGAGAACGGCGTGCGCTTCCGGCCGGGGCTGCTCGCGCGCGCGCATCGCGGCGTGCTGTACGTCGACGAGGTGAACCTGCTGGCCGACGGGCTCGTCGATACGCTGCTCGACGTCGCCGCGAGCGGCGTCAACATCGTCGAGCGCGATGGCGTGTCGCACGCGCACGACGCGCGCTTCGTGCTGGTCGGCACGATGAATCCGGAGGAAGGCGAACTGCGGCCGCAACTGCTCGATCGCTTCGGGCTGATGGTCGAGCTCGAGAATTGCTTCGATGCCGCGCAGCGCGAGCAGATCGTGAAGGCGCGGCTCGCGTTCGATCTCGATCCCGAAGCGTTCCGCGCGCGTCACGACGACGCGCAGCGCGCGCTGGCCGGGCGGATTCGCGCGGCGCGCGAGCGCCTGCCGGCGCTGACGTTCGGCGATGCGGTGCATGCGCGGGTCAGCGCGCTGTGCATCGACGCGGCCGTCGACGGCCTGCGCGCCGATCTCGTGATGCTGCGCGCGGCGCGCGCGCTGGCGGCGCTCGAAGGCGCGGACGCGGTGACGGTCGAGCATGTCGAACGCGTCGCGGAAGCGGTGCTGCGGCATCGCCGTTCAGCGCATGCGGCGCCGCCTGCGGCGTCGGGGGCGCGCGACGCGGAGCGTGCGCCGTCGCAATCGAATGCGGGCGGTTCGTCCGCCACGCCGCCTGACACGGCGCGGCCGCGCGACGAGGATGCACAAGGCGACTGGGGCTACCTGCCGCCCGAACCCGCCGGCTTGCACGCGGTGAAGGGCGTGGTGCCGCTGCCGCTAAAAAAACGCTGA</t>
+  </si>
+  <si>
+    <t>TTGAACGAAACCTCTTTATTTCCAGTGTTTCCTTTCACCGCGCTCGTCGGACAGGCGCCGTTGCAGCAGGCGTTGCTGCTCGCGGCTGTGGATCCGTCGCTTGGCGGTGTGCTCGTCAGCGGACCGCGCGGCACGGCCAAATCGACGGCGGCGCGCGCGCTTGCCGAGCTTCTTCCGGAAGGACGGCTCGTGACGTTGCCGCTCGGCGCAAGCGAGGAGCAATTGATCGGCACGCTCGACATTCAAAGCGCGCTACGCGACGGCGGCGTGAAGTTCTCGCCGGGTTTGCTGGCAAAGGCGCATCGCGGCGTGCTGTATGTCGACGAAGTGAATCTGCTGCCGAATCCGCTCGTCGATCAATTGCTCGACGTTGCGGCAAGCGGCGTGAATATCATCGAGCGTGACGGCATTTCGCATCGGCATGATGCGCGCTTCGTGTTGATCGGCACGATGAATCCGGAGGAAGGCGAGTTGCGTCCGCAACTGCTGGATCGCTTTGGGCTCGCGGTGGAACTGAATAACTGCTTCGATGCGAGCGTGCGGCAGCGGATCGTGAAGTCGCGTCTTGCATTCGATACGGACCCCGAAGCATTTCGTGCGCTTCATGAAGAGAATCAGGCGGCGCTCGGCGAACGCATCGATGCGGCCCGCGCCGCGCTGAACGACTTCGATTTCGACGATGCCGTTCATGCGCGCGTCAGCGAGCTTTGCATCGCCGCACAAGTGGATGGTCTGCGCGCGGACCTCGTGATGTTGCGCGCGGCGCGTGCGCTCGCGGCGCTCGAAGGCGCGGATTACGTGGAAACCAAGCACGTCGAATGCGTGGCCGAAGCTGTCTTGCGTCACCGGCGTCGCGAGACTGAAGCGCCGCCGCGCGAGACGCCGCCTCGTCAGGCAAACGGTGCAAGCGAGCAGGACGGCGAGTGGGGCTATGTGCCGCCCGAGCCGGCAGGCACGGCCAAGGTCAAGCAAGTCAGGCCGCTCGCCGCAAAAAAAGCCCTGAGCCATCGAAGGCTCGACGCCGATGCGCAAGCGCATCGTCTTCGATGGCAGAACGCGCGTTCACAAGGCCGCTTCGCTGCACGCGAGGGCGTGAAGAGCGCTCGCATCGACTGGATGGCGACATTGCGAGCCAAGCGCGCCGCGCCGTTCAATGCGCAGCACGTGCGCTTTCGCCGTACCGATGCCGATGCGAGCGCGCTGCATTGTTTCCTGCTCGATTGCTCCGGCTCGATGCTCGGCGGCGCGCGCCTTGCACGCGCCAAGGGCATGCTCATCGCGCTATTCGACCGCGCTTATCGCGAGCGTGCTGAAGTGGCGCTCGTATGCTTCGGCGGCGGACATGCCGAAGTGCGTCGGCAACCGGGCGCGGCGCACTGGTTCAATGAACGATGGATCGCGCCGATCGGTGGCGGAGGCGGCACGCCGCTCACGCTCGGCATATCGAGCGCGGCGACGGTGCTCGTGCGCGTGTCACGTCGCCGGCCTCATCAACGCCGCTGGCTATGGGTACTGACCGATGGCCGCGTGAACGATCGCCCGGTCGCGCCTGCGGGTGCGGATCGCATTATCGTGGTGGACTTCGAGGATGGGCCCTTGCGTGTGGGTGGTGCCGAAGTATTGGCCGCGTCGTGGCAAGCGCACTATGTGCCGGCGGATGCGCTGCTTCAATACCAGCGCGGCGTATAG</t>
+  </si>
+  <si>
+    <t>TTGAACGAAACCTCTTTATTTCCAGTGTTTCCTTTCACCGCGCTCGTCGGACAGGCGCCGTTGCAGCAGGCGTTGCTGCTCGCGGCTGTGGATCCGTCGCTTGGCGGTGTGCTCGTCAGCGGACCGCGCGGCACGGCCAAATCGACGGCGGCGCGCGCGCTTGCCGAGCTTCTTCCGGAAGGACGGCTCGTGACGTTGCCGCTCGGCGCAAGCGAGGAGCAATTGATCGGCACGCTCGACATTCAAAGCGCGCTACGCGACGGCGGCGTGAAGTTCTCGCCGGGTTTGCTGGCAAAGGCGCATCGCGGCGTGCTGTATGTCGACGAAGTGAATCTGCTGCCGAATCCGCTCGTCGATCAATTGCTCGACGTTGCGGCAAGCGGCGTGAATATCATCGAGCGTGACGGCATTTCGCATCGGCATGATGCGCGCTTCGTGTTGATCGGCACGATGAATCCGGAGGAAGGCGAGTTGCGTCCGCAACTGCTGGATCGCTTTGGGCTCGCGGTGGAACTGAATAACTGCTTCGATGCGAGCGTGCGGCAGCGGATCGTGAAGTCGCGTCTTGCATTCGATACGGACCCCGAAGCATTTCGTGCGCTTCATGAAGAGAATCAGGCGGCGCTCGGCGAACGCATCGATGCGGCCCGCGCCGCGCTGAACGACTTCGATTTCGACGATGCCGTTCATGCGCGCGTCAGCGAGCTTTGCATCGCCGCACAAGTGGATGGTCTGCGCGCGGACCTCGTGATGTTGCGCGCGGCGCGTGCGCTCGCGGCGCTCGAAGGCGCGGATTACGTGGAAACCAAGCACGTCGAATGCGTGGCCGAAGCTGTCTTGCGTCACCGGCGTCGCGAGACTGAAGCGCCGCCGCGCGAGACGCCGCCTCGTCAGGCAAACGGTGCAAGCGAGCAGGACGGCGAGTGGGGCTATGTGCCGCCCGAGCCGGCAGGCACGGCCAAGGTCAAGCAAGTCAGGCCGCTCGCCGCAAAAAAAGCCTGA</t>
+  </si>
+  <si>
+    <t>ATGTCTCCTGTATTCCCCACGTTTCCGTTCACCGCGCTCATCGGCCAGGCGCCGCTGCAGCAGGCGCTGCTGCTCGCGGCAGTCGATCCCGCGCTTGGCGGCGTGCTCGTGTCGGGTCCGCGCGGCACGGCCAAATCGACCGCCGCGCGCGCGCTGGCCGAGCTGCTGCCCGAAGGGCACCTCGTCACGCTGCCGCTCGGCGCGAGCGAGGAGCAGCTGATCGGCACGCTCGATATCGAAAGCGCGCTGCGCGACGGCGGCGTGAAGTTTTCTCCGGGCCTGATCGCAAAGGCGCATCGCGGCGTGCTCTACGTGGACGAGGTGAATCTCCTGCCCAATCCGCTCGTCGATCAGTTGCTCGACGTTGCCGCGAGCGGCGTGAACATCGTCGAGCGCGACGGCATTTCGCACCGGCACGAGGCGCGCTTCGTGCTGATCGGCACGATGAATCCCGAAGAGGGCGAACTGCGTCCGCAACTGCTCGACCGCTTCGGGCTCGCGGTCGAGCTCGACAATTGCTTCGATGCGGGCGCGCGCCAGAAGATCGTGAAGGCACGCCTTGCCTTCGACGCTGATCCGCAGGCGTTTCGCGAACGGCATGCGGGCGCGCAGGCGGCGCTCGCGCGGCGCATCCACGAAGCGCGCGGCGCGCTGGCGCACCTCGAATTCGACGACGCCGTGCATGCGCGCGTGAGCGAACTGTGCATCGCGGCGCACGTGGACGGATTGCGCGCGGATCTCGTGATGCTGCGCGCGGCGCGTGCGCTTGCGGCATTCGATGCGGCGAGGGCGGTGGACGTGGCGCATGTGGAGCGCGTCGCCGACGCGGTGCTGAAGCATCGGCGGCGCGAGCAGGACGCGCAGTATTCGTCACGCGGGGCGCCCGCGACGCACGCGACGCAGCAGGACAGGGCGCGGCCGTCGCCGCAGGAAGCCAACGATTCCGACTGGGGCTATCTTCCGCCGGAGCCCGTCGGGACGGCGGCGGTCAAGAACGTGAGGCCGCTCCAGCCAAAAAAATCCCTGAGCCATCGAAGGCCCGAGGCGAATGCCGAGGCGGGCCGCCTTCGATGGCTCGAACAGTGGTCGGCCGGACGTACGGGGGCGCGCGAGGGAAGCGAGAGCCGTTCCGTCGACTGGCCGGGGACGTTGCGTGCGAAGCGCCATGCGCGTCTCGACGTGGCGCATTTGCGGTTTCGCCGCAAGCGTGGGGAGGGTGTTGCGCTGCATTGCTTCGTGCTGGACTGCTCGGGGTCGATGCTTGCCGGCGAGCGGCTTGCCACGGCGAAGGGGTTGCTGGTTGCGCTGTTCGACCGCGCCTATCGTGACCGTTCGGAGGTTGCGCTGGTGTGTTTCGGCGGTGGCGAGGCGCATGTGCGGCGACAGCCGGGTGCAGCACACTGGTGGAACGCGCGCTGGGTCGAACCGATTGGCGGCGGAGGCGGCACGCCGCTCGCGCTCGGCGTGCGTACTGCGGAGAACGTGCTCGCGAGGGCGGCGCGGCGCAGGCCCGCGCAGGAGCGCTGGCTCTGGCTGCTCACGGACGGACGCAGCGGGGAGGCGGCATCGCGGCCGTTCGACGCGGATCATATCGTCGTGGTGGATTTTGATGACGCTCGCGTCAAGGTGGGGCGCTGTGCAGCGCTGGCTATTGGGTGGGGCGCGCGATATTGCACCGTTGCCGAGCTTGTTTAG</t>
+  </si>
+  <si>
+    <t>ATGTCTCCTGTATTCCCCACGTTTCCGTTCACCGCGCTCATCGGCCAGGCGCCGCTGCAGCAGGCGCTGCTGCTCGCGGCAGTCGATCCCGCGCTTGGCGGCGTGCTCGTGTCGGGTCCGCGCGGCACGGCCAAATCGACCGCCGCGCGCGCGCTGGCCGAGCTGCTGCCCGAAGGGCACCTCGTCACGCTGCCGCTCGGCGCGAGCGAGGAGCAGCTGATCGGCACGCTCGATATCGAAAGCGCGCTGCGCGACGGCGGCGTGAAGTTTTCTCCGGGCCTGATCGCAAAGGCGCATCGCGGCGTGCTCTACGTGGACGAGGTGAATCTCCTGCCCAATCCGCTCGTCGATCAGTTGCTCGACGTTGCCGCGAGCGGCGTGAACATCGTCGAGCGCGACGGCATTTCGCACCGGCACGAGGCGCGCTTCGTGCTGATCGGCACGATGAATCCCGAAGAGGGCGAACTGCGTCCGCAACTGCTCGACCGCTTCGGGCTCGCGGTCGAGCTCGACAATTGCTTCGATGCGGGCGCGCGCCAGAAGATCGTGAAGGCACGCCTTGCCTTCGACGCTGATCCGCAGGCGTTTCGCGAACGGCATGCGGGCGCGCAGGCGGCGCTCGCGCGGCGCATCCACGAAGCGCGCGGCGCGCTGGCGCACCTCGAATTCGACGACGCCGTGCATGCGCGCGTGAGCGAACTGTGCATCGCGGCGCACGTGGACGGATTGCGCGCGGATCTCGTGATGCTGCGCGCGGCGCGTGCGCTTGCGGCATTCGATGCGGCGAGGGCGGTGGACGTGGCGCATGTGGAGCGCGTCGCCGACGCGGTGCTGAAGCATCGGCGGCGCGAGCAGGACGCGCAGTATTCGTCACGCGGGGCGCCCGCGACGCACGCGACGCAGCAGGACAGGGCGCGGCCGTCGCCGCAGGAAGCCAACGATTCCGACTGGGGCTATCTTCCGCCGGAGCCCGTCGGGACGGCGGCGGTCAAGAACGTGAGGCCGCTCCAGCCAAAAAAATCCTGA</t>
+  </si>
+  <si>
+    <t>TTGACCGAATCCATCTCATCTCCGGTGTTTCCATTCGCGGCGCTTGTTGCACAAGAGCCCTTGCAGCAAGCGCTTTTGCTCGCGGCTGTCGATCCTTCTATCGGCGGCGTGCTCGTGAGCGGGCCGCGCGGCACGGCGAAGTCCACCGCCACGCGCGCGCTCGCGGAGTTGTTGCCCGAAGGGACACTCGTGACTTTGCCGCTCGGCGCGAGCGAGGAACAACTGATCGGCACGCTCGACATTCAAAGCGCGTTGCGCGACGGCGGCGTGAAGTTTTCGCCGGGCCTGATTGCGAAGGCGCATCTGGGCGTGCTGTATGTTGATGAAGTGAACCTTCTGCCGAATCCGCTCGTCGATCAGTTGCTCGATGTCGCGGCGAGCGGCGTGAACATCGTCGAGCGCGATGGCATTTCGCATCGGCATGACGCGCGGTTCGTGCTGATCGGTACGATGAATCCGGAAGAGGGCGACTTGCGTCCGCAATTGCTCGACCGTTTCGGTCTGGCCGTGGAGATGAGCAACTGCTTCGATGCGAGTGTGCGGCAGCGCATCGTCAAGTCGCGCCTTGCATTCGATGCCGATCCCGACGCGTTTCGTGCGCGCCATCGAAGCGAACAGGCATCGCTCGAAGCGCGCATTCACGCAGCGCGCGCGGCGTTGTCGTCATTCGATTTCGACGACGCGGTTCATGCGCGCGTGAGCGAGCTTTGCATCGAGGCGCAGGTTGACGGCTTGCGCGCGGACATCGTGATGCTGCGCGCGGCTCGGGCGCTGGCTGCATTGGAAGATTCATCGTGCGTGACGGTGACGCATGTCGAGCGCGTCGCGGATGCGGTGCTGAAGCATCGTCGGCGCGAGGCCGAAGCGCCTGCGCGTGAACCGTCGGGGCGCGAGTCCACATCGCGCGAAGCGGGCGCGGCGCAAGCGGACTGGGGCTACATGCCGCCCGAGCCGACGGGAACCGCGAAGGTCAAGCAAGTGAGGCCGCTCGCCGCAAAAAAAGCCCTGAACCATCGAAGGCGCGACGCGGATGCCTTCGACACGAGGCATCGCCTTCGATGGAACGAAGCGCTGGCGAAAGGTCGCTATGCGACGCGCGAGGGCGATCCCGCCGCGTCGATCGACTGGATGGCGACCTTGCGCGCGAAGCGTTCCGCGCGCCTCGCTGCGCAACATCTGCGATACCGGCGCACGCAAGGCGACGGCGCGGTGCTGTATTGCTTCGTGCTCGATTGTTCCGGTTCGATGCTCGCGGGCGAGCGGCTTGCGCGCGCGAAGGGCATGCTCGTCGCGTTGTTCGACCGGGCTTATCGCGAACGGGCGGAAATCGCGCTCGTGTGCTTCGGCGGCGCGCGCGCGCAAGTGCGTCGTCAGCCGGGCGCGGCGCATTGGTTCAACGAGAGTTGGGTAGCGCCGATCGGTGGCGGAGGCGGCACGCCGCTCGCGCTCGGGTTGGCGAGTGCGGGCACGCTGCTCGAAAGAGCGGCGCGGCGCAGGCCGTCACAGCGGCGCTGCTTGTGGGTGCTCACCGATGGACGAACGAACGAGCGGCCGCGGGCCCCGCGCGCGGCGAACGAGATCGTCGTCGTCGATTTCGAGGAAGGTGCGATTCGAGCCGGACGCGGCGAGATGCTCGCGAACGACTGGGATGCGCGGTACGTCACTGCCAATTCGCTGACAAGCTGA</t>
+  </si>
+  <si>
+    <t>TTGACCGAATCCATCTCATCTCCGGTGTTTCCATTCGCGGCGCTTGTTGCACAAGAGCCCTTGCAGCAAGCGCTTTTGCTCGCGGCTGTCGATCCTTCTATCGGCGGCGTGCTCGTGAGCGGGCCGCGCGGCACGGCGAAGTCCACCGCCACGCGCGCGCTCGCGGAGTTGTTGCCCGAAGGGACACTCGTGACTTTGCCGCTCGGCGCGAGCGAGGAACAACTGATCGGCACGCTCGACATTCAAAGCGCGTTGCGCGACGGCGGCGTGAAGTTTTCGCCGGGCCTGATTGCGAAGGCGCATCTGGGCGTGCTGTATGTTGATGAAGTGAACCTTCTGCCGAATCCGCTCGTCGATCAGTTGCTCGATGTCGCGGCGAGCGGCGTGAACATCGTCGAGCGCGATGGCATTTCGCATCGGCATGACGCGCGGTTCGTGCTGATCGGTACGATGAATCCGGAAGAGGGCGACTTGCGTCCGCAATTGCTCGACCGTTTCGGTCTGGCCGTGGAGATGAGCAACTGCTTCGATGCGAGTGTGCGGCAGCGCATCGTCAAGTCGCGCCTTGCATTCGATGCCGATCCCGACGCGTTTCGTGCGCGCCATCGAAGCGAACAGGCATCGCTCGAAGCGCGCATTCACGCAGCGCGCGCGGCGTTGTCGTCATTCGATTTCGACGACGCGGTTCATGCGCGCGTGAGCGAGCTTTGCATCGAGGCGCAGGTTGACGGCTTGCGCGCGGACATCGTGATGCTGCGCGCGGCTCGGGCGCTGGCTGCATTGGAAGATTCATCGTGCGTGACGGTGACGCATGTCGAGCGCGTCGCGGATGCGGTGCTGAAGCATCGTCGGCGCGAGGCCGAAGCGCCTGCGCGTGAACCGTCGGGGCGCGAGTCCACATCGCGCGAAGCGGGCGCGGCGCAAGCGGACTGGGGCTACATGCCGCCCGAGCCGACGGGAACCGCGAAGGTCAAGCAAGTGAGGCCGCTCGCCGCAAAAAAAGCCTGA</t>
+  </si>
+  <si>
+    <t>ATGACCTTGAACGACTCTTCCGTATTTCCCTTTGCCGCGCTGGTCGGCCAGCAGCCGTTGCAAGAGGCGCTGTTGCTCGCCGCCGTCGATCCGGCGTTGGGCGGCGTGCTCGTCACCGGTCCGCGCGGCACGGCGAAGTCGACGGCGGCGCGCGCGCTCGCCGAACTGCTGCCCGAAGGCCGGTTCGTCACGCTGCCGCTCGGCGCGAGCGAGGAACAACTGATCGGCACGCTCGACATCGAAAGCGCACTGCGCGACGGCGGCGTGAAGTTCTCGCCCGGTTTGCTCGCGAAGGCGCATCGCGGCGTGCTCTATGTCGACGAAGTGAACCTGCTGCCGAACCCGCTCGTCGATCAGTTGCTCGACGTCGCGGCGAGCGGCGTGAATACGATCGAGCGCGACGGCATCTCGCATCGGCATGAAGCGCGCTTCGTGCTGATTGGCACGATGAATCCGGAAGAAGGCGAACTGCGTCCGCAACTGCTCGACCGCTTCGGCCTCGCGGTGGAACTCGGCAATTGCTTCGAGGCGCCGGTGCGGCAGCACATCGTCAAGGCGCGCCTCGCGTTCGATACCGACAGCCAGGCGTTTCGCGATCGTCACGCGCGCGAGCAGGCGGCGCTCGCGCAACGCATCCACGAGGCGCGCGCGCAACTCGCGAGCCTCGATTTCGACGATGCCGTCCACGCGCGCGTGAGCGAGCTTTGCATCGCGGCGCAGGTCGACGGACTGCGCGCCGATCTCGTGATGCTGCGCGCGGCACGTGCGCTCGCGGCGTTCGAGGGTGCGCGTGCGATCGACGTGGAGCATGTGGAGCGTGTCGCGCAAGCCGTGCTGAAGCATCGGCGGCGCGAGGGCGAGAAACCGCAACAACCGCAGTCGCAAGGGCATGCAAACCCGCAAGCGAACCCGCGAGCAAACGACGCGGACTGGGGCTATCTGCCGCCCGAACCCGTCGAAACCGCGACGGTCAAGAACGTCAGGCCGTTGCAGCCAAAAAAAGCCCTGAGCCATCGAAGGCCGGAGCCGGAAGCCGAGGCAGGCCGCCTTCGATGGCTCGAATCGCAGTCGGCGGGACGCACGATCACGCGCGAAGGCCGCGCGAGCCGTTCCATCGACTGGATGCAGACCTTGCGCGCGAAGCGGCATGCGCCGCTCGAAGCGCGGCACGTCCGGTTTCGCCGCAAGGGCGGGGAGGGCGCGGCGCTCTATTGCTTCGTGCTGGATTGCTCCGGTTCGATGCTCGCGGGCAAGCGGCTCGCGCTGGCGAAGGGACTGCTCGTCGCGCTCTTCGACCGAGCGTATCGCGAGCGGGCGGAGGTCGCGCTCGTGTGTTTCGGCGGCGGGCGGGCCGAAGTGCGTCGTCAGCCGGGCGCGGCGCACTGGTGGAACGAGCACTGGGTCGCGCCGATCGGCGGCGGCGGCGGCACGCCGCTCACGCTCGGGGTGCGTACCGCTGCGAACGTGCTCGCGCGCGCGTCGCGCAAGCGGCCCGCGCAGGCGCGCTGGCTGTGGCTCCTGACGGACGGCCGCACGTCGGATACGCCGTCGCGTCCCGTCGATGCAGACCGCGTCGTCATCGTCGATTTCGAGCGCGATGCGGTTCGGCTCGGGCGCTGCGCGTCGCTCGCCGACGCATGGGACGCGCAGTACAGCACCGCCGACGACCTTGTCTACGGTTTTTCGCCGTACCAGCGCGGCGTATAG</t>
+  </si>
+  <si>
+    <t>ATGACCTTGAACGACTCTTCCGTATTTCCCTTTGCCGCGCTGGTCGGCCAGCAGCCGTTGCAAGAGGCGCTGTTGCTCGCCGCCGTCGATCCGGCGTTGGGCGGCGTGCTCGTCACCGGTCCGCGCGGCACGGCGAAGTCGACGGCGGCGCGCGCGCTCGCCGAACTGCTGCCCGAAGGCCGGTTCGTCACGCTGCCGCTCGGCGCGAGCGAGGAACAACTGATCGGCACGCTCGACATCGAAAGCGCACTGCGCGACGGCGGCGTGAAGTTCTCGCCCGGTTTGCTCGCGAAGGCGCATCGCGGCGTGCTCTATGTCGACGAAGTGAACCTGCTGCCGAACCCGCTCGTCGATCAGTTGCTCGACGTCGCGGCGAGCGGCGTGAATACGATCGAGCGCGACGGCATCTCGCATCGGCATGAAGCGCGCTTCGTGCTGATTGGCACGATGAATCCGGAAGAAGGCGAACTGCGTCCGCAACTGCTCGACCGCTTCGGCCTCGCGGTGGAACTCGGCAATTGCTTCGAGGCGCCGGTGCGGCAGCACATCGTCAAGGCGCGCCTCGCGTTCGATACCGACAGCCAGGCGTTTCGCGATCGTCACGCGCGCGAGCAGGCGGCGCTCGCGCAACGCATCCACGAGGCGCGCGCGCAACTCGCGAGCCTCGATTTCGACGATGCCGTCCACGCGCGCGTGAGCGAGCTTTGCATCGCGGCGCAGGTCGACGGACTGCGCGCCGATCTCGTGATGCTGCGCGCGGCACGTGCGCTCGCGGCGTTCGAGGGTGCGCGTGCGATCGACGTGGAGCATGTGGAGCGTGTCGCGCAAGCCGTGCTGAAGCATCGGCGGCGCGAGGGCGAGAAACCGCAACAACCGCAGTCGCAAGGGCATGCAAACCCGCAAGCGAACCCGCGAGCAAACGACGCGGACTGGGGCTATCTGCCGCCCGAACCCGTCGAAACCGCGACGGTCAAGAACGTCAGGCCGTTGCAGCCAAAAAAAGCCTGA</t>
+  </si>
+  <si>
+    <t>TTGAACGAATCCATCACATCTGCCGTGTTTCCTTTTTCGGCGCTCGTCGCACAGGCGCCCTTGCAGCAGGCGCTTTTGCTCGCGGCCGTCGATCCTTCGATCGGCGGCGTGCTCGTGAGCGGGCCGCGCGGCACGGCGAAATCCACCGCGACGCGCGCACTCGCGGAGTTGCTGCCCGAAGGGAAGCTCGTGACCTTGCCGCTCGGCGCGAGCGAGGAACAGTTGATCGGCACGCTCGACATCCAAAGCGCATTGCGCGACGGCGGTGTGAAGTTTTCTCCGGGCCTGCTTGCGAAGGCGCATCGGGGCGTGCTGTATGTCGATGAAGTGAATCTCCTGCCGAATCCGCTCGTCGATCAGTTGCTCGATGTTGCGGCGAGCGGCGTGAACATCGTCGAGCGCGATGGCATTTCGCATCGGCACGACGCGCGCTTCGTGCTGATCGGCACGATGAATCCGGAAGAGGGCGAGTTGCGGCCGCAATTGCTCGATCGTTTCGGTCTTGCCGTGGAGATGAACAATTGCTTCGATGCGCTCGTGCGGCAACGTATCGTCAAGGCGCGTCTTGCATTCGATGCCGATCCTGATGCGTTTCGCGCGCGGCATCGCGACGAGCAGGCTTCGCTGGAATCGCGCATTCACGCGGCGCGCGCGGCATTGTCGTCATTCGATTTCGATGATGCGGTTCATGCGCGCGTGAGCGAGCTTTGCATCGAGGCGCATGTCGACGGCTTGCGTGCGGACATCGTCATGCTGCGCGCGGCGCGAGCGCTGGCTGCGTTGGAGGAAGCAGCGGGCGTGAACGTCACGCACGTCGAACGCGTCGCCGATGCGGTGCTTAAGCATCGGCGAAGAGAAGGGGAAGCGCCTTCACGCGAACCGGCAGGCCGCGAGTCGACGTCGCCCGATGCAGGCTCGAACCAAGCGGATTGGGGCTACATGCCGCCGGAGCCGACGGGAACCGCGAAGGTCAAGCAAGTGAGGCCGCTCGCCGCAAAAAAAGCCCTGAACCATCGAAGGCGCGACGCGAATGCCTTCGACACAAGGCATCGTCTTCGATGGAACGAAGCGTTCGCGAAAGGCCGCAGCGCGACGCGCGAGGGCGAAGTCAGCGCGTCGATCGACTGGATGGCGACATTGCGCGCAAAGCGTTCCGCGCGTTTTGCTACGGAGCATTTGCGATATCGGCGCACGCAGGGCGACGGTGCGGTGCTGCATTGTTTTCTGCTCGATTGCTCCGGCTCGATGCTCGCCGGCGAGCGCCTTGCGCGCGCGAAGGGCATGCTCGTCGCGCTGTTCGATCGCGCTTATCGTGAGCGGGCGGAGATTGCGCTGATATGTTTCGGCGGTGCACGCGCGAAAGTGCGTCGTCAGCCGGGCGCGGCGCACTGGTTCAATGAGCGGTGGGTCGCGCCGATCGGCGGCGGTGGCGGCACGCCTCTCGCGCTTGGGCTGGCGAGCGCGGGAACGGTGCTTGAAAAAGCGGCTCGGCGCAGACCAGCGCAACGGCGCTGCTTGTGGGTGCTCACCGACGGGCGAACGAACGAGCAACCGCAAGCACCTCACGCAGCGGATGAGATCGTCGTCGTCGATTTCGAGGAAGGCGCGATTCGGGTCGGGCGCGGCGAGGCGCTCGCGCGCGAGTGGAGCGCGAGATATGTGCTTGCGGATGCGCTGATAAGAATCTCGGATTGTTGA</t>
+  </si>
+  <si>
+    <t>TTGAACGAATCCATCACATCTGCCGTGTTTCCTTTTTCGGCGCTCGTCGCACAGGCGCCCTTGCAGCAGGCGCTTTTGCTCGCGGCCGTCGATCCTTCGATCGGCGGCGTGCTCGTGAGCGGGCCGCGCGGCACGGCGAAATCCACCGCGACGCGCGCACTCGCGGAGTTGCTGCCCGAAGGGAAGCTCGTGACCTTGCCGCTCGGCGCGAGCGAGGAACAGTTGATCGGCACGCTCGACATCCAAAGCGCATTGCGCGACGGCGGTGTGAAGTTTTCTCCGGGCCTGCTTGCGAAGGCGCATCGGGGCGTGCTGTATGTCGATGAAGTGAATCTCCTGCCGAATCCGCTCGTCGATCAGTTGCTCGATGTTGCGGCGAGCGGCGTGAACATCGTCGAGCGCGATGGCATTTCGCATCGGCACGACGCGCGCTTCGTGCTGATCGGCACGATGAATCCGGAAGAGGGCGAGTTGCGGCCGCAATTGCTCGATCGTTTCGGTCTTGCCGTGGAGATGAACAATTGCTTCGATGCGCTCGTGCGGCAACGTATCGTCAAGGCGCGTCTTGCATTCGATGCCGATCCTGATGCGTTTCGCGCGCGGCATCGCGACGAGCAGGCTTCGCTGGAATCGCGCATTCACGCGGCGCGCGCGGCATTGTCGTCATTCGATTTCGATGATGCGGTTCATGCGCGCGTGAGCGAGCTTTGCATCGAGGCGCATGTCGACGGCTTGCGTGCGGACATCGTCATGCTGCGCGCGGCGCGAGCGCTGGCTGCGTTGGAGGAAGCAGCGGGCGTGAACGTCACGCACGTCGAACGCGTCGCCGATGCGGTGCTTAAGCATCGGCGAAGAGAAGGGGAAGCGCCTTCACGCGAACCGGCAGGCCGCGAGTCGACGTCGCCCGATGCAGGCTCGAACCAAGCGGATTGGGGCTACATGCCGCCGGAGCCGACGGGAACCGCGAAGGTCAAGCAAGTGAGGCCGCTCGCCGCAAAAAAAGCCTGA</t>
+  </si>
+  <si>
+    <t>ATGCGACAGACATATCCATTTACAGCCATAGTGGGTCAGGAGCGCATGAAGCGCGCGCTCATCTTGAACGCAATTAATCCCCAGATCGGGGGCGTGTTGATCCGAGGGGAACGTGGCACAGCCAAATCGACGGCAGCGCGCGCTCTGGCTGCGCTGTTACCTATGCTGGAGGTCGTCCAGGGGTGTCGCTTTAATTGCGACCCACAGCGTCCCGATCTCTTCTGCGACGAGTGCCGAGAGCGCCTGGAGCGGGAAGGAACGCTACCGGTGACCTATGTTCCTACGCCCTTCGTCGATTTGCCGGTGAGTGCCACCGAGGACCGTGTCGTCGGCACGCTTGACATCGAAAAGGCGATTCAGAAAGGTGAGCGCCACTTTGAGCCGGGCATCCTGGCGGCGGCTAACCGAGGGGTGCTCTACGTGGACGAAGTAAACCTGTTGGACGATCACGTCGTTGATCTGCTCCTGGACAGCGCAGCCATGGGCGTCAACGTCGTCGAGCGCGAAGGCATCAGCTTCCAGCATCCGGCGCGGTTCGTGCTGGTCGGCTCGATGAACCCGGAGGAAGGCGACCTGCGGCCACAGTTGCTGGATCGCTTCGCTCATGCCGTGGATGTAGTCGGCATCAGCGATCCTGCCCAGCGCGTCGAGGTACTCCGTCGCCGCGTCTTTTTCGAGCAGGACCCGGAAGCGTTTATCGCCGCGTATGAGGAATCTGAAAAGGAGATGTGCAACCGGATTCTGGAGGCGCGGCAACGCTATCCGTTGGTCAAGTATACGGAGAAAGACCTCTACACTATCGCTGCGCTGACGTCGAGCTTCAAGGTTGATGGTCATCGCGCCGACATTGTGATCCTGAAGACGGCGCGCGCGCAGGCCGCCTTTGAAGGGCGTTTCCAGATCAACGACCGCGATATTTTGCTGGCGGCGGAGCTGGCGCTGCCTCACCGCATGAAGAAGCAGCCTTTCCAGGACTCCGTGCTCAACCCTGACCAGTTACAGGCCAACATGCGTCAGGCGCGCGCGGAGGCTGAGCATGCAGTCAGCGACGAAGCAACGCAGCAGGAGGGCGAGGGCAAGGCGACGGCTGACGAAAAAAAAGCCTGGAGGGCGATGAGTCGGAGCCTGAACCAAAGCCCGGAGGCTGGCGAAGGGGGTGTTCCCCAGCCGGATGCCTCTCCACAGCAAAGCTCATCGCCCGGTGACAACAAAGGTGCCCGCAAACCCGTAAAAATTGGCGAAACCTTTGAGGCCAAGCGACTGGATACGCCGCTTGACAAAATGACGCGCGACCGCGCCGGCAAACGGTCGTACACACGCACCGAACGCAAGCGCGGCCGCTACATCAAGGCCCGCCCGGCGGGCGATCGCCCGGAAGACATTGCGTTCGACGCCACGCTGCGTGCGGCTGCGCCGTATCAAAGTCAGCGCCACGCGCAGGCAGACAATAACCTTGCGCTGCAACTGCGCAAAAGCGACTTGCAACGCAAAGTGCGTGTGCGACGTACCGGCAATCTGATCCTGTTTGTCGTGGATGCAAGCTGGAGCATGGCAGCCAGCGAACGCATGGAAGCCACCAAGGGTGCCATCTTCAGTCTGCTGGTCGATGCCTATCAGCGCCGAGATCAGGTGGGGCTGATCGTTTTTCAACGTGACAAGGCGCGGCTGGTGTTGCCGCCCACCAACAGCGTTGAACTGGCTCAGCGTGCGCTCCAGGATCTGCCCGTCGGCGGCAAGACGCCGCTGAGCAGCGGTCTCTTTCTGGCCTGGCAGGTGCTGGAAAACGCCCGCCGCCGCGATCACGAGATTCGCCCGCTGATGATTTTGCTGACCGACGGCGCCGGCAACGTCAGCATGACCGGCATGCCTGCACAGGAAGAATCTCTTCGCATCGCCGAGCTCTTTGAGCAGGCGAGACTGAAGTCGATCGTCATCAACATGGAGCATGCAGCCTTTGACCGCGGCCTGGCGCAGAAGCTGGCCGATGCGCTTGGCGGCGTCTGCTACAATGTGCCCGATCTGCGCGCTGATACGTTGCTTTCCACTGTCAAGCGTGAGATTGAGGGATAA</t>
+  </si>
+  <si>
+    <t>ATGCGACAGACATATCCATTTACAGCCATAGTGGGTCAGGAGCGCATGAAGCGCGCGCTCATCTTGAACGCAATTAATCCCCAGATCGGGGGCGTGTTGATCCGAGGGGAACGTGGCACAGCCAAATCGACGGCAGCGCGCGCTCTGGCTGCGCTGTTACCTATGCTGGAGGTCGTCCAGGGGTGTCGCTTTAATTGCGACCCACAGCGTCCCGATCTCTTCTGCGACGAGTGCCGAGAGCGCCTGGAGCGGGAAGGAACGCTACCGGTGACCTATGTTCCTACGCCCTTCGTCGATTTGCCGGTGAGTGCCACCGAGGACCGTGTCGTCGGCACGCTTGACATCGAAAAGGCGATTCAGAAAGGTGAGCGCCACTTTGAGCCGGGCATCCTGGCGGCGGCTAACCGAGGGGTGCTCTACGTGGACGAAGTAAACCTGTTGGACGATCACGTCGTTGATCTGCTCCTGGACAGCGCAGCCATGGGCGTCAACGTCGTCGAGCGCGAAGGCATCAGCTTCCAGCATCCGGCGCGGTTCGTGCTGGTCGGCTCGATGAACCCGGAGGAAGGCGACCTGCGGCCACAGTTGCTGGATCGCTTCGCTCATGCCGTGGATGTAGTCGGCATCAGCGATCCTGCCCAGCGCGTCGAGGTACTCCGTCGCCGCGTCTTTTTCGAGCAGGACCCGGAAGCGTTTATCGCCGCGTATGAGGAATCTGAAAAGGAGATGTGCAACCGGATTCTGGAGGCGCGGCAACGCTATCCGTTGGTCAAGTATACGGAGAAAGACCTCTACACTATCGCTGCGCTGACGTCGAGCTTCAAGGTTGATGGTCATCGCGCCGACATTGTGATCCTGAAGACGGCGCGCGCGCAGGCCGCCTTTGAAGGGCGTTTCCAGATCAACGACCGCGATATTTTGCTGGCGGCGGAGCTGGCGCTGCCTCACCGCATGAAGAAGCAGCCTTTCCAGGACTCCGTGCTCAACCCTGACCAGTTACAGGCCAACATGCGTCAGGCGCGCGCGGAGGCTGAGCATGCAGTCAGCGACGAAGCAACGCAGCAGGAGGGCGAGGGCAAGGCGACGGCTGACGAAAAAAAAGCCTGGAGGGCGATGAGTCGGAGCTGA</t>
+  </si>
+  <si>
+    <t>ATGAGATCATTTCCTTTTACAGCGATATATGCACAGGAAGACTTTAAACTGGCCCTCATACTCTGTATGATAGATCCGGGACTGGGTGGCGTACTGGCACTGGGCGATAAAGGCACGGGCAAGACCACTACGGTAAGAGGGCTCAGCCAACTGATGCAACGCAGCATCACGGACTTCCCGTTCGTCAATCTGCCTATCGGCGCTACGGAAGACCGGGTACTGGGTACCATCAGACTGGACATCCTCATTAACGAAAAAAGAACGGAAGTACAACAGGGCCTCCTCGCTGCTGCCAATCAGGGTATCCTTTATATCGACGAGGTCAATCTCCTGAATGATTACCTCATGGATGTACTGCTGGATGCTGCTGCCAGCGGAGGATATCACCTTGAACGGGATACAATATCCAAATGGTTTGAAAGTAAGTTCTGCCTGGTAGGCACCATGAATCCTGAAGAAGGCGAACTACGTCCGCAACTGCTGGACAGGTTCGGACTGAGTGTAACAGTAAAAACACCTATGGACAGGTTGGACCGCATGGAGATCATTAACCGTCGCCTACAGTTTGATACTGATACACCTGCCTTCCTTAAGAAATATGACGCGCAGGAACAGCAACTGGTGCAACAGATCATGTACGCAAGAGAGCAGCTGAAAGAGGTCTCCTACTCAGATATCATCCTCGCCAATATAGCTGACACCTGTATCCAATACCAGGTAGAAGGACTTCGTGCAGACATCCTGCTACTGAAAGCAGCCAGAGCGCATGCTGCTTTCTATGGCAAAAAGGAGGTCTCTACTGATGACATTCACAGGGTAATGCCTTTCGTACTGTCTCATCGTTCTAAACATTATTCCTCCACACAAAATACTCCGCAGCAAAGGGAAAGTCAATCTCCGCGGGAAGAAAAGGAGGGAGACTCGATAAGGATCCGCATAAACCTGAGTAACAGCAGGAAATACCTGTTACAGGCGGCAAAGACAGAACAATATGTGCAGTTGAAGGCACGGTCTGCCGATGCAAGGAAAGGGATCACACTAAAAGTGCCTCTTCCCCGGCAAGGTAAGCAACAAAAGACTGCTGTACCATCTGCACAGCCAGATGTATTGGAAACAGTAAAATACTATCTGACACATGATAAGGTAGAGATCAGGCACAAGCGTCACCAGTCAAAGGCTGCTATGCATGTCTTCTTTCTGATAGATTCCAGCGGGTCTATGATAAAGGACAGGCAGATTGCCTACATCAAAGGACTGATCGCTGAAACCATTGCCCGTTATAAGACAAAGCGAATAAAATATGCCGCAGTGGCCCTGAACAATGGAGATGCGGAATTACTATCGGCGCCTACATTAGGTGTAGAAGAATTGATCAAGGCATTGTCACAACTGACCACCGGAGGAAAGACAAATATGAGGGCAGGATTTGGCATGATCAGTCAATTGCTGAAGAGCAACATACGCGAACATGTCACGCTCTATATTTTCACCGATGGAAAGATCAATACCGGCAGCACAGATGATCCATTCCGCGAAGCGGTAACGTTTTACAAACAGTACCTGACAGTTATTAAACAAACGACCATCATTGATAATGAGAGCGGCTTTGTAAGACTGGGATTAGCTGAAAAACTGGCAATGTCCATCGGCGCCGGATACCAGCATATGCAACAAAACGCTGCCATCCCCGCCGATCAGCTCCGTTAG</t>
+  </si>
+  <si>
+    <t>ATGAGATCATTTCCTTTTACAGCGATATATGCACAGGAAGACTTTAAACTGGCCCTCATACTCTGTATGATAGATCCGGGACTGGGTGGCGTACTGGCACTGGGCGATAAAGGCACGGGCAAGACCACTACGGTAAGAGGGCTCAGCCAACTGATGCAACGCAGCATCACGGACTTCCCGTTCGTCAATCTGCCTATCGGCGCTACGGAAGACCGGGTACTGGGTACCATCAGACTGGACATCCTCATTAACGAAAAAAGAACGGAAGTACAACAGGGCCTCCTCGCTGCTGCCAATCAGGGTATCCTTTATATCGACGAGGTCAATCTCCTGAATGATTACCTCATGGATGTACTGCTGGATGCTGCTGCCAGCGGAGGATATCACCTTGAACGGGATACAATATCCAAATGGTTTGAAAGTAAGTTCTGCCTGGTAGGCACCATGAATCCTGAAGAAGGCGAACTACGTCCGCAACTGCTGGACAGGTTCGGACTGAGTGTAACAGTAAAAACACCTATGGACAGGTTGGACCGCATGGAGATCATTAACCGTCGCCTACAGTTTGATACTGATACACCTGCCTTCCTTAAGAAATATGACGCGCAGGAACAGCAACTGGTGCAACAGATCATGTACGCAAGAGAGCAGCTGAAAGAGGTCTCCTACTCAGATATCATCCTCGCCAATATAGCTGACACCTGTATCCAATACCAGGTAGAAGGACTTCGTGCAGACATCCTGCTACTGAAAGCAGCCAGAGCGCATGCTGCTTTCTATGGCAAAAAGGAGGTCTCTACTGATGACATTCACAGGGTAATGCCTTTCGTACTGTCTCATCGTTCTAAACATTATTCCTCCACACAAAATACTCCGCAGCAAAGGGAAAGTCAATCTCCGCGGGAAGAAAAGGAGGGAGACTCGATAAGGATCCGCATAAACTGA</t>
+  </si>
+  <si>
+    <t>ATGTCGATAGCCACCCCGCCTGCCACCGCGCCCGTGGGTTTCCCCTTCACAGCCATCGAGGGCCAGCCCCTGCTGCAACGGGCCCTGCTGCTGGCGGCCGTGGACCCCTTGCTGGGCGGCGTGCTGGTCGAGGGGCCACGCGGCACGGCCAAGTCCACCAGCGCCCGCGCGCTGGCCGCGCTGCTGCCGGCTGGCCGCTTTGTGAATCTGCCGCTGGGTGCCACCGAGGAGCAACTGGTCGGTTCGCTGGACCTGGAGGCGGCCCTGCAGCGCAGCGCCGTGCAGTTCCGCCCCGGCCTGCTGGCGCGCGCCCATGGTGGGATCCTCTATGTGGACGAGGTCAATCTGCTGGCCGATGGCCTGGTGGACCTGCTGCTGGACGTGAGCGCCAGCGGCATCAACCGCGTGGAGCGCGACGGCGTGTCGCACCAGCACGAGGCGCGCATCACCCTGATCGGCACCATGAACCCCGAGGAGGGGCAGCTGCGCCCGCAACTGCTGGACCGTTTCGGCCTGTTCGTGCGGCTGGAGAACGTGCCCAACGCCCAGGTGCGCAAAGCGATCGTGCGCACCCGCATGGCCTTCGATGCCGATCCGCAGGCCTTTGCCAGCCGCCATGCCGCCGCACAGACGGCCCTGGCGCTGCGTGTGGCGCAGGCCCGTGACCGGCTGGCCACCGTGGAGTGGCCCGAGGCCGTGCACGACGAGGTGGCCCAGCGCTGCCAGGACGCCGGTGTGGAAGGCGTGCGGGCCGATCTGGTGATGCTGCGCGCTGCGGGCACGAATTCACCGCCCACGGCCCTAGCGCCCGCACCGGACGCCGGCCCTGCGGACCAGAACCCGGCTGGCGATTGGGGTGCCATGCCCGCCTCGCAGGCCGTGCCCCTGCAGGCGGTGAAAGCACTGAGGCCTTTTCAGCCAAAAAAAGCCCTGACGCGCTCTGCCCCCACGGGCCAGGCCGGACAGGCCGTGGCAGGGCGCGACAGCAACATGGCACGCAAGGGCCGCAGCCTGGGGCCAGCCAGCCGCCAGCTGAACTGGGTCACCACGCTGGCGGCCAAGGGCTCTGGTGCGCTGCTGCCGCAGCATCTGCACTTTCGCCGCCAGCCACAGGGGCGCAAGACCTTGCACCTGGTGCTGCTGGACCAGTCCGCGTCCATGCTGCGCGGGCAGAAGCTGGCCTGGGCCAAGGGCTGCTTGCTGGCCCTGTCCACGCTGTTCTACCGCCGCCGCGACGCGATGGCCGTCCTCGGTTTTGCGGGTGAGCAGGCGCAGTGGCTGCAAAAGCCCGGCAAGGCCGGGCTGTTCAACGAGCACTGGATCGCTCCGTTGCGCGGTGGCGGGGCCACGCCCATACAGTCGGCCATCGATGCCGTGCAGGACGCTGTGCGCCGCGCCCCGGCTGGCACGCAGGTGGCCGTATGGCTGCTGACCGACGGCCGGTTCGACCCGTTGCCGCAACGCCCCGGGGGGGTCGACGACTGCTACATCATCGACTTTGAAGACGGGGCCGTGGCCCTGGGCCGCTGCCACCGCTTGGCCGAGATGTGGGGCGGCACCTGCGTGCCTGCCGCGCAGTGGGGCGCACCGACCGCGGGCTAA</t>
+  </si>
+  <si>
+    <t>ATGTCGATAGCCACCCCGCCTGCCACCGCGCCCGTGGGTTTCCCCTTCACAGCCATCGAGGGCCAGCCCCTGCTGCAACGGGCCCTGCTGCTGGCGGCCGTGGACCCCTTGCTGGGCGGCGTGCTGGTCGAGGGGCCACGCGGCACGGCCAAGTCCACCAGCGCCCGCGCGCTGGCCGCGCTGCTGCCGGCTGGCCGCTTTGTGAATCTGCCGCTGGGTGCCACCGAGGAGCAACTGGTCGGTTCGCTGGACCTGGAGGCGGCCCTGCAGCGCAGCGCCGTGCAGTTCCGCCCCGGCCTGCTGGCGCGCGCCCATGGTGGGATCCTCTATGTGGACGAGGTCAATCTGCTGGCCGATGGCCTGGTGGACCTGCTGCTGGACGTGAGCGCCAGCGGCATCAACCGCGTGGAGCGCGACGGCGTGTCGCACCAGCACGAGGCGCGCATCACCCTGATCGGCACCATGAACCCCGAGGAGGGGCAGCTGCGCCCGCAACTGCTGGACCGTTTCGGCCTGTTCGTGCGGCTGGAGAACGTGCCCAACGCCCAGGTGCGCAAAGCGATCGTGCGCACCCGCATGGCCTTCGATGCCGATCCGCAGGCCTTTGCCAGCCGCCATGCCGCCGCACAGACGGCCCTGGCGCTGCGTGTGGCGCAGGCCCGTGACCGGCTGGCCACCGTGGAGTGGCCCGAGGCCGTGCACGACGAGGTGGCCCAGCGCTGCCAGGACGCCGGTGTGGAAGGCGTGCGGGCCGATCTGGTGATGCTGCGCGCTGCGGGCACGAATTCACCGCCCACGGCCCTAGCGCCCGCACCGGACGCCGGCCCTGCGGACCAGAACCCGGCTGGCGATTGGGGTGCCATGCCCGCCTCGCAGGCCGTGCCCCTGCAGGCGGTGAAAGCACTGAGGCCTTTTCAGCCAAAAAAAGCCTGA</t>
+  </si>
+  <si>
+    <t>ATGACGGTCTCCACATTACCGCCAGTGTTTCCATTGGCGGCCATTCAGGGGCAGGCCCAACTGGTCCAGGCCCTGCTGCTGGCCGCCATCGAACCTGCTCTGGGCGGTGTGCTGATCCAGGGCCCGCGCGGCACGGCCAAGTCCACCGCGGCGCGGGCCCTGGCCGAGCTGCTGGCGCCGGCACCTTTTGCCACGCTGCCGCTGGGGGCCTCGGTGGAGCATGTGCTGGGCAGTCTGGACCTGGGCAAGGCCCTGGCAGGCAACGAGCTGGTATTCGCCCCCGGGGTGGTGGCCAAGGCCCATGGCGGTGTGCTCTATGTGGACGAGATCAATCTGCTGCCCGATGCCATCGTCGATGTGCTGCTGGATGTGGCCGCCTCGGGCGTGAACCGCGTGGAGCGCGACGGCATCTCCCACAGCCATGCGGCGCGCTTTGTGCTGATAGGCACCATGAACCCCGAGGAGGGCTTGCTGCGCCCACAGCTGCTGGACCGCCTGGGCCTGTGCGTGCAGCTGGCCAATGCCCAGGACGTGCAGCTGCGCAGCGCCATCGTCAAGTCCAGGCTGCGCTTTGAGCTGGACCCTGCAGGCTTTGCGCGGGAGCATGCGCCCCAGCAGGCCGCGCTGGCAGAGCGTTTGCGCGTGGCGCGTGCACGCTGCACCAACCCTGACGAACTGCCCTGGAGCGATGCCATCCACGAGGCTGTGGCCCAGCAATGCATTGCGGCCCAGGTGGACGGCCTGCGTGCCGACCTGGTGATGCTGCGTGCGGCCCGGGCCCTGGCGGCCTGGGAGCAAAGCCCGGCCATAGAGGCAGAGCATGTGTCCCGGGTCGCTCCCCTGGTGCTGGCCCACCGTGGCGCCGAGCCGCAGCAGCCGGCATTGGCCCCGTCGCAGAATCAGTCACAGCAACCATCGCAGGCGACACCGCCGCGATCTGCCGATGCGCAGGCCGGGCAAGCCCCGCAATCGCAGGGCGCAGGGCCTGCGCCATCCGCCGCACCGGCTCCCACAGCACCCGCGCACAGCGCTGCCCCGGGCACGGAGCCGCCAGCGCAGCAACCTCAAACCGCCATGGCCCCCCAGGCCATGGCGCAGCCACCAGCGGGCTGGGGCCAGCCTCAGCCGCAAGCTACAGCCGCCTGCGCGCCGCCGCTGGGTGATGCCCTGGCCCAGGCCGCCATGGAGGCCTTGGCCGCAAAAAAAGCCCGCGCCCCCGGCCTGCCGCGCCTAAGCCCAGCGGGCCGGGGGCGAGGGCGGGCCAACACGCCTGCCCAGGGCGCAGCCCTGGCCGGCCAGACGCGGCCGGGCGTGATGCAAGTCGATGCCGGTGCCCTGCTGGACTGGCCCGCTACCTTGCGTGCCCGCCTGCTGGAGGCAGGCCCCGGGGCAGGCCTGCAGCCCGCGCATCTGCGCTGGCGCCAGGCCTTGGCCACGCCCCAAACCCTGCATGTGTTTGCGCTGGACTGCTCGGCCTCCATGTTGGCGAGCGGAGCCCTGGCACGTGCCAAAGGCTTGGTGCTGCAGTGGCTGCGCTGGGCCTATCTGCAGCGCATGCCCGTGGCCTTGCTGTGCTTTGGCGCCGGCCAGGTGCAATGGCGGCTGGCACCTGGCCGCGCACCGCGCTGGAATGCCGCACTGATTGAGCCCCTGGCAGGCGGCGGCGGCACGCCCTTGGCCCAGGCCGTGCACCAGGCCTGGGAGCTGCTGGCCCGGCGTGCACAGCAGCAGGGCCAGCCCGCCTGCTTGTGGCTGCTCAGTGACTTTCGCAGCCCCGACGTGCTGGCGCTGGAGCAGCAGCGCGGCCCCCAAGGCCTGTCCCAGGTGCTGGTGGATTGCGAGCAGGTATCGGCCAAGCCGCCGTTTGCAGGCGCACAGCGCCTGGTACGGGCCTGGCCGGATGCGGTGAGGTTGGCGTTGCCTGATTGGTGA</t>
+  </si>
+  <si>
+    <t>ATGACGGTCTCCACATTACCGCCAGTGTTTCCATTGGCGGCCATTCAGGGGCAGGCCCAACTGGTCCAGGCCCTGCTGCTGGCCGCCATCGAACCTGCTCTGGGCGGTGTGCTGATCCAGGGCCCGCGCGGCACGGCCAAGTCCACCGCGGCGCGGGCCCTGGCCGAGCTGCTGGCGCCGGCACCTTTTGCCACGCTGCCGCTGGGGGCCTCGGTGGAGCATGTGCTGGGCAGTCTGGACCTGGGCAAGGCCCTGGCAGGCAACGAGCTGGTATTCGCCCCCGGGGTGGTGGCCAAGGCCCATGGCGGTGTGCTCTATGTGGACGAGATCAATCTGCTGCCCGATGCCATCGTCGATGTGCTGCTGGATGTGGCCGCCTCGGGCGTGAACCGCGTGGAGCGCGACGGCATCTCCCACAGCCATGCGGCGCGCTTTGTGCTGATAGGCACCATGAACCCCGAGGAGGGCTTGCTGCGCCCACAGCTGCTGGACCGCCTGGGCCTGTGCGTGCAGCTGGCCAATGCCCAGGACGTGCAGCTGCGCAGCGCCATCGTCAAGTCCAGGCTGCGCTTTGAGCTGGACCCTGCAGGCTTTGCGCGGGAGCATGCGCCCCAGCAGGCCGCGCTGGCAGAGCGTTTGCGCGTGGCGCGTGCACGCTGCACCAACCCTGACGAACTGCCCTGGAGCGATGCCATCCACGAGGCTGTGGCCCAGCAATGCATTGCGGCCCAGGTGGACGGCCTGCGTGCCGACCTGGTGATGCTGCGTGCGGCCCGGGCCCTGGCGGCCTGGGAGCAAAGCCCGGCCATAGAGGCAGAGCATGTGTCCCGGGTCGCTCCCCTGGTGCTGGCCCACCGTGGCGCCGAGCCGCAGCAGCCGGCATTGGCCCCGTCGCAGAATCAGTCACAGCAACCATCGCAGGCGACACCGCCGCGATCTGCCGATGCGCAGGCCGGGCAAGCCCCGCAATCGCAGGGCGCAGGGCCTGCGCCATCCGCCGCACCGGCTCCCACAGCACCCGCGCACAGCGCTGCCCCGGGCACGGAGCCGCCAGCGCAGCAACCTCAAACCGCCATGGCCCCCCAGGCCATGGCGCAGCCACCAGCGGGCTGGGGCCAGCCTCAGCCGCAAGCTACAGCCGCCTGCGCGCCGCCGCTGGGTGATGCCCTGGCCCAGGCCGCCATGGAGGCCTTGGCCGCAAAAAAAGCCCGCGCCCCCGGCCTGCCGCGCTAA</t>
+  </si>
+  <si>
+    <t>ATGCCTGAATCCCGTGATCCCACCCGCGATGGCCGCTCGCCGACGGTCCTGGTGCCGGCCGAGCCGCCGCTGCATTTCCCGTTCACGGCCATCGAAGGGCAGGACGAGCTTCAGCAGGCCTTGCTGCTGACGGCCATCGAGCCGCGCATCGGCGGCGTCGTCGTCGAGGGGCCGCGCGGCACGGCCAAGACCACAGCCGCGCGCGGCCTGGCCGAGCTGCTGGCGCCGGCCCCTTTCGTCAGCCTGCCGCTGGGCTGCACCATCGAGCACCTGGTCGGCAGCCTGGACATCGGCCAGGCCCTGAGCCACCAGCAGCTGGCCTTTGCGCCCGGCCTGCTGGCCAAGGCGCACGGCGGTGTGCTGTACGTCGATGAAATCAACCTGCTGCCCGACGCCCTGGTCGACGTGCTGCTCGATGTGGCCGCCAGCGGCGTCAACCGCGTGGAGCGCGACGGCATTTCGCACCAGCACGCGGCGCGCTGGGTGCTGGTGGGCACCATGAACGCCCAGGAAGGCCGGCTGCGCCCGCAGCTGCTGGACCGCCTGGGGCTTGGCGTGGTGGTGGGCAACGTGCACGATGCCGCCCAGCGCCAGCGCATCGTGCGCGCGCGGCTCGCGTTCGACCACGACCCCCAGTCGTTTGTTCAGCAGCACGCGCAGCGCCAGCAGGCGCTGGCCCGGCGGCTGGCGCGCGCCCGCGCGGCGTTGGCCGGCCCGGTCGAGGTCTTGGACGCGGCCTGGGCCGACGTGGCCCAGCGCGGCATCGCGGCGGCGGTGGATGGCCTGCGCGCCGACATCGTGATGCTGCGCGCCGCCACCGCGCAGGCTGCCTGGGAGGCGGCGGCCGTTGACATGGCCGACGCTGCTGACACTGCCGCCAAGGCGCAAGCCCTTCAGGTCACGCCCGCGCATGTGGCGCAGGTGGCCGAACTGGTGCTGCGCCACCGCCGCGCGGCGGGCGAGGCGCCGGCGCCCGCTGCAGCACGCCCGGCGTCGCCGCCGCCCGCCGCGCCGCAGGCGCCGACGCCCGCGCCACCGCCATCCGACGCTGGCCAGCCCCCGGCCAGCCAGCCTCAGCCGACCACGCCCGGGGGCGGACCCGATGCGGGTGAGCCAGGCGCCGTCCAGCGCGATGCGGCACCGCCCGCTGGCGGGGAGTCAGGCGTGGAACCATCGGATGCGGGCCAGGGGCCGTCGTCCGGTCAGGCCGATTGGGGCGGGCTGGCGGCTGAACCCGTCCCCAGCGCCACCGCGGCCAATCCTTTGCTGCAGCGGTGGCTGCAGACGCTGTCGCAGGCCGTCGCCGAAGACCCGCCAAAAAAAGCCCTGAGCCCCCGCGTTGGCCCCCCGCGCGCAGCGCGGGCCGGGGCAGGGCGGGGGCGGGCATCCGGGCCGCTCAGGGCCGCGTCGGCGGGCCGGGCGACGCCTGCGTCTGTCCAGCGCGGCACGCCCGGCGCGGGCGCGCGCATCGACTGGCCGCGCAGCCTGGTGCAGCGCCCGCTCGACGCGGCCTTGTACCAGCCCTGGCAGCTGCACTGGCGCGACGACCGGCCGCCGCCGCGCGTGCTGGACCTGTTGCTGCTCGATTGCTCGGCGTCCATGGTGCAGTCCGGTGCGCTGGCGCTGGCCAAGGGCCTGGGCATTGCGCTCATGGACGAGGCCTATCGCGCGCGGCGCGACGTGGGCCTGATCCGCTTTGGCGGGCAACATGCGGGTGTTGAAGTATGGCCTCAGCAGTCAGGCTGGTTCAATGGCGACTGGGTGGAACCCCTGACCGGTGGTGGCGGCACCCCGCTGCAGGCCGCCGTCGATCTGGCGCAGGCCGTGGTGCAGCAGGCGCGCCCCGCGGTGTGCTGCCTGTGGCTGTTGAGCGATGGCCGCGTGCACGAGCGGCCCGCCGCGCCGCAAGGTTGCGACGTGATCCACGTGCTCGATGTGGACCAGGCGCCGCCGCACCGCCGGCTGCCAGGCGCGCGGCTGCTGGCCGAGCATTGGCAGGCGCGCTACCTCGCCTTGCCGGCCGCATGA</t>
+  </si>
+  <si>
+    <t>ATGCCTGAATCCCGTGATCCCACCCGCGATGGCCGCTCGCCGACGGTCCTGGTGCCGGCCGAGCCGCCGCTGCATTTCCCGTTCACGGCCATCGAAGGGCAGGACGAGCTTCAGCAGGCCTTGCTGCTGACGGCCATCGAGCCGCGCATCGGCGGCGTCGTCGTCGAGGGGCCGCGCGGCACGGCCAAGACCACAGCCGCGCGCGGCCTGGCCGAGCTGCTGGCGCCGGCCCCTTTCGTCAGCCTGCCGCTGGGCTGCACCATCGAGCACCTGGTCGGCAGCCTGGACATCGGCCAGGCCCTGAGCCACCAGCAGCTGGCCTTTGCGCCCGGCCTGCTGGCCAAGGCGCACGGCGGTGTGCTGTACGTCGATGAAATCAACCTGCTGCCCGACGCCCTGGTCGACGTGCTGCTCGATGTGGCCGCCAGCGGCGTCAACCGCGTGGAGCGCGACGGCATTTCGCACCAGCACGCGGCGCGCTGGGTGCTGGTGGGCACCATGAACGCCCAGGAAGGCCGGCTGCGCCCGCAGCTGCTGGACCGCCTGGGGCTTGGCGTGGTGGTGGGCAACGTGCACGATGCCGCCCAGCGCCAGCGCATCGTGCGCGCGCGGCTCGCGTTCGACCACGACCCCCAGTCGTTTGTTCAGCAGCACGCGCAGCGCCAGCAGGCGCTGGCCCGGCGGCTGGCGCGCGCCCGCGCGGCGTTGGCCGGCCCGGTCGAGGTCTTGGACGCGGCCTGGGCCGACGTGGCCCAGCGCGGCATCGCGGCGGCGGTGGATGGCCTGCGCGCCGACATCGTGATGCTGCGCGCCGCCACCGCGCAGGCTGCCTGGGAGGCGGCGGCCGTTGACATGGCCGACGCTGCTGACACTGCCGCCAAGGCGCAAGCCCTTCAGGTCACGCCCGCGCATGTGGCGCAGGTGGCCGAACTGGTGCTGCGCCACCGCCGCGCGGCGGGCGAGGCGCCGGCGCCCGCTGCAGCACGCCCGGCGTCGCCGCCGCCCGCCGCGCCGCAGGCGCCGACGCCCGCGCCACCGCCATCCGACGCTGGCCAGCCCCCGGCCAGCCAGCCTCAGCCGACCACGCCCGGGGGCGGACCCGATGCGGGTGAGCCAGGCGCCGTCCAGCGCGATGCGGCACCGCCCGCTGGCGGGGAGTCAGGCGTGGAACCATCGGATGCGGGCCAGGGGCCGTCGTCCGGTCAGGCCGATTGGGGCGGGCTGGCGGCTGAACCCGTCCCCAGCGCCACCGCGGCCAATCCTTTGCTGCAGCGGTGGCTGCAGACGCTGTCGCAGGCCGTCGCCGAAGACCCGCCAAAAAAAGCCTGA</t>
+  </si>
+  <si>
+    <t>ATGACACCGACATTCCCTTTATCGGCGATCCAGGGCCAGCCGCAGCTGGTGCAGGCGCTGCTGCTGGCGGCCATCGAGCCGGCGCTCGGCGGCGTGCTGGTCCAGGGCCCGCGCGGCACGGCCAAGTCCACGGCCGCGCGCGCGCTGGCCGACGTGCTGGCGCCCGCGCCCTTCGTCACGCTGCCGCTGGGCGCGTCCATCGAGCATGTGGTGGGCAGCCTCGACCTGGCCAAGGCCCTGGCCGGCAGCGAGGTGGCCTTTGCGCCCGGCCTGCTGGCCCGGGCGCACGGTGGCGTGCTCTACGTCGACGAGATCAACCTGCTGCCCGATGCCATCGTCGATGTGCTGCTGGACGTGGCCGCCTCGGGCGTGAACCGCGTGGAGCGCGACGGCATCTCGCACAGCCACGCGGCGCGCTTCGTGCTGATCGGCACCATGAACCCCGAGGAGGGCATGCTGCGCCCGCAGCTGCTCGACCGGCTGGGCCTGTGCGTGCAACTGGCCAATGCGCAGGACCCGCAGCTGCGCAGCGCCATCGTCAAGGCGCGGCTGCGCTTCGACCTCGACCCCGCGGGCTTTGCGCAGGCCCACGCGGCCGAGCAGGCGCGCCTGGCAGAACGCCTGCGGCAGGCGCGGCTGCGCTGCGCCGATGCCGGCCAGCTGCCGTGGAGCGATGCCGTGCACGGCGAGGTCGCGCAGCAGTGCATAGATGCCCGGGTGGACGGCCTGCGCGCCGACCTCGTGATGCTGCGCGCGGCGCGCGCCCTGGCCGCCTGGGAAGGCAGCGAGGGCATCGGCGCGCGCCATGTGGCTGCGGTGGCGCCCCTGGTGCTGCTGCACCGTGCCAGCCAGGCGCCCGCCGACACCGCGCAGCGCCCGGCCCCGTCGCCGGCGCCAATACCGGCACCAGCACCGGCATCAACACCGGTGCCGCCTCCATCGCCCACCCCGGCGGGGAACGCGGGCCAGACGAACCCGACGCCCAGCCCCGGCCCGGCCGGGGCCGCGGCGCAGGGCCTGCAGCAGCCGCCCGCCGACTGGGGCCGGCCGCAGCCCCTGGCCAGCGCGCCGGTCGCGGCGCTGCAGGCCGACGCGCTGGCGCAGGCCGCCCTGGAGGCCCTGGCCGCAAAAAAAGCCCGCGCCCCCGGCCGGGGGCGCCTGACGCGCCCTGGCCGGGGGCGCACCGCAGTGCCCATGGCCGGGGCTGCGCTGGCCAGCCCTGCGCAGCCCGTGGCGCAGCGCCGGCCGGGCGCCGTGCTCGACTGGCCCGCCACGCTGCGCGCGCGCCGCGGCCAGCCGCTGGCGGCCGGGCACCTGCGCTGGCGCCAGGGCCTGGGCCAGCCCCAGGGGCTGCAGGTGTTCGCGCTCGACTGCTCGGCCTCGATGCTGGACAGCGGCGCCTTCGCCCGCGCCAAGGGATTGCTGCTGCAATGGCTGTGCCGGGCCTATCTGCAGCGCATGCCCGTGGCGCTGCTGTGCTTCGGCGCAGGCCAGGTGCAATGGCAGCTGCCGCCGCGCCGGGCGCCGCGCTGGAATGCGGAATGGATCGACCCGCTGCCCGGGGGGGGCGGCACGCCCCTGGCCCAGGCCTTCCAGGCAGCATGGCAGATGCTGGCCCGGTGGCCCGAAATGCAGCCCCAACTCTGGGTGCTCAGCGATTTCCGCAGCCCCGATGTCCTGGCCCTGGTGCGGGAGCGTGTCCCCCCGCTGGCCCATGTGCTGGTCGATTGCGAGCCTGCTGCCCATGGCGGCCGGCCCTTTGGCGGCGCCGGGCGCCTGGCGGATGCCTGGAGCTGTGCCGTGCGGCTGAGGCTGCCCTGGTGA</t>
+  </si>
+  <si>
+    <t>ATGACACCGACATTCCCTTTATCGGCGATCCAGGGCCAGCCGCAGCTGGTGCAGGCGCTGCTGCTGGCGGCCATCGAGCCGGCGCTCGGCGGCGTGCTGGTCCAGGGCCCGCGCGGCACGGCCAAGTCCACGGCCGCGCGCGCGCTGGCCGACGTGCTGGCGCCCGCGCCCTTCGTCACGCTGCCGCTGGGCGCGTCCATCGAGCATGTGGTGGGCAGCCTCGACCTGGCCAAGGCCCTGGCCGGCAGCGAGGTGGCCTTTGCGCCCGGCCTGCTGGCCCGGGCGCACGGTGGCGTGCTCTACGTCGACGAGATCAACCTGCTGCCCGATGCCATCGTCGATGTGCTGCTGGACGTGGCCGCCTCGGGCGTGAACCGCGTGGAGCGCGACGGCATCTCGCACAGCCACGCGGCGCGCTTCGTGCTGATCGGCACCATGAACCCCGAGGAGGGCATGCTGCGCCCGCAGCTGCTCGACCGGCTGGGCCTGTGCGTGCAACTGGCCAATGCGCAGGACCCGCAGCTGCGCAGCGCCATCGTCAAGGCGCGGCTGCGCTTCGACCTCGACCCCGCGGGCTTTGCGCAGGCCCACGCGGCCGAGCAGGCGCGCCTGGCAGAACGCCTGCGGCAGGCGCGGCTGCGCTGCGCCGATGCCGGCCAGCTGCCGTGGAGCGATGCCGTGCACGGCGAGGTCGCGCAGCAGTGCATAGATGCCCGGGTGGACGGCCTGCGCGCCGACCTCGTGATGCTGCGCGCGGCGCGCGCCCTGGCCGCCTGGGAAGGCAGCGAGGGCATCGGCGCGCGCCATGTGGCTGCGGTGGCGCCCCTGGTGCTGCTGCACCGTGCCAGCCAGGCGCCCGCCGACACCGCGCAGCGCCCGGCCCCGTCGCCGGCGCCAATACCGGCACCAGCACCGGCATCAACACCGGTGCCGCCTCCATCGCCCACCCCGGCGGGGAACGCGGGCCAGACGAACCCGACGCCCAGCCCCGGCCCGGCCGGGGCCGCGGCGCAGGGCCTGCAGCAGCCGCCCGCCGACTGGGGCCGGCCGCAGCCCCTGGCCAGCGCGCCGGTCGCGGCGCTGCAGGCCGACGCGCTGGCGCAGGCCGCCCTGGAGGCCCTGGCCGCAAAAAAAGCCCGCGCCCCCGGCCGGGGGCGCTGA</t>
+  </si>
+  <si>
+    <t>ATGATCTCGTCCACCGAATCCGCACCGTCTGCGCACGCGGCGGGCTTTCCGTTCACTGCCATCGAGGGACAGCCGCAGCTGCAGACGGCCTTGCTGCTGGCGGCCGTGGATCCGTTGCTGGGCGGCGTGCTGGTGGAGGGGCCGCGCGGCACGGCCAAGTCGACCAGTGCGCGGGCGCTGGCCGCCTTGCTGCCGGCCGGCCGCTTTGTGAACCTGCCGCTGGGGGCGACGGAGGAACAGCTGGCCGGCTCCCTGGACCTGGAAGCCGCGCTGCAGCGCAGTGCGGTGGTGTTCCGCCCGGGATTGCTGGCGCGTGCCCATGGCGGCATCCTGTATGTGGATGAGGTGAACCTGCTGGCCGATGCGCTGGTGGACCTGCTGCTGGACGTGAGCGCCAGCGGCATCAACCGGGTGGAGCGCGACGGCGTGTCGCACCAGCACGATGCGCGCATCACCCTGGTGGGTACCATGAACCCGGAAGAGGGCCAGCTGCGGCCGCAGCTGCTGGACCGCTTCGGGCTGTTCGTGCGGCTGGAGAATGTGCCCAGTGCCGCGGTGCGCAAGGCCATTGTCAAGACGCGCATGGCCTTCGATGCCGATCCGCAGGCCTTTGTGGAGCAGCACGCTGCGGCGCAATCCGATCTGGCGCAGCGGGTGAAGCTGGCGCGCGAGCGCGTGGCGGCCGTGGCGTGGACCGATGCCGTGCACGACGATGTCGCCCAGCGCTGCCAAGACGCCGGGGTGGAAGGGGTCCGGGCAGATCTGGTGATGCTGCGCGCGGCGCGGGCGCATGCGGCGCTGCACGGGCGCAGCGCCGTCACGCCGGCGGATGTGCAGGCAGTGGCGGAACTGGCGCTGGCCCACCGGCGCACCCAGGCTGCACCGGCTGAGCCGCCCGCGTCGGGCGAGCCGGCGCAGCAGCCGGAACAGCAGCCGAGTTCCGAGGAACAGACGCCACCTCCAGCCCCGCCGCCAACCGGTGGGGCGCAGGGTGCAGGTACCCCGTCCGGCCAGTCCGGGCATGGGCCGGCACCATCGGCGAATACATTGCCGGACCATGCCGCCCCGGCCGATGCCTGGGGCGCCATGCCGCCACCCCAGCTGGTGGCGATGAAGGTGGTCAAGGCGCTGAAGCCTTTGCCGTCAAAAAAAGCCCTGACGCGCTCCGCTGTGGCGGGACTGGCCGGAAAGGCCAAGGCGGGGCGCGGTGGGAATACCTCTCGCAAGGGCCGGCTGAACGGGGCGGCAGGGCGGCGCCTGGACTGGGTGTCCACGCTGGCGTCCAAGGGCCGCGGGGCGCTGCGGCCCGAACACCTGCGTTTTCGCCCGCGGCCTGTGGGGAGCAAGACCCTGCACCTGGTCTTGCTGGATCTGTCGGCGTCCATGCTGCGCGGTGAAAAGCTGGCCTGGGCCAAAGGGTGCTTGCTGGCTCTGACCGAGCAGTTCTACCGCGATCGCGACCATATGGCGGTGATCGGATTTGCGGGCGAGCAGGCACGGTGGCTGCAGTCCCCGGCGAAAGCCGGGGCTTTCAATGCCGGCTGGATTGCGCCCTTGCGCGGCGGTGGCGGAACGCCGATCCAGCCCGCTGTCGACGCCGTGGAGGGCGCGCTGCGGCGCTGCCCGCCCGGCACCCGGGCCACGGTCTGGCTGCTGACGGATGGGCGGTTTGATCCGCTGCCGGTGCGCCCCGAGGGGGTGGACCGTTGCTGCATCATCGACTTTGAAAATGATGCGGTGGCGCTGGGGCGGTGCCAGCGGCTGGCGGCGATGTGGTGCGGGGAGTGGGTGCGGGCGGAGCTTTTTGCCACTGCCGGCTGA</t>
+  </si>
+  <si>
+    <t>ATGATCTCGTCCACCGAATCCGCACCGTCTGCGCACGCGGCGGGCTTTCCGTTCACTGCCATCGAGGGACAGCCGCAGCTGCAGACGGCCTTGCTGCTGGCGGCCGTGGATCCGTTGCTGGGCGGCGTGCTGGTGGAGGGGCCGCGCGGCACGGCCAAGTCGACCAGTGCGCGGGCGCTGGCCGCCTTGCTGCCGGCCGGCCGCTTTGTGAACCTGCCGCTGGGGGCGACGGAGGAACAGCTGGCCGGCTCCCTGGACCTGGAAGCCGCGCTGCAGCGCAGTGCGGTGGTGTTCCGCCCGGGATTGCTGGCGCGTGCCCATGGCGGCATCCTGTATGTGGATGAGGTGAACCTGCTGGCCGATGCGCTGGTGGACCTGCTGCTGGACGTGAGCGCCAGCGGCATCAACCGGGTGGAGCGCGACGGCGTGTCGCACCAGCACGATGCGCGCATCACCCTGGTGGGTACCATGAACCCGGAAGAGGGCCAGCTGCGGCCGCAGCTGCTGGACCGCTTCGGGCTGTTCGTGCGGCTGGAGAATGTGCCCAGTGCCGCGGTGCGCAAGGCCATTGTCAAGACGCGCATGGCCTTCGATGCCGATCCGCAGGCCTTTGTGGAGCAGCACGCTGCGGCGCAATCCGATCTGGCGCAGCGGGTGAAGCTGGCGCGCGAGCGCGTGGCGGCCGTGGCGTGGACCGATGCCGTGCACGACGATGTCGCCCAGCGCTGCCAAGACGCCGGGGTGGAAGGGGTCCGGGCAGATCTGGTGATGCTGCGCGCGGCGCGGGCGCATGCGGCGCTGCACGGGCGCAGCGCCGTCACGCCGGCGGATGTGCAGGCAGTGGCGGAACTGGCGCTGGCCCACCGGCGCACCCAGGCTGCACCGGCTGAGCCGCCCGCGTCGGGCGAGCCGGCGCAGCAGCCGGAACAGCAGCCGAGTTCCGAGGAACAGACGCCACCTCCAGCCCCGCCGCCAACCGGTGGGGCGCAGGGTGCAGGTACCCCGTCCGGCCAGTCCGGGCATGGGCCGGCACCATCGGCGAATACATTGCCGGACCATGCCGCCCCGGCCGATGCCTGGGGCGCCATGCCGCCACCCCAGCTGGTGGCGATGAAGGTGGTCAAGGCGCTGAAGCCTTTGCCGTCAAAAAAAGCCTGA</t>
+  </si>
+  <si>
+    <t>ATGAAAGAGTTCAATTCCTGTGAAACCGGCCTGCACCAAGCCAGGGGCACCAAGCAAGAGCCTAAGCCGGCCGCAGCGCCTCGCAGCGAAGGCCTCCTCCCCCCGCAGGGAGGAAGTGGCGAAGCCGCTCAGAGGGTCTTTCCCTTGTCTGCCATACAGGGACAGCCCGCACTCGTGCAGGCTCTGCTGCTGGCAGCGATCGAGCCACAGCTGGGCGGCGTGCTCATCCGGGGCCCGCGCGGCACGGCAAAGTCCACGGCAGCACGTGCGCTGGCGGATCTGCTGGCACCTGCACCTTTCGTCACCCTGCCGCTAGGCGCCTCCATCGAGCATGTGACCGGCAGTCTGGACCTGTCCAAGGCTCTGGCGGGCCATGAGGTGGCTTTTGCTCCGGGCCTGATCGCCAAGGCGCACGAAGGGGTTCTCTATGTCGATGAGATCAATCTGCTGCCCGATGCCATCGTCGATGTGCTGCTTGATGTGGCAGCCTCCGGCATCAATCGCATAGAGCGCGACGGGATCTCGCACAGCCATGCTGCACGCTTTGTGCTGGTCGGCACCATGAACCCCGAGGAAGGCATGCTGCGCCCGCAGTTGCTGGACCGCCTGGGCCTTTGTGTGCAATTGGACAATCCCCAGGACCCGCAGCTGCGCAGCAGCATCGTCAAGGCCAGGCTGCGCTTTGACCTGGACCCCCAGGGCTTTGTGCAATCCCATGCGGCCCGCCAGCAGGAGATCCGCCAGCGGCTGGCGCAGGCCCGCAGCCGTTGCCGCAATGCCTCGGAGCTGGCCTGGAGCGATGACGTCCACGAGGCCGTGGCCCTGCAATGCATTGCCGCCCAGGTGGACGGACTGCGTGCCGACCTGGTCATGCTGCGCGCTGCGCGCGCCCTGGCAGCCTGGCAAGGCAGTCACAGCATCACGCCAGCCCATGTGGCCGAAGTCGCGCCACTGGTACTGCAGCATCGTGCTGCCCAGCCAGACCCGGGCAGCGCCAGTCAGCCCCAGCAGACTCCCGCAGGCACAGCTTCGGCCGTGCCCGCTGCGCCATCCAGCACGGATCGCAAAGACCGCACAGAGCCTGGTATCCAGGCGTCAGCATCCCCTTCAACGGCCTCCCGCGAGCCCGGCGCCACCGGCTCCTTGCCTCAAGACGCCGGCCCGGGCCTCGAACAGCCGCCTGCCGGCTGGGGTCAGGCTCAAGCCGTGAGCAGCGTCGTCTTCGAGCCTCAACAGGCCGACGCCATGGCACAGGCAGCCCTGGAGGCCCTGGCCGCAAAAAAAGCCCGGGCCTCCGGTCTGCTGCGCCTGAGCGCCGGCCGGGGGCAAGTCGGCTCCGCCAACCAAGGTCTGGCCCTGGCCAGCCATGCCGTATCCAGCGTCCACAAGATGCCAGGGGCATCGATTGACTGGACTGCCACCCTGCGCCAGCGCCAGGGGCTGCCACTGGCACCCGCCCATCTGCGCTGGCACCAGCCCGAGGGAACGGTGCGCAGGCAACACCTGTTCCTGCTGGACTGCTCGGCCTCGATGGTGGAGAGCGGCGCGTTTGCCCAGGCCAAGGGCCTGCTGCTGCAGTGGCTGCGCCGGGCCTATCTGCAGCGCGAAGCCGTGGCCCTGCTGTGCTTCGGCGCAGGCCGCCTGCACTGGCTGCTGGAGCCCACGCGGGCGCCACGCTGGAATGCCGAACTGATCGAGCCGCTACGCGGCGGTGGCGGCACACCGCTGGCCCAGGCCCTGGATTCAGGCTGGCAGATGGCGGCCAGATACTCCCGGCAACCATCCTGCCTGTGGCTGCTCAGCGACTTCCGCAGCCCCGATGTGCTGCAGCTGGAGCGCGGCCCCGTACCTGCCGTGGCACAGATTCTGGTGGACTGTGAAAACGCTGCGGGCCAGAGCACGCGTCGGTTTGGCGGTGCCGAGCGACTGGCAAAGGTCTGGCCGAACACCCTTCGGCTACCGCTGGAATTCACCTGA</t>
+  </si>
+  <si>
+    <t>ATGAAAGAGTTCAATTCCTGTGAAACCGGCCTGCACCAAGCCAGGGGCACCAAGCAAGAGCCTAAGCCGGCCGCAGCGCCTCGCAGCGAAGGCCTCCTCCCCCCGCAGGGAGGAAGTGGCGAAGCCGCTCAGAGGGTCTTTCCCTTGTCTGCCATACAGGGACAGCCCGCACTCGTGCAGGCTCTGCTGCTGGCAGCGATCGAGCCACAGCTGGGCGGCGTGCTCATCCGGGGCCCGCGCGGCACGGCAAAGTCCACGGCAGCACGTGCGCTGGCGGATCTGCTGGCACCTGCACCTTTCGTCACCCTGCCGCTAGGCGCCTCCATCGAGCATGTGACCGGCAGTCTGGACCTGTCCAAGGCTCTGGCGGGCCATGAGGTGGCTTTTGCTCCGGGCCTGATCGCCAAGGCGCACGAAGGGGTTCTCTATGTCGATGAGATCAATCTGCTGCCCGATGCCATCGTCGATGTGCTGCTTGATGTGGCAGCCTCCGGCATCAATCGCATAGAGCGCGACGGGATCTCGCACAGCCATGCTGCACGCTTTGTGCTGGTCGGCACCATGAACCCCGAGGAAGGCATGCTGCGCCCGCAGTTGCTGGACCGCCTGGGCCTTTGTGTGCAATTGGACAATCCCCAGGACCCGCAGCTGCGCAGCAGCATCGTCAAGGCCAGGCTGCGCTTTGACCTGGACCCCCAGGGCTTTGTGCAATCCCATGCGGCCCGCCAGCAGGAGATCCGCCAGCGGCTGGCGCAGGCCCGCAGCCGTTGCCGCAATGCCTCGGAGCTGGCCTGGAGCGATGACGTCCACGAGGCCGTGGCCCTGCAATGCATTGCCGCCCAGGTGGACGGACTGCGTGCCGACCTGGTCATGCTGCGCGCTGCGCGCGCCCTGGCAGCCTGGCAAGGCAGTCACAGCATCACGCCAGCCCATGTGGCCGAAGTCGCGCCACTGGTACTGCAGCATCGTGCTGCCCAGCCAGACCCGGGCAGCGCCAGTCAGCCCCAGCAGACTCCCGCAGGCACAGCTTCGGCCGTGCCCGCTGCGCCATCCAGCACGGATCGCAAAGACCGCACAGAGCCTGGTATCCAGGCGTCAGCATCCCCTTCAACGGCCTCCCGCGAGCCCGGCGCCACCGGCTCCTTGCCTCAAGACGCCGGCCCGGGCCTCGAACAGCCGCCTGCCGGCTGGGGTCAGGCTCAAGCCGTGAGCAGCGTCGTCTTCGAGCCTCAACAGGCCGACGCCATGGCACAGGCAGCCCTGGAGGCCCTGGCCGCAAAAAAAGCCCGGGCCTCCGGTCTGCTGCGCTGA</t>
+  </si>
+  <si>
+    <t>ATGACCGGTTATCCCTTCGCAGCCATCGTCGGGCACGACGACTTAAGGCTTGCGCTGATTTTGAATTCGATCTCGCCCACCATCGGTGGTGTCGTAGTGCGGGGTGAAAAAGGCACCGCGAAAACTACCACCATCCGTGGTTTCGCGACGCTGATGAACGGTCCTCTGGTCAACCTTCCCATCGGCGCTACTGAAGACCGCGTGGTGGGTTCCCTGGATGTAGAAACGGTGCTCACCACCGGCCGCGCCGAATACAAGCCGGGTCTGCTGGCGCAGGCCGACGGCGGCATCCTCTACGTCGACGAAGTTAATCTCCTGCCTGACCACCTGGTGGACGCGTTGCTGGATGCGGCCGCCACCGGCCAGGTCACCATCGAACGCGATGGCATCTCCCACACCAGCCCCGCCCGTTTCGTGCTCGTCGGATCGATGAACCCCGAGGAAGGGGAGTTGCGTCCCCAGTTGCTGGACCGCTTTGGTCTTGCTGTGGAGGTAGCGGCATCCCGCGACGTTGAGGTGCGCTGCGAGATCATGCGCCGCCGCCTGGCTTTCGACGCCGCTCCGCAAACCTTTGCGGCCCACTACGCCGACCAGGAACGCGCCTTGTCCGAACAGCTGGAACAGGCCCGCACCTTGTTGCCTGATGTGGAACTCCCCGACGCGATGTTGGCCCGCATTGCCCACGTGTGCGCCACTTTTGATGTCGATGGAATGCGCGCCGACCTGGTGATCGCGCGCACCGCGTGCGCGCATGCGGCGTGGCGTGGCGCGCAGCGCGTGGGGGAGGAAGACATCGCTGTAGCCGCCAAGTTGGCCTTGCCGCACCGCAAGCGCCGCGATCCTTTCGATGACACCGGACTTGACGAGGATCAGCTCGACCAGGCTCTCGATGAGGCCAAGGAACAGTTCCCCGAGCAGCCCGAAAACACCGAAGACGACGGCGGTGCGGAGCAGCAACCGCCACAACCAGAACAGTCTGACGCTGACTTGCAGCCCCCGCAGGACACCCCCGATGAGCAGCCCACCCAGGACGGGAAGGCAGGTCGCGCCGATATCGGCGCCCCCTTTCGCCCCAGGCTGCTGCGACGGGCAGGAGTCGGCGAGGAAGGACTACCGGGTCGGCGCTCCAAAGCCTATTCCGCCCAAGGAGCTACCGTGCGCGCCGTGCGGGGCGGCCACGGCCTCAACGTGGTCGGCAGCGTGCTGGCCGCCGCGGATCGTGGCGCCAGCATCAGTGGGGAAATGATCGATTTTCGCCCCAGCGACCTGCGCGGAAGCCTTAGGCGTGGGCACGAATCCAACCTCATCGTTTTCCTCGTTGATGCCTCCGGCTCGATGGCCGCCAGGGACCGCCTATCCGCGGTCACCGGGGCAGTGGTCTCCATGCTGCGCGACGCCTACCAACGCCGCGACAAAGTGGCCGTGATCTCCGTACGCGGTGCCGCCCCCGAACTGCTTTTGCCACCCACCTCAAGCATTGAGGTTGCGGTGCGCAGAATGGCGCACGCCGACACCGGTGGGCGCACCCCACTGGCGCAAGGCCTGGTGATGGCCCAACAACTCATCGAGCGGGAACACCGCAAGGAGCCCGCGCGTCGGGCCATGCTCGTCATCCTCAGCGATGGGCGCGACACCTCCCACGCGGGAGTCGCCGGGGTCCGCACCGCAGCCAGCACGATCTCCCGCCGCGGGCTGGCCGGAAGCCTCGTCATCGACTGCGAACGTGCAGGGCGCGTCACCCTGGGGTTGGCCAAGGAACTCGCCCGCGGACTGGTGGGCGCCTACGTCAAAGTCGACGAACTCAACGCCGAATCCATCTCCGGCATCATCGACGCCGTCTAA</t>
+  </si>
+  <si>
+    <t>ATGACCGGTTATCCCTTCGCAGCCATCGTCGGGCACGACGACTTAAGGCTTGCGCTGATTTTGAATTCGATCTCGCCCACCATCGGTGGTGTCGTAGTGCGGGGTGAAAAAGGCACCGCGAAAACTACCACCATCCGTGGTTTCGCGACGCTGATGAACGGTCCTCTGGTCAACCTTCCCATCGGCGCTACTGAAGACCGCGTGGTGGGTTCCCTGGATGTAGAAACGGTGCTCACCACCGGCCGCGCCGAATACAAGCCGGGTCTGCTGGCGCAGGCCGACGGCGGCATCCTCTACGTCGACGAAGTTAATCTCCTGCCTGACCACCTGGTGGACGCGTTGCTGGATGCGGCCGCCACCGGCCAGGTCACCATCGAACGCGATGGCATCTCCCACACCAGCCCCGCCCGTTTCGTGCTCGTCGGATCGATGAACCCCGAGGAAGGGGAGTTGCGTCCCCAGTTGCTGGACCGCTTTGGTCTTGCTGTGGAGGTAGCGGCATCCCGCGACGTTGAGGTGCGCTGCGAGATCATGCGCCGCCGCCTGGCTTTCGACGCCGCTCCGCAAACCTTTGCGGCCCACTACGCCGACCAGGAACGCGCCTTGTCCGAACAGCTGGAACAGGCCCGCACCTTGTTGCCTGATGTGGAACTCCCCGACGCGATGTTGGCCCGCATTGCCCACGTGTGCGCCACTTTTGATGTCGATGGAATGCGCGCCGACCTGGTGATCGCGCGCACCGCGTGCGCGCATGCGGCGTGGCGTGGCGCGCAGCGCGTGGGGGAGGAAGACATCGCTGTAGCCGCCAAGTTGGCCTTGCCGCACCGCAAGCGCCGCGATCCTTTCGATGACACCGGACTTGACGAGGATCAGCTCGACCAGGCTCTCGATGAGGCCAAGGAACAGTTCCCCGAGCAGCCCGAAAACACCGAAGACGACGGCGGTGCGGAGCAGCAACCGCCACAACCAGAACAGTCTGACGCTGACTTGCAGCCCCCGCAGGACACCCCCGATGAGCAGCCCACCCAGGACGGGAAGGCAGGTCGCGCCGATATCGGCGCCCCCTTTCGCCCCTAG</t>
+  </si>
+  <si>
+    <t>ATGATCAACCCTGCTATTGGAGGGGTGCTCGTCCGTGGTGAAAAGGGCACGGCGAAAACGACCACAATCAGGGGCTTTGCCGATATTATTGACGGGCCCCTGGTTAATCTTCCTATCGGAGCCACCGAGGACCGTGTCGTCGGTTCGCTTGATATGGAAACCGTGCTGACCACAGGGCGGGCTGAGTACAAGCCTGGACTGTTGGCTCAGGCACACGGGGGGATTTTGTATGTTGACGAGGTCAATCTGCTCGCAGATCATCTAGTTGATGCCCTTCTTGACGCCGCGGCTACCGGCCAGGTCACCGTGGAACGTGACGGATTGTCTCACACCACCCCGGCACGTTTCGTCCTCGTGGGTTCGATGAATCCAGAGGAAGGGGAGTTGCGCCCTCAACTTCTTGACCGTTTTGGACTCGCTGTGGACGTGGTGGCGTCGCGCGAAGTACCTGTGCGTGCAGAAATTATGCGCAGGCGCCTAGCCTTCGAAGCGGACCCGGCTGCCTTTGTTGCCCAGCATCGAGAAGAAGAAATCGCGTTGGCTGAGCAGCTTCAGGCTGCTCGTTTAACCGTTGGCGACGTGGTGCTCTCGGACGCAGGGCTGGAGCAGATTGCCAGCGTGTGTGCCGCTTTTGATGTCGATGGCATGCGCGCGGATCTTGTGATTGCCCGCGCCGCCACCGCCCATGCGGCATGGCGCGGAGCTACGCAGGTGGGGGAGGAAGACATCAAGGTTGCTGCCGAGTTGGCCCTACCACACAGGCGTCGGCGTAACCCCTTCGATGAACCTGGCCTCGATCAGCAGCAGCTCGAAGATGCCTTGGAAGAAGCTCACAACAACAGCCCGTTGTCTGAGGATGATCAGCAGCCCGCACCATCTGACGGTGATGCTGAACTCCCCGATACTCCGCCGCAGCCTGACCAGCTCGATGAACCAACCGATTCCGATGATGGCGGAAAGGTAGGTCGCGCCGATTCGGGCGCCCCCTTTCGCCCCAGGCTGTTGCGTTTTAAACGCTCGTCTTTGCAACAAGACACCCCATCGGGGCGCAGGTCCAAGGCATATTCTTCCAGCGGCGCTGATGTGCGCGCTATCGTCCACGGACGCGGGCTTAACCTGCAAGGCACTGTGATGGCGGCGGCAGAGCGCGGTGCCGGCTTCAAATCCATCCCCGGTGGACAGTTGGTCGACTTCCGCCCTGAAGATCTTCGAGGATCACTTCGTCGGGGTATGGAATCGAACCTCATCGTCTTTGTCGTGGATGCCTCTGGCTCGATGGCTGCACGCGATAGGCTGTCTGCGGTCTCGGGAGCCGTCGTATCGATGCTTCAAGACGCTTATCGCCGCCGTGATAAAGTTGCTGTTGTTTCGGTTCGCGGTGCACAGCCCGAGGTGTTGCTCCCACCCACGGGTTCCGTAGAGGTCGCCGTCAAAAGAATGGAGGGCGCACCTACGGGCGGCCGAACTCCCCTGGCAGAAGGTCTTGTAATGGCGCAGGACCTCATTGAGCGTCAAGCACGAAAAGAGCCCTCTCGGAGGGCGATCATGGTGGTTCTCTCGGACGGACGCGCGACGGGGGCGGCGGGTATCAAAGGCGTGCGTCTGGCAGCCGAGGCCATTGCGCGACGGGGCTTGAGCGCTAATGTGGTCATCGATTGCGAACGCGGACGCGTACAGCTAGGGCTTGCAAAGGAACTCGCTCAAGGCTTGGGTGCTGCGTGGGTACGGCTAGATGAATTGAATGCCGATACGGTCGCCAGCGTTATTGGCATTTAG</t>
+  </si>
+  <si>
+    <t>ATGATCAACCCTGCTATTGGAGGGGTGCTCGTCCGTGGTGAAAAGGGCACGGCGAAAACGACCACAATCAGGGGCTTTGCCGATATTATTGACGGGCCCCTGGTTAATCTTCCTATCGGAGCCACCGAGGACCGTGTCGTCGGTTCGCTTGATATGGAAACCGTGCTGACCACAGGGCGGGCTGAGTACAAGCCTGGACTGTTGGCTCAGGCACACGGGGGGATTTTGTATGTTGACGAGGTCAATCTGCTCGCAGATCATCTAGTTGATGCCCTTCTTGACGCCGCGGCTACCGGCCAGGTCACCGTGGAACGTGACGGATTGTCTCACACCACCCCGGCACGTTTCGTCCTCGTGGGTTCGATGAATCCAGAGGAAGGGGAGTTGCGCCCTCAACTTCTTGACCGTTTTGGACTCGCTGTGGACGTGGTGGCGTCGCGCGAAGTACCTGTGCGTGCAGAAATTATGCGCAGGCGCCTAGCCTTCGAAGCGGACCCGGCTGCCTTTGTTGCCCAGCATCGAGAAGAAGAAATCGCGTTGGCTGAGCAGCTTCAGGCTGCTCGTTTAACCGTTGGCGACGTGGTGCTCTCGGACGCAGGGCTGGAGCAGATTGCCAGCGTGTGTGCCGCTTTTGATGTCGATGGCATGCGCGCGGATCTTGTGATTGCCCGCGCCGCCACCGCCCATGCGGCATGGCGCGGAGCTACGCAGGTGGGGGAGGAAGACATCAAGGTTGCTGCCGAGTTGGCCCTACCACACAGGCGTCGGCGTAACCCCTTCGATGAACCTGGCCTCGATCAGCAGCAGCTCGAAGATGCCTTGGAAGAAGCTCACAACAACAGCCCGTTGTCTGAGGATGATCAGCAGCCCGCACCATCTGACGGTGATGCTGAACTCCCCGATACTCCGCCGCAGCCTGACCAGCTCGATGAACCAACCGATTCCGATGATGGCGGAAAGGTAGGTCGCGCCGATTCGGGCGCCCCCTTTCGCCCCTAG</t>
+  </si>
+  <si>
+    <t>GTGTCTCCCCAAAGCGTTATTCGGTACCCATTTTCAGCAGTGGTTGGCCAAGATGAGCTGAGTCTAGCTCTTATCTTGACCGCAATCTCACCACGCATCGGCGGTGTGGTTATCCGCGGCGAAAAGGGCACCGCCAAAACCACCACAGTGCGCGCCTTTGTGGCTTTGCTTGGCGACGCGCCTCTGATCAACCTCCCGCTCGGCTCAACCGAGGACCGCGTTGTGGGATCACTAAATATGGAGACCGTATTTACCACCGGTCGCGCAGAATACCAGCCGGGCCTGCTAGCGCAGGCAGACGGCGGCGTGCTTTATGTAGATGAGATCAACTTGCTAGCTGACCACTTGGTTGATGCACTTTTGGATGCTGCAGCCAGCGGCCGCGTCAATATCGAGCGCGATAGCATTTCGCATTCTTCCTCAACAAACTTCGTGCTAGTGGGCACCATGAACCCAGAGGAAGGGGAACTGCGCCCGCAGCTCCTGGACCGCTTTGGGCTAGCCGTTGATGTGTCCGCCTCGACTAATCCTGAAATTCGTGTTGAGATTATCAAGCGCCGCCTAGCTTATGAAAATAATCCTGAGCAATTTATGGCACAGTGGGCGGATCAAGATGCAGCAACTGTTGAACGTATTGTCGCAGCAAAAGAGCTGCTTCCATCGGTAGAACTTCCCGATATGATCCTCAACCACATCGCTTGGCTGTGTGCGCGCATCGAAGTTGACGGCATGCGCGCAGACCTCGTGATTACTCGCACCGCCCTGGCCAATGCAGCTTGGGAAGGTCGCACCGTAGTTACCGATGACGACGTAGAAACTGCAGCGCGCTTGGCCCTGCCACACCGTCGACGTCGCAATCCTTTTGACGCGCCAGAAATGGAAGAGTGTAGGCTCCAAGAAACACTGCAAGAAGCGCGCAACTTCTTCAAAGATCATGAAAAACAAGGTCCTGCTGCTAAAATCACCGATGAAGAAACTGGTGCGCAAGCCCTAACGGATACCGAAAATCCCACCGACGAAGATGGAATGCAAGGCACTGCCCAAGCCAAGGCACAGACCACCGGAAAGGTAGGTACTGCCGGCTCCGGCGAGCCCTTTCGTTCCAGAAACCTGCGTCTGTCCACCATGGGTTCGGAGGAATCCACTCCGGGGCGCCGTTCCAAAGCCTATTCTCGACAGGGCGCTGATGTGCGTCCCAAAAAGGATGGGCACGGAATTAACTTGGTGGGAACGCTCATGGCGGCCAGCGAACGTGGAGCCGGAATTGTGGAAGGAATTGTTGATTTCCGTCCCGAGGATCTGCGTGGATCTTTAAGGCGAGGCAAAGAAGCAAACCTCATCGTATTTGTGGTTGATACTTCGGGTTCTATGGCCGCGCTATCACGAGTACGCGCTGTCACCAGCACGATTACCTCCATGCTTTCCGACGCCTACCAGCGCCGGGATAAAGTTGCGGTCATCGCGGTCAACGGCAATAAACCAACACTGGTGCTTAATCCCACCAACTCGGTGGAACTTGCGCAACAGCGTCTTAAAGATATGCCGATGGGTGGACGCACTCCTTTAGCTGAGGGATTGCTCATGGCCAAAGATCTAATGGAACGTGAACGTCGCAAAGAACCGGGCCGTCGCGCGTTGATGATTGTCATGACCGATGGTCAAGATACGTCATCGGCAGGTGAAATGGGCATCGCTACGGCAGCTCAGTTGGTGGTGAAATCTGGGCTTTCCGGAAATTTGGTCATTGACTGTGAAGGCAGATTGAAGGTCCGTAAAGAAAAAGCAGCAGTACTAGCAGAAATGCTCAATGGTGTGTGTATTAGATTGCGCGATATGAATTCCGAGCATATTAAGTTCGTGATCAATGCCTAA</t>
+  </si>
+  <si>
+    <t>GTGTCTCCCCAAAGCGTTATTCGGTACCCATTTTCAGCAGTGGTTGGCCAAGATGAGCTGAGTCTAGCTCTTATCTTGACCGCAATCTCACCACGCATCGGCGGTGTGGTTATCCGCGGCGAAAAGGGCACCGCCAAAACCACCACAGTGCGCGCCTTTGTGGCTTTGCTTGGCGACGCGCCTCTGATCAACCTCCCGCTCGGCTCAACCGAGGACCGCGTTGTGGGATCACTAAATATGGAGACCGTATTTACCACCGGTCGCGCAGAATACCAGCCGGGCCTGCTAGCGCAGGCAGACGGCGGCGTGCTTTATGTAGATGAGATCAACTTGCTAGCTGACCACTTGGTTGATGCACTTTTGGATGCTGCAGCCAGCGGCCGCGTCAATATCGAGCGCGATAGCATTTCGCATTCTTCCTCAACAAACTTCGTGCTAGTGGGCACCATGAACCCAGAGGAAGGGGAACTGCGCCCGCAGCTCCTGGACCGCTTTGGGCTAGCCGTTGATGTGTCCGCCTCGACTAATCCTGAAATTCGTGTTGAGATTATCAAGCGCCGCCTAGCTTATGAAAATAATCCTGAGCAATTTATGGCACAGTGGGCGGATCAAGATGCAGCAACTGTTGAACGTATTGTCGCAGCAAAAGAGCTGCTTCCATCGGTAGAACTTCCCGATATGATCCTCAACCACATCGCTTGGCTGTGTGCGCGCATCGAAGTTGACGGCATGCGCGCAGACCTCGTGATTACTCGCACCGCCCTGGCCAATGCAGCTTGGGAAGGTCGCACCGTAGTTACCGATGACGACGTAGAAACTGCAGCGCGCTTGGCCCTGCCACACCGTCGACGTCGCAATCCTTTTGACGCGCCAGAAATGGAAGAGTGTAGGCTCCAAGAAACACTGCAAGAAGCGCGCAACTTCTTCAAAGATCATGAAAAACAAGGTCCTGCTGCTAAAATCACCGATGAAGAAACTGGTGCGCAAGCCCTAACGGATACCGAAAATCCCACCGACGAAGATGGAATGCAAGGCACTGCCCAAGCCAAGGCACAGACCACCGGAAAGGTAGGTACTGCCGGCTCCGGCGAGCCCTTTCGTTCCTAG</t>
+  </si>
+  <si>
+    <t>GTGACTGAACACACCCCCGTTCCTGGTTTTCCATTCACCGCGATCGTGGGGCAGGATCAGCTCCGGCTGGCCCTGCTTCTCAACGCAATCTCACCAGGGATCGGGGGTGTGTGCGTGCGTGGAGAAAAAGGCACCGCCAAAACCACCATGGTGCGTGGCTTTGCTCCGCTTCTTGACGGCTCACTCGTCAACCTTCCCCTCGGCGCTACCGAGGACCGTGTGGTGGGCTCAATTAATGTTGAGACCATCCTCACCACCGGTAAAGCCGAGTACAAGCCCGGCCTACTCGCCGAGGCCGATGGCGGCATCCTCTACGTGGATGAGGTCAACCTCCTCGCAGATCACCTCGTGGATGCACTGCTTGATGCCGCCGCCACCGGCCGAGTCACCATCGAACGCGATGGAGTCTCCTACAGTGCCCCCGCGCAGTTCGTGCTGGTGGGCACCATGAACCCTGAAGAAGGTGAGCTGCGGCCGCAGCTGCTCGACCGTTTCGGGCTGGCAGTCGAGGTTGCAGGCTCGAAAGACCCGAAGGTGCGCGGGGAGATCATCACTCGCCGCCTAGCCTATGAAAACGATCCCCACGGCTTCGCAGCGCAGTGGCAGGAACACGACGCGGCGCTGAAGCAACAGCTCGATGCCGCCCGGGCTGCGGTGGCTCACGTGCAGCTGCCGTCCGTTCAGGTGGCACGCATCGCCCAGCTCTGTGCAGCTTTCGATGTCGATGGCATGCGTGCCGACATCGTGATCGCCCGCACCGCCATTGCCCATGCGGCGCTGCGCGGCAACGAGGTGGTAGACGATGAGGATGTCCGAGTCGCCGCCCAGCTCGCATTGCCCCACCGCAAGCGCCGCAATCCCTTCGATGAGCCCGGTATGGACGAGTCCGAGTTGGACGAGAAGCTGGACCAAGCCATCGAAGATAACCCCGACCCCGCTGAACCGCCCACCGAGCCAGAGCCGGACGATCCCGCCGACAGTTCGGAGGACCTCCCGCAGCCGGAGGGGGATGGATCTGAGGAGGAACCCGACACCGAGCCGCAGCGCGGCGATGGAAAGGGTGATAGCGCCTCTATGGGCGCTCCCTTTCGCCGCAGAACGCTGCGCCGTCGCGGCATGGGTGAGGAGGCCAACCCTGGCCGGCGTTCCAAAGCGCTGTCGAGCGAGGGGGCGGTGATCCGCTCCACCACTGACGGCCGTGGGGTGCATGTGGTGGCCACCGCTATGGCTGCCGCCGAGCGGGGCGCCACCGTCAGTGGCGGCAGATTAGAGCTGCGGCCAGAGGATGTGCGTTCCTCCATCAAAGCAGGCCGGGAATCCAACCTCATCGTGTTCGTGGTCGATGCCTCCGGCTCGGTGGCTGGACGCACCCGCCTCGAGGCGGTAACTGGGGCAGTCGAATCGATTCTCGAGGATGCCTATATCCGCCGCGACAAGGTGGCGGTGATTACCGTGCGAGGGCGTGCCCCTGAGCTCTTGTTGCCGCCGACGAGTTCCATCGATGTGGCACGGCGCCGGCTGCAGGATGCACGGGTAGGAGGGCGCACCCCACTCGCCGAGGGGTTGGTGATGGCCGATCAGCTCATTACTCGCCAAGCGCGCAAGGAACCTGGGCGGCGGGCCATCATGGTGGTCCTTTCCGATGGTCGTGCCACCGGCAGCTATGGGATGAAAGAGGCCTATAGCGCCGCCGATGCCATTGCGGCCAAGGGGCTTAGTGGTGCTGTTGTAATCGACTGCGAGGTCTCTGCCCGAGTGCGCCTAGGACTAGCCCGCACTCTCGCGGAGCATCTGCGTGCCCCGTGCGTGCAGCTCGCCGAGCTCAACTCCGACACTGTGGCCGGAGCAATCGAGTCGCTCTAG</t>
+  </si>
+  <si>
+    <t>GTGACTGAACACACCCCCGTTCCTGGTTTTCCATTCACCGCGATCGTGGGGCAGGATCAGCTCCGGCTGGCCCTGCTTCTCAACGCAATCTCACCAGGGATCGGGGGTGTGTGCGTGCGTGGAGAAAAAGGCACCGCCAAAACCACCATGGTGCGTGGCTTTGCTCCGCTTCTTGACGGCTCACTCGTCAACCTTCCCCTCGGCGCTACCGAGGACCGTGTGGTGGGCTCAATTAATGTTGAGACCATCCTCACCACCGGTAAAGCCGAGTACAAGCCCGGCCTACTCGCCGAGGCCGATGGCGGCATCCTCTACGTGGATGAGGTCAACCTCCTCGCAGATCACCTCGTGGATGCACTGCTTGATGCCGCCGCCACCGGCCGAGTCACCATCGAACGCGATGGAGTCTCCTACAGTGCCCCCGCGCAGTTCGTGCTGGTGGGCACCATGAACCCTGAAGAAGGTGAGCTGCGGCCGCAGCTGCTCGACCGTTTCGGGCTGGCAGTCGAGGTTGCAGGCTCGAAAGACCCGAAGGTGCGCGGGGAGATCATCACTCGCCGCCTAGCCTATGAAAACGATCCCCACGGCTTCGCAGCGCAGTGGCAGGAACACGACGCGGCGCTGAAGCAACAGCTCGATGCCGCCCGGGCTGCGGTGGCTCACGTGCAGCTGCCGTCCGTTCAGGTGGCACGCATCGCCCAGCTCTGTGCAGCTTTCGATGTCGATGGCATGCGTGCCGACATCGTGATCGCCCGCACCGCCATTGCCCATGCGGCGCTGCGCGGCAACGAGGTGGTAGACGATGAGGATGTCCGAGTCGCCGCCCAGCTCGCATTGCCCCACCGCAAGCGCCGCAATCCCTTCGATGAGCCCGGTATGGACGAGTCCGAGTTGGACGAGAAGCTGGACCAAGCCATCGAAGATAACCCCGACCCCGCTGAACCGCCCACCGAGCCAGAGCCGGACGATCCCGCCGACAGTTCGGAGGACCTCCCGCAGCCGGAGGGGGATGGATCTGAGGAGGAACCCGACACCGAGCCGCAGCGCGGCGATGGAAAGGGTGATAGCGCCTCTATGGGCGCTCCCTTTCGCCGCTAG</t>
+  </si>
+  <si>
+    <t>ATGTCTTCACAAAAGGCGATTCGTTATCCGTTTTCTGCGGTCGTGGGTCAAGATGAATTGCGGCTTGCCCTGATTCTCACCGCTATTTCCCCGCGTATTGGTGGTGTGGTCATTCGTGGTGAGAAGGGCACTGCGAAAACCACAACGGTGCGCGCTTTTGCCGGACTGCTGGGCGATGCTCCTTTGGTGAACTTGCCACTTGGTTCAACTGAAGACCGCGTAGTGGGTTCCCTCAATATGGAAACTGTGCTCACCACCGGCCGGGCGGAATACCAGCCAGGTTTGCTTGCACAGGCGGATGGTGGCGTGCTGTATGTCGATGAGGTCAACTTGTTGGCTGATCACTTGGTTGATGCCCTTCTGGATGCCGCAGCTAGTGGGCGCGTGAGCATTGAACGCGATGGAATTTCGCATTCTTCACCAGCAAACTTCGTGCTGGTCGGCACCATGAACCCGGAGGAAGGTGAGCTGCGCCCACAGCTGCTGGATCGTTTTGGTCTCGCCGTAGACGTTGCTGCCTCTACTAATCCGGACGTGCGTGTGGAGATCATTCGTCGACGCCTCGCATTCGAAAGTGCCCCAGAGCAGTTCATGGAGCAGTGGGCTGTGCAGGATGAGGAAACCTCGAACCGCATTGGTGCAGCGAAGGATCTACTGCCAGGTGTGGAGCTTCCTGATCTGATTCTTTCGCAGATCGCATGGCTGTGTGCTCGCATTGAAGTTGATGGCATGCGCGCTGACCTCGTGATCACTCGTACCGCCTTGGCACATGCTGCCTGGGCAGGTCGCACAGTTGTCACCGAAGAAGATGTAGAGATCGCCGCACGCCTAGCATTGCCACATAGAAGGCGTCGCAATCCTTTTGATGCGCCAGAGATGGAAGAGCGCAAGCTGCAGGAAACTCTGCAAGAGGCCCGCAACTTCTACAAAGATAATGAAGATACCGGTCCTGCCGCCAAGGTTACCGATGTAGAAACCGGTGCCGAAGCTCTTGTTGATTCGGATAAACCTACGGAAGAAGATGGACTGCAGGGCACGGCTCAGGCCAAGGCCCAAACGACTGGAAAGGTAGGTACTGCCGGAACCGGCGATCCCTTTCGCGCCAGGTATCTGCAACTAGCCGGCATGGGGGAGGAGGAATCCACCCCGGGTAGGCGTTCTAAGGCCTATTCCCGCCAAGGCGCTGATGTGCGTCCCAAACAGGGCGGACATGGCATCAACTTGGTTGGCACCTTGATGGCTGCCACCGAACGTGGCGCCAATATTGTGGAAGGCGTGGTGGATTTCCGACCATCTGACCTCCGCGGATCCTTGCGCCGCGGCCGGGAAGCCAACCTCATCGTCTTTGTCGTGGACACCTCAGGTTCCATGGCTGCACGCTCGCGGGTGCGTGCGGTCACCGGAACCATCACGTCCATGCTTAACGACGCCTACCAGCGCCGCGACAAGGTTGCGGTTATCGCGGTCAACGGTAACAAACCCACACTGGTGCTCAGCCCGACAAATTCTGTGGAGCAAGCTCAACAGAAATTAAAGGATATGCCCATGGGTGGACGCACCCCGCTGGCTGAAGGATTACTCATGGCCAAAGACCTCATGGCCAGGGAACGCCGCAAGGAACCAGGCCGACGCGCCATTTTGATGGTGATGACCGATGGCCAAGACACCTCCGAAGCAGGCGAAGCAGGAATCGTCACCGCAGCGGAAACCGTGGTGAAATCACGACTCTCTGGCAATGTTGTCATCGATTGCGAAGGCCGACTCAAAGTACGCAAAGAACGCGCCGGGGTCTTGGCTGAAATGCTCGGTGGCATTTGCGTGAGGTTGCGTGACCTTAATTCCGAGCACATCAAAATGGTTATTAACGCCTAA</t>
+  </si>
+  <si>
+    <t>ATGTCTTCACAAAAGGCGATTCGTTATCCGTTTTCTGCGGTCGTGGGTCAAGATGAATTGCGGCTTGCCCTGATTCTCACCGCTATTTCCCCGCGTATTGGTGGTGTGGTCATTCGTGGTGAGAAGGGCACTGCGAAAACCACAACGGTGCGCGCTTTTGCCGGACTGCTGGGCGATGCTCCTTTGGTGAACTTGCCACTTGGTTCAACTGAAGACCGCGTAGTGGGTTCCCTCAATATGGAAACTGTGCTCACCACCGGCCGGGCGGAATACCAGCCAGGTTTGCTTGCACAGGCGGATGGTGGCGTGCTGTATGTCGATGAGGTCAACTTGTTGGCTGATCACTTGGTTGATGCCCTTCTGGATGCCGCAGCTAGTGGGCGCGTGAGCATTGAACGCGATGGAATTTCGCATTCTTCACCAGCAAACTTCGTGCTGGTCGGCACCATGAACCCGGAGGAAGGTGAGCTGCGCCCACAGCTGCTGGATCGTTTTGGTCTCGCCGTAGACGTTGCTGCCTCTACTAATCCGGACGTGCGTGTGGAGATCATTCGTCGACGCCTCGCATTCGAAAGTGCCCCAGAGCAGTTCATGGAGCAGTGGGCTGTGCAGGATGAGGAAACCTCGAACCGCATTGGTGCAGCGAAGGATCTACTGCCAGGTGTGGAGCTTCCTGATCTGATTCTTTCGCAGATCGCATGGCTGTGTGCTCGCATTGAAGTTGATGGCATGCGCGCTGACCTCGTGATCACTCGTACCGCCTTGGCACATGCTGCCTGGGCAGGTCGCACAGTTGTCACCGAAGAAGATGTAGAGATCGCCGCACGCCTAGCATTGCCACATAGAAGGCGTCGCAATCCTTTTGATGCGCCAGAGATGGAAGAGCGCAAGCTGCAGGAAACTCTGCAAGAGGCCCGCAACTTCTACAAAGATAATGAAGATACCGGTCCTGCCGCCAAGGTTACCGATGTAGAAACCGGTGCCGAAGCTCTTGTTGATTCGGATAAACCTACGGAAGAAGATGGACTGCAGGGCACGGCTCAGGCCAAGGCCCAAACGACTGGAAAGGTAGGTACTGCCGGAACCGGCGATCCCTTTCGCGCCTAG</t>
+  </si>
+  <si>
+    <t>ATGACCTCACACAAAGTGATCCGTTATCCGTTTTCTGCCGTGGTGGGTCAAGATAAGCTGCGCTTGGCACTCATCTTGACTGCTATCTCGCCGCGCATCGGTGGCTTGGTTATCAGAGGTGAAAAAGGCACAGCGAAAACCACCACTGTGCGTGCCTTCGCAGGACTTTTAGGCGATGCTCCCTTGGTGAACCTTCCCCTGGGCTCTACGGAGGACCGCGTGGTGGGGTCACTCAACATGGAGACAGTTCTGACAACTGGTCGTGCTGAATATCAGCCGGGCCTGCTTGCTCAAGCAGATGGCGGCGTTTTGTACGTCGATGAAGTAAACTTGCTTGCTGATCACCTGGTCGATGCTCTACTTGATGCTGCTGCCAGCGGTCGCGTGAGCATTGAACGCGATGGCATTTCCCATTCTTCGCCCGCCAACTTCGTCCTCGTTGGCACGATGAATCCTGAAGAGGGAGAGCTTCGCCCGCAGCTGTTGGACCGTTTTGGCTTAGCAGTGGATGTGGCAGCATCGACGGTTCCGGATGTTCGCGTAAGCATCATTAAGCGTCGACTCGCCTTTGAAAACGCCCCCGAGCAGTTTATTGCGCAGTGGGAAGGTCAGGATCAGGAAATTTCCGATCGCATGGCAGCAGCAAAAGATTTGTTGCTTGCGGTGGAGTTGCCTGATCTGATCCTCAATCAGATTGCGTGGTTGTGTTCCCGCATGGAAGTTGATGGCATGCGCGCTGACCTTGTGATTACCCGAACTGCACTGGCTCACGCCGCATGGGAGGGGCGCACGGTAGTAACCGAAGATGATGTAGAAACCGCTGCTCGTTTGGCGCTGCCACACCGTCGCCGTCGTAATCCTTTCGACGCCCCTGAGATGGAAGAACGCTACCTGCAGGAGACTTTGCAGGAAGCACGCAACTTCTTCAAAGACAACGAGGAAAAAGGGCCTGCTGCAAAAATCACCGATGAGGAAACCGGGGCAGAGGCTTACACCGACACGGATCAACCCACTGATGAAGACGGCATGCACGGAACTGCCCAGGCTTCTGCGCAGACCACCGGAAAGGTAGGTACTGCCGGAACCGGCGAGCCCTTTCGCTCCAGACACCTCAAACTGCAGACAGTCGGTGAAGAAAACTCGACGCCCGGACGCAGATCGCAGGCGTATTCTCACATTGGCGCAAACGTCCGCGCCACCAAGGGAGGCCATGGCATCAACTTGGTGGGCACGCTCATGGCTGCCACAGAACGCGGGGCGAAAATTGTGGAGGGTGTTGTCGATTTCCGGCCAGAAGACCTGCGTGGATCCTTGCGCCGAGGCAGGGAATCAAACCTCATCGTGTTTGTAGTTGATACCTCCGGCTCCATGGCTGCTAAGTCGAGGGTGCGTGCTGTCACGGGCACCATCACCTCGATGTTGGGCGATGCCTACCAGCGACGGGACAAAGTCGCGGTCATTGCTGTCAACGGCAATAAACCAACGTTGGTGTTACCGCCGACGAACTCGGTGGAGCGTGCTCAACTAAAGCTCAAAGATATGCCAATGGGTGGTCGCACACCACTGGCAGAGGGCTTGTTCATGGCAAAGGATTTGATGGAGCGGGAACGCCGAAAAGAACCCGGCCGCCGAGCAATACTCATCGTGCTCACCGATGGCCAAGACACGTCTGATGCCGGGGAGAAGGGTATCGCCACAGCGGCGCAAGCAGTGGTGAAGTCCAAGCTGTCAGGAAATGTGGTGATCGACTGCGAAGGTCGATTGAAGGTTCGTAAAGAAAAGGCATCGGTGCTGGCAGAGATGCTCGGCGGGGTGTGCGTGCGTTTGCGCGATTTAAGTGCCGAGCACATCAAGATGGTGATTAACGCCTAA</t>
+  </si>
+  <si>
+    <t>ATGACCTCACACAAAGTGATCCGTTATCCGTTTTCTGCCGTGGTGGGTCAAGATAAGCTGCGCTTGGCACTCATCTTGACTGCTATCTCGCCGCGCATCGGTGGCTTGGTTATCAGAGGTGAAAAAGGCACAGCGAAAACCACCACTGTGCGTGCCTTCGCAGGACTTTTAGGCGATGCTCCCTTGGTGAACCTTCCCCTGGGCTCTACGGAGGACCGCGTGGTGGGGTCACTCAACATGGAGACAGTTCTGACAACTGGTCGTGCTGAATATCAGCCGGGCCTGCTTGCTCAAGCAGATGGCGGCGTTTTGTACGTCGATGAAGTAAACTTGCTTGCTGATCACCTGGTCGATGCTCTACTTGATGCTGCTGCCAGCGGTCGCGTGAGCATTGAACGCGATGGCATTTCCCATTCTTCGCCCGCCAACTTCGTCCTCGTTGGCACGATGAATCCTGAAGAGGGAGAGCTTCGCCCGCAGCTGTTGGACCGTTTTGGCTTAGCAGTGGATGTGGCAGCATCGACGGTTCCGGATGTTCGCGTAAGCATCATTAAGCGTCGACTCGCCTTTGAAAACGCCCCCGAGCAGTTTATTGCGCAGTGGGAAGGTCAGGATCAGGAAATTTCCGATCGCATGGCAGCAGCAAAAGATTTGTTGCTTGCGGTGGAGTTGCCTGATCTGATCCTCAATCAGATTGCGTGGTTGTGTTCCCGCATGGAAGTTGATGGCATGCGCGCTGACCTTGTGATTACCCGAACTGCACTGGCTCACGCCGCATGGGAGGGGCGCACGGTAGTAACCGAAGATGATGTAGAAACCGCTGCTCGTTTGGCGCTGCCACACCGTCGCCGTCGTAATCCTTTCGACGCCCCTGAGATGGAAGAACGCTACCTGCAGGAGACTTTGCAGGAAGCACGCAACTTCTTCAAAGACAACGAGGAAAAAGGGCCTGCTGCAAAAATCACCGATGAGGAAACCGGGGCAGAGGCTTACACCGACACGGATCAACCCACTGATGAAGACGGCATGCACGGAACTGCCCAGGCTTCTGCGCAGACCACCGGAAAGGTAGGTACTGCCGGAACCGGCGAGCCCTTTCGCTCCTAG</t>
+  </si>
+  <si>
+    <t>ATGTCAACGAAGCAGTCTCCGCTTTTTCCTTTTTCTGCCGTTGTAGGCCAAGATCAACTACGACTCGCGTTAATTCTTACGGCGATTTCACCACGAATTGGTGGCGTAGTAATCCGCGGTGAAAAGGGAACCGCAAAAACGACGACGGTTCGTGCATTTGCAGCGTTGCTAGGTGATGCGCCACTGGTCAATCTTCCCATCGGAGCAACGGAAGATCGCGTTGTTGGCTCGTTAGATATGGAGACTGTGCTAACAACAGGAAAAGCTAAGTTTCGCCCGGGCTTGCTGTCCCAAGCGCATGGTGGTGTTTTGTACGTCGATGAGGTCAACTTGTTGGCTGATCATCTCGTTGATGCGCTTCTTGATGCGGCCGCGACTGGGCAGGTGACTGTTGAACGTGATGGTATTTCGCATACAGCTCCTGCTCGTTTTGTGCTCGTAGGAACCATGAATCCAGAAGAAGGGGAATTGCGGCCTCAGCTGCTCGATCGTTTTGGACTTTCGGTAGATGTAGCAGCATCGAAGGATGTTCAGATTCGAGCAGAAATTATGCGCAGACGACTCGATTTTGAATCTGATCCCATTGACTTTGCACAACGCTGGCATGCACTAGACGAGAACACGTCGCAAGCAATCAAGAGCGCGCAAGAACGTGTCGATAGCATTGTGCTCAATGATACAAATTTGGCACGTATCGCTCATATTTGTGCTTCTTTTGACGTTGATGGCATGCGTGCTGATCTCGTTATTGCTCGTACTGCTATTGCCCATGCTGCATGGCGCGGTGATTCGCTGGTGACTGACGAGGACATCAAAGTAGCAGCAGAACTTGCTCTGCCACATCGACGTCGTAGGGATCCGTTTGATGAACCCGGCCTTGATCAAGACCAACTTGATGAAGTTATGGATGAAGCACGTGACCAGCACCCAGAGATGGATGATCCTGCTGAACAATCAGCACATGAGGATCAAATAGAAAACGAAACTTCTGATCAAGAAGATCATCTAGACGATCAAGAAACTCAGACTCCTGATTCCGGTGGTCAGGAGGGCAGCGCTTCTCAAGGCGCCCCCTTTCGTCCCAAGATCCTTCGGCGTAGTGGAATAGGTAATGAAGGCGCCGCAGGGCGTCGTTCGCAAGCATATTCAGCCAACGGTTCTACAGTGCGTGCAGTGCGTGGCGGGCACGGGATTAATATTGTGGGATCAGTATTTGCGGCTGCTGAACGTGGTGCTCGTATCCGCGGTTCGATGATTGATTTTCGCCCCGAAGATCTTCGAGGATCGTTACGCAGAGGTATGGAATCTAACCTCATAGTATTTGTGGTTGATGCCTCTGGCTCTATGGCTGGGCAAGATCGTCTGGCATCGGTCACCGGTGCTGTGCTGTCGATGCTGCGCGATGCGTATCAAAGGCGTGACAAGGTAGCAGTTATTAGTGTGCGTGGTGCAGCACCAGAACTAGTGCTTCCGCCTACGGGTTCGATCGATGTGGCGTATCGGAGACTTTCGAATGTGACCACGGGTGGCCGTACTCCGTTGGGCGAAGGACTCAACATGGCACATTCGGTTATCAAGAGAGAATTCATTAAGGAGCCGAACCGGCGTGCTCTACTTGTCGTATTATCTGATGGACGTGCAACCGGCGGATCGGGACTCGCAGGGGTACGCACGGCAGCTCAAGGGATCGCACGTCGAGGTCTTACCGGCAGTGTAGTAGTTGATTGTGAGTCTGGTGGTCGGGTGACATTGGGGTTGGCTCGTGAACTGGCGCAGCAGTTGCAAGGCTTATGTGTCAAACTTGACGAACTTAACGCTGATTCGGTGTCAGGTTTGATCAAAGCGCTGTAG</t>
+  </si>
+  <si>
+    <t>ATGTCAACGAAGCAGTCTCCGCTTTTTCCTTTTTCTGCCGTTGTAGGCCAAGATCAACTACGACTCGCGTTAATTCTTACGGCGATTTCACCACGAATTGGTGGCGTAGTAATCCGCGGTGAAAAGGGAACCGCAAAAACGACGACGGTTCGTGCATTTGCAGCGTTGCTAGGTGATGCGCCACTGGTCAATCTTCCCATCGGAGCAACGGAAGATCGCGTTGTTGGCTCGTTAGATATGGAGACTGTGCTAACAACAGGAAAAGCTAAGTTTCGCCCGGGCTTGCTGTCCCAAGCGCATGGTGGTGTTTTGTACGTCGATGAGGTCAACTTGTTGGCTGATCATCTCGTTGATGCGCTTCTTGATGCGGCCGCGACTGGGCAGGTGACTGTTGAACGTGATGGTATTTCGCATACAGCTCCTGCTCGTTTTGTGCTCGTAGGAACCATGAATCCAGAAGAAGGGGAATTGCGGCCTCAGCTGCTCGATCGTTTTGGACTTTCGGTAGATGTAGCAGCATCGAAGGATGTTCAGATTCGAGCAGAAATTATGCGCAGACGACTCGATTTTGAATCTGATCCCATTGACTTTGCACAACGCTGGCATGCACTAGACGAGAACACGTCGCAAGCAATCAAGAGCGCGCAAGAACGTGTCGATAGCATTGTGCTCAATGATACAAATTTGGCACGTATCGCTCATATTTGTGCTTCTTTTGACGTTGATGGCATGCGTGCTGATCTCGTTATTGCTCGTACTGCTATTGCCCATGCTGCATGGCGCGGTGATTCGCTGGTGACTGACGAGGACATCAAAGTAGCAGCAGAACTTGCTCTGCCACATCGACGTCGTAGGGATCCGTTTGATGAACCCGGCCTTGATCAAGACCAACTTGATGAAGTTATGGATGAAGCACGTGACCAGCACCCAGAGATGGATGATCCTGCTGAACAATCAGCACATGAGGATCAAATAGAAAACGAAACTTCTGATCAAGAAGATCATCTAGACGATCAAGAAACTCAGACTCCTGATTCCGGTGGTCAGGAGGGCAGCGCTTCTCAAGGCGCCCCCTTTCGTCCCTAA</t>
+  </si>
+  <si>
+    <t>GTGAACACCACCCCCGTGCCGGGCTATCCATTTTCGGCAGTGGTGGGGCAGGACCAGCTCCGGCTGGCTCTGATCCTCACCGCCATTGCGCCCCGCATCGGGGGTGTTGTGGTGCGCGGCGAAAAAGGCACCGCAAAAACCACAACAGTTCGAGCATTTTCCGCGCTTCTTGGCGACGCCCCGTTAGTTAACCTCCCCATCGGCGCCACAGAGGATCGTGTGGTCGGCTCCCTGAACGTTGAAAAAATCCTCACCACAGGCCATGCCGAATATCAACCTGGTTTGCTTGCGCAGGCGGACGGGGGCGTGCTCTACGTTGACGAAGTCAACCTACTGGCCGACCATCTTGTAGATGCGCTTCTCGACGCCGCCGCGACCGGTGCCGTGACCATCGAACGCGACGGCATTTCCCACACCAGCTCCGCAAACTTCGTGCTCGTGGGCACCATGAACCCTGAGGAAGGGGAACTCCGCCCGCAACTGCTTGATCGTTTTGGCCTCGCCGTTGACGTTGCAGCCTCGCGTGATGTGGAGGTTCGTGCGGAAATCATGCGACGGCGCCTCGATTATGAAGACGATCCGCACGCGTTTGCTGAGCGGTGGGCTGAGGAAGACGCGGGCGTCGCAACGCAAATTACGGCTGCACGGGCGTTGTCGCCTGTCTTGACTCCTACCAACCTTGCTCGCATCGCGCACCTGTGTGCCAGCTTTGACGTGGACGGCATGCGCGCGGACCTTGTTATTGCGCGGACTGCGGTGGCGCACGCGGCGTGGAGCGGTCGGGAAACCGTTGAGGATGAGGATATTCGAGTTGCCGCTGAGCTTGCATTGCCGCACCGCAGGCGCCGTGACCCCTTTGATGAACCTGGTTTGGACCAAGAGCAGCTGGATGAGGCGATGGACGAGGCGCGCGACCAGCACCCGGAACCTGAGAGTGAAGAAAGCCCGCAGGTAGAACCGCCGGAATCGACCGGCGAGTCCAATGAACCCACCTCCGATGGAGAGGCAGGTAGCGCCGACAACGGTGCCCCCTTTCGTTCCAGGGTGCTGCGCCGTGCGGGCATAGGAGAGGAAAGCGTCCCAGGGCGGCGCTCCAAAGCCTACAGCGCGCAGGGCGCAACGGTTCGTGCTGTTCGCGGTGGTCGCGGCATCAACATGGTGGGCACCGTCCTCGCCGCTGCTGATAGGGGTGCCCGTATTGTGGGTGACCTCATCAATTTTCAGCCAGATGACCTCCGCGGATCGCTGCGGCGCGGCATGGAATCCAACCTGATTGTGTTCCTTGTGGACTCATCGGGGTCCATGGCGGGTAGGGATCGGCTTTCTGCGGTGACCGGTGCTGTGACCTCCATGCTTCGCGATGCCTACCAGCGCCGCGACAAAGTCGCCGTGATTACGGTGCGCGGCACTGCCCCCGAGCTGGTCCTCCCACCTACCGGATCCATCGACGTGGCTATACGCCGCCTCGCAGGTCTGCCCACCGGCGGGCGCACCCCACTCGGTGAGGGACTGCTCATGGCTCACGAGGTGATAGCCCGCGAATACCGCAAAGAACCCGGCCGCCGCGCCCTCCTTGTGGTGCTTTCCGACGGCCGCGCGACCAGCACCTCAGGCATGGGAGGTGTTCGACAGGCTGCGGGAATGATAGCCCAGCGCAGGCTAGCTGGAAGCATTGTGATCGATTGCGAAGCAGGCGGCCGCGTGCGCCTCGGCCTGGCCAGCGAACTCGCCCGCAACCTTGGCGGTGTGTGCGTTCAGCTGGGGGAAATCAACGCTGCCTCCGTGGCTGCCGTGATTCAGGCTATGTAG</t>
+  </si>
+  <si>
+    <t>GTGAACACCACCCCCGTGCCGGGCTATCCATTTTCGGCAGTGGTGGGGCAGGACCAGCTCCGGCTGGCTCTGATCCTCACCGCCATTGCGCCCCGCATCGGGGGTGTTGTGGTGCGCGGCGAAAAAGGCACCGCAAAAACCACAACAGTTCGAGCATTTTCCGCGCTTCTTGGCGACGCCCCGTTAGTTAACCTCCCCATCGGCGCCACAGAGGATCGTGTGGTCGGCTCCCTGAACGTTGAAAAAATCCTCACCACAGGCCATGCCGAATATCAACCTGGTTTGCTTGCGCAGGCGGACGGGGGCGTGCTCTACGTTGACGAAGTCAACCTACTGGCCGACCATCTTGTAGATGCGCTTCTCGACGCCGCCGCGACCGGTGCCGTGACCATCGAACGCGACGGCATTTCCCACACCAGCTCCGCAAACTTCGTGCTCGTGGGCACCATGAACCCTGAGGAAGGGGAACTCCGCCCGCAACTGCTTGATCGTTTTGGCCTCGCCGTTGACGTTGCAGCCTCGCGTGATGTGGAGGTTCGTGCGGAAATCATGCGACGGCGCCTCGATTATGAAGACGATCCGCACGCGTTTGCTGAGCGGTGGGCTGAGGAAGACGCGGGCGTCGCAACGCAAATTACGGCTGCACGGGCGTTGTCGCCTGTCTTGACTCCTACCAACCTTGCTCGCATCGCGCACCTGTGTGCCAGCTTTGACGTGGACGGCATGCGCGCGGACCTTGTTATTGCGCGGACTGCGGTGGCGCACGCGGCGTGGAGCGGTCGGGAAACCGTTGAGGATGAGGATATTCGAGTTGCCGCTGAGCTTGCATTGCCGCACCGCAGGCGCCGTGACCCCTTTGATGAACCTGGTTTGGACCAAGAGCAGCTGGATGAGGCGATGGACGAGGCGCGCGACCAGCACCCGGAACCTGAGAGTGAAGAAAGCCCGCAGGTAGAACCGCCGGAATCGACCGGCGAGTCCAATGAACCCACCTCCGATGGAGAGGCAGGTAGCGCCGACAACGGTGCCCCCTTTCGTTCCTAG</t>
+  </si>
+  <si>
+    <t>ATGTCCACCAATCAGGTGCTCCGATACCCGTTCTCCGCAGTGGTGGGGCAGGATGAACTCCGCCTCGCGCTGATTCTCACCGCCATCTCACCCCGCATCGGTGGCGTGGTGGTCCGTGGCGAGAAGGGAACAGCCAAGACCACCACCGTCCGTGCCTTTGCCGGGCTGCTTGGTGATGCGCCACTGATCAACCTCCCACTTGGTGCCACCGAGGACCGCGTTGTCGGTTCCCTCAACATGGAGACCGTCCTGACCACCGGCCGCGCCGAGTACAAGCCGGGTCTGTTGGCCCAGGCGGACGGTGGTGTCCTCTACGTCGATGAGGTCAACCTGCTCGCGGACCACCTCGTCGATGCGCTTCTCGACGCCGCCGCCAGCGGTCGCGTCTCTATCGAGCGCGATGGCATCTCCCATTCCTCACCCGCGAACTTCGTGCTGGTGGGCACCATGAACCCGGAGGAGGGCGAACTGCGCCCCCAGCTGCTTGACCGTTTCGGCCTGGCCGTGGACGTGGTGGCCTCCAACAACCCCGAGATCCGCGTGGAGATCATCCAGCGGCGTCTGGCCTATGAGGCCAATCCCGAGCAGTTCGTGCAGGACTGGGCCGCGCAGGATGAGGAGATCTCCCAGCGCATCCACACCGCCCGTCAGCTGCTGCCCAACGTTGAGCTGCCCAGCAAGATGCTCTCGCAGATCGCCTGGCTGTGCTCCCGCATCGAGGTGGACGGCATGCGCGCCGACCTCGTGATCACCCGCACCGCCCTGGCACATGCCGCCTGGCAGGGCCGCACCCAGATCACCGATGAGGATGTCGAGGTCGCCGCCCGCCTGGCGCTGCCACACCGTCGTCGTCGAAACCCCTTCGATGCCCCGGAGATGGAGGAACGCAAGCTGCAGGAGGTGCTGCAGGAGGCGCGCAACTTCTACAAGGACACCACCAAGCAGGGCCCGGCTGCCGAGGAGACGGACGAGGAGACCGGCGCGACCGCCCTGATCGACACCGAGAACCCCACCGACGAACAGGGATTAGAGGGCACTGCCCAGGCCAAGGCCCAGACGACCGGAAAGGTAGGTACTGCCGGACACGGCGAACCCTTTCGCTCCAGGGTTTTCCGACTCACCACCATGGGCGATGAGGATTCCACCCCGGGTCGTCGCTCCAAGTCCTACACACGTCAGGGCGCGGATGTCCGGCCGAAGAAGGACGGGCACGGCATCAACCTGGTGGGCACCCTCATGGCTGCCGCCGACCGCGGCGCCGCCGTGGTGGACGGCATGGTGGATTTCCGCCCCGAGGATCTGCGGGGGTCCCTGCGCCGCGGACGCGAGGCCAACCTCATCGTGTTCGTGGTGGACACCTCCGGCTCGATGGCTGCCCGCTCCCGGGTGCGTGCCGTCACCGGCGCGATCATGTCCATGCTCACCGATGCCTACCAGCGTCGGGACAAGGTGGCGGTCATCGCGGTCAACGGCAACAAGCCAACCCTGGTGCTGGCACCGACCAGTTCCGTCGACATGGCGCAGAAATCACTCGATGCCATGCCCATGGGTGGGCGCACCCCGCTCGCCGAAGGCCTGATCATGGCCCGCGATCTCATGGAGAGGGAACACCGCAAGGAGCCTTCACGGCGTCCGCTGCTGGTGGTCATGACCGACGGTGAGGACACTTCCGATGCGGGTGAGACCGGTATCGCCACCGCTGCCCGCGCCGTGGTCAAGTCGGGTCTGTCCGGCAACCTCGTCATCGACTGCGAGGGGCGGATGAAGGTGCGCAAGGAACGCGCCGCCGTGCTTGCCCAGCTCCTGGGTGGGGTGTGTGTGCGCCTGTCGGAGATGAACGGCGACAACATCAAGACGGTCATCAACGCCTAG</t>
+  </si>
+  <si>
+    <t>ATGTCCACCAATCAGGTGCTCCGATACCCGTTCTCCGCAGTGGTGGGGCAGGATGAACTCCGCCTCGCGCTGATTCTCACCGCCATCTCACCCCGCATCGGTGGCGTGGTGGTCCGTGGCGAGAAGGGAACAGCCAAGACCACCACCGTCCGTGCCTTTGCCGGGCTGCTTGGTGATGCGCCACTGATCAACCTCCCACTTGGTGCCACCGAGGACCGCGTTGTCGGTTCCCTCAACATGGAGACCGTCCTGACCACCGGCCGCGCCGAGTACAAGCCGGGTCTGTTGGCCCAGGCGGACGGTGGTGTCCTCTACGTCGATGAGGTCAACCTGCTCGCGGACCACCTCGTCGATGCGCTTCTCGACGCCGCCGCCAGCGGTCGCGTCTCTATCGAGCGCGATGGCATCTCCCATTCCTCACCCGCGAACTTCGTGCTGGTGGGCACCATGAACCCGGAGGAGGGCGAACTGCGCCCCCAGCTGCTTGACCGTTTCGGCCTGGCCGTGGACGTGGTGGCCTCCAACAACCCCGAGATCCGCGTGGAGATCATCCAGCGGCGTCTGGCCTATGAGGCCAATCCCGAGCAGTTCGTGCAGGACTGGGCCGCGCAGGATGAGGAGATCTCCCAGCGCATCCACACCGCCCGTCAGCTGCTGCCCAACGTTGAGCTGCCCAGCAAGATGCTCTCGCAGATCGCCTGGCTGTGCTCCCGCATCGAGGTGGACGGCATGCGCGCCGACCTCGTGATCACCCGCACCGCCCTGGCACATGCCGCCTGGCAGGGCCGCACCCAGATCACCGATGAGGATGTCGAGGTCGCCGCCCGCCTGGCGCTGCCACACCGTCGTCGTCGAAACCCCTTCGATGCCCCGGAGATGGAGGAACGCAAGCTGCAGGAGGTGCTGCAGGAGGCGCGCAACTTCTACAAGGACACCACCAAGCAGGGCCCGGCTGCCGAGGAGACGGACGAGGAGACCGGCGCGACCGCCCTGATCGACACCGAGAACCCCACCGACGAACAGGGATTAGAGGGCACTGCCCAGGCCAAGGCCCAGACGACCGGAAAGGTAGGTACTGCCGGACACGGCGAACCCTTTCGCTCCTAG</t>
+  </si>
+  <si>
+    <t>ATTGTCGGCCATGAGCAGTTGCAGTTGGCGCTCATCCTCAACGCCATCAACCCTAGGATCGGGGGTGTTGTTATTCGTGGGGAAAAGGGCACGGCCAAGACCACCACGGTGCGGGCATTTGCGCAGCTTATCGACGGCGCACCGTTGGTTAATTTACCAATTGGCGCCACGGAAGACCGAGTCGTGGGCTCGCTGGACGTGGAGACGGTGCTGACCACCGGACGGGCAGAGTTCCGCCCTGGGCTGCTTTCCCAAGCTGATGGTGGCGTGCTGTATGTCGATGAAGTCAACCTCTTGGCGGACCACCTCATTGATGCGCTGTTAGATGCTGCTGCCACCGGTTCGGTCACGGTAGAACGCGATGGTATCTCCCACTCGTCACCTGCGTCGTTCGTGCTGGTAGGAACGATGAATCCCGAAGAGGGAGAGCTTCGTCCACAGCTGCTGGATCGTTTCGGTCTGGCGGTGGAAGTAGTGGCGTCGCGCGATGTTGAGGTCCGTGCGGAAATCATGCGGCGTCGATTAGCTTTTGAGGCTGATCCCAGGGCCTTTGTTGAGGCGTGGGCTGAACAAACGGCGTCGGTAGCTCAGCAGATTCGCGACGCTCGTAGCCTGCTTGCCGAAGTCACACTCGATGACATCGCGCTGCAGCGCATTGCGCATTTATGTGCGGCGTTCGACGTTGATGGCATGCGAGCTGACCTGGTCATTGCCCGCGCCGCCACCGCACACGCAGCATGGCGCGGAGTTACTAAAGTTACTGATGAGGATATTCGCGCGGCTGCCGCGCTCGCGCTGCCACACCGTAAGCGACGCAATCCCTTCGATGACACAGGCCTGGACGAAGGCGAACTTGATGATGCGATGGAGAACGCTCGGGACGATATTCCTGATGACAACCCATCGCAGGACTCCGGTGACGCTGCCACTGAAGAAGCGGAATCCCCAGTGGCTCCGGAGCCTGGAGCTGGGAACGCAGGATCTGAGAAAGTAGGTAGCGCCGACAACGGCGCGCAGTTTCGCAGCAGGAAGCTTCAGCTTCTCAAAACTGGTAACGATGGTGTGCCTGGGCGTCGTTCGGCTACCTTTGCTAGGCATGGCGCGAGCGTGCGTGGGATTCGTGATGGCCACGGGCTGCACCTCATGGGGTCGATTCTGGCGGCTGCAGACCGTGGCGCCCGTATCGAAAACAACATTCTTGCCTTTGAACCCAGCGACCTGCGAGGGCAGTTGCGTCGCGGTAAAGAAGCAAATCTCATCGTCTTTGTCGTCGACGCATCCGGATCCATGTCCGCGCGCGATCGGCTTTCTGCCGTGACCGGCGCCGTGCAATCCCTGCTTGTCGACGCCTACCAGCGCCGCGACAAAGTGACAGTCATCTCCGTTCGGGGCACGCAGCCGGAACTCATCTTGCCTCCGACTGGTTCGATCGACATCGCCATGAAACGGCTCGCTGATGTGCGCACCGGCGGTCGCACGCCATTGGGAGAGGGGTTGCTCATGGCCCAAGAACTGGTGGATCGCGAACTCCGGCGCGAGCCCGGTCGACGCCCGTTGCTCGTCGTACTTTCCGACGGCCGAGCGACCTCATCGAGCGGATTGGCCGGGGTACAACAGGCAGCGAACGCGATTGCGCTTCGAGGTGTGATGACTTCCGTGGTCATAGATTGCGAGTCCGGCCGGACGCGCTTGGGTCTAGCGGTCAGCTTAGCGCAGCAGCTTGGTGGCACCTGCTTGCAGTTGACCGAGCTCAACGCCGAGTCTGTGGTGAGCTCGATACAGGTGTTTTGA</t>
+  </si>
+  <si>
+    <t>ATTGTCGGCCATGAGCAGTTGCAGTTGGCGCTCATCCTCAACGCCATCAACCCTAGGATCGGGGGTGTTGTTATTCGTGGGGAAAAGGGCACGGCCAAGACCACCACGGTGCGGGCATTTGCGCAGCTTATCGACGGCGCACCGTTGGTTAATTTACCAATTGGCGCCACGGAAGACCGAGTCGTGGGCTCGCTGGACGTGGAGACGGTGCTGACCACCGGACGGGCAGAGTTCCGCCCTGGGCTGCTTTCCCAAGCTGATGGTGGCGTGCTGTATGTCGATGAAGTCAACCTCTTGGCGGACCACCTCATTGATGCGCTGTTAGATGCTGCTGCCACCGGTTCGGTCACGGTAGAACGCGATGGTATCTCCCACTCGTCACCTGCGTCGTTCGTGCTGGTAGGAACGATGAATCCCGAAGAGGGAGAGCTTCGTCCACAGCTGCTGGATCGTTTCGGTCTGGCGGTGGAAGTAGTGGCGTCGCGCGATGTTGAGGTCCGTGCGGAAATCATGCGGCGTCGATTAGCTTTTGAGGCTGATCCCAGGGCCTTTGTTGAGGCGTGGGCTGAACAAACGGCGTCGGTAGCTCAGCAGATTCGCGACGCTCGTAGCCTGCTTGCCGAAGTCACACTCGATGACATCGCGCTGCAGCGCATTGCGCATTTATGTGCGGCGTTCGACGTTGATGGCATGCGAGCTGACCTGGTCATTGCCCGCGCCGCCACCGCACACGCAGCATGGCGCGGAGTTACTAAAGTTACTGATGAGGATATTCGCGCGGCTGCCGCGCTCGCGCTGCCACACCGTAAGCGACGCAATCCCTTCGATGACACAGGCCTGGACGAAGGCGAACTTGATGATGCGATGGAGAACGCTCGGGACGATATTCCTGATGACAACCCATCGCAGGACTCCGGTGACGCTGCCACTGAAGAAGCGGAATCCCCAGTGGCTCCGGAGCCTGGAGCTGGGAACGCAGGATCTGAGAAAGTAGGTAGCGCCGACAACGGCGCGCAGTTTCGCAGCTAG</t>
+  </si>
+  <si>
+    <t>ATCGTTGGTCAGGACCAGTTGAGGCTTTCGCTGATACTTACGGCTATTGCGCCCAGGATCGGGGGTGTTGTTGTGCGAGGAGAAAAGGGCACCGCCAAAACTACAACAGTTCGAGCATTCGCTGATTTACTCGATGGTGCACCGCTTATTAATCTGCCGATTGGTGCCACTGAAGACCGGGTAGTTGGATCCCTTGATATGGAAACTGTATTCACTACTGGGCGTGCCGAATACCGTCCGGGATTGCTGGCCCAGGCGCACGGTGGTGTGCTGTATGTCGATGAAGTAAACCTGCTTGCAGATCACCTTGTTGATGCACTTCTCGACGCCGCGGCCACCGGGCGAGTCACGGTGGAACGCGACGGGATTTCTCATACAAGCCCGGCGTCTTTTGTACTTGTGGGAACGATGAATCCGGAAGAAGGCGAACTACGTCCGCAATTATTGGATCGCTTCGGATTAGCAGTAGATGTTGCAGCCTCGAAAGATGTGGAAATACGTTCGGAAATAATTCGTAGGAGGTTGGCATTTGAAGCTGACCCCGAAGGATTTGCCCACGCTTGGCAAGCTTCAGATCGTGAGGTCGCACAACGTATTCACCAGGCACGGGAACTTTTGCCATCGGTTCAATTAAGTGATGTAAACCTTGCTCGTATTGCGCACTTATGTGCTTCATTTGATGTTGATGGCATGCGGGCAGATTTGGTGATTGCCCGGACTGCGATGGCACATGCTGCTTGGCGAGGTGCCGAAACCGTGGATGATGAAGATATTCGAGTCGCCGCTATGCTCGCATTACCGCATCGGCGGCGACGGAATCCATTTGATGAGCCGGGACTTGATCAAGATCAACTTGATGACGTAATGGATGAAGCACGTCAAGAGCACCCAGAGCAAGAAGAGACTGAACAAGACCAAACAAACCAACCACAAACAGAAGAACCATCGGGAGAGGACCAACAGCCCCAAGATGAACCCGATGCCGATGGAGAGGTAGGTAGCGCCGAGACTGGCGCACAGTTTCGTTCCAGACTGTTTCGCAGGCAGGGTATCGGGACTGAAGGAATTCCTGGTCGCCGATCAAAAGCGTATTCGTCGCACGGGGCAGATGTTCGGGCCATTCGAGGTGGTCGAGGTGTGCATCCCATAGGCACAGTATTAGCCGCAGCCGACCGAGGTGCTGGCGTAATCGAAGGGATGATTGATTTCCGACCGGAGGATTTGCGCGGGTCGTTGCGTCGCGGTACAGAATCGAATCTTATTGTATTTGTTGTCGATTCTTCTGGCTCAATGGCTGCCCGTGATCGTCTATCCGCTGTAACGGGCGCGGTTATTTCTATGCTTAAGGATGCGTATCAACGCCGCGATAAAGTCGCTGTAATTACTGTTCGTGGTGCGGAGCCACAGGTCGTACTTCCACCTACAGGTTCGATTGAAGTTGCAGTACGGCGGCTCGAAGCTCTGCCTACTGGAGGGCGAACACCACTCGGTGAAGGGTTATTACTCGCGCATGAATTAATCGAGCGTGAGCACAGAAAAGAGCCCGGTCGTCGCGCGCTACTGGTTGTGCTTTCCGACGGTCGCGCAACCGGTGTTGCAGGTTTGGAAGGCGTACGCCGTGCGGCGGCTGCTATCGCATCTCGCAAACTTACTGGCAGCCTCGTCATTAATTGTGAACGTGGAGGGCGTATACAACTTGGGTTAGCAAAAGAACTTGCCCAAGGTTTAGAGGGTATTTGTATTGAACTCAATGAAATTAGTGCGGATTCACTTACTGGAGCAATTCATAGTGTCTAA</t>
+  </si>
+  <si>
+    <t>ATCGTTGGTCAGGACCAGTTGAGGCTTTCGCTGATACTTACGGCTATTGCGCCCAGGATCGGGGGTGTTGTTGTGCGAGGAGAAAAGGGCACCGCCAAAACTACAACAGTTCGAGCATTCGCTGATTTACTCGATGGTGCACCGCTTATTAATCTGCCGATTGGTGCCACTGAAGACCGGGTAGTTGGATCCCTTGATATGGAAACTGTATTCACTACTGGGCGTGCCGAATACCGTCCGGGATTGCTGGCCCAGGCGCACGGTGGTGTGCTGTATGTCGATGAAGTAAACCTGCTTGCAGATCACCTTGTTGATGCACTTCTCGACGCCGCGGCCACCGGGCGAGTCACGGTGGAACGCGACGGGATTTCTCATACAAGCCCGGCGTCTTTTGTACTTGTGGGAACGATGAATCCGGAAGAAGGCGAACTACGTCCGCAATTATTGGATCGCTTCGGATTAGCAGTAGATGTTGCAGCCTCGAAAGATGTGGAAATACGTTCGGAAATAATTCGTAGGAGGTTGGCATTTGAAGCTGACCCCGAAGGATTTGCCCACGCTTGGCAAGCTTCAGATCGTGAGGTCGCACAACGTATTCACCAGGCACGGGAACTTTTGCCATCGGTTCAATTAAGTGATGTAAACCTTGCTCGTATTGCGCACTTATGTGCTTCATTTGATGTTGATGGCATGCGGGCAGATTTGGTGATTGCCCGGACTGCGATGGCACATGCTGCTTGGCGAGGTGCCGAAACCGTGGATGATGAAGATATTCGAGTCGCCGCTATGCTCGCATTACCGCATCGGCGGCGACGGAATCCATTTGATGAGCCGGGACTTGATCAAGATCAACTTGATGACGTAATGGATGAAGCACGTCAAGAGCACCCAGAGCAAGAAGAGACTGAACAAGACCAAACAAACCAACCACAAACAGAAGAACCATCGGGAGAGGACCAACAGCCCCAAGATGAACCCGATGCCGATGGAGAGGTAGGTAGCGCCGAGACTGGCGCACAGTTTCGTTCCTAG</t>
+  </si>
+  <si>
+    <t>ATGTCTGCCTTCCCGGGTTTTCCGTTTTCCGCGATCGTCGGCCAGGAGCGCCTTCGGCTGGCGCTGCTGTTGACGGCGGTGTCGCCGGGCATCGGCGGTGTGGTGGTGCGCGGCGAAAAGGGCACCGCGAAGACCACGGCCGTGCGCGCGCTGGGGCCGCTGCTGCCGAAGGGCACGGTGGTGGACCTGCCGCTGGGCGCCACGGAGGATCGCGTGGTCGGGTCGATCGACGTGGAGTCGGTGTTGACCACCGGCCACGCTGAGTTCCGTCCGGGGCTGTTGTCGAAGGCGGATGGGGGAGTGCTCTACGTCGACGAGGTCAATCTGCTGGCCGATCACCTCGTCGACGTGCTTCTCGACGCCGCCGCGACGGGTCGCGTGACCGTCGAGCGCGACGGGGTGTCCCACGTGGAGGAGACGTCGTTCGTGCTGGTGGGCACGATGAACCCGGAGGAGGGGGAGCTGCGCCCGCAGCTGCTCGACCGGTTCGGCCTGGCCGTCGACGTCGTCGCCTCGCGGGAACCGGAGGTGCGGGTGGAGGTCATGCGCCGCCGCCTGGCCTACGAGTCCGACCCCCACGGCTTCGCCGCCCGGTGGGCGCAGGCCGACGGCGAACTGCGGGATCGTCTCGCCCGCGCCCGCGGGTTGGTCGGGCAGATTCCGCTCGATGATGTTCATTTGGCGCGCATCGCGTCGCTGTGCGCGGATTTCGACGTCGACGGCATGCGCGCCGATCTGGTCATCGCCCGCACCGCCCGCGCCCACGCGGCCTGGCGCGGTGCCGAGGAGATCGATTCGGAGGACATTCGCGTCGCCGCCGAGCTGGCGTTGCCGCATCGTCGCCGCCGCGATCCCTTCGACGAGCCCGGCGTCGACCAGGGCGATCTCGACGACGCGCTCGACCGGGCGGAGGAGCGGTACCCCGACGAGGAGGACCACGCCGAGGAGCCGCCGCAGCCGGAGGAGCCGTCACGCGACGACCAGTCGCGGGAGCAGCAGGAGGGCCCCGCGCCGACGGGAGGTACTGCCCGATTGGGCGCCCCCTTTCGCGGCCAGGACGCTGGTTCTCGACGGCATCGGGAGGGCGGCGACGGACGTCGCGGTCGGGCCACGGGACCCCGGGGCCGCGACATCCGCGCCGTGCGGGGCGGCCGGGGCGTGCACGTGCCGGGCACGGTGCTCGCGGCCGCAGAGCGTGGCGCGCGCGTCGACGGGGCGATGGTGCCGCTCATCGGCGCCGACCTGCGGGGAGCCGTGCGCGAGGGGCGCGAGTCGAACCTCATCGTGTTCCTCGTCGACGCCTCCGGGTCCATGGCGGCCCGAGACCGGCTCGAGGCGGTCACGGGGGCGGTGCAGTCGCTGCTTCGCGACGCCTACCAGCGCCGCGACCGCGTGGCCGTGGTGACGTTCCGGGGCGATGACGCGACGGTGGAGCTGCCGCCGACCCGGTCGACGGTGGCGGCCAGCAGGCGGCTCGAGGACGTGTCGACGGGCGGCCGCACGCCGTTGGCGTCGGGGCTGGAGACGGCCCGGAAGCTGATCGAGCGCGAACACCGGCGCGACCCGTCGCGGCGCGCGATGCTCGTCGTCCTGTCGGATGGGCGGGCGACGTCGGCCGGCGGGCGCGAGGCGGCGGGACTGGCCGCCGATGCGTTCCGCCGCCGGGGAGTCGCCGGGTCCATCGTCGTGGATTGCGAATCCGGGCGCGTGCGCTTGGGGCTGGCCAAGGAGTTGGCGACGAGGCTCGGCGCACCGTGCGTGCGCATCGAGGACCTCGACGCCGACGCCGTCGCGGGCGTGGTGAAGGCGGCGGTAGTCTCGCGGTCATGA</t>
+  </si>
+  <si>
+    <t>ATGTCTGCCTTCCCGGGTTTTCCGTTTTCCGCGATCGTCGGCCAGGAGCGCCTTCGGCTGGCGCTGCTGTTGACGGCGGTGTCGCCGGGCATCGGCGGTGTGGTGGTGCGCGGCGAAAAGGGCACCGCGAAGACCACGGCCGTGCGCGCGCTGGGGCCGCTGCTGCCGAAGGGCACGGTGGTGGACCTGCCGCTGGGCGCCACGGAGGATCGCGTGGTCGGGTCGATCGACGTGGAGTCGGTGTTGACCACCGGCCACGCTGAGTTCCGTCCGGGGCTGTTGTCGAAGGCGGATGGGGGAGTGCTCTACGTCGACGAGGTCAATCTGCTGGCCGATCACCTCGTCGACGTGCTTCTCGACGCCGCCGCGACGGGTCGCGTGACCGTCGAGCGCGACGGGGTGTCCCACGTGGAGGAGACGTCGTTCGTGCTGGTGGGCACGATGAACCCGGAGGAGGGGGAGCTGCGCCCGCAGCTGCTCGACCGGTTCGGCCTGGCCGTCGACGTCGTCGCCTCGCGGGAACCGGAGGTGCGGGTGGAGGTCATGCGCCGCCGCCTGGCCTACGAGTCCGACCCCCACGGCTTCGCCGCCCGGTGGGCGCAGGCCGACGGCGAACTGCGGGATCGTCTCGCCCGCGCCCGCGGGTTGGTCGGGCAGATTCCGCTCGATGATGTTCATTTGGCGCGCATCGCGTCGCTGTGCGCGGATTTCGACGTCGACGGCATGCGCGCCGATCTGGTCATCGCCCGCACCGCCCGCGCCCACGCGGCCTGGCGCGGTGCCGAGGAGATCGATTCGGAGGACATTCGCGTCGCCGCCGAGCTGGCGTTGCCGCATCGTCGCCGCCGCGATCCCTTCGACGAGCCCGGCGTCGACCAGGGCGATCTCGACGACGCGCTCGACCGGGCGGAGGAGCGGTACCCCGACGAGGAGGACCACGCCGAGGAGCCGCCGCAGCCGGAGGAGCCGTCACGCGACGACCAGTCGCGGGAGCAGCAGGAGGGCCCCGCGCCGACGGGAGGTACTGCCCGATTGGGCGCCCCCTTTCGCGGCCAGGACGCTGGTTCTCGACGGCATCGGTGA</t>
+  </si>
+  <si>
+    <t>ATGGCCAACACCCCCTATCCGTTTACTGCAGTTGTTGGTCAAGATCAGCTCAAGCTAGCGCTCATCTTGACCGCAATTAGCCCTCGGATTGGGGGTGTTGTTGTGCGTGGGGAGAAAGGCACTGCCAAGACGACGACGGCACGAGGATTTGCTGCACTCATGCCACAGGGCCAGTTAGTTAATCTGCCGCTTGGTGCCACGGAAGATCGGGTCGTGGGTTCCCTCGACTTGGAAAAAGTTCTCACAACTGGTCAGGCCGAGTTTCGTCCGGGCCTGCTCAGCGAGGCGAATGGGGGGATTCTTTACGTAGACGAAGTTAACCTCCTCAGTGATCACCTGGTTGACGTCCTGCTGGATGCTGCAGCCACCGGACGAGTCACCGTTGAAAGGGATTCCATTTCTCACACGGAAGAAGCACGGTTCGTGCTCGTCGGCACAATGAACCCGGAGGAAGGGGAGTTACGTCCCCAGCTTCTGGACAGGTTCGGACTCGCCGTGGATGTTGTCGCCTCCCACGATGTGGCCCAGCGTGTTGGCGTAATCCAGCGACGCATGGCGTTCGAAGCAGATCCGGAAGCATTTGTGGCGAAGTTTGCAGAACCCGAAGCTGCAGTGGAGCGCGCACTCGTGCGGGCACAGGAAATTGTCCAGAGCCTGACTTTGAGTGCTACGAACTTGAAGCGGATAGCGACGGTATGTGCGGGCTTTGACGTCGACGGGATGCGTGCTGATTTGGTCATCGCTCGCGCAGCTGCAGCACACGCAGCATGGCGGTTGGCTACAGCCAGCGATGCTGACGGCAGCGACAATCTCATTGCGGAAGTTACGGATACGGATATCCGAGCCGCCGCCGAACTTGCGCTTCCCCATAGGATGAGGCGAAATCCATTCGATAGCCCCGAACTAGACCAGGATCGCTTGGACGAGTTGATGAATGAGCCACTGCCAGAAGACGACCCGGAGCCAGATCCTGAGGAAGAGGATGGAGATCCGGGACGCTCCGATTCTGGCGAAGGCGACGGGGATGCGGCCGACGATAGTGAGTCCCACGGTAACGATGAAAATACGACTGAAAGTGATTCCGGCAATCGGGAGCAGCAGTCTCCGGCCACACCCGCGCCGGACCGAGAGACTTCTGCCACCGCAGAGCCGTCCTCTTCTACTGGAGGGGTAACGGATGCAGAGCCTGCCCGCCAGCCGAACGGTGCCGCGCCGGTGGCCAAGAAGGAGGATCGCGCCGTTCAAGGCGCTCCCTTTCGTTCCAGACTGGTGTCCAAGACAGGAGTAGGAGAGGGCGGCCCCCTCGGCCGTCGTTCCCGCTCGTATTCTCGCCGTGGTGAGGCGGTTCGCCCCGCTTCCCCCGGGCGAGGACACGGCATTCACCTTCTCGGGACGCTTCTCGCAGCAGCCGAGCGCGGGGCCACAGTCGATAGTCGCGGGATCGAATTTGAGCCTCGGGATCTGCGCGGGGCGATCAGGCTCGGTACAGAGGCGAATCTCGTTGTGTTCGTGGTTGATGCGTCTGGCTCAGTGGCTGCAAAGGATCGACTGAAAGCGGTTACTGGCGCGTGCATTTCGATCCTTCAGGATGCGTATCGGCGAAGGGATCGTGTGGCCGTTATCAGCGTCCGGGGAAAGAAAGCGACAGTGCTTGTGCCTCCAACTCGGTCGGTAGATATTGCGGTGAGTCGTCTTTCTCAGGCCAGAGTAGGTGGGAAGACTCCGTTGGCTTCTGGCTTGGAAGAGACGTACAAGCTCATTGACCGTGAGGTATTTAAGTCGTCGGGCTTGCGCTCGATAGCTGTTGTTCTCACGGATGGCCGTGCAACTGACGGGCTCAAACGGGTTAACGAGGTAGCAGGTGCACTTGCCTCCCGCAAGGATGTGGGCTGTGTTGTCATTGACTGCGAGGCTGGTCGTGGTCGGGTGCGTCTGAATCTCGCAGCTGATGTTGCCCGTGCACTGGGGGCTCCCGTCTTGTCAATCTCGGATTTCAAGGAAGCTGGGGCAAAAAGCTTATCCGTCTAG</t>
+  </si>
+  <si>
+    <t>ATGGCCAACACCCCCTATCCGTTTACTGCAGTTGTTGGTCAAGATCAGCTCAAGCTAGCGCTCATCTTGACCGCAATTAGCCCTCGGATTGGGGGTGTTGTTGTGCGTGGGGAGAAAGGCACTGCCAAGACGACGACGGCACGAGGATTTGCTGCACTCATGCCACAGGGCCAGTTAGTTAATCTGCCGCTTGGTGCCACGGAAGATCGGGTCGTGGGTTCCCTCGACTTGGAAAAAGTTCTCACAACTGGTCAGGCCGAGTTTCGTCCGGGCCTGCTCAGCGAGGCGAATGGGGGGATTCTTTACGTAGACGAAGTTAACCTCCTCAGTGATCACCTGGTTGACGTCCTGCTGGATGCTGCAGCCACCGGACGAGTCACCGTTGAAAGGGATTCCATTTCTCACACGGAAGAAGCACGGTTCGTGCTCGTCGGCACAATGAACCCGGAGGAAGGGGAGTTACGTCCCCAGCTTCTGGACAGGTTCGGACTCGCCGTGGATGTTGTCGCCTCCCACGATGTGGCCCAGCGTGTTGGCGTAATCCAGCGACGCATGGCGTTCGAAGCAGATCCGGAAGCATTTGTGGCGAAGTTTGCAGAACCCGAAGCTGCAGTGGAGCGCGCACTCGTGCGGGCACAGGAAATTGTCCAGAGCCTGACTTTGAGTGCTACGAACTTGAAGCGGATAGCGACGGTATGTGCGGGCTTTGACGTCGACGGGATGCGTGCTGATTTGGTCATCGCTCGCGCAGCTGCAGCACACGCAGCATGGCGGTTGGCTACAGCCAGCGATGCTGACGGCAGCGACAATCTCATTGCGGAAGTTACGGATACGGATATCCGAGCCGCCGCCGAACTTGCGCTTCCCCATAGGATGAGGCGAAATCCATTCGATAGCCCCGAACTAGACCAGGATCGCTTGGACGAGTTGATGAATGAGCCACTGCCAGAAGACGACCCGGAGCCAGATCCTGAGGAAGAGGATGGAGATCCGGGACGCTCCGATTCTGGCGAAGGCGACGGGGATGCGGCCGACGATAGTGAGTCCCACGGTAACGATGAAAATACGACTGAAAGTGATTCCGGCAATCGGGAGCAGCAGTCTCCGGCCACACCCGCGCCGGACCGAGAGACTTCTGCCACCGCAGAGCCGTCCTCTTCTACTGGAGGGGTAACGGATGCAGAGCCTGCCCGCCAGCCGAACGGTGCCGCGCCGGTGGCCAAGAAGGAGGATCGCGCCGTTCAAGGCGCTCCCTTTCGTTCCTAG</t>
+  </si>
+  <si>
+    <t>ATGGCGTCACAACAGATCCGCTATCCATTCTCCGCGGTTGTGGGACAAGACGAGCTTCGGCTTGCGTTGATCCTCACTGCGATTTCCCCACGCATTGGTGGCGTGGTGATTCGAGGTGAGAAGGGTACAGCGAAAACTACCACTGTGCGTGCTTTTGCTGGTCTTTTAGGTGATGCCCCTTTGGTGAACTTGCCTCTCGGATCCACGGAGGATCGTGTGGTGGGTTCCCTCAACATGGAAACTGTGTTGACCACCGGCCGTGCGGAATATCAGCCAGGTTTGCTCGCGCAGGCTGATGGCGGTGTGCTGTATGTCGATGAGGTCAACCTCTTGGCGGATCACCTGGTGGATGCTCTGCTCGATGCAGCTGCAAGCGGTCGCGTCAGCATTGAGCGTGACGGTATTTCGCATTCTTCACCAGCAAACTTTGTGTTGGTGGGCACCATGAATCCGGAGGAAGGCGAGCTGCGCCCGCAGCTGCTGGACCGTTTCGGTTTGGCTGTGGACGTTGCTGCGTCTACGAACCCTGAGGTGCGCGTGGAGATCATTCGCCGCCGGCTTGATTTTGAAAACGCTCCTGAGCAGTTCATGGCTAAGTGGGCTGAGCAAGATGCGGACACCTCCAACCGTATTTTGGCGGCTAAGGATTTGCTGCCTGGTGTGGAGCTGCCGGATCTGATCTTGTCGCAGATTGCGTGGTTGTGTGCACGTATTGAAGTCGACGGTATGCGCGCTGACCTGGTGATCACGCGTACCGCACTTGCTCACGCCGCGTGGGCTGGACGCACTGTGGTTACGGAAGAAGACGTGGAGATCGCAGCTCGCCTAGCGTTGCCGCACCGCCGTCGCCGTAATCCTTTCGATGCTCCAGAAATGGAGGAGCGCAAGCTTCAGGAAACCCTGCAGGAAGCTCGGGACTTCTTCAAAGACAATGAAGATAAAGGACCTGCCGCCAAGATCACCGATGAGGAAACCGGTGCAGAGGCCTTTACCGATACCGACAATCCCACCGAGGAAGACGGTCTGCAAGGAACTGCGCAGGCGAAGGCGCAGACTACTGGAAAGGTAGGTACTGCCGGATCCGGCGACCCCTTTCGCTCCAGGCATTTGCGCCTGGCGTCCATGGGGGAGGAGGACTCCACCCCAGGTAGGCGTTCCAAGGCGTATTCGCGCCAGGGCGCTGATGTCCGCCCCATGAAGGGTGGACACGGCATCAACTTAGTGGGCACGCTCATGGCGGCTACGGAACGCGGCGCCAACATTGTTGAAGGCGTGGTCGATTTCCGGCCCACGGACCTGCGGGGTTCGCTGCGCCGTGGGCGCGAAGCCAACCTCATCGTGTTCGTCGTCGACACATCGGGGTCGATGGCTGCGCGTTCCAGGGTGCGTGCGGTCACCGGGACTATTACCTCTATGCTTAACGACGCCTACCAGCGCCGCGACAAGGTTGCGGTTATCGCGGTCAACGGCAACAAGCCGACACTGGTGTTGAATCCAACAAATTCTGTGGAGCAAGCTCAGCAGAAATTAAAGGATATGCCGATGGGTGGTCGCACTCCACTGGCAGAGGGGCTGCTCATGGCCAAGGATCTCATGGCAAGGGAACTCCGAAAGGAACCCGGCCGACGCGCGATCCTCATGGTGATGACCGATGGCCAAGACACCTCCGATGCCGGCGAAGCAGGCATTGCCACCGCGGCGGAAACAGTGGTGAAATCACGACTGTCCGGCAACGTGGTCATCGACTGCGAAGGCCGACTCAAAGTGCGCAAAGAGCGCGCCGGGGTGTTGGCTGAAATGCTCGGTGGTGTGTGCGTGAGATTGCGTGATCTTAACTCCGAGCACATCAAAATGGTGATTAACGCCTAG</t>
+  </si>
+  <si>
+    <t>ATGGCGTCACAACAGATCCGCTATCCATTCTCCGCGGTTGTGGGACAAGACGAGCTTCGGCTTGCGTTGATCCTCACTGCGATTTCCCCACGCATTGGTGGCGTGGTGATTCGAGGTGAGAAGGGTACAGCGAAAACTACCACTGTGCGTGCTTTTGCTGGTCTTTTAGGTGATGCCCCTTTGGTGAACTTGCCTCTCGGATCCACGGAGGATCGTGTGGTGGGTTCCCTCAACATGGAAACTGTGTTGACCACCGGCCGTGCGGAATATCAGCCAGGTTTGCTCGCGCAGGCTGATGGCGGTGTGCTGTATGTCGATGAGGTCAACCTCTTGGCGGATCACCTGGTGGATGCTCTGCTCGATGCAGCTGCAAGCGGTCGCGTCAGCATTGAGCGTGACGGTATTTCGCATTCTTCACCAGCAAACTTTGTGTTGGTGGGCACCATGAATCCGGAGGAAGGCGAGCTGCGCCCGCAGCTGCTGGACCGTTTCGGTTTGGCTGTGGACGTTGCTGCGTCTACGAACCCTGAGGTGCGCGTGGAGATCATTCGCCGCCGGCTTGATTTTGAAAACGCTCCTGAGCAGTTCATGGCTAAGTGGGCTGAGCAAGATGCGGACACCTCCAACCGTATTTTGGCGGCTAAGGATTTGCTGCCTGGTGTGGAGCTGCCGGATCTGATCTTGTCGCAGATTGCGTGGTTGTGTGCACGTATTGAAGTCGACGGTATGCGCGCTGACCTGGTGATCACGCGTACCGCACTTGCTCACGCCGCGTGGGCTGGACGCACTGTGGTTACGGAAGAAGACGTGGAGATCGCAGCTCGCCTAGCGTTGCCGCACCGCCGTCGCCGTAATCCTTTCGATGCTCCAGAAATGGAGGAGCGCAAGCTTCAGGAAACCCTGCAGGAAGCTCGGGACTTCTTCAAAGACAATGAAGATAAAGGACCTGCCGCCAAGATCACCGATGAGGAAACCGGTGCAGAGGCCTTTACCGATACCGACAATCCCACCGAGGAAGACGGTCTGCAAGGAACTGCGCAGGCGAAGGCGCAGACTACTGGAAAGGTAGGTACTGCCGGATCCGGCGACCCCTTTCGCTCCTAG</t>
+  </si>
+  <si>
+    <t>ATGACGGCTGACACACCACAACCACTGTTTCCGTTCTCTGCCGTCGTCGGGCAGGACGACCTACGGCTCTCCCTGATTCTCACCGCAATCTCACCGCGTATCGGTGGTGTGGTCGTCAGAGGGGAAAAGGGGACCGCGAAAACGACGACGGTCCGCGCCTTTGCGTCACTGTTGGGTGACGCCCCCCTGGTGAACCTCCCGGTCGGAGCCACGGAAGACCGGGTCGTCGGCTCTCTCGACATGGAGACCGTCCTGACCACCGGACGGGCTGAATACCGTCCAGGGCTGCTGGCACAGGCTGATGGCGGGGTTCTCTATGTCGATGAGGTGAATCTGTTGGCGGATCACCTCGTGGACGCGCTGCTGGATGCTGCGGCTACCGGACGTGTCACAGTCGAACGCGACGGAATCTCCCACAGCTCGCCGGCAAGTTTCGTCCTCGTCGGCACGATGAATCCGGAGGAGGGAGAGTTGCGGCCCCAGTTGCTCGACCGCTTCGGATTGGCCGTGGACGTCGCAGCGTCGACGCGTCCGGAGACCAGGGTGGAGATCATTCGCCGTCGTCTCGCGTTCGAGGACGCCCCTCACGCTATGGTGGCTGAATGGGAGGGAGACGATCTCCGGATCGCGGAGCGGATTGACCGGGCACGTCGACTGGTCAGGGAGGTTGTTCTGCCGGATGCGGTGCTGAACCACATCGCCTGGTTGTGCTCCAGGATCGAGGTCGACGGAATGCGCGCAGACCTAGTGATCAGCCGCACCGCCGTCGCTCATGCAGCGTGGGAGGGACGGCGGCGAGTGCTCGATGCCGATATCGACGTGGCAGCTCGGCTTGCTCTGCCGCATCGTCGACGCCGGCAGCCATTCGAGGCTCCGGACATGGAGGAGCGGGAAGTACGCGAAACCCTCGAGGAGGCACGACGGTTCTTCGAGGACAATGAGACCGGAGGACCGGCGAGCGAATCCGCTGATGAGGAGACCGGGGCTGAGGTGCTGGTCGACAGTGAAAAACCGTCCGATGAACAAGCGATGCAGGGTGCTTCACAGGCACGTCCGCAGTCGACCGGGAAGGCAGGTACCGCCGGTTCCGGCGAACCCTTTCGATCCGCGGGTGTTTCGGCTGGACCGTATAGGGCAGAGGATGCGCCTAGCGGGCGCCGTTCGCTGGCACATACTTCTCATGGTGCCGACATTCGTCCGGTCAAGGGAGGCCACGGGGTGAACCTGGTTGGCACGGTCATGGCTGCCGCTGACCGAGGCGCAGCCGTGACCGATGGTCTCGTCGCTGTTCGTGCCGAAGACCTGAGGGGGTCGCTGCGCAGGGGACGTGAGTCCAACCTCATCGTATTCGTCGTGGATACGTCAGGGTCGATGTCCGCCCGCTCCCGAGTCCGCGCGGTTACTGGCGCGGTGACCTCGATGCTGACCGATGCCTACCAGCGCCGGGATAAGGTCGCGGTTATTGCCGTCAACGGTGGAAACCCGACACTGGTTCTTCCTCCGACCAGTTCAGTGGATACTGCCCGGCGTCGGCTGGACGAGATGCCTGTCGGGGGACGAACCCCTCTGGCGGAGGGGCTGTTGATGGCCCTGGACCTTCTCGAGCGTGAGCACCGGCGCGAACCTGGGCGTAGGGCACTACTGGTGGTGATGACGGATGGTGAAGACACGTCCGACGCCGGGACCCCGGGACTGGCGACGGCGTGCCGACGTATCGTGCGTGCCGGGTTGTCAGGAAACCTCGTCATCGACTGTGAGGGCAGGATGAAGGTGAGGAGAGAGCTGGCGTACTCGCTGGCAGAACAGCTCGACGGACCATGTGTCAGACTGTCGGAGATGAACTCTGGCACCCTGCGGTCCGAGGTCCGTCTGTGA</t>
+  </si>
+  <si>
+    <t>ATGACGGCTGACACACCACAACCACTGTTTCCGTTCTCTGCCGTCGTCGGGCAGGACGACCTACGGCTCTCCCTGATTCTCACCGCAATCTCACCGCGTATCGGTGGTGTGGTCGTCAGAGGGGAAAAGGGGACCGCGAAAACGACGACGGTCCGCGCCTTTGCGTCACTGTTGGGTGACGCCCCCCTGGTGAACCTCCCGGTCGGAGCCACGGAAGACCGGGTCGTCGGCTCTCTCGACATGGAGACCGTCCTGACCACCGGACGGGCTGAATACCGTCCAGGGCTGCTGGCACAGGCTGATGGCGGGGTTCTCTATGTCGATGAGGTGAATCTGTTGGCGGATCACCTCGTGGACGCGCTGCTGGATGCTGCGGCTACCGGACGTGTCACAGTCGAACGCGACGGAATCTCCCACAGCTCGCCGGCAAGTTTCGTCCTCGTCGGCACGATGAATCCGGAGGAGGGAGAGTTGCGGCCCCAGTTGCTCGACCGCTTCGGATTGGCCGTGGACGTCGCAGCGTCGACGCGTCCGGAGACCAGGGTGGAGATCATTCGCCGTCGTCTCGCGTTCGAGGACGCCCCTCACGCTATGGTGGCTGAATGGGAGGGAGACGATCTCCGGATCGCGGAGCGGATTGACCGGGCACGTCGACTGGTCAGGGAGGTTGTTCTGCCGGATGCGGTGCTGAACCACATCGCCTGGTTGTGCTCCAGGATCGAGGTCGACGGAATGCGCGCAGACCTAGTGATCAGCCGCACCGCCGTCGCTCATGCAGCGTGGGAGGGACGGCGGCGAGTGCTCGATGCCGATATCGACGTGGCAGCTCGGCTTGCTCTGCCGCATCGTCGACGCCGGCAGCCATTCGAGGCTCCGGACATGGAGGAGCGGGAAGTACGCGAAACCCTCGAGGAGGCACGACGGTTCTTCGAGGACAATGAGACCGGAGGACCGGCGAGCGAATCCGCTGATGAGGAGACCGGGGCTGAGGTGCTGGTCGACAGTGAAAAACCGTCCGATGAACAAGCGATGCAGGGTGCTTCACAGGCACGTCCGCAGTCGACCGGGAAGGCAGGTACCGCCGGTTCCGGCGAACCCTTTCGATCCGCGGGTGTTTCGGCTGGACCGTATAGGGCATGA</t>
+  </si>
+  <si>
+    <t>ATGTCTGCCTTCCCCGGATTCCCGTTCTCCGCGATCGTCGGCCAGGACCGGCTGCGCCTGGCGCTGCTGCTGACGGCGGTCTCGCCGGGCATCGGCGGCGTGGTGGTCCGTGGCGAGAAGGGCACGGCGAAGACCACCGCCGTGCGCGCCCTGGGCCCGCTGCTGCCGAAGGGCGCGGTCGTCGATCTGCCGCTCGGCGCGACGGAGGATCGCGTGGTCGGTTCCATCGACGTCGAGTCGGTGCTGACCACCGGCCGCGCGGAGTTCCGGCCCGGCCTGCTGACGCAGGCCGACGGCGGCGTTCTCTACGTCGACGAGGTCAACCTGCTGGCCGACCATCTCGTCGACGTCCTCCTCGACGCCGCCGCCACGGGCCGCGTCACCGTCGAGCGCGACGGCGTCTCGCACGTGGAGGAAACCTCCTTCGTGCTGGTCGGCACCATGAACCCGGAGGAGGGGGAGCTGCGACCGCAGCTCCTCGACCGCTTCGGGCTGGCGGTCGACGTCACCGCCTCCCGCGACCCCGAGGTGCGCGTGGAGATCATGCGCCGCCGCCTCGCCTACGAATCCGACCCCCGCGCCTTCGCCGCGCGGTGGGCGGAGGCCGACGGCGATCTGCGCGACCGCCTGGCCCGCGCCCGCGCCCTGGTCGGTCAGATCCCCCTCGACGACGTCCATCTGGCGCGCATCGCGTCGCTGTGCGCAGATTTCGACGTCGACGGCATGCGCGCGGACCTGGTCATCGCCCGCACCGCCCGCGCCCACGCGGCCTGGCGGGGCGCGGCGGAAATCGACTCGGAGGACATCCGCGTCGCCGCCGAACTCGCGCTGCCGCACCGTCGCCGCCGCGATCCCTTCGATGAGCCGGGCGTCGACCAGCGCGACCTCGACGACGCACTCGACCGCGCTGAGGACCGCTACCCGGACACGGACGACCACGCCGAAGAACCCCCGCAGCCCGATGAATCCGAAACGCCGGACGAGGGGGACGCCGAGGCGTCGTCAAGCGAGGAACTGGACCAGGAGAGGCCGGAGGGCCCCGCGCCGACGGGAGGTACTGCCCGACTGGGCGATCCCTTTCGCGGCAGGACGCTGCTTCTCGACGGCCTCGGCACCGGATCCGACGGCCGCCGCGGACGCGCCAAGGGGCCCCGCGGGCGGGACATCCGGGCGACGCGGGGCGGTAGGGGGCTGCACGTGCCCGGGACCGTTTTGGCCGCCGCCGAGCGGGGCGCCCGCGTCGACGACGGCATGGTGCCCCTGATCGCCCCCGACGTGCGCGGGGCGGAACGGGAGGGCCGCGAGTCCAACCTGATCGTGTTCCTCGTCGACGCCTCCGGTTCCATGGCCGCCCGCGACCGTCTGGAGGCGGTGACGGGAGCGGTGCAATCTCTGCTGCGCGACGCCTACCAGCGCCGCGACCGCGTGGCGGTGGTGACCTTCCGCGGCGATGGGGCGACGGTGGAGCTGCCGCCGACGCGGTCGACGGTGGCTGCCAGCAGGCGCCTCGACGACGTGCGGACCGGCGGCAGGACCCCGTTGGCGGCGGGTCTGGAGACGGCTCGCGCCCTGATCGAGCGGGAGCACCGCCGCGATCCGTCGCGCCGCGCGATGCTCGTGGTCCTGTCCGACGGCCGGGCGACGTCCGCCGGCGGGCGCGACACCGCGAGCCTGGCGGCCGACGCGATCCGGCGCCGCGGCGTGGCCGGATCCATCGTCGTCGACTGCGAATCCGGACGCGTGCGGTTGGGGCTGGCCAAGGAACTGGCCGACCGGCTCGGCGCCCCCTGCCTGCGCATCGAGGACCTCGACGCCGACGCCGTCGCGGGCGTGGTCAAGGCCGCGGTCACGGCCTGA</t>
+  </si>
+  <si>
+    <t>ATGTCTGCCTTCCCCGGATTCCCGTTCTCCGCGATCGTCGGCCAGGACCGGCTGCGCCTGGCGCTGCTGCTGACGGCGGTCTCGCCGGGCATCGGCGGCGTGGTGGTCCGTGGCGAGAAGGGCACGGCGAAGACCACCGCCGTGCGCGCCCTGGGCCCGCTGCTGCCGAAGGGCGCGGTCGTCGATCTGCCGCTCGGCGCGACGGAGGATCGCGTGGTCGGTTCCATCGACGTCGAGTCGGTGCTGACCACCGGCCGCGCGGAGTTCCGGCCCGGCCTGCTGACGCAGGCCGACGGCGGCGTTCTCTACGTCGACGAGGTCAACCTGCTGGCCGACCATCTCGTCGACGTCCTCCTCGACGCCGCCGCCACGGGCCGCGTCACCGTCGAGCGCGACGGCGTCTCGCACGTGGAGGAAACCTCCTTCGTGCTGGTCGGCACCATGAACCCGGAGGAGGGGGAGCTGCGACCGCAGCTCCTCGACCGCTTCGGGCTGGCGGTCGACGTCACCGCCTCCCGCGACCCCGAGGTGCGCGTGGAGATCATGCGCCGCCGCCTCGCCTACGAATCCGACCCCCGCGCCTTCGCCGCGCGGTGGGCGGAGGCCGACGGCGATCTGCGCGACCGCCTGGCCCGCGCCCGCGCCCTGGTCGGTCAGATCCCCCTCGACGACGTCCATCTGGCGCGCATCGCGTCGCTGTGCGCAGATTTCGACGTCGACGGCATGCGCGCGGACCTGGTCATCGCCCGCACCGCCCGCGCCCACGCGGCCTGGCGGGGCGCGGCGGAAATCGACTCGGAGGACATCCGCGTCGCCGCCGAACTCGCGCTGCCGCACCGTCGCCGCCGCGATCCCTTCGATGAGCCGGGCGTCGACCAGCGCGACCTCGACGACGCACTCGACCGCGCTGAGGACCGCTACCCGGACACGGACGACCACGCCGAAGAACCCCCGCAGCCCGATGAATCCGAAACGCCGGACGAGGGGGACGCCGAGGCGTCGTCAAGCGAGGAACTGGACCAGGAGAGGCCGGAGGGCCCCGCGCCGACGGGAGGTACTGCCCGACTGGGCGATCCCTTTCGCGGCTAG</t>
+  </si>
+  <si>
+    <t>ATGGAAAAAATCACGTCAGCGACCACTGCACAAACAGAGCCCACTTTTCCTTTTACTGCGATCGTCGGGCAGCAGCGACTACAGCTTGCGTTGATTCTGACCGCGCTATCCCCGGAGATTGGTGGTGTCGTCATCCGCGGTGAGAAGGGCACAGCCAAGACCACTACGGTTCGCGCGTTGGCGCCATTTCTCAGCGGATCGTTGGTAAACCTGCCACTCGGCGCTACGGAAGATCGAGTCGTAGGCTCCATCGATGTGGAGACCGTCCTGACTACCGGACACGCACAGTTCAATCCGGGACTACTCAGCGCGGCTGACGGTGGCATTCTCTATGTCGACGAGATCAACCTGCTGCCGGATCATCTCGTTGACTCCGTTCTCGATGCCGCAGCCACCGGTCGCGTGGTTGTTGAACGCGATGGCATCTCGCACTCCGCAACCTCCAGGTTCGTGTTGGTCGGCACGATGAACCCGGAAGAGGGCGAATTGCGTCCCCAGCTTCTCGACCGCTTTGGTCTCGCCATCGACGTCACCGCATCCAAGGATCCGGCTGTCCGCGCGGAAATCGTCGCCCGCCGCCTCGACTTTGACGCCGACCCGGAGAGCTTTGTCACGCGGTTCGCCGCCGACGACGATGCGCTACACGCTCGCATCGATCGCGCACGCGCACTGCTTGACGACGTCGAATTAACTCCCAGCATTCTCGGTCAAATTGCCACTGTGTGCGCTGCTTTTGATGTGGACGGGATGCGTGCCGACATCGTCATTGCACGTACCGCCCGCGCTCACGCTGCCTGGCGAGTAGCCGGGGACGAGTCGGCGCAGCCGGCACCCGGCAATCCAATTGAGATCACTGCGAAAGACATTAAGGTAGCTGCGGAAATGGCACTGCCGCACCGTCGTCGCCGTGACCCCTTTGATGAACCAGGACTGGACCAGGAACAGCTCGACGATGCTCTGCAGGATGCAGAGGAGCAGTTCCGAGATGACCAGAATCAGCCAGAGTCGAGTCCGGAGTCGGATCCAGAGCCCGATGCTGAGCAGGTCTCCCAGTTCGACTCCAACTCCGAACCACAGGAGCCACAACAGTCGAATTCCGCGGGATCGAAGGGAGGTCGCGCCGCTGAAGGCGCCCCCTTTCGCCGTTCGAAAATCAGCGTTGACGGTGTCGGCCAAGGGGATTCCGGTCGGCGTTCCAAGGCCATCGGCCCGCGGGGCAGCACCATTGGTGCCGAGCGGGGAGGCCATGGTCTCCACGTGCCGGCGACAGTGCTGGCCGCAGCCAATCGTGGTGCCCGGATGGGCGGCTCCATGATCCCTCTGGAACCGGAGGACGTTCACGGCGCTATTCGACAGGGAACTGAGTCCAATCTGGTCGTCTTTGTCGTGGACACCTCGGGTTCCATGGCAGCACGCGACCGTCTGGCAGCCGTCACCGGCGCGGTCACATCGCTGCTGCGTGATGCCTACCAAAGCCGCGATAAAGTCGCTGTCATTACTTTCCGCGGAAATAACGCCGAATTAGTTTTACCGCCGACGAAGTCTATCGACACCGCAGTACGTCGCCTCGCAGATGCCCGCACTGGTGGCCGAACTCCATTGGCCGAAGGATTGCTGAAGGCACACGAAGTGGTAGTTCGGGAAGCCCATAGGGAGCCCACACGGCGCGCAATCATGGTGTTGCTCTCCGACGGCCGAGCAACGGGTAAAAATGGCCTGCAGCAGGCGAGGGCTGTGGCCGCAAAGATCCGTCGTCAAGCGTTGGCGGCGACGGTGGTTATCGACTGTGAGCGCTCTCGCGTGCGGCTGGGGCTGGCACAGGAACTCAGCGTGGAATTGGGTGCGACCTGCATAAATCTCTCCGAACTCAATGCCGAAGCCGTGGCGGGCGTGGTCCATGCCTATCATCGAGACCATGGCACAAGGAAAGCTTGA</t>
+  </si>
+  <si>
+    <t>ATGGAAAAAATCACGTCAGCGACCACTGCACAAACAGAGCCCACTTTTCCTTTTACTGCGATCGTCGGGCAGCAGCGACTACAGCTTGCGTTGATTCTGACCGCGCTATCCCCGGAGATTGGTGGTGTCGTCATCCGCGGTGAGAAGGGCACAGCCAAGACCACTACGGTTCGCGCGTTGGCGCCATTTCTCAGCGGATCGTTGGTAAACCTGCCACTCGGCGCTACGGAAGATCGAGTCGTAGGCTCCATCGATGTGGAGACCGTCCTGACTACCGGACACGCACAGTTCAATCCGGGACTACTCAGCGCGGCTGACGGTGGCATTCTCTATGTCGACGAGATCAACCTGCTGCCGGATCATCTCGTTGACTCCGTTCTCGATGCCGCAGCCACCGGTCGCGTGGTTGTTGAACGCGATGGCATCTCGCACTCCGCAACCTCCAGGTTCGTGTTGGTCGGCACGATGAACCCGGAAGAGGGCGAATTGCGTCCCCAGCTTCTCGACCGCTTTGGTCTCGCCATCGACGTCACCGCATCCAAGGATCCGGCTGTCCGCGCGGAAATCGTCGCCCGCCGCCTCGACTTTGACGCCGACCCGGAGAGCTTTGTCACGCGGTTCGCCGCCGACGACGATGCGCTACACGCTCGCATCGATCGCGCACGCGCACTGCTTGACGACGTCGAATTAACTCCCAGCATTCTCGGTCAAATTGCCACTGTGTGCGCTGCTTTTGATGTGGACGGGATGCGTGCCGACATCGTCATTGCACGTACCGCCCGCGCTCACGCTGCCTGGCGAGTAGCCGGGGACGAGTCGGCGCAGCCGGCACCCGGCAATCCAATTGAGATCACTGCGAAAGACATTAAGGTAGCTGCGGAAATGGCACTGCCGCACCGTCGTCGCCGTGACCCCTTTGATGAACCAGGACTGGACCAGGAACAGCTCGACGATGCTCTGCAGGATGCAGAGGAGCAGTTCCGAGATGACCAGAATCAGCCAGAGTCGAGTCCGGAGTCGGATCCAGAGCCCGATGCTGAGCAGGTCTCCCAGTTCGACTCCAACTCCGAACCACAGGAGCCACAACAGTCGAATTCCGCGGGATCGAAGGGAGGTCGCGCCGCTGAAGGCGCCCCCTTTCGCCGTTCGTAA</t>
+  </si>
+  <si>
+    <t>ATGTTGCCTTCGTCACACAGCGTTTCGCTTTTCCCTTTCAGTGCCGTGGTTGGGCAGGACCAGCTGAAATTAGCGCTGATCTTGACCGCTATTTCTCCTCGCATCGGCGGCGTCGTTGTTCGAGGCGAAAAGGGCACGGCGAAGACGACGACAGTCCGCGCTTTCTCCCGGATGCTTCCGGACCCGAAGGCGAAGGTCGTTAACCTCCCGTTGGGTGCAACGGAAGACCGTGTGGTGGGCTCTATTGATGTCGAGCGCGTTTTGACCACCGGCCACGCTGAATACCAGCCCGGCTTGCTCAGTGAAGCCAACGGGGGAGTGCTGTACGTCGATGAAATCAACCTGCTAGCGGACCACTTAGTCGACATCATTCTCGACGCTGCAGCAACCGGCCACATCAGTATCGAACGCGACGCGGTCTCTCACACTGAGGACACCGACTTTGTCCTCGTCGGCACGATGAACCCGGAAGAAGGGGAGTTGCGCCCCCAGCTTTTGGACCGGTTTGGTTTGGCGGTCGACGTTTCCGCGCCGCGTGACACGAAGTCGCGGACGGAAGTAATGCGCCGCCGCTTGGCCTTCGATGAGAACCCCGAGGAATTCCTCGAGCACTGGGCCGATGCCGAGCGAGACATCGCAACGCGCATTGTTGCGGCTAAAGAACGTGTGGCAGAAGTAGAACTCACCGACGTCGTCTTAGGACGAATCGCATCCATCTGTGCATCCTTTGATGTCGATGGCATGCGCGCAGACCTCGTGATTGCCCGTGCCGCCGCCGCCCATGCTGCCTGGGAGGGCCGGACAACGATCAAAGACTCGGACATTAAAGTCGCGGCCGAGTTGGCGCTCCCTCACCGACGTCGGGACCCCTTCGATTCCCCTGATATCAGCGACGACGAGCTGGACGACGCGCTGGACCGCGCACGTGACGAGGTCCCCGACGAACCGGATGACGACTCCGCGCCGGACAACACTGAGGACAGTGATGGTGACGTCGATACTAACGATGCCGACGACACCACCAGCGACGATGGCCACTCGGATGAGACCCCTGACCCCAGCGCTGAGCAGCCCACATCGCAGCAGAACCAGTCCGATGCGGCCAACGATGACAACCGCGGTCCGGCACCGCAGGAAGGAGGCCGCGCCGTCCAGGGCGCGCCCTTTCGCCGCAGGCTTGTTCAGCTTCAGAAATTAGGCCAGGTCGAATCCACCGCGCTGGGGCGACGATCGCATGCCATATCAGCGCACGGCTCAACGATTCGAGCCGTACGAGACGGCCACGGTTTTAACGTCGTAGGTACGGTCCTCGCCGCGGCAGACCGTGGAGCGCGGATCGACAATCACACGCACCGTGTTCCTCTGGAATCGAATGACGTGCGCGGAAGTATTCGTCGAGGATCGGAAGCAAATCTCGTCGTGTTCCTCGTTGATGCCTCGGGATCGATGGCAGCACGTGACCGTCTCTCAGCTGTGACAGGGGCGATTATGTCGATGCTCACCGACGCTTACCAGCGCCGCGACAAAGTCGCCGTGATCACTATTCATGGGTCGGAAGCAACAGTCGTCCTTCCGCCGACGCGGTCGATCACGATCGCTGCCCGTCGTTTAGCCGATGTCAAAACTGGTGGACGTACACCGTTGGCCGCTGGGCTCGATAAGGCTTATGAGCTCATTACTCGCGAGCATTATCGGGAGCCCGGCCGCAGAGCCATCCTCATGTGCCTATCGGATGGACGTGCCAATGGCAAAGGCGGTTTGGCCGCCGCCGAAGCAGCAGCTCGCCGTATCGCTCGTCGGGGGCTCGCAGGGAGTGTCGTCATCGATTGTGAACGCCAAGGCCGGGTGCGACTAGGTTTAGCATCGCGGTTAGCGGCTTACCTCCATGCCCCGTGTGTTCGGTTAGATGAGCTGTCGGCCGATAATCTAGGTGGAGTCATCAAGACGTTGAGCTAG</t>
+  </si>
+  <si>
+    <t>ATGTTGCCTTCGTCACACAGCGTTTCGCTTTTCCCTTTCAGTGCCGTGGTTGGGCAGGACCAGCTGAAATTAGCGCTGATCTTGACCGCTATTTCTCCTCGCATCGGCGGCGTCGTTGTTCGAGGCGAAAAGGGCACGGCGAAGACGACGACAGTCCGCGCTTTCTCCCGGATGCTTCCGGACCCGAAGGCGAAGGTCGTTAACCTCCCGTTGGGTGCAACGGAAGACCGTGTGGTGGGCTCTATTGATGTCGAGCGCGTTTTGACCACCGGCCACGCTGAATACCAGCCCGGCTTGCTCAGTGAAGCCAACGGGGGAGTGCTGTACGTCGATGAAATCAACCTGCTAGCGGACCACTTAGTCGACATCATTCTCGACGCTGCAGCAACCGGCCACATCAGTATCGAACGCGACGCGGTCTCTCACACTGAGGACACCGACTTTGTCCTCGTCGGCACGATGAACCCGGAAGAAGGGGAGTTGCGCCCCCAGCTTTTGGACCGGTTTGGTTTGGCGGTCGACGTTTCCGCGCCGCGTGACACGAAGTCGCGGACGGAAGTAATGCGCCGCCGCTTGGCCTTCGATGAGAACCCCGAGGAATTCCTCGAGCACTGGGCCGATGCCGAGCGAGACATCGCAACGCGCATTGTTGCGGCTAAAGAACGTGTGGCAGAAGTAGAACTCACCGACGTCGTCTTAGGACGAATCGCATCCATCTGTGCATCCTTTGATGTCGATGGCATGCGCGCAGACCTCGTGATTGCCCGTGCCGCCGCCGCCCATGCTGCCTGGGAGGGCCGGACAACGATCAAAGACTCGGACATTAAAGTCGCGGCCGAGTTGGCGCTCCCTCACCGACGTCGGGACCCCTTCGATTCCCCTGATATCAGCGACGACGAGCTGGACGACGCGCTGGACCGCGCACGTGACGAGGTCCCCGACGAACCGGATGACGACTCCGCGCCGGACAACACTGAGGACAGTGATGGTGACGTCGATACTAACGATGCCGACGACACCACCAGCGACGATGGCCACTCGGATGAGACCCCTGACCCCAGCGCTGAGCAGCCCACATCGCAGCAGAACCAGTCCGATGCGGCCAACGATGACAACCGCGGTCCGGCACCGCAGGAAGGAGGCCGCGCCGTCCAGGGCGCGCCCTTTCGCCGCTAG</t>
+  </si>
+  <si>
+    <t>GTGAGTACAACCACCGCACCAGGATTTCCTTTTTCGGCAGTGTATGACCAGGAGAGACTACAACTTGCCCTTATTTTAACGGCCATTGCCCCGCGGATCGGTGGGGTAGTTATTCGTGGTGAAAAAGGAACCGCAAAAACAACAACAGTGCGTGGTTTCCAGTCCATCTTAGGCGGGGCACCATTGGTTAATCTTCCTATTGGGGCCACCGAGGATCGCGTGGTGGGTGCTCTTGATTTAGAAACCGTGCTGACCACTGGTAAAGCCAATTATCGCCCAGGTCTTCTTGCCGAGGCAGACGGCGGAATTTTATATGTTGATGAGGTCAATCTGCTTGCAGATCATTTAGTCGATGCACTATTAGATGCGGCGGCTACTGGGCGAGTCACCATCGAACGCGATGGTATTTCGCATACTTCGCCGGCAAACTTTATTTTGGTAGGCACCATGAATCCGGAGGAAGGTGAATTACGCCCGCAGTTACTTGACCGCTTTGGACTTTCTATTGATGTTAGTGCCTCGCGCGATGTGGCAACACGCACCGAGATTATGCGTCGTCGATTAGCTTTTGAAGATGATCCGCAAGGATTTGCCGATGATTGGTCAGCTAGCGATGACACATTAAGCCAACGTGTTGCTCAGGCCAAGCACATCATTTCTCAGGTTGTGTTGAGCGATGAGAATTTAGCCCGCATTGCTCAGATCTGTGCTGCTTTTGATGTAGATGGTATGCGCGGTGATTTGGTGATTGCTCGAACTGCTCGTGCGCATGCTGCCTGGAGCGGGCGTAGTGAGGTTCTCGATGAAGATATTCGCATTGCTGCCGAGTTAGCGCTACCACATCGCCGGCGACGTAATCCTTTTGATGAACCAGGCCTTGATTCTGAGCAGTTGGACGAAGCTATGAATGAGCCTCTGCCACAAAATGGTTCCCCCACTGATCCACCGACAGAAAATGACTCTTCGCCAAAAGATAGCCCAGCAGAAAGTGAACCAACCAGCGATGGGGAGGTAGGTAGCGCAGATACAGGCGCGCCCTTTCGTAGCAGGACGCTTTTACGTAAAACCTCACGGGTTCTTGATGCCACTCCTGGTAGACGTGCTCCTGCACAAACTCGTATTGGTTCGGATGTTCGACCGGTCAGAAATGGGCGTGGACTGAACTTGATTGGCACAATTCGTGCTGCTGCTGATCGTGGAGCACACATTGATGCCGGCCGTTTGGAATTTATTCCTACTGATTTGCGTGGTTCTTTGCGGCGAGGTAAAGAAGCTAACCTTATTGTTTTTCTCGTTGATTCTTCCGGTTCAATGGCCGCACGCGATCGGTTAAATGCAGTTACTGGTGCGGTGCATTCTTTACTCGGTGATGCTTATCAACGTCGAGACAAGGTTGCGGTGATCACTGTGCGCGGTAGTGCACCAGAAATAGTGCTACAACCAACAGGATCAATTGATATTGCCAAAAAACGTCTTGACGGTTTGCCCACAGGTGGACGCACCCCGTTAGCTGAGGGGTTGAATATGGCGCATGAACTTATTGAACGCGAATACCGCCGCGAACCCGGCCGGCCAGCTTTATTGGTGGTGCTTACCGATGGTCGGGCTACCGGAAAAGATGGATTGGCCCATTTGCGCAGCATCGCCGCCACTATTGCACAACGCGGACATACCGGAAGCGTAATAGTAGACTGTGAAAAAGGTGGCCGCATTCGCCTTGGTCTAGCTACTGAGTTAGCTCAAAATCTGGGCGGAACGTGTGTGCGTATCGAAGAGTTAAATGCCGAAGCACTCACTGAAGTCATCCAGGCACTATAA</t>
+  </si>
+  <si>
+    <t>GTGAGTACAACCACCGCACCAGGATTTCCTTTTTCGGCAGTGTATGACCAGGAGAGACTACAACTTGCCCTTATTTTAACGGCCATTGCCCCGCGGATCGGTGGGGTAGTTATTCGTGGTGAAAAAGGAACCGCAAAAACAACAACAGTGCGTGGTTTCCAGTCCATCTTAGGCGGGGCACCATTGGTTAATCTTCCTATTGGGGCCACCGAGGATCGCGTGGTGGGTGCTCTTGATTTAGAAACCGTGCTGACCACTGGTAAAGCCAATTATCGCCCAGGTCTTCTTGCCGAGGCAGACGGCGGAATTTTATATGTTGATGAGGTCAATCTGCTTGCAGATCATTTAGTCGATGCACTATTAGATGCGGCGGCTACTGGGCGAGTCACCATCGAACGCGATGGTATTTCGCATACTTCGCCGGCAAACTTTATTTTGGTAGGCACCATGAATCCGGAGGAAGGTGAATTACGCCCGCAGTTACTTGACCGCTTTGGACTTTCTATTGATGTTAGTGCCTCGCGCGATGTGGCAACACGCACCGAGATTATGCGTCGTCGATTAGCTTTTGAAGATGATCCGCAAGGATTTGCCGATGATTGGTCAGCTAGCGATGACACATTAAGCCAACGTGTTGCTCAGGCCAAGCACATCATTTCTCAGGTTGTGTTGAGCGATGAGAATTTAGCCCGCATTGCTCAGATCTGTGCTGCTTTTGATGTAGATGGTATGCGCGGTGATTTGGTGATTGCTCGAACTGCTCGTGCGCATGCTGCCTGGAGCGGGCGTAGTGAGGTTCTCGATGAAGATATTCGCATTGCTGCCGAGTTAGCGCTACCACATCGCCGGCGACGTAATCCTTTTGATGAACCAGGCCTTGATTCTGAGCAGTTGGACGAAGCTATGAATGAGCCTCTGCCACAAAATGGTTCCCCCACTGATCCACCGACAGAAAATGACTCTTCGCCAAAAGATAGCCCAGCAGAAAGTGAACCAACCAGCGATGGGGAGGTAGGTAGCGCAGATACAGGCGCGCCCTTTCGTAGCTAG</t>
+  </si>
+  <si>
+    <t>ATGGACAAAAACGCGCCCGCAGTGCAGGATTCCGTTCACCAGCAGGTATTTCCTTTCGTGGCTATTGTTGGCCAAGAGCGACTGCAGCTGGCGCTGATCCTGACGGCGCTGGTCCCAGAGATTGGCGGCGTGGTCATCCGCGGTGAAAAGGGCACCGCCAAGACGACCACGGTCCGAGCGCTCGCGCCGTTTTTGGATGGCCGACTGGTCAACCTGCCACTCGGCGCGACCGAGGACCGCGTGGTTGGCTCCATCGATGTCGAGACAGTGCTGACCACAGGTCACGCCTGCTTCAACCCGGGACTTCTCAGCGAGGCGGACGGCGGAATCCTCTACGTCGACGAAATCAACCTCCTGCCGGATCACCTGGTGGACTCGGTCCTCGATGCTGCAGCCACAGGCCGAGTCGTTGTCGAGCGCGATGGCATTTCCCATGCCGCCACGTCCCGCTTTGTGCTGGTGGGAACGATGAATCCGGAGGAGGGCGAGCTCCGCCCGCAGCTGCTCGACCGCTTCGGCCTGGCCGTGGACGTCACCGCGTCGAAGGAACCGTCCGTCCGCGCCGAAATCGTCGCCCGCCGTCTCGCATTCGACGCGGACTCCGATTCCTTCGTCGCCCGCTTTGTCTCCGCGAGCGAGGAGCTGCGCGCGCGTCTCGGCCTGGCCGGGCAGCTGCTTTCCGACATCTGCCTGACCTCTACCGTCCTGGGCCGGATTGCATCGCTCTGCGCCGAGTTCGACGTCGACGGCATGCGTGCTGACCTGGTGATCGCGCGTACCGCCCGTGCCCACGCGGCCTGGCGCTGCGCCGGCCACGGGGTAGAGCCGGGATCTTGCGCCATCGAAATTGTCGACGAGGACATCAAGGTGGCGGCGGAAATGGCGCTGCCGCACCGCCGCAGGCGCGACCCCTTCGACGAGCCCGGACTGGACACGAACCAGCTGGACGAGGCCTTCGACCGCGCGAAGGAGGAATTCCCGGACGAGACACCTCAGCCGGACAATCCGGAGGAACAGGCCGGAACAGACAACCCCGCCGACGCCCCGGACACCCCGGATGCCTCCGAGACTCCAGCGACCCCAGAGCCGAACGGCCCCGGCGAGAAGGGAGGCCGCGCCAACCAAGGCGCGCCCTTTCGCCGTCCCAAAATCAGCTTGGAAGGGTTCGGCCACGGCTCCGTCGGTCGCCGCTCCAAAGCAATCGGCCCGCGCGGGAGCACCATCGGTGCGAAAAGATCAGGCCACGGCCTGCACCTGCCGGCTACGGTTCTCGCCGCAGCAAACCGAGGCGCACAGATTGACGGCAGCGGACAGTCGATGATTCCCCTGCGGCCAGAGGATATCCACGGTGCAATTCGGCAGGGTACGGAATCTAACCTCGTCGTCTTCGTGGTCGATACGTCCGGGTCCATGGCCGCCCGGGACCGTCTTTCCGCTGTGACGGGGGCCGTGACCTCGCTGCTGCGGGATGCATACCAGAACCGAGACAAAGTCGCGGTCGTCGCCTTTAGGGGCACCGGCGCGGAGGTGCTGCTCCCCGCCACTCGTTCAGTCGACGCAGCCGTGCGCAGGCTCGCAGATGTCCGCACCGGGGGACGTACCCCGCTGGCCGAGGGGCTCCTCGCCGCCCGCGCACTCATCGAACGGGAAGCCCGCAAGGAGCCGGAGCGCCGCCCCATCATGGTTCTGCTTTCCGACGGCCGCGCCACCGGGCCCGTCGGGTTGGAGCGGGTTCGTGCCGCGGCGGCAGCGTGGCGTCGGAAAGTGGATGCAGCGGCGGTGGTAATCGACTGCGAGCGCTCGCGGGTGCGCCTGGGGTTGGCCCGGAAACTGGCCGCTGACCTGGGCGCGCAGTGCCTGAGCCTGGCGGAGTTGAGCTCGGAGTCCGTCGCTGGTGTCGTCCGCGCCTATCATCGGGGGTATGTCTCAAGGAAAGCTTGA</t>
+  </si>
+  <si>
+    <t>ATGGACAAAAACGCGCCCGCAGTGCAGGATTCCGTTCACCAGCAGGTATTTCCTTTCGTGGCTATTGTTGGCCAAGAGCGACTGCAGCTGGCGCTGATCCTGACGGCGCTGGTCCCAGAGATTGGCGGCGTGGTCATCCGCGGTGAAAAGGGCACCGCCAAGACGACCACGGTCCGAGCGCTCGCGCCGTTTTTGGATGGCCGACTGGTCAACCTGCCACTCGGCGCGACCGAGGACCGCGTGGTTGGCTCCATCGATGTCGAGACAGTGCTGACCACAGGTCACGCCTGCTTCAACCCGGGACTTCTCAGCGAGGCGGACGGCGGAATCCTCTACGTCGACGAAATCAACCTCCTGCCGGATCACCTGGTGGACTCGGTCCTCGATGCTGCAGCCACAGGCCGAGTCGTTGTCGAGCGCGATGGCATTTCCCATGCCGCCACGTCCCGCTTTGTGCTGGTGGGAACGATGAATCCGGAGGAGGGCGAGCTCCGCCCGCAGCTGCTCGACCGCTTCGGCCTGGCCGTGGACGTCACCGCGTCGAAGGAACCGTCCGTCCGCGCCGAAATCGTCGCCCGCCGTCTCGCATTCGACGCGGACTCCGATTCCTTCGTCGCCCGCTTTGTCTCCGCGAGCGAGGAGCTGCGCGCGCGTCTCGGCCTGGCCGGGCAGCTGCTTTCCGACATCTGCCTGACCTCTACCGTCCTGGGCCGGATTGCATCGCTCTGCGCCGAGTTCGACGTCGACGGCATGCGTGCTGACCTGGTGATCGCGCGTACCGCCCGTGCCCACGCGGCCTGGCGCTGCGCCGGCCACGGGGTAGAGCCGGGATCTTGCGCCATCGAAATTGTCGACGAGGACATCAAGGTGGCGGCGGAAATGGCGCTGCCGCACCGCCGCAGGCGCGACCCCTTCGACGAGCCCGGACTGGACACGAACCAGCTGGACGAGGCCTTCGACCGCGCGAAGGAGGAATTCCCGGACGAGACACCTCAGCCGGACAATCCGGAGGAACAGGCCGGAACAGACAACCCCGCCGACGCCCCGGACACCCCGGATGCCTCCGAGACTCCAGCGACCCCAGAGCCGAACGGCCCCGGCGAGAAGGGAGGCCGCGCCAACCAAGGCGCGCCCTTTCGCCGTCCCTAA</t>
+  </si>
+  <si>
+    <t>ATGTCTGATATAATAGCTGCTAAATACCCATTTTCCGCTGTCGTAGGCCAAGACCAATTACAGCTCTCCCTCATCCTCACCGCCATCGCCCCCCGAATTGGCGGCGTTGTCATCCGTGGGGAAAAAGGCACAGCCAAAACCACAACCGTTCGAGCCTTCGCAGCCCTCCTTGGTGATGCCCCACTCGTCAACCTTCCCATCGGTGCCACCGAAGACCGTGTTGTCGGTGCCCTCGACCTGGAAACCATCCTCACCCAAGGCAAAGCCACCTATCGTCCAGGACTCCTTGCCGAAGCCAACAACGGTGTCCTCTACGTCGATGAAGTCAACCTCCTCGCCGACCACATTGTTGACGCCCTCCTCGACGCCGCCGCCACCGGCACTGTCACCATTGAACGCGACGGCATATCACATTCCGCACCAGCAAATTTCGTGCTCGTCGGAACCATGAACCCCGAAGAAGGCGAACTCCGCCCCCAACTCCTCGACCGCTTCGGCCTCTCCGTCGATGTCGCGGCATCCCGTGACGTCACCGTCCGAACCGAAATCATCAAACGACGCCTCGCATTCGAAGACCAACCCGAAACCTTCGTCGCCCGCTGGCACGATCACGACACCACCATTGCCGACCGCATCCACAACGCTAAAAACCTTCTCCCCACCATCAGCCTCACCCAAACCAACCTAGAACGCATCGCGCACCTCTGTGCCGCCTTCGACGTTGACGGAATGCGGGCCGATCTTGTTATCGCCCGCACCGCCTGCGCTCATGCCGCCTGGGAAAACCGCACCCAAGTGACCGACGAGGACATCCGAGTTGCAGCTGAACTAGCCCTCCCGCACCGCCGACGCCGCAACCCCTTCGACGAACCCGGCATCGACAGCGACCAACTCGACGACATCATGGAGGAAGCCCAACAACAACACCCAGAACCCGAGCCAGAAGAACAACCCAACCCCAACACCGGTGAAAACTCCGACGAAACCCCGGAAACACCCCCAGAGTCCACCAACACTGATAACCAAACTTCAAACGAGGAGGTAACAAGCGCCGAACAAGGCGCCCCCTTTCGCCGTAAACAACTCCGCTACGCCGCAAATAACAGCATCGAAGCCGCGCCAGGGCGCCGAGCCCCCGCCTACACCCGAGTCGGTTCTACCGCCTACGCCAGCAACACGGGTCATGGCCTGCACATCATTGGCACCCTGTGGGCGGCAGCCGACCGGGGTGTCCGATTGGAAAATGGTCGGGTGGAATTCCAGCCGGAAGACCTGCGGGGAGCGAAACGACGAGGGAAAGAATCCAACCTGATTGTTTTTGTTGTTGATGCTTCAGGATCCATGGCTGCCCGGGATCGACTCGCAGCAGTCACTGGTGCAGTGCACTCCCTCCTTGGAGATGCTTACCAGCGCCGGGATCGGGTTGCTGTCATCAGCGTCAGGGGACGCCAACCTGAAATATTATTGCCACCAACCGGCAGTATTGATGTTGCGCGGCGTCGGTTAGAGGATGTAAAAACAGGTGGGCGAACTCCGCTTCCCGAAGGATTGAAATTAGCTGCAGACCTTATCGAACGAGAACACCGGCGAGAACCCGGTCGGCGGGCCATCTTGGTCATCCTCTCTGATGGTAAAGCCACAGGCGCAAACGGGTTAACCAACCTTCGGATGGTAGCCCACGACATTGCGCAACGTGGCTTGGCAGGTAGCGTCGTCATTGATTGTGAAAATCAATCCCGGATTCGGCTTGGTCTCGCGCTCGAACTGGCGAAAAACCTAGGTGCGCCTTGCATCAGCATGACCGAGCTTAACGCGGAATCCGTTACCGGGGTCATCAATGCAATCTAA</t>
+  </si>
+  <si>
+    <t>ATGTCTGATATAATAGCTGCTAAATACCCATTTTCCGCTGTCGTAGGCCAAGACCAATTACAGCTCTCCCTCATCCTCACCGCCATCGCCCCCCGAATTGGCGGCGTTGTCATCCGTGGGGAAAAAGGCACAGCCAAAACCACAACCGTTCGAGCCTTCGCAGCCCTCCTTGGTGATGCCCCACTCGTCAACCTTCCCATCGGTGCCACCGAAGACCGTGTTGTCGGTGCCCTCGACCTGGAAACCATCCTCACCCAAGGCAAAGCCACCTATCGTCCAGGACTCCTTGCCGAAGCCAACAACGGTGTCCTCTACGTCGATGAAGTCAACCTCCTCGCCGACCACATTGTTGACGCCCTCCTCGACGCCGCCGCCACCGGCACTGTCACCATTGAACGCGACGGCATATCACATTCCGCACCAGCAAATTTCGTGCTCGTCGGAACCATGAACCCCGAAGAAGGCGAACTCCGCCCCCAACTCCTCGACCGCTTCGGCCTCTCCGTCGATGTCGCGGCATCCCGTGACGTCACCGTCCGAACCGAAATCATCAAACGACGCCTCGCATTCGAAGACCAACCCGAAACCTTCGTCGCCCGCTGGCACGATCACGACACCACCATTGCCGACCGCATCCACAACGCTAAAAACCTTCTCCCCACCATCAGCCTCACCCAAACCAACCTAGAACGCATCGCGCACCTCTGTGCCGCCTTCGACGTTGACGGAATGCGGGCCGATCTTGTTATCGCCCGCACCGCCTGCGCTCATGCCGCCTGGGAAAACCGCACCCAAGTGACCGACGAGGACATCCGAGTTGCAGCTGAACTAGCCCTCCCGCACCGCCGACGCCGCAACCCCTTCGACGAACCCGGCATCGACAGCGACCAACTCGACGACATCATGGAGGAAGCCCAACAACAACACCCAGAACCCGAGCCAGAAGAACAACCCAACCCCAACACCGGTGAAAACTCCGACGAAACCCCGGAAACACCCCCAGAGTCCACCAACACTGATAACCAAACTTCAAACGAGGAGGTAACAAGCGCCGAACAAGGCGCCCCCTTTCGCCGTTAA</t>
+  </si>
+  <si>
+    <t>GTGACGTCGATAGCGCCAGTATCGTTTCCATTTTCGGCAGTGGTAGGGCAAGACCAATTGCACCTCGCCTTGATCCTGACCGCAGTGTCGCCGAGAATCGGTGGAGTGGTTATTCGTGGTGAAAAAGGCACAGCCAAAACGACAACGGTACGGGCTTTCGCAAAACTACTCGACGGAGCACCACTAATCAATCTGCCCATCGGCGCAACCGAAGACCGCGTAGTTGGAGCATTGGACCTAGAAACCGTATTGACCACCGGCCGGGCCACATACAAACCCGGATTATTAGCTCAAGCCAATAACGGTGTGCTCTACGTTGACGAAGTAAACCTTCTAGCCGACCACCTCATAGATGCATTGTTAGACGCGGCCGCCACCGGAATTGTGACTATCGAACGAGACGGAATCTCACACACGGCCGAAGCAAGTTTCGTCCTGGTAGGAACAATGAACCCTGAAGAAGGGGAACTGCGTCCACAGCTTCTAGATCGGTTTGGGCTGTCAGTCGAAGTGACTGGTTCACGCGACGTCGACATTCGCGCTGACATTATCCGAAGACGGTTGGCATTCGAACAAGACCCAGCGGGATTCGTTGCTCAATGGGCTGAAGCAGACAACGAAATAGCAAAACGCATTAAACAAGCCAAAGAACTTTTGCCCCACGTGACGCTATCGGATGTGAACCTGGCACGAATAGCACACATATGTGCAGCCTTCGACGTTGATGGTATGCGCGCAGATCTCGTTATTGCCCGAACTGCCTGCGCCCACGCGGCATGGCAGCAACGCACAAATGTCACTGACGAAGACATCAAAGTTGCAGCCGAATTGGCGCTGCCGCACCGTAAACGACGCAATCCGTTTGATGAGCCAGGCATTGATCAACAAGACCTTGATAATGCATTAGAACAAGCCCAAAATGAGCACCCAGAAGATGACCTGCCAGCCGATGCCCCTTCAGCCACACCAGAGCCTGACACTCAGGATTTATCGGATTCGCAAGCAACAGCCGATGGAGAGGTAGGTACCGCCGACCAGGGCGTACCCTTTCGCCGTTCGGCAACTAGGCGTAGCGGAAAGACCTCAGCGACCGAAGCCGCGCCGGGTCGCAGAGCCCCAGCCTTAACCCGGACTGGAACTCCGGTCAGGTCGGTGTCTAATGGACGTGGTGTGCACGTTATTGGTACGGTGCAGGCTGCCGCCGACCGAGGAGCGCGCATAGAAGATGGGATCATACAATTTCAACCTGCGGATTTGCGCGGCGCGGTGTTGCGCGGAAAAGAATCCAACCTCATAGTTTTCGTGGTGGATGCTTCCGGTTCAATGGCGGCGAACGATCGATTGGCTGCAGTTACTGGTGCGGTGCATTCGTTGCTTGGCGATGCCTATCAACGCCGCGACCGGGTTGCGGTAGTCAGTGTAAGAGGTGCCCAGCCGGAGTTGGTGTTGCCGCCAACTGGCAGTATTGATGTTGCTCATCGACGATTGGCCGCGGTAGATACTGGTGGTCGCACACCGCTGGCTGAGGGATTGCAGCTGGCACAGGAAGTGATCGAACGTGAACACCACCGGGAGCCGGGCAGGCGGGCGCTACTAGTGGTGCTATCTGATGGGCGTGCAACCGGAGCAGGTGGTCTTGCGAAATTGCATTCTGTTGCGGGGGCAATCGCTCGACGCGGTTTAGCCGGTTGCATCGTTATTGACTGCGAAACTGCCGGTCGAGTGAAGTTAGGATTAGCTGCTGAACTAGCACGCAATCTGGGCGCGGTATGTCTACAACTAGCCGAGCTTGATGCCCAATCAGTCGCTGGCGTTATCGATGCGTTTTAA</t>
+  </si>
+  <si>
+    <t>GTGACGTCGATAGCGCCAGTATCGTTTCCATTTTCGGCAGTGGTAGGGCAAGACCAATTGCACCTCGCCTTGATCCTGACCGCAGTGTCGCCGAGAATCGGTGGAGTGGTTATTCGTGGTGAAAAAGGCACAGCCAAAACGACAACGGTACGGGCTTTCGCAAAACTACTCGACGGAGCACCACTAATCAATCTGCCCATCGGCGCAACCGAAGACCGCGTAGTTGGAGCATTGGACCTAGAAACCGTATTGACCACCGGCCGGGCCACATACAAACCCGGATTATTAGCTCAAGCCAATAACGGTGTGCTCTACGTTGACGAAGTAAACCTTCTAGCCGACCACCTCATAGATGCATTGTTAGACGCGGCCGCCACCGGAATTGTGACTATCGAACGAGACGGAATCTCACACACGGCCGAAGCAAGTTTCGTCCTGGTAGGAACAATGAACCCTGAAGAAGGGGAACTGCGTCCACAGCTTCTAGATCGGTTTGGGCTGTCAGTCGAAGTGACTGGTTCACGCGACGTCGACATTCGCGCTGACATTATCCGAAGACGGTTGGCATTCGAACAAGACCCAGCGGGATTCGTTGCTCAATGGGCTGAAGCAGACAACGAAATAGCAAAACGCATTAAACAAGCCAAAGAACTTTTGCCCCACGTGACGCTATCGGATGTGAACCTGGCACGAATAGCACACATATGTGCAGCCTTCGACGTTGATGGTATGCGCGCAGATCTCGTTATTGCCCGAACTGCCTGCGCCCACGCGGCATGGCAGCAACGCACAAATGTCACTGACGAAGACATCAAAGTTGCAGCCGAATTGGCGCTGCCGCACCGTAAACGACGCAATCCGTTTGATGAGCCAGGCATTGATCAACAAGACCTTGATAATGCATTAGAACAAGCCCAAAATGAGCACCCAGAAGATGACCTGCCAGCCGATGCCCCTTCAGCCACACCAGAGCCTGACACTCAGGATTTATCGGATTCGCAAGCAACAGCCGATGGAGAGGTAGGTACCGCCGACCAGGGCGTACCCTTTCGCCGTTCGGCAACTTAG</t>
+  </si>
+  <si>
+    <t>ATGGGCACCTGTGGACGCACACTATATCCTTTCTCTGCAGTAGTAGGGCAGGAGCGATTAAGACTGGCATTACTCTTATGCGCAATTTCTCCGCGTATTGGTGGTGTAGTTATCCGCGGGGAAAAGGGAACAGCGAAGACCACTACGGTGCGAGCTTTTGCGCGTTTGCTAGGAGAAGCCCCTTTAGTTGATCTCCCTATCGGTGCCACAGAGGATCGAGTCGTGGGGTCCCTGGATATGGAGACAGTCTTGACCACCGGAAAAGCTCGCTATAACCCGGGCTTGCTTAGTCAAGCAGACGGTGGGGTGTTGTACGTCGATGAGGTAAATCTCCTCGCAGATCACCTCGTCGATTCGCTCTTAGACGCGGCGGCAACGGGGCAAGTAACAGTTGAACGGGATGGCATTTCTTATTCTTCTCCTGCCAACTTTGTGCTCGTGGGGACAATGAACCCAGAAGAAGGCGAGTTGCGGCCGCAATTGCTTGATCGTTTCGGATTGGCTGTTGACGTTATGGCGTCCAAAGACACTGATGTACGAGCAGAAATAATGCGGCGTCGGCTTGCTTTCGAATCAGCCCCGCAATCTTTTGCTCAAGCGTGGTCCCATGAGGATGCATCGACGGCGCTGCAAATACAGAAGGCGAAACAACGAGTGCAGCAGTTACAACTTTCTAACGTTAATCTGAACCGGATCGCACATTTGTGTGCAGCATTTGACGTGGACGGTATGAGAGCTGATTTGGTTATCGCTCGAACTGCGCTAGCACATGCTGCCTGGCGCGGAGCTTCAATGGTTGAAGATGAGGATATCCGGATAGCCGCAGAGTTGGCCTTGCCGCATCGCCGTCGCAGAGACCCATTCGATGAGCCTGGCCTAGACCAGGAACAGCTGGATCAAGAAATGGAAAAAGCCCGGGATCAGCACCCTGACGCCAGTGATAAAGCGGAAGAGCCTCAAGAGGAAAAAGAGCAGCATACACTAGAGAACAAGTCTTCGGAGACTCAATCTGAGCAGCCCACCAGTGACGGTCAGGAGGAATGCGCTACTACTGGCGCTCCCTTTCGCTCCACGGGTGCTAAACGCAAGGGCATAGGTGAGCGGGGAGTTCCAGGGCGACGCTCAAAGGCCTATTCCTCCCATGGAGGAGATGTTCGTCCATTGCGTTTTGGGCATGGTCTGAACCTTGTGGGTACCATTTTCGCGGCGGTTGATAGAGGGGCGCGATTACGGGGAAAGATGATTGACTTCCGGCCGGAGGATTTGCGGGGTTCCTTAAGGCGGGGTATGGAATCAAATCTTATTATTTTTGTCGTTGATGCTTCAGGGTCCATGTCGGCTCGAGATCGATTGGCTTCAGTCACTGGTGCTGTCTTATCGATGCTTCGGGATGCGTACCAGCGTCGGGACAAGGTTGCTGTGATTTCCGTACGAGGAGCCGCTCCTGAGTTGGTGTTGCCTCCTACTGGTTCAATTGATGTTGCGGTGCGCCGTTTGCAAAAGGTAGCTACGGGCGGCCGGACTCCGTTGGGTGAGGGGCTTTTACTCGCCCATGACGTGATTCGTAGAGAGCACGTAAAAGAACCTGGGCGTCGTGCTCTTCTGGTCGTGCTGTCAGATGGACGTGCCACCGGAGCCTCTGGTCTTGTTGGTTTGCGAACAGCTGCTCAGACCATCGCACGTAGTGATTTGGCTGGTTCGGTGGTAGTTGACTGTGAGAAGTCGGGACGCGTGAAGCTCGGACTCGCGCAGGAATTAGCTGGTCATCTTGAAGGGATTTGTATTCAGCTTAAAGAGTTGAATGCAGAGTCTGTGGCCGGAGCGATAAACGTAGTGTGA</t>
+  </si>
+  <si>
+    <t>ATGGGCACCTGTGGACGCACACTATATCCTTTCTCTGCAGTAGTAGGGCAGGAGCGATTAAGACTGGCATTACTCTTATGCGCAATTTCTCCGCGTATTGGTGGTGTAGTTATCCGCGGGGAAAAGGGAACAGCGAAGACCACTACGGTGCGAGCTTTTGCGCGTTTGCTAGGAGAAGCCCCTTTAGTTGATCTCCCTATCGGTGCCACAGAGGATCGAGTCGTGGGGTCCCTGGATATGGAGACAGTCTTGACCACCGGAAAAGCTCGCTATAACCCGGGCTTGCTTAGTCAAGCAGACGGTGGGGTGTTGTACGTCGATGAGGTAAATCTCCTCGCAGATCACCTCGTCGATTCGCTCTTAGACGCGGCGGCAACGGGGCAAGTAACAGTTGAACGGGATGGCATTTCTTATTCTTCTCCTGCCAACTTTGTGCTCGTGGGGACAATGAACCCAGAAGAAGGCGAGTTGCGGCCGCAATTGCTTGATCGTTTCGGATTGGCTGTTGACGTTATGGCGTCCAAAGACACTGATGTACGAGCAGAAATAATGCGGCGTCGGCTTGCTTTCGAATCAGCCCCGCAATCTTTTGCTCAAGCGTGGTCCCATGAGGATGCATCGACGGCGCTGCAAATACAGAAGGCGAAACAACGAGTGCAGCAGTTACAACTTTCTAACGTTAATCTGAACCGGATCGCACATTTGTGTGCAGCATTTGACGTGGACGGTATGAGAGCTGATTTGGTTATCGCTCGAACTGCGCTAGCACATGCTGCCTGGCGCGGAGCTTCAATGGTTGAAGATGAGGATATCCGGATAGCCGCAGAGTTGGCCTTGCCGCATCGCCGTCGCAGAGACCCATTCGATGAGCCTGGCCTAGACCAGGAACAGCTGGATCAAGAAATGGAAAAAGCCCGGGATCAGCACCCTGACGCCAGTGATAAAGCGGAAGAGCCTCAAGAGGAAAAAGAGCAGCATACACTAGAGAACAAGTCTTCGGAGACTCAATCTGAGCAGCCCACCAGTGACGGTCAGGAGGAATGCGCTACTACTGGCGCTCCCTTTCGCTCCACGGGTGCTTAA</t>
+  </si>
+  <si>
+    <t>ATGATCAACACCCTCTATCCGTTTACTGCTGTTGTTGGTCAGGATCAGCTCAAACTTGCGCTAATCTTGACTGCGATCAGCCCTCGGATTGGGGGTGTTGTTGTGCGCGGGGAAAAAGGCACCGCCAAAACTACGACCGCCCGTGGTTTTGCCGCGCTCATGCCTCAGGGGCAGCTGGTCAACCTTCCGTTGGGGGCGACGGAAGATCGCGTTGTTGGTTCCCTCGATCTGGAGAAGGTGCTCACCACGGGGCACGCGGAGTTTCGGCCCGGTTTGTTGAGTGAGGCCAACGGCGGCATTCTGTACGTCGACGAGGTTAACCTCCTCAGCGACCACCTTGTCGATATTCTCCTCGATGCCGCTGCAACCGGTCGCGTGACCGTGGAGAGAGACTCCATTTCTCACACTGAGCAGGCCCAATTTGTGCTGGTGGGAACGATGAATCCGGAGGAAGGGGAGCTGCGTCCTCAGCTGCTGGATCGCTTCGGATTGGCCGTTGATGTGGTGGCCTCCCACGACGTGGGTCAACGCGTTGATGTCATCCGGCGCCGGATGGAATTTGAGAGTGACCCCGAGCGATTTGTTGCGCAGTTCTGTGACGAGGAGAACGCGGTTTCGGCCGCGCTCGTCCGCGCGCAGGAAATCGTGGACGAGCTCGACTTAACAACGAACAATTTCCAACGCATTGCGATTGTCTGTGCGGGATTCGATGTCGACGGAATGCGAGCCGATCTTGTTATCGCCCGCGCAGCAGCAGCTCATGCCGCGTGGCGGTTGGCTCGTGCTGAGGCTGAGGGCGCTGCCAACCACAAGGAGCGGGGAATCACCGATGAGGATATTCGCGTGGCGGCCGAGCTTGCTCTCCCGCACCGCATGCGACGCAACCCCTTTGATAGCCCGGAGATGGATGAAGAAAAGCTCGATGAGCTTATGAATCAGCCGCTTCCGGAGGACCCGGGCGATGACGAGGACACGCCGCAGGCAGAAGACGAAAATAACGCCGAGCAAGCCGAAACGGATGAACAGCAGGTGGATGCGGAGCCGCAAGGCGAAAATTTGCAGGACGGCGGCGCCGGGGACACAACCGATAACCGATCGTCAGATAACGGTGCCCCAACACCGCCCGCTGCCAGCGCAGATTCGTTACCGTCGGCGTCGGCAGAGGACCCGGTGGACACCTCTACAACTGCTCCTCTGGCGAACAAGGAGGACCGCGCCGTTCAGGGCGCGCCCTTTCGTCCCAGCCTCGTCACCAAGCAGGGTATGGGAGAAGGTGGCCCGCTGGGGCGTCGTTCTCGCTCCTACTCGCACCGAGGAGAGGCAGTGCGTCCGGCACCGCTGGGGCAGGGGCACGGTCTGCACCTACTGGGAACGCTTGTCGCGGCTGCGGAAAGAGGCGCGCATGTAGATGAGAGCGGGGTGGACTTTGAGCCTCGTGATCTGCGCGGCGCGATTCGCCTGGGGACGGAGGCTAACCTCGTTGTTTTCGTCGTCGACGCGTCGGGTTCGGTAGCTGCGCACGACCGGTTGAAGGCGGTCAGCGGTGCGTGTGTGTCGATTCTGCAGGATGCGTACCGGCGCCGTGACAAGGTTGCCGTGATCAGCGTGCGTGGCAAGAAGCCAACCGTTCTTGTCCCCCCGACGAGGTCAGTGGAGATAGCTAAGGAGCGCATCGCGAACGCGCGCATCGGCGGGAAGACCCCGCTCGCTGCGGGGTTGGAATGCGCCTATCGGATGGTTGAGCGAGAGGTGTTCAAAGCGCCGGGGCTTCGTTCGATCGCCATAGTTCTCACTGACGGGCGGGCAACGGATGGCTTGCGCCGAGTGAAGAAGGTGGGGCGTGCGTTCGCCGACCGCAGCGATACGGGGAGTCTCGTCATTGATTGTGAGACGGGGCGCGGGAGGGTCCGGCTGAACCTAGCCCACGATGTCGCTCACGCCATGAATGCTCCGGTGGTGTCCCTAACGGAGTTTGAAAGCGCAGCGACGAATTCCGTCCGAGCATTCTCGGTGTAA</t>
+  </si>
+  <si>
+    <t>ATGATCAACACCCTCTATCCGTTTACTGCTGTTGTTGGTCAGGATCAGCTCAAACTTGCGCTAATCTTGACTGCGATCAGCCCTCGGATTGGGGGTGTTGTTGTGCGCGGGGAAAAAGGCACCGCCAAAACTACGACCGCCCGTGGTTTTGCCGCGCTCATGCCTCAGGGGCAGCTGGTCAACCTTCCGTTGGGGGCGACGGAAGATCGCGTTGTTGGTTCCCTCGATCTGGAGAAGGTGCTCACCACGGGGCACGCGGAGTTTCGGCCCGGTTTGTTGAGTGAGGCCAACGGCGGCATTCTGTACGTCGACGAGGTTAACCTCCTCAGCGACCACCTTGTCGATATTCTCCTCGATGCCGCTGCAACCGGTCGCGTGACCGTGGAGAGAGACTCCATTTCTCACACTGAGCAGGCCCAATTTGTGCTGGTGGGAACGATGAATCCGGAGGAAGGGGAGCTGCGTCCTCAGCTGCTGGATCGCTTCGGATTGGCCGTTGATGTGGTGGCCTCCCACGACGTGGGTCAACGCGTTGATGTCATCCGGCGCCGGATGGAATTTGAGAGTGACCCCGAGCGATTTGTTGCGCAGTTCTGTGACGAGGAGAACGCGGTTTCGGCCGCGCTCGTCCGCGCGCAGGAAATCGTGGACGAGCTCGACTTAACAACGAACAATTTCCAACGCATTGCGATTGTCTGTGCGGGATTCGATGTCGACGGAATGCGAGCCGATCTTGTTATCGCCCGCGCAGCAGCAGCTCATGCCGCGTGGCGGTTGGCTCGTGCTGAGGCTGAGGGCGCTGCCAACCACAAGGAGCGGGGAATCACCGATGAGGATATTCGCGTGGCGGCCGAGCTTGCTCTCCCGCACCGCATGCGACGCAACCCCTTTGATAGCCCGGAGATGGATGAAGAAAAGCTCGATGAGCTTATGAATCAGCCGCTTCCGGAGGACCCGGGCGATGACGAGGACACGCCGCAGGCAGAAGACGAAAATAACGCCGAGCAAGCCGAAACGGATGAACAGCAGGTGGATGCGGAGCCGCAAGGCGAAAATTTGCAGGACGGCGGCGCCGGGGACACAACCGATAACCGATCGTCAGATAACGGTGCCCCAACACCGCCCGCTGCCAGCGCAGATTCGTTACCGTCGGCGTCGGCAGAGGACCCGGTGGACACCTCTACAACTGCTCCTCTGGCGAACAAGGAGGACCGCGCCGTTCAGGGCGCGCCCTTTCGTCCCTAG</t>
+  </si>
+  <si>
+    <t>ATGAGCGACACCGCGACCGTCTACCCCTTCTCCGCCGTCGTCGGCCAGGACCGGCTGCGCCTGGCCCTGGTGCTCGGCGCCATCGCCCCGGAAATCGGCGGGGTGGTGATCCGCGGGGAGAAGGGCACCGCGAAGACCACCGCGGTGCGCGCCCTGGCCCCGCTGCTGCGCGGGGCGCTGGTGAACCTGCCGCTGGGCGCCACCGAGGACCGGGTGGTCGGCTCCATCGACGTGGAGACGGTGCTCACCACCGGCCGGGCCACGGTGCGCCCCGGCCTGCTCGCCGAGGCCGATGGCGGCATCCTCTACGTCGACGAGGTCAACCTGCTGCCGGACCACCTGGTCGACGTGCTGCTCGACGCCGCCGCCACCGGGCGGGTGACCATCGAGCGCGACGGGGTCTCCGAGACCCAGCACACCTCCTTCGTGCTGGTGGGCACCATGAACCCGGAGGAGGGGGAGCTGCGCCCGCAGCTGCTGGACCGCTTCGGCCTGGCCGTGGACGTCGCCGCCAGCCGGGAGCCGGCGGACCGGGTGGAGATCATCCGCCGCCGGATGGCCTTCGAGGAGTCCCCGGCGGCCTTCCGGTCCCGCTGGGCCGGGGCGGACGCCGACCTCGGCGCCCGGCTCACCCGGGCCCGGGCGGTGCTGCCGGAGGTGGTGCTCGACGATGCGGCGCTGGGCCGGATCGCGGTGCTGTGCGCCTCCTTCGACGTCGACGGGATGCGCGCGGACCTGGTGATCGCCCGGGCCGCCCGGGCGCACGCCGCCTGGCGCGCCGCCGTCGCGGACGGCCCCGCCGCCGGCGCGGTCCGGGTCGCCGACGAGGACATCCGGGTCGCCGCGGAGCTGGCGCTGCCGCACCGCCGCCGCCGGGACCCCTTCGACGAGCCGGGCCTGGACCCGGAGCAGCTCGACGAGGCGATGGACCGGGCGCGGCGGGACTTCCCCGAGGAGCCCGGGGAGCCCGAGCCCGCCGGGGCGGGGGAGGACCCCGCCGGGGAGCCGGAGGGGGCGCAGCCGCCGCCGGCGGCCGGGGACGCCGACGCCGCCCCCGAGGCGGATCCCGAGGCCGGCGCGGAGGCGCCGGGGGAGGGGGGTCGCGCCGCCCAGGGCGCCCCCTTTCGCCGTCCGGACATCCGGCTGCCCGGGGCCGGGGAGGGCCTGTCCGGGCGCCGCTCCGCCGCGCACGGGCCCCGCGGGGCCACGGTGCGCGCCATCGCCGGGGGGCACGGGGTGCACGTGCCCGGCACCGTCGCCGCCGCCGCCGGCCGCGGCGCCGTGGTCGAGGACGGCCGGCTGGCCCTCGAGACCCGGGACCTGCGCGGCGCGCTGCGCCGCGGCACCGAGTCGAACCTGGTGGTCTTCCTCGTCGACGCCTCCGGGTCGATGGCCGCCCGGGACCGGCTCTCCGCGGTCACCGGGGCGGTGACCTCCCTGCTGCGCGACGCCTACCAGAAGCGGGACACCGTGGCGGTGATCACCTTCCGCGGCCCGGGGGCGGAGGTGGCGCTGCCGGCGACCCGCTCCATCGACGCCGCGGTGCGCCGGCTCGCCCGGCTGCGCACCGGCGGGCGCACCCCCCTGGCCGAGGGCCTGGTGGAGGCGCTGCACCTGATCGAGCGGGAGCGCCGCCGCGAACCCGGCCGGCGGGCGCTGCTGGTGGTGCTCTCCGATGGCCGGGCCACCGGCCCCGGCGGCCGGGAGCGGGCCCGGGCCGCGGCGGCGGCGCTGCGCGAGCGCGGCGCCGCCGGGGCGGTGGTGGTGGACTGCGAATCCGGCCGGGTGCGGCTGGGCCTGGCCGCGGAGCTCGCCGACTCCCTCGGCGCGCCCTGCGTGCGGCTGGCCGCCCTCGACGCCGACGCGGTCGCCGGGGTGGTGCGCGCCGGGATCTGA</t>
+  </si>
+  <si>
+    <t>ATGAGCGACACCGCGACCGTCTACCCCTTCTCCGCCGTCGTCGGCCAGGACCGGCTGCGCCTGGCCCTGGTGCTCGGCGCCATCGCCCCGGAAATCGGCGGGGTGGTGATCCGCGGGGAGAAGGGCACCGCGAAGACCACCGCGGTGCGCGCCCTGGCCCCGCTGCTGCGCGGGGCGCTGGTGAACCTGCCGCTGGGCGCCACCGAGGACCGGGTGGTCGGCTCCATCGACGTGGAGACGGTGCTCACCACCGGCCGGGCCACGGTGCGCCCCGGCCTGCTCGCCGAGGCCGATGGCGGCATCCTCTACGTCGACGAGGTCAACCTGCTGCCGGACCACCTGGTCGACGTGCTGCTCGACGCCGCCGCCACCGGGCGGGTGACCATCGAGCGCGACGGGGTCTCCGAGACCCAGCACACCTCCTTCGTGCTGGTGGGCACCATGAACCCGGAGGAGGGGGAGCTGCGCCCGCAGCTGCTGGACCGCTTCGGCCTGGCCGTGGACGTCGCCGCCAGCCGGGAGCCGGCGGACCGGGTGGAGATCATCCGCCGCCGGATGGCCTTCGAGGAGTCCCCGGCGGCCTTCCGGTCCCGCTGGGCCGGGGCGGACGCCGACCTCGGCGCCCGGCTCACCCGGGCCCGGGCGGTGCTGCCGGAGGTGGTGCTCGACGATGCGGCGCTGGGCCGGATCGCGGTGCTGTGCGCCTCCTTCGACGTCGACGGGATGCGCGCGGACCTGGTGATCGCCCGGGCCGCCCGGGCGCACGCCGCCTGGCGCGCCGCCGTCGCGGACGGCCCCGCCGCCGGCGCGGTCCGGGTCGCCGACGAGGACATCCGGGTCGCCGCGGAGCTGGCGCTGCCGCACCGCCGCCGCCGGGACCCCTTCGACGAGCCGGGCCTGGACCCGGAGCAGCTCGACGAGGCGATGGACCGGGCGCGGCGGGACTTCCCCGAGGAGCCCGGGGAGCCCGAGCCCGCCGGGGCGGGGGAGGACCCCGCCGGGGAGCCGGAGGGGGCGCAGCCGCCGCCGGCGGCCGGGGACGCCGACGCCGCCCCCGAGGCGGATCCCGAGGCCGGCGCGGAGGCGCCGGGGGAGGGGGGTCGCGCCGCCCAGGGCGCCCCCTTTCGCCGTCCGTGA</t>
+  </si>
+  <si>
+    <t>ATGACTGCTTCGACCGTTCCGGGGTACCCGTTCACCGCCATCGTTGGCCAGGACGACCTGCGGCTGGCCCTGTTGCTCACTGCGATTTCGCCGGGTATTGGCGGTGTGATCGTCCGTGGTGAGAAGGGCACGGCGAAGACCACCACCGTCCGGGCCCTCGCCCCGCATCTGTCGGGGCGTTTGGTGAATCTGCCGCTGGGGGCGACGGAGGACCGAGTTGTCGGAAGCATCGATATTGAGACCGTGCTGACCACCGGTCACGCAACGGTCCAGAAGGGTCTGCTTTCTGAGGCTGACGGTGGGCTCCTGTATGTCGACGAGGTGAATCTCCTTCCGGACCACCTTGTCGATGTGCTTCTCGACGCCGCCTCCACCGGACGCATCACCATCGAACGCGACGGAGTGTCGCAGGTACAAGACACCTCATTTGTATTGGTCGGCACGATGAATCCGGAGGAAGGCGAGTTGCGCCCGCAGCTGCTGGACCGGTTTGGTCTGGCGGTAGATGTCGTTGCCTCACGGGAGCCGTCAGTGCGTGCACAGATCCTCCGCAGCCGGCTGAGCTATGAGGATGATCCTGTTGGGTTTGTGAGTAATTTCGCGGATGATGAGTCGGAACTGGGGGAGCGACTCGGCCGCGCGATGGAGCTGCTCGGCCAGATTGAACTTGACGACACGACTCTTGGGCGCATCGCGACGCTGTGCTCTGATTTCGATGTTGATGGCATGCGAGCGGATTTGGTGATTGCTCGTACAGCCCGCGCCCATGCAGCGTGGCGCATCGCCGCTGATGGCGGTGATCTGCGGATCACCGATGAGGACATCCGAATCGCGGCCTTGTTTGCCTTGCCGCACCGCCGGCGCCGCGACCCGTTCGACGAGCCAGGTATCAACGAAGATCAGCTTGACGACGCCCTGGACCACGCCCGCAACGACTTCCCCGACGAGCAGCCGGAGGATCCGGAGGAGCCGGAGTATGACGACTCTGCTGATCCGGAACAAACCGAGCAGCAGCAGACTCCCGACGGCACTGAAGCCGAGAAGGACACCTCGAGTGACGAGCAGGCTCCGACCCAGGCAGGAGGTCGCGCCGCACAGGGCGCACCCTTTCTCCGTTCGGAGTTGAAGCTTGAAGGAGCGGGCTCGGGTACTTCGGGGCGTCGTTCGGCATCGACGGGTTCTCGCGGATCGACCGTTCGGGCGAAGCGTGGAGCCTCCGGGGTTCACATTCCGGGCACTATCGTTGCTGCCGCAGAGCGTGGCGCCCAGGTGCAGACGGGCCGAGTCCCCCTTTTGTCGACCGACCTGCGCGGAGCGGAAAAGCGAGGAACTGAGTCGAATCTGGTGGTGTTCTTGGTGGACGCTTCCGGTTCGATGGCAGCCAGGGACCGCCTCTCTGCGGTAACCGGTGCGGTCACATCGTTGCTTCGCGACGCGTATCAAAAGCGCGACAAAGTCGCCGTCGTTGCCTTCCGCGGCGCGGAAGCGGACATTGTGCTGCCCCCAACGAAGTCTGTCGATATCGCGGTGAAAAGACTGGAGAACCTCACCACCGGAGGTCGAACGCCATTGGCCGAAGGGCTGGCGTCGGTGGAGGAGATTCTGGCGAGGGAGAGCAGGCGCGAGCCGGAGCGCCGGGCCATGCTGGTGGTGCTGTCCGATGGACGGGCGACCGGCAAAAATGGCCGCCTTCGCGCACGCACCGTGGCCGACTCGATCCGCCGGAAGAAGCTTGCAGGCTCGATCGTCATCGACTGTGAGAGCGGACGCGTAAAGCTTGGTCTCGCCGGGGAACTGGCGACCAGCTTGGGCGGGACTTTGGTGTCCCTCGGCTCACTCGACGCTGATTCAGTCGCCGGGGTCGTACGCGCCGGAATTTAG</t>
+  </si>
+  <si>
+    <t>ATGACTGCTTCGACCGTTCCGGGGTACCCGTTCACCGCCATCGTTGGCCAGGACGACCTGCGGCTGGCCCTGTTGCTCACTGCGATTTCGCCGGGTATTGGCGGTGTGATCGTCCGTGGTGAGAAGGGCACGGCGAAGACCACCACCGTCCGGGCCCTCGCCCCGCATCTGTCGGGGCGTTTGGTGAATCTGCCGCTGGGGGCGACGGAGGACCGAGTTGTCGGAAGCATCGATATTGAGACCGTGCTGACCACCGGTCACGCAACGGTCCAGAAGGGTCTGCTTTCTGAGGCTGACGGTGGGCTCCTGTATGTCGACGAGGTGAATCTCCTTCCGGACCACCTTGTCGATGTGCTTCTCGACGCCGCCTCCACCGGACGCATCACCATCGAACGCGACGGAGTGTCGCAGGTACAAGACACCTCATTTGTATTGGTCGGCACGATGAATCCGGAGGAAGGCGAGTTGCGCCCGCAGCTGCTGGACCGGTTTGGTCTGGCGGTAGATGTCGTTGCCTCACGGGAGCCGTCAGTGCGTGCACAGATCCTCCGCAGCCGGCTGAGCTATGAGGATGATCCTGTTGGGTTTGTGAGTAATTTCGCGGATGATGAGTCGGAACTGGGGGAGCGACTCGGCCGCGCGATGGAGCTGCTCGGCCAGATTGAACTTGACGACACGACTCTTGGGCGCATCGCGACGCTGTGCTCTGATTTCGATGTTGATGGCATGCGAGCGGATTTGGTGATTGCTCGTACAGCCCGCGCCCATGCAGCGTGGCGCATCGCCGCTGATGGCGGTGATCTGCGGATCACCGATGAGGACATCCGAATCGCGGCCTTGTTTGCCTTGCCGCACCGCCGGCGCCGCGACCCGTTCGACGAGCCAGGTATCAACGAAGATCAGCTTGACGACGCCCTGGACCACGCCCGCAACGACTTCCCCGACGAGCAGCCGGAGGATCCGGAGGAGCCGGAGTATGACGACTCTGCTGATCCGGAACAAACCGAGCAGCAGCAGACTCCCGACGGCACTGAAGCCGAGAAGGACACCTCGAGTGACGAGCAGGCTCCGACCCAGGCAGGAGGTCGCGCCGCACAGGGCGCACCCTTTCTCCGTTCGTGA</t>
+  </si>
+  <si>
+    <t>GTGTCATCCCCGAAGCGTTACCAGTATCCGTTTTCCGCCATCGTCGGCCAGGAGCAGCTCAAGCTGGCGCTGATCCTGTGTGCCATCTCGCCGAAGATCGGCGGCGTGGTCATCAGGGGGGAGAAGGGAACCGCCAAGACCACCACGGTCCGCGCCTTCGCCTCGCTCATGGGAGGCGCGCCGCTGGTCAACCTGCCAATCGGCGCGACCGAGGACCGCGTCGTCGGCGCGCTGGACTTGGAGACGGTGCTGACCACCGGCAAGGCGACCTACCGCCCGGGGCTTCTCGCGGAGGCCGACGGCGGCATCCTCTACGTCGACGAGGTCAACCTGCTGGCCGACCACTTGGTCGACGCGCTGCTCGACGCCGCCGCCACCGGCGTGGTCACCATCGAGCGTGATAGCATCTCGCACTCAGCCCCGGCCAACTTCGTGCTGGTGGGCACCATGAACCCGGAGGAGGGCGAGCTTCGCCCGCAGCTGCTCGACCGCTTCGGCCTCTCGCTCGACGTGGCGGCCTCCCGCGACATCCCGGTCCGCGCGGAGATCATGAAGCGCCGCCTGGCCTTCGACGAGGACCCGCAGACCTTCATCGCCGAGTGGGCCGAGGCGGATGCGGACGTCTCCCGCCGCCTCGCCGCGGCCTCGGCGCTTTTGCCCTCGGTGGAGCTCACCGACACCAACGTCGCCCGCATCGCGGCCGTGTGCGCCGCCTTCGACGTCGACGGCATGCGCGGCGACCTCGTCATCGCCCGCGCCGCCTGCGCCCACGCCGCCTGGCAGGGCCGAGAGGAGGTCGAGGACGAGGACATCCGCGTCGCCGCCGAGCTCGCCCTCCCGCACCGCAAGCGCCGTAACCCCTTCGACGAGCCGGGCATCGACGAGGAGCAGCTCGACGACGCCATGGATCAGGCCCGCGAGGAGTTCCCCGACGAGCCGGAGCAAGAGCCACAGGCACCGGAGTCCGAAGAGCAGCCGGAAGCCCCGGCCGCGCCGGAATCTGAAGGAGACCAGGACACCGAAGCGCCCGCAAACCCAGGAGGTCGCGCCGATCAGGGCGCCACCTTTCGCGGTGCGCAAGCTGCAACGGCTCGCACCAAGAAGGCGGGACTCGAGTCCACGCCAGGTCGGCGCTCGCCCGCCTACACCCCGCAGGGCGGGCACGTCCGGGCGATCAAGGGCGGGCACGGCCTCGACATCATGGGCACGCTCATCGCCGCGGGCGACCGCGGCGCGCAGGTGAGAAACGGCAAGATCACCTTCACTCCGGAGGACTTCCGCGGCAGCCTGCGCAAGGGGCGCGAGTCCAACCTCATCGTCTTCGTCGTCGACACCTCGGGCTCGATGGCTGCCAAGGACCGGCTCGCGGCGGTGACCGGCGCGGTGCACTCGATGCTTTCCGATGCCTACCAGCGCCGCGACAAGGTTGCCGTGATCAGCGTCCGCGGCTTGAAGCCGGAACTGGTGCTGCCGCCGACCTCATCCATCGACGTGGCCCACCGCCGCTTGGAGGACGTGCCCACCGGCGGGAAGACCCCGCTTCCCGAGGGCCTGGCGATGGCAGAGGACCTGATCAAGCGCGAGGCGCTCAAGGAGCCGGGCAGGCGCGCGATCCTCATGGTCCTAAGCGACGGGCGCGCCACCGGCAGGGGTGGGCTCGACAGCCTGCGCGCGGTGGCCAGCGACATCGCCGCCCGCGAGCTGTGCGCCAGCGTGGTCATCGACTGCGAGCGCGGCGGGCGCATCCGCCTGGGGCTGGCCAAGGAGCTGGCCAAGGGCCTGGGCGCGGTGTGTGTGGAGGTCGACCAGCTCGACGCCCGCGCGGTCACGGGTGTCATCGAGACCATCTAG</t>
+  </si>
+  <si>
+    <t>GTGTCATCCCCGAAGCGTTACCAGTATCCGTTTTCCGCCATCGTCGGCCAGGAGCAGCTCAAGCTGGCGCTGATCCTGTGTGCCATCTCGCCGAAGATCGGCGGCGTGGTCATCAGGGGGGAGAAGGGAACCGCCAAGACCACCACGGTCCGCGCCTTCGCCTCGCTCATGGGAGGCGCGCCGCTGGTCAACCTGCCAATCGGCGCGACCGAGGACCGCGTCGTCGGCGCGCTGGACTTGGAGACGGTGCTGACCACCGGCAAGGCGACCTACCGCCCGGGGCTTCTCGCGGAGGCCGACGGCGGCATCCTCTACGTCGACGAGGTCAACCTGCTGGCCGACCACTTGGTCGACGCGCTGCTCGACGCCGCCGCCACCGGCGTGGTCACCATCGAGCGTGATAGCATCTCGCACTCAGCCCCGGCCAACTTCGTGCTGGTGGGCACCATGAACCCGGAGGAGGGCGAGCTTCGCCCGCAGCTGCTCGACCGCTTCGGCCTCTCGCTCGACGTGGCGGCCTCCCGCGACATCCCGGTCCGCGCGGAGATCATGAAGCGCCGCCTGGCCTTCGACGAGGACCCGCAGACCTTCATCGCCGAGTGGGCCGAGGCGGATGCGGACGTCTCCCGCCGCCTCGCCGCGGCCTCGGCGCTTTTGCCCTCGGTGGAGCTCACCGACACCAACGTCGCCCGCATCGCGGCCGTGTGCGCCGCCTTCGACGTCGACGGCATGCGCGGCGACCTCGTCATCGCCCGCGCCGCCTGCGCCCACGCCGCCTGGCAGGGCCGAGAGGAGGTCGAGGACGAGGACATCCGCGTCGCCGCCGAGCTCGCCCTCCCGCACCGCAAGCGCCGTAACCCCTTCGACGAGCCGGGCATCGACGAGGAGCAGCTCGACGACGCCATGGATCAGGCCCGCGAGGAGTTCCCCGACGAGCCGGAGCAAGAGCCACAGGCACCGGAGTCCGAAGAGCAGCCGGAAGCCCCGGCCGCGCCGGAATCTGAAGGAGACCAGGACACCGAAGCGCCCGCAAACCCAGGAGGTCGCGCCGATCAGGGCGCCACCTTTCGCGGTGCGCAAGCTGCAACGGCTCGCACCTAA</t>
+  </si>
+  <si>
+    <t>ATGTCTGCCTTTCCGGGTTTCCCGTTTTCGGCCATCGTGGGCCAGGACCGCCTCCGTCTCGCGCTGCTGCTGACCGCCATTTCGCCGGGCATCGGCGGTGTGGTGGTGCGCGGGGAGAAGGGCACCGCGAAGACCACCGCCGTGCGTGCCCTGGGGCCGCTGCTGCCCAAGGGGGCGGTGGTCGATCTGCCGCTGGGGGCGACGGAGGATCGGGTGGTCGGTTCCATCGACGTGGAGTCGGTGCTGACGACCGGTCATGCGGAGTTCCACCCGGGCCTGCTGTCGCGCGCCGACGGGGGAGTGCTCTACGTCGACGAGGTCAATCTGCTCGCGGATCATCTGGTGGACGTGCTTCTCGACGCCGCCGCCACGGGCCGGGTCACCGTGGAGCGCGACGGGGTGTCCCATGTGGAGGAAGCGTCCTTCGTGCTGGTGGGGACCATGAACCCGGAGGAGGGCGAGCTGCGCCCGCAGCTGCTCGACCGTTTCGGCCTGGCCGTCGACGTCGCGGCGTCGCGTGACCCGGAGGTGCGGGTGGAGATCATGCGGCGCCGCCTGGCCTACGAGTCCGATCCCCGCGCCTTCGCGGCGCAGTGGGCGGAGGCCGACGGCGATCTGCGCGACCGCCTGGCCCGGGCCCGTGCGCTGGTCGGGGAGATCCCGCTGCGCGACGTGCACTTGTCCCGCATCGCTTCGCTGTGCGCCGACTTCGACGTCGACGGCATGCGTGCGGACCTGGTCATCGCGCGGACCGCCCGCGCCCATGCCGCGTGGCGCGGGGCGGCGGAGATCGATTCGGAGGACATCCGCGTCGCCGCGGAGCTCGCGTTGCCGCACCGTCGACGCCGCGACCCCTTCGATGAACCGGGCGTCGACCAGTCGGACCTCGACGAGGCCCTCGATCGCGCGGAGGACCGGTTCCCCGATGAGTCGGAGCGGCCCGAGGAAAGCGAACGGCCGGAGGGCGGGGACGTCGACCCGTCGTCAAGCGGGGAACCTGCCCCGGAACAGCCGCAGGCCCCCGCGCCGACGGGAGGTACTGCCCGCCTGGGCGATCCCTTTCGCGGCAGGACGCTGCTGCTCGACGGCGTCGGCGAAGGGGCCGACGGCCGTCGAGGGCGCGCGAAGGGACCGAGGGGCCGCGACATCCGGGCGGTGCGGAATGGCCGAGGAGTGCACGTGCCGGGCACGGTGCTCGCCGCCGCCGAGCGCGGCGCCGGCCTCGAAGACGGCATGGTCGCACTCGCCGGAGCGGACCTGCGCGGATCCGAGCGGGAGGGTCGCGAGTCGAACCTCATCGTGTTCCTGGTCGACGCCTCCGGGTCGATGGCCGCCCGTGACCGACTCGAAGCCGTGACGGGAGCCGTCCAGTCATTGCTTCGCGACGCCTACCAGCGGCGCGACCGCGTGGCGGTGGTGACTTTCCGCGGTGACGGCGCGACGGTGGAGTTGCCGCCGACGAAGTCGACGGTGGCCGCGAGTCGGCGCCTCGGCGACGTGCGCACCGGAGGTCGGACGCCGCTTGCCGCGGGGCTGGACAAGGCCCGCGAGCTGATCGAGCGGGAGCACCGCCGGGATCCGGCTCGGCGGGCGATGCTCGTGGTGCTCTCGGACGGCCGCGCGACGTCGTCCGGTGGCAGGGACGGCGCCCGGGCGGTGGCCGACGCGATTCGGCGCAGAGGACTGGCCGGTGCGATCGTCGTCGACTGCGAATCGGGGCGCGTCCGCCTGGGCCTGGCCACGGAGCTGGCCGACCACCTGGGCGCCCCGTGCCTTCGCATCGGGGAGCTCAGCTCGGACTCGGTGGCCGGCGTCGTCAGGGCGGCGGTGGCGGCGGGGTAG</t>
+  </si>
+  <si>
+    <t>ATGTCTGCCTTTCCGGGTTTCCCGTTTTCGGCCATCGTGGGCCAGGACCGCCTCCGTCTCGCGCTGCTGCTGACCGCCATTTCGCCGGGCATCGGCGGTGTGGTGGTGCGCGGGGAGAAGGGCACCGCGAAGACCACCGCCGTGCGTGCCCTGGGGCCGCTGCTGCCCAAGGGGGCGGTGGTCGATCTGCCGCTGGGGGCGACGGAGGATCGGGTGGTCGGTTCCATCGACGTGGAGTCGGTGCTGACGACCGGTCATGCGGAGTTCCACCCGGGCCTGCTGTCGCGCGCCGACGGGGGAGTGCTCTACGTCGACGAGGTCAATCTGCTCGCGGATCATCTGGTGGACGTGCTTCTCGACGCCGCCGCCACGGGCCGGGTCACCGTGGAGCGCGACGGGGTGTCCCATGTGGAGGAAGCGTCCTTCGTGCTGGTGGGGACCATGAACCCGGAGGAGGGCGAGCTGCGCCCGCAGCTGCTCGACCGTTTCGGCCTGGCCGTCGACGTCGCGGCGTCGCGTGACCCGGAGGTGCGGGTGGAGATCATGCGGCGCCGCCTGGCCTACGAGTCCGATCCCCGCGCCTTCGCGGCGCAGTGGGCGGAGGCCGACGGCGATCTGCGCGACCGCCTGGCCCGGGCCCGTGCGCTGGTCGGGGAGATCCCGCTGCGCGACGTGCACTTGTCCCGCATCGCTTCGCTGTGCGCCGACTTCGACGTCGACGGCATGCGTGCGGACCTGGTCATCGCGCGGACCGCCCGCGCCCATGCCGCGTGGCGCGGGGCGGCGGAGATCGATTCGGAGGACATCCGCGTCGCCGCGGAGCTCGCGTTGCCGCACCGTCGACGCCGCGACCCCTTCGATGAACCGGGCGTCGACCAGTCGGACCTCGACGAGGCCCTCGATCGCGCGGAGGACCGGTTCCCCGATGAGTCGGAGCGGCCCGAGGAAAGCGAACGGCCGGAGGGCGGGGACGTCGACCCGTCGTCAAGCGGGGAACCTGCCCCGGAACAGCCGCAGGCCCCCGCGCCGACGGGAGGTACTGCCCGCCTGGGCGATCCCTTTCGCGGCTAG</t>
+  </si>
+  <si>
+    <t>ATGAATGCAACCGCCCGGCTCGCCCGCATGCCATTTCCCTTCAGCGCCCTGGTCGGCCAGCAGCGCTTGCAGCAAGCGCTGCTGCTTGCCGCGGTGGACCCCGGCATCGGTGGCGTGCTGGTCAGCGGCCCGCGCGGCACGGCCAAGTCGACCGCGGCGCGGGCCCTTGCGCAATTGCTGCCCGAAGGCCAGTTCGTCACGCTGCCGCTCGGCGCCAGCGAGGAGCAACTGATCGGCACGCTCGACCTTGGCCACGTGCTTAAGCAGAGCGAGGTCCGCTTTGCCCCCGGCCTGCTGGCGCGCGCGCACCAGGGCGTGCTTTATGTGGACGAAGTCAACCTGCTGCCGGATCACCTCGTCGACCAGTTGCTGGACGTGGCCGCCAGCGGCGTCAACGTGGTGGAGCGCGACGGCGTGTCGCACCAGCACGAGGCGCGCTTCGTGCTGGTGGGCACCATGAACCCGGAAGAAGGCGAGTTGCGCCCGCAGTTGCTGGACCGTTTCGGCCTGTCGCTGGCGCTGGAGAACTGTACCGACGCCGCGCAGCGCCAGGCGATCGTCAAGGCCCGGCTCGCGTTCGACAACGATCCGGTGGCCCTGTGCACGCGCTTTGCCACCGAGCAGGATGCGCTGACGCGCAAGGTGCGGCTCGCGCGCGGCGCACTGTCCGCGCTTTCGTTCAGCGATGCCGTGCACGAGCGTGTCAGCCACCTGTGCCTGGCCGCCGCTGTCGATGGCGTGCGGGCAGACCTGGTGATGCTGCGCGCGGCGCGCGCGCTGGCCGCCTTGCAGTGCGACGCGGCGGTGGTGCCCGCGCATGTGGACACCGTGGCGGAGCTGGTCTTGCACCACCGGCGCCAGGCGCCGCCCAATGCAGGCAGGCAGGCCGATGGGCACGCTGATGGCGATGGCAACGCGAATGGCAGCGGCGATGGCGATGGCCGCAGTGCGGGCGACGCAGCCGCCAACAACCCATGGGGGGCACTCCCGCCTGCGCTGGCAAGCGCCGCGGCCGGCATTGCCCCGGTCAAGGGCGTGAGGCCGCTGCCCACAAAAAAAGCCCTGAGCCACCGGCAGGCCGCCGCCGAACCCGGGCAAGGCGGCAACCGGTGGCAAGCCCCTCGTTTTGCCGCATCTCTCGCCGCGCCGCACGGCCGCCCGGGCAGCTTGCGCATCCACTGGACACAGACGCTGGCCGCCAAGGGCAGCCAGCCGTTTGCGCCCAGCCATCTGCGCTGGCGCGCACAGCAGGCGCACGCCGGCGTGCTGCACTGCTTCGTGCTCGATTGCTCGGCCTCGATGCTGCACGGCCGCCAGCTAGCGCTGGCCAAGGGTGTGCTGCTGCGCCTGCTGCAACGCGCCTACCAGGCGCGCGCCGAGGTGGCGCTGGTGTGCTTCGCCGCCGGCCGCGCCGAAGTCCGCCTGCAGCCGGCACGCGCCCGCCCATGGAGCGAAGCCTGGATCCGCCCGATCGCCGGCGGCGGCGGCACGCCGCTCTCGCTCGGCATGGCGCGCGCCGGCCAACTGCTGGCCCACGCCGCGCGCCGGCGCCCGGCGCAACAGCGCTGGCTGTGGCTGCTCAGCGACGGCCGCAGCACGGAGCAGCCGCCGCGCCCGCCTTGGGCCGATGCGGTGATGGTGGTGGATTTCGAGCGCCAGGCGGTGGCGCTGGGGCGTTGCCGGCAGCTGGCGCGGGGGTGGGAGGGGGAATATCTGGTAGCGGATGCGTTGATGGGGTGA</t>
+  </si>
+  <si>
+    <t>ATGAATGCAACCGCCCGGCTCGCCCGCATGCCATTTCCCTTCAGCGCCCTGGTCGGCCAGCAGCGCTTGCAGCAAGCGCTGCTGCTTGCCGCGGTGGACCCCGGCATCGGTGGCGTGCTGGTCAGCGGCCCGCGCGGCACGGCCAAGTCGACCGCGGCGCGGGCCCTTGCGCAATTGCTGCCCGAAGGCCAGTTCGTCACGCTGCCGCTCGGCGCCAGCGAGGAGCAACTGATCGGCACGCTCGACCTTGGCCACGTGCTTAAGCAGAGCGAGGTCCGCTTTGCCCCCGGCCTGCTGGCGCGCGCGCACCAGGGCGTGCTTTATGTGGACGAAGTCAACCTGCTGCCGGATCACCTCGTCGACCAGTTGCTGGACGTGGCCGCCAGCGGCGTCAACGTGGTGGAGCGCGACGGCGTGTCGCACCAGCACGAGGCGCGCTTCGTGCTGGTGGGCACCATGAACCCGGAAGAAGGCGAGTTGCGCCCGCAGTTGCTGGACCGTTTCGGCCTGTCGCTGGCGCTGGAGAACTGTACCGACGCCGCGCAGCGCCAGGCGATCGTCAAGGCCCGGCTCGCGTTCGACAACGATCCGGTGGCCCTGTGCACGCGCTTTGCCACCGAGCAGGATGCGCTGACGCGCAAGGTGCGGCTCGCGCGCGGCGCACTGTCCGCGCTTTCGTTCAGCGATGCCGTGCACGAGCGTGTCAGCCACCTGTGCCTGGCCGCCGCTGTCGATGGCGTGCGGGCAGACCTGGTGATGCTGCGCGCGGCGCGCGCGCTGGCCGCCTTGCAGTGCGACGCGGCGGTGGTGCCCGCGCATGTGGACACCGTGGCGGAGCTGGTCTTGCACCACCGGCGCCAGGCGCCGCCCAATGCAGGCAGGCAGGCCGATGGGCACGCTGATGGCGATGGCAACGCGAATGGCAGCGGCGATGGCGATGGCCGCAGTGCGGGCGACGCAGCCGCCAACAACCCATGGGGGGCACTCCCGCCTGCGCTGGCAAGCGCCGCGGCCGGCATTGCCCCGGTCAAGGGCGTGAGGCCGCTGCCCACAAAAAAAGCCTGA</t>
+  </si>
+  <si>
+    <t>ATGACGAAAACGGCATTGCGCCCGATATTTCCATTCAGTGCCCTGGTGGGCCAGGACGCGCTTCAGCAGGCATTGCTGCTGGCCGCCATCGATCCGGGCATCGGCGGCGTGCTGGTGACGGGGCCGCGCGGCACGGCAAAATCGACCGCCGCGCGCGCGCTGGCAGAGCTGCTGCCGCACGGGCGCTTCGTGACCCTGCCACTCGGCGCCAGCGAGGAACAACTGACCGGCACGCTCGATCTGGGACATGTGCTGCAACAGGGCGAAGTGCGGTTCCAGCCGGGCCTGCTGGCGCGTGCGCACGACGGCGTGCTGTACGTCGACGAGGTGAACCTGCTGCCCGATCCGCTGGTGGACCAGTTGCTCGACGTGGCGGCCAGCGGCGTCAATGTGGTGGAGCGCGATGGCGTGTCGCATCAGCATCCGGCGCGATTCGTGCTGGTAGGCACCATGAATCCGGAAGAAGGCGAGTTGCGTCCGCAATTGCTCGATCGCTTCGGGCTGGCGCTGGCGCTATCGAACTACGACGACCCGGCGGTGCGGCAGGCGATCGTGCGGGCACGGCTGGACTTCGATACCGATCCCGATGCGTTCCGCGCTGCCGTGGCGGAACGTCAGCGCGATCTGGCGCGGCAGGTGGCGCGCGCGCGTGAAGCGCTTGCGGGCCTGGCGTTCAGCGATGCAGTGCACGATCGTGTCAGCGCGCTGTGCCTGGCCGCCGATGTCGATGGCGTGCGCGCCGATCTGGTGATGCTGCGCGCGGCGCGTGCGCTGGCGGCATGGCGCGGCGACCCCGCTGTGTGCGCCGATCATGTCGATGCGGTGGCAGAGCTGGTGCTGCACCATCGACGTCACGCGCACGGCGAGACGTCGCAGCCAAGGCAAGACGCGCAGTCCGCACCGTCGAAGGGTGGGCCGGCGCCGTCGTATGGCGAGCAGGGAGGGCAGGACGGTCCGGCGCCCGATCATCGCCAGAGCGCCGACCCATGGGGTGCGCTTCCGCCGCCGCAGACCGCCGGCATTGCCGACGTCAAACCGCTGAAACCGTTCCATATCGGGAATCGCACCGCAAAAAAAGCCCTGAGCCACCGGCGCGCCGCCGCGCAGCAGCGGCAGGGCGGCCACCGGTGGCAGGCGCCCCGGCTCGTATCGAAGGGTTCCGTGTCGCATGACGGCGCACCGGGCGCGCGCGTGCACTGGCCGCGCACGCTGGCCGCCAAGCGCGACCGGGCGCTGGCCGCGCCTCATCTGCGCTATCGCCATGTGTCGGCGCGCGGCGGCGAACTGCACTGCATCGTGCTCGATTGTTCTGCATCGATGCTGCAAGGCGACCAGCTGGCGCTGGCCAAGGGCGTACTCGTGCGCCTGATCGAACGCGCCTATCAGGCGCGCGCCGATGTTGCGCTGGTGTGTTTCGCGGCCGGGCAGGCGGAAGTCCGTCTGGCGCCGTCGCGCGCGCGGCGCTGGAACGACGACTGGATCCGCCCGATCGCCGGCGGTGGCGGCACGCCCCTCGCGCTTGGTGCGGCGCGCGCGGACCAGTTGCTCGCGCGCCAGGCTCGGCTGCGTCCCGCGCAGCGCCGCTGGCTCTGGCTGCTCAGCGACGGCCGCACCACCGAAACGCCGTCCCGGCCCGCGTGGGCCGACCATATCGTGGTGGTCGACGTCGAGCGCCAGGCCCTGGCGCTGGGCCGCTGCCAGCAACTGGCGCAGGGCTGGGACGCCGAATACCGCAGCGCCGAAACGCTGACGCTCTGA</t>
+  </si>
+  <si>
+    <t>ATGACGAAAACGGCATTGCGCCCGATATTTCCATTCAGTGCCCTGGTGGGCCAGGACGCGCTTCAGCAGGCATTGCTGCTGGCCGCCATCGATCCGGGCATCGGCGGCGTGCTGGTGACGGGGCCGCGCGGCACGGCAAAATCGACCGCCGCGCGCGCGCTGGCAGAGCTGCTGCCGCACGGGCGCTTCGTGACCCTGCCACTCGGCGCCAGCGAGGAACAACTGACCGGCACGCTCGATCTGGGACATGTGCTGCAACAGGGCGAAGTGCGGTTCCAGCCGGGCCTGCTGGCGCGTGCGCACGACGGCGTGCTGTACGTCGACGAGGTGAACCTGCTGCCCGATCCGCTGGTGGACCAGTTGCTCGACGTGGCGGCCAGCGGCGTCAATGTGGTGGAGCGCGATGGCGTGTCGCATCAGCATCCGGCGCGATTCGTGCTGGTAGGCACCATGAATCCGGAAGAAGGCGAGTTGCGTCCGCAATTGCTCGATCGCTTCGGGCTGGCGCTGGCGCTATCGAACTACGACGACCCGGCGGTGCGGCAGGCGATCGTGCGGGCACGGCTGGACTTCGATACCGATCCCGATGCGTTCCGCGCTGCCGTGGCGGAACGTCAGCGCGATCTGGCGCGGCAGGTGGCGCGCGCGCGTGAAGCGCTTGCGGGCCTGGCGTTCAGCGATGCAGTGCACGATCGTGTCAGCGCGCTGTGCCTGGCCGCCGATGTCGATGGCGTGCGCGCCGATCTGGTGATGCTGCGCGCGGCGCGTGCGCTGGCGGCATGGCGCGGCGACCCCGCTGTGTGCGCCGATCATGTCGATGCGGTGGCAGAGCTGGTGCTGCACCATCGACGTCACGCGCACGGCGAGACGTCGCAGCCAAGGCAAGACGCGCAGTCCGCACCGTCGAAGGGTGGGCCGGCGCCGTCGTATGGCGAGCAGGGAGGGCAGGACGGTCCGGCGCCCGATCATCGCCAGAGCGCCGACCCATGGGGTGCGCTTCCGCCGCCGCAGACCGCCGGCATTGCCGACGTCAAACCGCTGAAACCGTTCCATATCGGGAATCGCACCGCAAAAAAAGCCTGA</t>
+  </si>
+  <si>
+    <t>ATGCCCCACAGCCACGTGTTTCCGTTCTCGGCCCTGGTCGGCCAGGAGCGCATGAAGCTCGCCCTCGTGCTCAACGTGATCGACCCCACGATCGACGGGGTGCTGATCCGGGGCGAGAAGGGAACGGCCAAGTCCACGGCCGTGCGCGCCCTGGCGCAGCTCCTGCCGGAGATCCCGGTGGTGGCCGATTGCCCCTTCTCGTGCCACCCCACCCGGCCGGAGGAGATGTGCGAGCGCTGCCGGCAGCGCCGCAAGGCCGGAGAGAGCCTCCCCGCGCTCCGAAGGCCCATGGCCGTGCTGGACCTGCCGGTGGGCGCCACCGAGGACCGGGTGGTGGGGTCGATCGACATCGAGCGGGCCCTCAAGACGGGGGAGAAGGCCTTCGAGCCCGGCGTGCTCGCCCGGGTGAACCGGGGCATCCTCTACGTGGACGAGGTGAACCTGCTCGACGACCACATCGTGGACGTGCTCCTGGACGCCGCCGCCATGGGCGTGAACCACGTGGAGCGAGAGGGCGTGTCGATCCGGCACCCGGCCCGCTTCGTGCTGGTGGGCACCATGAACCCCGAGGAGGGGGAGCTCCGGCCCCAGCTCCTCGACCGGTTCGGCCTGTGCGTGGAGGTGGTGGGCATCCGGGACCCCAAGGATCGGGTCCAGGTGATCCGCCGGCGCCAGGCCTACGAGGCCGATCCCGAAGGGTTCCGGCGGGAGTGGTCCGAGGCCGACGCCCGGGTGCGGCAGGCCCTGGTGCGCGCCAAGGAGCTCCTGCCCCGGGTGGAGGTGACCGACGACGACCTGGAGGTGATCGCCACCCTGAGCGTGGACCTGGGGGTGGACGGCCACCGGGCCGATCTGGCCCTGCTCAAGGCCTGCCGGGCGCTCGCGGCGTACCGGGGTCGCACCCGGGTCACCGACGACGACATCGCCGAGGCCGCGGGCCTCGTGTACGCCCACCGGCTCAAAAGGACTCCGTTCGAGGAGCGGATCCTCTCGGAGGAGGAGGTGGTCTCCTCCATCCAGCGCACCCGCGAGGCCCAGAAGGCTCCGAAGCACAACCCTCCCCGTAAAAAAAAAGAGCCCACCCTGAGCCCCCAGAAGAAGGCCGGCGACCGGTTGGTGCTGGAGCACCGGGTGTACGCCCCCACCGGCCGGTTTCGGGTCCGGGGAACCCTGGTGAACCGAGCGGTCCAGAAGCACCTGGCCCGGGGCCGCAGGGTCCGCAACCGCATGGCGCCCGACGCCGGCCGGTACATCCGGGCCCGGATCCCCCGCCGCAAACCCCGGGCACTCGCCGTGGACGCCACGCTCCGGGCCGCCGCGCCCGAGCAGGTGCGGCGCCGGGCCATGGGCCTCGCCCCTGCCCGCGGCATCGCCGTGCTCCCGTCGGACCTCCGGGAGAAGGTGCGCACCCGGCGCTCCGGGGTGAGCCTTCTGTTTGCCGTGGACGCGTCGGGATCCATGGGCGTCGAGGAGGTCATGGCCACGGCCAAGGGCATCGTGCTCACGCTCCTCACCGACGCCTACCAGAAGCGCGACCGGGTGGGGCTCTTGGCGTTCCGGGGCACGGAGGCGCGGCTGGTGCTGCCCTTCACCACGAGCGTGGCCCAGGCGCAGCAACGCCTCCGGGACCTCCCCACCGGCGGAAAGTCGCCCCTCGCCCTCGCCCTCGCCAAGAGCCTCGAGGCGTTCCACCGGGAGCTCACGAAGCACCCGGGCCGGTTGCCGCTCCTGGTGCTCCTCACCGACGGCAAGGCGAACATCAGCATGGCGGGCCGGGAACCGTTCGAGGAGGCGCTCGATCAGGCCCGCCGCATCCGCCACGCCGGCATCCGCAGCCTGGTGGTCGACACCGACCTGACCTGGATCCACTCCTACGCCTACGCCCGGGTGCTGGCCGAGGCCATGGGCGCCCGCTGCCTGGGCATCCGCGACCTGGAGCTGGGGCAGGTGATCGATTTCATGGGGCTGGGAGGCGGGGAGGCTGGGAGGCGGGGAGGCTAA</t>
+  </si>
+  <si>
+    <t>ATGCCCCACAGCCACGTGTTTCCGTTCTCGGCCCTGGTCGGCCAGGAGCGCATGAAGCTCGCCCTCGTGCTCAACGTGATCGACCCCACGATCGACGGGGTGCTGATCCGGGGCGAGAAGGGAACGGCCAAGTCCACGGCCGTGCGCGCCCTGGCGCAGCTCCTGCCGGAGATCCCGGTGGTGGCCGATTGCCCCTTCTCGTGCCACCCCACCCGGCCGGAGGAGATGTGCGAGCGCTGCCGGCAGCGCCGCAAGGCCGGAGAGAGCCTCCCCGCGCTCCGAAGGCCCATGGCCGTGCTGGACCTGCCGGTGGGCGCCACCGAGGACCGGGTGGTGGGGTCGATCGACATCGAGCGGGCCCTCAAGACGGGGGAGAAGGCCTTCGAGCCCGGCGTGCTCGCCCGGGTGAACCGGGGCATCCTCTACGTGGACGAGGTGAACCTGCTCGACGACCACATCGTGGACGTGCTCCTGGACGCCGCCGCCATGGGCGTGAACCACGTGGAGCGAGAGGGCGTGTCGATCCGGCACCCGGCCCGCTTCGTGCTGGTGGGCACCATGAACCCCGAGGAGGGGGAGCTCCGGCCCCAGCTCCTCGACCGGTTCGGCCTGTGCGTGGAGGTGGTGGGCATCCGGGACCCCAAGGATCGGGTCCAGGTGATCCGCCGGCGCCAGGCCTACGAGGCCGATCCCGAAGGGTTCCGGCGGGAGTGGTCCGAGGCCGACGCCCGGGTGCGGCAGGCCCTGGTGCGCGCCAAGGAGCTCCTGCCCCGGGTGGAGGTGACCGACGACGACCTGGAGGTGATCGCCACCCTGAGCGTGGACCTGGGGGTGGACGGCCACCGGGCCGATCTGGCCCTGCTCAAGGCCTGCCGGGCGCTCGCGGCGTACCGGGGTCGCACCCGGGTCACCGACGACGACATCGCCGAGGCCGCGGGCCTCGTGTACGCCCACCGGCTCAAAAGGACTCCGTTCGAGGAGCGGATCCTCTCGGAGGAGGAGGTGGTCTCCTCCATCCAGCGCACCCGCGAGGCCCAGAAGGCTCCGAAGCACAACCCTCCCCGTAAAAAAAAAGAGCCCACCTGA</t>
+  </si>
+  <si>
+    <t>ATGACCGCATCTCCTGACCTGGGCAGCGGCGCCCAGCCCGCGCTGCCGCCGCTGTTTCCCTTTGCCGCCATTGCCGGCCAGCCCCTGCTGTGCCAGGCGCTGCTGCTGGCCGCCATTGACCCGCAACTGGGCGGCGTGCTGATCGAGGGGCCGCGCGGCACGGCCAAGTCCACGGCCGCGCGCGCGCTGGCCGAGCTCATCGATGCCGCGCCCTTCGTCACGCTGCCGCTGGGCGCCTCGCTGGAGCATCTGGCCGGCTCGCTGGACCTGGGCCAGGCCATGGCCGGCCATGCACTCAAATTCGCGCCCGGCCTGCTGGCGCGCGCCCATGGCGGCGTGCTCTATGTGGACGAGATCAACCTGCTGCCCGATGCCCTGGTCGATGTGCTGCTGGATGCCGCTGCCAGCGGCGTCAACGTGGTCGAGCGCGACGGCATCTCGCACCGCCACGCGGCGCGCTTCGTGCTGGTGGGCACCATGAACCCCGAGGAAGGCCAGCTGCGCCCGCAGCTGCTGGACCGCCTGGGCCTGTGCGTGCGCCTGGCCAATGTGCAGGACCCGGCCCAGCGCCAGGCCATCGTGCGCGCGCGGCTGCTGTTCGATGCCGACCCGGCCGCCTTCCGCGCCCGCCATGCAGACGCCCAGGCCGCGCTGGCCGCGCAGCTGCGCACGGCACGCGAGCGCCTGCAGCCGGCCGGCGCGCTGCCCTGGTCCGACGCGGTGCTGCAGGCCGCAGGCGCACTGTGCATTGCCGCCCAGGTGGACGGCCTGCGCGCCGACCTGGTGCTGCTGCGCGCCGCCCGCGCCTGGGCCGCCTGGCTGGGCGACGCCGAGGTCACGCCCGAACATGTGCAGGCCGTGGCCGAGCTGGTGCTGGTGCACCGCCGCAAGCCGGGGGCGCCGCAGCCGCAGCCACAGTCGCAGCCGCAGCCGCAGCAGCCATCCCCACAGCAGGCGCCATCGAATCCGCCTTCGAAGTCGCCGGCACAAAGCCGGCCGCCTGCAGAATCCACGGCCAACGGCGCAGGCGACAGCCCGCCCTCCGAGGCCGACTGGGGCGCCATGCCGCCCGAGCCCGTGGGCCTGCTGCGTGTCGCCGTGCCCTCATTGCTGGCCCGCGAGGCCGCAAAGGTGGGAGCGCCCCGCCACAAAAAAAGCCTGAGCCCCCGCGGCCCCGCGCCACAGGCAAGGGCTGCGGGGGCGGGCCAGCAGGCGACCGGCCAGCCCCGGCTGGCCCAGGCGCAAGGCGGGCAGACCACCGGCAGCTGGGACTGGCCGCGCACGCTGGCCGCGCGCGGCGCCCAGGCGCTGGCCCCCGAACATCTGCAGCGCCGCCGCGAGCCGCCGCAGGCCACGCGGCTGCATTGCTTTGTGCTCGATTGCTCGGCCTCCATGGCTGGCAGTGGCGCACTGGCGCGGGCCAAGGGCGTGCTGCTGTCGCTGATGGAAGAGGCCTACCGCCGCCGCGAGCAGGTGGCGCTGATCTGCTTTGCGGGCACGCGCGTGGAATTGAGCCTGCCGCCGCGCAAGGCTGCGGCCTGGAATGACGACTGGATCGCTCCCATTGGCGGGGGCGGCGGTACGCCGCTGCAGGCGGCCGTGGAGCAGGCGGGCCAGTTGCTGCAGCGCCATTGCGGCGCAGACGCCTCCTGCCAGGGCTGGCTGTGGCTGCTCACCGATGGCCGCACGCGCGAGCGGCCTGCGCGGCCTGCGGCGGCGCAGGAGGCAGGCATCGTGGACTTTGAATCAGGCCGCGTGCGCCTGGGCCGGGCCGCTGCGCTGGCTGCCGCCTGGGACGCACGCCATGTGCGGGCCGATGATTTCGCAGGCTGA</t>
+  </si>
+  <si>
+    <t>ATGACCGCATCTCCTGACCTGGGCAGCGGCGCCCAGCCCGCGCTGCCGCCGCTGTTTCCCTTTGCCGCCATTGCCGGCCAGCCCCTGCTGTGCCAGGCGCTGCTGCTGGCCGCCATTGACCCGCAACTGGGCGGCGTGCTGATCGAGGGGCCGCGCGGCACGGCCAAGTCCACGGCCGCGCGCGCGCTGGCCGAGCTCATCGATGCCGCGCCCTTCGTCACGCTGCCGCTGGGCGCCTCGCTGGAGCATCTGGCCGGCTCGCTGGACCTGGGCCAGGCCATGGCCGGCCATGCACTCAAATTCGCGCCCGGCCTGCTGGCGCGCGCCCATGGCGGCGTGCTCTATGTGGACGAGATCAACCTGCTGCCCGATGCCCTGGTCGATGTGCTGCTGGATGCCGCTGCCAGCGGCGTCAACGTGGTCGAGCGCGACGGCATCTCGCACCGCCACGCGGCGCGCTTCGTGCTGGTGGGCACCATGAACCCCGAGGAAGGCCAGCTGCGCCCGCAGCTGCTGGACCGCCTGGGCCTGTGCGTGCGCCTGGCCAATGTGCAGGACCCGGCCCAGCGCCAGGCCATCGTGCGCGCGCGGCTGCTGTTCGATGCCGACCCGGCCGCCTTCCGCGCCCGCCATGCAGACGCCCAGGCCGCGCTGGCCGCGCAGCTGCGCACGGCACGCGAGCGCCTGCAGCCGGCCGGCGCGCTGCCCTGGTCCGACGCGGTGCTGCAGGCCGCAGGCGCACTGTGCATTGCCGCCCAGGTGGACGGCCTGCGCGCCGACCTGGTGCTGCTGCGCGCCGCCCGCGCCTGGGCCGCCTGGCTGGGCGACGCCGAGGTCACGCCCGAACATGTGCAGGCCGTGGCCGAGCTGGTGCTGGTGCACCGCCGCAAGCCGGGGGCGCCGCAGCCGCAGCCACAGTCGCAGCCGCAGCCGCAGCAGCCATCCCCACAGCAGGCGCCATCGAATCCGCCTTCGAAGTCGCCGGCACAAAGCCGGCCGCCTGCAGAATCCACGGCCAACGGCGCAGGCGACAGCCCGCCCTCCGAGGCCGACTGGGGCGCCATGCCGCCCGAGCCCGTGGGCCTGCTGCGTGTCGCCGTGCCCTCATTGCTGGCCCGCGAGGCCGCAAAGGTGGGAGCGCCCGCCACAAAAAAAGCCTGA</t>
+  </si>
+  <si>
+    <t>ATGATAGATATAAAATTTAGAAATATCATTCCATTTGCTGCGCTAGTCAATCAAGAAAGAATGAAAAAAGCTCTCATTCTAAATATCATTAATCCACAGCTTGGAGGGGTATTGCTTCGTGGTGAGAAGGGTACGGGCAAGTCAACTGCTGTCAGGGCCCTCGCGCATCTGCTGCCAGAAATTTCTGTAGTCAGGGATTGCCCCTATAGTTGCGATCCATTTGATGAGGAAAATTTGTGCTTAATCTGCCGTCAAAAACAATTGCAGGGAGAGAAATTAGCTGCTGAAAAGCGAAAAATTCGAGTTGTAAATCTCCCATTAGGAGTGACTGAAGACAGATTATTAGGATCAATAGACATTGAAAAGGCTTTGAGAGAGGGTATCAAGGCTCTTCAACCCGGAATTTTAGCCAATGCCAACAGGGGCATACTCTACGTGGACGAAGTTAACCTTTTGGATGACACAATAGCGGACACATTGTTGGATTCAGCGGCGATGGGCGTCAATGTTATAGAGCGGGAAGGCTTATCTCTTTATCACCCTGCTAAATTTATTTTAATAGCATCAATGAACCCGGAAGAAGGTGAGTTACGGCCACAACTTTTAGATAGATTTGGCTTATATGTTGAAGTCAAAAGCCTTACAGACCGCGATCAGCGATTCCAGATAGCACTATTGGTAAATATGTTCGAAACAAAAGCTGATGAGTGTAAAAAAATGTATGAAACGCAGCAGCATCAAATTTTAACAAGTATGGTAACAGCAAGAAATAAAATCGCATTAGTCAAGATTGACGAAAAACTAATTGAATTTTGTGCCTACCTGGCTTCCTCGTTAGACATAAAAACTCACCGCGCAGAAGTCAATTTAGTAAGAGCATCACGAACGATTGCAACTTATAACGGACGCTTAGAAGTGATTATGGATGACATTAAGGAAGCGGCTGATCTTGTTTTACCACACAGGATGCAGGTCAAGCCATTTGAAGAACCTCTATTGGATGAAGCTTTGTTGAACAAGAAAATGGCGGATGTGGAACAGGTCTTGGGGTTATCTGCGATTGAAAAAAGTTCAGTTCTCAAAAGAAAACCAGAGATACAGAAAAGCGAGAATGAAATAAGTGATATTCCAGTTGTAAATGAAGGTGAAATATTTAAGGTGGGCGCCTTATATGCTGCAAAACCATGGGATAAGCTCAAGCAAAAAAAAAAGGTAGTCCGTGCTAGAACAGGAGCTAGAGGAAAAGCATTTGCAGATAACGGTGTCCGTCATATCGGGAGTAAGCTACCTTCAATTAAATTACAAAATTTAGATTTTATTGCGACGATACGTGCCGCGACCCCGTACCAAAAGGAAAGAGAAGGTGGCGAAAACGCTGATACACTTATCATTAAAATGGAAGACATAAGGGAAAAAGCAAGAAAGAAGATGCTTCCTTTTGCGACTGTTTTAGTTATTGATTCAAGTGGATCGATTAGTCAAGAGAAAATGGAGCGATTAAAAGGTGCTGCTCTATCTTTTATTAGGGAAGGCTACCTTAAGCGCGATAAGATCGGCTTAATAACTTTTAGAAACCATCGAGCAGAGCAATTAATGCCAATTTGTTCAAGAGCATATTCAAAACAGGCGGAAAGATACATAGAGGGTCTGCCTTCTGGTGGTGGTACGCCTTTGGCTTCTGGTTTAATCGAAGCTCTTCACCTTTTAGTAAATGAAAAAAGGAAGTGTAAAGGAGTAATTCCCATCATCATGTTATTGTCTGATGGTAAAGCAAATATTCCGACCAGCAATAAAAGACCTGTTTTTGATGAAATAAAATTAATTCTTAAAAAACTATCATGGGAAAAGGTTTTTCTGATTTTTGTCGATACTGATTTGGATGATGATATGGGTGTATCTAATACAAGTTATGCGACAATACGCAATCTATTAAAACGCGAAGCATGGCTGTCACTTTCAATATACAATTACGAAGGGTAG</t>
+  </si>
+  <si>
+    <t>ATGATAGATATAAAATTTAGAAATATCATTCCATTTGCTGCGCTAGTCAATCAAGAAAGAATGAAAAAAGCTCTCATTCTAAATATCATTAATCCACAGCTTGGAGGGGTATTGCTTCGTGGTGAGAAGGGTACGGGCAAGTCAACTGCTGTCAGGGCCCTCGCGCATCTGCTGCCAGAAATTTCTGTAGTCAGGGATTGCCCCTATAGTTGCGATCCATTTGATGAGGAAAATTTGTGCTTAATCTGCCGTCAAAAACAATTGCAGGGAGAGAAATTAGCTGCTGAAAAGCGAAAAATTCGAGTTGTAAATCTCCCATTAGGAGTGACTGAAGACAGATTATTAGGATCAATAGACATTGAAAAGGCTTTGAGAGAGGGTATCAAGGCTCTTCAACCCGGAATTTTAGCCAATGCCAACAGGGGCATACTCTACGTGGACGAAGTTAACCTTTTGGATGACACAATAGCGGACACATTGTTGGATTCAGCGGCGATGGGCGTCAATGTTATAGAGCGGGAAGGCTTATCTCTTTATCACCCTGCTAAATTTATTTTAATAGCATCAATGAACCCGGAAGAAGGTGAGTTACGGCCACAACTTTTAGATAGATTTGGCTTATATGTTGAAGTCAAAAGCCTTACAGACCGCGATCAGCGATTCCAGATAGCACTATTGGTAAATATGTTCGAAACAAAAGCTGATGAGTGTAAAAAAATGTATGAAACGCAGCAGCATCAAATTTTAACAAGTATGGTAACAGCAAGAAATAAAATCGCATTAGTCAAGATTGACGAAAAACTAATTGAATTTTGTGCCTACCTGGCTTCCTCGTTAGACATAAAAACTCACCGCGCAGAAGTCAATTTAGTAAGAGCATCACGAACGATTGCAACTTATAACGGACGCTTAGAAGTGATTATGGATGACATTAAGGAAGCGGCTGATCTTGTTTTACCACACAGGATGCAGGTCAAGCCATTTGAAGAACCTCTATTGGATGAAGCTTTGTTGAACAAGAAAATGGCGGATGTGGAACAGGTCTTGGGGTTATCTGCGATTGAAAAAAGTTCAGTTCTCAAAAGAAAACCAGAGATACAGAAAAGCGAGAATGAAATAAGTGATATTCCAGTTGTAAATGAAGGTGAAATATTTAAGGTGGGCGCCTTATATGCTGCAAAACCATGGGATAAGCTCAAGCAAAAAAAAAAGTAG</t>
+  </si>
+  <si>
+    <t>ATGCGATCACAGCCGCTGATATTTCCTTTTACCGCCTTAGTGGGCCAGGAAGATTTAAAGCTGGCCTTACTCCTCAACGCAGTCAATCCTACCATCGGCGGGGTCCTCATCCGGGGGGAGAGGGGCACCGGCAAATCTACCGCGGTGCGGGCCTTGGCGAACCTGTTGCCCGAAATAGAAGTAGTAGCCGGCTGTGTCTATGGCTGCCATCCCCAGGGTATTGACGGTCTCTGTGATGACTGCCGGAATCGCCGGGTAGCGGACAACGGCCTGCCGGTGGAACGCCGGCCGGTACCGGTAGTAACCCTGCCTTTGGGGGCGACGGAAGATCGGGTATTAGGGACATTGGATCTGGAGGCCGCCCTGCACGCCGGCCGCAGACGATTCGAACCGGGGCTGTTGGCCCGGGCTCATCGGGGCATCCTCTATATCGATGAGGTTAATCTTCTAGAGGACCACCTGGTAGACGTGCTCCTGGACGTAGCCGCCTCGGGGGTCAACGTGGTGGAGCGGGAATCGGTGTCGATCTCGCACCCGGCCCATTTTCTGTTGGTGGGTACTATGAACCCGGAAGAGGGAGAGTTGCGCCCCCAGTTGCTGGACCGTTTCGGTGTCTGTGTGGAAGTCAAGGGTATCTCAGACGCCGCGGCCAGGGGGGAGATCGTACGCCGGAGGCTGGCCTTTGAAGCCGACCCGCTCGGGTTTATCAGGGCTCAGGGGGAGAACGAAGCCGCGTTGAAACGGCGGATAGAACAGGCGAGGGCGTTGCTTCCCGAGGTGCAGGTGGGGGAAGCGGAGCTGGGTCTGGCGGTTCGCTTGGCTCTGGCCCTGGGAACCGAAGGTCACCGGGCGGACCTGACCACTATCCGGGCGGCGGCTGGCCTAGCGGCGCTGGAAGGGCGGCGGGTCATAACCCTGGCAGACGTAAAACGCTGTGCCATCTTGGCTCTGCGCCATCGCCTGGCCAGGCATCCTCTGGATGATGAAGAAATTAGTACGGACAGACTCATCGAACAGGTAGAGGCCGCGGCTCAAACCGAATCGAAACAGCCGCCCGCCCCAAGCCCAACGGAAAAAAAAAGCCCCCTGATCAGAGAGGCACCGATCTCGGACGGGGCCCAGATCTTCGCCTGTCCACCCGCATTTCAGCTGAAGCACCTGGAATTTTACTTTCCCCGCGTCTCTCAGGGTAAACGGGGCCGGAGATTAGCCAACCCCACCCAGAGCCGCCATGGCCGCTATGTCAAACCCCGCCTGCCGGATGGCGGCAAGCCGGACCTGGCCCTCGATGCCACCCTCCGGGCTGCAGCCCATCGCCACCCTGGCGTTTATACGGACGGCCCCCGCTTAACTCGAGAAGACCTGCGCTATAAACGTCGGGCCGGTAAGACTCAAGCCCTGCTGCTCCTGGTGGTGGATGCCAGCGGTTCCATGAGTGCCCAGCGCCGCATGGCTGCGGCCAAACAGATCGCCCTGTCTTTTCTGGTGCAGGCCTATCAGCGCCGGGACCGGGTCGGCCTGATTGTCTTTCACGGCGCCAGGGCCCGGATACTCCTGCCGCCTACCGGCAGTGTTGCCCTGGCCCGGAAAAAACTCCGGGTGCTGCCCACCGGCGGTAAGACTCCGCTGGCGCATGGGCTGGCATTGGCCTATCAGGTAGCTGTCCGCGAGTTGCGCCGCAGCCGGAGCCTGATTCCCATCATCGTGGTCATCTCCGATGGCAACCCCAACGTCGCCTGTTTCTCGGAAGACCCTAAGGCCGATGCCTTTAAAGCTGCTGCGGCTATTGCCCGCCGAGGGGTGCCGGCCCTCTTCGTCGACACCAACACCAACTTTATGGAACACGGTCTGGGCCTGGCCCTGGCCCGAGCGCTGCACTGCCCCTATGAACGCTTTGAGACCCTGGCGGCGGGATTGGGGCTGTCGCATCTGTTGGCCAGATCCGGCCGGCAGGAGCTATTCTACTGGTCGCCGGATTGA</t>
+  </si>
+  <si>
+    <t>ATGCGATCACAGCCGCTGATATTTCCTTTTACCGCCTTAGTGGGCCAGGAAGATTTAAAGCTGGCCTTACTCCTCAACGCAGTCAATCCTACCATCGGCGGGGTCCTCATCCGGGGGGAGAGGGGCACCGGCAAATCTACCGCGGTGCGGGCCTTGGCGAACCTGTTGCCCGAAATAGAAGTAGTAGCCGGCTGTGTCTATGGCTGCCATCCCCAGGGTATTGACGGTCTCTGTGATGACTGCCGGAATCGCCGGGTAGCGGACAACGGCCTGCCGGTGGAACGCCGGCCGGTACCGGTAGTAACCCTGCCTTTGGGGGCGACGGAAGATCGGGTATTAGGGACATTGGATCTGGAGGCCGCCCTGCACGCCGGCCGCAGACGATTCGAACCGGGGCTGTTGGCCCGGGCTCATCGGGGCATCCTCTATATCGATGAGGTTAATCTTCTAGAGGACCACCTGGTAGACGTGCTCCTGGACGTAGCCGCCTCGGGGGTCAACGTGGTGGAGCGGGAATCGGTGTCGATCTCGCACCCGGCCCATTTTCTGTTGGTGGGTACTATGAACCCGGAAGAGGGAGAGTTGCGCCCCCAGTTGCTGGACCGTTTCGGTGTCTGTGTGGAAGTCAAGGGTATCTCAGACGCCGCGGCCAGGGGGGAGATCGTACGCCGGAGGCTGGCCTTTGAAGCCGACCCGCTCGGGTTTATCAGGGCTCAGGGGGAGAACGAAGCCGCGTTGAAACGGCGGATAGAACAGGCGAGGGCGTTGCTTCCCGAGGTGCAGGTGGGGGAAGCGGAGCTGGGTCTGGCGGTTCGCTTGGCTCTGGCCCTGGGAACCGAAGGTCACCGGGCGGACCTGACCACTATCCGGGCGGCGGCTGGCCTAGCGGCGCTGGAAGGGCGGCGGGTCATAACCCTGGCAGACGTAAAACGCTGTGCCATCTTGGCTCTGCGCCATCGCCTGGCCAGGCATCCTCTGGATGATGAAGAAATTAGTACGGACAGACTCATCGAACAGGTAGAGGCCGCGGCTCAAACCGAATCGAAACAGCCGCCCGCCCCAAGCCCAACGGAAAAAAAAAGCCCCTGA</t>
+  </si>
+  <si>
+    <t>ATGAAACGATCCGTATTTCCTTTTACCGCTCTGGTCGGCCAGGAAAAAATGAAGACCGCGCTGCTGCTCAATGCTGTCGATCCCGCCATCGGTGGAGTGCTGATCAGCGGCCAGAAAGGCACCGGTAAGTCGACGGCGGTCCGGGCGCTTGCTCATATCCTGCCGCAGATCGACGTCGTCCAAGGCTGTCCCTACAATTGCGATCCGGCGGACGAACGGATGATGTGTCCGTCTTGTCGCGAGCGTTTTCGGCCCGGCGAATCGTTGCCGACGGTGTCCAGGCCGATGCCGCTGGTCGAGTTGCCGCTGTCGGCCACTGAGGACCGGGTGATCGGCACCCTGCACGTCGAGCAGATCCTGGCCACCGGTGAGCGGCGCTTCGAGCCGGGATTGCTGGCTGCCGCAAATCGCGGCATTCTCTATGTCGACGAAGTGAACCTGCTCGATGATCACCTGGTCGATATCCTGCTCGACGCGGCGGCATCCGGCGTCAATCTGGTGGAGCGGGAGGGAATTTCCTTTGTCCATCCGGCCCGCTTTATGCTCGTCGGCACGATGAATCCGGAGGAGGGCGAGCTACGGCCGCAGTTTCTCGATCGTTTCGGTCTGAGCCTGACGGTGGCTGGCGAAAGCGAGGCAATGCAACGACGTCGGGTGGTCAGCCGCCGGATCGCTTTTGATCTCGATCCGGAGGGATTTGTTGCCGGCTACGCCGATGATGAAGAGCTGCTGACCGCCCTGGTTGACCGGGCCCGTGCACGGTTGCCGCAGGTCATGGTCTCCGACGAGATGCTCGGCCGGGCCGTGGCGCTGGCGCAGGAGGTCAAGGCCCAGGGGCATCGTGCCGATATCGGCATCGTCAAGACGGCGCGGGCGCTGGCAGCATTTCTTGAAGAAGACGAGGTCCGGTTCGACCATATCCGCGACGCGGCCCGTTTTGTGCTGCCGCACCGGATCACCACGGTGGCACTGGCCACCGCCGAGCAGATCGAGGAAAAACTCGAAGAGGCGCTCCGGCGGGTAGCCGATGACCGGGAGACCGCCGACGATGTGCAGCCCTCGACCGGCCAGATTGAGGAATGGGAGGACCTGCCGATGCAGGTGCCCGGTTCGATGGCCGCCTCGAATGTCGGCATGCTCTTTACCTTCCTTGCCGAAAAAAAAAAGTCGTTTTCGACGCGGATGAATTTGACCTGTCTCGCCGATGTCGATCTTGACGGGATGGTGCTGGCCGGCGGTGGCCGCGGCCGCGCCAAAACGGCCACGGTAACCGGCTCGGCCGGCCGATACACCCGGGCCGAACCGGTGGGGGAGCGGGAGCGCGGTTTCGATCTGGCCGCCGACGCCACCGTCCGGGCGGCGCTGCTCAGGCAGCAGGGGCTGACTGCAGATGGCAGACTGACCCTGACGCCGGGCGATCTGCGCAAGAAAATCTACCGGCGCCCGCGCCGGACCCTGGTGGTCTTTGTCGTCGACTCTTCCGACTCGATGGGGGACGACGGGACGTCCAATCGGATCAGGGCCGCCAAGGGGGCGGTCCTGGCCATCCTCGGCAAGGTCTACCAGAAGCGGCACCGGGTTGGACTGGTGGTCTTTCGCGAGGAATCGGCAACACTGGTCCTGCCACCGACGACCAGTCTGGCCTTGGCCCAGCGGCAGCTCAAGTCGCTGCCGACCGGCGGTGCGACCCCGTTCGCCGACGGTTTGATGAAGGCCTGGCAGCTGATCCGCACGGAGCGGTTGAAAGATCCTGAAAGCCGGCCATTATTGGTCGTTCTCTCCGACGGTGAAGCGAACGTGCCATACGATCCCGCGTGCCCTGCCGGTGAGGTTCAGAGCGAACTGTTGGCCATCGGCAGCAGGATCGGGCGGGACCGGATCGCCTCCCTGGTCATCGACACCAGGCCGCTCAGCAGTCCGGCCCCGGAGATGCGCCGACTGGCGGAAGCACTGGGCGGCACCTATGAACATATCAGCCGACTGCGCACCGGCGGCATGGTCCGGGCGGTGGTCGGTTTTTCTTGA</t>
+  </si>
+  <si>
+    <t>ATGAAACGATCCGTATTTCCTTTTACCGCTCTGGTCGGCCAGGAAAAAATGAAGACCGCGCTGCTGCTCAATGCTGTCGATCCCGCCATCGGTGGAGTGCTGATCAGCGGCCAGAAAGGCACCGGTAAGTCGACGGCGGTCCGGGCGCTTGCTCATATCCTGCCGCAGATCGACGTCGTCCAAGGCTGTCCCTACAATTGCGATCCGGCGGACGAACGGATGATGTGTCCGTCTTGTCGCGAGCGTTTTCGGCCCGGCGAATCGTTGCCGACGGTGTCCAGGCCGATGCCGCTGGTCGAGTTGCCGCTGTCGGCCACTGAGGACCGGGTGATCGGCACCCTGCACGTCGAGCAGATCCTGGCCACCGGTGAGCGGCGCTTCGAGCCGGGATTGCTGGCTGCCGCAAATCGCGGCATTCTCTATGTCGACGAAGTGAACCTGCTCGATGATCACCTGGTCGATATCCTGCTCGACGCGGCGGCATCCGGCGTCAATCTGGTGGAGCGGGAGGGAATTTCCTTTGTCCATCCGGCCCGCTTTATGCTCGTCGGCACGATGAATCCGGAGGAGGGCGAGCTACGGCCGCAGTTTCTCGATCGTTTCGGTCTGAGCCTGACGGTGGCTGGCGAAAGCGAGGCAATGCAACGACGTCGGGTGGTCAGCCGCCGGATCGCTTTTGATCTCGATCCGGAGGGATTTGTTGCCGGCTACGCCGATGATGAAGAGCTGCTGACCGCCCTGGTTGACCGGGCCCGTGCACGGTTGCCGCAGGTCATGGTCTCCGACGAGATGCTCGGCCGGGCCGTGGCGCTGGCGCAGGAGGTCAAGGCCCAGGGGCATCGTGCCGATATCGGCATCGTCAAGACGGCGCGGGCGCTGGCAGCATTTCTTGAAGAAGACGAGGTCCGGTTCGACCATATCCGCGACGCGGCCCGTTTTGTGCTGCCGCACCGGATCACCACGGTGGCACTGGCCACCGCCGAGCAGATCGAGGAAAAACTCGAAGAGGCGCTCCGGCGGGTAGCCGATGACCGGGAGACCGCCGACGATGTGCAGCCCTCGACCGGCCAGATTGAGGAATGGGAGGACCTGCCGATGCAGGTGCCCGGTTCGATGGCCGCCTCGAATGTCGGCATGCTCTTTACCTTCCTTGCCGAAAAAAAAAAGTCGTTTTCGACGCGGATGAATTGA</t>
+  </si>
+  <si>
+    <t>ATGAAACAGCATATCTATCCCTTTTCCGCAATCATCGGCCAGGAAAGGATGAAAACGGCGCTGCTGCTGAATGCCGTGGATCCGGGCATCGGCGGCGTATTGATTGCCGGAGATAAAGGTACGGGAAAATCCACGGCCGTAAGGGCCCTGGCCCGGATTTTGCCGGAAATCAAAGCGGTCCGGGATTGTCCGTATCACTGCTCACCCGATGATCCTGCAAGCTTGTGCAAAACCTGTTTGGAAAGAATCTCCAAGGGGGAAAATCTGGAAACCGACGAGTACACAATGCCGGTGGTTGAACTGCCTTTGAGCGCCACGGAAGACCGTGTCGTGGGAACCCTGCATGTGGAGCATACCCTGAAAACAGGAGAGCGGAGGTTTGAGCCGGGATTGCTTGCCGCAGCCAACCGGGGGATTCTGTATGTCGATGAAGTCAACCTTCTGGATGATCACCTGGTCGATATTTTACTCGATTCCGCCGCATCCGGCATCAATATAGTGGAAAGGGAGGGAATATCCCACAGCCATCCGGCAAAATTCATCCTGGTGGGAACCATGAATCCTGAAGAGGGGGATTTGCGGCCCCAGTTACTGGACCGGTTCGGCCTGAGCCTCACGGTCAGGGGGCTGGAGGATGTGGGGCTGCGCCGGCAGGTCGTGCAAAACCGGATCTCTTTTGACCGGGATCCAAAATTATTTTCGGAAAAATTTTCTGGATCGGAAAAGGTTCTCTCTGGTTTGATCCTTCAGTCCAAGGGCTCTTTTGATGGGATCCAAGTGCCGGATGAAATGCTTGACCTGGCTGTCCGCCTTTCCATGGAAGTGGCGGCCCACGGCCACAGGGCCGATGTGGCGATGATAAAAACAGCAAAGGCGCTGGCTTCCATGCTTGAAAAACAGGTGGTGGAAAAAGAGCATATCATTGAAGCCGCCCGATTTGTCCTGCCCCATCGCATGACCGATCTTCATCTGGCCACCCCGGAAATGCTCCGGGAAAAACTCGAGGAGGTCCTTTCTAAAGTCATGGACGGCAAAACCGCCGAGACCCCTTCCTTTGCCACGGAGGATTCAGATGACTGGGACGATATCTCCATGCAGACCCCGGGTGCAACTGCCGCGTCCAACGTGGACATGCTCTTTTCCTTTTTTGAGGAGAAAAAAAAACTGTTTTTGAAGCCGATGAGTTTAATCTGCGTCCAGGATATCGAGATGGAATCCATTGATATCCATTGTGATTCCCTAGGAAAACAGACAAAAGGCCTGATGGCCGCAAAATCGGGCAGGTACGTCAAAAGCGCTCCGGTCAAAGCCCAAGAAAGAGGCTTTCATCTTGCCTTTGACGCAACCTTGCGGGCGGCTCTTATCCGAAACGCCCAGGACGGAATAACCGGCAATACCCCCATAGAATCTCCTGACCTTCGCAAAAAAGTATTTAAACGCCCGGGACGAACTTTAATTGTTTTTCTGGTCGATTCCTCCGATTCCATGGGGGAGGGGACCTTTGTCCGGATGAGGGCGGCCAAGGGCGCAGCCCTTGCCCTGATCGCAAAGGCAGGCAAAAAACGGCACCGGGTGGGCATGGTTGCGTTCAGGGAAAAATCCGCCCAGGTAATTCTAAGGCCGACATCGAGCCTCGCTCTGGCCAGGGAACGTCTGAAAGCCCTGCCAACAGGCGGTGCCACTCCCTTTGCCGACGGATTGATGAAAGCCTGGCAGATGGTGAAAAACGAGCGGTTGAAAGACCCGGGAATCCAGCCATTGCTCGTGGTGATTTCCGACGGAGAGGCAAATGTCCCCCATGACTCCAGCCGCGGACTTTTGGAAGTGATGGATGAGCTTTTTCTGATTGCTGGGCGCATCGGCCGGGACAAGATCCATTCCATTGTCGTTGACACCAAGCCGCCCATGGAAAAATCCAGGGACATGCTTTTACTTTCAGAGGCTTTGGGAGGAGCATACCATCATATCAGCCGTTCCCATGCAAAATCTGTTGTCGAAGCGGTTAAAATGGGACCGGGTCACAACCACAGGACCTAA</t>
+  </si>
+  <si>
+    <t>ATGAAACAGCATATCTATCCCTTTTCCGCAATCATCGGCCAGGAAAGGATGAAAACGGCGCTGCTGCTGAATGCCGTGGATCCGGGCATCGGCGGCGTATTGATTGCCGGAGATAAAGGTACGGGAAAATCCACGGCCGTAAGGGCCCTGGCCCGGATTTTGCCGGAAATCAAAGCGGTCCGGGATTGTCCGTATCACTGCTCACCCGATGATCCTGCAAGCTTGTGCAAAACCTGTTTGGAAAGAATCTCCAAGGGGGAAAATCTGGAAACCGACGAGTACACAATGCCGGTGGTTGAACTGCCTTTGAGCGCCACGGAAGACCGTGTCGTGGGAACCCTGCATGTGGAGCATACCCTGAAAACAGGAGAGCGGAGGTTTGAGCCGGGATTGCTTGCCGCAGCCAACCGGGGGATTCTGTATGTCGATGAAGTCAACCTTCTGGATGATCACCTGGTCGATATTTTACTCGATTCCGCCGCATCCGGCATCAATATAGTGGAAAGGGAGGGAATATCCCACAGCCATCCGGCAAAATTCATCCTGGTGGGAACCATGAATCCTGAAGAGGGGGATTTGCGGCCCCAGTTACTGGACCGGTTCGGCCTGAGCCTCACGGTCAGGGGGCTGGAGGATGTGGGGCTGCGCCGGCAGGTCGTGCAAAACCGGATCTCTTTTGACCGGGATCCAAAATTATTTTCGGAAAAATTTTCTGGATCGGAAAAGGTTCTCTCTGGTTTGATCCTTCAGTCCAAGGGCTCTTTTGATGGGATCCAAGTGCCGGATGAAATGCTTGACCTGGCTGTCCGCCTTTCCATGGAAGTGGCGGCCCACGGCCACAGGGCCGATGTGGCGATGATAAAAACAGCAAAGGCGCTGGCTTCCATGCTTGAAAAACAGGTGGTGGAAAAAGAGCATATCATTGAAGCCGCCCGATTTGTCCTGCCCCATCGCATGACCGATCTTCATCTGGCCACCCCGGAAATGCTCCGGGAAAAACTCGAGGAGGTCCTTTCTAAAGTCATGGACGGCAAAACCGCCGAGACCCCTTCCTTTGCCACGGAGGATTCAGATGACTGGGACGATATCTCCATGCAGACCCCGGGTGCAACTGCCGCGTCCAACGTGGACATGCTCTTTTCCTTTTTTGAGGAGAAAAAAAAACTGTTTTTGAAGCCGATGAGTTAA</t>
+  </si>
+  <si>
+    <t>ATGCCCACGATCTTCTATCCCTTCTCTGCGATCCTCGGCCAGGATGCCATGAAGACCGCGCTGCTCATTAACGCCGTCGATCCGAGCATCGGCGGGGTTTTGATCCGCGGCCAGAAGGGGACCGGCAAGTCGACGGCGGCCCGGGCACTGGCGGCGCTGCTGCCGGAGATCGAGGTGGTGGACGGCTGCCCCTGTCATTGCGACCCGGACGATTCCGCGACCTCCCATGCCGAATGCGCCGAGCGCATGGCCCGGGGGGAGTCTCTGCCCCGCCTGCGCCGGCCGATGCCGGTGGTTAATCTCCCCCTGTCGGCGACCGAGGACCGGGTGGTCGGCTCCCTGCATCTGGAGCAGGCGTTGAAGACCGGCGAGCGCCGTTTCGAGCCGGGCCTGCTCGCCGCCGCCAACCGGGGGATCCTTTATGTGGACGAGGTCAATCTTCTCGCCGACCATCTCGTCGATCTGCTCCTCGATGCCGCCGCCTCGGGGATCAACCTGGTTGAACGGGAAGGGCTGCGTTATCAGCATCCGGCCCGCTTCATGCTCGTCGGCACCATGAATCCCGAAGAGGGGGAGTTGCGTCCCCAGTTTCTCGACCGTTTCGGCCTCTGCGTCGGCGCCCAGGGGCTGGAAGACACGGCCGCCCGTCGCGAGATCGTCGCCCGGCGCCTCGCTTTTGAAGCCGATGCCGCCGCTTTTCATCGGCGCTGGGAGCCCGAAGAGCGCCTGCTCGCCGACCAGGTCGTCCTGGCCCGTGAGCGCTTGTCCGCCGTCGCCGTGCCCGAGGCGATGCTCGATCTGGTCGTGCGCCTGGCGATCGAGGTCGGTGCCCAGGGGCATCGGGCCGATCTGGCCATCATCAAAGGGGCGCGGGCGCTGGCGGCGCTCCTTGAAAAGACGGCGGTGACGGCGACGGAGGTGGCCGAAGCGGCGCGGCTGGCACTCCCCCACCGCATGGCCCGTTCGCCCCTCGATAGCGACGCCAATCTCGATGAGCGTCTGGACGGGGTCATCGGTCGCCTGATCGCCGGTGAGGAGCCCCCCGGCACGGCCGAGACGGAAGCTGAAGTCCCTGAAGTTCTGGACGAAATGACCGATTCCATGGAAGTCCCCGGATCGATGGCGGCAGGTAGCATCCTTTTCGCCTTCCTGAAAAAAAAAGCCCGGAAACCTACAATAGAGGCCGATGATCGCATCGATCTGGGCGATCTCGAACTCAGTCCGCGCCGTCTGCCTCCCCGGCTGCGGCGGCGGGGGCAGGAAGCGGCCGGGCCGGTGACGGCGGTGCGGCCGGCGCGCTCCGGCGAACGGGGATTCGAAGTGGCGCTGGAAGCGAGCCTGCGGGCGGCGGCCCGACGGGGCGCGGGCCCCGGGCAAATCCTTGGCGCCGATCTGCACAAGAAAATCCGCCGCCGCTGGCGCTATCCGCTGATCGTCTTTCTCGTCGATGCCTCCGAATCGATGGGGGAGGGGGCGGTGGCGCGCATGGCGGCGGCCAAGGGGGCGGTGCTGGCCCTTTTGCGCGCGGCCTATGTCGAGCGCTGCCGGGTGGCGCTGGTCGCTTTTCACGGGGAGCGTTCCGAGGTGCTGCTGCCGCCGACCCGCAGTATCGCCCTGGCGCGGGAGCGCTTGCGGCGCCTGCCGGTCGGCGGCGCCACGCCCCTGGCTGACGGTCTCTGGAGCGCCTGGCGGCTCATTCGCCGTGAGCGGGCCCGCTATCCCGGGGCGCGCCCCTTGCTCGTGGTTATTTCCGACGGCGAAGCGAATGTCCCCCTGGAGGCGGGGCGCAAGGTCATGGAGGAAGTGCTCGATATCGCCGCGCGCATGAGTGGCGAGGGAATCCCTGCCCTGGTCATCGACAGCCGTTCGCCCGATCCCCGCCAGCAGGAGATGGCTCGGTTGGCTCGGGCCTTCGGCGGCGAGGTTCGTCATCTGGAACGGCCACGGTCGAGCCAGGTGCTGGAACTATTGCGGGAGAAGGGCTTGCCGCAGACCTGA</t>
+  </si>
+  <si>
+    <t>ATGCCCACGATCTTCTATCCCTTCTCTGCGATCCTCGGCCAGGATGCCATGAAGACCGCGCTGCTCATTAACGCCGTCGATCCGAGCATCGGCGGGGTTTTGATCCGCGGCCAGAAGGGGACCGGCAAGTCGACGGCGGCCCGGGCACTGGCGGCGCTGCTGCCGGAGATCGAGGTGGTGGACGGCTGCCCCTGTCATTGCGACCCGGACGATTCCGCGACCTCCCATGCCGAATGCGCCGAGCGCATGGCCCGGGGGGAGTCTCTGCCCCGCCTGCGCCGGCCGATGCCGGTGGTTAATCTCCCCCTGTCGGCGACCGAGGACCGGGTGGTCGGCTCCCTGCATCTGGAGCAGGCGTTGAAGACCGGCGAGCGCCGTTTCGAGCCGGGCCTGCTCGCCGCCGCCAACCGGGGGATCCTTTATGTGGACGAGGTCAATCTTCTCGCCGACCATCTCGTCGATCTGCTCCTCGATGCCGCCGCCTCGGGGATCAACCTGGTTGAACGGGAAGGGCTGCGTTATCAGCATCCGGCCCGCTTCATGCTCGTCGGCACCATGAATCCCGAAGAGGGGGAGTTGCGTCCCCAGTTTCTCGACCGTTTCGGCCTCTGCGTCGGCGCCCAGGGGCTGGAAGACACGGCCGCCCGTCGCGAGATCGTCGCCCGGCGCCTCGCTTTTGAAGCCGATGCCGCCGCTTTTCATCGGCGCTGGGAGCCCGAAGAGCGCCTGCTCGCCGACCAGGTCGTCCTGGCCCGTGAGCGCTTGTCCGCCGTCGCCGTGCCCGAGGCGATGCTCGATCTGGTCGTGCGCCTGGCGATCGAGGTCGGTGCCCAGGGGCATCGGGCCGATCTGGCCATCATCAAAGGGGCGCGGGCGCTGGCGGCGCTCCTTGAAAAGACGGCGGTGACGGCGACGGAGGTGGCCGAAGCGGCGCGGCTGGCACTCCCCCACCGCATGGCCCGTTCGCCCCTCGATAGCGACGCCAATCTCGATGAGCGTCTGGACGGGGTCATCGGTCGCCTGATCGCCGGTGAGGAGCCCCCCGGCACGGCCGAGACGGAAGCTGAAGTCCCTGAAGTTCTGGACGAAATGACCGATTCCATGGAAGTCCCCGGATCGATGGCGGCAGGTAGCATCCTTTTCGCCTTCCTGAAAAAAAAAGCCCGGAAACCTACATAG</t>
+  </si>
+  <si>
+    <t>ATGACCGTTGTCCAAGCCGCCGCACCTGCGGTCTTTCCGTTCACCGCGCTGGTGGGGCAGTCCGAACTGCAGCGCGCGCTGCTGCTGACCGCAGTCGATCCCGGCATCGGTGGCGTGCTGATCAGCGGTCCGCGCGGCACGGCGAAGTCGACGGCGGCGCGCGCGCTGGCGGAACTGCTGCCAGGGGCCAAGGAAGCCGCACCGTTTGTGTCGCTGCCGCTGACCGCCAGCCTGGAGCAACTGGTCGGCAGCCTGAACGTCGAAGACGTGCTGCGCGATGGCAAGGTGCGGCTGTCGCCCGGTCTGGTGGCGCGCGCACACGGCGGTGTGCTGTACGTGGACGAAGTGAACCTGCTGCCCGACGCGCTGGTGGATGCGCTGCTGGACGTGGCCGCCAGTGGCGTGAACATCGTCGAGCGGGACGGCATCTCCCAGCAGCATGCTGCGCGCTTTGTGCTGGTCGGTACCATGAACCCGGAAGAGGGCGAGCTGCGGCCGCAACTGCTGGACCGCTTCGGCCTGGCAGTCACGCTGGAAAATCCTCGCGACCCTGTACCGCGCCAGGCCATCCTGCGCGCGCGGCTGCAATTTGACGAGGATGCGCAGGCGCTGATCGGCGCACACACACCGCAACTGGTCCAGCTCGGCGAGCAGCTGACGCGGGCACGCGCCGCTTTGGCCGGTCTGACATGGCCGGATGCGGTCCTGGCGCACGCAGCCCAAAAAGCGCTTGATGCTGGTGTGGACGGCGTGCGTGCCGACCTGGTCATGCTGCGCGCCGCCCGTGCGCTTGCAGCACTGGAAGGACGTAGCGCAGTGACGACAGCAGATGTCGATGCCGTAGCGGACCTGGCGCTGGCACACCGCCGCATGGAGTCCGCGGCCACGCCGCCTGGCGCCAGCCAGCGTCCCCAGCCTGCACCGTCCAACGGCAATCAACACCAGCCAGCGCCTGACGCACTGGCTGAGCCGGGCCGCGAACCCGAAGGCGACTGGGGCGCATTGCCGCCTCAGCCGGTTGCCACCACGCGTGTCGTCTCTACAGGAGCTTGGCCCGCAAAAAAAGCCCTGAGCCACCCTGGCGCGCAGCCCCGGACAGGGGAGAGCGGCCAACGGTGGCGCACCTCCCCTGTGTCGCCTGCTCCGGCTGTCCGAAAGGCCGCCACGCACGCCCCACCATCAAGTTCAGCGATAGCCTGGGTGCGAACACTGGTCGCCAAAGGTCCACAGCCGCTGAGGCGCGAGCATCTGCGTCGCCAGCCAGCGCATGCCGTGGTGCCCGCATTGCACCTGATCCTGCTGGATACCTCGGGCTCGATGCGCCAGAACGGCCGACTGGCGCTGGCCAAGGGCTACGCAGCGCGGTTGATCGAACAAGCCGCGCGCGCTGGCGACGACGTCGGCATGCTGTCGTTTGGCGGCCAGGGTGTTGAAGTCACCGTGCCACCTGGCCCGGCACGCGCCGCAGGCGCCATGCGCGCACGCGAATGCGGCGGCGGCGGTGGAACACCATTGGTGCAGGCGCTGGCGGTGGCCGGGCAGTTGCTGGCAGTGTCAGCCAGGCGGGGCCGCAGGGAAACAGTGTTGTGGCTGCTGACGGATGGCCGCACGCTGGAGCAACCCGGCGCGCCTGCCGCCGCCGGGCACATCGTCATCATCGACTTCGATCATCGTGATCGGCCACTCGGACGTTGCGCGGCCTGGGCCGAGCGCTGGCCAGCCGAGCATCGGCTGGCTTAA</t>
+  </si>
+  <si>
+    <t>ATGACCGTTGTCCAAGCCGCCGCACCTGCGGTCTTTCCGTTCACCGCGCTGGTGGGGCAGTCCGAACTGCAGCGCGCGCTGCTGCTGACCGCAGTCGATCCCGGCATCGGTGGCGTGCTGATCAGCGGTCCGCGCGGCACGGCGAAGTCGACGGCGGCGCGCGCGCTGGCGGAACTGCTGCCAGGGGCCAAGGAAGCCGCACCGTTTGTGTCGCTGCCGCTGACCGCCAGCCTGGAGCAACTGGTCGGCAGCCTGAACGTCGAAGACGTGCTGCGCGATGGCAAGGTGCGGCTGTCGCCCGGTCTGGTGGCGCGCGCACACGGCGGTGTGCTGTACGTGGACGAAGTGAACCTGCTGCCCGACGCGCTGGTGGATGCGCTGCTGGACGTGGCCGCCAGTGGCGTGAACATCGTCGAGCGGGACGGCATCTCCCAGCAGCATGCTGCGCGCTTTGTGCTGGTCGGTACCATGAACCCGGAAGAGGGCGAGCTGCGGCCGCAACTGCTGGACCGCTTCGGCCTGGCAGTCACGCTGGAAAATCCTCGCGACCCTGTACCGCGCCAGGCCATCCTGCGCGCGCGGCTGCAATTTGACGAGGATGCGCAGGCGCTGATCGGCGCACACACACCGCAACTGGTCCAGCTCGGCGAGCAGCTGACGCGGGCACGCGCCGCTTTGGCCGGTCTGACATGGCCGGATGCGGTCCTGGCGCACGCAGCCCAAAAAGCGCTTGATGCTGGTGTGGACGGCGTGCGTGCCGACCTGGTCATGCTGCGCGCCGCCCGTGCGCTTGCAGCACTGGAAGGACGTAGCGCAGTGACGACAGCAGATGTCGATGCCGTAGCGGACCTGGCGCTGGCACACCGCCGCATGGAGTCCGCGGCCACGCCGCCTGGCGCCAGCCAGCGTCCCCAGCCTGCACCGTCCAACGGCAATCAACACCAGCCAGCGCCTGACGCACTGGCTGAGCCGGGCCGCGAACCCGAAGGCGACTGGGGCGCATTGCCGCCTCAGCCGGTTGCCACCACGCGTGTCGTCTCTACAGGAGCTTGGCCCGCAAAAAAAGCCTGA</t>
+  </si>
+  <si>
+    <t>ATGACCGCGCTGTCGATCCAATACCCGTTCACGGCCCTCAAGGGGGTGGCGCAACTGCAGAATGCCCTGCTGCTGGCGGCCATTGATCCCCTGATCGGCGGGGTGCTCATCGAAGGGCCTCGCGGCGCCGCCAAGACCACCAGCGCCCGGGCCCTGGCGCAGTTGCTGCCGGACGGCGGCTTCGTCAACCTGCCCCTGGGGACCAGTGAGGAACAGCTCCAGGGTTCGCTGGATATCGAGGCCGCGCTCAAGCAGGGGGATGCCTGTTTCAAGCCGGGGCTGCTGGCCCGGGCCCACCAGGGGGTGCTGTATGTGGACGAGGTGAACCTGCTGCCCGATGCCCTGGTGGATCTGTTGCTGGATGTGTCGGTGAGCGGCGTGAACCGCGTGGAGCGTGACGGCATCTCCCACCAGCATGAGGCGCGTTTCGTGCTGGTGGGCACCATGAATCCGGAGGAGGGGGAGTTGCGGCCCCAGCTCCTGGATCGTTTCGGTCTGCTGGTGCGCCTGAACGACATGATCGACGCCCCCACGCGCCGGGAGATCGTGCGCTCCCGGCTGGCCTTCGAGGCGGATCCGGAGGCATTCATCCGCACACACGAGACGGATCAGGAGGCGCTCAGGGAGCGCATCTGCCAGGCTCGCGCGCGACTGGAATCCCTGGCCTTCACCGACGGGGTGCACGATCGGGTGAGTGAAGTGTGTTTTGCCGCCGGCGTGGAAGGGGTGCGGGCAGATCTGGTGATGCTGCGGGCCGCGCGGGCCCATGCGGCCCTGGCGGATGCCGCTTGCATTCGGGACACGGATATTGATGCGGTGCAGGCCCTGGTGCTGGCGCATCGCCGCCGGGACCGCTCCGCGTCGTCACCCGACGAGGCATCGGGCCCGGAGCCCTCTGGCGAAGACCCGTCGCATGCGCCAGAGACGGCCGGTTCATCCCGATCGCAAGGCAGCGGCGCGGGAGATCATGATGCCCCCCGGGACACTGAAGCCACGGTGCCTGAGCGCGGCGGTCATGATCAGGACTGGGGTGCACTGCCTCCGGAACCCACCCCCATCCGGTCCCTGGCGCAGGTGAGGCCCCTGCCGACAAAAAAGCCCCTGACGCGCTCGCCGGTGGCCGGTCAGCTGCCGGATGAGCGCGCGCCAGGGCCGGGGCGGTGGCGTCGTCCGCGCAAGCAGGCGCAAGCGGGCATCCATTGGCATCGCACCCTGCTGAACAAGGGGCCGGGACCGCTCCAGCCCGGGCATCTGGTGTACCGACCCCGCCGGGGGGGTGCCGGCATGCTGTATTGCCTGGTCCTGGACTGCTCCGCCTCCATGCTCAGGCAGGACAAGCTGGCCATGGCCAAGGGCCTGATCAGCGCCTGGGCCCATCAGCTGTACACGCAGCGGTCGGCGCTGGCGGTGGTGGGGTTTTCAGGGCAGGGTGCCTATATCCTGCGGCCGCCCTCCCGGGCCCCCCTGTGCAGCGATGCCTGGGTTGCCCCCATCCCCGGCGGCGGGGGCAGCCCGGTGGGGGCCGGTATTCAGCGGGCGCAGGACCTCATGGCCCAGGCAAAACGCCGCCATCCGGATCAGCCCATTGGTCTATGGCTGCTCACCGACGGCCGCACCACCCAGCAGCCCCCCCGACCCGACATCGCGGATTTCTGTGAGGTGGTGGATTTCGAGACCGAGGCCATTCGCCTCGGCGGCGCCCAGCGCATCGCCCGCGCCTGGCAGGCCCCGTGCTGGCCGGTGAGTGCCTTTATCGAGATGGGCTGA</t>
+  </si>
+  <si>
+    <t>ATGACCGCGCTGTCGATCCAATACCCGTTCACGGCCCTCAAGGGGGTGGCGCAACTGCAGAATGCCCTGCTGCTGGCGGCCATTGATCCCCTGATCGGCGGGGTGCTCATCGAAGGGCCTCGCGGCGCCGCCAAGACCACCAGCGCCCGGGCCCTGGCGCAGTTGCTGCCGGACGGCGGCTTCGTCAACCTGCCCCTGGGGACCAGTGAGGAACAGCTCCAGGGTTCGCTGGATATCGAGGCCGCGCTCAAGCAGGGGGATGCCTGTTTCAAGCCGGGGCTGCTGGCCCGGGCCCACCAGGGGGTGCTGTATGTGGACGAGGTGAACCTGCTGCCCGATGCCCTGGTGGATCTGTTGCTGGATGTGTCGGTGAGCGGCGTGAACCGCGTGGAGCGTGACGGCATCTCCCACCAGCATGAGGCGCGTTTCGTGCTGGTGGGCACCATGAATCCGGAGGAGGGGGAGTTGCGGCCCCAGCTCCTGGATCGTTTCGGTCTGCTGGTGCGCCTGAACGACATGATCGACGCCCCCACGCGCCGGGAGATCGTGCGCTCCCGGCTGGCCTTCGAGGCGGATCCGGAGGCATTCATCCGCACACACGAGACGGATCAGGAGGCGCTCAGGGAGCGCATCTGCCAGGCTCGCGCGCGACTGGAATCCCTGGCCTTCACCGACGGGGTGCACGATCGGGTGAGTGAAGTGTGTTTTGCCGCCGGCGTGGAAGGGGTGCGGGCAGATCTGGTGATGCTGCGGGCCGCGCGGGCCCATGCGGCCCTGGCGGATGCCGCTTGCATTCGGGACACGGATATTGATGCGGTGCAGGCCCTGGTGCTGGCGCATCGCCGCCGGGACCGCTCCGCGTCGTCACCCGACGAGGCATCGGGCCCGGAGCCCTCTGGCGAAGACCCGTCGCATGCGCCAGAGACGGCCGGTTCATCCCGATCGCAAGGCAGCGGCGCGGGAGATCATGATGCCCCCCGGGACACTGAAGCCACGGTGCCTGAGCGCGGCGGTCATGATCAGGACTGGGGTGCACTGCCTCCGGAACCCACCCCCATCCGGTCCCTGGCGCAGGTGAGGCCCCTGCCGACAAAAAAGCCCTGA</t>
+  </si>
+  <si>
+    <t>ATGACTGCCCTGTCGACCCAATACCCGTTCACCGCCCTCAAGGGGGTGCCCCAGCTGCAGAATGCCCTGCTGCTGGCGGCCATCGACCCCTTGATCGGTGGGGTGCTCATCGAAGGGCCGCGTGGCGCCGCCAAGACCACCAGCGCCCGAGCCCTGGCGCAACTGCTGCCCGATGGCGGTTTCGTCAACCTGCCCCTGGGGGCCAGCGAGGAACAACTTCAGGGCTCGCTGGATATCGAGGCGGCGCTCAAGCAGGGGGACGCCTGTTTCAAGCCGGGCCTGCTGGCCCGAGCCCACCAGGGCGTGCTCTATGTGGACGAGGTGAACCTGTTGCCCGATGCCCTGGTGGACCTGCTGCTGGATGTGTCGGTGAGCGGTGTGAACCGTGTGGAACGTGACGGCATCTCCCACCAGCATGAGGCGCGTTTCGTGCTGGTGGGCACCATGAATCCGGAGGAGGGGGAGCTGCGGCCCCAGCTCCTGGATCGCTTCGGCCTGCTGGTGCGCCTGAACGACATGATCGACGCCCCCACGCGCCGGGAGATCGTGCGGTCCCGACTGGCCTTCGAGGCAGATCCCGCAGGATTCAGTCACTCCCATGCTAAGGATCAGGAGGCCCTGAAGGAACGCCTCAGTCAGGCCCGCGCCCGGCTGGAGTCCCTGGTATTCACCGATGCGGTGCATGATCGGGTGAGTGAGTTGTGTTTTGCCGCCGGTGTCGAAGGGGTGCGTGCGGACCTGGTGATGCTGCGGGCCGCCCGGGCCCATGCCGCCCTGGAAGGTGCGCCGCAGATACGCGATACCGACATCGACGCGGTGCAAGTCCTGGTGCTGGGTCACCGGCGCCGCGACCGCTCCGCGTCATCACCCGACGAAGCATCGGGCCCGGAATCCTCAGGCGCCGATCCCTCTGACGCGCGGCAGGCTGTCGGTTCATCCCGATCACCTGGCAGCGCTACGGGTGATCCGGATGGATCCCGGGATACCGCAACCACTGAGCCCGATCGCACCGGCGATGGTCAGGACTGGGGCGCCATGCCCCCGGAACCCACCCCCATCCGGCCCCTGGCGGACGTGAGGCCTCTGCCGGTAAAAAAGCCCCTGACGCGCTCTCCGGCGGCCGGACGGCTGCCGGATGGGCGCGCCCCGGGGACGGGGCGGTGGCCTCGTCTACAGAGGCACCCGGAGGGGGGCATCCACTGGCATCGCACGCTGCTCAACAAGGGTGCCGCACCGCTTCACCGGACGCATCTGGTGTATCGGCCCCGCCGGGGCGGCGCCGGCATGCTGTACTGTCTGGTGCTCGATTGCTCCGCCTCCATGCTCAGACAGGACAAGCTGGCCATGGCCAAGGGCCTGATCACCGCCTGGGCCCATCAGTTGTACACCCAGCGGGCAGAACTGGCGGTGGTGGGGTTTTCAGGTCAGGGTGCCTATATCCTGAGGCCACCCTCCCGGGCCCCCCTGTGCAGCGATATCTGGGTCGCGCCCATCCCCGGTGGCGGGGGCAGCCCCGTGGGGGCCGGTCTGCAACGGGCACAGGCCCTCATGGCCCAGGTGAAACGCCGCCATCCGGATCAGCCCATCGGCCTGTGGCTGCTCACCGACGGCCGCACCACTCAGCAACCTCCGCGCCCCGACATCGCGGATTTCTGTCAGGTGGTGGATTTCGAGACCGAGACCATTCGCCTGGGCGGCGCCCAGCGCATCGCCCGTGCCTGGCAGGCCCCGTGCTGGCCGGTGAGTGCGTTCATGGCGTCGGGGTGA</t>
+  </si>
+  <si>
+    <t>ATGACTGCCCTGTCGACCCAATACCCGTTCACCGCCCTCAAGGGGGTGCCCCAGCTGCAGAATGCCCTGCTGCTGGCGGCCATCGACCCCTTGATCGGTGGGGTGCTCATCGAAGGGCCGCGTGGCGCCGCCAAGACCACCAGCGCCCGAGCCCTGGCGCAACTGCTGCCCGATGGCGGTTTCGTCAACCTGCCCCTGGGGGCCAGCGAGGAACAACTTCAGGGCTCGCTGGATATCGAGGCGGCGCTCAAGCAGGGGGACGCCTGTTTCAAGCCGGGCCTGCTGGCCCGAGCCCACCAGGGCGTGCTCTATGTGGACGAGGTGAACCTGTTGCCCGATGCCCTGGTGGACCTGCTGCTGGATGTGTCGGTGAGCGGTGTGAACCGTGTGGAACGTGACGGCATCTCCCACCAGCATGAGGCGCGTTTCGTGCTGGTGGGCACCATGAATCCGGAGGAGGGGGAGCTGCGGCCCCAGCTCCTGGATCGCTTCGGCCTGCTGGTGCGCCTGAACGACATGATCGACGCCCCCACGCGCCGGGAGATCGTGCGGTCCCGACTGGCCTTCGAGGCAGATCCCGCAGGATTCAGTCACTCCCATGCTAAGGATCAGGAGGCCCTGAAGGAACGCCTCAGTCAGGCCCGCGCCCGGCTGGAGTCCCTGGTATTCACCGATGCGGTGCATGATCGGGTGAGTGAGTTGTGTTTTGCCGCCGGTGTCGAAGGGGTGCGTGCGGACCTGGTGATGCTGCGGGCCGCCCGGGCCCATGCCGCCCTGGAAGGTGCGCCGCAGATACGCGATACCGACATCGACGCGGTGCAAGTCCTGGTGCTGGGTCACCGGCGCCGCGACCGCTCCGCGTCATCACCCGACGAAGCATCGGGCCCGGAATCCTCAGGCGCCGATCCCTCTGACGCGCGGCAGGCTGTCGGTTCATCCCGATCACCTGGCAGCGCTACGGGTGATCCGGATGGATCCCGGGATACCGCAACCACTGAGCCCGATCGCACCGGCGATGGTCAGGACTGGGGCGCCATGCCCCCGGAACCCACCCCCATCCGGCCCCTGGCGGACGTGAGGCCTCTGCCGGTAAAAAAGCCCTGA</t>
+  </si>
+  <si>
+    <t>ATGCACGCATCCCCCCGTCCTGAATATCCCTTTACCGCCATCCGCGGCATGCCCCGGATGCAGACGGCACTGCTGCTGGCGGCCATCGATCCCCTCATCGGCGGCGTCCTCATCGAGGGCCCCCGGGGCTCGGCCAAGACCACCAGTGCCCGGGCCCTGGCCCAGCTGCTGCCGGAAGGGGCGTTCGTCAACCTGCCCCTGGGTTGCAGCGAGGAACAGCTGCTGGGCTCCCTGGATCTCGAGGACGTGCTGCAGCACGGCCGCACCCGTTTCCGCCCCGGCCTGCTGGCCCGGGCCCATCAGGGGGTGCTCTATGTGGACGAGGTCAACCTGCTGGCCGACGGCCTGGTGGACCTGCTGCTGGATGTCTCGGTGAGCGGCATCAACCGGGTGGAGCGGGACGGCATCTCCCATGCCCACGAGGCCCGTTTCGTCCTGGTGGGGACCATGAACCCCGAGGAAGGGGGGCTGCGCCCGCAGTTGCTGGACCGCTTCGGCCTGTTCGTGCAACTGGGGGAGACGATCCCCCCCGAGACGCGGGAGGCGATCGTACGGGCCCGCCTGGCCTTCGAGACCGACCCGCAGGGGTTCGTGGCGGATCATGCCGAGGCCCAGCAGGCCCTGCGGCAGCGCATCCTCCAGGCCCGGGCCGCCCTGGAGACCCTGCCGTTCACCGATGCGGTCCATGCCCGGGTCAGCCGCCTGTGTCACGAGGCGGGGGTGGAGGGGGTACGGGCCGATCTGGTGATGCTGCGGGCGGCCCGGGCCCATGCGGCCCTGGAGGGGCAGGATCGCATCCGGGAGGAGGACATGGATGCCGTTCAGGATCTGGTGCTGGCCCATCGTCGCAAGCCGTCGCCGGATACGGACCCCGCCCCCGCCGGGGCGGGGGGTGAACAGGGCTCGGGGCAGACCCCGCCGCCCCGGGAGGGGGCCGGGACCCCGGAGGATGCCCAGGGGGACGCGGGGGAGGGTCCGGGGGATTGGGGCGAACTGCCTCCCGAGGCGGCGCCCCTGCGCACCCTCGCCCAGGTGGGGGAACTGACGCCAAAAAAGCCCCTGAGGCCCCGGCAGGCGCCGGGGCGGCGGCCCAGCCGAGCGGGGGAGGGGCCGGGGCGGCAACGGGATCCCGATGCCCGTACCGGCGGGGGCATCCACTGGCATCGCAGCCTGCTGCAAAAGGGCCAGGGCCCTCTGAAGCGGTCCCATCTGGTGCATCGCCACCGGCACGGCGGCGGGGATGTGCTCTACTGCCTGGTGCTGGACTGTTCCGCCTCCATGCTCCGCAGCGGCAGGCTGTCCCTGGCCAAGGGGCTGCTGGCGGGCTGGCTGCAGCAGATCTACCGGCAGCGGGCCCAGGTGGCGGTGGTGGGCTTCTCCGGCCGGGAGGCCTGGGTGATCCAGGCCCCCGCCCGGGCCGGACTGGCCAACGAGCACTGGATCGCCCCCATCTCCGGAGGTGGCGGCACCCCCATGGGGCAGGGCCTGGACCTGGCGGACCGGATCATGAAGCGGTTCCGGCGCCGGGTGGCCCATGCCCACATCGGGGTGTGGTTGCTGACCGACGGTCGCGTCCGCCGCATCCCCCCGGCACCGGTTCAGGCGGATTTTTGCACCATCGTCGATTTCGAGACGGGCCGGGCCCGCTCCGGCGGGGGGCTTCGCATCGCCCGGGCCTGGGACGCCGCCCACTGCCCGGCCGACACCTTCGAGGTGGATGCGCATTGA</t>
+  </si>
+  <si>
+    <t>ATGCACGCATCCCCCCGTCCTGAATATCCCTTTACCGCCATCCGCGGCATGCCCCGGATGCAGACGGCACTGCTGCTGGCGGCCATCGATCCCCTCATCGGCGGCGTCCTCATCGAGGGCCCCCGGGGCTCGGCCAAGACCACCAGTGCCCGGGCCCTGGCCCAGCTGCTGCCGGAAGGGGCGTTCGTCAACCTGCCCCTGGGTTGCAGCGAGGAACAGCTGCTGGGCTCCCTGGATCTCGAGGACGTGCTGCAGCACGGCCGCACCCGTTTCCGCCCCGGCCTGCTGGCCCGGGCCCATCAGGGGGTGCTCTATGTGGACGAGGTCAACCTGCTGGCCGACGGCCTGGTGGACCTGCTGCTGGATGTCTCGGTGAGCGGCATCAACCGGGTGGAGCGGGACGGCATCTCCCATGCCCACGAGGCCCGTTTCGTCCTGGTGGGGACCATGAACCCCGAGGAAGGGGGGCTGCGCCCGCAGTTGCTGGACCGCTTCGGCCTGTTCGTGCAACTGGGGGAGACGATCCCCCCCGAGACGCGGGAGGCGATCGTACGGGCCCGCCTGGCCTTCGAGACCGACCCGCAGGGGTTCGTGGCGGATCATGCCGAGGCCCAGCAGGCCCTGCGGCAGCGCATCCTCCAGGCCCGGGCCGCCCTGGAGACCCTGCCGTTCACCGATGCGGTCCATGCCCGGGTCAGCCGCCTGTGTCACGAGGCGGGGGTGGAGGGGGTACGGGCCGATCTGGTGATGCTGCGGGCGGCCCGGGCCCATGCGGCCCTGGAGGGGCAGGATCGCATCCGGGAGGAGGACATGGATGCCGTTCAGGATCTGGTGCTGGCCCATCGTCGCAAGCCGTCGCCGGATACGGACCCCGCCCCCGCCGGGGCGGGGGGTGAACAGGGCTCGGGGCAGACCCCGCCGCCCCGGGAGGGGGCCGGGACCCCGGAGGATGCCCAGGGGGACGCGGGGGAGGGTCCGGGGGATTGGGGCGAACTGCCTCCCGAGGCGGCGCCCCTGCGCACCCTCGCCCAGGTGGGGGAACTGACGCCAAAAAAGCCCTGA</t>
+  </si>
+  <si>
+    <t>ATGTCTACTATATTTCCTTTTACCGCCATCGTTGGTCAGGAACGAATGAAACGTGCCCTGATTCTGAATGCTGTTGATCCCCGTATCGGAGGAGTCCTAATCCGCGGAGAACGCGGTACCGCAAAATCGACTGCCGCTCGCGCACTGGCAGCTTTATTGCCACAGGAAAAAGTCATCGCAGAATGCAGATTTGGATGTAATCCTTCTGATGAAGTACATTGGTGTACGGAATGTAAAGAACGCCAGGCCAAGAATATTCCCATGTCAGTCATTTTACGGCCTACACCTTTTATCAACCTGCCAGTTTCCGCGACAGAAGACCGCGTGATTGGCACACTGGATATTGAGAAAGCCATCCAGAGCGGTGAAAAACGATTTGAACCTGGAGTTTTAGCAGCTGCCAACCGCGGATTGTTATATATTGATGAAGTAAACCTTCTGGAAGACCATGTTGTTGATATTCTGTTGGACTCTGCTGCGATGGGTGTCAACAGAATTGAACGCGAAGGAATTTCTTTTTCTCATCCGGCACGGTTCATTCTGGTGGGTACGATGAATCCCGAAGAGGGTGATTTACGTCCGCAATTATTAGATCGTTTTGCCCATGCTGTGGATATTTTTGGGATCTCAGATTCCTGGGATCGTGTTGAAATCATTAAACGAACCATCAGCTATGAAAGAGATCCGGATGCTTTCTGCCGCGAATGGGAAACAGAAGAGAATATTCTCTCAGAAAAAATTATCACTGCGCGAAAAAATCTATCCCATGTCACCTATCAGAACCATGATTTGATCTCAATTGCTTCACTGACTGCTTCTATGAAGGTGGAAGGCCACCGCGCAGATCTGGTCATCCTGAAAACAGCCGTCGCTCAAGCTGCATTTGACAGCAGAACCTATATTACCGATTTAGATATCGCGATGGCGGCAGAATTGGCATTACCCCACAGACTCCAAAAAGGACCTTTTGCGGAAAAAGAAATCAGTACCGAAGAATTACAAGATCGAATTGAACAGTTACGCGGGAAAAACGCCCCTGAAAATTCTGATTACAAAAATGTATCAGAATTAAATGATGAGGAAAAAAAAATTTTAAATGATGGCTCAATCGCTACCGTCGCTCCTGCCAATTCATCGATGTATTCACATACCGGCGATACCATTTTTAATGCCGGACAAGGTGCTTGGTGGGACGGCGCGCGTAATTTTAATTTCGATACACCGCTGATCACAAACGAATACACACCGTCAGTCTCAAAAAAGAAAAATTCTGGAAAAAGAACACGCATCATTTCCAAAGACCTTCGAGGTTATTATGTCAAAGCACGACCTGCCATAGACAGAGTTCGGGATATCGCATTTGATGCTACAATTCGGGCTGCCGCTCCTTTTCAAAAATCACGAAAAACTAACGAAAAATCAAAAAAACTGATCGTTCAAAGACAGGATATCATGAAAAAAGTACGGATGAGAAAATCCTCCCATCTGCTTCTTTTTTTAGTAGATCTATCCTGGTCGATGGCCGTTCAGGAACGAATGGCGATTACAAAAAGTGCGATTTTATCACTTTTGACAGATGCGTATCAACAGCGGGATCGTGTCGGACTGATTACTTTCCAAAAAGATGGAGCAAAAGTTATTTTACCGCCTACTCATTCTGTGATGCTTGCGGAAAGATCCATGAAACGCGTAAAAGTAGGAGGGAAAACTCCGCTATCCGCTGGATTGTGGAAAGCATATGAGTTGCTGAAACATGAAAAGCAAACGCATCCGGATGTTAATGCTCTATTAATAATTTTGACAGACGGCGCTGGTAATGTGGCGATGGGAAACTATGATCCGTTGATCGAGTCCAGAAAAATTGCAGAAAAAATCCGTGATGAAGGATTTCGCAGTATTGTTATTGACATGGAACAATACACATTTGACCAGGGATTGGCGGTTGAACTTGCCAAACAACTGGATGCGCCGTGCTATCTGGTCGCCGGTTTGAAAGCAGATGAATTAATCAGAACAGTAAAAAGAGAGTTGTAA</t>
+  </si>
+  <si>
+    <t>ATGTCTACTATATTTCCTTTTACCGCCATCGTTGGTCAGGAACGAATGAAACGTGCCCTGATTCTGAATGCTGTTGATCCCCGTATCGGAGGAGTCCTAATCCGCGGAGAACGCGGTACCGCAAAATCGACTGCCGCTCGCGCACTGGCAGCTTTATTGCCACAGGAAAAAGTCATCGCAGAATGCAGATTTGGATGTAATCCTTCTGATGAAGTACATTGGTGTACGGAATGTAAAGAACGCCAGGCCAAGAATATTCCCATGTCAGTCATTTTACGGCCTACACCTTTTATCAACCTGCCAGTTTCCGCGACAGAAGACCGCGTGATTGGCACACTGGATATTGAGAAAGCCATCCAGAGCGGTGAAAAACGATTTGAACCTGGAGTTTTAGCAGCTGCCAACCGCGGATTGTTATATATTGATGAAGTAAACCTTCTGGAAGACCATGTTGTTGATATTCTGTTGGACTCTGCTGCGATGGGTGTCAACAGAATTGAACGCGAAGGAATTTCTTTTTCTCATCCGGCACGGTTCATTCTGGTGGGTACGATGAATCCCGAAGAGGGTGATTTACGTCCGCAATTATTAGATCGTTTTGCCCATGCTGTGGATATTTTTGGGATCTCAGATTCCTGGGATCGTGTTGAAATCATTAAACGAACCATCAGCTATGAAAGAGATCCGGATGCTTTCTGCCGCGAATGGGAAACAGAAGAGAATATTCTCTCAGAAAAAATTATCACTGCGCGAAAAAATCTATCCCATGTCACCTATCAGAACCATGATTTGATCTCAATTGCTTCACTGACTGCTTCTATGAAGGTGGAAGGCCACCGCGCAGATCTGGTCATCCTGAAAACAGCCGTCGCTCAAGCTGCATTTGACAGCAGAACCTATATTACCGATTTAGATATCGCGATGGCGGCAGAATTGGCATTACCCCACAGACTCCAAAAAGGACCTTTTGCGGAAAAAGAAATCAGTACCGAAGAATTACAAGATCGAATTGAACAGTTACGCGGGAAAAACGCCCCTGAAAATTCTGATTACAAAAATGTATCAGAATTAAATGATGAGGAAAAAAAAATTTAA</t>
+  </si>
+  <si>
+    <t>ATGAGCGCTGCCACGGATCCCGCCGGAAGCCGCCCGGACTATCCCTTTTCGGCCCTGGTCGGGCTGGAGCCGCTGCGCCGGTTCCTGCTTCTGGCCGCGGTCGATCCGGGTCTGGGCGGCGTGCTGATCAGCGGTCCGCGCGGCACGGCCAAATCGACCAGTGCCCGCGCGCTGGCGGCGCTGCTGCCTGAAGGCCGGCTGGTGAATCTGCCGCTGGGCGCGACCGAAGAGCGTCTGATCGGCAGCCTGGATCTGGAGGCGATGCTGCGTGACGGCGAGTTGCGCTTCAGGCCCGGCCTGCTGGCGGCGGCGCATCAAGGCGTGCTGTATGTCGACGAAGTCAATCTGCTGCCGGATGCGCTGGTGGATGCCTTGCTGGACGTGGCGGCCAGCGGCGTCAACAGCATCGAGCGCGAAGGCATTTCCCACCGTCATCCTGCCCGTTTCGTGCTGATCGGCACCATGAATCCGGAAGAGGGCGAAGTGCGTCCGCAGTTGCTGGACCGTTTCGGTCTGATGGTCGAGCTGGACAATTGCCTGGACCCGCAGCAAAGGCAGGCCATGGTGCGGGCGCGGCTGGACTACGAGTCCGATCCGCAGGCCTTTCATGCACGTCATCGGGAGATGGACGCGGCTTTGCGTCAGCGCCTGCTCGCCGCACGGGCCGCCCTGGCCGAGCTGGATTTCGACGAGGCCGTGCATGAGCGCGTCAGCCGCTGGTGCATTGCCGCTGCCGTCGACGGCGTACGTGCCGATCTGGCCATGCTGCGGGCCGCCCGGGCGCTAGCGGCCTGGGAGGGCGCGCAGGCGGTGACGATCGAGCATGTGGATCAGGTGGCAGCGGCCTGTCTGCGGCATCGCTGCCGGCAGCTGCCAGCGGCGCCGTCGTCAGCGGACGGGCCGGCGCCCCAGGATCATGATGCCCGGTCCGGTCCGGATGAGGCTTCGACAACCGGCCGGCATCCCGGTGACGACGAAGGGGACTTCGGCGAGCTGCCGCCCGAGCCGGTCGGCATGACGCCGGTCAAGGCCGTGCGGCCGCTGCTCCCAAAACCCCTAGTCCATCGATCAGGGCCGACGGCGGAACCGCTCCGCCGGGATCGATGGACTGCCGCCACGGTCGCACGCAATGGCGCTGCCCGCCCATCGACACGCATTGACTGGCCGGCCAGTCTGGCGCGGGCGGGTGGCTTGCCGCGGCGGCCGGACGAACTCAGTTACCGCCGCCGTCCTGGCGGCTCGGCACGACTGACGGTCTATGTGCTGGATTGTTCCGCCTCGATGCTGAGGCATGGCCGGCTGGCCCTGGCCAAGGGCCTGCTGGCGGACTGGTTCGCCGAGGCGGCGCGGGCGCGATCTCAGGTCGCGCTGATCTGCCACGGTGGTCGCGGCGCCCGGCTGGTGTTCGGTCCGGCGGTGCCGCGCTGGTGGAACGAACGATGGATCCAGCCGATCGCCGGCGGCGGCGGCACCCCCTTGCAAGCCGGTCTGGCGATGGCCGAGACCCTGCTGCAGCGTGGCCACCGGCGCGATCCCGGGCTGGGACTGGAGCTGTGGCTGCTCAGTGACGAGCACTGCCCGGCGGCGGGGCCGCCGTCACTTGGGTCGGCCAGCATCATCGACGTCGAGCCGCGCGGTCGCATGGCGGGTGGCGCGCGCCGGCTCGCACACGCCTGGCAGGCGGCCTATCTGCAGCTGACGCCGCAGGGTCTGAGTCAGCCGGGCTTCTGA</t>
+  </si>
+  <si>
+    <t>ATGAGCGCTGCCACGGATCCCGCCGGAAGCCGCCCGGACTATCCCTTTTCGGCCCTGGTCGGGCTGGAGCCGCTGCGCCGGTTCCTGCTTCTGGCCGCGGTCGATCCGGGTCTGGGCGGCGTGCTGATCAGCGGTCCGCGCGGCACGGCCAAATCGACCAGTGCCCGCGCGCTGGCGGCGCTGCTGCCTGAAGGCCGGCTGGTGAATCTGCCGCTGGGCGCGACCGAAGAGCGTCTGATCGGCAGCCTGGATCTGGAGGCGATGCTGCGTGACGGCGAGTTGCGCTTCAGGCCCGGCCTGCTGGCGGCGGCGCATCAAGGCGTGCTGTATGTCGACGAAGTCAATCTGCTGCCGGATGCGCTGGTGGATGCCTTGCTGGACGTGGCGGCCAGCGGCGTCAACAGCATCGAGCGCGAAGGCATTTCCCACCGTCATCCTGCCCGTTTCGTGCTGATCGGCACCATGAATCCGGAAGAGGGCGAAGTGCGTCCGCAGTTGCTGGACCGTTTCGGTCTGATGGTCGAGCTGGACAATTGCCTGGACCCGCAGCAAAGGCAGGCCATGGTGCGGGCGCGGCTGGACTACGAGTCCGATCCGCAGGCCTTTCATGCACGTCATCGGGAGATGGACGCGGCTTTGCGTCAGCGCCTGCTCGCCGCACGGGCCGCCCTGGCCGAGCTGGATTTCGACGAGGCCGTGCATGAGCGCGTCAGCCGCTGGTGCATTGCCGCTGCCGTCGACGGCGTACGTGCCGATCTGGCCATGCTGCGGGCCGCCCGGGCGCTAGCGGCCTGGGAGGGCGCGCAGGCGGTGACGATCGAGCATGTGGATCAGGTGGCAGCGGCCTGTCTGCGGCATCGCTGCCGGCAGCTGCCAGCGGCGCCGTCGTCAGCGGACGGGCCGGCGCCCCAGGATCATGATGCCCGGTCCGGTCCGGATGAGGCTTCGACAACCGGCCGGCATCCCGGTGACGACGAAGGGGACTTCGGCGAGCTGCCGCCCGAGCCGGTCGGCATGACGCCGGTCAAGGCCGTGCGGCCGCTGCTCCCAAAACCCTAG</t>
+  </si>
+  <si>
+    <t>ATGAAGGACGCAGCCACATATCCATTCTCCGCCCTGCTTGGCCAGGAAGACCTGCGCACCGCCTTGCTGCTCAATGCCGTTGACCCGTCTATCGGCGGGGTGTTGATCCAGGGGCACAAGGGCACCGGCAAGTCCACGGCGGTGCGTGCCCTGGCCGCACTGCTGCCCGAAATCGAGGCGGTGGCCGACTGTCCTTTTCATTGTCCGCCCGCACCCGCTGAGGCCATGCACGATGAATGCGCGGCGCGTTTGCGTGCCGGCGAAGCACTGGAGATCACCAAGCGCCCAATGCCTTTGGTGGACTTGCCCTTGGCCGCCACCGAAGATCGGGTGGTGGGCACTTTGCATCTGGAAAAAACCCTCGCCAGCGGCCGGCGACATTTCGAACCCGGCCTGCTGGCGGCGGCCAATCGCGGCATTCTCTATGTGGATGAAGTCAATCTGCTGCCTGATCATCTGGTCGATCTGCTGCTCGATGCAGCGGCCACGGGCGTAAATCGCGTTGAGCGCGAAGGGATCAGCGTCAGCCATCCGGCGCGCTTTCTGCTGGTGGGCACCATGAATCCCGAAGAGGGCGAGTTGCGCCCCCAGTTTCTCGATCGTTTCGGCCTGTGCGTATGGGTCCGCGGCATCGAGGAGGCCACCCAGCGCCGCGAAGTGGTGCGTCGACGGATGGCGTTTGAAGAAAATCCCGTCGCTTTTGCTGAAACCTGGGCTGCACAGGAGGATATGCTGCGCCGCCAGGTGGTGCAGGCACGCGCCAATCTCAATGCCGTCGTTCTGACCGATGCGGCCATCGATCGCGCCGTGCAGATCAGCCTGGCTGTCGGCGCCCAAGGCCATCGCAGCGATCTGGCCATCGCGCGCGCGGCGCGTGCGTTGGCCGCGTTACTCGAGCGCGAACGGGTCTGCGATGCGGAAATTTTCGAGGCGGCGCTGCTGGTGTTGCCGCACCGCCTCGGCTCCTCGGCAAGTGGCGACCAGGCTGATTTCCGTCAGCATCTGCACCAAGTTCTTGCCGGGGAAAAACTCCCGGCGGCAGAACCCTTTGCGGAAGATGAGACTGACGAGGCGGACGATTGGGGCGCTTCCATGGAGATTCCCGGCGCCACGGCTGCGGGTAGCCAGTTGTTTACCTTTCTTAAAAAAAAAGTTCTGCACGCATCATCGAACCCCAAAGCCCTGACCCTCCCTGAAATAGGTGCCATCGGCAAGCGGCGCCGGCGCCTGCGCGGGGCCGGCCGACGCTTAGGTAACAGTGGACGCAGCGGCGGCGTGCTGCGCACTGTTCCGGCTGAACGTGGCGGTTCTCATGAACTGGCCTTGGGGCGCACCCTGCGCGCGGCGGCCAGTCGCGGAGCCGGCAATCTTAAGATTCACGCGGCGGATGTGCACCGCACCATTCGGCGGCAGCGTCAGGAAACCCTGGTGGTGTTTCTGGTGGATGCCTCGGATTCTATGGGCGAGGGTACGACCGCGCGCATCGCTCTGGCCAAAGGGGCGGTGCTGGCCCTACTGCGCCGCGCCTACTTGAGCCGTGATCGGGTGGCCCTGGTAACTTTTAGGGAAAGGGGTGCGCAGGTGCAATTGGCACCGACCCGCAGCGGCGCACTGGCCCGTGCGCGTCTGCGGCGGCTGGCCATCGGTGGTGCTACCCCCCTGGCGGCTGGGCTTTTCGCCGCCCGCCGTCTCATCGACCAGGAACGCCGCCGTGATCCTGGCCTGCAGGCGCTGCTGGTGGTGCTGTCCGACGGCGAGGCCAATGTTCCGCGTGTGCGCGGCGCCGATCTCAAGCGTGAAATCCTGGCCGAAGCCAAAACTCTGCGCCACGGGCAAACCGCCGTGGTTTTGTTCGACACGGGCGCCCGCAGCAGGGATAATCTTCTGCCGGAAATGGGAACCGTTCTGGGTGCGCCCTGTCATCCGTTGCACGGGAATAATCTCGGGCGGCTGATAGCTCTGATTGAAGAGGGCTTGGGGGAATGA</t>
+  </si>
+  <si>
+    <t>ATGAAGGACGCAGCCACATATCCATTCTCCGCCCTGCTTGGCCAGGAAGACCTGCGCACCGCCTTGCTGCTCAATGCCGTTGACCCGTCTATCGGCGGGGTGTTGATCCAGGGGCACAAGGGCACCGGCAAGTCCACGGCGGTGCGTGCCCTGGCCGCACTGCTGCCCGAAATCGAGGCGGTGGCCGACTGTCCTTTTCATTGTCCGCCCGCACCCGCTGAGGCCATGCACGATGAATGCGCGGCGCGTTTGCGTGCCGGCGAAGCACTGGAGATCACCAAGCGCCCAATGCCTTTGGTGGACTTGCCCTTGGCCGCCACCGAAGATCGGGTGGTGGGCACTTTGCATCTGGAAAAAACCCTCGCCAGCGGCCGGCGACATTTCGAACCCGGCCTGCTGGCGGCGGCCAATCGCGGCATTCTCTATGTGGATGAAGTCAATCTGCTGCCTGATCATCTGGTCGATCTGCTGCTCGATGCAGCGGCCACGGGCGTAAATCGCGTTGAGCGCGAAGGGATCAGCGTCAGCCATCCGGCGCGCTTTCTGCTGGTGGGCACCATGAATCCCGAAGAGGGCGAGTTGCGCCCCCAGTTTCTCGATCGTTTCGGCCTGTGCGTATGGGTCCGCGGCATCGAGGAGGCCACCCAGCGCCGCGAAGTGGTGCGTCGACGGATGGCGTTTGAAGAAAATCCCGTCGCTTTTGCTGAAACCTGGGCTGCACAGGAGGATATGCTGCGCCGCCAGGTGGTGCAGGCACGCGCCAATCTCAATGCCGTCGTTCTGACCGATGCGGCCATCGATCGCGCCGTGCAGATCAGCCTGGCTGTCGGCGCCCAAGGCCATCGCAGCGATCTGGCCATCGCGCGCGCGGCGCGTGCGTTGGCCGCGTTACTCGAGCGCGAACGGGTCTGCGATGCGGAAATTTTCGAGGCGGCGCTGCTGGTGTTGCCGCACCGCCTCGGCTCCTCGGCAAGTGGCGACCAGGCTGATTTCCGTCAGCATCTGCACCAAGTTCTTGCCGGGGAAAAACTCCCGGCGGCAGAACCCTTTGCGGAAGATGAGACTGACGAGGCGGACGATTGGGGCGCTTCCATGGAGATTCCCGGCGCCACGGCTGCGGGTAGCCAGTTGTTTACCTTTCTTAAAAAAAAAGTTCTGCACGCATCATCGAACCCCAAAGCCTGA</t>
+  </si>
+  <si>
+    <t>ATGAAAGAATCTATTGCTTTCCCTTTCTCTGCACTGATTGGGCAGGAAGATCTGCGTACCGCTCTGCTTCTCAATGCTGTTGACCCGGCGATCGGCGGGGTGCTCATCCAGGGGCACAAAGGGGCCGGCAAATCCACGGCTGTTCGTGCCCTGGCCGCCCTGCTGCCCGATATGGAGGTGGTCGCGGATTGCCCCTATCACTGCCCGCCCGCTCCACTGGACGCCATGCACGATGAGTGTGCCGCGCGGGTCCTTGCCGGAGAGCCCCTGAAAACGGTGATGCGCCCCATGCCCCTGGTTGAGCTCCCTCTGGCCGCCACGGAGGATCGTGTCGTGGGATCCCTCCATCTGGAAAAAACGCTTGCCGGCGGGCAGCGTTATTTCGAGCCGGGTCTGCTTGCGGCGGCCAATCGCGGCATTCTGTATGTGGATGAAGTCAACCTGCTGCCCGACCACCTGGTGGATCTGCTGCTTGATGCTGCTGGGAGCGGCATCAACCGGGTGGAGCGCGAAGGGATCAGCGTGACTCACCCTGCGCGTTTTCTCCTGGTGGGGACCATGAATCCGGAAGAGGGGGAGCTGCGGCCCCAGTTTCTCGATCGCTTCGGGCTGTGTGTCACGGTGCGCGGCATCGAAAATATTGCGCAGCGGCGTGAGGTGATTCGCAGACGCATGGCCTTCGAGGAAAATCCGGAAGACTTTGTTAAAGCCTGGACTCAGGCTGAACAAGCCCTTCGCCAGCAGGTTGTCCGCGCCCGCCAAACCCTCGACAATGTCGCATTGCCGGACGAGATTCTTGACCGGGCCATCGGCATCAGTCTTGCCATGGGGGTTCAGGGGCATCGCAGCGATCTTGCAATTGTGCGTGCCGCGCGCGCCCTTTCCGCGCTTCTCGAACGTGACCGGGTCGGTGAAGAAGAAATTTTCGAGGCGGCCCTGCTGGTGCTTCCTCACCGCATCGGTGCCGAAGCGATGGAAGAACGAAGCGACCTGCGTGGCCGTTTGCAGAAAGCCTTTTCCGGTGAAAAAGTAAAACAGGGCGAAGACTCGAATATTCCCGAATCAGCAGAAGAGTTGGATGACTGGGAATCTTCCATGGAAGTTCCGGGCGCCACTGCTGCCGGCAGCCTGCTGTTTTCCTTTCTTAAAAAAAAAGTTCCGAACGCATCAATAGAACCTTATAACCTGGCTGTGCCTGATCTGCCGCTCAGCATCACCCGCCTGCGGACCGTTCGTGATAGCGGCCGACGATTTCAGAACATCGGTCGCACCGGCGGTGTCATGCGCACCGTGCCGGACCACCTCAGCGGCGGCCACCGTGAGCTGGCCCTTGGCCGTACCCTGCGTGCGGCTGCCCTGGGTGGTGGGGGCGCTCTTAAAATCCGGGCCAGGGACGTTTACCGCACGATCCGCCGCCGGCGGCATGAAACCCTCGTGGTTTTTCTGGTGGATGCCTCCGATTCCATGGGGGAGGGGACAACCTCCCGCATCGCTTTGGCCAAAGGCGCTGTTCTGGCCCTGCTGCGGCGTGCCTACCTGAATCGCGACCGCGTGGCACTGGTGACCTTCCGGGATCAATCCGCCCAGGTGCAGCTGCCTCCCACCCGTAGCCGCACTCTCGCTCGACAGCGTCTGCGGCGTCTTGCCATTGGCGGCGCGACCCCCTTCGCCGCAGGGCTGCATGAGGCAAGGCGGCTGATTGAACTGGAGCGCCGCCGCGATCCCAGGTTGCAGGTGCTGCTGGTCATCCTTTCCGATGGTGAGGGCAATGTCGCACGCGAACGCGGCGCCGACCCACGGCAGGAGGTTTTATCCGGGGCGGCGGCACTGTGTCATAAACAGACTTCGGTCGTCCTGTTCGATACGGGATCGCAGAGCAAAGACAACCTTCTCCCTGACATCGCGAAGGTGTTTAAGGTGCCCTGCCATCTATTGCAGGGAGATAGTCTCGCGCGATTGGTGGAGCTGATAGAAGAGGGCAGGGGGAGCGGTCCTTGA</t>
+  </si>
+  <si>
+    <t>ATGAAAGAATCTATTGCTTTCCCTTTCTCTGCACTGATTGGGCAGGAAGATCTGCGTACCGCTCTGCTTCTCAATGCTGTTGACCCGGCGATCGGCGGGGTGCTCATCCAGGGGCACAAAGGGGCCGGCAAATCCACGGCTGTTCGTGCCCTGGCCGCCCTGCTGCCCGATATGGAGGTGGTCGCGGATTGCCCCTATCACTGCCCGCCCGCTCCACTGGACGCCATGCACGATGAGTGTGCCGCGCGGGTCCTTGCCGGAGAGCCCCTGAAAACGGTGATGCGCCCCATGCCCCTGGTTGAGCTCCCTCTGGCCGCCACGGAGGATCGTGTCGTGGGATCCCTCCATCTGGAAAAAACGCTTGCCGGCGGGCAGCGTTATTTCGAGCCGGGTCTGCTTGCGGCGGCCAATCGCGGCATTCTGTATGTGGATGAAGTCAACCTGCTGCCCGACCACCTGGTGGATCTGCTGCTTGATGCTGCTGGGAGCGGCATCAACCGGGTGGAGCGCGAAGGGATCAGCGTGACTCACCCTGCGCGTTTTCTCCTGGTGGGGACCATGAATCCGGAAGAGGGGGAGCTGCGGCCCCAGTTTCTCGATCGCTTCGGGCTGTGTGTCACGGTGCGCGGCATCGAAAATATTGCGCAGCGGCGTGAGGTGATTCGCAGACGCATGGCCTTCGAGGAAAATCCGGAAGACTTTGTTAAAGCCTGGACTCAGGCTGAACAAGCCCTTCGCCAGCAGGTTGTCCGCGCCCGCCAAACCCTCGACAATGTCGCATTGCCGGACGAGATTCTTGACCGGGCCATCGGCATCAGTCTTGCCATGGGGGTTCAGGGGCATCGCAGCGATCTTGCAATTGTGCGTGCCGCGCGCGCCCTTTCCGCGCTTCTCGAACGTGACCGGGTCGGTGAAGAAGAAATTTTCGAGGCGGCCCTGCTGGTGCTTCCTCACCGCATCGGTGCCGAAGCGATGGAAGAACGAAGCGACCTGCGTGGCCGTTTGCAGAAAGCCTTTTCCGGTGAAAAAGTAAAACAGGGCGAAGACTCGAATATTCCCGAATCAGCAGAAGAGTTGGATGACTGGGAATCTTCCATGGAAGTTCCGGGCGCCACTGCTGCCGGCAGCCTGCTGTTTTCCTTTCTTAAAAAAAAAGTTCCGAACGCATCATAG</t>
+  </si>
+  <si>
+    <t>ATGACATATCCGTTCAGTGCTTTGCATGGCCAGGCAGGGCTGCAACTGGCATTGCTGCTGATTGCAGTCGATCCTCGCATTGGCGGGGTTCTGATCGAAGGTGCACGGGGCACAGCCAAGACCACGAGTGCGCGAGCCTTGGCTGAGATTCTGCCTGAGGGGGCCTTTGTGAATTTGCCGCTGGGAGCCAGTGAGGAGCATCTGGCCGGATCACTTGATCTGGACATTGTGCTGCAGCAGGGTAAATCCAGTTTCAGGCCAGGTTTGCTGGCACGTGCCCACAGGGGTGTGCTGTATGTCGACGAAATCAACCTGCTGGCGGACATGCTGGTAGACCTTCTGCTGGATGTTTGCAGTAGTGGCATGAATCGCGTCGAACGCGATGGCGTTTCTCATCAGCATGCAGCAGAAATAGTACTGGTCGGCACGATGAATCCGGAAGAAGGTGAGTTGCGTCCGCAGCTACTCGACAGATTTGGCTTGTTCGTCAATGCCGATGCGTCGATCTCGATGGACATGCGCCAGCGCATTGTGCGTTCTCGAATGGCTTTTGATGACGATCCCGTTGCTTTCAATTTGCACTATGCGGATCAACAACAGAAACGTATTGCACAGCTGGTGTCTGCCCGGCAGAGTTTGAGCCAGATAGTCTTCACTGATGATGACTACGCGCGAGTGGCTCGAAAATGCCATGAAGCGCAGGTGGATGGTGTACGGGCTGACTTGGTGATGTTGCGAGCCAGCCGGGCCATGGCGGCTTTGAAAGGGCGTCTGCATATTACCGATGAAGATATCGATGCGGTCGCTGATATGGTTCTCGCACATCGTCGTAAAGGTGGCGCCGAGGCATCCGGAAACTCATGCGAGTCGGATACGATTGATGATGCTGCACAAGCAGGGAGCTCAGGGCAGTCAACTGCGGACAAATCTGCCTCCGGGGGCCCAGCCGAATCGCGCGAATCCGGGGCGAGCCAGGAATCGCAGTCGAGATCGAGTGATGATTCAGGTTCGAGTGAGGGGGCAGGATCGAGTGAGAGTGCTAATTCGAGTAAGGATTCAAATTCGATGGCGGAGGCGAGCTCAAGCGTTGACGAGGATGCTCAATGGGGGGCAATGCCTGCACAGGCTGTAGCCACTCGTCAGGTCGCCTGGCCAGCAGTACAAAATGGGGCACCGAACGGAAAAAAGTCCCTGATGCGTCCGGCATCCGGTACCGGTACGGTTGCCGGAGGCGGACAGTCAGTGCGAAGCAAGCACAAGTCCGGGCAACGGACTATGACGACAAGCCGTCGCATTCACTGGCCGCGCACCCTTGCGGCCAAACGCACGGCCAGGTTGGGAGTCGAACATTTGCGCTTCAAGCAGGAAGCACAGGGTTCTGATGCTCTGCATTGTGTGCTGCTGGATTGTTCTGCATCGATGATGCGCGGGGGGCAGCTGGCCTTGGCAAAAGGTATCTTGTTGGCGCTCAGTAAACAGCTTTATCGTCAACGTGACAGGCTTGCCGTTATTGGTTTTGGCGGAGAGTCCGTTCAGATGCTGCAGCATGCGCAACGCGTCTCGGTATCAAATGTAGATTGGATTGAAGCGATAAGGGGTGGTGGAGGCAGTCCCGTGACAGCCGCCGTACAGCAGGCTGAACGCCTTCTGCATAGCGAGAAAAAACAGCTTGGACAGCCTCGAACATTGTGGTTGCTGAGTGATGGACGCTACGATCCCTTGCCGCCGTTGCCCCGGCATGTGGATGAGTGCCATGTAGTGGATTTTGAATCTGGCCATCTGCCGCTAGGACGTATCAGGCGGCTGGCTGAACTATGGCATGCGCAATACACGCATGCCAGTCATTGGGTTGATGTCAATGCAACCCTAACCCCCGGCAGGTATACAGCCTGA</t>
+  </si>
+  <si>
+    <t>ATGACATATCCGTTCAGTGCTTTGCATGGCCAGGCAGGGCTGCAACTGGCATTGCTGCTGATTGCAGTCGATCCTCGCATTGGCGGGGTTCTGATCGAAGGTGCACGGGGCACAGCCAAGACCACGAGTGCGCGAGCCTTGGCTGAGATTCTGCCTGAGGGGGCCTTTGTGAATTTGCCGCTGGGAGCCAGTGAGGAGCATCTGGCCGGATCACTTGATCTGGACATTGTGCTGCAGCAGGGTAAATCCAGTTTCAGGCCAGGTTTGCTGGCACGTGCCCACAGGGGTGTGCTGTATGTCGACGAAATCAACCTGCTGGCGGACATGCTGGTAGACCTTCTGCTGGATGTTTGCAGTAGTGGCATGAATCGCGTCGAACGCGATGGCGTTTCTCATCAGCATGCAGCAGAAATAGTACTGGTCGGCACGATGAATCCGGAAGAAGGTGAGTTGCGTCCGCAGCTACTCGACAGATTTGGCTTGTTCGTCAATGCCGATGCGTCGATCTCGATGGACATGCGCCAGCGCATTGTGCGTTCTCGAATGGCTTTTGATGACGATCCCGTTGCTTTCAATTTGCACTATGCGGATCAACAACAGAAACGTATTGCACAGCTGGTGTCTGCCCGGCAGAGTTTGAGCCAGATAGTCTTCACTGATGATGACTACGCGCGAGTGGCTCGAAAATGCCATGAAGCGCAGGTGGATGGTGTACGGGCTGACTTGGTGATGTTGCGAGCCAGCCGGGCCATGGCGGCTTTGAAAGGGCGTCTGCATATTACCGATGAAGATATCGATGCGGTCGCTGATATGGTTCTCGCACATCGTCGTAAAGGTGGCGCCGAGGCATCCGGAAACTCATGCGAGTCGGATACGATTGATGATGCTGCACAAGCAGGGAGCTCAGGGCAGTCAACTGCGGACAAATCTGCCTCCGGGGGCCCAGCCGAATCGCGCGAATCCGGGGCGAGCCAGGAATCGCAGTCGAGATCGAGTGATGATTCAGGTTCGAGTGAGGGGGCAGGATCGAGTGAGAGTGCTAATTCGAGTAAGGATTCAAATTCGATGGCGGAGGCGAGCTCAAGCGTTGACGAGGATGCTCAATGGGGGGCAATGCCTGCACAGGCTGTAGCCACTCGTCAGGTCGCCTGGCCAGCAGTACAAAATGGGGCACCGAACGGAAAAAAGTCCTGA</t>
+  </si>
+  <si>
+    <t>ATGGACCGACTCCCCTTCCCCGCAATCGTCGGGCAGGAGGACCTGAAATCGGCGTTGCTGTTGAACGCGGTCAACCGTGACATCGGCGGTGTCCTGATCCGGGGCGAACGGGGCACCGGCAAGAGCTCCGCGGTTCGGGGGCTCGAACGCGTGCTCCCGGAGATTCGTGTCGTCGCGGACTGTCGCTTCAATTGCCCGCCGGACGACCCGGCACGGCAGTGCGCGGCGTGTCGCGAGCGGACGGCGACCGAAACGGAGCGGGTACCGACGCCCGTCGTCGACCTGCCACTCGGCGCGACCGAGGATCGCCTCCTCGGCTCGCTCGACTTCGAGCAGGCGCTGAACGAAGGAGTCAGCGCGCTCGATCCGGGGTTGCTCGCCCGGGCGAACCGCGGGGTGCTCTACGTCGACGAGGTGAACCTTCTCGATGACCACCTCGTCGACCTGTTGCTGGATGCGGCCGCGAGCGGCGTCAACCGGATCGAACGCGAGGGGCTCACGATCACGCACCCGGCCGAGTTCGTCCTCGTGGGAACGATGAACCCCGAGGAGGGGCGGCTCCGGCCCCAGTTTCTGGACCGCTTCGGCCTCCAGGTGGACGCGGAGGCGCCGACCGATCCCGAGACGCGGGCGTCGATCGTCGAGGTGGCCGAGGCGTTCGAACGCGACCCGGACGCGGTTCGCGAACGGTATCGGGACGCGGAACGCCGACTCGGGGAGCGGATCGTGACGGCCCGCGACCGCTACGACGACATCACGCTGGACGACGAGCGCCGTCGAACCATCGCCGAACTCTGCATCGCGGCCGGCGTCGAAGGAAATCGCGGCGACATCACGACCGCACGGTGTGCGCGAGCGATAGCCGCACTCGACGGCCGGACCGCGGTCGAGGACGCGGACGTGCGGCGGGCGGCGGCGTTTGCGCTCCCCCACCGCATCCCCAGCGACCCCTTCGACGACGAGGTGTCGGTGGATCGACTCGCCGCCGACCACCTCGACGACACGTCGACGGCCGACAGCGTGACCGACGACCGCTCGAACGACGACCCGGCCACGGGCGACTCCGAAGCAGCGCCCGAGCGTGGCCGACGTGGCGGGAGCGAGGACCGGCGCGACGACGACGCGATCGACCGGGCGATCCGGAGGCTCCGGGATTTTTTCCTGACGGCCGGCGGCGGGGAGCCGGACGCGGAGAGCGACGGCACCGGCGGGAACGATCCGGGTCGCGGACGCGAGGACGGGACGACGGGTGACGGCCGTGCGCCCGAGCGCCCGCGACTCGACCCCATCGGCGACGCGACGGCCGGGACGGCGACCATCGACGGGGCCGACTCGGATCCCGTCGTCGCCCCACTCGACGGCGGGACGGCCCGCATCGGCACCGAGACGATCGGCTCGGACGGGCCATCGGCGGGGCGGTACGTCGGCTCGCGGCGCGCGCAGTCGACCGACCGCCCGGCCGACATCGCCGTCGACGCGACGCTTCGATCGACGGTCGGCCGCGGGGGGACCGACATCACCGAGCGCGACCTTCGGGTGAAGCGCCGGAGCGGCGAGGCGCCGGCACTCGTCACCTTCGTCGTCGACTCGTCGATGAGCATGCGCGCCCACGGCGACATCCGGAGGGCGACGGCGCTCGCGACGGGCGTGCTCCGGCGGGCGAACCGCCACGACGACTACGTCGCAGTCGTCGCGTTCCACGACGAGCGGGCCGACGTGGTCGTGCCGCCGACGGACGATCCCGACGTGGCGGCCCGCCGGCTCGAGGATGTCCCGGTCGGCAACCGGACGCCACTCCCGGCCGGGTTGCTCGCCGCCCGTCGACTCGTCGACCGCGAGCGGACGGCGATTCCCGACCTGCCGGCCGTCGTCGTCGTCCTCACCGACGGCCGGCCGACGGTGGGGATCGAGGACGATCCGGTCGTCGAAACCAACCGCCTCGCCCGACGGCTCGGCGCGTCGGGGATCGACCTCGTCGTCCTGGACCTCGACCGCGGCACCACCGGCACCGACGTGTGTCGGTCGATGGCCGCCGAAGCGGACGGCGAGTACGTGTCGATGGCCGAGATACGGCCGGCGGACCGAACCCGGACCGTCGCGCGGGTGATCGAGTCGGTGCGGTAG</t>
+  </si>
+  <si>
+    <t>ATGGACCGACTCCCCTTCCCCGCAATCGTCGGGCAGGAGGACCTGAAATCGGCGTTGCTGTTGAACGCGGTCAACCGTGACATCGGCGGTGTCCTGATCCGGGGCGAACGGGGCACCGGCAAGAGCTCCGCGGTTCGGGGGCTCGAACGCGTGCTCCCGGAGATTCGTGTCGTCGCGGACTGTCGCTTCAATTGCCCGCCGGACGACCCGGCACGGCAGTGCGCGGCGTGTCGCGAGCGGACGGCGACCGAAACGGAGCGGGTACCGACGCCCGTCGTCGACCTGCCACTCGGCGCGACCGAGGATCGCCTCCTCGGCTCGCTCGACTTCGAGCAGGCGCTGAACGAAGGAGTCAGCGCGCTCGATCCGGGGTTGCTCGCCCGGGCGAACCGCGGGGTGCTCTACGTCGACGAGGTGAACCTTCTCGATGACCACCTCGTCGACCTGTTGCTGGATGCGGCCGCGAGCGGCGTCAACCGGATCGAACGCGAGGGGCTCACGATCACGCACCCGGCCGAGTTCGTCCTCGTGGGAACGATGAACCCCGAGGAGGGGCGGCTCCGGCCCCAGTTTCTGGACCGCTTCGGCCTCCAGGTGGACGCGGAGGCGCCGACCGATCCCGAGACGCGGGCGTCGATCGTCGAGGTGGCCGAGGCGTTCGAACGCGACCCGGACGCGGTTCGCGAACGGTATCGGGACGCGGAACGCCGACTCGGGGAGCGGATCGTGACGGCCCGCGACCGCTACGACGACATCACGCTGGACGACGAGCGCCGTCGAACCATCGCCGAACTCTGCATCGCGGCCGGCGTCGAAGGAAATCGCGGCGACATCACGACCGCACGGTGTGCGCGAGCGATAGCCGCACTCGACGGCCGGACCGCGGTCGAGGACGCGGACGTGCGGCGGGCGGCGGCGTTTGCGCTCCCCCACCGCATCCCCAGCGACCCCTTCGACGACGAGGTGTCGGTGGATCGACTCGCCGCCGACCACCTCGACGACACGTCGACGGCCGACAGCGTGACCGACGACCGCTCGAACGACGACCCGGCCACGGGCGACTCCGAAGCAGCGCCCGAGCGTGGCCGACGTGGCGGGAGCGAGGACCGGCGCGACGACGACGCGATCGACCGGGCGATCCGGAGGCTCCGGGATTTTTTCTGA</t>
+  </si>
+  <si>
+    <t>ATGCAACCATATATTCGACCAACCTACCCATTTAGTGCGCTTGTTGGTCAGCCTCGCTTGAAACAAGCACTGGTGCTGAATGCAGTGAATCCGCGAATTGGCGGCGTGTTGATTCGTGGCGAAAAAGGCACTGCCAAATCAACGGCTGTTCGGGCGTTGGCACATTTGCTGCCATTAATCACCGTTGTGGCTGATTGCCCTTATAGCTGCCCACCAGATCAGCTTGATCGGATGTGTAGTTCGTGTCGTAGTCGTTTGCAAGCTGGCGAAGAATTGCCATTGGCTCAACGGCCAACCCGCTTGGTCGAATTGCCTGTTAGCGCCTCGGAAGATCGCTTGGTTGGTTCGCTTGACCTTGAACATGCCTTGGTCGAAGGTCAACGGCGCTTTGAGCCAGGCCTATTGGCCCAAGTTAATCGTGGTTTGCTCTATGTCGATGAAGTGAATCTTTTGGATGATCACTTGGTTGATATTTTGCTTGATGCTGCGGCTATGGGCATTAACACGGTCGAACGCGAAGGCATTTCGGTTTCGCACCCAGCGCGCTTCATCTTGGTTGGCACCATGAACCCAGAAGAAGGCGAACTCCGGCCTCAATTGCTGGATCGCTTTGGCTTAGTGGTAGAAATTGGTGGCCTAAAAAATGTCCGCGAACGGGTTGACGTAATTCAACGCCGCATGGAATACGATGCAGATCCTGAGCAATTTGTGCAACGCTGGAGCAGCAACGAGCATAATTTGACTGAAGAAATTGCTGCGGCCAAAAAACTCTTGCCCCAAGTGCAAATTTCTGAGCAAGATATGGCTGCGGTGGCGATGCTCTCGCTCGAATTGGGCGTTGATGGTCATCGTGCAGATTTGGCAATTCTCGAAACTGCGCGAACCCACGCTGCGCTTGAAGGCCGCACAACGATTTCGCTTGAAGATATTCGGGTTGCAGCCCAATTGGCATTACCGCACCGTATGCGGCGCCAACCATTTGCCGAAGTTCGGCTTGATGAGCAACAGCTCAGCGATGTGCTGAACAAGGCAGCCCAAGAGCGCCAACGCGGCAACGAAGAAACTGCGGGGCACGAAGAGCTAAAAAAAGCTTTAGCCCCGTCGGAGGAAGCGTCCAGCGATAGCGAAGAAGCGGGCGATGAAGAACCACCGACTGGGGCGCCGAAAGGCTCGCCACCCCAAAGCAGTAGCCAAGCAGAAAAAGGCGATGGCAAAGTTTTTAACATTGCCCAAGAATATCGTCCCAAGCGGTTGGAAAGCCAAGCTGACTCGATGCGCCGCAAGGCTGGTGGCCGTCGCACCCGCACGCGAACTGAGCGCAAGCAAGGTCGCTATATTACCAGTCGCGTGCCACGCGGCCAATTAACCGATGTGGCCTTTGATGCAACGTTGCGGGCGGCAGCTCCATTTCAGCGTCAACGCCGCCAGCCGCATATCAAACGGGCGGTGGTGTTGCAACGCAGCGATTTACGCGAAAAAGTTCGGGTGCGCCGAACGCGTAACGCAGTCTGTTTTGTGGTTGATGCAAGCTGGTCGATGGCAGCAGAAACTCGCATGCAAGCAACCAAAGCTGCCGTGCTTTCATTGCTGCGCGATGCCTATCAACGGCGCGACTTGGTTGGGTTGGTGAGTTTTGCCCGCGATCGGGCGACGGTGCTCTTGCCGCTGACCAACAGCGTGGAAATGGCGCAACAACGCTTGCGCACCATGCCAACCGGGGGCAAAACCCCGCTGAGCCGTGGGATGATGGCAGGCTTTGAACTGCTTGCCCGCGCCAAATTGCGCGATCGCGAAATTTTACCCTTGATGGTGTTGTTGACCGATGGCCATGCCAATGTCTCGATGACTGGCCAGCCACCACAACAAGAAGCCTACCAACTGGCCGAGTTTATCGCCAGCCAACAGATTCCGACGGTGGTGATTGATACTGAATTGCCAAATTTCTATCGCGGCTTGGCCAAAGAATTGGCTGATCGCTTGAATGGCTCGTATTATCAACTGGAAGAACTGAGTGTTGGCCTTGCCGAACTGGTACGCTCACACCAAGAATTATCACAGATAAAAATCTAA</t>
+  </si>
+  <si>
+    <t>ATGCAACCATATATTCGACCAACCTACCCATTTAGTGCGCTTGTTGGTCAGCCTCGCTTGAAACAAGCACTGGTGCTGAATGCAGTGAATCCGCGAATTGGCGGCGTGTTGATTCGTGGCGAAAAAGGCACTGCCAAATCAACGGCTGTTCGGGCGTTGGCACATTTGCTGCCATTAATCACCGTTGTGGCTGATTGCCCTTATAGCTGCCCACCAGATCAGCTTGATCGGATGTGTAGTTCGTGTCGTAGTCGTTTGCAAGCTGGCGAAGAATTGCCATTGGCTCAACGGCCAACCCGCTTGGTCGAATTGCCTGTTAGCGCCTCGGAAGATCGCTTGGTTGGTTCGCTTGACCTTGAACATGCCTTGGTCGAAGGTCAACGGCGCTTTGAGCCAGGCCTATTGGCCCAAGTTAATCGTGGTTTGCTCTATGTCGATGAAGTGAATCTTTTGGATGATCACTTGGTTGATATTTTGCTTGATGCTGCGGCTATGGGCATTAACACGGTCGAACGCGAAGGCATTTCGGTTTCGCACCCAGCGCGCTTCATCTTGGTTGGCACCATGAACCCAGAAGAAGGCGAACTCCGGCCTCAATTGCTGGATCGCTTTGGCTTAGTGGTAGAAATTGGTGGCCTAAAAAATGTCCGCGAACGGGTTGACGTAATTCAACGCCGCATGGAATACGATGCAGATCCTGAGCAATTTGTGCAACGCTGGAGCAGCAACGAGCATAATTTGACTGAAGAAATTGCTGCGGCCAAAAAACTCTTGCCCCAAGTGCAAATTTCTGAGCAAGATATGGCTGCGGTGGCGATGCTCTCGCTCGAATTGGGCGTTGATGGTCATCGTGCAGATTTGGCAATTCTCGAAACTGCGCGAACCCACGCTGCGCTTGAAGGCCGCACAACGATTTCGCTTGAAGATATTCGGGTTGCAGCCCAATTGGCATTACCGCACCGTATGCGGCGCCAACCATTTGCCGAAGTTCGGCTTGATGAGCAACAGCTCAGCGATGTGCTGAACAAGGCAGCCCAAGAGCGCCAACGCGGCAACGAAGAAACTGCGGGGCACGAAGAGCTAAAAAAAGCTTAG</t>
+  </si>
+  <si>
+    <t>ATGAGCCTTGAACCCACCGAACTGCACGCGGCATCAACGCCGGCATTCCCTTTCTCCGCCCTGGTCGGCCAGGACGCGCTGCAGGGCGCCTTGCTGCTGGCCGCCATCGACCCCGGCATGGGCGGTGTGCTGATCAGCGGGCCGCGTGGCACCGCCAAGTCCACCTCGGCGCGTGCGCTCGCCGCATTGCTGCCGAACGCCCCGTTCGTCACGCTGCCGCTGGCGGCCAGCCTGGAACAGCTGGTGGGCACGCTCAACCTGGAAGACGTGTTGCGCGACGGCCAGGTGCGGCTCGCGCCCGGCCTGGTGGCGCGCGCACACGGCGGCGTGTTGTACGTGGACGAGGTCAATCTGCTGCCCGACGCGCTGGTTGACGCGCTGCTCGATGTCGCCGCCAGCGGCGTCAACACCGTGGAGCGCGACGGCGTGTCGCGCCAGCACGCCGCGCAGTTCGTGCTGGTCGGCACCATGAACCCGGAAGAGGGCGAACTGCGGCCGCAGCTGCTGGACCGTTTCGGCCTCTCGGTGGCGCTCGCCAACCCGAGCGACGCCGCGCAGCGCCAGGCCATCGTGCGCGCCCGGCTGGCCTTTGACGCCGACCCGCAGCGCCTGCTGGGCGAACACGCCGAGGCCCAGGCGCACCTGGTGGCATCGCTGGCCGCCGCGCGTGCCGTGTTGCCGAAACTGCAGTGGTCGGACGCGGTGCTGCAGCACGCCGCCCAGCTGGCCCAGGCCGCCGGTGTGGACGGCATCCGCGCCGACCTGGTGATGCTGCGCGCCGCACGCGCCCTGGCCGCGCTGGCGCAGCGCGACACCGTGAGCGTGGCCGACGTGGACGCCGTGGCCGAACTGGCGCTGGCACACCGCCGCGCACCCCACGGCCAGCCGCCCGCGGGTGGCAACGCAGCGGCCACACCGCAGGCCGCGCCGCCACCGCCTGCCGGCGGCAACGGCAATGCGAGCAGCCAGGCGAACGGACCGGCATCCACCACGGCCGGAACACCCGCCGCCGACGGCGACTGGGGCGCGTTGCCGCCACAGCCACAAGGCATGGAACGGGTGCTTCACACGGGGGCCTGGCCCCCAAAAAAAGCAATGAGCCACCCCAGCCCCAGCGCGCTCGGCGCGCCCGGTGGCTGGCGGTGGCCAGGCCCCAGACCCGCAGCACCCCGGCCCACGCTGGCGCGGCACGCTGCGCGAGCCACCCCGGCCGCGGGCGGTGCCGGCATCCACTGGGTGCGCACGCTGTTGGCCAAGGGGCCGCAACGGCTGGCCGCGGCCCACCTGCGCCACCGGCCGCTGCACACGCGCGTGCCGCCGCTGCACCTGATCGCGCTCGACACCTCGGGCTCGATGCGCCAGGGCGGGCGCCTGGCCTGGGCCAAGGGTTATGCCGCGCGCCTGATCGAACAGGCCGCGCGCGCCGGTGACCACGTGGCGCTGATCGGCTTCGGCGGCCAGGGCGTGCAACTGCTGCTGCCCCCCGGCCCGGCGCGCGCCGCCGGCAGCGCCCGGGTGCGCCCGCTCGGCGGAGGCGGCGGCACACCGCTGGCGGCCTGCCTGCACGAGGCCGAGCGCCTGCTGCAGCGCGACCAGCGCCTGCGTGGCCCGGGCGGTGGCGACAACAACTGCCTCTGGCTGCTCACCGATGGCCGCACGCTGGAGCAAGCCGCCGCGCCCGCGAGCGCGGCCCACATCGTCGTGGTGGATTTCGACGACCCCCTGCGCCCCGTCGGCCGCTGTGCCGCCTGGGCAACCGACTGGCGGGCCGAACACCGGCTGGCGCACTGA</t>
+  </si>
+  <si>
+    <t>ATGAGCCTTGAACCCACCGAACTGCACGCGGCATCAACGCCGGCATTCCCTTTCTCCGCCCTGGTCGGCCAGGACGCGCTGCAGGGCGCCTTGCTGCTGGCCGCCATCGACCCCGGCATGGGCGGTGTGCTGATCAGCGGGCCGCGTGGCACCGCCAAGTCCACCTCGGCGCGTGCGCTCGCCGCATTGCTGCCGAACGCCCCGTTCGTCACGCTGCCGCTGGCGGCCAGCCTGGAACAGCTGGTGGGCACGCTCAACCTGGAAGACGTGTTGCGCGACGGCCAGGTGCGGCTCGCGCCCGGCCTGGTGGCGCGCGCACACGGCGGCGTGTTGTACGTGGACGAGGTCAATCTGCTGCCCGACGCGCTGGTTGACGCGCTGCTCGATGTCGCCGCCAGCGGCGTCAACACCGTGGAGCGCGACGGCGTGTCGCGCCAGCACGCCGCGCAGTTCGTGCTGGTCGGCACCATGAACCCGGAAGAGGGCGAACTGCGGCCGCAGCTGCTGGACCGTTTCGGCCTCTCGGTGGCGCTCGCCAACCCGAGCGACGCCGCGCAGCGCCAGGCCATCGTGCGCGCCCGGCTGGCCTTTGACGCCGACCCGCAGCGCCTGCTGGGCGAACACGCCGAGGCCCAGGCGCACCTGGTGGCATCGCTGGCCGCCGCGCGTGCCGTGTTGCCGAAACTGCAGTGGTCGGACGCGGTGCTGCAGCACGCCGCCCAGCTGGCCCAGGCCGCCGGTGTGGACGGCATCCGCGCCGACCTGGTGATGCTGCGCGCCGCACGCGCCCTGGCCGCGCTGGCGCAGCGCGACACCGTGAGCGTGGCCGACGTGGACGCCGTGGCCGAACTGGCGCTGGCACACCGCCGCGCACCCCACGGCCAGCCGCCCGCGGGTGGCAACGCAGCGGCCACACCGCAGGCCGCGCCGCCACCGCCTGCCGGCGGCAACGGCAATGCGAGCAGCCAGGCGAACGGACCGGCATCCACCACGGCCGGAACACCCGCCGCCGACGGCGACTGGGGCGCGTTGCCGCCACAGCCACAAGGCATGGAACGGGTGCTTCACACGGGGGCCTGGCCCCCAAAAAAAGCATGA</t>
+  </si>
+  <si>
+    <t>ATGAGCACCCCGCAAGCATCCGCGCACACACCGGGTTCAGCGACCGAGCCCGCCGTGCGCCTGCCTTTCCCCTTCACCGCGCTGATCGGGCAGCCCCGGCTGCAATTGGCCCTGCAACTCGCCGCCATCGACCCCGGCATTGGCGGCGTGCTGATCAGCGGACCGCGCGGCACGGCCAAGTCCACCGCGGCGCGCGCGCTGGCGGCCTTGCTGCCCGGCGCGCCCTTCGTGACGCTGCCGCTGGCGGCCAGCTTGGAGCAGGTGGTGGGCACGCTCAATGTGGAAGACGTGCTGCGCGACGGCCAGCTGCGCCTGGCGCCTGGCCTGGTGGCCCGCGCCCACGGGGGCGTGCTGTACGTGGACGAAGTCAACCTGCTGGCCGATGCCTTGGTGGACGCCCTGCTGGACGTGGCCGCCAGCGGCGTCAACACCGTGGAGCGCGACGGCATCTCGCACCAGCACGCCGCGCGCTTCGTGCTGGTCGGCACCATGAACCCGGAGGAGGGCGACTTGCGTCCCCAACTGCTGGACCGCTTTGGGCTCTCGGTGACATTGGACAACCCGACGGACGCACCACAGCGCGCCGCCATCCTGCGCGCGCGCCTGGACTTCGACGCCGACCCCGCCGCGCTCATCGCCCAGCATGCGGCACGGCAGCAGGCCTTGAGCGCCGCCTTGATCACGGCCCGCGCCGCCTTGCCCCGCCTGGCGTGGCCGGACGAGGTGCTGCGCCATGCCGCGGACCGCGCGCTGCACGCGGGCGTGGACGGCCTGCGCGCCGATCTCGTCATGCTGCGCGCCGCCCGCGCGTTGGCCGCGCTGCAGGCGCGCGACGCGGTGACGGTGGCCGATGTGGACGCGGTGGCCGAATTCGCCTTGGCGCACCGCAGGCTTGATCCGTCCGATCTGGCCGATGCGAACCCTCTGGCGCATCAGGCGCACCAGGCGAATCACGCCCGCGCGGCCGAGCGCAATGCGGCAGGTCCTCAGACACGCGGCCCCGCCACTGCCACTGCTACCACTACCGCTTCCTCCGCGCCTGGTCAGCCGTCGCAGGGCGCAGGCCCCGCCGAGGATCATCTGTCCACTGCAGGCCACTCGGGGGCGCGGTCCAATCCCAATCCCAAGCCGAACGGCGATTGGGGCGCCTTGCCCGCCCAGCCGGCCGGCATGGTCGCGGCGCCGCGCATTGCGGGGTGGCCCGCAAAAAAAGCCCTAGGCCACCCCGGCCGCCCAGTCCCAGGCGGGGCGGGCGGCGGGCGGTGGCCTCTTGCCACGATGCGACCTGCACGACCTCGTGTGAGCGAGCACGCCATGAGCACGCGCGCGCCTGGCGCGTCCATCGCCTGGTTGCCGACCTTGCTGGCCAAAGGCCCCGCGCCCCTGCGGCGCCAGCACCTGCGCCATCGCCCCCTGGCCGCGCGCGCCGCGCGGCTGCACTGCATCGTGCTCGACACCTCCGGCTCCATGCACCAGCAGGGCCGCTTGGCCCGGGCCAAGGGGCAGGTGGCCGCGATGCTGGAGCAGGCCGCGCGCCAGGGTGACGACGTGGCCGTGCTGTGTTTTGGTGGCCGGGGCGTGGAGCTGCTGATACCCCCCGGGCCGGTGCGGTCAGCGGCCCGCCATCGCCTGCGTCCCCTGGGCGGGGGCGGAGGCACGCCCTTGGCCCAAGCCCTGTCGGAGGCGGACCGTCTGCTGCAAGCCGCCTCACGCGTCTGCGGCGCTGCTCGCGCCACCTCGGCCACCCGTGCGCGCCATGCGCCCCATGCGGCCCAGGGCAGCGGGCACGCCCAAGCGCCAGCGTTCGACGGCTGGCTCTGGCTGCTCAGCGATGGCCGCACGCTGGAGCAGCCGAGCCCGCCCCGCGCGACGCGGCAAGTGGTCATCGTG</t>
+  </si>
+  <si>
+    <t>ATGAGCACCCCGCAAGCATCCGCGCACACACCGGGTTCAGCGACCGAGCCCGCCGTGCGCCTGCCTTTCCCCTTCACCGCGCTGATCGGGCAGCCCCGGCTGCAATTGGCCCTGCAACTCGCCGCCATCGACCCCGGCATTGGCGGCGTGCTGATCAGCGGACCGCGCGGCACGGCCAAGTCCACCGCGGCGCGCGCGCTGGCGGCCTTGCTGCCCGGCGCGCCCTTCGTGACGCTGCCGCTGGCGGCCAGCTTGGAGCAGGTGGTGGGCACGCTCAATGTGGAAGACGTGCTGCGCGACGGCCAGCTGCGCCTGGCGCCTGGCCTGGTGGCCCGCGCCCACGGGGGCGTGCTGTACGTGGACGAAGTCAACCTGCTGGCCGATGCCTTGGTGGACGCCCTGCTGGACGTGGCCGCCAGCGGCGTCAACACCGTGGAGCGCGACGGCATCTCGCACCAGCACGCCGCGCGCTTCGTGCTGGTCGGCACCATGAACCCGGAGGAGGGCGACTTGCGTCCCCAACTGCTGGACCGCTTTGGGCTCTCGGTGACATTGGACAACCCGACGGACGCACCACAGCGCGCCGCCATCCTGCGCGCGCGCCTGGACTTCGACGCCGACCCCGCCGCGCTCATCGCCCAGCATGCGGCACGGCAGCAGGCCTTGAGCGCCGCCTTGATCACGGCCCGCGCCGCCTTGCCCCGCCTGGCGTGGCCGGACGAGGTGCTGCGCCATGCCGCGGACCGCGCGCTGCACGCGGGCGTGGACGGCCTGCGCGCCGATCTCGTCATGCTGCGCGCCGCCCGCGCGTTGGCCGCGCTGCAGGCGCGCGACGCGGTGACGGTGGCCGATGTGGACGCGGTGGCCGAATTCGCCTTGGCGCACCGCAGGCTTGATCCGTCCGATCTGGCCGATGCGAACCCTCTGGCGCATCAGGCGCACCAGGCGAATCACGCCCGCGCGGCCGAGCGCAATGCGGCAGGTCCTCAGACACGCGGCCCCGCCACTGCCACTGCTACCACTACCGCTTCCTCCGCGCCTGGTCAGCCGTCGCAGGGCGCAGGCCCCGCCGAGGATCATCTGTCCACTGCAGGCCACTCGGGGGCGCGGTCCAATCCCAATCCCAAGCCGAACGGCGATTGGGGCGCCTTGCCCGCCCAGCCGGCCGGCATGGTCGCGGCGCCGCGCATTGCGGGGTGGCCCGCAAAAAAAGCCTAG</t>
+  </si>
+  <si>
+    <t>ATGTTCCCCTTTTCGGCTGTCGTCGGACACGACGACCTCCGGCTCGCCCTGCTGTTGAACGCGGTGCACCCCGGCATCGGCGGCGTGCTCGTGCGCGGCGAGAAGGGGACCGCGAAGTCGACCGTCGTGCGTGCCCTCGCCGCGTTGCTGCCCGAGCTCGACGTGTCGGCGGGCTGCCGGTTCAACTGCACCCCCGGCACGACGGACTGCCCGGACGCGCCGCACCACGGCGGTGAGCGCAGGCCCGCCCGGCTCGTGGAGCTGCCGGTCGGTGCCACCGAGGACCGGCTGGTCGGGTCGCTCGACCTGGAGAAGGCGCTGACCGAGGGCGTGCGGGCGTTCCAGCCCGGCCTGCTGGCGGCGGCGCACCGGGGCGTGCTGTACGTGGACGAGGTCAACCTGCTGCACGACCACCTGGTCGACCTGCTGCTCGACGCGGCGGCGATGGGGCGGGCGCACGTGGAGCGCGAAGGGGTGTCGGTGTCGCACCCGTCGCAGTTCCTGCTGGTGGGCACGATGAACCCGGAGGAGGGCGAGCTGCGGCCGCAGCTGCTCGACCGGTTCGGGCTCACGGTGGCGGTGAAGGCGGCGCGGGACGTGGCCGTGCGCACCGAGGTGATCCGGCGCCGGTTGGCGTACGAGGCGGACCCGGAGACGTTCGCGGCCCGGTGGGCCGACGCGGACGCGCGGCTCAAGCAGCAGATCACGAACGCCCGCGCCGCACTCGGGAACGTGTCCCTCCCGGACGGTGAGCTGCGCCGGATCGCCGCCGTCTGCGCGGCTTTCGAGGTCGACGGGATGCGTGCGGACCTCGTGGTCGCCCGCACCGCCACGGCGCACGCCGCCTGGCGCGGTGCCACCGAGGTCGAGGAGAGCGACGTCGAGATCGCGGTCCGGCTCGCGTTGCCGCACCGGCGCCGGCGCGACCCGTTCGACGAGCCCGGCATCGAGGAGCAGCAGCTCGAGGACGCGATGCGGCAGGCGGCCGAGCACGCAGAGGACCCCGCCGGCGGTCCGGATGACGACGGTCCCGATGACGACGGGCCCGGTGGCGGTGAGCTGCCGGAGCCGCAGGAAGGGCCGCGAGGCAACGGGAACGCGCCGGGCGACCGTCCGCGCCCGAGCCGTCGCCCGCCTTCAAGGCGCGGCTGCTGGAGGTGCCGGGAGTCGGCGAAGGCGCGCCGGGCAAGCGGTCGCGGGCACGCGCGCGGACCGGCCGGGTCGTTCGTTCGTCCACAGTGGACGGCAGCGGGCTGCACCTGGTCGACACGCTCACCAACGCCGCGCCGCACCAGCGCGGACGCGGCCGCAGCGGTGCCGGGCCTGAAGCTCGTGCCCGGCGACCTGCGCAAGGCCGTGCGCGAGGGCAAGGAGTCGAACCTCGTGCTGTTCGTCGTCGACGCCTCCGGCTCGATGGCGGCGCAGAAGCGGATGGCGGCGGTCAGCGGCGCGGTGATCTCGTTGCTGCGTGACGCCTATCAGCGCCGCGACAAGGTGGGCGTGGTGACGTTCCGCGGCAACCAGGCCGAGGTCGCGCTGCCCCCGACGACCTCGGTCGACGCGGCGGCGACGCGCCTGAAGAAGATGCGCACCGGCGGCCGCACGCCGTTGGCGGACGGACTGCTGAAGGCCCACCGCGTCCTGGAGATCGAACGGCTGCGCGACCCGCGCAAGCGCCCGCTCGTGGTGCTGCTGACCGACGGCCGGGCGACCTCGTCCGGCCTCGGCGGCGACCCCACGAAGGACGCGCTCAAGGCCGCCACGCTGCTGGAGCAGACCGCGGTCGTCGTCGTGGACTGCGAACAGGGCCACGTCCGCCTCGGTCTCGCGGCCAAGGTCGCCGAAGCCCTGCGGGGCACCTGCGTCCGCCTCGACCAGCTCAGCGCCGACCACCTGGCCGGCGTCGTCCGCGCCGCGTAA</t>
+  </si>
+  <si>
+    <t>ATGTTCCCCTTTTCGGCTGTCGTCGGACACGACGACCTCCGGCTCGCCCTGCTGTTGAACGCGGTGCACCCCGGCATCGGCGGCGTGCTCGTGCGCGGCGAGAAGGGGACCGCGAAGTCGACCGTCGTGCGTGCCCTCGCCGCGTTGCTGCCCGAGCTCGACGTGTCGGCGGGCTGCCGGTTCAACTGCACCCCCGGCACGACGGACTGCCCGGACGCGCCGCACCACGGCGGTGAGCGCAGGCCCGCCCGGCTCGTGGAGCTGCCGGTCGGTGCCACCGAGGACCGGCTGGTCGGGTCGCTCGACCTGGAGAAGGCGCTGACCGAGGGCGTGCGGGCGTTCCAGCCCGGCCTGCTGGCGGCGGCGCACCGGGGCGTGCTGTACGTGGACGAGGTCAACCTGCTGCACGACCACCTGGTCGACCTGCTGCTCGACGCGGCGGCGATGGGGCGGGCGCACGTGGAGCGCGAAGGGGTGTCGGTGTCGCACCCGTCGCAGTTCCTGCTGGTGGGCACGATGAACCCGGAGGAGGGCGAGCTGCGGCCGCAGCTGCTCGACCGGTTCGGGCTCACGGTGGCGGTGAAGGCGGCGCGGGACGTGGCCGTGCGCACCGAGGTGATCCGGCGCCGGTTGGCGTACGAGGCGGACCCGGAGACGTTCGCGGCCCGGTGGGCCGACGCGGACGCGCGGCTCAAGCAGCAGATCACGAACGCCCGCGCCGCACTCGGGAACGTGTCCCTCCCGGACGGTGAGCTGCGCCGGATCGCCGCCGTCTGCGCGGCTTTCGAGGTCGACGGGATGCGTGCGGACCTCGTGGTCGCCCGCACCGCCACGGCGCACGCCGCCTGGCGCGGTGCCACCGAGGTCGAGGAGAGCGACGTCGAGATCGCGGTCCGGCTCGCGTTGCCGCACCGGCGCCGGCGCGACCCGTTCGACGAGCCCGGCATCGAGGAGCAGCAGCTCGAGGACGCGATGCGGCAGGCGGCCGAGCACGCAGAGGACCCCGCCGGCGGTCCGGATGACGACGGTCCCGATGACGACGGGCCCGGTGGCGGTGAGCTGCCGGAGCCGCAGGAAGGGCCGCGAGGCAACGGGAACGCGCCGGGCGACCGTCCGCGCCCGAGCCGTCGCCCGCCTTCAAGGCGCGGCTGCTGGAGGTGCCGGGAGTCGGCGAAGGCGCGCCGGGCAAGCGGTCGCGGGCACGCGCGCGGACCGGCCGGGTCGTTCGTTCGTCCACAGTGGACGGCAGCGGGCTGCACCTGGTCGACACGCTCACCAACGCCGCGCCGCACCAGCGCGGACGCGGCCGCAGCGGTGCCGGGCTGA</t>
+  </si>
+  <si>
+    <t>ATGCCAAACATTTTTCCCTTTACTGCGATCGTCGGACAGGAACGTATGCGCCGGGCGCTGGTTCTCAATGCTGTCGATCCTCGCATTGGCGGCGTACTTATCCGCGGTGAACGCGGTACGGCAAAATCTACGGCAGCACGCGCACTGGCTGCCCTGTTACCTTATGTGAAAGTTGTGGCAGATTGCCGCTTTGGCTGTGACCCGGATGCTCCGGCCAGCCTGTGCACCGAATGCCGTGAGCGGATTGCCCGCGGTGAATCTTTGCCTGTAAAAACCCGGCCAACACCCTTTGTCAACCTGCCGGTTTCTGCCACGGAAGATCGTGTGGTAGGGACATTGGATATCGAAAAAGCCATCCAGAAAGGCGAACGGGCATTTGAACCCGGTGTTCTGGCGGCAGCCAACCGCGGCATGTTATACATCGATGAAGTCAACCTGCTGGATGATCATGTGGTTGACGTGCTGCTTGACTCTGCGGCCATGGGTATGAATATTGTCGAACGCGAAGGTATTTCGTTTTCACACCCGGCCCGGTTTATCCTGGTGGGAACCATGAACCCGGAAGAAGGCGACCTGCGTCCGCAACTGCTGGACCGCTTTGCCCTTTCGGTAGATATTCACGGTATCCGTGATTCGCGTGAGCGCGTGACGATCATGGAACGCAACCTGGAATATGAAGCTTCCCCCGATAATTTCCGGAAGAAATGGGAACCGAAAGAAGAGGAAATTTCAAAACAGATTGAAGAAGCCCGCAAGCTCGTCGATCGGGTGGGTTACACCAAACATGACCTGATTTCCATTGCTTCTTTAACAGCATCTTTAAATGTTGACGGGCATCGCTCTGACCTGGTCATTTTGAAAGCTGCTCGCGCTCAGGCTGCCATTGAAGGACGTACGTCTGTTACTGATAGAGATATCGCCATGGCTGCTGAACTGGCTCTCCCTCACCGCCTGAAACGGGGTCCTTTTATGCAGTCTGAAATGACCATGGAAGACCTGCAGGAGCGTATAGAATCCCTGCAAGGTGGATCGAGCAAGGGTAAATCTGAACAGGAGCAGGAACCGGAAGATGATGCTTCCGATGATGTAAAAAAAAAGGTAAGTGAAGATGTTCAGGTCGAAGAACGACAGGACCTGAAGCCTCCGGCTGAAGAAGGTAAGCCGGTTTTCAAAGATGCCACAGCCCACTGGTGGGATGGTGGTGAAAAAACCAAGATTGGCGAATCCTTCAATCCGCGCAAGCTGGATACCCCGCTTGACCAGATGATCCGCAAGCAGGGTGGACGGCGTTCACGTACCAAGACAGAACAGGCGCGCGGCCGATATGTTCAGGCGCGCCCCACACCGGGTAAGGCTTTTGATCTGGCGTTTGATGCCACCATTCGGGCGGCAGCACCATACCAGCGCAACCGTTCAGAACAACGGCGGCGGGTGGCGTTTGCCGTCAAACCGGCAGATTACATGCGCAAAGTTCGGGTTCGCCGGGCGGCCAACCTGGTCCTATTTCTGGTGGATGCCTCCTGGTCAATGGCTGTGGCAGAACGTATGGCTGCCACCAAGGGCGCTATACTCTCGCTCTTGACCGATGCCTACCAGCGCCGCGACCGTGTGGGTCTGATCGTTTTCCAGAAAGACCGGGCCACCCTTGTGTTGCCGCCAACCAATTCCGTTCAACTGGCTCAACGGGCGCTTTCTGAAATTCCGGTAGGCGGAAAAACACCCTTACCGGCTGGTTTACAGATGTCACTCGAGGTGCTGCACCGTGAATCAACACTGCATCCTGAAGTGCAGCCATTATTGATTGTTCTGACGGACGGGGCCGGTAATGTTTCGATGGGGCATATGTCACCTCAGGACGAGTCCAACATGCTGGCCGATTTACTCGCGGAAGAAAAAATCCACAGTGTAGTGGTCAATATGGAGCATGCGGCCTTCGATCAGGGACTGGCACAGGTATTGGCCGACCACCTGCAGGCTCCCTGCTATACGATCACCGATCTGAAGGCAGAAAACCTTTATCAGACAGTACGCAATGAAATGTCAGCCATTGGTACGGTTTCAATGGGTGGTATCGGCGCTAAATAA</t>
+  </si>
+  <si>
+    <t>ATGCCAAACATTTTTCCCTTTACTGCGATCGTCGGACAGGAACGTATGCGCCGGGCGCTGGTTCTCAATGCTGTCGATCCTCGCATTGGCGGCGTACTTATCCGCGGTGAACGCGGTACGGCAAAATCTACGGCAGCACGCGCACTGGCTGCCCTGTTACCTTATGTGAAAGTTGTGGCAGATTGCCGCTTTGGCTGTGACCCGGATGCTCCGGCCAGCCTGTGCACCGAATGCCGTGAGCGGATTGCCCGCGGTGAATCTTTGCCTGTAAAAACCCGGCCAACACCCTTTGTCAACCTGCCGGTTTCTGCCACGGAAGATCGTGTGGTAGGGACATTGGATATCGAAAAAGCCATCCAGAAAGGCGAACGGGCATTTGAACCCGGTGTTCTGGCGGCAGCCAACCGCGGCATGTTATACATCGATGAAGTCAACCTGCTGGATGATCATGTGGTTGACGTGCTGCTTGACTCTGCGGCCATGGGTATGAATATTGTCGAACGCGAAGGTATTTCGTTTTCACACCCGGCCCGGTTTATCCTGGTGGGAACCATGAACCCGGAAGAAGGCGACCTGCGTCCGCAACTGCTGGACCGCTTTGCCCTTTCGGTAGATATTCACGGTATCCGTGATTCGCGTGAGCGCGTGACGATCATGGAACGCAACCTGGAATATGAAGCTTCCCCCGATAATTTCCGGAAGAAATGGGAACCGAAAGAAGAGGAAATTTCAAAACAGATTGAAGAAGCCCGCAAGCTCGTCGATCGGGTGGGTTACACCAAACATGACCTGATTTCCATTGCTTCTTTAACAGCATCTTTAAATGTTGACGGGCATCGCTCTGACCTGGTCATTTTGAAAGCTGCTCGCGCTCAGGCTGCCATTGAAGGACGTACGTCTGTTACTGATAGAGATATCGCCATGGCTGCTGAACTGGCTCTCCCTCACCGCCTGAAACGGGGTCCTTTTATGCAGTCTGAAATGACCATGGAAGACCTGCAGGAGCGTATAGAATCCCTGCAAGGTGGATCGAGCAAGGGTAAATCTGAACAGGAGCAGGAACCGGAAGATGATGCTTCCGATGATGTAAAAAAAAAGTAA</t>
+  </si>
+  <si>
+    <t>ATGCCCGTGATCTATCCATTTACCGCGATTGTTGGCCAGGAACGCATGAAGCGCGCCCTGGTATTAAACGCAGTGGACCCGCGCATCGGCGGTGTGTTAATCCGCGGCGAGCGCGGCACGGCCAAATCCACGGCGGCGCGCGCTTTGGCGGCTCTGCTGCCGAATGTGCATGTGGTCAGCGACTGCCGCTTTGGCTGCGACCCGGCCAAGCCGGACGCCTGGTGTACGGAATGCCGCGAGCGCGTAGGGCGCGGTGAGGAACTGCCCACCGCAGAGCGCCCCACCCCCTTCATTAACTTGCCCGTTTCCGCCACCGAAGACCGCGTGGTGGGAACGTTGGACATTGAAAAGGCTATCAAGAAGGGCGAGCGCGCCTTTGAGCCTGGGGTTTTGGCAGCAGCCAACCGCGGTTTGCTGTACATTGACGAAGTCAACCTGCTGGACGATCATGTGGTGGATGTGCTGCTGGATTCGGCGGCGATGGGCATGAACATCGTGGAGCGCGAAGGCATTTCCTTCTCGCACCCGGCGCGCTTCATCCTGGTGGGCACGATGAACCCGGAAGAAGGCGATCTGCGCCCGCAGCTTTTGGACCGCTTTGCCTTTTCGGTGGATATTTTCGGCATTCGCAGCGCCCGCGAGCGGGTGCAGATTATGGAACAAAACCTGGCCTACGAAAACAACGCCCAGGCCTTTCGCGATCATTGGATGCCGCGTGAAATTGACCTGTCGCACCAGATTGAGGCGGCGCGCGGGCTGGTGGATCAGGTGGGCTTTACCAAGCGCGACCTGCTCTCCATCGCCTCGTTGACGGCTTCCTTAAATGTGGAAGGTCACCGCGCTGACCTGGTGATTCTGAAGGCGGCGCGCGCCCAGGCCGCTTTTGAAGGGCGCACCATGATCACCGACCGCGATATCGCCATCGGCGCCGAGCTGGCTCTGCCTCACCGCCTGAAACGCGGCCCGTTCTCGCAGTCGGAAATGAGCATGGAAGAACTGCACGAGCGCATCGAGCAATTGCAAGGTTCCAGCAGCGCCGGCACACCTTCGGAGCCGTCAGAAGAGAAGAGCGAGGAATCCACCTCGCAAAAAAAAAGTTTAAGCGACGGTCAGGAAGAGGAACTGAGTGAGCAGGGGCGGGTTGAGCCTTCGGAAAAGAACCCGTTTGACGACCGCAACGCCTATTGGTGGGACGGCGGCCAAAAAGTAAAAACTGGCGAGGTGTTTGACCCCCGCCGCCTGGATACCCCCCTGGACAAGATGGTGCGCAGCCACGCCGGGCGGCGCTCGCGCACGCACACCGAGCGCAAGCGCGGTCGCTATGTGCAGGCCCGCCCCGCCAATGGGGACACCACCGATATCGCTTTTGACGCCACCATCCGCACGGCCGCGCCGTTTCAAATTCGGCGCGCCGAACAGCGGCAGCAGGTGGCGTTTGCTATTCAGCATGCGGATTTAATGAAAAAAGTGCGCGTGCGGCGCATGGCCAACCTGGTGCTCTTCCTGGTGGACGCCTCCTGGTCGATGGCGGTGGCCGAGCGCATGGCCGCTACCAAGGGGGCCATCCTCTCTTTGCTGACCGACGCCTACCAGCGCCGCGACCGCGTGGGACTGATCGTTTTCCAAAAAGACCGCGCCACGCTGGTGCTGCCGCCCACCAACTCGGTGCAGCTGGCGCAGCGCGCCCTGCGCGATATCCCCATCGGCGGCAAAACCCCGCTTTCTGCCGGGCTGCAGCTGGCCCATGATGTGCTGCGGCGCGAAAAGCTCTTCCACCCGGATGTGATGCCGCTGCTGCTGGTGCTCACCGATGGGGCGGGCAACGTTTCGATGGGACATCTGCCGCCGCAGGAAGAATCCAACCGCGTGGCCGAGCTGATCGCCATGGAACACATTCACAGCGTGGTGATTAATATGGAACATCAGGCCTTTGATCAGGGCCTGGCGCAAACCCTGGCCGAACATTTAAACGCGGCCTGTTACTCGCTGACCGAGCTCAAGGCGGAAAATCTGTATTACACCGTGCGCCAGGAAATGAATCAGGCCAACGCCAAAGCCGACGACGGGCGGTAA</t>
+  </si>
+  <si>
+    <t>ATGCCCGTGATCTATCCATTTACCGCGATTGTTGGCCAGGAACGCATGAAGCGCGCCCTGGTATTAAACGCAGTGGACCCGCGCATCGGCGGTGTGTTAATCCGCGGCGAGCGCGGCACGGCCAAATCCACGGCGGCGCGCGCTTTGGCGGCTCTGCTGCCGAATGTGCATGTGGTCAGCGACTGCCGCTTTGGCTGCGACCCGGCCAAGCCGGACGCCTGGTGTACGGAATGCCGCGAGCGCGTAGGGCGCGGTGAGGAACTGCCCACCGCAGAGCGCCCCACCCCCTTCATTAACTTGCCCGTTTCCGCCACCGAAGACCGCGTGGTGGGAACGTTGGACATTGAAAAGGCTATCAAGAAGGGCGAGCGCGCCTTTGAGCCTGGGGTTTTGGCAGCAGCCAACCGCGGTTTGCTGTACATTGACGAAGTCAACCTGCTGGACGATCATGTGGTGGATGTGCTGCTGGATTCGGCGGCGATGGGCATGAACATCGTGGAGCGCGAAGGCATTTCCTTCTCGCACCCGGCGCGCTTCATCCTGGTGGGCACGATGAACCCGGAAGAAGGCGATCTGCGCCCGCAGCTTTTGGACCGCTTTGCCTTTTCGGTGGATATTTTCGGCATTCGCAGCGCCCGCGAGCGGGTGCAGATTATGGAACAAAACCTGGCCTACGAAAACAACGCCCAGGCCTTTCGCGATCATTGGATGCCGCGTGAAATTGACCTGTCGCACCAGATTGAGGCGGCGCGCGGGCTGGTGGATCAGGTGGGCTTTACCAAGCGCGACCTGCTCTCCATCGCCTCGTTGACGGCTTCCTTAAATGTGGAAGGTCACCGCGCTGACCTGGTGATTCTGAAGGCGGCGCGCGCCCAGGCCGCTTTTGAAGGGCGCACCATGATCACCGACCGCGATATCGCCATCGGCGCCGAGCTGGCTCTGCCTCACCGCCTGAAACGCGGCCCGTTCTCGCAGTCGGAAATGAGCATGGAAGAACTGCACGAGCGCATCGAGCAATTGCAAGGTTCCAGCAGCGCCGGCACACCTTCGGAGCCGTCAGAAGAGAAGAGCGAGGAATCCACCTCGCAAAAAAAAAGTTAA</t>
+  </si>
+  <si>
+    <t>ATGCCCGTGATTTATCCATTTACCGCCATCGTCGGCCAGGAACGCATGCGTCGCGCCCTGGTTCTGAATGCAGTCGATCCGCGTATCGGCGGCGTGTTGATTCGCGGTGAGCGCGGCACGGCCAAATCCACCGCGGCGCGCGCCCTGGCAGCCTTGCTACCCAGCGTCCCTGTGGTGGCGGATTGCCGTTTCGGCTGCAATCCAGACAACCCGGCTACCTGGTGCACTGAGTGCCGCGAGCGTTTCGCCGCCGGTGAGACCCTGCCCACCGCAGTGCGCACCACGCCCTTCATTAACTTACCCGTCTCGGCCACCGAAGACCGCGTGGTCGGTACACTGGATATCGAAAAAGCCATCCAAAAAGGCGTGCGCGCCTTCGAGCCCGGTGTGTTGGCGGCTGCCAACCGCGGCATGCTCTACATCGACGAGGTCAACCTGTTGGACGACCATGTGGTGGACGTGCTGCTCGATTCGGCCGCCATGGGCATGAACATCGTCGAGCGCGAAGGCATTTCCTTCTCCCACCCGGCGCGCTTCATCCTCGTCGGCACCATGAACCCCGAAGAAGGCGATCTGCGCCCGCAATTGTTGGACCGCTTTGCCTTTTCAGTCGAAATCTACGGCATTCGCGAGGCCCGCGAACGCGTCACCATTATGGAACGCAACCTGGCCTTCGAAGCCGATCCCGACGGCTTCCGCCAGCAGTGGCTGGCCAAGGAAGAAGATCTTTCGCATCGCATCGAGGAAGCCCGCAAGTTGTTGGATGTCGTCACCTACACCCGCCGCGACCTGTTATCCATCGCCTCGCTGACGGCTTCGCTCAATGTCGACGGCCACCGCGCCGATCTGGTCATTCTCAAGGCCGCGCGCGCCCAGGCTGCCTTCGAAGGGCGTCAGGCGATTACCGACCGCGATATCGCCCTGGCCGCCGAGCTGGCGCTGCCGCACCGCATCAAGCGCGGGCCCTTCCAGCAGGCCGAAATGAGCATGGAAGAACTGCAGGATCGTATCGAGCAGCTCCAGGGCCAGACGACCACCGGCCGCGAATCGGAAAGCGAACCGCAGGAAGGCGAAAGCCAGGACCAGAGCGCGGAAAAAAAAATTTTAACTGACGTAATGGAAGGCGAAGCCGCGCCCGAGGAAGGCGAAAACGAGCCGGCTCACCAGGACATCTTCGATCAGGGTACCACCAAATGGTGGGAAGGCGGCAAGAAGGTCAAAGCCACCGAAGCTTTCATTCCCCGTCGCCTGGATACTCCCCTGGACCGCATGGTGCGACGCGCAGCCGGGCGCCGTTCGCAAACCCACACCGATCGCAAGCGCGGCCGTTACGTTCAGGCGCGCCCCACACCCGGCAAGGCCTACGACCTGGCCTTCGATGCCACCCTGCGCGCAGCCGCCCCCTTTCAGCAGCGCCGCGTCGAACAGCGCAAACGCGTGGCCTTTGCCATCACACCCAATGATTACATGCGCAAAGTTCGCGTCCGCCGGGCGGCCAACCTGGTATTGTTCCTGGTGGACGCATCCTGGTCGATGGCCGTGGCCGAGCGCATGGCCGCCACCAAGGGCGCCATTCTTTCCCTGTTGACCGACGCCTACCAACGCCGCGACCGCGTTGGCCTGATCGTGTTCCAGAAAGATCATGCCACCCTGGTGCTGCCCCCCACCAACTCGGTCATGCTGGCCCAACGCGCGCTGGCCGAAATCCCGGTCGGCGGCAAGACGCCGCTCTCGGCCGGGCTGGAAATGTCGTACGACGTGCTGCGCCGAGAGATGCTGCTGCACCCGGACGTGATGCCGCTGCTCATCGTGCTCACCGACGGCGCCGGCAACGTCGCCATCAGCCACATCAAACCGCCCCAGGAAGAGGCCTACCAGATCGCCGAGCAGATCGCTGCCGAGAAGGTGCACTGCGTGGTCATCAACATGGAACACGCCGCCTTCGATCAAGGCCTGGCTCAGGCGCTGGCCGATCATCTCAAGTCGCCGTGCTATAGCATTTCGGATCTCAAAGCCGAAAATCTGTACCTGACCGTGCGCAAAGAAATGTCACAGGTGCGCACGCCCAACCCACCGGACGTCCTGCACACGCTGCATTAA</t>
+  </si>
+  <si>
+    <t>ATGCCCGTGATTTATCCATTTACCGCCATCGTCGGCCAGGAACGCATGCGTCGCGCCCTGGTTCTGAATGCAGTCGATCCGCGTATCGGCGGCGTGTTGATTCGCGGTGAGCGCGGCACGGCCAAATCCACCGCGGCGCGCGCCCTGGCAGCCTTGCTACCCAGCGTCCCTGTGGTGGCGGATTGCCGTTTCGGCTGCAATCCAGACAACCCGGCTACCTGGTGCACTGAGTGCCGCGAGCGTTTCGCCGCCGGTGAGACCCTGCCCACCGCAGTGCGCACCACGCCCTTCATTAACTTACCCGTCTCGGCCACCGAAGACCGCGTGGTCGGTACACTGGATATCGAAAAAGCCATCCAAAAAGGCGTGCGCGCCTTCGAGCCCGGTGTGTTGGCGGCTGCCAACCGCGGCATGCTCTACATCGACGAGGTCAACCTGTTGGACGACCATGTGGTGGACGTGCTGCTCGATTCGGCCGCCATGGGCATGAACATCGTCGAGCGCGAAGGCATTTCCTTCTCCCACCCGGCGCGCTTCATCCTCGTCGGCACCATGAACCCCGAAGAAGGCGATCTGCGCCCGCAATTGTTGGACCGCTTTGCCTTTTCAGTCGAAATCTACGGCATTCGCGAGGCCCGCGAACGCGTCACCATTATGGAACGCAACCTGGCCTTCGAAGCCGATCCCGACGGCTTCCGCCAGCAGTGGCTGGCCAAGGAAGAAGATCTTTCGCATCGCATCGAGGAAGCCCGCAAGTTGTTGGATGTCGTCACCTACACCCGCCGCGACCTGTTATCCATCGCCTCGCTGACGGCTTCGCTCAATGTCGACGGCCACCGCGCCGATCTGGTCATTCTCAAGGCCGCGCGCGCCCAGGCTGCCTTCGAAGGGCGTCAGGCGATTACCGACCGCGATATCGCCCTGGCCGCCGAGCTGGCGCTGCCGCACCGCATCAAGCGCGGGCCCTTCCAGCAGGCCGAAATGAGCATGGAAGAACTGCAGGATCGTATCGAGCAGCTCCAGGGCCAGACGACCACCGGCCGCGAATCGGAAAGCGAACCGCAGGAAGGCGAAAGCCAGGACCAGAGCGCGGAAAAAAAAATTTAA</t>
+  </si>
+  <si>
+    <t>ATGCAGAACTTTCCCTTCCCTCTCAGCGCTATCGTCGGCCAGGACGCCATGAAGGCAGCATTGTTGCTCAACGCCGTTGATCCCAGTATTGGCGGTGTCCTGATTCGTGGCCAGAAAGGGACGGGGAAGTCGACCGCAGCGCGTGCGTTGGCTGCGCTCTTGCCTGCCATCGAGGTTGTTGCCGGTTGTCCCTACCAGTGTGATCCGGGGAATATAGAAAAACTGCACGACGGCTGCCGGGAAAAGCTGGAAAAAGGCGAACAGCTGGAGAGAACGAAACGGCCGATGCCGGTGGTTGAGCTGCCACTGAGCGCGTCAGAAGACCGGGTGGTCGGCAGTGTGCAATTGGAGCATGTACTCAAAACCGGGCAAAAGCGTTTTGAGCCTGGCCTGCTGGCTGCGGCGAATCGCGGCATTCTTTACGTCGATGAAGTCAACCTGCTGGAAGATCACCTGGTCGATCTGCTGCTCGATGCTGCTGCGTCCGGTGTAAACCGGGTTGAGCGGGAAGGGCTCTGCGTCACTCACCCGTCACGTTTTATGCTGATTGGCACCATGAACCCGGAAGAGGGTGAGCTGCGGCCGCAGTTTCTGGATCGCTTCGGTCTTGTGGTCAATGTCGAAGGGATTAGTGATCCACATCAGCGCCGGCAATTGATCGAAAATCGCATTGCTTATGAACAGAATCCGCAGGATTTCGTTGCCCGTTGGCAGCAGGAAGAACATTTCTTGGCTGCACAGGTGCAGCAGGCCCAAAGAAATCTGAACCAGGTGGTGATCCCGGAGGCCGCGTATGATCTGGTTGTCAAGCTGGCGATTGAGCTGCAGGTGCATGGCCACCGGGCAGATATCGCCCTGCTGAAGGTCGCCCGTGCGCTGGCAGCATTGCTCGGAAAGAAAGCGGTCAGCGTGGCTGAAGTCAAAGAAGCGGCCGCTTTTGTCCTGCCGCATCGCCTGCCGGGCGGGACTTTGCTGAACAGCGAAGCTGCCCGGAAAAATCTCGACGACGCCCTGGTGAGGGTGCTTGAAGGCAAGCCGGAGCAGGTTAGTCTTGATGATCAGGATCCCCTTGATGACCTTGACTTCATGTTGGTCGATTACGAGTTTCCTGGTTCCGCCGCCGCGGGAAGCATGCTGTTCCAGACGCTTAAAAAAAAACTTCACAGCGAATCGTCGATATCGACGACCAGCACTGCCTCGCCCCAGTCAATATCGAGCAGCCTGAGCTTTTCCCGTAACAGGTCCGGACGCCGCCGCAGTAAGGGCCGTGGCCGCGCTGGCCGTCATCTGCGCAGCCTGCCGCTGCGAGCCAATCAACCTGATGCAATCATCGATCTCCCTGCAACCCTGCGCGCCAGCTTGATCCGTGGTAGTGAGGTCGAATTAAGAGACCTGCAGGCGAAGCAGTTTCTGCAGCGGCAGCGGGCGCTGATTGTTTTCGTGATAGATGCGTCCGAATCGATGGGGCAAGGCTCACTGGAGCGGATGAAGGCGGCAAAAGGAGCCATTCTCGGTCTGTTGACGGCGGCCTACCAGAATCGTGACCAGGTTGCGCTGGTCTCTTTCGGCGGCGAACGAGCACAGGTTTTATTGCGACCGACCTCCAGCGTGTTGCTCGCCCAGCAGCAGTTACGCAAGTTGCCGCTGGGGGGTGCGACGCCTTTTGCCGATGGACTCTGGCAAGGATGGCAGCTGATCCGCACGCAACGGCAAAAGCAGCCGAGCCTGCAGCCTTTGTTGGTGATTGTCTCCGATGGTGAAGCAAACCTGCCATTGTCCCCCGGGGGCAACGTTTACGATGAGCTGTTTGGCTTGGCCCTGCAGGTTGCCAGGGATCAGATTCAAAGTGTCGTGATCGACAGCCGCGGTGGTGTCGGCAACGAAAAGCTGCAGCAATTGGCTCGACGGTTGGGTGGCCGCTACACGCAGATTCGTGATTTGCACGCCGGGCGATTGATCGAAGCTGTGCAGACACTGGAGCGGTGA</t>
+  </si>
+  <si>
+    <t>ATGCAGAACTTTCCCTTCCCTCTCAGCGCTATCGTCGGCCAGGACGCCATGAAGGCAGCATTGTTGCTCAACGCCGTTGATCCCAGTATTGGCGGTGTCCTGATTCGTGGCCAGAAAGGGACGGGGAAGTCGACCGCAGCGCGTGCGTTGGCTGCGCTCTTGCCTGCCATCGAGGTTGTTGCCGGTTGTCCCTACCAGTGTGATCCGGGGAATATAGAAAAACTGCACGACGGCTGCCGGGAAAAGCTGGAAAAAGGCGAACAGCTGGAGAGAACGAAACGGCCGATGCCGGTGGTTGAGCTGCCACTGAGCGCGTCAGAAGACCGGGTGGTCGGCAGTGTGCAATTGGAGCATGTACTCAAAACCGGGCAAAAGCGTTTTGAGCCTGGCCTGCTGGCTGCGGCGAATCGCGGCATTCTTTACGTCGATGAAGTCAACCTGCTGGAAGATCACCTGGTCGATCTGCTGCTCGATGCTGCTGCGTCCGGTGTAAACCGGGTTGAGCGGGAAGGGCTCTGCGTCACTCACCCGTCACGTTTTATGCTGATTGGCACCATGAACCCGGAAGAGGGTGAGCTGCGGCCGCAGTTTCTGGATCGCTTCGGTCTTGTGGTCAATGTCGAAGGGATTAGTGATCCACATCAGCGCCGGCAATTGATCGAAAATCGCATTGCTTATGAACAGAATCCGCAGGATTTCGTTGCCCGTTGGCAGCAGGAAGAACATTTCTTGGCTGCACAGGTGCAGCAGGCCCAAAGAAATCTGAACCAGGTGGTGATCCCGGAGGCCGCGTATGATCTGGTTGTCAAGCTGGCGATTGAGCTGCAGGTGCATGGCCACCGGGCAGATATCGCCCTGCTGAAGGTCGCCCGTGCGCTGGCAGCATTGCTCGGAAAGAAAGCGGTCAGCGTGGCTGAAGTCAAAGAAGCGGCCGCTTTTGTCCTGCCGCATCGCCTGCCGGGCGGGACTTTGCTGAACAGCGAAGCTGCCCGGAAAAATCTCGACGACGCCCTGGTGAGGGTGCTTGAAGGCAAGCCGGAGCAGGTTAGTCTTGATGATCAGGATCCCCTTGATGACCTTGACTTCATGTTGGTCGATTACGAGTTTCCTGGTTCCGCCGCCGCGGGAAGCATGCTGTTCCAGACGCTTAAAAAAAAACTTCACAGCGAATCGTCGATATCGACGACCAGCACTGCCTCGCCCCAGTCAATATCGAGCAGCTGA</t>
+  </si>
+  <si>
+    <t>TTGAAAAACTTGATTTTTCCATTTTCGGCTATTGTAGGTCAAGAAAAAGTTAAAAAAGCCCTGGTATTGAATGCGATCAATCCATCTATTGGGGGGGTCCTGATCAAAGGGGATAAGGGAACAGGGAAGACCACGGCAGTGCGAGCCCTGGCTGATCTTTTACCTCCACTGCAGGTTATTAAGGGATGTCCCTTTAACTGTGATCCGGATGATCCGGCTTCTTTCTGTGATTCCTGCCGAGAGGAATCAGAAATAAAGGTGGAAGAAAAGAAAATGCGGGTGGTTGAACTGCCACTGGGAGCCACAGAAGACCGGGTGGTTGGATCAATTAACATTGAAAAAGCACTTAAAGAAGGTATGAAAGCACTGGAACCGGGTCTATTGGCCGATGCTAATCGTAACATCTTATATGTTGATGAAATAAACCTTCTGGATGATAATCTTGTTGATGTTCTCCTTGATGCCGCTGCTTATGGAATAAACACCGTAGAACGTGAAGGGATTTCACTGGTGCATCCTTCCAACTTCATACTGGTGGGAACCATGAACCCGGCTGAAGGGGAGCTCCGGCCACAGTTATCAGACAGGATAGGCCTGCAGATCTCAGTGCAGAGCATAATGGATATTGAGGACCGGGTGAAGATCATGGAAAGAAGGGAGGCCTTTGAAAGGGATCCCCATGCCTTCCGGGAAGAATTTAAGGAATACCAGGACCAGATACTGGAAAACATTATTGAAGCCCGCACACTCCTCCCCCAAGTCCAGGTTTCACCAGAGATGATGAAGGTAATAGCCCAGCTATGCGTTGATATGGGTGTGGATGGTCACCGGGCAGATATCGCCATTTTAAAGACTTCAAAAACCTTAGCTGCCTACTACAAACACCAGGAAGTTGAACCAATAGATGTGGAAGAGGCGGCTGCCCTGGTTTTAGGTGAAAGATTCCATAAAAAGTCACTGGATGAAGAGAAAATCAAAAAACAGATGAAAAACGCGGTGAATGAAGTTTCACGTGATGAAACTGGGGATGATAAAAAAAAGTCCCAGACCACGGTAGAAACTGAACAGAAAAAGAGGGGTATGAAACTTAAAACCCTGAAAAAAGAAGAAGAAAAGGTGGAATCCCAGGAAGAAGAGGTGGATGTAAAAAAACTCCTGAAAACTAAGGGGAAAAAGAAACAGCGCATTTATGGTAAACGGATGGATTCTAAGACTCAAAAAGGCCGTTACATAAAAAGCAAACTTCCTAAAGACTCTTCTGGAGATATTGCCATTGACGCCACATTGCGGGCGGCGGCAATGAGTTCCAATGGTGAAATTAAGGTTAAAAGTGAGGATTTGCGTCATAAAATCCGTAAACACGGTGCCAAAGCATCCATTGCCATGGTGGTGGATATCAGTGGGTCCATGTTCTCTGACCGAAAGGCCAATAAATTGAAGGGAATTTTAAACAGTGTAATCGAGGATGCCAACCGGCACCACGACCGTATCAGTGTGGTGGGATTTAAAGGGGAAAAAGCAGAGGTAATCATTCCTACCACTGGCCGGGCTACTTCTTTCCGGGAACAGGTGGATAACATTCGGGTTGGTGGAACCACCCCCCTGGCTGCCGGTATGCAGAAGGGCCTGGAGATTCTGGAGAAGGAGAAATTAAAGGCGGAATTTGTTCCCTTCCTACTGGTACTCTCGGATGGTATGCCCAATGTGGCCCTGGAAGAGGGTCCAATGAAGGACGCCCTTAATATCGCCGAAAAAATCAAGGAAAAAGAGATACACACCGTGATTATAAACTTTGAAAGGTCGGTGCGCTACGGTCATGAAGTGAACATGGAGTTGGCCCTGGCTGCAGGGGGACGTTACTACGATCTGGAAGATTTAAAGGATCCTGCCGGAGCCATGGCCAAGTTACTGGAATACGAACGGGAAAATCTTTAG</t>
+  </si>
+  <si>
+    <t>TTGAAAAACTTGATTTTTCCATTTTCGGCTATTGTAGGTCAAGAAAAAGTTAAAAAAGCCCTGGTATTGAATGCGATCAATCCATCTATTGGGGGGGTCCTGATCAAAGGGGATAAGGGAACAGGGAAGACCACGGCAGTGCGAGCCCTGGCTGATCTTTTACCTCCACTGCAGGTTATTAAGGGATGTCCCTTTAACTGTGATCCGGATGATCCGGCTTCTTTCTGTGATTCCTGCCGAGAGGAATCAGAAATAAAGGTGGAAGAAAAGAAAATGCGGGTGGTTGAACTGCCACTGGGAGCCACAGAAGACCGGGTGGTTGGATCAATTAACATTGAAAAAGCACTTAAAGAAGGTATGAAAGCACTGGAACCGGGTCTATTGGCCGATGCTAATCGTAACATCTTATATGTTGATGAAATAAACCTTCTGGATGATAATCTTGTTGATGTTCTCCTTGATGCCGCTGCTTATGGAATAAACACCGTAGAACGTGAAGGGATTTCACTGGTGCATCCTTCCAACTTCATACTGGTGGGAACCATGAACCCGGCTGAAGGGGAGCTCCGGCCACAGTTATCAGACAGGATAGGCCTGCAGATCTCAGTGCAGAGCATAATGGATATTGAGGACCGGGTGAAGATCATGGAAAGAAGGGAGGCCTTTGAAAGGGATCCCCATGCCTTCCGGGAAGAATTTAAGGAATACCAGGACCAGATACTGGAAAACATTATTGAAGCCCGCACACTCCTCCCCCAAGTCCAGGTTTCACCAGAGATGATGAAGGTAATAGCCCAGCTATGCGTTGATATGGGTGTGGATGGTCACCGGGCAGATATCGCCATTTTAAAGACTTCAAAAACCTTAGCTGCCTACTACAAACACCAGGAAGTTGAACCAATAGATGTGGAAGAGGCGGCTGCCCTGGTTTTAGGTGAAAGATTCCATAAAAAGTCACTGGATGAAGAGAAAATCAAAAAACAGATGAAAAACGCGGTGAATGAAGTTTCACGTGATGAAACTGGGGATGATAAAAAAAAGTCCCAGACCACGTAG</t>
+  </si>
+  <si>
+    <t>ATGGTGAGACTATTGAAAAACCTGATTTTCCCATTTTCAGCTATTGTTGGTCAAGAAAAAGTTAAAAAAGCCCTGGTATTGAATGCAATCAACCCATCGATTGGTGGGGTGCTTATTAAGGGTGATAAAGGAACTGGAAAAACCACGGCAGTAAGGGCTCTGGCAGATCTTTTACCTCCATTAAAAGTTGTTAAAGGGTGTCCTTTTAACTGTGATCCTGATGATCCAACCTCTTTCTGTGATTCCTGTAAGATGGATGAATCCGGAGAGATCCAGGTTGAGGAGAAGAAAATGAGGGTGGTGGAACTACCATTAGGCGCCACTGAAGACAGGGTAGTGGGGTCAATTAACATTGAAAAGGCACTAAAAGAGGGAATGAAAGCATTAGAACCAGGTATACTTGCCGATGCAAACCGTAACATTTTGTATGTTGATGAAATAAACCTCCTGGATGACAACCTGGTAGACGTGTTATTAGATGCTGCTGCTTATGGAATAAACACTGTGGAACGTGAGGGCATCTCACTGGTCCACCCTTCCAACTTCATACTGGTGGGAACTATGAATCCAGCTGAAGGAGAGCTCAGACCGCAGTTATCCGATAGGATAGGTTTGCAAATTTCGGTTCAAAGCATCCTTGATATAGATGACCGAGTTAAGATCATGCAAAGGAGAGAATCCTTTGAGAAAGATCCAAACACCTTCCGGGAAGAATTCCAGAAATATCAAAACCAGATACTAGAAAATATTATCAAAGCCAGGAAACTCCTCAAGGAAGTTGAGGTTTCACAGGATATGATGAAAGTAATAGCTCAACTCTGTGTAGATATGGGAGTAGACGGTCATCGTGCGGATATTGCTATTTTAAAGACATCAAAAACACTGGCAGCATATTATAAACATCATGAAGTTGAATATATTGATGTTGAAGAGGCAACAGCTCTGGTTTTGGGGGAAAGGTTCCATAAAAAATCATTGGATGAGGATAAAATAAAAAAGCAAATAAAAAATGCTGTAAATGAAATTTCTGATGAAGAAAATAAAGGGGATGATAAAAAAAAGCCCCAGAACAAAATAGAAAGTGAACAGAAAAAGAGGGGAATGAAACTTAAAACACTTAAAAAGGATGAACAGGCTGTTGAATCCCAGGAAGAAGAGGTTGACGTGAAAAAACTCCTTAAAATTAAGGGGAAAAAGAAAAAACGTCTTTACGGTAAGCGAATTGATTCAAAAACTCAAAAAGGTCGTTATATTAAAAGTAAACTTCCCAAGGACCCTTCAGGGGATATTGCAATTGACGCAACTTTAAGGGCAGCAGCTCTGGGTTCTCATGGTGAAATTAATGTTAAAAGTGAAGATTTGCGTCATAAAATCCGTAAACATGGTGCTAAAGCATCTATTGTTATGGTGGTGGACATCAGTGGGTCCATGTTCTCTGATCGCAAAGCAAACCGGTTGAAGGGAATTTTAAACACTGTTATTGAGGATGCACATCGCCATCAGGACAGGATAAGTGTTATTGGATTTAAGGGACAGGAAGCAGAGATAATTATTCCAACTACCAGCAGAGCTACATCCTTCCGTGAGCAGGTGGACAACATCCAGGTGGGAGGAACAACTCCACTGGCGGCAGGGATGAAAAAAGGTCTGGAAATTCTTAAAAAGGAGAAATTAAAAGAAGAATTTGTACCACTACTCATTGTACTTTCGGATGGTATGCCTAATATTGGCCTGGAAGAGGGGCCCTTGAAAGATGCCCTTAAAATTGCTGAGGAAATAAAAGAAAAGGAAATACACACACTGGTAATTAACTTTGAGCAATCAGTGCGTTATGGTCATGAAATAAATATGGAACTGGCCCTGGCTGCAGGGGGACGTTACTATGATCTGGAAGAGCTGAAAAATCCAGGCATGGTTATGGCACGAATACTGGACAATGAACGAGAAAACATCTAA</t>
+  </si>
+  <si>
+    <t>ATGGTGAGACTATTGAAAAACCTGATTTTCCCATTTTCAGCTATTGTTGGTCAAGAAAAAGTTAAAAAAGCCCTGGTATTGAATGCAATCAACCCATCGATTGGTGGGGTGCTTATTAAGGGTGATAAAGGAACTGGAAAAACCACGGCAGTAAGGGCTCTGGCAGATCTTTTACCTCCATTAAAAGTTGTTAAAGGGTGTCCTTTTAACTGTGATCCTGATGATCCAACCTCTTTCTGTGATTCCTGTAAGATGGATGAATCCGGAGAGATCCAGGTTGAGGAGAAGAAAATGAGGGTGGTGGAACTACCATTAGGCGCCACTGAAGACAGGGTAGTGGGGTCAATTAACATTGAAAAGGCACTAAAAGAGGGAATGAAAGCATTAGAACCAGGTATACTTGCCGATGCAAACCGTAACATTTTGTATGTTGATGAAATAAACCTCCTGGATGACAACCTGGTAGACGTGTTATTAGATGCTGCTGCTTATGGAATAAACACTGTGGAACGTGAGGGCATCTCACTGGTCCACCCTTCCAACTTCATACTGGTGGGAACTATGAATCCAGCTGAAGGAGAGCTCAGACCGCAGTTATCCGATAGGATAGGTTTGCAAATTTCGGTTCAAAGCATCCTTGATATAGATGACCGAGTTAAGATCATGCAAAGGAGAGAATCCTTTGAGAAAGATCCAAACACCTTCCGGGAAGAATTCCAGAAATATCAAAACCAGATACTAGAAAATATTATCAAAGCCAGGAAACTCCTCAAGGAAGTTGAGGTTTCACAGGATATGATGAAAGTAATAGCTCAACTCTGTGTAGATATGGGAGTAGACGGTCATCGTGCGGATATTGCTATTTTAAAGACATCAAAAACACTGGCAGCATATTATAAACATCATGAAGTTGAATATATTGATGTTGAAGAGGCAACAGCTCTGGTTTTGGGGGAAAGGTTCCATAAAAAATCATTGGATGAGGATAAAATAAAAAAGCAAATAAAAAATGCTGTAAATGAAATTTCTGATGAAGAAAATAAAGGGGATGATAAAAAAAAGCCCCAGAACAAATAG</t>
+  </si>
+  <si>
+    <t>ATGCGTGTTATTGAGCTTCCTTTGGGTGCTACTGAGGATCGTGTGGTTGGTTCTCTTGATATTGAAAAGGCTCTTCATGAGGGTATTAAAGCTTTAGAGCCTGGTCTTCTTGCTCAAGCTAATCGTAATATTCTTTATATTGATGAGATTAATCTTTTGGATGATAATCTTGTCGATGTTTTATTAGATGCTGCTGCATTTGGTATAAACACCATTGAAAGAGAGGGAATTTCAATCTCACACCCATCAAAGTTCATTCTAATTGGAACAATGAACCCCGAAGAAGGAGAACTACGAGGACAACTATCAGATCGAATTGGTCTTGAAATTGAAGTTGAGGGTATTTCAAATATTGAAGATAGAATAAAAATCATGAAACGAAGAGAATCATTTGAAAGAGATCCTTTATCTTTTAGAGCTAAATTTGATGAGGATCAAGAGGAACTTCAAAATAAGATAATAAAAGCTAAGGAAATATTAAATGATGTAGTTATTGATCATGTTTTATTAGAGGTAATAGCTAGAATCACTTTAGAACTTTCATCGGAAGGACATAGAAGTGATATAAGTATTTTAAAAACAGCTAAAACAATTGCATCTTTTAATGGTAATTTAACTGTTGATTTTGATGATTTAAAAGAAGCTATTTCTCTTGTCCTTGGGGAAGATCCTCTACTCAATCAAAGGATTCAGAAAATTAGGAATGATATTGAAAAAAGAGAAAAAGAAAGGGAAAATGATTTAGATAAAGATAGTCTTTTTTTCAGCAATGATAATCTTCAAGAAAAAATTAAAGAACAATTAGAAGATTCATTAAATGAGAAATTAAAGAAAGCAAATCAAAATCATGAAAATAAAGAATTAGATAAGGCTTTTAATGATTCTGATAATAAAGATTTGGATAATATTGAATTAGGAGAGGGTGAATCTAAAGAAAAGGATTTCATTAATACTTCTGATTTTGAAGATAAAGATGAGTCTGATTCAAAACTTAATCAGGGTGAAAAATTAGAAAATTTTAATGAATTTAATATTGATGGGAAGTTTGATATAAAAAAATATTTAATGGTTGAGGCTGTAAAAAGAGAGAAACTTTATGGTAAACGGGTAAACTCACAAAGTAAAAAAGGGAAGTATGTTAAAAGTAAGATTTCTAATAATTCAGAGGATGTAGCTATTGATGCCACTATTCGTGCAGCTGTATTAAATTCTAATATAAAAAATTCTAATATAAATAACAATTCCAAATTTAATAAAGATACTAATTTAAAAATTAATAATGATACAAATTTAAAAGTTAATATAAAAAAAGAGGATTTAAGAGAAAAAGTAAGAAAACATGGAGCTAAATTATCCATTGCATTAATTGTGGATATGAGTGGTTCTATGATTAGTGATGAAAAGCTTAATAGAATAAAAGCAATCTTACAAAAAATAATATTAAATGTTCATGTTAATAAGGATAAATTAGCTGTTATTGGATTTAAAGGTAAGGATTCAGAAGTTATTATTCCAAATACTAAAAGACCTAATTCTTTTTTAAATAAGCTTGAGAATATAACTGTTGGAGGAACTACTCCCATGGCTGCTGGACTTAAAAAAGGTTTAGAAGTTTTAAAAAAGGATCTCAATAAGGAAGAATATATTCCAATGCTTATGATATTATCTGATGGAGTAACTAATGTAAGTTTAGAAAGATCTAATATTAATTCTAATGTTAATAAAAGATCTAAGTCTTTAAAATATAATAATTCTTCTGGAAAATCAAAGGAATATAAATCTAATAAAATGATTATAAGTAATCCTATTAAGGATGCCTTGACTGTTGGTGAAGAGATAGCTAAATATAATATTCATACAGTTATTGTTAATTTTGAAAAGGAAAAAATAAGGGAAGAAGTATAA</t>
+  </si>
+  <si>
+    <t>ATGCGTGTTATTGAGCTTCCTTTGGGTGCTACTGAGGATCGTGTGGTTGGTTCTCTTGATATTGAAAAGGCTCTTCATGAGGGTATTAAAGCTTTAGAGCCTGGTCTTCTTGCTCAAGCTAATCGTAATATTCTTTATATTGATGAGATTAATCTTTTGGATGATAATCTTGTCGATGTTTTATTAGATGCTGCTGCATTTGGTATAAACACCATTGAAAGAGAGGGAATTTCAATCTCACACCCATCAAAGTTCATTCTAATTGGAACAATGAACCCCGAAGAAGGAGAACTACGAGGACAACTATCAGATCGAATTGGTCTTGAAATTGAAGTTGAGGGTATTTCAAATATTGAAGATAGAATAAAAATCATGAAACGAAGAGAATCATTTGAAAGAGATCCTTTATCTTTTAGAGCTAAATTTGATGAGGATCAAGAGGAACTTCAAAATAAGATAATAAAAGCTAAGGAAATATTAAATGATGTAGTTATTGATCATGTTTTATTAGAGGTAATAGCTAGAATCACTTTAGAACTTTCATCGGAAGGACATAGAAGTGATATAAGTATTTTAAAAACAGCTAAAACAATTGCATCTTTTAATGGTAATTTAACTGTTGATTTTGATGATTTAAAAGAAGCTATTTCTCTTGTCCTTGGGGAAGATCCTCTACTCAATCAAAGGATTCAGAAAATTAGGAATGATATTGAAAAAAGAGAAAAAGAAAGGGAAAATGATTTAGATAAAGATAGTCTTTTTTTCAGCAATGATAATCTTCAAGAAAAAATTAAAGAACAATTAGAAGATTCATTAAATGAGAAATTAAAGAAAGCAAATCAAAATCATGAAAATAAAGAATTAGATAAGGCTTTTAATGATTCTGATAATAAAGATTTGGATAATATTGAATTAGGAGAGGGTGAATCTAAAGAAAAGGATTTCATTAATACTTCTGATTTTGAAGATAAAGATGAGTCTGATTCAAAACTTAATCAGGGTGAAAAATTAGAAAATTTTAATGAATTTAATATTGATGGGAAGTTTGATATAAAAAAATATTAA</t>
+  </si>
+  <si>
+    <t>GTTTTATTAGATGCTGCTGCATTTGGTATAAACACCATTGAAAGAGAGGGAATTTCAATCTCACACCCATCAAAGTTCATTCTAATTGGAACAATGAACCCCGAAGAAGGAGAACTACGAGGACAACTATCAGATCGAATAGGTTTAAAAATTTCTGTTTCAGGAATTAATAATATTGAAGATAGAATAGAAATTATGAAACAGATAGATGATTTTGAAAAAGATCCAGAAAGTTTCATAGCTAAATATGCAGATGCTGAAGATAACCTTCAAAAAAGAATAATCATGGCAAGAAAACTTCTTCCATCAGTTAGTATTAGTGATGAATATTTTGAAATAATAGCTAGATTAACAAGAAATCTTGGTGTTGAAGGTCATAGGAATGATATAACAATTCTTAAAACAGCTAAAGCAATAGCTGCATTTAACAATCATTGGAAAGTTACTATGGATGATCTTGAAGAAAGTATATTGCTTGTTTTAGGAGAAATTAATGAATGTGATAATAATCAAATTCAAAATCAGATTCAACAGGCTCAAAATGAAATGAATCAGGAAGAAAATAGTGAAGATTCAGATAATGATGAAAATTCTAGCCAAAATCAAGATTCCAGCAACGAAGAGGATGATTCTAATGAAGATATTCAGGATGATACTTATAATGAATATGTTCAAGATAATGATTTAAAGGATGATAATGGCTCTGATAATAGTTTTGATAATTTTAATAATAATGTAGATAATGATCTTGATAATCTTGATAATGAGGATAATTTAGATGAAAATGATGAAGATGAATCTGATGAAGAGAATGATGAAAAAAATAATGATTTAGATAATCCTTCTAATGATGATTATAATAATGAAAATCAAATTCAAGGGGAAGTAAATGATTCAGATAGGATAGATGATGAATATCAGATGGATTATAATGAAAATAAGTCTGAAAAAGAAATAAATGAATTTGATTTAGAGTCTCTTGAAAAAGATATTCGTAAAATGCTTGTGATGGAAGGGCGTGAAAAAGAAAAGTTTTATGGATCAAGAGTTAATTCAAAAAGTGAAAAGGGGAAGTATGTAAAAAGTAAATATTCTCCTAATGTTTCAAATTCAGATATAGCTATTGATGCTACTATACGTGCAGCTCTAAAATCTAAAACATCTAAAAATACAGAATTAAATAAGAAAAATGCCTTAAAAGTAGATATAAAAAATGAAGATATTCGTGAAAAAGTTAGAAAACACAAAGCAAGAGCAAGTGTAGCTTTGGTAGTTGATATGAGTGGGTCAATGCTTGCTGAAAAGAAAGTTAATAAGATTAGAGGGATTTTAGAAAGAGTAATTAAGAATGTTAATAGAAATAGAGATAAATTAACAGTCATAGGTTTTAAAGGTAGGGATTCTGAAGTAATAATTCCAAGTACTAAACGTCCTAATTCTTTTTTAGACAAGCTTGATAAGATCACAGTTGGAGGAACAACTCCAATGGCTTCAGGTCTTGAAAAAGCTATTGAAATACTTAAAAATGAGAATAAAAAGGGAGAATTTATTCCGATGTTAATATTGCTTTCAGATGGAATGCCTAATGTTGGTCTAACTGATAGTTATAATAAAAAGGTTAGAGGAAGTCCTATAAATGATGTTTTAGCTATGGGTGAAGAGTTAGCTGAAAATAAAATATATACTATTATCATTGATTTTGAAAAAAAACATAAACATGGAAGGAATATTAATATGGAGTTAGCATTTTTATCTAATGGTAGATATTATGATTTAGAAGAAATCTATAATCCTGACATTGCAATAGATAAGATTTTGACTTATGAAAGAAATATGCTGTAA</t>
+  </si>
+  <si>
+    <t>GTTTTATTAGATGCTGCTGCATTTGGTATAAACACCATTGAAAGAGAGGGAATTTCAATCTCACACCCATCAAAGTTCATTCTAATTGGAACAATGAACCCCGAAGAAGGAGAACTACGAGGACAACTATCAGATCGAATAGGTTTAAAAATTTCTGTTTCAGGAATTAATAATATTGAAGATAGAATAGAAATTATGAAACAGATAGATGATTTTGAAAAAGATCCAGAAAGTTTCATAGCTAAATATGCAGATGCTGAAGATAACCTTCAAAAAAGAATAATCATGGCAAGAAAACTTCTTCCATCAGTTAGTATTAGTGATGAATATTTTGAAATAATAGCTAGATTAACAAGAAATCTTGGTGTTGAAGGTCATAGGAATGATATAACAATTCTTAAAACAGCTAAAGCAATAGCTGCATTTAACAATCATTGGAAAGTTACTATGGATGATCTTGAAGAAAGTATATTGCTTGTTTTAGGAGAAATTAATGAATGTGATAATAATCAAATTCAAAATCAGATTCAACAGGCTCAAAATGAAATGAATCAGGAAGAAAATAGTGAAGATTCAGATAATGATGAAAATTCTAGCCAAAATCAAGATTCCAGCAACGAAGAGGATGATTCTAATGAAGATATTCAGGATGATACTTATAATGAATATGTTCAAGATAATGATTTAAAGGATGATAATGGCTCTGATAATAGTTTTGATAATTTTAATAATAATGTAGATAATGATCTTGATAATCTTGATAATGAGGATAATTTAGATGAAAATGATGAAGATGAATCTGATGAAGAGAATGATGAAAAAAATAATGATTTAGATAATCCTTCTAATGATGATTATAATAATGAAAATCAAATTCAAGGGGAAGTAAATGATTCAGATAGGATAGATGATGAATATCAGATGGATTATAATGAAAATAAGTCTGAAAAAGAATAA</t>
+  </si>
+  <si>
+    <t>ATGAAAAATAGTTCTTATCCATTTTCTGCAATTGTTGGACAGGAAAAAATTAAAAAAGCATTAATATTAAATGCAATTAATCCTTCAATTGGTGGAATATTAATTAAAGGGGATAGAGGGACTGGAAAAACTACTGCTGTTAGAGCTTTAGCTGATTTGCTTCCAGAAATTGATGTTGTTGAAAATTGTCCTTTTAATTGTGATTTAAATAGCTATAAAGAGTGTGATCATTGTTCGTCCTTAGATGAGCTTAAAATAATTAAAAAACCAATGAAAGTTGTTGAGTTTCCTCTTGGAGCAACTGAAGATAGGATTTTAGGTTCATTAAACATTGAAAAAGCATTACATGATGGGGTTAAATCATTAGAACCAGGTATTTTGGCTAAAGCACATAGAAACATATTGTATATTGATGAAATTAATCTTCTTGATGATAATTTAGTGGATATTTTATTAGATGCAGCGGCTTATGGTGTAAATGTTATAGAACGTGAAGGAATATCTCTTAGTCATCCATCTAAATTTATTTTAGTTGGAACTATGAATCCTGAAGAAGGAGAACTTAGAGGACAACTTTCCGACAGAATTGGGCTTACAATTTCTGTTTCTGGCATCAATGATATTGGTAAAAAGATTTTAATTATCAAACGTCGTGAAAAATTTGAAACAAACCCTGAAAAATTTAGGGAAAAATTTAAAAATGAAGATTTAAAACTTCAAAATAAAATAATTCATGGAAGAGAAATTTTAGACAAAATTAAAGTGACAGATTATATTTTGGAGATAATAGCTCGTGTAACATTATATGTTTCAACTGAAGGTCATAGAAGTGATATAGCTATTTTAAAATGTGCCAAATCAATAGCTGCTTTTAATGATTCATCAGAAATTAGTGAAAGTTACTTAGAAGAAGCTTTTTACTTAGTTTTAGGTGAATTGCCACAAGTTCAAAATTCTCAAAATAGTATTCGAAGATATATGGAACAGGCAAAAAAAGATATGGAAAAAGAAAAGGAAAAACAAAAAAAACTTGAAGAAATTGAAAAAAAACAAAGAAACCAAGAAAGTCAAAACCAAAATTCAAACAATAAAGACAATAATGATGAAAACCATCAAAAGGATAATGAGAATGGCAACAATGAAAACTCTAATGGCTTTGGGGATGAATCCAAAAACCCTAATTTTGATGGTGAATATGATAATGAAGATGAAAATTCTAATGATGAAGCTGGAGAAATGGAATTAAAAAATGATTCATTTTCTAAGGGCAAAAACAACAATCAATTTAATGTAAATATGGATTTAAATTTAAACAGGGATAAAAAACCAGATGACAGTAATATAGATGATATGGATTACAATCAAAGCGATTTTCAAGATAAAAATAATGATAAAAATGACTTAACTTTTAATCAAATAGCTAATAATGCTATGAAATCATTTGGAGAATTTGAATCTGATGATATGGGGCTTGATATAAAAAAATATTGGGTGATGGAAGGTAGACAAAATAAAAGATTGTATGGTACCCATGTAGATTCTAAAAATGAAAAAGGAAAATATATTAAAAGTAAGCAAACCCAAAAAATTTCCAATGATATAGCCATTGATGCAACTTTAAGAGCAGCTGCTGTTAATTCTAATTCTTTTAATAATTCTTTTAATAATTCTCCTAATAATTTAATTAAATCCAATTTATCAAATGGTAAAAAAGCAAAAATCACTGTTAGCAAAGAAGATTTAAGAGAAAAGGTTAGAAAGCATAAAGCTCGAGGATCAATAGCTCTTGTTATTGATATGAGTGGATCAATGGTATCAGAAAAAAAAATTAATAGAATAAAGTCTATTTTAGATTTAATAGTTAAAAACACCATTAAACATAAAGATAAGTTATCGGTAGTTGGTTTTAAAGGTAAGGATGCCGAAATCATCATTCCAAATACTAAACATCCTAGTTCATTTTTATCTAAATTAGATACCATAACAGTTGGTGGCACTACACCAATAGCCATTGGTTTAAAAAGAGGAATGGAAGTATTGAAAAAAGATATTCAGCTTAAGGAATATGTTCCTATGCTAATTTTACTTTCAGATGGTAGACCAAATGTTGGATTAGGAGGAAGCCCTTTACACGACACTTTAAGTATTGGAGAAGAGTTGTCTAATGCTCAAATTCACAATATTATTATAGATTTTGATAAGCGTTCTACACATGGACGTAATTTTAATATGGAGCTTGCATTTGTTACTAAAGGGGCTTACTATAATTTAGAAAATGAAATTAATCCAGAAATAGCTATTGAACAAATATTAAATAGAGAAAGAGGATTTTTATAA</t>
+  </si>
+  <si>
+    <t>ATGAAAAATAGTTCTTATCCATTTTCTGCAATTGTTGGACAGGAAAAAATTAAAAAAGCATTAATATTAAATGCAATTAATCCTTCAATTGGTGGAATATTAATTAAAGGGGATAGAGGGACTGGAAAAACTACTGCTGTTAGAGCTTTAGCTGATTTGCTTCCAGAAATTGATGTTGTTGAAAATTGTCCTTTTAATTGTGATTTAAATAGCTATAAAGAGTGTGATCATTGTTCGTCCTTAGATGAGCTTAAAATAATTAAAAAACCAATGAAAGTTGTTGAGTTTCCTCTTGGAGCAACTGAAGATAGGATTTTAGGTTCATTAAACATTGAAAAAGCATTACATGATGGGGTTAAATCATTAGAACCAGGTATTTTGGCTAAAGCACATAGAAACATATTGTATATTGATGAAATTAATCTTCTTGATGATAATTTAGTGGATATTTTATTAGATGCAGCGGCTTATGGTGTAAATGTTATAGAACGTGAAGGAATATCTCTTAGTCATCCATCTAAATTTATTTTAGTTGGAACTATGAATCCTGAAGAAGGAGAACTTAGAGGACAACTTTCCGACAGAATTGGGCTTACAATTTCTGTTTCTGGCATCAATGATATTGGTAAAAAGATTTTAATTATCAAACGTCGTGAAAAATTTGAAACAAACCCTGAAAAATTTAGGGAAAAATTTAAAAATGAAGATTTAAAACTTCAAAATAAAATAATTCATGGAAGAGAAATTTTAGACAAAATTAAAGTGACAGATTATATTTTGGAGATAATAGCTCGTGTAACATTATATGTTTCAACTGAAGGTCATAGAAGTGATATAGCTATTTTAAAATGTGCCAAATCAATAGCTGCTTTTAATGATTCATCAGAAATTAGTGAAAGTTACTTAGAAGAAGCTTTTTACTTAGTTTTAGGTGAATTGCCACAAGTTCAAAATTCTCAAAATAGTATTCGAAGATATATGGAACAGGCAAAAAAAGATATGGAAAAAGAAAAGGAAAAACAAAAAAAACTTGAAGAAATTGAAAAAAAACAAAGAAACCAAGAAAGTCAAAACCAAAATTCAAACAATAAAGACAATAATGATGAAAACCATCAAAAGGATAATGAGAATGGCAACAATGAAAACTCTAATGGCTTTGGGGATGAATCCAAAAACCCTAATTTTGATGGTGAATATGATAATGAAGATGAAAATTCTAATGATGAAGCTGGAGAAATGGAATTAAAAAATGATTCATTTTCTAAGGGCAAAAACAACAATCAATTTAATGTAAATATGGATTTAAATTTAAACAGGGATAAAAAACCAGATGACAGTAATATAGATGATATGGATTACAATCAAAGCGATTTTCAAGATAAAAATAATGATAAAAATGACTTAACTTTTAATCAAATAGCTAATAATGCTATGAAATCATTTGGAGAATTTGAATCTGATGATATGGGGCTTGATATAAAAAAATATTGGTGA</t>
+  </si>
+  <si>
+    <t>ATGAAAAATATTACTTTCCCATTTTCTGCAATAGTTGGTCAAGGAAAAATTAAACGAGCATTAATTTTGAATGCAATTAACCCATCTATTGGTGGAATTTTAATTAGAGGAGATAGAGGAACTGGAAAAACAACTGCAGTTAGAGCTTTAGCTGATTTGCTTCCTGAAATTGAAGCGGTAGAAAATTGCCCATTTAGTTGTGATACAAATACCTACCTAGATTGTGAAATCTGTTCATCAATTGAAGAGCCTAAATTCATTAAAAAGCCTATGAAAGTTGTAGAACTTCCTCTTGGAGCTACTGAAGATAGAGTTCTTGGTTCACTCAACATTGAAAAAGCATTAAAAGATGGAGTTAATGTATTAGAACCTGGTATTTTAGCCGATGCCCATCGCAATATTTTATACATTGATGAAATAAATTTACTTGATGATCATATTGTCGATGTTCTTTTAGATGCAGCAGCATATGGAATTAATACTGTAGAGCGAGAAGGGATATCTTTTTCTCATCTATCTAAATTTATATTGGTTGGAACAATGAATCCTGAAGAAGGAGAACTTAGAGGACAATTATCTGATAGAATAGGTCTTACAATTTCTGTTTCTGGAATTGATGATGTTGATAAAAGGATAAAAATTATTAAAAGGCGAGAAGAGTTTGAAAAAGACCCAATTGCCTTTAGAGAGAAATTTAAGGAAAAAAATCTAGCAATTCAAAAAAGAATTGTAGATGGAAGAAAACTTTTAAACAATATTACAATATCTGATTATTTAATGGAAATAATAGCTAGAGTTGCAATACAACTCTCAGTTGAAGGTCATAGAAGTGATATATATATTTTAAAATGCTCTAAGTCAATAGCAGCATATAATTCTCATAAACAAGCTACAGAAGATGACTTAGAAGAAGCCATTAATTTAGTTTTAGGTGAAAACCCCAATTTTAATAACTCTCCCAGCACTATAAAAAAACAAATTGAAAAGGCCAAATCAGAAATTAAAAAAAAACAAGAAGAAAAGGAAGAAAATAAGAATACTAAGGAATTATTACATGATCAAAACCAAGAAAATTCTAGAAATTTAGAATCTAATAACAAAGATTTAGAGGATTCAAATGGTCAAGATGACCATAAAATTGACCAGTCAGTAAATGTTAAGGATGAAAAAAATAGTGAAGAAAGTTTTGACAATATAACAAGTGAAAGTAGAGATGAAACTTTAGAAAACACTAATGATCAAGATTTAACTTTTAATCAAGTAGCCAAACCAAGTACGAAAAACATAGATGAATTTGAATTAGATGAGGTGGGGCTTGATATAAAAAAAATAATGTTGCTAAAAGGATGTTCTAAGAAAAAACTCTATGGAAAACATGTTGATTCAAAAAATGAAAAAGGGAAGTATGTTAAAAGCCGTTTTGCCTCTAAATTATCTAAGGACATAGCCATTGATGCAACCCTTAGATCTGCTGTAGGTCATTCCCAAGGAAAAATTAATGTAAGAAAAGAGGATTTGAGAGAAAAAATCAGAAAACATAAAGCTCGTGGCTCAATAGCTCTTGTAATTGACATGAGTGGTTCAATGGTTTCTGATAAAAAAATTAACAGAATAAAAGCAATATTAGAATTAATAATAAATAATACAATTAAACATAAGGACAAACTTTCTGTTGTAGGATTTAAAGGCAAAAAATCTGAGATAATAATACCTAACACTAAATACCCAAAATCATTTTTGTCTAAATTAGATACAGTAACAGTTGGTGGAACTACCCCAATAGCTATTGGATTAAAAAAGGGAATTGAAGTTTTAAAAAAAGATATTAAAGAAAATGAATATATCCCCATGTTAATTCTTCTCTCTGATGGAAGACCTAATGTAGGTTTAGGTGGTGGTCCTATCCAAGACACATTAGAAGTTGGAAAAGAAATAGCCAATGAAAAAATTCACAATATTATAATTGATTTTGATAGAACTAGTGGTCAAGGAAGAAACTTTAATAAGGAACTTGCATTTAATTCAAAGGGTACTTACTATAATTTAGAAAAAGAAATGAATACAGAGCATGTTATTGAAGGAATTTTAAATCACGAAAGATTAAATTTATAG</t>
+  </si>
+  <si>
+    <t>ATGAAAAATATTACTTTCCCATTTTCTGCAATAGTTGGTCAAGGAAAAATTAAACGAGCATTAATTTTGAATGCAATTAACCCATCTATTGGTGGAATTTTAATTAGAGGAGATAGAGGAACTGGAAAAACAACTGCAGTTAGAGCTTTAGCTGATTTGCTTCCTGAAATTGAAGCGGTAGAAAATTGCCCATTTAGTTGTGATACAAATACCTACCTAGATTGTGAAATCTGTTCATCAATTGAAGAGCCTAAATTCATTAAAAAGCCTATGAAAGTTGTAGAACTTCCTCTTGGAGCTACTGAAGATAGAGTTCTTGGTTCACTCAACATTGAAAAAGCATTAAAAGATGGAGTTAATGTATTAGAACCTGGTATTTTAGCCGATGCCCATCGCAATATTTTATACATTGATGAAATAAATTTACTTGATGATCATATTGTCGATGTTCTTTTAGATGCAGCAGCATATGGAATTAATACTGTAGAGCGAGAAGGGATATCTTTTTCTCATCTATCTAAATTTATATTGGTTGGAACAATGAATCCTGAAGAAGGAGAACTTAGAGGACAATTATCTGATAGAATAGGTCTTACAATTTCTGTTTCTGGAATTGATGATGTTGATAAAAGGATAAAAATTATTAAAAGGCGAGAAGAGTTTGAAAAAGACCCAATTGCCTTTAGAGAGAAATTTAAGGAAAAAAATCTAGCAATTCAAAAAAGAATTGTAGATGGAAGAAAACTTTTAAACAATATTACAATATCTGATTATTTAATGGAAATAATAGCTAGAGTTGCAATACAACTCTCAGTTGAAGGTCATAGAAGTGATATATATATTTTAAAATGCTCTAAGTCAATAGCAGCATATAATTCTCATAAACAAGCTACAGAAGATGACTTAGAAGAAGCCATTAATTTAGTTTTAGGTGAAAACCCCAATTTTAATAACTCTCCCAGCACTATAAAAAAACAAATTGAAAAGGCCAAATCAGAAATTAAAAAAAAACAAGAAGAAAAGGAAGAAAATAAGAATACTAAGGAATTATTACATGATCAAAACCAAGAAAATTCTAGAAATTTAGAATCTAATAACAAAGATTTAGAGGATTCAAATGGTCAAGATGACCATAAAATTGACCAGTCAGTAAATGTTAAGGATGAAAAAAATAGTGAAGAAAGTTTTGACAATATAACAAGTGAAAGTAGAGATGAAACTTTAGAAAACACTAATGATCAAGATTTAACTTTTAATCAAGTAGCCAAACCAAGTACGAAAAACATAGATGAATTTGAATTAGATGAGGTGGGGCTTGATATAAAAAAATAA</t>
+  </si>
+  <si>
+    <t>ATGCAGTATATCTATCCATTCACTGCTATCGTTGGACAAGAAAAGATGAAGAAAGCATTAATTTTGAATGCAATTAATCCAAAGATTGGTGGAGTTTTAATTAGGGGAGAGAAGGGAACAGCAAAATCTACAGCTGTTAGGGCTTTGGCAGATTTATTGCCAGAGATTGAAGTTGTTGAGGACTGTCCATTCAACTGCGACCCAAAAGGAGAGTTATGTGATATCTGTAAAGAAAAGAAAGAGAGAGGAGAGCTAAAAACTATAAAAAAGAAGATGAAAGTTGTTAATCTTCCAATTGGGGCTACTGAGGATAGAGTTATCGGAACATTAGATATAGAAAAAGCAATAAAAGAAGGAATTAAAGCATTAGAACCAGGAATTTTAGCAGAGGCAAATAGAAATATTCTGTATATTGATGAAGTTAATTTATTGGATGACCACATAATCGATGTGTTGTTGGATGCAGCAGCGATGGGATGGAATATTATTGAAAGAGAAGGAGTTAAGATAAAACATCCCTCAAGATTTATTTTAGTAGGAACTATGAACCCAGAAGAGGGAGAGTTAAGGCCTCAAATTTTGGATAGGTTTGGTTTGATGGTTGATGTTGAAGGATTAAACAATATTAAAGATAGAGTGGAGGTTATAAAGAGAGTTGAAGAGTTCAATAATAATCCAGAAGAGTTCTATAAGAAATTTGAAGAAGAACAGAAAAAATTAAGAGAAAAGATAATTAGAGCAAGAGAGATTTTAAATAAAGTTGAGATAAGCGATGAACTCTTAGAATTTATATCAAAAGTTTGTATTGAGTTAGGAATTCAAACAAATAGGGCTGATATAACTGTTGTTAGAACAGCTAAAGCTTTAGCCGCTTATACTGGAAGAACAAAAGTAACCTTAGATGATGTTAAAGAGGCTATGGAATTAGCTCTGCCACATAGAATGAGAAGAAAACCTTTTGAACCACCACAATTAAATAGAGAGAAATTAGATCAGATGATTAATGAATTTAAACAGCAAAAGAATAATGAAAATAATGAAGAAGAAAAAAAGGAACATGAAAATGATGACGTAAAAAAAAACATGATGAAAATAAGAAATGAAAATGATGAAGAAAATGAGGATTCAAATAATCAAAAAAATAATAATAACAATAATGAAAATGAAAATAAAGATGAATCTAATCATGACGACTTTGAAAAGACCTTTGGTGTAGATGATAGCATTAAAGTTAATCCAAAACTAATACAATTTAAAATTAAGGATAATATCCATAGATATGGCTCTGGAAGGCATATTAAAAGTTATAGTAAGAGAGGCAGGTATGTTAAATTCAAACCTGCTAAGGATAAAATCGTTGATATTGCCTTTGATGCAACATTTAGAAGAGCGGCAATACATCAAAAAAGAAGAAGAGAAAAGGCAAATAAAGAATTAGCCATCTATTTGGAAAAAGAAGACATTGTAGAAAAGGTTAGACAGAGGAAGATATCATCCCATATATTGTTTGTTGTTGATGCAAGTGGTTCAATGGGAGCTATGAGAAGAATGGAAGCTGCTAAGGGAGCTATAATCTCTCTACTTTTAGATGCCTATCAAAAGAGGAATAAAATTGGAATGATTGCATTTAGAAAAGATAGGGCTGAGCTGATTTTACCTTTCACATCCTCAGTAGAGCTTGGAGAGAAACTACTTAAAGATTTGCCAACTGGAGGAAAAACTCCTTTAGCTGATGCATTTATTAAAAGCTATGAGGTCTTTGACAGAGAACTTAGAAAAAACCCAAACATAATTCCAATAATGATTGTAATTAGTGATTTCAAACCAAATGTTGCCATTCATAAAGACTATGTTAAAGAGGTTTTTGATGCGTGTGAGAAGATAGCTGAAAAAGGAATAAATGTTATATTAATCGATACAGAGCCACAATCATTTATAAAGATTGGGATTGGAAGAGAAATAGCTGATAGATTTGGATTTAAGTATTATAAAATAGAGGAATTGAGCAAAGATAAAATTTTGGATATTTGTAAAAATTTGGCGATAGAGCATTAA</t>
+  </si>
+  <si>
+    <t>ATGCAGTATATCTATCCATTCACTGCTATCGTTGGACAAGAAAAGATGAAGAAAGCATTAATTTTGAATGCAATTAATCCAAAGATTGGTGGAGTTTTAATTAGGGGAGAGAAGGGAACAGCAAAATCTACAGCTGTTAGGGCTTTGGCAGATTTATTGCCAGAGATTGAAGTTGTTGAGGACTGTCCATTCAACTGCGACCCAAAAGGAGAGTTATGTGATATCTGTAAAGAAAAGAAAGAGAGAGGAGAGCTAAAAACTATAAAAAAGAAGATGAAAGTTGTTAATCTTCCAATTGGGGCTACTGAGGATAGAGTTATCGGAACATTAGATATAGAAAAAGCAATAAAAGAAGGAATTAAAGCATTAGAACCAGGAATTTTAGCAGAGGCAAATAGAAATATTCTGTATATTGATGAAGTTAATTTATTGGATGACCACATAATCGATGTGTTGTTGGATGCAGCAGCGATGGGATGGAATATTATTGAAAGAGAAGGAGTTAAGATAAAACATCCCTCAAGATTTATTTTAGTAGGAACTATGAACCCAGAAGAGGGAGAGTTAAGGCCTCAAATTTTGGATAGGTTTGGTTTGATGGTTGATGTTGAAGGATTAAACAATATTAAAGATAGAGTGGAGGTTATAAAGAGAGTTGAAGAGTTCAATAATAATCCAGAAGAGTTCTATAAGAAATTTGAAGAAGAACAGAAAAAATTAAGAGAAAAGATAATTAGAGCAAGAGAGATTTTAAATAAAGTTGAGATAAGCGATGAACTCTTAGAATTTATATCAAAAGTTTGTATTGAGTTAGGAATTCAAACAAATAGGGCTGATATAACTGTTGTTAGAACAGCTAAAGCTTTAGCCGCTTATACTGGAAGAACAAAAGTAACCTTAGATGATGTTAAAGAGGCTATGGAATTAGCTCTGCCACATAGAATGAGAAGAAAACCTTTTGAACCACCACAATTAAATAGAGAGAAATTAGATCAGATGATTAATGAATTTAAACAGCAAAAGAATAATGAAAATAATGAAGAAGAAAAAAAGGAACATGAAAATGATGACGTAAAAAAAAACATGATGAAATAA</t>
+  </si>
+  <si>
+    <t>ATGCAATATATTTATCCATTCACTGCAATCGTTGGACAGGAGAAGATGAAGAAGGCTTTAATTTTAAATGCAATAAATCCAAAGATTGGTGGAGTTTTAATTAGAGGAGAGAAGGGAACAGCAAAATCCACTGCTGTTAGAGCTTTAGCTGATTTACTTCCAGAGATTGAAGTTGTTGAAGGCTGTTCATTCAACTGCGACCCTAATGGAGAGCTGTGTGATATCTGCAAAGAAAAGAAGGATAAAGGAGGATTAAAAATAACAAAAAAGAAAATGAAAGTTGTTAATCTTCCAATAGGGGCTACTGAAGATAGAGTTATTGGAACTTTAGATATAGAGAAAGCAATAAAAGAAGGAATTAAAGCATTGGAGCCAGGTATTTTGGCAGAGGCAAATAGAAACATCCTATACATTGATGAAGTTAATTTGTTAGATGACCATATAGTTGATGTTCTATTGGATGCTGCAGCAATGGGGTGGAATATTATTGAAAGGGAAGGAGTTAAGATAAAGCATCCTTCAAGATTCATATTAGTTGGAACTATGAACCCTGAAGAAGGAGAGCTGAGACCTCAAATTTTAGATAGGTTTGGTTTAATGGTTGATGTTGAGGGATTAACTGATATTAAGGATAGAGTAGAGGTTATAAAGAGAGTTGAAGAATTTAATAATAATCCAGAGGAATTTTACAAAAAATTTGAAGAAGAGCAAAATAAATTAAGAGAGAAGATAATTAAAGCGAGAGAAATTTTAAAAGATGTTGAGATTAGCGATGAACTCTTAGAATTTATATCTAAAGTTTGTATTGAATTGGGAATTCAAACCAATAGGGCGGATATAACGGTTGTTAGAACTGCTAAGGCGTTGGCAGCCTACAACGGAAGAACAAAGGTAACTTTGGATGATGTTAAAGAGGCGATGGAGTTAGCTCTTCCACATAGAATGAGGAGAAAACCGTTTGAACCACCACAATTAAATAAGGAAAAATTAGAGCAGATGATTAATGAATTTGAGCAACAAATAAATAAAAATGAAGAAGAGAAAGAAAAAGAGGAAAAAAAGGAAAATAATGACGTAAAAAAAAAAACAAGAATAAATTTAAATAATGAATCAAATAATAATGAGAATAATAATCCAAATAATGAACATGAAAATAATAATCAAAACCAAGATGAAAATACTGGAGATTTTGAGCAAACATTTGGTATAGATGAGAGCGTTAAAGTTAATCCAAAACTTATACAATTCAAGATTAAAGATAACATCCACAGATATAGCTCTGGAAGGCATATTAAAAGCTACAGCATGAGAGGGAGATACATTAAATTTAAACCTGCAAATGATAAAATCGTTGATATTGCCTTTGATGCAACATTTAGAAGAGCCGCTATTCACCAAAAAAAGAGAAGAGAGAAAGCAAATAAAAAATTAGCTATATATTTGGAGAGAGAAGACATCGTCGAGAAAGTTAGGCAGAGGAAGATATCTTCCCACATATTGTTTGTTGTAGATGCAAGTGGTTCAATGGGAGCTATGAAAAGGATGGAAGCCGCTAAAGGGGCTATAATATCCCTACTCTTAGATGCTTATCAAAAAAGGAATAAAATTGGAATGATTGCATTTAGAAAAGATAGGGCTGAGCTTATTTTACCTTTTACATCTTCAGTAGAGCTTGGGGAAAAACTACTAAAAGATTTACCAACAGGGGGAAAAACTCCTTTAGCTGATGCGTTTATAAAAAGTTATGAGGTTTTTGATAGGGAAATAAGGAAAAATCCTAATATTATCCCAATAATGATTGTGATAAGTGATTTTAAACCAAATGTGGCTGTTAAAGGAGATTACATTAAAGAGGTTTTTGATGCATGTGAGAAGATAGTTGAAAAAGGAATTAACGTTGTATTAATTGACACAGAACCACAATCCTTTATAAAAATTGGAATTGGAAAAGAAATAGCTGATAGATTTGGATTTAAATATTACAAAATAGAAGAATTGAGCAAAGATAAGCTCTTGGATATTTGTAAGGGTTTTGTAGAATATTAG</t>
+  </si>
+  <si>
+    <t>ATGCAATATATTTATCCATTCACTGCAATCGTTGGACAGGAGAAGATGAAGAAGGCTTTAATTTTAAATGCAATAAATCCAAAGATTGGTGGAGTTTTAATTAGAGGAGAGAAGGGAACAGCAAAATCCACTGCTGTTAGAGCTTTAGCTGATTTACTTCCAGAGATTGAAGTTGTTGAAGGCTGTTCATTCAACTGCGACCCTAATGGAGAGCTGTGTGATATCTGCAAAGAAAAGAAGGATAAAGGAGGATTAAAAATAACAAAAAAGAAAATGAAAGTTGTTAATCTTCCAATAGGGGCTACTGAAGATAGAGTTATTGGAACTTTAGATATAGAGAAAGCAATAAAAGAAGGAATTAAAGCATTGGAGCCAGGTATTTTGGCAGAGGCAAATAGAAACATCCTATACATTGATGAAGTTAATTTGTTAGATGACCATATAGTTGATGTTCTATTGGATGCTGCAGCAATGGGGTGGAATATTATTGAAAGGGAAGGAGTTAAGATAAAGCATCCTTCAAGATTCATATTAGTTGGAACTATGAACCCTGAAGAAGGAGAGCTGAGACCTCAAATTTTAGATAGGTTTGGTTTAATGGTTGATGTTGAGGGATTAACTGATATTAAGGATAGAGTAGAGGTTATAAAGAGAGTTGAAGAATTTAATAATAATCCAGAGGAATTTTACAAAAAATTTGAAGAAGAGCAAAATAAATTAAGAGAGAAGATAATTAAAGCGAGAGAAATTTTAAAAGATGTTGAGATTAGCGATGAACTCTTAGAATTTATATCTAAAGTTTGTATTGAATTGGGAATTCAAACCAATAGGGCGGATATAACGGTTGTTAGAACTGCTAAGGCGTTGGCAGCCTACAACGGAAGAACAAAGGTAACTTTGGATGATGTTAAAGAGGCGATGGAGTTAGCTCTTCCACATAGAATGAGGAGAAAACCGTTTGAACCACCACAATTAAATAAGGAAAAATTAGAGCAGATGATTAATGAATTTGAGCAACAAATAAATAAAAATGAAGAAGAGAAAGAAAAAGAGGAAAAAAAGGAAAATAATGACGTAAAAAAAAAAACAAGAATAAATTAA</t>
+  </si>
+  <si>
+    <t>ATGAAAAAAGCTTTAATTTTAAATGCAATAAATCCAAAAATTGGGGGAGTTCTCATTAGAGGGGAGAAGGGGACAGCTAAATCTACAGCAGTTAGAGCCTTGGCTGATGTACTTCCAGAGTTGGAAGTTGTTGAAGGCTGTCCTTTTAACTGTGATCCCAATGGAGAGCTATGTGACATATGTAAAGAGAGAAAAAAAAGAGGAGAGCTAAAAGTTATTAAAAGAAAAATGAAGGTTGTTAATCTTCCAATAGGGGCTACTGAAGATAGAGTTGTTGGAACCCTTGATATTGAGAAAGCCATTAAAGAGGGAATAAAGGCTTTAGAACCAGGGATATTAGCTGAAGCTAATAGAAATATCCTATATATTGATGAAGTCAATTTATTAGATGACCATATTATTGATCTCCTCTTAGATGCTGCTGCTATGGGATGGAATATTATTGAGAGAGAAGGAATAAGGGTTAAACATCCATCAAGATTTATCTTAGTAGGAACCATGAACCCAGAGGAAGGGGAGTTAAGGCCTCAAATTTTAGATAGATTTGGGCTTATGGTTGAAGTTGAAGGACTAAGGGATATAAAAGAGAGAGTTGAGGTTATAAAGAGAGTTGAAGAGTTCAATGAGAACCCTGAAGCATTCTATAAGAGGTTTGAAGAAGAACAAAAAAAATTAAAAGAGAGAATAATAAAAGCAAGAGAAATTTTAAAGAATGTTAAAATAAAGGATGATCTCTTAGAACTCATTTCCAAGATCTGTTTAGAGCTTGGGATCCAAACAAGTAGGGCAGATATAACAGTGGTTAGGACAGCCAAGGCTATAGCTGCATTTAATGGTAGAGAGTATGTAACCTTAGATGACATAAAAGAGGCTTGTGAGCTTGCTCTACCCCATAGAATGAGAAGAAAACCATTTGAGCCTCCAAGGTTAGAGAAAGAAAGGATAGAGGAAATAATAAATAATGAGCTAAAAAAAAACCTAAGTGATGAAGAGAGAAAGGGAGAGAATAGAGAGGAATATAGTAATAATAATGAGGAGAGTATAGAAGGAAGCTCTGGAGGTGGAGAGAGAAGATTTGATCCTAAAGGGAGTGTAGATCCAAAGATACTAAGCTTAAAGCTAAAAAGAAGGCATAGATATGGAAGTGGTAGGCATATAAAAAGCTTCAGTAGAAAGGGGAGATATATAAAATATAGGTTAGCTAAGAACACTTCTGATATAGCCCTTGGAGCCACTTTAAGAGCTGCAGCTATTCATCAAAAGAGGAGGAGAGAGAAATACAAAAATAAAAATTTAGCTCTTTACATAGAAAAAGAGGATTTAAGAGAAAAAATTAGAGAGAAGAAAATATCAAGCTATATTTTATTTGTTGTTGATACAAGTGGATCCATGGGAGCTTTAAGGAGAATGGAACTTGCAAAAGGAGCTATAAGATCTCTTTTAGTAGATGCATATCAGAAGAGGAATAGGGTAGGGATGATAGTATTTAGAAAGGATTCAGCTGACTTAATCTTACCTTTCACTTCCTCAGTAGAGCTTGCTGAAAAATCATTAAGGGATGTGCCAACAGGAGGAAGAACTCCACTATCAAAAGCTTTTTTAAAAGCTTATGAAACATTTGAAAAAGAGCTTAGGAAGAATCCTAATATTATCCCAATTATGGTTTTCATAAGTGACTTTAAGCCAAATGTTGCTATCAAAAATGACTTTATAAAAGAGATCTATGAAATCTGTGAGAAGATTCATGAGAAAGGAATTAATACAATATTTATAGACACTGAGCCAAAAACCTTTATAAAACTTGGAATTGGTGAAGAATTGGCTAAAAAATTTGGATTTAAGTATTATAAAATAGATGAGATCAAGCTTGATGACTTACTAAAAGAAATTTAG</t>
+  </si>
+  <si>
+    <t>ATGAAAAAAGCTTTAATTTTAAATGCAATAAATCCAAAAATTGGGGGAGTTCTCATTAGAGGGGAGAAGGGGACAGCTAAATCTACAGCAGTTAGAGCCTTGGCTGATGTACTTCCAGAGTTGGAAGTTGTTGAAGGCTGTCCTTTTAACTGTGATCCCAATGGAGAGCTATGTGACATATGTAAAGAGAGAAAAAAAAGAGGAGAGCTAAAAGTTATTAAAAGAAAAATGAAGGTTGTTAATCTTCCAATAGGGGCTACTGAAGATAGAGTTGTTGGAACCCTTGATATTGAGAAAGCCATTAAAGAGGGAATAAAGGCTTTAGAACCAGGGATATTAGCTGAAGCTAATAGAAATATCCTATATATTGATGAAGTCAATTTATTAGATGACCATATTATTGATCTCCTCTTAGATGCTGCTGCTATGGGATGGAATATTATTGAGAGAGAAGGAATAAGGGTTAAACATCCATCAAGATTTATCTTAGTAGGAACCATGAACCCAGAGGAAGGGGAGTTAAGGCCTCAAATTTTAGATAGATTTGGGCTTATGGTTGAAGTTGAAGGACTAAGGGATATAAAAGAGAGAGTTGAGGTTATAAAGAGAGTTGAAGAGTTCAATGAGAACCCTGAAGCATTCTATAAGAGGTTTGAAGAAGAACAAAAAAAATTAAAAGAGAGAATAATAAAAGCAAGAGAAATTTTAAAGAATGTTAAAATAAAGGATGATCTCTTAGAACTCATTTCCAAGATCTGTTTAGAGCTTGGGATCCAAACAAGTAGGGCAGATATAACAGTGGTTAGGACAGCCAAGGCTATAGCTGCATTTAATGGTAGAGAGTATGTAACCTTAGATGACATAAAAGAGGCTTGTGAGCTTGCTCTACCCCATAGAATGAGAAGAAAACCATTTGAGCCTCCAAGGTTAGAGAAAGAAAGGATAGAGGAAATAATAAATAATGAGCTAAAAAAAAACTAA</t>
+  </si>
+  <si>
+    <t>ATGCAGTATATTTACCCATTTACAGCAATAGTTGGACAGGAAAAGATGAAAAAAGCATTGATCTTAAATGCAATAAATCCAAAGATTGGTGGTGTCTTAATTAGAGGAGAGAAAGGGACAGCGAAATCTACAGCAGTTAGGGCTTTGGCTGATTTACTCCCAGAGATTGAAATTGTTGAAGGATGTCCATTCAACTGCGACCCAAATGGAAACCTATGTGATATTTGCAAAGAAAAGAAAAAGAGAGGAGAGTTAAAAACTACAAAAAAGAAGATGAAAGTAGTTAATCTCCCAATTGGAGCTACTGAAGATAGGGTTATCGGAACATTGGATATAGAGAAGGCAATAAAAGAAGGAATTAAAGCATTAGAGCCAGGAATTTTAGCAGAGGCAAATAGAAATATCCTATACATTGATGAAGTTAATTTACTGGATGACCATATAATTGATGTTTTGTTGGATGCTGCAGCAATGGGTTGGAATATCATTGAGAGAGAAGGAGTTAAGATAAAGCATCCTTCAAGATTTATATTAGTAGGGACTATGAACCCAGAGGAGGGAGAGTTGAGACCTCAAATCTTAGATAGATTTGGTTTAATGGTTGATGTTGAAGGATTAAATGATGTTAAAGATAGGGTAGAGGTTATAAAGAGAGTTGAGGAATTCAACGAAAATCCAGAGGCATTTTATAAGAAATTTGAGGAAGAGCAGAACAAATTAAGAGAGAGGATAATTAAAGCAAGAGAGCTTTTAAATAAAGTTGAGATAAGTGATGACCTCTTAGAATTTATATCTAAAGTTTGTATTGAGTTAGGAATTCAGACAAATAGAGCAGATATAACCGTTGTTAGAACAGCTAAGGCGTTAGCTGCTTACAATGGACGAACTTATGTAACTATAGATGATGTTAAAGAGGCTATGGAGTTGGCTCTACCACATAGAATGAGAAGAAAGCCATTTGAACCTCCACAACTAAATAAAGAGAAGTTGGAGCAGATGATTAATGAATTTAAACAGCAAAATAATAAAGATAATGAAGAGAAAGAAGAGCATAAAGATGATGACGTAAAAAAAAACATGATGAAAATAAAGAATGAGTTTGAGGAAGAAACCAGTAACGATGAAAGAGATAATAATGACAACTCTAATAATCAAAATAACCAAAATGAAGATACTACTGGAGATTTTGAACAAACCTTTGGCATAGATGAGAGTGTTAAGGTAAATCCTAAGCTTATACAATTCAAACTTAAAGATAATATCCATAGATATGGTTCTGGAAGGCATATTAAAAGCTACAGCAGAAGAGGGAGGTATATTAAATTTAAACTTGCTAATGATAAAATTATAGATATTGCCTTCGATGCAACATTTAGAAGAGCGGCAATACATCAAAAAAAGAGAAGAGAAAAAGCCAACAAAAAATTAGCCATCTACTTAGAAAAAGAGGATATTGTTGAGAAAGTTAGACAGAGGAAGATATCCTCCCATATATTATTTGTTGTTGATGCAAGTGGCTCAATGGGAGCAATGAGAAGAATGGAAGCTGCTAAGGGGGCTATAATCTCTCTACTTTTAGATGCATATCAAAAGAGGAATAAAATTGGAATGATTGCATTTAGAAAGGATAAAGCTGAGTTAATCTTGCCATTCACATCTTCAGTAGAGTTGGGAGAGAAACTATTAAAAGATTTACCAACTGGAGGAAAAACACCTTTAGCTGATGCCTTTATTAAGAGTTATGAGGTCTTTGATAGAGAGATTAGAAAAAATCCAAATATTATCCCAATAATGATTGTAATTAGCGATTTCAAACCAAATGTAGCTGTTAAGGAGGATTATGTTAAAGAGGTTTTTGATGCATGTGAGAAGATAGCTGAAAAGGGCATTAACGTTATATTAATTGATACAGAACCACAATCATTTATAAAGATTGGGATTGGAAAGGAGATCGCTAATAGATTTGGATTTAAGTATTACAAAATAGAAGAGTTAAGCAAAGATAAAATCTTAGATATTTGTAAGAGTTTAGAAATTAACTTCTAA</t>
+  </si>
+  <si>
+    <t>ATGCAGTATATTTACCCATTTACAGCAATAGTTGGACAGGAAAAGATGAAAAAAGCATTGATCTTAAATGCAATAAATCCAAAGATTGGTGGTGTCTTAATTAGAGGAGAGAAAGGGACAGCGAAATCTACAGCAGTTAGGGCTTTGGCTGATTTACTCCCAGAGATTGAAATTGTTGAAGGATGTCCATTCAACTGCGACCCAAATGGAAACCTATGTGATATTTGCAAAGAAAAGAAAAAGAGAGGAGAGTTAAAAACTACAAAAAAGAAGATGAAAGTAGTTAATCTCCCAATTGGAGCTACTGAAGATAGGGTTATCGGAACATTGGATATAGAGAAGGCAATAAAAGAAGGAATTAAAGCATTAGAGCCAGGAATTTTAGCAGAGGCAAATAGAAATATCCTATACATTGATGAAGTTAATTTACTGGATGACCATATAATTGATGTTTTGTTGGATGCTGCAGCAATGGGTTGGAATATCATTGAGAGAGAAGGAGTTAAGATAAAGCATCCTTCAAGATTTATATTAGTAGGGACTATGAACCCAGAGGAGGGAGAGTTGAGACCTCAAATCTTAGATAGATTTGGTTTAATGGTTGATGTTGAAGGATTAAATGATGTTAAAGATAGGGTAGAGGTTATAAAGAGAGTTGAGGAATTCAACGAAAATCCAGAGGCATTTTATAAGAAATTTGAGGAAGAGCAGAACAAATTAAGAGAGAGGATAATTAAAGCAAGAGAGCTTTTAAATAAAGTTGAGATAAGTGATGACCTCTTAGAATTTATATCTAAAGTTTGTATTGAGTTAGGAATTCAGACAAATAGAGCAGATATAACCGTTGTTAGAACAGCTAAGGCGTTAGCTGCTTACAATGGACGAACTTATGTAACTATAGATGATGTTAAAGAGGCTATGGAGTTGGCTCTACCACATAGAATGAGAAGAAAGCCATTTGAACCTCCACAACTAAATAAAGAGAAGTTGGAGCAGATGATTAATGAATTTAAACAGCAAAATAATAAAGATAATGAAGAGAAAGAAGAGCATAAAGATGATGACGTAAAAAAAAACATGATGAAATAA</t>
+  </si>
+  <si>
+    <t>ATGCAGTATATTTATCCATTCACTGCAATCGTTGGACAGGAAAAGATGAAGAAGGCTTTAATTCTAAATGCTATAAATCCAAAGATTGGTGGAGTTTTAATTAGGGGAGAGAAAGGAACAGCAAAATCCACTGCAGTTAGAGCTTTAGCTGATTTATTGCCAGAGATTGAAGTTGTTGAAGGATGCCCATTCAACTGCGACCCAAATGGAGAGTTGTGTGATATCTGCAAAGAAAAGAAAGAGAGAGGAGAGCTAAAAGTAACAAAAAAGAAGATGAAGGTTGTTAATCTTCCAATTGGAGCTACTGAAGATAGAGTTATTGGAACTCTTGACATAGAAAAAGCTATAAAAGAAGGAATTAAAGCATTAGAGCCGGGAATTTTGGCAGAGGCAAATAGAAACATCCTCTACATTGATGAAGTTAATTTATTGGATGACCATATAATTGATGTTTTATTGGATGTTGCAGCAATGGGTTGGAACATCATTGAGAGAGAGGGAGTTAAGATAAAGCATCCTTCAAGATTTATATTAGTAGGAACTATGAATCCAGAGGAGGGGGAGTTAAGACCTCAAATTTTGGATAGATTTGGTTTAATGGTTGATGTTGAAGGATTAAATGATGTTAAAGATAGAGTAGAGGTTATAAAGAGGGTTGAGGAATTTAACAACAATCCAGAAGAGTTCTATAAAAAATTTGAAGAAGAACAGAAAAAATTAAGAGAAAAAATAATTAAAGCAAGAGAAATTTTAAATAAAGTTGAGATAAGCGATGAACTCTTAGAATTTATATCAAAAGTTTGTATTGAGTTAGGAATTCAAACAAATAGGGCCGATATAACTGTTGTTAGAACAGCTAAAGCTTTAGCTGCCTATAACGGAAGGACTTATGTAACTATAGATGATGTCAAGGAGGCTATGGAGTTAGCTCTACCTCACAGAATGAGAAGAAAACCATTTGAACCACCACAATTAAACAAAGAGAAGTTGGAGCAGATGATTAATGAGTTTAAACAGCAAAAAAATAATAATGAAGAAGAAAAGGAAGAGCAAAAAAATGATGACCGTAAAAAAAAACATGATGAAATAAGAAATGAGTTTGAAGAAGAAAATGAGGATTCAAATAATCAAAATAATAATAACAACTCTAATAACCAAAATGAAGATACACCCGGGGACTTTGAAAGAACGTTTGGCATAGATGAGAGCTTTAAAGTAAATCCCAAGCTTATACAATTTAAGCTTAAAGATAATATCCATAGATATGGCTCTGGAAGGCATATTAAAAGCTACAGCAAGAGAGGGAGGTATGTAAAATTCAAGCTCCCAAAGGATAAAACTTCCGATATTGCCTTCGATGCTACATTTAGAAGAGCGGCAATACACCAAAAAAGAAGAAGAGAAAAATCCAATAAAAAATTAGCTATCTACTTAGAAAAAGAAGATATTGTAGAAAAGGTTAGACAGAGGAAGATATCATCCCATATATTGTTTGTTGTTGATGTGAGTGGTTCAATGGGAGCTATGAGAAGAATGGAAGCCGCAAAAGGGGCTATAATCTCTCTACTCTTAGATGCCTATCAAAAGAGGAACAAAATTGGAATGATTGCATTTAGAAAAGATAGAGCTGAGTTGATTTTACCTTTTACATCCTCAGTAGAGCTTGGAGAGAAACTACTTAAAGATTTACCAACTGGAGGGAAAACTCCTTTGGCTGATGCATTTATTAAGAGCTATGAGGTCTTTGACAGAGAGCTTAGAAAAAATCCAAATATCATCCCAATAATGATTGTAATAAGTGATTTCAAGCCGAATGTAGCTGTTAAAGGAGATTATGTTAAAGAGGTTTTTGATGCGTGTGAGAAGATAGCTGAGAAGTGCATTAACGTTATATTGATAGATACTGAGCCGCAATCATTTATAAAAATAGGGATTGGAAGAGAGATAGCCAATAGATTTGGATTTAAGTATTATAAAATAGAGGAGTTAAGTGAAGAAAAAATCTTAGATATTTGTAAGAGCTTAGAAATCAACTTCTAA</t>
+  </si>
+  <si>
+    <t>ATGCAGTATATTTATCCATTCACTGCAATCGTTGGACAGGAAAAGATGAAGAAGGCTTTAATTCTAAATGCTATAAATCCAAAGATTGGTGGAGTTTTAATTAGGGGAGAGAAAGGAACAGCAAAATCCACTGCAGTTAGAGCTTTAGCTGATTTATTGCCAGAGATTGAAGTTGTTGAAGGATGCCCATTCAACTGCGACCCAAATGGAGAGTTGTGTGATATCTGCAAAGAAAAGAAAGAGAGAGGAGAGCTAAAAGTAACAAAAAAGAAGATGAAGGTTGTTAATCTTCCAATTGGAGCTACTGAAGATAGAGTTATTGGAACTCTTGACATAGAAAAAGCTATAAAAGAAGGAATTAAAGCATTAGAGCCGGGAATTTTGGCAGAGGCAAATAGAAACATCCTCTACATTGATGAAGTTAATTTATTGGATGACCATATAATTGATGTTTTATTGGATGTTGCAGCAATGGGTTGGAACATCATTGAGAGAGAGGGAGTTAAGATAAAGCATCCTTCAAGATTTATATTAGTAGGAACTATGAATCCAGAGGAGGGGGAGTTAAGACCTCAAATTTTGGATAGATTTGGTTTAATGGTTGATGTTGAAGGATTAAATGATGTTAAAGATAGAGTAGAGGTTATAAAGAGGGTTGAGGAATTTAACAACAATCCAGAAGAGTTCTATAAAAAATTTGAAGAAGAACAGAAAAAATTAAGAGAAAAAATAATTAAAGCAAGAGAAATTTTAAATAAAGTTGAGATAAGCGATGAACTCTTAGAATTTATATCAAAAGTTTGTATTGAGTTAGGAATTCAAACAAATAGGGCCGATATAACTGTTGTTAGAACAGCTAAAGCTTTAGCTGCCTATAACGGAAGGACTTATGTAACTATAGATGATGTCAAGGAGGCTATGGAGTTAGCTCTACCTCACAGAATGAGAAGAAAACCATTTGAACCACCACAATTAAACAAAGAGAAGTTGGAGCAGATGATTAATGAGTTTAAACAGCAAAAAAATAATAATGAAGAAGAAAAGGAAGAGCAAAAAAATGATGACGTAAAAAAAAACATGATGAAATAA</t>
+  </si>
+  <si>
+    <t>ATGAAAGTTTATCCATTTACAGCTATTGTTGGGCAAGAAAAAATGAAATTAGCCTTAATATTAAATGCTATTAATCCTAAAATTGGCGGAGTTTTAATAAGAGGGGAAAAAGGTACTGCAAAATCAACAGCAGTTAGAGCACTAGCTGATCTCTTACCAGAGATAGAAGTTATTGAAGGATGTCCATTTAATTGTGATCCTAAAGAACCTTGTGATCTCTGTAAGGAGAGAGATAATATTAGAGTAATTAAAAGAAAAATGAAGGTTGTAAATTTACCAATAGGGGCTACAGAAGATAGGGTTGTTGGAACATTGGATATAGAAAAAGCTATAAAAGAAGGAATAAAAGCTTTAGAGCCTGGAATATTGGCTGAAGCAAATAGAAATATTTTATATATTGATGAAGTTAATTTATTAGATGACCACATCATTGATCTCTTATTAGATGCTGCTGCATCTGGTTGGAATATTATTGAAAGAGAAGGTATAAAAATAAAACATCCTTCAAGGTTTATATTAGTTGGTACAATGAATCCAGAAGAGGGTGAGTTGAGACCACAGATATTGGATAGATTTGGTTTAATGGTTGAAGTTGAAGGATTGAAAGATCCAAAACAAAGGGTTGAAGTTGTTAAGAGAGTTGAAGAATTTAGTAAAGACCCTGAAGGATTTTATAAAAAATTTGAGAAAGAACAAGAAAAGCTTAGAGAAAGAATATTAAAAGCTAGAAAAATTTTAGATAAAGTAGAAATAGATGAAGATCTTTTAGAATTAATATCAAAAACTTGTGTAGAGTTAGGAATATTTACAAATAGAGCAGATATAACTGTTGTAAGAACTGCTAAAGCTATTGCAGCTTATGATAATAGGGAAAAAGTTAATCTAGAAGATGTTAAATTAGCTATGGAACTTGCATTACCACATAGGATGAGAAGAAAACCTTTTGAACCACCAAGAATAGATAAGAATAGGCTTGAAGAAATTATTAATAAAAATTTAGATGGGCTAAAAAAAAACATAACTTTAAAAGAAAAATTAAAAGAAAAAGAAAGTAAAGAAAATAATAAGGAGCAGGAGGAAAATAATAGTAATGGAAGTTATGGAAATAGTGAGAAAGTGTTTGGTATTGATAAAAATATAACTGTTAATCCAAATATATTAAATTTAAAATGTAAAAGCTATATAAGTGAGAGCAGAGGAAAGCATATAAAAGCAATGGCTAAAAGGGGAAGATATATTAAGTATAAACCTACTAGTGATTTTGAAGATCTTGCTTTAGATGCATCAATAAGAAGGGCTGCTATTTATCAAAAAGATAGAAAAAAAAGATATAAAAAAGGTCTGGCTATATATTTAGAGAAAGAAGATCTTTTAAAAAAGGTAAGACAAAGAAAAATAAGATCATATGTATTATTTGTTGTGGATGCCAGTGGATCAATGGCTGCTAAAAAGAGGATGGAAGCTGCTAAAGGAGCTGTTTTATCTCTACTTTTAAATGCCTATCAAAAAAGAAATAAAGTAGGAATGATTGTTTTTAGAAATGATAAAGCTGATCTTGTATTACCATTTACAAACTCTGTTGATTTAGCTGAAAAATTATTAAAAGATATCCCTACAGGAGGAAAAACTCCACTGGGTAAGGCACTGGTTAAAGCCTATGAGACAATTATTAAAGAGATGAAAAAGCCAATAATTCCAATTATGGTCATCATTAGTGACTTTAAACCAACAGTTGGAGATATTAAGGAGATAGATAAAATATGTGAGATGATAGTTGAAAAGGGGATTAATGTTATATTAATAGATACTGAAACATCATTTGTAAAAGTAGGAATTGGTGATAGATTAGCTAAAAAGTTTGGGTTTAAATATTATAATATAAAAGATATCACTAAAGAAAATATATTAGAGAAAGTGAAACTATGA</t>
+  </si>
+  <si>
+    <t>ATGAAAGTTTATCCATTTACAGCTATTGTTGGGCAAGAAAAAATGAAATTAGCCTTAATATTAAATGCTATTAATCCTAAAATTGGCGGAGTTTTAATAAGAGGGGAAAAAGGTACTGCAAAATCAACAGCAGTTAGAGCACTAGCTGATCTCTTACCAGAGATAGAAGTTATTGAAGGATGTCCATTTAATTGTGATCCTAAAGAACCTTGTGATCTCTGTAAGGAGAGAGATAATATTAGAGTAATTAAAAGAAAAATGAAGGTTGTAAATTTACCAATAGGGGCTACAGAAGATAGGGTTGTTGGAACATTGGATATAGAAAAAGCTATAAAAGAAGGAATAAAAGCTTTAGAGCCTGGAATATTGGCTGAAGCAAATAGAAATATTTTATATATTGATGAAGTTAATTTATTAGATGACCACATCATTGATCTCTTATTAGATGCTGCTGCATCTGGTTGGAATATTATTGAAAGAGAAGGTATAAAAATAAAACATCCTTCAAGGTTTATATTAGTTGGTACAATGAATCCAGAAGAGGGTGAGTTGAGACCACAGATATTGGATAGATTTGGTTTAATGGTTGAAGTTGAAGGATTGAAAGATCCAAAACAAAGGGTTGAAGTTGTTAAGAGAGTTGAAGAATTTAGTAAAGACCCTGAAGGATTTTATAAAAAATTTGAGAAAGAACAAGAAAAGCTTAGAGAAAGAATATTAAAAGCTAGAAAAATTTTAGATAAAGTAGAAATAGATGAAGATCTTTTAGAATTAATATCAAAAACTTGTGTAGAGTTAGGAATATTTACAAATAGAGCAGATATAACTGTTGTAAGAACTGCTAAAGCTATTGCAGCTTATGATAATAGGGAAAAAGTTAATCTAGAAGATGTTAAATTAGCTATGGAACTTGCATTACCACATAGGATGAGAAGAAAACCTTTTGAACCACCAAGAATAGATAAGAATAGGCTTGAAGAAATTATTAATAAAAATTTAGATGGGCTAAAAAAAAACATAACTTAA</t>
+  </si>
+  <si>
+    <t>ATGCAGTATATTTATCCATTTACAGCAATAGTTGGACAGGAAAAGATGAAGAAGGCATTAATCTTAAATGCAATAAATCCTAAGATCGGCGGTGTCTTAATTAGAGGAGAGAAAGGGACTGCGAAATCCACCGCTGTTAGAGCTTTGGCTGATCTGTTGCCAGAGATTGAGGTTGTTGAAAACTGTCCATTCAACTGCGATCCAAATGGAGACCTATGCGATATTTGCAAAGAAAAGAAAGAGAGAGGAGAACTAAGAACTATAAAAAAGAAGATGAAAGTTGTTAATCTCCCAATTGGAGCTACGGAAGATAGGGTTATCGGAACATTGGATATAGAGAAGGCAATAAAAGAAGGAATTAAAGCATTAGAGCCAGGAATTTTAGCAGAGGCAAATAGAAATATCCTATACATTGATGAAGTTAATTTACTGGATGACCATATAATTGATGTGTTGTTGGATGCTGCAGCGATGGGCTGGAATATCATTGAGAGGGAAGGAGTTAAGATAAAGCATCCTTCAAGATTTATATTAGTAGGGACTATGAACCCAGAGGAAGGGGAGTTGAGACCCCAAATCTTAGATAGATTTGGTTTAATGGTCGATGTTGAAGGGCTGAATGATGTTAAGGAAAGAGTAGAGGTTATAAAGAGAGTTGAGGAATTCAACGAAAATCCAGAGGCATTTTATAAGAAATTTGAGGAAGAGCAGAACAAATTAAGAGATAGAATAATTAAAGCAAGAGAACTTTTAAAAGATGTTGAGATAAGTGATGATCTCTTAGAATTTATATCAAAGGTTTGTATTGAGTTAGGAATTCAGACAAATAGGGCAGATATAACTGTTGTTAGAACAGCTAAGGCGTTATCTGCTTATAATGGAAGAACAGAAGTTATTTTAGAGGATGTTAAAGAGGCAATGGAGTTGGCTCTCCCACATAGAATGAGAAGAAAGCCGTTTGAACCACCACAATTAAATAAGGAGAAGTTGGAGCAGATGATTAATGAATTTAAACAGGAAAATGATAAAAATGAAAATGAGAATAAAGAAAAAGAAGATCAAAAAGATGATGACGTAAAAAAAAACATGATGAAAATAAATAATAGATCTGAGGAAGAATCAGACAATAACTCAAATGATCAAAATGATCATAATGATGATCAAAATAAAAACGATAAAAATGGAGATTTTGAGCAAACCTTTGGTATAGATGAGAGTTTTAAAGTAAATCCCAACTTTATACAGTTTAAACTTAAAGATAATATCCATAGATATAGTTCTGGAAGGCATATTAAAAGTTTTAGTAGAAGAGGAAGATATGTAAAATTTAGATTACCAAAGGATAAAACCAACGATATTGCCTTTGACGCAACATTTAGAAGATCTGCTATTCATCAAAAAAAGAGAAGAGAAAAGGCAGATAAAAAATTAGCCATATATTTAGAAAAAGAGGATATTGTTGAGAAAGTTAGACAGAGGAAGATATCCTCCCATATATTATTTGTTGTTGATGCAAGTGGTTCAATGGGAGCAATGAGAAGGATGGAGGCAGCTAAGGGAGCAATAATCTCTCTACTCTTAGATGCATATCAAAAGAGGAATAAAATTGGAATGATTGCATTTAGAAAGGATAAGGCAGAGTTAATCTTGCCATTCACATCCTCAGTAGAGCTTGGAGAAAAACTATTAAAAGATTTACCAACAGGAGGAAAAACTCCATTAGCTGATGCTTTTATTAAGAGTTATGAGGTCTTTGACAGAGAGATTAGAAAAAATCCAAATATTATCCCAATAATGATTGTAATTAGTGATTTCAAACCAAATGTGGCTGTTAAAGAGGATTATGTTAAAGAGGTTTTCGATGCATGTGAGAAGATAGCTGAGAAGGGAATTAACGTTATATTAATTGATACAGAGCCACAATCATTTATAAAAATTGGGATTGGGAGAGAGATTGCTAATAGATTTGGATTTAAGTATTATAAAATAGAGGAGTTGAGTAAAGATAAAATCTTAGATATTTGTAAGGGCTTAGAAATTACCTTCTAA</t>
+  </si>
+  <si>
+    <t>ATGCAGTATATTTATCCATTTACAGCAATAGTTGGACAGGAAAAGATGAAGAAGGCATTAATCTTAAATGCAATAAATCCTAAGATCGGCGGTGTCTTAATTAGAGGAGAGAAAGGGACTGCGAAATCCACCGCTGTTAGAGCTTTGGCTGATCTGTTGCCAGAGATTGAGGTTGTTGAAAACTGTCCATTCAACTGCGATCCAAATGGAGACCTATGCGATATTTGCAAAGAAAAGAAAGAGAGAGGAGAACTAAGAACTATAAAAAAGAAGATGAAAGTTGTTAATCTCCCAATTGGAGCTACGGAAGATAGGGTTATCGGAACATTGGATATAGAGAAGGCAATAAAAGAAGGAATTAAAGCATTAGAGCCAGGAATTTTAGCAGAGGCAAATAGAAATATCCTATACATTGATGAAGTTAATTTACTGGATGACCATATAATTGATGTGTTGTTGGATGCTGCAGCGATGGGCTGGAATATCATTGAGAGGGAAGGAGTTAAGATAAAGCATCCTTCAAGATTTATATTAGTAGGGACTATGAACCCAGAGGAAGGGGAGTTGAGACCCCAAATCTTAGATAGATTTGGTTTAATGGTCGATGTTGAAGGGCTGAATGATGTTAAGGAAAGAGTAGAGGTTATAAAGAGAGTTGAGGAATTCAACGAAAATCCAGAGGCATTTTATAAGAAATTTGAGGAAGAGCAGAACAAATTAAGAGATAGAATAATTAAAGCAAGAGAACTTTTAAAAGATGTTGAGATAAGTGATGATCTCTTAGAATTTATATCAAAGGTTTGTATTGAGTTAGGAATTCAGACAAATAGGGCAGATATAACTGTTGTTAGAACAGCTAAGGCGTTATCTGCTTATAATGGAAGAACAGAAGTTATTTTAGAGGATGTTAAAGAGGCAATGGAGTTGGCTCTCCCACATAGAATGAGAAGAAAGCCGTTTGAACCACCACAATTAAATAAGGAGAAGTTGGAGCAGATGATTAATGAATTTAAACAGGAAAATGATAAAAATGAAAATGAGAATAAAGAAAAAGAAGATCAAAAAGATGATGACGTAAAAAAAAACATGATGAAATAA</t>
+  </si>
+  <si>
+    <t>ATGAGCAGCTTCAATGTTGTATACCCGTTCACAGCCATCGTAGGGCAGGAAAAGATGAAGAAAGCGCTACTATTAAATGCGATAAACCCCAGGATAGGCGGAGTATTGATAAAGGGGGAAAAAGGAACTGCAAAGTCCACGGCGGTGAGGGCGCTTGCAAACCTGCTGCCGGATATAGAAGTTGTGGAAGACTGCCCATATGGCTGCAGCCCTTATGATAGGACTCTAATGTGCTCCTCATGCCAGGAGAAGAATGGCAACTTAAAAAAAGGATGGAGGAAAATGAGGGTCGTCGAGCTGCCCATAAGCTCGACGGAAGATAAAGTGGTAGGAACTCTGGACATAGAGCATGCCATTAAGAAGGGGGAGAAAAGGTTTGAGCCCGGCATACTGGCGCAGGCGAACAGGAATATTCTCTACGTTGATGAGGTGAACCTGCTTAATGACCATATAGTGGACGTGCTCCTCGATGCCGCAGCTATGGGGGTGAATATTGTAGAAAGGGAGGGCGTGTCCTATTCTCATCCATCCCAATTCATCCTTGTGGGCACGATGAACCCCGAGGAGGGCGAGCTACGGCCTCAATTGCTCGACAGGTTCGGCCTATGCGTGGAGATAGAGGGGATAAGGGACCCGGAGACGAGAATGGCCATCGTGACAAATCGGATGGAGTACGAGAAGGACCCGGAGTCGTTTGCCGAGAAATGCAAGAAAGATGAAGAGGCGTTGAGGCAAAAAATCATACATGCTAAGGAGATACTGGGAAAGGTCAAGGTATCGCCTGAGATGCTACGGCTTATAGTGGATATTTGTATAGACATGCAGGTGGACGGCCACAGGGCAGACCTCACGATGATGAAGGCCGCATCAGCCATAGCGGCCTTTGATGGAAGGACAGAGGTTAATGAGAACGACGTGAGGGAAGCTGCGGAGCTGGTGCTCAAGCACAGGATGAGGAGAAAGCCCTTCAGCCAGCAAAAGATGGATAGCGATAGGCTGGAGCAGTCCATACAGAAGAACAGGGAGAAGCCGCCTCAACAGCAGCAACAAAAGCAGCAGGAAGAGCATCGCCATGACCACCACCATGACCACTCTGATGAGAATAGCCAGGCGACGAGGTCAGACGCCTCGAAGGAAACATATTTTCGGAGGGTGACCCCTTCAGGCCTAAACCAGGCCGCCATGAAATCCCTCATCGAAAAGGACTCTAAGGTGAGGGATGGCCAGGGCAGAAGGAGCGTCACCACGTCGAGAGACGGCAAATACATTAGAAGCATAATTCCGCAGGGTGAAGTCACCGATCTAGCTATAGATGCCACGCTCAGGGCGGCTGCGCCTTACCAGAAAAACCGCGAGGGCTGCCTGGCGATAAAGATTGAGGCGCAGGACTTAAGGCAAAAGGTGAGGGAGCGGAAGATTGGCAATACCATAGTTTTTATCGTTGATGCAAGTGGTAGCATGGGCGCGGAGGCGAGGATGACTGCCGTCAAGGGAGCCATTCTCACGCTGCTGATGGACGCTTACCAGAAGCGGGATAAGGTGGGCCTTATCGTGTTCAAGGGCGATAGGGCCGAACTACTTCTTCCGCCTACTCAGAGCGTCGAGCTGGCCCGGAAATATACAGAAGAGCTTCCAGTGGGCGGCAAGACCCCTCTGGTGCATGGCCTTACGATGGGACTCGACGTCATCAAGAAGGAGATGCTCAAGGATAAGTGCATCATGCCAATAGCCGTGCTGATATCTGATGGAAAGGCCAACGTTAGTATGAGGGGAGGAAAGCCGGTGGAAGAGGCGGTAGAGGCCGCATCCCTCTATAGAGAAGGTCACATAAAGTCGCTTGTAATCGATTCTGAGAAGAATTTCCTTAGCTTTGGGCTGGCCAAGCGGATATCCGAGGCGATGGGTGCAAAGTACGTCAAGCTGGAAGAGCTGGACGCCGACGCCATTGTCAGGGGCGTTGGCGAGATGTGA</t>
+  </si>
+  <si>
+    <t>ATGAGCAGCTTCAATGTTGTATACCCGTTCACAGCCATCGTAGGGCAGGAAAAGATGAAGAAAGCGCTACTATTAAATGCGATAAACCCCAGGATAGGCGGAGTATTGATAAAGGGGGAAAAAGGAACTGCAAAGTCCACGGCGGTGAGGGCGCTTGCAAACCTGCTGCCGGATATAGAAGTTGTGGAAGACTGCCCATATGGCTGCAGCCCTTATGATAGGACTCTAATGTGCTCCTCATGCCAGGAGAAGAATGGCAACTTAAAAAAAGGATGGAGGAAAATGAGGGTCGTCGAGCTGCCCATAAGCTCGACGGAAGATAAAGTGGTAGGAACTCTGGACATAGAGCATGCCATTAAGAAGGGGGAGAAAAGGTTTGAGCCCGGCATACTGGCGCAGGCGAACAGGAATATTCTCTACGTTGATGAGGTGAACCTGCTTAATGACCATATAGTGGACGTGCTCCTCGATGCCGCAGCTATGGGGGTGAATATTGTAGAAAGGGAGGGCGTGTCCTATTCTCATCCATCCCAATTCATCCTTGTGGGCACGATGAACCCCGAGGAGGGCGAGCTACGGCCTCAATTGCTCGACAGGTTCGGCCTATGCGTGGAGATAGAGGGGATAAGGGACCCGGAGACGAGAATGGCCATCGTGACAAATCGGATGGAGTACGAGAAGGACCCGGAGTCGTTTGCCGAGAAATGCAAGAAAGATGAAGAGGCGTTGAGGCAAAAAATCATACATGCTAAGGAGATACTGGGAAAGGTCAAGGTATCGCCTGAGATGCTACGGCTTATAGTGGATATTTGTATAGACATGCAGGTGGACGGCCACAGGGCAGACCTCACGATGATGAAGGCCGCATCAGCCATAGCGGCCTTTGATGGAAGGACAGAGGTTAATGAGAACGACGTGAGGGAAGCTGCGGAGCTGGTGCTCAAGCACAGGATGAGGAGAAAGCCCTTCAGCCAGCAAAAGATGGATAGCGATAGGCTGGAGCAGTCCATACAGAAGAACAGGGAGAAGCCGCCTCAACAGCAGCAACAAAAGCAGCAGGAAGAGCATCGCCATGACCACCACCATGACCACTCTGATGAGAATAGCCAGGCGACGAGGTCAGACGCCTCGAAGGAAACATATTTTCGGAGGGTGACCCCTTCAGGCTAA</t>
+  </si>
+  <si>
+    <t>ATGACAATGGTATTTCCATTTACGGCAATAGTAGGACAGCAAAAAATGAAAAAGGCACTAATTTTGAATGCTATTAATCCAAAAATAGGCGGAGTATTGATTAGAGGAGAAAAGGGAACAGCAAAATCCACAGCAGTTAGGGCATTGGCGGAGCTCCTACCTGAAATTGAAATTGTAAAAGGATGTTCATTTAACTGTAATCCATATGGAGATATGTGCGATATATGTAAAGATAAACGGAAAAATGGAATGCTAAAAACAATTAAAAGAAAAATGAAAGTTGTAGATTTACCAATAGGAAGCACAGAGGATAGAGTAATTGGAACGCTTGACATAGAAAAAGCCATTAAAGAAGGAGTAAAGGCACTGGAATCAGGAATATTGGCAGATGCCAATAGAAATATACTGTATATAGACGAAATAAATTTATTAGATGACCATATTATAGATATTCTTTTAGATGCGGCGGCCATGGGTTGGAATACTATTGAAAGAGAGGGAATAAATATCAAACATCCATCTAAATTTATACTGGTTGGAACAATGAACCCAGAAGAGGGAGAATTAAGACCTCAAATATTGGATAGATTTGGTTTAATGGTTGATGTAGAGGGATTAGATGATGTTAAACAAAGGGTTGAAGTTATAAAAATGGTTGAAGAATTTAACAAAAATCCAGAGGAAGTTTATAAACAAAGTGAAGAAGAAAATATTAATTTAAGGGAAAAAATAGAAAATGCGAGAAAAAATTTAGACAGTGTAAATATTAGTGATGATTTATTGGAATTAATTTCAAAAATTTGTATTGAGTTAAATATTCCTACAAATAGGGCAGATATTACTGTGGCAAGGACTGCAAAAACCATAGCCTCATTTAACAGCAAGGATTATGTTAGTATCGAGGATATTAAAGAGGCATGTGATTTAGCACTACCCCATAGAATGAGAAGAAAGCCTTTTGAGCCTCCACAATTAAATAATGAAAAAATAGAGGAAATGATAAATAATTTTGAAAATGAGGAAAATGAAAAAGAACAAAATGATAAGGAGAATGATTTAAAAAAAAACCTAAATAATAATGAAACAGAACAGGATAATGGTGATGAAGAAAGCGAGGAAAACGAAAAAGACGAAAAAACAGAAGAACAAGAAAAACCCGAGAATGAACCGAATAATCAAAATAACGATAATAAAAACAGTGATAGCAACAATAACGATAATAACGATAATAAAAACAGTAAAGGCAATCAAGAACAGATATTTAATGCAAATGGAAATATAAATCCAAATATAATAAAAATAAAAAAGAAAGATAATATAAATAGATATTCAAGCGGAAGGCAGGTAAAAAGTATTAGCAAAAAGGGGAGATATATAAAATACAAAATCCCAAGAGGAAAAACCTCCGATATAGCTTTTGATGCTACTTTTAGGGCCAGTGCATTATATCAAAAGGATAGAAAAGAAAAATCCGACAATAAAAATATATTAATACATATTAAAAAGGAAGATTTAAGGGAGAAAGTTAGAGAAAAGAAAATTTCAACAAATATACTTTTTGCCGTAGATGCAAGTGGTTCCATGGGGGCAATGAAAAGAATGGAAGTTTCTAAGGGGGCAATTTCATCTTTATTAATGGATGCATATCAAAAAAGAAATAAAATTGGAATGATTTCATTTAGAAAAGAAGAAGCTGAGCTTATTCTTCCATTTACTTCATCGGTTGAATTGGGAGAAAAACTACTAAGAAATTTACCGACGGGCGGGAAAACACCACTTTCAAAGGCATTTTTTAACTCTTATGAAGCAATTAAAAATGAGATAAGAAAAAATCCAAATATTATTCCAATAGCCCTATTTATAAGTGATTTTAAGCCAAATGTTGCTATGAAAGACGATTATATAAAAGAAGTTTTTGATATTTGCGAAAAGTTCGCAGAAGATGAAATAACCGTTATATTGGTGGATACTGAACCAAAATCATTTATAAAAATAGGAATTGGGGAAAATCTTGCTAAAAAATATGGTTTCGAATATTATAAAATAGACGATTTAAATGTGGGTGATATTGTTGGAATAGTAAATAATTTGGCGATAGGTGGTAATATTGATAGATAA</t>
+  </si>
+  <si>
+    <t>ATGACAATGGTATTTCCATTTACGGCAATAGTAGGACAGCAAAAAATGAAAAAGGCACTAATTTTGAATGCTATTAATCCAAAAATAGGCGGAGTATTGATTAGAGGAGAAAAGGGAACAGCAAAATCCACAGCAGTTAGGGCATTGGCGGAGCTCCTACCTGAAATTGAAATTGTAAAAGGATGTTCATTTAACTGTAATCCATATGGAGATATGTGCGATATATGTAAAGATAAACGGAAAAATGGAATGCTAAAAACAATTAAAAGAAAAATGAAAGTTGTAGATTTACCAATAGGAAGCACAGAGGATAGAGTAATTGGAACGCTTGACATAGAAAAAGCCATTAAAGAAGGAGTAAAGGCACTGGAATCAGGAATATTGGCAGATGCCAATAGAAATATACTGTATATAGACGAAATAAATTTATTAGATGACCATATTATAGATATTCTTTTAGATGCGGCGGCCATGGGTTGGAATACTATTGAAAGAGAGGGAATAAATATCAAACATCCATCTAAATTTATACTGGTTGGAACAATGAACCCAGAAGAGGGAGAATTAAGACCTCAAATATTGGATAGATTTGGTTTAATGGTTGATGTAGAGGGATTAGATGATGTTAAACAAAGGGTTGAAGTTATAAAAATGGTTGAAGAATTTAACAAAAATCCAGAGGAAGTTTATAAACAAAGTGAAGAAGAAAATATTAATTTAAGGGAAAAAATAGAAAATGCGAGAAAAAATTTAGACAGTGTAAATATTAGTGATGATTTATTGGAATTAATTTCAAAAATTTGTATTGAGTTAAATATTCCTACAAATAGGGCAGATATTACTGTGGCAAGGACTGCAAAAACCATAGCCTCATTTAACAGCAAGGATTATGTTAGTATCGAGGATATTAAAGAGGCATGTGATTTAGCACTACCCCATAGAATGAGAAGAAAGCCTTTTGAGCCTCCACAATTAAATAATGAAAAAATAGAGGAAATGATAAATAATTTTGAAAATGAGGAAAATGAAAAAGAACAAAATGATAAGGAGAATGATTTAAAAAAAAACTAA</t>
+  </si>
+  <si>
+    <t>ATGAGTAGAAAAGTAGTATATCCTTTTGGAGCAATTGTCGGTCAAGAAAAAGCAAAAAAAGCACTACTTTGTTGTGCAGTTGATCCGTCAATTGGTGGAGTGCTATTAACTGGCGATAAAGGTGCTGGAAAATCGACACTTGTAAGGTCACTTTCACATGTTTTACCAAATTTTGAAGCTGTTTTGGAATGCCCATTTAATTGCAATCCTGAAAACCCTCTTGAAATGTGCGATAACTGTTACGAAAATGCAAATTCGGCCAATGAGTTTAAAAAACTTGAAAAAACTATGAAAGTAGTTGATTTACCATTAAGTGTAACTATTGATAGGCTTGTTGGAACGATAGATATCAAAAAAGCACTTAATGAAGGAAAAAGAGTTCTTCAACCCGGAATTTTGGCCAACGCAAATCGAAATATACTTTATATTGATGAAGTGAATTTACTCGATGATTATGTTATTGATATATTGCTCGATTCTGCAGCAATGGGTTGGAATACGATTGAAAGAGAGGGAATTTCCTTTAAACACCCTTCAAGATTTGTGCTAATTGGAAGTATGAATCCAGAAGAAGGTGAGTTAAGACCCCAGTTACTTGATAGATTCGGACTTTACGTGGAAATAGAATCCCTCTTTGAAGCAGAAGATCGGCTTGAAGTTTTAAAAAGAGTCGAAAAATTCCAAAAAGACCCATTTTCATTTTATGAAACGTATGCGTCAATCGAAGAAAATTTAACAGAATCGATAAAAACTGCGAAAAAAATTCTGAATGACGTAACAATTTCAGAAGAACTATTAAAAATGTTAATTGATTCCATAATTCATTTAGGAATAAAAACGCATCGTGCAGAAATAACCACGATAAAAACTGCGAAAACCATTGCAGCACTTGATGGACGTATGGAAGTTAGTTTGGAGGATTTAAAAACAGCGATGGATCTTGCACTCATTCACAGATTATCTAATCCAAACAGTAATCCGCCATCACAGTCCATGGAAAATGAAAATAACGAAGAAATGGAAGACGAATCTAAAAAAAAACGGAAACAGATCCGCCAACTAGTCCCCCATCACCACCATTTAGATGAAAAAGATAACAATGATGGAAATAAAACGGATTTCGAAGAAAAAAACCACAACTTTAAAGAATTAAATTTCAAAACTGAAAATTTTGATAAAAAAATAATTTCCAAAAATTCTGAAATAGAAAATAAGTGTTTTGAAAATCATGGTGGATCTAAAAAAGTAAGGGTATCTGAAATAGGATCTAAAAGAGGATACCCAATATCATATACAACAGTATCAAAACCTGAACACTACGAAGATATAGACATAATTTCCACGATAAACAGTGCAATTCTAAATCAGAAACCATACAAACTTTTACAAAGTGATTTCAAGGTAAAAATTCGAAAAAACAGGGTTCCTAAACTTTCAGTGATTCTCCTAGATTCGAGTGGAAGTATGGGAATTTCCAAAAGAATCGGGATTGCCAAGGGAATTGTGGACCGTTACGCTGATGATTCCTACGTAAAAAGAGAATATATCTCAGTGATATCTTTTAGGGGGCGTGAAGCTATAGTATTATCCCCATTTACAAGAAAATATAATTTAATTAAGGCTCAGTTGGACTCTATAAAAACAGGAGGTAAAACTCCACTTTCTTCAGCATTAAAAGTTGCATTAAACATTTCAAAACAGTTCAGGAATAAAAACAAAAAATCTTCAGTTGAATTTATACTGATAAGTGATGGAAAAGCGAATGTTCCCATTAAAAAAGACATAAAATACGAAATCGAAGAACTTTCAAAAATCATTCAAAAAAGGAAAATTTCATTTAAAATATATGATATCCGGAATAAAGGGGTAATCGATCCATCTATATCCTATTTGGACAAAATCTCAGAAATTACGAATGCTGAAATGGAAAATATATAA</t>
+  </si>
+  <si>
+    <t>ATGAGTAGAAAAGTAGTATATCCTTTTGGAGCAATTGTCGGTCAAGAAAAAGCAAAAAAAGCACTACTTTGTTGTGCAGTTGATCCGTCAATTGGTGGAGTGCTATTAACTGGCGATAAAGGTGCTGGAAAATCGACACTTGTAAGGTCACTTTCACATGTTTTACCAAATTTTGAAGCTGTTTTGGAATGCCCATTTAATTGCAATCCTGAAAACCCTCTTGAAATGTGCGATAACTGTTACGAAAATGCAAATTCGGCCAATGAGTTTAAAAAACTTGAAAAAACTATGAAAGTAGTTGATTTACCATTAAGTGTAACTATTGATAGGCTTGTTGGAACGATAGATATCAAAAAAGCACTTAATGAAGGAAAAAGAGTTCTTCAACCCGGAATTTTGGCCAACGCAAATCGAAATATACTTTATATTGATGAAGTGAATTTACTCGATGATTATGTTATTGATATATTGCTCGATTCTGCAGCAATGGGTTGGAATACGATTGAAAGAGAGGGAATTTCCTTTAAACACCCTTCAAGATTTGTGCTAATTGGAAGTATGAATCCAGAAGAAGGTGAGTTAAGACCCCAGTTACTTGATAGATTCGGACTTTACGTGGAAATAGAATCCCTCTTTGAAGCAGAAGATCGGCTTGAAGTTTTAAAAAGAGTCGAAAAATTCCAAAAAGACCCATTTTCATTTTATGAAACGTATGCGTCAATCGAAGAAAATTTAACAGAATCGATAAAAACTGCGAAAAAAATTCTGAATGACGTAACAATTTCAGAAGAACTATTAAAAATGTTAATTGATTCCATAATTCATTTAGGAATAAAAACGCATCGTGCAGAAATAACCACGATAAAAACTGCGAAAACCATTGCAGCACTTGATGGACGTATGGAAGTTAGTTTGGAGGATTTAAAAACAGCGATGGATCTTGCACTCATTCACAGATTATCTAATCCAAACAGTAATCCGCCATCACAGTCCATGGAAAATGAAAATAACGAAGAAATGGAAGACGAATCTAAAAAAAAACGGAAACAGATCCGCCAACTAGTCCCCCATCACCACCATTAG</t>
+  </si>
+  <si>
+    <t>ATGACTAGGAAATTTATATACCCATTTGGAGCTATTGTGGGACAAGAAAAAGCAAAGAAAGCATTAACTTGTTGCGCAGTTGATCCATCTATTGGTGGAGTACTTTTAACTGGGGATAAAGGTGCTGGAAAGTCAACGCTTGTAAGGTCACTCTCTTATATATTGCCAAATTATGAAATAGTTTTAGAATGTCCATTTAATTGTAATCCTAGAAATTCCCTTGAAATGTGTGATAACTGTTACAAAGGATTAGCTGAAACTAAATTTGAAGTAATTGATAAAGCTATGAAAGTAGTCGACCTACCCTTAAGTATAACTGTAGATAGGCTTATTGGAACAATAGATATTAAAAAAGCACTAAATGAAGGAAAAAGAGTACTGCAACCCGGAATCCTAGCAGATGCAAATAGAAACATTTTATATATTGATGAAGTTAATTTGCTTGACGATTATGTTATTGATATATTACTTGATTCTGCAGCAATGGGCTGGAATACCATAGAACGGGAAGGAATGTCGTTTAAACATCCTTCAAGGTTCGTACTTGTTGGAAGCATGAACCCTGAAGAAGGGGAATTAAGGCCCCAACTTTTAGATAGATTTGGTCTTTATGTGGAAATTGAATCACTTTTCAAAGCAGAAGATAGACTTGAAGTTTTGAAAAGAGTTGAAGAATTTCAAAACGACCCTGTTTTATTTTATGAAAAATATTCAAAAATAGAAAAAAATCTAACATATTCAATAACGACTGCAAAAAGGATATTAAAGGATGTAAAAGTTCCAGAAGAGCTTTTAAAATTATTAATTGATTCGATAATACATTTAGGTATAAAGACACATCGTGCAGAAATAACCACAATAAAAACTGCAAAAGCTATTGCAGCACTTGATGGGAGACTTGAAGTCGTTTTAGAAGATTTAAAAACGGCCATGGATCTTGCACTGGCCCATAGGGTATCTAATCGAGGTGGGAATCCTCCTTCTGAATCTATGAAAAATGAAGAAAGTGAAGAAATTGATGAAGAATCTAAAAAAAAACGGAATCAAATCCACAAACGACATCACCACCTAGATGGTAAAAACAATAGTGAAAAAAATAATGGCTTGAGCGAAAAAGAAACTTCATCTAAAGAATTAAACTTCGAAATAGAAGATTTTGATAAAAAAATAGTTTCAAAAAAATCAGAAGTTGAAAAAAACACTTTTCAAAACTATAATGGCTCTAAAAAAGTAAGGATATCCGAAGTAGGTTCTAAAAAAGGTTACCATGTCGCATATGCAGAACTATCAAAACCAGAACACTTAGAAGATATAGACCTAATTTCTACAATAAATAGTGCAATTTTAAATCAAAACCGATATGCCCTTTTAGAAAGTGATTATAAGGTAAAAATTAGAAAAAATAGGATTCCAAAGCTTTCAGTAATTTTACTTGATTTAAGTGGAAGCATGGGCATTTCAAAAAGAGTAGGTATTGCAAAAGGGATAGTAGATAAATATACTGATGATTCATACGTTAAACGGGAATATTTATCAGTAGTAACATTTAGGGGACGTGAAGCTCTAGTTTTATCGCCATTCACAAAAAAATATAGTTTAATTAAGGCCCAGTTAAATTCTTTAAAAACAGGTGGTAAAACACCCCTTTCTGCAGCACTGAAAACTGCATTGAAAGTATTTAAACAGTTTAAAGATAAAAATAAAAAGTGCACTGTTGAATTTATACTAATAAGCGATGGAAAAGCAAACGTGCCTCTTAAGGAAAATATAAAATATGAAATAGAAGAACTTTCAAAAGCCATACAAAAGCGGAAAATTTCTTTTAAAATATATGATATCCGAAATAAAAGTATAATTGACCCTTCAATATCATACTTAGATAAAATATCTGAAATTACAAATGCAGAAGTAGAAACTATTTAA</t>
+  </si>
+  <si>
+    <t>ATGACTAGGAAATTTATATACCCATTTGGAGCTATTGTGGGACAAGAAAAAGCAAAGAAAGCATTAACTTGTTGCGCAGTTGATCCATCTATTGGTGGAGTACTTTTAACTGGGGATAAAGGTGCTGGAAAGTCAACGCTTGTAAGGTCACTCTCTTATATATTGCCAAATTATGAAATAGTTTTAGAATGTCCATTTAATTGTAATCCTAGAAATTCCCTTGAAATGTGTGATAACTGTTACAAAGGATTAGCTGAAACTAAATTTGAAGTAATTGATAAAGCTATGAAAGTAGTCGACCTACCCTTAAGTATAACTGTAGATAGGCTTATTGGAACAATAGATATTAAAAAAGCACTAAATGAAGGAAAAAGAGTACTGCAACCCGGAATCCTAGCAGATGCAAATAGAAACATTTTATATATTGATGAAGTTAATTTGCTTGACGATTATGTTATTGATATATTACTTGATTCTGCAGCAATGGGCTGGAATACCATAGAACGGGAAGGAATGTCGTTTAAACATCCTTCAAGGTTCGTACTTGTTGGAAGCATGAACCCTGAAGAAGGGGAATTAAGGCCCCAACTTTTAGATAGATTTGGTCTTTATGTGGAAATTGAATCACTTTTCAAAGCAGAAGATAGACTTGAAGTTTTGAAAAGAGTTGAAGAATTTCAAAACGACCCTGTTTTATTTTATGAAAAATATTCAAAAATAGAAAAAAATCTAACATATTCAATAACGACTGCAAAAAGGATATTAAAGGATGTAAAAGTTCCAGAAGAGCTTTTAAAATTATTAATTGATTCGATAATACATTTAGGTATAAAGACACATCGTGCAGAAATAACCACAATAAAAACTGCAAAAGCTATTGCAGCACTTGATGGGAGACTTGAAGTCGTTTTAGAAGATTTAAAAACGGCCATGGATCTTGCACTGGCCCATAGGGTATCTAATCGAGGTGGGAATCCTCCTTCTGAATCTATGAAAAATGAAGAAAGTGAAGAAATTGATGAAGAATCTAAAAAAAAACGGAATCAAATCCACAAACGACATCACCACTAG</t>
+  </si>
+  <si>
+    <t>ATGGCCAAGAATTTCCATTTCCCATTCACTGCAATAGAAGGACAAGAAGAAATGAAGAAAGCACTACTTTTAAACGCTATAAATCCCTCAATAGGTGGCGTTTTAATAAGGGGTGAAAAAGGGACTGCAAAGTCTACAACAGTTAGGTCTTTAACCGATATATTACCACAAATAGAAGTTATGGACAGCTGTCTTTTTAACTGTGACCCTAAAGGAAATATGTGCGATGAATGTTTATCAAAGAACAAACCCTATAAAACAGTTTTTAAAGAAATGAAGGTCGTTACCTTACCTATAGGTAGTACTGAAGATAGAGTAATTGGTACAATCGACATAGAAAAAGCGATTAAGGAAGGCATCAAATCACTTGATAAAGGTATTTTAGCAGATGCAAATAGAAATATATTATATTTAGACGAAGTAAACTTATTAGATGACCATATTGTAGATATTTTACTCGACGCCGCAGCTATGGGTTGGAATACTATCGAAAGAGAAGGTATAAACATTAGGCACCCATCTAAATTTATATTGGTGGGTACTATGAACCCTGAGGAGGGGGAATTAAGACCTCAAATATTGGATAGATTTGGATTAATGGTTAACGTAGATGGATTAATGGACGTTAAGAAGAGAGTAAATGTAATTAAAAAGGTTGAAGAGTTCAATTTAAACCCCGAAATTGTTTTGGAAGAATATTCCATTGAACAAAACGTATTAATGGAACAAATTAGCAATGCAAGAAAGATTTTACCAACGGTTAAAATTGAAAATGATTTGCTTGAGTTTATATCTCAGATATGTATCGAAATGAATATACCAACTAATAGGGCAGATATTACAGTAGCGAGAACCGCAAAAACAATTGCAGCACTAAATCAACGTGATTACGTCGTTATTGATGATATAAAAGAAGCTTGTGAGCTTGCTTTACCTCACAGAATGAGAAGAAAACCATTCGACCCACCTACCTTAAACAATGAAAAGTTAGAGCAATTTTTCGATGAATTTGAAAATGAAAACGATAATAACGATAATGACAATAATAATGAAGATGATTCAAAAAATTTAGATGAGCCTGAAACTGAAGAAAATGACTCTGAGAGTGATGAAGACAATAATACTGAAAACGATAACAATAATGAAAATTTAGAAGAAGAAAATACTTATGAAATTCCTCAAAATCAAGATATTGAAGAAAATAATGAAAACGATAATGAAGATGATAACGAAAATAATAGCGAAGATAATAAGGATAAAAATAATCAGAATACTAAAAATAACGATTTTGAAGAACAATTCGGAGTTTCAGGCAAAATTAATCCAAAAATATTGGATATTAAATTAAATGATAGAATAGAAAGATATTCAAGCGGTAAACGTGTAAGTAGTTATAGTTCTAAAGGTAGCTATGTAAAATACAAGTCAAATTCAAATAACGACATCGCTTTTGATGCTACAATCAAAGCATCAGCACCATTTCAAAAATTCCGACGAGAAAACAGTAATAAAAATTTATCGCTATATATTGAATCGGAAGATATGAAATATAAGGTTAAAAAGAAAAATATTTCTACCCACATAATGTTTGGAGTGGATGCAAGTGGCTCAATGGGAGTTTTAAAGCGTATGGAAGCTTCAAAAGGTGCAGTAGTTTCCTTATTGATGGACGCTTATCAAAACAGAGATAAAGTATCAATGGTAGCTTTTAGAAAAGATAAAGCAGAGCTTGTAGTTCCATTTACTTCATCAGTGGAACTTGCAGAGGCTAACCTCGTAGGTTTAAAAACAGGCGGTAGGACACCACTTTACGATGCGTTTACTAAGGCTTATGAAACATTTGAGATAGAAATGCGTAAAAATCCAAATATGATACCCATATTAGTGATGATTAGCGATTTTAAACCAAATGTAAATATTAACAAAAATTATTTTGTTGAAATTTGCGAAATCGTTGAAAAATTGCTTGAAAAAAATATTAGAACAATATTTATAGACACTGAAAAGAAATCCTTTGTAAAAATTGGTATCGGTGAAAATATTGCTAAGAAATATGGTATAGATTATTATAATATTGATAATTTAACCGATGATGATATATTAAATACAATATCTTCCGTAAATTAA</t>
+  </si>
+  <si>
+    <t>ATGGCCAAGAATTTCCATTTCCCATTCACTGCAATAGAAGGACAAGAAGAAATGAAGAAAGCACTACTTTTAAACGCTATAAATCCCTCAATAGGTGGCGTTTTAATAAGGGGTGAAAAAGGGACTGCAAAGTCTACAACAGTTAGGTCTTTAACCGATATATTACCACAAATAGAAGTTATGGACAGCTGTCTTTTTAACTGTGACCCTAAAGGAAATATGTGCGATGAATGTTTATCAAAGAACAAACCCTATAAAACAGTTTTTAAAGAAATGAAGGTCGTTACCTTACCTATAGGTAGTACTGAAGATAGAGTAATTGGTACAATCGACATAGAAAAAGCGATTAAGGAAGGCATCAAATCACTTGATAAAGGTATTTTAGCAGATGCAAATAGAAATATATTATATTTAGACGAAGTAAACTTATTAGATGACCATATTGTAGATATTTTACTCGACGCCGCAGCTATGGGTTGGAATACTATCGAAAGAGAAGGTATAAACATTAGGCACCCATCTAAATTTATATTGGTGGGTACTATGAACCCTGAGGAGGGGGAATTAAGACCTCAAATATTGGATAGATTTGGATTAATGGTTAACGTAGATGGATTAATGGACGTTAAGAAGAGAGTAAATGTAATTAAAAAGGTTGAAGAGTTCAATTTAAACCCCGAAATTGTTTTGGAAGAATATTCCATTGAACAAAACGTATTAATGGAACAAATTAGCAATGCAAGAAAGATTTTACCAACGGTTAAAATTGAAAATGATTTGCTTGAGTTTATATCTCAGATATGTATCGAAATGAATATACCAACTAATAGGGCAGATATTACAGTAGCGAGAACCGCAAAAACAATTGCAGCACTAAATCAACGTGATTACGTCGTTATTGATGATATAAAAGAAGCTTGTGAGCTTGCTTTACCTCACAGAATGAGAAGAAAACCATTCGACCCACCTACCTTAAACAATGAAAAGTTAGAGCAATTTTTCGATGAATTTGAAAATGAAAACGATAATAACGATAATGACAATAATAATGAAGATGATTCAAAAAATTAG</t>
+  </si>
+  <si>
+    <t>ATGTCAAAGACACACAATCGTCAAATCTATCCATTTTCAGCAATCGTCGGTCAGGACATAATGAAAACGGCATTGATACTGAACGCTATAAATCCGTCAATCGGCGGCGTTCTTATCAAAGGAGAGAGAGGCACGGCGAAATCTACGGCCGTACGTTCTCTTGCGGCGCTTCTTCCCGAGAATAAAGTCGTTCTCGGCTGCACCTTCGGCTGCGATCCAGAAAAACCCGAGGATTTCTGCGAGGAATGCAGGAAAAACCTCATAAATCTCCGTACCGCCGAGAGAAAGATGACCGTCGTCGAATTGCCCGTCTCCGCGACCGAGGACATGGTCGTGGGCAGTCTTGACATATCCTCCGCCATCAAGGAAGGCGAGAAGAAGTTCGAGCCCGGAATTCTTGCGGCGGCGCACAGGAACATCCTCTACGTGGACGAAGTAAATCTCTTAAACGACCATATCGTCGACCTTCTCCTCGATGTCGCGGCTATGGGGCTTAATATAATCGAACGCGAAGGCGTCTCGTATACCCACCCGTCGTCATTCATCCTCGTCGGCACCATGAATCCCGAAGAAGGCGACCTGCGCCCGCAGTTGCTCGACAGATTCGGTCTCTGCGCAGTTATCGAGGGTATTGCCGATGCTGACACACGCCTTGAGATCATAAAACGGAGAATGGATTTCGAGAACGACCCGAAGGGATTCACGGCGAAATGGGCGGCAGCGGACAAGAAGATAGCCGATAAGATACTCGCGGCAAAAGATCTCCTCCCCGACGTCGTCATCCCCGACGATATGCTCCGTATCGCCGTCCAGATATGCACGGATGCCGGTGTCGACGGTCATCGCGGCGACATTACGCTTGTCAAGACCGCCAAGACCCTCTGCGCCTACAAACTGCGCACCGAGGTCACCGAAGACGATATAAAAGAGGCGGCAAAACTTGTTCTGGCGCACAGGATGAGAAAAACGCCGTTCTCGAACGAGCAGTATGACGACAAGAAGATAGACGAGTCGATTGAGAAGGCCAAGAATCACAATAAATCCGAACAGAAGGAGAACGATTCGGAGACGACGCGGAAGGAAACACAGAACGAGCCGCAGGACAACGCCGGCGAACAGAAACAGAGCAGCGGCAGCGGCTCGGACAGTTCCGAGACGAAACTCTTCAAGGCATCGGACCCTTTCGCGGTAAAATCTTCAGCATTGACTCCCGAGTTGAAGATTGACAGCATAGTAAGGGAGGGAAGCGGCAGGCGAAGCGTTACCCGAAGTTCCTCGGGAAGATATGTGGGCAGCAGAATACCGCAGGGCAAGCCCAAAACAATCGCCATGGATGCCACGATTCGTGCCGCGGCCAGAAACGGAACGTCGCGGGCATCATCGGCGGGCGGCTCATCCGCGAATTCGGATACGGACTATAACACGGCATTGCGTATAGTCCTCTCCGACGTTCGCGAGAAGGTAATGGAGCGGAGAAGCGAGAACAGCATACTCTTCATAGTGGACGCAAGCGGGAGCATGGGCGCACAAAAACGCATGTCCGCGGTAAAAGGCGCAATCCTCTCCCTGCTCATCGACGCTTATCAGAAACGGGACAAGATAGGGCTGATTACCTTCCGCGCAAAGAGCGCGAAGGTCATACTCCCGCTTACCTCGGATATCGCGATGGCGCAGGAGTACATGAAAAAGATTGAGATCGGGGGCAAGACGCCTCTTGCCGAAGGTCTGAAGAAAGGTTTGGAGACCATCTCCGCCGAGATGATGAAGAATCGCCTGACGAAACCGCTTCTGATTCTGGTCTCGGACGGCAGGGGAAACGTGAGTCTCTCGGACAAAAACCCGCTCTCCGAGAGTTTTTCGATGGCGGCGATGATTAAAGAGGCAAAGATACCCGCCCTTGTCCTCGACTCCGAAGAAGGCTTTGTCGCCCTCGGCTACGCCAGAAAACTTGCCGATGCCATGGGCGCAAAATACATGAAACTCAGCGAACTTGCGGGATAA</t>
+  </si>
+  <si>
+    <t>ATGTCAAAGACACACAATCGTCAAATCTATCCATTTTCAGCAATCGTCGGTCAGGACATAATGAAAACGGCATTGATACTGAACGCTATAAATCCGTCAATCGGCGGCGTTCTTATCAAAGGAGAGAGAGGCACGGCGAAATCTACGGCCGTACGTTCTCTTGCGGCGCTTCTTCCCGAGAATAAAGTCGTTCTCGGCTGCACCTTCGGCTGCGATCCAGAAAAACCCGAGGATTTCTGCGAGGAATGCAGGAAAAACCTCATAAATCTCCGTACCGCCGAGAGAAAGATGACCGTCGTCGAATTGCCCGTCTCCGCGACCGAGGACATGGTCGTGGGCAGTCTTGACATATCCTCCGCCATCAAGGAAGGCGAGAAGAAGTTCGAGCCCGGAATTCTTGCGGCGGCGCACAGGAACATCCTCTACGTGGACGAAGTAAATCTCTTAAACGACCATATCGTCGACCTTCTCCTCGATGTCGCGGCTATGGGGCTTAATATAATCGAACGCGAAGGCGTCTCGTATACCCACCCGTCGTCATTCATCCTCGTCGGCACCATGAATCCCGAAGAAGGCGACCTGCGCCCGCAGTTGCTCGACAGATTCGGTCTCTGCGCAGTTATCGAGGGTATTGCCGATGCTGACACACGCCTTGAGATCATAAAACGGAGAATGGATTTCGAGAACGACCCGAAGGGATTCACGGCGAAATGGGCGGCAGCGGACAAGAAGATAGCCGATAAGATACTCGCGGCAAAAGATCTCCTCCCCGACGTCGTCATCCCCGACGATATGCTCCGTATCGCCGTCCAGATATGCACGGATGCCGGTGTCGACGGTCATCGCGGCGACATTACGCTTGTCAAGACCGCCAAGACCCTCTGCGCCTACAAACTGCGCACCGAGGTCACCGAAGACGATATAAAAGAGGCGGCAAAACTTGTTCTGGCGCACAGGATGAGAAAAACGCCGTTCTCGAACGAGCAGTATGACGACAAGAAGATAGACGAGTCGATTGAGAAGGCCAAGAATCACAATAAATCCGAACAGAAGGAGAACGATTCGGAGACGACGCGGAAGGAAACACAGAACGAGCCGCAGGACAACGCCGGCGAACAGAAACAGAGCAGCGGCAGCGGCTCGGACAGTTCCGAGACGAAACTCTTCAAGGCATCGGACCCTTTCGCGTAA</t>
+  </si>
+  <si>
+    <t>ATGACTCACCATATACGCAGGAATATTCTGCCATTTACAGCAATTGTCGGGCAGGACCAGATGAAACTCGCACTTATTCTTAACGCAATTAATCCCCGGATAGGGGGAGTTTTAGTCAGGGGAGAAAAAGGCACAGCCAAATCTACCGCAGTCAGAGCACTTGCGGAAATTCTTCCGGAAATTGAGGTCATAAAGGGTTGTCCTTTCAACTGCAATCCACATAACCCAAACGAACTCTGTGATTCATGCTATGAAAAATTAAATAATAGCGAATCCACCGATACCGTAATACGCAAAGTACAGGTTGTTACACTCCCTTTAGGCTCAACTGAGGATCGTGTAATAGGAACGATTGACATTGAAGAGGCAATAAAGGAAGGAACAAAATGCCTTGAGCCAGGAATTCTTGCGGCTGTAAACAGGGGAATCCTGTATATTGATGAAGTCAACCTTCTGGATGACCATGTTGTTGATATCCTGCTTGATTCCGCAGCCATGGGGGTTAATTCTGTCGAACGTGAAGGAATATCATTTTCACACCCGGCAAAATTCATACTGATCGGAACGATGAATCCTGAAGAAGGAGAACTGCGTCCTCAGCTTCTTGACAGGTTTGGGCTTCAGGTTACAGTTGAGGGAATTGCCGATGTCAGCGAACGAGTTGAGGTTGTACATATTGCTGATGCCTTTGAGACAGATCCAATCTCATTTATGGAGGAGTATGACCAGAAGCAGAAGCATTTCAGGGAGAGAATTGTTTCTGCAAAGGAGATACTGCCAAATGTAGTTATCTCTGATGAACTTGTACACAGGATAGCACAAACATGCGTGGATATGGGAGTTATGACGCATCGTGCTGAGATTACAATTGTCCGCACCGCCAAGACGATCTCTGCTTTTAACGGTCGTGAGGAGGTAACAACCGAGGATGTCAGAGAGGCTATGGCCCTGGCCCTGCCGCACCGTATGAGAAGGAAACCTTTTGAAGACCCACAGGTTGACCAGCAGAAGATCAATGACATGATGCAGGACGATCAAAAAAAAACGATAATGAGCCGGACGGTAGAGGAGCAGCCGGAAAACAGGGATGAAAATCCTGAAGAGACAGGGGAGATCCCACCTTTCGATTTTCCTGAAGAGGAAGAGAACCGCGACAACGAAATACCTCCATCGAGCGGATCTCCTCCTCAGGAGATGGTATTTGATATCGGAAGACCTATCGAGACATCAGGAATTAACTACAGTTCATGCAAAGACCGGATGAAGCGTTTATATGTATCCGGGAGGCGTGTGGACACTCTTTCTGAAAAGAACCGTGGGAGGTATGCACGTATCTGCATGCCTAAGGATATGGACGATATCGCTTTTGATGCAACTATGCGTGTGGCATCTGTCCACCAGAAAAAAAGGCAGAAGAACGGAAACAGGCTTATAATTAAGGACTCTGACATACGTGAAAGGATAAGGGTCGGAAAAGTTTCTGTAACATGTGTCTTTGTTGTGGATATCAGTGGCTCAATGGGTGCGGATAAGAGGATGGAATGCGCAAAGGGTGCGGTTCTCTCGCTTCTTGAAGATGCCTACAGAAACAGGGACAGAGTCAGCATTGTTGCATTCAGGGGCAGTGAAGCGGAAGTTGTCCTGCCTCTCTGTAACAGTGTTGATCTGGCATATAAATATCTCAGGGAAATGCCCACCGGAGGAAAAACTCCCTTATCACACGGTCTTATGAAGGCTTATGAGGTCCTGATGAATGAGAAGAAAAAAAGGGAGGATATAATCCCTCTGATTATCCTCATCTCTGACGGCAGGGCAAATTACGGATTTGGGAAGAACATTAAGGAAGAAATTTTCTCAATATCCGAGAGATTCCGGGATGAGAGAATTCACACTGTAATAATAGATACGGAATCCGTTAAAAATTCCTTCATTAAATTTCAGCTTGGCTATTGCAGGGATATAGCAGAGAGATCAGGAGGTTCCTATTACTCTCTTAGTGAGCTTAGTACAGAGGGCGTCAGTTCAATTGCTCTGAATGAAAAAGAGAGACTTGTTTCTTCATATATTTAG</t>
+  </si>
+  <si>
+    <t>ATGACTCACCATATACGCAGGAATATTCTGCCATTTACAGCAATTGTCGGGCAGGACCAGATGAAACTCGCACTTATTCTTAACGCAATTAATCCCCGGATAGGGGGAGTTTTAGTCAGGGGAGAAAAAGGCACAGCCAAATCTACCGCAGTCAGAGCACTTGCGGAAATTCTTCCGGAAATTGAGGTCATAAAGGGTTGTCCTTTCAACTGCAATCCACATAACCCAAACGAACTCTGTGATTCATGCTATGAAAAATTAAATAATAGCGAATCCACCGATACCGTAATACGCAAAGTACAGGTTGTTACACTCCCTTTAGGCTCAACTGAGGATCGTGTAATAGGAACGATTGACATTGAAGAGGCAATAAAGGAAGGAACAAAATGCCTTGAGCCAGGAATTCTTGCGGCTGTAAACAGGGGAATCCTGTATATTGATGAAGTCAACCTTCTGGATGACCATGTTGTTGATATCCTGCTTGATTCCGCAGCCATGGGGGTTAATTCTGTCGAACGTGAAGGAATATCATTTTCACACCCGGCAAAATTCATACTGATCGGAACGATGAATCCTGAAGAAGGAGAACTGCGTCCTCAGCTTCTTGACAGGTTTGGGCTTCAGGTTACAGTTGAGGGAATTGCCGATGTCAGCGAACGAGTTGAGGTTGTACATATTGCTGATGCCTTTGAGACAGATCCAATCTCATTTATGGAGGAGTATGACCAGAAGCAGAAGCATTTCAGGGAGAGAATTGTTTCTGCAAAGGAGATACTGCCAAATGTAGTTATCTCTGATGAACTTGTACACAGGATAGCACAAACATGCGTGGATATGGGAGTTATGACGCATCGTGCTGAGATTACAATTGTCCGCACCGCCAAGACGATCTCTGCTTTTAACGGTCGTGAGGAGGTAACAACCGAGGATGTCAGAGAGGCTATGGCCCTGGCCCTGCCGCACCGTATGAGAAGGAAACCTTTTGAAGACCCACAGGTTGACCAGCAGAAGATCAATGACATGATGCAGGACGATCAAAAAAAAACGATAATGAGCCGGACGTAG</t>
+  </si>
+  <si>
+    <t>ATGGTCGTATTTCCATTTACAGCAATAGTAGGACAGGAAAAAATGAAAAAAGCACTAATATTAAATGCAATTAATCCAAAAATAGGCGGTGTATTGATTAGAGGTGAAAAGGGAACAGCGAAATCCACAACAGTAAGGGCGTTGGCGGAGCTCCTGCCTGAAATTGAGGTTGTGGAAAATTGTCCCTTTAACTGCAATCCAAATGGTGATATGTGCGATATATGTAAAGAAAACAAAACAAAAGGAACATTAAAAACCATTAAAAGAAAGATGAAGGTTGTGGATTTACCAATAGGAAGCACAGAGGATAGAGTAATAGGAACACTCGATATAGAAAGAGCCATAAAAGAAGGCGTAAAAGCACTTGAACCCGGTATATTGGCAGAAGCAAACCGAAATATACTGTATATCGATGAGGTAAATTTATTGGATGACCATATTGTAGATATTCTTTTAGATGCAGCAGCCATGGGATGGAATACTATTGAAAGGGAAGGTATAAAAGTTAAACATCCATCTAATTTTATATTGGTTGGAACGATGAATCCAGAAGAAGGTGAGCTCCGACCACAGATATTGGATAGATTTGGTTTAATGGTTGATGTGGAAGGATTGAATGATGTTAAACAGAGAGTGGAAGTTATAAAGAGAGTTGAGAAGTTTAATACAAATCCAGACGAAATATTTAAAGAGTATGAAGAAGAACAGATTAAACTAAGGGAAAAAATAGAAAATGCGAGAAAAATATTGGATAGTGTAAAAATTAGCGATGATTTATTGGAATTAATCTCAAAGATTTGTATAGAATTAAACATCCCCACAAATAGAGCAGATATAACTGTGGCAAGAACTGCAAAAACCATAGCTTCCTTTAATGGAAGGGATTATGTCAATACCGATGATATCAAGGAAGCATGCGAATTGGCACTGCCCCATAGGATGAGAAGAAAACCATTTGAACCACCACAATTAAACAATGAAAAAATAGAGGAAATGATAAACGATTTTGAAAAAAATAATGAAAATAATAAAAACGATGAAAATGACAAAAAAAATAATAATAATCAAAATGAGAATGAGGAAGAGAATAAAAATGGACAAGAGGATAATCTAAAAAAAAACCTAAATGAAAACGATAAAGAACGAAAAGAACAGGACGAAAAAACAGATGTGCATGACGATAATAAAGATAAAGAAGATAAAAAGGACAATCCCAATGAAAACGATAATAACCAAAATACCAATAATAATAGCAATAACGATAATAATAGTAACAATAATAACGATAAAGATAATGATAGTAATAATAAAAATAATAAAGACAGCAACGCTCAGGAACAGATGTTTAATGCCAAAGGAGGTATAAACCCAAATATAATAAAAATACAACTAAAAGATAATATAAGTAGGTATTCAAGCGGAAGGCATGTTAAAAGTATAAGTAAAAAAGGTAGATACATAAAATACAGGATTCCAAATGGAAAAACGACCGATATAGCATTTGATGCCACACTAAGGGCAAGTGCATTGTATCAAAAGGATAGAAAAGAAAAATCCGATAATAAAAATGTGGCATTGTATCTTAAAAAGGAAGATTTAAGGGAAAAAATAAGGGAAAGAAAAATTTCAACAAATATACTTTTTAGTGTGGATGCAAGCGGTTCTATGGGGGCTATGAAAAGAATGGAAGCTGCAAAAGGGGCTGTGGTATCCTTATTAATGGATGCATATCAAAAGAGAAATAAGGTATCTATGATTACATTTAGAAAAGATAGTGCGGAGCTCCTATTACCATTCACATCATCTGTCGAGCTCGCAGAGAAATGTTTAAGTGAAACCCCAACAGGCGGTAAAACTCCTCTTTCAAAGGCATTTTTAAAATCTTATGAAGTGATTAAAAACAACATGAGAAAAAATCCAAATATCATTCCAATAGTTGTATTTATAAGTGATTTTAAGCCAAATGTAGCCATGGAAAAAGATTATATAAAAGAAGTATATGATATCTGTGAAAAATTTGCAGAAGATGAAATAAATGTAATACTAATAGATACTGAACCAAAATCATTTATAAAAATAGGTATTGGAGAAAATATTGCTAAAAAATATGGATTTAAATATTATAAAATTGATGATTTATCCTCCGAAAATATATTAAATGCCCTTAATTAA</t>
+  </si>
+  <si>
+    <t>ATGGTCGTATTTCCATTTACAGCAATAGTAGGACAGGAAAAAATGAAAAAAGCACTAATATTAAATGCAATTAATCCAAAAATAGGCGGTGTATTGATTAGAGGTGAAAAGGGAACAGCGAAATCCACAACAGTAAGGGCGTTGGCGGAGCTCCTGCCTGAAATTGAGGTTGTGGAAAATTGTCCCTTTAACTGCAATCCAAATGGTGATATGTGCGATATATGTAAAGAAAACAAAACAAAAGGAACATTAAAAACCATTAAAAGAAAGATGAAGGTTGTGGATTTACCAATAGGAAGCACAGAGGATAGAGTAATAGGAACACTCGATATAGAAAGAGCCATAAAAGAAGGCGTAAAAGCACTTGAACCCGGTATATTGGCAGAAGCAAACCGAAATATACTGTATATCGATGAGGTAAATTTATTGGATGACCATATTGTAGATATTCTTTTAGATGCAGCAGCCATGGGATGGAATACTATTGAAAGGGAAGGTATAAAAGTTAAACATCCATCTAATTTTATATTGGTTGGAACGATGAATCCAGAAGAAGGTGAGCTCCGACCACAGATATTGGATAGATTTGGTTTAATGGTTGATGTGGAAGGATTGAATGATGTTAAACAGAGAGTGGAAGTTATAAAGAGAGTTGAGAAGTTTAATACAAATCCAGACGAAATATTTAAAGAGTATGAAGAAGAACAGATTAAACTAAGGGAAAAAATAGAAAATGCGAGAAAAATATTGGATAGTGTAAAAATTAGCGATGATTTATTGGAATTAATCTCAAAGATTTGTATAGAATTAAACATCCCCACAAATAGAGCAGATATAACTGTGGCAAGAACTGCAAAAACCATAGCTTCCTTTAATGGAAGGGATTATGTCAATACCGATGATATCAAGGAAGCATGCGAATTGGCACTGCCCCATAGGATGAGAAGAAAACCATTTGAACCACCACAATTAAACAATGAAAAAATAGAGGAAATGATAAACGATTTTGAAAAAAATAATGAAAATAATAAAAACGATGAAAATGACAAAAAAAATAATAATAATCAAAATGAGAATGAGGAAGAGAATAAAAATGGACAAGAGGATAATCTAAAAAAAAACTAA</t>
+  </si>
+  <si>
+    <t>ATGAATTATTCATTTACTGCAATTGTTGGGCAGGAAAAAATGAAACAGGCGCTGGTCTTAAACGCAATAAACCCAAAAATTGGGGGAGTTTTAATAAGGGGAGAGAAGGGAACTGCAAAATCTACAACAGTAAGAGCTCTGGCTGATTTATTGCCAGAAATTGAGGTTGTTGAAGGATGTCTATTCAACTGTGACCCCAATGGGGATTTGTGTGATGTATGTAGAGAAAAGAAGGAACGGGGAGAATTAAAAACAATTAAGAAAAAGATGAAGGTTGTTAACCTCCCAATTGGTGCTACGGAAGACAGGGTTATCGGAACACTTGATATTGAAAAAGCAATCAAAGAAGGGATTAGAGCTCTTGATTCAGGAATTTTGGCTGAGGCAAATAGGAATATTTTGTACATTGACGAAGTGAATCTTTTAGATGATCATATTGTTGATATCCTTTTAGATGCTGCTGCAATGGGGTGGAATGTTATTGAGAGGGAGGGGATAAAGATTAAGCATCCCTCACGATTTATCTTAGTTGGAACAATGAATCCAGAAGAAGGGGAGTTGAGGCCTCAGATCCTTGATAGGTTTGGGTTGATGGTGGATGTTGATGGATTAAACGATATAAAGCAGAGAGTTGAGGTAATAAAGAGAGTTGAAGAATTTAATGAAAATCCGGAAGAATTTCATAGAAAATATGAGGAAGAGCAATTAAAGTTGAGGGGGAAGATAGAAAGGGCAAGAGAATTATTGAATAATGTAAAAATAAATGATGATTTATTGGAACTAGTTTCAAAGATTTGTATTGAATTAGGTATTCCAACAAATAGGGCAGATATAACCGTTGCAAGGACGGCAAAAACCATTGCTGCATTTAATGGAAGGGATAATGTAACTGTTGACGATGTAAAAAAGGCATGTGAGCTTGCCCTCTTACACAGAATGAGGAGGAAGCCGTTTGAACCACCACAATTAAACAAAGAAAAGATCGAGCAAATATTTAATGAGTTTGAGGAGAAGAATAAAGAAAAAAACGAAAATGAAAATGAAGGTAATAACAAAGAAGATGAAGTAAAAAAAAACCTAAATGAAAGTAATAGTAGGGATGAAAATAATAACGAAAATAGAGAACATCCCGAAAACCATGAAAACGATAATAAAAACAGTGACAACAATGAAAGCAACAATAACGAAAATAGCGACATTGGAGATGGGGATAGGACATTTGGTATAAATGGAAGGGTAAATCCAAAAATTCTTAACATAAAGTTGAGGGATAATCTATACAGGTACAGTAGCGGGAGGCACATAAGGAGCATCAGCAAAAAAGGAAGATATATACAATACCGAATTCCACATGGGAAAACAACCGATATTGCCTTTGATGCAACATTTAGGGTTAGTGCATTGTATCAAAAAGAGCGAAGAGAGAAATTTAAGGACAAAAATTTGGTATTATACTTAAAAAAAGAAGATTTAAGGGAGAAGGTTAGGGGGAGGAAGATATCATCTAATTTGCTGTTTGTTGTTGATGCAAGTGGTTCTATGGGTGCGATGAGGAGAATGGAAGTAGCGAAAGGAGCAGTTTTATCTCTCTTAATGGATGCCTATCAAAAAAGAAATAATGTGGGAATGATTGCATTTAGAAAAGATAGTGCAGAACTTGTTTTGCCTTTCACTTCATCTGTTGAACTTGGGGAGAAATTACTCAAAGAGCTCCCAACTGGAGGAAAAACGCCCCTATCAAAAGCATTTTTAAAGGCATATGAGATTTTTAAAAATGAAATGAGGAAAAACCCAAACATAATACCTATTATGATATTTATCAGTGACTTTAAACCAAATGTGGCTATTAAAAAAGATTATATAAGGGAGGTCTTTGATATTTGTGATAAAATTGCAGAGGAAGGAATAAATGTCATTTTAATAGACACTGAGCCAAAATCATTAATAAAAATAGGTATTGGAGATAAAATTGCCAAAAAATATGGGTTTGGATATTATAAGATAGATGATATTAATGTAGATGGAATTTTGGACATCGTTAACCCTTTAATGAATTATTATGGCGGTGTGCAATTTTAA</t>
+  </si>
+  <si>
+    <t>ATGAATTATTCATTTACTGCAATTGTTGGGCAGGAAAAAATGAAACAGGCGCTGGTCTTAAACGCAATAAACCCAAAAATTGGGGGAGTTTTAATAAGGGGAGAGAAGGGAACTGCAAAATCTACAACAGTAAGAGCTCTGGCTGATTTATTGCCAGAAATTGAGGTTGTTGAAGGATGTCTATTCAACTGTGACCCCAATGGGGATTTGTGTGATGTATGTAGAGAAAAGAAGGAACGGGGAGAATTAAAAACAATTAAGAAAAAGATGAAGGTTGTTAACCTCCCAATTGGTGCTACGGAAGACAGGGTTATCGGAACACTTGATATTGAAAAAGCAATCAAAGAAGGGATTAGAGCTCTTGATTCAGGAATTTTGGCTGAGGCAAATAGGAATATTTTGTACATTGACGAAGTGAATCTTTTAGATGATCATATTGTTGATATCCTTTTAGATGCTGCTGCAATGGGGTGGAATGTTATTGAGAGGGAGGGGATAAAGATTAAGCATCCCTCACGATTTATCTTAGTTGGAACAATGAATCCAGAAGAAGGGGAGTTGAGGCCTCAGATCCTTGATAGGTTTGGGTTGATGGTGGATGTTGATGGATTAAACGATATAAAGCAGAGAGTTGAGGTAATAAAGAGAGTTGAAGAATTTAATGAAAATCCGGAAGAATTTCATAGAAAATATGAGGAAGAGCAATTAAAGTTGAGGGGGAAGATAGAAAGGGCAAGAGAATTATTGAATAATGTAAAAATAAATGATGATTTATTGGAACTAGTTTCAAAGATTTGTATTGAATTAGGTATTCCAACAAATAGGGCAGATATAACCGTTGCAAGGACGGCAAAAACCATTGCTGCATTTAATGGAAGGGATAATGTAACTGTTGACGATGTAAAAAAGGCATGTGAGCTTGCCCTCTTACACAGAATGAGGAGGAAGCCGTTTGAACCACCACAATTAAACAAAGAAAAGATCGAGCAAATATTTAATGAGTTTGAGGAGAAGAATAAAGAAAAAAACGAAAATGAAAATGAAGGTAATAACAAAGAAGATGAAGTAAAAAAAAACTAA</t>
+  </si>
+  <si>
+    <t>TTGGATAATTTTACTTTTCCTTTTACAGCTATAGTAGGCCAAGAGAAAATAAAGAAATCACTTATACTTAATGCTATAAATCCTAGTATTGGTGGAGTGCTGATAAAAGGAGATAAAGGTACAGGCAAAACTACAGCTGTTAGGGCACTGGCAGATCTTTTGCCATCAATAAAAGTTGTAAAAGGCTGTCCTTTCAATTGTGACCCTGATGACAAAACAAACATGTGTCCTCTTTGTAAATCAAGAGATAAAATAAAAGTTGAGAAAAAGAAAATGAAAGTTGTGGAGCTCCCACTGGGAGCTACAGAAGATAGAGTAGTAGGAACACTTGATATAAAAAAAGCGTTAAATGAAGGTATTAAAGCTTTAGAACCAGGATTATTAGCAGAAGCCAACAGAAATATACTTTATGTTGATGAAATAAACCTTTTAGATGATCATTTGGTTGATGTCCTGTTAGATGCAGCTGCATATGGAATAAATCGTGTTGAAAGAGAAGGGATATCAATTTCTCATCCTTCAAGATTTATTTTGGTTGGAACAATGAATCCAGCAGAAGGAGAGCTCAGACCCCAGCTTGCTGATAGGATTGGACTTCATATCACTGCCAAAAGTATTACTGACATTAAAGACAGAGTAAAAATCATGGAACGTAGAGAAAGATTTGAAAGAGATCCTATTGGATTTAGAGAAGAATTTAAGGACAAACAAGAAAAATTAAGAAAAAGAATCCTTAAAGCACGAAAGTTGTTAGACAAAGTTGAAATATCTCAAGAATTAATGGAATTAATAGCTAGAGTATGTTTAAATGCTGGTGTAGATGGTCACAGAGCAGACATAGCTATACTTAAAACATCTAAAACAATTGCAGCATATAATGGAAGAAAAGAAGTTAATATAGATGATATAAAAGAAGCAATTTCTCTTGTTTTAGAAGAAAGAATTTTAGGAAGAAAGCTTGGAAAAAATCAAATAAGTAAAGTAGTAGAAAGAGCAAAAGAAGAGATGAAAAAAGATAAAATTGAAACGAGTGCAAAAGCACGAGCAAAAGAACTCACAAAAGGAAGTGGTGAATTTTTTCTAGGAAGTAAATCAACATCTCACATTCAGGCTGTAGGTAAGAGAAATATTGAAGATAAAGACGTTAATATCGATTTAAAAAAATTTTTGAAATTTAAAGGTGATAAGAGAAGACGTAAGTATGGTAACAAAGTTGAATCTCAAACAGAAAGGGGAAAATATGTAAAAAGTAGAATTCCATTGAAGAATCCAAAAGATATTGCAATAGATGCAACGATTAGGGCAGCAGCGATTAAATCAGAAGGTAAAATTAATGTTGAACCAGAAGATTTAAGAGAAAAAATAAGAAAACATGGATCAAAGGCATTAATAGTTTTAGTTGTGGACATAAGTGGATCAATGTCTTCAGAAGATAAAGCTGAGAAAGTTAAAGGAGTTTTAAAGAGAATAATGTTAGATGCTCAAAGACATAAAGATAAGTTAGCAATTATAGGGTTTAAAGGTAGAGAGGCTAGAGTTATTCTACCCAGTACGAGAAGGATATTTTCGTTCAAAGATAAAATTGAAAATATTTCTGTAGGTGGAACTACTCCAATGGCTCATGGTCTCAAAAAAGCTATAGAAATTTTAAAAAGAGAAAAGAAAAAATCAAACGAATATGTACCAATACTTGTATTGCTAAGTGATGGCATGCCTAATATTGCCTTAAAAAATAGTCCTACACGTGACGTGCTCGAATTAGCAAAAGAGTTAAATAGGAGTGATATACATACCGTGATTATAAATTTTGAGAAAAGGATTATGCGGGGTAGAAACTTCAACTTTGAATTAGCACTAACTTCTGGTGGCAAATATTATGAGGTAGGAAATAGAAATATTGTAGAAACTGTTGGATCAATTATTAAACACGAAAGAAATTCATTATTTTACAATGATAAAAATATTTATTTATCATGA</t>
+  </si>
+  <si>
+    <t>TTGGATAATTTTACTTTTCCTTTTACAGCTATAGTAGGCCAAGAGAAAATAAAGAAATCACTTATACTTAATGCTATAAATCCTAGTATTGGTGGAGTGCTGATAAAAGGAGATAAAGGTACAGGCAAAACTACAGCTGTTAGGGCACTGGCAGATCTTTTGCCATCAATAAAAGTTGTAAAAGGCTGTCCTTTCAATTGTGACCCTGATGACAAAACAAACATGTGTCCTCTTTGTAAATCAAGAGATAAAATAAAAGTTGAGAAAAAGAAAATGAAAGTTGTGGAGCTCCCACTGGGAGCTACAGAAGATAGAGTAGTAGGAACACTTGATATAAAAAAAGCGTTAAATGAAGGTATTAAAGCTTTAGAACCAGGATTATTAGCAGAAGCCAACAGAAATATACTTTATGTTGATGAAATAAACCTTTTAGATGATCATTTGGTTGATGTCCTGTTAGATGCAGCTGCATATGGAATAAATCGTGTTGAAAGAGAAGGGATATCAATTTCTCATCCTTCAAGATTTATTTTGGTTGGAACAATGAATCCAGCAGAAGGAGAGCTCAGACCCCAGCTTGCTGATAGGATTGGACTTCATATCACTGCCAAAAGTATTACTGACATTAAAGACAGAGTAAAAATCATGGAACGTAGAGAAAGATTTGAAAGAGATCCTATTGGATTTAGAGAAGAATTTAAGGACAAACAAGAAAAATTAAGAAAAAGAATCCTTAAAGCACGAAAGTTGTTAGACAAAGTTGAAATATCTCAAGAATTAATGGAATTAATAGCTAGAGTATGTTTAAATGCTGGTGTAGATGGTCACAGAGCAGACATAGCTATACTTAAAACATCTAAAACAATTGCAGCATATAATGGAAGAAAAGAAGTTAATATAGATGATATAAAAGAAGCAATTTCTCTTGTTTTAGAAGAAAGAATTTTAGGAAGAAAGCTTGGAAAAAATCAAATAAGTAAAGTAGTAGAAAGAGCAAAAGAAGAGATGAAAAAAGATAAAATTGAAACGAGTGCAAAAGCACGAGCAAAAGAACTCACAAAAGGAAGTGGTGAATTTTTTCTAGGAAGTAAATCAACATCTCACATTCAGGCTGTAGGTAAGAGAAATATTGAAGATAAAGACGTTAATATCGATTTAAAAAAATTTTGA</t>
+  </si>
+  <si>
+    <t>ATGAAGTATCCATTTACCGCAATTGTTGGTCAGGAGAAGATGAAGAAGGCATTAATCCTAAATGCTATAAACCCAAAAATTGGAGGGGTTTTAATAAGAGGAGAGAAGGGAACTGCAAAATCTACAACAGTAAGGGCTTTGGCTGATTTGTTGCCAGAGATTGAGGTTGTTGAAGGATGTCCATTCAACTGCAATCCTAATGGGGATTTGTGCGATATTTGTAGAGAAAAAAAGGAAAGAGAAGAATTAAAAACAATTAAGAAAAAGATGAAGGTCGTTAACCTTCCAATTGGTGCAACGGAGGATAGGGTTATTGGAACCCTTGATATTGAGAAGGCAATTAAAGAGGGGATTAAAGCCCTCGACCCTGGAATTTTAGCAGAGGCAAATAGAAACATCTTGTATATTGATGAGGTTAACCTTTTAGATGACCATATTGTTGATATCCTCTTAGATGCTGCTGCAATGGGATGGAATATTATTGAGAGAGAAGGGATAAAGATAAAACATCCCTCACGATTTATCTTAGTTGGAACTATGAACCCTGAAGAAGGGGAGTTGAGACCTCAAATCCTTGATAGGTTTGGATTGATGGTGGATGTTGAGGGATTGAATGATATAAAGATGAGAGTTGAGGTAATAAAGAGGGTTGAGGAGTTCAACGAAAATCCAGAAGAATTTTATAAGAAATATGAAGAAGAGCAATTAAAGTTGAGGGAAAAGATAGAAAAAGCGAGAGAACTATTAAATAATGTAAAAATAAGTGATGATTTATTGGAGTTGATATCAAAAATCTGCATTGAGTTAGGCATTCCAACAAACAGGGCAGATATAACCGTTGCAAGGACTGCAAAAACCATCGCTGCATTTAATGGAAGGGATTATGTAACCGTTGATGATGTAAAAGAGGCATGTGAACTTGCCCTTCCACATAGGATGAGGAGAAAGCCATTTGAACCACCGCAATTAAACAATGAGAAGATTGAGCAGATATTTAATGAGTTTGAGGAGAACAAAGAAAAAAATGAAGATGAAAAAAATAATGAAGAAAATGACGATGTAAAAAAAAACCTAAATGAAAACAACAATAAAGATGAAAATAACAACGAAAATAGAGATTCTGAAAACCATGAAAATAAAGATAATAGAGATAATGGAGAACATGATAACAATGGCAATGAAAGTAACAATGAAAATAACAACGTTGGAGAGGAAGTATTTGGCATAAATGGAGGAGCAAACCCAAAAATACTCAACATAAAGTTGAGGGATAACATTTTCAGATACAGTAGTGGAAGGCACATAAAGAGTATAAGTAAAAAAGGGAGGTACATAAAATACAAAATTCCACATGGAAGAACAACAGATATTGCCTTCGATGCAACATTTAGAGTTAGTGCAATGTATCAAAAAGAGAGAAGAGAGAAATTTAAGGACAAAAATTTGGCATTGTACTTAGAAAAAGATGATTTAAGGGAGAAGGTTAGGGAGAGAAAAATATCCTCCCACTTACTGTTTGTTGTTGATGCAAGTGGCTCTATGGGAGCAATGAGAAGGATGGAATCTGCAAAAGGAGCAGTTTTATCTCTATTAATGGATGCATATCAAAAAAGAAACAAGGTTGGGATGATTGCATTTAGAAAGGATAAGGCAGAACTTGTTCTTCCATTTACATCTTCTGTTGAACTTGGTGAAAAATTGCTCAAAGAACTCCCAACTGGAGGGAAAACTCCACTCTCAAAGGCATTTTTAAAGGCGTATGAGGTTTTTAAAAATGAAATAAGGAAGAATCCAAATATAATACCAATTATTATATTCATAAGCGACTTTAAGCCAAATGTAGCTATTAAAAAGGATTATATAAAAGAGGTTTTTGATATATGTGATAAAATTGCAGAAGAAGAGATAAACGTTATTCTAATAGATACAGAGCCAAAATCATTCATAAAAATAGGCATTGGTGATAAAATCGCTAGGAGATATGGTTTTAGGTATTACAAGATAGACGACATCAATGTAGATGGGATTTTGGATATCGTGAATCCGTTAATAAATTAA</t>
+  </si>
+  <si>
+    <t>ATGAAGTATCCATTTACCGCAATTGTTGGTCAGGAGAAGATGAAGAAGGCATTAATCCTAAATGCTATAAACCCAAAAATTGGAGGGGTTTTAATAAGAGGAGAGAAGGGAACTGCAAAATCTACAACAGTAAGGGCTTTGGCTGATTTGTTGCCAGAGATTGAGGTTGTTGAAGGATGTCCATTCAACTGCAATCCTAATGGGGATTTGTGCGATATTTGTAGAGAAAAAAAGGAAAGAGAAGAATTAAAAACAATTAAGAAAAAGATGAAGGTCGTTAACCTTCCAATTGGTGCAACGGAGGATAGGGTTATTGGAACCCTTGATATTGAGAAGGCAATTAAAGAGGGGATTAAAGCCCTCGACCCTGGAATTTTAGCAGAGGCAAATAGAAACATCTTGTATATTGATGAGGTTAACCTTTTAGATGACCATATTGTTGATATCCTCTTAGATGCTGCTGCAATGGGATGGAATATTATTGAGAGAGAAGGGATAAAGATAAAACATCCCTCACGATTTATCTTAGTTGGAACTATGAACCCTGAAGAAGGGGAGTTGAGACCTCAAATCCTTGATAGGTTTGGATTGATGGTGGATGTTGAGGGATTGAATGATATAAAGATGAGAGTTGAGGTAATAAAGAGGGTTGAGGAGTTCAACGAAAATCCAGAAGAATTTTATAAGAAATATGAAGAAGAGCAATTAAAGTTGAGGGAAAAGATAGAAAAAGCGAGAGAACTATTAAATAATGTAAAAATAAGTGATGATTTATTGGAGTTGATATCAAAAATCTGCATTGAGTTAGGCATTCCAACAAACAGGGCAGATATAACCGTTGCAAGGACTGCAAAAACCATCGCTGCATTTAATGGAAGGGATTATGTAACCGTTGATGATGTAAAAGAGGCATGTGAACTTGCCCTTCCACATAGGATGAGGAGAAAGCCATTTGAACCACCGCAATTAAACAATGAGAAGATTGAGCAGATATTTAATGAGTTTGAGGAGAACAAAGAAAAAAATGAAGATGAAAAAAATAATGAAGAAAATGACGATGTAAAAAAAAACTAA</t>
+  </si>
+  <si>
+    <t>ATGAACTATCCATTTACCGCAATTGTTGGACAAGAGAAGATGAAGAAAGCATTAATTCTAAACGCTATAAACCCAAAAATTGGTGGGGTTTTAATAAGAGGGGAGAAGGGAACAGCAAAATCTACAACAGTAAGGGCTTTGGCTGATTTGTTGCCGGAGATTGAAGTTGTTGAAGGATGTCCGTTCAACTGTGATCCTAATGGGGATTTGTGTGATATATGTAGAGAAAAGAAGGAAAGGGGAGAACTAAAAACAATTAAGAAAAAGATGAAAGTTATTAACCTCCCAATTGGTGCAACGGAGGATAGGGTTATTGGAACCCTTGATATTGAAAAGGCAATTAAGGAGGGAATTAAAGCCCTTGACCCTGGAATTTTGGCTGAGGCAAATAGGAATATTTTGTATATTGATGAGGTTAACCTTTTAGATGACCATATTGTTGATATCCTTTTAGATGCTGCTGCAATGGGATGGAATATTATTGAGAGAGAAGGGATAAAAATAAAACATCCCTCACGATTTATCTTAGTTGGAACGATGAACCCTGAAGAAGGGGAGTTGAGACCTCAAATCCTTGATAGGTTCGGGTTGATGGTGGATGTTGAGGGGTTGAATGACATAAAGCAGAGGGTTGAGGTAATAAAAAGGGTTGAAGAGTTCAATGAGAATCCAGAGGAGTTTTATAAAAAATATGAAGAAGAGCAATTAAAGTTGAGGGAAAAGATAGAGAAAGCAAGAGAATTATTAAAGAATGTAAAAATAAGTGATGATTTATTGGAATTAATTTCAAAAATCTGCATTGAGTTGGGTATTCCAACAAATAGGGCAGATATAACGGTTGCGAGAACGGCAAAAACCATTGCTGCATTTAATGGAAGGGATTATGTAACTGTTGATGATGTAAAAGAGGCATGTGAACTTGCCCTCCCACATAGAATGAGGAGGAAGCCATTTGAACCACCACAATTAAACAAGGAGAAGATTGAACAAATATTTAATGAGTTTGAGGAGAAGAATAACGAAAAAAATGAAGATGAAAAAGGTAATAAAGAAAATGATAAAGTAAAAAAAAACCTAAATGAAAACAACAGTAAAGAAAAACAAGAAGAAAATGGAGGAGATTTTGAAAACAATGAAAATAAAGATGATAAAGAAGATAACAAAGAACATGAAAATAATAGTAGCAATAATAAAAGCAGCAATAACAAAGATAGCAACATTGAAGAGGAAAAAATATTTGACATAAATGGAGGAGCAAATCCAAAAATACTCAACATAAAGTTGAGAGATAGCATATACAGATATAGTAGTGGGAGGCACATAAAGAGTATTAGCAAAAAAGGAAGATATATAAAATATAGAATTCCGCATGGAAAAACAACTGATATTGCCTTTGATGCAACATTTAGGGTTAGTGCATTATATCAAAAAGAAAGAAGAGAGAAATTTAAGGACAAAAATTTGGCATTGTATCTTACAAAAGATGATTTAAGGGAAAAGGTTAGAGAAAGAAAAATATCATCTCATTTACTGTTTGTTGTTGATGCGAGTGGGTCTATGGGTGCGATGAGGAGAATGGAAGCTGCAAAGGGAGCAGTTTTGTCTCTCTTAATGGATGCATATCAAAAAAGAAATAAAGTAGGAATGATTGCGTTTAGAAAAGATATGGCAGAACTTGTTTTGCCTTTCACTTCATCTGTTGAACTTGGAGAGAAATTACTCAAAGAACTCCCAACTGGTGGAAAAACACCCCTTTCAAAAGCATTTTTAAAGGCATATGAGGTTTTTAAAAATGAAATGAGGAAAAATCCGAACATAATACCAATTATGATATTCATTAGTGATTTTAAGCCAAATGTAGCTATTAAAAAAGATTATATAAAAGAGGTCTTTGATATCTGTGATAAAATTGCAGAAGAAGGAATAAACGTCATATTAATAGATACAGAACCAAAATCATTCATAAAAATAGGTATTGGTGATAAAATCGCTAAGAGATATGGGTTTAAGTATTATAAAATAGATGATATTAGCGTAGATGGAATTTTGAACATCGTTAACCCTTTAATAAATTATTAA</t>
+  </si>
+  <si>
+    <t>ATGAACTATCCATTTACCGCAATTGTTGGACAAGAGAAGATGAAGAAAGCATTAATTCTAAACGCTATAAACCCAAAAATTGGTGGGGTTTTAATAAGAGGGGAGAAGGGAACAGCAAAATCTACAACAGTAAGGGCTTTGGCTGATTTGTTGCCGGAGATTGAAGTTGTTGAAGGATGTCCGTTCAACTGTGATCCTAATGGGGATTTGTGTGATATATGTAGAGAAAAGAAGGAAAGGGGAGAACTAAAAACAATTAAGAAAAAGATGAAAGTTATTAACCTCCCAATTGGTGCAACGGAGGATAGGGTTATTGGAACCCTTGATATTGAAAAGGCAATTAAGGAGGGAATTAAAGCCCTTGACCCTGGAATTTTGGCTGAGGCAAATAGGAATATTTTGTATATTGATGAGGTTAACCTTTTAGATGACCATATTGTTGATATCCTTTTAGATGCTGCTGCAATGGGATGGAATATTATTGAGAGAGAAGGGATAAAAATAAAACATCCCTCACGATTTATCTTAGTTGGAACGATGAACCCTGAAGAAGGGGAGTTGAGACCTCAAATCCTTGATAGGTTCGGGTTGATGGTGGATGTTGAGGGGTTGAATGACATAAAGCAGAGGGTTGAGGTAATAAAAAGGGTTGAAGAGTTCAATGAGAATCCAGAGGAGTTTTATAAAAAATATGAAGAAGAGCAATTAAAGTTGAGGGAAAAGATAGAGAAAGCAAGAGAATTATTAAAGAATGTAAAAATAAGTGATGATTTATTGGAATTAATTTCAAAAATCTGCATTGAGTTGGGTATTCCAACAAATAGGGCAGATATAACGGTTGCGAGAACGGCAAAAACCATTGCTGCATTTAATGGAAGGGATTATGTAACTGTTGATGATGTAAAAGAGGCATGTGAACTTGCCCTCCCACATAGAATGAGGAGGAAGCCATTTGAACCACCACAATTAAACAAGGAGAAGATTGAACAAATATTTAATGAGTTTGAGGAGAAGAATAACGAAAAAAATGAAGATGAAAAAGGTAATAAAGAAAATGATAAAGTAAAAAAAAACTAA</t>
+  </si>
+  <si>
+    <t>ATGTCCCGAGTTAATTTTCCATTTACGGCCGTGTCGGGTCAGTCACTGTTTAAGACAGCACTGATCCTTGCGGCGATTAATCCCGGTATTGGCGGGGTATTAGTGAATGGCCCGCGCGGATCTGCTAAATCTACGTTAGCCCGTGGTTTTGCAGATATATTACCGAGTGAATTACAAAACCTTGTTAACTTACCTCTATCCGCGACAGAAGAGATGTTGGTGGGAACACTGGATTTGCAGTCGGTACTAAGCGAACAAAAAGTTAACTTCAAACCCGGTATTCTTGCCAAGGCTCATCAGGGTATTGTGTATGTTGATGAAGTTAATTTATTGGCTGACTCGCTGGTGGATCTATTATTAGACGTATCAGCCAGTGGTATTAATTATATTGAGCGTGATGGGATCAGCCATCAACATGAATCCCGCTTTATATTGTTAGGCACAATGAACCCTGAAGAAGGGGAATTACGTGCCCAGTTGTTAGATCGATTTGGTTTATCTGTCGAGTTATCTGCACAGTACAGTATTAACGAACGGGTTGAAATTGTTTGTTTACGTGAAGATTTTGATAAAGCTCCAAACGCGTTCATAGCTAAGTATGCAGACCAACAGCAGCAGTTACAACAAGATATTGCTAACGCACAGGCTTCACTGGGGCAAGTTAGTTGTTCTATGGCATTACGCCAGTTTATTGCTCAGCGTTGTCATGAGGCGCATGTTGATGGCCTACGTGCGGATATAGTTTGGTTTAAAACTGCACTTGCTCATGCGGCTTGGCAAGGTCATTCCGAAGTAACGAAAACTGATATTCTTGCTGTTGAAGACTTGGTGTTAAATCACCGTCGTAATACTGGTTCATCGCAATCCCCTCCGCCACCTAATAATAATCAAAATAAGCAACAACCATCAACCCCACCACCATTTTCTCGTCCTGATTCATCATCCTCGCGGCCATCGTCTTTACCAGAACAGACTGGAACGAATACGCAGCAGCAAAGTGAAAATAGCGAGTGGGGAAGTATGCCTGCGGTTTCTCAGCCGATGGCAAACACTCAGGTTGTAGAGCTTTCGGTTAAAGCGCTAGACGCTAAAAAAAACCTAATAGATAAACTTATTTTAACATCAAAAAGTCATAACGGTGCAGTGTTGGGTGGGCAAAAGATCAGTCAGAGAATAACCCATTCACCTGACTGGTTTGCTACTTTAGTTTCGTCATTAGGACGTTGGCCGCCAGCGGGTTTACGCTTTAAAAAAGCCAAAATGGGCCAGCCAATACTGCATATGATCTTGTTGGATACCTCGGGTTCAACATTAAAAAATCTGCAATTATCTCGTGCAAAAGCGGTCATTATGCACATTGCAGAGCAGGCTTATAAGCAACGTGAGTTATTGTGTATTTTTGGCTTTGGTAACGATGTAATTGAAACGGTTATGCCAAAACAAAAAGCGCCGAAATATATTCAGCAGTGGCTTGATGGTATTACTGCTGGTGGCGGAACGCCAATCAGAGAAATGTTAACGCAAGTGCGTACCTATCAAGTCAATAGCCAGAAACAACAAGGCGCTTTAGCCTTTCGTAATTATGTACTGACTGATGGGCGCATTAACCAAGATGTTGATGATCTTAAATTAGCGGGTCATACCTTGTTGATAGATACTGAAGACAGTACTATTAAACGGGGCCGTGGATCTGAAATTGCCCAGCAGCTCGATTGTGAATATTTAGTACTACCGGCTTAA</t>
+  </si>
+  <si>
+    <t>ATGTCCCGAGTTAATTTTCCATTTACGGCCGTGTCGGGTCAGTCACTGTTTAAGACAGCACTGATCCTTGCGGCGATTAATCCCGGTATTGGCGGGGTATTAGTGAATGGCCCGCGCGGATCTGCTAAATCTACGTTAGCCCGTGGTTTTGCAGATATATTACCGAGTGAATTACAAAACCTTGTTAACTTACCTCTATCCGCGACAGAAGAGATGTTGGTGGGAACACTGGATTTGCAGTCGGTACTAAGCGAACAAAAAGTTAACTTCAAACCCGGTATTCTTGCCAAGGCTCATCAGGGTATTGTGTATGTTGATGAAGTTAATTTATTGGCTGACTCGCTGGTGGATCTATTATTAGACGTATCAGCCAGTGGTATTAATTATATTGAGCGTGATGGGATCAGCCATCAACATGAATCCCGCTTTATATTGTTAGGCACAATGAACCCTGAAGAAGGGGAATTACGTGCCCAGTTGTTAGATCGATTTGGTTTATCTGTCGAGTTATCTGCACAGTACAGTATTAACGAACGGGTTGAAATTGTTTGTTTACGTGAAGATTTTGATAAAGCTCCAAACGCGTTCATAGCTAAGTATGCAGACCAACAGCAGCAGTTACAACAAGATATTGCTAACGCACAGGCTTCACTGGGGCAAGTTAGTTGTTCTATGGCATTACGCCAGTTTATTGCTCAGCGTTGTCATGAGGCGCATGTTGATGGCCTACGTGCGGATATAGTTTGGTTTAAAACTGCACTTGCTCATGCGGCTTGGCAAGGTCATTCCGAAGTAACGAAAACTGATATTCTTGCTGTTGAAGACTTGGTGTTAAATCACCGTCGTAATACTGGTTCATCGCAATCCCCTCCGCCACCTAATAATAATCAAAATAAGCAACAACCATCAACCCCACCACCATTTTCTCGTCCTGATTCATCATCCTCGCGGCCATCGTCTTTACCAGAACAGACTGGAACGAATACGCAGCAGCAAAGTGAAAATAGCGAGTGGGGAAGTATGCCTGCGGTTTCTCAGCCGATGGCAAACACTCAGGTTGTAGAGCTTTCGGTTAAAGCGCTAGACGCTAAAAAAAACTAA</t>
+  </si>
+  <si>
+    <t>CTGCAGTTGGCGCTGATCCTGTGTGCGGTGCATCCGGGGATCGGCGGGGTGTTGGTGCGCGGCGAGAAGGGCACCGCGAAGTCGACGGTGGTGCGGGCGCTGGCGCAGCTGTTGCCGCCGGTGGTGGACGAGACCGGGGCGCGGCCCGCGCGACTGGTGGAGCTGCCGGTCGGCGCGACCGAGGACCGGGTGGTCGGCTCACTGGATCTGGAGCGGGTGCTGCGCGACGGCGAACAGGCGTTCCGGCCCGGGCTGCTGGCCGCCGCCCACCACGGCGTGCTCTACGTCGACGAGGTCAATCTGCTGCACGACCACCTGGTGGACGTGCTGCTCGACGCGGCCGCGATGGGCCGGGTGCACGTCGAACGCGACGGCGTCTCGCATTCGCATCCGGCGCGCTTCGTGCTGGTCGGCACCATGAACCCGGAGGAGGGCGAGCTGCGTCCGCAGCTGCTGGACCGTTTCGGCCTCACCGTCGACGTGGCCGCCTCCCGTGACGTGGACGTCCGCATGACCGTGGTGCGGCGCAGGCTCGACTACGAGGCCGACCCGGCCGGGTTCGCCGCGCGCTACGCCGCCGCCGACCGGGAGATCGCCGACCGCATTCTCGCCGCTCGCGAGCGGGTCGCCTGCGTCGAACTCGACGACACCGAATTGCGCCGGATCGCCGCCCTGTGCGCGGCTTTCGACGTCGACGGCATGCGCGCGGACCTGGTGGTCGCGCGCACGGCCACCGCGCACGCCGCGTGGCGTGGGGCCGACGCGGTCGAGGTCGAGGACGTGCGGGTGGCGGCGGAACTGGCGCTGCCGCATCGCCGTCGCCGTGACCCCTTCGACGAGCCGGGCATCAGCGAGGACCAACTCGACCAGGCCATGCGCGACGCGGCCGAGCAGGCCGAACCGCCTGCCACGGACGAGCCGGACCAGCCGCCGCGCTCCGCGGACCGCGGCGAGGATCCCGGCGACGGCCCCGACGACCCCGGCACACCGCCCGAGGGCGGGCCGGGTGGCGGGCAGGCCCCGAAGGCCGGACCGGCACCCCGGCGCCCGGCGCCGCGAAACCGCCGCGCTGGGAGGTGCCCGGCGTCGGCGAGGGCGCCCCCGGCCGCCGTTCCCGCGCCCAGACCCGCACCGGCCGGGTGGTCCGCTCCACCACCGAGCCGGGCACCGGCCTGCACCTGCTCGGCACCGTCTTCGCCGCCGCGCCGCACCAGCGCACGCGCGGCCGCCTCGCCGGGCCGCTCGCGCTCGCCCCGGAAGATCTGCGCGGCGCGTATCGCGAAGGCCGCGAAGGCAATCTGGTCGTGTTCGTGGTCGATGCCTCCGGCTCGATGGCCGCCAGGGACCGGCTGTCGGCGGGTGACCGGCGCGATCGTCACCTTGCTGCGCGACGCCTATCAGCGCCGCGACAAGGTGGCGGTGGTGAGCGTGCGCGGCGCGACCGCGGACCTGGTGCTGCCGCCGACCTCCTCGGTGGACATCGCGGTCCGCAGGCTCGCGGGCCTGCGCACCGGCGGCAAGACCCCGCTGGCGGCGGGTCTGCTGCGGGCGCGCGAGATCGTCGCCCGCGAGCGCGTCCGCGACCCGCGCAGGCGGCCGATGCTGGTGTTGCTCACCGACGGCCGCGCCACCGGCGGCGCCGATCCGGTGGGCCGGGCGAAGACGGCGGCGGGGCTGCTGGCCCGCGACGGCGTCACCGCGATGGTGGTCGACTGCGAGCGCGGCATGGTCCGCCTCGGGCTGGCCGCCGACCTGGCGCGGGCGCTGGGCGGCACGCTGGTGCGGCTCGGCGAGCTGACCGGAGCGGCGGTCGCCGACGTCGTGCGCGCGGCCGACCCCGCCCGATCGCCGCGCGCCGCCTGA</t>
+  </si>
+  <si>
+    <t>CTGCAGTTGGCGCTGATCCTGTGTGCGGTGCATCCGGGGATCGGCGGGGTGTTGGTGCGCGGCGAGAAGGGCACCGCGAAGTCGACGGTGGTGCGGGCGCTGGCGCAGCTGTTGCCGCCGGTGGTGGACGAGACCGGGGCGCGGCCCGCGCGACTGGTGGAGCTGCCGGTCGGCGCGACCGAGGACCGGGTGGTCGGCTCACTGGATCTGGAGCGGGTGCTGCGCGACGGCGAACAGGCGTTCCGGCCCGGGCTGCTGGCCGCCGCCCACCACGGCGTGCTCTACGTCGACGAGGTCAATCTGCTGCACGACCACCTGGTGGACGTGCTGCTCGACGCGGCCGCGATGGGCCGGGTGCACGTCGAACGCGACGGCGTCTCGCATTCGCATCCGGCGCGCTTCGTGCTGGTCGGCACCATGAACCCGGAGGAGGGCGAGCTGCGTCCGCAGCTGCTGGACCGTTTCGGCCTCACCGTCGACGTGGCCGCCTCCCGTGACGTGGACGTCCGCATGACCGTGGTGCGGCGCAGGCTCGACTACGAGGCCGACCCGGCCGGGTTCGCCGCGCGCTACGCCGCCGCCGACCGGGAGATCGCCGACCGCATTCTCGCCGCTCGCGAGCGGGTCGCCTGCGTCGAACTCGACGACACCGAATTGCGCCGGATCGCCGCCCTGTGCGCGGCTTTCGACGTCGACGGCATGCGCGCGGACCTGGTGGTCGCGCGCACGGCCACCGCGCACGCCGCGTGGCGTGGGGCCGACGCGGTCGAGGTCGAGGACGTGCGGGTGGCGGCGGAACTGGCGCTGCCGCATCGCCGTCGCCGTGACCCCTTCGACGAGCCGGGCATCAGCGAGGACCAACTCGACCAGGCCATGCGCGACGCGGCCGAGCAGGCCGAACCGCCTGCCACGGACGAGCCGGACCAGCCGCCGCGCTCCGCGGACCGCGGCGAGGATCCCGGCGACGGCCCCGACGACCCCGGCACACCGCCCGAGGGCGGGCCGGGTGGCGGGCAGGCCCCGAAGGCCGGACCGGCACCCCGGCGCCCGGCGCCGCGAAACCGCCGCGCTGGGAGGTGCCCGGCGTCGGCGAGGGCGCCCCCGGCCGCCGTTCCCGCGCCCAGACCCGCACCGGCCGGGTGGTCCGCTCCACCACCGAGCCGGGCACCGGCCTGCACCTGCTCGGCACCGTCTTCGCCGCCGCGCCGCACCAGCGCACGCGCGGCCGCCTCGCCGGGCCGCTCGCGCTCGCCCCGGAAGATCTGCGCGGCGCGTATCGCGAAGGCCGCGAAGGCAATCTGGTCGTGTTCGTGGTCGATGCCTCCGGCTCGATGGCCGCCAGGGACCGGCTGTCGGCGGTGA</t>
+  </si>
+  <si>
+    <t>GTGTCCGGTTCCCTTGTTGCTTACTCCGAATCCGTCCGTGCGACATCCGGTGACGAAGCCGGGTTTCCGTTCTCCGCCGTGGTCGGCCAGGAGCGGTTGCAGCTGGCGTTGATCCTGTGCGCGGTGCACCCCGGAATCGGTGGCGTACTGGTGCGCGGTGAGAAGGGGACCGCCAAGTCGACGGTGGTGCGCGCGCTCGCGCAGTTGCTGCCGCCCGTCGTGGACGAGAGCGGGGCGCGGCCCGCGCGGCTGGTGGAACTGCCGGTCGGGGCGACCGAGGACCGGGTCGTCGGCTCCCTGGACCTGGAACGCGTGCTGCGCGACGGGGAACAGGCGTTCAAGCCCGGTCTGCTGGCCGCGGCGCATCACGGCGTGCTGTACGTCGACGAGGTGAACCTGCTGCACGACCATCTGGTGGATGTGCTGCTCGATGCCGCCGCCATGGGACGCGTGCACATCGAGCGCGACGGCGTATCCCATTCGCACCCGGCACGTTTCGTGCTCGTGGGCACCATGAACCCTGAGGAGGGGGAGCTGCGCCCGCAGCTGCTGGACCGCTTCGGGCTCACCGTCGACGTGGTCGCCTCGCGTGAGGTGGACGTGCGCATGGCCGTCGTGCGCAGGCGGCTCGACTACGAGGCGGACCCGAACGGCTTCGCCGCCGCGTACACGGGCGCTGACCGTGAGATCGCCGAGCGCATCCTCACCGCCCGCGATCGCCTGCCCGAGGTCGCCCTCGACAATGTCGAACTGCGCCGGATCGCCGCGCTCTGTGCGGCCTTCGACGTGGACGGCATGCGCGCGGACCTGGTCGTGGCGCGCACCGCGACCGCACACGCCGCCTGGCGCGGCAGCGAGGTCGTGACCGAGGACGACGTGCGGATCGCCGCGGAACTCGCACTGCCGCACCGGCGTCGGCGCGATCCGTTCGACGAACCGGGGATCAGCGAGGACCAACTCGACGAGGCCATGCGCCAGGCCTCGGACGAAGCCGCTCGCGCCGACGCGGACGGCGGTGCCGACGACCTGGGAAAAGGTGAAGCGGTCTCGCAGGACGATGCGGGACCGCGGCACCAGGCGGAAGAGTCGGGCGCACACCCGGAGAACGGGGCGAACACCACTGGGCCGGAGCAGGATTCGACCGGCGCGCGCCCCGAAGGCGATCCGGACGGCGAGGGTCCGCAATCCCCGGACGACGGCCCGGATTCGCCGGGAGGCGGACAGGATTCACCGCGGGATTCCGCGAACCCCCCGCGCCGCGATTCGAAGAACTCTGACTCGAAAAACCCCGGCAGCGATCAGGACTCGAACCCGCAGGGCGACAAGCCCGGCCGCGAACGCGGCGTGAGCGTCCCCACCCGATCGAGTGTCAAGGCCCCGCGCTGGGAGGTCCCCGGTGTCGGTGAAGGCGCACCCGGCCGCCGCTCCCGTGCCCGCACCCGCCAGGGTCGCGTCGTGCGCGCCACCACCGAGACCGGCACCGGTCTGCACCTGCTCGGCACCCTGTTCGCCGCTGTCCCGCACCAGTATTCGCGCGGCCGCACCACCGGCCCCATCGAATTCCTGGCCGAGGACCTGCGCGGCGCGTACCGCGAAGGCCGCGAGGGCAACCTGGTCGTCTTCGTGGTGGACGCCTCCGGCTCCATGGCCGCGCGCGACCGGCTCTCCGCGGTCACCGGCGCGATCGTCGCCCTGCTGCGCGATGCCTACCAGCGTCGCGACAAGGTCGCCGTCATCACCGTCCGAGGCCAGGACGCCGAGTTGGTCCTGCCCCCCACCTCCTCGGTCGACATCGCCGTCCGCCGCCTCGCGGACCTGCGCACCGGTGGCAAAACCCCACTCGCCCGGGGACTTCTGAAGGCCCGCGAGGTGATCGGCCGCGAACGCGTCCGCGATCCGCACCGCCGCCCCCTGGTGGTTCTGCTCACCGACGGCCGCGCCACCGGCGGCGCCGACCCCGTACCCCGCGCCCGCGCCGCCGCCCGCCTGCTGGCCCGAGACTCCGTCACCGCCATGGTCGTCGACTGCGAACGCGGCATGATCCGCCTCGGCCTCGCCCGCGATCTGGCCCTCGAAATGCGCGCCGGCTACCTGCAACTAGGCGAACTCACCGGCGATGTCGTCGCCGGAGTGGTCCGGGGTGCGCGCGCCGCGGAGGTTCTGGCTGCCTGCGGCGTCATCGAGCGCTGA</t>
+  </si>
+  <si>
+    <t>GTGTCCGGTTCCCTTGTTGCTTACTCCGAATCCGTCCGTGCGACATCCGGTGACGAAGCCGGGTTTCCGTTCTCCGCCGTGGTCGGCCAGGAGCGGTTGCAGCTGGCGTTGATCCTGTGCGCGGTGCACCCCGGAATCGGTGGCGTACTGGTGCGCGGTGAGAAGGGGACCGCCAAGTCGACGGTGGTGCGCGCGCTCGCGCAGTTGCTGCCGCCCGTCGTGGACGAGAGCGGGGCGCGGCCCGCGCGGCTGGTGGAACTGCCGGTCGGGGCGACCGAGGACCGGGTCGTCGGCTCCCTGGACCTGGAACGCGTGCTGCGCGACGGGGAACAGGCGTTCAAGCCCGGTCTGCTGGCCGCGGCGCATCACGGCGTGCTGTACGTCGACGAGGTGAACCTGCTGCACGACCATCTGGTGGATGTGCTGCTCGATGCCGCCGCCATGGGACGCGTGCACATCGAGCGCGACGGCGTATCCCATTCGCACCCGGCACGTTTCGTGCTCGTGGGCACCATGAACCCTGAGGAGGGGGAGCTGCGCCCGCAGCTGCTGGACCGCTTCGGGCTCACCGTCGACGTGGTCGCCTCGCGTGAGGTGGACGTGCGCATGGCCGTCGTGCGCAGGCGGCTCGACTACGAGGCGGACCCGAACGGCTTCGCCGCCGCGTACACGGGCGCTGACCGTGAGATCGCCGAGCGCATCCTCACCGCCCGCGATCGCCTGCCCGAGGTCGCCCTCGACAATGTCGAACTGCGCCGGATCGCCGCGCTCTGTGCGGCCTTCGACGTGGACGGCATGCGCGCGGACCTGGTCGTGGCGCGCACCGCGACCGCACACGCCGCCTGGCGCGGCAGCGAGGTCGTGACCGAGGACGACGTGCGGATCGCCGCGGAACTCGCACTGCCGCACCGGCGTCGGCGCGATCCGTTCGACGAACCGGGGATCAGCGAGGACCAACTCGACGAGGCCATGCGCCAGGCCTCGGACGAAGCCGCTCGCGCCGACGCGGACGGCGGTGCCGACGACCTGGGAAAAGGTGAAGCGGTCTCGCAGGACGATGCGGGACCGCGGCACCAGGCGGAAGAGTCGGGCGCACACCCGGAGAACGGGGCGAACACCACTGGGCCGGAGCAGGATTCGACCGGCGCGCGCCCCGAAGGCGATCCGGACGGCGAGGGTCCGCAATCCCCGGACGACGGCCCGGATTCGCCGGGAGGCGGACAGGATTCACCGCGGGATTCCGCGAACCCCCCGCGCCGCGATTCGAAGAACTCTGACTCGAAAAACCCCGGCAGCGATCAGGACTCGAACCCGCAGGGCGACAAGCCCGGCCGCGAACGCGGCGTGAGCGTCCCCACCCGATCGAGTGTCAAGGCCCCGCGCTGGGAGGTCCCCGGTGTCGGTGAAGGCGCACCCGGCCGCCGCTCCCGTGCCCGCACCCGCCAGGGTCGCGTCGTGCGCGCCACCACCGAGACCGGCACCGGTCTGCACCTGCTCGGCACCCTGTTCGCCGCTGTCCCGCACCAGTATTCGCGCGGCCGCACCACCGGCCCCATCGAATTCCTGGCCGAGGACCTGCGCGGCGCGTACCGCGAAGGCCGCGAGGGCAACCTGGTCGTCTTCGTGGTGGACGCCTCCGGCTCCATGGCCGCGCGCGACCGGCTCTCCGCGGTCACCGGCGCGATCGTCGCCCTGCTGCGCGATGCCTACCAGCGTCGCGACAAGGTCGCCGTCATCACCGTCCGAGGCCAGGACGCCGAGTTGGTCCTGCCCCCCACCTCCTCGGTCGACATCGCCGTCCGCCGCCTCGCGGACCTGCGCACCGGTGGCAAAACCCCACTCGCCCGGGGACTTCTGAAGGCCCGCGAGGTGATCGGCCGCGAACGCGTCCGCGATCCGCACCGCCGCCCCCTGGTGGTTCTGCTCACCGACGGCCGCGCCACCGGCGGCGCCGACCCCGTACCCCGCGCCCGCGCCGCCGCCCGCCTGCTGGCCCGAGACTCCGTCACCGCCATGGTCGTCGACTGCGAACGCGGCATGATCCGCCTCGGCCTCGCCCGCGATCTGGCCCTCGAAATGCGCGCCGGCTACCTGCAACTAGGCGAACTCACCGGCGATGTCGTCGCCGGAGTGGTCCGGGGTGCGCGCGCCGCGTGA</t>
+  </si>
+  <si>
+    <t>GTGGGCGGTTCGTCCGTCGGGGACGATGCCGGGTTCCCTTTCTCGGCCGTGGTCGGTCAGGAGCGGTTGCAGCTCGCGCTGATCCTGTGCGCGGTGCATCCCGGTATCGGCGGTGTGCTGGTGCGCGGGGAGAAGGGCACCGCCAAATCGACCGTGGTGCGTGCGCTGGCGCAGTTGCTGCCGCCCATCGTGGACGAGAGCGGGGCGCGGCCCGCGCGGTTGGTGGAGTTGCCGGTGGGCGCGACCGAGGACCGCGTGGTCGGCTCACTGGATCTGGAGCGGGTGCTGCGCGACGGCGAGCAGGCGTTCAAACCCGGTCTGCTGGCGGCCGCCCACCACGGCGTGCTGTACGTCGACGAGGTGAACCTGCTGCACGACCATCTGGTGGACGTGTTGCTCGACGCCGCCGCCATGGGGCGGGTGCATATCGAACGTGATGGCGTCTCGGCCTCGCATCCCGCCCGATTCGTGCTGGTGGGCACCATGAACCCGGAGGAGGGCGAGCTGCGGCCACAGCTGCTGGACCGGTTCGGCCTCACCGTCGACGTGGTCGCCTCGCGCGAGGTGGACGTGCGCATGGCGGTGGTGCGCCGCCGCCTCGACTACGAGGCGGACCCGGCCGGATTCGCGGCCCGCTACACCGCCGCCGACCGTGCGGTGGCCGAGCGCATCCTGTCCGCCCGCGACCGCCTCGACGAGATCACCCTCGACACCGTGGAACTGCGCCGCATCGCCGCCCTCTGCGCGAGCTTCGACGTGGACGGGATGCGCGCCGATCTGGTGGTGGCACGCACCGCCACCGCACACGCCGCCTGGCGCGGCGGCGGCGCGGTCACCGAGGAGGATGTGCGGGTGGCGGCGGAACTCGCACTGCCGCACCGACGGCGGCGCGACCCGTTCGACGAGCCCGGTATCAGCGAGGAGCAGCTGGACGAGGCCATGCGGCAGGCGGCGGAGGAAGCCGCGCGGGCGCAGGAGGACGATCCGGGAAAAGCGATGGGGTCTCGCCCGACGACGGTGCGGGGCCGCCTGACCGACGACGCGGAACCCGAAGGCGGAGCGGCTGATTCGCCCGAGCCCGAGGATTCGCGAAGCCGTCCGGACGCTGCCGAGGGCCGTTCGGACAGCAGGGAAGGCCATTCGGAGAGCCGCGAAGGCCGTTCGGAACTTGATGATGGCCGTTCGGACGGTAGCGACAGCCGTTCGGACCTGTCCGAGCAGGAGCCGGATTCGGCCGGAGATGAACCGGATCGCCCTGGTGCCGAATCGGATTCACCGACCCGACCACCGGGTGACGCGGATTCTCCTGGTGGCGAGTCGAATTCCGGCCGTCCCGCCCGGGAGGGCGATGCGGGCCTGCCCGCACTCTCCCCGGCCAAGCCCCCGCGCTGGGAGGTCCCGGGTATCGGCGAGGGTGCCCCCGGCCGCCGCTCCCGCGCCCGCACCCGGCAGGGCCGGGTGGTGCGCGCCATCGCGGACACCACCGGCGGCCTGCACCTGCTCGGCACCGTCTTCGCCGCCGCGCCGCATCAGCGCGCCCGCGGCCGCGACTCCGGCCCCCTCGCGCTGGCCGTCGACGACCTGCGCGGCGCGTATCGCGAAGGCCGCGAAGGGAATCTGGTGGTCTTCGTGGTCGACGCCTCCGGTTCCATGGCGGCCCGCGACCGCCTGTCCGCCGTCACCGGCGCGGTGGTGACGCTGCTGCGCGATGCCTACCAGCGCCGCGACAAGGTCGCCGTCATCACCGTGCGCGGTCAGGACGCCGACCTGGTGCTGCCGCCGACCTCCTCGGTGGACATCGCCGTCCGTCGCCTGGCGGGCATCCGGACCGGCGGCAAAACCCCACTGGCGCAAGGACTTCTGAAGGCCCGCGAGGTGCTTGTCCGCGAGCGCGTCCGCGACCCTCGGCGCCGCCCGCTGGTCGTGCTGCTCACCGACGGTCGCGCCACCGGCGGCACCGATCCGGTCCCGCGCGCCCGCACCGCCGCCCGCCTGCTGGCCGGTGACGGGGTCACCGCCATGGTGGTGGACTGCGAACGCGGCATGATCCGCCTCGGCTTGGCCCGCGATATCGCCCGCGACCTGCGCGCCGGATATCTGCGGCTGGGTGAGCTCACCGGCGAATCGGTCGCGGGCGTGGTCCGCGCCGGAGTCGGCGTCGCCTGA</t>
+  </si>
+  <si>
+    <t>GTGGGCGGTTCGTCCGTCGGGGACGATGCCGGGTTCCCTTTCTCGGCCGTGGTCGGTCAGGAGCGGTTGCAGCTCGCGCTGATCCTGTGCGCGGTGCATCCCGGTATCGGCGGTGTGCTGGTGCGCGGGGAGAAGGGCACCGCCAAATCGACCGTGGTGCGTGCGCTGGCGCAGTTGCTGCCGCCCATCGTGGACGAGAGCGGGGCGCGGCCCGCGCGGTTGGTGGAGTTGCCGGTGGGCGCGACCGAGGACCGCGTGGTCGGCTCACTGGATCTGGAGCGGGTGCTGCGCGACGGCGAGCAGGCGTTCAAACCCGGTCTGCTGGCGGCCGCCCACCACGGCGTGCTGTACGTCGACGAGGTGAACCTGCTGCACGACCATCTGGTGGACGTGTTGCTCGACGCCGCCGCCATGGGGCGGGTGCATATCGAACGTGATGGCGTCTCGGCCTCGCATCCCGCCCGATTCGTGCTGGTGGGCACCATGAACCCGGAGGAGGGCGAGCTGCGGCCACAGCTGCTGGACCGGTTCGGCCTCACCGTCGACGTGGTCGCCTCGCGCGAGGTGGACGTGCGCATGGCGGTGGTGCGCCGCCGCCTCGACTACGAGGCGGACCCGGCCGGATTCGCGGCCCGCTACACCGCCGCCGACCGTGCGGTGGCCGAGCGCATCCTGTCCGCCCGCGACCGCCTCGACGAGATCACCCTCGACACCGTGGAACTGCGCCGCATCGCCGCCCTCTGCGCGAGCTTCGACGTGGACGGGATGCGCGCCGATCTGGTGGTGGCACGCACCGCCACCGCACACGCCGCCTGGCGCGGCGGCGGCGCGGTCACCGAGGAGGATGTGCGGGTGGCGGCGGAACTCGCACTGCCGCACCGACGGCGGCGCGACCCGTTCGACGAGCCCGGTATCAGCGAGGAGCAGCTGGACGAGGCCATGCGGCAGGCGGCGGAGGAAGCCGCGCGGGCGCAGGAGGACGATCCGGGAAAAGCGATGGGGTCTCGCCCGACGACG</t>
+  </si>
+  <si>
+    <t>GTGGGCGGGTCGTCCGTTGCGGAAGAGGCTGGGTTCCCGTTTTCCGCTGTGGTGGGGCAGGAACGGTTGCAGCTCGCCTTGATTCTCTGTGCGGTGCATCCGAGTATCGGTGGGGTGCTGGTGCGCGGGGAGAAGGGGACCGCCAAGTCGACGGTGGTGCGGGCGCTGGCGCAGTTGCTGCCGCCGATTGTGGATGAGAGCGGGGCCCGGCCCGCGCGGTTGGTGGAGTTGCCGGTGGGGGCGACCGAGGACCGGGTGGTCGGGTCGCTGGATTTGGAGCGGGTGCTGCGCGATGGGGAGCAGGCGTTTCGGCCGGGGCTCCTCGCCGCCGCGCATCACGGGGTGCTGTACGTCGATGAAGTGAATCTGCTGCACGACCATCTGGTCGACGTGCTGTTGGACGCGGCGGCCATGGGGCGGGTGCATATCGAGCGCGATGGGGTGTCGCATTCGCATCCGGCGCGGTTCGTACTGGTGGGGACCATGAACCCGGAGGAGGGGGAGCTGCGGCCGCAGCTGCTCGACCGGTTCGGGCTCACCGTCGACGTGGTCGCCTCGCGGAATGTGGATGTGCGCATGGCCGTCGTGCGGCGACGGCTGGACTACGAGGCGGATCCGGCGGGATTCGCGGCGCGGTACGCCGGGGACGATCGCGAGGTGGCCGACCGGATTCTCGCGGCGCGCGACCGGCTCGCCGATATCGCCCTCGACAATGTGGAATTGCGCCGAATCGCCGCGCTGTGCGCGTCTTTCGATGTGGACGGCATGCGCGCCGATCTGGTGGTGGCGCGCACCGCGACCGCGCATGCGGCCTGGCGGGGGAGCCGGGTCGTCACCGAGGACGATGTGCGGATCGCCGCGGAACTCGCGCTACCGCATCGGCGACGGCGCGATCCGTTCGATGAGCCCGGAATCAGCGAGGACCAGCTCGACGAGGCCATGCGGCAGGCGGGCGAACAGGCGGACCGGCCCGAATCCGATGACGACACAATGGAATTCGACGACGCCGGTGGTGACAATTCGGGAAAAGCGACGCGGTCCCGCACGATGACACTGCGGGACCGCCTGAACGAATCCACCGACGGGCAGCCCGACGGCCCGGATACCCCTGGCGGCGGGCCGGATTCGCCTGAAGTGGACCCACCGAGCTTCGATTCGCCGCATCAGGATTCCGACGAACCCGCGCCTGAAAACGCGAATGCGCCTGGTAGCGAACCGAACTCGCCCGGTGGTTCCGCCGCGCGCGAGGGTAGCGCCAGCCTGCCCGCGCAGTCGGTGACCAAGCCCCCGCGCTGGGAAGTCCCCGGTATCGGCGAGGGCGCACCCGGACGCCGCTCCCGCGCCCGCACCCGGCACGGCCGCGTCGTCCGCGCCACTCCCGAAACCACCGGCGGCCTACACCTACTCGGCACCATCTTCGCCGCGATCCCGCACCAGCGCTCGCGTGGTCGGCTCTCCGGCCCCTTGGAGTTGCTGTCCGACGACCTGCGTGGCGCGTATCGCGAAGGCCGCGAAGGCAATCTGGTCGTCTTCGTGGTCGACGCCTCCGGTTCCATGGCCGCCCGCGACCGCCTCTCCGCCGTCACCGGCGCGGTGGTCGCCCTGCTCCGCGACGCCTACCAGCGTCGCGACAAGGTCGCCGTCATTACCGTCCGAGGCCAGGACGCCGAACTCGTCCTCCCGCCCACCTCCTCGGTCGATATCGCCGTCCGCCGCCTCGCCGGAATCCGCACCGGCGGCAAGACACCGCTGGCCCGGGGACTCCTGAAAGCCCGCGAAGTCCTGGCCCGCGAACGAGTCCGCGACCCCCAGCGCCGCCCCCTCGTCGTCCTGCTCACCGACGGCCGAGCCACCGGCGGCACCGACCCCGTCCCCCGCGCCCGCACCGCCGCCCGCCTCCTCGCGGGCGACGGCGTCACCGCCATGGTCGTCGACTGCGAACGCGGCATGATCCGCCTCGGCCTCGCCAGGGAGCTCGCCCGCGACCTGCGGGCGGGGTATCTACAGCTGGGCGAGCTCACCGGTGATTCGGTGGCGGGCATCGTCCGCGCCGGTGTGCGCGTCGCCTGA</t>
+  </si>
+  <si>
+    <t>GTGGGCGGGTCGTCCGTTGCGGAAGAGGCTGGGTTCCCGTTTTCCGCTGTGGTGGGGCAGGAACGGTTGCAGCTCGCCTTGATTCTCTGTGCGGTGCATCCGAGTATCGGTGGGGTGCTGGTGCGCGGGGAGAAGGGGACCGCCAAGTCGACGGTGGTGCGGGCGCTGGCGCAGTTGCTGCCGCCGATTGTGGATGAGAGCGGGGCCCGGCCCGCGCGGTTGGTGGAGTTGCCGGTGGGGGCGACCGAGGACCGGGTGGTCGGGTCGCTGGATTTGGAGCGGGTGCTGCGCGATGGGGAGCAGGCGTTTCGGCCGGGGCTCCTCGCCGCCGCGCATCACGGGGTGCTGTACGTCGATGAAGTGAATCTGCTGCACGACCATCTGGTCGACGTGCTGTTGGACGCGGCGGCCATGGGGCGGGTGCATATCGAGCGCGATGGGGTGTCGCATTCGCATCCGGCGCGGTTCGTACTGGTGGGGACCATGAACCCGGAGGAGGGGGAGCTGCGGCCGCAGCTGCTCGACCGGTTCGGGCTCACCGTCGACGTGGTCGCCTCGCGGAATGTGGATGTGCGCATGGCCGTCGTGCGGCGACGGCTGGACTACGAGGCGGATCCGGCGGGATTCGCGGCGCGGTACGCCGGGGACGATCGCGAGGTGGCCGACCGGATTCTCGCGGCGCGCGACCGGCTCGCCGATATCGCCCTCGACAATGTGGAATTGCGCCGAATCGCCGCGCTGTGCGCGTCTTTCGATGTGGACGGCATGCGCGCCGATCTGGTGGTGGCGCGCACCGCGACCGCGCATGCGGCCTGGCGGGGGAGCCGGGTCGTCACCGAGGACGATGTGCGGATCGCCGCGGAACTCGCGCTACCGCATCGGCGACGGCGCGATCCGTTCGATGAGCCCGGAATCAGCGAGGACCAGCTCGACGAGGCCATGCGGCAGGCGGGCGAACAGGCGGACCGGCCCGAATCCGATGACGACACAATGGAATTCGACGACGCCGGTGGTGACAATTCGGGAAAAGCGACGCGGTCCCGCACGATGACACTGCGGGACCGCTGA</t>
+  </si>
+  <si>
+    <t>ATGGCAGTTATTTTTCCTTTCACCGCAATCGTTGGCCAGGCGCGCATGCGCCGCGCATTGATCTTAAATGCCGTTGATCCCCGCATCGGCGGTGTGTTGATTCGCGGCGAGCGCGGCACCGCCAAATCGACCGCCGCCCGCGCGCTGGCTGCTCTGCTGCCGGAAGTGAAAGTGGTGAAAGACTGCCGCTTTAACTGCGACCCCGACGAACCCTCCCGGCTGTGCACCGAATGCCAGGAACGCCTGGCAAGAGGCGAAGAGCTGCCGGTTACCTACAAACCCACTTCATTTGTCAACCTGCCTGTTTCGGCCACCGAAGACAGAGTGGTGGGAACCCTGGACATTGAAAAAGCCATCCAAAAAGGTGAGCGCCGCTTTGAACCCGGCGTACTGGCGGCGGCCAACCGCGGCCTGCTCTATATCGATGAAGTCAACCTGCTGGACGACCATGTGGTGGATATTCTGCTCGACTCGGCCGCGATGGGCATGAACATCATCGAGCGTGAAGGCATTTCCTTTGCCCACCCTTCCCGTTTTATCCTGGTCGGCACCATGAACCCCGAAGAAGGCGACCTGCGCCCGCAGCTTTTAGACCGCTTCGCCCTCTCCGTAGACATTCTGGGCATCCGCGAAACGCGCGAGCGCGTGCAGATTATGGAACGCAACTTAATGTTCGAATCCGACCCCGCCGAGTTCCGCACCATGTGGCTGCCGCGTGAAGAAGAGCTTTCCCAGCGCATTGCCAGCGCCCGCAAGTTGGTCAATCAGGTTACCCATTCCAGCCGCGACCTCATCACCATCGCCCAGCTCACCTCTTCCTTAAATGTAGACGGTCACCGCGCCGACTTGGTGATTCTCAAAACCGCTCGCGCCCAGGCCGCCTTTGACGGACGCACGGCCATCACCGAACTGGATATTGCCCTGGCCGCCGAGTTGGCCCTGCCGCATCGCATGAAGCGCGGCCCCTTCGACCATACCAGCATGTCGATGGAACAGCTTGAGGAGCGCATTGAGCAGCTCCGCGGGCAGACGGTGCAAGAGAACCAGACCCAGACAGCCGACCTTTCTGACAGCCAGGAAATGCTAAAAAAAAAGGGCATGAATTTAACCACCGGCCAGGTCAGCGATTCCCTTCCCGATACCGGGCAGCCCGACCCGGCTGCCAGCCGCGATATTTTTCAAACCCAGTCTCCCATGTGGTGGGAGGGCGGGCAAAAAGTAGCCACCGGCGAGGCTTTTTCCACCCGGCGGCTCGATACCCCGCTGGACAAAATGCTGCGCCGCGGGTCTGGGCGCCGTTCCGTAACCTACACCAAGTTGAAACGCGGGCGCTATATCCAGGCCCGCCCGGCCCAGGGCAAAACCTTCGACCTGGCCTTCGACGCCACCCTGCGCGCCGCGGCACCCTTCCAAAAAGAGCGCAAACAACAGCGCGAGAAAGTGGCCTTTGCCGTGCGCCCCGGCGATTATATGAAAAAAATCCGCGTGCGCCGCGCGGCCAACCTGGTGCTCTTCCTGGTGGATGCCTCCTGGTCCATGGCCGTTACCGAGCGCATGCAGGCTACCAAAGGAGCCATCCTCTCCCTGCTCACCGACGCCTACCAGCGCCGCGACCGGGTGGGGCTGATCACCTTCCAGAAAGACCGCGCCACGCTCATTCTCGCGCCCACCAACTCGGTCAACCTGGCGCAGCGCGCTCTGGCCGACATCCCGGTCGGCGGCAAGACGCCCCTCTCATCCGGCTTAAAAATGGCCCACGATGTGCTGGAGCGCGAGAAAAACCTTCACCCCGACATTATGCCGCTTTTGATTGTGCTCACCGACGGAGCCGCCAACGTAACTATGGGCTACCTCCCGCCGCAAGAAGAAGCCTACCGCATTGCCGATCTCATCGCTGAAAAGCTAATTCATACCGTAGTGGTCAACCTGGAAAACACCACCTTCGACCAGGGCTATGCCCAGCAGCTCGCCGATCACCTGCACGGCCCCTGCTACCAGATTAGCGATTTGCGCGCGGAAACCCTGTATCTGACGGTGCGCAAGGAAATGAACCAACTTCGCGCCCCTGATGATAAAATAAAATAA</t>
+  </si>
+  <si>
+    <t>ATGGCAGTTATTTTTCCTTTCACCGCAATCGTTGGCCAGGCGCGCATGCGCCGCGCATTGATCTTAAATGCCGTTGATCCCCGCATCGGCGGTGTGTTGATTCGCGGCGAGCGCGGCACCGCCAAATCGACCGCCGCCCGCGCGCTGGCTGCTCTGCTGCCGGAAGTGAAAGTGGTGAAAGACTGCCGCTTTAACTGCGACCCCGACGAACCCTCCCGGCTGTGCACCGAATGCCAGGAACGCCTGGCAAGAGGCGAAGAGCTGCCGGTTACCTACAAACCCACTTCATTTGTCAACCTGCCTGTTTCGGCCACCGAAGACAGAGTGGTGGGAACCCTGGACATTGAAAAAGCCATCCAAAAAGGTGAGCGCCGCTTTGAACCCGGCGTACTGGCGGCGGCCAACCGCGGCCTGCTCTATATCGATGAAGTCAACCTGCTGGACGACCATGTGGTGGATATTCTGCTCGACTCGGCCGCGATGGGCATGAACATCATCGAGCGTGAAGGCATTTCCTTTGCCCACCCTTCCCGTTTTATCCTGGTCGGCACCATGAACCCCGAAGAAGGCGACCTGCGCCCGCAGCTTTTAGACCGCTTCGCCCTCTCCGTAGACATTCTGGGCATCCGCGAAACGCGCGAGCGCGTGCAGATTATGGAACGCAACTTAATGTTCGAATCCGACCCCGCCGAGTTCCGCACCATGTGGCTGCCGCGTGAAGAAGAGCTTTCCCAGCGCATTGCCAGCGCCCGCAAGTTGGTCAATCAGGTTACCCATTCCAGCCGCGACCTCATCACCATCGCCCAGCTCACCTCTTCCTTAAATGTAGACGGTCACCGCGCCGACTTGGTGATTCTCAAAACCGCTCGCGCCCAGGCCGCCTTTGACGGACGCACGGCCATCACCGAACTGGATATTGCCCTGGCCGCCGAGTTGGCCCTGCCGCATCGCATGAAGCGCGGCCCCTTCGACCATACCAGCATGTCGATGGAACAGCTTGAGGAGCGCATTGAGCAGCTCCGCGGGCAGACGGTGCAAGAGAACCAGACCCAGACAGCCGACCTTTCTGACAGCCAGGAAATGCTAAAAAAAAAGGGCATGAATTAA</t>
+  </si>
+  <si>
+    <t>ATGAGTGCTGCGGCGCTTCCCCTTGCTTTTCCGTTCACCGCCCTGGTTGGCCAGGCGCCCTTGCAGCAGGCGCTGCTGCTCGCGGCCGTCGATCCGGCCATTGGCGGCGTGCTCGTGAGCGGCCCGCGCGGCACCGCGAAATCCACGGCGGCGCGCGCACTGGCCGCGTTGCTGCCCGACGGCGCATTCGTCACGCTGCCGCTTGGCGCGAGCGAGGACAAGCTGATCGGCTCGCTCGATCTCGAGGCGGCGCTGCGCGAGAGCGCCGTGCGCTTTTCGCCGGGGCTGCTCGCGAAGGCGCATGGCGGCGTGCTCTATGTCGACGAGGTCAACCTGCTGCCCGACGCGCTCGTGGACGTGCTGCTCGACGCGGCGGCGAGCGGCGCCAACACAGTGGAGCGCGACGGCATTTCGCATACGCACGAAGCGCGCTTCGTGCTCGTGGGCACGATGAACCCGGAGGAGGGCGAGTTGCGGCCGCAACTGCTCGACCGCTTCGGGCTGATGGTCGAACTGGAGAACCGCTTCGATGCAGCGGAGCGGCAGCGCATCGTCAAGGCGCGGCTCGCTTTCGACGCGGATCCGCACGCGTTCTGCGCGTCGTGCGACGCGGCGCAGACGGCGTTGGCCGGGCGTTTGCGCGCCGCGCGCGAGCGCGTGGGCCTGCTCGCGCTGAGCGACGCGGTGCACGAGCGCGCAGCGACGCTGTGCGTTGAAGCGAAGGTCGACGGCATGCGTGCGGACATCGTGATGCTGCGCGCGGCGCGCGCGCTCGCGGCGTTCGAGAACGCACAGGAAGTGAGCGCGGCGCACGTCGATCAGGTGGCGGCGGCCGTGCTCGCGCACCGGCGCCGGGCGTTTGAGGATCCCGCACCGTCGGGCGGCAGCGCTGGTCGCTCGCCCGCAAGCGCAGACGATTTGCAGTCCCAGGCAGATGCGGACTGGGGTGCGCTTCCGCCCGAGCCGGTCGCGGCGGCACCCGTGAAGGGCGTGATTCCGCTGCCCGCAAAAAAACGCCTGACCCGTCGGGCAAGGGCTGCCGCTTCTGCACAGGGCGGCGCCCGGCGGCTGAAAGACCCAGACCCGGGCACAGGCTTCGGCCCCGTTCGCGCAACGCGCGACGGCGGGCCGGGCGCGCGCATTGCGTGGACGCCCACGCTCGCCGCCAAACGCCGGGCGCCGCTGCATCTCGATCACCTGCGCTATGCGCGCAGACGGACCGCCACAGGGGCGCTGCACTGCTTCGTGCTGGATTGCTCCGCGTCGATGCTGGCGCGCGGACAGCTCGCGCTCGCCAAAGGCGTGCTCGTCGCCCTGTTCGACCGCGCGCGCCATGCCCGCTTCCAGGTCGCGCTGATTTCGTTCGCCGGCGCGGGGGCGGAACTGCGTTTCGGCCCGGCCGTGCCGCGCTGGTGGAACGAACGCTGGCTCGCGCCCATCGGCGCCGGCGGCGGGACGCCGCTCACGGCGGGCGTTGCGGCGGCGGCACGCGTGCTCGAATCGTCGGCGCGCCGCAATCCCGGCCGCCCCCGCCATCTATGGCTCATGAGCGACGGACGCAGCACGCAATGGCCCGCGCGTCCGCGTTATGCGGATCACATCACGGTAGTCGATTTCGAAGCGGCGGCGGTGCGGCTTGGCCGCTGCGCCGCGCTGGCCGAGGCGTGGGATGCGCAATGCATCGACGCGCGCGCGCTGCTGGATCACGCAGCGCCGGCATCAGCGGACTGA</t>
+  </si>
+  <si>
+    <t>ATGAGTGCTGCGGCGCTTCCCCTTGCTTTTCCGTTCACCGCCCTGGTTGGCCAGGCGCCCTTGCAGCAGGCGCTGCTGCTCGCGGCCGTCGATCCGGCCATTGGCGGCGTGCTCGTGAGCGGCCCGCGCGGCACCGCGAAATCCACGGCGGCGCGCGCACTGGCCGCGTTGCTGCCCGACGGCGCATTCGTCACGCTGCCGCTTGGCGCGAGCGAGGACAAGCTGATCGGCTCGCTCGATCTCGAGGCGGCGCTGCGCGAGAGCGCCGTGCGCTTTTCGCCGGGGCTGCTCGCGAAGGCGCATGGCGGCGTGCTCTATGTCGACGAGGTCAACCTGCTGCCCGACGCGCTCGTGGACGTGCTGCTCGACGCGGCGGCGAGCGGCGCCAACACAGTGGAGCGCGACGGCATTTCGCATACGCACGAAGCGCGCTTCGTGCTCGTGGGCACGATGAACCCGGAGGAGGGCGAGTTGCGGCCGCAACTGCTCGACCGCTTCGGGCTGATGGTCGAACTGGAGAACCGCTTCGATGCAGCGGAGCGGCAGCGCATCGTCAAGGCGCGGCTCGCTTTCGACGCGGATCCGCACGCGTTCTGCGCGTCGTGCGACGCGGCGCAGACGGCGTTGGCCGGGCGTTTGCGCGCCGCGCGCGAGCGCGTGGGCCTGCTCGCGCTGAGCGACGCGGTGCACGAGCGCGCAGCGACGCTGTGCGTTGAAGCGAAGGTCGACGGCATGCGTGCGGACATCGTGATGCTGCGCGCGGCGCGCGCGCTCGCGGCGTTCGAGAACGCACAGGAAGTGAGCGCGGCGCACGTCGATCAGGTGGCGGCGGCCGTGCTCGCGCACCGGCGCCGGGCGTTTGAGGATCCCGCACCGTCGGGCGGCAGCGCTGGTCGCTCGCCCGCAAGCGCAGACGATTTGCAGTCCCAGGCAGATGCGGACTGGGGTGCGCTTCCGCCCGAGCCGGTCGCGGCGGCACCCGTGAAGGGCGTGATTCCGCTGCCCGCAAAAAAACGCTGA</t>
+  </si>
+  <si>
+    <t>ATGACCGTATCGTCCGGCGGCAACCGGCCGGTGTTTCCGTTCGCGGCGCTGATCGGTCAGCCCGCGTTGCAGCAGGCGCTGCTGCTCGCGGCGATCGATCCGGGGATCGGCGGCGTGCTCGTCAGCGGGCCGCGCGGCACCGCGAAATCGACGGCGGCGCGCGCGCTCGCCGAACTGCTGCCGGAAGGGCGTTTCGTCACGCTGCCGCTCGGCGCGAGCGAGGACCGGCTGATCGGCACGCTCGACATCGAAAGCGCGCTGCGCGAGGGTTCGGTGCGCTTCTCGCCGGGGCTGCTCGCGCAGGCGCATCGCGGCGTGCTGTACGTCGACGAAATCAATCTGCTGCCGGACGCACTGGTCGACGTGCTGCTCGACGCCGCCGCGAGCGGCGTGAACACGATCGAGCGCGACGGCATCTCGCACAGTCACGATGCGCGTTTCGTGCTGATCGGCACGATGAATCCGGAAGAGGGCGAACTGCGGCCGCAACTGCTCGACCGCTTCGGGCTGATGGTCGAACTGGAGAACTGTTTCGATCCGCAGGTGCGTCGCGACATCGTGAACGCGCGGCTCGAATTCGACGCGGACCCGCAGCGGTTCAGCGACCGCCATGCGCCGCAACGCGACGACTACGTGCGGCGCATCGAGGCGGCGCGCGCCGTGTTGCCGGCGCTTCGGTTCGACGATGCGGTGCATCGGCGGGTCGGGCAGTGGTGCATCGAGGCCGCCGTCGATGGCTTGCGCGCGGACCTCGTGATGCTGCGTGCGGCGCGCGCGTTGGCCGCTTACGAGCAGGCGTCGTCGATCACGCCCGCGCATGTGGACCGCGTGGCCGATGCGGTGCTGAAGCATCGACGGCGCGCGGAAGGCAAGCCGCAGCCGGACGACGGCGAGGGGGCTTCGCGCGACGAATCGCGTGACACGACATCCCCGCAGCCGCCGCACGACGGCAAGACCGCACCACAGACGGCCGACGAAAGCGACTGGGGTTATCTGCCGCCGGAACCGGCCGGCATCGACCCGGTGAAAGGCGTCGTCCCGCTCGCCGCAAAAAAACGCCTGAGCCATCGGGACGGCGCCGCCGCCGGTTCGACCGGCGGTTTCCGATGGCCGCAGCGACAGGGCGCGGGTTTGCCGACGCGCGGCGATGCACGACGAGGCGCACGCAGCGGCGCGCGCCGCATCGCATGGCCGCCGACGCTCGCGGCGAAGCGCGCGCAGCCGTTCGACGTTTCGCATCTGCGTTTCAGGCCCGAAATCCCGCGCGGCGGCGCGCTGCATTGTTTCGTGCTCGACTGTTCGGGGTCGATGATGAGCGGCCGGCAACTCGCGCATGCGAAAGGACTGCTCGTTGCATTGTTCGACCAGGTGGGCGCATCGCGCGACGACGCGGTTTTGATCTGCTTCGGCGGCGCGCGCGCGGATGTGCGTTTCGGTCCGGCGATTCCGCGCTGGTGGAACGAACGCTGGCTGGAGCCGATCGGCGGCGGGGGCGGCACGCCGCTCGCGCACGGCATCCGCGCGGCGCGCACGGTGCTCGCGCGCGCGGCGAGACGGCGGCCCGCGCAGCAACGCTGGTTATGGCTGCTGACGGACGGACGCAGCGCGGACCGTCCGGCGCGTCCGCTCGAAGCGGACCGCACGGTGCTGGTCGATTTCGAGCGCGGCGCGGTCCGGCTCGGCCGTTGCGCGGCGCTCGCCGACGCCTGGGACGGCCTCTATCTCACGCCGGACGATCTGCTGGGTTAG</t>
+  </si>
+  <si>
+    <t>ATGACCGTATCGTCCGGCGGCAACCGGCCGGTGTTTCCGTTCGCGGCGCTGATCGGTCAGCCCGCGTTGCAGCAGGCGCTGCTGCTCGCGGCGATCGATCCGGGGATCGGCGGCGTGCTCGTCAGCGGGCCGCGCGGCACCGCGAAATCGACGGCGGCGCGCGCGCTCGCCGAACTGCTGCCGGAAGGGCGTTTCGTCACGCTGCCGCTCGGCGCGAGCGAGGACCGGCTGATCGGCACGCTCGACATCGAAAGCGCGCTGCGCGAGGGTTCGGTGCGCTTCTCGCCGGGGCTGCTCGCGCAGGCGCATCGCGGCGTGCTGTACGTCGACGAAATCAATCTGCTGCCGGACGCACTGGTCGACGTGCTGCTCGACGCCGCCGCGAGCGGCGTGAACACGATCGAGCGCGACGGCATCTCGCACAGTCACGATGCGCGTTTCGTGCTGATCGGCACGATGAATCCGGAAGAGGGCGAACTGCGGCCGCAACTGCTCGACCGCTTCGGGCTGATGGTCGAACTGGAGAACTGTTTCGATCCGCAGGTGCGTCGCGACATCGTGAACGCGCGGCTCGAATTCGACGCGGACCCGCAGCGGTTCAGCGACCGCCATGCGCCGCAACGCGACGACTACGTGCGGCGCATCGAGGCGGCGCGCGCCGTGTTGCCGGCGCTTCGGTTCGACGATGCGGTGCATCGGCGGGTCGGGCAGTGGTGCATCGAGGCCGCCGTCGATGGCTTGCGCGCGGACCTCGTGATGCTGCGTGCGGCGCGCGCGTTGGCCGCTTACGAGCAGGCGTCGTCGATCACGCCCGCGCATGTGGACCGCGTGGCCGATGCGGTGCTGAAGCATCGACGGCGCGCGGAAGGCAAGCCGCAGCCGGACGACGGCGAGGGGGCTTCGCGCGACGAATCGCGTGACACGACATCCCCGCAGCCGCCGCACGACGGCAAGACCGCACCACAGACGGCCGACGAAAGCGACTGGGGTTATCTGCCGCCGGAACCGGCCGGCATCGACCCGGTGAAAGGCGTCGTCCCGCTCGCCGCAAAAAAACGCTGA</t>
+  </si>
+  <si>
+    <t>ATGAACGATGCTTACGATGCCCGTGCCACTTCGCGGGCCGAGCTTCCGAAGCCCTATCCGTTCAGCGCGCTGATCGGGCAGGAGCCCCTGCAGCAAGCGCTCCTGCTCGCGGCCATCGATCCCGGCATCGGCGGCGTGCTCGTGAGCGGCCCGCGCGGCACGGCGAAGTCGACCGCGGCGCGCGCGCTGGCCGAACTGCTGGCCGAGGGGCGATTCGTCACGCTGCCGCTCGGCGCGAGCGAGGAGCGGCTCGTCGGGACGCTCGACCTCGACGAAGTGCTGCGCGGCGGCACGGTGCGCTTTTCGCCTGGACTGCTGGCGCAGGCACACGAAGGCGTACTTTACGTCGATGAGGTGAACCTGCTGACCGACGCGCTCGTCGATGCTCTGCTCGACGCCGCGGCGAGCGGCGTCAACGTCGTCGAGCGCGACGGCGTTTCGCATCGCCATGAGGCGCGCTTCGTCCTGATCGGCACGATGAACCCGGAAGAGGGCGAACTGCGTCCGCAATTGCTCGATCGATTCGGCATGATGGTCGAACTCGCCAATTGCTTCGATCCGCTCGTGCGTCAGCGCATCGTCAAGGCACGGCTCGCGTTCGATGCGGACCCCGACGCGTTTCGTGCCGCTTGCGCGAGCGAGCAGCAGGCGCTCGCCAAACGGATCGAGCGTGCCCGCGCCGCGTTGTCGAGCCTTGCATTCGGCGACGACGTCCATGCGCGGGTCAGCACGCATTGCATCGAGGCGGCTGTCGATGGTCTGCGCGCCGATCTCGTCATGCTGCGTGCGGCGCGCGCGCTGGCGGCATTCGAGGGAGCGGAGTCGATTACGACCGCGCACGTCGATCGCGTGGCCGAAGCGGTGCTGCGGCACCGACGGCGCGAGCAGCCCGAGGCGCCGGCACAGGAGCCCGCACCGTCGCGGGCGTCCGACGATCGTGCCGCATCGGCCGATCGCGAGCGAAAGGAGGAAAGGAGGCCCGGCGAGCGCGACTCCGGGCGCACGGGCGCGAGCGGCGCCGGACAGGATGGCACCGGTGACGATTGGGGCTATCTGCCGCCCGAGCCGGTCGGCATCGCAGCTGTCAAGAACGTCGTACCCTTCGACGCAAAAAAACGCCTGAGCCATCGAAAGGGCACCGCCGCTCCCGCACCGAGCGGTTTTCGATGGCGACGGGGGGCCGATTCATTCGCGCGGCGCGCGCCGGCTGGCATGCCTTCGGCGCGCATTGCATGGCTGCCGACGCTTGCCCGCAAGCGCGACAAACCATTGTCGGCCGGGCATCTGCGCTTTGCCGCGATGGAATCGCGCGCGGGCGTGTTGCACTGCTTCCTGCTCGATTGCTCCGCATCGATGCTGGGCGACGAAGGGCTGAAGACCGCGAAAGGTCTGCTGCTCGCCTCTTTCGATCGCGCGGCGGCGCTGCGCGAGCAAGCTGCGCTCATATGCTTCGGCGGGGCAGGCACTGCGCTGCGTTTCGGCCCTGCCGTGCCCCGCTGGTGGAACGAACGCTGGCTGCGTCCGATCGGTGCGGGCGGCGGCACACCGTTTTCGCGCGGCATTGCCGCCGCCTCGCAACTGCTCGAGCGCGCGCGGGCTCGGCAGCCTCAGCTGCAATGCGTCCTCTGGATCTTCACGGACGGCCGCAGCAGCGAGCAACCCGTACGGCCGAAGTCGGCCGATCGCATCGTTTTCGTAGACTGCGAGCGCGGGCGGCTGAGGCTCGAACGCTGCCGGACGCTCGCCGCTGCGTGGGGGGCCGAATGCGTGGGCGTCGACGAAATAATCGGTGCGCCATCCGCATCGTACTGA</t>
+  </si>
+  <si>
+    <t>ATGAACGATGCTTACGATGCCCGTGCCACTTCGCGGGCCGAGCTTCCGAAGCCCTATCCGTTCAGCGCGCTGATCGGGCAGGAGCCCCTGCAGCAAGCGCTCCTGCTCGCGGCCATCGATCCCGGCATCGGCGGCGTGCTCGTGAGCGGCCCGCGCGGCACGGCGAAGTCGACCGCGGCGCGCGCGCTGGCCGAACTGCTGGCCGAGGGGCGATTCGTCACGCTGCCGCTCGGCGCGAGCGAGGAGCGGCTCGTCGGGACGCTCGACCTCGACGAAGTGCTGCGCGGCGGCACGGTGCGCTTTTCGCCTGGACTGCTGGCGCAGGCACACGAAGGCGTACTTTACGTCGATGAGGTGAACCTGCTGACCGACGCGCTCGTCGATGCTCTGCTCGACGCCGCGGCGAGCGGCGTCAACGTCGTCGAGCGCGACGGCGTTTCGCATCGCCATGAGGCGCGCTTCGTCCTGATCGGCACGATGAACCCGGAAGAGGGCGAACTGCGTCCGCAATTGCTCGATCGATTCGGCATGATGGTCGAACTCGCCAATTGCTTCGATCCGCTCGTGCGTCAGCGCATCGTCAAGGCACGGCTCGCGTTCGATGCGGACCCCGACGCGTTTCGTGCCGCTTGCGCGAGCGAGCAGCAGGCGCTCGCCAAACGGATCGAGCGTGCCCGCGCCGCGTTGTCGAGCCTTGCATTCGGCGACGACGTCCATGCGCGGGTCAGCACGCATTGCATCGAGGCGGCTGTCGATGGTCTGCGCGCCGATCTCGTCATGCTGCGTGCGGCGCGCGCGCTGGCGGCATTCGAGGGAGCGGAGTCGATTACGACCGCGCACGTCGATCGCGTGGCCGAAGCGGTGCTGCGGCACCGACGGCGCGAGCAGCCCGAGGCGCCGGCACAGGAGCCCGCACCGTCGCGGGCGTCCGACGATCGTGCCGCATCGGCCGATCGCGAGCGAAAGGAGGAAAGGAGGCCCGGCGAGCGCGACTCCGGGCGCACGGGCGCGAGCGGCGCCGGACAGGATGGCACCGGTGACGATTGGGGCTATCTGCCGCCCGAGCCGGTCGGCATCGCAGCTGTCAAGAACGTCGTACCCTTCGACGCAAAAAAACGCTGA</t>
+  </si>
+  <si>
+    <t>GTGAGTTCAAGCAGCGCACTCGTGCCCGGCGCATTGCCGCGGCTCTTCCCCTTCAGCGCCCTCGTCGGCCAGACCGCGTTGCGCGAAGCGCTGTTGCTCGCCGCTGTGGACCCCGGCGTGGGCGGCGTGCTGGTGAGCGGGCCGCGCGGCACGGCGAAATCGACAGCGGCGCGCTCGCTGGCCGAACTGCTGCCCGAGGGCCGCTTCGTCACGCTGCCGCTCGGCGCGACCGAGGAACGGCTCGTGGGCTCGCTCGACCTGAACGAAGCGCTGCGCGGCGGCAGCGTCACGTTTTCGCCGGGTTTGCTCGCGCAGGCGCATCACGGCGTGCTGTACGTGGACGAGGTCAACCTGCTCGACGACGCGCTCGTGGACGCCGTGCTCGACGCCGCCGCAAGCGGCGTGAACGTGGTGGAGCGCGACGGCGTGTCGCACAGCCACGCGGCGCGCTTCGTGCTGATCGGCACCATGAACCCGGAAGAGGGCGAACTGCGCCCGCAACTGCTGGACCGCTTCGGGCTCATGGTCGAACTCGACAACTGCTTCGATGCGACCGCGCGGCAGCAGATCGTGAAGACGCGGCTCGCATTCGACGCGGATCCCGAAGCGTTTTGCCGCGCCTATGCCGACGAGCAGCAAGCCGTGGCGCAACGCATCCGCGAGGCCCGTGAAGCGCTGCCCGCGCTCGCCTTCGACGACGCGATTCACGCCGACGTGAGCGCGCGTTGCATCGAAGCCGGCGTGGACGGCTTGCGTGCCGACCTCGTCATGTTGCGTGCAGCGCGCGCGCTTGCCGCGCTGGAGCGCGCCACGGCCATCACGACCGCACACGTGGACCGCGTGGCGCCCGCGGTGCTGCGGCATCGGCGACGCGAGGAAGCGGGCGGGCAGCGAGACGGGCAGGCGGCATCGCCTGGCTCGGCGTCTGCACCGCGAGGTGACACGGCTGCCGCCGCTCACGAAGAGAAGGGCCGTTCCACAGAAGGCGGCGACGTTCGTCATGGATCGCCGCCGCACGCGGCAGCGGCGCAACTCGATGCCGGAACGCCGGGCCCGAGCGGCGAGCGCGACTGGGGCTACCTTGCGCCCGAGCACACGGGCATCGCCAACGTGAAGGGCGTGATCCCGCTGTCCGCAAAAAAACGCCTGAGCCATCGGAAAGGCGCCGCCGCTGACTCGCGCAGCGGATTCCGATGGCCGGGTGAAGTGGGCGTGAGCGCACGGCGCGATGGCGGACCTCGCACGAGCACCGGTACAGGCGGCAGCACGCGCATCGCGTGGCCCGCCACCTTCGCGCGCAAGCGCAACGCTCCGCTGCGCGCGGACCATCTGCGTTACGTGCGCCAAACCGCGGAGCGCGGCGAGTTGCATTGCTTCGTGCTGGACTGCTCGGCGTCGATGCTGGGCGGCGAACGTCTCGCGCTCGCCAAGGGCCTGCTGGTGCGCTGCTTCGATTGCGCGGCGCGGGCACGCGTCGAGGTGGCGCTGGTCTCTTTCGGCGGTGTGCGCGCTGACGTGCGCTTCGGTCCCGGCGTGCCGCGCTGGTGGAACGAACGATGGCTCGCGCCCGTGGGCGGCGGAGGTGGAACGCCTTTCGCGCTCGGCCTGCGCACAGCGGGCCAGGTGCTTCAGCGTGCCGCGCGCAGGCAACCGGCACAGCACCGCGCGCTCTGGATTCTCACCGACGGCCGCAGCAGCGAACGTCCCGCAAAGCCGGCGTGGGCCGATCGCATCGTGTTCGTGGACTTCGAGCGCGAGGTGCCGGCGCTTCAGGTGTGCGGCCGGCTCGCGCAGGCGTGGGACGCGGAGTGGGTGCGGGCGCAAGCGCTGACCGGATGA</t>
+  </si>
+  <si>
+    <t>GTGAGTTCAAGCAGCGCACTCGTGCCCGGCGCATTGCCGCGGCTCTTCCCCTTCAGCGCCCTCGTCGGCCAGACCGCGTTGCGCGAAGCGCTGTTGCTCGCCGCTGTGGACCCCGGCGTGGGCGGCGTGCTGGTGAGCGGGCCGCGCGGCACGGCGAAATCGACAGCGGCGCGCTCGCTGGCCGAACTGCTGCCCGAGGGCCGCTTCGTCACGCTGCCGCTCGGCGCGACCGAGGAACGGCTCGTGGGCTCGCTCGACCTGAACGAAGCGCTGCGCGGCGGCAGCGTCACGTTTTCGCCGGGTTTGCTCGCGCAGGCGCATCACGGCGTGCTGTACGTGGACGAGGTCAACCTGCTCGACGACGCGCTCGTGGACGCCGTGCTCGACGCCGCCGCAAGCGGCGTGAACGTGGTGGAGCGCGACGGCGTGTCGCACAGCCACGCGGCGCGCTTCGTGCTGATCGGCACCATGAACCCGGAAGAGGGCGAACTGCGCCCGCAACTGCTGGACCGCTTCGGGCTCATGGTCGAACTCGACAACTGCTTCGATGCGACCGCGCGGCAGCAGATCGTGAAGACGCGGCTCGCATTCGACGCGGATCCCGAAGCGTTTTGCCGCGCCTATGCCGACGAGCAGCAAGCCGTGGCGCAACGCATCCGCGAGGCCCGTGAAGCGCTGCCCGCGCTCGCCTTCGACGACGCGATTCACGCCGACGTGAGCGCGCGTTGCATCGAAGCCGGCGTGGACGGCTTGCGTGCCGACCTCGTCATGTTGCGTGCAGCGCGCGCGCTTGCCGCGCTGGAGCGCGCCACGGCCATCACGACCGCACACGTGGACCGCGTGGCGCCCGCGGTGCTGCGGCATCGGCGACGCGAGGAAGCGGGCGGGCAGCGAGACGGGCAGGCGGCATCGCCTGGCTCGGCGTCTGCACCGCGAGGTGACACGGCTGCCGCCGCTCACGAAGAGAAGGGCCGTTCCACAGAAGGCGGCGACGTTCGTCATGGATCGCCGCCGCACGCGGCAGCGGCGCAACTCGATGCCGGAACGCCGGGCCCGAGCGGCGAGCGCGACTGGGGCTACCTTGCGCCCGAGCACACGGGCATCGCCAACGTGAAGGGCGTGATCCCGCTGTCCGCAAAAAAACGCTGA</t>
+  </si>
+  <si>
+    <t>ATGAATGGGTCCCTGCCTGCCTTTCCGTTCACCGCGTTGATCGATCAGCAGCCGCTGCAACAGGCGCTGCTGATCGCAGCCGTCGATCCCGGCATCGGCGGTGTGCTGGTTAGCGGGCCACGCGGCACGGCGAAATCGACTGCTGCGCGCGCGCTTGCCGAATTGCTGCCCGAAGGCCAGTTCGTCACACTGCCGCTCGGCGCGAGCGAAGAGCGTCTGATCGGCACGCTCGATCTCGACGCGGTGTTGCGCGATGGTGCCGTGAAATTTTCGCCGGGGTTGCTCGCCCAGGCGCATCGCGGCGTGCTGTATGTCGACGAAATCAACCTGTTGCCCGATACGCTCGTCGACGCGTTGCTCGATGCCGCTGCGAGCGGTGTGAACACCGTCGAACGCGATGGCGTGTCGCACAGTCACGATGCGCGTTTCGTGCTGGTGGGCACGATGAATCCGGAAGAGGGCGAGTTGCGACCGCAACTGCTCGATCGTTTCGGCCTGGTGGTGGAGCTGGAGAACTGTTTCGATCCGGCCGTGCGGCAGCGCATCGTCAAGGCAAGGCTCGCCTTCGATCTCGATCCGCGGGGTTTTCACCGTGCTTATGCAACGCAGCAGTCGGATGTCGTGCAACGGATTCGCGCTGCGCGTGCTGCGTTGTCCGCACTGTCCTTCGACGATGCCGTACATGCGCTGGTAAGCCGACTCTGTATCGAGGCGGCCGTCGATGGTCTGCGCGCCGATCTCGTGATGCTGCGCGCTGCACGCGCGCTGGCAGCGCTCGACGGTGCCGATGCGGTGACCGTGGCACATGTCGAGCGGGTCGCGGCCTCGGTGTTGTTGCATCGACGGCATGCGGACGATGCGTCGGCAGAGGCCGGCACGTCAGAGCGAGAACCGCAAGAAGCGGCAACCGCAAGCGCCGATCAGAAGACCGAAAACGGTCAACACAATCGGTCGCAGGCAAAATCCGATGGATCGGCTGGCGACTGGGGTTATCTACCGCCGCAGCCGGCCGGCATTGCGAACGTCAAAACCGTCGTTCCGCTCGCCGCAAAAAAACGCCTAAGCCACCGGAACGGTGCCGCCGCTGATCAGTCCAGCGGTTTCCGGTGGTTGCAAGGCACCCGCAGCCGCACGCGTACCCGTACTGTCGACGGCGCACCCGGCACACGCATCGCATGGCCTGCCACGCTCGCGGCGAAACGTCACACGCCGCTGCGTGCCGACCATCTGCGCTTCGTGCGCGAAGCATCGCGAAGTGGCGAACTGCATTGCTTCGCGCTCGATTGCTCCGCTTCGATGCTTGCCGGTGCGCAACTTGCGCTTGCGAAGGGCCTACTGGTCGCGCTATTCAACCGCGCCGCACGCGAACGCGCGGAAGCGGCACTGATCTGTTTCGGTGGCACACGTGCAGATTTACGGTTCGGGCCCGCGGTGCCGCGCTGGTGGAACGAGCGCTGGCTGAAGCCGATCGGCGGCGCGGGAGGCACACCGCTCGCACTCGGTGTGCGGCGCGCGGCGCATCTGCTCGAACGCGCGGCGCGTCGCAAGCCCGCGCAGCAGCGCTGGCTCTGGGTGTTATCGGATGGCCGCAGTCGCGACTGGCCGGTGCGGCCTGCTGCCGCAGACCGGATCGTGTTCGTCGATTTCGAACACGCGGGAGTGAAGCTCGGGCGATGCGCGCAGCTCGCGCATGCCTGGGGTGCGTTACATCGCGTGCCCGAAGATTTGATAGAGCGCTGA</t>
+  </si>
+  <si>
+    <t>ATGAATGGGTCCCTGCCTGCCTTTCCGTTCACCGCGTTGATCGATCAGCAGCCGCTGCAACAGGCGCTGCTGATCGCAGCCGTCGATCCCGGCATCGGCGGTGTGCTGGTTAGCGGGCCACGCGGCACGGCGAAATCGACTGCTGCGCGCGCGCTTGCCGAATTGCTGCCCGAAGGCCAGTTCGTCACACTGCCGCTCGGCGCGAGCGAAGAGCGTCTGATCGGCACGCTCGATCTCGACGCGGTGTTGCGCGATGGTGCCGTGAAATTTTCGCCGGGGTTGCTCGCCCAGGCGCATCGCGGCGTGCTGTATGTCGACGAAATCAACCTGTTGCCCGATACGCTCGTCGACGCGTTGCTCGATGCCGCTGCGAGCGGTGTGAACACCGTCGAACGCGATGGCGTGTCGCACAGTCACGATGCGCGTTTCGTGCTGGTGGGCACGATGAATCCGGAAGAGGGCGAGTTGCGACCGCAACTGCTCGATCGTTTCGGCCTGGTGGTGGAGCTGGAGAACTGTTTCGATCCGGCCGTGCGGCAGCGCATCGTCAAGGCAAGGCTCGCCTTCGATCTCGATCCGCGGGGTTTTCACCGTGCTTATGCAACGCAGCAGTCGGATGTCGTGCAACGGATTCGCGCTGCGCGTGCTGCGTTGTCCGCACTGTCCTTCGACGATGCCGTACATGCGCTGGTAAGCCGACTCTGTATCGAGGCGGCCGTCGATGGTCTGCGCGCCGATCTCGTGATGCTGCGCGCTGCACGCGCGCTGGCAGCGCTCGACGGTGCCGATGCGGTGACCGTGGCACATGTCGAGCGGGTCGCGGCCTCGGTGTTGTTGCATCGACGGCATGCGGACGATGCGTCGGCAGAGGCCGGCACGTCAGAGCGAGAACCGCAAGAAGCGGCAACCGCAAGCGCCGATCAGAAGACCGAAAACGGTCAACACAATCGGTCGCAGGCAAAATCCGATGGATCGGCTGGCGACTGGGGTTATCTACCGCCGCAGCCGGCCGGCATTGCGAACGTCAAAACCGTCGTTCCGCTCGCCGCAAAAAAACGCTAA</t>
+  </si>
+  <si>
+    <t>ATGAGCGAAGCCAACGCGCGGCGCGCGGCGTTTCCGTTTTCCGCGTTGATCGGCCAGGCACCTTTGCAGCAGGCGTTGTTGCTGGCTGCCGTCGATCCGGGCATCGGCGGCGTGCTGGTCAGCGGGCCGCGCGGCACGGCCAAGTCGACGGCGGCGCGCGCGCTTGCGGAGTTGTTGCCCGAAGGGCAGTTCGTCACGTTGCCTTTGGGCGCGAGCGAAGATCGCCTGATCGGCACGCTCGATATCGAATCGGCATTGCGTGACGCATCGGTGCGCTTTTCGCCCGGATTGCTGGCGAAGGCGCATCGCGGCGTGCTGTATGTCGATGAAGTGAATCTGTTGCCTGACGGGCTCGTCGATGCGCTGCTCGATGCGGCTGCAAGCGGCGTGAACACGGTTGAGCGCGATGGCGTTTCGCATACCCATGATGCGAGCTTCGTGCTGATCGGCACGATGAATCCGGAAGAGGGCGAACTGCGTCCGCAACTGACGGACCGCTTCGGTCTGATGGTTGCGCTGGAGAATTGCTACGAGCCGCAGATTCGACAGGACATCGTCAAGGCGCGGCTTGCGTTCGATCTCGATCCTTTTGCTTTTCGCGCGCGTCATGCTGTGCAACAGGCGGCGTATATCGAGCGCCTTTGCGATGCGCGTGCCGCGTTGACACGCCTCTCGTTCGACGAGGCCGTCCACGCTCACGTCAGTGCGCTATGTATCGCGGCCGGCGTTGACGGCTTGCGTGCCGACCTCATGATGCTGCGTGCGGCGCGCGCTTTGGCTGCATTTGAAGCGGCGGAAGTCGTGACGGTCGAGCATGTCGACCGCGTTGCGGAGTCGGTGCTGCTGCATCGGAGGCGATTCGACGATGAGGCCGCGCATCCTCACGAGGCCGCTTCCTCCCCTGGGCAGCCTTCTTCAACCGATAGCGCGAATTCATCCACCGACAGCGACTACGGTTATCTTCCGCCGGAGCCTGCGGGCATCACGCACGTCAAGGGCGTCATTCCGCTCAGCACAAAAAAACGCCTGAGCCATCGGAAGGGCGCGACCGCGCGCACAATGCGCAGCGGTTTCCGATGGCGGCAAGGCGCAGGCGATGTATCGCGCGTCGGTTTGGCCGGCGCGCGCATTGCATGGCCGCGCACGCTTGCCGCTAAACGGAACGAGCAGCTGACTACCGATCACTTGCGTTTCAAGCATGAAGAGGCGCACAGCGGCGTGCTCCATTGCTTTCTACTTGACTGTTCGGCTTCGATGATGGCCGGGCAGCGGCTCGCATTGGCCAAAGGGATTCTCGTCGCGTTGTTCGATCAGGCGCGTATGACGCGCGATCAGGTCGCGCTGATCTGCTTTGGCGGATCGGAAGCCGACGTGCGTTTCGGACCCGCGGTGCCACGCTGGTGGAATGAGCGTTGGCTTTCGCCTATAGGCGGTGGCGGTGGTACGCCGCTGTTACTCGGCATTGAAACTGCCGCGTCGCTGCTCGAACGCGCGGCGCGCAAACGACCCACGCAGCAGCGCTGGCTGTGGGTATTTTCCGATGGACGCAGCAGCGGTTCGCCCGTTCGCCCTAGGGTCGCCGATGAAGTTGTGTTTGTTGACTTCGAGGACAGTCCGTCGCGACTGGGGCGCTGCTCGCGCATGGCGGGATTGTGGCGCGCTCAATGCATTTCCTCGGACGAACTGATTTGCGCCAGATCGCGTTGA</t>
+  </si>
+  <si>
+    <t>ATGAGCGAAGCCAACGCGCGGCGCGCGGCGTTTCCGTTTTCCGCGTTGATCGGCCAGGCACCTTTGCAGCAGGCGTTGTTGCTGGCTGCCGTCGATCCGGGCATCGGCGGCGTGCTGGTCAGCGGGCCGCGCGGCACGGCCAAGTCGACGGCGGCGCGCGCGCTTGCGGAGTTGTTGCCCGAAGGGCAGTTCGTCACGTTGCCTTTGGGCGCGAGCGAAGATCGCCTGATCGGCACGCTCGATATCGAATCGGCATTGCGTGACGCATCGGTGCGCTTTTCGCCCGGATTGCTGGCGAAGGCGCATCGCGGCGTGCTGTATGTCGATGAAGTGAATCTGTTGCCTGACGGGCTCGTCGATGCGCTGCTCGATGCGGCTGCAAGCGGCGTGAACACGGTTGAGCGCGATGGCGTTTCGCATACCCATGATGCGAGCTTCGTGCTGATCGGCACGATGAATCCGGAAGAGGGCGAACTGCGTCCGCAACTGACGGACCGCTTCGGTCTGATGGTTGCGCTGGAGAATTGCTACGAGCCGCAGATTCGACAGGACATCGTCAAGGCGCGGCTTGCGTTCGATCTCGATCCTTTTGCTTTTCGCGCGCGTCATGCTGTGCAACAGGCGGCGTATATCGAGCGCCTTTGCGATGCGCGTGCCGCGTTGACACGCCTCTCGTTCGACGAGGCCGTCCACGCTCACGTCAGTGCGCTATGTATCGCGGCCGGCGTTGACGGCTTGCGTGCCGACCTCATGATGCTGCGTGCGGCGCGCGCTTTGGCTGCATTTGAAGCGGCGGAAGTCGTGACGGTCGAGCATGTCGACCGCGTTGCGGAGTCGGTGCTGCTGCATCGGAGGCGATTCGACGATGAGGCCGCGCATCCTCACGAGGCCGCTTCCTCCCCTGGGCAGCCTTCTTCAACCGATAGCGCGAATTCATCCACCGACAGCGACTACGGTTATCTTCCGCCGGAGCCTGCGGGCATCACGCACGTCAAGGGCGTCATTCCGCTCAGCACAAAAAAACGCTGA</t>
+  </si>
+  <si>
+    <t>ATGCCGCAGCCGTTTCCGCTCACTGCACTGATTGGGCAGGACGCGTTGCGCGAGGCACTGCTGCTGGCAGCGGTCGATCCGTCGATCGGCGGTGTACTGATCAGCGGGCCGCGAGGCACGGCGAAATCGACCGCAGCGCGCTCGCTGGCGGATCTGCTGCCGGACGGCCACTTCGTGACGCTGCCGTTGGGGGCGAGCGAAGACCGCCTGGTTGGCACACTCGACCTCGACCTGGTGCTGCGAGGCGGCGCGCTGAAGTTTTCGCCGGGGCTGCTCGCGCGTGCGCATAACGGCGTGCTTTACGTCGACGAGGTGAACCTGCTGGCCGATGGGCTCGTCGATGTCGTGCTCGATGCGGCCGCGAGCGGCATCAACGTGGTCGAGCGCGATGGGGTCTCGCACAGTCATGCCGCGCGGTTCGTGCTGATCGGGACGATGAATCCCGAAGAAGGCGAGTTGCGTCCGCAGTTGCTGGATCGCTTCGGCTTGATGGTGCAGCTCGAAAACTGCTTCGATGCACAGATCCGGCAGCAGATCGTCCGCACGCGCATGGCGTTCGATCTCGATCCCGAGGCGTTTCGCCAAACATATGCAACGGCACAGCTGCAACTGGCGCAGCAGATTCGCGCGGCGCGCGCGGCGTTGTCGGGGCTGACGTTTGCCGACGAAGTGCACGAGACGGTTAGCGCACGCTGCATCGAAGCCCGCGTCGATGGGTTGCGGGCCGATCTGGTGATGCTGCGCGCCGCGCGGGCGCTGGCGGCGCTGGAGGCGGCGCTCGTCGTGACCGGCGCACACGTCGACCGCGTTGCGGAACTGGTGCTGTGCCACCGGCGGCGCGAACAGTCGCCGGATGCGCGTCCGGCGGATTCCGGTGGCCAGTCCGATGTGCGGCGTGAGGATGACCGCGAAGGCGGGCAGTCTGCAAGACCGGACGCCGCATCTGCGATGGAACCCCGCCGCGCTGACGACGCGGACTGGGGCTATCTGCCGCCCGAACCGGCGGGCATCACGCGCGTGAAGGACGTCATCCCGCTTTCAATAAAAAAACGCCTGATCCATCGGAAGGGCGCCACCGCTGATTCCAGCGGGTTCCGATGGATGCCAGGCCTTCCCGGCACGCACGCGGCCGCGCGCCGCGCAGCGCCTGGTGAGCCACGTGAGCCAGGCGCGCGCGGACAGCGCATTGCATGGCCAGCGACGCTCGCCCGCAAGGGGCGCTCGCCGCTGCATGCGGATCATCTGCGCTTCGTGCGCCACGAGTCGGCGGATGGCACGCTGCATTGCTTCCTGCTCGACTGTTCGGCGTCGATGCTCGGCGGCGGGCGTCTCGCACGCGCCAAAGGACTGCTCTTGGCATGCTTCGATCGTGCCGCGGCCGGGCGCGAAGAGGTCTCGCTGATTTCATTCGGCGGAGGGCGCGCCGATGTGCGCTTCGGGCCCGCCGTCCCGCGCTGGTGGAACGAGCGCTGGATACAGCCGGTGGGCGGGGGCGGCGGCACGCCATTCGCGCTCGGCGTTGCGACGGCCGCGGGTCTGCTGGCGCGTGCGAAGCGGCGCAAGCCATCTCAGCAACGGGTGTTATGGGTAGTGAGCGACGCACGCACCCGGGAACAGCCCGCCAGACCGCCGGCTGCGGATCGGGTGGTGGTGATCGACTGCGCTCAGGGAGCGGCGGGGCGAGGTCTGCAACTCGCCCGCGCATGGGGTGCGGACTACCTGCTGCCGGAGGACCTGGTGGTCATTTCATGA</t>
+  </si>
+  <si>
+    <t>ATGCCGCAGCCGTTTCCGCTCACTGCACTGATTGGGCAGGACGCGTTGCGCGAGGCACTGCTGCTGGCAGCGGTCGATCCGTCGATCGGCGGTGTACTGATCAGCGGGCCGCGAGGCACGGCGAAATCGACCGCAGCGCGCTCGCTGGCGGATCTGCTGCCGGACGGCCACTTCGTGACGCTGCCGTTGGGGGCGAGCGAAGACCGCCTGGTTGGCACACTCGACCTCGACCTGGTGCTGCGAGGCGGCGCGCTGAAGTTTTCGCCGGGGCTGCTCGCGCGTGCGCATAACGGCGTGCTTTACGTCGACGAGGTGAACCTGCTGGCCGATGGGCTCGTCGATGTCGTGCTCGATGCGGCCGCGAGCGGCATCAACGTGGTCGAGCGCGATGGGGTCTCGCACAGTCATGCCGCGCGGTTCGTGCTGATCGGGACGATGAATCCCGAAGAAGGCGAGTTGCGTCCGCAGTTGCTGGATCGCTTCGGCTTGATGGTGCAGCTCGAAAACTGCTTCGATGCACAGATCCGGCAGCAGATCGTCCGCACGCGCATGGCGTTCGATCTCGATCCCGAGGCGTTTCGCCAAACATATGCAACGGCACAGCTGCAACTGGCGCAGCAGATTCGCGCGGCGCGCGCGGCGTTGTCGGGGCTGACGTTTGCCGACGAAGTGCACGAGACGGTTAGCGCACGCTGCATCGAAGCCCGCGTCGATGGGTTGCGGGCCGATCTGGTGATGCTGCGCGCCGCGCGGGCGCTGGCGGCGCTGGAGGCGGCGCTCGTCGTGACCGGCGCACACGTCGACCGCGTTGCGGAACTGGTGCTGTGCCACCGGCGGCGCGAACAGTCGCCGGATGCGCGTCCGGCGGATTCCGGTGGCCAGTCCGATGTGCGGCGTGAGGATGACCGCGAAGGCGGGCAGTCTGCAAGACCGGACGCCGCATCTGCGATGGAACCCCGCCGCGCTGACGACGCGGACTGGGGCTATCTGCCGCCCGAACCGGCGGGCATCACGCGCGTGAAGGACGTCATCCCGCTTTCAATAAAAAAACGCTGA</t>
+  </si>
+  <si>
+    <t>ATGAACGCATCGACGGATTCGCCCGGTGGCGGCGTCGCGTTGTCGTCAACCGCACGCACGATATTTCCATTCGCGGCGTTGATCGGGCAAGCGCCGTTGCAGCAGGCGCTGTTGCTTGCAGCGATCGATCCGGGGCTCGGCGGCGTGCTGGTGAGCGGCCCGCGCGGCACCGCGAAATCGACGACCGCCCGGGCGCTCGCCGAGTTGCTGCCTGAAGGACAACTCGTCACGCTGCCGTTAGGCGCAAGCGAAGAGCGTCTGATCGGCACGCTGGATATCGAAACCGCGCTGCGCGACGGTTCGGTGAAGTTTTCGCCGGGTCTGCTTGCAAGGGCGCATCGCGGCGTGCTGTATGTCGACGAGGTCAACCTGTTGCCGGACGCGCTCGTGGATGCGTTGCTCGATGCCGCCGCGAGCGGCGTGAACACGGTTGAGCGAGATGGCGTCTCGCATAGTCACGCGGCAAGCTTCGTGCTGATCGGCACGATGAATCCGCAGGAAGGCGAGCTGCGTCCGCAACTCATCGACCGGTTTGGTTTGATGGTGGAACTCGAAAACTGCTTCGATCCGGAGGTGCGGCAAGCGATCGTCAAGGCGCGTCTTGCATTCGACGCAGACCCGGAGATGTTTCGCGCGCGCTACGCGGCGCAACAGGCGGCTTATGTGCGGCGTATTCGCGCCGCGCGTGAGCGGCTTTCTCAACTTGCATTCGACGATGCGATTCATGCATACGTTAGCCGTAAGTGCATCGATGCCGCTGTCGACGGAATGCGCGCGGATATCGTCATGCTGCGCGCGGCGCGCGCGCTCGCCGCGCTGGAAGCGGACACGGCGATTACGGTTGAGCATGTCGATCGCGTGGCGGAAGCGGTGTTACGGCATCGCCGGCTGAATCGCGACACGGATACGCACGCGACGCAATCGTCATCGCCGCCTGCGCAACACGAAACGCACGAATCACCCACAGAGCGCAAACCCGGCAGCGAAGGCGATTGGGGACAATTGCCACCAGAGGCAGCCGGTACGACGCGCGTCAAGGGCGTCATTCCGTTACCCGCAAAAAAACGTTTGAGCCATCGATCAGGCGCCGCCGCTGGATCGACCAGCGGCGTTCGATGGCCACATGCAGCAGGCGCCGGCACGAGAGGCTCAAAACCCGGCAGACGTATCGACTGGCCTTCGACGCTCGCGGCGAAGCGGCGTGAGCCGCTCGCGCGCGCCCACGTGCGCTTCAGGCGCGAAGCGCCGAAGGGCGGCGTGCTGCACTGCTTCGTCCTCGACTGTTCCGGTTCGATGATGTCGGGCCAGCAGCTTGCGCTGGCAAAGGGCCTGCTTGTCGCGATGTTCGATCAGGCGTCCACTGCACGCGCCGAAACCGCGCTGGTGTGTTTTGGCGGCGCGCGTGCGGACGTGCGGTTCGGGCCCGCGGTGCCGCGCTGGTGGAACGAGCGCTGGCTACAGCCAGTGGGAGGGGGAGGCGGGACGCCGCTCGCGCTCGGCGTGTCGCGGGCGGCTCACGTCCTGGAGCGCGCCGCGCGCGGCAAGCCGGCGCAGCAGCGCTGGCTGTGGCTGCTATCGGATGGACGCAGCAGCGATCTGCCCGCGCGTCCGGCGTTTGCCGATCAGGTCGTGTGTGTCGACTTCGAACGTGGGGCGGTGAGGCTGGGCCGTTGCGAACAGATCGCACGCGCCTGGAATGCGCTGTGCTGTACGCCGGAAGATCTGATCGCGTCGTGA</t>
+  </si>
+  <si>
+    <t>ATGAACGCATCGACGGATTCGCCCGGTGGCGGCGTCGCGTTGTCGTCAACCGCACGCACGATATTTCCATTCGCGGCGTTGATCGGGCAAGCGCCGTTGCAGCAGGCGCTGTTGCTTGCAGCGATCGATCCGGGGCTCGGCGGCGTGCTGGTGAGCGGCCCGCGCGGCACCGCGAAATCGACGACCGCCCGGGCGCTCGCCGAGTTGCTGCCTGAAGGACAACTCGTCACGCTGCCGTTAGGCGCAAGCGAAGAGCGTCTGATCGGCACGCTGGATATCGAAACCGCGCTGCGCGACGGTTCGGTGAAGTTTTCGCCGGGTCTGCTTGCAAGGGCGCATCGCGGCGTGCTGTATGTCGACGAGGTCAACCTGTTGCCGGACGCGCTCGTGGATGCGTTGCTCGATGCCGCCGCGAGCGGCGTGAACACGGTTGAGCGAGATGGCGTCTCGCATAGTCACGCGGCAAGCTTCGTGCTGATCGGCACGATGAATCCGCAGGAAGGCGAGCTGCGTCCGCAACTCATCGACCGGTTTGGTTTGATGGTGGAACTCGAAAACTGCTTCGATCCGGAGGTGCGGCAAGCGATCGTCAAGGCGCGTCTTGCATTCGACGCAGACCCGGAGATGTTTCGCGCGCGCTACGCGGCGCAACAGGCGGCTTATGTGCGGCGTATTCGCGCCGCGCGTGAGCGGCTTTCTCAACTTGCATTCGACGATGCGATTCATGCATACGTTAGCCGTAAGTGCATCGATGCCGCTGTCGACGGAATGCGCGCGGATATCGTCATGCTGCGCGCGGCGCGCGCGCTCGCCGCGCTGGAAGCGGACACGGCGATTACGGTTGAGCATGTCGATCGCGTGGCGGAAGCGGTGTTACGGCATCGCCGGCTGAATCGCGACACGGATACGCACGCGACGCAATCGTCATCGCCGCCTGCGCAACACGAAACGCACGAATCACCCACAGAGCGCAAACCCGGCAGCGAAGGCGATTGGGGACAATTGCCACCAGAGGCAGCCGGTACGACGCGCGTCAAGGGCGTCATTCCGTTACCCGCAAAAAAACGTTGA</t>
+  </si>
+  <si>
+    <t>ATGAATGGAGCGATGCGGGGAACGGACGACGTAGGCAGCGCAGGCGTCGCGTCCGGCACGGCGCCGCGGCCGGTTTTTCCGTTTGCGGCGCTGATTGGCCAGGCCTCGTTGCAGCAGGCGCTGGTGCTGGCGGCGATCGATCCGGGCTTGGGTGGCGTATTGATCAGCGGACCGCGTGGCACTGCGAAGTCGACCGCCGCGCGCGCGCTTGCCGAGTTGCTGCCGCAAGGGCAGCTCGTGAATCTGCCGCTTGGCGCGAGCGAGGATCGCCTGATCGGCACGCTCGATATCGAAACGGTGCTGCGCGACGGGTCCGTGCGCTTCTCGCCGGGACTGCTTGCGAAGGCGCATCGCGGCGTGCTGTACGTCGACGAAGTCAATCTGCTGCCCGATGCGCTCGTCGATGCGTTGCTCGATGCGGCGGCGAGCGGCGTGAACACCGTCGAACGCGATGGCGTGTCGCATAGTCATGACGCGAGCTTCGTGCTGATCGGCACGATGAACCCGGAAGAGGGCGAGTTGCGGCCGCAACTGATCGACCGTTTTGGTCTGATGGTCGAGTTGCAGAATGTGTTCGAGCCGCAAGTGCGGCAGGCCATCGTGAAAGCGCGGTTTGCGTTCGAGCTCGACCCCACTGGTTTTCGTGCCGCTTATGCGGAGCTGCAGGCTTCATACGTACAGCGAATTCGCGCGGCGCGCGCGGCGCTGCCGCTGCTGTCGTTCGATGACGCCGTCCATGCGCGCGTGAGCGCGCTGTGCATCGACGCGGCCGTCGACGGCCTGCGCGCCGACCTCGTGATGCTGCGCGCGGCGCGCGCGCTGGCCGCTTTCGAACGGGCGGATGCGGTGACGGTGCGACACGTGGAGCGCGTTGCCGATGCGGTGCTGCTTCATCGGCGGCGTCAGCATGATGCGCCACATGCGAATCAGCGCCAGCAGGAAGGCGAGGCGCAGTCACAAGACGTTACTGGTAGTGCGTCTGACCGTGCAGCTGGATCCGCGACGTCTTCCGCCGATCCCGACTGGGGCTACCTGCCGCCCGAGCCGACCGGGGCTGTGCCTGTCAAAGGCGTGATTCCGCTCGACGCAAAAAAACGCCTGAGCCATCGGAAAGGCGCCGCCGCTGACTCGCGCAGCGGTTTTCGATGGCGGCAAGGCGCGGGGGCGGGTGCGCACGACACGTCGCATGCGGCACCGGGCCGGCGCATCGCATGGCCAGCGACGCTCGCCGCGATGCGCGGGCGCACGCTGCGGCGCGAGCATCTGCGCTTCGTACGCGAAATGCCGCGCGGCGGGGTGCTGCATTGCTTCGTGCTCGATTGCTCCGGGTCGATGCTGGCGGGCCAGCGCCTCGCGCTCGCGAAGGGTTTGCTGACTACCTTGTTCGACCGTGCGAGCGCGATGCGCGCCGAGGCCGCGTTGATCTGCTTCGGCGGTGCGGGCGCGGACGTGCGCTTCGGGCCCGCCGTGCCGCGCTGGTGGAACGAGCGATGGCTCGCGCCAGTCGGCGGAGGCGGCGGTTCGCCGCTCGCCTCGGGCGTGCGCCGCGCCGCGCAACTGCTCGAGCACGGCGCGCGGCGACGGCCGGCCCAGCAGCGTTGGCTATGGATTCTGACCGACGGCCGCACGCGCGACGAACCGGCGCGTCCGGCCGGCGCCGATGAAGTCGTGTTCGTCGACTTCGAGCGTGGTGCGATACGGCTTGGCCGCTGCGAAATGCTCGCGAATGCGTGGGGAGCGCGACGGTTGACACCGGAAGACCTGATCGGCTGA</t>
+  </si>
+  <si>
+    <t>ATGAATGGAGCGATGCGGGGAACGGACGACGTAGGCAGCGCAGGCGTCGCGTCCGGCACGGCGCCGCGGCCGGTTTTTCCGTTTGCGGCGCTGATTGGCCAGGCCTCGTTGCAGCAGGCGCTGGTGCTGGCGGCGATCGATCCGGGCTTGGGTGGCGTATTGATCAGCGGACCGCGTGGCACTGCGAAGTCGACCGCCGCGCGCGCGCTTGCCGAGTTGCTGCCGCAAGGGCAGCTCGTGAATCTGCCGCTTGGCGCGAGCGAGGATCGCCTGATCGGCACGCTCGATATCGAAACGGTGCTGCGCGACGGGTCCGTGCGCTTCTCGCCGGGACTGCTTGCGAAGGCGCATCGCGGCGTGCTGTACGTCGACGAAGTCAATCTGCTGCCCGATGCGCTCGTCGATGCGTTGCTCGATGCGGCGGCGAGCGGCGTGAACACCGTCGAACGCGATGGCGTGTCGCATAGTCATGACGCGAGCTTCGTGCTGATCGGCACGATGAACCCGGAAGAGGGCGAGTTGCGGCCGCAACTGATCGACCGTTTTGGTCTGATGGTCGAGTTGCAGAATGTGTTCGAGCCGCAAGTGCGGCAGGCCATCGTGAAAGCGCGGTTTGCGTTCGAGCTCGACCCCACTGGTTTTCGTGCCGCTTATGCGGAGCTGCAGGCTTCATACGTACAGCGAATTCGCGCGGCGCGCGCGGCGCTGCCGCTGCTGTCGTTCGATGACGCCGTCCATGCGCGCGTGAGCGCGCTGTGCATCGACGCGGCCGTCGACGGCCTGCGCGCCGACCTCGTGATGCTGCGCGCGGCGCGCGCGCTGGCCGCTTTCGAACGGGCGGATGCGGTGACGGTGCGACACGTGGAGCGCGTTGCCGATGCGGTGCTGCTTCATCGGCGGCGTCAGCATGATGCGCCACATGCGAATCAGCGCCAGCAGGAAGGCGAGGCGCAGTCACAAGACGTTACTGGTAGTGCGTCTGACCGTGCAGCTGGATCCGCGACGTCTTCCGCCGATCCCGACTGGGGCTACCTGCCGCCCGAGCCGACCGGGGCTGTGCCTGTCAAAGGCGTGATTCCGCTCGACGCAAAAAAACGCTGA</t>
+  </si>
+  <si>
+    <t>ATGAATTCAGCAGCCCAGCGGCCCGTTTTTCCATTTGCCGCGCTGATCGGTCAGGCGCCTTTGCAGCAGGCGCTGCTGCTGGCCGCCATCGATCCGGCGCTGGGCGGCGTGCTGGTCACGGGGCCGCGCGGCACGGCCAAGTCGACCGCCGCGCGGGCGCTGGCCGAGTTGTTGCCGGAAGGGCAACTGGTGAATCTGCCGCTCGGCGCGAGCGAAGATCGTCTGATCGGCACGCTCGATATCGAAACCGTGCTGCGCGATGGTTCGGTGCGTTTCTCGCCCGGTCTGCTCGCGAAGGCGCATCGTGGCGTGCTGTATGTGGATGAGGTCAACCTGCTGCCCGACGCGCTGGTCGATGCCTTGCTCGATGCGGCGTCGAGTGGCGTGAATACCGTCGAACGCGATGGCGTGTCGCATAGCCACGACGCGAGCTTCGTGCTGATCGGCACGATGAATCCGGAAGAGGGTGAATTGCGGCCGCAATTGATCGACCGTTTCGGCTTGATGGTCGAGTTGCAGAACTGTTTCGAGCCGAGCGTGCGGCAGGCGATCGTGAAGGCACGCCTCGCGTTCGATCTCGATCCGCAGGGTTTCAGGGCCGGTTACGCGCAACAGCAGGCGGCTTATGTTGAGCAGATTCATGCGGCGCGCGCCGCACTGTCGCAACTCGCATTCGATGAAGCCGTACATGCACGGGTCAGCGCGTTGTGTATCGAGGCGGCCGTAGACGGCTTGCGCGCCGATCTCGTGATGCTGCGCGCGGCGCGTGCGCTGGCGGCGTTCGAGCAGGCAGCCACGGTGACGGCGGAGCATGTCGATCGGGTTGCGGAGGCGGTGTTGGTTCATCGGCGGCATTCCCGTGAGTCGCAAGCGGATCATGATGCGCGTGAGGATGACGCTTCCGCTGGTGCTGTGGAGCGGTCGTCTGAGTCTTCATCTTCATCCGCTCGAGGCGATGCGCAGTCGGCCGACGCTGCCGGCGATAGCGATTGGGGCTACCTGGCGCCCGAGCCGAGCGCGACCACGCACACGCACGTCAAAGGCGTCATACCGCTCAACGTAAAAAAACGCCTGAGCCATCGGAAAGGCGCCGCCGCTGACTCGCGCAGCGGTTTTCGATGGCAGCAAGGCGCGGGTGCGCGCAGCCGCCTGGGTGCGGCGCCGGGCAAGCGCATCGCCTGGCCCCGGACACTCGCCGCGATGGGGCAGGACGTGTTACGCGCCGAGCATTTGCGCTTCATGCGCGAGGCGCCGCGCGGCGGCGTGCTTCATTGTTTCGTACTCGATTGCTCAGGCTCCATGCTGGCCGGACAGCGCCTCGCGCTCGCCAAGGGATTGCTGATCGCCCTGTTCGACCACGCGAGCGCCGCGCGTGCCGAGGCCGCCCTGGTCTGTTTCGGCGGCGCGGGAGCGGATGTGCGATTCGGTCCCGCAGTGCCGCGCTGGTGGAACGAGCGATGGCTGAGGCCTGTGGGAGGTGGTGGCGGCACGCCTCTCACGGCCGGCGTTCGGCAAGCGGGACAACTGCTGGAGCGCAGCGCGCGCCGCAAGCCCGCGCAGCAACGCTGGCTATGGATTCTGACCGATGGCCGCACGCGCGACACGCCCGCGCGCCCACTCGATGCGGACGAAGTCGTGTTCGTCGATTTCGAACGTGAGGCGATACGGCTCGGCCGTTGCGAATTGCTCGCCGATGCGTGGGGCGCGCGGCGTTTTACGCCGGAAGAATTGATGAGCTGA</t>
+  </si>
+  <si>
+    <t>ATGAATTCAGCAGCCCAGCGGCCCGTTTTTCCATTTGCCGCGCTGATCGGTCAGGCGCCTTTGCAGCAGGCGCTGCTGCTGGCCGCCATCGATCCGGCGCTGGGCGGCGTGCTGGTCACGGGGCCGCGCGGCACGGCCAAGTCGACCGCCGCGCGGGCGCTGGCCGAGTTGTTGCCGGAAGGGCAACTGGTGAATCTGCCGCTCGGCGCGAGCGAAGATCGTCTGATCGGCACGCTCGATATCGAAACCGTGCTGCGCGATGGTTCGGTGCGTTTCTCGCCCGGTCTGCTCGCGAAGGCGCATCGTGGCGTGCTGTATGTGGATGAGGTCAACCTGCTGCCCGACGCGCTGGTCGATGCCTTGCTCGATGCGGCGTCGAGTGGCGTGAATACCGTCGAACGCGATGGCGTGTCGCATAGCCACGACGCGAGCTTCGTGCTGATCGGCACGATGAATCCGGAAGAGGGTGAATTGCGGCCGCAATTGATCGACCGTTTCGGCTTGATGGTCGAGTTGCAGAACTGTTTCGAGCCGAGCGTGCGGCAGGCGATCGTGAAGGCACGCCTCGCGTTCGATCTCGATCCGCAGGGTTTCAGGGCCGGTTACGCGCAACAGCAGGCGGCTTATGTTGAGCAGATTCATGCGGCGCGCGCCGCACTGTCGCAACTCGCATTCGATGAAGCCGTACATGCACGGGTCAGCGCGTTGTGTATCGAGGCGGCCGTAGACGGCTTGCGCGCCGATCTCGTGATGCTGCGCGCGGCGCGTGCGCTGGCGGCGTTCGAGCAGGCAGCCACGGTGACGGCGGAGCATGTCGATCGGGTTGCGGAGGCGGTGTTGGTTCATCGGCGGCATTCCCGTGAGTCGCAAGCGGATCATGATGCGCGTGAGGATGACGCTTCCGCTGGTGCTGTGGAGCGGTCGTCTGAGTCTTCATCTTCATCCGCTCGAGGCGATGCGCAGTCGGCCGACGCTGCCGGCGATAGCGATTGGGGCTACCTGGCGCCCGAGCCGAGCGCGACCACGCACACGCACGTCAAAGGCGTCATACCGCTCAACGTAAAAAAACGCTGA</t>
+  </si>
+  <si>
+    <t>ATGAGCGCTACCGTGCATTACCCCCTGTCCGCCGTGGTCGCCGCCGACGAACTGAAGCTGGCGCTGTGCCTGGCCGCGGTCGATCCGGCGATCGGCGGGGTACTGATCGAGGGGCCGCGCGGAATGGCCAAGTCGACCCTGGCGCGGGGCGTCGCCGAACTGCTGCCGGCGGGCGAGTTCGTTACCCTGCCGCTGGGCGCCAGCGAGGAGCGCATCGTCGGCAGCCTCGACCTGGACGCCGCCCTCGGCGAAGGTCGCGCGCGGTTTTCCCCGGGCGTGCTGGCCAAGGCCGACGGCGGCGTGCTCTACGTCGACGAAGTGAACCTGCTGCCGGACCACCTGGTGGACTTGTTGCTCGACGTCGCCGCCAGCGGCGTCAACCTGGTCGAGCGCGATGGCATTTCCCACCGGCATCCGGCGCGTTTCGTGCTGATCGGCACGATGAACCCGGAAGAGGGCGAACTGCGCCCGCAACTGCTCGACCGTTTCGGCCTCAACGTGCGTCTCGACACCCAGCCGCCGCCGGCCGAGCGGGCAGAGATCATCCGTCGCCGGCTGGCCTTCGATGCCGACCCGCAGGCCTTCGTCGAACGCTGGGAAGGCCAGCAGGACACCCTGCGCCGCCGTTGCGCCGAGGCGCGCCGGCGGCTGGCGCGGATTCCCTTGGACGATGCGGCGCTGGACAGCATCGCTCGACGCTGCTTCGAGGCGGCTGTCGATGGCCTGCGCGCCGACCTGGTCTGGCTGCGCGCGGCGCGCGCCCATGCGGCCTGGCGCGGCGGCGAGCGGATCGAGGCGGAGGACATCGATGCGGTGGAACATTTCGCCCTGCTGCATCGCCGTCGCCAGTCGAACCCGCCACCATCGGCGGCCAATCCACCGCCACCGCCCGCGGCGGCCCCTGTCGCGCTCCCGGAGCGCACCGGCGACGGCGAAGGGCAGTGGGGCGAATTGCCGGCTCGGCCGGTGGCCATGGGGACCGCCCGCGAGCTGCCGCGCTGGCCAAAAAAGCCCCTGAGCATCCGCCCGCGCTCGGTCATGGGTGCGGATGCCAGGAGCAGACCCGGAGCCCTGCGCGGCGGACTTGGCGGCGCCCTGAGCCAGGGTGCGGAGGGCGCCATCCAATGGTTGCCGACCCTGCTGCGCGGACGTCCCCGACAGCGCCGCGACCTGCTTCGCCAGCCGCGCAGCCGGCGCCCGGGCGAACTCTGGCTGGTGATCGTCGATGCCTCCGCCAGCACCCGCCGGTACGGCGCCCTGGCCCAGGCCAAGGGAGTGTTGGCGACGCTGTTCGAGGAGGCTTATCGGCAGCGCATCCGCCTGGCCGTGCTGCATGCCACCGGGCAGCAGGCGCAATGGCTCTGGCAGGGGCAGAAGGCCTCGCGGGAGTTGCAGGACTGGCTGCGCCAGCTGGGCGCCGGCGGCGGTACGCCGCTGCTCGACGCCCTGCACCAGGCCGCTGGCTGGCTGGCGCGCCGACAGCGGCAGAAACCCGCCGAGCATCAGCGTCTGCTGGTGCTTACCGACGGCCGTCTGCGCGACTGGCCGGCGCTGCCGGAGGCTGCCTGCCCGAGCCTGCTGGTCGACCTCGAAAGCGGCCCGTTGCGCCTGGGCAAGGCCGAGCGCCTGGCCCGGGAACTGGGGGCCGAGTATCGGCATATCAGCGAATTGAACGAAGTCTGA</t>
+  </si>
+  <si>
+    <t>ATGAGCGCTACCGTGCATTACCCCCTGTCCGCCGTGGTCGCCGCCGACGAACTGAAGCTGGCGCTGTGCCTGGCCGCGGTCGATCCGGCGATCGGCGGGGTACTGATCGAGGGGCCGCGCGGAATGGCCAAGTCGACCCTGGCGCGGGGCGTCGCCGAACTGCTGCCGGCGGGCGAGTTCGTTACCCTGCCGCTGGGCGCCAGCGAGGAGCGCATCGTCGGCAGCCTCGACCTGGACGCCGCCCTCGGCGAAGGTCGCGCGCGGTTTTCCCCGGGCGTGCTGGCCAAGGCCGACGGCGGCGTGCTCTACGTCGACGAAGTGAACCTGCTGCCGGACCACCTGGTGGACTTGTTGCTCGACGTCGCCGCCAGCGGCGTCAACCTGGTCGAGCGCGATGGCATTTCCCACCGGCATCCGGCGCGTTTCGTGCTGATCGGCACGATGAACCCGGAAGAGGGCGAACTGCGCCCGCAACTGCTCGACCGTTTCGGCCTCAACGTGCGTCTCGACACCCAGCCGCCGCCGGCCGAGCGGGCAGAGATCATCCGTCGCCGGCTGGCCTTCGATGCCGACCCGCAGGCCTTCGTCGAACGCTGGGAAGGCCAGCAGGACACCCTGCGCCGCCGTTGCGCCGAGGCGCGCCGGCGGCTGGCGCGGATTCCCTTGGACGATGCGGCGCTGGACAGCATCGCTCGACGCTGCTTCGAGGCGGCTGTCGATGGCCTGCGCGCCGACCTGGTCTGGCTGCGCGCGGCGCGCGCCCATGCGGCCTGGCGCGGCGGCGAGCGGATCGAGGCGGAGGACATCGATGCGGTGGAACATTTCGCCCTGCTGCATCGCCGTCGCCAGTCGAACCCGCCACCATCGGCGGCCAATCCACCGCCACCGCCCGCGGCGGCCCCTGTCGCGCTCCCGGAGCGCACCGGCGACGGCGAAGGGCAGTGGGGCGAATTGCCGGCTCGGCCGGTGGCCATGGGGACCGCCCGCGAGCTGCCGCGCTGGCCAAAAAAGCCCTGA</t>
+  </si>
+  <si>
+    <t>ATGCAGCCCCATTTCCCCCTGGCCGCCGTGGTGGCCGCCGACGAGCTCAAGCTGGCGCTGTGCCTGGCCGCCATCGACCCGGCCCTGGGCGGCGTACTGATCGAAGGTCCGCGCGGCATGGCCAAGTCCACTCTGGCGCGCGGCGTGGCCGACCTGCTCGACGGCGGGCGCTTCGTCACCCTGCCGCTGGGCGCCAGCGAGGAACGCATCGTCGGCACCCTCGACCTCGATGCCGCGCTCGGCGAGGGCCGCGTGCGCTTCTCCCCTGGCGTACTGGCCAATGCCCACGGCGGCGTGCTCTACGTCGACGAGGTCAACCTGCTGCCCGACCACCAGGTCGACCTGCTGCTCGACGTGGCGTCCAGCGGCATCAACCACATCGAACGCGATGGCCTGTCGCACAGCCACCCGGCGCGCTTCGTGCTGATCGGCACCATGAACCCAGAGGAAGGCGAGCTGCGCCCGCAACTGCTCGACCGCTTCGGCCTCAAGGTCCAGCTCGGCGGCACACCCGAGCCAGCCCAACGCGCCGAGATCATCCGCCGCCGCCTAGCCTTCGACGACGCCCCCGCAGCCTTCCTCGCCCAATGGCAGAACGAGCAGGACGCCCTGCGCCAGCGCTGCATGGATGCCCGCCAGCGCCTGAACGACATCCCGCTGGACGACGCCAGCCTGGACGTCATCGCCCAGCGCTGCTTCGCCGCTGCCGTCGACGGCCTGCGCGCCGACCTGGTGTGGCTGCGCGGCGCTCGCGCCCATGCCGCCTGGCGTGGCGCCAGCCGAATCGAAGCGCAGGACATCGACGCCCTGGAGTCCTTCGTCCTCGCCCATCGCCGGCGCGAACACGCGCCACCCGCCGCCAACCAGCCATCGGCGCCAAACCAGTCGGAACAACAACCCGCGCAACAGGACCAGGGCGAAGGCCAGTGGGGCGCATTGCCGCCGCAGGCCGTGGCGGTCGGCGAACGGCGCGAGCCACCGAGCTGGCCAAAAAAGCCCCTGAGCATCCGCCCGCGCCAGGCCCCAGGCGCGGATGCCCTCCCCCAACCCGGCCAGGCCCAAGGTGGACGCAGCGGCGCACGCGGCAGCGGCACGCCCACGCGCATCGACTGGCCGGCGACCCTCGCCCACGGCCGCCCACGCCGCCGCGCCGACCTGCACTGGCACGCCCGCCGTCTGCGCCCCGGCGAGCTGTGGCTGGTGATAGTCGACGCCTCGGCCAGCACCCGCCGCCACGGCGCTTTGGCTCAGGCCAAGGGCCTGCTCGCCGAGCTGTTCGCCAGCGCCTACCGCCAGCGCGCACGCCTGGCCGTGCTCGAAGCCGGCGGCGCCCAGCCGCGCTGGCTGTGGCAGGGACACAAGGCCTCGCCTGAATTGCACGCCTGGCTGCAGCAACTCGGCGCTGGCGGCGGCACACCGATCATCGAAGCCCTGCAACTGGCCACGCCCTGGCTGCTGCGCCGGCAACGCCACAAACCGGGCGAACAACAGCGCCTGCTGCTGCTCACCGACGGCCGCCTGCGCGACTGGCCGCGGCTTACCGCGCTCCCCTGCCCCGGCCTGCTGCTGGACATCGAGCGCGCGCCCATCCGCCTCGGCCGCGCCCGCCAGCTGGCCTTTGAGCTGGGCGCCGACTACCACCATATCGACGAACTGGCGCCCGCCTCCCGCGCGCCCACCTGGAACAGACCATGA</t>
+  </si>
+  <si>
+    <t>ATGCAGCCCCATTTCCCCCTGGCCGCCGTGGTGGCCGCCGACGAGCTCAAGCTGGCGCTGTGCCTGGCCGCCATCGACCCGGCCCTGGGCGGCGTACTGATCGAAGGTCCGCGCGGCATGGCCAAGTCCACTCTGGCGCGCGGCGTGGCCGACCTGCTCGACGGCGGGCGCTTCGTCACCCTGCCGCTGGGCGCCAGCGAGGAACGCATCGTCGGCACCCTCGACCTCGATGCCGCGCTCGGCGAGGGCCGCGTGCGCTTCTCCCCTGGCGTACTGGCCAATGCCCACGGCGGCGTGCTCTACGTCGACGAGGTCAACCTGCTGCCCGACCACCAGGTCGACCTGCTGCTCGACGTGGCGTCCAGCGGCATCAACCACATCGAACGCGATGGCCTGTCGCACAGCCACCCGGCGCGCTTCGTGCTGATCGGCACCATGAACCCAGAGGAAGGCGAGCTGCGCCCGCAACTGCTCGACCGCTTCGGCCTCAAGGTCCAGCTCGGCGGCACACCCGAGCCAGCCCAACGCGCCGAGATCATCCGCCGCCGCCTAGCCTTCGACGACGCCCCCGCAGCCTTCCTCGCCCAATGGCAGAACGAGCAGGACGCCCTGCGCCAGCGCTGCATGGATGCCCGCCAGCGCCTGAACGACATCCCGCTGGACGACGCCAGCCTGGACGTCATCGCCCAGCGCTGCTTCGCCGCTGCCGTCGACGGCCTGCGCGCCGACCTGGTGTGGCTGCGCGGCGCTCGCGCCCATGCCGCCTGGCGTGGCGCCAGCCGAATCGAAGCGCAGGACATCGACGCCCTGGAGTCCTTCGTCCTCGCCCATCGCCGGCGCGAACACGCGCCACCCGCCGCCAACCAGCCATCGGCGCCAAACCAGTCGGAACAACAACCCGCGCAACAGGACCAGGGCGAAGGCCAGTGGGGCGCATTGCCGCCGCAGGCCGTGGCGGTCGGCGAACGGCGCGAGCCACCGAGCTGGCCAAAAAAGCCCTGA</t>
+  </si>
+  <si>
+    <t>ATGACCGAACACCACTTCCCCCTCGCTGCCGTGGTCGCCGCCGATGACCTGAAACTGGCGCTATGCCTGGCGGCCATCGATCCGGCGATTGGCGGCGTGCTGATCGAAGGGCCGCGCGGTATGGCCAAGTCGACCCTGGCCCGTGGCCTGGCCGACCTGCTGGCCAGCGGCACCTTTGTCACCCTGCCGCTGGGCGCCAGCGAGGAGCGCATCGTCGGCACCCTCGATCTGGACGCCGCCCTGGGCGAGAGCCGCGCGCAGTTCAGCCCCGGCTTGCTGGCCAAGGCCAATGGCGGCGTGCTGTATGTCGATGAGGTCAATCTGCTCCCCGATCATCTGGTCGATCTGCTGCTGGATGCCGCCGCCAGTGGAGTCAACCATATCGAGCGCGACGGCATCTCCCATCGGCATGCCGCGCGCTTTGTGCTGATCGGCACCATGAATGGCGAGGAAGGCGAGCTGCGCCCGCAGCTGCTGGATCGCTTCGGTCTTAACCTGGCGCTGAATGCCCAGCCGCAACCGGCGCAGCGCGCCGAGATCGTTCGCCGCCGGCTGGCCTTCGATGCCGATCCGCAGGCCTTTCTTGAGCGCTGGCAAGCGCAGCAGGATGAACTGCGTGAACGCTGCCAGAGCGCCCGTGCGCGACTAGCGGCGATTCCCCTGGATGACGCCGCCCTGGAGCAGATTAGCCAGCGTTGCTTCGCCGCCGCCGTCGATGGCCTGCGTGCCGATCTGGTCTGGCTGCGCGCCGCCCGTGCGCATGCCGCCTGGCGCGGCGTCGAGCGGATTGAAGCGGAGGATATCGACGCGGTGGCAGACTTCGTCCTACGTCATCGTCGCCGGCATACCCCGCCGCCTGCCGCGCAGCCGCCACAACCCCAGTCGTACGTTCAGCCCAGCCACGATAAGCCCAGCGAGCAGCCGCAAGGCGAAGGTCAATGGGGCGAATTACCCGCCCAGGCACAGAGCGCAGGCGTACGGCGTGAACCGCCGCGCTGGGCAAAAAAGCCCCTAGGCATCCGCCCGCGCACAGCCCCTGGCGCGGATGCCCGGGCCGCTCCCGGCCCACTCGGCAATGGTCGCAACGGCGCCATTCGCAGTGGCGCTGCGGGCCGTATCGACTGGCCGGCGAGCCTGCTTAAAGGCCGCCCGCGTACTCGACAGGATTTGCTGTTGCGTCCGCGCAGCGCCAAGCCGGCGGAACTCTGGCTGGTGATAGTCGATGCTTCGGCTTCGACCCGCCGCCATGGCGCGTTGAGCAAGGCCAAGGGGCTGCTTAGTGAAGTGTTCGAGCAGGCACGCCGCCAGCGCGCGCGCCTGGCCTTGCTGCATGCCACCGGCCGTCAGGCGCAATGGTTGTGGCAGGGGCAGAAAGCCTCCCGGGCCTTGCAAGATTGGCTCGCCGAGCTGGGCGCAGGCGGCGGCACGCCGTTGCTCGATGCGCTGCAGCAGGCTGCCGACTGGCAGGCGCGGCGGCAACGGCTGCACCCGGCCGAGCGTCAGCGTTTACTGATCATCACCGATGGCCGCCTGCGCGACTGGCCGGCGTTAAGCCCGAGCGCCTGCCCGGCGCTGCTGATGGATATCGAAAGCGCGCCGATCCGCCTCGGCCGCGCGCGCCAATTGGCCACCGAGCTGGGTGCCGACTACCGACATATCGATTCACTGCCGCTGTTAGCCGGCAGCCTGGAGACAAGCTTATGA</t>
+  </si>
+  <si>
+    <t>ATGACCGAACACCACTTCCCCCTCGCTGCCGTGGTCGCCGCCGATGACCTGAAACTGGCGCTATGCCTGGCGGCCATCGATCCGGCGATTGGCGGCGTGCTGATCGAAGGGCCGCGCGGTATGGCCAAGTCGACCCTGGCCCGTGGCCTGGCCGACCTGCTGGCCAGCGGCACCTTTGTCACCCTGCCGCTGGGCGCCAGCGAGGAGCGCATCGTCGGCACCCTCGATCTGGACGCCGCCCTGGGCGAGAGCCGCGCGCAGTTCAGCCCCGGCTTGCTGGCCAAGGCCAATGGCGGCGTGCTGTATGTCGATGAGGTCAATCTGCTCCCCGATCATCTGGTCGATCTGCTGCTGGATGCCGCCGCCAGTGGAGTCAACCATATCGAGCGCGACGGCATCTCCCATCGGCATGCCGCGCGCTTTGTGCTGATCGGCACCATGAATGGCGAGGAAGGCGAGCTGCGCCCGCAGCTGCTGGATCGCTTCGGTCTTAACCTGGCGCTGAATGCCCAGCCGCAACCGGCGCAGCGCGCCGAGATCGTTCGCCGCCGGCTGGCCTTCGATGCCGATCCGCAGGCCTTTCTTGAGCGCTGGCAAGCGCAGCAGGATGAACTGCGTGAACGCTGCCAGAGCGCCCGTGCGCGACTAGCGGCGATTCCCCTGGATGACGCCGCCCTGGAGCAGATTAGCCAGCGTTGCTTCGCCGCCGCCGTCGATGGCCTGCGTGCCGATCTGGTCTGGCTGCGCGCCGCCCGTGCGCATGCCGCCTGGCGCGGCGTCGAGCGGATTGAAGCGGAGGATATCGACGCGGTGGCAGACTTCGTCCTACGTCATCGTCGCCGGCATACCCCGCCGCCTGCCGCGCAGCCGCCACAACCCCAGTCGTACGTTCAGCCCAGCCACGATAAGCCCAGCGAGCAGCCGCAAGGCGAAGGTCAATGGGGCGAATTACCCGCCCAGGCACAGAGCGCAGGCGTACGGCGTGAACCGCCGCGCTGGGCAAAAAAGCCCTAG</t>
+  </si>
+  <si>
+    <t>ATGAACACCAGCAATCGACCGCATTTCCCGTTTTCCGCCGTACACGGCCAGCCGCAATTGCAGCTGGCGCTGCTGCTCGCTGCCATCGACCCGCAGATCGGCGGGGTGCTGATCGAAGGCCCGCGCGGCACCGCCAAATCCACCAGCGCCCGAGCCCTGGCCGACCTGTTGCCAAGCGGGCGTTTCGTCAACCTGCCGCTGGGCAGCAGCGAGGAACAGCTGGTCGGTTCGCTGGATATCCAGGCCGCGTTGCAGGACGGCCGCGTCGCGTTCAAGCCCGGCCTGCTGGCCCGCGCCGATGGCGGCGTGCTCTATGTCGACGAGGTCAACCTGCTCGCCGACGGACTGGTCGACCTGCTGCTAGATGTCTGCGCCAGCGGGGTCAACCGCATCGAGCGCGACGGCATTTCCCACCAGCACCAGGCGCGCATCGCCCTGGTCGGCACCATGAACCCGGAGGAGGGCGAGTTGCGCCCGCAGCTGCTGGATCGCTTCGGCCTGTTCGTGCGCCTCGGCCAGCAGATCGATGCCGCCACCCGCGAACGCATCGTGCGCAGCCGCCTGCAGTTCGACCGCGACCCGCTGGGCTTCATCGAGGCGCAACGTGATGAGCAGGAGCGCTTCAGCGAACGTCTGGAGCAGGCGCGGGCGACGGTGGCACGCCTGGAGTTCGGCGACGCGCTGCACCGCCAGGTCAGCGCGCTCTGCTATGCCGCCGGGGTGGAAGGGGTGCGCGCCGATCTGGTGCTGCTGCGCGCCGCCTGCGCCCATGCTGCCTGGCAGCAGCGCGATGAAATAGGCGCGGCGGATGTCGAGGCGGTGGCCGAGCTGGTATTGGCGCATAGACGCAAGCATCCGCCAGAGCCGCCGCAACCGCCCGCCCAGGAGAATGCAGGTGGTGCTGCCAACGACCAGCCACCGCCCAATGGCGGCAGCGACTGGGGCGAATTGCCGCCGCAGCCCGTGCCGACCCAGAGCCTCGTCGGGGCGAGGCCGCTGCCGCTAAAAAAGTCCCTGAGCCAACGGCCTGCAAGCGGGCCGCTGGCGGGCAAAGGGCAGCAGGCCGGGCGGGTGAGGGCGATGGGCACGGCGCCGAGCCCACGTATCCATTGGCCGCGTACCTTGCTGAACAAGCGGGCTGCGCCGCTGCTGATGGAGCACCTGCACTTCCACCGTCAGGCGGCCGAGGATGGCCTGCTGCATTGCCTGTTGCTCGACTGTTCCGGCTCGATGCTCAAGCGCAGCAACCTGGCCCTGGCCAAGGGCCTGCTGCTGCGTTGGAGCGAGCAGATCTACCGGCAACGCGGCGAGCTGGCGGTGATCGGCTTTGCCGGCAACCAGGCGCGGCTGCTGCAACGCCCGCAAAAGGCCGTGCCCCACAACGAGGCCTGGATAGCCGCGATCGGCGGTGGCGGCGGCTCGCCGCTGGCCGGCGGGCTGCAGCTGGCCGAGCGCACCCTGGCCAAGGTACGCAAATCCGCGCCGGGCAAACAGATCGGCCTGTGGCTGCTCAGCGACGGGCGCTTCAGCCAACTGCCGGCGCGCCCGCGGCATGCCGATTTCTGCGTGGTGGTGGATTTCGAGAACCAGCCGCTGCCGCTCGGCCGCGCCGTGCAGCTCGCCCGCCTGTGGGGCGCCGAGCATGTGCGCGCGGTGGATCTGTGTGGCGCCCAATAG</t>
+  </si>
+  <si>
+    <t>ATGAACACCAGCAATCGACCGCATTTCCCGTTTTCCGCCGTACACGGCCAGCCGCAATTGCAGCTGGCGCTGCTGCTCGCTGCCATCGACCCGCAGATCGGCGGGGTGCTGATCGAAGGCCCGCGCGGCACCGCCAAATCCACCAGCGCCCGAGCCCTGGCCGACCTGTTGCCAAGCGGGCGTTTCGTCAACCTGCCGCTGGGCAGCAGCGAGGAACAGCTGGTCGGTTCGCTGGATATCCAGGCCGCGTTGCAGGACGGCCGCGTCGCGTTCAAGCCCGGCCTGCTGGCCCGCGCCGATGGCGGCGTGCTCTATGTCGACGAGGTCAACCTGCTCGCCGACGGACTGGTCGACCTGCTGCTAGATGTCTGCGCCAGCGGGGTCAACCGCATCGAGCGCGACGGCATTTCCCACCAGCACCAGGCGCGCATCGCCCTGGTCGGCACCATGAACCCGGAGGAGGGCGAGTTGCGCCCGCAGCTGCTGGATCGCTTCGGCCTGTTCGTGCGCCTCGGCCAGCAGATCGATGCCGCCACCCGCGAACGCATCGTGCGCAGCCGCCTGCAGTTCGACCGCGACCCGCTGGGCTTCATCGAGGCGCAACGTGATGAGCAGGAGCGCTTCAGCGAACGTCTGGAGCAGGCGCGGGCGACGGTGGCACGCCTGGAGTTCGGCGACGCGCTGCACCGCCAGGTCAGCGCGCTCTGCTATGCCGCCGGGGTGGAAGGGGTGCGCGCCGATCTGGTGCTGCTGCGCGCCGCCTGCGCCCATGCTGCCTGGCAGCAGCGCGATGAAATAGGCGCGGCGGATGTCGAGGCGGTGGCCGAGCTGGTATTGGCGCATAGACGCAAGCATCCGCCAGAGCCGCCGCAACCGCCCGCCCAGGAGAATGCAGGTGGTGCTGCCAACGACCAGCCACCGCCCAATGGCGGCAGCGACTGGGGCGAATTGCCGCCGCAGCCCGTGCCGACCCAGAGCCTCGTCGGGGCGAGGCCGCTGCCGCTAAAAAAGTCCTGA</t>
+  </si>
+  <si>
+    <t>ATGCAACCGCACTTCCCCCTCGCCGCCGTGGTCGCCGCCGACGACCTGAAACTGGCGCTGTGCCTGGCCGCCATCGACCCGGCCATCGGCGGGGTGCTGATCGAGGGCCCGCGCGGCATGGCCAAGTCGACTCTGGCCCGCGGCGTGGCCGACCTGCTCGACGGCGGGCGCTTCGTCACCCTGCCGCTGGGCGCCAGCGAGGAACGCATCGTCGGCACCCTGGACCTCGACGCCGCCCTGGGCGAGGGTCGCGCGCGCTTCTCCCCGGGCATCCTGGCCAATGCCGACGGCGGCGTGCTCTACGTCGACGAGGTGAACCTGCTGCCCGACCACCTGGTGGACCTGCTGCTGGACGTGGCCGCCAGCGGCGTCAACCATGTCGAGCGCGACGGCCTGTCCCACAGCCACCCGGCGCGCTTCGTGCTGATCGGCACCATGAACCCCGAGGAAGGCGAACTGCGCCCGCAGTTGCTGGACCGCTTCGGCCTCAAGGTCGAGCTGGGCGGCACGCCGCCGCCGGCCGAGCGCGCCGAGATCGTCCGCCGCCGCCTGGCCTTCGACGCCGACCCACAGGCCTTCCTCGGCCACTGGCAGGCCGAGCAGGACGCCCTGCGCCAACGCTGCGCCCAGGCCCGCCAGCGTCTTCCCGGCATCCCCCTGGACGATGCCGCGCTGCAGGCCATCGCCGAGCGCTGCTACGCCGCCGGGGTGGACGGCCTGCGCGCCGACCTGGTCTGGCTGCGCGGCGCCCGCGCCCATGCCGCCTGGCGCGGCGCCGAGCGCATCGCGACGGAGGATATCGACGCCCTGGAGCCCTTCGCCCTCGCCCACCGCCGCCACCATGCGCCGCCACCGCCAGCGCAGCCGCAGGCCCCCCAGGCCCCGGCCGCCAACCAGCCCGAACAAGGCGCGCAGAACGAAGGCCAGTGGGGCGAACTGCCGCCCCGCGCCGTGCCCACCGGCGCCACCCGCGAACTGCCGAGCTGGCCAAAAAAGCCCCTGAGCATCCGCCCACGCCCGGCCCCAGGCGCGGATGCCAGCCCCACACCCGGCCAACTCGCCGGCGGCCGCAGCGGCGCCCGCCGGCACGGCGCGCAGCCGCGCGTCGATTGGCCAGCCAGCTTCCTGCGCGGGCGCCCGAAGAAGCGTGACGACCTGGTGCTGCGCGCCCGCAGCGCCAAGCCCCGCGAACTCTGGCTGGTGATCGTCGACGCCTCGGCCAGCACCCGCCGGCACGGCGCCCTGGGCCAGGCCAAGGGCCTGCTGGCGGAAGTCTTCGAGCAGGCCTACCGGCAACGCGCGCGCCTGGCCGTGCTGCATGCCGCGGGGCGGCAGCCGCGCTGGCTGTGGCAGGGGCAGAAGGCTTCGGCGCAGTTGCGCGACTGGCTGCATGAACTGGGCGCTGGCGGCGGCACACCGCTGCCCGAGGCGCTGGCCCAGGCCGCCGACTGGCTGCAGCAGCGCCAGCGCCACCAGCCCGGCGAACGCCAGCGCCTGCTGATCGTCACCGACGGCCGCCTGAGCGACTGCCCGCCCCTGGCGCCGCTGCCCTGCGCCAGCCTGCTGGTGGACATCGAGAGCGGCCCCGTGCGCCTGGGCCGCGCCCAGCAGCTGGCCGCGAACCTCGGCGCCGAATACCGCGCCATCGGCGACCTGCCCCTGCGCTGA</t>
+  </si>
+  <si>
+    <t>ATGCAACCGCACTTCCCCCTCGCCGCCGTGGTCGCCGCCGACGACCTGAAACTGGCGCTGTGCCTGGCCGCCATCGACCCGGCCATCGGCGGGGTGCTGATCGAGGGCCCGCGCGGCATGGCCAAGTCGACTCTGGCCCGCGGCGTGGCCGACCTGCTCGACGGCGGGCGCTTCGTCACCCTGCCGCTGGGCGCCAGCGAGGAACGCATCGTCGGCACCCTGGACCTCGACGCCGCCCTGGGCGAGGGTCGCGCGCGCTTCTCCCCGGGCATCCTGGCCAATGCCGACGGCGGCGTGCTCTACGTCGACGAGGTGAACCTGCTGCCCGACCACCTGGTGGACCTGCTGCTGGACGTGGCCGCCAGCGGCGTCAACCATGTCGAGCGCGACGGCCTGTCCCACAGCCACCCGGCGCGCTTCGTGCTGATCGGCACCATGAACCCCGAGGAAGGCGAACTGCGCCCGCAGTTGCTGGACCGCTTCGGCCTCAAGGTCGAGCTGGGCGGCACGCCGCCGCCGGCCGAGCGCGCCGAGATCGTCCGCCGCCGCCTGGCCTTCGACGCCGACCCACAGGCCTTCCTCGGCCACTGGCAGGCCGAGCAGGACGCCCTGCGCCAACGCTGCGCCCAGGCCCGCCAGCGTCTTCCCGGCATCCCCCTGGACGATGCCGCGCTGCAGGCCATCGCCGAGCGCTGCTACGCCGCCGGGGTGGACGGCCTGCGCGCCGACCTGGTCTGGCTGCGCGGCGCCCGCGCCCATGCCGCCTGGCGCGGCGCCGAGCGCATCGCGACGGAGGATATCGACGCCCTGGAGCCCTTCGCCCTCGCCCACCGCCGCCACCATGCGCCGCCACCGCCAGCGCAGCCGCAGGCCCCCCAGGCCCCGGCCGCCAACCAGCCCGAACAAGGCGCGCAGAACGAAGGCCAGTGGGGCGAACTGCCGCCCCGCGCCGTGCCCACCGGCGCCACCCGCGAACTGCCGAGCTGGCCAAAAAAGCCCTGA</t>
+  </si>
+  <si>
+    <t>ATGACCCACACCCCCCATTTCCCGCTCTGCGCCGTGGTCGGTGCCGATGATCTGAAACTGGCCCTGTGCCTGGCCGCGATCGACCCAAAAATCGGCGGTGTGCTGATCGAAGGGCCGCGGGGCATGGCCAAGTCCACGTTGGCCCGGGGCCTGGCGGACCTGCTGGCCAGCGGTCAGTTCGTCACCTTGCCCCTCGGTGCTACCGAAGAGCGGCTGGTGGGTACCCTGGACCTGGACGCCGCGCTGGGGGAAGGGCGCGCGCAGTTTTCTCCCGGCGTGTTGGCCAAGGCCGACGGTGGCGTGCTGTACGTCGATGAAGTGAACCTGCTGCCCGATCACCTGGTGGACTTGCTGCTCGATGTGGCCGCCAGCGGTATCAACCTGATCGAGCGCGACGGCATTTCCCATCGGCATCCGGCGCGCTTTGTGCTGATCGGCACCATGAACCCGGAGGAGGGTGAGTTGCGCCCGCAGTTGCTCGACCGTTTTGGCTTGAACGTCGCCCTCGACGGTCACACCGCACCGGCTGAGCGCGGCCAGATCATCCGGCGGCGGCTGGATTTCGACAGCGATTCACTGGCGTTCTGCGCGGCGTGGGAGACGGCCCAGCAGCAGTTGCGTGACCGTTGCCAACAGGCACGCGACCGCTTGGCCGGGATCGCCCTGGATGATGCGGCGCTGGTGCAGATCACCGAGCGCTGTTTTGCCGCTGGGGTCGATGGCTTGCGCGCCGACCTGGTCTGGCTTCGGGCGGCCCGGGCCCATGCGGCCTGGCGCGGGGCCGGCGCGATAGCCGATGAAGACATCGATGCGGTCGCCGAATTTGCCTTGCGTCACCGACGGCGCGGGCATTCGGCACCAGCACCAGCACCGTCCCAGGCGCCGACGGGGGCGGAAAAAACCGTTGAACCCAACGAAGAAGGCCAGGGCCAGTGGGGCGACCTGCCGGCCCGGGCATTGCCGACCGGTGCCCGGCGTGACGTGCCGAGCTGGCCAAAAAAGCCCCTAGGCATTCGCCCCCGTTCGCCGGCGGGGGCGAATGCCAGACCCCGTGCAGGACGACTCGACCAGGGCCGCCAGGGCCGCAGCAAAGCGGCGGCCAGCGGTGCGGTGAACTGGCCGGGGACGTTGCTCAATGGCCGGCCACGTCTGTACGAAGACCTGCGCTTTCACAGTCGCCAGCGTTCGCCCCATGAGTTGTGGCTGGTCATCGTCGATGCGTCGGCCTCGACCCGGCGTCATCGCGCCTTGAGTGACGGCAAGGGCCTGCTGGCGCAGTTGTTCGACGACGCCTACCGACAACGCGCCCGCCTGGCGCTGTTGACGGCCAGCGGCACGTTCCCCAATTGGCAGGTGCAAGGCCTCAAGGCCTCGGCGGGCCTGCGCGACTGGCTCGATGGGCTGGGCGCCGGTGGCGGAACGCCGATGCTGGCGGCGCTGAACGAGGCCGGGCGCTGGCTGGTGGCCCGGCGCAAGCGCTATCCGGCGGAACAGCAGCGGGTGCTGGTGATGACCGATGGGCGGGTCAAGGAGGGGCTTTCACCGCCGCTCCTCGATTGCCCGTGCCTGTTGATCGACATCGAAAGAGGCCCGATCCGCCTGGGCCGGGCCCGGCAGTTGGCGGGGCGGTTGGGGGCTGAGTATCGGCATATTGATGAAACCACTTGA</t>
+  </si>
+  <si>
+    <t>ATGACCCACACCCCCCATTTCCCGCTCTGCGCCGTGGTCGGTGCCGATGATCTGAAACTGGCCCTGTGCCTGGCCGCGATCGACCCAAAAATCGGCGGTGTGCTGATCGAAGGGCCGCGGGGCATGGCCAAGTCCACGTTGGCCCGGGGCCTGGCGGACCTGCTGGCCAGCGGTCAGTTCGTCACCTTGCCCCTCGGTGCTACCGAAGAGCGGCTGGTGGGTACCCTGGACCTGGACGCCGCGCTGGGGGAAGGGCGCGCGCAGTTTTCTCCCGGCGTGTTGGCCAAGGCCGACGGTGGCGTGCTGTACGTCGATGAAGTGAACCTGCTGCCCGATCACCTGGTGGACTTGCTGCTCGATGTGGCCGCCAGCGGTATCAACCTGATCGAGCGCGACGGCATTTCCCATCGGCATCCGGCGCGCTTTGTGCTGATCGGCACCATGAACCCGGAGGAGGGTGAGTTGCGCCCGCAGTTGCTCGACCGTTTTGGCTTGAACGTCGCCCTCGACGGTCACACCGCACCGGCTGAGCGCGGCCAGATCATCCGGCGGCGGCTGGATTTCGACAGCGATTCACTGGCGTTCTGCGCGGCGTGGGAGACGGCCCAGCAGCAGTTGCGTGACCGTTGCCAACAGGCACGCGACCGCTTGGCCGGGATCGCCCTGGATGATGCGGCGCTGGTGCAGATCACCGAGCGCTGTTTTGCCGCTGGGGTCGATGGCTTGCGCGCCGACCTGGTCTGGCTTCGGGCGGCCCGGGCCCATGCGGCCTGGCGCGGGGCCGGCGCGATAGCCGATGAAGACATCGATGCGGTCGCCGAATTTGCCTTGCGTCACCGACGGCGCGGGCATTCGGCACCAGCACCAGCACCGTCCCAGGCGCCGACGGGGGCGGAAAAAACCGTTGAACCCAACGAAGAAGGCCAGGGCCAGTGGGGCGACCTGCCGGCCCGGGCATTGCCGACCGGTGCCCGGCGTGACGTGCCGAGCTGGCCAAAAAAGCCCTAG</t>
+  </si>
+  <si>
+    <t>ATGACCGACACCGTCCATTTCCCCCTCGCCGCCGTGGTCGGCGCCGACTCCCTGAAATTGGCGCTGTGCCTGGTGGCGGTCGATCCGGCGATCGGCGGCGTGCTGATCGAAGGCCCGCGGGGCATGGCCAAGTCGACCCTGGCCCGCGGCCTGGCCGCGCTGCTGGAAAGCGGCGTGTTCGTCACCCTGCCGCTAGGCGCCAGCGAAGAGCGCATCGTCGGTACCCTCGACCTGGACGCGGCCCTGGGCGAAAGCCGCGCGCAGTTCTCGCCGGGCCTGCTGAGCAAGGCTCATGGCGGCGTGCTGTACGTCGATGAGGTCAACCTGCTGCCCGATCATCTGGTCGACCTGCTGCTCGATGCGGCGGCCAGCGGCGTCAACCACGTCGAGCGCGACGGCATTTCCCACCGCCACGCTGCGCGCTTCGTCCTGATCGGCACCATGAACGCCGAAGAAGGCGAGCTGCGCCCGCAACTGCTCGACCGCTTCGGCCTCAACCTGGCCCTGGATGGCCAGCCGCAGCCGGGAGCGCGCGCCGAGATCGTCCGCCGTCGCCTGGCCTTCGATGCCGACCCCCAGGCGTTCGTTGCCAGGTGGGCCGAGCAGCAGCAGGCCCTGGCCGCGCGCTGCGGGCAGGCGCGCGCGCGCGTGGCGAGCATCGCCCTCGATGACCGGGCGCTCGACGCGATCACCGAGCGCTGCTTCGCCGCTGGCGTCGATGGCCTGCGTGCCGATCTGGTCTGGCTGCGCGCCGCCCGCGCCCATGCCGCCTGGCGCGGCGCCGACGCCATCGGCGAGGAAGATATCGAGGCCGTGGCCGACTTCGTGCTGCGCCACCGTCGTCGCCACACGCCGCCGCAGCAACAGGCGCAACCGCCAGCCAGCCCGCCGCCCCAGGCGCCGAGCGAACAACCCGCTGCAGGCGAAGGGCAGTGGGGCGAGCTGCCCGCGCAAACGCAAAATACCGGCGAGCGCCGCGAGCCGCCGCGCTGGGCAAAAAAGCCCCTAGGCATTCCCCCGCGCGCCAAGGCGGGGACGGATGCCAGACCGACACCAGGCAAACAGGCAGGCGGGCGCAGCGGAGCCAAGCGGCGCGGCGACAGCGGCGCCATCGACTGGCTCGCCACCTTGCTGCAAGGCAAGCCCAGGCGTCGTGCCGACCTGCAACGTCGACCGCGCAGCAATGCACCTACACAGCTTTGGCTGATCGTCGTCGATGCTTCGGCCTCCACCCGTCGCCACGGCGCCCTGAGCAAGGCCAAGGGCCTGCTCGCCGAGCTGTTCGAGCGGGCCTACCGGGAGCGTGCCCGCATCGCCGTGCTCGACGCCCACGGCGCGCAGCCGCAATGGCACTGGCAGGGCCAGAAAGCCTCTGGCGCTCTACAAGGCTGGTTGAGCGACCTCGGCGCAGGCGGTGGCAGCCCGCTGATCCCGGCGCTGCAGCAGGCCCACGACTGGCTGCAGCGCCGGCAACGCCTCAAGCCGAGCGAGGCGCGACGCCTGCTGGTGGTCACGGATGGGCGTTTGCGCGAATGGCCGGCGCTGGCGCCCAGCCCATGCCCGGCCACCCTGGTGGATATCGAGTGCGCGCCGATCCGTCTGGGGCGTGCCGTGCAACTGGCGGGTGAGCTGGGTGCGGATTACTGCCACATTGAGGCCATACCTCTCACGGAAGACAGCTACCGCTAG</t>
+  </si>
+  <si>
+    <t>ATGACCGACACCGTCCATTTCCCCCTCGCCGCCGTGGTCGGCGCCGACTCCCTGAAATTGGCGCTGTGCCTGGTGGCGGTCGATCCGGCGATCGGCGGCGTGCTGATCGAAGGCCCGCGGGGCATGGCCAAGTCGACCCTGGCCCGCGGCCTGGCCGCGCTGCTGGAAAGCGGCGTGTTCGTCACCCTGCCGCTAGGCGCCAGCGAAGAGCGCATCGTCGGTACCCTCGACCTGGACGCGGCCCTGGGCGAAAGCCGCGCGCAGTTCTCGCCGGGCCTGCTGAGCAAGGCTCATGGCGGCGTGCTGTACGTCGATGAGGTCAACCTGCTGCCCGATCATCTGGTCGACCTGCTGCTCGATGCGGCGGCCAGCGGCGTCAACCACGTCGAGCGCGACGGCATTTCCCACCGCCACGCTGCGCGCTTCGTCCTGATCGGCACCATGAACGCCGAAGAAGGCGAGCTGCGCCCGCAACTGCTCGACCGCTTCGGCCTCAACCTGGCCCTGGATGGCCAGCCGCAGCCGGGAGCGCGCGCCGAGATCGTCCGCCGTCGCCTGGCCTTCGATGCCGACCCCCAGGCGTTCGTTGCCAGGTGGGCCGAGCAGCAGCAGGCCCTGGCCGCGCGCTGCGGGCAGGCGCGCGCGCGCGTGGCGAGCATCGCCCTCGATGACCGGGCGCTCGACGCGATCACCGAGCGCTGCTTCGCCGCTGGCGTCGATGGCCTGCGTGCCGATCTGGTCTGGCTGCGCGCCGCCCGCGCCCATGCCGCCTGGCGCGGCGCCGACGCCATCGGCGAGGAAGATATCGAGGCCGTGGCCGACTTCGTGCTGCGCCACCGTCGTCGCCACACGCCGCCGCAGCAACAGGCGCAACCGCCAGCCAGCCCGCCGCCCCAGGCGCCGAGCGAACAACCCGCTGCAGGCGAAGGGCAGTGGGGCGAGCTGCCCGCGCAAACGCAAAATACCGGCGAGCGCCGCGAGCCGCCGCGCTGGGCAAAAAAGCCCTAG</t>
+  </si>
+  <si>
+    <t>ATGAGTGACACCCCGCATTTCCCGCTGTCGGCAGTGGTCGCTGCCGACGCGCTGAAACTGGCGCTGTGCCTGACCGCCATCGACCCGAAAATCGGCGGCGTGCTGATCGAAGGCCCGCGCGGCATGGCCAAGTCGACCCTGGCCCGTGGCCTGGCCGACCTGTTGGCCAGCGGACAGTTCGTCACCTTGCCGCTGGGCGCCACCGAGGAACGCCTGGTAGGCACCCTGGATCTGGATGCCGCGCTGGGCGAGGGTCGGGCACAGTTTTCTCCCGGCGTGCTGGCCAAGGCCGACGGCGGTGTGTTGTACGTCGATGAAGTGAACCTGCTGGCCGATCACCTGGTGGACCTGCTGCTCGATGTGGCGGCCAGTGGCACCAACCTGGTGGAGCGCGACGGCATTTCCCATCGCCATCCGGCGCGCTTCGTGCTGATTGGCACGATGAACCCCGAGGAAGGCGAGTTGCGGCCGCAACTGCTCGACCGTTTCGGCCTGAATGTCGCCTTGAGTGGCCAGCCTGAACCGGTCGAGCGCAGGCAGATCATTCGTCGGCGGCTGGATTTCGACAGCGACCCGCAAGCTTTCTGTGTCCAGTGGGAGACGCAACAACAGGCGTTGCGCGAGCGTTGCGAGCGCGCGCGGGTGCTGTTGCCGGTCATTGACCTGGATGAGCGGGCGATGACAGCGATCAGTGAACGCTGTTTTGCCGCCGGGGTCGATGGCCTGCGGGCTGACCTGGTCTGGCTGCGCGCGGCGCGGGCCCATGCCGCCTGGCGTGGCGCGCGGCAGATCGCCGATGAGGACATCGAGGCGGTTGCCGAGTTTGCCTTGCGTCACCGGCGTCGTGAGCCTTCGCCAGCGACCTCGGCGAGCAGTCCTGCCAGCACGCCTGAAACTCAGCCCGATCCGGCCCAGGGTACGGAGCAGCCTCAAGGGCAATGGGGTGAGTTGCCGGCCAAGGCCATGGCGGTAGGCGCGCGGCGAGACATTCCGAGCTGGCCAAAAAAGCCCCTAGGCATTCGCCCTCGATTCAAACCGGGGGCGAATGCCAGAAACGCTGCAGGTGAGGTTCCCAGAGGGCGCCAGGGCGCGGCCCGGGCGGCGGTGAGCGGGGCAATCAATTGGGTTGAGACCTTGCTCGGGGGGCGCCCCCAAACCCGCCGCGACCTGCGTTTTCATCTGCGCAGCAGTTCGCCCCATGAGTTGTGGCTGGTGATTGTCGATGCTTCGGCTTCTACTCGTCGGCATCGGGCCTTGAGTGATGCCAAGGGACTGTTGGCGCAGTTGTTCGATGACGCCTATCGCCAGCGTGCGCGACTGGCGCTGTTGACTGTCAGCGGCAGTCGGCCGCAGTGGCAGGTGCAGGGGCTGAAGGCCTCCAGCGCCATGGCTGAGTGGTTGGACGGCCTGGGGGCGGGCGGAGGAACGCCATTGCTCGCGGCCTTGCAGGAGGCCGGTCGTTGGCTGGCGGTACGGCAGAAACGTTTTGCCCAGGAACAGCAGCGAGTACTGGTGTTGACCGATGGGCGGTTGAAAGCCTGGACCGGATTGGCGCCTTTCAACTGTCCGGCGCTATTGGTCGATTTGGAAAAGGGGCCTATTCGGCTGGGGCGGGCGCAACAACTGGCCCATGAACTGGGGGCCGATTATCGGCATATCGAGAGGCTTTGA</t>
+  </si>
+  <si>
+    <t>ATGAGTGACACCCCGCATTTCCCGCTGTCGGCAGTGGTCGCTGCCGACGCGCTGAAACTGGCGCTGTGCCTGACCGCCATCGACCCGAAAATCGGCGGCGTGCTGATCGAAGGCCCGCGCGGCATGGCCAAGTCGACCCTGGCCCGTGGCCTGGCCGACCTGTTGGCCAGCGGACAGTTCGTCACCTTGCCGCTGGGCGCCACCGAGGAACGCCTGGTAGGCACCCTGGATCTGGATGCCGCGCTGGGCGAGGGTCGGGCACAGTTTTCTCCCGGCGTGCTGGCCAAGGCCGACGGCGGTGTGTTGTACGTCGATGAAGTGAACCTGCTGGCCGATCACCTGGTGGACCTGCTGCTCGATGTGGCGGCCAGTGGCACCAACCTGGTGGAGCGCGACGGCATTTCCCATCGCCATCCGGCGCGCTTCGTGCTGATTGGCACGATGAACCCCGAGGAAGGCGAGTTGCGGCCGCAACTGCTCGACCGTTTCGGCCTGAATGTCGCCTTGAGTGGCCAGCCTGAACCGGTCGAGCGCAGGCAGATCATTCGTCGGCGGCTGGATTTCGACAGCGACCCGCAAGCTTTCTGTGTCCAGTGGGAGACGCAACAACAGGCGTTGCGCGAGCGTTGCGAGCGCGCGCGGGTGCTGTTGCCGGTCATTGACCTGGATGAGCGGGCGATGACAGCGATCAGTGAACGCTGTTTTGCCGCCGGGGTCGATGGCCTGCGGGCTGACCTGGTCTGGCTGCGCGCGGCGCGGGCCCATGCCGCCTGGCGTGGCGCGCGGCAGATCGCCGATGAGGACATCGAGGCGGTTGCCGAGTTTGCCTTGCGTCACCGGCGTCGTGAGCCTTCGCCAGCGACCTCGGCGAGCAGTCCTGCCAGCACGCCTGAAACTCAGCCCGATCCGGCCCAGGGTACGGAGCAGCCTCAAGGGCAATGGGGTGAGTTGCCGGCCAAGGCCATGGCGGTAGGCGCGCGGCGAGACATTCCGAGCTGGCCAAAAAAGCCCTAG</t>
+  </si>
+  <si>
+    <t>ATGCATGAACCCGTGAACTTCCCGCTGGCCGCGGTGGTCGGTGCCGACGCGCTGAAGCTGGCGCTGTGCCTGGCGGCGGTCGATCCGGCCATCGGCGGCGTGCTGATCGAAGGCCCGCGCGGCATGGCCAAGTCGACCCTGGCGCGCGGCGTGGCCGAGCTGCTGGAGGCCGGCCAGCTGGTCACCCTGCCGCTGGGCGCCACCGAGGAACGCATCGTCGGCACCCTCGATCTGGACGCCGCACTCGGCGAGGGTCGCGCGCGCTTCGCGCCGGGCCTCTTGGCGCGCGCCCATGGCGGCGTGCTCTACGTCGACGAGGTCAACCTGCTGGCCGACCATCTGGTCGACCTGCTGCTCGACGTGGCGGCCAGCGGGGTCAACCACGTCGAGCGCGATGGCATCTCGCACCGCCACGCCGCGCGCTTCGTGCTGATCGGCACCATGAACCCGGAGGAGGGCGAGCTGCGCCCGCAGCTGCTCGACCGCTTCGGCCTCGCCGTCAGCCTTGGCGGCACACCGCTGCCGGCCGAGCGCACCGAGATCGTCCGCCGCCGCCTGGACTTCGACCGCGACCCCGAGACTTTCCGCGCCCGCTGGCAGGCGGCGCAGGACGCGCTGCAGGCGCGCTGCCGGCAGGCCCGCAAGTCGCTGGAAGCGATCCCGCTGGACGATGCAGCGCTGGAAGCCATCGCCGCACGCTGCTACGCCGCCGGCATCGACGGCCTGCGCGGCGATCTGGTCTGGCTGCGCGCCGCCCGTGCCCACGCCGCCTGGCGCGGCGCCGCGGCCATCGCCCCGGAGGACATCGACACCGTGCAGGACTTCGTGCTGCGCCATCGCCATCCGCACGGCCCGGCCGCCGCGCCACCGCCGCAGTCGAACGATAGCGCCGCCGCCCCGCAGAACGATGCGGGCGGTCAGAGTGGCGAGCGCGACCCCGGCGAAGGCCAGTGGGGCGAGTTGCCGGCGCAGCCGGTGGCCATCGGCGAGCGCCGCGCGCCGCCGCGCTGGCCAAAAAAGCCCCTGAGCATCCGCCCGCAACCCGCCCGGGGCGCGGATGCCAGACACCGGGACAAGCCCCAGCCGACCCCGCGTGGCCGCGCCGGTGCGTCCGGCCCCGGCCGCATCGACTGGCCGCGCAGCCTGCAGCGCGGCCGGCCGCGCTCGCGCGCCGAACTGCACTACCGCAGCCGCGTGAGTGCTGCGCCAGCGCTATGGCTGATCGTCGTCGACGCCTCGGCCTCGACCCGCCGCCACGGCGCCCTGCGCCGCGCCAAGGGCCTGCTCGCCGAACTGCTCGACCAGGCGTGCCGCCGCCGCGTGGCACTGGCCCTGCTGCAGGCGGACGGCGCAAAACCGCGCTGGTTCTGCCAGGGCCAGCGTGCCCCGCAGGCCGCGCGGCACTGGCTGCAGCAGCTCGGCGCCGGCGGCGGCACGCCATTGCCCGCCGCGCTGGCCGAGGCCGGCGAATGGCTGGCGCGCCGGCAACGCCGCCATCCCGGCGAGCGCCAGCAGCTCTGGCTGCTCACCGACGGCCGCCTGCGCGAGCTGCCGGCGCTGGCGCCCGCCGCCTGCCCGGCGCTGCTGATCGACATCGAGAGCGGCCCGCTGCGCCTCGGGCGGGCGAGGGCGCTGGCGGCGGCATTGGGCGCCGAATACCGGCATATCGACGAGATCCCGCTGGCATGA</t>
+  </si>
+  <si>
+    <t>ATGCATGAACCCGTGAACTTCCCGCTGGCCGCGGTGGTCGGTGCCGACGCGCTGAAGCTGGCGCTGTGCCTGGCGGCGGTCGATCCGGCCATCGGCGGCGTGCTGATCGAAGGCCCGCGCGGCATGGCCAAGTCGACCCTGGCGCGCGGCGTGGCCGAGCTGCTGGAGGCCGGCCAGCTGGTCACCCTGCCGCTGGGCGCCACCGAGGAACGCATCGTCGGCACCCTCGATCTGGACGCCGCACTCGGCGAGGGTCGCGCGCGCTTCGCGCCGGGCCTCTTGGCGCGCGCCCATGGCGGCGTGCTCTACGTCGACGAGGTCAACCTGCTGGCCGACCATCTGGTCGACCTGCTGCTCGACGTGGCGGCCAGCGGGGTCAACCACGTCGAGCGCGATGGCATCTCGCACCGCCACGCCGCGCGCTTCGTGCTGATCGGCACCATGAACCCGGAGGAGGGCGAGCTGCGCCCGCAGCTGCTCGACCGCTTCGGCCTCGCCGTCAGCCTTGGCGGCACACCGCTGCCGGCCGAGCGCACCGAGATCGTCCGCCGCCGCCTGGACTTCGACCGCGACCCCGAGACTTTCCGCGCCCGCTGGCAGGCGGCGCAGGACGCGCTGCAGGCGCGCTGCCGGCAGGCCCGCAAGTCGCTGGAAGCGATCCCGCTGGACGATGCAGCGCTGGAAGCCATCGCCGCACGCTGCTACGCCGCCGGCATCGACGGCCTGCGCGGCGATCTGGTCTGGCTGCGCGCCGCCCGTGCCCACGCCGCCTGGCGCGGCGCCGCGGCCATCGCCCCGGAGGACATCGACACCGTGCAGGACTTCGTGCTGCGCCATCGCCATCCGCACGGCCCGGCCGCCGCGCCACCGCCGCAGTCGAACGATAGCGCCGCCGCCCCGCAGAACGATGCGGGCGGTCAGAGTGGCGAGCGCGACCCCGGCGAAGGCCAGTGGGGCGAGTTGCCGGCGCAGCCGGTGGCCATCGGCGAGCGCCGCGCGCCGCCGCGCTGGCCAAAAAAGCCCTGA</t>
+  </si>
+  <si>
+    <t>ATGACCGATAGCCATTTCCCCCTCGCCGCCGTGGTCGGTGCTGAAGACCTAAAGCTGGCGCTGTGCCTGGCGGCGATTGATCCGGCGATTGGCGGCGTGCTGATCGAAGGGCCGCGCGGTATGGCCAAGTCGACCCTGGCCCGTGGCTTGGCCGATCTGCTAGCCAGCGGCACCTTTGTCACCCTGCCATTGGGCGCGAGCGAGGAGCGCATCGTCGGCACCCTCGATCTCGACGCCGCGCTGGGCGAGGGTCGCGCGCAGTTTTCCCCGGGTCTGCTGGCCAAAGCCAATGGCGGCGTGCTCTACGTGGATGAGGTTAATCTGCTGCCGGATCATCTGGTCGACCTGCTGCTGGATGCCGCCGCCAGCGGGGTTAACCATATCGAGCGCGACGGCATTTCCCATCGGCATGCGGCGCGTTTTGTGCTGATCGGCACCATGAACGCTGAAGAGGGCGAGCTGCGGCCACAATTGCTCGACCGCTTCGGCCTTAATCTGGCACTGGACGCCCAGCCGCAACCGGAGCAGCGTGCCGAGATCGTCCGCCGCCGACTGGCCTTTGATGCTGACCCGCAGGCCTTTCTTAAGCGCTGGCAGGCGCAGCAAGATGAGCTGTATAGCCGTTGCCAACGTGCCCGCGAGCGCTTCGCGGCGATTCCGCTAGATGACGCCGCCCTGGAACAAATCAGCCAGCGCTGCTTTGCTGCTGCGGTCGATGGTTTGCGTGCTGATCTGGTCTGGCTGCGCGCCGCCCGGGCGCATGCCGCCTGGCGTGGTGTTGAACGAATTGAGGCCGAGGATATCGACGCCGTAGCAGAGTTCGTTTTGCTTCACCGTCGGCGTAATAGTCCGCCGCCAGCTGCGCAGCCACCGCAGCCTCAGTCGCAACCCGACAAGAGCGCCCCCAGCGAACAGCCACAAGCGCCGCAAGGCGAGGGCCAGTGGGGCGAATTACCTGCACACGCACAGCATGTAGACGTTCGGCGTGAACCGCCCCGCTGGACAAAAAAGCCCCTAGGCATCCGCCCGCGCACAGCCCCAGGCGCGGATGCCCGGGCCGCTCCCGGCACACTCGGCAATGGTCGCAACGGTGCCAGTCGCAGTGGCGCGACGGGCCGTATCGATTGGCCGGCGAGCCTGCTTAAGGGCCGTCCGCGCTGCCGCCAGGATTTACTATTACGACCGCGCAGCAGTAAACCAGCTGAACTCTGGCTGGTAATCGTCGATGCCTCGGCCTCGACCCGCCGCCATGGTGCGCTGAGCAAAGCCAAGGGCTTGCTCAGTGAAGTGTTCGAGCAGGCCCGCCGCCAGCGCGCGCGCCTGGCTTTATTGCACGCCACCGGCCGTCAGGCGCAGTGGCTGTGGCAGGGCCAGAAAGCCTCCCAGGCCTTGCAACAATGGCTCGCCGAATTGGGCGCAGGCGGCGGCACACCGTTGTTTGATGCGCTGCAACAAGCGGCCGACTGGCAGGCGCGGCGTCAGCGCTTACATCCGGGTGAAACGCAGCGGTTGTTGATCATCACCGACGGCCGTCTGCGCGACTGGCTGGCGTTAGCGCCAAGCGCCTGCTCGGCGCTGCTGGTGGATATCGAAAGCGCACCGATCCGCCTCGGCCGCGCCCGGCAACTGGCGGCTGAGCTGGGCGCAGACTACCGACATATTGATTCGCTGCCGGTACTGGCCGGCAGCCTGGAGACAACCCCATGA</t>
+  </si>
+  <si>
+    <t>ATGACCGATAGCCATTTCCCCCTCGCCGCCGTGGTCGGTGCTGAAGACCTAAAGCTGGCGCTGTGCCTGGCGGCGATTGATCCGGCGATTGGCGGCGTGCTGATCGAAGGGCCGCGCGGTATGGCCAAGTCGACCCTGGCCCGTGGCTTGGCCGATCTGCTAGCCAGCGGCACCTTTGTCACCCTGCCATTGGGCGCGAGCGAGGAGCGCATCGTCGGCACCCTCGATCTCGACGCCGCGCTGGGCGAGGGTCGCGCGCAGTTTTCCCCGGGTCTGCTGGCCAAAGCCAATGGCGGCGTGCTCTACGTGGATGAGGTTAATCTGCTGCCGGATCATCTGGTCGACCTGCTGCTGGATGCCGCCGCCAGCGGGGTTAACCATATCGAGCGCGACGGCATTTCCCATCGGCATGCGGCGCGTTTTGTGCTGATCGGCACCATGAACGCTGAAGAGGGCGAGCTGCGGCCACAATTGCTCGACCGCTTCGGCCTTAATCTGGCACTGGACGCCCAGCCGCAACCGGAGCAGCGTGCCGAGATCGTCCGCCGCCGACTGGCCTTTGATGCTGACCCGCAGGCCTTTCTTAAGCGCTGGCAGGCGCAGCAAGATGAGCTGTATAGCCGTTGCCAACGTGCCCGCGAGCGCTTCGCGGCGATTCCGCTAGATGACGCCGCCCTGGAACAAATCAGCCAGCGCTGCTTTGCTGCTGCGGTCGATGGTTTGCGTGCTGATCTGGTCTGGCTGCGCGCCGCCCGGGCGCATGCCGCCTGGCGTGGTGTTGAACGAATTGAGGCCGAGGATATCGACGCCGTAGCAGAGTTCGTTTTGCTTCACCGTCGGCGTAATAGTCCGCCGCCAGCTGCGCAGCCACCGCAGCCTCAGTCGCAACCCGACAAGAGCGCCCCCAGCGAACAGCCACAAGCGCCGCAAGGCGAGGGCCAGTGGGGCGAATTACCTGCACACGCACAGCATGTAGACGTTCGGCGTGAACCGCCCCGCTGGACAAAAAAGCCCTAG</t>
+  </si>
+  <si>
+    <t>ATGAACCGCCCACATTTCCCGTTCTCCGCCCTGCATGGCCAGCCGCAGCTGCAACTGGCGCTGCTGCTGGCGGCCATCGACCCGCAGATCGGCGGCGTGCTGATCGAGGGGCCGCGCGGCACCGCCAAGTCCACCAGTGCCCGCGCGCTGGCCGACCTGCTGCCGGCCGGGCGCTTCGTCAACCTGCCGCTGGGCGCCAGCGAGGAACAGCTGGTGGGCTCGCTGGACATCCAGGCGGCGCTGCAGGACGGCCGCGTGGATTTCCGTCCCGGGTTGCTGGCTCGCGCCGACGGCGGCGTGCTCTACGTCGACGAGGTCAACCTGCTGGCCGATGCGCTGGTCGACCTGCTGCTGGACGTCTGCGCCAGCGGGGTCAACCGCATCGAGCGCGACGGCATTTCCCACCAGCACGAGGCGCGCATCGCCCTGGTCGGCACCATGAACCCGGAAGAGGGCGAACTGCGTCCGCAACTGCTCGATCGCTTCGGCCTGTTCGTGCGCCTCGGCGAGCGCATCGAGCCGGCGGCGCGTGAGGCGATCGTGCGTAGCCGGCTGCGCTTCGACCGCGACCCGCAGGGCTTCGTCGAAGGCCAGCGCGCGGCGCAGGAGGCGCTGATGCAGCGCCTGGAACGGGCGCGGGCGAAGGTCGGGCAACTGGAATTCGACGATGCACTGCACCGCCAGGTCAGCGATCTCTGCTACGCCGCCGGCGTGGAAGGCGTGCGCGCCGACCTGGTGCTGCTGCGCGCTGCCTGCGCGCACGCGGCCTGGCAGGGCCACGCGCGGATCGGCGCCGAGGATGTCGCGGTGGTGGCCGAGCTGGTGCTGGCGCACCGCCGCAAACTGCCGCCCGACGCGCCGCCACCCTCGCCGCGCGCCGAGCCGCCGCGGGAAGGGGGCGCCACCGCGCCGAACGAGGGCAACGACTGGGGCGAATTGCCGCCGCAGGCGGTGCCCACCGCCCAGCTAGACGGCGCGAGGCCGCTGCCGACAAAAAAGCCCCTGAGCCCGCACGCCTCGCCCGGCGCGCAGGCCGGCGACGGGGCTCGCGCGGGCCGCATCCGTCAGTGCGGCACGGCGGCCAGCGCGCGCCTTCACTGGCCGCGCACCTTGCTGGCGAAAGGCTCCGAGCCGCTGCGTGCGCCGCACCTGCGTTTCCAGCAGCAGGCAGCCGAGGCGGGGACGCTGCACTGCCTGGTGCTGGATTGCTCCGGCTCGATGCTCAAGCGGCGCAACCTGACGCTGGCCAAGGGCCTGCTGCTGCGCTGGAGCGAGCAGGTCTATCGCCAGCGCGGCGAGCTGATGGTGATCGGATTCGCCGCCGGGCAGGCGCGCCTGCTGTGCAAACCGCAGAAGGCGCGGTCCTCCAATCACGCCTGGATCGATGCCATTGGCGGCGGCGGCGGTTCGCCGGTGGCCGCGGCGCTGGAGCTGGCCGAGCGCACCTTGGCCAGGGAGCGCCGCAACGCCCGCGGCAAGCGTATCGGCCTCTGGCTGCTCAGCGATGGGCGCTTCGACCCGCTGCCGGCGCGACCGCCGTCGGCGGATTTCTGCGTGGTGGTGGATTTCGAGAACGCATCCGTGCCGTTGGGCCGCGCAGCGCAGATCGCCCGGTCATGGGGCGCCGAATGCGTGCCCGCGAAAAATCTGCTTACTCGATAG</t>
+  </si>
+  <si>
+    <t>ATGAACCGCCCACATTTCCCGTTCTCCGCCCTGCATGGCCAGCCGCAGCTGCAACTGGCGCTGCTGCTGGCGGCCATCGACCCGCAGATCGGCGGCGTGCTGATCGAGGGGCCGCGCGGCACCGCCAAGTCCACCAGTGCCCGCGCGCTGGCCGACCTGCTGCCGGCCGGGCGCTTCGTCAACCTGCCGCTGGGCGCCAGCGAGGAACAGCTGGTGGGCTCGCTGGACATCCAGGCGGCGCTGCAGGACGGCCGCGTGGATTTCCGTCCCGGGTTGCTGGCTCGCGCCGACGGCGGCGTGCTCTACGTCGACGAGGTCAACCTGCTGGCCGATGCGCTGGTCGACCTGCTGCTGGACGTCTGCGCCAGCGGGGTCAACCGCATCGAGCGCGACGGCATTTCCCACCAGCACGAGGCGCGCATCGCCCTGGTCGGCACCATGAACCCGGAAGAGGGCGAACTGCGTCCGCAACTGCTCGATCGCTTCGGCCTGTTCGTGCGCCTCGGCGAGCGCATCGAGCCGGCGGCGCGTGAGGCGATCGTGCGTAGCCGGCTGCGCTTCGACCGCGACCCGCAGGGCTTCGTCGAAGGCCAGCGCGCGGCGCAGGAGGCGCTGATGCAGCGCCTGGAACGGGCGCGGGCGAAGGTCGGGCAACTGGAATTCGACGATGCACTGCACCGCCAGGTCAGCGATCTCTGCTACGCCGCCGGCGTGGAAGGCGTGCGCGCCGACCTGGTGCTGCTGCGCGCTGCCTGCGCGCACGCGGCCTGGCAGGGCCACGCGCGGATCGGCGCCGAGGATGTCGCGGTGGTGGCCGAGCTGGTGCTGGCGCACCGCCGCAAACTGCCGCCCGACGCGCCGCCACCCTCGCCGCGCGCCGAGCCGCCGCGGGAAGGGGGCGCCACCGCGCCGAACGAGGGCAACGACTGGGGCGAATTGCCGCCGCAGGCGGTGCCCACCGCCCAGCTAGACGGCGCGAGGCCGCTGCCGACAAAAAAGCCCTGA</t>
+  </si>
+  <si>
+    <t>ATGACCGACATTCCACATTTTCCTCTGGCTGCTGTCGTCGGTGCCGATGACCTGAAGGTTGCGCTATGCCTGACCGCCATCGATCCGAAAATAGGCGGTGTGTTGATCGAAGGGCCGCGCGGCATGGCCAAATCGACGCTGGCCCGCGGCGTGGCAGATTTGCTGGCAAGTGGTCAGTTCGTGACGTTGCCGTTGGGCGCTACTGAAGAACGGCTGGTCGGTACGCTGGACCTGGACGCCGCGCTGGGTGAGGGCCGCGCGGCGTTTTCGCCAGGCGTACTGGCCAAGGCGGACGGCGGCGTGCTGTATGTCGATGAGGTCAATCTGCTGCCTGACCATTTGGTCGACCTGCTGCTGGACGTGGCCGCCAGCGGCGTCAATCTGGTGGAGCGTGATGGCCTGTCTCACCGCCACCCGGCGCGCTTCGTTCTGATCGGCACCATGAACCCGGAAGAGGGCGAACTGCGGCCCCAACTGCTCGACCGTTTTGGGCTGAACGTGGCACTGAGCGGGCAGACGCTGCCGGAGCAGCGTGGGCAGATCATCCGTCGTCGTCTGGATTTCGACGCGGCACCCGAAGCGTTTTGTCAGCAGTGGGCAACGCAGCAGCAAGCGCTCAAGGCCCGTTGTGAAAGCGCCCGGGGGCTCTTGGAGACCATTGCCCTGGATGACGCAAGTCTGGGGTTGATCACCGAGCGCTGTTTTGCAGCAGGAGTCGACGGCTTGCGCGCGGATCTGGTGTGGTTGCGAGCCGCTCGCGCACATGCAGCCTGGCGCGGAAGTCCTGCTATCGCCGAGGCCGACATCGATGCCGTGGCCGACTTCGCCCTGCGTCACCGACGCCGCGCACCGCAACCGCCTCGGCAGTCATCGCAACCGGCTGAGCAACCCCCACAACCCCAACAATCGCAACAGCCGACGCAACCATCCTTACCCCGGCCAGCACTCGATCAGCCGCCATCCCGCACAGCCGAGAGCCCGGCCGACGCGGGTCAAACGGACCATAAGCCGCCGCAGGACGGCGAGGGCAGCTGGGGCGAGTTGCCCGCACGCAGTATGGTGACGGGCGCCCGTAAAGAAGTGCCGCACTGGCCAAAAAAGCCCCTAGGCATTCGCTCCCGTCAGTGGTCGGGGGTGAATGCCAGCCCTAAGCCGGGCGCACTCGGCGGCGGCAGGAACGGCGCTGCCCGCACAGGCAGCCATGGAGCGATAGCCTGGCTGCCGACGTTATTGCGTGGCCGACCGCGCGTGCGTGCGGATCTGGTTCACCAACCCCGCAGCCGGCGCCCGCAGCAACTGTGGCTGGTGATTGTGGACGCATCGGCATCGACCCGGCGGCATCAGGCGCTGAGTCTGGCCAAAGGCTTGCTGGCAGGTGTGTTCGATGACGCCTATCGGCAGCGCGCCCGGCTGGCCTTGCTGACCGCCAGCGGCAACGACGCGCGCTGGCAGCATCAGGGGCTCAAGGCCAGCGCGGCGTTGCAGCCATGGCTGGATGCGCTGGGGGCTGGAGGAGGTACGCCGTTGGCCGAGGCGATCAATCAGGCCGCCGAGTGGTCGGCCGTGCGTCACAAACGCTACCCCGCAGAGCAGCAACGGGTGCTGATCGTCACTGACGGGCGAGTCAAGCATGTCCCGCCCCTGGCTCCATTCTCAGGCCCCGTGCTGCTGGTCGACATCGAGCGCGGTCCCATCAGGCTGGGGCGCGCCCGGGAAATCGCCCGGCAGCTCGACGCAGATTACCGCCACCTCGACGACTGCTGA</t>
+  </si>
+  <si>
+    <t>ATGACCGACATTCCACATTTTCCTCTGGCTGCTGTCGTCGGTGCCGATGACCTGAAGGTTGCGCTATGCCTGACCGCCATCGATCCGAAAATAGGCGGTGTGTTGATCGAAGGGCCGCGCGGCATGGCCAAATCGACGCTGGCCCGCGGCGTGGCAGATTTGCTGGCAAGTGGTCAGTTCGTGACGTTGCCGTTGGGCGCTACTGAAGAACGGCTGGTCGGTACGCTGGACCTGGACGCCGCGCTGGGTGAGGGCCGCGCGGCGTTTTCGCCAGGCGTACTGGCCAAGGCGGACGGCGGCGTGCTGTATGTCGATGAGGTCAATCTGCTGCCTGACCATTTGGTCGACCTGCTGCTGGACGTGGCCGCCAGCGGCGTCAATCTGGTGGAGCGTGATGGCCTGTCTCACCGCCACCCGGCGCGCTTCGTTCTGATCGGCACCATGAACCCGGAAGAGGGCGAACTGCGGCCCCAACTGCTCGACCGTTTTGGGCTGAACGTGGCACTGAGCGGGCAGACGCTGCCGGAGCAGCGTGGGCAGATCATCCGTCGTCGTCTGGATTTCGACGCGGCACCCGAAGCGTTTTGTCAGCAGTGGGCAACGCAGCAGCAAGCGCTCAAGGCCCGTTGTGAAAGCGCCCGGGGGCTCTTGGAGACCATTGCCCTGGATGACGCAAGTCTGGGGTTGATCACCGAGCGCTGTTTTGCAGCAGGAGTCGACGGCTTGCGCGCGGATCTGGTGTGGTTGCGAGCCGCTCGCGCACATGCAGCCTGGCGCGGAAGTCCTGCTATCGCCGAGGCCGACATCGATGCCGTGGCCGACTTCGCCCTGCGTCACCGACGCCGCGCACCGCAACCGCCTCGGCAGTCATCGCAACCGGCTGAGCAACCCCCACAACCCCAACAATCGCAACAGCCGACGCAACCATCCTTACCCCGGCCAGCACTCGATCAGCCGCCATCCCGCACAGCCGAGAGCCCGGCCGACGCGGGTCAAACGGACCATAAGCCGCCGCAGGACGGCGAGGGCAGCTGGGGCGAGTTGCCCGCACGCAGTATGGTGACGGGCGCCCGTAAAGAAGTGCCGCACTGGCCAAAAAAGCCCTAG</t>
+  </si>
+  <si>
+    <t>ATGGCGTTCCACTATCCTTTGGCCGCCGTGGTCGGCGCCGAGCGACTGAAGTTGGCGCTGTGCATCGCAGCCATCGATCCCGGCATCGGCGGCGTGCTCATAGAAGGCCCGCGAGGCATGGCCAAGAGCACCTTGGCCCGCGGGTTGGCCGACCTGCTGGAGCAAGCGCCTTTCGTCACGCTGCCCCTGGGGGCGTCGGAGGATCGCGTGGTTGGCTCCTTGAACCTGGACGCGGTACTGGCCCATGGGGAAGTCCGCTTTGCGCCGGGCTTGCTGGCCAAGGCCGATGGTGGCGTGCTCTACGTAGACGAAGTCAATCTATTGCCAGACCCCTTGGTGGACCTGTTGCTGGACGTGGCTGCCAGCGGCGTGAACCGGGTAGAGCGCGACGGCGTCTCGCACGAACATCCCGCCCGTATCGTGCTGATCGGCACCATGAACCCGGAGGAGGGGGAGCTTCGCCCTCAATTGCTCGACCGCTTTGGCCTGAATGTAGCGCTCGATTCGCGACCGGACCCAGCCCAGAGAAGAGAAATCATCACTCGACGCCTGGCTTTCGATGCTGACCCTATGGGCTTCATTGCCCACTGGGCCGAGGCACAGGCCATGCTTGCCCAGCGTTGCCGGCAAGCCCGGAGTGCCCTGGCCGGCATCCCCCTGGACGACATGGCGCTCGAAGCGATCACGCAGGCTTGTTATCGGGCCGGCGTGGACGGCTTGCGAGCCGATCTGGTCTGGCTACGGGCCGCGCGCGCCCATGCCGCCTGGCGAGGAATGCTGGCCATCGAAGCGCATGACATCGAGGCGGTGGCCGAATTCGCCCTGCGCCATCGACGCCATCCGGATACTGGCAGCACCCAGGTACCACCGCCCGCCCAGAAGGGTAGCGAAACCCTGGGCGACTCCGAGAGCGGCGGGGACTGGGGCGCACTGCCGCCTCAGCCGGTGGCCACAGGTCCGCGCCTGGGCCTGGCGGGTTGGCCAAAAAAGTCCCTAGGCCCCCCTCTAGGCGAGTCGGGGGCCAAGCGCAGCGCAGTCTTAGGACAAGGCCGGACAGGAAGAGCCAGCGCCAAATGCCACACACGCATTGCCTGGGTACCGACCCTGGCGCAGGGGCGGCCACGGAGCCAGGCCGCCCTGCGCTGGCACAACGGCCCACTCCATCAGCCGCCGGTCTGGCTGGTGGTGGTGGATGCCTCTGCGTCAACGCGTCGCCGTGGCGCGCTGGGGCGGGCCAAGGGTTACCTGGCGACCCTGTTCGAGCAGGCCTACCGGCAGCGCGCCCGTGTCGCCTTGCTCACCGCCAGCGGCACTGGTCCAAGCTGGCAGCGGCAGGGTCTCAAGGCCTCGGCTGCGCTGGGGCACTGGCTCGAACATCTCGGCGCAGGGGGTGGTACACCTTTGCGCGAGTGCATCGATCTGGCACGGGACTGGGTGCGCAAGCAGCGACGCAAGAGCCCTTGGCAACCGCTGCGCTGCCTGATTGTCACCGACGGACGGATCAACGGGCTGGAGAATGTCGCACCGCTGGGTTGCGACACCCAGGTCCTGGATATCGAACTGGGCGAAATTCGTCTGGGCCGCACCCGCCGACTTGCGCAACGGCTTGGTGCGGACTACCTGCATCTGGAACGACTGCCGACTGCGGTTCAGTGA</t>
+  </si>
+  <si>
+    <t>ATGGCGTTCCACTATCCTTTGGCCGCCGTGGTCGGCGCCGAGCGACTGAAGTTGGCGCTGTGCATCGCAGCCATCGATCCCGGCATCGGCGGCGTGCTCATAGAAGGCCCGCGAGGCATGGCCAAGAGCACCTTGGCCCGCGGGTTGGCCGACCTGCTGGAGCAAGCGCCTTTCGTCACGCTGCCCCTGGGGGCGTCGGAGGATCGCGTGGTTGGCTCCTTGAACCTGGACGCGGTACTGGCCCATGGGGAAGTCCGCTTTGCGCCGGGCTTGCTGGCCAAGGCCGATGGTGGCGTGCTCTACGTAGACGAAGTCAATCTATTGCCAGACCCCTTGGTGGACCTGTTGCTGGACGTGGCTGCCAGCGGCGTGAACCGGGTAGAGCGCGACGGCGTCTCGCACGAACATCCCGCCCGTATCGTGCTGATCGGCACCATGAACCCGGAGGAGGGGGAGCTTCGCCCTCAATTGCTCGACCGCTTTGGCCTGAATGTAGCGCTCGATTCGCGACCGGACCCAGCCCAGAGAAGAGAAATCATCACTCGACGCCTGGCTTTCGATGCTGACCCTATGGGCTTCATTGCCCACTGGGCCGAGGCACAGGCCATGCTTGCCCAGCGTTGCCGGCAAGCCCGGAGTGCCCTGGCCGGCATCCCCCTGGACGACATGGCGCTCGAAGCGATCACGCAGGCTTGTTATCGGGCCGGCGTGGACGGCTTGCGAGCCGATCTGGTCTGGCTACGGGCCGCGCGCGCCCATGCCGCCTGGCGAGGAATGCTGGCCATCGAAGCGCATGACATCGAGGCGGTGGCCGAATTCGCCCTGCGCCATCGACGCCATCCGGATACTGGCAGCACCCAGGTACCACCGCCCGCCCAGAAGGGTAGCGAAACCCTGGGCGACTCCGAGAGCGGCGGGGACTGGGGCGCACTGCCGCCTCAGCCGGTGGCCACAGGTCCGCGCCTGGGCCTGGCGGGTTGGCCAAAAAAGTCCTAG</t>
+  </si>
+  <si>
+    <t>ATGACCGAACATCACTTCCCCCTCGCCGCCGTGGTCGGCGCCGATTCGCTGAAGCTGGCGCTGTGCCTGGCGGCCATCGACCCGGCCATCGGCGGCGTGCTGATCGAGGGCCCGCGCGGTATGGCCAAGTCCACACTGGCCCGTGGCCTGGCCGACCTGCTGGAGGGCGGGCGCTTCGTCACCCTGCCGCTGGGCGCCAGCGAGGAGCGCATCGTCGGCACCCTGGATCTGGACGCAGCGCTGGGCGAAGGCCGCGCGCAGTTTTCCCCCGGCCTGCTGGCCCGCGCCGATGGCGGCGTGCTCTATGTCGATGAGGTAAACCTGCTGCCGGATCATCTGGTCGATCTGCTGCTCGATGCTGCCGCCAGCGGGGTCAACCATGTCGAGCGTGACGGCATCTCCCATCGGCATGCCGCGCGCTTCGTGCTGATCGGCACCATGAACGCCGAGGAAGGCGAGTTGCGCCCGCAACTGCTCGACCGCTTCGGCCTGAATCTGGCGCTGGATGGCCAGCCGCAGCCATCCGAGCGTGCCGAGATCGTGCGTCGTCGCCTGGCCTTCGATGCTGACCCCGTCGCCTTCCTGCAACGTTGGCAGGTCGAGCAGGCTGCCCTTGCTGCCCGTTGTCGGAATGCCCGCCAGCGCCTGGCGGATATCCCGCTGGATGACGCCGCCCTGGGCGAGATCAGCCAGCGCTGCTTCGCTGCCGGTGTCGACGGCCTGCGCGCCGATCTGGTCTGGCTGCGTGCCGCTCGTGCCCATACGGCCTGGCGTGGCGCGGCGGGCATCGAGCCTGTGGATATCGAGGCGGTGGAGGACTTCGTTCTGCGCCATCGCCGTCGCCAGCAACAACCGCCGGCTGCCACACCGCCCGAGCAGAGCCAGGCGCCGCAGCAGGCGCAGGAACAGAGCCAGGGCGAGGGCCAGTGGGGCGAGCTGCCGGCGCAGCCGCAGGCCATGGGCGAACGGCGCGTGCCGCCGCGTTGGCCAAAAAAGTCCCTGAGCATCCGCCCGCGCACAGCCACTGGCGCGGATGCCCGTAACCGGCCCGGACGACTCGGCGGAGGCCTGCGCGGTGCTGCGCGTAGCGGCGTGGCCGGTCGTATCGACTGGGCGGCCACTCTGCGCCAGGGCCGGCCGCAATGCCGCGAACAGTTGGTGCTGCGCCCGCGCAGCCAGCAGGCTGAGGAACTCTGGCTGGTGCTGGTCGATGCCTCTGCCTCGATGCGCCGGCATAGTGCTCTGAGCCTGGCCAAGGGCGTGCTCGCCGAGCTGTTCGACAACGCCTATCGCCAGCGCGCGCGCCTGGCCTTGCTGCAGGCCGGCGGCCGCGAGGCACAATGGTTATGGCAAGGGCGCAAGGCCAGCGCCGAGCTGCACCGTTGGCTGCACGAGTTGGGTGCGGGAGGCGGCACGCCGCTGCTCGATGCACTGAATCAGGCGGGTGACTGGCTGCTGCGTCGCCAGCGGGCGAAACCGAGCGAACGCCAGCGCCTGCTGATCCTCACCGACGGTCGCCTGCGTGACCTGCCCAACCTGGCGCCGCTGCCATGCCCAACCCTGCTGCTCGACACCGAGCGCGCGCCCATCCGCCTGGGCCGTGCGCAGCAGTTGGCACAGGCGCTGCAGGCCGAGTACCAACATATTGATGATTTACTGCCTGTAGGAGCCGAGGACGCTGATCGCCGGCAAGCCGGCTCCTACGGGTTGTCCGTTACCTGGAGAACCCCATGA</t>
+  </si>
+  <si>
+    <t>ATGACCGAACATCACTTCCCCCTCGCCGCCGTGGTCGGCGCCGATTCGCTGAAGCTGGCGCTGTGCCTGGCGGCCATCGACCCGGCCATCGGCGGCGTGCTGATCGAGGGCCCGCGCGGTATGGCCAAGTCCACACTGGCCCGTGGCCTGGCCGACCTGCTGGAGGGCGGGCGCTTCGTCACCCTGCCGCTGGGCGCCAGCGAGGAGCGCATCGTCGGCACCCTGGATCTGGACGCAGCGCTGGGCGAAGGCCGCGCGCAGTTTTCCCCCGGCCTGCTGGCCCGCGCCGATGGCGGCGTGCTCTATGTCGATGAGGTAAACCTGCTGCCGGATCATCTGGTCGATCTGCTGCTCGATGCTGCCGCCAGCGGGGTCAACCATGTCGAGCGTGACGGCATCTCCCATCGGCATGCCGCGCGCTTCGTGCTGATCGGCACCATGAACGCCGAGGAAGGCGAGTTGCGCCCGCAACTGCTCGACCGCTTCGGCCTGAATCTGGCGCTGGATGGCCAGCCGCAGCCATCCGAGCGTGCCGAGATCGTGCGTCGTCGCCTGGCCTTCGATGCTGACCCCGTCGCCTTCCTGCAACGTTGGCAGGTCGAGCAGGCTGCCCTTGCTGCCCGTTGTCGGAATGCCCGCCAGCGCCTGGCGGATATCCCGCTGGATGACGCCGCCCTGGGCGAGATCAGCCAGCGCTGCTTCGCTGCCGGTGTCGACGGCCTGCGCGCCGATCTGGTCTGGCTGCGTGCCGCTCGTGCCCATACGGCCTGGCGTGGCGCGGCGGGCATCGAGCCTGTGGATATCGAGGCGGTGGAGGACTTCGTTCTGCGCCATCGCCGTCGCCAGCAACAACCGCCGGCTGCCACACCGCCCGAGCAGAGCCAGGCGCCGCAGCAGGCGCAGGAACAGAGCCAGGGCGAGGGCCAGTGGGGCGAGCTGCCGGCGCAGCCGCAGGCCATGGGCGAACGGCGCGTGCCGCCGCGTTGGCCAAAAAAGTCCTGA</t>
+  </si>
+  <si>
+    <t>ATGACCGAACCCGTGCAGTTTCCATTGGCGGCAGTGGTCGGCGCGCAGGCGCTGAAGCTGGCGCTGTGCCTGACCGCCATCGACCCGAAGATCGGTGGCGTGCTGATCGAGGGGCCGCGTGGCATGGCCAAGAGTACCTTGGCCCGTGGCCTGGCCGATTTGCTCGGTGACGGCCCCTTCGTGACCCTGCCGCTGGGCGCCAGCGAAGACCGGCTGGTCGGCACGCTCGACCTGGATGCGGCGCTGGGTGAGGGCAAGGTCCGTTTCTCTCCCGGTGTGCTGGCCCAGGCCGATGGCGGGGTGCTCTACGTGGACGAGGTCAACCTGCTGCCCGACGGCCTGGTCGACCTGCTGCTGGACGTCGCCGCCAGTGGCACCAATCGGGTAGAGCGCGATGGTCTGTCCCATCGCCATTCGGCGCGTTTCGTGCTGATCGGCACCATGAACCCGGAAGAGGGGGAGCTGCGCCCGCAGTTGCTCGACCGCTTCGGGCTGAACGTTGTCCTGGATGCCCAGCCGCAGCCAGAAGCGCGTCAGCAGATCATCCGTCGGCGCCTGGCCTTCGACAGCGACCCACAGGGTTTTCTTGCCGAATGGGCCGCTGCCCAGGCTGAACTGCGCGCCCGCTGCCAGGCGGCACGACTGCGGCTCGACGCCATCGCGTTGGACGACGCTGCGCTCGCCGACATTACCGAACGCTGCTTCGCGGCCGGTGTGGATGGCCTGCGTGGCGACCTGGTCTGGCTGCGTGCCGCGCGCGCGCATGCCGCCTGGCGCAACGCAGCACGTATCGAGGAGGAGGACATCGAGGCTGTGGCGGACTTCGCCTTGCGTCATCGCCGCCGGGTCGCCTCGCCACCCGCGCCCGACGCGGCCTCGTCGCCGCCTCCGCAGAACGAGGCCGGACACGATTCGCGCGAGCCGGAAAGCGAGCCTTCACCGGGGCAGGGCACCTGGGGCGCATTGCCGCCTCGACCTGTGGCCAGCGGCCCGCGGCGCGAGGTGCCGACCTGGGCAAAAAAGCCCCTGAGCGTCCGCGTCCGGACTGATCGGCCGGACGCGCACCAGGGCGCAGGCACGCTACAGGGCGCACCCCGTGGGCGGGCGCGGCAGGCCAGCGAAGGGCAGGTGGCCTGGGCCGCGACCCTGAGCCAGGGCAGGCCGCGTGTTCGCGAAGACCTGCGCTGGCAGCAACGGCAGGCGCGACCGGTCGAACTCTGGGTGGTGATCGTCGACAGCTCGGCCTCGACGCGTCGGCATGGCGCGCTCGCCCAGGCCAAGGGGTTGCTGGCCGAGTGTTTCGACCACGCGTATCGGCAACGCGCGCGCGTGGCCTTGTTGACCGCCAGTGGTGATGCACCCCGTTGGCAATGCCACGGCCTGAAAGCCTCACACGCGCTGCAAGGCTGGCTGGACGAGCTGGGCGCAGGAGGCGGTACGCCCTTGCTGGCCGCACTGGCGCAGGCGCGGCATTGGCTGCTGGCCCGCCAGAAGCGCCTGCCTGAGGAGCGTCAGCGCTGCCTGGTGCTCACCGATGGCCGTCTACCGCAATGGGCGCCCTTGCAGCCGTTGCCCTGTGCCAGCCTGGTGGTGGACATGGAGCGCTCGCCGGTTCGTGTAGGGCGCGCTCGCCTGCTGGCCGAGCAGTTGGAAGCCGAATACCGCCCCCTGGACGCCTTCACGGCACGCTGA</t>
+  </si>
+  <si>
+    <t>ATGACCGAACCCGTGCAGTTTCCATTGGCGGCAGTGGTCGGCGCGCAGGCGCTGAAGCTGGCGCTGTGCCTGACCGCCATCGACCCGAAGATCGGTGGCGTGCTGATCGAGGGGCCGCGTGGCATGGCCAAGAGTACCTTGGCCCGTGGCCTGGCCGATTTGCTCGGTGACGGCCCCTTCGTGACCCTGCCGCTGGGCGCCAGCGAAGACCGGCTGGTCGGCACGCTCGACCTGGATGCGGCGCTGGGTGAGGGCAAGGTCCGTTTCTCTCCCGGTGTGCTGGCCCAGGCCGATGGCGGGGTGCTCTACGTGGACGAGGTCAACCTGCTGCCCGACGGCCTGGTCGACCTGCTGCTGGACGTCGCCGCCAGTGGCACCAATCGGGTAGAGCGCGATGGTCTGTCCCATCGCCATTCGGCGCGTTTCGTGCTGATCGGCACCATGAACCCGGAAGAGGGGGAGCTGCGCCCGCAGTTGCTCGACCGCTTCGGGCTGAACGTTGTCCTGGATGCCCAGCCGCAGCCAGAAGCGCGTCAGCAGATCATCCGTCGGCGCCTGGCCTTCGACAGCGACCCACAGGGTTTTCTTGCCGAATGGGCCGCTGCCCAGGCTGAACTGCGCGCCCGCTGCCAGGCGGCACGACTGCGGCTCGACGCCATCGCGTTGGACGACGCTGCGCTCGCCGACATTACCGAACGCTGCTTCGCGGCCGGTGTGGATGGCCTGCGTGGCGACCTGGTCTGGCTGCGTGCCGCGCGCGCGCATGCCGCCTGGCGCAACGCAGCACGTATCGAGGAGGAGGACATCGAGGCTGTGGCGGACTTCGCCTTGCGTCATCGCCGCCGGGTCGCCTCGCCACCCGCGCCCGACGCGGCCTCGTCGCCGCCTCCGCAGAACGAGGCCGGACACGATTCGCGCGAGCCGGAAAGCGAGCCTTCACCGGGGCAGGGCACCTGGGGCGCATTGCCGCCTCGACCTGTGGCCAGCGGCCCGCGGCGCGAGGTGCCGACCTGGGCAAAAAAGCCCTGA</t>
+  </si>
+  <si>
+    <t>ATGAGCGCCCTTCCCCACTTCCCCCTGGCCGCCGTCGTCGGCGCCGATGAGCTGAAGCTGGCCCTGTGCCTGGCAGCCATCGACCCCGCCATTGGTGGCGTGCTGATCGAAGGGCCACGCGGGATGGCCAAGTCCACCCTGGCGCGCGGCGTCGCCGATCTGCTGGACGGCGGGCGCTTCGTCACCCTGCCGCTGGGCGCCAGCGAGGAACGCATTGTCGGCACCCTCGACCTGGACGCGGCGCTGGGCGAAGGTCGCGCGCAGTTCTCCCCTGGCGTGCTGGCCCACGCCCACGGCGGCGTGCTCTATGTCGATGAAGTGAACCTGCTGCCCGACCACCTCGTCGACCTGCTGCTCGACGTGGCTGCCAGCGGGATCAACCTGATCGAGCGCGACGGCCTGTCCCATAGTCACCCCGCGCGCTTCGTGCTGATCGGCACCATGAACCCCGAGGAAGGCGAGTTGCGCCCGCAACTGCTGGATCGCTTCGGCCTCAAGGTACAACTGCACGGCACCCCGGCGCCGACCGAGCGCGCCGAGATCGTTCGCCGCCGACTGGCCTTCGATGCCGATCCGCAGGCCTTCCTCATTCGGTGGCAAGGCGCACAGCAAGCGCTGCAACAGCGCTGTATCGATGCCCGGCAAGGCCTTGCCGCGATTGCGCTGGATGATGCTGCATTGAACGAGATCGCCGAGCGCTGCCACGCCGCTGGCGTCGATGGCCTGCGCGCCGATCTGGTCTGGTTGCGCGCAGCCCGTGCCCACGCCGCCTGGCGCGGCGCCAACGCCATCGAGGCGCAGGACATCGAAGCGGTGGAACACTTCGCCCTCGCCCATCGTCGCCGCCCTGCACCAGCGCAATCGGCAACGCCGCAGCAACCTTCGTCCAGGCAGGCGCAAGCACCGTCCAACGCCTCCAACGGCGAAGGCCAATGGGGTGAACTCCCCGCCCAGAACGTCACGATGGGCGAGCGCCGACAGTTGACGGGCTGGCCAAAAAAGCCCCTGAGCATCCGCCCGCGCCAGGCCCCAGGCGCGGATGCCAACCCCCGACCCGGCCAACTTGCGGGCGGCCGCGGCGGCGCCCGTCAGCCGGGCGCGCAGGGCCGCATCGACTGGCCCGCGACCCTGCGCAATGGCCGCCCGCAACGCCGCGCCGACCTGGTGCTGCGCGCCCGCAGCCGCAAGCCCGCCGAACTCTGGCTGGTGATAGTCGACGCCTCAGCCAGCACCCGTCGCCACGGCGCCCTCGCCCAGGCCAAGGGGCTGCTCGCCGACACCTTCGAGCAGGCCTATCGCCAACGCGCGCGTCTCGCCGTGCTGCATGCCACCGGCGCACAGCCGCGCTGGTTGTGGCAGGGCCAGAAGGCATCGAGTCAGCTTCAGGTGTGGCTGGAGCAACTTGGAGCCGGCGGCGGCACCCCACTGATCGAAGCGCTTGAGCAAGCCCGCGAATGGCTGGACAAGCGCCAGCGACAGAAGCCCGCCGAACGCCAGCGTCTGCTGGTCCTGACCGATGGGCGCCTGCGCGACTGGCCTGCATTGCAGCCGATGGGCTGCCCGACTGTGCTGGTGGATATCGAGGGTGGCGCGGTGCGACTTGGTCGCGCAGAAAAACTGGCGCAGGAGCTGGGCGCGGAGTATCGGCCTATTGGTGAACTCCCTGCGTGA</t>
+  </si>
+  <si>
+    <t>ATGAGCGCCCTTCCCCACTTCCCCCTGGCCGCCGTCGTCGGCGCCGATGAGCTGAAGCTGGCCCTGTGCCTGGCAGCCATCGACCCCGCCATTGGTGGCGTGCTGATCGAAGGGCCACGCGGGATGGCCAAGTCCACCCTGGCGCGCGGCGTCGCCGATCTGCTGGACGGCGGGCGCTTCGTCACCCTGCCGCTGGGCGCCAGCGAGGAACGCATTGTCGGCACCCTCGACCTGGACGCGGCGCTGGGCGAAGGTCGCGCGCAGTTCTCCCCTGGCGTGCTGGCCCACGCCCACGGCGGCGTGCTCTATGTCGATGAAGTGAACCTGCTGCCCGACCACCTCGTCGACCTGCTGCTCGACGTGGCTGCCAGCGGGATCAACCTGATCGAGCGCGACGGCCTGTCCCATAGTCACCCCGCGCGCTTCGTGCTGATCGGCACCATGAACCCCGAGGAAGGCGAGTTGCGCCCGCAACTGCTGGATCGCTTCGGCCTCAAGGTACAACTGCACGGCACCCCGGCGCCGACCGAGCGCGCCGAGATCGTTCGCCGCCGACTGGCCTTCGATGCCGATCCGCAGGCCTTCCTCATTCGGTGGCAAGGCGCACAGCAAGCGCTGCAACAGCGCTGTATCGATGCCCGGCAAGGCCTTGCCGCGATTGCGCTGGATGATGCTGCATTGAACGAGATCGCCGAGCGCTGCCACGCCGCTGGCGTCGATGGCCTGCGCGCCGATCTGGTCTGGTTGCGCGCAGCCCGTGCCCACGCCGCCTGGCGCGGCGCCAACGCCATCGAGGCGCAGGACATCGAAGCGGTGGAACACTTCGCCCTCGCCCATCGTCGCCGCCCTGCACCAGCGCAATCGGCAACGCCGCAGCAACCTTCGTCCAGGCAGGCGCAAGCACCGTCCAACGCCTCCAACGGCGAAGGCCAATGGGGTGAACTCCCCGCCCAGAACGTCACGATGGGCGAGCGCCGACAGTTGACGGGCTGGCCAAAAAAGCCCTGA</t>
+  </si>
+  <si>
+    <t>ATGCAGCCCCATTTCCCCCTGGCCGCCGTGGTGGCCGCCGACGACCTCAAACTGGCGCTGTGCCTGGCCGCCATCGATCCGGCCCTGGGCGGCGTGCTGATCGAAGGGCCGCGCGGCATGGCCAAGTCGACCCTGGCGCGCGGCGTGGCCGACCTGCTCGACGGCGGGCGCTTCGTCACCCTGCCGCTGGGCGCCAGCGAGGAACGCATCGTCGGCACCCTCGACCTCGACGCCGCGCTCGGCGAGGGCCGCGCGCGCTTCTCCCCCGGCGTGCTGGCCAACGCCCACGGCGGGGTGCTCTACGTCGACGAGGTCAACCTGCTGCCCGACCACCTGGTCGACCTGCTGCTCGACGTGGCCGCCAGCGGCATCAACCACGTCGAGCGCGATGGCCTGTCGCACAGCCACCCGGCGCGCTTCGTGCTGATCGGCACCATGAACCCCGAGGAAGGCGAGCTGCGCCCGCAGTTGCTCGACCGCTTCGGCCTCAAGGTGCAGCTCGGCGGTACGCCCGAGCCCGCGCAGCGCGCCGAGATCGTCCGGCGCCGCCTGGCCTTCGACGAGGCGCCGCAGGCCTTCCTCGCCCGATGGCAGCGCGAGCAGGACGCCCTGCGCCAGCGCTGCGCCGAGGCGCGCCGACGCCTGAGCGAAATCCCGCTGGACGACGCCAGCCTGGACGCCATCGCCCAGCGCTGCTTCGCCGCCGCCGTGGACGGCCTGCGCGCCGACCTGGTCTGGCTGCGCGGCGCCCGCGCCCACGCCGCCTGGCGCGGCGCGAGCCGGATCGAGGCGCAGGATATCGACGCCCTGGAGCCCTTCGTCCTCGCCCATCGCCGCCGCGGGCAAACGCCACCCGCCGCCAGCCAGCCACCGGCACCGAACCAGTCGGAACAACAGCCCTCCCAACAGGAGCGGGGCGAAGGCCAGTGGGGCGCGCTGCCGCCGCAGGCCGTGGCGGTCGGCGAGCGCCGCGCGCCGCCGGCCTGGCCAAAAAAGCCCCTGAGCATCCGCCCGCGCCCGGCCACAGGCGCGGATGCCCTACCCCTCCCCGGCCAGGCCCCAGGCGGACGCAGCGGCGCCCGCGGCAACGGCGCGCCCACGCGCATCGACTGGCCGGCGACCCTCGCCCACGGCCGCCCGCGCCGCCACGCCGATCTGCGCTGGCACGCCCGTCAGCTGCGCCCCGGCGAGCTGTGGCTGGTGATCGTCGACGCCTCGGCCAGCACCCGCCGCCACGGCGCGCTGGCCCAGGCCAAGGGCCTGCTCGCGGAGCTGTTCGCCAGCGCCTACCGCCAGCGCGCGCGCCTGGCCGTGCTCGAAGCCGGCGGCGCCCAGCCGCGCTGGCTGTGGCAGGGACGGAAGGCTTCCAGCGAATTGCACAGCTGGCTGCAGCAACTCGGCGCCGGCGGCGGCACCCCGATCATCGAAGCCCTGCAACTGGCCACGCTCTGGCTGGTGCGCCGCCAGCGCTACAAGCCGGGCGAACGCCAGCGCCTGCTGCTGCTCACCGACGGCCGCCTGCGCGACTGGCCGCGCCTGGCCGCGCTGCCCTGCCCCGGCCTGCTGCTGGACATCGAGCGCGCGCCCATCCGCCTCGGCCGCGCCCGTCAGTTGGCCGCCGAGCTGGGCGCCGACTACCACCATATCGACGAACTGGCGCCGAGTCCCCGCGCGCCCACCTGGAACAGACCATGA</t>
+  </si>
+  <si>
+    <t>ATGCAGCCCCATTTCCCCCTGGCCGCCGTGGTGGCCGCCGACGACCTCAAACTGGCGCTGTGCCTGGCCGCCATCGATCCGGCCCTGGGCGGCGTGCTGATCGAAGGGCCGCGCGGCATGGCCAAGTCGACCCTGGCGCGCGGCGTGGCCGACCTGCTCGACGGCGGGCGCTTCGTCACCCTGCCGCTGGGCGCCAGCGAGGAACGCATCGTCGGCACCCTCGACCTCGACGCCGCGCTCGGCGAGGGCCGCGCGCGCTTCTCCCCCGGCGTGCTGGCCAACGCCCACGGCGGGGTGCTCTACGTCGACGAGGTCAACCTGCTGCCCGACCACCTGGTCGACCTGCTGCTCGACGTGGCCGCCAGCGGCATCAACCACGTCGAGCGCGATGGCCTGTCGCACAGCCACCCGGCGCGCTTCGTGCTGATCGGCACCATGAACCCCGAGGAAGGCGAGCTGCGCCCGCAGTTGCTCGACCGCTTCGGCCTCAAGGTGCAGCTCGGCGGTACGCCCGAGCCCGCGCAGCGCGCCGAGATCGTCCGGCGCCGCCTGGCCTTCGACGAGGCGCCGCAGGCCTTCCTCGCCCGATGGCAGCGCGAGCAGGACGCCCTGCGCCAGCGCTGCGCCGAGGCGCGCCGACGCCTGAGCGAAATCCCGCTGGACGACGCCAGCCTGGACGCCATCGCCCAGCGCTGCTTCGCCGCCGCCGTGGACGGCCTGCGCGCCGACCTGGTCTGGCTGCGCGGCGCCCGCGCCCACGCCGCCTGGCGCGGCGCGAGCCGGATCGAGGCGCAGGATATCGACGCCCTGGAGCCCTTCGTCCTCGCCCATCGCCGCCGCGGGCAAACGCCACCCGCCGCCAGCCAGCCACCGGCACCGAACCAGTCGGAACAACAGCCCTCCCAACAGGAGCGGGGCGAAGGCCAGTGGGGCGCGCTGCCGCCGCAGGCCGTGGCGGTCGGCGAGCGCCGCGCGCCGCCGGCCTGGCCAAAAAAGCCCTGA</t>
+  </si>
+  <si>
+    <t>ATGTCCGAACCTGGTCACTATCCCCTCAGCGCCGTGGTCGGCGCCGACGCGTTGAAGCTCGCGCTCTACCTCGCCGCCATCGACCCCGCCATCGGCGGCGTGCTGATCGAAGGCCCGCGCGGCATGGCCAAGTCCACCCTGGCCCGGGGCATCGCCGACCTGCTGCCGCGCGGCATCTTCGTCACCCTGCCCCTGGGCGCCAGCGAGGACCGCATCGTCGGCACCCTGGACCTGGACGCCGCCCTCGGCGAAGGCCGCGCACGCTTCTCCCCCGGCCTGCTGGCCCGTGCCCACGAGGGCGTGCTCTACGTGGACGAAGTGAACCTGCTGCCGGACCACCTGGTAGACCTGCTGCTGGACGTCGCCGCCAGCGGCACCAACCGTGTCGAGCGGGACGGCCTGTCCCACGCCCACCCGGCGCGCTTCGTGCTGATCGGCACCATGAACCCCGAAGAAGGCGACCTGCGCCCGCAGCTGCTGGACCGCTTCGGCCTCAAGGTCAGCCTCGACCACGCCCCGGCTCCGGCCGAACGCGCCGAGATCATCCGCCGTCGCCTGGCCTTCGACGCCGACCCGACCGCCTTCATCGCCCGCTGGAGCGCCGACCAGCAGGCCCTGGCCCACCGCTGCCAGGACGCCCGCGAACACCTCGCCACCATCCCGCTGGACGACCACGCCCTGGACGCCATCGCCCAGCGCTGCTTCGACGCCGGCGTCGACGGCCTGCGCGCCGACCTGGTCTGGCTGCGCGCCGCCCGCGCCCACGCCGCCTGGCGCGGCGCGACCGCCATCGCCCCCGAGGATATCGACGCCGTCGAGCACTTCGCCCTCGCCCACCGTCGCCACCACGCGCCGCCGCCGGCCGCACAGCCACCCCGCGAAGCGCCTGCCCAGCCCCCCCGCCCCCAGCAGGACGCAAGCGGCGAAGGCCAATGGGGCGAACTGCCCGCCCAACCCATGCCCACCGGGGAACGCAGGGCCCTGCCCGCCTGGCCAAAAAAGCCCCTGAGCACCCGCCCGCACCACGCCAAGGGGACGGGTGCCAAGCCCCGGCCAGGGCGCCTCGGCCAAGGCCGCAGCGGCGCCCGCAGTCCCGGCCAAGGGGGCGCCATCGCCTGGCTGCCGACCCTGCTGCGCGGCCGCCCGCGCCGGGCCGAAGACCTCATCCGCACACCCCGCAGCCGCGCAGCGGAACAGCTCTGGCTGGTGATCGTCGACGCCTCTGCCTCCACCCGCCGCCACGGCGCCCTGTCCCGTGCCAAGGGGCTGCTGGCCCAGCTCTTCGATGACGCCTACCGGGCACGCGCACGCCTCGCCGTGCTCGCCGCCAGCGGTCGCCAGGCCCAGTGGCATTGGCAGGGCCGCAAGGCCGACGCCCGCCTGCAACCCTGGCTGCAGGGCCTCGGAGCCGGCGGCGGCACGCCCCTGCCCGACGCCCTGGCCCAGGCCGCGCGCTGGCTGGCCACACGCCAGCGGCAACGGCCCGGCGAAGAGCAGCGCGTGCTGATCCTCACCGACGGCCGCCTCAAGGACCTGCCAGCCCTGCAACCCCTGGGCTGCACCACCCTGCTGGTGGACATCGAGTCCGGCCCCATCCGCCTCGGCCGCGCCCGCCAGCTCGCCACCCTCCTCGAAGCCGAGTACCAGGCGCTGGCGGATTGA</t>
+  </si>
+  <si>
+    <t>ATGTCCGAACCTGGTCACTATCCCCTCAGCGCCGTGGTCGGCGCCGACGCGTTGAAGCTCGCGCTCTACCTCGCCGCCATCGACCCCGCCATCGGCGGCGTGCTGATCGAAGGCCCGCGCGGCATGGCCAAGTCCACCCTGGCCCGGGGCATCGCCGACCTGCTGCCGCGCGGCATCTTCGTCACCCTGCCCCTGGGCGCCAGCGAGGACCGCATCGTCGGCACCCTGGACCTGGACGCCGCCCTCGGCGAAGGCCGCGCACGCTTCTCCCCCGGCCTGCTGGCCCGTGCCCACGAGGGCGTGCTCTACGTGGACGAAGTGAACCTGCTGCCGGACCACCTGGTAGACCTGCTGCTGGACGTCGCCGCCAGCGGCACCAACCGTGTCGAGCGGGACGGCCTGTCCCACGCCCACCCGGCGCGCTTCGTGCTGATCGGCACCATGAACCCCGAAGAAGGCGACCTGCGCCCGCAGCTGCTGGACCGCTTCGGCCTCAAGGTCAGCCTCGACCACGCCCCGGCTCCGGCCGAACGCGCCGAGATCATCCGCCGTCGCCTGGCCTTCGACGCCGACCCGACCGCCTTCATCGCCCGCTGGAGCGCCGACCAGCAGGCCCTGGCCCACCGCTGCCAGGACGCCCGCGAACACCTCGCCACCATCCCGCTGGACGACCACGCCCTGGACGCCATCGCCCAGCGCTGCTTCGACGCCGGCGTCGACGGCCTGCGCGCCGACCTGGTCTGGCTGCGCGCCGCCCGCGCCCACGCCGCCTGGCGCGGCGCGACCGCCATCGCCCCCGAGGATATCGACGCCGTCGAGCACTTCGCCCTCGCCCACCGTCGCCACCACGCGCCGCCGCCGGCCGCACAGCCACCCCGCGAAGCGCCTGCCCAGCCCCCCCGCCCCCAGCAGGACGCAAGCGGCGAAGGCCAATGGGGCGAACTGCCCGCCCAACCCATGCCCACCGGGGAACGCAGGGCCCTGCCCGCCTGGCCAAAAAAGCCCTGA</t>
+  </si>
+  <si>
+    <t>ATGAGCGACACCCCACATTTCCCGCTGTCCGCCGTGGTCGGCGCCGAAGCACTGAAACTGGCCCTGTGCCTGACCGCCATCGACCCGAAGATCGGCGGCGTGCTGATCGAAGGCCCACGGGGCATGGCCAAGTCGACCCTGGCCCGGGGCCTGGCGGACCTGTTGGCCAGCGGGCAGTTCGTCACCTTGCCCCTGGGCGCCACCGAAGAGCGTCTGGTGGGCACCCTGGACCTGGACGCCGCCCTGGGCCAGGGCCGGGCGCAATTTTCTCCGGGGGTGCTGGCCAAGGCCGACGGCGGCGTGCTCTACGTCGATGAAGTCAACCTGCTGCCTGACCACTTGGTGGACCTGTTGCTGGACGTGGCCGCCAGCGGCACCAACCTGATCGAGCGCGACGGTATTTCCCACCGCCATTCGGCGAAGTTCGTGCTGATCGGCACCATGAACCCGGAGGAGGGCGAACTACGTCCGCAACTGCTGGACCGTTTTGGCCTCAACGTCGCCCTCAGCGGCCAGCCCGCGCCCCAGGAGCGGGGGCAGATCATCCGCCGCCGCCTGGATTTCGACAGCGATCCCCAGGGCTTCTGCGCCCAGTGGGCCGAACCCCAGGCGGCATTGCGCGAGCGCTGCCAACAGGCGCGGGCCGCCCTGGCCAGCATCCCGCTGGACGACCAGGCCCTGGCGCTGATTACCGAGCGCTGCTTTGCTGCTGCCGTGGACGGCCTGCGCGCCGACCTGGTCTGGCTGCGCGCGGCCCGCGCCCATGCCGCCTGGCGTGGCGCCCCGGCGATTGCCGAGGAGGATATCGACGCCGTGGCCGAGTTCGCCTTGCGCCACCGGCGGCGGGAGACACCGCCCAGCGCGCCACAGTCCGGGCAAAGCCCCCAGGCACCGGCGCCAGCCAACGCCAACCCCAGCGAAGGCCAGGGCCAATGGGGCGAAATGCCGGCCCAGGCCCTGCCCACCGGCGCCCGTCGTGAGGTGCCCAGCTGGCCAAAAAAGCCCCTAGGCATCCGCCCCCGCACTGACCGGGGGGCGGATGCCAAGCCCCGGGCGGGGCACCTGGATCACGGCCGGCAAGGCAAAAGCCGCGAGGCCAGCGCCGGTTCGGTCAACTGGCCCGGCACCTTGCTCAAAGGCCGTCCACGGTTGCGTGCAGACCTGCTGTTTCGCTTGCGCAGCCGCTCGCCCCATGAGCTGTGGCTGGTGATAGTCGACGCGTCGGCCTCGACCCGCCGGCACAGCGCCCTGAGCGATGCCAAGGGCCTGCTGGCGCAACTGTTCGACGACGCTTACCGCCAGCGTGCACGCCTGGCCCTGCTCACTGCCAGCGGCCGTGCGCCGAGCTGGCAGGTCCAGGGCCTGAAGGCCTCCAGGGACCTGCGGCACTGGCTCGACGGCCTGGGTGCCGGCGGCGGCACGCCCTTGCCCCAAGCCCTGAACGAAGCGGCCCAGTGGCTGGAACAACGCCAACGGCGCCTGCCGGCGGAGCAGCAGCGCGTGCTGCTGATCACCGATGGCCGGCTGAAGAACCTGCCACCGCCCAGGCCCCTGAACTGCCCGACCTTGCTGCTCGACATCGAACGAGGCCCGATCCGCCTGGGCCGCGCCCGCGAACTTGCGACTCGGCTCAACGCTGTCTACCAGCATATCGACTGA</t>
+  </si>
+  <si>
+    <t>ATGAGCGACACCCCACATTTCCCGCTGTCCGCCGTGGTCGGCGCCGAAGCACTGAAACTGGCCCTGTGCCTGACCGCCATCGACCCGAAGATCGGCGGCGTGCTGATCGAAGGCCCACGGGGCATGGCCAAGTCGACCCTGGCCCGGGGCCTGGCGGACCTGTTGGCCAGCGGGCAGTTCGTCACCTTGCCCCTGGGCGCCACCGAAGAGCGTCTGGTGGGCACCCTGGACCTGGACGCCGCCCTGGGCCAGGGCCGGGCGCAATTTTCTCCGGGGGTGCTGGCCAAGGCCGACGGCGGCGTGCTCTACGTCGATGAAGTCAACCTGCTGCCTGACCACTTGGTGGACCTGTTGCTGGACGTGGCCGCCAGCGGCACCAACCTGATCGAGCGCGACGGTATTTCCCACCGCCATTCGGCGAAGTTCGTGCTGATCGGCACCATGAACCCGGAGGAGGGCGAACTACGTCCGCAACTGCTGGACCGTTTTGGCCTCAACGTCGCCCTCAGCGGCCAGCCCGCGCCCCAGGAGCGGGGGCAGATCATCCGCCGCCGCCTGGATTTCGACAGCGATCCCCAGGGCTTCTGCGCCCAGTGGGCCGAACCCCAGGCGGCATTGCGCGAGCGCTGCCAACAGGCGCGGGCCGCCCTGGCCAGCATCCCGCTGGACGACCAGGCCCTGGCGCTGATTACCGAGCGCTGCTTTGCTGCTGCCGTGGACGGCCTGCGCGCCGACCTGGTCTGGCTGCGCGCGGCCCGCGCCCATGCCGCCTGGCGTGGCGCCCCGGCGATTGCCGAGGAGGATATCGACGCCGTGGCCGAGTTCGCCTTGCGCCACCGGCGGCGGGAGACACCGCCCAGCGCGCCACAGTCCGGGCAAAGCCCCCAGGCACCGGCGCCAGCCAACGCCAACCCCAGCGAAGGCCAGGGCCAATGGGGCGAAATGCCGGCCCAGGCCCTGCCCACCGGCGCCCGTCGTGAGGTGCCCAGCTGGCCAAAAAAGCCCTAG</t>
+  </si>
+  <si>
+    <t>ATGACCGCCCCTGCCTTTCCCCTGGCCGCCGTTGTCGGCGCGGAATCCTTGAAGCTGGCGCTGTGCCTGAACGCCATCGATCCCCGTATCGGCGGGGTGCTGATCGAAGGGCCACGCGGCATGGCCAAGTCGACTCTGGCCCGCGGCCTGGCCGATCTGCTCGGCGGTGGTCTCTTCGTCACCCTGCCGCTGGGCGCCAGCGAGGAGCGCATCGTCGGCACCCTGGACCTGGACGCCGCCCTCGGCGAAGGGCGCGCGCGCTTCGCCCCCGGGGTGCTGGCCGCCGCCGATGGCGGGGTGCTCTATGTCGACGAGGTCAACCTGCTGCCGGATCACCTGGTGGATCTGCTGCTGGACGTGGCCGCCAGCGGCGTCAACCGGGTGGAGCGTGATGGCATCTCCCACGAGCACGCCTCCCGTTTCCTGCTGGTGGGCACCATGAATCCGGAGGAGGGCGAGTTGCGACCGCAGTTGCTCGACCGCTTCGGCTTCGCCCTGGCGCTGGACAGCCGGCCCGCACCGCGCGAACGGGCCGAGATCCTACGCCGGCGGCTGGCCTTCGATAGCGATCCCGCGGCCTTCGTCGCTCAGTGGGAGACCGTGCAAGCGGAGTTGCGCCAGCGCTGCGCTCAGGCGCGCGCACGCCTCGCCACCATTCCCCTGGATGATGCCTCGCTGGACACCATCACCGAGGGCTGCCATCAGGCCGATGTCGATGGCCTGCGCGCCGACCTGGTCTGGCTGCGCGCGGCCCGTGCCCATGCCGCCTGGCGCGGCGGTGCCTCCATCGAACACGCCGACATCGCCGCCGTGGCCGACTTCGCCCTGCGGCATCGTCGCCGGGATTCAACCGCCGCCCCGTCAGTAATACCACCCCTAAAGGATGAGTCACCTTCCTCCACACCGGAGCAGGAGACGGGTAAGCAACAGGGCAGGGGCAACGCCGAAAGTCCCGGCGATGCAGGCGATGCCTGGGGGGCTCTGGCGCCCGACCCTATGGCGAGTGGTCCGCGCCGTCGGCTGGGCGTGGCAAAAAAGCCCCTAGGCATCCGATCCATCCACACCGCGGATCGTGATGCCCAGGCGGGGGTGGGCAGGACCGCGGGTGGCCGTCAGGGTGCCCGTACAAGGGGCGACGAGGGCGCCATCGCCTGGCTGCCAACCCTGCTGCGCGGTCGTCCGCAGCGGGCTGCTGATTTGGTTCGCCAACCGCGTAGCCGCCGTCCGGCCCAGCTCTGGTTGGTGATCCTCGACCATTCCGCTTCCACCCGCCGGCATGGTGCTCTGGCCCAGGCCAAGGGCCTGCTGGTCGATTGGTTCGAGCAAGCCTATCGGCAGCGAGTAAGAGTCGCTGTGCTCCAGGCGGCCGGCGAGCGGCCGGAATGGTCCTTCCAGGGGCAACGCAGTGGTCAGGCGCTACAGGCCTGGCTGGAGACCTTGGGCGCAGGCGGTGGTACTCCATTGCTGGCCGGGCTGGAGGAGGCCCGGACGTGGCTCGAACGGCGCCGACGTCAGCAGCCGGGCGAGGAGTGCCAACTGCTGCTGGTTACCGATGGTCGGCTACGAGACCTGACGGGATTAACGGTGCCCGCTTGCCAGACTCTGGTACTGGATATCGAGCTTGGACCGGTTCGGCTGGGGCGGGCTACGGAGCTCGCCCGTCGTCTGGGGGCAGAGTACCGGCACCTGGAAGAGGTGCCGGAGATCTAG</t>
+  </si>
+  <si>
+    <t>ATGACCGCCCCTGCCTTTCCCCTGGCCGCCGTTGTCGGCGCGGAATCCTTGAAGCTGGCGCTGTGCCTGAACGCCATCGATCCCCGTATCGGCGGGGTGCTGATCGAAGGGCCACGCGGCATGGCCAAGTCGACTCTGGCCCGCGGCCTGGCCGATCTGCTCGGCGGTGGTCTCTTCGTCACCCTGCCGCTGGGCGCCAGCGAGGAGCGCATCGTCGGCACCCTGGACCTGGACGCCGCCCTCGGCGAAGGGCGCGCGCGCTTCGCCCCCGGGGTGCTGGCCGCCGCCGATGGCGGGGTGCTCTATGTCGACGAGGTCAACCTGCTGCCGGATCACCTGGTGGATCTGCTGCTGGACGTGGCCGCCAGCGGCGTCAACCGGGTGGAGCGTGATGGCATCTCCCACGAGCACGCCTCCCGTTTCCTGCTGGTGGGCACCATGAATCCGGAGGAGGGCGAGTTGCGACCGCAGTTGCTCGACCGCTTCGGCTTCGCCCTGGCGCTGGACAGCCGGCCCGCACCGCGCGAACGGGCCGAGATCCTACGCCGGCGGCTGGCCTTCGATAGCGATCCCGCGGCCTTCGTCGCTCAGTGGGAGACCGTGCAAGCGGAGTTGCGCCAGCGCTGCGCTCAGGCGCGCGCACGCCTCGCCACCATTCCCCTGGATGATGCCTCGCTGGACACCATCACCGAGGGCTGCCATCAGGCCGATGTCGATGGCCTGCGCGCCGACCTGGTCTGGCTGCGCGCGGCCCGTGCCCATGCCGCCTGGCGCGGCGGTGCCTCCATCGAACACGCCGACATCGCCGCCGTGGCCGACTTCGCCCTGCGGCATCGTCGCCGGGATTCAACCGCCGCCCCGTCAGTAATACCACCCCTAAAGGATGAGTCACCTTCCTCCACACCGGAGCAGGAGACGGGTAAGCAACAGGGCAGGGGCAACGCCGAAAGTCCCGGCGATGCAGGCGATGCCTGGGGGGCTCTGGCGCCCGACCCTATGGCGAGTGGTCCGCGCCGTCGGCTGGGCGTGGCAAAAAAGCCCTAG</t>
+  </si>
+  <si>
+    <t>ATGAGCGAACCTGCACACTTCCCCCTGGCCGCCGTGGTCGGCGCCGATGAGCTGAAACTGGCGCTGTGCCTGACGGCCATTGACCCTAAGATCGGCGGCGTGCTGATCGAAGGTCCGCGCGGCATGGCCAAGAGCACCCTGGCCCGCGGCCTGGCCGATTTGCTCGGTGAGGGGCCATTCGTGACCTTGCCGCTGGGCGCCAGTGAAGAACGCCTGGTCGGTACCCTCGACCTGGATGCGGCGCTGGGCCAGGGCAAGGCGCAGTTTTCGCCCGGGGTGCTGGCCAAGGCCGATGGCGGCGTGCTGTATGTGGATGAAGTCAATCTTTTGGCGGATCATCTGGTCGACCTGTTGCTGGACGTGGCCGCCAGTGGCACCAACCGGGTCGAGCGTGACGGTATCTCCCACCGCCACAGCGCCCGTTTCGTGCTGATTGGCACCATGAACCCGGAGGAGGGCGAGTTGCGCCCGCAGCTGCTCGATCGCTTTGGCTTGAACGTGGTGCTCGAAGGCCAGCCGTTGCCACAAGCCCGTGGCCAGATCATTCGCCGGCGCCTGGATTTCGACAGCGATCCCGAAGCGTTCTGCGCGCAATGGGCACCGGCCCAGGCTGCTCTGCGTGAACGCTGCCATGGCGCCCGTGAACGCCTGCAACAGATTGCCCTGGATGATCAGGCCCTCGCGCAGATTACCGAGCGCTGCTTTGCTGCAGGTGTCGATGGCCTGCGCGCCGACCTGGTCTGGCTGCGCGCCGCCCGGGCCCATGCGGCCTGGCGCGGCGCGCTGGCGATCGAGGCCGAGGATATCGATGCCGTGGCCGAGTTCGCCTTGCGCCATCGGCGCCGCGAAGCCCCGGCGCCACAGCCGCAAGCGCCTGATACCGGCGCAGCGGCGCAGCCATCGTCCGGCCAGCAAGGCCAGGGCCAATGGGGCGAAATGGCGCCACAAGCCACCCCGAGCGGTGCCCGTCGTGAGGTACCGAACTGGGCAAAAAAGCCCCTGAGCATCCGTCGGCCCACCAGCGCGGATGCCAAACCCCGACCTGGAGCACTTGCCACAGGCCCGCGTGGCCGGGGTAAACAGGCTGCATCCGGTGCGGTGGCCTGGCCTGCGACCTTGCTCAAGGGGCGCCCGCGTCAGCGCAATGACCTGTGCTGGCAACAACGCACGGCCAGTGCCCATGAACTGTGGCTGGTGATTGTCGATGCGTCGGCGTCCACCCGCCGGCATCAGGCCCTGAGCCGGGCCAAGGGCATGCTTGCCGGGTTTTTCGATCAGGCTTATCGCAACCGCGCGCGCTTGACCCTGCTCACCGCCAGCGGCAATGCGCCGCGTTGGCAGCGTCACGGGCTCAAGGCGTCGGTCAGCTTGCAGCCATGGCTGGAGGCATTGGGGGCGGGGGGCGGTACGCCATTGCTGGCGGCACTGGAGCAGGCTCGGGACTGGCTGCAGGCGCGCCAGCGACGCTATCCGACCGAACTGCAGCGTTGCCTGATTGTGACTGATGGTCGGCTCAAGGCCTGGGAAGCACTGCAGCCGTTACCTTGCCAGGCGCTGTTGGTGGATATCGAAAGTTCGCCAATCAAGCTGGGCAGGGCGCAGTTACTTGCGCAACAACTGCACGCCGATTATCAGCATCTGGAGACACTGGCGATACTCGGCAAGTAA</t>
+  </si>
+  <si>
+    <t>ATGAGCGAACCTGCACACTTCCCCCTGGCCGCCGTGGTCGGCGCCGATGAGCTGAAACTGGCGCTGTGCCTGACGGCCATTGACCCTAAGATCGGCGGCGTGCTGATCGAAGGTCCGCGCGGCATGGCCAAGAGCACCCTGGCCCGCGGCCTGGCCGATTTGCTCGGTGAGGGGCCATTCGTGACCTTGCCGCTGGGCGCCAGTGAAGAACGCCTGGTCGGTACCCTCGACCTGGATGCGGCGCTGGGCCAGGGCAAGGCGCAGTTTTCGCCCGGGGTGCTGGCCAAGGCCGATGGCGGCGTGCTGTATGTGGATGAAGTCAATCTTTTGGCGGATCATCTGGTCGACCTGTTGCTGGACGTGGCCGCCAGTGGCACCAACCGGGTCGAGCGTGACGGTATCTCCCACCGCCACAGCGCCCGTTTCGTGCTGATTGGCACCATGAACCCGGAGGAGGGCGAGTTGCGCCCGCAGCTGCTCGATCGCTTTGGCTTGAACGTGGTGCTCGAAGGCCAGCCGTTGCCACAAGCCCGTGGCCAGATCATTCGCCGGCGCCTGGATTTCGACAGCGATCCCGAAGCGTTCTGCGCGCAATGGGCACCGGCCCAGGCTGCTCTGCGTGAACGCTGCCATGGCGCCCGTGAACGCCTGCAACAGATTGCCCTGGATGATCAGGCCCTCGCGCAGATTACCGAGCGCTGCTTTGCTGCAGGTGTCGATGGCCTGCGCGCCGACCTGGTCTGGCTGCGCGCCGCCCGGGCCCATGCGGCCTGGCGCGGCGCGCTGGCGATCGAGGCCGAGGATATCGATGCCGTGGCCGAGTTCGCCTTGCGCCATCGGCGCCGCGAAGCCCCGGCGCCACAGCCGCAAGCGCCTGATACCGGCGCAGCGGCGCAGCCATCGTCCGGCCAGCAAGGCCAGGGCCAATGGGGCGAAATGGCGCCACAAGCCACCCCGAGCGGTGCCCGTCGTGAGGTACCGAACTGGGCAAAAAAGCCCTGA</t>
+  </si>
+  <si>
+    <t>ATGAGTGAACCCGTACAATTTCCGCTGGCGGCCGTGGTCGGTGCAGACGACCTCAAGCTGGCGCTGTGCCTGACCGCTATCGACCCCAGGATCGGTGGTGTGTTGATCGAAGGGCCGCGTGGCATGGCCAAGAGCACCCTGGCCCGTGGCCTGGCCGACCTGCTTGGCGAAGGCCCGTTCGTCACCTTGCCATTGGGCGCCAGTGAAGAGCGGCTGGTCGGCACCCTCGACCTGGATGCCGCGCTGGGGCAGGGCAAGGCGCAGTTTTCCCCGGGCGTGCTGGCCCAGGCCGACGGCGGTGTGCTGTATGTCGATGAGGTCAACCTGCTGCCCGACACCTTGGTCGATCTGTTGCTTGACGTGGCTGCCAGCGGCACAAACCGCATCGAGCGTGACGGTATCTCGCACCGGCACAGCGCCCGCTTCGTACTGATCGGCACCATGAACCCGGAAGAGGGCGAACTGCGCCCGCAGTTGCTCGACCGTTTCGGCTTGAACGTGGCGCTGGAGGGCTTGCCGGAGCCCGAGGCCCGGCAGCAGATCATTCGCCGCCGTCTGGCCTTCGACAATGACCCTCAGGCGTTCTGCGCACACTGGGCCCAGGCCCAGGCGCAACTGCGCGAGCGCTGCCACGCGGCGCGCCAGGCCTTGGCCGACATTGCCCTGGATGACCAGGCGCTTGCCTGGATTACCGAGCGCTGCTACGCCGCCGGCGTGGACGGCCTGCGCGCCGACCTGGTGTGGCTGCGCGCTGCGCGCGCCCACTGTGCCTGGCGTGGGGCTGCAGCTATCGAAGAAGTGGATGTCGAGGCGGTGGCCGAATTCGCCCTGCGCCATCGCCGCCGTATGACGCCCCAGGCCAGCCCGCCGTCGGCGCCACAGCCGCCTGACCAGCAGCCTGGCGCCGGCAACCCGGGTGAGCGGGGCGGGCAGGGCGACTGGGGGGCATTACCGGCACAGCCGGTAGCCAGCGGCGCCCGCCGCGAGGTGCCGAACTGGGCAAAAAAGCCCCTGAGCATCCCCCAGCCACCAGCCAAAGGGGCGGATGCCAGAGCGGGCATAGGCAAGCAGAACGGTACCCGCCGTGGCCTCGTGCGAAATGCGGCGGCCGGCCGGGTAGCCTGGCTGCCGACCTTGCTCAAAGGACGGCCACGCCAGCGACAGGACCTGTGCTGGCAGCAGCGCCAAGGCAGGCCTGCTGAGTTGTGGCTGGTGATCGTCGATGCCTCGGCTTCAACCCGGCGCCATCAGGCGCTGGCGCAGACCAAAGGGCTGCTGGCGGCGTTGTTCGACCAAGCCTATCGACAACGCGCCCGCCTGGCCCTGCTGACTGCCAGCGGGCGCACACCACAGTGGCAGCGCCACGGGCTGAAGGCATCCGCTGCCTTGCAACCCTGGCTGCAGGCCTTGGGAGCAGGTGGGGGCACGCCGCTGATCGCCGCACTGGAACAGGCGCGGCACTGGCTACAGGCGCGGCAGCGAGCCCATCCGCAAGAGGCCTTGCGTTGCCTGGTGTTCACCGACGGTCGCCTGCAGCACAGCAATACCGTGCAGCCGATGCCGTGCGCCACGTTGTTGGTCGATATGGAACTGGCGCCCGTGCGCCTGGGACGCGCGCAGCGTCTGGCAGAACAATTGCAGGCTGATTACCAGCACTTGCAACAATTCAGGGTGATGGATTGA</t>
+  </si>
+  <si>
+    <t>ATGAGTGAACCCGTACAATTTCCGCTGGCGGCCGTGGTCGGTGCAGACGACCTCAAGCTGGCGCTGTGCCTGACCGCTATCGACCCCAGGATCGGTGGTGTGTTGATCGAAGGGCCGCGTGGCATGGCCAAGAGCACCCTGGCCCGTGGCCTGGCCGACCTGCTTGGCGAAGGCCCGTTCGTCACCTTGCCATTGGGCGCCAGTGAAGAGCGGCTGGTCGGCACCCTCGACCTGGATGCCGCGCTGGGGCAGGGCAAGGCGCAGTTTTCCCCGGGCGTGCTGGCCCAGGCCGACGGCGGTGTGCTGTATGTCGATGAGGTCAACCTGCTGCCCGACACCTTGGTCGATCTGTTGCTTGACGTGGCTGCCAGCGGCACAAACCGCATCGAGCGTGACGGTATCTCGCACCGGCACAGCGCCCGCTTCGTACTGATCGGCACCATGAACCCGGAAGAGGGCGAACTGCGCCCGCAGTTGCTCGACCGTTTCGGCTTGAACGTGGCGCTGGAGGGCTTGCCGGAGCCCGAGGCCCGGCAGCAGATCATTCGCCGCCGTCTGGCCTTCGACAATGACCCTCAGGCGTTCTGCGCACACTGGGCCCAGGCCCAGGCGCAACTGCGCGAGCGCTGCCACGCGGCGCGCCAGGCCTTGGCCGACATTGCCCTGGATGACCAGGCGCTTGCCTGGATTACCGAGCGCTGCTACGCCGCCGGCGTGGACGGCCTGCGCGCCGACCTGGTGTGGCTGCGCGCTGCGCGCGCCCACTGTGCCTGGCGTGGGGCTGCAGCTATCGAAGAAGTGGATGTCGAGGCGGTGGCCGAATTCGCCCTGCGCCATCGCCGCCGTATGACGCCCCAGGCCAGCCCGCCGTCGGCGCCACAGCCGCCTGACCAGCAGCCTGGCGCCGGCAACCCGGGTGAGCGGGGCGGGCAGGGCGACTGGGGGGCATTACCGGCACAGCCGGTAGCCAGCGGCGCCCGCCGCGAGGTGCCGAACTGGGCAAAAAAGCCCTGA</t>
+  </si>
+  <si>
+    <t>ATGTCCGAGCTTCCCCATTTCCCACTGAGCGCCGTCGTCGCTTCCGACGAGCTGAAGTTGGCGCTCTGCCTCGCCGCCATCGACCCCGCCATCGGCGGCGTACTGATCGAAGGCCCCCGTGGCATGGCCAAGTCCACCCTGGCCCGTGGCGTCGCCGACCTGCTGGAAGACGCCAGTTTCGTCACCCTGCCGCTGGGCGCCAGTGAGGAACGCATCGTCGGCACCCTCGACCTGGACGCGGCCCTCGGCGAAGGTCGCGCACGCTTCTCCCCGGGCGTGCTGGCCAAGGCCCACGGCGGCGTGCTCTACGTAGACGAAGTGAACCTGCTCCCCGACCACCTGGTGGACCTGCTGCTGGACGTGGCCGCCAGCGGCATCAACCAGGTGGAGCGCGATGGCATCTCCCACCAGCATCCGGCGCGCTTCGTGCTGATCGGCACCATGAACCCCGAAGAGGGCGAACTGCGCCCGCAACTGCTGGACCGCTTCGGCCTCAAGGTCCTGCAGGGCGGCCAGCCGCAACCGGCCGAGCGCGCCGAGATCGTTCGCCGTCGACTGGCCTTCGATACCGACCCGCAGGCGTTCCTCGCCCGCTGGAGCAACCTGCAGCAGGCCCTGGCACAACGCTGCCAGGACGCCCGCGCGCGGCTGCCGGCCATTCCCCTGGACGATGCCGCCCTGGACGAGATCGCCCAGCGCTGCTTCGCCGCCGGGGTCGACGGCCTGCGCGCCGACCTGGTCTGGCTGCGCGCCGCCCGCGCCCATGCCGCCTGGCGCGGCGTCGAACGCATCGAGGCCGAGGACATCGACGCCGTCGAGCATTTCGCCCTCGCCCATCGCCGCACCCACACCCCGCCGCCCGCCGCGCAGCCACCGGAATCCCCGTCCGCCAACGCACAGTCCCAGCCGTCCACTGGCGAAGGCCAGTGGGGCGAACTACCGGCGCAAACCGTGCCCATGGGTGAACGACGCGAGTTGCCGCGCTGGCCAAAAAAGCCCCTGAGCATCCGCCCGCGCACGGTCACAGGGGCGGGTGCGGGGTCCAGGCCCGGCGCCCTCGGCAATGGCCGCAGCGGTGCGCGCCGCAGCGGAAACGCCGGCGCCATCCAATGGTTGCCGACGCTATTGCGCGGGCGCCCGCGCCAGGCTGCGGACCTGATCCGCGCGCCCCGCAGCCGGCAACCCGACGAACTCTGGCTGGTGCTGGTGGACGCCTCCGCCTCCACCCGCCGCCACGGCGCCCTAACCCAGGCCAAAGGCCTGCTGGCCGGCGTCTTCGAGACCGCCTACCGCCAGCGTGCGCGCCTCGCCGTGCTCCACGCCACCGGCCGCCAGCCGCAGTGGCTGTGGCAGGGCAGCAAGGCCTCCCCGGCCCTGCACCACTGGCTCGCCGAACTAGGCGCCGGTGGCGGCACCCCGCTGATCGAGGCCCTGCAACAATCCGCCCAGTGGCTGACGCGCCGGCAACGGCAGAAGCCGGCGGAGGAGCAGCGGGTGCTGATCCTCACCGATGGGCGTTTGAAGGAGTGGCCGGCGCTGGACCCGATGGGCTGCCCGACGCTGCTGGTGGATATCGAGGGCGGCCCGGTGCGCCTGGGGCGGGCGCGCAAGCTGGCGGATGAACTGGGGGCGGAGTACCGAGTCATCGCCGAACTTTAG</t>
+  </si>
+  <si>
+    <t>ATGTCCGAGCTTCCCCATTTCCCACTGAGCGCCGTCGTCGCTTCCGACGAGCTGAAGTTGGCGCTCTGCCTCGCCGCCATCGACCCCGCCATCGGCGGCGTACTGATCGAAGGCCCCCGTGGCATGGCCAAGTCCACCCTGGCCCGTGGCGTCGCCGACCTGCTGGAAGACGCCAGTTTCGTCACCCTGCCGCTGGGCGCCAGTGAGGAACGCATCGTCGGCACCCTCGACCTGGACGCGGCCCTCGGCGAAGGTCGCGCACGCTTCTCCCCGGGCGTGCTGGCCAAGGCCCACGGCGGCGTGCTCTACGTAGACGAAGTGAACCTGCTCCCCGACCACCTGGTGGACCTGCTGCTGGACGTGGCCGCCAGCGGCATCAACCAGGTGGAGCGCGATGGCATCTCCCACCAGCATCCGGCGCGCTTCGTGCTGATCGGCACCATGAACCCCGAAGAGGGCGAACTGCGCCCGCAACTGCTGGACCGCTTCGGCCTCAAGGTCCTGCAGGGCGGCCAGCCGCAACCGGCCGAGCGCGCCGAGATCGTTCGCCGTCGACTGGCCTTCGATACCGACCCGCAGGCGTTCCTCGCCCGCTGGAGCAACCTGCAGCAGGCCCTGGCACAACGCTGCCAGGACGCCCGCGCGCGGCTGCCGGCCATTCCCCTGGACGATGCCGCCCTGGACGAGATCGCCCAGCGCTGCTTCGCCGCCGGGGTCGACGGCCTGCGCGCCGACCTGGTCTGGCTGCGCGCCGCCCGCGCCCATGCCGCCTGGCGCGGCGTCGAACGCATCGAGGCCGAGGACATCGACGCCGTCGAGCATTTCGCCCTCGCCCATCGCCGCACCCACACCCCGCCGCCCGCCGCGCAGCCACCGGAATCCCCGTCCGCCAACGCACAGTCCCAGCCGTCCACTGGCGAAGGCCAGTGGGGCGAACTACCGGCGCAAACCGTGCCCATGGGTGAACGACGCGAGTTGCCGCGCTGGCCAAAAAAGCCCTGA</t>
+  </si>
+  <si>
+    <t>ATGACCGACACCGTGCACTTTCCGCTGGCCGCTGTGGTGGCCGCCGATTCGCTGAAGCTGGCGCTGTGTCTGGCAGCCATCGACCCGCGCATCGGTGGGGTGTTGATCGAAGGGCCGCGGGGCATGGCCAAGAGCACGCTGGCGCGGGGGCTGGCCGACCTGCTTGCCGATGGCCAGTTGGTGACCTTGCCACTGGGTGCCAGCGAAGACCGTCTGGTCGGCACGCTGGACCTGGAGGCCGCACTGGGCGAGGGGCGGGCACGCTTTTCGCCCGGTGTGCTGGCCAGGGCCGACGGCGGGGTGCTGTATGTGGATGAGGTCAACCTGCTCGCCGACCATTTGGTGGACCTGCTGCTGGACGTTGCCGCCAGTGGCGTCAACCGCATCGAGCGTGACGGTATTTCCCATGCTCATCCAGCGCGCTTCGTACTGATCGGCACCATGAATCCCGAGGAAGGCGAGTTGCGCCCGCAGCTGCTCGACCGGTTCGGTCTGAACATCGCCCTGGATGGCCAGCCGGCCCCGGCCGAACGCGGCCAGATCATTCGCCGCCGCCTGGCGTTCGACAGCGACCCCCAGGGCTTCTGCGAGCAATGGGCCCCGGCCCAGGCAGCGCTGCGGTTGCGTTGCCAACAGGCACGGGAACGCCTCGAATCGATCCCGCTGAGCGACCAGGCCCTGGAAGCCATTACCACCCGCTGTTTCGCCGAAGGCGTGGACGGCCTGCGTGCCGATCTGGTGTGGCTGCGCGCGGCACGGGCGCACGCAGCGTGGCGCGGCGGCGACGATATTCTGGAGGAAGACGTTGAAGCGGTGGCCGAGTTCGCCTTGCGCCACCGTCGCCAGGCACCACGCAAGCCGCAGCCCCAGCGAGAATCGAAGCCGGCGCCACCGCCCCCCGCTGAGAGCGCCGCGCAACCCTCTGATCCGGGTCAGGGCCAGTGGGGCGACATGCCCGCTCAGGCCGTTCCGGTAGGTGACCGCCGCAGCGTGCCGAGCTGGCCAAAAAAGCCCCTGAGCATCCGTCCGCGCCCAGCGGATGCTCGGCCCGGCCAGGGCAACCTCGAACAAGGGCGACAAGGCGCGGCGCGTGCGGCGTCGAGCGGTACGCTCGACTGGCCGGCGACCCTGCTGCAAGGACGACCGCGTCAGCGCGATGACCTGCGCTGGCAGCAACGTCGCAGCGCGGCGCAGCAACTGTGGCTGGTGGTGGTCGACGCTTCTGCCTCGACGCACCGTCACGGCGCTCTGGCCGAGGCCAAGGGCGTGCTGGCGCAGGTCTTCGACGATGCCTACCGGCAACGCGCACGGCTGGCGTTGTTGACCGCCAGTGGCAGCGGACCGATCTGGCAATGCCACGGCCTGAAAGCCTCGGCAGCACTGCAGCCCTGGCTCGAGGCACTGGGCGCAGGGGGCGGTACGCCATTGCTGGCGGCATTGGCCGAGGCCGACGATTGGCTCAGGCAACGCGCGCGGCGCTATCCGCAGGAGGCACAGCGCTGCCTGGTGTTCACCGACGGGCGTCTGAAGTCCCTTGAAGGCGTAGCCCCGCTGGCCTGCCCGGCGTTATTGCTGGACATGGAAATGAGCCCGATCCGACTGGGCCGCGCCCGTACCCTGGCGGCTGCCCTGGGCGCCGAGTATCAACATCTGGAAGATCTGCCACGGGCCTAG</t>
+  </si>
+  <si>
+    <t>ATGACCGACACCGTGCACTTTCCGCTGGCCGCTGTGGTGGCCGCCGATTCGCTGAAGCTGGCGCTGTGTCTGGCAGCCATCGACCCGCGCATCGGTGGGGTGTTGATCGAAGGGCCGCGGGGCATGGCCAAGAGCACGCTGGCGCGGGGGCTGGCCGACCTGCTTGCCGATGGCCAGTTGGTGACCTTGCCACTGGGTGCCAGCGAAGACCGTCTGGTCGGCACGCTGGACCTGGAGGCCGCACTGGGCGAGGGGCGGGCACGCTTTTCGCCCGGTGTGCTGGCCAGGGCCGACGGCGGGGTGCTGTATGTGGATGAGGTCAACCTGCTCGCCGACCATTTGGTGGACCTGCTGCTGGACGTTGCCGCCAGTGGCGTCAACCGCATCGAGCGTGACGGTATTTCCCATGCTCATCCAGCGCGCTTCGTACTGATCGGCACCATGAATCCCGAGGAAGGCGAGTTGCGCCCGCAGCTGCTCGACCGGTTCGGTCTGAACATCGCCCTGGATGGCCAGCCGGCCCCGGCCGAACGCGGCCAGATCATTCGCCGCCGCCTGGCGTTCGACAGCGACCCCCAGGGCTTCTGCGAGCAATGGGCCCCGGCCCAGGCAGCGCTGCGGTTGCGTTGCCAACAGGCACGGGAACGCCTCGAATCGATCCCGCTGAGCGACCAGGCCCTGGAAGCCATTACCACCCGCTGTTTCGCCGAAGGCGTGGACGGCCTGCGTGCCGATCTGGTGTGGCTGCGCGCGGCACGGGCGCACGCAGCGTGGCGCGGCGGCGACGATATTCTGGAGGAAGACGTTGAAGCGGTGGCCGAGTTCGCCTTGCGCCACCGTCGCCAGGCACCACGCAAGCCGCAGCCCCAGCGAGAATCGAAGCCGGCGCCACCGCCCCCCGCTGAGAGCGCCGCGCAACCCTCTGATCCGGGTCAGGGCCAGTGGGGCGACATGCCCGCTCAGGCCGTTCCGGTAGGTGACCGCCGCAGCGTGCCGAGCTGGCCAAAAAAGCCCTGA</t>
+  </si>
+  <si>
+    <t>ATGCATGAACCCCTGAACTTCCCCCTGGCCGCCGTGGTGGCCGCCGACGAGCTGAAGCTGGCGCTGTGTCTGGCGGCCATCGACCCGGCCATCGGCGGCGTGCTGATCGAGGGGCCGCGCGGCATGGCCAAGTCGACTCTGGCCCGCGCGGTAGCCGAACTGCTCGACGGCGGCCAACTGGTGACTCTGCCGCTGGGCGCCACCGAGGAACGCATCGTCGGCACCCTCGATCTCGACGCGGCGCTGGGCGAGGGCCGCACGCGCTTCGCCCCCGGCCTGCTGGCCCGCGCCCACGGCGGCGTGCTCTATGTCGACGAGGTCAACCTGCTGGCCGACCACCTGGTCGACCTGCTGCTCGATGTCGCCGCCAGCGGGGTCAACCACGTCGAGCGCGACGGCATTTCCCACCGCCACGCCGCGCGCTTCGTGCTGATCGGCACCATGAACCCGGAGGAGGGCGAGCTGCGCCCGCAGCTGCTCGACCGCTTCGGCCTCGCCGTCAGCCTCGGCGGCGCGCCGCTGCCGGCCGAACGCGCCGAGATCATGCGCCGTCGGCTGGCCTTCGATAGCGACCCGCCTGCCTTCCGCACCGCTTGGCAGGCGGCGCAGGACGAGCTGCTGGCGCGCTGCCGGCAGGCCCGCGAGCGGCTCGATGCGATCCCGCTGGACGACGCGGCGCTGGAGGCCATCGCCGCGCGCTGCTACGCCGCCGGCATCGACGGCCTGCGCGGCGATCTGGTCTGGCTGCGCGCCGCTCGCGCCCACGCCGCCTGGCGCGGCGCCACGGCCATCGAGGCGCAGGACATCGACGCGGTGGAGAGCTTCGTCCTGCGTCATCGGCGCAACGGCGAGGCGCCGCCCGAGGACAATGGCGCCCGCGACACGGGCGGATCGGCTGCCCAGGACGGCGACGCCGGCGAAGGGCAGTGGGGTGAACTGCCGGCGCAGCCGGTGGCCATCGGCGAGCGGCGGGCGGTGCCGCGCTGGGCAAAAAAGCCCCTGAGCATCCGCCCGCCAACGCCCCAGGGCGCGGATGCACGCCACCGGGAAGCTCGCCAGCCGGCCCGGCGCGGCCGCGCCGGCGCACCCGGCGTTGGTGCTCCGGACTGGCCGCGCAGCCTGCAGCGCGGGCGCCCGCGCACGCGCGCCGAGCTGCACTACCGCAGCCACCAGGCCAGTGCGCCGCAGTTGTGGCTGGTGCTGGTCGACGCCTCGGCCTCGACCCGCCGCCACGGCGCCCTGCGCCGCGCCAAGGGCCTGCTCGCCGAGCTGCTCGAGCAGGCGCGCCATCAGCGCGTGAGCCTGGCGCTGCTGCAGGCCGATGGCGCCAAACCGCGCTGGTTCTGCCGCGGTCAGCGTGCCCCGCAGGCCGCCCGCCGTTGGCTGGAGCAACTCGGCGCCGGCGGCGGCACGCCGTTGCCGGCCGCGCTGGCCGAAGCCGGCGGCTGGCTGCAGCGCCGCCGCCGCACGCATCCCGGCGAGCGCCAGCAGTTCTGGCTGCTCACCGATGGCCGCCTGCGCGAGCTGCCGAGGCTTGAGCCGCTGTCATGCCCGGCGCTGCTGATCGACATCGAGAGCGGTCCGCTGCGTCTGGGGCGGGCCAGGGCGCTGGCCGCGGCGCTGGGTGCCGAGTACCGGCATATCGACGCGCTGCCGCTGGCCTGA</t>
+  </si>
+  <si>
+    <t>ATGCATGAACCCCTGAACTTCCCCCTGGCCGCCGTGGTGGCCGCCGACGAGCTGAAGCTGGCGCTGTGTCTGGCGGCCATCGACCCGGCCATCGGCGGCGTGCTGATCGAGGGGCCGCGCGGCATGGCCAAGTCGACTCTGGCCCGCGCGGTAGCCGAACTGCTCGACGGCGGCCAACTGGTGACTCTGCCGCTGGGCGCCACCGAGGAACGCATCGTCGGCACCCTCGATCTCGACGCGGCGCTGGGCGAGGGCCGCACGCGCTTCGCCCCCGGCCTGCTGGCCCGCGCCCACGGCGGCGTGCTCTATGTCGACGAGGTCAACCTGCTGGCCGACCACCTGGTCGACCTGCTGCTCGATGTCGCCGCCAGCGGGGTCAACCACGTCGAGCGCGACGGCATTTCCCACCGCCACGCCGCGCGCTTCGTGCTGATCGGCACCATGAACCCGGAGGAGGGCGAGCTGCGCCCGCAGCTGCTCGACCGCTTCGGCCTCGCCGTCAGCCTCGGCGGCGCGCCGCTGCCGGCCGAACGCGCCGAGATCATGCGCCGTCGGCTGGCCTTCGATAGCGACCCGCCTGCCTTCCGCACCGCTTGGCAGGCGGCGCAGGACGAGCTGCTGGCGCGCTGCCGGCAGGCCCGCGAGCGGCTCGATGCGATCCCGCTGGACGACGCGGCGCTGGAGGCCATCGCCGCGCGCTGCTACGCCGCCGGCATCGACGGCCTGCGCGGCGATCTGGTCTGGCTGCGCGCCGCTCGCGCCCACGCCGCCTGGCGCGGCGCCACGGCCATCGAGGCGCAGGACATCGACGCGGTGGAGAGCTTCGTCCTGCGTCATCGGCGCAACGGCGAGGCGCCGCCCGAGGACAATGGCGCCCGCGACACGGGCGGATCGGCTGCCCAGGACGGCGACGCCGGCGAAGGGCAGTGGGGTGAACTGCCGGCGCAGCCGGTGGCCATCGGCGAGCGGCGGGCGGTGCCGCGCTGGGCAAAAAAGCCCTGA</t>
+  </si>
+  <si>
+    <t>ATGACCTTGCCTGATTCAAGCCTGAGCGACACTGCGCATTTCCCCTTGGCCGCCGTGGTCGGGGCCGACGACCTGAAACTGGCGCTGTGCCTGACCGCCATCGACCCGCGTATTGGCGGAGTATTGATCGAAGGCCCGCGTGGCATGGCCAAGTCGACCCTGGCGCGCGGTCTGGCTGATCTGCTGGCCAGCGGTCAGTTCGTCACCTTGCCGTTGGGCGCGACCGAAGAGCGTCTGGTCGGCACCCTGGACCTTGATGCCGCTCTGGCCGAGGGCCGCGCACGTTTCTCTCCGGGTGTGCTGGCCAAAGCTGACGGCGGGGTGCTGTACGTCGATGAAGTCAACCTGCTCGCCGATCATCTGGTTGACCTGCTGCTGGACGTTGCCGCCAGTGGCGTCAATCTGGTCGAGCGCGACGGTATTTCCCATCGACACGCGGCGCGTTTCGTGCTGATTGGCACCATGAACCCGGAAGAGGGCGAGTTGCGCCCTCAATTGCTGGACCGTTTTGGCCTGAACGTGGCACTGAGCGGCCAGACACTGCCCGTCGAACGCAGCCAGATCATCCGCCGACGTCTGGATTTTGATGCTGATCCCCTGAGTTTTTGTCAGCACTGGCAGGCGCAGCAGGACGCCTTGAAGCAGCGTTGCGAGCAGGCGCGTCTGCTACTGCCGAGCATTGAGCTGGATGATCATTCGTTGGCGGTGATTACCGAGCGCTGCTTTGCAGCCGGGGTTGATGGCATGCGTGCAGACCTGGTCTGGCTAAGGGCTGCACGCGCTCATGCCGCCTGGCGCAGTGTTGGCCAGATCGACGAGCAGGACATCGAAGCCGTTGCTGAATTTGCCCTACGCCACAGGCGCCGCGACCCGGCTCCGCCGCCGCAGAATCAGCAAGCTGAGCCGCCTGAAACGTCTCCCAAGCCAGACAAGCCCGAGAGCGGGCAGGGCAATTGGGGCGAGTTACCCGCACAGGCGGTGGTTACCGGATCGCGCCGCGAAGTGCCGAGCTGGCCAAAAAAGCCCCTAGGCATCCGCCCTCGCGCCAAACAGGGGGCGGATGCCATTCCCCGTCCCGGTCGATTGGCCAGCGGCAGGCAGGGTGCCGTCCGTGCGGGCGTTGATGGACCGGTGCAATGGCTGCCGACACTGCTGCGCGGTCGTCCGAAGAGCCGCAAGGATCTGGTTCACCAACCGCGCAGCAGTCGTCCGAGTGAATTGTTGCTGGTGGTGGTCGATGCCTCGGCCTCGACGCGTCGCCATCAGGCCTTGAGTCAGGCCAAAGGCCTGTTGTCACAGGTATTCGATGACGCCTATCGACGCCGCGCCCGTCTGGCATTGCTCACTGCCAGCGGCAGCACACCACGCTGGCAACATCAGGGCCTCAAGGCCTCGTCGGCCTTGAACCCATGGCTGGACGCATTGGGTGCGGGCGGCGGCACGCCATTGTCGGCGGCCCTGCAACAAGCCATGACCTGGCTGGAACAACGCCAAAAACGCCATCCCGCCGAACAGCAGCGAGTGCTGGTCATGACCGACGGCAGAATCAAACAACTGCCAACGCTGCCTGCCTTCAACTGCGCAAGCCTGCTGATCGACATCGAAAAAGGCCCGATCCGCTTGGGAAGGGCTCGGGAGCTGGCTGCAAGCCTGGGTGCTGATTACCGGCATATTGATGAGCTGAAGCTGGTTTGA</t>
+  </si>
+  <si>
+    <t>ATGACCTTGCCTGATTCAAGCCTGAGCGACACTGCGCATTTCCCCTTGGCCGCCGTGGTCGGGGCCGACGACCTGAAACTGGCGCTGTGCCTGACCGCCATCGACCCGCGTATTGGCGGAGTATTGATCGAAGGCCCGCGTGGCATGGCCAAGTCGACCCTGGCGCGCGGTCTGGCTGATCTGCTGGCCAGCGGTCAGTTCGTCACCTTGCCGTTGGGCGCGACCGAAGAGCGTCTGGTCGGCACCCTGGACCTTGATGCCGCTCTGGCCGAGGGCCGCGCACGTTTCTCTCCGGGTGTGCTGGCCAAAGCTGACGGCGGGGTGCTGTACGTCGATGAAGTCAACCTGCTCGCCGATCATCTGGTTGACCTGCTGCTGGACGTTGCCGCCAGTGGCGTCAATCTGGTCGAGCGCGACGGTATTTCCCATCGACACGCGGCGCGTTTCGTGCTGATTGGCACCATGAACCCGGAAGAGGGCGAGTTGCGCCCTCAATTGCTGGACCGTTTTGGCCTGAACGTGGCACTGAGCGGCCAGACACTGCCCGTCGAACGCAGCCAGATCATCCGCCGACGTCTGGATTTTGATGCTGATCCCCTGAGTTTTTGTCAGCACTGGCAGGCGCAGCAGGACGCCTTGAAGCAGCGTTGCGAGCAGGCGCGTCTGCTACTGCCGAGCATTGAGCTGGATGATCATTCGTTGGCGGTGATTACCGAGCGCTGCTTTGCAGCCGGGGTTGATGGCATGCGTGCAGACCTGGTCTGGCTAAGGGCTGCACGCGCTCATGCCGCCTGGCGCAGTGTTGGCCAGATCGACGAGCAGGACATCGAAGCCGTTGCTGAATTTGCCCTACGCCACAGGCGCCGCGACCCGGCTCCGCCGCCGCAGAATCAGCAAGCTGAGCCGCCTGAAACGTCTCCCAAGCCAGACAAGCCCGAGAGCGGGCAGGGCAATTGGGGCGAGTTACCCGCACAGGCGGTGGTTACCGGATCGCGCCGCGAAGTGCCGAGCTGGCCAAAAAAGCCCTAG</t>
+  </si>
+  <si>
+    <t>ATGACTGATACTCCGCAATTTCCTTTGGCTGCCATTGTAGGAGCTGACTCCTTGAAGTTGGCGCTTTGCCTCAATGCCATTGATCCGGGTATCGGTGGGGTATTGATCGAAGGCCCGCGCGGTATGGCGAAGTCCACCCTGGCACGCGGCGTGACCGCCCTGATGCCGGGTGGTTCATTCGTGACCTTGCCATTGGGGGCCAGCGAAGAGCGTATTACCGGCACACTCGACCTGAACGCCGCCCTGGGTGAAAAGCGCGCTGCATTTTCACCTGGCGTGTTGGCCAAGGCGGACGGCGGAGTGTTGTATGTGGATGAGGTCAATCTGCTGCCGGATCATCTGGTTGACCTGTTGTTGGACGTAGCCGCCAGTGGTGTAAACACCGTGGAGCGCGACGGGATTTCCCATCGGCATCCGGCGCGCTTTGTACTGATTGGCACCATGAACCCCGAGGAGGGGGAGTTACGTCCTCAATTACTGGATCGGTTTGGTTTCAATGTGGCGCTGAATGCCCATCCTGCGCCAGCAGAGCGAGCCGAAATCATGCGTCGTCGGCTGGCGTTCGACCTTGATCCGCCCGGCTTTATTGCCAGTTGGGCCGGAAGCCAGGCGGACCTTGTCGAGCGCTGCCAGGCTGCACGTAGCCGGTTGGCAGGGGTCGCACTGGATGATCTGTCGCTTTCGCGTATTGCCGAGCGCTGTTTTGCAGCGGCAGTGGATGGCATGCGTGCGGACCTGGTATGGCTAAGGGCAGCACGCGCCCATGCGGCTTGGCGCGGTAACGAAATGATTACTGAAGATGATATCGATGCGGTGGAAGAGTTCGCGTTGCGTCATCGCCGACGACAGCAACCCCCTTCGGAGTTACCGCCACCGCCATCTTCTGATCGTCCCGTCTCCGAACCCTCTTCAAGCCATTCGAAGAGTGAAGGGCAATGGGGTGAGCTACCGCCTCAGGCGACGGCGATTGGAGAAAAGCGCTCAGGTGAGGGTTGGCCAAAAAAGCGCCTGAGCATTCGCCCGCGTGTAACCCAAGTGGCGGATGCTCGACCTTTACCGGGGAAGGCCAGTAGCGGTCGGCACGGTGCTTCTCGCACAGGTGAGGCAGGGGCAGTTGCCTGGGTACCCACCTTACTGAGGGGGCTTCCTCGACGTGAGGCTGACCTGATACGCCAGCCTCGCTCTCAGTTGCCACGAGAGCATTGGTTGTTCATTGTCGATGCCTCGGCGTCCATGCGACGTCATGGCGCCCTGGTTCAAGCCAAGGGCGTATTGCTGGGTTTTCTCGAGCAGGCTTACCGCGCGCGGGCAAGCGTAGCGGTGCTAGGGGCAACAGGTGTACAGCCGCACTGGCTTGCCCAGGCTCGTCGAGCCAGTCAGCAGGTTCCGGGTTGGCTTGAAGACCTGGGTGCAGGGGGCGGTACTCCCTTGCTTGAGTCCCTGGAACACGCACATGAGTGGCTAAAGCAACACCAATGTCGTCTCGGCAATGAGCCGGTAAGTGTCGTTGTGATGACCGATGGCCGTGTACGCGCCTGGACCTCATTGCCTCGTCTTGATGCGTCTGTCCTTGTCATCGATACCGAGCGTGCTCCGGTTCGCGTTGGACGTGCGCGTCAGCTGGCAGCTGATCTACAAGCCGTCTACTGCCACGTCGATGAGTTACCCATTGGGAAGCTGAAACATCCGCTGCGCTAA</t>
+  </si>
+  <si>
+    <t>ATGACTGATACTCCGCAATTTCCTTTGGCTGCCATTGTAGGAGCTGACTCCTTGAAGTTGGCGCTTTGCCTCAATGCCATTGATCCGGGTATCGGTGGGGTATTGATCGAAGGCCCGCGCGGTATGGCGAAGTCCACCCTGGCACGCGGCGTGACCGCCCTGATGCCGGGTGGTTCATTCGTGACCTTGCCATTGGGGGCCAGCGAAGAGCGTATTACCGGCACACTCGACCTGAACGCCGCCCTGGGTGAAAAGCGCGCTGCATTTTCACCTGGCGTGTTGGCCAAGGCGGACGGCGGAGTGTTGTATGTGGATGAGGTCAATCTGCTGCCGGATCATCTGGTTGACCTGTTGTTGGACGTAGCCGCCAGTGGTGTAAACACCGTGGAGCGCGACGGGATTTCCCATCGGCATCCGGCGCGCTTTGTACTGATTGGCACCATGAACCCCGAGGAGGGGGAGTTACGTCCTCAATTACTGGATCGGTTTGGTTTCAATGTGGCGCTGAATGCCCATCCTGCGCCAGCAGAGCGAGCCGAAATCATGCGTCGTCGGCTGGCGTTCGACCTTGATCCGCCCGGCTTTATTGCCAGTTGGGCCGGAAGCCAGGCGGACCTTGTCGAGCGCTGCCAGGCTGCACGTAGCCGGTTGGCAGGGGTCGCACTGGATGATCTGTCGCTTTCGCGTATTGCCGAGCGCTGTTTTGCAGCGGCAGTGGATGGCATGCGTGCGGACCTGGTATGGCTAAGGGCAGCACGCGCCCATGCGGCTTGGCGCGGTAACGAAATGATTACTGAAGATGATATCGATGCGGTGGAAGAGTTCGCGTTGCGTCATCGCCGACGACAGCAACCCCCTTCGGAGTTACCGCCACCGCCATCTTCTGATCGTCCCGTCTCCGAACCCTCTTCAAGCCATTCGAAGAGTGAAGGGCAATGGGGTGAGCTACCGCCTCAGGCGACGGCGATTGGAGAAAAGCGCTCAGGTGAGGGTTGGCCAAAAAAGCGCTGA</t>
+  </si>
+  <si>
+    <t>ATGACCCCCGCGCCCCTGCCGCCGGTGTTCCCGTTCTCCGCACTGGCCGGCCAGCCCGCGCTGCGGCTCGCGCTGCTGCTCGTCGCGATCGACCCGGGCATCGGCGGGGTGCTCGTCGAGGGACCGCGCGGCACGGCCAAGTCCACCGCCGCACGCGCGCTCGCCGAACTGCTGCCCGGCTCGGCCTTCGTGCCGCTGCCACTCGGCGCGAGCCTCGAGCACCTCGTGGGCACGCTGGACCTGGACGAGGCCCTCGCCGGCCATGCCGTGCGCTTCCGGCCGGGCCTGCTCGCGCGGGCCAACGGCGGCGTGCTGTACGTCGACGAGGTCAACCTGCTGCCCGACCTGCTCGTCGACGCACTGCTCGACGCCGCGGCGAGCGGCCTGCACGTGGTGGAGCGCGACGGTGTCTCGCAGGCGCACGCGGCCCGCTTCGCGCTCATCGGCACGATGAACCCGGAGGAAGGTGCGCTGCGGCCGCAACTGCTCGACCGGTTCGGGCTCGACGTGGTCCTCGACAACCTCACCGACCCGGCCGTGCGCGAGGCCGCGGTGCGCGACCGGCTCGCGTTCGACACCGACCCGGTGGCGTTCCGCGCGCGGCACGACGCGGCCCGGCGCGACCTCACGGAGCGGCTCGCCCGCGCCCGCGAACGGGCCCCGCGGCTCGACAGCGGCGACGCGGTCTTCGCACACGCGACCGGCCTGTGCCTCGCGGCACGCGTGGACGGCCTGCGGGCGGACCTCGTGCTGCTGCGGGCGGCACGGGCACTGGCCGCCTGGGAGGAGGCGCCGTCGGTGTCGCCAGCCCACGTGGACCAGGTCGCCGAACTGGTCCTGCGGCACCGCCGGCATCCCGACGTGGCCGCCGCGCCACCGCCCTCGTCCGAAGCGGCGGTGCCACGGCCTGCGGCCGACGACACCCCGTGGGGCGAGATGCCGCCCGAGCCCGTGGGCCTGACCCCCGTCAAGCCGCTGCGTCCGCTGGCCGGAGCGCCCACCGCAAAAAAAGCCCTGAGCGCCCCGCAGGCCCGCGCGAGCCGCTCGGGCCTGCGGCGGCGCGATGGCGGCATCGACTGGGTGCGGACCCTCGCCGCGCGGGGCGGCTCACCGCTCGACCGCCGCCACCTTCGCCAGCGTGACCTCGTCGCGGGCGCACCGGCGCTGCACTGCATCGTGATCGACGCCTCCGGCTCGATGGTGGGTGGCGGGCGGCTCGCGAAGGCCAAGGGCATCGCCGCCGCACTCGCGGACGCGGCCTGGCGGCGGCGCGACGAAGTCGCGGTGCTGTCGTTCTCGGGCGGGCACACCCTGGTGCACGTGCCACCCGGCCGCGCGCGCCCGCGCAGCGGTGTCCGCTTCGCCACGCTCGGCGGCGGCGGTGGCACGTCGCTCGCGCGCGGCCTCGCCGACGCGGACGCGCTGCTCACGCGCGCCGCCCGCCGGCACCCGCACCAGGTCCGCTGGCTGTGGCTGCTGACCGACGGCCGCAGCGCGCAGGAACCCGGACGCCCGCACGCGGCGGACCACGTGCGGATCGTCGACCTCGAAGGCGGCCGCGTGAACCTGGGCCGCAACGCGGCGCTGGCGGCGCGCTGGGGCGCCGGATACCTGGCGGCGGCCGACTTCGGATGA</t>
+  </si>
+  <si>
+    <t>ATGACCCCCGCGCCCCTGCCGCCGGTGTTCCCGTTCTCCGCACTGGCCGGCCAGCCCGCGCTGCGGCTCGCGCTGCTGCTCGTCGCGATCGACCCGGGCATCGGCGGGGTGCTCGTCGAGGGACCGCGCGGCACGGCCAAGTCCACCGCCGCACGCGCGCTCGCCGAACTGCTGCCCGGCTCGGCCTTCGTGCCGCTGCCACTCGGCGCGAGCCTCGAGCACCTCGTGGGCACGCTGGACCTGGACGAGGCCCTCGCCGGCCATGCCGTGCGCTTCCGGCCGGGCCTGCTCGCGCGGGCCAACGGCGGCGTGCTGTACGTCGACGAGGTCAACCTGCTGCCCGACCTGCTCGTCGACGCACTGCTCGACGCCGCGGCGAGCGGCCTGCACGTGGTGGAGCGCGACGGTGTCTCGCAGGCGCACGCGGCCCGCTTCGCGCTCATCGGCACGATGAACCCGGAGGAAGGTGCGCTGCGGCCGCAACTGCTCGACCGGTTCGGGCTCGACGTGGTCCTCGACAACCTCACCGACCCGGCCGTGCGCGAGGCCGCGGTGCGCGACCGGCTCGCGTTCGACACCGACCCGGTGGCGTTCCGCGCGCGGCACGACGCGGCCCGGCGCGACCTCACGGAGCGGCTCGCCCGCGCCCGCGAACGGGCCCCGCGGCTCGACAGCGGCGACGCGGTCTTCGCACACGCGACCGGCCTGTGCCTCGCGGCACGCGTGGACGGCCTGCGGGCGGACCTCGTGCTGCTGCGGGCGGCACGGGCACTGGCCGCCTGGGAGGAGGCGCCGTCGGTGTCGCCAGCCCACGTGGACCAGGTCGCCGAACTGGTCCTGCGGCACCGCCGGCATCCCGACGTGGCCGCCGCGCCACCGCCCTCGTCCGAAGCGGCGGTGCCACGGCCTGCGGCCGACGACACCCCGTGGGGCGAGATGCCGCCCGAGCCCGTGGGCCTGACCCCCGTCAAGCCGCTGCGTCCGCTGGCCGGAGCGCCCACCGCAAAAAAAGCCTGA</t>
+  </si>
+  <si>
+    <t>ATGACCGAGTTGATGGCCACCCGGCCAAAGGTGTTTCCCTTTACCGCGCTCGTTGGCCAGCAGACGCTGCAACGCGCTTTGCTGCTGGTCGCCATCGACCCCGGCATTGGCGGTGTGTTGATCAGCGGCCCCCGGGGCACGGCCAAATCTACCGCGGCCCGCGCGCTGGCGGACTTGCTGCCGCAGGCGCCGTTTGTGACCCTGCCGCTGGCCGCCAGTCTGGAGCAACTCGTCGGCACGCTGAATGTGGAGGACGTGCTGCGCGATGGCCAGCTCCGGTTGGCCCCGGGGCTGGTGGCGCGCGCGCACCACGGGGTGTTGTATGTGGATGAGGTCAATCTGTTGCCGGATGCGCTGGTGGATGCCCTGCTCGACGTGGCTGCCAGTGGCGTCAATACCGTGGAGCGCGACGGCATCTCGCAACAACATGCGGCGCGCTTTGTGCTGGTCGGCACCATGAATCCCGAAGAGGGCGAGTTGCGCCCGCAATTGCTGGACCGCTTTGGCCTGTTGGTGGCGCTGGAGAACCAGCGTGACCCCACTGAGCGCCAAGCGATTTTGCAAGTGCGTTTGGCCTTTGACGACGCGCCGCAGGCCCTGCACGCCAGCCATGCCGAGGCGTTGCAGAACTTGGCCGTGCAAGTGGCCACCGCGCGCGCGGCCTTGCCACGGCTGGCGTGGTCTGACGCAGTGCTGGCCCGTGCTGCGCAATGGGCACTTTCCGCAGGCGTGGACGGTGTGCGCGCAGATTTGGTCATGCTGCGCGCGGCTCGCGCCTGGGCGGCCTTGCAAGGGCGCCAGGCGGTGACGGTGGAGGATGTGGATGTGGTCGCAGAGTTGGCCTTGGCGCACCGTCGCACGGATGCAAGCAGCGGCGGTGGCGCCCCGCACCAAGCTTCCGGCCCTGACGGTGCGGCCAAGCCCTCACCGCCACGCGCGCCCAGCGAAAAACAGAGCGATTCCTCTGGCTCTCCATCCAGCGCAACGCCCCAGCCGCGAGGGGACTGGGGCGCGCTGCCACCCCAACCCGTGGCCACGACTCGGGTACACACTGTGGCGGGGTGGCCTGCAAAAAAAGCCCTGAGCCACCCCAGCCGCAACCCCGGCGGGGGGCGCAGCGGCGGGCGGTGGCAAAAGCCGGCGGTGAACTCAGGTTCTGAGGTTCAGCAGGCCAGTGCTGGCGGCCGTGTGGCGTGGCTGCCGACCTTGCTCGCCAAGGGCGCGCAGCCTTTGCAACGCATTCACCTGCGCCACCGTACAGCAGTGGTTGCACCTGTGCGCCTGCATTTGCTGTTGTTGGACACCTCGGGCTCCATGCGCCAAGGTGGGCGTCTGGCTTTGGCCAAGGGGTATGCGGCACGCTTGATTGAGCAGGCTGCGCGTGCGGGTGATCAGGTAGGTTTGCTGGTATTTGGCGGTGCAGGGGTGGAACTGCTGTTGGCGCCAGGACCAGCGCGCCGCGCGGCGGCAGTTCGCGTTTTGCAATGCGCCGGCGGTGGTGGAACCCCCTTGGCCCAGGCGCTGGAACATGCCAACCAGCTGCTGGCGCACGCCCAGCACCGGGGTATGACGACGCCACAGGCAAGCTGGTTGTGGTTGTTAACCGATGGCCGCACGCTTGAAATACCAGCGGCGCCCGTGGGTGCTGTCAATGTGGTCGTGGTTGATTTTGAAGAGCGCAAGCGCGCCCTGGGGCGTTGCGCGACGCTGGCCGAGCGCTGGGGCGCGGCTTACCAACGTGCGCCTTCGCCTGGCGAGTCCAGCGTGCAGGTTGCAGGTTGCGCACCTTTTTGA</t>
+  </si>
+  <si>
+    <t>ATGACCGAGTTGATGGCCACCCGGCCAAAGGTGTTTCCCTTTACCGCGCTCGTTGGCCAGCAGACGCTGCAACGCGCTTTGCTGCTGGTCGCCATCGACCCCGGCATTGGCGGTGTGTTGATCAGCGGCCCCCGGGGCACGGCCAAATCTACCGCGGCCCGCGCGCTGGCGGACTTGCTGCCGCAGGCGCCGTTTGTGACCCTGCCGCTGGCCGCCAGTCTGGAGCAACTCGTCGGCACGCTGAATGTGGAGGACGTGCTGCGCGATGGCCAGCTCCGGTTGGCCCCGGGGCTGGTGGCGCGCGCGCACCACGGGGTGTTGTATGTGGATGAGGTCAATCTGTTGCCGGATGCGCTGGTGGATGCCCTGCTCGACGTGGCTGCCAGTGGCGTCAATACCGTGGAGCGCGACGGCATCTCGCAACAACATGCGGCGCGCTTTGTGCTGGTCGGCACCATGAATCCCGAAGAGGGCGAGTTGCGCCCGCAATTGCTGGACCGCTTTGGCCTGTTGGTGGCGCTGGAGAACCAGCGTGACCCCACTGAGCGCCAAGCGATTTTGCAAGTGCGTTTGGCCTTTGACGACGCGCCGCAGGCCCTGCACGCCAGCCATGCCGAGGCGTTGCAGAACTTGGCCGTGCAAGTGGCCACCGCGCGCGCGGCCTTGCCACGGCTGGCGTGGTCTGACGCAGTGCTGGCCCGTGCTGCGCAATGGGCACTTTCCGCAGGCGTGGACGGTGTGCGCGCAGATTTGGTCATGCTGCGCGCGGCTCGCGCCTGGGCGGCCTTGCAAGGGCGCCAGGCGGTGACGGTGGAGGATGTGGATGTGGTCGCAGAGTTGGCCTTGGCGCACCGTCGCACGGATGCAAGCAGCGGCGGTGGCGCCCCGCACCAAGCTTCCGGCCCTGACGGTGCGGCCAAGCCCTCACCGCCACGCGCGCCCAGCGAAAAACAGAGCGATTCCTCTGGCTCTCCATCCAGCGCAACGCCCCAGCCGCGAGGGGACTGGGGCGCGCTGCCACCCCAACCCGTGGCCACGACTCGGGTACACACTGTGGCGGGGTGGCCTGCAAAAAAAGCCTGA</t>
+  </si>
+  <si>
+    <t>ATGACGACTTCTACAAACAATATTTCTCTGGAACCCGCCACGCGCGCGGCTTTTCCCTTTACCGCGTTGGTGGGCCAGCCGCAATTGCAGCGGGCGCTGCAGCTCGCCGCCATTGACCCCGGCATTGGCGGGGTGTTGATCAGCGGCCCACGCGGCACGGCCAAGTCCACCGCGGCGCGTGCACTAGCGGCGCTCTTGCCTGGCGCGCCGTTTGTGACATTGCCGCTGGCTGCCAGCCTGGAGCAACTGGTGGGCACGCTGAATGTGGAAGACGTGCTGCGCGACGGCCAGGTGCGCCTGGCGCCCGGTCTGGTGGCGCGTGCGCATGGCGGTGTGCTTTATGTGGATGAAGTTAATTTGCTGCCTGACGCGCTGGTGGATGCACTGCTGGACGTGGCCGCCAGCGGCGTGAACACGGTGGAGCGCGATGGTATTTCGCAGCAACACGCCGCACGTTTTGTGTTGGTGGGCACCATGAACCCGGAGGAGGGCGAGCTGCGCCCGCAGCTGCTGGACCGATTTGGCCTGTCCGTGGCGCTGGCCAACCCGGTGGATGCCGCACAGCGCACCGCCATCCTGCGTGCGCGCCTGGGTTTTGATGAAAACCCCGCAGCCCTGGCGGACCAACATGCAGAAGAACAACGTGCCTTGAGCTCTGCCCTGGTAGCAGCCCGAGCCGCATTGCCGCGTTTGACTTGGTCTGACGAAGTTTTGAATCACGCGGCAGCCTGCGCGATTGAAGCCGGTGTGGACGGCATGCGCGCCGATCTGGTGATGCTGCGTGCCGCGCGTGCGTTGGCGGCACTGGAAGGGCGCAGCGAAGTGACCGTGGCGCACGTGGACGCCGTGGCCGAACTCGCGCTGGCACACCGCCGACCCGAAGGTGGTGCTGCGCAGCCGCCAAGCACCACCAGCGCACCGCAGCAGCCCCAACAAAACCCACAGCGCCCGCAAGACCAGCAAACCGCTGCCCCTGCGCCCCAAGGCGACTGGGGCGCAATGCCCGCCCAGCCCGAAGGCACCACCAAGGTCCAAAAAATCGCCGGGTGGCCGCCAAAAAAAGCCCTAGGCCACCCCAGCCGCCGCCCGCGCAACGGGCCTGGCAGCTGGCGGTGGCCTCCACCCCAGACCTCTTCTACAACCACTGCGCCGGGCGCACGGCAGCGCAGTGCCTCCATTGCCTGGCTTCCCACCGTGGTGGCCAAAGGGCCGGCGCCCCTGCACCGCGAACATCTGCGTCGCCAGCCCGTGGCACTGCGTGCCGGTCGCCTGCACTGCATCGTGCTGGACACCTCGGGCTCCATGCGCCAGCGCGGCCGCCTCGCGCTGGCCAAGGGCCATGCGGCTTTCATGATTGAACAGGCCGCGCGCCAGGGCGACGATGTGGCTCTGCTGTGTTTTGGCGGGCAGGGCGTGGAGCTATTGCTGCCACCCGGCCGCGCGCGCGCCTCCGGTAGTCAGCGCCTGCGTCCGGTGGGTGGTGGTGGTGGCACGCCGCTGGCCGAGGCTTTGGCCCAGGCCGACCGCCTGTTGCAGCGCACGTTGCGAATCGGCGGTCCGACCGAATGCTGGCTCTGGCTACTGACCGATGGCCGCACGTTGGAGCAACCGCAGGCGCCTCTGACGCCGCAGCACCTGGTCATCGTCGACTTTGACGACCCTAAAAAGAACCTGGGCCGCTGTGCCGCCTGGGCCACGCGCTGGGGCGCGGAGCACCAGCTGGCGCTGGCCTGA</t>
+  </si>
+  <si>
+    <t>ATGACGACTTCTACAAACAATATTTCTCTGGAACCCGCCACGCGCGCGGCTTTTCCCTTTACCGCGTTGGTGGGCCAGCCGCAATTGCAGCGGGCGCTGCAGCTCGCCGCCATTGACCCCGGCATTGGCGGGGTGTTGATCAGCGGCCCACGCGGCACGGCCAAGTCCACCGCGGCGCGTGCACTAGCGGCGCTCTTGCCTGGCGCGCCGTTTGTGACATTGCCGCTGGCTGCCAGCCTGGAGCAACTGGTGGGCACGCTGAATGTGGAAGACGTGCTGCGCGACGGCCAGGTGCGCCTGGCGCCCGGTCTGGTGGCGCGTGCGCATGGCGGTGTGCTTTATGTGGATGAAGTTAATTTGCTGCCTGACGCGCTGGTGGATGCACTGCTGGACGTGGCCGCCAGCGGCGTGAACACGGTGGAGCGCGATGGTATTTCGCAGCAACACGCCGCACGTTTTGTGTTGGTGGGCACCATGAACCCGGAGGAGGGCGAGCTGCGCCCGCAGCTGCTGGACCGATTTGGCCTGTCCGTGGCGCTGGCCAACCCGGTGGATGCCGCACAGCGCACCGCCATCCTGCGTGCGCGCCTGGGTTTTGATGAAAACCCCGCAGCCCTGGCGGACCAACATGCAGAAGAACAACGTGCCTTGAGCTCTGCCCTGGTAGCAGCCCGAGCCGCATTGCCGCGTTTGACTTGGTCTGACGAAGTTTTGAATCACGCGGCAGCCTGCGCGATTGAAGCCGGTGTGGACGGCATGCGCGCCGATCTGGTGATGCTGCGTGCCGCGCGTGCGTTGGCGGCACTGGAAGGGCGCAGCGAAGTGACCGTGGCGCACGTGGACGCCGTGGCCGAACTCGCGCTGGCACACCGCCGACCCGAAGGTGGTGCTGCGCAGCCGCCAAGCACCACCAGCGCACCGCAGCAGCCCCAACAAAACCCACAGCGCCCGCAAGACCAGCAAACCGCTGCCCCTGCGCCCCAAGGCGACTGGGGCGCAATGCCCGCCCAGCCCGAAGGCACCACCAAGGTCCAAAAAATCGCCGGGTGGCCGCCAAAAAAAGCCTAG</t>
+  </si>
+  <si>
+    <t>ATGTCACCTTCGTTTCCATTCGTGGCATTGGTGGGGCAAGCGCTGTTGCAACAAGCGCTGCTGTTGGTCGCGGTTGACGCGGGTATCGGCGGCGTCTTGATCACCGGGCCCCGTGGTACCGCGAAATCCACGAGCGCCCGCGCGTTGGCGGCGTTGCTCGCACCGGCTCCGTTTGTCACATTGCCGCTGGGTGCCAGTGAAGCGCAACTGATCGGCTCATTGGATCTGGATGCCGTGCTGCGAGAGGGCGCCGCGCGATTTGCCCCAGGCTTGCTGGCCAAGGCCGATGGCGGCGTGTTGTATGTGGATGAGGTCAATCTACTGCCGGATGCGTTGGCCGATGCGCTGCTCGATGCGGCGGCGAGTGGCGTCAATGTTGTCGAACGGGATGGCGTGTCGCATCGGCACGCGGCGCGATTTGTACTGATCGGTACGATGAACGAGGAGGAGGGCGAACTGCGTCCGCAATTGAGCGACCGGTTCGGTTTATCCGTCCTGCTCGAGAATTATGCGGACGTATCGGTGCGAGAGTCCATCGTTCGATCCCGGCTCGCGTTCGACCTTGATCCTGCCGCGTTCGTGGCGGCACATGCCGCGGCAAGCACCGCGTTGGGCCAGCGGCTACATGCGGCGCGGCAGCGCATAGGCGGGTTGGCGTTCAGCGATGCGGTGCATCGACGCGTATCCGACTGGTGCCTCGCCGCAGCCGTGGACGGTGTCCGTGCCGATCTAGTGATGCTGAAAGCCGCGCGTGCCCAAGCGGCGCTCGATGGGGATGCCGCGATATCGGTTGGGCATGTCGATCGGGTTGCGCCGCTGGTCCTGCTGCATCGCCGTCAAGCCGAAGGGCGTCCAGCCACATCGCATGCGTCGGCGTCCGCGTTGCCGCCCGTTGATACGCCCGCGTCGGCTGCCCCGTCCCATTCCGGTACACCGTCGCGCGATGCCGACCGTGCTTCCGGTGTCGAGGACGGCGCGCGCGAGGCAGCCCCATCCGGTAGGCTATCCGGATCACCTGGCAACGCGTTGCATGCATCTCAAGATTCCGGGCCGTCATCGATGCAGCAGGCTCACCGGCGCGACGAGACACGCCCCGGAAGAGACACGGGTACGTCGCCAGATGGTGATCCAGACAGAGATTGGGGATATCTGGCGCCCGAGCCGGTACCCGTGGCACAGGTGAAACCCGTTCGTGCCTACGACCCAAAAAAAGTCCTGACCCGTCGTGACAACGCCGGTCCCGATGGTGCAAAAGATCCCGGGATGTCGCGACAATGGGCTGAGGCGAATGCGTTATCACGGTCCCCCATCGATGGACGGATGCGGCGGCGACACATCGAAGGGCAGGATGTTGTGCGGCATCACGCTACCGTGGCGTGGCCGGACACGCTATTGGCGGCACGGGGTCAACCTTTGGCCGTGGGTCACTTGCGCGCTGTGCAACGCGGCACGGCACGCCCCACACGTACCGTATTTCTGCTGGACTGCTCGGCATCGATGGTCGCGTCGGGTGCGCTCGCACATGCGAAAGGACTTTTGATGTCGTGGTTGAGACGTGTGCGAAAACGCGATGCCCACGCTGTCGTAATCGGTTTTGATGGGAGGGGCGCGGCCGTGCATTTTGGGCCTGGTGTTCCGCGCGGATGGCATGCGCGATGGCTGGCGCCTCTCCCGGGGGGCGGTGGCACGCCATTGCAGCGCGGCGTTGACGCCGCGTGCACGTTCGGCCGTCGCGGCAAGAACGGGGGGCCACTGAACGGTCGCGTTGCGCTGGTCCTTCTGACGGACGGGCTCACCAATGCATTGCCGGCGCGACCTGAAGGATTCGATACCATCGATATCGTATTGCCGTCGGGTGGCGCGAACGGGCCAGCGCACGACGCGATGCGGCGACACGTAGGGGAGCGCCAGGCGGCGCGGCTTGCACGGATCTGGGGCGGCGTTTGCGTTGTGCGTTGA</t>
+  </si>
+  <si>
+    <t>ATGTCACCTTCGTTTCCATTCGTGGCATTGGTGGGGCAAGCGCTGTTGCAACAAGCGCTGCTGTTGGTCGCGGTTGACGCGGGTATCGGCGGCGTCTTGATCACCGGGCCCCGTGGTACCGCGAAATCCACGAGCGCCCGCGCGTTGGCGGCGTTGCTCGCACCGGCTCCGTTTGTCACATTGCCGCTGGGTGCCAGTGAAGCGCAACTGATCGGCTCATTGGATCTGGATGCCGTGCTGCGAGAGGGCGCCGCGCGATTTGCCCCAGGCTTGCTGGCCAAGGCCGATGGCGGCGTGTTGTATGTGGATGAGGTCAATCTACTGCCGGATGCGTTGGCCGATGCGCTGCTCGATGCGGCGGCGAGTGGCGTCAATGTTGTCGAACGGGATGGCGTGTCGCATCGGCACGCGGCGCGATTTGTACTGATCGGTACGATGAACGAGGAGGAGGGCGAACTGCGTCCGCAATTGAGCGACCGGTTCGGTTTATCCGTCCTGCTCGAGAATTATGCGGACGTATCGGTGCGAGAGTCCATCGTTCGATCCCGGCTCGCGTTCGACCTTGATCCTGCCGCGTTCGTGGCGGCACATGCCGCGGCAAGCACCGCGTTGGGCCAGCGGCTACATGCGGCGCGGCAGCGCATAGGCGGGTTGGCGTTCAGCGATGCGGTGCATCGACGCGTATCCGACTGGTGCCTCGCCGCAGCCGTGGACGGTGTCCGTGCCGATCTAGTGATGCTGAAAGCCGCGCGTGCCCAAGCGGCGCTCGATGGGGATGCCGCGATATCGGTTGGGCATGTCGATCGGGTTGCGCCGCTGGTCCTGCTGCATCGCCGTCAAGCCGAAGGGCGTCCAGCCACATCGCATGCGTCGGCGTCCGCGTTGCCGCCCGTTGATACGCCCGCGTCGGCTGCCCCGTCCCATTCCGGTACACCGTCGCGCGATGCCGACCGTGCTTCCGGTGTCGAGGACGGCGCGCGCGAGGCAGCCCCATCCGGTAGGCTATCCGGATCACCTGGCAACGCGTTGCATGCATCTCAAGATTCCGGGCCGTCATCGATGCAGCAGGCTCACCGGCGCGACGAGACACGCCCCGGAAGAGACACGGGTACGTCGCCAGATGGTGATCCAGACAGAGATTGGGGATATCTGGCGCCCGAGCCGGTACCCGTGGCACAGGTGAAACCCGTTCGTGCCTACGACCCAAAAAAAGTCTGA</t>
+  </si>
+  <si>
+    <t>ATGCCATCAGAACGCCCAATCTACCCGTTTAGCGCGCTGGTCGGGCAGGAACGCCTCAAGCGCGCCCTGATCCTGAATGCGATCAATCCACGAATCGGCGGCGTGTTGATCCGTGGCGAGAAGGGCACCGCCAAATCAACCGCAGTGCGCGGGCTTGCCCGCCTCCTGCCGCATATTACGGTCGTCGCCGATTGCCCCTACAGCTGCCCGCCGGACCGCCCGGCGATGATGTGTGAGATGTGTGTGGCGCGGTTGCGGCGCGGTGAGGAGTTGCCGGTCGAAGAACGACCGACTCGCCTGGTGGAACTGCCGGTTGCCGCATCGGAGGACCGGGTCGTCGGTTCGCTCGACCTCGAACACGCCCTGACGGAGGGACAGCGCCGGTTTGAGCCGGGGTTGTTGGCGCAGGCAAACCGCGGGTTACTGTATGTGGACGAGGTCAATCTGCTCGATGATCACCTGGTCGATGTGCTGCTCGATGCGGCGGCGATGGGGGTCAATACGGTCGAGCGTGAAGGGATCAGCGTGTCGCATCCGGCGCGGTTTATTCTGGTCGGCACGATGAACCCGGAAGAGGGTGAATTGCGCCCACAACTGCTGGATCGCTTCGGTCTGGTGGTCGAGATCAGCGGGTTGACCGATATTGTCGGTCGGGTTGAGGTGATCGAGCGGCGCCTGGCATACGAGAGCGACCCGGATGCGTTCGTTGTGCGGTGGCGTCAGGAAGAAGAGGCGTTGGCGCAACGCATTATTGCGGCGCGCGCGCTGCTGCCGGCGGTAACGATTTCGCGCGGCGATATGGCGGCGGTGGCGGGGCTGGCGCTCGAATTGGGGGTCGATGGGCATCGCGCCGATCTCGCTATTCTCGAAACGGCGCGCACCCACGCCGCCTGGTCGGGGCGCGCGCGCCTGACGGTGGAAGATATTCGCCTGGCGGCGGAACTGGCGCTGCCCCACCGGATGCGGCGCCAGCCGTTTACGGAGGTCAAACTCGATGAAGCGCGCGTCGGGCAGATTCTGGATCGCGTGAAAGGCGAGATCGGCGATGAAGCGCCGCCGTCCGCCGAGTATGTAAAAAAAAAGTTGACGGCAATGACCGCCGGGCAGCCGGATGGCGACCGGCGCAGCAGTGACGATGGCGATGCGCCGCCGCCGCCAGCCCATGCGGCAACCGAGTCGGAGGCGTCCTCTGGCGACGGGGATACAACGCAAGGCGGTAAAACTTTTGTGAGCGATCCGGCTTTCCGCCCGCAGAAGATCGAAGGCGCGCGCGACCGGTTGCAGCGTCGGGCGCCGGGCAGGCGCAGTCGTACCCGGACAACGCGCAAACAAGGGCGTTATATCACAAGCCGCCCGGCGGAGCGGATCACCGATCTGGCGCTGGACGCGACTCTGCGTCAGGCGGCGCCCTATCAGCGCCGACGCCGCGCAGAACGTGGCGAGAGCGCTGCGCGACAGCGGGTGATTGTGCGCCGGAGTGATCTGCGTCAGAAGGTGCGGGTGCGCAAGACGCGCAATGCGGTCTGCTTCGTGGTCGATGCCAGTTGGAGCATGGCGGCTGAGGAGCGAATGCGCGCCACCAAAGCGGCCGTGTTGTCGCTCTTGCGCGATGCATATCAGCGCCGTGACCGGGTGGGGCTGGTCTCGTTTCAACGCGATTATGCGACGCTGCTGTTGCCGTTGACCAATAGCGTCGATCTGGCGCAGCGTCAGTTGCAGCAGATGCCGACCGGTGGCAAGACGCCGCTCTCGCGTGGGCTGTTGCTGGGGTATGAAGTGCTGGAACGCGCGCGTCGTCAGGACCCGGAGGTGATGCCGTTGCTGGTGTTGCTCACCGATGGGCAGGCGAATGTGTCGATGAGCGATCTGCCGCCGCAGGCCGAAAGTTATGCGCTGGCCGATTTTATCGCGGCGCAATCGATACCGGCAGTGGTGATTGATACCGAACATCCGATCTTCGAGCGCGGGCTGGCGCGGCAACTGGCGCATCACCTGAAGGGGAGCTACTACCGGCTCGAAGATGTTCAGGAGCGTGGCCTTGCCGATCTGGTGCGCGCAGAGTTACGTGACCGCACACGCTAG</t>
+  </si>
+  <si>
+    <t>ATGCCATCAGAACGCCCAATCTACCCGTTTAGCGCGCTGGTCGGGCAGGAACGCCTCAAGCGCGCCCTGATCCTGAATGCGATCAATCCACGAATCGGCGGCGTGTTGATCCGTGGCGAGAAGGGCACCGCCAAATCAACCGCAGTGCGCGGGCTTGCCCGCCTCCTGCCGCATATTACGGTCGTCGCCGATTGCCCCTACAGCTGCCCGCCGGACCGCCCGGCGATGATGTGTGAGATGTGTGTGGCGCGGTTGCGGCGCGGTGAGGAGTTGCCGGTCGAAGAACGACCGACTCGCCTGGTGGAACTGCCGGTTGCCGCATCGGAGGACCGGGTCGTCGGTTCGCTCGACCTCGAACACGCCCTGACGGAGGGACAGCGCCGGTTTGAGCCGGGGTTGTTGGCGCAGGCAAACCGCGGGTTACTGTATGTGGACGAGGTCAATCTGCTCGATGATCACCTGGTCGATGTGCTGCTCGATGCGGCGGCGATGGGGGTCAATACGGTCGAGCGTGAAGGGATCAGCGTGTCGCATCCGGCGCGGTTTATTCTGGTCGGCACGATGAACCCGGAAGAGGGTGAATTGCGCCCACAACTGCTGGATCGCTTCGGTCTGGTGGTCGAGATCAGCGGGTTGACCGATATTGTCGGTCGGGTTGAGGTGATCGAGCGGCGCCTGGCATACGAGAGCGACCCGGATGCGTTCGTTGTGCGGTGGCGTCAGGAAGAAGAGGCGTTGGCGCAACGCATTATTGCGGCGCGCGCGCTGCTGCCGGCGGTAACGATTTCGCGCGGCGATATGGCGGCGGTGGCGGGGCTGGCGCTCGAATTGGGGGTCGATGGGCATCGCGCCGATCTCGCTATTCTCGAAACGGCGCGCACCCACGCCGCCTGGTCGGGGCGCGCGCGCCTGACGGTGGAAGATATTCGCCTGGCGGCGGAACTGGCGCTGCCCCACCGGATGCGGCGCCAGCCGTTTACGGAGGTCAAACTCGATGAAGCGCGCGTCGGGCAGATTCTGGATCGCGTGAAAGGCGAGATCGGCGATGAAGCGCCGCCGTCCGCCGAGTATGTAAAAAAAAAGTTGACGGCATGA</t>
+  </si>
+  <si>
+    <t>ATGAACCCCGAGACCGAGATCCCCGCCTACCCGTTCAGCGCCCTCGTCGGCCAGCCGCGGCTGCAGCAGGCGCTGCTGCTGGCCGCCGTCGACGAAAGCCTGGGCGGCGTGCTGATCAGCGGCCCGCGCGGCACCGCCAAGTCGACCGCGGCGCGTGCGCTGGCGGCGCTGCTGCCCGGTGCGCCCTTCGTCACGCTGCCGCTGGCGGCCAGCCTGGAGCAGCTGGTCGGCACGCTGGACGTCGAGGACGTGCTGCGCGACGGCCGGCTGCGCTTCAAGCCCGGCATCCTGGCGCGCGCCCACGGCGGCGTGCTCTACGTCGACGAGGTCAACCTGCTGCCCGACGCGCTGGTCGACGCGCTGCTCGACGCCGCCGCCAGCGGCGTGCACACGGTCGAGCGCGACGGCATCTCCGAGCGCCACGCCTCGCGTTTCGTGCTCGTCGGCACGATGAACCCCGAGGAAGGCGAGCTGCGGCCGCAGCTGCTGGACCGCTTCGGGCTGTCGGTCGTCATCGCCAACCCGGCCGACACCGCGGCGCGCCAGGCCATCCTGCGCGCCCGCCTGGCGTTCGATCGCGACCCGCAGCGGGTGGCGTCCGAACACGCCGCGCACGACGCCGCGCTGGCGCGTGCGATCGCCACCGCGCGCGCGCGGCTGGACGCGGTCGAGCTCGGCGACGCCGCGCTGGCGCGTGCCGCCGACCTGGCGCACGCCGCCGGCGTCGACGGCCTGCGTGCCGACCTCGTGATGCTGCGCGCCGCGCGTGCGCTGGCGGCGCTGGACGGCCGCGACGCCGTGCTTGTCCAGGACGTCGACGCCGTCGCCGACGACGCGCTGCTGCACCGCCGCCGCCACCCGGCGCCGCCGCCGGCCGCGCGCCCCGAAGCGCCACCACCACCGCCCGCGGCCTGCAGCGGCGGAGACGGCGACTGGGGCGCGCTGCCGCCGCAGCCGGCGGGTTTCGAGACCGCCTCGCTGCCCGGCACCTGGCGCCCAAAAGCCCTAGGCCGCCGCGGCCCGGGCCGGCATGCCGGCCTGCCGCGGTGGCCGCTTCCCGCACCGGGCGGCACGCTGGCCGGCGCCGCGGCCACGAGCGGCGGCGCGCCCGACTGGCTGTGCACGCTGATCGCCAAAGGCCCGCAGCCGCTGGCGCCCGAACACCTGCGCCGCCGTGCCGCCGCCGCGCCGCCGCCACGCTGCCATCTGGTGCTGCTCGACACCTCGGGCTCGATGCGCCGCGGCGGCCGGCTGGCGCGCGCCAAAGGTGTCGCCGCCTGGCTGGTCGCACAGGCCGCGCGCCACGGCGACCAGCTCGGCCTGCTGGCGTTCGGCGGCGCCGGGCTGCAGTGGCTGATCGCCCCCGGCCCGGCGCGCCGCGCCGCCGCGGTGCGCCTGCCGCCGCTGGGCGGTGGCGGCGGCACGCCGCTGGCGCAGGCGCTGGCCGCCGCCGAGCCGGTGCTGCAGCGCTACGCCGGTGCCTGGCTCTGGCTGCTGAGCGACGGCCGCTGCCCCGGCGAACCGCCGGCGCCGCGTGCCGCGGCCCAGGTCGTGATCGTCGACCACGACGACGGCCCGGTACCGATCGGCCGCTGCGCCGCCTGGGCCGAGCGCTGGGGCGCGCGCTGCGTGCCGGCCCACCACATCCAAGGAGAACGACGATGA</t>
+  </si>
+  <si>
+    <t>ATGAACCCCGAGACCGAGATCCCCGCCTACCCGTTCAGCGCCCTCGTCGGCCAGCCGCGGCTGCAGCAGGCGCTGCTGCTGGCCGCCGTCGACGAAAGCCTGGGCGGCGTGCTGATCAGCGGCCCGCGCGGCACCGCCAAGTCGACCGCGGCGCGTGCGCTGGCGGCGCTGCTGCCCGGTGCGCCCTTCGTCACGCTGCCGCTGGCGGCCAGCCTGGAGCAGCTGGTCGGCACGCTGGACGTCGAGGACGTGCTGCGCGACGGCCGGCTGCGCTTCAAGCCCGGCATCCTGGCGCGCGCCCACGGCGGCGTGCTCTACGTCGACGAGGTCAACCTGCTGCCCGACGCGCTGGTCGACGCGCTGCTCGACGCCGCCGCCAGCGGCGTGCACACGGTCGAGCGCGACGGCATCTCCGAGCGCCACGCCTCGCGTTTCGTGCTCGTCGGCACGATGAACCCCGAGGAAGGCGAGCTGCGGCCGCAGCTGCTGGACCGCTTCGGGCTGTCGGTCGTCATCGCCAACCCGGCCGACACCGCGGCGCGCCAGGCCATCCTGCGCGCCCGCCTGGCGTTCGATCGCGACCCGCAGCGGGTGGCGTCCGAACACGCCGCGCACGACGCCGCGCTGGCGCGTGCGATCGCCACCGCGCGCGCGCGGCTGGACGCGGTCGAGCTCGGCGACGCCGCGCTGGCGCGTGCCGCCGACCTGGCGCACGCCGCCGGCGTCGACGGCCTGCGTGCCGACCTCGTGATGCTGCGCGCCGCGCGTGCGCTGGCGGCGCTGGACGGCCGCGACGCCGTGCTTGTCCAGGACGTCGACGCCGTCGCCGACGACGCGCTGCTGCACCGCCGCCGCCACCCGGCGCCGCCGCCGGCCGCGCGCCCCGAAGCGCCACCACCACCGCCCGCGGCCTGCAGCGGCGGAGACGGCGACTGGGGCGCGCTGCCGCCGCAGCCGGCGGGTTTCGAGACCGCCTCGCTGCCCGGCACCTGGCGCCCAAAAGCCTAG</t>
+  </si>
+  <si>
+    <t>ATGCAACATTATCCCTTTTCCGCCATTTTAGGCCAAAAGCGGCTGAAGGCCGCATTACTTGCTTGCGCTGTCGATCCTTCCATTGGCGGAGTTCTTATTCGGGGAGAGAAGGGAACCGCAAAGACCACGGCGGTCCGGGCTCTTGCTCCCCTGCTACCTGAAATCGAAGTGGTAGAAGACTGCCCTTATTCCTGTGATCCGACTGACGGGGATACCATTCACGAATCCTGTGCAGCACGAATCCGTGCAGGAGAGGAGATAGAGCATTTCCGAAGACCGGTCAGGTTGGTGGAACTTCCGCTCAATGCGACCGAGGATCGCCTTGCCGGTACGATCCATATCGAAAAAACCCTCCAGCGTGGGGAACGGAGCTTTGAGCCGGGGCTGCTTGCTGCTGCCAACCGGGGAATCCTCTATATCGACGAGGTGAATCTTCTGGAGGATCACTTAGTCGATCTCGTTCTCGATGCCGCGGCAAGCGGTGTCTGCCGGGTCGCCCGTGAGGGCTTCAATCTGGAGCACCCCGCACGTTTTCTTCTTATTGGGACCATGAATCCCGAGGAGGGGGAGCTTCGTCCCCAGTTCCTTGATCGCTTTGCCCTATCGGTGACGGTCCATGGCGAGGATACGCCAGAGATGCGGAAGTCGATTGCCCGCCGACGGATCGCATTTGAGAATGATCCCAAGGCCTTTATGAAGGAGTGGGATGATGAAGAGCGGCGCCTTCGCGAGCTTGTCCGCTCCGCACGCAGGCTGCTTCCCCTTGTTGAACTTCGGGAGGAGATCTGGGACCTTTTGGTCGGCTTTTCTTCCAAGGCAGGGGTCCAGGGCCATCGGTCTGATATCGTCATGGCAAAGTGTGCATCTGCCCTCGCTGCGCTTCGAGGAAAGGCGTCGGTGGATCGTGAAGAGCTTTTGGAAGCGGCCCGTTTCGCCCTGCCTCACCGCATTGCCGGAACCATTGAAGAGACACCGGAAACGATAAAGGGGCGGCTGGAAACGATTCTTGCCGAAGAGCAGGAAGAGAAGGATCAGAAGGAAACGATAGAAAGCCCTTCGCTGCGCAAGGCCGGTCTGGAGTACGGAATGGTCCCTGAAGAGGACTTCTTCGATTACCCGGAGGATTTTCAGGTTCCTGGTGCAGCCGCTGCCGGAAGTCTCGTCTTCGATTTTCTCGAAAAAAAAAAGCGTCCATCGATGAAGGTAGAAGCGGCTGCCAGTCTATCCTCTCTCGATATTACGGCCGCCGACCTTCGTCGTTTCGGCAAGGCGGGAATACGCCGTCACGGACGTCAGAGGGGAGAGACAGGGGAAAGGGGCAGGGTGATCGGCAGCAGGGCTCCAGGTCCCGGAGAGGCGTTAAGCGATCCCGATCTTGCCGCGAGTTTTATCGCAGCTCTCAATCGGGGCGCGGGTAATGACCGCTTGAGAATCGAACCACAGGATATCAGGCTTCATGTCCGTCGTGAGGAACCGGGAACCTTCGTCCTTTTCCTCCTTGATACCAGTGATTCGATGGGGGCACTCGAGCGGATGGCTGTGACCAAGGGAGCTGTCCTTGCCCTGCTGCAGCGATCCTACCAGGAGCGGCATGTTGTTGCCCTTACAACCTTCGGCGGAGGCGGGGCCAAAACCACCCTTGCTCCGACGAAGAGTGTTCTCTTGGCAAAAAAAGCCCTTAACGCGCTCAGGCCTGACGGCGGTACTCCCCTTGCCGCCGGTATCGAGGCTTGTGGCGAGCTCTTTTCTTCAGCAGGCAGACGCTACCCCGGTATGCGTAAAATCTTAGTGATTATTTCCGATGGCGAAGCAAACATTGCCCGGGAAAGAGGGGTACCACCCTTGCGGGATGCCCTGGAGGCGGCAAACAGGCTGCGTCGAAGTGATATCCATGCGGTACTAATCGATACGAAATTACCGAAGGTCGGCAAGGAGAATGAGATGAAAAGCCTTCACCGGGTTATTGGCGGCCGTTATATCAACGCCTCGGCTCCGGGGCTGGAAGCGATTCTCGAGGCGGTGGATGCTTCCTGA</t>
+  </si>
+  <si>
+    <t>ATGCAACATTATCCCTTTTCCGCCATTTTAGGCCAAAAGCGGCTGAAGGCCGCATTACTTGCTTGCGCTGTCGATCCTTCCATTGGCGGAGTTCTTATTCGGGGAGAGAAGGGAACCGCAAAGACCACGGCGGTCCGGGCTCTTGCTCCCCTGCTACCTGAAATCGAAGTGGTAGAAGACTGCCCTTATTCCTGTGATCCGACTGACGGGGATACCATTCACGAATCCTGTGCAGCACGAATCCGTGCAGGAGAGGAGATAGAGCATTTCCGAAGACCGGTCAGGTTGGTGGAACTTCCGCTCAATGCGACCGAGGATCGCCTTGCCGGTACGATCCATATCGAAAAAACCCTCCAGCGTGGGGAACGGAGCTTTGAGCCGGGGCTGCTTGCTGCTGCCAACCGGGGAATCCTCTATATCGACGAGGTGAATCTTCTGGAGGATCACTTAGTCGATCTCGTTCTCGATGCCGCGGCAAGCGGTGTCTGCCGGGTCGCCCGTGAGGGCTTCAATCTGGAGCACCCCGCACGTTTTCTTCTTATTGGGACCATGAATCCCGAGGAGGGGGAGCTTCGTCCCCAGTTCCTTGATCGCTTTGCCCTATCGGTGACGGTCCATGGCGAGGATACGCCAGAGATGCGGAAGTCGATTGCCCGCCGACGGATCGCATTTGAGAATGATCCCAAGGCCTTTATGAAGGAGTGGGATGATGAAGAGCGGCGCCTTCGCGAGCTTGTCCGCTCCGCACGCAGGCTGCTTCCCCTTGTTGAACTTCGGGAGGAGATCTGGGACCTTTTGGTCGGCTTTTCTTCCAAGGCAGGGGTCCAGGGCCATCGGTCTGATATCGTCATGGCAAAGTGTGCATCTGCCCTCGCTGCGCTTCGAGGAAAGGCGTCGGTGGATCGTGAAGAGCTTTTGGAAGCGGCCCGTTTCGCCCTGCCTCACCGCATTGCCGGAACCATTGAAGAGACACCGGAAACGATAAAGGGGCGGCTGGAAACGATTCTTGCCGAAGAGCAGGAAGAGAAGGATCAGAAGGAAACGATAGAAAGCCCTTCGCTGCGCAAGGCCGGTCTGGAGTACGGAATGGTCCCTGAAGAGGACTTCTTCGATTACCCGGAGGATTTTCAGGTTCCTGGTGCAGCCGCTGCCGGAAGTCTCGTCTTCGATTTTCTCGAAAAAAAAAAGCGTCCATCGATGAAGTAG</t>
+  </si>
+  <si>
+    <t>ATGAGCTTGTTAAACCACCTTGAAGCGCCGCAGCCGGCCACCCGCCCGCAGTTCCCACTGACCGCGCTGGTCGGACAGCCGACGTTGCAGCTCGCCCTGCAACTGGCCGCCATCGACCCCGGCATTGGCGGCGTGCTCATCAGCGGGCCGCGCGGCACCGCCAAATCGACCGCCGCGCGTGCGCTGGCGGCGCTGCTGCCGGACGCGCCGTTTGTCAACCTGCCGCTGGCCGCCAGTCTAGAGCAGTTGGTTGGCAGCCTGAACATCGAAGACGTGCTGCGCGATGGCCGCGTGCGCCTGCAACCCGGCCTGCTGGCGCGGGCGCACCAAGGCGTGTTGTACGTCGATGAAGTGAATCTGTTGCCGGATGCGCTGATTGACGCGCTGCTGGACGCCGCTGCCAGCGGTGTCCATACCATCGAGCGCGACGGCATCTCGCAGCAGCACGCGGCGCGCTTTGTGCTGGTCGGCACCATGAACCCGGAAGAGGGCGAACTGCGCCCGCAACTGCTCGACCGCTTTGGCCTCTCTGTCGTGCTGACCAATCCCGACAGCGCCGCCCAGCGCAGCGCCATCCTGCGCGCACGTTTGCGTTTTGACGCCGACCCGGCGGGCTTCGCCGCGCAGCACGAACCAGCGCAGCAAGCGCTGCGCCATGCGCTGATTGCTGCCCGCGCCACTTTGGCGCAACTGGACTGGCCCGATGCCGTGTTGCACCACGCCGCCGAACGTGCGATGGCGGCGGGCGTTGATGGGATGCGCGCCGACTTGGTACTGCTGCGCGCCGCCCGAGCGCTGACCGCGTTGGAAGGGCGCAATGCCGTCACCTGCGCTGATGTCGATGCCGTAGCCGAACTGGCGCTGGCGCACCGCAGTACGGAGCCGCAGCCGTCAATGCCGCCGTCCCCGCCACCGCGTCCACCGACACCGCCTGATAACAGTGCGGCTGCTAATCCACCGCAGCCTCCACCGCCGCCCGCCGGCGAAGCCACGCCCACGCCCCAAGGCGACTGGGGCGCCATGCCAGCCCAGCCCGAAGGCTTCACCCCCGTACCGCGTATTCCGGGATGGCCGGCAAAAAAAGCCCTAGGCCACCCCAGCAGCCGCCCGCGCAGCGGGTTGCGTCGGCGGCGGTGGCCTAACCCCTCGGTGGACAGCCTCGCCACGCCGGCGACCGGTGATGCAGGCGCGGCGGAGGCTGGTGCTATCGCTTGGCTACCGACGCTGCGGGCCAAAGGTGCGCAGGCTTTGCAACATGAACACCTGCGCCGCCTGCCGCTGCCAGCGCACCACGCCCGCTTGCACTGCATCGTGCTGGATACCTCCGGCTCGATGCGCGCGCAAGGCCGGCTGGCGCTGGCCAAAGGCCACGCCGCGCAGCTCATCGCCCAAGCGGCACAGCAAGGCGACGACGTGGCGCTGCTGCAACTGGGCGGCGACGGCGTGCAACTGTTGCTGGCGCCGGGCCGTGCCCGCGCATCCGGCAGCTGGTGCCTGCGCGCCGTCGGCGGCGGCGGTGGTACGCCGTTAGCGCAGGCGTTGGCGCAAGCCGAACAACTGCTGCAACGCGCCCTGCGCCGCCAAGGCCCGCTCGACTGCTGGCTGTGGCTGCTGACCGACGGCCGCACGCTGGAGCAGCTGCAGCCCCCGCCGTCAGCACAGCACCGGGTGATTCTGGACTTTGACGACCCGCGCCAGCCGCTCGGCCGCTGCGCCGCTTGGGCCGTCCACTGGGGAGCGTCGCACTACCACGCGTTGTCTGTGCCATGA</t>
+  </si>
+  <si>
+    <t>ATGAGCTTGTTAAACCACCTTGAAGCGCCGCAGCCGGCCACCCGCCCGCAGTTCCCACTGACCGCGCTGGTCGGACAGCCGACGTTGCAGCTCGCCCTGCAACTGGCCGCCATCGACCCCGGCATTGGCGGCGTGCTCATCAGCGGGCCGCGCGGCACCGCCAAATCGACCGCCGCGCGTGCGCTGGCGGCGCTGCTGCCGGACGCGCCGTTTGTCAACCTGCCGCTGGCCGCCAGTCTAGAGCAGTTGGTTGGCAGCCTGAACATCGAAGACGTGCTGCGCGATGGCCGCGTGCGCCTGCAACCCGGCCTGCTGGCGCGGGCGCACCAAGGCGTGTTGTACGTCGATGAAGTGAATCTGTTGCCGGATGCGCTGATTGACGCGCTGCTGGACGCCGCTGCCAGCGGTGTCCATACCATCGAGCGCGACGGCATCTCGCAGCAGCACGCGGCGCGCTTTGTGCTGGTCGGCACCATGAACCCGGAAGAGGGCGAACTGCGCCCGCAACTGCTCGACCGCTTTGGCCTCTCTGTCGTGCTGACCAATCCCGACAGCGCCGCCCAGCGCAGCGCCATCCTGCGCGCACGTTTGCGTTTTGACGCCGACCCGGCGGGCTTCGCCGCGCAGCACGAACCAGCGCAGCAAGCGCTGCGCCATGCGCTGATTGCTGCCCGCGCCACTTTGGCGCAACTGGACTGGCCCGATGCCGTGTTGCACCACGCCGCCGAACGTGCGATGGCGGCGGGCGTTGATGGGATGCGCGCCGACTTGGTACTGCTGCGCGCCGCCCGAGCGCTGACCGCGTTGGAAGGGCGCAATGCCGTCACCTGCGCTGATGTCGATGCCGTAGCCGAACTGGCGCTGGCGCACCGCAGTACGGAGCCGCAGCCGTCAATGCCGCCGTCCCCGCCACCGCGTCCACCGACACCGCCTGATAACAGTGCGGCTGCTAATCCACCGCAGCCTCCACCGCCGCCCGCCGGCGAAGCCACGCCCACGCCCCAAGGCGACTGGGGCGCCATGCCAGCCCAGCCCGAAGGCTTCACCCCCGTACCGCGTATTCCGGGATGGCCGGCAAAAAAAGCCTAG</t>
+  </si>
+  <si>
+    <t>TTGACTCATACGTATGGGGGACATGCCATGCCAGCAAGTACGCAGAGGAACTACCCGTTCAGCGCCATCGTTGGACAAGAGGACATGAAGCTTGCCCTCAGCCTTATTTCGGTACAGCCGGCCATCGGCGGCGTGCTCATCTACGGAGAACGCGGCACGGCCAAAACAACTGCCGTGCGCGCCTTGCCTGCGTTGCTCGGGGGCGAGACCCGCGTGATCGAGCTTCCATTGAACGCTTCGGAGGACCGCGTGGTAGGTACGCTTCAGTTGGGTACCCTTATGAAGAGCGGCGAGCGCGAATTTGTGCCAGGTCTTATGGCCGAAGCGAACGGGCACATTCTGTATGTGGACGAGATCAACCTGCTGGAAGATTCGATCGTCGACTTGCTGCTGGACGCCGCCGCAACCGGCGTGTGCCGAGTTGAGCGCGAAGGCATGTCGCTGCGCTATCCGGCAAAATTCGTGCTCATCGGCACCATGAACCCTGAGGAAGGCACCCTGCGTCCGCAGCTGCTTGACCGATTCGGGCTGTCCGTCAAGGTAAGCGGCAGCCTGAACAAGGAGGAACGCCTCACCCTTATTCGTCGCCATACCGCCTTTGAGAACGACCCGGAAGCTTTCGTGCGTGAATGGCAGGAGCAGGAGAACCTGCTGGCACAGCGCATCCAGAAAGCCGCGAAGCTGTATGCCGATGTGTTTGTCCCCGACGACATCATCGAGTTCGCGACGGGCCTGTGCGTCGAGTTCGAAGTGGACGGCTACCGCGGCGATATCACGATGATGCGCACCGCGCGTGCAGCGGCGGCCCTTGAAGGCCGAACCGAGGTGACCGAAGAAGACGTGCTTCTGGCTGCTAGGTTCGTTCTGCCGCATCGTCTGAAGAAGCTTCCCTTCGAGGACATGGGCATGACCGACAAGATGCTCGAAAAGGCCGCCACCGCGTTGCACAAGGAGCCCGAGCCTGAGCAGGTTGCCGTTGCAGGCCCCGTGGCCCTTGTGGTCGAGGCCGACGAACCTGCCGACGATGGGGGAGCGGACGTCGCAAAAAAAGGGGTAGGGGCAGCACCCGCTGTGGAGCTGCCGCAGTATGACGTCCCGACGATGCCGTTTCAGGCGAAGCCGCTGGAGACAACACAAAGCCGAGTGAGGCGTGCCCAAGAAGCCCGGAAGGGGCTTCGCATGAAGGGTGTGGCCAAAGGCCATGTGATAGGGCCGACCACAAACCCGGCCTCGGGTCGTGTACACCTGCCCGGCAGCATCCTGGCGCAGCTTTCACAGGGCGAAGGGCTGGGAAACGGCATCGAGGAAAGCAACCTGCGGTACCAAAAGATTGCGGGTCGCGGACGTCGAAACATTCTCTTCATTATCGACAGCAGCGGATCTATGGTTGCGGATGACAGGTTCGCGAAGGTGAAGGGGTGCGTCATCTCGCTTCTGGAAAGCGCGTATTCGAAACGCGTGCGCGTCGCCATCATCAGTTACGGCGGCGGCAAGGCCAGGCTCGTGCTTCCGTTCACCACGTCGGCGGAGCTGGCTGCGGAGCGCATCGACGAGCTTAAGGGCGGCGGGTCCACGCCGATGGTGGACGCCCTCGGCATAGCGGGCAACCTGCTGGAGCGCATGCGTGATGAGGACCTTTCCGTCTACCTTCTTTCCGACGGGCGGTACAACCGCAATTCCACCGGCCGCGAGAACTGGCAGATCCGTGAATTCGGTGACTTCTGCAAAAGTCGAAACATCCCGGTGACGCTTATCGATGCGGGTTCCGGCACGAAGACCGCCAAGAAGCGTTCGGCGTTTTTGGCGGGCATGCTGCATGCTGAATACAAGCGTATGGATGACTTGGAAGTTGAGATGTTCGATCCTGAAGAATAG</t>
+  </si>
+  <si>
+    <t>TTGACTCATACGTATGGGGGACATGCCATGCCAGCAAGTACGCAGAGGAACTACCCGTTCAGCGCCATCGTTGGACAAGAGGACATGAAGCTTGCCCTCAGCCTTATTTCGGTACAGCCGGCCATCGGCGGCGTGCTCATCTACGGAGAACGCGGCACGGCCAAAACAACTGCCGTGCGCGCCTTGCCTGCGTTGCTCGGGGGCGAGACCCGCGTGATCGAGCTTCCATTGAACGCTTCGGAGGACCGCGTGGTAGGTACGCTTCAGTTGGGTACCCTTATGAAGAGCGGCGAGCGCGAATTTGTGCCAGGTCTTATGGCCGAAGCGAACGGGCACATTCTGTATGTGGACGAGATCAACCTGCTGGAAGATTCGATCGTCGACTTGCTGCTGGACGCCGCCGCAACCGGCGTGTGCCGAGTTGAGCGCGAAGGCATGTCGCTGCGCTATCCGGCAAAATTCGTGCTCATCGGCACCATGAACCCTGAGGAAGGCACCCTGCGTCCGCAGCTGCTTGACCGATTCGGGCTGTCCGTCAAGGTAAGCGGCAGCCTGAACAAGGAGGAACGCCTCACCCTTATTCGTCGCCATACCGCCTTTGAGAACGACCCGGAAGCTTTCGTGCGTGAATGGCAGGAGCAGGAGAACCTGCTGGCACAGCGCATCCAGAAAGCCGCGAAGCTGTATGCCGATGTGTTTGTCCCCGACGACATCATCGAGTTCGCGACGGGCCTGTGCGTCGAGTTCGAAGTGGACGGCTACCGCGGCGATATCACGATGATGCGCACCGCGCGTGCAGCGGCGGCCCTTGAAGGCCGAACCGAGGTGACCGAAGAAGACGTGCTTCTGGCTGCTAGGTTCGTTCTGCCGCATCGTCTGAAGAAGCTTCCCTTCGAGGACATGGGCATGACCGACAAGATGCTCGAAAAGGCCGCCACCGCGTTGCACAAGGAGCCCGAGCCTGAGCAGGTTGCCGTTGCAGGCCCCGTGGCCCTTGTGGTCGAGGCCGACGAACCTGCCGACGATGGGGGAGCGGACGTCGCAAAAAAAGGGTAG</t>
+  </si>
+  <si>
+    <t>GTGATCGATCGTGTGTTTCCGTTTTCGGCTATCGTGGGCCAAGAGGAGGCGAAGCAGGCCCTCCTCCTTGGGGTCATCGATCCGGGTATTGGGGGTGTGCTCCTCTCAGGCGAGAAGGGTACGGGAAAGACCACGCTTGTGCGAGCCCTCGCCTCACTCGTGCCGGGGATGCCTCTGGTGGAGCTCCCGCTCAACACCACCGAGGACAGACTGGTGGGATCGCTCAACGTGGAGAAGGCCCTTTCCGAGGGGGTGCGTGAGTTCGAGCCGGGGCTGCTCGCCGCGGCACACCGGGGGATCCTCTACGTGGATGAGGTGAACCTCCTTGAGCACCACCTGGTGGATCTGCTCCTCGATGTGGCGGCAACGGGGGTCAACCGCGTGGAGCGGGAGGGGATCTCCTATGAGCATCCGGCGCGGTTCCTGCTGGTGGGGTCGATGAACCCCGAGGAGGGGGATCTGAGGCCGCAGTTTCTCGACCGGTTCGGGCTTGCGGTGCCGGTGCGGCATCTGGAGGATCCGGACTTGAGGGCCGAGGTGGTGCGGCGGAGGCTGGCGTTCGAGACGGATCCCGCGGGGTTTTGCAGGGCATGGCAGGAAGAGGAGGAGGTGCTGGCCTCGCAGGTGAAGGCGGCGAGAGAGCGTCTCGGGAGGGTGAGGGTGGCCGAGGAGACCTACCGGGAGGCGGTGAGGATTGCGGCGGAGCTCGGGGCGCGGGGACATCGGGCGGAGCTGGTGATGGTGAGGGCCGCCCGCGCGCTCGCCTCGTTTCTCGAGCAGGAGGAGGTGGATGCCTCGCTGGTGAGGGCGGTGGCGCGGTATGCGTTGTTCCACCGGGTGAAGGTGGGGTCGGGTGAGAGTGAGGAGCGGGTGCTGAGGAGGATCGATGCGGCGGTGGACGGGCGTGTGGATGAGGGTCGGGAGGAGGGAGAGGTGGTGGTGGAGCCTGAGGATGCGATGGTGCCGGGGGCGGCGGCGGCAGGGTCGCTCATGTTCGAGTTCGTTAAAAAAAAACTGACGAGGTGGTCCACGAACCGGGTAGTGGTGGAGATCGGGGAGCTGGACTTCGAGGGAGGGATGCGGGATGTGGGCCGGGGGGTGTGGAGGCGTGAGGTGGAGTATGAGCGGGGGCGGGCGGTGGGGGTGCGTCCGTTCGGGGAGGGGGAGGCGGTGCGGGATGTGGCGGTGGGGACGAGCCTGGTGGCGGCGGCGGGCGAGGGGGTTCGGAGGAGGGAGGGGAGGTTGGTGCCGGGGGTGAGGAGGGGGCACCTGCGGCGGTGGGTGCGGCGCAGGGGTGCGTTGGATGTGGTAGTGCTGGTGGTGGATGCGTCGGCGTCGATGGGGTGGGGCGAGCGGATGCGGGTGGCGAAGGGGGCGGCGCTCTGGATGCTGGAGCGAGCCTACCTGCTGCGCTGCAGGGTGGCGGTGGTGGCGTTCAGGGGGGAGGGGGCAGAGGTGGTGCTGCCTCCCACGGTGAGCAGGGAGCTCGGGAAGGTACGGCTCGCCCGGATGCCGGTGGGGGATGCCACGCCGCTTCCCGCAGGGCTTCTCGAGGCGGCCCGCTTGGTGGAGGCGGAGGGGCTCCGGTCACCGGGGACCCGCGCCACGGTGGTGCTCATCTCTGATGGTGAGAGCAACGTGCCCCTGCGGGACGGGGCGGACAGCTTCAGCGAGGCGGTGGGGATTGTGCGGGCCCTGGTGGGGAAGGGGGTGCGTGTGGTGTGTGTGGATGCGGGGATGGGGGAGGGGAGGATGGCCGAGCTCGCGCGGAAGGGTGGGGCGGACTACCGGCAGCTTCCCCGAGTTCCCGGTGCTCTTGGGGCCTTTGTGTCGGATCTCGTCGTATCGACGGATTCCACCTACGGAGAGCACGTATGA</t>
+  </si>
+  <si>
+    <t>GTGATCGATCGTGTGTTTCCGTTTTCGGCTATCGTGGGCCAAGAGGAGGCGAAGCAGGCCCTCCTCCTTGGGGTCATCGATCCGGGTATTGGGGGTGTGCTCCTCTCAGGCGAGAAGGGTACGGGAAAGACCACGCTTGTGCGAGCCCTCGCCTCACTCGTGCCGGGGATGCCTCTGGTGGAGCTCCCGCTCAACACCACCGAGGACAGACTGGTGGGATCGCTCAACGTGGAGAAGGCCCTTTCCGAGGGGGTGCGTGAGTTCGAGCCGGGGCTGCTCGCCGCGGCACACCGGGGGATCCTCTACGTGGATGAGGTGAACCTCCTTGAGCACCACCTGGTGGATCTGCTCCTCGATGTGGCGGCAACGGGGGTCAACCGCGTGGAGCGGGAGGGGATCTCCTATGAGCATCCGGCGCGGTTCCTGCTGGTGGGGTCGATGAACCCCGAGGAGGGGGATCTGAGGCCGCAGTTTCTCGACCGGTTCGGGCTTGCGGTGCCGGTGCGGCATCTGGAGGATCCGGACTTGAGGGCCGAGGTGGTGCGGCGGAGGCTGGCGTTCGAGACGGATCCCGCGGGGTTTTGCAGGGCATGGCAGGAAGAGGAGGAGGTGCTGGCCTCGCAGGTGAAGGCGGCGAGAGAGCGTCTCGGGAGGGTGAGGGTGGCCGAGGAGACCTACCGGGAGGCGGTGAGGATTGCGGCGGAGCTCGGGGCGCGGGGACATCGGGCGGAGCTGGTGATGGTGAGGGCCGCCCGCGCGCTCGCCTCGTTTCTCGAGCAGGAGGAGGTGGATGCCTCGCTGGTGAGGGCGGTGGCGCGGTATGCGTTGTTCCACCGGGTGAAGGTGGGGTCGGGTGAGAGTGAGGAGCGGGTGCTGAGGAGGATCGATGCGGCGGTGGACGGGCGTGTGGATGAGGGTCGGGAGGAGGGAGAGGTGGTGGTGGAGCCTGAGGATGCGATGGTGCCGGGGGCGGCGGCGGCAGGGTCGCTCATGTTCGAGTTCGTTAAAAAAAAACTGACGAGGTGGTCCACGAACCGGTAG</t>
+  </si>
+  <si>
+    <t>ATGAGCGCCCGCTATCCCTTCACCGCGATCGTCGGCATGGACGACCTGCGGCTCGCGCTGCTGCTGAACGCCGTCTCCCCGGCCGTCGGCGGGGTGCTGGTCCGGGGCGAGAAGGGGACCGCCAAGTCGACCGCCGTCCGGGCGCTGGCCGGGCTGCTGCCCGCGCTGCGGGTCGTCGACGGCTGCCGCTTCGCCTGCGACCCGGCCGCGCCGGACGCCCAGTGCCCGGACGGCCCGCACGCCGCCGGCGACCCGGCCTCGGACCGGGCCACCCGGCTGGTCGAACTGCCGGTCGGGGTCTCCGAGGACCGGATCGTCGGCTCGCTGGACCTGGAGCGGGCGCTGGCCGAGGGGGTCAAGGCCTACGAGCCGGGGCTGCTGGCCGCCGCCCACCGGGGCGTGCTCTACATCGACGAGGTCAACCTGCTCAACGACCACCTGGTCGACCTGCTGCTGGATGCCGCCGCGATGGGGCAGTCCTACGTCGAGCGCGAGGGGGTGTCGGTACGGCACGCCGCGCGGTTCCTGCTGGTCGGCACGATGAACCCGGAGGAGGGCGAGCTGCGTCCGCAGCTGCTGGACCGCTTCGGGCTGACCGTCGAGATCGCCGCCACCCGCGACCCCGAGCAGCGGGCCGAGGTGGTCCGCCGCCGGCTCGGCTACGACGCCGACCCGGAGGGCTTCGCCGGACGCTGGGCCGAGGACGAGCGGAAGCTCGCCGAACGGGTGCTCGCCGCCCAGCAGTTGCTGCCGCAGGTGGTGCTCACCGACACGGCGCTCCGGCAGATCACCGCCACCTGTGCCGCGTTCGAGGTGGACGGGCTGCGGGCGGACATCGTGATGGCGCGGACCGCCGTCGCGCTGGCGGCGTGGGCGGGTCGGACCACCGTCCTGGCCGAGGACGTGCGGACGGCGGCCAAGCTCGCCCTGCCGCACCGGCGCCGGCGCAACCCCTTCGACGCACCGGGGTTGGACGAGGAGAAGCTGGAACAGACCCTGCAGCAGTCGGCCGGCCCGGAGGAGGACCCGGGCGAGGGCCCGGAGGACGACGGCCCGCCGAGCGGCGGCGGGGCGGGGGCGGCCAGGACGCGCCCTCGGACGGCGGTGCGGACGGCGGTGCGGACGGTGCGGGCGAGCAGCCCGACAGCGGCGCCGGGGCCGAGACGTCCGGCGGCGAGCAGCGCGGCTCCGGCGCCGGCCCCGGCTCCGGGGAGGCGCCGGCCGCCTCGGCGGGCGAGCCCTACCGGACCCGGCTCTACCAGGTCCCGGGAACGGGCGAGGGCACCGCCGGGCGGCGCTCGCGGGCCCGGACCGACACGGGGGGCCACACCATCCGCGCGGCGCGCCCCAGCGGCGCGCTGCAGCGGCTGCACCCTGACCGCGACGCTGACCGCAGCGGCCCCGCACCAGCTGGCGCGCGGCCGGGACGGCCTGGCCCTGCGGCTGCGCCGGGACGACTTCCGCCAGCAGGTGCGCGAGGGCCGCGAGTCCAACCTGGTGCTGTTCGTGGTGGACGCCTCCGGATCGATGGCGGCCCGGCAGCGGATGTCGGCGGTCAAGGGCGCGGTGCTGTCGCTGCTGATGGACGCCTACCAGCGGCGCGACAAGGTCGGTCTGATCACCTTCCGGGGCGCGGAGGCGACGCTGGCGCTGCCGCCGACCTCCTCGGTGGAGGTCGGCGCGGCCCGGCTGGAGCAGCTGCCGACCGGCGGCCGGACACCGCTGGCGGCCGGGCTGCTGCGGGCCCACGAGACGCTGCGCCTCGAACGGCTGCGGGACCCCCGCCGCCGTCCGCTGCTGGTCGTGGTGACCGACGGCCGGGCGACCTCCGGGGCGACCGCGCTGCCGGACGCCCGGCGCGCGGCACAGCTGCTGGCCGCGCAGGGCACCGCCGCGATCGTGGTGGACTGCGAGAGCGGTCCGGTCCGGCTCGGCCTGGCCGCCGAACTGGCGACCCACCTGGGCGGGACGGCCGTCCGACTGGACGAGCTGGCCGCCGACAGCGTCACCCGACTCGTGCACACGATCCAGAAGGAGGCGGCGTAG</t>
+  </si>
+  <si>
+    <t>ATGAGCGCCCGCTATCCCTTCACCGCGATCGTCGGCATGGACGACCTGCGGCTCGCGCTGCTGCTGAACGCCGTCTCCCCGGCCGTCGGCGGGGTGCTGGTCCGGGGCGAGAAGGGGACCGCCAAGTCGACCGCCGTCCGGGCGCTGGCCGGGCTGCTGCCCGCGCTGCGGGTCGTCGACGGCTGCCGCTTCGCCTGCGACCCGGCCGCGCCGGACGCCCAGTGCCCGGACGGCCCGCACGCCGCCGGCGACCCGGCCTCGGACCGGGCCACCCGGCTGGTCGAACTGCCGGTCGGGGTCTCCGAGGACCGGATCGTCGGCTCGCTGGACCTGGAGCGGGCGCTGGCCGAGGGGGTCAAGGCCTACGAGCCGGGGCTGCTGGCCGCCGCCCACCGGGGCGTGCTCTACATCGACGAGGTCAACCTGCTCAACGACCACCTGGTCGACCTGCTGCTGGATGCCGCCGCGATGGGGCAGTCCTACGTCGAGCGCGAGGGGGTGTCGGTACGGCACGCCGCGCGGTTCCTGCTGGTCGGCACGATGAACCCGGAGGAGGGCGAGCTGCGTCCGCAGCTGCTGGACCGCTTCGGGCTGACCGTCGAGATCGCCGCCACCCGCGACCCCGAGCAGCGGGCCGAGGTGGTCCGCCGCCGGCTCGGCTACGACGCCGACCCGGAGGGCTTCGCCGGACGCTGGGCCGAGGACGAGCGGAAGCTCGCCGAACGGGTGCTCGCCGCCCAGCAGTTGCTGCCGCAGGTGGTGCTCACCGACACGGCGCTCCGGCAGATCACCGCCACCTGTGCCGCGTTCGAGGTGGACGGGCTGCGGGCGGACATCGTGATGGCGCGGACCGCCGTCGCGCTGGCGGCGTGGGCGGGTCGGACCACCGTCCTGGCCGAGGACGTGCGGACGGCGGCCAAGCTCGCCCTGCCGCACCGGCGCCGGCGCAACCCCTTCGACGCACCGGGGTTGGACGAGGAGAAGCTGGAACAGACCCTGCAGCAGTCGGCCGGCCCGGAGGAGGACCCGGGCGAGGGCCCGGAGGACGACGGCCCGCCGAGCGGCGGCGGGGCGGGGGCGGCCAGGACGCGCCCTCGGACGGCGGTGCGGACGGCGGTGCGGACGGTGCGGGCGAGCAGCCCGACAGCGGCGCCGGGGCCGAGACGTCCGGCGGCGAGCAGCGCGGCTCCGGCGCCGGCCCCGGCTCCGGGGAGGCGCCGGCCGCCTCGGCGGGCGAGCCCTACCGGACCCGGCTCTACCAGGTCCCGGGAACGGGCGAGGGCACCGCCGGGCGGCGCTCGCGGGCCCGGACCGACACGGGGGGCCACACCATCCGCGCGGCGCGCCCCAGCGGCGCGCTGCAGCGGCTGCACCTGA</t>
+  </si>
+  <si>
+    <t>GTGACCGCCACCTATCCGTTCACCGCCGTGGTCGGCATGGACGATCTGCGGCTCTCGCTGCTGCTGAACGCGGTGAGTCCGGCCGTCGGCGGCGTGCTCGTGCGCGGCGAGAAGGGCACCGCCAAGTCCACCGCCGTGCGGGCGCTGGCCGGGCTGCTGCCGGGACTTGAGGTGGTGGGGGGCTGCCGGTTCGCCTGCGATCCGGAAGCACCGGACCCGGAGTGCCCGGACGGTCCGCACGACCCGGCCTCCGGGCTGACGGTCTCTCAGCGGCCCACCCCGCTGGTCGAGTTGCCGGTCGGAGCGACCGAGGACCGGCTCACGGGGTCGCTGGATCTGGAACGGGCGCTCGGCGAGGGCGTGAAGGCGTACGAGCCGGGGCTGCTGGCCGCCGCGCATCGCGGGGTCCTCTATGTGGACGAGGTGAATCTTCTCGGGGACCACCTGGTCGATTTGCTGCTGGACGCGGCCGCGATGGGCCGCTCGCACATCGAGCGGGAGGGCGTGTCGGTCCGGCATGCCGCGCGGTTCCTGCTGGTGGGGACGATGAACCCGGAGGAGGGCGAGCTGCGGCCGCAGCTGCTCGACCGGTTCGGGCTCACGGTGGAGGTGACCGCGACCCGGGAGCCGGAGGAGCGGGCCGAGGTGGTGCGGCGGCGGCTGGCGTACGACGCCGACCCGGACGGCTTCGCCGGGCGGTGGGCGGAGGAGGAGCGCGCCCTCGCCGGGCGGATCGTCACGGCCCGGGAGCTGCTGCCGCGGGTGGTCCTCACCGACGCCGCGCTGCGGCAGATCACCGCGGTCTGCGCGGCCTTCGAGGTGGACGGGCTGCGCGCGGACATCGTGATGGCCAGGACGGCCGTCGCGCTGGCCGCCTGGGCGGGCCGTACGCAGGTGCTGGCCGAGGACGTGCGGACGGCCGCGCGGCTGGCGCTGCCGCACCGGCGGCGCCGCAACCCCTTCGACGCACCGGGGTTGGACGAGGAGAAGTTGGACGAGACGCTCCAGCAGCACGCGGGCGAGGACCCGTCGGGGCCGGACGACGACGGTCCGGACAGCGGCGGTCCTGATGGCAGTGGGAACGGCGGCGGCGAGGGTCCGGAGGACGACGGGCCGGAGGGCGGGCCGGGCGGAGGCGCGCCCGATCCCGCCGAGGGTCAGGGCCCGGAGCAGGACTCCCCGCGCCGCCCGCACCGACCCCGCCCGGCCAGCGGGAAAACGGCGAGAGTGGCGAGAGCGCGACCGGCCCCGGCCAGGCCCCCGCGAGACCGCCCCGGTCGCCGCCGACGAGGCCTTCAAGCCGCAGCTGCTGAAGGTGCCCGGCACCGGCAAGGGCGCGCGGGGACGCCGCTCCCGCGCGCGTACCGACAGCGGGCGGACGATCCGCGCCGCGCGCCCCCAAGGGCCCCTGATGCACCTCCACCTCTCCGCGACCCTCCAGGCCGCCGCCCGTACCAGCTCGCCCGGGGCGCAGCGGCCGGGCGCTGGTGCTGCGCCGGGACGACTTCCGGACGCAGGTCCGCGAGGGCCACGAGTCCAACCTGGTCCTCTTCGTGGTGGACGCCTCCGGCTCGATGGCCGCCCGCAAGCGGATGTCAGCCGTCAAGGGGGCCGTCCTCTCCCTCCTCACCGACGCCTACCAGCGCCGGGACAAGGTCGGGCCTGATCACCTTCCGGGGCCGGGAGGCCGAGCTGGCGCTGCCCCCGACCTCCTCCGTCGAGGCCGGTGCGGCCCGCCTGGCCGCGCTCCCCACCGGCGGACGCACGCCCCTCGCCGCCGGTCTGCTGCGCGCTCACGAGACGCTGCGGGTCGAGGCGATGCGGGATCCCGCCCGCCGCCCGCTGCTGGTGGTGGTCACCGACGGCCGGGCCACCGGCGGCCGGGACGCACTGGCCGACGCCGGCCGGGCGGCGGACCTGCTGGCCGCGCGCGGCACCGCCGCCGTGGTGGTGGACTGCGAGTCCGGTCCGGTCCGGCTCGGGCTCGCCGGCGAGCTGGCGGTCCGGCTCGGCGGGCAGGCCGTCCGGCTGGACGAGCTGCGCGCGGACGCGATGGCCTCGCTCGTCCACTCCGTACGCCAGGACGCCCGCGGCAACCGCCGCGACGACCGCCGCGAGAACTCCCGGAAGGAAGCCGCCTGA</t>
+  </si>
+  <si>
+    <t>GTGACCGCCACCTATCCGTTCACCGCCGTGGTCGGCATGGACGATCTGCGGCTCTCGCTGCTGCTGAACGCGGTGAGTCCGGCCGTCGGCGGCGTGCTCGTGCGCGGCGAGAAGGGCACCGCCAAGTCCACCGCCGTGCGGGCGCTGGCCGGGCTGCTGCCGGGACTTGAGGTGGTGGGGGGCTGCCGGTTCGCCTGCGATCCGGAAGCACCGGACCCGGAGTGCCCGGACGGTCCGCACGACCCGGCCTCCGGGCTGACGGTCTCTCAGCGGCCCACCCCGCTGGTCGAGTTGCCGGTCGGAGCGACCGAGGACCGGCTCACGGGGTCGCTGGATCTGGAACGGGCGCTCGGCGAGGGCGTGAAGGCGTACGAGCCGGGGCTGCTGGCCGCCGCGCATCGCGGGGTCCTCTATGTGGACGAGGTGAATCTTCTCGGGGACCACCTGGTCGATTTGCTGCTGGACGCGGCCGCGATGGGCCGCTCGCACATCGAGCGGGAGGGCGTGTCGGTCCGGCATGCCGCGCGGTTCCTGCTGGTGGGGACGATGAACCCGGAGGAGGGCGAGCTGCGGCCGCAGCTGCTCGACCGGTTCGGGCTCACGGTGGAGGTGACCGCGACCCGGGAGCCGGAGGAGCGGGCCGAGGTGGTGCGGCGGCGGCTGGCGTACGACGCCGACCCGGACGGCTTCGCCGGGCGGTGGGCGGAGGAGGAGCGCGCCCTCGCCGGGCGGATCGTCACGGCCCGGGAGCTGCTGCCGCGGGTGGTCCTCACCGACGCCGCGCTGCGGCAGATCACCGCGGTCTGCGCGGCCTTCGAGGTGGACGGGCTGCGCGCGGACATCGTGATGGCCAGGACGGCCGTCGCGCTGGCCGCCTGGGCGGGCCGTACGCAGGTGCTGGCCGAGGACGTGCGGACGGCCGCGCGGCTGGCGCTGCCGCACCGGCGGCGCCGCAACCCCTTCGACGCACCGGGGTTGGACGAGGAGAAGTTGGACGAGACGCTCCAGCAGCACGCGGGCGAGGACCCGTCGGGGCCGGACGACGACGGTCCGGACAGCGGCGGTCCTGATGGCAGTGGGAACGGCGGCGGCGAGGGTCCGGAGGACGACGGGCCGGAGGGCGGGCCGGGCGGAGGCGCGCCCGATCCCGCCGAGGGTCAGGGCCCGGAGCAGGACTCCCCGCGCCGCCCGCACCGACCCCGCCCGGCCAGCGGGAAAACGGCGAGAGTGGCGAGAGCGCGACCGGCCCCGGCCAGGCCCCCGCGAGACCGCCCCGGTCGCCGCCGACGAGGCCTTCAAGCCGCAGCTGCTGAAGGTGCCCGGCACCGGCAAGGGCGCGCGGGGACGCCGCTCCCGCGCGCGTACCGACAGCGGGCGGACGATCCGCGCCGCGCGCCCCCAAGGGCCCCTGATGCACCTCCACCTCTCCGCGACCCTCCAGGCCGCCGCCCGTACCAGCTCGCCCGGGGCGCAGCGGCCGGGCGCTGGTGCTGCGCCGGGACGACTTCCGGACGCAGGTCCGCGAGGGCCACGAGTCCAACCTGGTCCTCTTCGTGGTGGACGCCTCCGGCTCGATGGCCGCCCGCAAGCGGATGTCAGCCGTCAAGGGGGCCGTCCTCTCCCTCCTCACCGACGCCTACCAGCGCCGGGACAAGGTCGGGCTGA</t>
+  </si>
+  <si>
+    <t>ATGGACGACCTGCGCCTCGCGCTGCTGCTCAACGCCGTCTCGCCGCAGGTCGGCGGGGTGCTGGTGCGCGGGGAGAAGGGGACGGCCAAGTCGACCATGGTGCGCGCGCTGGCCGGGCTGCTGCCCGCGATCGGCGTGGTGACCGGCTGCCGCTTCGCCTGCGACCCGGCCGCGCCGGACCCGCAGTGCCCGGACGGGCCGCACCCGGTCTCCCCGGCCGCCTCGCAGCGGGCCACCTCGCTGGTGGAGCTGCCGGTCGGCGTCAGCGAGGACCGGATCGTCGGCTCGCTGGACCTGGAGCGCGCCCTCGCCGAGGGCGTGAAGGCCTACGAGCCCGGCCTGCTGGCGGCCGCGCACCGGGGCGTGCTCTACATCGACGAGGTCAACCTGCTCCACGACCACCTGGTCGACCTGCTGCTCGACGCGGCCGCGATGGGCCGCTCCTACGTGGAGCGCGAGGGCGTGTCGGTGCGGCACGCGGCGCGGTTCCTGCTGGTCGGGACGATGAACCCGGAGGAGGGCGAGCTGCGGCCGCAGCTGCTTGACCGCTTCGGGCTGACCGTGGAGATCGCGGCGACCCGTGAGCCCGAGCAGCGCGCCGAGGTCGTGCGGCGACGCCTGGCCTACGACGCGGACCCGGACGGCTTCGCCGCGCGCTGGCAGGAGGAGGAGCGGGCGCTGGCCGCGCGGATCACCGCCGCACGGGCGCTGCTGCCGCAGGTCGTCCTGGGCGACGCGGCGCTGCGTCAGATCACGGCCGTCTGCGCGGCCTTCGAGGTGGACGGGCTGCGCGCGGACATCGTGATGGCCCGTACCGCCGTCGCCCTGGCGGCCTGGGCCGGGCGGACGCAGGTGCTGGCGGAGGACGTGCGGACCGCCGCGCAGCTGGCGCTGCCGCACCGGCGTCGCCGCAACCCCTTCGACGCCCCGGGGCTTGACGAGGAGAAGCTGGACGAGACGCTCCAGCAGCACGCGGGCCAGGACCCGCAGCCCGACCCGGACGGCGACCCCGACGGCGACGGACCGGACGACAGCGGCCCGGACGGCGGCGGAGGCGGAGGCGGGCAGCAGGGGCCGACCGAGCCCGAGCAGCCGTCCGCCAGGGACGACGCACCGGCCGAGGCCCCGCCGAGGGTCCCGCGCCGCAGGCGCCGGGCGCGCCCGCACCGCGCGAGGCCGCACCGGTGGCGGCCGACCAGCCTTACCGGACCCGGCTGTTCAAGGTGCCCGGCACCGGGCAGGGCGTCCAGGGCCGCCGCTCCCGCGCCGAGACCGACGGCGGCCACACCATCCGCTCCGCGCGCCCGACCGGCGCGCTGCAGCGGCTGCACCTGGCCGCCACCGTGCAGGCCGCCGCACCGCACCAGCTGGCGCGCGGCCGCAGCGGGCGGGCGCTGGTGCTGCGCAGGGACGACTTCCGGCAGCAGGTGCGGGAGGGACGCGAGGGCAACCTCGTGCTCTTCGTCGTCGACGCCTCGGGCTCGATGGCGGCGCGGCAGCGGATGTCGGCCGTCAAGGGCGCGGTGCTGTCCCTGCCTGATGGACGCCTACCAGCGCCGGGACAAGATCGGGATGATCTCCTTCCGCGGCTCGGGCGCGGAGCTGCTGCTGCCGCCGACCTCCTCGGTCGAGGCGGGCGCGGCGCGGCTGGAGCTGCTGCCGACGGGCGGCCGGACGCCGCTTGCCGCCGGGCTGCTGCGGGCGCACGAGACGCTGCGCCTGGAACGGCTGCGGGACCCGCTGCGGCGGCCGCTGGTGGTGCTGGTGACGGACGGCCGGGCGACCGGCTCGCGCACGGCCCTGGACGAGGCGCGGCGCGCCGCGGGCTGCTGGCTGCGGCCGGGACGGCGGCGGTCGTGGTGGACTGCGAGAGCGGACCGGTGCGGCTCGGGCTGGCCGGCGAGCTGGCGGACCGTCTGCAGGCGCCCGCCGTCAGACTGGACGACCTGCGTGCGGACACGATGA</t>
+  </si>
+  <si>
+    <t>ATGGACGACCTGCGCCTCGCGCTGCTGCTCAACGCCGTCTCGCCGCAGGTCGGCGGGGTGCTGGTGCGCGGGGAGAAGGGGACGGCCAAGTCGACCATGGTGCGCGCGCTGGCCGGGCTGCTGCCCGCGATCGGCGTGGTGACCGGCTGCCGCTTCGCCTGCGACCCGGCCGCGCCGGACCCGCAGTGCCCGGACGGGCCGCACCCGGTCTCCCCGGCCGCCTCGCAGCGGGCCACCTCGCTGGTGGAGCTGCCGGTCGGCGTCAGCGAGGACCGGATCGTCGGCTCGCTGGACCTGGAGCGCGCCCTCGCCGAGGGCGTGAAGGCCTACGAGCCCGGCCTGCTGGCGGCCGCGCACCGGGGCGTGCTCTACATCGACGAGGTCAACCTGCTCCACGACCACCTGGTCGACCTGCTGCTCGACGCGGCCGCGATGGGCCGCTCCTACGTGGAGCGCGAGGGCGTGTCGGTGCGGCACGCGGCGCGGTTCCTGCTGGTCGGGACGATGAACCCGGAGGAGGGCGAGCTGCGGCCGCAGCTGCTTGACCGCTTCGGGCTGACCGTGGAGATCGCGGCGACCCGTGAGCCCGAGCAGCGCGCCGAGGTCGTGCGGCGACGCCTGGCCTACGACGCGGACCCGGACGGCTTCGCCGCGCGCTGGCAGGAGGAGGAGCGGGCGCTGGCCGCGCGGATCACCGCCGCACGGGCGCTGCTGCCGCAGGTCGTCCTGGGCGACGCGGCGCTGCGTCAGATCACGGCCGTCTGCGCGGCCTTCGAGGTGGACGGGCTGCGCGCGGACATCGTGATGGCCCGTACCGCCGTCGCCCTGGCGGCCTGGGCCGGGCGGACGCAGGTGCTGGCGGAGGACGTGCGGACCGCCGCGCAGCTGGCGCTGCCGCACCGGCGTCGCCGCAACCCCTTCGACGCCCCGGGGCTTGACGAGGAGAAGCTGGACGAGACGCTCCAGCAGCACGCGGGCCAGGACCCGCAGCCCGACCCGGACGGCGACCCCGACGGCGACGGACCGGACGACAGCGGCCCGGACGGCGGCGGAGGCGGAGGCGGGCAGCAGGGGCCGACCGAGCCCGAGCAGCCGTCCGCCAGGGACGACGCACCGGCCGAGGCCCCGCCGAGGGTCCCGCGCCGCAGGCGCCGGGCGCGCCCGCACCGCGCGAGGCCGCACCGGTGGCGGCCGACCAGCCTTACCGGACCCGGCTGTTCAAGGTGCCCGGCACCGGGCAGGGCGTCCAGGGCCGCCGCTCCCGCGCCGAGACCGACGGCGGCCACACCATCCGCTCCGCGCGCCCGACCGGCGCGCTGCAGCGGCTGCACCTGGCCGCCACCGTGCAGGCCGCCGCACCGCACCAGCTGGCGCGCGGCCGCAGCGGGCGGGCGCTGGTGCTGCGCAGGGACGACTTCCGGCAGCAGGTGCGGGAGGGACGCGAGGGCAACCTCGTGCTCTTCGTCGTCGACGCCTCGGGCTCGATGGCGGCGCGGCAGCGGATGTCGGCCGTCAAGGGCGCGGTGCTGTCCCTGCTGA</t>
+  </si>
+  <si>
+    <t>ATGAGCACCCCCTACCCGTTCACCGCAGTCGTCGGCCAAGCCGACCTGCGGCTGGCGCTCCTGCTCAACGCCGTGAGCCCGGCGGTCGGCGGTGTGCTCGTGCGTGGTGAGAAGGGCACCGCCAAGTCCACCGCCGTCCGTGCGCTGTCCGCCCTGCTCCCCCACGTGGACGTCGTCCCCGGCTGCCGGTTCTCCTGCGCGCCCGCCGCGCCGGACCCGGCCTGCCCGGACGGCCCGCACGAGAGCGGCCCCGGCGCCGACCGGCCCGCGCGGATGGTCGAACTGCCCGTCGGGGCCTCCGAGGACCGTCTCGTCGGCGCCCTCGACATCGAACGCGCCCTCGCCGAGGGCGTGAAGGCCTTCGAGCCGGGCCTGCTGGCCGACGCGCACCGCGGGATCCTCTACGTGGACGAGGTCAACCTCCTCCACGACCACCTGATCGACCTCCTCCTCGACGCGGCCGCGATGGGCGCCTCGTACGTGGAGCGCGAGGGCGTCTCCGTGCGCCACGCCGCCCGCTTCCTCCTCGTCGGCACCATGAACCCCGAGGAGGGCGAGCTGCGCCCGCAGCTCCTCGACCGGTTCGGGCTGACCGTCGAGGTCGCGGCCTCCCGGGAGCCCGCGCAGCGCGTCGAGGTGGTGCGCCGCCGGCTCGCGTACGAGGACGACCCCGCGGGCTTCGCGGCCCGCTGGGCCGGGGACGAGAGCGAGGTGCGGGCCCGGGTGGTGGCCGCGCGGGCGCTGCTCCCGCAGGTGACCCTCGGGGACACCGCGCTGCTGCAGATCGCCGCCACCTGCGCCGGCTTCGAGGTGGACGGCATGCGCGCCGACATCGTGATGGCCCGTACGGCGACCGCCCTGGCGGCCTGGGCCGGGCGGACCTCCGTCCTGAAGGAGGACGTCCGGCAGGCGGCGCTGCTGGCGCTGCCGCACCGCCGTCGCCGCAACCCGTTCGACGCACCCGGACTGGACGAGGACAAGCTCGACGAGATCCTGGACGGGTTCCCCGACGAGGAGCCGGAGCCCGACCCCGACCCGGAGCCGGAGGGCCCGGACGACAACGGCGGCGGGGACGGCGGCAATGGCGGAGGGGACGGCGGCGGGGTGCCCCCGCAGGGCGGTGGCCCGGAGACCGGGCACGCTCCCGACACCCCGCAGGAGGCCCCCGAAGCCCAGCCCTCCGCCCCCAGGGCGGGGCGGGCGGGGCCGAGCAGGCCGCCGTGGCGGCCGCCGAGCCGTTCCGCACCAAGATGCTCAGCGTTCCCGGCCTGGGTGAGGGCGCGGCCGGCCGGCGCTCGCGGGCCCGTACCGCGCACGGCCGCACCACCGGCGCCCAGCGCCCCCGGGGCCAGCCTGACGAAGCTGCACCTGGCGGCCACCGTGCACGCCGCCGCCCCGCACCAGAAGGCCCGCGGCCGCTCCGGCCCCGGCCTCGTCGTGCGCAAGGACGACCTGCGGCAGGCGACCCGGGAGGGCCGCGAGGGCAACCTCGTGCTGTTCTGCGTCGACGCCTCCGGCTCGATGGCCGCCCGGCAGCGCATGGGCGCGGTCAAGGGCGCGGTGCTGTCGCTGCTGCTGGACGCCTACCAGCGGCGGGACAAGGTCGGTCTGATCACCTTCCGCGGGGCCGGTGCCGAACTGGCGCTGCCGCCCACCTCCTCGGTGGACGCGGCCGCGGCCCGGCTGGAGAAGCTGCCGACCGGCGGCCGCACCCCGCTCGGCCCGGGCCTGCTCAAGGCCCGCGAGGTGCTGCGCATCGAGCGGCTGCGGGACCCCTCCCGGCGTCCGCTGCTGGTGGTCGTCACCGACGGACGGGCCACCTCGGCCGGGGCCGTCGGCGGCGACCCGCGCGAGCTGTCGGGGCGCAGCGCCCGGCTGCTGGCCGCCGAGGGCGTCACCTCGGTGGTCGTGGACTGCGAGTCCGGGCCGGTCCGGCTGGGGCTCGCGGGGGCGCTGGCCGCCGATCTGGGCGCGCCCGCCGTGACCCTCGACGGGCTGCGGGCGGACTCGCTGACCGGACTCGTCAAGAACGTACGTACCGCAGTGACCCGCACTGCGTCACTCAACAGCGTCTCCAGGAGGGCCGCCTAA</t>
+  </si>
+  <si>
+    <t>ATGAGCACCCCCTACCCGTTCACCGCAGTCGTCGGCCAAGCCGACCTGCGGCTGGCGCTCCTGCTCAACGCCGTGAGCCCGGCGGTCGGCGGTGTGCTCGTGCGTGGTGAGAAGGGCACCGCCAAGTCCACCGCCGTCCGTGCGCTGTCCGCCCTGCTCCCCCACGTGGACGTCGTCCCCGGCTGCCGGTTCTCCTGCGCGCCCGCCGCGCCGGACCCGGCCTGCCCGGACGGCCCGCACGAGAGCGGCCCCGGCGCCGACCGGCCCGCGCGGATGGTCGAACTGCCCGTCGGGGCCTCCGAGGACCGTCTCGTCGGCGCCCTCGACATCGAACGCGCCCTCGCCGAGGGCGTGAAGGCCTTCGAGCCGGGCCTGCTGGCCGACGCGCACCGCGGGATCCTCTACGTGGACGAGGTCAACCTCCTCCACGACCACCTGATCGACCTCCTCCTCGACGCGGCCGCGATGGGCGCCTCGTACGTGGAGCGCGAGGGCGTCTCCGTGCGCCACGCCGCCCGCTTCCTCCTCGTCGGCACCATGAACCCCGAGGAGGGCGAGCTGCGCCCGCAGCTCCTCGACCGGTTCGGGCTGACCGTCGAGGTCGCGGCCTCCCGGGAGCCCGCGCAGCGCGTCGAGGTGGTGCGCCGCCGGCTCGCGTACGAGGACGACCCCGCGGGCTTCGCGGCCCGCTGGGCCGGGGACGAGAGCGAGGTGCGGGCCCGGGTGGTGGCCGCGCGGGCGCTGCTCCCGCAGGTGACCCTCGGGGACACCGCGCTGCTGCAGATCGCCGCCACCTGCGCCGGCTTCGAGGTGGACGGCATGCGCGCCGACATCGTGATGGCCCGTACGGCGACCGCCCTGGCGGCCTGGGCCGGGCGGACCTCCGTCCTGAAGGAGGACGTCCGGCAGGCGGCGCTGCTGGCGCTGCCGCACCGCCGTCGCCGCAACCCGTTCGACGCACCCGGACTGGACGAGGACAAGCTCGACGAGATCCTGGACGGGTTCCCCGACGAGGAGCCGGAGCCCGACCCCGACCCGGAGCCGGAGGGCCCGGACGACAACGGCGGCGGGGACGGCGGCAATGGCGGAGGGGACGGCGGCGGGGTGCCCCCGCAGGGCGGTGGCCCGGAGACCGGGCACGCTCCCGACACCCCGCAGGAGGCCCCCGAAGCCCAGCCCTCCGCCCCCAGGGCGGGGCGGGCGGGGCCGAGCAGGCCGCCGTGGCGGCCGCCGAGCCGTTCCGCACCAAGATGCTCAGCGTTCCCGGCCTGGGTGAGGGCGCGGCCGGCCGGCGCTCGCGGGCCCGTACCGCGCACGGCCGCACCACCGGCGCCCAGCGCCCCCGGGGCCAGCTGA</t>
+  </si>
+  <si>
+    <t>ATGGGAACATCCGTCAATCTGACCACCACGGACGCGTGCTCAACGACGGCTGCGCCACCTGATACGACGCCAGAGACACCGCGCTATCCCTTTGCAGCGCTGGTGGGGGTACCGGATTTGCAGCTGGCGCTGTTGTTGGTGGCCATCGACCCTACGCTCGGTGGGGTACTTATCCGCGGCCCACGCGGCACGGCCAAGTCGACCGCGGCGCGCGCGCTGGCCGACTTGCTACCGGGCGCCCCGTTTGTGCAGTTACCACTGGGGGCTACGCTGGAGCAGATCGTCGGCACGCTGGAACTTCAAGATGCGCTGCGCCATGGACGCATTACATGGCGGCCCGGGCTGCTGGCGCGCGCACACGGCGGGGTGCTTTACGTGGACGAGGTCAACCTGTTGCCCGATGCGCTGGCCGATGTGCTGTTGGATGCCGCCGCCAGCGGCGTGCACACCGTGGAACGCGACGGCATTTCGCAGCGCCACGCCGCGCGCTTTGCGCTGATCGGCACGATGAACCCGGAGGAGGGGGAGTTGCGCCCGCAGCTTCTGGATCGCTTTGGCCTGTGCGTCGAGCTGAGCAATCCGGACGCTGCGGCGGTGCGCGCCGCTATCGTGCGAGCGCGGCTGGCGTTCGAAGCCGACCCGGCGGCCTTCGTCGCCTGCCACCATTTGCAGCAGCAGACCTTGCAGCAGCGCTTGCAGCGCGCGCGGCAGGCGCTGGGCACGCTGACCTGGTCGGACGAACTCATTGTGCAAGCCTGTGCGCAGGCGCTCCAAAGCGGCGCTGACGGTTTGCGCGGTGACTTAACGCTGCTGAAAGCGGCACGCGCCCACGCGGCCTGGCACGGCAAGACCGCCATTGACCTGGCCGACTTGCGGGCGGTGGCCCCGTGGGTGTTGGCGCACCGGCGCAGTGGCACGGCGGCAGCCGCTGCCGAGGGAGCAGCCAGCGCCATCACACCCCCTTGGCAGTCAGCGGCGCCGCAGCGCACGTCTGCCGCGCCGTACGATGGGTCTGCGCCGCAAGACGGCAAGCTGCAGGGAGAGAGTCCCCCGCGCCACGCAGCGGCGGGCGAGGCTGACTGGGGTGCGTTGCCGCCGCAACCGGTCGGCATGGCGCCGCCGCTGGCCCAGATGCCCGGAGGCTGGCCTGTCCCAAAGCCTTTAGGCCCCGCCGGCGCGCGTAAGCCGCCTGCCGGGATGGGGCTGCGATCGCCTGACCATGCCGCCGCGTCCGCCCGGCGCGACGGCGCCACGCCGGTGATGTTGGACTGGCCTGCCACCCTCGCGCGCAAAGGGCCCCGTCCGCTCAGGCCCGCCGACCTGGTCTGGCGCGCGGTCCCGCCCGAGCCGGCGTGCCTGCACGTGATCGTGCTGGACGCATCCGGCTCGATGCTGCGCCGCGGGCGTCTGGCGCGCGCCAAGACCGTGGCGCTGCTGCTGGTTCAGCGCGCCGCGCGCCGCGACCAGCATGTCGCGCTACTGCTGGCCAGCGGTTACGGCGCGCAGGTGCTGCAGCCGCCCGCGCCGGCGCGGCGCGCCTTGGGGGTGACCGTGCGCGCGGTGAGGGGGGGCGGCGGCACGCCGCTGACGGTAGCCCTGCAGCGCGCCGAGACGCTGGCGCAGGCGTGGACTCGGCGCTTCGGCGGGCGCGCGCGGCGGGTCCTGTGGCTGCTCACCGACGGGCAGGTGCGACAGGAGCCGCCGCGCCCCGCTTTTGAGGTTTGTGTGGTGGTGGACGCCGACGACGACCAACCCGCGCTCGGCCAAGCTCGCCAGTGGGCGCACCATTGGCAGGCCCATCATGTGGCGTTGAACGATTGGAACTGA</t>
+  </si>
+  <si>
+    <t>ATGGGAACATCCGTCAATCTGACCACCACGGACGCGTGCTCAACGACGGCTGCGCCACCTGATACGACGCCAGAGACACCGCGCTATCCCTTTGCAGCGCTGGTGGGGGTACCGGATTTGCAGCTGGCGCTGTTGTTGGTGGCCATCGACCCTACGCTCGGTGGGGTACTTATCCGCGGCCCACGCGGCACGGCCAAGTCGACCGCGGCGCGCGCGCTGGCCGACTTGCTACCGGGCGCCCCGTTTGTGCAGTTACCACTGGGGGCTACGCTGGAGCAGATCGTCGGCACGCTGGAACTTCAAGATGCGCTGCGCCATGGACGCATTACATGGCGGCCCGGGCTGCTGGCGCGCGCACACGGCGGGGTGCTTTACGTGGACGAGGTCAACCTGTTGCCCGATGCGCTGGCCGATGTGCTGTTGGATGCCGCCGCCAGCGGCGTGCACACCGTGGAACGCGACGGCATTTCGCAGCGCCACGCCGCGCGCTTTGCGCTGATCGGCACGATGAACCCGGAGGAGGGGGAGTTGCGCCCGCAGCTTCTGGATCGCTTTGGCCTGTGCGTCGAGCTGAGCAATCCGGACGCTGCGGCGGTGCGCGCCGCTATCGTGCGAGCGCGGCTGGCGTTCGAAGCCGACCCGGCGGCCTTCGTCGCCTGCCACCATTTGCAGCAGCAGACCTTGCAGCAGCGCTTGCAGCGCGCGCGGCAGGCGCTGGGCACGCTGACCTGGTCGGACGAACTCATTGTGCAAGCCTGTGCGCAGGCGCTCCAAAGCGGCGCTGACGGTTTGCGCGGTGACTTAACGCTGCTGAAAGCGGCACGCGCCCACGCGGCCTGGCACGGCAAGACCGCCATTGACCTGGCCGACTTGCGGGCGGTGGCCCCGTGGGTGTTGGCGCACCGGCGCAGTGGCACGGCGGCAGCCGCTGCCGAGGGAGCAGCCAGCGCCATCACACCCCCTTGGCAGTCAGCGGCGCCGCAGCGCACGTCTGCCGCGCCGTACGATGGGTCTGCGCCGCAAGACGGCAAGCTGCAGGGAGAGAGTCCCCCGCGCCACGCAGCGGCGGGCGAGGCTGACTGGGGTGCGTTGCCGCCGCAACCGGTCGGCATGGCGCCGCCGCTGGCCCAGATGCCCGGAGGCTGGCCTGTCCCAAAGCCTTAG</t>
+  </si>
+  <si>
+    <t>ATGACGGCGGCACAGCCTGAAGCCTTGTGGGCGGGGGAGCAGCCCCCAGCGTTCCCGCTGGTGGCGCTGGTGGGGCAGCCGCAGCTGCAACTGGCGCTGCTGTTGGCCGCGGTCGACCCCAGCATGGGAGGGGTGCTCATCAGCGGGCCTCGAGGAACCGCCAAATCGACGGCAGCGCGTGCGTTGGCAGCATTGATGCCGGAGGTGCCGTTCGTGACGCTGCCCTTGTCAGCCACGTTGGAACAGGTGGTGGGCACCCTCGATCTCGAGGGGGCGTTGCGTGACGGGCGGGTGCGGTTTGCGCCGGGGGTGCTGGCCCGCGCACACGAGGGCGTTCTCTACGTCGACGAGGTCAATCTGCTGGCCGATGTGTTGGTGGATGCCTTGCTCGATGCCGCTGCCAGCGGGGTCAATACGGTCGAACGCGACGGCGTCTCACACCGCCACCCGGCGCGCTTCGTCTTGGTGGGCACGATGAATCCCGAGGAGGGGGAGCTGCGCCCGCAGCTGCTCGACCGCTTCGGCCTGTATGTGGCCATGCAAAATCCGCCCGATTCGGCCACGCGGGCCGCCATTGTGCGCCAACGCTTGGCCTACGAAGCCGACCCCGTCGGGTTCGTGCAGCGACACGCGGCGGCGTCGGCATCCGTCGCGCAGCGCCTGCGCTGCGCGCGCGAGCGGCTGGCGACTGTCACGTGGGACGACGCGATCCTCGAGCACGTTGCCCAATGCTGCCAAGCGGCGCGGGTCGACGGGGTGCGTGCGGATTTGGTGTTGCTCAAAGCCGCCCGCGCACACGCGGCGTGGCATGGGCGCGCTACCGTGGCGGTGGACGATGTCGAGGCGGTCCAGGCGTTGGCCTTGGCGCATCGCTGTGGAGGGAGCCCGGCGAGCGGGAGGGAGCCGTCGCCGCCGCCGCAATCGATGTCAGCCAGCATGGCAGCGCCAACGTCCCAGGGGGGATCACCGGCACCGCTCGATGGGACAGCAGCGGGGCATCACCCCGCACCGGTGCGCGCCGCACCGGGTGACGTGAGTCCAGGGGGGGGCGATGCGTCCGCCGGCGACTGGGGTGCCATGGAGCCGGAGCCGATCACAGTGCCTCAACCCGCGTTACCGCAATGGGCAGACTGGTGGCCAAAAAAGCCCCTAGCCCCCCGTGCCGGTCGGGTCTCTTGGGTGGCCCATACCACAGGCGGCCCAAGGCGCGATCCAGCGGCAACGGGGGGGCAAAGGCCGGCGGGCCATGGGTGGGAGCCGACGGCTGCCGTGGATTGGCCCACGACACTGCGCCGCAAGGGGCCGCGCGCGCTGCAGCGACGGCATGTGCAGTGGCGGTTGGGCGCGGTGGTACCGGTCGCCATGCACGTGATCGTCCTGGATATTTCGGGCTCCATGGCTTGGGGGCAGCGCGCGGCAAGGGCCAAAGCGTACGCAGCGGCTATCGTGGAGGGCGCGCGGCGCAGCGGTGCGTGGGTGGCGCTACTGGCAGTCGGAGGGCAGCACGCGCAGTGGGTGCTGCGGCCACGGGCGGCGCGCCGCTCCGCAGTGCAGCGCATGCAGGCGCTGGGTTGTGGTGGCGGCACGCCCATGCAGCAGGCGGCGCTGCAAGTGGAGGAGGTCCTTTGTGCGCACGCGCGCCACTACCCGGCGGCGTATCGGCACGTGTGGGTGCTCACCGATGGTCGCGTGCGTACCGTGCCGATGCGACCGCTGGCCGCGCATGAGGTCACGGTGGTGGATTTTGATGATGACCCGGTGCCGCTCGGCCAAGCGCGGCGCTGGGCCGCCGCTTGGGGCGCGCGTTGGTTGTTGGCCGCGGCTGGCTGCCCGGGCCTGGCGGGGGGGCGCGATGGTTGA</t>
+  </si>
+  <si>
+    <t>ATGACGGCGGCACAGCCTGAAGCCTTGTGGGCGGGGGAGCAGCCCCCAGCGTTCCCGCTGGTGGCGCTGGTGGGGCAGCCGCAGCTGCAACTGGCGCTGCTGTTGGCCGCGGTCGACCCCAGCATGGGAGGGGTGCTCATCAGCGGGCCTCGAGGAACCGCCAAATCGACGGCAGCGCGTGCGTTGGCAGCATTGATGCCGGAGGTGCCGTTCGTGACGCTGCCCTTGTCAGCCACGTTGGAACAGGTGGTGGGCACCCTCGATCTCGAGGGGGCGTTGCGTGACGGGCGGGTGCGGTTTGCGCCGGGGGTGCTGGCCCGCGCACACGAGGGCGTTCTCTACGTCGACGAGGTCAATCTGCTGGCCGATGTGTTGGTGGATGCCTTGCTCGATGCCGCTGCCAGCGGGGTCAATACGGTCGAACGCGACGGCGTCTCACACCGCCACCCGGCGCGCTTCGTCTTGGTGGGCACGATGAATCCCGAGGAGGGGGAGCTGCGCCCGCAGCTGCTCGACCGCTTCGGCCTGTATGTGGCCATGCAAAATCCGCCCGATTCGGCCACGCGGGCCGCCATTGTGCGCCAACGCTTGGCCTACGAAGCCGACCCCGTCGGGTTCGTGCAGCGACACGCGGCGGCGTCGGCATCCGTCGCGCAGCGCCTGCGCTGCGCGCGCGAGCGGCTGGCGACTGTCACGTGGGACGACGCGATCCTCGAGCACGTTGCCCAATGCTGCCAAGCGGCGCGGGTCGACGGGGTGCGTGCGGATTTGGTGTTGCTCAAAGCCGCCCGCGCACACGCGGCGTGGCATGGGCGCGCTACCGTGGCGGTGGACGATGTCGAGGCGGTCCAGGCGTTGGCCTTGGCGCATCGCTGTGGAGGGAGCCCGGCGAGCGGGAGGGAGCCGTCGCCGCCGCCGCAATCGATGTCAGCCAGCATGGCAGCGCCAACGTCCCAGGGGGGATCACCGGCACCGCTCGATGGGACAGCAGCGGGGCATCACCCCGCACCGGTGCGCGCCGCACCGGGTGACGTGAGTCCAGGGGGGGGCGATGCGTCCGCCGGCGACTGGGGTGCCATGGAGCCGGAGCCGATCACAGTGCCTCAACCCGCGTTACCGCAATGGGCAGACTGGTGGCCAAAAAAGCCCTAG</t>
+  </si>
+  <si>
+    <t>ATGAGCTCAAACCCAGCCCTCACCGACAGCCGCACCGTGCCGGCTTTCCCATTCTGTGCTCTGCACGGTCAGGCGCACCTGCAAAGCGCGCTGCTGCTCGCCACCGTCGACCCGCTCATCGGTGGTGTGCTGGTCGAAGGCGCGCGCGGCACCGCCAAGTCCACCAGCGCTCGGGCGCTCGCTGCGCTCTTGCCCGAGGGCCACTTCGTGAACCTGCCGCTGGGCACGAGCGAGGAACAGCTCGTCGGCGCACTTGATCTTGAAGGAGTCCTGCAGGACGGGCGCGTCCGCCTGCGCCCCGGCCTGCTCGCGCAGGCGCATGCGGGCGTGCTCTACATCGACGAGGTGAACCTGCTTGCCGACGGCCTCGTCGACCTCTTGCTCGACGTCTGCGCCAGCGGCATCAACCGCATCGAACGCGACGGTATCTCGCAGCAACACGCCGCTCGCATCACCCTGGTGGGCACGATGAACCCCGAGGAAGGCGAGTTGCGCCCGCAATTACTCGACCGCTTTGGTCTTTTCGTGCGCTTGAGCGAAGTCGTCGATACCACCGCGCGCAAGGCGATCGTGCGCGCCCGGCTGGCTTTTGATGCCGACCCGGCGGCTTTCACCCGCCGTTTCGACACTCAACAGCAGCAGCTTGTCGATCGTATCGCCAGCGCGCGCAGCGCAATCGAACACATCGACTTTACCGACGCCACCCACGATCGCGTCGCCGCCCTGTGCCATGCGGCCGAGGTCGAAGGCGTGCGTGCCGATCTCGTCATGTTGCGCGCCGCACGCGCTCACGCCGCGCTTGAGGGTCGCTACGAGATCGTCGGTACCGACATCGATGCCGTTGCCGAACTCGTGCTTGCTCACCGTCGCAAGGCAACGGGCGCCACATCACCGCCACCACCACCACGCAGTCACTCAGAGCCACAAAACGATCCTGCCGTGGACGCCTTCGCTCAGCCCCCACGACAGAACTTCAACACAAGCAATGCAGAGCCGAACAACGGGGCCGCGGAGGAGATGGAAAACGGAAACGACGACTCAGACTGGGGCGCATTGCCACGTCCCCCGGTGCCCATCCTCAACGTCAAGAGCGTGAGGCCACTGCACGCAAAAAAGCCCCTGACGCGTCCGACGGCGCCCGGCAGGGCAGCCAGCGGACGCGTTCCCAACCCCACGCGAAAGGGTCGCCCCGGGCCACCCAGCGGCACTCGCATTGACTGGCCACGCACGCTCGCGACCAAGGCCAACGTGCCACTCGAGCGCAAGCATCTACGCCTGCGTGCGCTGCCTGCCGGCAGCGGCGTGCTGAACTGCGTGCTGCTCGACTGCTCGGCGTCGATGCTGCAGGGGCGTCGGCTGGCGCTCGCCAAAGGCCTGTTGCTGGAATGGACAGCGCAGTTTTACCGCCGCCGTGAATACCTTGCCGTAATCGGCTTTGGCGGTGAGCAGGCAAACCTGCTGCAAGCACCGCTCAAGGCGGTGGCCTTCAACACCACCTGGATTGCCGAGATCGCCGGCGGCGGGGCGACACCGGCAGGTTCGGCGGTGGCACTGGCCGATGCCGTGCTGGCCAAGCCCCGGCGCAGCGTGCGCGGACAACACGTCGTGTTGTGGCTGCTGACCGATGCACGTTTCGACGAGATACCTCCGCGTCCCCGCCAAGCCGACGTGTGCATGGTGGTGGATTTTGATGAGGGCGCGCTGACGCTGGGACGCGCCGCGCGCATTGCCCAGGCCTGGGGGGCGCAGTGCTGGCCTGCCATCGAACTGGGCGGGGTCGCTGGCACAGACACATGCACTCAGGTTTGA</t>
+  </si>
+  <si>
+    <t>ATGAGCTCAAACCCAGCCCTCACCGACAGCCGCACCGTGCCGGCTTTCCCATTCTGTGCTCTGCACGGTCAGGCGCACCTGCAAAGCGCGCTGCTGCTCGCCACCGTCGACCCGCTCATCGGTGGTGTGCTGGTCGAAGGCGCGCGCGGCACCGCCAAGTCCACCAGCGCTCGGGCGCTCGCTGCGCTCTTGCCCGAGGGCCACTTCGTGAACCTGCCGCTGGGCACGAGCGAGGAACAGCTCGTCGGCGCACTTGATCTTGAAGGAGTCCTGCAGGACGGGCGCGTCCGCCTGCGCCCCGGCCTGCTCGCGCAGGCGCATGCGGGCGTGCTCTACATCGACGAGGTGAACCTGCTTGCCGACGGCCTCGTCGACCTCTTGCTCGACGTCTGCGCCAGCGGCATCAACCGCATCGAACGCGACGGTATCTCGCAGCAACACGCCGCTCGCATCACCCTGGTGGGCACGATGAACCCCGAGGAAGGCGAGTTGCGCCCGCAATTACTCGACCGCTTTGGTCTTTTCGTGCGCTTGAGCGAAGTCGTCGATACCACCGCGCGCAAGGCGATCGTGCGCGCCCGGCTGGCTTTTGATGCCGACCCGGCGGCTTTCACCCGCCGTTTCGACACTCAACAGCAGCAGCTTGTCGATCGTATCGCCAGCGCGCGCAGCGCAATCGAACACATCGACTTTACCGACGCCACCCACGATCGCGTCGCCGCCCTGTGCCATGCGGCCGAGGTCGAAGGCGTGCGTGCCGATCTCGTCATGTTGCGCGCCGCACGCGCTCACGCCGCGCTTGAGGGTCGCTACGAGATCGTCGGTACCGACATCGATGCCGTTGCCGAACTCGTGCTTGCTCACCGTCGCAAGGCAACGGGCGCCACATCACCGCCACCACCACCACGCAGTCACTCAGAGCCACAAAACGATCCTGCCGTGGACGCCTTCGCTCAGCCCCCACGACAGAACTTCAACACAAGCAATGCAGAGCCGAACAACGGGGCCGCGGAGGAGATGGAAAACGGAAACGACGACTCAGACTGGGGCGCATTGCCACGTCCCCCGGTGCCCATCCTCAACGTCAAGAGCGTGAGGCCACTGCACGCAAAAAAGCCCTGA</t>
+  </si>
+  <si>
+    <t>ATGCCCGTGATTTATCCGTTTACTGCCATTGTGGGTCAGGAGCAAATGAAACGCGCCCTGATCCTAAACGCCATTGATCCGCGCATTGGGGGCGTTCTCATCCGGGGTGAGCGTGGCACGGCCAAGTCCACTGCCGCGCGTGCACTGGCGGCATTGCTCCCGCACATCAAAGTGATCGCAGACTGCCGCTTTGGCTGTGATCCGGACACCCCCGCCACCTGGTGCACGGAATGCCGCGAACGCGCCGCCCGAGGCGAGGAACTTCCGGTAACTACACGGCCCATTCCTTTCGTGAATCTGCCCATTTCGGCCACGGAAGACCGTGTGGTGGGAACGCTTGATATCGAGAAAGCCATTCAGAAAGGGGAACGACATTTCGAACCGGGGGTGCTGGCTGCCGCCAATCGCGGCTTGCTCTATATTGACGAAGTCAATCTGCTTGATGACCACGTAGTGGATATCCTGCTCGATTCGGCGGCCATGGGGGTCAACATTATCGAACGTGAGGGGATTTCCTTCAGTCACCCCGCGCGTTTTATCCTGGTGGGAACGATGAACCCGGAAGAGGGAGAACTGCGCCCGCAGTTACTGGATCGCTTTGCACTTTCGGTCGAAATCCGTGGTATCCGTGACCCCCGCGAGCGGGTGTTGATCATCGAACGCAATCTGGCTTTCGAAGCCAACCCGGAGGGCTTCCGCCAGGAGTGGTTACCCAAAGAACAGGAACTCTCACGCCAGATTGAGCAAGCCAGGCAACTGCTTAATCGAGTCACCTACACGTCGCGTGACCTGCTGGCCATTGCCTCCCTCACGGCCTCTCTCAACGTGGATGGTCATCGCGCCGATATGGTCATTCTCAAAGCCGCCCGGGCTCATGCTGCCTTCGAGGGCCGCACCAGCGTGAGCGGCCGCGATATTGCCTTAGCCGCCGAACTGGCCCTGCCGCATCGCCTCAAGCGAGCGCCCTTCCAGCAAGCCGAAATGACCATGGAAGAATTGCAAGATCGCATCGAGCAACTGCAAGGCGCGAGCAGCACCGGCAAACACACCGAGCCAATGCCCACGCGTGAAGAAGAGGCTGCCCGGCAAAAAAAAACTTTAACTGACCAGACCCTGGGGCAAGAAACGCAGGAACAGGCCCCACCGCAACCGACGCAACGAGAGGATATCTTTCGTCAGGATAGCGCCATATGGTGGGATGGCGGCCAGGTCGTCCGGGCCGCGCAACCCTTTGAACCACGGCGTCTGGATACCCCACTGGATAAGATGATGCGTCGCTTCGCCGGACGCCGTTCGCGCACCCGCACCGAACGCAAGCGTGGGCGTTACATTCAAGCCCGCCCCGCTAATGGCCCCATCGATGACCTGGCATTTGATGCCACGCTCCGCGCCGCCGCCCCTTTTCAGAAAGAACGTAGTGAGGAACGCAAGCAGGTGGCCTTCTCGATCCACCGCAGTGATCTGATGCGCAAAATTCGCGTGCGCCGCGCTGCCAACCTGATCCTTTTTGTGGTAGATGCCTCGTGGTCCATGGCAGTGGCTGAGCGTATGCAAGCCACCAAAGGCGCGATCCTTTCCCTGCTTAATGATGCCTACCAACGGCGTGACCGTGTGGGCTTAATTGTCTTTCAGAAGGACCGCGCAACTTTGGTTCTCCCCCCTACCAACTCCGTGACGCTGGCGCAAACCGCGCTGGCCGATATCCCGGTGGGTGGAAAAACCCCCCTCTCCGCCGGCTTGAAACTGGCCCTGGAAGTGCTCCAGCGCGAGCGCTTGCGCCACCCCGATGTGATGCCCCTGTTAATTGTCCTGACCGATGGTGCGGGTAACGTCTCCATCAGCCACCTTCCGCCGCTTGAGGAAGCCTATTTATACGCCGATGAGATCGCCCGAGAAGGTGTGCACAGCATTGTGATCAACATGGAACACATGGCCTTCGACCAGGGGCTGGCACAAGCCCTGGCCGATCACCTCAAAGCCCCCTGCTACACTGCCGGGGAGATGCGCGCCGAAAACCTCTACTACACCGTACGGCAGGAACTAAACGCCCGCACCCCTCCCGCCACCCTGGAAGACCGACGCTAA</t>
+  </si>
+  <si>
+    <t>ATGCCCGTGATTTATCCGTTTACTGCCATTGTGGGTCAGGAGCAAATGAAACGCGCCCTGATCCTAAACGCCATTGATCCGCGCATTGGGGGCGTTCTCATCCGGGGTGAGCGTGGCACGGCCAAGTCCACTGCCGCGCGTGCACTGGCGGCATTGCTCCCGCACATCAAAGTGATCGCAGACTGCCGCTTTGGCTGTGATCCGGACACCCCCGCCACCTGGTGCACGGAATGCCGCGAACGCGCCGCCCGAGGCGAGGAACTTCCGGTAACTACACGGCCCATTCCTTTCGTGAATCTGCCCATTTCGGCCACGGAAGACCGTGTGGTGGGAACGCTTGATATCGAGAAAGCCATTCAGAAAGGGGAACGACATTTCGAACCGGGGGTGCTGGCTGCCGCCAATCGCGGCTTGCTCTATATTGACGAAGTCAATCTGCTTGATGACCACGTAGTGGATATCCTGCTCGATTCGGCGGCCATGGGGGTCAACATTATCGAACGTGAGGGGATTTCCTTCAGTCACCCCGCGCGTTTTATCCTGGTGGGAACGATGAACCCGGAAGAGGGAGAACTGCGCCCGCAGTTACTGGATCGCTTTGCACTTTCGGTCGAAATCCGTGGTATCCGTGACCCCCGCGAGCGGGTGTTGATCATCGAACGCAATCTGGCTTTCGAAGCCAACCCGGAGGGCTTCCGCCAGGAGTGGTTACCCAAAGAACAGGAACTCTCACGCCAGATTGAGCAAGCCAGGCAACTGCTTAATCGAGTCACCTACACGTCGCGTGACCTGCTGGCCATTGCCTCCCTCACGGCCTCTCTCAACGTGGATGGTCATCGCGCCGATATGGTCATTCTCAAAGCCGCCCGGGCTCATGCTGCCTTCGAGGGCCGCACCAGCGTGAGCGGCCGCGATATTGCCTTAGCCGCCGAACTGGCCCTGCCGCATCGCCTCAAGCGAGCGCCCTTCCAGCAAGCCGAAATGACCATGGAAGAATTGCAAGATCGCATCGAGCAACTGCAAGGCGCGAGCAGCACCGGCAAACACACCGAGCCAATGCCCACGCGTGAAGAAGAGGCTGCCCGGCAAAAAAAAACTTAA</t>
+  </si>
+  <si>
+    <t>ATGTATTATCCATTCAGTGCAATAGTTGGGCAAAAATTGATGAAAAAAGCCCTGATTTTAAATGCTATAAATCCCAAATTAGGTGGAGTTTTAATAAGAGGAGAAAAAGGAACAGCTAAATCTACTGCAGTTCGTGCTTTGGCGGAACTTTTACCAGAAATAAGAGTTGTAGAAGGCTGTCCCTTCGGTTGTGATCCAGACAACCCAGCCCAGATGTGTACAAACTGCAGGGAAAAGTGGGAAAGGGGAGAAAAACTTCCAGTAACAACTCGAAAGATGCGGGTAGTAGATCTTCCAATAAGTGCTACAGAGGATAGAGTTGTGGGTACACTTGATATAGAAAGGGCAATAAAAAAAGGGGAAAAATGCTTTGAACCGGGTGTTCTTGCAGAAGCAAACAGAGGAATTCTTTATGTGGACGAAGTTAATCTTCTAGATGACCATGTAGTGGATATATTATTGGATTCTGCGGCAATGGGTGTCAACATTGTAGAAAGGGAGGGAGTATCCTTTTCGCATCCCGCTAATTTCATTCTTGTAGGGACAATGAATCCAGAAGAAGGGGATTTAAGGCCACAGCTTTTAGACAGGTTTGGGCTTTGTGTATCAGTAGAGGGGATAGACGATCCATCAGCCCGTGTAGAGATAATAAAAAACCGTCTTGCCTTTGAAGAAGACCCGGCAAAATTTGCTGAGAAATGGGAAGAGAAGCAGGAGGAATTAAGGCAAAAAATTTTCAGTGCCAAGCAACTTCTTCCTCATGTCCGTGTTGATGATAAAATGCTTGAGCTGATAGCTCGAATTTCTCTTGATATGGGAGTAGATGGCCACCGAGCTGATATAGTTATGATGAAAACAGCAGCAACTATTGCAGCTTATAAAGGGAAGGAGTTAGTAGAAGAGGAGGAAGTGAAAGAGGCTGCAGAGCTTGTTTTACCTCACAGAATGAGGAAGAAGCCCTTTGAGCAATCACAAATGGATAAGGAAAAGTTAGAACAGATATTAAAAGAACAGCAAAAGCAGCAGCAAAGTCAACCAAAACCGCAAAATCAACAGCAGCAACGCCAACAAGAACAGCAACGCCAACAACAACAGCAGCAACAAGAAGTTGAAGGAGAAGATAAAAAAAAACTGATAAATCTGGTAGAAGAAGAGGAGGGAGAAAATAATAACGGTTCAGAGGAGCAGGTATTTGAGATAGGAGAGGAATTTTCTATCAAAAGGATTATGTTTTCAAAAGATAAAAATTTAAGAAGAAAGGGTTCAGGGAGAAGAAGTCTTACAAGAATTAATAGCAAGAAAGGAAGGTATGTAAGAAGTAAATTTTATAATGAAAACAATGACATAGCCTTTGATGCTACATTGAGAGCGGCTGCTCCTTACCAAAAAAGCCGCAAAAAAGAAGGAGTTGCAATTTCAATTAAAGAATGGGATATAAGAGAAAAGGTGAGAGAAAAGAAGATTGGTAATTTTATTGTATTTGTTGTAGATGGAAGTGGATCAATGAATGCTAATCAGCGGATAAAAGCTGCAAAAGGGGCAATTGTTTCTCTTTTACTTGATGCTTATCAAAAAAGAGATGAAGTTGCAATGATTGTATTTAAAGGAGAAACGGCAGAAGTAGTTTTACCGCCGACATCTAGTGTAGAACTGGCATATAAGCTGATGGAAGAACTGCCTACAGGAGGAAAAACACCCTTGGCTGAAGGGTTATATAAGGGGCTGGAAGTTATAAAAAATGCAAAGTACAGAAATCCTGACATATATCCCATAATTGTATTGATTTCCGATGGCAGAGCTAATGTAAGCAGGGGTTCTAAAAAACCTATTGAAGAAGTTAAGGAAATGGCATTGTTGATAAAAAAAGAAGAGATAAAATCTATTGTCATTGACGTGGAAAAGGACAATTTCATAACTTTTGGACTTGCCAGAGAAATTGCAAATCTAATGGATGCAAAGTATTTTAAGATTGATGACCTTAAAGCTGAGAAAATAATAGATGTTGTAAAACAATCCCTGTATGTGTAG</t>
+  </si>
+  <si>
+    <t>ATGTATTATCCATTCAGTGCAATAGTTGGGCAAAAATTGATGAAAAAAGCCCTGATTTTAAATGCTATAAATCCCAAATTAGGTGGAGTTTTAATAAGAGGAGAAAAAGGAACAGCTAAATCTACTGCAGTTCGTGCTTTGGCGGAACTTTTACCAGAAATAAGAGTTGTAGAAGGCTGTCCCTTCGGTTGTGATCCAGACAACCCAGCCCAGATGTGTACAAACTGCAGGGAAAAGTGGGAAAGGGGAGAAAAACTTCCAGTAACAACTCGAAAGATGCGGGTAGTAGATCTTCCAATAAGTGCTACAGAGGATAGAGTTGTGGGTACACTTGATATAGAAAGGGCAATAAAAAAAGGGGAAAAATGCTTTGAACCGGGTGTTCTTGCAGAAGCAAACAGAGGAATTCTTTATGTGGACGAAGTTAATCTTCTAGATGACCATGTAGTGGATATATTATTGGATTCTGCGGCAATGGGTGTCAACATTGTAGAAAGGGAGGGAGTATCCTTTTCGCATCCCGCTAATTTCATTCTTGTAGGGACAATGAATCCAGAAGAAGGGGATTTAAGGCCACAGCTTTTAGACAGGTTTGGGCTTTGTGTATCAGTAGAGGGGATAGACGATCCATCAGCCCGTGTAGAGATAATAAAAAACCGTCTTGCCTTTGAAGAAGACCCGGCAAAATTTGCTGAGAAATGGGAAGAGAAGCAGGAGGAATTAAGGCAAAAAATTTTCAGTGCCAAGCAACTTCTTCCTCATGTCCGTGTTGATGATAAAATGCTTGAGCTGATAGCTCGAATTTCTCTTGATATGGGAGTAGATGGCCACCGAGCTGATATAGTTATGATGAAAACAGCAGCAACTATTGCAGCTTATAAAGGGAAGGAGTTAGTAGAAGAGGAGGAAGTGAAAGAGGCTGCAGAGCTTGTTTTACCTCACAGAATGAGGAAGAAGCCCTTTGAGCAATCACAAATGGATAAGGAAAAGTTAGAACAGATATTAAAAGAACAGCAAAAGCAGCAGCAAAGTCAACCAAAACCGCAAAATCAACAGCAGCAACGCCAACAAGAACAGCAACGCCAACAACAACAGCAGCAACAAGAAGTTGAAGGAGAAGATAAAAAAAAACTGATAAATCTGTAG</t>
+  </si>
+  <si>
+    <t>ATGAGAACCCGCGAAAAACGCTTAGTCTTCCCGTTCTCTGCAATAGTCGGGCAAGAGAAGACCAAACTGGCATTACTGGCTGTAGCCGTTAACCCCCTAATCGGAGGTGTGTTACTCAAAGGAGATAAGGGGACCGGAAAATCAACGCTAGTTAGAGCTCTGGCAAATGTCCTCCCAGAAATTGAAGTCGTGGCAGACTGTCCCTTCAACTGCAATCCGAAGAATCCCTTAGAGATGTGTGACAGCTGCTATGAGCGCTACGAGCAGGGTGAGAGCCTACCAACCACCAGAAGAAGAATGAGAGTTGTTGATCTGCCTTTGAGTGTTACCATAGATAGACTCGTTGGAACAATTGATGTAGAGCGGTTCTTAAAAGAGGGCAAAAAAGCCCTGCAACCAGGGATATTAGCGGAAGCAAACAGAGGGGTTCTTTACATCGATGAAGTCAACCTCTTGGACGATTACATAGCCGACTCACTTTTAGACGCCGCCGCAATGGGCTGGAACACCATAGAAAGGGAGGGAATCTCCTTCAGGCATCCAGCGAGATTCATCTTAGTCGGAAGCATGAACCCAGAGGAAGGTGAACTCAGACCCCAAATCCTCGATAGATTCGGTCTATGTGTTGAAGTTTCAGCACCGATGGACCCAGAGGAGAGGATTGAAATAGTCAAGCGCGTGGAAGAGTTCCATGAAGACCCCATAAGCTTTTACAGAAAATATGAGAACGAAGAGAAAAAGCTCACGGAGAGGATTGTTAAAGCAAGAGAACTTCTGCCGAAGGTCGAGATAAGCGACGATTTGCTGAAGCTTTTGGCTGAAACAGTTGTTAACTTTGGGATTAAGACCAATAGAGCCGAGATAGCAACGATAAAGACGGCTAAAGCAATAGCCGCCCTAAACGGGAGGGAAAAGGTTTCACTGGAAGATTTAGAAAAAGCTATGGAATTAGCTTTACCGCACCGCTTGAGAGACAGACCTTTTCAAAAGCTACCCCAGATGAAGCCGCCAGAGTCTAAAGATGATAGCAGGCACGATCACAAACACGACCATAAGCATGAGCACAAGAAGGAAGAAAAAAATGAAAAGAGAAACCAGGAGCCCCAAAGTCAGGGAATCGGAAACTCAGAGAAAAATTTTCGTTCAAGCGAAGCTAAAACCCTAAAGATAGAGAGCAAAAACTTTGACGTAAGCGAATTCAGGGGATATCGCTCCTCAAGGGATGTCAGCGTCACAGCAGTAAACTTTCCCAAAGGCGTTCCTGTCTCTTATGTTCCCCCCAACGGTGAAATAAAGGACGTCGATTTTTACAACTCTCTGGTTTGGGCAGTTCTCAATGGAAAAAACCTCCTAATAAGGCTTGATTTAAATGACCTTCGCGTTAGAGTCCGGAGGGCAAAGGCACCAACGCTTTGGGTTTTGCTCTTGGATTCAAGCGGAAGCATGGCTGTGCAGAAGAGAATTAGCATCGCGAAGGGGATAGCGGAGAAATTGGTCACAAACGGCTACATCAAAAAGTCAAAGATGGCTTTGATAGTTGCAAAAGGTGATCAAGCGGAAATATTTGTTCCACCTACGAAGAACTACTGGGAAGTGCTTGAGAGGATAGAAAGCGTTCCAACTGGAGGGAAGACACCTTTAAGTTCTGCCCTATATTATCTTTTGCTTTTAGCCAACAGGGAGAGGATGAAGGACCGGTCGGTCAAGGTGAGAGCTTTTCTAATAACCGATGGAAAGGCGAACGTGCCGTTTTTTGGAAAGAGGATTAAGGAGGAAATAATTGAGCTGGCCCGGGCACTGAAAAAGAAGGAGATTGAACTCACGATTTATGACGCGGGAGGAAGGGGAATAAACCTAGGGGTTTCGTACATCCCGGTTTTGAAGGAGGTTGCAAATGCCAAGGTGCACGGGGTTTGA</t>
+  </si>
+  <si>
+    <t>ATGAGAACCCGCGAAAAACGCTTAGTCTTCCCGTTCTCTGCAATAGTCGGGCAAGAGAAGACCAAACTGGCATTACTGGCTGTAGCCGTTAACCCCCTAATCGGAGGTGTGTTACTCAAAGGAGATAAGGGGACCGGAAAATCAACGCTAGTTAGAGCTCTGGCAAATGTCCTCCCAGAAATTGAAGTCGTGGCAGACTGTCCCTTCAACTGCAATCCGAAGAATCCCTTAGAGATGTGTGACAGCTGCTATGAGCGCTACGAGCAGGGTGAGAGCCTACCAACCACCAGAAGAAGAATGAGAGTTGTTGATCTGCCTTTGAGTGTTACCATAGATAGACTCGTTGGAACAATTGATGTAGAGCGGTTCTTAAAAGAGGGCAAAAAAGCCCTGCAACCAGGGATATTAGCGGAAGCAAACAGAGGGGTTCTTTACATCGATGAAGTCAACCTCTTGGACGATTACATAGCCGACTCACTTTTAGACGCCGCCGCAATGGGCTGGAACACCATAGAAAGGGAGGGAATCTCCTTCAGGCATCCAGCGAGATTCATCTTAGTCGGAAGCATGAACCCAGAGGAAGGTGAACTCAGACCCCAAATCCTCGATAGATTCGGTCTATGTGTTGAAGTTTCAGCACCGATGGACCCAGAGGAGAGGATTGAAATAGTCAAGCGCGTGGAAGAGTTCCATGAAGACCCCATAAGCTTTTACAGAAAATATGAGAACGAAGAGAAAAAGCTCACGGAGAGGATTGTTAAAGCAAGAGAACTTCTGCCGAAGGTCGAGATAAGCGACGATTTGCTGAAGCTTTTGGCTGAAACAGTTGTTAACTTTGGGATTAAGACCAATAGAGCCGAGATAGCAACGATAAAGACGGCTAAAGCAATAGCCGCCCTAAACGGGAGGGAAAAGGTTTCACTGGAAGATTTAGAAAAAGCTATGGAATTAGCTTTACCGCACCGCTTGAGAGACAGACCTTTTCAAAAGCTACCCCAGATGAAGCCGCCAGAGTCTAAAGATGATAGCAGGCACGATCACAAACACGACCATAAGCATGAGCACAAGAAGGAAGAAAAAAATGAAAAGAGAAACCAGGAGCCCCAAAGTCAGGGAATCGGAAACTCAGAGAAAAATTTTCGTTCAAGCGAAGCTAAAACCCTAAAGATAGAGAGCAAAAACTTTGACGTAAGCGAATTCAGGGGATATCGCTCCTCAAGGGATGTCAGCGTCACAGCAGTAAACTTTCCCAAAGGCGTTCCTGTCTCTTATGTTCCCCCCAACGGTGAAATAAAGGACGTCGATTTTTACAACTCTCTGGTTTGGGCAGTTCTCAATGGAAAAAACCTCCTATAA</t>
+  </si>
+  <si>
+    <t>ATGACGACCACTGCCGCCGCTGCCATGCCGGCGCCCTTTCCCTTTGCCGCCATAGCCGGGCAGCCGCACCTTCGGCAGGCCCTGCTGCTTGCCGCCGCCGATCCGGGCCTGGGCGGCGTGCTGATCGAAGGACCGCGCGGCACCGCCAAGACCACGGCGGCTCGTGCGCTGGCCGAGCTGCTGCCCGACGCACCCTTCGTCACCCTGCCGCTGGGCGCGAGCCTGGAAAGCCTCGTCGGCACGCTCGACCTCGGCCGCGCGATGGCGGGCCATGAGCTTCGCTTCGCACCCGGCCTGCTGGCGCGCGCACACGGCGGCGTGCTCTACGTGGACGAGATCAACCTGCTGCCCGACGCGCTGATCGATTCGCTGCTCGACGCCGCCGCCAGCGGCGTCAACGTGGTCGAGCGCGACGGCATCTCGCATCGCCACGCAGCTCGCTTCGTGCTCGTGGGCACGATGAATCCGGAGGAGGGCACGCTGCGCCCCCAACTGCTCGACCGCTTCGGCCTGTGCGTTCAGCTGCACAACATCGACGACCCGTCCGAGCGGCAGGCCATCGTGCGCGCGCGGCTGGCCTTCGATGCCGATCCGCAGGGCTTTCGCGACCGGCATGCGCAGGCGCAGGCCGAGCTGTCTTCGTCGCTGGTCCGCGCACGTGCGCTCGTGGCCGACGCGTCGGCGCTGCCATACACCGACGCGGTGCACGAGGCGGTGAGCGCCATGTGCATCGCCGCCGCCGTCGACGGGCTGCGCGCCGACCTGGTCATGCTGCGCTCGGCCCGCGCCCTTGCGGCATGGGAAGGTGCTACGGCCATCACCGGCCAGCACGTGCAGCGCGTGGCCGAGTCCGTGCTGCTGCATCGGCGCAAGCCCGAGGCCGAAACTGCCGCTGCCCGGACTGCGCCGCCCGATGTCGGCAGCAAGGCCGCCGGCGACGCGGACGGAGAAAGCAGCGCAGGCAGCGCGGACGACGGCGACTGGGGCGCCATGCCGCCCGAACCGGTCGGCATCGACCGCGTGAAGCCGCTGCGCCCGTTGATCCCTTCGTTGCGGCAGCAACAACAACAGGCCGCACCAAAAAAAGCCCTGAGCCTCCGGGACGCCGCACCGCCCGCTGGCGCATCGCGCCAGGGCGACCGGAGGCAGGGCCCGCAAAGGGACGCATGGCACGGTGCCGCCAGGCAGGGCGCGGCCTTCGACTGGCCGCGCACCTTCGCCGCGCGCGGCGCCGACCGGCTGCGCGCGGATCATCTGCGCCATCGCCCGCGGGAAGCGCGCAGCGGCGTGCTGCATTGCTTCCTGCTCGACTGCTCGGCCTCGATGCGCGACGACGGCAACCTGGCACGCGCCAAGGGCCTGCTGCTGGCGCTGATGCAGGAGGCCTATCAGCGCCGGGACCACGTTGCGCTGCTGTGCTTCGCGGGCGAGGTCGTCGAGCTGCGCCTGCCGCCGCGGCGCGCCAGTGCCTGGAACGACGACTGGATCGCGCCGATCGCGGCCGGCGGCGGCACGCCCCTCGCGCTGGGCGTGCGGCGCGCCGACCAGCTGCTCGCGAAGAGCGGCGGCACGCGCCGGCGCTGGCTGTGGCTGCTCACGGATGGCCGCAGCAGCGAAAGCCCGCAGCGGCCGGAGTCGGCCGACGAGGTGTGCGTGGTCGATTTCGAGGCGGCGCGCCTGCCGCTGCACCGCGCGAGGCGGCTGGCCGACAGCTGGGATGCGCGCTACGTCCCGGCGGACAGCGCCTGA</t>
+  </si>
+  <si>
+    <t>ATGACGACCACTGCCGCCGCTGCCATGCCGGCGCCCTTTCCCTTTGCCGCCATAGCCGGGCAGCCGCACCTTCGGCAGGCCCTGCTGCTTGCCGCCGCCGATCCGGGCCTGGGCGGCGTGCTGATCGAAGGACCGCGCGGCACCGCCAAGACCACGGCGGCTCGTGCGCTGGCCGAGCTGCTGCCCGACGCACCCTTCGTCACCCTGCCGCTGGGCGCGAGCCTGGAAAGCCTCGTCGGCACGCTCGACCTCGGCCGCGCGATGGCGGGCCATGAGCTTCGCTTCGCACCCGGCCTGCTGGCGCGCGCACACGGCGGCGTGCTCTACGTGGACGAGATCAACCTGCTGCCCGACGCGCTGATCGATTCGCTGCTCGACGCCGCCGCCAGCGGCGTCAACGTGGTCGAGCGCGACGGCATCTCGCATCGCCACGCAGCTCGCTTCGTGCTCGTGGGCACGATGAATCCGGAGGAGGGCACGCTGCGCCCCCAACTGCTCGACCGCTTCGGCCTGTGCGTTCAGCTGCACAACATCGACGACCCGTCCGAGCGGCAGGCCATCGTGCGCGCGCGGCTGGCCTTCGATGCCGATCCGCAGGGCTTTCGCGACCGGCATGCGCAGGCGCAGGCCGAGCTGTCTTCGTCGCTGGTCCGCGCACGTGCGCTCGTGGCCGACGCGTCGGCGCTGCCATACACCGACGCGGTGCACGAGGCGGTGAGCGCCATGTGCATCGCCGCCGCCGTCGACGGGCTGCGCGCCGACCTGGTCATGCTGCGCTCGGCCCGCGCCCTTGCGGCATGGGAAGGTGCTACGGCCATCACCGGCCAGCACGTGCAGCGCGTGGCCGAGTCCGTGCTGCTGCATCGGCGCAAGCCCGAGGCCGAAACTGCCGCTGCCCGGACTGCGCCGCCCGATGTCGGCAGCAAGGCCGCCGGCGACGCGGACGGAGAAAGCAGCGCAGGCAGCGCGGACGACGGCGACTGGGGCGCCATGCCGCCCGAACCGGTCGGCATCGACCGCGTGAAGCCGCTGCGCCCGTTGATCCCTTCGTTGCGGCAGCAACAACAACAGGCCGCACCAAAAAAAGCCTGA</t>
+  </si>
+  <si>
+    <t>ATGACCACTGCCGCCTCGATGCCGGTGCCTTTTCCTTTTTCCGCGATCGCAGGTCAACCGCACCTGCGACAGGCGCTGCTGCTGGCCGCGGTCGACCCCGGCCTCGGCGGCGTGCTGATCGAAGGCCCGCGCGGCACGGCCAAGACCACGGCGGCGCGTGCGCTGGCCGAACTGCTGCCGGGCGCGCCCTTCGTCACGCTGCCGCTGGGGGCGAGCCTCGAAAGCCTCGTGGGCACGCTCGATCTCGGGCAGGCGCTCGCGGGCCACGAACTCAAGTTCGCGCCCGGCCTGCTGGCGCGCGCGAACGGTGGTGTGCTGTATGTGGACGAAATCAACCTGCTGCCCGATGCGCTGATCGATTCGCTGCTCGATGCGGCGGCCAGCGGCGTCAACGTGGTCGAGCGCGACGGCATCTCGCACCGGCATGCGGCGCGCTTCGTGCTGGTCGGCACCATGAACCCGGAGGAGGGCACGCTGCGCCCGCAACTGCTCGACCGCTTCGGGCTGTGCGTGCAGTTGCGCAACATCGAGGACGCGGCCGAGCGGCAAGGCATCGTGCGCGCGCGGCTCGCGTTCGATGTCGATCCGCAGGGCTTTCGCGCGAAGCATGCGGAGGCGGAAGCCGCGCTTGCGGCTGCGCTCGTCAAGGCGCGCGCCATCGTCGCGGATGCCTCCGCGCTGCCCTACGGCGACGACGTGCACGAAGCCGTCGGCGCGCTGTGCATCGCGGCGCAGGTCGACGGCCTGCGCGCCGATCTGGTGATGCTGCGCTCGGCGCGCGCGCTCGCGGCCTGGAAGGGCGCGGCGGCCATCACCGCCGATCACGTGCAGTGCGTGGCCGAAGCCGTGCTGTTGCATCGCCGCAAACCGGAAGCCGAAGGCGCGGCATTGGCATCGGCGTCGGCTTCTGTGCCCCCAAACACCCAGCGCGCGCCGAACTCAAGCGGCACCGGCCAGAACAACGCAGGCGACCAGGACTGGGGCGCCATGCCGCCCGAGCCCGTCGGTATCGAACGCGTCAAGCCGCTGCGCCCGCTGATCTCTTCGCAAACCGCGCAGCAGGCCCTCCCAAAAAAAGCCCTGAGCCTCCGGGACGCCGCACCCGCTGGCGCGCGCCAGGGCGACTGGAGGCAGGGCAGGCAACGGGACGCATGGCACGGCGCCGCATCGCCGGGGGCCGCGCTCGACTGGCCGCGCACGTTGGCGAACCGCGGCGCCGATACGCTGCGCGCGGAACACCTGCGTCGCCGCCCGCTGCAGGCCCGCAGTGGCGCGCTGCATTGCTTTCTGCTCGACTGCTCCGCCTCGATGCGCAACGACGGCAACCTCGCGCGCGCCAAGGGCCTGCTGCTGTCGCTGATGGAAGAGGCCTACCAGCGGCGCGACCATGTGGCGCTGCTGTGCTTTGCCGGCGAGGTGGTCGAGCTGCGCCTGCCGCCGCGCCGCGCCAGCGCCTGGAACGACGACTGGATCGCGCCCATCGCCGCCGGCGGTGGCACGCCGCTCGCGCTCGGCGTGCAGCGCGCCGACCAGTTACTCGCACACAGTGCGGCACGCCAGCGCTGGCTGTGGCTGCTCACCGATGGCCGCAGCAACGAGAGCCCGATGCGGCCCGAAGCAGCCGACTTTGCCTGCGTGGTCGATTTCGAAGCGGCGCGCGTGCCGCTGCACCGCGCGAAGCAACTCGCGGTGCGTTGGCAGGCGCGCTACCTTTCTGCCCCAGGGGCGTCTTGA</t>
+  </si>
+  <si>
+    <t>ATGACCACTGCCGCCTCGATGCCGGTGCCTTTTCCTTTTTCCGCGATCGCAGGTCAACCGCACCTGCGACAGGCGCTGCTGCTGGCCGCGGTCGACCCCGGCCTCGGCGGCGTGCTGATCGAAGGCCCGCGCGGCACGGCCAAGACCACGGCGGCGCGTGCGCTGGCCGAACTGCTGCCGGGCGCGCCCTTCGTCACGCTGCCGCTGGGGGCGAGCCTCGAAAGCCTCGTGGGCACGCTCGATCTCGGGCAGGCGCTCGCGGGCCACGAACTCAAGTTCGCGCCCGGCCTGCTGGCGCGCGCGAACGGTGGTGTGCTGTATGTGGACGAAATCAACCTGCTGCCCGATGCGCTGATCGATTCGCTGCTCGATGCGGCGGCCAGCGGCGTCAACGTGGTCGAGCGCGACGGCATCTCGCACCGGCATGCGGCGCGCTTCGTGCTGGTCGGCACCATGAACCCGGAGGAGGGCACGCTGCGCCCGCAACTGCTCGACCGCTTCGGGCTGTGCGTGCAGTTGCGCAACATCGAGGACGCGGCCGAGCGGCAAGGCATCGTGCGCGCGCGGCTCGCGTTCGATGTCGATCCGCAGGGCTTTCGCGCGAAGCATGCGGAGGCGGAAGCCGCGCTTGCGGCTGCGCTCGTCAAGGCGCGCGCCATCGTCGCGGATGCCTCCGCGCTGCCCTACGGCGACGACGTGCACGAAGCCGTCGGCGCGCTGTGCATCGCGGCGCAGGTCGACGGCCTGCGCGCCGATCTGGTGATGCTGCGCTCGGCGCGCGCGCTCGCGGCCTGGAAGGGCGCGGCGGCCATCACCGCCGATCACGTGCAGTGCGTGGCCGAAGCCGTGCTGTTGCATCGCCGCAAACCGGAAGCCGAAGGCGCGGCATTGGCATCGGCGTCGGCTTCTGTGCCCCCAAACACCCAGCGCGCGCCGAACTCAAGCGGCACCGGCCAGAACAACGCAGGCGACCAGGACTGGGGCGCCATGCCGCCCGAGCCCGTCGGTATCGAACGCGTCAAGCCGCTGCGCCCGCTGATCTCTTCGCAAACCGCGCAGCAGGCCCTCCCAAAAAAAGCCTGA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -17810,14 +18838,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -17844,12 +18864,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -64070,56 +65088,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J170"/>
+  <dimension ref="A1:L170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="39.83203125" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="61.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.5" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.1640625" customWidth="1"/>
-    <col min="10" max="10" width="33.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>5335</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>5336</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>5337</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>5338</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5339</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>5340</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
         <v>5341</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>5342</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
+        <v>5883</v>
+      </c>
+      <c r="K1" t="s">
         <v>5343</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>5884</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -64132,26 +65160,32 @@
       <c r="D2">
         <v>463714</v>
       </c>
-      <c r="E2">
-        <v>-1</v>
+      <c r="E2" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>5488</v>
       </c>
       <c r="H2">
         <v>-1</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>5815</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
+        <v>5886</v>
+      </c>
+      <c r="K2" t="s">
         <v>5816</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>5887</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
@@ -64164,26 +65198,32 @@
       <c r="D3">
         <v>37748</v>
       </c>
-      <c r="E3">
-        <v>-1</v>
+      <c r="E3" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1587</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>5345</v>
       </c>
       <c r="H3">
         <v>-1</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>5692</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
+        <v>5888</v>
+      </c>
+      <c r="K3" t="s">
         <v>5693</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>5889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>100</v>
       </c>
@@ -64196,26 +65236,32 @@
       <c r="D4">
         <v>2639</v>
       </c>
-      <c r="E4">
-        <v>1</v>
+      <c r="E4" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1648</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>5358</v>
       </c>
       <c r="H4">
         <v>-1</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>5668</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
+        <v>5891</v>
+      </c>
+      <c r="K4" t="s">
         <v>5669</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>5892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>103</v>
       </c>
@@ -64228,26 +65274,32 @@
       <c r="D5">
         <v>580769</v>
       </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="E5" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>1650</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>5345</v>
       </c>
       <c r="H5">
         <v>-1</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>5443</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
+        <v>5893</v>
+      </c>
+      <c r="K5" t="s">
         <v>5444</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>5894</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>123</v>
       </c>
@@ -64260,26 +65312,32 @@
       <c r="D6">
         <v>72599</v>
       </c>
-      <c r="E6">
-        <v>1</v>
+      <c r="E6" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1684</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>5345</v>
       </c>
       <c r="H6">
         <v>-1</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>5624</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
+        <v>5895</v>
+      </c>
+      <c r="K6" t="s">
         <v>5625</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>5896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>127</v>
       </c>
@@ -64292,26 +65350,32 @@
       <c r="D7">
         <v>152462</v>
       </c>
-      <c r="E7">
-        <v>-1</v>
+      <c r="E7" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1692</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>5358</v>
       </c>
       <c r="H7">
         <v>-1</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>5698</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
+        <v>5897</v>
+      </c>
+      <c r="K7" t="s">
         <v>5699</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>5898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>137</v>
       </c>
@@ -64324,26 +65388,32 @@
       <c r="D8">
         <v>192618</v>
       </c>
-      <c r="E8">
-        <v>-1</v>
+      <c r="E8" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>1723</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>5345</v>
       </c>
       <c r="H8">
         <v>-1</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>5881</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
+        <v>5899</v>
+      </c>
+      <c r="K8" t="s">
         <v>5882</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>140</v>
       </c>
@@ -64356,26 +65426,32 @@
       <c r="D9">
         <v>2793526</v>
       </c>
-      <c r="E9">
-        <v>1</v>
+      <c r="E9" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1738</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>5345</v>
       </c>
       <c r="H9">
         <v>-1</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>5711</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
+        <v>5901</v>
+      </c>
+      <c r="K9" t="s">
         <v>5712</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L9" t="s">
+        <v>5902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>141</v>
       </c>
@@ -64388,26 +65464,32 @@
       <c r="D10">
         <v>3558052</v>
       </c>
-      <c r="E10">
-        <v>1</v>
+      <c r="E10" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>1742</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>5345</v>
       </c>
       <c r="H10">
         <v>-1</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>5649</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
+        <v>5903</v>
+      </c>
+      <c r="K10" t="s">
         <v>5650</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>5904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>142</v>
       </c>
@@ -64420,26 +65502,32 @@
       <c r="D11">
         <v>2083379</v>
       </c>
-      <c r="E11">
-        <v>-1</v>
+      <c r="E11" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>1745</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>5358</v>
       </c>
       <c r="H11">
         <v>-1</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>5377</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" t="s">
+        <v>5905</v>
+      </c>
+      <c r="K11" t="s">
         <v>5378</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L11" t="s">
+        <v>5906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>143</v>
       </c>
@@ -64452,26 +65540,32 @@
       <c r="D12">
         <v>70713</v>
       </c>
-      <c r="E12">
-        <v>-1</v>
+      <c r="E12" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1748</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>5488</v>
       </c>
       <c r="H12">
         <v>-1</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>5646</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
+        <v>5907</v>
+      </c>
+      <c r="K12" t="s">
         <v>5647</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
+        <v>5908</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>144</v>
       </c>
@@ -64484,26 +65578,32 @@
       <c r="D13">
         <v>508089</v>
       </c>
-      <c r="E13">
-        <v>-1</v>
+      <c r="E13" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>1751</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>5345</v>
       </c>
       <c r="H13">
         <v>-1</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>5729</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
+        <v>5909</v>
+      </c>
+      <c r="K13" t="s">
         <v>5730</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L13" t="s">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>145</v>
       </c>
@@ -64516,26 +65616,32 @@
       <c r="D14">
         <v>2261</v>
       </c>
-      <c r="E14">
-        <v>-1</v>
+      <c r="E14" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>1756</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>5345</v>
       </c>
       <c r="H14">
         <v>-1</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>5574</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" t="s">
+        <v>5911</v>
+      </c>
+      <c r="K14" t="s">
         <v>5575</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L14" t="s">
+        <v>5912</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -64548,26 +65654,32 @@
       <c r="D15">
         <v>80470</v>
       </c>
-      <c r="E15">
-        <v>-1</v>
+      <c r="E15" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>1761</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>5345</v>
       </c>
       <c r="H15">
         <v>-1</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>5732</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
+        <v>5913</v>
+      </c>
+      <c r="K15" t="s">
         <v>5733</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L15" t="s">
+        <v>5914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>147</v>
       </c>
@@ -64580,26 +65692,32 @@
       <c r="D16">
         <v>631651</v>
       </c>
-      <c r="E16">
-        <v>1</v>
+      <c r="E16" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>1766</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>5345</v>
       </c>
       <c r="H16">
         <v>-1</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>5726</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" t="s">
+        <v>5915</v>
+      </c>
+      <c r="K16" t="s">
         <v>5727</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L16" t="s">
+        <v>5916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>148</v>
       </c>
@@ -64612,26 +65730,32 @@
       <c r="D17">
         <v>110965</v>
       </c>
-      <c r="E17">
-        <v>1</v>
+      <c r="E17" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>1771</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>5345</v>
       </c>
       <c r="H17">
         <v>-1</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>5571</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" t="s">
+        <v>5917</v>
+      </c>
+      <c r="K17" t="s">
         <v>5572</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>5918</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>152</v>
       </c>
@@ -64644,26 +65768,32 @@
       <c r="D18">
         <v>2957178</v>
       </c>
-      <c r="E18">
-        <v>1</v>
+      <c r="E18" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>1785</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>5345</v>
       </c>
       <c r="H18">
         <v>-1</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>5478</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" t="s">
+        <v>5919</v>
+      </c>
+      <c r="K18" t="s">
         <v>5479</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L18" t="s">
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>166</v>
       </c>
@@ -64676,26 +65806,32 @@
       <c r="D19">
         <v>166267</v>
       </c>
-      <c r="E19">
-        <v>1</v>
+      <c r="E19" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>1814</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>5495</v>
       </c>
       <c r="H19">
         <v>-1</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>5812</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" t="s">
+        <v>5921</v>
+      </c>
+      <c r="K19" t="s">
         <v>5813</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L19" t="s">
+        <v>5922</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>198</v>
       </c>
@@ -64708,26 +65844,32 @@
       <c r="D20">
         <v>2054315</v>
       </c>
-      <c r="E20">
-        <v>1</v>
+      <c r="E20" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>1893</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>5345</v>
       </c>
       <c r="H20">
         <v>-1</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" t="s">
         <v>5640</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" t="s">
+        <v>5923</v>
+      </c>
+      <c r="K20" t="s">
         <v>5641</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L20" t="s">
+        <v>5924</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>199</v>
       </c>
@@ -64740,26 +65882,32 @@
       <c r="D21">
         <v>56414</v>
       </c>
-      <c r="E21">
-        <v>-1</v>
+      <c r="E21" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>1896</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>5488</v>
       </c>
       <c r="H21">
         <v>-1</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" t="s">
         <v>5537</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" t="s">
+        <v>5925</v>
+      </c>
+      <c r="K21" t="s">
         <v>5538</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L21" t="s">
+        <v>5926</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>200</v>
       </c>
@@ -64772,26 +65920,32 @@
       <c r="D22">
         <v>1254010</v>
       </c>
-      <c r="E22">
-        <v>1</v>
+      <c r="E22" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>1899</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>5495</v>
       </c>
       <c r="H22">
         <v>-1</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" t="s">
         <v>5800</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" t="s">
+        <v>5927</v>
+      </c>
+      <c r="K22" t="s">
         <v>5801</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L22" t="s">
+        <v>5928</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>201</v>
       </c>
@@ -64804,26 +65958,32 @@
       <c r="D23">
         <v>273265</v>
       </c>
-      <c r="E23">
-        <v>-1</v>
+      <c r="E23" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>1904</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>5488</v>
       </c>
       <c r="H23">
         <v>-1</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" t="s">
         <v>5723</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" t="s">
+        <v>5929</v>
+      </c>
+      <c r="K23" t="s">
         <v>5724</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L23" t="s">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>202</v>
       </c>
@@ -64836,26 +65996,32 @@
       <c r="D24">
         <v>116500</v>
       </c>
-      <c r="E24">
-        <v>-1</v>
+      <c r="E24" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>1907</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>5345</v>
       </c>
       <c r="H24">
         <v>-1</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" t="s">
         <v>5717</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" t="s">
+        <v>5931</v>
+      </c>
+      <c r="K24" t="s">
         <v>5718</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>5932</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>203</v>
       </c>
@@ -64868,26 +66034,32 @@
       <c r="D25">
         <v>2511920</v>
       </c>
-      <c r="E25">
-        <v>-1</v>
+      <c r="E25" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>1912</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>5345</v>
       </c>
       <c r="H25">
         <v>-1</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" t="s">
         <v>5583</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" t="s">
+        <v>5933</v>
+      </c>
+      <c r="K25" t="s">
         <v>5584</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L25" t="s">
+        <v>5934</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>207</v>
       </c>
@@ -64900,26 +66072,32 @@
       <c r="D26">
         <v>1792861</v>
       </c>
-      <c r="E26">
-        <v>-1</v>
+      <c r="E26" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>1920</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>5345</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" t="s">
         <v>5778</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" t="s">
+        <v>5935</v>
+      </c>
+      <c r="K26" t="s">
         <v>5779</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L26" t="s">
+        <v>5936</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>209</v>
       </c>
@@ -64932,26 +66110,32 @@
       <c r="D27">
         <v>1215461</v>
       </c>
-      <c r="E27">
-        <v>-1</v>
+      <c r="E27" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>1923</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>5345</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" t="s">
         <v>5555</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" t="s">
+        <v>5937</v>
+      </c>
+      <c r="K27" t="s">
         <v>5556</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L27" t="s">
+        <v>5938</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>211</v>
       </c>
@@ -64964,26 +66148,32 @@
       <c r="D28">
         <v>1804709</v>
       </c>
-      <c r="E28">
-        <v>-1</v>
+      <c r="E28" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>1928</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
         <v>5495</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" t="s">
         <v>5496</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" t="s">
+        <v>5939</v>
+      </c>
+      <c r="K28" t="s">
         <v>5497</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L28" t="s">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>212</v>
       </c>
@@ -64996,26 +66186,32 @@
       <c r="D29">
         <v>8863</v>
       </c>
-      <c r="E29">
-        <v>-1</v>
+      <c r="E29" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>1931</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" t="s">
         <v>5495</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" t="s">
         <v>5502</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" t="s">
+        <v>5941</v>
+      </c>
+      <c r="K29" t="s">
         <v>5503</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L29" t="s">
+        <v>5942</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>213</v>
       </c>
@@ -65028,26 +66224,32 @@
       <c r="D30">
         <v>1850644</v>
       </c>
-      <c r="E30">
-        <v>-1</v>
+      <c r="E30" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>1933</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" t="s">
         <v>5488</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" t="s">
         <v>5760</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" t="s">
+        <v>5943</v>
+      </c>
+      <c r="K30" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>5944</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>214</v>
       </c>
@@ -65060,26 +66262,32 @@
       <c r="D31">
         <v>1836840</v>
       </c>
-      <c r="E31">
-        <v>-1</v>
+      <c r="E31" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>1934</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" t="s">
         <v>5488</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" t="s">
         <v>5689</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" t="s">
+        <v>5945</v>
+      </c>
+      <c r="K31" t="s">
         <v>5690</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
+        <v>5946</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>215</v>
       </c>
@@ -65092,26 +66300,32 @@
       <c r="D32">
         <v>1507238</v>
       </c>
-      <c r="E32">
-        <v>-1</v>
+      <c r="E32" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>1936</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" t="s">
         <v>5345</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" t="s">
         <v>5714</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" t="s">
+        <v>5947</v>
+      </c>
+      <c r="K32" t="s">
         <v>5715</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L32" t="s">
+        <v>5948</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>216</v>
       </c>
@@ -65124,26 +66338,32 @@
       <c r="D33">
         <v>447650</v>
       </c>
-      <c r="E33">
-        <v>-1</v>
+      <c r="E33" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>1939</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" t="s">
         <v>5345</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" t="s">
         <v>5492</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" t="s">
+        <v>5949</v>
+      </c>
+      <c r="K33" t="s">
         <v>5493</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L33" t="s">
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>217</v>
       </c>
@@ -65156,26 +66376,32 @@
       <c r="D34">
         <v>1999739</v>
       </c>
-      <c r="E34">
-        <v>-1</v>
+      <c r="E34" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>1941</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" t="s">
         <v>5345</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" t="s">
         <v>5370</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" t="s">
+        <v>5951</v>
+      </c>
+      <c r="K34" t="s">
         <v>5371</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L34" t="s">
+        <v>5952</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>218</v>
       </c>
@@ -65188,26 +66414,32 @@
       <c r="D35">
         <v>1594329</v>
       </c>
-      <c r="E35">
-        <v>-1</v>
+      <c r="E35" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>1944</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" t="s">
         <v>5664</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" t="s">
         <v>5665</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" t="s">
+        <v>5953</v>
+      </c>
+      <c r="K35" t="s">
         <v>5666</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L35" t="s">
+        <v>5954</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>219</v>
       </c>
@@ -65220,26 +66452,32 @@
       <c r="D36">
         <v>763757</v>
       </c>
-      <c r="E36">
-        <v>1</v>
+      <c r="E36" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>1947</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" t="s">
         <v>5345</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" t="s">
         <v>5534</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" t="s">
+        <v>5955</v>
+      </c>
+      <c r="K36" t="s">
         <v>5535</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L36" t="s">
+        <v>5956</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>220</v>
       </c>
@@ -65252,26 +66490,32 @@
       <c r="D37">
         <v>62798</v>
       </c>
-      <c r="E37">
-        <v>1</v>
+      <c r="E37" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>1950</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" t="s">
         <v>5345</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" t="s">
         <v>5600</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" t="s">
+        <v>5957</v>
+      </c>
+      <c r="K37" t="s">
         <v>5601</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L37" t="s">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>221</v>
       </c>
@@ -65284,26 +66528,32 @@
       <c r="D38">
         <v>107305</v>
       </c>
-      <c r="E38">
-        <v>1</v>
+      <c r="E38" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>1953</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" t="s">
         <v>5345</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" t="s">
         <v>5875</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" t="s">
+        <v>5959</v>
+      </c>
+      <c r="K38" t="s">
         <v>5876</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L38" t="s">
+        <v>5960</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>222</v>
       </c>
@@ -65316,26 +66566,32 @@
       <c r="D39">
         <v>2110255</v>
       </c>
-      <c r="E39">
-        <v>-1</v>
+      <c r="E39" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>1955</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" t="s">
         <v>5373</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" t="s">
         <v>5374</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" t="s">
+        <v>5961</v>
+      </c>
+      <c r="K39" t="s">
         <v>5375</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L39" t="s">
+        <v>5962</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>223</v>
       </c>
@@ -65348,26 +66604,32 @@
       <c r="D40">
         <v>2296281</v>
       </c>
-      <c r="E40">
-        <v>-1</v>
+      <c r="E40" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>1956</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" t="s">
         <v>5345</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" t="s">
         <v>5558</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" t="s">
+        <v>5963</v>
+      </c>
+      <c r="K40" t="s">
         <v>5559</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L40" t="s">
+        <v>5964</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>224</v>
       </c>
@@ -65380,26 +66642,32 @@
       <c r="D41">
         <v>30715</v>
       </c>
-      <c r="E41">
-        <v>1</v>
+      <c r="E41" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>1958</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" t="s">
         <v>5488</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" t="s">
         <v>5677</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" t="s">
+        <v>5965</v>
+      </c>
+      <c r="K41" t="s">
         <v>5678</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L41" t="s">
+        <v>5966</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>225</v>
       </c>
@@ -65412,26 +66680,32 @@
       <c r="D42">
         <v>375820</v>
       </c>
-      <c r="E42">
-        <v>1</v>
+      <c r="E42" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>1961</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" t="s">
         <v>5345</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" t="s">
         <v>5803</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" t="s">
+        <v>5967</v>
+      </c>
+      <c r="K42" t="s">
         <v>5804</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L42" t="s">
+        <v>5968</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>4926</v>
       </c>
@@ -65444,26 +66718,32 @@
       <c r="D43">
         <v>1367688</v>
       </c>
-      <c r="E43">
-        <v>-1</v>
+      <c r="E43" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>5399</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" t="s">
         <v>5345</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" t="s">
         <v>5400</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" t="s">
+        <v>5969</v>
+      </c>
+      <c r="K43" t="s">
         <v>5401</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L43" t="s">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>226</v>
       </c>
@@ -65476,26 +66756,32 @@
       <c r="D44">
         <v>1371611</v>
       </c>
-      <c r="E44">
-        <v>-1</v>
+      <c r="E44" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>1964</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" t="s">
         <v>5345</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" t="s">
         <v>5658</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" t="s">
+        <v>5971</v>
+      </c>
+      <c r="K44" t="s">
         <v>5659</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L44" t="s">
+        <v>5972</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>227</v>
       </c>
@@ -65508,26 +66794,32 @@
       <c r="D45">
         <v>1187621</v>
       </c>
-      <c r="E45">
-        <v>1</v>
+      <c r="E45" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>1967</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" t="s">
         <v>5664</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" t="s">
         <v>5686</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" t="s">
+        <v>5973</v>
+      </c>
+      <c r="K45" t="s">
         <v>5687</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L45" t="s">
+        <v>5974</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>228</v>
       </c>
@@ -65540,26 +66832,32 @@
       <c r="D46">
         <v>371351</v>
       </c>
-      <c r="E46">
-        <v>-1</v>
+      <c r="E46" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>1970</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" t="s">
         <v>5345</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" t="s">
         <v>5426</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" t="s">
+        <v>5975</v>
+      </c>
+      <c r="K46" t="s">
         <v>5427</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L46" t="s">
+        <v>5976</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>229</v>
       </c>
@@ -65572,26 +66870,32 @@
       <c r="D47">
         <v>2025735</v>
       </c>
-      <c r="E47">
-        <v>-1</v>
+      <c r="E47" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>1973</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" t="s">
         <v>5345</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" t="s">
         <v>5661</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" t="s">
+        <v>5977</v>
+      </c>
+      <c r="K47" t="s">
         <v>5662</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L47" t="s">
+        <v>5978</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>230</v>
       </c>
@@ -65604,26 +66908,32 @@
       <c r="D48">
         <v>1412107</v>
       </c>
-      <c r="E48">
-        <v>-1</v>
+      <c r="E48" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>1976</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" t="s">
         <v>5345</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" t="s">
         <v>5419</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" t="s">
+        <v>5979</v>
+      </c>
+      <c r="K48" t="s">
         <v>5420</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L48" t="s">
+        <v>5980</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>231</v>
       </c>
@@ -65636,26 +66946,32 @@
       <c r="D49">
         <v>944387</v>
       </c>
-      <c r="E49">
-        <v>-1</v>
+      <c r="E49" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>1979</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" t="s">
         <v>5495</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" t="s">
         <v>5514</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" t="s">
+        <v>5981</v>
+      </c>
+      <c r="K49" t="s">
         <v>5515</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L49" t="s">
+        <v>5982</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>232</v>
       </c>
@@ -65668,26 +66984,32 @@
       <c r="D50">
         <v>1144971</v>
       </c>
-      <c r="E50">
-        <v>1</v>
+      <c r="E50" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>1982</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" t="s">
         <v>5345</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" t="s">
         <v>5781</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J50" t="s">
+        <v>5983</v>
+      </c>
+      <c r="K50" t="s">
         <v>5782</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L50" t="s">
+        <v>5984</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>233</v>
       </c>
@@ -65700,26 +67022,32 @@
       <c r="D51">
         <v>6527</v>
       </c>
-      <c r="E51">
-        <v>1</v>
+      <c r="E51" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>1985</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" t="s">
         <v>5345</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" t="s">
         <v>5531</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J51" t="s">
+        <v>5985</v>
+      </c>
+      <c r="K51" t="s">
         <v>5532</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L51" t="s">
+        <v>5986</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>235</v>
       </c>
@@ -65732,26 +67060,32 @@
       <c r="D52">
         <v>1837307</v>
       </c>
-      <c r="E52">
-        <v>-1</v>
+      <c r="E52" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>1989</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" t="s">
         <v>5345</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I52" t="s">
         <v>5552</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" t="s">
+        <v>5987</v>
+      </c>
+      <c r="K52" t="s">
         <v>5553</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L52" t="s">
+        <v>5988</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>236</v>
       </c>
@@ -65764,26 +67098,32 @@
       <c r="D53">
         <v>158385</v>
       </c>
-      <c r="E53">
-        <v>-1</v>
+      <c r="E53" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>1992</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" t="s">
         <v>5345</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" t="s">
         <v>5735</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" t="s">
+        <v>5989</v>
+      </c>
+      <c r="K53" t="s">
         <v>5736</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L53" t="s">
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>242</v>
       </c>
@@ -65796,26 +67136,32 @@
       <c r="D54">
         <v>2640740</v>
       </c>
-      <c r="E54">
-        <v>-1</v>
+      <c r="E54" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>2009</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" t="s">
         <v>5345</v>
       </c>
       <c r="H54">
         <v>-1</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" t="s">
         <v>5637</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" t="s">
+        <v>5991</v>
+      </c>
+      <c r="K54" t="s">
         <v>5638</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L54" t="s">
+        <v>5992</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>243</v>
       </c>
@@ -65828,26 +67174,32 @@
       <c r="D55">
         <v>58718</v>
       </c>
-      <c r="E55">
-        <v>-1</v>
+      <c r="E55" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>2012</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" t="s">
         <v>5345</v>
       </c>
       <c r="H55">
         <v>-1</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" t="s">
         <v>5655</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" t="s">
+        <v>5993</v>
+      </c>
+      <c r="K55" t="s">
         <v>5656</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L55" t="s">
+        <v>5994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>250</v>
       </c>
@@ -65860,26 +67212,32 @@
       <c r="D56">
         <v>1752114</v>
       </c>
-      <c r="E56">
-        <v>1</v>
+      <c r="E56" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>2036</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" t="s">
         <v>5358</v>
       </c>
       <c r="H56">
         <v>-1</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" t="s">
         <v>5549</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" t="s">
+        <v>5995</v>
+      </c>
+      <c r="K56" t="s">
         <v>5550</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L56" t="s">
+        <v>5996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>261</v>
       </c>
@@ -65892,26 +67250,32 @@
       <c r="D57">
         <v>6396839</v>
       </c>
-      <c r="E57">
-        <v>-1</v>
+      <c r="E57" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>2063</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" t="s">
         <v>5345</v>
       </c>
       <c r="H57">
         <v>-1</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I57" t="s">
         <v>5352</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" t="s">
+        <v>5997</v>
+      </c>
+      <c r="K57" t="s">
         <v>5353</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L57" t="s">
+        <v>5998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>268</v>
       </c>
@@ -65924,26 +67288,32 @@
       <c r="D58">
         <v>39528</v>
       </c>
-      <c r="E58">
-        <v>1</v>
+      <c r="E58" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>2080</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" t="s">
         <v>5495</v>
       </c>
       <c r="H58">
         <v>-1</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I58" t="s">
         <v>5524</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J58" t="s">
+        <v>5999</v>
+      </c>
+      <c r="K58" t="s">
         <v>5525</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L58" t="s">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>269</v>
       </c>
@@ -65956,26 +67326,32 @@
       <c r="D59">
         <v>3276349</v>
       </c>
-      <c r="E59">
-        <v>-1</v>
+      <c r="E59" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>5439</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" t="s">
         <v>5345</v>
       </c>
       <c r="H59">
         <v>-1</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="I59" t="s">
         <v>5440</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" t="s">
+        <v>6001</v>
+      </c>
+      <c r="K59" t="s">
         <v>5441</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L59" t="s">
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>277</v>
       </c>
@@ -65988,26 +67364,32 @@
       <c r="D60">
         <v>213653</v>
       </c>
-      <c r="E60">
-        <v>-1</v>
+      <c r="E60" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>2108</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" t="s">
         <v>5495</v>
       </c>
       <c r="H60">
         <v>-1</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I60" t="s">
         <v>5863</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" t="s">
+        <v>6003</v>
+      </c>
+      <c r="K60" t="s">
         <v>5864</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L60" t="s">
+        <v>6004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>280</v>
       </c>
@@ -66020,26 +67402,32 @@
       <c r="D61">
         <v>1161652</v>
       </c>
-      <c r="E61">
-        <v>1</v>
+      <c r="E61" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>2114</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" t="s">
         <v>5495</v>
       </c>
       <c r="H61">
         <v>-1</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I61" t="s">
         <v>5521</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" t="s">
+        <v>6005</v>
+      </c>
+      <c r="K61" t="s">
         <v>5522</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L61" t="s">
+        <v>6006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>289</v>
       </c>
@@ -66052,26 +67440,32 @@
       <c r="D62">
         <v>39281</v>
       </c>
-      <c r="E62">
-        <v>-1</v>
+      <c r="E62" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>2137</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" t="s">
         <v>5843</v>
       </c>
       <c r="H62">
         <v>-1</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="I62" t="s">
         <v>5844</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" t="s">
+        <v>6007</v>
+      </c>
+      <c r="K62" t="s">
         <v>5845</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L62" t="s">
+        <v>6008</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>298</v>
       </c>
@@ -66084,26 +67478,32 @@
       <c r="D63">
         <v>551202</v>
       </c>
-      <c r="E63">
-        <v>1</v>
+      <c r="E63" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>2162</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" t="s">
         <v>5345</v>
       </c>
       <c r="H63">
         <v>-1</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="I63" t="s">
         <v>5872</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="J63" t="s">
+        <v>6009</v>
+      </c>
+      <c r="K63" t="s">
         <v>5873</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L63" t="s">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>305</v>
       </c>
@@ -66116,26 +67516,32 @@
       <c r="D64">
         <v>27656</v>
       </c>
-      <c r="E64">
-        <v>1</v>
+      <c r="E64" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>5561</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" t="s">
         <v>5345</v>
       </c>
       <c r="H64">
         <v>-1</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I64" t="s">
         <v>5562</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="J64" t="s">
+        <v>6011</v>
+      </c>
+      <c r="K64" t="s">
         <v>5563</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L64" t="s">
+        <v>6012</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>307</v>
       </c>
@@ -66148,26 +67554,32 @@
       <c r="D65">
         <v>22843</v>
       </c>
-      <c r="E65">
-        <v>-1</v>
+      <c r="E65" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>5839</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" t="s">
         <v>5345</v>
       </c>
       <c r="H65">
         <v>-1</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I65" t="s">
         <v>5840</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="J65" t="s">
+        <v>6013</v>
+      </c>
+      <c r="K65" t="s">
         <v>5841</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L65" t="s">
+        <v>6014</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>308</v>
       </c>
@@ -66180,26 +67592,32 @@
       <c r="D66">
         <v>25856</v>
       </c>
-      <c r="E66">
-        <v>-1</v>
+      <c r="E66" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>5856</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" t="s">
         <v>5345</v>
       </c>
       <c r="H66">
         <v>-1</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I66" t="s">
         <v>5857</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="J66" t="s">
+        <v>6015</v>
+      </c>
+      <c r="K66" t="s">
         <v>5858</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L66" t="s">
+        <v>6016</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>322</v>
       </c>
@@ -66212,26 +67630,32 @@
       <c r="D67">
         <v>2228890</v>
       </c>
-      <c r="E67">
-        <v>1</v>
+      <c r="E67" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>2225</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" t="s">
         <v>5358</v>
       </c>
       <c r="H67">
         <v>-1</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="I67" t="s">
         <v>5683</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J67" t="s">
+        <v>6017</v>
+      </c>
+      <c r="K67" t="s">
         <v>5684</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L67" t="s">
+        <v>6018</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>328</v>
       </c>
@@ -66244,26 +67668,32 @@
       <c r="D68">
         <v>1389120</v>
       </c>
-      <c r="E68">
-        <v>1</v>
+      <c r="E68" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>2238</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" t="s">
         <v>5358</v>
       </c>
       <c r="H68">
         <v>-1</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="I68" t="s">
         <v>5461</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J68" t="s">
+        <v>6019</v>
+      </c>
+      <c r="K68" t="s">
         <v>5462</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L68" t="s">
+        <v>6020</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>342</v>
       </c>
@@ -66276,26 +67706,32 @@
       <c r="D69">
         <v>544743</v>
       </c>
-      <c r="E69">
-        <v>-1</v>
+      <c r="E69" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>2271</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" t="s">
         <v>5627</v>
       </c>
       <c r="H69">
         <v>-1</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="I69" t="s">
         <v>5628</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="J69" t="s">
+        <v>6021</v>
+      </c>
+      <c r="K69" t="s">
         <v>5629</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L69" t="s">
+        <v>6022</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>343</v>
       </c>
@@ -66308,26 +67744,32 @@
       <c r="D70">
         <v>1702363</v>
       </c>
-      <c r="E70">
-        <v>1</v>
+      <c r="E70" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>2273</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G70" t="s">
         <v>5358</v>
       </c>
       <c r="H70">
         <v>-1</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="I70" t="s">
         <v>5634</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="J70" t="s">
+        <v>6023</v>
+      </c>
+      <c r="K70" t="s">
         <v>5635</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L70" t="s">
+        <v>6024</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>386</v>
       </c>
@@ -66340,26 +67782,32 @@
       <c r="D71">
         <v>1982151</v>
       </c>
-      <c r="E71">
-        <v>1</v>
+      <c r="E71" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>2377</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" t="s">
         <v>5345</v>
       </c>
       <c r="H71">
         <v>-1</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I71" t="s">
         <v>5806</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="J71" t="s">
+        <v>6025</v>
+      </c>
+      <c r="K71" t="s">
         <v>5807</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L71" t="s">
+        <v>6026</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>431</v>
       </c>
@@ -66372,26 +67820,32 @@
       <c r="D72">
         <v>443803</v>
       </c>
-      <c r="E72">
-        <v>-1</v>
+      <c r="E72" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>2469</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" t="s">
         <v>5527</v>
       </c>
       <c r="H72">
         <v>-1</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="I72" t="s">
         <v>5528</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="J72" t="s">
+        <v>6027</v>
+      </c>
+      <c r="K72" t="s">
         <v>5529</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L72" t="s">
+        <v>6028</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>454</v>
       </c>
@@ -66404,26 +67858,32 @@
       <c r="D73">
         <v>96468</v>
       </c>
-      <c r="E73">
-        <v>1</v>
+      <c r="E73" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>2520</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" t="s">
         <v>5358</v>
       </c>
       <c r="H73">
         <v>-1</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="I73" t="s">
         <v>5705</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="J73" t="s">
+        <v>6029</v>
+      </c>
+      <c r="K73" t="s">
         <v>5706</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L73" t="s">
+        <v>6030</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>460</v>
       </c>
@@ -66436,26 +67896,32 @@
       <c r="D74">
         <v>73513</v>
       </c>
-      <c r="E74">
-        <v>1</v>
+      <c r="E74" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>2541</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G74" t="s">
         <v>5345</v>
       </c>
       <c r="H74">
         <v>-1</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I74" t="s">
         <v>5738</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="J74" t="s">
+        <v>6031</v>
+      </c>
+      <c r="K74" t="s">
         <v>5739</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L74" t="s">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>461</v>
       </c>
@@ -66468,26 +67934,32 @@
       <c r="D75">
         <v>1891</v>
       </c>
-      <c r="E75">
-        <v>-1</v>
+      <c r="E75" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>2544</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" t="s">
         <v>5345</v>
       </c>
       <c r="H75">
         <v>-1</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I75" t="s">
         <v>5446</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="J75" t="s">
+        <v>6033</v>
+      </c>
+      <c r="K75" t="s">
         <v>5447</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L75" t="s">
+        <v>6034</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>499</v>
       </c>
@@ -66500,26 +67972,32 @@
       <c r="D76">
         <v>4502027</v>
       </c>
-      <c r="E76">
-        <v>1</v>
+      <c r="E76" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>5245</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" t="s">
         <v>5465</v>
       </c>
       <c r="H76">
         <v>-1</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I76" t="s">
         <v>5769</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="J76" t="s">
+        <v>6035</v>
+      </c>
+      <c r="K76" t="s">
         <v>5770</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L76" t="s">
+        <v>6036</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>501</v>
       </c>
@@ -66532,26 +68010,32 @@
       <c r="D77">
         <v>66612</v>
       </c>
-      <c r="E77">
-        <v>1</v>
+      <c r="E77" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>2659</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G77" t="s">
         <v>5345</v>
       </c>
       <c r="H77">
         <v>-1</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="I77" t="s">
         <v>5674</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="J77" t="s">
+        <v>6037</v>
+      </c>
+      <c r="K77" t="s">
         <v>5675</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L77" t="s">
+        <v>6038</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>505</v>
       </c>
@@ -66564,26 +68048,32 @@
       <c r="D78">
         <v>153989</v>
       </c>
-      <c r="E78">
-        <v>1</v>
+      <c r="E78" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>2673</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G78" t="s">
         <v>5358</v>
       </c>
       <c r="H78">
         <v>-1</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="I78" t="s">
         <v>5695</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="J78" t="s">
+        <v>6039</v>
+      </c>
+      <c r="K78" t="s">
         <v>5696</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L78" t="s">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>517</v>
       </c>
@@ -66596,26 +68086,32 @@
       <c r="D79">
         <v>1303283</v>
       </c>
-      <c r="E79">
-        <v>-1</v>
+      <c r="E79" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>2734</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" t="s">
         <v>5358</v>
       </c>
       <c r="H79">
         <v>-1</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="I79" t="s">
         <v>5671</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="J79" t="s">
+        <v>6041</v>
+      </c>
+      <c r="K79" t="s">
         <v>5672</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L79" t="s">
+        <v>6042</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>527</v>
       </c>
@@ -66628,26 +68124,32 @@
       <c r="D80">
         <v>176494</v>
       </c>
-      <c r="E80">
-        <v>1</v>
+      <c r="E80" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>2763</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" t="s">
         <v>5495</v>
       </c>
       <c r="H80">
         <v>-1</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="I80" t="s">
         <v>5869</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="J80" t="s">
+        <v>6043</v>
+      </c>
+      <c r="K80" t="s">
         <v>5870</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L80" t="s">
+        <v>6044</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>560</v>
       </c>
@@ -66660,26 +68162,32 @@
       <c r="D81">
         <v>1883143</v>
       </c>
-      <c r="E81">
-        <v>-1</v>
+      <c r="E81" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>2853</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" t="s">
         <v>5345</v>
       </c>
       <c r="H81">
         <v>-1</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I81" t="s">
         <v>5609</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="J81" t="s">
+        <v>6045</v>
+      </c>
+      <c r="K81" t="s">
         <v>5610</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L81" t="s">
+        <v>6046</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>561</v>
       </c>
@@ -66692,26 +68200,32 @@
       <c r="D82">
         <v>92300</v>
       </c>
-      <c r="E82">
-        <v>-1</v>
+      <c r="E82" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>2856</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" t="s">
         <v>5345</v>
       </c>
       <c r="H82">
         <v>-1</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="I82" t="s">
         <v>5485</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="J82" t="s">
+        <v>6047</v>
+      </c>
+      <c r="K82" t="s">
         <v>5486</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L82" t="s">
+        <v>6048</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>565</v>
       </c>
@@ -66724,26 +68238,32 @@
       <c r="D83">
         <v>1753076</v>
       </c>
-      <c r="E83">
-        <v>1</v>
+      <c r="E83" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>5543</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" t="s">
         <v>5495</v>
       </c>
       <c r="H83">
         <v>-1</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="I83" t="s">
         <v>5544</v>
       </c>
-      <c r="J83" s="1" t="s">
+      <c r="J83" t="s">
+        <v>6049</v>
+      </c>
+      <c r="K83" t="s">
         <v>5545</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L83" t="s">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>565</v>
       </c>
@@ -66756,26 +68276,32 @@
       <c r="D84">
         <v>1755855</v>
       </c>
-      <c r="E84">
-        <v>1</v>
+      <c r="E84" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>5546</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G84" t="s">
         <v>5495</v>
       </c>
       <c r="H84">
         <v>-1</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="I84" t="s">
         <v>5547</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="J84" t="s">
+        <v>6051</v>
+      </c>
+      <c r="K84" t="s">
         <v>5490</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L84" t="s">
+        <v>6052</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>566</v>
       </c>
@@ -66788,26 +68314,32 @@
       <c r="D85">
         <v>5171</v>
       </c>
-      <c r="E85">
-        <v>-1</v>
+      <c r="E85" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>5751</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G85" t="s">
         <v>5752</v>
       </c>
       <c r="H85">
         <v>-1</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="I85" t="s">
         <v>5753</v>
       </c>
-      <c r="J85" s="1" t="s">
+      <c r="J85" t="s">
+        <v>6053</v>
+      </c>
+      <c r="K85" t="s">
         <v>5754</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L85" t="s">
+        <v>6054</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>566</v>
       </c>
@@ -66820,26 +68352,32 @@
       <c r="D86">
         <v>21841</v>
       </c>
-      <c r="E86">
-        <v>1</v>
+      <c r="E86" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>5756</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G86" t="s">
         <v>5527</v>
       </c>
       <c r="H86">
         <v>-1</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="I86" t="s">
         <v>5757</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="J86" t="s">
+        <v>6055</v>
+      </c>
+      <c r="K86" t="s">
         <v>5758</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L86" t="s">
+        <v>6056</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>568</v>
       </c>
@@ -66852,26 +68390,32 @@
       <c r="D87">
         <v>996671</v>
       </c>
-      <c r="E87">
-        <v>1</v>
+      <c r="E87" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>2868</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G87" t="s">
         <v>5488</v>
       </c>
       <c r="H87">
         <v>-1</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="I87" t="s">
         <v>5580</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="J87" t="s">
+        <v>6057</v>
+      </c>
+      <c r="K87" t="s">
         <v>5581</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L87" t="s">
+        <v>6058</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>570</v>
       </c>
@@ -66884,26 +68428,32 @@
       <c r="D88">
         <v>1123904</v>
       </c>
-      <c r="E88">
-        <v>1</v>
+      <c r="E88" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>2872</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G88" t="s">
         <v>5345</v>
       </c>
       <c r="H88">
         <v>-1</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="I88" t="s">
         <v>5349</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="J88" t="s">
+        <v>6059</v>
+      </c>
+      <c r="K88" t="s">
         <v>5350</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L88" t="s">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>571</v>
       </c>
@@ -66916,26 +68466,32 @@
       <c r="D89">
         <v>123683</v>
       </c>
-      <c r="E89">
-        <v>1</v>
+      <c r="E89" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>2875</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G89" t="s">
         <v>5345</v>
       </c>
       <c r="H89">
         <v>-1</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="I89" t="s">
         <v>5413</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="J89" t="s">
+        <v>6061</v>
+      </c>
+      <c r="K89" t="s">
         <v>5414</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L89" t="s">
+        <v>6062</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>572</v>
       </c>
@@ -66948,26 +68504,32 @@
       <c r="D90">
         <v>843473</v>
       </c>
-      <c r="E90">
-        <v>-1</v>
+      <c r="E90" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>2878</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G90" t="s">
         <v>5345</v>
       </c>
       <c r="H90">
         <v>-1</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="I90" t="s">
         <v>5410</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="J90" t="s">
+        <v>6063</v>
+      </c>
+      <c r="K90" t="s">
         <v>5411</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L90" t="s">
+        <v>6064</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>573</v>
       </c>
@@ -66980,26 +68542,32 @@
       <c r="D91">
         <v>1225228</v>
       </c>
-      <c r="E91">
-        <v>1</v>
+      <c r="E91" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>2882</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G91" t="s">
         <v>5345</v>
       </c>
       <c r="H91">
         <v>-1</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="I91" t="s">
         <v>5346</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="J91" t="s">
+        <v>6065</v>
+      </c>
+      <c r="K91" t="s">
         <v>5347</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L91" t="s">
+        <v>6066</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>574</v>
       </c>
@@ -67012,26 +68580,32 @@
       <c r="D92">
         <v>717278</v>
       </c>
-      <c r="E92">
-        <v>1</v>
+      <c r="E92" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>2886</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G92" t="s">
         <v>5345</v>
       </c>
       <c r="H92">
         <v>-1</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="I92" t="s">
         <v>5499</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="J92" t="s">
+        <v>6067</v>
+      </c>
+      <c r="K92" t="s">
         <v>5500</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L92" t="s">
+        <v>6068</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>575</v>
       </c>
@@ -67044,26 +68618,32 @@
       <c r="D93">
         <v>118872</v>
       </c>
-      <c r="E93">
-        <v>-1</v>
+      <c r="E93" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>2890</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G93" t="s">
         <v>5345</v>
       </c>
       <c r="H93">
         <v>-1</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="I93" t="s">
         <v>5407</v>
       </c>
-      <c r="J93" s="1" t="s">
+      <c r="J93" t="s">
+        <v>6069</v>
+      </c>
+      <c r="K93" t="s">
         <v>5408</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L93" t="s">
+        <v>6070</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>576</v>
       </c>
@@ -67076,26 +68656,32 @@
       <c r="D94">
         <v>1638643</v>
       </c>
-      <c r="E94">
-        <v>1</v>
+      <c r="E94" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>5257</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G94" t="s">
         <v>5465</v>
       </c>
       <c r="H94">
         <v>-1</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="I94" t="s">
         <v>5472</v>
       </c>
-      <c r="J94" s="1" t="s">
+      <c r="J94" t="s">
+        <v>6071</v>
+      </c>
+      <c r="K94" t="s">
         <v>5473</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L94" t="s">
+        <v>6072</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>579</v>
       </c>
@@ -67108,26 +68694,32 @@
       <c r="D95">
         <v>116241</v>
       </c>
-      <c r="E95">
-        <v>-1</v>
+      <c r="E95" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>2897</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G95" t="s">
         <v>5345</v>
       </c>
       <c r="H95">
         <v>-1</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="I95" t="s">
         <v>5389</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="J95" t="s">
+        <v>6073</v>
+      </c>
+      <c r="K95" t="s">
         <v>5390</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L95" t="s">
+        <v>6074</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>580</v>
       </c>
@@ -67140,26 +68732,32 @@
       <c r="D96">
         <v>776154</v>
       </c>
-      <c r="E96">
-        <v>1</v>
+      <c r="E96" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>2900</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G96" t="s">
         <v>5345</v>
       </c>
       <c r="H96">
         <v>-1</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="I96" t="s">
         <v>5455</v>
       </c>
-      <c r="J96" s="1" t="s">
+      <c r="J96" t="s">
+        <v>6075</v>
+      </c>
+      <c r="K96" t="s">
         <v>5456</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L96" t="s">
+        <v>6076</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>581</v>
       </c>
@@ -67172,26 +68770,32 @@
       <c r="D97">
         <v>136531</v>
       </c>
-      <c r="E97">
-        <v>-1</v>
+      <c r="E97" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>2902</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G97" t="s">
         <v>5345</v>
       </c>
       <c r="H97">
         <v>-1</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="I97" t="s">
         <v>5386</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="J97" t="s">
+        <v>6077</v>
+      </c>
+      <c r="K97" t="s">
         <v>5387</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L97" t="s">
+        <v>6078</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>582</v>
       </c>
@@ -67204,26 +68808,32 @@
       <c r="D98">
         <v>757096</v>
       </c>
-      <c r="E98">
-        <v>-1</v>
+      <c r="E98" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>2905</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G98" t="s">
         <v>5345</v>
       </c>
       <c r="H98">
         <v>-1</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="I98" t="s">
         <v>5355</v>
       </c>
-      <c r="J98" s="1" t="s">
+      <c r="J98" t="s">
+        <v>6079</v>
+      </c>
+      <c r="K98" t="s">
         <v>5356</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L98" t="s">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>591</v>
       </c>
@@ -67236,26 +68846,32 @@
       <c r="D99">
         <v>105618</v>
       </c>
-      <c r="E99">
-        <v>1</v>
+      <c r="E99" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>2927</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="G99" t="s">
         <v>5358</v>
       </c>
       <c r="H99">
         <v>-1</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="I99" t="s">
         <v>5577</v>
       </c>
-      <c r="J99" s="1" t="s">
+      <c r="J99" t="s">
+        <v>6081</v>
+      </c>
+      <c r="K99" t="s">
         <v>5578</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L99" t="s">
+        <v>6082</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>592</v>
       </c>
@@ -67268,26 +68884,32 @@
       <c r="D100">
         <v>2467693</v>
       </c>
-      <c r="E100">
-        <v>1</v>
+      <c r="E100" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>5464</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G100" t="s">
         <v>5465</v>
       </c>
       <c r="H100">
         <v>-1</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="I100" t="s">
         <v>5466</v>
       </c>
-      <c r="J100" s="1" t="s">
+      <c r="J100" t="s">
+        <v>6083</v>
+      </c>
+      <c r="K100" t="s">
         <v>5467</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L100" t="s">
+        <v>6084</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>609</v>
       </c>
@@ -67300,26 +68922,32 @@
       <c r="D101">
         <v>1190137</v>
       </c>
-      <c r="E101">
-        <v>1</v>
+      <c r="E101" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>2962</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="G101" t="s">
         <v>5345</v>
       </c>
       <c r="H101">
         <v>-1</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="I101" t="s">
         <v>5429</v>
       </c>
-      <c r="J101" s="1" t="s">
+      <c r="J101" t="s">
+        <v>6085</v>
+      </c>
+      <c r="K101" t="s">
         <v>5430</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L101" t="s">
+        <v>6086</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>610</v>
       </c>
@@ -67332,26 +68960,32 @@
       <c r="D102">
         <v>11429</v>
       </c>
-      <c r="E102">
-        <v>1</v>
+      <c r="E102" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>2965</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="G102" t="s">
         <v>5345</v>
       </c>
       <c r="H102">
         <v>-1</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="I102" t="s">
         <v>5505</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="J102" t="s">
+        <v>6087</v>
+      </c>
+      <c r="K102" t="s">
         <v>5506</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L102" t="s">
+        <v>6088</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>611</v>
       </c>
@@ -67364,26 +68998,32 @@
       <c r="D103">
         <v>279026</v>
       </c>
-      <c r="E103">
-        <v>-1</v>
+      <c r="E103" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>5422</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="G103" t="s">
         <v>5345</v>
       </c>
       <c r="H103">
         <v>-1</v>
       </c>
-      <c r="I103" s="1" t="s">
+      <c r="I103" t="s">
         <v>5423</v>
       </c>
-      <c r="J103" s="1" t="s">
+      <c r="J103" t="s">
+        <v>6089</v>
+      </c>
+      <c r="K103" t="s">
         <v>5424</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L103" t="s">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>613</v>
       </c>
@@ -67396,26 +69036,32 @@
       <c r="D104">
         <v>18846</v>
       </c>
-      <c r="E104">
-        <v>-1</v>
+      <c r="E104" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>2974</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="G104" t="s">
         <v>5345</v>
       </c>
       <c r="H104">
         <v>-1</v>
       </c>
-      <c r="I104" s="1" t="s">
+      <c r="I104" t="s">
         <v>5469</v>
       </c>
-      <c r="J104" s="1" t="s">
+      <c r="J104" t="s">
+        <v>6091</v>
+      </c>
+      <c r="K104" t="s">
         <v>5470</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L104" t="s">
+        <v>6092</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>614</v>
       </c>
@@ -67428,26 +69074,32 @@
       <c r="D105">
         <v>608921</v>
       </c>
-      <c r="E105">
-        <v>-1</v>
+      <c r="E105" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>2978</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="G105" t="s">
         <v>5345</v>
       </c>
       <c r="H105">
         <v>-1</v>
       </c>
-      <c r="I105" s="1" t="s">
+      <c r="I105" t="s">
         <v>5452</v>
       </c>
-      <c r="J105" s="1" t="s">
+      <c r="J105" t="s">
+        <v>6093</v>
+      </c>
+      <c r="K105" t="s">
         <v>5453</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L105" t="s">
+        <v>6094</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>655</v>
       </c>
@@ -67460,26 +69112,32 @@
       <c r="D106">
         <v>4147227</v>
       </c>
-      <c r="E106">
-        <v>-1</v>
+      <c r="E106" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>3101</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="G106" t="s">
         <v>5627</v>
       </c>
       <c r="H106">
         <v>-1</v>
       </c>
-      <c r="I106" s="1" t="s">
+      <c r="I106" t="s">
         <v>5643</v>
       </c>
-      <c r="J106" s="1" t="s">
+      <c r="J106" t="s">
+        <v>6095</v>
+      </c>
+      <c r="K106" t="s">
         <v>5644</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L106" t="s">
+        <v>6096</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>789</v>
       </c>
@@ -67492,26 +69150,32 @@
       <c r="D107">
         <v>2503392</v>
       </c>
-      <c r="E107">
-        <v>1</v>
+      <c r="E107" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>5294</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="G107" t="s">
         <v>5465</v>
       </c>
       <c r="H107">
         <v>-1</v>
       </c>
-      <c r="I107" s="1" t="s">
+      <c r="I107" t="s">
         <v>5680</v>
       </c>
-      <c r="J107" s="1" t="s">
+      <c r="J107" t="s">
+        <v>6097</v>
+      </c>
+      <c r="K107" t="s">
         <v>5681</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L107" t="s">
+        <v>6098</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>793</v>
       </c>
@@ -67524,26 +69188,32 @@
       <c r="D108">
         <v>40239</v>
       </c>
-      <c r="E108">
-        <v>-1</v>
+      <c r="E108" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>5744</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="G108" t="s">
         <v>5465</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
-      <c r="I108" s="1" t="s">
+      <c r="I108" t="s">
         <v>5745</v>
       </c>
-      <c r="J108" s="1" t="s">
+      <c r="J108" t="s">
+        <v>6099</v>
+      </c>
+      <c r="K108" t="s">
         <v>5746</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L108" t="s">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>801</v>
       </c>
@@ -67556,26 +69226,32 @@
       <c r="D109">
         <v>16726</v>
       </c>
-      <c r="E109">
-        <v>-1</v>
+      <c r="E109" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>3469</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="G109" t="s">
         <v>5488</v>
       </c>
       <c r="H109">
         <v>-1</v>
       </c>
-      <c r="I109" s="1" t="s">
+      <c r="I109" t="s">
         <v>5489</v>
       </c>
-      <c r="J109" s="1" t="s">
+      <c r="J109" t="s">
+        <v>6101</v>
+      </c>
+      <c r="K109" t="s">
         <v>5490</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L109" t="s">
+        <v>6102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>813</v>
       </c>
@@ -67588,26 +69264,32 @@
       <c r="D110">
         <v>5993</v>
       </c>
-      <c r="E110">
-        <v>-1</v>
+      <c r="E110" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>5297</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="G110" t="s">
         <v>5465</v>
       </c>
       <c r="H110">
         <v>-1</v>
       </c>
-      <c r="I110" s="1" t="s">
+      <c r="I110" t="s">
         <v>5748</v>
       </c>
-      <c r="J110" s="1" t="s">
+      <c r="J110" t="s">
+        <v>6103</v>
+      </c>
+      <c r="K110" t="s">
         <v>5749</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L110" t="s">
+        <v>6104</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>858</v>
       </c>
@@ -67620,26 +69302,32 @@
       <c r="D111">
         <v>363245</v>
       </c>
-      <c r="E111">
-        <v>1</v>
+      <c r="E111" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>5306</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="G111" t="s">
         <v>5701</v>
       </c>
       <c r="H111">
         <v>-1</v>
       </c>
-      <c r="I111" s="1" t="s">
+      <c r="I111" t="s">
         <v>5702</v>
       </c>
-      <c r="J111" s="1" t="s">
+      <c r="J111" t="s">
+        <v>6105</v>
+      </c>
+      <c r="K111" t="s">
         <v>5703</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L111" t="s">
+        <v>6106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>873</v>
       </c>
@@ -67652,26 +69340,32 @@
       <c r="D112">
         <v>65044</v>
       </c>
-      <c r="E112">
-        <v>1</v>
+      <c r="E112" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>3663</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="G112" t="s">
         <v>5345</v>
       </c>
       <c r="H112">
         <v>-1</v>
       </c>
-      <c r="I112" s="1" t="s">
+      <c r="I112" t="s">
         <v>5565</v>
       </c>
-      <c r="J112" s="1" t="s">
+      <c r="J112" t="s">
+        <v>6107</v>
+      </c>
+      <c r="K112" t="s">
         <v>5566</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L112" t="s">
+        <v>6108</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>874</v>
       </c>
@@ -67684,26 +69378,32 @@
       <c r="D113">
         <v>1990635</v>
       </c>
-      <c r="E113">
-        <v>1</v>
+      <c r="E113" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>3666</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="G113" t="s">
         <v>5345</v>
       </c>
       <c r="H113">
         <v>-1</v>
       </c>
-      <c r="I113" s="1" t="s">
+      <c r="I113" t="s">
         <v>5821</v>
       </c>
-      <c r="J113" s="1" t="s">
+      <c r="J113" t="s">
+        <v>6109</v>
+      </c>
+      <c r="K113" t="s">
         <v>5822</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L113" t="s">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>875</v>
       </c>
@@ -67716,26 +69416,32 @@
       <c r="D114">
         <v>44674</v>
       </c>
-      <c r="E114">
-        <v>1</v>
+      <c r="E114" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>3669</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="G114" t="s">
         <v>5488</v>
       </c>
       <c r="H114">
         <v>-1</v>
       </c>
-      <c r="I114" s="1" t="s">
+      <c r="I114" t="s">
         <v>5878</v>
       </c>
-      <c r="J114" s="1" t="s">
+      <c r="J114" t="s">
+        <v>6111</v>
+      </c>
+      <c r="K114" t="s">
         <v>5879</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L114" t="s">
+        <v>6112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>876</v>
       </c>
@@ -67748,26 +69454,32 @@
       <c r="D115">
         <v>75311</v>
       </c>
-      <c r="E115">
-        <v>1</v>
+      <c r="E115" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>3672</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="G115" t="s">
         <v>5345</v>
       </c>
       <c r="H115">
         <v>-1</v>
       </c>
-      <c r="I115" s="1" t="s">
+      <c r="I115" t="s">
         <v>5586</v>
       </c>
-      <c r="J115" s="1" t="s">
+      <c r="J115" t="s">
+        <v>6113</v>
+      </c>
+      <c r="K115" t="s">
         <v>5587</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L115" t="s">
+        <v>6114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>877</v>
       </c>
@@ -67780,26 +69492,32 @@
       <c r="D116">
         <v>40646</v>
       </c>
-      <c r="E116">
-        <v>1</v>
+      <c r="E116" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>3675</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="G116" t="s">
         <v>5488</v>
       </c>
       <c r="H116">
         <v>-1</v>
       </c>
-      <c r="I116" s="1" t="s">
+      <c r="I116" t="s">
         <v>5853</v>
       </c>
-      <c r="J116" s="1" t="s">
+      <c r="J116" t="s">
+        <v>6115</v>
+      </c>
+      <c r="K116" t="s">
         <v>5854</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L116" t="s">
+        <v>6116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>878</v>
       </c>
@@ -67812,26 +69530,32 @@
       <c r="D117">
         <v>56835</v>
       </c>
-      <c r="E117">
-        <v>-1</v>
+      <c r="E117" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>3680</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G117" t="s">
         <v>5345</v>
       </c>
       <c r="H117">
         <v>-1</v>
       </c>
-      <c r="I117" s="1" t="s">
+      <c r="I117" t="s">
         <v>5396</v>
       </c>
-      <c r="J117" s="1" t="s">
+      <c r="J117" t="s">
+        <v>6117</v>
+      </c>
+      <c r="K117" t="s">
         <v>5397</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L117" t="s">
+        <v>6118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>879</v>
       </c>
@@ -67844,26 +69568,32 @@
       <c r="D118">
         <v>52421</v>
       </c>
-      <c r="E118">
-        <v>1</v>
+      <c r="E118" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>3685</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="G118" t="s">
         <v>5345</v>
       </c>
       <c r="H118">
         <v>-1</v>
       </c>
-      <c r="I118" s="1" t="s">
+      <c r="I118" t="s">
         <v>5615</v>
       </c>
-      <c r="J118" s="1" t="s">
+      <c r="J118" t="s">
+        <v>6119</v>
+      </c>
+      <c r="K118" t="s">
         <v>5616</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L118" t="s">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>880</v>
       </c>
@@ -67876,26 +69606,32 @@
       <c r="D119">
         <v>91093</v>
       </c>
-      <c r="E119">
-        <v>-1</v>
+      <c r="E119" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>3688</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="G119" t="s">
         <v>5488</v>
       </c>
       <c r="H119">
         <v>-1</v>
       </c>
-      <c r="I119" s="1" t="s">
+      <c r="I119" t="s">
         <v>5833</v>
       </c>
-      <c r="J119" s="1" t="s">
+      <c r="J119" t="s">
+        <v>6121</v>
+      </c>
+      <c r="K119" t="s">
         <v>5834</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L119" t="s">
+        <v>6122</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>881</v>
       </c>
@@ -67908,26 +69644,32 @@
       <c r="D120">
         <v>2442282</v>
       </c>
-      <c r="E120">
-        <v>-1</v>
+      <c r="E120" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>3691</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="G120" t="s">
         <v>5345</v>
       </c>
       <c r="H120">
         <v>-1</v>
       </c>
-      <c r="I120" s="1" t="s">
+      <c r="I120" t="s">
         <v>5772</v>
       </c>
-      <c r="J120" s="1" t="s">
+      <c r="J120" t="s">
+        <v>6123</v>
+      </c>
+      <c r="K120" t="s">
         <v>5773</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L120" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>882</v>
       </c>
@@ -67940,26 +69682,32 @@
       <c r="D121">
         <v>1554552</v>
       </c>
-      <c r="E121">
-        <v>1</v>
+      <c r="E121" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>3696</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="G121" t="s">
         <v>5345</v>
       </c>
       <c r="H121">
         <v>-1</v>
       </c>
-      <c r="I121" s="1" t="s">
+      <c r="I121" t="s">
         <v>5380</v>
       </c>
-      <c r="J121" s="1" t="s">
+      <c r="J121" t="s">
+        <v>6125</v>
+      </c>
+      <c r="K121" t="s">
         <v>5381</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L121" t="s">
+        <v>6126</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>931</v>
       </c>
@@ -67972,26 +69720,32 @@
       <c r="D122">
         <v>3298921</v>
       </c>
-      <c r="E122">
-        <v>-1</v>
+      <c r="E122" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>3878</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="G122" t="s">
         <v>5358</v>
       </c>
       <c r="H122">
         <v>-1</v>
       </c>
-      <c r="I122" s="1" t="s">
+      <c r="I122" t="s">
         <v>5359</v>
       </c>
-      <c r="J122" s="1" t="s">
+      <c r="J122" t="s">
+        <v>6127</v>
+      </c>
+      <c r="K122" t="s">
         <v>5360</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L122" t="s">
+        <v>6128</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>932</v>
       </c>
@@ -68004,26 +69758,32 @@
       <c r="D123">
         <v>1953614</v>
       </c>
-      <c r="E123">
-        <v>-1</v>
+      <c r="E123" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>3881</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="G123" t="s">
         <v>5345</v>
       </c>
       <c r="H123">
         <v>-1</v>
       </c>
-      <c r="I123" s="1" t="s">
+      <c r="I123" t="s">
         <v>5741</v>
       </c>
-      <c r="J123" s="1" t="s">
+      <c r="J123" t="s">
+        <v>6129</v>
+      </c>
+      <c r="K123" t="s">
         <v>5742</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L123" t="s">
+        <v>6130</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>933</v>
       </c>
@@ -68036,26 +69796,32 @@
       <c r="D124">
         <v>1515197</v>
       </c>
-      <c r="E124">
-        <v>-1</v>
+      <c r="E124" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>3884</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="G124" t="s">
         <v>5345</v>
       </c>
       <c r="H124">
         <v>-1</v>
       </c>
-      <c r="I124" s="1" t="s">
+      <c r="I124" t="s">
         <v>5824</v>
       </c>
-      <c r="J124" s="1" t="s">
+      <c r="J124" t="s">
+        <v>6131</v>
+      </c>
+      <c r="K124" t="s">
         <v>5825</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L124" t="s">
+        <v>6132</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>934</v>
       </c>
@@ -68068,26 +69834,32 @@
       <c r="D125">
         <v>186347</v>
       </c>
-      <c r="E125">
-        <v>1</v>
+      <c r="E125" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>3887</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="G125" t="s">
         <v>5345</v>
       </c>
       <c r="H125">
         <v>-1</v>
       </c>
-      <c r="I125" s="1" t="s">
+      <c r="I125" t="s">
         <v>5809</v>
       </c>
-      <c r="J125" s="1" t="s">
+      <c r="J125" t="s">
+        <v>6133</v>
+      </c>
+      <c r="K125" t="s">
         <v>5810</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L125" t="s">
+        <v>6134</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>935</v>
       </c>
@@ -68100,26 +69872,32 @@
       <c r="D126">
         <v>897033</v>
       </c>
-      <c r="E126">
-        <v>-1</v>
+      <c r="E126" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>3890</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="G126" t="s">
         <v>5345</v>
       </c>
       <c r="H126">
         <v>-1</v>
       </c>
-      <c r="I126" s="1" t="s">
+      <c r="I126" t="s">
         <v>5763</v>
       </c>
-      <c r="J126" s="1" t="s">
+      <c r="J126" t="s">
+        <v>6135</v>
+      </c>
+      <c r="K126" t="s">
         <v>5764</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L126" t="s">
+        <v>6136</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>936</v>
       </c>
@@ -68132,26 +69910,32 @@
       <c r="D127">
         <v>3838007</v>
       </c>
-      <c r="E127">
-        <v>1</v>
+      <c r="E127" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>3893</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="G127" t="s">
         <v>5345</v>
       </c>
       <c r="H127">
         <v>-1</v>
       </c>
-      <c r="I127" s="1" t="s">
+      <c r="I127" t="s">
         <v>5458</v>
       </c>
-      <c r="J127" s="1" t="s">
+      <c r="J127" t="s">
+        <v>6137</v>
+      </c>
+      <c r="K127" t="s">
         <v>5459</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L127" t="s">
+        <v>6138</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>937</v>
       </c>
@@ -68164,26 +69948,32 @@
       <c r="D128">
         <v>4837672</v>
       </c>
-      <c r="E128">
-        <v>-1</v>
+      <c r="E128" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>3895</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="G128" t="s">
         <v>5345</v>
       </c>
       <c r="H128">
         <v>-1</v>
       </c>
-      <c r="I128" s="1" t="s">
+      <c r="I128" t="s">
         <v>5449</v>
       </c>
-      <c r="J128" s="1" t="s">
+      <c r="J128" t="s">
+        <v>6139</v>
+      </c>
+      <c r="K128" t="s">
         <v>5450</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L128" t="s">
+        <v>6140</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>938</v>
       </c>
@@ -68196,26 +69986,32 @@
       <c r="D129">
         <v>4824573</v>
       </c>
-      <c r="E129">
-        <v>-1</v>
+      <c r="E129" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>3898</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="G129" t="s">
         <v>5345</v>
       </c>
       <c r="H129">
         <v>-1</v>
       </c>
-      <c r="I129" s="1" t="s">
+      <c r="I129" t="s">
         <v>5836</v>
       </c>
-      <c r="J129" s="1" t="s">
+      <c r="J129" t="s">
+        <v>6141</v>
+      </c>
+      <c r="K129" t="s">
         <v>5837</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L129" t="s">
+        <v>6142</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>939</v>
       </c>
@@ -68228,26 +70024,32 @@
       <c r="D130">
         <v>2705738</v>
       </c>
-      <c r="E130">
-        <v>-1</v>
+      <c r="E130" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>3901</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="G130" t="s">
         <v>5345</v>
       </c>
       <c r="H130">
         <v>-1</v>
       </c>
-      <c r="I130" s="1" t="s">
+      <c r="I130" t="s">
         <v>5827</v>
       </c>
-      <c r="J130" s="1" t="s">
+      <c r="J130" t="s">
+        <v>6143</v>
+      </c>
+      <c r="K130" t="s">
         <v>5828</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L130" t="s">
+        <v>6144</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>940</v>
       </c>
@@ -68260,26 +70062,32 @@
       <c r="D131">
         <v>1671072</v>
       </c>
-      <c r="E131">
-        <v>1</v>
+      <c r="E131" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>3904</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="G131" t="s">
         <v>5345</v>
       </c>
       <c r="H131">
         <v>-1</v>
       </c>
-      <c r="I131" s="1" t="s">
+      <c r="I131" t="s">
         <v>5850</v>
       </c>
-      <c r="J131" s="1" t="s">
+      <c r="J131" t="s">
+        <v>6145</v>
+      </c>
+      <c r="K131" t="s">
         <v>5851</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L131" t="s">
+        <v>6146</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>941</v>
       </c>
@@ -68292,26 +70100,32 @@
       <c r="D132">
         <v>425715</v>
       </c>
-      <c r="E132">
-        <v>-1</v>
+      <c r="E132" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>3909</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="G132" t="s">
         <v>5358</v>
       </c>
       <c r="H132">
         <v>-1</v>
       </c>
-      <c r="I132" s="1" t="s">
+      <c r="I132" t="s">
         <v>5830</v>
       </c>
-      <c r="J132" s="1" t="s">
+      <c r="J132" t="s">
+        <v>6147</v>
+      </c>
+      <c r="K132" t="s">
         <v>5831</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L132" t="s">
+        <v>6148</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>942</v>
       </c>
@@ -68324,26 +70138,32 @@
       <c r="D133">
         <v>1293413</v>
       </c>
-      <c r="E133">
-        <v>-1</v>
+      <c r="E133" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>3912</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="G133" t="s">
         <v>5345</v>
       </c>
       <c r="H133">
         <v>-1</v>
       </c>
-      <c r="I133" s="1" t="s">
+      <c r="I133" t="s">
         <v>5603</v>
       </c>
-      <c r="J133" s="1" t="s">
+      <c r="J133" t="s">
+        <v>6149</v>
+      </c>
+      <c r="K133" t="s">
         <v>5604</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L133" t="s">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>943</v>
       </c>
@@ -68356,26 +70176,32 @@
       <c r="D134">
         <v>1703517</v>
       </c>
-      <c r="E134">
-        <v>1</v>
+      <c r="E134" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>3915</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="G134" t="s">
         <v>5345</v>
       </c>
       <c r="H134">
         <v>-1</v>
       </c>
-      <c r="I134" s="1" t="s">
+      <c r="I134" t="s">
         <v>5631</v>
       </c>
-      <c r="J134" s="1" t="s">
+      <c r="J134" t="s">
+        <v>6151</v>
+      </c>
+      <c r="K134" t="s">
         <v>5632</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L134" t="s">
+        <v>6152</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>944</v>
       </c>
@@ -68388,26 +70214,32 @@
       <c r="D135">
         <v>5031672</v>
       </c>
-      <c r="E135">
-        <v>-1</v>
+      <c r="E135" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>3918</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="G135" t="s">
         <v>5345</v>
       </c>
       <c r="H135">
         <v>-1</v>
       </c>
-      <c r="I135" s="1" t="s">
+      <c r="I135" t="s">
         <v>5383</v>
       </c>
-      <c r="J135" s="1" t="s">
+      <c r="J135" t="s">
+        <v>6153</v>
+      </c>
+      <c r="K135" t="s">
         <v>5384</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L135" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>945</v>
       </c>
@@ -68420,26 +70252,32 @@
       <c r="D136">
         <v>1862291</v>
       </c>
-      <c r="E136">
-        <v>1</v>
+      <c r="E136" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>3921</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="G136" t="s">
         <v>5345</v>
       </c>
       <c r="H136">
         <v>-1</v>
       </c>
-      <c r="I136" s="1" t="s">
+      <c r="I136" t="s">
         <v>5720</v>
       </c>
-      <c r="J136" s="1" t="s">
+      <c r="J136" t="s">
+        <v>6155</v>
+      </c>
+      <c r="K136" t="s">
         <v>5721</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L136" t="s">
+        <v>6156</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>946</v>
       </c>
@@ -68452,26 +70290,32 @@
       <c r="D137">
         <v>36380</v>
       </c>
-      <c r="E137">
-        <v>-1</v>
+      <c r="E137" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>3924</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="G137" t="s">
         <v>5345</v>
       </c>
       <c r="H137">
         <v>-1</v>
       </c>
-      <c r="I137" s="1" t="s">
+      <c r="I137" t="s">
         <v>5794</v>
       </c>
-      <c r="J137" s="1" t="s">
+      <c r="J137" t="s">
+        <v>6157</v>
+      </c>
+      <c r="K137" t="s">
         <v>5795</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L137" t="s">
+        <v>6158</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>947</v>
       </c>
@@ -68484,26 +70328,32 @@
       <c r="D138">
         <v>2186590</v>
       </c>
-      <c r="E138">
-        <v>1</v>
+      <c r="E138" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>3927</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="G138" t="s">
         <v>5345</v>
       </c>
       <c r="H138">
         <v>-1</v>
       </c>
-      <c r="I138" s="1" t="s">
+      <c r="I138" t="s">
         <v>5818</v>
       </c>
-      <c r="J138" s="1" t="s">
+      <c r="J138" t="s">
+        <v>6159</v>
+      </c>
+      <c r="K138" t="s">
         <v>5819</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L138" t="s">
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>948</v>
       </c>
@@ -68516,26 +70366,32 @@
       <c r="D139">
         <v>52546</v>
       </c>
-      <c r="E139">
-        <v>-1</v>
+      <c r="E139" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>3930</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="G139" t="s">
         <v>5345</v>
       </c>
       <c r="H139">
         <v>-1</v>
       </c>
-      <c r="I139" s="1" t="s">
+      <c r="I139" t="s">
         <v>5847</v>
       </c>
-      <c r="J139" s="1" t="s">
+      <c r="J139" t="s">
+        <v>6161</v>
+      </c>
+      <c r="K139" t="s">
         <v>5848</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L139" t="s">
+        <v>6162</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>949</v>
       </c>
@@ -68548,26 +70404,32 @@
       <c r="D140">
         <v>4150553</v>
       </c>
-      <c r="E140">
-        <v>-1</v>
+      <c r="E140" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>3933</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="G140" t="s">
         <v>5345</v>
       </c>
       <c r="H140">
         <v>-1</v>
       </c>
-      <c r="I140" s="1" t="s">
+      <c r="I140" t="s">
         <v>5511</v>
       </c>
-      <c r="J140" s="1" t="s">
+      <c r="J140" t="s">
+        <v>6163</v>
+      </c>
+      <c r="K140" t="s">
         <v>5512</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L140" t="s">
+        <v>6164</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>950</v>
       </c>
@@ -68580,26 +70442,32 @@
       <c r="D141">
         <v>647313</v>
       </c>
-      <c r="E141">
-        <v>-1</v>
+      <c r="E141" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>3936</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="G141" t="s">
         <v>5345</v>
       </c>
       <c r="H141">
         <v>-1</v>
       </c>
-      <c r="I141" s="1" t="s">
+      <c r="I141" t="s">
         <v>5775</v>
       </c>
-      <c r="J141" s="1" t="s">
+      <c r="J141" t="s">
+        <v>6165</v>
+      </c>
+      <c r="K141" t="s">
         <v>5776</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L141" t="s">
+        <v>6166</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>951</v>
       </c>
@@ -68612,26 +70480,32 @@
       <c r="D142">
         <v>1360447</v>
       </c>
-      <c r="E142">
-        <v>1</v>
+      <c r="E142" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>3939</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="G142" t="s">
         <v>5345</v>
       </c>
       <c r="H142">
         <v>-1</v>
       </c>
-      <c r="I142" s="1" t="s">
+      <c r="I142" t="s">
         <v>5618</v>
       </c>
-      <c r="J142" s="1" t="s">
+      <c r="J142" t="s">
+        <v>6167</v>
+      </c>
+      <c r="K142" t="s">
         <v>5619</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L142" t="s">
+        <v>6168</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>952</v>
       </c>
@@ -68644,26 +70518,32 @@
       <c r="D143">
         <v>3976867</v>
       </c>
-      <c r="E143">
-        <v>-1</v>
+      <c r="E143" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>3942</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="G143" t="s">
         <v>5362</v>
       </c>
       <c r="H143">
         <v>-1</v>
       </c>
-      <c r="I143" s="1" t="s">
+      <c r="I143" t="s">
         <v>5363</v>
       </c>
-      <c r="J143" s="1" t="s">
+      <c r="J143" t="s">
+        <v>6169</v>
+      </c>
+      <c r="K143" t="s">
         <v>5364</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L143" t="s">
+        <v>6170</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>953</v>
       </c>
@@ -68676,26 +70556,32 @@
       <c r="D144">
         <v>720057</v>
       </c>
-      <c r="E144">
-        <v>-1</v>
+      <c r="E144" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>3945</v>
       </c>
-      <c r="G144" s="1" t="s">
+      <c r="G144" t="s">
         <v>5517</v>
       </c>
       <c r="H144">
         <v>-1</v>
       </c>
-      <c r="I144" s="1" t="s">
+      <c r="I144" t="s">
         <v>5518</v>
       </c>
-      <c r="J144" s="1" t="s">
+      <c r="J144" t="s">
+        <v>6171</v>
+      </c>
+      <c r="K144" t="s">
         <v>5519</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L144" t="s">
+        <v>6172</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>954</v>
       </c>
@@ -68708,26 +70594,32 @@
       <c r="D145">
         <v>2287969</v>
       </c>
-      <c r="E145">
-        <v>1</v>
+      <c r="E145" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>3948</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="G145" t="s">
         <v>5345</v>
       </c>
       <c r="H145">
         <v>-1</v>
       </c>
-      <c r="I145" s="1" t="s">
+      <c r="I145" t="s">
         <v>5606</v>
       </c>
-      <c r="J145" s="1" t="s">
+      <c r="J145" t="s">
+        <v>6173</v>
+      </c>
+      <c r="K145" t="s">
         <v>5607</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L145" t="s">
+        <v>6174</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>955</v>
       </c>
@@ -68740,26 +70632,32 @@
       <c r="D146">
         <v>74794</v>
       </c>
-      <c r="E146">
-        <v>-1</v>
+      <c r="E146" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>3951</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="G146" t="s">
         <v>5345</v>
       </c>
       <c r="H146">
         <v>-1</v>
       </c>
-      <c r="I146" s="1" t="s">
+      <c r="I146" t="s">
         <v>5860</v>
       </c>
-      <c r="J146" s="1" t="s">
+      <c r="J146" t="s">
+        <v>6175</v>
+      </c>
+      <c r="K146" t="s">
         <v>5861</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L146" t="s">
+        <v>6176</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>956</v>
       </c>
@@ -68772,26 +70670,32 @@
       <c r="D147">
         <v>3537365</v>
       </c>
-      <c r="E147">
-        <v>-1</v>
+      <c r="E147" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="G147" t="s">
         <v>5366</v>
       </c>
       <c r="H147">
         <v>-1</v>
       </c>
-      <c r="I147" s="1" t="s">
+      <c r="I147" t="s">
         <v>5367</v>
       </c>
-      <c r="J147" s="1" t="s">
+      <c r="J147" t="s">
+        <v>6177</v>
+      </c>
+      <c r="K147" t="s">
         <v>5368</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L147" t="s">
+        <v>6178</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>957</v>
       </c>
@@ -68804,26 +70708,32 @@
       <c r="D148">
         <v>189129</v>
       </c>
-      <c r="E148">
-        <v>1</v>
+      <c r="E148" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>3957</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="G148" t="s">
         <v>5495</v>
       </c>
       <c r="H148">
         <v>-1</v>
       </c>
-      <c r="I148" s="1" t="s">
+      <c r="I148" t="s">
         <v>5866</v>
       </c>
-      <c r="J148" s="1" t="s">
+      <c r="J148" t="s">
+        <v>6179</v>
+      </c>
+      <c r="K148" t="s">
         <v>5867</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L148" t="s">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>974</v>
       </c>
@@ -68836,26 +70746,32 @@
       <c r="D149">
         <v>5007527</v>
       </c>
-      <c r="E149">
-        <v>1</v>
+      <c r="E149" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>4007</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="G149" t="s">
         <v>5345</v>
       </c>
       <c r="H149">
         <v>-1</v>
       </c>
-      <c r="I149" s="1" t="s">
+      <c r="I149" t="s">
         <v>5797</v>
       </c>
-      <c r="J149" s="1" t="s">
+      <c r="J149" t="s">
+        <v>6181</v>
+      </c>
+      <c r="K149" t="s">
         <v>5798</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L149" t="s">
+        <v>6182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>1001</v>
       </c>
@@ -68868,26 +70784,32 @@
       <c r="D150">
         <v>438212</v>
       </c>
-      <c r="E150">
-        <v>1</v>
+      <c r="E150" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>5787</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="G150" t="s">
         <v>5345</v>
       </c>
       <c r="H150">
         <v>-1</v>
       </c>
-      <c r="I150" s="1" t="s">
+      <c r="I150" t="s">
         <v>5788</v>
       </c>
-      <c r="J150" s="1" t="s">
+      <c r="J150" t="s">
+        <v>6183</v>
+      </c>
+      <c r="K150" t="s">
         <v>5789</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L150" t="s">
+        <v>6184</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>1003</v>
       </c>
@@ -68900,26 +70822,32 @@
       <c r="D151">
         <v>1928972</v>
       </c>
-      <c r="E151">
-        <v>1</v>
+      <c r="E151" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>4103</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="G151" t="s">
         <v>5345</v>
       </c>
       <c r="H151">
         <v>-1</v>
       </c>
-      <c r="I151" s="1" t="s">
+      <c r="I151" t="s">
         <v>5784</v>
       </c>
-      <c r="J151" s="1" t="s">
+      <c r="J151" t="s">
+        <v>6185</v>
+      </c>
+      <c r="K151" t="s">
         <v>5785</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L151" t="s">
+        <v>6186</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>1019</v>
       </c>
@@ -68932,26 +70860,32 @@
       <c r="D152">
         <v>262348</v>
       </c>
-      <c r="E152">
-        <v>1</v>
+      <c r="E152" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>4193</v>
       </c>
-      <c r="G152" s="1" t="s">
+      <c r="G152" t="s">
         <v>5627</v>
       </c>
       <c r="H152">
         <v>-1</v>
       </c>
-      <c r="I152" s="1" t="s">
+      <c r="I152" t="s">
         <v>5652</v>
       </c>
-      <c r="J152" s="1" t="s">
+      <c r="J152" t="s">
+        <v>6187</v>
+      </c>
+      <c r="K152" t="s">
         <v>5653</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L152" t="s">
+        <v>6188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>1023</v>
       </c>
@@ -68964,26 +70898,32 @@
       <c r="D153">
         <v>1817170</v>
       </c>
-      <c r="E153">
-        <v>1</v>
+      <c r="E153" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>5392</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="G153" t="s">
         <v>5345</v>
       </c>
       <c r="H153">
         <v>-1</v>
       </c>
-      <c r="I153" s="1" t="s">
+      <c r="I153" t="s">
         <v>5393</v>
       </c>
-      <c r="J153" s="1" t="s">
+      <c r="J153" t="s">
+        <v>6189</v>
+      </c>
+      <c r="K153" t="s">
         <v>5394</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L153" t="s">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>1045</v>
       </c>
@@ -68996,26 +70936,32 @@
       <c r="D154">
         <v>4766786</v>
       </c>
-      <c r="E154">
-        <v>-1</v>
+      <c r="E154" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>5481</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="G154" t="s">
         <v>5345</v>
       </c>
       <c r="H154">
         <v>-1</v>
       </c>
-      <c r="I154" s="1" t="s">
+      <c r="I154" t="s">
         <v>5482</v>
       </c>
-      <c r="J154" s="1" t="s">
+      <c r="J154" t="s">
+        <v>6191</v>
+      </c>
+      <c r="K154" t="s">
         <v>5483</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L154" t="s">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>1067</v>
       </c>
@@ -69028,26 +70974,32 @@
       <c r="D155">
         <v>2561654</v>
       </c>
-      <c r="E155">
-        <v>-1</v>
+      <c r="E155" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>4390</v>
       </c>
-      <c r="G155" s="1" t="s">
+      <c r="G155" t="s">
         <v>5345</v>
       </c>
       <c r="H155">
         <v>-1</v>
       </c>
-      <c r="I155" s="1" t="s">
+      <c r="I155" t="s">
         <v>5416</v>
       </c>
-      <c r="J155" s="1" t="s">
+      <c r="J155" t="s">
+        <v>6193</v>
+      </c>
+      <c r="K155" t="s">
         <v>5417</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L155" t="s">
+        <v>6194</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>1073</v>
       </c>
@@ -69060,26 +71012,32 @@
       <c r="D156">
         <v>32925</v>
       </c>
-      <c r="E156">
-        <v>1</v>
+      <c r="E156" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>4401</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="G156" t="s">
         <v>5345</v>
       </c>
       <c r="H156">
         <v>-1</v>
       </c>
-      <c r="I156" s="1" t="s">
+      <c r="I156" t="s">
         <v>5568</v>
       </c>
-      <c r="J156" s="1" t="s">
+      <c r="J156" t="s">
+        <v>6195</v>
+      </c>
+      <c r="K156" t="s">
         <v>5569</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L156" t="s">
+        <v>6196</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>1081</v>
       </c>
@@ -69092,26 +71050,32 @@
       <c r="D157">
         <v>1586032</v>
       </c>
-      <c r="E157">
-        <v>-1</v>
+      <c r="E157" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>4419</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="G157" t="s">
         <v>5403</v>
       </c>
       <c r="H157">
         <v>-1</v>
       </c>
-      <c r="I157" s="1" t="s">
+      <c r="I157" t="s">
         <v>5404</v>
       </c>
-      <c r="J157" s="1" t="s">
+      <c r="J157" t="s">
+        <v>6197</v>
+      </c>
+      <c r="K157" t="s">
         <v>5405</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L157" t="s">
+        <v>6198</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>1091</v>
       </c>
@@ -69124,26 +71088,32 @@
       <c r="D158">
         <v>1675000</v>
       </c>
-      <c r="E158">
-        <v>-1</v>
+      <c r="E158" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>4451</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="G158" t="s">
         <v>5432</v>
       </c>
       <c r="H158">
         <v>-1</v>
       </c>
-      <c r="I158" s="1" t="s">
+      <c r="I158" t="s">
         <v>5433</v>
       </c>
-      <c r="J158" s="1" t="s">
+      <c r="J158" t="s">
+        <v>6199</v>
+      </c>
+      <c r="K158" t="s">
         <v>5434</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L158" t="s">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>1103</v>
       </c>
@@ -69156,26 +71126,32 @@
       <c r="D159">
         <v>6784815</v>
       </c>
-      <c r="E159">
-        <v>-1</v>
+      <c r="E159" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>5319</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="G159" t="s">
         <v>5465</v>
       </c>
       <c r="H159">
         <v>-1</v>
       </c>
-      <c r="I159" s="1" t="s">
+      <c r="I159" t="s">
         <v>5593</v>
       </c>
-      <c r="J159" s="1" t="s">
+      <c r="J159" t="s">
+        <v>6201</v>
+      </c>
+      <c r="K159" t="s">
         <v>5594</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L159" t="s">
+        <v>6202</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>1105</v>
       </c>
@@ -69188,26 +71164,32 @@
       <c r="D160">
         <v>1749162</v>
       </c>
-      <c r="E160">
-        <v>1</v>
+      <c r="E160" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>5596</v>
       </c>
-      <c r="G160" s="1" t="s">
+      <c r="G160" t="s">
         <v>5465</v>
       </c>
       <c r="H160">
         <v>-1</v>
       </c>
-      <c r="I160" s="1" t="s">
+      <c r="I160" t="s">
         <v>5597</v>
       </c>
-      <c r="J160" s="1" t="s">
+      <c r="J160" t="s">
+        <v>6203</v>
+      </c>
+      <c r="K160" t="s">
         <v>5598</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L160" t="s">
+        <v>6204</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>1106</v>
       </c>
@@ -69220,26 +71202,32 @@
       <c r="D161">
         <v>5547378</v>
       </c>
-      <c r="E161">
-        <v>1</v>
+      <c r="E161" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>5589</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="G161" t="s">
         <v>5465</v>
       </c>
       <c r="H161">
         <v>-1</v>
       </c>
-      <c r="I161" s="1" t="s">
+      <c r="I161" t="s">
         <v>5590</v>
       </c>
-      <c r="J161" s="1" t="s">
+      <c r="J161" t="s">
+        <v>6205</v>
+      </c>
+      <c r="K161" t="s">
         <v>5591</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L161" t="s">
+        <v>6206</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>1146</v>
       </c>
@@ -69252,26 +71240,32 @@
       <c r="D162">
         <v>1959108</v>
       </c>
-      <c r="E162">
-        <v>1</v>
+      <c r="E162" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>5324</v>
       </c>
-      <c r="G162" s="1" t="s">
+      <c r="G162" t="s">
         <v>5465</v>
       </c>
       <c r="H162">
         <v>-1</v>
       </c>
-      <c r="I162" s="1" t="s">
+      <c r="I162" t="s">
         <v>5791</v>
       </c>
-      <c r="J162" s="1" t="s">
+      <c r="J162" t="s">
+        <v>6207</v>
+      </c>
+      <c r="K162" t="s">
         <v>5792</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L162" t="s">
+        <v>6208</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>1210</v>
       </c>
@@ -69284,26 +71278,32 @@
       <c r="D163">
         <v>620261</v>
       </c>
-      <c r="E163">
-        <v>1</v>
+      <c r="E163" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>4707</v>
       </c>
-      <c r="G163" s="1" t="s">
+      <c r="G163" t="s">
         <v>5495</v>
       </c>
       <c r="H163">
         <v>-1</v>
       </c>
-      <c r="I163" s="1" t="s">
+      <c r="I163" t="s">
         <v>5766</v>
       </c>
-      <c r="J163" s="1" t="s">
+      <c r="J163" t="s">
+        <v>6209</v>
+      </c>
+      <c r="K163" t="s">
         <v>5767</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L163" t="s">
+        <v>6210</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>1211</v>
       </c>
@@ -69316,26 +71316,32 @@
       <c r="D164">
         <v>43645</v>
       </c>
-      <c r="E164">
-        <v>1</v>
+      <c r="E164" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>4710</v>
       </c>
-      <c r="G164" s="1" t="s">
+      <c r="G164" t="s">
         <v>5495</v>
       </c>
       <c r="H164">
         <v>-1</v>
       </c>
-      <c r="I164" s="1" t="s">
+      <c r="I164" t="s">
         <v>5621</v>
       </c>
-      <c r="J164" s="1" t="s">
+      <c r="J164" t="s">
+        <v>6211</v>
+      </c>
+      <c r="K164" t="s">
         <v>5622</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L164" t="s">
+        <v>6212</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>1216</v>
       </c>
@@ -69348,26 +71354,32 @@
       <c r="D165">
         <v>57785</v>
       </c>
-      <c r="E165">
-        <v>-1</v>
+      <c r="E165" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>4728</v>
       </c>
-      <c r="G165" s="1" t="s">
+      <c r="G165" t="s">
         <v>5495</v>
       </c>
       <c r="H165">
         <v>-1</v>
       </c>
-      <c r="I165" s="1" t="s">
+      <c r="I165" t="s">
         <v>5540</v>
       </c>
-      <c r="J165" s="1" t="s">
+      <c r="J165" t="s">
+        <v>6213</v>
+      </c>
+      <c r="K165" t="s">
         <v>5541</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L165" t="s">
+        <v>6214</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>1219</v>
       </c>
@@ -69380,26 +71392,32 @@
       <c r="D166">
         <v>300053</v>
       </c>
-      <c r="E166">
-        <v>-1</v>
+      <c r="E166" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>4736</v>
       </c>
-      <c r="G166" s="1" t="s">
+      <c r="G166" t="s">
         <v>5358</v>
       </c>
       <c r="H166">
         <v>-1</v>
       </c>
-      <c r="I166" s="1" t="s">
+      <c r="I166" t="s">
         <v>5708</v>
       </c>
-      <c r="J166" s="1" t="s">
+      <c r="J166" t="s">
+        <v>6215</v>
+      </c>
+      <c r="K166" t="s">
         <v>5709</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L166" t="s">
+        <v>6216</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>1221</v>
       </c>
@@ -69412,26 +71430,32 @@
       <c r="D167">
         <v>513096</v>
       </c>
-      <c r="E167">
-        <v>1</v>
+      <c r="E167" s="1" t="s">
+        <v>5890</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>5328</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="G167" t="s">
         <v>5465</v>
       </c>
       <c r="H167">
         <v>-1</v>
       </c>
-      <c r="I167" s="1" t="s">
+      <c r="I167" t="s">
         <v>5612</v>
       </c>
-      <c r="J167" s="1" t="s">
+      <c r="J167" t="s">
+        <v>6217</v>
+      </c>
+      <c r="K167" t="s">
         <v>5613</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L167" t="s">
+        <v>6218</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>1232</v>
       </c>
@@ -69444,26 +71468,32 @@
       <c r="D168">
         <v>249762</v>
       </c>
-      <c r="E168">
-        <v>-1</v>
+      <c r="E168" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>5330</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="G168" t="s">
         <v>5465</v>
       </c>
       <c r="H168">
         <v>-1</v>
       </c>
-      <c r="I168" s="1" t="s">
+      <c r="I168" t="s">
         <v>5475</v>
       </c>
-      <c r="J168" s="1" t="s">
+      <c r="J168" t="s">
+        <v>6219</v>
+      </c>
+      <c r="K168" t="s">
         <v>5476</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L168" t="s">
+        <v>6220</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>1268</v>
       </c>
@@ -69476,26 +71506,32 @@
       <c r="D169">
         <v>1442786</v>
       </c>
-      <c r="E169">
-        <v>-1</v>
+      <c r="E169" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>4849</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="G169" t="s">
         <v>5345</v>
       </c>
       <c r="H169">
         <v>-1</v>
       </c>
-      <c r="I169" s="1" t="s">
+      <c r="I169" t="s">
         <v>5508</v>
       </c>
-      <c r="J169" s="1" t="s">
+      <c r="J169" t="s">
+        <v>6221</v>
+      </c>
+      <c r="K169" t="s">
         <v>5509</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L169" t="s">
+        <v>6222</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>1269</v>
       </c>
@@ -69508,29 +71544,32 @@
       <c r="D170">
         <v>4139933</v>
       </c>
-      <c r="E170">
-        <v>-1</v>
+      <c r="E170" s="1" t="s">
+        <v>5885</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>4854</v>
       </c>
-      <c r="G170" s="1" t="s">
+      <c r="G170" t="s">
         <v>5345</v>
       </c>
       <c r="H170">
         <v>-1</v>
       </c>
-      <c r="I170" s="1" t="s">
+      <c r="I170" t="s">
         <v>5436</v>
       </c>
-      <c r="J170" s="1" t="s">
+      <c r="J170" t="s">
+        <v>6223</v>
+      </c>
+      <c r="K170" t="s">
         <v>5437</v>
       </c>
+      <c r="L170" t="s">
+        <v>6224</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J170">
-    <sortCondition ref="A2"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
